--- a/data_fetching/Entsoe/Actual_Production_Hydro_Water_Reservoir.xlsx
+++ b/data_fetching/Entsoe/Actual_Production_Hydro_Water_Reservoir.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B289"/>
+  <dimension ref="A1:B385"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -397,2305 +397,3073 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2">
-        <v>45685</v>
+        <v>45730</v>
       </c>
       <c r="B2">
-        <v>382</v>
+        <v>484</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2">
-        <v>45685.01041666666</v>
+        <v>45730.01041666666</v>
       </c>
       <c r="B3">
-        <v>367</v>
+        <v>476</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2">
-        <v>45685.02083333334</v>
+        <v>45730.02083333334</v>
       </c>
       <c r="B4">
-        <v>369</v>
+        <v>451</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2">
-        <v>45685.03125</v>
+        <v>45730.03125</v>
       </c>
       <c r="B5">
-        <v>369</v>
+        <v>452</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2">
-        <v>45685.04166666666</v>
+        <v>45730.04166666666</v>
       </c>
       <c r="B6">
-        <v>362</v>
+        <v>437</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2">
-        <v>45685.05208333334</v>
+        <v>45730.05208333334</v>
       </c>
       <c r="B7">
-        <v>360</v>
+        <v>435</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2">
-        <v>45685.0625</v>
+        <v>45730.0625</v>
       </c>
       <c r="B8">
-        <v>360</v>
+        <v>434</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2">
-        <v>45685.07291666666</v>
+        <v>45730.07291666666</v>
       </c>
       <c r="B9">
-        <v>358</v>
+        <v>434</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2">
-        <v>45685.08333333334</v>
+        <v>45730.08333333334</v>
       </c>
       <c r="B10">
-        <v>349</v>
+        <v>453</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2">
-        <v>45685.09375</v>
+        <v>45730.09375</v>
       </c>
       <c r="B11">
-        <v>345</v>
+        <v>456</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2">
-        <v>45685.10416666666</v>
+        <v>45730.10416666666</v>
       </c>
       <c r="B12">
-        <v>344</v>
+        <v>484</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2">
-        <v>45685.11458333334</v>
+        <v>45730.11458333334</v>
       </c>
       <c r="B13">
-        <v>343</v>
+        <v>478</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2">
-        <v>45685.125</v>
+        <v>45730.125</v>
       </c>
       <c r="B14">
-        <v>347</v>
+        <v>477</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2">
-        <v>45685.13541666666</v>
+        <v>45730.13541666666</v>
       </c>
       <c r="B15">
-        <v>343</v>
+        <v>497</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2">
-        <v>45685.14583333334</v>
+        <v>45730.14583333334</v>
       </c>
       <c r="B16">
-        <v>344</v>
+        <v>569</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2">
-        <v>45685.15625</v>
+        <v>45730.15625</v>
       </c>
       <c r="B17">
-        <v>345</v>
+        <v>570</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2">
-        <v>45685.16666666666</v>
+        <v>45730.16666666666</v>
       </c>
       <c r="B18">
-        <v>366</v>
+        <v>440</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2">
-        <v>45685.17708333334</v>
+        <v>45730.17708333334</v>
       </c>
       <c r="B19">
-        <v>372</v>
+        <v>413</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2">
-        <v>45685.1875</v>
+        <v>45730.1875</v>
       </c>
       <c r="B20">
-        <v>373</v>
+        <v>406</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2">
-        <v>45685.19791666666</v>
+        <v>45730.19791666666</v>
       </c>
       <c r="B21">
-        <v>375</v>
+        <v>339</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2">
-        <v>45685.20833333334</v>
+        <v>45730.20833333334</v>
       </c>
       <c r="B22">
-        <v>383</v>
+        <v>326</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2">
-        <v>45685.21875</v>
+        <v>45730.21875</v>
       </c>
       <c r="B23">
-        <v>399</v>
+        <v>333</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2">
-        <v>45685.22916666666</v>
+        <v>45730.22916666666</v>
       </c>
       <c r="B24">
-        <v>414</v>
+        <v>339</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2">
-        <v>45685.23958333334</v>
+        <v>45730.23958333334</v>
       </c>
       <c r="B25">
-        <v>443</v>
+        <v>356</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2">
-        <v>45685.25</v>
+        <v>45730.25</v>
       </c>
       <c r="B26">
-        <v>450</v>
+        <v>465</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2">
-        <v>45685.26041666666</v>
+        <v>45730.26041666666</v>
       </c>
       <c r="B27">
-        <v>448</v>
+        <v>470</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2">
-        <v>45685.27083333334</v>
+        <v>45730.27083333334</v>
       </c>
       <c r="B28">
-        <v>440</v>
+        <v>474</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2">
-        <v>45685.28125</v>
+        <v>45730.28125</v>
       </c>
       <c r="B29">
-        <v>487</v>
+        <v>470</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2">
-        <v>45685.29166666666</v>
+        <v>45730.29166666666</v>
       </c>
       <c r="B30">
-        <v>440</v>
+        <v>530</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2">
-        <v>45685.30208333334</v>
+        <v>45730.30208333334</v>
       </c>
       <c r="B31">
-        <v>442</v>
+        <v>526</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2">
-        <v>45685.3125</v>
+        <v>45730.3125</v>
       </c>
       <c r="B32">
-        <v>440</v>
+        <v>531</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2">
-        <v>45685.32291666666</v>
+        <v>45730.32291666666</v>
       </c>
       <c r="B33">
-        <v>436</v>
+        <v>523</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2">
-        <v>45685.33333333334</v>
+        <v>45730.33333333334</v>
       </c>
       <c r="B34">
-        <v>359</v>
+        <v>375</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="2">
-        <v>45685.34375</v>
+        <v>45730.34375</v>
       </c>
       <c r="B35">
-        <v>357</v>
+        <v>316</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="2">
-        <v>45685.35416666666</v>
+        <v>45730.35416666666</v>
       </c>
       <c r="B36">
-        <v>355</v>
+        <v>322</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="2">
-        <v>45685.36458333334</v>
+        <v>45730.36458333334</v>
       </c>
       <c r="B37">
-        <v>361</v>
+        <v>331</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="2">
-        <v>45685.375</v>
+        <v>45730.375</v>
       </c>
       <c r="B38">
-        <v>262</v>
+        <v>355</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="2">
-        <v>45685.38541666666</v>
+        <v>45730.38541666666</v>
       </c>
       <c r="B39">
-        <v>282</v>
+        <v>479</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="2">
-        <v>45685.39583333334</v>
+        <v>45730.39583333334</v>
       </c>
       <c r="B40">
-        <v>252</v>
+        <v>548</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="2">
-        <v>45685.40625</v>
+        <v>45730.40625</v>
       </c>
       <c r="B41">
-        <v>250</v>
+        <v>473</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="2">
-        <v>45685.41666666666</v>
+        <v>45730.41666666666</v>
       </c>
       <c r="B42">
-        <v>308</v>
+        <v>377</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="2">
-        <v>45685.42708333334</v>
+        <v>45730.42708333334</v>
       </c>
       <c r="B43">
-        <v>306</v>
+        <v>359</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="2">
-        <v>45685.4375</v>
+        <v>45730.4375</v>
       </c>
       <c r="B44">
-        <v>304</v>
+        <v>274</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="2">
-        <v>45685.44791666666</v>
+        <v>45730.44791666666</v>
       </c>
       <c r="B45">
-        <v>331</v>
+        <v>334</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="2">
-        <v>45685.45833333334</v>
+        <v>45730.45833333334</v>
       </c>
       <c r="B46">
-        <v>447</v>
+        <v>342</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="2">
-        <v>45685.46875</v>
+        <v>45730.46875</v>
       </c>
       <c r="B47">
-        <v>456</v>
+        <v>353</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="2">
-        <v>45685.47916666666</v>
+        <v>45730.47916666666</v>
       </c>
       <c r="B48">
-        <v>486</v>
+        <v>367</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="2">
-        <v>45685.48958333334</v>
+        <v>45730.48958333334</v>
       </c>
       <c r="B49">
-        <v>487</v>
+        <v>391</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="2">
-        <v>45685.5</v>
+        <v>45730.5</v>
       </c>
       <c r="B50">
-        <v>488</v>
+        <v>442</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="2">
-        <v>45685.51041666666</v>
+        <v>45730.51041666666</v>
       </c>
       <c r="B51">
-        <v>489</v>
+        <v>451</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="2">
-        <v>45685.52083333334</v>
+        <v>45730.52083333334</v>
       </c>
       <c r="B52">
-        <v>488</v>
+        <v>450</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="2">
-        <v>45685.53125</v>
+        <v>45730.53125</v>
       </c>
       <c r="B53">
-        <v>483</v>
+        <v>451</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="2">
-        <v>45685.54166666666</v>
+        <v>45730.54166666666</v>
       </c>
       <c r="B54">
-        <v>485</v>
+        <v>420</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="2">
-        <v>45685.55208333334</v>
+        <v>45730.55208333334</v>
       </c>
       <c r="B55">
-        <v>490</v>
+        <v>437</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="2">
-        <v>45685.5625</v>
+        <v>45730.5625</v>
       </c>
       <c r="B56">
-        <v>492</v>
+        <v>441</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="2">
-        <v>45685.57291666666</v>
+        <v>45730.57291666666</v>
       </c>
       <c r="B57">
-        <v>498</v>
+        <v>589</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="2">
-        <v>45685.58333333334</v>
+        <v>45730.58333333334</v>
       </c>
       <c r="B58">
-        <v>552</v>
+        <v>697</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="2">
-        <v>45685.59375</v>
+        <v>45730.59375</v>
       </c>
       <c r="B59">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="2">
-        <v>45685.60416666666</v>
+        <v>45730.60416666666</v>
       </c>
       <c r="B60">
-        <v>550</v>
+        <v>525</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="2">
-        <v>45685.61458333334</v>
+        <v>45730.61458333334</v>
       </c>
       <c r="B61">
-        <v>477</v>
+        <v>536</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="2">
-        <v>45685.625</v>
+        <v>45730.625</v>
       </c>
       <c r="B62">
-        <v>492</v>
+        <v>639</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="2">
-        <v>45685.63541666666</v>
+        <v>45730.63541666666</v>
       </c>
       <c r="B63">
-        <v>500</v>
+        <v>657</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="2">
-        <v>45685.64583333334</v>
+        <v>45730.64583333334</v>
       </c>
       <c r="B64">
-        <v>499</v>
+        <v>638</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="2">
-        <v>45685.65625</v>
+        <v>45730.65625</v>
       </c>
       <c r="B65">
-        <v>515</v>
+        <v>654</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="2">
-        <v>45685.66666666666</v>
+        <v>45730.66666666666</v>
       </c>
       <c r="B66">
-        <v>552</v>
+        <v>689</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="2">
-        <v>45685.67708333334</v>
+        <v>45730.67708333334</v>
       </c>
       <c r="B67">
-        <v>553</v>
+        <v>672</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="2">
-        <v>45685.6875</v>
+        <v>45730.6875</v>
       </c>
       <c r="B68">
-        <v>553</v>
+        <v>670</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="2">
-        <v>45685.69791666666</v>
+        <v>45730.69791666666</v>
       </c>
       <c r="B69">
-        <v>555</v>
+        <v>673</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="2">
-        <v>45685.70833333334</v>
+        <v>45730.70833333334</v>
       </c>
       <c r="B70">
-        <v>462</v>
+        <v>700</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="2">
-        <v>45685.71875</v>
+        <v>45730.71875</v>
       </c>
       <c r="B71">
-        <v>462</v>
+        <v>709</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="2">
-        <v>45685.72916666666</v>
+        <v>45730.72916666666</v>
       </c>
       <c r="B72">
-        <v>461</v>
+        <v>708</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="2">
-        <v>45685.73958333334</v>
+        <v>45730.73958333334</v>
       </c>
       <c r="B73">
-        <v>470</v>
+        <v>704</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="2">
-        <v>45685.75</v>
+        <v>45730.75</v>
       </c>
       <c r="B74">
-        <v>510</v>
+        <v>735</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="2">
-        <v>45685.76041666666</v>
+        <v>45730.76041666666</v>
       </c>
       <c r="B75">
-        <v>508</v>
+        <v>735</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="2">
-        <v>45685.77083333334</v>
+        <v>45730.77083333334</v>
       </c>
       <c r="B76">
-        <v>507</v>
+        <v>737</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="2">
-        <v>45685.78125</v>
+        <v>45730.78125</v>
       </c>
       <c r="B77">
-        <v>506</v>
+        <v>737</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="2">
-        <v>45685.79166666666</v>
+        <v>45730.79166666666</v>
       </c>
       <c r="B78">
-        <v>472</v>
+        <v>695</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="2">
-        <v>45685.80208333334</v>
+        <v>45730.80208333334</v>
       </c>
       <c r="B79">
-        <v>470</v>
+        <v>686</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="2">
-        <v>45685.8125</v>
+        <v>45730.8125</v>
       </c>
       <c r="B80">
-        <v>470</v>
+        <v>682</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="2">
-        <v>45685.82291666666</v>
+        <v>45730.82291666666</v>
       </c>
       <c r="B81">
-        <v>472</v>
+        <v>685</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="2">
-        <v>45685.83333333334</v>
+        <v>45730.83333333334</v>
       </c>
       <c r="B82">
-        <v>464</v>
+        <v>690</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="2">
-        <v>45685.84375</v>
+        <v>45730.84375</v>
       </c>
       <c r="B83">
-        <v>467</v>
+        <v>642</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="2">
-        <v>45685.85416666666</v>
+        <v>45730.85416666666</v>
       </c>
       <c r="B84">
-        <v>461</v>
+        <v>644</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="2">
-        <v>45685.86458333334</v>
+        <v>45730.86458333334</v>
       </c>
       <c r="B85">
-        <v>457</v>
+        <v>653</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="2">
-        <v>45685.875</v>
+        <v>45730.875</v>
       </c>
       <c r="B86">
-        <v>384</v>
+        <v>615</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="2">
-        <v>45685.88541666666</v>
+        <v>45730.88541666666</v>
       </c>
       <c r="B87">
-        <v>382</v>
+        <v>625</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="2">
-        <v>45685.89583333334</v>
+        <v>45730.89583333334</v>
       </c>
       <c r="B88">
-        <v>381</v>
+        <v>624</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="2">
-        <v>45685.90625</v>
+        <v>45730.90625</v>
       </c>
       <c r="B89">
-        <v>380</v>
+        <v>616</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="2">
-        <v>45685.91666666666</v>
+        <v>45730.91666666666</v>
       </c>
       <c r="B90">
-        <v>337</v>
+        <v>518</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="2">
-        <v>45685.92708333334</v>
+        <v>45730.92708333334</v>
       </c>
       <c r="B91">
-        <v>334</v>
+        <v>507</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="2">
-        <v>45685.9375</v>
+        <v>45730.9375</v>
       </c>
       <c r="B92">
-        <v>335</v>
+        <v>501</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="2">
-        <v>45685.94791666666</v>
+        <v>45730.94791666666</v>
       </c>
       <c r="B93">
-        <v>356</v>
+        <v>500</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="2">
-        <v>45685.95833333334</v>
+        <v>45730.95833333334</v>
       </c>
       <c r="B94">
-        <v>489</v>
+        <v>433</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="2">
-        <v>45685.96875</v>
+        <v>45730.96875</v>
       </c>
       <c r="B95">
-        <v>485</v>
+        <v>429</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="2">
-        <v>45685.97916666666</v>
+        <v>45730.97916666666</v>
       </c>
       <c r="B96">
-        <v>486</v>
+        <v>431</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="2">
-        <v>45685.98958333334</v>
+        <v>45730.98958333334</v>
       </c>
       <c r="B97">
-        <v>487</v>
+        <v>433</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" s="2">
-        <v>45686</v>
+        <v>45731</v>
       </c>
       <c r="B98">
-        <v>427</v>
+        <v>405</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" s="2">
-        <v>45686.01041666666</v>
+        <v>45731.01041666666</v>
       </c>
       <c r="B99">
-        <v>406</v>
+        <v>413</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" s="2">
-        <v>45686.02083333334</v>
+        <v>45731.02083333334</v>
       </c>
       <c r="B100">
-        <v>406</v>
+        <v>477</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" s="2">
-        <v>45686.03125</v>
+        <v>45731.03125</v>
       </c>
       <c r="B101">
-        <v>405</v>
+        <v>487</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" s="2">
-        <v>45686.04166666666</v>
+        <v>45731.04166666666</v>
       </c>
       <c r="B102">
-        <v>429</v>
+        <v>491</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" s="2">
-        <v>45686.05208333334</v>
+        <v>45731.05208333334</v>
       </c>
       <c r="B103">
-        <v>437</v>
+        <v>486</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" s="2">
-        <v>45686.0625</v>
+        <v>45731.0625</v>
       </c>
       <c r="B104">
-        <v>443</v>
+        <v>469</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" s="2">
-        <v>45686.07291666666</v>
+        <v>45731.07291666666</v>
       </c>
       <c r="B105">
-        <v>433</v>
+        <v>451</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" s="2">
-        <v>45686.08333333334</v>
+        <v>45731.08333333334</v>
       </c>
       <c r="B106">
-        <v>446</v>
+        <v>396</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" s="2">
-        <v>45686.09375</v>
+        <v>45731.09375</v>
       </c>
       <c r="B107">
-        <v>440</v>
+        <v>391</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" s="2">
-        <v>45686.10416666666</v>
+        <v>45731.10416666666</v>
       </c>
       <c r="B108">
-        <v>445</v>
+        <v>379</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" s="2">
-        <v>45686.11458333334</v>
+        <v>45731.11458333334</v>
       </c>
       <c r="B109">
-        <v>403</v>
+        <v>341</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" s="2">
-        <v>45686.125</v>
+        <v>45731.125</v>
       </c>
       <c r="B110">
-        <v>409</v>
+        <v>268</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" s="2">
-        <v>45686.13541666666</v>
+        <v>45731.13541666666</v>
       </c>
       <c r="B111">
-        <v>407</v>
+        <v>266</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112" s="2">
-        <v>45686.14583333334</v>
+        <v>45731.14583333334</v>
       </c>
       <c r="B112">
-        <v>407</v>
+        <v>268</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" s="2">
-        <v>45686.15625</v>
+        <v>45731.15625</v>
       </c>
       <c r="B113">
-        <v>407</v>
+        <v>269</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" s="2">
-        <v>45686.16666666666</v>
+        <v>45731.16666666666</v>
       </c>
       <c r="B114">
-        <v>407</v>
+        <v>272</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" s="2">
-        <v>45686.17708333334</v>
+        <v>45731.17708333334</v>
       </c>
       <c r="B115">
-        <v>410</v>
+        <v>272</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" s="2">
-        <v>45686.1875</v>
+        <v>45731.1875</v>
       </c>
       <c r="B116">
-        <v>411</v>
+        <v>271</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117" s="2">
-        <v>45686.19791666666</v>
+        <v>45731.19791666666</v>
       </c>
       <c r="B117">
-        <v>413</v>
+        <v>280</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" s="2">
-        <v>45686.20833333334</v>
+        <v>45731.20833333334</v>
       </c>
       <c r="B118">
-        <v>378</v>
+        <v>343</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" s="2">
-        <v>45686.21875</v>
+        <v>45731.21875</v>
       </c>
       <c r="B119">
-        <v>381</v>
+        <v>335</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" s="2">
-        <v>45686.22916666666</v>
+        <v>45731.22916666666</v>
       </c>
       <c r="B120">
-        <v>381</v>
+        <v>329</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" s="2">
-        <v>45686.23958333334</v>
+        <v>45731.23958333334</v>
       </c>
       <c r="B121">
-        <v>389</v>
+        <v>327</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" s="2">
-        <v>45686.25</v>
+        <v>45731.25</v>
       </c>
       <c r="B122">
-        <v>434</v>
+        <v>307</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123" s="2">
-        <v>45686.26041666666</v>
+        <v>45731.26041666666</v>
       </c>
       <c r="B123">
-        <v>435</v>
+        <v>308</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" s="2">
-        <v>45686.27083333334</v>
+        <v>45731.27083333334</v>
       </c>
       <c r="B124">
-        <v>436</v>
+        <v>307</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" s="2">
-        <v>45686.28125</v>
+        <v>45731.28125</v>
       </c>
       <c r="B125">
-        <v>440</v>
+        <v>299</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" s="2">
-        <v>45686.29166666666</v>
+        <v>45731.29166666666</v>
       </c>
       <c r="B126">
-        <v>402</v>
+        <v>300</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127" s="2">
-        <v>45686.30208333334</v>
+        <v>45731.30208333334</v>
       </c>
       <c r="B127">
-        <v>403</v>
+        <v>301</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128" s="2">
-        <v>45686.3125</v>
+        <v>45731.3125</v>
       </c>
       <c r="B128">
-        <v>405</v>
+        <v>300</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" s="2">
-        <v>45686.32291666666</v>
+        <v>45731.32291666666</v>
       </c>
       <c r="B129">
-        <v>412</v>
+        <v>300</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" s="2">
-        <v>45686.33333333334</v>
+        <v>45731.33333333334</v>
       </c>
       <c r="B130">
-        <v>391</v>
+        <v>333</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" s="2">
-        <v>45686.34375</v>
+        <v>45731.34375</v>
       </c>
       <c r="B131">
-        <v>247</v>
+        <v>333</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132" s="2">
-        <v>45686.35416666666</v>
+        <v>45731.35416666666</v>
       </c>
       <c r="B132">
-        <v>217</v>
+        <v>394</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" s="2">
-        <v>45686.36458333334</v>
+        <v>45731.36458333334</v>
       </c>
       <c r="B133">
-        <v>221</v>
+        <v>369</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134" s="2">
-        <v>45686.375</v>
+        <v>45731.375</v>
       </c>
       <c r="B134">
-        <v>421</v>
+        <v>391</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135" s="2">
-        <v>45686.38541666666</v>
+        <v>45731.38541666666</v>
       </c>
       <c r="B135">
-        <v>434</v>
+        <v>384</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136" s="2">
-        <v>45686.39583333334</v>
+        <v>45731.39583333334</v>
       </c>
       <c r="B136">
-        <v>361</v>
+        <v>383</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137" s="2">
-        <v>45686.40625</v>
+        <v>45731.40625</v>
       </c>
       <c r="B137">
-        <v>367</v>
+        <v>374</v>
       </c>
     </row>
     <row r="138" spans="1:2">
       <c r="A138" s="2">
-        <v>45686.41666666666</v>
+        <v>45731.41666666666</v>
       </c>
       <c r="B138">
-        <v>432</v>
+        <v>465</v>
       </c>
     </row>
     <row r="139" spans="1:2">
       <c r="A139" s="2">
-        <v>45686.42708333334</v>
+        <v>45731.42708333334</v>
       </c>
       <c r="B139">
-        <v>436</v>
+        <v>469</v>
       </c>
     </row>
     <row r="140" spans="1:2">
       <c r="A140" s="2">
-        <v>45686.4375</v>
+        <v>45731.4375</v>
       </c>
       <c r="B140">
-        <v>483</v>
+        <v>699</v>
       </c>
     </row>
     <row r="141" spans="1:2">
       <c r="A141" s="2">
-        <v>45686.44791666666</v>
+        <v>45731.44791666666</v>
       </c>
       <c r="B141">
-        <v>487</v>
+        <v>796</v>
       </c>
     </row>
     <row r="142" spans="1:2">
       <c r="A142" s="2">
-        <v>45686.45833333334</v>
+        <v>45731.45833333334</v>
       </c>
       <c r="B142">
-        <v>420</v>
+        <v>786</v>
       </c>
     </row>
     <row r="143" spans="1:2">
       <c r="A143" s="2">
-        <v>45686.46875</v>
+        <v>45731.46875</v>
       </c>
       <c r="B143">
-        <v>373</v>
+        <v>781</v>
       </c>
     </row>
     <row r="144" spans="1:2">
       <c r="A144" s="2">
-        <v>45686.47916666666</v>
+        <v>45731.47916666666</v>
       </c>
       <c r="B144">
-        <v>371</v>
+        <v>782</v>
       </c>
     </row>
     <row r="145" spans="1:2">
       <c r="A145" s="2">
-        <v>45686.48958333334</v>
+        <v>45731.48958333334</v>
       </c>
       <c r="B145">
-        <v>317</v>
+        <v>791</v>
       </c>
     </row>
     <row r="146" spans="1:2">
       <c r="A146" s="2">
-        <v>45686.5</v>
+        <v>45731.5</v>
       </c>
       <c r="B146">
-        <v>260</v>
+        <v>822</v>
       </c>
     </row>
     <row r="147" spans="1:2">
       <c r="A147" s="2">
-        <v>45686.51041666666</v>
+        <v>45731.51041666666</v>
       </c>
       <c r="B147">
-        <v>257</v>
+        <v>823</v>
       </c>
     </row>
     <row r="148" spans="1:2">
       <c r="A148" s="2">
-        <v>45686.52083333334</v>
+        <v>45731.52083333334</v>
       </c>
       <c r="B148">
-        <v>157</v>
+        <v>822</v>
       </c>
     </row>
     <row r="149" spans="1:2">
       <c r="A149" s="2">
-        <v>45686.53125</v>
+        <v>45731.53125</v>
       </c>
       <c r="B149">
-        <v>160</v>
+        <v>811</v>
       </c>
     </row>
     <row r="150" spans="1:2">
       <c r="A150" s="2">
-        <v>45686.54166666666</v>
+        <v>45731.54166666666</v>
       </c>
       <c r="B150">
-        <v>238</v>
+        <v>776</v>
       </c>
     </row>
     <row r="151" spans="1:2">
       <c r="A151" s="2">
-        <v>45686.55208333334</v>
+        <v>45731.55208333334</v>
       </c>
       <c r="B151">
-        <v>240</v>
+        <v>642</v>
       </c>
     </row>
     <row r="152" spans="1:2">
       <c r="A152" s="2">
-        <v>45686.5625</v>
+        <v>45731.5625</v>
       </c>
       <c r="B152">
-        <v>242</v>
+        <v>474</v>
       </c>
     </row>
     <row r="153" spans="1:2">
       <c r="A153" s="2">
-        <v>45686.57291666666</v>
+        <v>45731.57291666666</v>
       </c>
       <c r="B153">
-        <v>450</v>
+        <v>461</v>
       </c>
     </row>
     <row r="154" spans="1:2">
       <c r="A154" s="2">
-        <v>45686.58333333334</v>
+        <v>45731.58333333334</v>
       </c>
       <c r="B154">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="155" spans="1:2">
       <c r="A155" s="2">
-        <v>45686.59375</v>
+        <v>45731.59375</v>
       </c>
       <c r="B155">
-        <v>492</v>
+        <v>471</v>
       </c>
     </row>
     <row r="156" spans="1:2">
       <c r="A156" s="2">
-        <v>45686.60416666666</v>
+        <v>45731.60416666666</v>
       </c>
       <c r="B156">
-        <v>515</v>
+        <v>471</v>
       </c>
     </row>
     <row r="157" spans="1:2">
       <c r="A157" s="2">
-        <v>45686.61458333334</v>
+        <v>45731.61458333334</v>
       </c>
       <c r="B157">
-        <v>547</v>
+        <v>491</v>
       </c>
     </row>
     <row r="158" spans="1:2">
       <c r="A158" s="2">
-        <v>45686.625</v>
+        <v>45731.625</v>
       </c>
       <c r="B158">
-        <v>507</v>
+        <v>650</v>
       </c>
     </row>
     <row r="159" spans="1:2">
       <c r="A159" s="2">
-        <v>45686.63541666666</v>
+        <v>45731.63541666666</v>
       </c>
       <c r="B159">
-        <v>512</v>
+        <v>645</v>
       </c>
     </row>
     <row r="160" spans="1:2">
       <c r="A160" s="2">
-        <v>45686.64583333334</v>
+        <v>45731.64583333334</v>
       </c>
       <c r="B160">
-        <v>503</v>
+        <v>646</v>
       </c>
     </row>
     <row r="161" spans="1:2">
       <c r="A161" s="2">
-        <v>45686.65625</v>
+        <v>45731.65625</v>
       </c>
       <c r="B161">
-        <v>504</v>
+        <v>600</v>
       </c>
     </row>
     <row r="162" spans="1:2">
       <c r="A162" s="2">
-        <v>45686.66666666666</v>
+        <v>45731.66666666666</v>
       </c>
       <c r="B162">
-        <v>509</v>
+        <v>447</v>
       </c>
     </row>
     <row r="163" spans="1:2">
       <c r="A163" s="2">
-        <v>45686.67708333334</v>
+        <v>45731.67708333334</v>
       </c>
       <c r="B163">
-        <v>511</v>
+        <v>445</v>
       </c>
     </row>
     <row r="164" spans="1:2">
       <c r="A164" s="2">
-        <v>45686.6875</v>
+        <v>45731.6875</v>
       </c>
       <c r="B164">
-        <v>502</v>
+        <v>390</v>
       </c>
     </row>
     <row r="165" spans="1:2">
       <c r="A165" s="2">
-        <v>45686.69791666666</v>
+        <v>45731.69791666666</v>
       </c>
       <c r="B165">
-        <v>505</v>
+        <v>372</v>
       </c>
     </row>
     <row r="166" spans="1:2">
       <c r="A166" s="2">
-        <v>45686.70833333334</v>
+        <v>45731.70833333334</v>
       </c>
       <c r="B166">
-        <v>489</v>
+        <v>445</v>
       </c>
     </row>
     <row r="167" spans="1:2">
       <c r="A167" s="2">
-        <v>45686.71875</v>
+        <v>45731.71875</v>
       </c>
       <c r="B167">
-        <v>486</v>
+        <v>451</v>
       </c>
     </row>
     <row r="168" spans="1:2">
       <c r="A168" s="2">
-        <v>45686.72916666666</v>
+        <v>45731.72916666666</v>
       </c>
       <c r="B168">
-        <v>489</v>
+        <v>451</v>
       </c>
     </row>
     <row r="169" spans="1:2">
       <c r="A169" s="2">
-        <v>45686.73958333334</v>
+        <v>45731.73958333334</v>
       </c>
       <c r="B169">
-        <v>497</v>
+        <v>453</v>
       </c>
     </row>
     <row r="170" spans="1:2">
       <c r="A170" s="2">
-        <v>45686.75</v>
+        <v>45731.75</v>
       </c>
       <c r="B170">
-        <v>533</v>
+        <v>478</v>
       </c>
     </row>
     <row r="171" spans="1:2">
       <c r="A171" s="2">
-        <v>45686.76041666666</v>
+        <v>45731.76041666666</v>
       </c>
       <c r="B171">
-        <v>536</v>
+        <v>500</v>
       </c>
     </row>
     <row r="172" spans="1:2">
       <c r="A172" s="2">
-        <v>45686.77083333334</v>
+        <v>45731.77083333334</v>
       </c>
       <c r="B172">
-        <v>542</v>
+        <v>536</v>
       </c>
     </row>
     <row r="173" spans="1:2">
       <c r="A173" s="2">
-        <v>45686.78125</v>
+        <v>45731.78125</v>
       </c>
       <c r="B173">
-        <v>545</v>
+        <v>508</v>
       </c>
     </row>
     <row r="174" spans="1:2">
       <c r="A174" s="2">
-        <v>45686.79166666666</v>
+        <v>45731.79166666666</v>
       </c>
       <c r="B174">
-        <v>549</v>
+        <v>474</v>
       </c>
     </row>
     <row r="175" spans="1:2">
       <c r="A175" s="2">
-        <v>45686.80208333334</v>
+        <v>45731.80208333334</v>
       </c>
       <c r="B175">
-        <v>552</v>
+        <v>462</v>
       </c>
     </row>
     <row r="176" spans="1:2">
       <c r="A176" s="2">
-        <v>45686.8125</v>
+        <v>45731.8125</v>
       </c>
       <c r="B176">
-        <v>554</v>
+        <v>448</v>
       </c>
     </row>
     <row r="177" spans="1:2">
       <c r="A177" s="2">
-        <v>45686.82291666666</v>
+        <v>45731.82291666666</v>
       </c>
       <c r="B177">
-        <v>551</v>
+        <v>464</v>
       </c>
     </row>
     <row r="178" spans="1:2">
       <c r="A178" s="2">
-        <v>45686.83333333334</v>
+        <v>45731.83333333334</v>
       </c>
       <c r="B178">
-        <v>549</v>
+        <v>440</v>
       </c>
     </row>
     <row r="179" spans="1:2">
       <c r="A179" s="2">
-        <v>45686.84375</v>
+        <v>45731.84375</v>
       </c>
       <c r="B179">
-        <v>557</v>
+        <v>434</v>
       </c>
     </row>
     <row r="180" spans="1:2">
       <c r="A180" s="2">
-        <v>45686.85416666666</v>
+        <v>45731.85416666666</v>
       </c>
       <c r="B180">
-        <v>523</v>
+        <v>432</v>
       </c>
     </row>
     <row r="181" spans="1:2">
       <c r="A181" s="2">
-        <v>45686.86458333334</v>
+        <v>45731.86458333334</v>
       </c>
       <c r="B181">
-        <v>523</v>
+        <v>454</v>
       </c>
     </row>
     <row r="182" spans="1:2">
       <c r="A182" s="2">
-        <v>45686.875</v>
+        <v>45731.875</v>
       </c>
       <c r="B182">
-        <v>512</v>
+        <v>383</v>
       </c>
     </row>
     <row r="183" spans="1:2">
       <c r="A183" s="2">
-        <v>45686.88541666666</v>
+        <v>45731.88541666666</v>
       </c>
       <c r="B183">
-        <v>508</v>
+        <v>381</v>
       </c>
     </row>
     <row r="184" spans="1:2">
       <c r="A184" s="2">
-        <v>45686.89583333334</v>
+        <v>45731.89583333334</v>
       </c>
       <c r="B184">
-        <v>508</v>
+        <v>384</v>
       </c>
     </row>
     <row r="185" spans="1:2">
       <c r="A185" s="2">
-        <v>45686.90625</v>
+        <v>45731.90625</v>
       </c>
       <c r="B185">
-        <v>503</v>
+        <v>387</v>
       </c>
     </row>
     <row r="186" spans="1:2">
       <c r="A186" s="2">
-        <v>45686.91666666666</v>
+        <v>45731.91666666666</v>
       </c>
       <c r="B186">
-        <v>440</v>
+        <v>424</v>
       </c>
     </row>
     <row r="187" spans="1:2">
       <c r="A187" s="2">
-        <v>45686.92708333334</v>
+        <v>45731.92708333334</v>
       </c>
       <c r="B187">
-        <v>426</v>
+        <v>374</v>
       </c>
     </row>
     <row r="188" spans="1:2">
       <c r="A188" s="2">
-        <v>45686.9375</v>
+        <v>45731.9375</v>
       </c>
       <c r="B188">
-        <v>426</v>
+        <v>393</v>
       </c>
     </row>
     <row r="189" spans="1:2">
       <c r="A189" s="2">
-        <v>45686.94791666666</v>
+        <v>45731.94791666666</v>
       </c>
       <c r="B189">
-        <v>428</v>
+        <v>374</v>
       </c>
     </row>
     <row r="190" spans="1:2">
       <c r="A190" s="2">
-        <v>45686.95833333334</v>
+        <v>45731.95833333334</v>
       </c>
       <c r="B190">
-        <v>500</v>
+        <v>338</v>
       </c>
     </row>
     <row r="191" spans="1:2">
       <c r="A191" s="2">
-        <v>45686.96875</v>
+        <v>45731.96875</v>
       </c>
       <c r="B191">
-        <v>556</v>
+        <v>332</v>
       </c>
     </row>
     <row r="192" spans="1:2">
       <c r="A192" s="2">
-        <v>45686.97916666666</v>
+        <v>45731.97916666666</v>
       </c>
       <c r="B192">
-        <v>557</v>
+        <v>333</v>
       </c>
     </row>
     <row r="193" spans="1:2">
       <c r="A193" s="2">
-        <v>45686.98958333334</v>
+        <v>45731.98958333334</v>
       </c>
       <c r="B193">
-        <v>553</v>
+        <v>361</v>
       </c>
     </row>
     <row r="194" spans="1:2">
       <c r="A194" s="2">
-        <v>45687</v>
+        <v>45732</v>
       </c>
       <c r="B194">
-        <v>460</v>
+        <v>346</v>
       </c>
     </row>
     <row r="195" spans="1:2">
       <c r="A195" s="2">
-        <v>45687.01041666666</v>
+        <v>45732.01041666666</v>
       </c>
       <c r="B195">
-        <v>453</v>
+        <v>337</v>
       </c>
     </row>
     <row r="196" spans="1:2">
       <c r="A196" s="2">
-        <v>45687.02083333334</v>
+        <v>45732.02083333334</v>
       </c>
       <c r="B196">
-        <v>453</v>
+        <v>335</v>
       </c>
     </row>
     <row r="197" spans="1:2">
       <c r="A197" s="2">
-        <v>45687.03125</v>
+        <v>45732.03125</v>
       </c>
       <c r="B197">
-        <v>439</v>
+        <v>333</v>
       </c>
     </row>
     <row r="198" spans="1:2">
       <c r="A198" s="2">
-        <v>45687.04166666666</v>
+        <v>45732.04166666666</v>
       </c>
       <c r="B198">
-        <v>387</v>
+        <v>326</v>
       </c>
     </row>
     <row r="199" spans="1:2">
       <c r="A199" s="2">
-        <v>45687.05208333334</v>
+        <v>45732.05208333334</v>
       </c>
       <c r="B199">
-        <v>385</v>
+        <v>321</v>
       </c>
     </row>
     <row r="200" spans="1:2">
       <c r="A200" s="2">
-        <v>45687.0625</v>
+        <v>45732.0625</v>
       </c>
       <c r="B200">
-        <v>385</v>
+        <v>321</v>
       </c>
     </row>
     <row r="201" spans="1:2">
       <c r="A201" s="2">
-        <v>45687.07291666666</v>
+        <v>45732.07291666666</v>
       </c>
       <c r="B201">
-        <v>384</v>
+        <v>322</v>
       </c>
     </row>
     <row r="202" spans="1:2">
       <c r="A202" s="2">
-        <v>45687.08333333334</v>
+        <v>45732.08333333334</v>
       </c>
       <c r="B202">
-        <v>384</v>
+        <v>337</v>
       </c>
     </row>
     <row r="203" spans="1:2">
       <c r="A203" s="2">
-        <v>45687.09375</v>
+        <v>45732.09375</v>
       </c>
       <c r="B203">
-        <v>385</v>
+        <v>336</v>
       </c>
     </row>
     <row r="204" spans="1:2">
       <c r="A204" s="2">
-        <v>45687.10416666666</v>
+        <v>45732.10416666666</v>
       </c>
       <c r="B204">
-        <v>399</v>
+        <v>337</v>
       </c>
     </row>
     <row r="205" spans="1:2">
       <c r="A205" s="2">
-        <v>45687.11458333334</v>
+        <v>45732.11458333334</v>
       </c>
       <c r="B205">
-        <v>399</v>
+        <v>323</v>
       </c>
     </row>
     <row r="206" spans="1:2">
       <c r="A206" s="2">
-        <v>45687.125</v>
+        <v>45732.125</v>
       </c>
       <c r="B206">
-        <v>399</v>
+        <v>326</v>
       </c>
     </row>
     <row r="207" spans="1:2">
       <c r="A207" s="2">
-        <v>45687.13541666666</v>
+        <v>45732.13541666666</v>
       </c>
       <c r="B207">
-        <v>399</v>
+        <v>335</v>
       </c>
     </row>
     <row r="208" spans="1:2">
       <c r="A208" s="2">
-        <v>45687.14583333334</v>
+        <v>45732.14583333334</v>
       </c>
       <c r="B208">
-        <v>399</v>
+        <v>334</v>
       </c>
     </row>
     <row r="209" spans="1:2">
       <c r="A209" s="2">
-        <v>45687.15625</v>
+        <v>45732.15625</v>
       </c>
       <c r="B209">
-        <v>399</v>
+        <v>331</v>
       </c>
     </row>
     <row r="210" spans="1:2">
       <c r="A210" s="2">
-        <v>45687.16666666666</v>
+        <v>45732.16666666666</v>
       </c>
       <c r="B210">
-        <v>399</v>
+        <v>356</v>
       </c>
     </row>
     <row r="211" spans="1:2">
       <c r="A211" s="2">
-        <v>45687.17708333334</v>
+        <v>45732.17708333334</v>
       </c>
       <c r="B211">
-        <v>398</v>
+        <v>360</v>
       </c>
     </row>
     <row r="212" spans="1:2">
       <c r="A212" s="2">
-        <v>45687.1875</v>
+        <v>45732.1875</v>
       </c>
       <c r="B212">
-        <v>399</v>
+        <v>359</v>
       </c>
     </row>
     <row r="213" spans="1:2">
       <c r="A213" s="2">
-        <v>45687.19791666666</v>
+        <v>45732.19791666666</v>
       </c>
       <c r="B213">
-        <v>409</v>
+        <v>357</v>
       </c>
     </row>
     <row r="214" spans="1:2">
       <c r="A214" s="2">
-        <v>45687.20833333334</v>
+        <v>45732.20833333334</v>
       </c>
       <c r="B214">
-        <v>481</v>
+        <v>373</v>
       </c>
     </row>
     <row r="215" spans="1:2">
       <c r="A215" s="2">
-        <v>45687.21875</v>
+        <v>45732.21875</v>
       </c>
       <c r="B215">
-        <v>483</v>
+        <v>378</v>
       </c>
     </row>
     <row r="216" spans="1:2">
       <c r="A216" s="2">
-        <v>45687.22916666666</v>
+        <v>45732.22916666666</v>
       </c>
       <c r="B216">
-        <v>485</v>
+        <v>372</v>
       </c>
     </row>
     <row r="217" spans="1:2">
       <c r="A217" s="2">
-        <v>45687.23958333334</v>
+        <v>45732.23958333334</v>
       </c>
       <c r="B217">
-        <v>488</v>
+        <v>374</v>
       </c>
     </row>
     <row r="218" spans="1:2">
       <c r="A218" s="2">
-        <v>45687.25</v>
+        <v>45732.25</v>
       </c>
       <c r="B218">
-        <v>490</v>
+        <v>298</v>
       </c>
     </row>
     <row r="219" spans="1:2">
       <c r="A219" s="2">
-        <v>45687.26041666666</v>
+        <v>45732.26041666666</v>
       </c>
       <c r="B219">
-        <v>495</v>
+        <v>289</v>
       </c>
     </row>
     <row r="220" spans="1:2">
       <c r="A220" s="2">
-        <v>45687.27083333334</v>
+        <v>45732.27083333334</v>
       </c>
       <c r="B220">
-        <v>519</v>
+        <v>288</v>
       </c>
     </row>
     <row r="221" spans="1:2">
       <c r="A221" s="2">
-        <v>45687.28125</v>
+        <v>45732.28125</v>
       </c>
       <c r="B221">
-        <v>521</v>
+        <v>292</v>
       </c>
     </row>
     <row r="222" spans="1:2">
       <c r="A222" s="2">
-        <v>45687.29166666666</v>
+        <v>45732.29166666666</v>
       </c>
       <c r="B222">
-        <v>511</v>
+        <v>368</v>
       </c>
     </row>
     <row r="223" spans="1:2">
       <c r="A223" s="2">
-        <v>45687.30208333334</v>
+        <v>45732.30208333334</v>
       </c>
       <c r="B223">
-        <v>510</v>
+        <v>392</v>
       </c>
     </row>
     <row r="224" spans="1:2">
       <c r="A224" s="2">
-        <v>45687.3125</v>
+        <v>45732.3125</v>
       </c>
       <c r="B224">
-        <v>533</v>
+        <v>398</v>
       </c>
     </row>
     <row r="225" spans="1:2">
       <c r="A225" s="2">
-        <v>45687.32291666666</v>
+        <v>45732.32291666666</v>
       </c>
       <c r="B225">
-        <v>544</v>
+        <v>407</v>
       </c>
     </row>
     <row r="226" spans="1:2">
       <c r="A226" s="2">
-        <v>45687.33333333334</v>
+        <v>45732.33333333334</v>
       </c>
       <c r="B226">
-        <v>460</v>
+        <v>426</v>
       </c>
     </row>
     <row r="227" spans="1:2">
       <c r="A227" s="2">
-        <v>45687.34375</v>
+        <v>45732.34375</v>
       </c>
       <c r="B227">
-        <v>456</v>
+        <v>400</v>
       </c>
     </row>
     <row r="228" spans="1:2">
       <c r="A228" s="2">
-        <v>45687.35416666666</v>
+        <v>45732.35416666666</v>
       </c>
       <c r="B228">
-        <v>437</v>
+        <v>381</v>
       </c>
     </row>
     <row r="229" spans="1:2">
       <c r="A229" s="2">
-        <v>45687.36458333334</v>
+        <v>45732.36458333334</v>
       </c>
       <c r="B229">
-        <v>441</v>
+        <v>372</v>
       </c>
     </row>
     <row r="230" spans="1:2">
       <c r="A230" s="2">
-        <v>45687.375</v>
+        <v>45732.375</v>
       </c>
       <c r="B230">
-        <v>482</v>
+        <v>395</v>
       </c>
     </row>
     <row r="231" spans="1:2">
       <c r="A231" s="2">
-        <v>45687.38541666666</v>
+        <v>45732.38541666666</v>
       </c>
       <c r="B231">
-        <v>445</v>
+        <v>360</v>
       </c>
     </row>
     <row r="232" spans="1:2">
       <c r="A232" s="2">
-        <v>45687.39583333334</v>
+        <v>45732.39583333334</v>
       </c>
       <c r="B232">
-        <v>443</v>
+        <v>350</v>
       </c>
     </row>
     <row r="233" spans="1:2">
       <c r="A233" s="2">
-        <v>45687.40625</v>
+        <v>45732.40625</v>
       </c>
       <c r="B233">
-        <v>470</v>
+        <v>350</v>
       </c>
     </row>
     <row r="234" spans="1:2">
       <c r="A234" s="2">
-        <v>45687.41666666666</v>
+        <v>45732.41666666666</v>
       </c>
       <c r="B234">
-        <v>0</v>
+        <v>287</v>
       </c>
     </row>
     <row r="235" spans="1:2">
       <c r="A235" s="2">
-        <v>45687.42708333334</v>
+        <v>45732.42708333334</v>
       </c>
       <c r="B235">
-        <v>0</v>
+        <v>291</v>
       </c>
     </row>
     <row r="236" spans="1:2">
       <c r="A236" s="2">
-        <v>45687.4375</v>
+        <v>45732.4375</v>
       </c>
       <c r="B236">
-        <v>0</v>
+        <v>261</v>
       </c>
     </row>
     <row r="237" spans="1:2">
       <c r="A237" s="2">
-        <v>45687.44791666666</v>
+        <v>45732.44791666666</v>
       </c>
       <c r="B237">
-        <v>0</v>
+        <v>258</v>
       </c>
     </row>
     <row r="238" spans="1:2">
       <c r="A238" s="2">
-        <v>45687.45833333334</v>
+        <v>45732.45833333334</v>
       </c>
       <c r="B238">
-        <v>0</v>
+        <v>230</v>
       </c>
     </row>
     <row r="239" spans="1:2">
       <c r="A239" s="2">
-        <v>45687.46875</v>
+        <v>45732.46875</v>
       </c>
       <c r="B239">
-        <v>0</v>
+        <v>218</v>
       </c>
     </row>
     <row r="240" spans="1:2">
       <c r="A240" s="2">
-        <v>45687.47916666666</v>
+        <v>45732.47916666666</v>
       </c>
       <c r="B240">
-        <v>0</v>
+        <v>198</v>
       </c>
     </row>
     <row r="241" spans="1:2">
       <c r="A241" s="2">
-        <v>45687.48958333334</v>
+        <v>45732.48958333334</v>
       </c>
       <c r="B241">
-        <v>0</v>
+        <v>209</v>
       </c>
     </row>
     <row r="242" spans="1:2">
       <c r="A242" s="2">
-        <v>45687.5</v>
+        <v>45732.5</v>
       </c>
       <c r="B242">
-        <v>0</v>
+        <v>213</v>
       </c>
     </row>
     <row r="243" spans="1:2">
       <c r="A243" s="2">
-        <v>45687.51041666666</v>
+        <v>45732.51041666666</v>
       </c>
       <c r="B243">
-        <v>0</v>
+        <v>198</v>
       </c>
     </row>
     <row r="244" spans="1:2">
       <c r="A244" s="2">
-        <v>45687.52083333334</v>
+        <v>45732.52083333334</v>
       </c>
       <c r="B244">
-        <v>0</v>
+        <v>197</v>
       </c>
     </row>
     <row r="245" spans="1:2">
       <c r="A245" s="2">
-        <v>45687.53125</v>
+        <v>45732.53125</v>
       </c>
       <c r="B245">
-        <v>0</v>
+        <v>193</v>
       </c>
     </row>
     <row r="246" spans="1:2">
       <c r="A246" s="2">
-        <v>45687.54166666666</v>
+        <v>45732.54166666666</v>
       </c>
       <c r="B246">
-        <v>0</v>
+        <v>238</v>
       </c>
     </row>
     <row r="247" spans="1:2">
       <c r="A247" s="2">
-        <v>45687.55208333334</v>
+        <v>45732.55208333334</v>
       </c>
       <c r="B247">
-        <v>0</v>
+        <v>243</v>
       </c>
     </row>
     <row r="248" spans="1:2">
       <c r="A248" s="2">
-        <v>45687.5625</v>
+        <v>45732.5625</v>
       </c>
       <c r="B248">
-        <v>0</v>
+        <v>245</v>
       </c>
     </row>
     <row r="249" spans="1:2">
       <c r="A249" s="2">
-        <v>45687.57291666666</v>
+        <v>45732.57291666666</v>
       </c>
       <c r="B249">
-        <v>0</v>
+        <v>245</v>
       </c>
     </row>
     <row r="250" spans="1:2">
       <c r="A250" s="2">
-        <v>45687.58333333334</v>
+        <v>45732.58333333334</v>
       </c>
       <c r="B250">
-        <v>0</v>
+        <v>237</v>
       </c>
     </row>
     <row r="251" spans="1:2">
       <c r="A251" s="2">
-        <v>45687.59375</v>
+        <v>45732.59375</v>
       </c>
       <c r="B251">
-        <v>0</v>
+        <v>252</v>
       </c>
     </row>
     <row r="252" spans="1:2">
       <c r="A252" s="2">
-        <v>45687.60416666666</v>
+        <v>45732.60416666666</v>
       </c>
       <c r="B252">
-        <v>0</v>
+        <v>253</v>
       </c>
     </row>
     <row r="253" spans="1:2">
       <c r="A253" s="2">
-        <v>45687.61458333334</v>
+        <v>45732.61458333334</v>
       </c>
       <c r="B253">
-        <v>0</v>
+        <v>255</v>
       </c>
     </row>
     <row r="254" spans="1:2">
       <c r="A254" s="2">
-        <v>45687.625</v>
+        <v>45732.625</v>
       </c>
       <c r="B254">
-        <v>0</v>
+        <v>200</v>
       </c>
     </row>
     <row r="255" spans="1:2">
       <c r="A255" s="2">
-        <v>45687.63541666666</v>
+        <v>45732.63541666666</v>
       </c>
       <c r="B255">
-        <v>0</v>
+        <v>228</v>
       </c>
     </row>
     <row r="256" spans="1:2">
       <c r="A256" s="2">
-        <v>45687.64583333334</v>
+        <v>45732.64583333334</v>
       </c>
       <c r="B256">
-        <v>0</v>
+        <v>272</v>
       </c>
     </row>
     <row r="257" spans="1:2">
       <c r="A257" s="2">
-        <v>45687.65625</v>
+        <v>45732.65625</v>
       </c>
       <c r="B257">
-        <v>0</v>
+        <v>299</v>
       </c>
     </row>
     <row r="258" spans="1:2">
       <c r="A258" s="2">
-        <v>45687.66666666666</v>
+        <v>45732.66666666666</v>
       </c>
       <c r="B258">
-        <v>0</v>
+        <v>295</v>
       </c>
     </row>
     <row r="259" spans="1:2">
       <c r="A259" s="2">
-        <v>45687.67708333334</v>
+        <v>45732.67708333334</v>
       </c>
       <c r="B259">
-        <v>0</v>
+        <v>316</v>
       </c>
     </row>
     <row r="260" spans="1:2">
       <c r="A260" s="2">
-        <v>45687.6875</v>
+        <v>45732.6875</v>
       </c>
       <c r="B260">
-        <v>0</v>
+        <v>350</v>
       </c>
     </row>
     <row r="261" spans="1:2">
       <c r="A261" s="2">
-        <v>45687.69791666666</v>
+        <v>45732.69791666666</v>
       </c>
       <c r="B261">
-        <v>0</v>
+        <v>414</v>
       </c>
     </row>
     <row r="262" spans="1:2">
       <c r="A262" s="2">
-        <v>45687.70833333334</v>
+        <v>45732.70833333334</v>
       </c>
       <c r="B262">
-        <v>0</v>
+        <v>377</v>
       </c>
     </row>
     <row r="263" spans="1:2">
       <c r="A263" s="2">
-        <v>45687.71875</v>
+        <v>45732.71875</v>
       </c>
       <c r="B263">
-        <v>0</v>
+        <v>386</v>
       </c>
     </row>
     <row r="264" spans="1:2">
       <c r="A264" s="2">
-        <v>45687.72916666666</v>
+        <v>45732.72916666666</v>
       </c>
       <c r="B264">
-        <v>0</v>
+        <v>421</v>
       </c>
     </row>
     <row r="265" spans="1:2">
       <c r="A265" s="2">
-        <v>45687.73958333334</v>
+        <v>45732.73958333334</v>
       </c>
       <c r="B265">
-        <v>0</v>
+        <v>488</v>
       </c>
     </row>
     <row r="266" spans="1:2">
       <c r="A266" s="2">
-        <v>45687.75</v>
+        <v>45732.75</v>
       </c>
       <c r="B266">
-        <v>0</v>
+        <v>490</v>
       </c>
     </row>
     <row r="267" spans="1:2">
       <c r="A267" s="2">
-        <v>45687.76041666666</v>
+        <v>45732.76041666666</v>
       </c>
       <c r="B267">
-        <v>0</v>
+        <v>488</v>
       </c>
     </row>
     <row r="268" spans="1:2">
       <c r="A268" s="2">
-        <v>45687.77083333334</v>
+        <v>45732.77083333334</v>
       </c>
       <c r="B268">
-        <v>0</v>
+        <v>484</v>
       </c>
     </row>
     <row r="269" spans="1:2">
       <c r="A269" s="2">
-        <v>45687.78125</v>
+        <v>45732.78125</v>
       </c>
       <c r="B269">
-        <v>0</v>
+        <v>426</v>
       </c>
     </row>
     <row r="270" spans="1:2">
       <c r="A270" s="2">
-        <v>45687.79166666666</v>
+        <v>45732.79166666666</v>
       </c>
       <c r="B270">
-        <v>0</v>
+        <v>438</v>
       </c>
     </row>
     <row r="271" spans="1:2">
       <c r="A271" s="2">
-        <v>45687.80208333334</v>
+        <v>45732.80208333334</v>
       </c>
       <c r="B271">
-        <v>0</v>
+        <v>439</v>
       </c>
     </row>
     <row r="272" spans="1:2">
       <c r="A272" s="2">
-        <v>45687.8125</v>
+        <v>45732.8125</v>
       </c>
       <c r="B272">
-        <v>0</v>
+        <v>420</v>
       </c>
     </row>
     <row r="273" spans="1:2">
       <c r="A273" s="2">
-        <v>45687.82291666666</v>
+        <v>45732.82291666666</v>
       </c>
       <c r="B273">
-        <v>0</v>
+        <v>418</v>
       </c>
     </row>
     <row r="274" spans="1:2">
       <c r="A274" s="2">
-        <v>45687.83333333334</v>
+        <v>45732.83333333334</v>
       </c>
       <c r="B274">
-        <v>0</v>
+        <v>343</v>
       </c>
     </row>
     <row r="275" spans="1:2">
       <c r="A275" s="2">
-        <v>45687.84375</v>
+        <v>45732.84375</v>
       </c>
       <c r="B275">
-        <v>0</v>
+        <v>339</v>
       </c>
     </row>
     <row r="276" spans="1:2">
       <c r="A276" s="2">
-        <v>45687.85416666666</v>
+        <v>45732.85416666666</v>
       </c>
       <c r="B276">
-        <v>0</v>
+        <v>334</v>
       </c>
     </row>
     <row r="277" spans="1:2">
       <c r="A277" s="2">
-        <v>45687.86458333334</v>
+        <v>45732.86458333334</v>
       </c>
       <c r="B277">
-        <v>0</v>
+        <v>331</v>
       </c>
     </row>
     <row r="278" spans="1:2">
       <c r="A278" s="2">
-        <v>45687.875</v>
+        <v>45732.875</v>
       </c>
       <c r="B278">
-        <v>0</v>
+        <v>360</v>
       </c>
     </row>
     <row r="279" spans="1:2">
       <c r="A279" s="2">
-        <v>45687.88541666666</v>
+        <v>45732.88541666666</v>
       </c>
       <c r="B279">
-        <v>0</v>
+        <v>351</v>
       </c>
     </row>
     <row r="280" spans="1:2">
       <c r="A280" s="2">
-        <v>45687.89583333334</v>
+        <v>45732.89583333334</v>
       </c>
       <c r="B280">
-        <v>0</v>
+        <v>299</v>
       </c>
     </row>
     <row r="281" spans="1:2">
       <c r="A281" s="2">
-        <v>45687.90625</v>
+        <v>45732.90625</v>
       </c>
       <c r="B281">
-        <v>0</v>
+        <v>295</v>
       </c>
     </row>
     <row r="282" spans="1:2">
       <c r="A282" s="2">
-        <v>45687.91666666666</v>
+        <v>45732.91666666666</v>
       </c>
       <c r="B282">
-        <v>0</v>
+        <v>296</v>
       </c>
     </row>
     <row r="283" spans="1:2">
       <c r="A283" s="2">
-        <v>45687.92708333334</v>
+        <v>45732.92708333334</v>
       </c>
       <c r="B283">
-        <v>0</v>
+        <v>288</v>
       </c>
     </row>
     <row r="284" spans="1:2">
       <c r="A284" s="2">
-        <v>45687.9375</v>
+        <v>45732.9375</v>
       </c>
       <c r="B284">
-        <v>0</v>
+        <v>293</v>
       </c>
     </row>
     <row r="285" spans="1:2">
       <c r="A285" s="2">
-        <v>45687.94791666666</v>
+        <v>45732.94791666666</v>
       </c>
       <c r="B285">
-        <v>0</v>
+        <v>274</v>
       </c>
     </row>
     <row r="286" spans="1:2">
       <c r="A286" s="2">
-        <v>45687.95833333334</v>
+        <v>45732.95833333334</v>
       </c>
       <c r="B286">
-        <v>0</v>
+        <v>311</v>
       </c>
     </row>
     <row r="287" spans="1:2">
       <c r="A287" s="2">
-        <v>45687.96875</v>
+        <v>45732.96875</v>
       </c>
       <c r="B287">
-        <v>0</v>
+        <v>312</v>
       </c>
     </row>
     <row r="288" spans="1:2">
       <c r="A288" s="2">
-        <v>45687.97916666666</v>
+        <v>45732.97916666666</v>
       </c>
       <c r="B288">
-        <v>0</v>
+        <v>301</v>
       </c>
     </row>
     <row r="289" spans="1:2">
       <c r="A289" s="2">
-        <v>45687.98958333334</v>
+        <v>45732.98958333334</v>
       </c>
       <c r="B289">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2">
+      <c r="A290" s="2">
+        <v>45733</v>
+      </c>
+      <c r="B290">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2">
+      <c r="A291" s="2">
+        <v>45733.01041666666</v>
+      </c>
+      <c r="B291">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2">
+      <c r="A292" s="2">
+        <v>45733.02083333334</v>
+      </c>
+      <c r="B292">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2">
+      <c r="A293" s="2">
+        <v>45733.03125</v>
+      </c>
+      <c r="B293">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2">
+      <c r="A294" s="2">
+        <v>45733.04166666666</v>
+      </c>
+      <c r="B294">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2">
+      <c r="A295" s="2">
+        <v>45733.05208333334</v>
+      </c>
+      <c r="B295">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2">
+      <c r="A296" s="2">
+        <v>45733.0625</v>
+      </c>
+      <c r="B296">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2">
+      <c r="A297" s="2">
+        <v>45733.07291666666</v>
+      </c>
+      <c r="B297">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2">
+      <c r="A298" s="2">
+        <v>45733.08333333334</v>
+      </c>
+      <c r="B298">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2">
+      <c r="A299" s="2">
+        <v>45733.09375</v>
+      </c>
+      <c r="B299">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2">
+      <c r="A300" s="2">
+        <v>45733.10416666666</v>
+      </c>
+      <c r="B300">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2">
+      <c r="A301" s="2">
+        <v>45733.11458333334</v>
+      </c>
+      <c r="B301">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2">
+      <c r="A302" s="2">
+        <v>45733.125</v>
+      </c>
+      <c r="B302">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2">
+      <c r="A303" s="2">
+        <v>45733.13541666666</v>
+      </c>
+      <c r="B303">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2">
+      <c r="A304" s="2">
+        <v>45733.14583333334</v>
+      </c>
+      <c r="B304">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2">
+      <c r="A305" s="2">
+        <v>45733.15625</v>
+      </c>
+      <c r="B305">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2">
+      <c r="A306" s="2">
+        <v>45733.16666666666</v>
+      </c>
+      <c r="B306">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2">
+      <c r="A307" s="2">
+        <v>45733.17708333334</v>
+      </c>
+      <c r="B307">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2">
+      <c r="A308" s="2">
+        <v>45733.1875</v>
+      </c>
+      <c r="B308">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2">
+      <c r="A309" s="2">
+        <v>45733.19791666666</v>
+      </c>
+      <c r="B309">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2">
+      <c r="A310" s="2">
+        <v>45733.20833333334</v>
+      </c>
+      <c r="B310">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2">
+      <c r="A311" s="2">
+        <v>45733.21875</v>
+      </c>
+      <c r="B311">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2">
+      <c r="A312" s="2">
+        <v>45733.22916666666</v>
+      </c>
+      <c r="B312">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2">
+      <c r="A313" s="2">
+        <v>45733.23958333334</v>
+      </c>
+      <c r="B313">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2">
+      <c r="A314" s="2">
+        <v>45733.25</v>
+      </c>
+      <c r="B314">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2">
+      <c r="A315" s="2">
+        <v>45733.26041666666</v>
+      </c>
+      <c r="B315">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2">
+      <c r="A316" s="2">
+        <v>45733.27083333334</v>
+      </c>
+      <c r="B316">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2">
+      <c r="A317" s="2">
+        <v>45733.28125</v>
+      </c>
+      <c r="B317">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2">
+      <c r="A318" s="2">
+        <v>45733.29166666666</v>
+      </c>
+      <c r="B318">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2">
+      <c r="A319" s="2">
+        <v>45733.30208333334</v>
+      </c>
+      <c r="B319">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2">
+      <c r="A320" s="2">
+        <v>45733.3125</v>
+      </c>
+      <c r="B320">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2">
+      <c r="A321" s="2">
+        <v>45733.32291666666</v>
+      </c>
+      <c r="B321">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2">
+      <c r="A322" s="2">
+        <v>45733.33333333334</v>
+      </c>
+      <c r="B322">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2">
+      <c r="A323" s="2">
+        <v>45733.34375</v>
+      </c>
+      <c r="B323">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2">
+      <c r="A324" s="2">
+        <v>45733.35416666666</v>
+      </c>
+      <c r="B324">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2">
+      <c r="A325" s="2">
+        <v>45733.36458333334</v>
+      </c>
+      <c r="B325">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2">
+      <c r="A326" s="2">
+        <v>45733.375</v>
+      </c>
+      <c r="B326">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2">
+      <c r="A327" s="2">
+        <v>45733.38541666666</v>
+      </c>
+      <c r="B327">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2">
+      <c r="A328" s="2">
+        <v>45733.39583333334</v>
+      </c>
+      <c r="B328">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2">
+      <c r="A329" s="2">
+        <v>45733.40625</v>
+      </c>
+      <c r="B329">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2">
+      <c r="A330" s="2">
+        <v>45733.41666666666</v>
+      </c>
+      <c r="B330">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2">
+      <c r="A331" s="2">
+        <v>45733.42708333334</v>
+      </c>
+      <c r="B331">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2">
+      <c r="A332" s="2">
+        <v>45733.4375</v>
+      </c>
+      <c r="B332">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2">
+      <c r="A333" s="2">
+        <v>45733.44791666666</v>
+      </c>
+      <c r="B333">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2">
+      <c r="A334" s="2">
+        <v>45733.45833333334</v>
+      </c>
+      <c r="B334">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2">
+      <c r="A335" s="2">
+        <v>45733.46875</v>
+      </c>
+      <c r="B335">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2">
+      <c r="A336" s="2">
+        <v>45733.47916666666</v>
+      </c>
+      <c r="B336">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2">
+      <c r="A337" s="2">
+        <v>45733.48958333334</v>
+      </c>
+      <c r="B337">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2">
+      <c r="A338" s="2">
+        <v>45733.5</v>
+      </c>
+      <c r="B338">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2">
+      <c r="A339" s="2">
+        <v>45733.51041666666</v>
+      </c>
+      <c r="B339">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2">
+      <c r="A340" s="2">
+        <v>45733.52083333334</v>
+      </c>
+      <c r="B340">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2">
+      <c r="A341" s="2">
+        <v>45733.53125</v>
+      </c>
+      <c r="B341">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2">
+      <c r="A342" s="2">
+        <v>45733.54166666666</v>
+      </c>
+      <c r="B342">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2">
+      <c r="A343" s="2">
+        <v>45733.55208333334</v>
+      </c>
+      <c r="B343">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2">
+      <c r="A344" s="2">
+        <v>45733.5625</v>
+      </c>
+      <c r="B344">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2">
+      <c r="A345" s="2">
+        <v>45733.57291666666</v>
+      </c>
+      <c r="B345">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2">
+      <c r="A346" s="2">
+        <v>45733.58333333334</v>
+      </c>
+      <c r="B346">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2">
+      <c r="A347" s="2">
+        <v>45733.59375</v>
+      </c>
+      <c r="B347">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2">
+      <c r="A348" s="2">
+        <v>45733.60416666666</v>
+      </c>
+      <c r="B348">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2">
+      <c r="A349" s="2">
+        <v>45733.61458333334</v>
+      </c>
+      <c r="B349">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2">
+      <c r="A350" s="2">
+        <v>45733.625</v>
+      </c>
+      <c r="B350">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2">
+      <c r="A351" s="2">
+        <v>45733.63541666666</v>
+      </c>
+      <c r="B351">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2">
+      <c r="A352" s="2">
+        <v>45733.64583333334</v>
+      </c>
+      <c r="B352">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2">
+      <c r="A353" s="2">
+        <v>45733.65625</v>
+      </c>
+      <c r="B353">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2">
+      <c r="A354" s="2">
+        <v>45733.66666666666</v>
+      </c>
+      <c r="B354">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2">
+      <c r="A355" s="2">
+        <v>45733.67708333334</v>
+      </c>
+      <c r="B355">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2">
+      <c r="A356" s="2">
+        <v>45733.6875</v>
+      </c>
+      <c r="B356">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2">
+      <c r="A357" s="2">
+        <v>45733.69791666666</v>
+      </c>
+      <c r="B357">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2">
+      <c r="A358" s="2">
+        <v>45733.70833333334</v>
+      </c>
+      <c r="B358">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2">
+      <c r="A359" s="2">
+        <v>45733.71875</v>
+      </c>
+      <c r="B359">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2">
+      <c r="A360" s="2">
+        <v>45733.72916666666</v>
+      </c>
+      <c r="B360">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2">
+      <c r="A361" s="2">
+        <v>45733.73958333334</v>
+      </c>
+      <c r="B361">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2">
+      <c r="A362" s="2">
+        <v>45733.75</v>
+      </c>
+      <c r="B362">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2">
+      <c r="A363" s="2">
+        <v>45733.76041666666</v>
+      </c>
+      <c r="B363">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2">
+      <c r="A364" s="2">
+        <v>45733.77083333334</v>
+      </c>
+      <c r="B364">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2">
+      <c r="A365" s="2">
+        <v>45733.78125</v>
+      </c>
+      <c r="B365">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2">
+      <c r="A366" s="2">
+        <v>45733.79166666666</v>
+      </c>
+      <c r="B366">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2">
+      <c r="A367" s="2">
+        <v>45733.80208333334</v>
+      </c>
+      <c r="B367">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2">
+      <c r="A368" s="2">
+        <v>45733.8125</v>
+      </c>
+      <c r="B368">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2">
+      <c r="A369" s="2">
+        <v>45733.82291666666</v>
+      </c>
+      <c r="B369">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2">
+      <c r="A370" s="2">
+        <v>45733.83333333334</v>
+      </c>
+      <c r="B370">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2">
+      <c r="A371" s="2">
+        <v>45733.84375</v>
+      </c>
+      <c r="B371">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2">
+      <c r="A372" s="2">
+        <v>45733.85416666666</v>
+      </c>
+      <c r="B372">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2">
+      <c r="A373" s="2">
+        <v>45733.86458333334</v>
+      </c>
+      <c r="B373">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2">
+      <c r="A374" s="2">
+        <v>45733.875</v>
+      </c>
+      <c r="B374">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2">
+      <c r="A375" s="2">
+        <v>45733.88541666666</v>
+      </c>
+      <c r="B375">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2">
+      <c r="A376" s="2">
+        <v>45733.89583333334</v>
+      </c>
+      <c r="B376">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2">
+      <c r="A377" s="2">
+        <v>45733.90625</v>
+      </c>
+      <c r="B377">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2">
+      <c r="A378" s="2">
+        <v>45733.91666666666</v>
+      </c>
+      <c r="B378">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2">
+      <c r="A379" s="2">
+        <v>45733.92708333334</v>
+      </c>
+      <c r="B379">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2">
+      <c r="A380" s="2">
+        <v>45733.9375</v>
+      </c>
+      <c r="B380">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2">
+      <c r="A381" s="2">
+        <v>45733.94791666666</v>
+      </c>
+      <c r="B381">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2">
+      <c r="A382" s="2">
+        <v>45733.95833333334</v>
+      </c>
+      <c r="B382">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2">
+      <c r="A383" s="2">
+        <v>45733.96875</v>
+      </c>
+      <c r="B383">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2">
+      <c r="A384" s="2">
+        <v>45733.97916666666</v>
+      </c>
+      <c r="B384">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2">
+      <c r="A385" s="2">
+        <v>45733.98958333334</v>
+      </c>
+      <c r="B385">
         <v>0</v>
       </c>
     </row>

--- a/data_fetching/Entsoe/Actual_Production_Hydro_Water_Reservoir.xlsx
+++ b/data_fetching/Entsoe/Actual_Production_Hydro_Water_Reservoir.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B385"/>
+  <dimension ref="A1:B481"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3016,7 +3016,7 @@
         <v>45733.40625</v>
       </c>
       <c r="B329">
-        <v>0</v>
+        <v>455</v>
       </c>
     </row>
     <row r="330" spans="1:2">
@@ -3024,7 +3024,7 @@
         <v>45733.41666666666</v>
       </c>
       <c r="B330">
-        <v>0</v>
+        <v>454</v>
       </c>
     </row>
     <row r="331" spans="1:2">
@@ -3032,7 +3032,7 @@
         <v>45733.42708333334</v>
       </c>
       <c r="B331">
-        <v>0</v>
+        <v>458</v>
       </c>
     </row>
     <row r="332" spans="1:2">
@@ -3040,7 +3040,7 @@
         <v>45733.4375</v>
       </c>
       <c r="B332">
-        <v>0</v>
+        <v>459</v>
       </c>
     </row>
     <row r="333" spans="1:2">
@@ -3048,7 +3048,7 @@
         <v>45733.44791666666</v>
       </c>
       <c r="B333">
-        <v>0</v>
+        <v>463</v>
       </c>
     </row>
     <row r="334" spans="1:2">
@@ -3056,7 +3056,7 @@
         <v>45733.45833333334</v>
       </c>
       <c r="B334">
-        <v>0</v>
+        <v>454</v>
       </c>
     </row>
     <row r="335" spans="1:2">
@@ -3064,7 +3064,7 @@
         <v>45733.46875</v>
       </c>
       <c r="B335">
-        <v>0</v>
+        <v>451</v>
       </c>
     </row>
     <row r="336" spans="1:2">
@@ -3072,7 +3072,7 @@
         <v>45733.47916666666</v>
       </c>
       <c r="B336">
-        <v>0</v>
+        <v>456</v>
       </c>
     </row>
     <row r="337" spans="1:2">
@@ -3080,7 +3080,7 @@
         <v>45733.48958333334</v>
       </c>
       <c r="B337">
-        <v>0</v>
+        <v>480</v>
       </c>
     </row>
     <row r="338" spans="1:2">
@@ -3088,7 +3088,7 @@
         <v>45733.5</v>
       </c>
       <c r="B338">
-        <v>0</v>
+        <v>557</v>
       </c>
     </row>
     <row r="339" spans="1:2">
@@ -3096,7 +3096,7 @@
         <v>45733.51041666666</v>
       </c>
       <c r="B339">
-        <v>0</v>
+        <v>555</v>
       </c>
     </row>
     <row r="340" spans="1:2">
@@ -3104,7 +3104,7 @@
         <v>45733.52083333334</v>
       </c>
       <c r="B340">
-        <v>0</v>
+        <v>563</v>
       </c>
     </row>
     <row r="341" spans="1:2">
@@ -3112,7 +3112,7 @@
         <v>45733.53125</v>
       </c>
       <c r="B341">
-        <v>0</v>
+        <v>569</v>
       </c>
     </row>
     <row r="342" spans="1:2">
@@ -3120,7 +3120,7 @@
         <v>45733.54166666666</v>
       </c>
       <c r="B342">
-        <v>0</v>
+        <v>645</v>
       </c>
     </row>
     <row r="343" spans="1:2">
@@ -3128,7 +3128,7 @@
         <v>45733.55208333334</v>
       </c>
       <c r="B343">
-        <v>0</v>
+        <v>644</v>
       </c>
     </row>
     <row r="344" spans="1:2">
@@ -3136,7 +3136,7 @@
         <v>45733.5625</v>
       </c>
       <c r="B344">
-        <v>0</v>
+        <v>640</v>
       </c>
     </row>
     <row r="345" spans="1:2">
@@ -3144,7 +3144,7 @@
         <v>45733.57291666666</v>
       </c>
       <c r="B345">
-        <v>0</v>
+        <v>648</v>
       </c>
     </row>
     <row r="346" spans="1:2">
@@ -3152,7 +3152,7 @@
         <v>45733.58333333334</v>
       </c>
       <c r="B346">
-        <v>0</v>
+        <v>728</v>
       </c>
     </row>
     <row r="347" spans="1:2">
@@ -3160,7 +3160,7 @@
         <v>45733.59375</v>
       </c>
       <c r="B347">
-        <v>0</v>
+        <v>758</v>
       </c>
     </row>
     <row r="348" spans="1:2">
@@ -3168,7 +3168,7 @@
         <v>45733.60416666666</v>
       </c>
       <c r="B348">
-        <v>0</v>
+        <v>753</v>
       </c>
     </row>
     <row r="349" spans="1:2">
@@ -3176,7 +3176,7 @@
         <v>45733.61458333334</v>
       </c>
       <c r="B349">
-        <v>0</v>
+        <v>756</v>
       </c>
     </row>
     <row r="350" spans="1:2">
@@ -3184,7 +3184,7 @@
         <v>45733.625</v>
       </c>
       <c r="B350">
-        <v>0</v>
+        <v>805</v>
       </c>
     </row>
     <row r="351" spans="1:2">
@@ -3192,7 +3192,7 @@
         <v>45733.63541666666</v>
       </c>
       <c r="B351">
-        <v>0</v>
+        <v>817</v>
       </c>
     </row>
     <row r="352" spans="1:2">
@@ -3200,7 +3200,7 @@
         <v>45733.64583333334</v>
       </c>
       <c r="B352">
-        <v>0</v>
+        <v>819</v>
       </c>
     </row>
     <row r="353" spans="1:2">
@@ -3208,7 +3208,7 @@
         <v>45733.65625</v>
       </c>
       <c r="B353">
-        <v>0</v>
+        <v>824</v>
       </c>
     </row>
     <row r="354" spans="1:2">
@@ -3216,7 +3216,7 @@
         <v>45733.66666666666</v>
       </c>
       <c r="B354">
-        <v>0</v>
+        <v>817</v>
       </c>
     </row>
     <row r="355" spans="1:2">
@@ -3224,7 +3224,7 @@
         <v>45733.67708333334</v>
       </c>
       <c r="B355">
-        <v>0</v>
+        <v>842</v>
       </c>
     </row>
     <row r="356" spans="1:2">
@@ -3232,7 +3232,7 @@
         <v>45733.6875</v>
       </c>
       <c r="B356">
-        <v>0</v>
+        <v>841</v>
       </c>
     </row>
     <row r="357" spans="1:2">
@@ -3240,7 +3240,7 @@
         <v>45733.69791666666</v>
       </c>
       <c r="B357">
-        <v>0</v>
+        <v>842</v>
       </c>
     </row>
     <row r="358" spans="1:2">
@@ -3248,7 +3248,7 @@
         <v>45733.70833333334</v>
       </c>
       <c r="B358">
-        <v>0</v>
+        <v>782</v>
       </c>
     </row>
     <row r="359" spans="1:2">
@@ -3256,7 +3256,7 @@
         <v>45733.71875</v>
       </c>
       <c r="B359">
-        <v>0</v>
+        <v>801</v>
       </c>
     </row>
     <row r="360" spans="1:2">
@@ -3264,7 +3264,7 @@
         <v>45733.72916666666</v>
       </c>
       <c r="B360">
-        <v>0</v>
+        <v>825</v>
       </c>
     </row>
     <row r="361" spans="1:2">
@@ -3272,7 +3272,7 @@
         <v>45733.73958333334</v>
       </c>
       <c r="B361">
-        <v>0</v>
+        <v>845</v>
       </c>
     </row>
     <row r="362" spans="1:2">
@@ -3280,7 +3280,7 @@
         <v>45733.75</v>
       </c>
       <c r="B362">
-        <v>0</v>
+        <v>748</v>
       </c>
     </row>
     <row r="363" spans="1:2">
@@ -3288,7 +3288,7 @@
         <v>45733.76041666666</v>
       </c>
       <c r="B363">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="364" spans="1:2">
@@ -3296,7 +3296,7 @@
         <v>45733.77083333334</v>
       </c>
       <c r="B364">
-        <v>0</v>
+        <v>745</v>
       </c>
     </row>
     <row r="365" spans="1:2">
@@ -3304,7 +3304,7 @@
         <v>45733.78125</v>
       </c>
       <c r="B365">
-        <v>0</v>
+        <v>754</v>
       </c>
     </row>
     <row r="366" spans="1:2">
@@ -3312,7 +3312,7 @@
         <v>45733.79166666666</v>
       </c>
       <c r="B366">
-        <v>0</v>
+        <v>787</v>
       </c>
     </row>
     <row r="367" spans="1:2">
@@ -3320,7 +3320,7 @@
         <v>45733.80208333334</v>
       </c>
       <c r="B367">
-        <v>0</v>
+        <v>801</v>
       </c>
     </row>
     <row r="368" spans="1:2">
@@ -3328,7 +3328,7 @@
         <v>45733.8125</v>
       </c>
       <c r="B368">
-        <v>0</v>
+        <v>771</v>
       </c>
     </row>
     <row r="369" spans="1:2">
@@ -3336,7 +3336,7 @@
         <v>45733.82291666666</v>
       </c>
       <c r="B369">
-        <v>0</v>
+        <v>758</v>
       </c>
     </row>
     <row r="370" spans="1:2">
@@ -3344,7 +3344,7 @@
         <v>45733.83333333334</v>
       </c>
       <c r="B370">
-        <v>0</v>
+        <v>726</v>
       </c>
     </row>
     <row r="371" spans="1:2">
@@ -3352,7 +3352,7 @@
         <v>45733.84375</v>
       </c>
       <c r="B371">
-        <v>0</v>
+        <v>717</v>
       </c>
     </row>
     <row r="372" spans="1:2">
@@ -3360,7 +3360,7 @@
         <v>45733.85416666666</v>
       </c>
       <c r="B372">
-        <v>0</v>
+        <v>714</v>
       </c>
     </row>
     <row r="373" spans="1:2">
@@ -3368,7 +3368,7 @@
         <v>45733.86458333334</v>
       </c>
       <c r="B373">
-        <v>0</v>
+        <v>704</v>
       </c>
     </row>
     <row r="374" spans="1:2">
@@ -3376,7 +3376,7 @@
         <v>45733.875</v>
       </c>
       <c r="B374">
-        <v>0</v>
+        <v>604</v>
       </c>
     </row>
     <row r="375" spans="1:2">
@@ -3384,7 +3384,7 @@
         <v>45733.88541666666</v>
       </c>
       <c r="B375">
-        <v>0</v>
+        <v>584</v>
       </c>
     </row>
     <row r="376" spans="1:2">
@@ -3392,7 +3392,7 @@
         <v>45733.89583333334</v>
       </c>
       <c r="B376">
-        <v>0</v>
+        <v>550</v>
       </c>
     </row>
     <row r="377" spans="1:2">
@@ -3400,7 +3400,7 @@
         <v>45733.90625</v>
       </c>
       <c r="B377">
-        <v>0</v>
+        <v>542</v>
       </c>
     </row>
     <row r="378" spans="1:2">
@@ -3408,7 +3408,7 @@
         <v>45733.91666666666</v>
       </c>
       <c r="B378">
-        <v>0</v>
+        <v>425</v>
       </c>
     </row>
     <row r="379" spans="1:2">
@@ -3416,7 +3416,7 @@
         <v>45733.92708333334</v>
       </c>
       <c r="B379">
-        <v>0</v>
+        <v>422</v>
       </c>
     </row>
     <row r="380" spans="1:2">
@@ -3424,7 +3424,7 @@
         <v>45733.9375</v>
       </c>
       <c r="B380">
-        <v>0</v>
+        <v>298</v>
       </c>
     </row>
     <row r="381" spans="1:2">
@@ -3432,7 +3432,7 @@
         <v>45733.94791666666</v>
       </c>
       <c r="B381">
-        <v>0</v>
+        <v>278</v>
       </c>
     </row>
     <row r="382" spans="1:2">
@@ -3440,7 +3440,7 @@
         <v>45733.95833333334</v>
       </c>
       <c r="B382">
-        <v>0</v>
+        <v>203</v>
       </c>
     </row>
     <row r="383" spans="1:2">
@@ -3448,7 +3448,7 @@
         <v>45733.96875</v>
       </c>
       <c r="B383">
-        <v>0</v>
+        <v>190</v>
       </c>
     </row>
     <row r="384" spans="1:2">
@@ -3456,7 +3456,7 @@
         <v>45733.97916666666</v>
       </c>
       <c r="B384">
-        <v>0</v>
+        <v>176</v>
       </c>
     </row>
     <row r="385" spans="1:2">
@@ -3464,6 +3464,774 @@
         <v>45733.98958333334</v>
       </c>
       <c r="B385">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2">
+      <c r="A386" s="2">
+        <v>45734</v>
+      </c>
+      <c r="B386">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2">
+      <c r="A387" s="2">
+        <v>45734.01041666666</v>
+      </c>
+      <c r="B387">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2">
+      <c r="A388" s="2">
+        <v>45734.02083333334</v>
+      </c>
+      <c r="B388">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2">
+      <c r="A389" s="2">
+        <v>45734.03125</v>
+      </c>
+      <c r="B389">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2">
+      <c r="A390" s="2">
+        <v>45734.04166666666</v>
+      </c>
+      <c r="B390">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2">
+      <c r="A391" s="2">
+        <v>45734.05208333334</v>
+      </c>
+      <c r="B391">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2">
+      <c r="A392" s="2">
+        <v>45734.0625</v>
+      </c>
+      <c r="B392">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2">
+      <c r="A393" s="2">
+        <v>45734.07291666666</v>
+      </c>
+      <c r="B393">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2">
+      <c r="A394" s="2">
+        <v>45734.08333333334</v>
+      </c>
+      <c r="B394">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2">
+      <c r="A395" s="2">
+        <v>45734.09375</v>
+      </c>
+      <c r="B395">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2">
+      <c r="A396" s="2">
+        <v>45734.10416666666</v>
+      </c>
+      <c r="B396">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2">
+      <c r="A397" s="2">
+        <v>45734.11458333334</v>
+      </c>
+      <c r="B397">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2">
+      <c r="A398" s="2">
+        <v>45734.125</v>
+      </c>
+      <c r="B398">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2">
+      <c r="A399" s="2">
+        <v>45734.13541666666</v>
+      </c>
+      <c r="B399">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2">
+      <c r="A400" s="2">
+        <v>45734.14583333334</v>
+      </c>
+      <c r="B400">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2">
+      <c r="A401" s="2">
+        <v>45734.15625</v>
+      </c>
+      <c r="B401">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2">
+      <c r="A402" s="2">
+        <v>45734.16666666666</v>
+      </c>
+      <c r="B402">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2">
+      <c r="A403" s="2">
+        <v>45734.17708333334</v>
+      </c>
+      <c r="B403">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2">
+      <c r="A404" s="2">
+        <v>45734.1875</v>
+      </c>
+      <c r="B404">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2">
+      <c r="A405" s="2">
+        <v>45734.19791666666</v>
+      </c>
+      <c r="B405">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2">
+      <c r="A406" s="2">
+        <v>45734.20833333334</v>
+      </c>
+      <c r="B406">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2">
+      <c r="A407" s="2">
+        <v>45734.21875</v>
+      </c>
+      <c r="B407">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2">
+      <c r="A408" s="2">
+        <v>45734.22916666666</v>
+      </c>
+      <c r="B408">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2">
+      <c r="A409" s="2">
+        <v>45734.23958333334</v>
+      </c>
+      <c r="B409">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2">
+      <c r="A410" s="2">
+        <v>45734.25</v>
+      </c>
+      <c r="B410">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2">
+      <c r="A411" s="2">
+        <v>45734.26041666666</v>
+      </c>
+      <c r="B411">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2">
+      <c r="A412" s="2">
+        <v>45734.27083333334</v>
+      </c>
+      <c r="B412">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2">
+      <c r="A413" s="2">
+        <v>45734.28125</v>
+      </c>
+      <c r="B413">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2">
+      <c r="A414" s="2">
+        <v>45734.29166666666</v>
+      </c>
+      <c r="B414">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2">
+      <c r="A415" s="2">
+        <v>45734.30208333334</v>
+      </c>
+      <c r="B415">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2">
+      <c r="A416" s="2">
+        <v>45734.3125</v>
+      </c>
+      <c r="B416">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2">
+      <c r="A417" s="2">
+        <v>45734.32291666666</v>
+      </c>
+      <c r="B417">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2">
+      <c r="A418" s="2">
+        <v>45734.33333333334</v>
+      </c>
+      <c r="B418">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2">
+      <c r="A419" s="2">
+        <v>45734.34375</v>
+      </c>
+      <c r="B419">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2">
+      <c r="A420" s="2">
+        <v>45734.35416666666</v>
+      </c>
+      <c r="B420">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2">
+      <c r="A421" s="2">
+        <v>45734.36458333334</v>
+      </c>
+      <c r="B421">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2">
+      <c r="A422" s="2">
+        <v>45734.375</v>
+      </c>
+      <c r="B422">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2">
+      <c r="A423" s="2">
+        <v>45734.38541666666</v>
+      </c>
+      <c r="B423">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2">
+      <c r="A424" s="2">
+        <v>45734.39583333334</v>
+      </c>
+      <c r="B424">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2">
+      <c r="A425" s="2">
+        <v>45734.40625</v>
+      </c>
+      <c r="B425">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2">
+      <c r="A426" s="2">
+        <v>45734.41666666666</v>
+      </c>
+      <c r="B426">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2">
+      <c r="A427" s="2">
+        <v>45734.42708333334</v>
+      </c>
+      <c r="B427">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2">
+      <c r="A428" s="2">
+        <v>45734.4375</v>
+      </c>
+      <c r="B428">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2">
+      <c r="A429" s="2">
+        <v>45734.44791666666</v>
+      </c>
+      <c r="B429">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2">
+      <c r="A430" s="2">
+        <v>45734.45833333334</v>
+      </c>
+      <c r="B430">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2">
+      <c r="A431" s="2">
+        <v>45734.46875</v>
+      </c>
+      <c r="B431">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2">
+      <c r="A432" s="2">
+        <v>45734.47916666666</v>
+      </c>
+      <c r="B432">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2">
+      <c r="A433" s="2">
+        <v>45734.48958333334</v>
+      </c>
+      <c r="B433">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2">
+      <c r="A434" s="2">
+        <v>45734.5</v>
+      </c>
+      <c r="B434">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2">
+      <c r="A435" s="2">
+        <v>45734.51041666666</v>
+      </c>
+      <c r="B435">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2">
+      <c r="A436" s="2">
+        <v>45734.52083333334</v>
+      </c>
+      <c r="B436">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2">
+      <c r="A437" s="2">
+        <v>45734.53125</v>
+      </c>
+      <c r="B437">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2">
+      <c r="A438" s="2">
+        <v>45734.54166666666</v>
+      </c>
+      <c r="B438">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2">
+      <c r="A439" s="2">
+        <v>45734.55208333334</v>
+      </c>
+      <c r="B439">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2">
+      <c r="A440" s="2">
+        <v>45734.5625</v>
+      </c>
+      <c r="B440">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2">
+      <c r="A441" s="2">
+        <v>45734.57291666666</v>
+      </c>
+      <c r="B441">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2">
+      <c r="A442" s="2">
+        <v>45734.58333333334</v>
+      </c>
+      <c r="B442">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2">
+      <c r="A443" s="2">
+        <v>45734.59375</v>
+      </c>
+      <c r="B443">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2">
+      <c r="A444" s="2">
+        <v>45734.60416666666</v>
+      </c>
+      <c r="B444">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2">
+      <c r="A445" s="2">
+        <v>45734.61458333334</v>
+      </c>
+      <c r="B445">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2">
+      <c r="A446" s="2">
+        <v>45734.625</v>
+      </c>
+      <c r="B446">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2">
+      <c r="A447" s="2">
+        <v>45734.63541666666</v>
+      </c>
+      <c r="B447">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2">
+      <c r="A448" s="2">
+        <v>45734.64583333334</v>
+      </c>
+      <c r="B448">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2">
+      <c r="A449" s="2">
+        <v>45734.65625</v>
+      </c>
+      <c r="B449">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2">
+      <c r="A450" s="2">
+        <v>45734.66666666666</v>
+      </c>
+      <c r="B450">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2">
+      <c r="A451" s="2">
+        <v>45734.67708333334</v>
+      </c>
+      <c r="B451">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2">
+      <c r="A452" s="2">
+        <v>45734.6875</v>
+      </c>
+      <c r="B452">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2">
+      <c r="A453" s="2">
+        <v>45734.69791666666</v>
+      </c>
+      <c r="B453">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2">
+      <c r="A454" s="2">
+        <v>45734.70833333334</v>
+      </c>
+      <c r="B454">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2">
+      <c r="A455" s="2">
+        <v>45734.71875</v>
+      </c>
+      <c r="B455">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2">
+      <c r="A456" s="2">
+        <v>45734.72916666666</v>
+      </c>
+      <c r="B456">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2">
+      <c r="A457" s="2">
+        <v>45734.73958333334</v>
+      </c>
+      <c r="B457">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2">
+      <c r="A458" s="2">
+        <v>45734.75</v>
+      </c>
+      <c r="B458">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2">
+      <c r="A459" s="2">
+        <v>45734.76041666666</v>
+      </c>
+      <c r="B459">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2">
+      <c r="A460" s="2">
+        <v>45734.77083333334</v>
+      </c>
+      <c r="B460">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2">
+      <c r="A461" s="2">
+        <v>45734.78125</v>
+      </c>
+      <c r="B461">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2">
+      <c r="A462" s="2">
+        <v>45734.79166666666</v>
+      </c>
+      <c r="B462">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2">
+      <c r="A463" s="2">
+        <v>45734.80208333334</v>
+      </c>
+      <c r="B463">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="464" spans="1:2">
+      <c r="A464" s="2">
+        <v>45734.8125</v>
+      </c>
+      <c r="B464">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="465" spans="1:2">
+      <c r="A465" s="2">
+        <v>45734.82291666666</v>
+      </c>
+      <c r="B465">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="466" spans="1:2">
+      <c r="A466" s="2">
+        <v>45734.83333333334</v>
+      </c>
+      <c r="B466">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="467" spans="1:2">
+      <c r="A467" s="2">
+        <v>45734.84375</v>
+      </c>
+      <c r="B467">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="468" spans="1:2">
+      <c r="A468" s="2">
+        <v>45734.85416666666</v>
+      </c>
+      <c r="B468">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="469" spans="1:2">
+      <c r="A469" s="2">
+        <v>45734.86458333334</v>
+      </c>
+      <c r="B469">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="470" spans="1:2">
+      <c r="A470" s="2">
+        <v>45734.875</v>
+      </c>
+      <c r="B470">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="471" spans="1:2">
+      <c r="A471" s="2">
+        <v>45734.88541666666</v>
+      </c>
+      <c r="B471">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="472" spans="1:2">
+      <c r="A472" s="2">
+        <v>45734.89583333334</v>
+      </c>
+      <c r="B472">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="473" spans="1:2">
+      <c r="A473" s="2">
+        <v>45734.90625</v>
+      </c>
+      <c r="B473">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="474" spans="1:2">
+      <c r="A474" s="2">
+        <v>45734.91666666666</v>
+      </c>
+      <c r="B474">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="475" spans="1:2">
+      <c r="A475" s="2">
+        <v>45734.92708333334</v>
+      </c>
+      <c r="B475">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="476" spans="1:2">
+      <c r="A476" s="2">
+        <v>45734.9375</v>
+      </c>
+      <c r="B476">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="477" spans="1:2">
+      <c r="A477" s="2">
+        <v>45734.94791666666</v>
+      </c>
+      <c r="B477">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="478" spans="1:2">
+      <c r="A478" s="2">
+        <v>45734.95833333334</v>
+      </c>
+      <c r="B478">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="479" spans="1:2">
+      <c r="A479" s="2">
+        <v>45734.96875</v>
+      </c>
+      <c r="B479">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="480" spans="1:2">
+      <c r="A480" s="2">
+        <v>45734.97916666666</v>
+      </c>
+      <c r="B480">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="481" spans="1:2">
+      <c r="A481" s="2">
+        <v>45734.98958333334</v>
+      </c>
+      <c r="B481">
         <v>0</v>
       </c>
     </row>

--- a/data_fetching/Entsoe/Actual_Production_Hydro_Water_Reservoir.xlsx
+++ b/data_fetching/Entsoe/Actual_Production_Hydro_Water_Reservoir.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B289"/>
+  <dimension ref="A1:B193"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -397,2305 +397,1537 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2">
-        <v>45734</v>
+        <v>45739</v>
       </c>
       <c r="B2">
-        <v>212</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2">
-        <v>45734.01041666666</v>
+        <v>45739.01041666666</v>
       </c>
       <c r="B3">
-        <v>195</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2">
-        <v>45734.02083333334</v>
+        <v>45739.02083333334</v>
       </c>
       <c r="B4">
-        <v>195</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2">
-        <v>45734.03125</v>
+        <v>45739.03125</v>
       </c>
       <c r="B5">
-        <v>194</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2">
-        <v>45734.04166666666</v>
+        <v>45739.04166666666</v>
       </c>
       <c r="B6">
-        <v>191</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2">
-        <v>45734.05208333334</v>
+        <v>45739.05208333334</v>
       </c>
       <c r="B7">
-        <v>195</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2">
-        <v>45734.0625</v>
+        <v>45739.0625</v>
       </c>
       <c r="B8">
-        <v>222</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2">
-        <v>45734.07291666666</v>
+        <v>45739.07291666666</v>
       </c>
       <c r="B9">
-        <v>227</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2">
-        <v>45734.08333333334</v>
+        <v>45739.08333333334</v>
       </c>
       <c r="B10">
-        <v>229</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2">
-        <v>45734.09375</v>
+        <v>45739.09375</v>
       </c>
       <c r="B11">
-        <v>193</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2">
-        <v>45734.10416666666</v>
+        <v>45739.10416666666</v>
       </c>
       <c r="B12">
-        <v>190</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2">
-        <v>45734.11458333334</v>
+        <v>45739.11458333334</v>
       </c>
       <c r="B13">
-        <v>178</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2">
-        <v>45734.125</v>
+        <v>45739.125</v>
       </c>
       <c r="B14">
-        <v>173</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2">
-        <v>45734.13541666666</v>
+        <v>45739.13541666666</v>
       </c>
       <c r="B15">
-        <v>185</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2">
-        <v>45734.14583333334</v>
+        <v>45739.14583333334</v>
       </c>
       <c r="B16">
-        <v>197</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2">
-        <v>45734.15625</v>
+        <v>45739.15625</v>
       </c>
       <c r="B17">
-        <v>179</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2">
-        <v>45734.16666666666</v>
+        <v>45739.16666666666</v>
       </c>
       <c r="B18">
-        <v>211</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2">
-        <v>45734.17708333334</v>
+        <v>45739.17708333334</v>
       </c>
       <c r="B19">
-        <v>222</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2">
-        <v>45734.1875</v>
+        <v>45739.1875</v>
       </c>
       <c r="B20">
-        <v>232</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2">
-        <v>45734.19791666666</v>
+        <v>45739.19791666666</v>
       </c>
       <c r="B21">
-        <v>256</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2">
-        <v>45734.20833333334</v>
+        <v>45739.20833333334</v>
       </c>
       <c r="B22">
-        <v>232</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2">
-        <v>45734.21875</v>
+        <v>45739.21875</v>
       </c>
       <c r="B23">
-        <v>240</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2">
-        <v>45734.22916666666</v>
+        <v>45739.22916666666</v>
       </c>
       <c r="B24">
-        <v>247</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2">
-        <v>45734.23958333334</v>
+        <v>45739.23958333334</v>
       </c>
       <c r="B25">
-        <v>277</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2">
-        <v>45734.25</v>
+        <v>45739.25</v>
       </c>
       <c r="B26">
-        <v>293</v>
+        <v>81</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2">
-        <v>45734.26041666666</v>
+        <v>45739.26041666666</v>
       </c>
       <c r="B27">
-        <v>354</v>
+        <v>83</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2">
-        <v>45734.27083333334</v>
+        <v>45739.27083333334</v>
       </c>
       <c r="B28">
-        <v>340</v>
+        <v>85</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2">
-        <v>45734.28125</v>
+        <v>45739.28125</v>
       </c>
       <c r="B29">
-        <v>328</v>
+        <v>89</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2">
-        <v>45734.29166666666</v>
+        <v>45739.29166666666</v>
       </c>
       <c r="B30">
-        <v>359</v>
+        <v>131</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2">
-        <v>45734.30208333334</v>
+        <v>45739.30208333334</v>
       </c>
       <c r="B31">
-        <v>337</v>
+        <v>135</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2">
-        <v>45734.3125</v>
+        <v>45739.3125</v>
       </c>
       <c r="B32">
-        <v>327</v>
+        <v>135</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2">
-        <v>45734.32291666666</v>
+        <v>45739.32291666666</v>
       </c>
       <c r="B33">
-        <v>334</v>
+        <v>135</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2">
-        <v>45734.33333333334</v>
+        <v>45739.33333333334</v>
       </c>
       <c r="B34">
-        <v>244</v>
+        <v>88</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="2">
-        <v>45734.34375</v>
+        <v>45739.34375</v>
       </c>
       <c r="B35">
-        <v>229</v>
+        <v>86</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="2">
-        <v>45734.35416666666</v>
+        <v>45739.35416666666</v>
       </c>
       <c r="B36">
-        <v>228</v>
+        <v>86</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="2">
-        <v>45734.36458333334</v>
+        <v>45739.36458333334</v>
       </c>
       <c r="B37">
-        <v>227</v>
+        <v>87</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="2">
-        <v>45734.375</v>
+        <v>45739.375</v>
       </c>
       <c r="B38">
-        <v>156</v>
+        <v>57</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="2">
-        <v>45734.38541666666</v>
+        <v>45739.38541666666</v>
       </c>
       <c r="B39">
-        <v>143</v>
+        <v>57</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="2">
-        <v>45734.39583333334</v>
+        <v>45739.39583333334</v>
       </c>
       <c r="B40">
-        <v>137</v>
+        <v>53</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="2">
-        <v>45734.40625</v>
+        <v>45739.40625</v>
       </c>
       <c r="B41">
-        <v>135</v>
+        <v>57</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="2">
-        <v>45734.41666666666</v>
+        <v>45739.41666666666</v>
       </c>
       <c r="B42">
-        <v>128</v>
+        <v>58</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="2">
-        <v>45734.42708333334</v>
+        <v>45739.42708333334</v>
       </c>
       <c r="B43">
-        <v>121</v>
+        <v>57</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="2">
-        <v>45734.4375</v>
+        <v>45739.4375</v>
       </c>
       <c r="B44">
-        <v>105</v>
+        <v>58</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="2">
-        <v>45734.44791666666</v>
+        <v>45739.44791666666</v>
       </c>
       <c r="B45">
-        <v>97</v>
+        <v>58</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="2">
-        <v>45734.45833333334</v>
+        <v>45739.45833333334</v>
       </c>
       <c r="B46">
-        <v>106</v>
+        <v>48</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="2">
-        <v>45734.46875</v>
+        <v>45739.46875</v>
       </c>
       <c r="B47">
-        <v>94</v>
+        <v>46</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="2">
-        <v>45734.47916666666</v>
+        <v>45739.47916666666</v>
       </c>
       <c r="B48">
-        <v>94</v>
+        <v>46</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="2">
-        <v>45734.48958333334</v>
+        <v>45739.48958333334</v>
       </c>
       <c r="B49">
-        <v>94</v>
+        <v>46</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="2">
-        <v>45734.5</v>
+        <v>45739.5</v>
       </c>
       <c r="B50">
-        <v>86</v>
+        <v>46</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="2">
-        <v>45734.51041666666</v>
+        <v>45739.51041666666</v>
       </c>
       <c r="B51">
-        <v>92</v>
+        <v>47</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="2">
-        <v>45734.52083333334</v>
+        <v>45739.52083333334</v>
       </c>
       <c r="B52">
-        <v>118</v>
+        <v>44</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="2">
-        <v>45734.53125</v>
+        <v>45739.53125</v>
       </c>
       <c r="B53">
-        <v>105</v>
+        <v>44</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="2">
-        <v>45734.54166666666</v>
+        <v>45739.54166666666</v>
       </c>
       <c r="B54">
-        <v>99</v>
+        <v>36</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="2">
-        <v>45734.55208333334</v>
+        <v>45739.55208333334</v>
       </c>
       <c r="B55">
-        <v>99</v>
+        <v>29</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="2">
-        <v>45734.5625</v>
+        <v>45739.5625</v>
       </c>
       <c r="B56">
-        <v>104</v>
+        <v>28</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="2">
-        <v>45734.57291666666</v>
+        <v>45739.57291666666</v>
       </c>
       <c r="B57">
-        <v>106</v>
+        <v>30</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="2">
-        <v>45734.58333333334</v>
+        <v>45739.58333333334</v>
       </c>
       <c r="B58">
-        <v>146</v>
+        <v>45</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="2">
-        <v>45734.59375</v>
+        <v>45739.59375</v>
       </c>
       <c r="B59">
-        <v>175</v>
+        <v>45</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="2">
-        <v>45734.60416666666</v>
+        <v>45739.60416666666</v>
       </c>
       <c r="B60">
-        <v>174</v>
+        <v>45</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="2">
-        <v>45734.61458333334</v>
+        <v>45739.61458333334</v>
       </c>
       <c r="B61">
-        <v>177</v>
+        <v>47</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="2">
-        <v>45734.625</v>
+        <v>45739.625</v>
       </c>
       <c r="B62">
-        <v>175</v>
+        <v>50</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="2">
-        <v>45734.63541666666</v>
+        <v>45739.63541666666</v>
       </c>
       <c r="B63">
-        <v>187</v>
+        <v>50</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="2">
-        <v>45734.64583333334</v>
+        <v>45739.64583333334</v>
       </c>
       <c r="B64">
-        <v>210</v>
+        <v>50</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="2">
-        <v>45734.65625</v>
+        <v>45739.65625</v>
       </c>
       <c r="B65">
-        <v>221</v>
+        <v>50</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="2">
-        <v>45734.66666666666</v>
+        <v>45739.66666666666</v>
       </c>
       <c r="B66">
-        <v>190</v>
+        <v>72</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="2">
-        <v>45734.67708333334</v>
+        <v>45739.67708333334</v>
       </c>
       <c r="B67">
-        <v>192</v>
+        <v>72</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="2">
-        <v>45734.6875</v>
+        <v>45739.6875</v>
       </c>
       <c r="B68">
-        <v>208</v>
+        <v>82</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="2">
-        <v>45734.69791666666</v>
+        <v>45739.69791666666</v>
       </c>
       <c r="B69">
-        <v>257</v>
+        <v>81</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="2">
-        <v>45734.70833333334</v>
+        <v>45739.70833333334</v>
       </c>
       <c r="B70">
-        <v>307</v>
+        <v>121</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="2">
-        <v>45734.71875</v>
+        <v>45739.71875</v>
       </c>
       <c r="B71">
-        <v>371</v>
+        <v>127</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="2">
-        <v>45734.72916666666</v>
+        <v>45739.72916666666</v>
       </c>
       <c r="B72">
-        <v>365</v>
+        <v>127</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="2">
-        <v>45734.73958333334</v>
+        <v>45739.73958333334</v>
       </c>
       <c r="B73">
-        <v>364</v>
+        <v>130</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="2">
-        <v>45734.75</v>
+        <v>45739.75</v>
       </c>
       <c r="B74">
-        <v>369</v>
+        <v>197</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="2">
-        <v>45734.76041666666</v>
+        <v>45739.76041666666</v>
       </c>
       <c r="B75">
-        <v>310</v>
+        <v>199</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="2">
-        <v>45734.77083333334</v>
+        <v>45739.77083333334</v>
       </c>
       <c r="B76">
-        <v>259</v>
+        <v>200</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="2">
-        <v>45734.78125</v>
+        <v>45739.78125</v>
       </c>
       <c r="B77">
-        <v>263</v>
+        <v>201</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="2">
-        <v>45734.79166666666</v>
+        <v>45739.79166666666</v>
       </c>
       <c r="B78">
-        <v>350</v>
+        <v>243</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="2">
-        <v>45734.80208333334</v>
+        <v>45739.80208333334</v>
       </c>
       <c r="B79">
-        <v>355</v>
+        <v>245</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="2">
-        <v>45734.8125</v>
+        <v>45739.8125</v>
       </c>
       <c r="B80">
-        <v>353</v>
+        <v>244</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="2">
-        <v>45734.82291666666</v>
+        <v>45739.82291666666</v>
       </c>
       <c r="B81">
-        <v>354</v>
+        <v>244</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="2">
-        <v>45734.83333333334</v>
+        <v>45739.83333333334</v>
       </c>
       <c r="B82">
-        <v>335</v>
+        <v>238</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="2">
-        <v>45734.84375</v>
+        <v>45739.84375</v>
       </c>
       <c r="B83">
-        <v>334</v>
+        <v>239</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="2">
-        <v>45734.85416666666</v>
+        <v>45739.85416666666</v>
       </c>
       <c r="B84">
-        <v>336</v>
+        <v>238</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="2">
-        <v>45734.86458333334</v>
+        <v>45739.86458333334</v>
       </c>
       <c r="B85">
-        <v>333</v>
+        <v>245</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="2">
-        <v>45734.875</v>
+        <v>45739.875</v>
       </c>
       <c r="B86">
-        <v>268</v>
+        <v>231</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="2">
-        <v>45734.88541666666</v>
+        <v>45739.88541666666</v>
       </c>
       <c r="B87">
-        <v>258</v>
+        <v>219</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="2">
-        <v>45734.89583333334</v>
+        <v>45739.89583333334</v>
       </c>
       <c r="B88">
-        <v>256</v>
+        <v>218</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="2">
-        <v>45734.90625</v>
+        <v>45739.90625</v>
       </c>
       <c r="B89">
-        <v>250</v>
+        <v>216</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="2">
-        <v>45734.91666666666</v>
+        <v>45739.91666666666</v>
       </c>
       <c r="B90">
-        <v>187</v>
+        <v>82</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="2">
-        <v>45734.92708333334</v>
+        <v>45739.92708333334</v>
       </c>
       <c r="B91">
-        <v>184</v>
+        <v>81</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="2">
-        <v>45734.9375</v>
+        <v>45739.9375</v>
       </c>
       <c r="B92">
-        <v>184</v>
+        <v>81</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="2">
-        <v>45734.94791666666</v>
+        <v>45739.94791666666</v>
       </c>
       <c r="B93">
-        <v>184</v>
+        <v>82</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="2">
-        <v>45734.95833333334</v>
+        <v>45739.95833333334</v>
       </c>
       <c r="B94">
-        <v>229</v>
+        <v>147</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="2">
-        <v>45734.96875</v>
+        <v>45739.96875</v>
       </c>
       <c r="B95">
-        <v>221</v>
+        <v>167</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="2">
-        <v>45734.97916666666</v>
+        <v>45739.97916666666</v>
       </c>
       <c r="B96">
-        <v>222</v>
+        <v>174</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="2">
-        <v>45734.98958333334</v>
+        <v>45739.98958333334</v>
       </c>
       <c r="B97">
-        <v>230</v>
+        <v>174</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" s="2">
-        <v>45735</v>
+        <v>45740</v>
       </c>
       <c r="B98">
-        <v>283</v>
+        <v>148</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" s="2">
-        <v>45735.01041666666</v>
+        <v>45740.01041666666</v>
       </c>
       <c r="B99">
-        <v>271</v>
+        <v>145</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" s="2">
-        <v>45735.02083333334</v>
+        <v>45740.02083333334</v>
       </c>
       <c r="B100">
-        <v>269</v>
+        <v>146</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" s="2">
-        <v>45735.03125</v>
+        <v>45740.03125</v>
       </c>
       <c r="B101">
-        <v>274</v>
+        <v>146</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" s="2">
-        <v>45735.04166666666</v>
+        <v>45740.04166666666</v>
       </c>
       <c r="B102">
-        <v>226</v>
+        <v>139</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" s="2">
-        <v>45735.05208333334</v>
+        <v>45740.05208333334</v>
       </c>
       <c r="B103">
-        <v>223</v>
+        <v>138</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" s="2">
-        <v>45735.0625</v>
+        <v>45740.0625</v>
       </c>
       <c r="B104">
-        <v>223</v>
+        <v>137</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" s="2">
-        <v>45735.07291666666</v>
+        <v>45740.07291666666</v>
       </c>
       <c r="B105">
-        <v>223</v>
+        <v>140</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" s="2">
-        <v>45735.08333333334</v>
+        <v>45740.08333333334</v>
       </c>
       <c r="B106">
-        <v>200</v>
+        <v>153</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" s="2">
-        <v>45735.09375</v>
+        <v>45740.09375</v>
       </c>
       <c r="B107">
-        <v>186</v>
+        <v>153</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" s="2">
-        <v>45735.10416666666</v>
+        <v>45740.10416666666</v>
       </c>
       <c r="B108">
-        <v>178</v>
+        <v>153</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" s="2">
-        <v>45735.11458333334</v>
+        <v>45740.11458333334</v>
       </c>
       <c r="B109">
-        <v>172</v>
+        <v>152</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" s="2">
-        <v>45735.125</v>
+        <v>45740.125</v>
       </c>
       <c r="B110">
-        <v>172</v>
+        <v>152</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" s="2">
-        <v>45735.13541666666</v>
+        <v>45740.13541666666</v>
       </c>
       <c r="B111">
-        <v>173</v>
+        <v>152</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112" s="2">
-        <v>45735.14583333334</v>
+        <v>45740.14583333334</v>
       </c>
       <c r="B112">
-        <v>175</v>
+        <v>152</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" s="2">
-        <v>45735.15625</v>
+        <v>45740.15625</v>
       </c>
       <c r="B113">
-        <v>177</v>
+        <v>152</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" s="2">
-        <v>45735.16666666666</v>
+        <v>45740.16666666666</v>
       </c>
       <c r="B114">
-        <v>175</v>
+        <v>155</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" s="2">
-        <v>45735.17708333334</v>
+        <v>45740.17708333334</v>
       </c>
       <c r="B115">
-        <v>176</v>
+        <v>156</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" s="2">
-        <v>45735.1875</v>
+        <v>45740.1875</v>
       </c>
       <c r="B116">
-        <v>186</v>
+        <v>158</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117" s="2">
-        <v>45735.19791666666</v>
+        <v>45740.19791666666</v>
       </c>
       <c r="B117">
-        <v>215</v>
+        <v>161</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" s="2">
-        <v>45735.20833333334</v>
+        <v>45740.20833333334</v>
       </c>
       <c r="B118">
-        <v>261</v>
+        <v>171</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" s="2">
-        <v>45735.21875</v>
+        <v>45740.21875</v>
       </c>
       <c r="B119">
-        <v>260</v>
+        <v>172</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" s="2">
-        <v>45735.22916666666</v>
+        <v>45740.22916666666</v>
       </c>
       <c r="B120">
-        <v>263</v>
+        <v>171</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" s="2">
-        <v>45735.23958333334</v>
+        <v>45740.23958333334</v>
       </c>
       <c r="B121">
-        <v>268</v>
+        <v>178</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" s="2">
-        <v>45735.25</v>
+        <v>45740.25</v>
       </c>
       <c r="B122">
-        <v>341</v>
+        <v>260</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123" s="2">
-        <v>45735.26041666666</v>
+        <v>45740.26041666666</v>
       </c>
       <c r="B123">
-        <v>339</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" s="2">
-        <v>45735.27083333334</v>
+        <v>45740.27083333334</v>
       </c>
       <c r="B124">
-        <v>343</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" s="2">
-        <v>45735.28125</v>
+        <v>45740.28125</v>
       </c>
       <c r="B125">
-        <v>346</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" s="2">
-        <v>45735.29166666666</v>
+        <v>45740.29166666666</v>
       </c>
       <c r="B126">
-        <v>343</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127" s="2">
-        <v>45735.30208333334</v>
+        <v>45740.30208333334</v>
       </c>
       <c r="B127">
-        <v>341</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128" s="2">
-        <v>45735.3125</v>
+        <v>45740.3125</v>
       </c>
       <c r="B128">
-        <v>335</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" s="2">
-        <v>45735.32291666666</v>
+        <v>45740.32291666666</v>
       </c>
       <c r="B129">
-        <v>337</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" s="2">
-        <v>45735.33333333334</v>
+        <v>45740.33333333334</v>
       </c>
       <c r="B130">
-        <v>180</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" s="2">
-        <v>45735.34375</v>
+        <v>45740.34375</v>
       </c>
       <c r="B131">
-        <v>172</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132" s="2">
-        <v>45735.35416666666</v>
+        <v>45740.35416666666</v>
       </c>
       <c r="B132">
-        <v>169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" s="2">
-        <v>45735.36458333334</v>
+        <v>45740.36458333334</v>
       </c>
       <c r="B133">
-        <v>104</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134" s="2">
-        <v>45735.375</v>
+        <v>45740.375</v>
       </c>
       <c r="B134">
-        <v>212</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135" s="2">
-        <v>45735.38541666666</v>
+        <v>45740.38541666666</v>
       </c>
       <c r="B135">
-        <v>192</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136" s="2">
-        <v>45735.39583333334</v>
+        <v>45740.39583333334</v>
       </c>
       <c r="B136">
-        <v>128</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137" s="2">
-        <v>45735.40625</v>
+        <v>45740.40625</v>
       </c>
       <c r="B137">
-        <v>128</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:2">
       <c r="A138" s="2">
-        <v>45735.41666666666</v>
+        <v>45740.41666666666</v>
       </c>
       <c r="B138">
-        <v>125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:2">
       <c r="A139" s="2">
-        <v>45735.42708333334</v>
+        <v>45740.42708333334</v>
       </c>
       <c r="B139">
-        <v>106</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:2">
       <c r="A140" s="2">
-        <v>45735.4375</v>
+        <v>45740.4375</v>
       </c>
       <c r="B140">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:2">
       <c r="A141" s="2">
-        <v>45735.44791666666</v>
+        <v>45740.44791666666</v>
       </c>
       <c r="B141">
-        <v>94</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:2">
       <c r="A142" s="2">
-        <v>45735.45833333334</v>
+        <v>45740.45833333334</v>
       </c>
       <c r="B142">
-        <v>91</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:2">
       <c r="A143" s="2">
-        <v>45735.46875</v>
+        <v>45740.46875</v>
       </c>
       <c r="B143">
-        <v>89</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:2">
       <c r="A144" s="2">
-        <v>45735.47916666666</v>
+        <v>45740.47916666666</v>
       </c>
       <c r="B144">
-        <v>85</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:2">
       <c r="A145" s="2">
-        <v>45735.48958333334</v>
+        <v>45740.48958333334</v>
       </c>
       <c r="B145">
-        <v>77</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:2">
       <c r="A146" s="2">
-        <v>45735.5</v>
+        <v>45740.5</v>
       </c>
       <c r="B146">
-        <v>92</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:2">
       <c r="A147" s="2">
-        <v>45735.51041666666</v>
+        <v>45740.51041666666</v>
       </c>
       <c r="B147">
-        <v>97</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:2">
       <c r="A148" s="2">
-        <v>45735.52083333334</v>
+        <v>45740.52083333334</v>
       </c>
       <c r="B148">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:2">
       <c r="A149" s="2">
-        <v>45735.53125</v>
+        <v>45740.53125</v>
       </c>
       <c r="B149">
-        <v>92</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:2">
       <c r="A150" s="2">
-        <v>45735.54166666666</v>
+        <v>45740.54166666666</v>
       </c>
       <c r="B150">
-        <v>78</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:2">
       <c r="A151" s="2">
-        <v>45735.55208333334</v>
+        <v>45740.55208333334</v>
       </c>
       <c r="B151">
-        <v>78</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:2">
       <c r="A152" s="2">
-        <v>45735.5625</v>
+        <v>45740.5625</v>
       </c>
       <c r="B152">
-        <v>73</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:2">
       <c r="A153" s="2">
-        <v>45735.57291666666</v>
+        <v>45740.57291666666</v>
       </c>
       <c r="B153">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:2">
       <c r="A154" s="2">
-        <v>45735.58333333334</v>
+        <v>45740.58333333334</v>
       </c>
       <c r="B154">
-        <v>99</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:2">
       <c r="A155" s="2">
-        <v>45735.59375</v>
+        <v>45740.59375</v>
       </c>
       <c r="B155">
-        <v>112</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:2">
       <c r="A156" s="2">
-        <v>45735.60416666666</v>
+        <v>45740.60416666666</v>
       </c>
       <c r="B156">
-        <v>121</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:2">
       <c r="A157" s="2">
-        <v>45735.61458333334</v>
+        <v>45740.61458333334</v>
       </c>
       <c r="B157">
-        <v>155</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:2">
       <c r="A158" s="2">
-        <v>45735.625</v>
+        <v>45740.625</v>
       </c>
       <c r="B158">
-        <v>185</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:2">
       <c r="A159" s="2">
-        <v>45735.63541666666</v>
+        <v>45740.63541666666</v>
       </c>
       <c r="B159">
-        <v>193</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:2">
       <c r="A160" s="2">
-        <v>45735.64583333334</v>
+        <v>45740.64583333334</v>
       </c>
       <c r="B160">
-        <v>192</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:2">
       <c r="A161" s="2">
-        <v>45735.65625</v>
+        <v>45740.65625</v>
       </c>
       <c r="B161">
-        <v>195</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:2">
       <c r="A162" s="2">
-        <v>45735.66666666666</v>
+        <v>45740.66666666666</v>
       </c>
       <c r="B162">
-        <v>263</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:2">
       <c r="A163" s="2">
-        <v>45735.67708333334</v>
+        <v>45740.67708333334</v>
       </c>
       <c r="B163">
-        <v>274</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:2">
       <c r="A164" s="2">
-        <v>45735.6875</v>
+        <v>45740.6875</v>
       </c>
       <c r="B164">
-        <v>274</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:2">
       <c r="A165" s="2">
-        <v>45735.69791666666</v>
+        <v>45740.69791666666</v>
       </c>
       <c r="B165">
-        <v>339</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:2">
       <c r="A166" s="2">
-        <v>45735.70833333334</v>
+        <v>45740.70833333334</v>
       </c>
       <c r="B166">
-        <v>437</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:2">
       <c r="A167" s="2">
-        <v>45735.71875</v>
+        <v>45740.71875</v>
       </c>
       <c r="B167">
-        <v>444</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:2">
       <c r="A168" s="2">
-        <v>45735.72916666666</v>
+        <v>45740.72916666666</v>
       </c>
       <c r="B168">
-        <v>452</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:2">
       <c r="A169" s="2">
-        <v>45735.73958333334</v>
+        <v>45740.73958333334</v>
       </c>
       <c r="B169">
-        <v>542</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:2">
       <c r="A170" s="2">
-        <v>45735.75</v>
+        <v>45740.75</v>
       </c>
       <c r="B170">
-        <v>557</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:2">
       <c r="A171" s="2">
-        <v>45735.76041666666</v>
+        <v>45740.76041666666</v>
       </c>
       <c r="B171">
-        <v>572</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:2">
       <c r="A172" s="2">
-        <v>45735.77083333334</v>
+        <v>45740.77083333334</v>
       </c>
       <c r="B172">
-        <v>581</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:2">
       <c r="A173" s="2">
-        <v>45735.78125</v>
+        <v>45740.78125</v>
       </c>
       <c r="B173">
-        <v>583</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:2">
       <c r="A174" s="2">
-        <v>45735.79166666666</v>
+        <v>45740.79166666666</v>
       </c>
       <c r="B174">
-        <v>601</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:2">
       <c r="A175" s="2">
-        <v>45735.80208333334</v>
+        <v>45740.80208333334</v>
       </c>
       <c r="B175">
-        <v>584</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:2">
       <c r="A176" s="2">
-        <v>45735.8125</v>
+        <v>45740.8125</v>
       </c>
       <c r="B176">
-        <v>602</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:2">
       <c r="A177" s="2">
-        <v>45735.82291666666</v>
+        <v>45740.82291666666</v>
       </c>
       <c r="B177">
-        <v>575</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:2">
       <c r="A178" s="2">
-        <v>45735.83333333334</v>
+        <v>45740.83333333334</v>
       </c>
       <c r="B178">
-        <v>506</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:2">
       <c r="A179" s="2">
-        <v>45735.84375</v>
+        <v>45740.84375</v>
       </c>
       <c r="B179">
-        <v>492</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:2">
       <c r="A180" s="2">
-        <v>45735.85416666666</v>
+        <v>45740.85416666666</v>
       </c>
       <c r="B180">
-        <v>500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:2">
       <c r="A181" s="2">
-        <v>45735.86458333334</v>
+        <v>45740.86458333334</v>
       </c>
       <c r="B181">
-        <v>494</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:2">
       <c r="A182" s="2">
-        <v>45735.875</v>
+        <v>45740.875</v>
       </c>
       <c r="B182">
-        <v>471</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:2">
       <c r="A183" s="2">
-        <v>45735.88541666666</v>
+        <v>45740.88541666666</v>
       </c>
       <c r="B183">
-        <v>460</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:2">
       <c r="A184" s="2">
-        <v>45735.89583333334</v>
+        <v>45740.89583333334</v>
       </c>
       <c r="B184">
-        <v>462</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:2">
       <c r="A185" s="2">
-        <v>45735.90625</v>
+        <v>45740.90625</v>
       </c>
       <c r="B185">
-        <v>465</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:2">
       <c r="A186" s="2">
-        <v>45735.91666666666</v>
+        <v>45740.91666666666</v>
       </c>
       <c r="B186">
-        <v>278</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:2">
       <c r="A187" s="2">
-        <v>45735.92708333334</v>
+        <v>45740.92708333334</v>
       </c>
       <c r="B187">
-        <v>250</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:2">
       <c r="A188" s="2">
-        <v>45735.9375</v>
+        <v>45740.9375</v>
       </c>
       <c r="B188">
-        <v>245</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:2">
       <c r="A189" s="2">
-        <v>45735.94791666666</v>
+        <v>45740.94791666666</v>
       </c>
       <c r="B189">
-        <v>238</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:2">
       <c r="A190" s="2">
-        <v>45735.95833333334</v>
+        <v>45740.95833333334</v>
       </c>
       <c r="B190">
-        <v>236</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:2">
       <c r="A191" s="2">
-        <v>45735.96875</v>
+        <v>45740.96875</v>
       </c>
       <c r="B191">
-        <v>223</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:2">
       <c r="A192" s="2">
-        <v>45735.97916666666</v>
+        <v>45740.97916666666</v>
       </c>
       <c r="B192">
-        <v>217</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:2">
       <c r="A193" s="2">
-        <v>45735.98958333334</v>
+        <v>45740.98958333334</v>
       </c>
       <c r="B193">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="194" spans="1:2">
-      <c r="A194" s="2">
-        <v>45736</v>
-      </c>
-      <c r="B194">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="195" spans="1:2">
-      <c r="A195" s="2">
-        <v>45736.01041666666</v>
-      </c>
-      <c r="B195">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="196" spans="1:2">
-      <c r="A196" s="2">
-        <v>45736.02083333334</v>
-      </c>
-      <c r="B196">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="197" spans="1:2">
-      <c r="A197" s="2">
-        <v>45736.03125</v>
-      </c>
-      <c r="B197">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="198" spans="1:2">
-      <c r="A198" s="2">
-        <v>45736.04166666666</v>
-      </c>
-      <c r="B198">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="199" spans="1:2">
-      <c r="A199" s="2">
-        <v>45736.05208333334</v>
-      </c>
-      <c r="B199">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="200" spans="1:2">
-      <c r="A200" s="2">
-        <v>45736.0625</v>
-      </c>
-      <c r="B200">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="201" spans="1:2">
-      <c r="A201" s="2">
-        <v>45736.07291666666</v>
-      </c>
-      <c r="B201">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="202" spans="1:2">
-      <c r="A202" s="2">
-        <v>45736.08333333334</v>
-      </c>
-      <c r="B202">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="203" spans="1:2">
-      <c r="A203" s="2">
-        <v>45736.09375</v>
-      </c>
-      <c r="B203">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="204" spans="1:2">
-      <c r="A204" s="2">
-        <v>45736.10416666666</v>
-      </c>
-      <c r="B204">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="205" spans="1:2">
-      <c r="A205" s="2">
-        <v>45736.11458333334</v>
-      </c>
-      <c r="B205">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="206" spans="1:2">
-      <c r="A206" s="2">
-        <v>45736.125</v>
-      </c>
-      <c r="B206">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="207" spans="1:2">
-      <c r="A207" s="2">
-        <v>45736.13541666666</v>
-      </c>
-      <c r="B207">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="208" spans="1:2">
-      <c r="A208" s="2">
-        <v>45736.14583333334</v>
-      </c>
-      <c r="B208">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="209" spans="1:2">
-      <c r="A209" s="2">
-        <v>45736.15625</v>
-      </c>
-      <c r="B209">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="210" spans="1:2">
-      <c r="A210" s="2">
-        <v>45736.16666666666</v>
-      </c>
-      <c r="B210">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="211" spans="1:2">
-      <c r="A211" s="2">
-        <v>45736.17708333334</v>
-      </c>
-      <c r="B211">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="212" spans="1:2">
-      <c r="A212" s="2">
-        <v>45736.1875</v>
-      </c>
-      <c r="B212">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="213" spans="1:2">
-      <c r="A213" s="2">
-        <v>45736.19791666666</v>
-      </c>
-      <c r="B213">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="214" spans="1:2">
-      <c r="A214" s="2">
-        <v>45736.20833333334</v>
-      </c>
-      <c r="B214">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="215" spans="1:2">
-      <c r="A215" s="2">
-        <v>45736.21875</v>
-      </c>
-      <c r="B215">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="216" spans="1:2">
-      <c r="A216" s="2">
-        <v>45736.22916666666</v>
-      </c>
-      <c r="B216">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="217" spans="1:2">
-      <c r="A217" s="2">
-        <v>45736.23958333334</v>
-      </c>
-      <c r="B217">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="218" spans="1:2">
-      <c r="A218" s="2">
-        <v>45736.25</v>
-      </c>
-      <c r="B218">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="219" spans="1:2">
-      <c r="A219" s="2">
-        <v>45736.26041666666</v>
-      </c>
-      <c r="B219">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="220" spans="1:2">
-      <c r="A220" s="2">
-        <v>45736.27083333334</v>
-      </c>
-      <c r="B220">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="221" spans="1:2">
-      <c r="A221" s="2">
-        <v>45736.28125</v>
-      </c>
-      <c r="B221">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="222" spans="1:2">
-      <c r="A222" s="2">
-        <v>45736.29166666666</v>
-      </c>
-      <c r="B222">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="223" spans="1:2">
-      <c r="A223" s="2">
-        <v>45736.30208333334</v>
-      </c>
-      <c r="B223">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="224" spans="1:2">
-      <c r="A224" s="2">
-        <v>45736.3125</v>
-      </c>
-      <c r="B224">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="225" spans="1:2">
-      <c r="A225" s="2">
-        <v>45736.32291666666</v>
-      </c>
-      <c r="B225">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="226" spans="1:2">
-      <c r="A226" s="2">
-        <v>45736.33333333334</v>
-      </c>
-      <c r="B226">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="227" spans="1:2">
-      <c r="A227" s="2">
-        <v>45736.34375</v>
-      </c>
-      <c r="B227">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="228" spans="1:2">
-      <c r="A228" s="2">
-        <v>45736.35416666666</v>
-      </c>
-      <c r="B228">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="229" spans="1:2">
-      <c r="A229" s="2">
-        <v>45736.36458333334</v>
-      </c>
-      <c r="B229">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="230" spans="1:2">
-      <c r="A230" s="2">
-        <v>45736.375</v>
-      </c>
-      <c r="B230">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="231" spans="1:2">
-      <c r="A231" s="2">
-        <v>45736.38541666666</v>
-      </c>
-      <c r="B231">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="232" spans="1:2">
-      <c r="A232" s="2">
-        <v>45736.39583333334</v>
-      </c>
-      <c r="B232">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="233" spans="1:2">
-      <c r="A233" s="2">
-        <v>45736.40625</v>
-      </c>
-      <c r="B233">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="234" spans="1:2">
-      <c r="A234" s="2">
-        <v>45736.41666666666</v>
-      </c>
-      <c r="B234">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="235" spans="1:2">
-      <c r="A235" s="2">
-        <v>45736.42708333334</v>
-      </c>
-      <c r="B235">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="236" spans="1:2">
-      <c r="A236" s="2">
-        <v>45736.4375</v>
-      </c>
-      <c r="B236">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="237" spans="1:2">
-      <c r="A237" s="2">
-        <v>45736.44791666666</v>
-      </c>
-      <c r="B237">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="238" spans="1:2">
-      <c r="A238" s="2">
-        <v>45736.45833333334</v>
-      </c>
-      <c r="B238">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="239" spans="1:2">
-      <c r="A239" s="2">
-        <v>45736.46875</v>
-      </c>
-      <c r="B239">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="240" spans="1:2">
-      <c r="A240" s="2">
-        <v>45736.47916666666</v>
-      </c>
-      <c r="B240">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="241" spans="1:2">
-      <c r="A241" s="2">
-        <v>45736.48958333334</v>
-      </c>
-      <c r="B241">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="242" spans="1:2">
-      <c r="A242" s="2">
-        <v>45736.5</v>
-      </c>
-      <c r="B242">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="243" spans="1:2">
-      <c r="A243" s="2">
-        <v>45736.51041666666</v>
-      </c>
-      <c r="B243">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="244" spans="1:2">
-      <c r="A244" s="2">
-        <v>45736.52083333334</v>
-      </c>
-      <c r="B244">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="245" spans="1:2">
-      <c r="A245" s="2">
-        <v>45736.53125</v>
-      </c>
-      <c r="B245">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="246" spans="1:2">
-      <c r="A246" s="2">
-        <v>45736.54166666666</v>
-      </c>
-      <c r="B246">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="247" spans="1:2">
-      <c r="A247" s="2">
-        <v>45736.55208333334</v>
-      </c>
-      <c r="B247">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="248" spans="1:2">
-      <c r="A248" s="2">
-        <v>45736.5625</v>
-      </c>
-      <c r="B248">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="249" spans="1:2">
-      <c r="A249" s="2">
-        <v>45736.57291666666</v>
-      </c>
-      <c r="B249">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="250" spans="1:2">
-      <c r="A250" s="2">
-        <v>45736.58333333334</v>
-      </c>
-      <c r="B250">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="251" spans="1:2">
-      <c r="A251" s="2">
-        <v>45736.59375</v>
-      </c>
-      <c r="B251">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="252" spans="1:2">
-      <c r="A252" s="2">
-        <v>45736.60416666666</v>
-      </c>
-      <c r="B252">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="253" spans="1:2">
-      <c r="A253" s="2">
-        <v>45736.61458333334</v>
-      </c>
-      <c r="B253">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="254" spans="1:2">
-      <c r="A254" s="2">
-        <v>45736.625</v>
-      </c>
-      <c r="B254">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="255" spans="1:2">
-      <c r="A255" s="2">
-        <v>45736.63541666666</v>
-      </c>
-      <c r="B255">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="256" spans="1:2">
-      <c r="A256" s="2">
-        <v>45736.64583333334</v>
-      </c>
-      <c r="B256">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="257" spans="1:2">
-      <c r="A257" s="2">
-        <v>45736.65625</v>
-      </c>
-      <c r="B257">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="258" spans="1:2">
-      <c r="A258" s="2">
-        <v>45736.66666666666</v>
-      </c>
-      <c r="B258">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="259" spans="1:2">
-      <c r="A259" s="2">
-        <v>45736.67708333334</v>
-      </c>
-      <c r="B259">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="260" spans="1:2">
-      <c r="A260" s="2">
-        <v>45736.6875</v>
-      </c>
-      <c r="B260">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="261" spans="1:2">
-      <c r="A261" s="2">
-        <v>45736.69791666666</v>
-      </c>
-      <c r="B261">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="262" spans="1:2">
-      <c r="A262" s="2">
-        <v>45736.70833333334</v>
-      </c>
-      <c r="B262">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="263" spans="1:2">
-      <c r="A263" s="2">
-        <v>45736.71875</v>
-      </c>
-      <c r="B263">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="264" spans="1:2">
-      <c r="A264" s="2">
-        <v>45736.72916666666</v>
-      </c>
-      <c r="B264">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="265" spans="1:2">
-      <c r="A265" s="2">
-        <v>45736.73958333334</v>
-      </c>
-      <c r="B265">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="266" spans="1:2">
-      <c r="A266" s="2">
-        <v>45736.75</v>
-      </c>
-      <c r="B266">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="267" spans="1:2">
-      <c r="A267" s="2">
-        <v>45736.76041666666</v>
-      </c>
-      <c r="B267">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="268" spans="1:2">
-      <c r="A268" s="2">
-        <v>45736.77083333334</v>
-      </c>
-      <c r="B268">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="269" spans="1:2">
-      <c r="A269" s="2">
-        <v>45736.78125</v>
-      </c>
-      <c r="B269">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="270" spans="1:2">
-      <c r="A270" s="2">
-        <v>45736.79166666666</v>
-      </c>
-      <c r="B270">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="271" spans="1:2">
-      <c r="A271" s="2">
-        <v>45736.80208333334</v>
-      </c>
-      <c r="B271">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="272" spans="1:2">
-      <c r="A272" s="2">
-        <v>45736.8125</v>
-      </c>
-      <c r="B272">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="273" spans="1:2">
-      <c r="A273" s="2">
-        <v>45736.82291666666</v>
-      </c>
-      <c r="B273">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="274" spans="1:2">
-      <c r="A274" s="2">
-        <v>45736.83333333334</v>
-      </c>
-      <c r="B274">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="275" spans="1:2">
-      <c r="A275" s="2">
-        <v>45736.84375</v>
-      </c>
-      <c r="B275">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="276" spans="1:2">
-      <c r="A276" s="2">
-        <v>45736.85416666666</v>
-      </c>
-      <c r="B276">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="277" spans="1:2">
-      <c r="A277" s="2">
-        <v>45736.86458333334</v>
-      </c>
-      <c r="B277">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="278" spans="1:2">
-      <c r="A278" s="2">
-        <v>45736.875</v>
-      </c>
-      <c r="B278">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="279" spans="1:2">
-      <c r="A279" s="2">
-        <v>45736.88541666666</v>
-      </c>
-      <c r="B279">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="280" spans="1:2">
-      <c r="A280" s="2">
-        <v>45736.89583333334</v>
-      </c>
-      <c r="B280">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="281" spans="1:2">
-      <c r="A281" s="2">
-        <v>45736.90625</v>
-      </c>
-      <c r="B281">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="282" spans="1:2">
-      <c r="A282" s="2">
-        <v>45736.91666666666</v>
-      </c>
-      <c r="B282">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="283" spans="1:2">
-      <c r="A283" s="2">
-        <v>45736.92708333334</v>
-      </c>
-      <c r="B283">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="284" spans="1:2">
-      <c r="A284" s="2">
-        <v>45736.9375</v>
-      </c>
-      <c r="B284">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="285" spans="1:2">
-      <c r="A285" s="2">
-        <v>45736.94791666666</v>
-      </c>
-      <c r="B285">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="286" spans="1:2">
-      <c r="A286" s="2">
-        <v>45736.95833333334</v>
-      </c>
-      <c r="B286">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="287" spans="1:2">
-      <c r="A287" s="2">
-        <v>45736.96875</v>
-      </c>
-      <c r="B287">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="288" spans="1:2">
-      <c r="A288" s="2">
-        <v>45736.97916666666</v>
-      </c>
-      <c r="B288">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="289" spans="1:2">
-      <c r="A289" s="2">
-        <v>45736.98958333334</v>
-      </c>
-      <c r="B289">
         <v>0</v>
       </c>
     </row>

--- a/data_fetching/Entsoe/Actual_Production_Hydro_Water_Reservoir.xlsx
+++ b/data_fetching/Entsoe/Actual_Production_Hydro_Water_Reservoir.xlsx
@@ -397,1119 +397,1119 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2">
-        <v>45739</v>
+        <v>45740</v>
       </c>
       <c r="B2">
-        <v>25</v>
+        <v>148</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2">
-        <v>45739.01041666666</v>
+        <v>45740.01041666666</v>
       </c>
       <c r="B3">
-        <v>24</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2">
-        <v>45739.02083333334</v>
+        <v>45740.02083333334</v>
       </c>
       <c r="B4">
-        <v>22</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2">
-        <v>45739.03125</v>
+        <v>45740.03125</v>
       </c>
       <c r="B5">
-        <v>21</v>
+        <v>146</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2">
-        <v>45739.04166666666</v>
+        <v>45740.04166666666</v>
       </c>
       <c r="B6">
-        <v>17</v>
+        <v>139</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2">
-        <v>45739.05208333334</v>
+        <v>45740.05208333334</v>
       </c>
       <c r="B7">
-        <v>17</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2">
-        <v>45739.0625</v>
+        <v>45740.0625</v>
       </c>
       <c r="B8">
-        <v>17</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2">
-        <v>45739.07291666666</v>
+        <v>45740.07291666666</v>
       </c>
       <c r="B9">
-        <v>17</v>
+        <v>140</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2">
-        <v>45739.08333333334</v>
+        <v>45740.08333333334</v>
       </c>
       <c r="B10">
-        <v>18</v>
+        <v>153</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2">
-        <v>45739.09375</v>
+        <v>45740.09375</v>
       </c>
       <c r="B11">
-        <v>18</v>
+        <v>153</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2">
-        <v>45739.10416666666</v>
+        <v>45740.10416666666</v>
       </c>
       <c r="B12">
-        <v>18</v>
+        <v>153</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2">
-        <v>45739.11458333334</v>
+        <v>45740.11458333334</v>
       </c>
       <c r="B13">
-        <v>18</v>
+        <v>152</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2">
-        <v>45739.125</v>
+        <v>45740.125</v>
       </c>
       <c r="B14">
-        <v>17</v>
+        <v>152</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2">
-        <v>45739.13541666666</v>
+        <v>45740.13541666666</v>
       </c>
       <c r="B15">
-        <v>17</v>
+        <v>152</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2">
-        <v>45739.14583333334</v>
+        <v>45740.14583333334</v>
       </c>
       <c r="B16">
-        <v>17</v>
+        <v>152</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2">
-        <v>45739.15625</v>
+        <v>45740.15625</v>
       </c>
       <c r="B17">
-        <v>17</v>
+        <v>152</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2">
-        <v>45739.16666666666</v>
+        <v>45740.16666666666</v>
       </c>
       <c r="B18">
-        <v>21</v>
+        <v>155</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2">
-        <v>45739.17708333334</v>
+        <v>45740.17708333334</v>
       </c>
       <c r="B19">
-        <v>21</v>
+        <v>156</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2">
-        <v>45739.1875</v>
+        <v>45740.1875</v>
       </c>
       <c r="B20">
-        <v>21</v>
+        <v>158</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2">
-        <v>45739.19791666666</v>
+        <v>45740.19791666666</v>
       </c>
       <c r="B21">
-        <v>22</v>
+        <v>161</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2">
-        <v>45739.20833333334</v>
+        <v>45740.20833333334</v>
       </c>
       <c r="B22">
-        <v>43</v>
+        <v>171</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2">
-        <v>45739.21875</v>
+        <v>45740.21875</v>
       </c>
       <c r="B23">
-        <v>46</v>
+        <v>172</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2">
-        <v>45739.22916666666</v>
+        <v>45740.22916666666</v>
       </c>
       <c r="B24">
-        <v>46</v>
+        <v>171</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2">
-        <v>45739.23958333334</v>
+        <v>45740.23958333334</v>
       </c>
       <c r="B25">
-        <v>46</v>
+        <v>178</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2">
-        <v>45739.25</v>
+        <v>45740.25</v>
       </c>
       <c r="B26">
-        <v>81</v>
+        <v>260</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2">
-        <v>45739.26041666666</v>
+        <v>45740.26041666666</v>
       </c>
       <c r="B27">
-        <v>83</v>
+        <v>266</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2">
-        <v>45739.27083333334</v>
+        <v>45740.27083333334</v>
       </c>
       <c r="B28">
-        <v>85</v>
+        <v>269</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2">
-        <v>45739.28125</v>
+        <v>45740.28125</v>
       </c>
       <c r="B29">
-        <v>89</v>
+        <v>271</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2">
-        <v>45739.29166666666</v>
+        <v>45740.29166666666</v>
       </c>
       <c r="B30">
-        <v>131</v>
+        <v>291</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2">
-        <v>45739.30208333334</v>
+        <v>45740.30208333334</v>
       </c>
       <c r="B31">
-        <v>135</v>
+        <v>290</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2">
-        <v>45739.3125</v>
+        <v>45740.3125</v>
       </c>
       <c r="B32">
-        <v>135</v>
+        <v>288</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2">
-        <v>45739.32291666666</v>
+        <v>45740.32291666666</v>
       </c>
       <c r="B33">
-        <v>135</v>
+        <v>269</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2">
-        <v>45739.33333333334</v>
+        <v>45740.33333333334</v>
       </c>
       <c r="B34">
-        <v>88</v>
+        <v>230</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="2">
-        <v>45739.34375</v>
+        <v>45740.34375</v>
       </c>
       <c r="B35">
-        <v>86</v>
+        <v>240</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="2">
-        <v>45739.35416666666</v>
+        <v>45740.35416666666</v>
       </c>
       <c r="B36">
-        <v>86</v>
+        <v>256</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="2">
-        <v>45739.36458333334</v>
+        <v>45740.36458333334</v>
       </c>
       <c r="B37">
-        <v>87</v>
+        <v>259</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="2">
-        <v>45739.375</v>
+        <v>45740.375</v>
       </c>
       <c r="B38">
-        <v>57</v>
+        <v>241</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="2">
-        <v>45739.38541666666</v>
+        <v>45740.38541666666</v>
       </c>
       <c r="B39">
-        <v>57</v>
+        <v>241</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="2">
-        <v>45739.39583333334</v>
+        <v>45740.39583333334</v>
       </c>
       <c r="B40">
-        <v>53</v>
+        <v>241</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="2">
-        <v>45739.40625</v>
+        <v>45740.40625</v>
       </c>
       <c r="B41">
-        <v>57</v>
+        <v>242</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="2">
-        <v>45739.41666666666</v>
+        <v>45740.41666666666</v>
       </c>
       <c r="B42">
-        <v>58</v>
+        <v>159</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="2">
-        <v>45739.42708333334</v>
+        <v>45740.42708333334</v>
       </c>
       <c r="B43">
-        <v>57</v>
+        <v>157</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="2">
-        <v>45739.4375</v>
+        <v>45740.4375</v>
       </c>
       <c r="B44">
-        <v>58</v>
+        <v>155</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="2">
-        <v>45739.44791666666</v>
+        <v>45740.44791666666</v>
       </c>
       <c r="B45">
-        <v>58</v>
+        <v>154</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="2">
-        <v>45739.45833333334</v>
+        <v>45740.45833333334</v>
       </c>
       <c r="B46">
-        <v>48</v>
+        <v>134</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="2">
-        <v>45739.46875</v>
+        <v>45740.46875</v>
       </c>
       <c r="B47">
-        <v>46</v>
+        <v>145</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="2">
-        <v>45739.47916666666</v>
+        <v>45740.47916666666</v>
       </c>
       <c r="B48">
-        <v>46</v>
+        <v>160</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="2">
-        <v>45739.48958333334</v>
+        <v>45740.48958333334</v>
       </c>
       <c r="B49">
-        <v>46</v>
+        <v>161</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="2">
-        <v>45739.5</v>
+        <v>45740.5</v>
       </c>
       <c r="B50">
-        <v>46</v>
+        <v>144</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="2">
-        <v>45739.51041666666</v>
+        <v>45740.51041666666</v>
       </c>
       <c r="B51">
-        <v>47</v>
+        <v>135</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="2">
-        <v>45739.52083333334</v>
+        <v>45740.52083333334</v>
       </c>
       <c r="B52">
-        <v>44</v>
+        <v>111</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="2">
-        <v>45739.53125</v>
+        <v>45740.53125</v>
       </c>
       <c r="B53">
-        <v>44</v>
+        <v>146</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="2">
-        <v>45739.54166666666</v>
+        <v>45740.54166666666</v>
       </c>
       <c r="B54">
-        <v>36</v>
+        <v>138</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="2">
-        <v>45739.55208333334</v>
+        <v>45740.55208333334</v>
       </c>
       <c r="B55">
-        <v>29</v>
+        <v>138</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="2">
-        <v>45739.5625</v>
+        <v>45740.5625</v>
       </c>
       <c r="B56">
-        <v>28</v>
+        <v>140</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="2">
-        <v>45739.57291666666</v>
+        <v>45740.57291666666</v>
       </c>
       <c r="B57">
-        <v>30</v>
+        <v>146</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="2">
-        <v>45739.58333333334</v>
+        <v>45740.58333333334</v>
       </c>
       <c r="B58">
-        <v>45</v>
+        <v>199</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="2">
-        <v>45739.59375</v>
+        <v>45740.59375</v>
       </c>
       <c r="B59">
-        <v>45</v>
+        <v>201</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="2">
-        <v>45739.60416666666</v>
+        <v>45740.60416666666</v>
       </c>
       <c r="B60">
-        <v>45</v>
+        <v>197</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="2">
-        <v>45739.61458333334</v>
+        <v>45740.61458333334</v>
       </c>
       <c r="B61">
-        <v>47</v>
+        <v>200</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="2">
-        <v>45739.625</v>
+        <v>45740.625</v>
       </c>
       <c r="B62">
-        <v>50</v>
+        <v>201</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="2">
-        <v>45739.63541666666</v>
+        <v>45740.63541666666</v>
       </c>
       <c r="B63">
-        <v>50</v>
+        <v>197</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="2">
-        <v>45739.64583333334</v>
+        <v>45740.64583333334</v>
       </c>
       <c r="B64">
-        <v>50</v>
+        <v>198</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="2">
-        <v>45739.65625</v>
+        <v>45740.65625</v>
       </c>
       <c r="B65">
-        <v>50</v>
+        <v>206</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="2">
-        <v>45739.66666666666</v>
+        <v>45740.66666666666</v>
       </c>
       <c r="B66">
-        <v>72</v>
+        <v>232</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="2">
-        <v>45739.67708333334</v>
+        <v>45740.67708333334</v>
       </c>
       <c r="B67">
-        <v>72</v>
+        <v>232</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="2">
-        <v>45739.6875</v>
+        <v>45740.6875</v>
       </c>
       <c r="B68">
-        <v>82</v>
+        <v>231</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="2">
-        <v>45739.69791666666</v>
+        <v>45740.69791666666</v>
       </c>
       <c r="B69">
-        <v>81</v>
+        <v>234</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="2">
-        <v>45739.70833333334</v>
+        <v>45740.70833333334</v>
       </c>
       <c r="B70">
-        <v>121</v>
+        <v>307</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="2">
-        <v>45739.71875</v>
+        <v>45740.71875</v>
       </c>
       <c r="B71">
-        <v>127</v>
+        <v>309</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="2">
-        <v>45739.72916666666</v>
+        <v>45740.72916666666</v>
       </c>
       <c r="B72">
-        <v>127</v>
+        <v>311</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="2">
-        <v>45739.73958333334</v>
+        <v>45740.73958333334</v>
       </c>
       <c r="B73">
-        <v>130</v>
+        <v>327</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="2">
-        <v>45739.75</v>
+        <v>45740.75</v>
       </c>
       <c r="B74">
-        <v>197</v>
+        <v>537</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="2">
-        <v>45739.76041666666</v>
+        <v>45740.76041666666</v>
       </c>
       <c r="B75">
-        <v>199</v>
+        <v>550</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="2">
-        <v>45739.77083333334</v>
+        <v>45740.77083333334</v>
       </c>
       <c r="B76">
-        <v>200</v>
+        <v>538</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="2">
-        <v>45739.78125</v>
+        <v>45740.78125</v>
       </c>
       <c r="B77">
-        <v>201</v>
+        <v>547</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="2">
-        <v>45739.79166666666</v>
+        <v>45740.79166666666</v>
       </c>
       <c r="B78">
-        <v>243</v>
+        <v>535</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="2">
-        <v>45739.80208333334</v>
+        <v>45740.80208333334</v>
       </c>
       <c r="B79">
-        <v>245</v>
+        <v>538</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="2">
-        <v>45739.8125</v>
+        <v>45740.8125</v>
       </c>
       <c r="B80">
-        <v>244</v>
+        <v>537</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="2">
-        <v>45739.82291666666</v>
+        <v>45740.82291666666</v>
       </c>
       <c r="B81">
-        <v>244</v>
+        <v>536</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="2">
-        <v>45739.83333333334</v>
+        <v>45740.83333333334</v>
       </c>
       <c r="B82">
-        <v>238</v>
+        <v>324</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="2">
-        <v>45739.84375</v>
+        <v>45740.84375</v>
       </c>
       <c r="B83">
-        <v>239</v>
+        <v>324</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="2">
-        <v>45739.85416666666</v>
+        <v>45740.85416666666</v>
       </c>
       <c r="B84">
-        <v>238</v>
+        <v>325</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="2">
-        <v>45739.86458333334</v>
+        <v>45740.86458333334</v>
       </c>
       <c r="B85">
-        <v>245</v>
+        <v>316</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="2">
-        <v>45739.875</v>
+        <v>45740.875</v>
       </c>
       <c r="B86">
-        <v>231</v>
+        <v>238</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="2">
-        <v>45739.88541666666</v>
+        <v>45740.88541666666</v>
       </c>
       <c r="B87">
-        <v>219</v>
+        <v>227</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="2">
-        <v>45739.89583333334</v>
+        <v>45740.89583333334</v>
       </c>
       <c r="B88">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="2">
-        <v>45739.90625</v>
+        <v>45740.90625</v>
       </c>
       <c r="B89">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="2">
-        <v>45739.91666666666</v>
+        <v>45740.91666666666</v>
       </c>
       <c r="B90">
-        <v>82</v>
+        <v>199</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="2">
-        <v>45739.92708333334</v>
+        <v>45740.92708333334</v>
       </c>
       <c r="B91">
-        <v>81</v>
+        <v>201</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="2">
-        <v>45739.9375</v>
+        <v>45740.9375</v>
       </c>
       <c r="B92">
-        <v>81</v>
+        <v>201</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="2">
-        <v>45739.94791666666</v>
+        <v>45740.94791666666</v>
       </c>
       <c r="B93">
-        <v>82</v>
+        <v>199</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="2">
-        <v>45739.95833333334</v>
+        <v>45740.95833333334</v>
       </c>
       <c r="B94">
-        <v>147</v>
+        <v>191</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="2">
-        <v>45739.96875</v>
+        <v>45740.96875</v>
       </c>
       <c r="B95">
-        <v>167</v>
+        <v>174</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="2">
-        <v>45739.97916666666</v>
+        <v>45740.97916666666</v>
       </c>
       <c r="B96">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="2">
-        <v>45739.98958333334</v>
+        <v>45740.98958333334</v>
       </c>
       <c r="B97">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" s="2">
-        <v>45740</v>
+        <v>45741</v>
       </c>
       <c r="B98">
-        <v>148</v>
+        <v>172</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" s="2">
-        <v>45740.01041666666</v>
+        <v>45741.01041666666</v>
       </c>
       <c r="B99">
-        <v>145</v>
+        <v>171</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" s="2">
-        <v>45740.02083333334</v>
+        <v>45741.02083333334</v>
       </c>
       <c r="B100">
-        <v>146</v>
+        <v>171</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" s="2">
-        <v>45740.03125</v>
+        <v>45741.03125</v>
       </c>
       <c r="B101">
-        <v>146</v>
+        <v>170</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" s="2">
-        <v>45740.04166666666</v>
+        <v>45741.04166666666</v>
       </c>
       <c r="B102">
-        <v>139</v>
+        <v>170</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" s="2">
-        <v>45740.05208333334</v>
+        <v>45741.05208333334</v>
       </c>
       <c r="B103">
-        <v>138</v>
+        <v>170</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" s="2">
-        <v>45740.0625</v>
+        <v>45741.0625</v>
       </c>
       <c r="B104">
-        <v>137</v>
+        <v>170</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" s="2">
-        <v>45740.07291666666</v>
+        <v>45741.07291666666</v>
       </c>
       <c r="B105">
-        <v>140</v>
+        <v>170</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" s="2">
-        <v>45740.08333333334</v>
+        <v>45741.08333333334</v>
       </c>
       <c r="B106">
-        <v>153</v>
+        <v>171</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" s="2">
-        <v>45740.09375</v>
+        <v>45741.09375</v>
       </c>
       <c r="B107">
-        <v>153</v>
+        <v>170</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" s="2">
-        <v>45740.10416666666</v>
+        <v>45741.10416666666</v>
       </c>
       <c r="B108">
-        <v>153</v>
+        <v>168</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" s="2">
-        <v>45740.11458333334</v>
+        <v>45741.11458333334</v>
       </c>
       <c r="B109">
-        <v>152</v>
+        <v>168</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" s="2">
-        <v>45740.125</v>
+        <v>45741.125</v>
       </c>
       <c r="B110">
-        <v>152</v>
+        <v>160</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" s="2">
-        <v>45740.13541666666</v>
+        <v>45741.13541666666</v>
       </c>
       <c r="B111">
-        <v>152</v>
+        <v>158</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112" s="2">
-        <v>45740.14583333334</v>
+        <v>45741.14583333334</v>
       </c>
       <c r="B112">
-        <v>152</v>
+        <v>158</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" s="2">
-        <v>45740.15625</v>
+        <v>45741.15625</v>
       </c>
       <c r="B113">
-        <v>152</v>
+        <v>164</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" s="2">
-        <v>45740.16666666666</v>
+        <v>45741.16666666666</v>
       </c>
       <c r="B114">
-        <v>155</v>
+        <v>167</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" s="2">
-        <v>45740.17708333334</v>
+        <v>45741.17708333334</v>
       </c>
       <c r="B115">
-        <v>156</v>
+        <v>167</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" s="2">
-        <v>45740.1875</v>
+        <v>45741.1875</v>
       </c>
       <c r="B116">
-        <v>158</v>
+        <v>167</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117" s="2">
-        <v>45740.19791666666</v>
+        <v>45741.19791666666</v>
       </c>
       <c r="B117">
-        <v>161</v>
+        <v>168</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" s="2">
-        <v>45740.20833333334</v>
+        <v>45741.20833333334</v>
       </c>
       <c r="B118">
-        <v>171</v>
+        <v>177</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" s="2">
-        <v>45740.21875</v>
+        <v>45741.21875</v>
       </c>
       <c r="B119">
-        <v>172</v>
+        <v>178</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" s="2">
-        <v>45740.22916666666</v>
+        <v>45741.22916666666</v>
       </c>
       <c r="B120">
-        <v>171</v>
+        <v>181</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" s="2">
-        <v>45740.23958333334</v>
+        <v>45741.23958333334</v>
       </c>
       <c r="B121">
-        <v>178</v>
+        <v>188</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" s="2">
-        <v>45740.25</v>
+        <v>45741.25</v>
       </c>
       <c r="B122">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123" s="2">
-        <v>45740.26041666666</v>
+        <v>45741.26041666666</v>
       </c>
       <c r="B123">
-        <v>0</v>
+        <v>284</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" s="2">
-        <v>45740.27083333334</v>
+        <v>45741.27083333334</v>
       </c>
       <c r="B124">
-        <v>0</v>
+        <v>280</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" s="2">
-        <v>45740.28125</v>
+        <v>45741.28125</v>
       </c>
       <c r="B125">
-        <v>0</v>
+        <v>287</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" s="2">
-        <v>45740.29166666666</v>
+        <v>45741.29166666666</v>
       </c>
       <c r="B126">
-        <v>0</v>
+        <v>403</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127" s="2">
-        <v>45740.30208333334</v>
+        <v>45741.30208333334</v>
       </c>
       <c r="B127">
-        <v>0</v>
+        <v>408</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128" s="2">
-        <v>45740.3125</v>
+        <v>45741.3125</v>
       </c>
       <c r="B128">
-        <v>0</v>
+        <v>397</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" s="2">
-        <v>45740.32291666666</v>
+        <v>45741.32291666666</v>
       </c>
       <c r="B129">
-        <v>0</v>
+        <v>394</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" s="2">
-        <v>45740.33333333334</v>
+        <v>45741.33333333334</v>
       </c>
       <c r="B130">
-        <v>0</v>
+        <v>279</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" s="2">
-        <v>45740.34375</v>
+        <v>45741.34375</v>
       </c>
       <c r="B131">
-        <v>0</v>
+        <v>195</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132" s="2">
-        <v>45740.35416666666</v>
+        <v>45741.35416666666</v>
       </c>
       <c r="B132">
-        <v>0</v>
+        <v>194</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" s="2">
-        <v>45740.36458333334</v>
+        <v>45741.36458333334</v>
       </c>
       <c r="B133">
-        <v>0</v>
+        <v>186</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134" s="2">
-        <v>45740.375</v>
+        <v>45741.375</v>
       </c>
       <c r="B134">
-        <v>0</v>
+        <v>107</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135" s="2">
-        <v>45740.38541666666</v>
+        <v>45741.38541666666</v>
       </c>
       <c r="B135">
-        <v>0</v>
+        <v>101</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136" s="2">
-        <v>45740.39583333334</v>
+        <v>45741.39583333334</v>
       </c>
       <c r="B136">
-        <v>0</v>
+        <v>102</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137" s="2">
-        <v>45740.40625</v>
+        <v>45741.40625</v>
       </c>
       <c r="B137">
-        <v>0</v>
+        <v>102</v>
       </c>
     </row>
     <row r="138" spans="1:2">
       <c r="A138" s="2">
-        <v>45740.41666666666</v>
+        <v>45741.41666666666</v>
       </c>
       <c r="B138">
-        <v>0</v>
+        <v>87</v>
       </c>
     </row>
     <row r="139" spans="1:2">
       <c r="A139" s="2">
-        <v>45740.42708333334</v>
+        <v>45741.42708333334</v>
       </c>
       <c r="B139">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="140" spans="1:2">
       <c r="A140" s="2">
-        <v>45740.4375</v>
+        <v>45741.4375</v>
       </c>
       <c r="B140">
-        <v>0</v>
+        <v>98</v>
       </c>
     </row>
     <row r="141" spans="1:2">
       <c r="A141" s="2">
-        <v>45740.44791666666</v>
+        <v>45741.44791666666</v>
       </c>
       <c r="B141">
         <v>0</v>
@@ -1517,7 +1517,7 @@
     </row>
     <row r="142" spans="1:2">
       <c r="A142" s="2">
-        <v>45740.45833333334</v>
+        <v>45741.45833333334</v>
       </c>
       <c r="B142">
         <v>0</v>
@@ -1525,7 +1525,7 @@
     </row>
     <row r="143" spans="1:2">
       <c r="A143" s="2">
-        <v>45740.46875</v>
+        <v>45741.46875</v>
       </c>
       <c r="B143">
         <v>0</v>
@@ -1533,7 +1533,7 @@
     </row>
     <row r="144" spans="1:2">
       <c r="A144" s="2">
-        <v>45740.47916666666</v>
+        <v>45741.47916666666</v>
       </c>
       <c r="B144">
         <v>0</v>
@@ -1541,7 +1541,7 @@
     </row>
     <row r="145" spans="1:2">
       <c r="A145" s="2">
-        <v>45740.48958333334</v>
+        <v>45741.48958333334</v>
       </c>
       <c r="B145">
         <v>0</v>
@@ -1549,7 +1549,7 @@
     </row>
     <row r="146" spans="1:2">
       <c r="A146" s="2">
-        <v>45740.5</v>
+        <v>45741.5</v>
       </c>
       <c r="B146">
         <v>0</v>
@@ -1557,7 +1557,7 @@
     </row>
     <row r="147" spans="1:2">
       <c r="A147" s="2">
-        <v>45740.51041666666</v>
+        <v>45741.51041666666</v>
       </c>
       <c r="B147">
         <v>0</v>
@@ -1565,7 +1565,7 @@
     </row>
     <row r="148" spans="1:2">
       <c r="A148" s="2">
-        <v>45740.52083333334</v>
+        <v>45741.52083333334</v>
       </c>
       <c r="B148">
         <v>0</v>
@@ -1573,7 +1573,7 @@
     </row>
     <row r="149" spans="1:2">
       <c r="A149" s="2">
-        <v>45740.53125</v>
+        <v>45741.53125</v>
       </c>
       <c r="B149">
         <v>0</v>
@@ -1581,7 +1581,7 @@
     </row>
     <row r="150" spans="1:2">
       <c r="A150" s="2">
-        <v>45740.54166666666</v>
+        <v>45741.54166666666</v>
       </c>
       <c r="B150">
         <v>0</v>
@@ -1589,7 +1589,7 @@
     </row>
     <row r="151" spans="1:2">
       <c r="A151" s="2">
-        <v>45740.55208333334</v>
+        <v>45741.55208333334</v>
       </c>
       <c r="B151">
         <v>0</v>
@@ -1597,7 +1597,7 @@
     </row>
     <row r="152" spans="1:2">
       <c r="A152" s="2">
-        <v>45740.5625</v>
+        <v>45741.5625</v>
       </c>
       <c r="B152">
         <v>0</v>
@@ -1605,7 +1605,7 @@
     </row>
     <row r="153" spans="1:2">
       <c r="A153" s="2">
-        <v>45740.57291666666</v>
+        <v>45741.57291666666</v>
       </c>
       <c r="B153">
         <v>0</v>
@@ -1613,7 +1613,7 @@
     </row>
     <row r="154" spans="1:2">
       <c r="A154" s="2">
-        <v>45740.58333333334</v>
+        <v>45741.58333333334</v>
       </c>
       <c r="B154">
         <v>0</v>
@@ -1621,7 +1621,7 @@
     </row>
     <row r="155" spans="1:2">
       <c r="A155" s="2">
-        <v>45740.59375</v>
+        <v>45741.59375</v>
       </c>
       <c r="B155">
         <v>0</v>
@@ -1629,7 +1629,7 @@
     </row>
     <row r="156" spans="1:2">
       <c r="A156" s="2">
-        <v>45740.60416666666</v>
+        <v>45741.60416666666</v>
       </c>
       <c r="B156">
         <v>0</v>
@@ -1637,7 +1637,7 @@
     </row>
     <row r="157" spans="1:2">
       <c r="A157" s="2">
-        <v>45740.61458333334</v>
+        <v>45741.61458333334</v>
       </c>
       <c r="B157">
         <v>0</v>
@@ -1645,7 +1645,7 @@
     </row>
     <row r="158" spans="1:2">
       <c r="A158" s="2">
-        <v>45740.625</v>
+        <v>45741.625</v>
       </c>
       <c r="B158">
         <v>0</v>
@@ -1653,7 +1653,7 @@
     </row>
     <row r="159" spans="1:2">
       <c r="A159" s="2">
-        <v>45740.63541666666</v>
+        <v>45741.63541666666</v>
       </c>
       <c r="B159">
         <v>0</v>
@@ -1661,7 +1661,7 @@
     </row>
     <row r="160" spans="1:2">
       <c r="A160" s="2">
-        <v>45740.64583333334</v>
+        <v>45741.64583333334</v>
       </c>
       <c r="B160">
         <v>0</v>
@@ -1669,7 +1669,7 @@
     </row>
     <row r="161" spans="1:2">
       <c r="A161" s="2">
-        <v>45740.65625</v>
+        <v>45741.65625</v>
       </c>
       <c r="B161">
         <v>0</v>
@@ -1677,7 +1677,7 @@
     </row>
     <row r="162" spans="1:2">
       <c r="A162" s="2">
-        <v>45740.66666666666</v>
+        <v>45741.66666666666</v>
       </c>
       <c r="B162">
         <v>0</v>
@@ -1685,7 +1685,7 @@
     </row>
     <row r="163" spans="1:2">
       <c r="A163" s="2">
-        <v>45740.67708333334</v>
+        <v>45741.67708333334</v>
       </c>
       <c r="B163">
         <v>0</v>
@@ -1693,7 +1693,7 @@
     </row>
     <row r="164" spans="1:2">
       <c r="A164" s="2">
-        <v>45740.6875</v>
+        <v>45741.6875</v>
       </c>
       <c r="B164">
         <v>0</v>
@@ -1701,7 +1701,7 @@
     </row>
     <row r="165" spans="1:2">
       <c r="A165" s="2">
-        <v>45740.69791666666</v>
+        <v>45741.69791666666</v>
       </c>
       <c r="B165">
         <v>0</v>
@@ -1709,7 +1709,7 @@
     </row>
     <row r="166" spans="1:2">
       <c r="A166" s="2">
-        <v>45740.70833333334</v>
+        <v>45741.70833333334</v>
       </c>
       <c r="B166">
         <v>0</v>
@@ -1717,7 +1717,7 @@
     </row>
     <row r="167" spans="1:2">
       <c r="A167" s="2">
-        <v>45740.71875</v>
+        <v>45741.71875</v>
       </c>
       <c r="B167">
         <v>0</v>
@@ -1725,7 +1725,7 @@
     </row>
     <row r="168" spans="1:2">
       <c r="A168" s="2">
-        <v>45740.72916666666</v>
+        <v>45741.72916666666</v>
       </c>
       <c r="B168">
         <v>0</v>
@@ -1733,7 +1733,7 @@
     </row>
     <row r="169" spans="1:2">
       <c r="A169" s="2">
-        <v>45740.73958333334</v>
+        <v>45741.73958333334</v>
       </c>
       <c r="B169">
         <v>0</v>
@@ -1741,7 +1741,7 @@
     </row>
     <row r="170" spans="1:2">
       <c r="A170" s="2">
-        <v>45740.75</v>
+        <v>45741.75</v>
       </c>
       <c r="B170">
         <v>0</v>
@@ -1749,7 +1749,7 @@
     </row>
     <row r="171" spans="1:2">
       <c r="A171" s="2">
-        <v>45740.76041666666</v>
+        <v>45741.76041666666</v>
       </c>
       <c r="B171">
         <v>0</v>
@@ -1757,7 +1757,7 @@
     </row>
     <row r="172" spans="1:2">
       <c r="A172" s="2">
-        <v>45740.77083333334</v>
+        <v>45741.77083333334</v>
       </c>
       <c r="B172">
         <v>0</v>
@@ -1765,7 +1765,7 @@
     </row>
     <row r="173" spans="1:2">
       <c r="A173" s="2">
-        <v>45740.78125</v>
+        <v>45741.78125</v>
       </c>
       <c r="B173">
         <v>0</v>
@@ -1773,7 +1773,7 @@
     </row>
     <row r="174" spans="1:2">
       <c r="A174" s="2">
-        <v>45740.79166666666</v>
+        <v>45741.79166666666</v>
       </c>
       <c r="B174">
         <v>0</v>
@@ -1781,7 +1781,7 @@
     </row>
     <row r="175" spans="1:2">
       <c r="A175" s="2">
-        <v>45740.80208333334</v>
+        <v>45741.80208333334</v>
       </c>
       <c r="B175">
         <v>0</v>
@@ -1789,7 +1789,7 @@
     </row>
     <row r="176" spans="1:2">
       <c r="A176" s="2">
-        <v>45740.8125</v>
+        <v>45741.8125</v>
       </c>
       <c r="B176">
         <v>0</v>
@@ -1797,7 +1797,7 @@
     </row>
     <row r="177" spans="1:2">
       <c r="A177" s="2">
-        <v>45740.82291666666</v>
+        <v>45741.82291666666</v>
       </c>
       <c r="B177">
         <v>0</v>
@@ -1805,7 +1805,7 @@
     </row>
     <row r="178" spans="1:2">
       <c r="A178" s="2">
-        <v>45740.83333333334</v>
+        <v>45741.83333333334</v>
       </c>
       <c r="B178">
         <v>0</v>
@@ -1813,7 +1813,7 @@
     </row>
     <row r="179" spans="1:2">
       <c r="A179" s="2">
-        <v>45740.84375</v>
+        <v>45741.84375</v>
       </c>
       <c r="B179">
         <v>0</v>
@@ -1821,7 +1821,7 @@
     </row>
     <row r="180" spans="1:2">
       <c r="A180" s="2">
-        <v>45740.85416666666</v>
+        <v>45741.85416666666</v>
       </c>
       <c r="B180">
         <v>0</v>
@@ -1829,7 +1829,7 @@
     </row>
     <row r="181" spans="1:2">
       <c r="A181" s="2">
-        <v>45740.86458333334</v>
+        <v>45741.86458333334</v>
       </c>
       <c r="B181">
         <v>0</v>
@@ -1837,7 +1837,7 @@
     </row>
     <row r="182" spans="1:2">
       <c r="A182" s="2">
-        <v>45740.875</v>
+        <v>45741.875</v>
       </c>
       <c r="B182">
         <v>0</v>
@@ -1845,7 +1845,7 @@
     </row>
     <row r="183" spans="1:2">
       <c r="A183" s="2">
-        <v>45740.88541666666</v>
+        <v>45741.88541666666</v>
       </c>
       <c r="B183">
         <v>0</v>
@@ -1853,7 +1853,7 @@
     </row>
     <row r="184" spans="1:2">
       <c r="A184" s="2">
-        <v>45740.89583333334</v>
+        <v>45741.89583333334</v>
       </c>
       <c r="B184">
         <v>0</v>
@@ -1861,7 +1861,7 @@
     </row>
     <row r="185" spans="1:2">
       <c r="A185" s="2">
-        <v>45740.90625</v>
+        <v>45741.90625</v>
       </c>
       <c r="B185">
         <v>0</v>
@@ -1869,7 +1869,7 @@
     </row>
     <row r="186" spans="1:2">
       <c r="A186" s="2">
-        <v>45740.91666666666</v>
+        <v>45741.91666666666</v>
       </c>
       <c r="B186">
         <v>0</v>
@@ -1877,7 +1877,7 @@
     </row>
     <row r="187" spans="1:2">
       <c r="A187" s="2">
-        <v>45740.92708333334</v>
+        <v>45741.92708333334</v>
       </c>
       <c r="B187">
         <v>0</v>
@@ -1885,7 +1885,7 @@
     </row>
     <row r="188" spans="1:2">
       <c r="A188" s="2">
-        <v>45740.9375</v>
+        <v>45741.9375</v>
       </c>
       <c r="B188">
         <v>0</v>
@@ -1893,7 +1893,7 @@
     </row>
     <row r="189" spans="1:2">
       <c r="A189" s="2">
-        <v>45740.94791666666</v>
+        <v>45741.94791666666</v>
       </c>
       <c r="B189">
         <v>0</v>
@@ -1901,7 +1901,7 @@
     </row>
     <row r="190" spans="1:2">
       <c r="A190" s="2">
-        <v>45740.95833333334</v>
+        <v>45741.95833333334</v>
       </c>
       <c r="B190">
         <v>0</v>
@@ -1909,7 +1909,7 @@
     </row>
     <row r="191" spans="1:2">
       <c r="A191" s="2">
-        <v>45740.96875</v>
+        <v>45741.96875</v>
       </c>
       <c r="B191">
         <v>0</v>
@@ -1917,7 +1917,7 @@
     </row>
     <row r="192" spans="1:2">
       <c r="A192" s="2">
-        <v>45740.97916666666</v>
+        <v>45741.97916666666</v>
       </c>
       <c r="B192">
         <v>0</v>
@@ -1925,7 +1925,7 @@
     </row>
     <row r="193" spans="1:2">
       <c r="A193" s="2">
-        <v>45740.98958333334</v>
+        <v>45741.98958333334</v>
       </c>
       <c r="B193">
         <v>0</v>

--- a/data_fetching/Entsoe/Actual_Production_Hydro_Water_Reservoir.xlsx
+++ b/data_fetching/Entsoe/Actual_Production_Hydro_Water_Reservoir.xlsx
@@ -397,1119 +397,1119 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2">
-        <v>45740</v>
+        <v>45743</v>
       </c>
       <c r="B2">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2">
-        <v>45740.01041666666</v>
+        <v>45743.01041666666</v>
       </c>
       <c r="B3">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2">
-        <v>45740.02083333334</v>
+        <v>45743.02083333334</v>
       </c>
       <c r="B4">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2">
-        <v>45740.03125</v>
+        <v>45743.03125</v>
       </c>
       <c r="B5">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2">
-        <v>45740.04166666666</v>
+        <v>45743.04166666666</v>
       </c>
       <c r="B6">
-        <v>139</v>
+        <v>148</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2">
-        <v>45740.05208333334</v>
+        <v>45743.05208333334</v>
       </c>
       <c r="B7">
-        <v>138</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2">
-        <v>45740.0625</v>
+        <v>45743.0625</v>
       </c>
       <c r="B8">
-        <v>137</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2">
-        <v>45740.07291666666</v>
+        <v>45743.07291666666</v>
       </c>
       <c r="B9">
-        <v>140</v>
+        <v>149</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2">
-        <v>45740.08333333334</v>
+        <v>45743.08333333334</v>
       </c>
       <c r="B10">
-        <v>153</v>
+        <v>142</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2">
-        <v>45740.09375</v>
+        <v>45743.09375</v>
       </c>
       <c r="B11">
-        <v>153</v>
+        <v>147</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2">
-        <v>45740.10416666666</v>
+        <v>45743.10416666666</v>
       </c>
       <c r="B12">
-        <v>153</v>
+        <v>147</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2">
-        <v>45740.11458333334</v>
+        <v>45743.11458333334</v>
       </c>
       <c r="B13">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2">
-        <v>45740.125</v>
+        <v>45743.125</v>
       </c>
       <c r="B14">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2">
-        <v>45740.13541666666</v>
+        <v>45743.13541666666</v>
       </c>
       <c r="B15">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2">
-        <v>45740.14583333334</v>
+        <v>45743.14583333334</v>
       </c>
       <c r="B16">
-        <v>152</v>
+        <v>146</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2">
-        <v>45740.15625</v>
+        <v>45743.15625</v>
       </c>
       <c r="B17">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2">
-        <v>45740.16666666666</v>
+        <v>45743.16666666666</v>
       </c>
       <c r="B18">
-        <v>155</v>
+        <v>145</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2">
-        <v>45740.17708333334</v>
+        <v>45743.17708333334</v>
       </c>
       <c r="B19">
-        <v>156</v>
+        <v>145</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2">
-        <v>45740.1875</v>
+        <v>45743.1875</v>
       </c>
       <c r="B20">
-        <v>158</v>
+        <v>146</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2">
-        <v>45740.19791666666</v>
+        <v>45743.19791666666</v>
       </c>
       <c r="B21">
-        <v>161</v>
+        <v>153</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2">
-        <v>45740.20833333334</v>
+        <v>45743.20833333334</v>
       </c>
       <c r="B22">
-        <v>171</v>
+        <v>209</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2">
-        <v>45740.21875</v>
+        <v>45743.21875</v>
       </c>
       <c r="B23">
-        <v>172</v>
+        <v>219</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2">
-        <v>45740.22916666666</v>
+        <v>45743.22916666666</v>
       </c>
       <c r="B24">
-        <v>171</v>
+        <v>218</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2">
-        <v>45740.23958333334</v>
+        <v>45743.23958333334</v>
       </c>
       <c r="B25">
-        <v>178</v>
+        <v>217</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2">
-        <v>45740.25</v>
+        <v>45743.25</v>
       </c>
       <c r="B26">
-        <v>260</v>
+        <v>283</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2">
-        <v>45740.26041666666</v>
+        <v>45743.26041666666</v>
       </c>
       <c r="B27">
-        <v>266</v>
+        <v>292</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2">
-        <v>45740.27083333334</v>
+        <v>45743.27083333334</v>
       </c>
       <c r="B28">
-        <v>269</v>
+        <v>294</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2">
-        <v>45740.28125</v>
+        <v>45743.28125</v>
       </c>
       <c r="B29">
-        <v>271</v>
+        <v>307</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2">
-        <v>45740.29166666666</v>
+        <v>45743.29166666666</v>
       </c>
       <c r="B30">
-        <v>291</v>
+        <v>413</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2">
-        <v>45740.30208333334</v>
+        <v>45743.30208333334</v>
       </c>
       <c r="B31">
-        <v>290</v>
+        <v>428</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2">
-        <v>45740.3125</v>
+        <v>45743.3125</v>
       </c>
       <c r="B32">
-        <v>288</v>
+        <v>435</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2">
-        <v>45740.32291666666</v>
+        <v>45743.32291666666</v>
       </c>
       <c r="B33">
-        <v>269</v>
+        <v>431</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2">
-        <v>45740.33333333334</v>
+        <v>45743.33333333334</v>
       </c>
       <c r="B34">
-        <v>230</v>
+        <v>372</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="2">
-        <v>45740.34375</v>
+        <v>45743.34375</v>
       </c>
       <c r="B35">
-        <v>240</v>
+        <v>366</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="2">
-        <v>45740.35416666666</v>
+        <v>45743.35416666666</v>
       </c>
       <c r="B36">
-        <v>256</v>
+        <v>360</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="2">
-        <v>45740.36458333334</v>
+        <v>45743.36458333334</v>
       </c>
       <c r="B37">
-        <v>259</v>
+        <v>358</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="2">
-        <v>45740.375</v>
+        <v>45743.375</v>
       </c>
       <c r="B38">
-        <v>241</v>
+        <v>247</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="2">
-        <v>45740.38541666666</v>
+        <v>45743.38541666666</v>
       </c>
       <c r="B39">
-        <v>241</v>
+        <v>249</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="2">
-        <v>45740.39583333334</v>
+        <v>45743.39583333334</v>
       </c>
       <c r="B40">
-        <v>241</v>
+        <v>250</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="2">
-        <v>45740.40625</v>
+        <v>45743.40625</v>
       </c>
       <c r="B41">
-        <v>242</v>
+        <v>247</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="2">
-        <v>45740.41666666666</v>
+        <v>45743.41666666666</v>
       </c>
       <c r="B42">
-        <v>159</v>
+        <v>232</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="2">
-        <v>45740.42708333334</v>
+        <v>45743.42708333334</v>
       </c>
       <c r="B43">
-        <v>157</v>
+        <v>230</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="2">
-        <v>45740.4375</v>
+        <v>45743.4375</v>
       </c>
       <c r="B44">
-        <v>155</v>
+        <v>220</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="2">
-        <v>45740.44791666666</v>
+        <v>45743.44791666666</v>
       </c>
       <c r="B45">
-        <v>154</v>
+        <v>230</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="2">
-        <v>45740.45833333334</v>
+        <v>45743.45833333334</v>
       </c>
       <c r="B46">
-        <v>134</v>
+        <v>150</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="2">
-        <v>45740.46875</v>
+        <v>45743.46875</v>
       </c>
       <c r="B47">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="2">
-        <v>45740.47916666666</v>
+        <v>45743.47916666666</v>
       </c>
       <c r="B48">
-        <v>160</v>
+        <v>146</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="2">
-        <v>45740.48958333334</v>
+        <v>45743.48958333334</v>
       </c>
       <c r="B49">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="2">
-        <v>45740.5</v>
+        <v>45743.5</v>
       </c>
       <c r="B50">
-        <v>144</v>
+        <v>149</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="2">
-        <v>45740.51041666666</v>
+        <v>45743.51041666666</v>
       </c>
       <c r="B51">
-        <v>135</v>
+        <v>152</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="2">
-        <v>45740.52083333334</v>
+        <v>45743.52083333334</v>
       </c>
       <c r="B52">
-        <v>111</v>
+        <v>212</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="2">
-        <v>45740.53125</v>
+        <v>45743.53125</v>
       </c>
       <c r="B53">
-        <v>146</v>
+        <v>210</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="2">
-        <v>45740.54166666666</v>
+        <v>45743.54166666666</v>
       </c>
       <c r="B54">
-        <v>138</v>
+        <v>219</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="2">
-        <v>45740.55208333334</v>
+        <v>45743.55208333334</v>
       </c>
       <c r="B55">
-        <v>138</v>
+        <v>220</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="2">
-        <v>45740.5625</v>
+        <v>45743.5625</v>
       </c>
       <c r="B56">
-        <v>140</v>
+        <v>218</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="2">
-        <v>45740.57291666666</v>
+        <v>45743.57291666666</v>
       </c>
       <c r="B57">
-        <v>146</v>
+        <v>215</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="2">
-        <v>45740.58333333334</v>
+        <v>45743.58333333334</v>
       </c>
       <c r="B58">
-        <v>199</v>
+        <v>181</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="2">
-        <v>45740.59375</v>
+        <v>45743.59375</v>
       </c>
       <c r="B59">
-        <v>201</v>
+        <v>191</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="2">
-        <v>45740.60416666666</v>
+        <v>45743.60416666666</v>
       </c>
       <c r="B60">
-        <v>197</v>
+        <v>181</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="2">
-        <v>45740.61458333334</v>
+        <v>45743.61458333334</v>
       </c>
       <c r="B61">
-        <v>200</v>
+        <v>192</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="2">
-        <v>45740.625</v>
+        <v>45743.625</v>
       </c>
       <c r="B62">
-        <v>201</v>
+        <v>262</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="2">
-        <v>45740.63541666666</v>
+        <v>45743.63541666666</v>
       </c>
       <c r="B63">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="2">
-        <v>45740.64583333334</v>
+        <v>45743.64583333334</v>
       </c>
       <c r="B64">
-        <v>198</v>
+        <v>182</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="2">
-        <v>45740.65625</v>
+        <v>45743.65625</v>
       </c>
       <c r="B65">
-        <v>206</v>
+        <v>173</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="2">
-        <v>45740.66666666666</v>
+        <v>45743.66666666666</v>
       </c>
       <c r="B66">
-        <v>232</v>
+        <v>187</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="2">
-        <v>45740.67708333334</v>
+        <v>45743.67708333334</v>
       </c>
       <c r="B67">
-        <v>232</v>
+        <v>188</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="2">
-        <v>45740.6875</v>
+        <v>45743.6875</v>
       </c>
       <c r="B68">
-        <v>231</v>
+        <v>187</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="2">
-        <v>45740.69791666666</v>
+        <v>45743.69791666666</v>
       </c>
       <c r="B69">
-        <v>234</v>
+        <v>190</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="2">
-        <v>45740.70833333334</v>
+        <v>45743.70833333334</v>
       </c>
       <c r="B70">
-        <v>307</v>
+        <v>332</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="2">
-        <v>45740.71875</v>
+        <v>45743.71875</v>
       </c>
       <c r="B71">
-        <v>309</v>
+        <v>339</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="2">
-        <v>45740.72916666666</v>
+        <v>45743.72916666666</v>
       </c>
       <c r="B72">
-        <v>311</v>
+        <v>345</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="2">
-        <v>45740.73958333334</v>
+        <v>45743.73958333334</v>
       </c>
       <c r="B73">
-        <v>327</v>
+        <v>353</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="2">
-        <v>45740.75</v>
+        <v>45743.75</v>
       </c>
       <c r="B74">
-        <v>537</v>
+        <v>580</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="2">
-        <v>45740.76041666666</v>
+        <v>45743.76041666666</v>
       </c>
       <c r="B75">
-        <v>550</v>
+        <v>596</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="2">
-        <v>45740.77083333334</v>
+        <v>45743.77083333334</v>
       </c>
       <c r="B76">
-        <v>538</v>
+        <v>598</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="2">
-        <v>45740.78125</v>
+        <v>45743.78125</v>
       </c>
       <c r="B77">
-        <v>547</v>
+        <v>606</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="2">
-        <v>45740.79166666666</v>
+        <v>45743.79166666666</v>
       </c>
       <c r="B78">
-        <v>535</v>
+        <v>575</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="2">
-        <v>45740.80208333334</v>
+        <v>45743.80208333334</v>
       </c>
       <c r="B79">
-        <v>538</v>
+        <v>474</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="2">
-        <v>45740.8125</v>
+        <v>45743.8125</v>
       </c>
       <c r="B80">
-        <v>537</v>
+        <v>463</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="2">
-        <v>45740.82291666666</v>
+        <v>45743.82291666666</v>
       </c>
       <c r="B81">
-        <v>536</v>
+        <v>459</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="2">
-        <v>45740.83333333334</v>
+        <v>45743.83333333334</v>
       </c>
       <c r="B82">
-        <v>324</v>
+        <v>349</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="2">
-        <v>45740.84375</v>
+        <v>45743.84375</v>
       </c>
       <c r="B83">
-        <v>324</v>
+        <v>339</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="2">
-        <v>45740.85416666666</v>
+        <v>45743.85416666666</v>
       </c>
       <c r="B84">
-        <v>325</v>
+        <v>427</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="2">
-        <v>45740.86458333334</v>
+        <v>45743.86458333334</v>
       </c>
       <c r="B85">
-        <v>316</v>
+        <v>422</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="2">
-        <v>45740.875</v>
+        <v>45743.875</v>
       </c>
       <c r="B86">
-        <v>238</v>
+        <v>205</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="2">
-        <v>45740.88541666666</v>
+        <v>45743.88541666666</v>
       </c>
       <c r="B87">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="2">
-        <v>45740.89583333334</v>
+        <v>45743.89583333334</v>
       </c>
       <c r="B88">
-        <v>217</v>
+        <v>249</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="2">
-        <v>45740.90625</v>
+        <v>45743.90625</v>
       </c>
       <c r="B89">
-        <v>214</v>
+        <v>247</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="2">
-        <v>45740.91666666666</v>
+        <v>45743.91666666666</v>
       </c>
       <c r="B90">
-        <v>199</v>
+        <v>137</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="2">
-        <v>45740.92708333334</v>
+        <v>45743.92708333334</v>
       </c>
       <c r="B91">
-        <v>201</v>
+        <v>109</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="2">
-        <v>45740.9375</v>
+        <v>45743.9375</v>
       </c>
       <c r="B92">
-        <v>201</v>
+        <v>107</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="2">
-        <v>45740.94791666666</v>
+        <v>45743.94791666666</v>
       </c>
       <c r="B93">
-        <v>199</v>
+        <v>100</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="2">
-        <v>45740.95833333334</v>
+        <v>45743.95833333334</v>
       </c>
       <c r="B94">
-        <v>191</v>
+        <v>56</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="2">
-        <v>45740.96875</v>
+        <v>45743.96875</v>
       </c>
       <c r="B95">
-        <v>174</v>
+        <v>47</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="2">
-        <v>45740.97916666666</v>
+        <v>45743.97916666666</v>
       </c>
       <c r="B96">
-        <v>173</v>
+        <v>41</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="2">
-        <v>45740.98958333334</v>
+        <v>45743.98958333334</v>
       </c>
       <c r="B97">
-        <v>171</v>
+        <v>41</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" s="2">
-        <v>45741</v>
+        <v>45744</v>
       </c>
       <c r="B98">
-        <v>172</v>
+        <v>38</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" s="2">
-        <v>45741.01041666666</v>
+        <v>45744.01041666666</v>
       </c>
       <c r="B99">
-        <v>171</v>
+        <v>38</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" s="2">
-        <v>45741.02083333334</v>
+        <v>45744.02083333334</v>
       </c>
       <c r="B100">
-        <v>171</v>
+        <v>38</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" s="2">
-        <v>45741.03125</v>
+        <v>45744.03125</v>
       </c>
       <c r="B101">
-        <v>170</v>
+        <v>38</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" s="2">
-        <v>45741.04166666666</v>
+        <v>45744.04166666666</v>
       </c>
       <c r="B102">
-        <v>170</v>
+        <v>38</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" s="2">
-        <v>45741.05208333334</v>
+        <v>45744.05208333334</v>
       </c>
       <c r="B103">
-        <v>170</v>
+        <v>38</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" s="2">
-        <v>45741.0625</v>
+        <v>45744.0625</v>
       </c>
       <c r="B104">
-        <v>170</v>
+        <v>38</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" s="2">
-        <v>45741.07291666666</v>
+        <v>45744.07291666666</v>
       </c>
       <c r="B105">
-        <v>170</v>
+        <v>38</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" s="2">
-        <v>45741.08333333334</v>
+        <v>45744.08333333334</v>
       </c>
       <c r="B106">
-        <v>171</v>
+        <v>38</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" s="2">
-        <v>45741.09375</v>
+        <v>45744.09375</v>
       </c>
       <c r="B107">
-        <v>170</v>
+        <v>38</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" s="2">
-        <v>45741.10416666666</v>
+        <v>45744.10416666666</v>
       </c>
       <c r="B108">
-        <v>168</v>
+        <v>37</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" s="2">
-        <v>45741.11458333334</v>
+        <v>45744.11458333334</v>
       </c>
       <c r="B109">
-        <v>168</v>
+        <v>38</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" s="2">
-        <v>45741.125</v>
+        <v>45744.125</v>
       </c>
       <c r="B110">
-        <v>160</v>
+        <v>41</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" s="2">
-        <v>45741.13541666666</v>
+        <v>45744.13541666666</v>
       </c>
       <c r="B111">
-        <v>158</v>
+        <v>41</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112" s="2">
-        <v>45741.14583333334</v>
+        <v>45744.14583333334</v>
       </c>
       <c r="B112">
-        <v>158</v>
+        <v>41</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" s="2">
-        <v>45741.15625</v>
+        <v>45744.15625</v>
       </c>
       <c r="B113">
-        <v>164</v>
+        <v>41</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" s="2">
-        <v>45741.16666666666</v>
+        <v>45744.16666666666</v>
       </c>
       <c r="B114">
-        <v>167</v>
+        <v>41</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" s="2">
-        <v>45741.17708333334</v>
+        <v>45744.17708333334</v>
       </c>
       <c r="B115">
-        <v>167</v>
+        <v>41</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" s="2">
-        <v>45741.1875</v>
+        <v>45744.1875</v>
       </c>
       <c r="B116">
-        <v>167</v>
+        <v>42</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117" s="2">
-        <v>45741.19791666666</v>
+        <v>45744.19791666666</v>
       </c>
       <c r="B117">
-        <v>168</v>
+        <v>45</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" s="2">
-        <v>45741.20833333334</v>
+        <v>45744.20833333334</v>
       </c>
       <c r="B118">
-        <v>177</v>
+        <v>86</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" s="2">
-        <v>45741.21875</v>
+        <v>45744.21875</v>
       </c>
       <c r="B119">
-        <v>178</v>
+        <v>112</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" s="2">
-        <v>45741.22916666666</v>
+        <v>45744.22916666666</v>
       </c>
       <c r="B120">
-        <v>181</v>
+        <v>119</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" s="2">
-        <v>45741.23958333334</v>
+        <v>45744.23958333334</v>
       </c>
       <c r="B121">
-        <v>188</v>
+        <v>127</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" s="2">
-        <v>45741.25</v>
+        <v>45744.25</v>
       </c>
       <c r="B122">
-        <v>261</v>
+        <v>235</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123" s="2">
-        <v>45741.26041666666</v>
+        <v>45744.26041666666</v>
       </c>
       <c r="B123">
-        <v>284</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" s="2">
-        <v>45741.27083333334</v>
+        <v>45744.27083333334</v>
       </c>
       <c r="B124">
-        <v>280</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" s="2">
-        <v>45741.28125</v>
+        <v>45744.28125</v>
       </c>
       <c r="B125">
-        <v>287</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" s="2">
-        <v>45741.29166666666</v>
+        <v>45744.29166666666</v>
       </c>
       <c r="B126">
-        <v>403</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127" s="2">
-        <v>45741.30208333334</v>
+        <v>45744.30208333334</v>
       </c>
       <c r="B127">
-        <v>408</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128" s="2">
-        <v>45741.3125</v>
+        <v>45744.3125</v>
       </c>
       <c r="B128">
-        <v>397</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" s="2">
-        <v>45741.32291666666</v>
+        <v>45744.32291666666</v>
       </c>
       <c r="B129">
-        <v>394</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" s="2">
-        <v>45741.33333333334</v>
+        <v>45744.33333333334</v>
       </c>
       <c r="B130">
-        <v>279</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" s="2">
-        <v>45741.34375</v>
+        <v>45744.34375</v>
       </c>
       <c r="B131">
-        <v>195</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132" s="2">
-        <v>45741.35416666666</v>
+        <v>45744.35416666666</v>
       </c>
       <c r="B132">
-        <v>194</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" s="2">
-        <v>45741.36458333334</v>
+        <v>45744.36458333334</v>
       </c>
       <c r="B133">
-        <v>186</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134" s="2">
-        <v>45741.375</v>
+        <v>45744.375</v>
       </c>
       <c r="B134">
-        <v>107</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135" s="2">
-        <v>45741.38541666666</v>
+        <v>45744.38541666666</v>
       </c>
       <c r="B135">
-        <v>101</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136" s="2">
-        <v>45741.39583333334</v>
+        <v>45744.39583333334</v>
       </c>
       <c r="B136">
-        <v>102</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137" s="2">
-        <v>45741.40625</v>
+        <v>45744.40625</v>
       </c>
       <c r="B137">
-        <v>102</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:2">
       <c r="A138" s="2">
-        <v>45741.41666666666</v>
+        <v>45744.41666666666</v>
       </c>
       <c r="B138">
-        <v>87</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:2">
       <c r="A139" s="2">
-        <v>45741.42708333334</v>
+        <v>45744.42708333334</v>
       </c>
       <c r="B139">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:2">
       <c r="A140" s="2">
-        <v>45741.4375</v>
+        <v>45744.4375</v>
       </c>
       <c r="B140">
-        <v>98</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:2">
       <c r="A141" s="2">
-        <v>45741.44791666666</v>
+        <v>45744.44791666666</v>
       </c>
       <c r="B141">
         <v>0</v>
@@ -1517,7 +1517,7 @@
     </row>
     <row r="142" spans="1:2">
       <c r="A142" s="2">
-        <v>45741.45833333334</v>
+        <v>45744.45833333334</v>
       </c>
       <c r="B142">
         <v>0</v>
@@ -1525,7 +1525,7 @@
     </row>
     <row r="143" spans="1:2">
       <c r="A143" s="2">
-        <v>45741.46875</v>
+        <v>45744.46875</v>
       </c>
       <c r="B143">
         <v>0</v>
@@ -1533,7 +1533,7 @@
     </row>
     <row r="144" spans="1:2">
       <c r="A144" s="2">
-        <v>45741.47916666666</v>
+        <v>45744.47916666666</v>
       </c>
       <c r="B144">
         <v>0</v>
@@ -1541,7 +1541,7 @@
     </row>
     <row r="145" spans="1:2">
       <c r="A145" s="2">
-        <v>45741.48958333334</v>
+        <v>45744.48958333334</v>
       </c>
       <c r="B145">
         <v>0</v>
@@ -1549,7 +1549,7 @@
     </row>
     <row r="146" spans="1:2">
       <c r="A146" s="2">
-        <v>45741.5</v>
+        <v>45744.5</v>
       </c>
       <c r="B146">
         <v>0</v>
@@ -1557,7 +1557,7 @@
     </row>
     <row r="147" spans="1:2">
       <c r="A147" s="2">
-        <v>45741.51041666666</v>
+        <v>45744.51041666666</v>
       </c>
       <c r="B147">
         <v>0</v>
@@ -1565,7 +1565,7 @@
     </row>
     <row r="148" spans="1:2">
       <c r="A148" s="2">
-        <v>45741.52083333334</v>
+        <v>45744.52083333334</v>
       </c>
       <c r="B148">
         <v>0</v>
@@ -1573,7 +1573,7 @@
     </row>
     <row r="149" spans="1:2">
       <c r="A149" s="2">
-        <v>45741.53125</v>
+        <v>45744.53125</v>
       </c>
       <c r="B149">
         <v>0</v>
@@ -1581,7 +1581,7 @@
     </row>
     <row r="150" spans="1:2">
       <c r="A150" s="2">
-        <v>45741.54166666666</v>
+        <v>45744.54166666666</v>
       </c>
       <c r="B150">
         <v>0</v>
@@ -1589,7 +1589,7 @@
     </row>
     <row r="151" spans="1:2">
       <c r="A151" s="2">
-        <v>45741.55208333334</v>
+        <v>45744.55208333334</v>
       </c>
       <c r="B151">
         <v>0</v>
@@ -1597,7 +1597,7 @@
     </row>
     <row r="152" spans="1:2">
       <c r="A152" s="2">
-        <v>45741.5625</v>
+        <v>45744.5625</v>
       </c>
       <c r="B152">
         <v>0</v>
@@ -1605,7 +1605,7 @@
     </row>
     <row r="153" spans="1:2">
       <c r="A153" s="2">
-        <v>45741.57291666666</v>
+        <v>45744.57291666666</v>
       </c>
       <c r="B153">
         <v>0</v>
@@ -1613,7 +1613,7 @@
     </row>
     <row r="154" spans="1:2">
       <c r="A154" s="2">
-        <v>45741.58333333334</v>
+        <v>45744.58333333334</v>
       </c>
       <c r="B154">
         <v>0</v>
@@ -1621,7 +1621,7 @@
     </row>
     <row r="155" spans="1:2">
       <c r="A155" s="2">
-        <v>45741.59375</v>
+        <v>45744.59375</v>
       </c>
       <c r="B155">
         <v>0</v>
@@ -1629,7 +1629,7 @@
     </row>
     <row r="156" spans="1:2">
       <c r="A156" s="2">
-        <v>45741.60416666666</v>
+        <v>45744.60416666666</v>
       </c>
       <c r="B156">
         <v>0</v>
@@ -1637,7 +1637,7 @@
     </row>
     <row r="157" spans="1:2">
       <c r="A157" s="2">
-        <v>45741.61458333334</v>
+        <v>45744.61458333334</v>
       </c>
       <c r="B157">
         <v>0</v>
@@ -1645,7 +1645,7 @@
     </row>
     <row r="158" spans="1:2">
       <c r="A158" s="2">
-        <v>45741.625</v>
+        <v>45744.625</v>
       </c>
       <c r="B158">
         <v>0</v>
@@ -1653,7 +1653,7 @@
     </row>
     <row r="159" spans="1:2">
       <c r="A159" s="2">
-        <v>45741.63541666666</v>
+        <v>45744.63541666666</v>
       </c>
       <c r="B159">
         <v>0</v>
@@ -1661,7 +1661,7 @@
     </row>
     <row r="160" spans="1:2">
       <c r="A160" s="2">
-        <v>45741.64583333334</v>
+        <v>45744.64583333334</v>
       </c>
       <c r="B160">
         <v>0</v>
@@ -1669,7 +1669,7 @@
     </row>
     <row r="161" spans="1:2">
       <c r="A161" s="2">
-        <v>45741.65625</v>
+        <v>45744.65625</v>
       </c>
       <c r="B161">
         <v>0</v>
@@ -1677,7 +1677,7 @@
     </row>
     <row r="162" spans="1:2">
       <c r="A162" s="2">
-        <v>45741.66666666666</v>
+        <v>45744.66666666666</v>
       </c>
       <c r="B162">
         <v>0</v>
@@ -1685,7 +1685,7 @@
     </row>
     <row r="163" spans="1:2">
       <c r="A163" s="2">
-        <v>45741.67708333334</v>
+        <v>45744.67708333334</v>
       </c>
       <c r="B163">
         <v>0</v>
@@ -1693,7 +1693,7 @@
     </row>
     <row r="164" spans="1:2">
       <c r="A164" s="2">
-        <v>45741.6875</v>
+        <v>45744.6875</v>
       </c>
       <c r="B164">
         <v>0</v>
@@ -1701,7 +1701,7 @@
     </row>
     <row r="165" spans="1:2">
       <c r="A165" s="2">
-        <v>45741.69791666666</v>
+        <v>45744.69791666666</v>
       </c>
       <c r="B165">
         <v>0</v>
@@ -1709,7 +1709,7 @@
     </row>
     <row r="166" spans="1:2">
       <c r="A166" s="2">
-        <v>45741.70833333334</v>
+        <v>45744.70833333334</v>
       </c>
       <c r="B166">
         <v>0</v>
@@ -1717,7 +1717,7 @@
     </row>
     <row r="167" spans="1:2">
       <c r="A167" s="2">
-        <v>45741.71875</v>
+        <v>45744.71875</v>
       </c>
       <c r="B167">
         <v>0</v>
@@ -1725,7 +1725,7 @@
     </row>
     <row r="168" spans="1:2">
       <c r="A168" s="2">
-        <v>45741.72916666666</v>
+        <v>45744.72916666666</v>
       </c>
       <c r="B168">
         <v>0</v>
@@ -1733,7 +1733,7 @@
     </row>
     <row r="169" spans="1:2">
       <c r="A169" s="2">
-        <v>45741.73958333334</v>
+        <v>45744.73958333334</v>
       </c>
       <c r="B169">
         <v>0</v>
@@ -1741,7 +1741,7 @@
     </row>
     <row r="170" spans="1:2">
       <c r="A170" s="2">
-        <v>45741.75</v>
+        <v>45744.75</v>
       </c>
       <c r="B170">
         <v>0</v>
@@ -1749,7 +1749,7 @@
     </row>
     <row r="171" spans="1:2">
       <c r="A171" s="2">
-        <v>45741.76041666666</v>
+        <v>45744.76041666666</v>
       </c>
       <c r="B171">
         <v>0</v>
@@ -1757,7 +1757,7 @@
     </row>
     <row r="172" spans="1:2">
       <c r="A172" s="2">
-        <v>45741.77083333334</v>
+        <v>45744.77083333334</v>
       </c>
       <c r="B172">
         <v>0</v>
@@ -1765,7 +1765,7 @@
     </row>
     <row r="173" spans="1:2">
       <c r="A173" s="2">
-        <v>45741.78125</v>
+        <v>45744.78125</v>
       </c>
       <c r="B173">
         <v>0</v>
@@ -1773,7 +1773,7 @@
     </row>
     <row r="174" spans="1:2">
       <c r="A174" s="2">
-        <v>45741.79166666666</v>
+        <v>45744.79166666666</v>
       </c>
       <c r="B174">
         <v>0</v>
@@ -1781,7 +1781,7 @@
     </row>
     <row r="175" spans="1:2">
       <c r="A175" s="2">
-        <v>45741.80208333334</v>
+        <v>45744.80208333334</v>
       </c>
       <c r="B175">
         <v>0</v>
@@ -1789,7 +1789,7 @@
     </row>
     <row r="176" spans="1:2">
       <c r="A176" s="2">
-        <v>45741.8125</v>
+        <v>45744.8125</v>
       </c>
       <c r="B176">
         <v>0</v>
@@ -1797,7 +1797,7 @@
     </row>
     <row r="177" spans="1:2">
       <c r="A177" s="2">
-        <v>45741.82291666666</v>
+        <v>45744.82291666666</v>
       </c>
       <c r="B177">
         <v>0</v>
@@ -1805,7 +1805,7 @@
     </row>
     <row r="178" spans="1:2">
       <c r="A178" s="2">
-        <v>45741.83333333334</v>
+        <v>45744.83333333334</v>
       </c>
       <c r="B178">
         <v>0</v>
@@ -1813,7 +1813,7 @@
     </row>
     <row r="179" spans="1:2">
       <c r="A179" s="2">
-        <v>45741.84375</v>
+        <v>45744.84375</v>
       </c>
       <c r="B179">
         <v>0</v>
@@ -1821,7 +1821,7 @@
     </row>
     <row r="180" spans="1:2">
       <c r="A180" s="2">
-        <v>45741.85416666666</v>
+        <v>45744.85416666666</v>
       </c>
       <c r="B180">
         <v>0</v>
@@ -1829,7 +1829,7 @@
     </row>
     <row r="181" spans="1:2">
       <c r="A181" s="2">
-        <v>45741.86458333334</v>
+        <v>45744.86458333334</v>
       </c>
       <c r="B181">
         <v>0</v>
@@ -1837,7 +1837,7 @@
     </row>
     <row r="182" spans="1:2">
       <c r="A182" s="2">
-        <v>45741.875</v>
+        <v>45744.875</v>
       </c>
       <c r="B182">
         <v>0</v>
@@ -1845,7 +1845,7 @@
     </row>
     <row r="183" spans="1:2">
       <c r="A183" s="2">
-        <v>45741.88541666666</v>
+        <v>45744.88541666666</v>
       </c>
       <c r="B183">
         <v>0</v>
@@ -1853,7 +1853,7 @@
     </row>
     <row r="184" spans="1:2">
       <c r="A184" s="2">
-        <v>45741.89583333334</v>
+        <v>45744.89583333334</v>
       </c>
       <c r="B184">
         <v>0</v>
@@ -1861,7 +1861,7 @@
     </row>
     <row r="185" spans="1:2">
       <c r="A185" s="2">
-        <v>45741.90625</v>
+        <v>45744.90625</v>
       </c>
       <c r="B185">
         <v>0</v>
@@ -1869,7 +1869,7 @@
     </row>
     <row r="186" spans="1:2">
       <c r="A186" s="2">
-        <v>45741.91666666666</v>
+        <v>45744.91666666666</v>
       </c>
       <c r="B186">
         <v>0</v>
@@ -1877,7 +1877,7 @@
     </row>
     <row r="187" spans="1:2">
       <c r="A187" s="2">
-        <v>45741.92708333334</v>
+        <v>45744.92708333334</v>
       </c>
       <c r="B187">
         <v>0</v>
@@ -1885,7 +1885,7 @@
     </row>
     <row r="188" spans="1:2">
       <c r="A188" s="2">
-        <v>45741.9375</v>
+        <v>45744.9375</v>
       </c>
       <c r="B188">
         <v>0</v>
@@ -1893,7 +1893,7 @@
     </row>
     <row r="189" spans="1:2">
       <c r="A189" s="2">
-        <v>45741.94791666666</v>
+        <v>45744.94791666666</v>
       </c>
       <c r="B189">
         <v>0</v>
@@ -1901,7 +1901,7 @@
     </row>
     <row r="190" spans="1:2">
       <c r="A190" s="2">
-        <v>45741.95833333334</v>
+        <v>45744.95833333334</v>
       </c>
       <c r="B190">
         <v>0</v>
@@ -1909,7 +1909,7 @@
     </row>
     <row r="191" spans="1:2">
       <c r="A191" s="2">
-        <v>45741.96875</v>
+        <v>45744.96875</v>
       </c>
       <c r="B191">
         <v>0</v>
@@ -1917,7 +1917,7 @@
     </row>
     <row r="192" spans="1:2">
       <c r="A192" s="2">
-        <v>45741.97916666666</v>
+        <v>45744.97916666666</v>
       </c>
       <c r="B192">
         <v>0</v>
@@ -1925,7 +1925,7 @@
     </row>
     <row r="193" spans="1:2">
       <c r="A193" s="2">
-        <v>45741.98958333334</v>
+        <v>45744.98958333334</v>
       </c>
       <c r="B193">
         <v>0</v>

--- a/data_fetching/Entsoe/Actual_Production_Hydro_Water_Reservoir.xlsx
+++ b/data_fetching/Entsoe/Actual_Production_Hydro_Water_Reservoir.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B193"/>
+  <dimension ref="A1:B381"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -397,1537 +397,3041 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2">
-        <v>45743</v>
+        <v>45744</v>
       </c>
       <c r="B2">
-        <v>150</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2">
-        <v>45743.01041666666</v>
+        <v>45744.01041666666</v>
       </c>
       <c r="B3">
-        <v>148</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2">
-        <v>45743.02083333334</v>
+        <v>45744.02083333334</v>
       </c>
       <c r="B4">
-        <v>148</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2">
-        <v>45743.03125</v>
+        <v>45744.03125</v>
       </c>
       <c r="B5">
-        <v>147</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2">
-        <v>45743.04166666666</v>
+        <v>45744.04166666666</v>
       </c>
       <c r="B6">
-        <v>148</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2">
-        <v>45743.05208333334</v>
+        <v>45744.05208333334</v>
       </c>
       <c r="B7">
-        <v>150</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2">
-        <v>45743.0625</v>
+        <v>45744.0625</v>
       </c>
       <c r="B8">
-        <v>150</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2">
-        <v>45743.07291666666</v>
+        <v>45744.07291666666</v>
       </c>
       <c r="B9">
-        <v>149</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2">
-        <v>45743.08333333334</v>
+        <v>45744.08333333334</v>
       </c>
       <c r="B10">
-        <v>142</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2">
-        <v>45743.09375</v>
+        <v>45744.09375</v>
       </c>
       <c r="B11">
-        <v>147</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2">
-        <v>45743.10416666666</v>
+        <v>45744.10416666666</v>
       </c>
       <c r="B12">
-        <v>147</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2">
-        <v>45743.11458333334</v>
+        <v>45744.11458333334</v>
       </c>
       <c r="B13">
-        <v>147</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2">
-        <v>45743.125</v>
+        <v>45744.125</v>
       </c>
       <c r="B14">
-        <v>147</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2">
-        <v>45743.13541666666</v>
+        <v>45744.13541666666</v>
       </c>
       <c r="B15">
-        <v>148</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2">
-        <v>45743.14583333334</v>
+        <v>45744.14583333334</v>
       </c>
       <c r="B16">
-        <v>146</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2">
-        <v>45743.15625</v>
+        <v>45744.15625</v>
       </c>
       <c r="B17">
-        <v>145</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2">
-        <v>45743.16666666666</v>
+        <v>45744.16666666666</v>
       </c>
       <c r="B18">
-        <v>145</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2">
-        <v>45743.17708333334</v>
+        <v>45744.17708333334</v>
       </c>
       <c r="B19">
-        <v>145</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2">
-        <v>45743.1875</v>
+        <v>45744.1875</v>
       </c>
       <c r="B20">
-        <v>146</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2">
-        <v>45743.19791666666</v>
+        <v>45744.19791666666</v>
       </c>
       <c r="B21">
-        <v>153</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2">
-        <v>45743.20833333334</v>
+        <v>45744.20833333334</v>
       </c>
       <c r="B22">
-        <v>209</v>
+        <v>86</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2">
-        <v>45743.21875</v>
+        <v>45744.21875</v>
       </c>
       <c r="B23">
-        <v>219</v>
+        <v>112</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2">
-        <v>45743.22916666666</v>
+        <v>45744.22916666666</v>
       </c>
       <c r="B24">
-        <v>218</v>
+        <v>119</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2">
-        <v>45743.23958333334</v>
+        <v>45744.23958333334</v>
       </c>
       <c r="B25">
-        <v>217</v>
+        <v>127</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2">
-        <v>45743.25</v>
+        <v>45744.25</v>
       </c>
       <c r="B26">
-        <v>283</v>
+        <v>235</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2">
-        <v>45743.26041666666</v>
+        <v>45744.26041666666</v>
       </c>
       <c r="B27">
-        <v>292</v>
+        <v>248</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2">
-        <v>45743.27083333334</v>
+        <v>45744.27083333334</v>
       </c>
       <c r="B28">
-        <v>294</v>
+        <v>256</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2">
-        <v>45743.28125</v>
+        <v>45744.28125</v>
       </c>
       <c r="B29">
-        <v>307</v>
+        <v>260</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2">
-        <v>45743.29166666666</v>
+        <v>45744.29166666666</v>
       </c>
       <c r="B30">
-        <v>413</v>
+        <v>306</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2">
-        <v>45743.30208333334</v>
+        <v>45744.30208333334</v>
       </c>
       <c r="B31">
-        <v>428</v>
+        <v>297</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2">
-        <v>45743.3125</v>
+        <v>45744.3125</v>
       </c>
       <c r="B32">
-        <v>435</v>
+        <v>291</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2">
-        <v>45743.32291666666</v>
+        <v>45744.32291666666</v>
       </c>
       <c r="B33">
-        <v>431</v>
+        <v>301</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2">
-        <v>45743.33333333334</v>
+        <v>45744.33333333334</v>
       </c>
       <c r="B34">
-        <v>372</v>
+        <v>185</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="2">
-        <v>45743.34375</v>
+        <v>45744.34375</v>
       </c>
       <c r="B35">
-        <v>366</v>
+        <v>281</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="2">
-        <v>45743.35416666666</v>
+        <v>45744.35416666666</v>
       </c>
       <c r="B36">
-        <v>360</v>
+        <v>286</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="2">
-        <v>45743.36458333334</v>
+        <v>45744.36458333334</v>
       </c>
       <c r="B37">
-        <v>358</v>
+        <v>292</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="2">
-        <v>45743.375</v>
+        <v>45744.375</v>
       </c>
       <c r="B38">
-        <v>247</v>
+        <v>390</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="2">
-        <v>45743.38541666666</v>
+        <v>45744.38541666666</v>
       </c>
       <c r="B39">
-        <v>249</v>
+        <v>411</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="2">
-        <v>45743.39583333334</v>
+        <v>45744.39583333334</v>
       </c>
       <c r="B40">
-        <v>250</v>
+        <v>351</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="2">
-        <v>45743.40625</v>
+        <v>45744.40625</v>
       </c>
       <c r="B41">
-        <v>247</v>
+        <v>347</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="2">
-        <v>45743.41666666666</v>
+        <v>45744.41666666666</v>
       </c>
       <c r="B42">
-        <v>232</v>
+        <v>326</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="2">
-        <v>45743.42708333334</v>
+        <v>45744.42708333334</v>
       </c>
       <c r="B43">
-        <v>230</v>
+        <v>328</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="2">
-        <v>45743.4375</v>
+        <v>45744.4375</v>
       </c>
       <c r="B44">
-        <v>220</v>
+        <v>271</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="2">
-        <v>45743.44791666666</v>
+        <v>45744.44791666666</v>
       </c>
       <c r="B45">
-        <v>230</v>
+        <v>245</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="2">
-        <v>45743.45833333334</v>
+        <v>45744.45833333334</v>
       </c>
       <c r="B46">
-        <v>150</v>
+        <v>205</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="2">
-        <v>45743.46875</v>
+        <v>45744.46875</v>
       </c>
       <c r="B47">
-        <v>146</v>
+        <v>196</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="2">
-        <v>45743.47916666666</v>
+        <v>45744.47916666666</v>
       </c>
       <c r="B48">
-        <v>146</v>
+        <v>195</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="2">
-        <v>45743.48958333334</v>
+        <v>45744.48958333334</v>
       </c>
       <c r="B49">
-        <v>158</v>
+        <v>137</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="2">
-        <v>45743.5</v>
+        <v>45744.5</v>
       </c>
       <c r="B50">
-        <v>149</v>
+        <v>126</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="2">
-        <v>45743.51041666666</v>
+        <v>45744.51041666666</v>
       </c>
       <c r="B51">
-        <v>152</v>
+        <v>98</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="2">
-        <v>45743.52083333334</v>
+        <v>45744.52083333334</v>
       </c>
       <c r="B52">
-        <v>212</v>
+        <v>98</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="2">
-        <v>45743.53125</v>
+        <v>45744.53125</v>
       </c>
       <c r="B53">
-        <v>210</v>
+        <v>102</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="2">
-        <v>45743.54166666666</v>
+        <v>45744.54166666666</v>
       </c>
       <c r="B54">
-        <v>219</v>
+        <v>110</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="2">
-        <v>45743.55208333334</v>
+        <v>45744.55208333334</v>
       </c>
       <c r="B55">
-        <v>220</v>
+        <v>110</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="2">
-        <v>45743.5625</v>
+        <v>45744.5625</v>
       </c>
       <c r="B56">
-        <v>218</v>
+        <v>131</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="2">
-        <v>45743.57291666666</v>
+        <v>45744.57291666666</v>
       </c>
       <c r="B57">
-        <v>215</v>
+        <v>139</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="2">
-        <v>45743.58333333334</v>
+        <v>45744.58333333334</v>
       </c>
       <c r="B58">
-        <v>181</v>
+        <v>152</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="2">
-        <v>45743.59375</v>
+        <v>45744.59375</v>
       </c>
       <c r="B59">
-        <v>191</v>
+        <v>153</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="2">
-        <v>45743.60416666666</v>
+        <v>45744.60416666666</v>
       </c>
       <c r="B60">
-        <v>181</v>
+        <v>153</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="2">
-        <v>45743.61458333334</v>
+        <v>45744.61458333334</v>
       </c>
       <c r="B61">
-        <v>192</v>
+        <v>152</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="2">
-        <v>45743.625</v>
+        <v>45744.625</v>
       </c>
       <c r="B62">
-        <v>262</v>
+        <v>139</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="2">
-        <v>45743.63541666666</v>
+        <v>45744.63541666666</v>
       </c>
       <c r="B63">
-        <v>195</v>
+        <v>135</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="2">
-        <v>45743.64583333334</v>
+        <v>45744.64583333334</v>
       </c>
       <c r="B64">
-        <v>182</v>
+        <v>135</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="2">
-        <v>45743.65625</v>
+        <v>45744.65625</v>
       </c>
       <c r="B65">
-        <v>173</v>
+        <v>135</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="2">
-        <v>45743.66666666666</v>
+        <v>45744.66666666666</v>
       </c>
       <c r="B66">
-        <v>187</v>
+        <v>226</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="2">
-        <v>45743.67708333334</v>
+        <v>45744.67708333334</v>
       </c>
       <c r="B67">
-        <v>188</v>
+        <v>238</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="2">
-        <v>45743.6875</v>
+        <v>45744.6875</v>
       </c>
       <c r="B68">
-        <v>187</v>
+        <v>237</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="2">
-        <v>45743.69791666666</v>
+        <v>45744.69791666666</v>
       </c>
       <c r="B69">
-        <v>190</v>
+        <v>241</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="2">
-        <v>45743.70833333334</v>
+        <v>45744.70833333334</v>
       </c>
       <c r="B70">
-        <v>332</v>
+        <v>297</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="2">
-        <v>45743.71875</v>
+        <v>45744.71875</v>
       </c>
       <c r="B71">
-        <v>339</v>
+        <v>296</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="2">
-        <v>45743.72916666666</v>
+        <v>45744.72916666666</v>
       </c>
       <c r="B72">
-        <v>345</v>
+        <v>297</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="2">
-        <v>45743.73958333334</v>
+        <v>45744.73958333334</v>
       </c>
       <c r="B73">
-        <v>353</v>
+        <v>313</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="2">
-        <v>45743.75</v>
+        <v>45744.75</v>
       </c>
       <c r="B74">
-        <v>580</v>
+        <v>415</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="2">
-        <v>45743.76041666666</v>
+        <v>45744.76041666666</v>
       </c>
       <c r="B75">
-        <v>596</v>
+        <v>422</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="2">
-        <v>45743.77083333334</v>
+        <v>45744.77083333334</v>
       </c>
       <c r="B76">
-        <v>598</v>
+        <v>422</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="2">
-        <v>45743.78125</v>
+        <v>45744.78125</v>
       </c>
       <c r="B77">
-        <v>606</v>
+        <v>423</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="2">
-        <v>45743.79166666666</v>
+        <v>45744.79166666666</v>
       </c>
       <c r="B78">
-        <v>575</v>
+        <v>482</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="2">
-        <v>45743.80208333334</v>
+        <v>45744.80208333334</v>
       </c>
       <c r="B79">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="2">
-        <v>45743.8125</v>
+        <v>45744.8125</v>
       </c>
       <c r="B80">
-        <v>463</v>
+        <v>482</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="2">
-        <v>45743.82291666666</v>
+        <v>45744.82291666666</v>
       </c>
       <c r="B81">
-        <v>459</v>
+        <v>482</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="2">
-        <v>45743.83333333334</v>
+        <v>45744.83333333334</v>
       </c>
       <c r="B82">
-        <v>349</v>
+        <v>453</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="2">
-        <v>45743.84375</v>
+        <v>45744.84375</v>
       </c>
       <c r="B83">
-        <v>339</v>
+        <v>452</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="2">
-        <v>45743.85416666666</v>
+        <v>45744.85416666666</v>
       </c>
       <c r="B84">
-        <v>427</v>
+        <v>451</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="2">
-        <v>45743.86458333334</v>
+        <v>45744.86458333334</v>
       </c>
       <c r="B85">
-        <v>422</v>
+        <v>451</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="2">
-        <v>45743.875</v>
+        <v>45744.875</v>
       </c>
       <c r="B86">
-        <v>205</v>
+        <v>386</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="2">
-        <v>45743.88541666666</v>
+        <v>45744.88541666666</v>
       </c>
       <c r="B87">
-        <v>229</v>
+        <v>385</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="2">
-        <v>45743.89583333334</v>
+        <v>45744.89583333334</v>
       </c>
       <c r="B88">
-        <v>249</v>
+        <v>386</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="2">
-        <v>45743.90625</v>
+        <v>45744.90625</v>
       </c>
       <c r="B89">
-        <v>247</v>
+        <v>384</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="2">
-        <v>45743.91666666666</v>
+        <v>45744.91666666666</v>
       </c>
       <c r="B90">
-        <v>137</v>
+        <v>249</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="2">
-        <v>45743.92708333334</v>
+        <v>45744.92708333334</v>
       </c>
       <c r="B91">
-        <v>109</v>
+        <v>238</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="2">
-        <v>45743.9375</v>
+        <v>45744.9375</v>
       </c>
       <c r="B92">
-        <v>107</v>
+        <v>236</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="2">
-        <v>45743.94791666666</v>
+        <v>45744.94791666666</v>
       </c>
       <c r="B93">
-        <v>100</v>
+        <v>225</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="2">
-        <v>45743.95833333334</v>
+        <v>45744.95833333334</v>
       </c>
       <c r="B94">
-        <v>56</v>
+        <v>151</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="2">
-        <v>45743.96875</v>
+        <v>45744.96875</v>
       </c>
       <c r="B95">
-        <v>47</v>
+        <v>122</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="2">
-        <v>45743.97916666666</v>
+        <v>45744.97916666666</v>
       </c>
       <c r="B96">
-        <v>41</v>
+        <v>109</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="2">
-        <v>45743.98958333334</v>
+        <v>45744.98958333334</v>
       </c>
       <c r="B97">
-        <v>41</v>
+        <v>108</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" s="2">
-        <v>45744</v>
+        <v>45745</v>
       </c>
       <c r="B98">
-        <v>38</v>
+        <v>111</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" s="2">
-        <v>45744.01041666666</v>
+        <v>45745.01041666666</v>
       </c>
       <c r="B99">
-        <v>38</v>
+        <v>123</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" s="2">
-        <v>45744.02083333334</v>
+        <v>45745.02083333334</v>
       </c>
       <c r="B100">
-        <v>38</v>
+        <v>125</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" s="2">
-        <v>45744.03125</v>
+        <v>45745.03125</v>
       </c>
       <c r="B101">
-        <v>38</v>
+        <v>156</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" s="2">
-        <v>45744.04166666666</v>
+        <v>45745.04166666666</v>
       </c>
       <c r="B102">
-        <v>38</v>
+        <v>143</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" s="2">
-        <v>45744.05208333334</v>
+        <v>45745.05208333334</v>
       </c>
       <c r="B103">
-        <v>38</v>
+        <v>118</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" s="2">
-        <v>45744.0625</v>
+        <v>45745.0625</v>
       </c>
       <c r="B104">
-        <v>38</v>
+        <v>112</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" s="2">
-        <v>45744.07291666666</v>
+        <v>45745.07291666666</v>
       </c>
       <c r="B105">
-        <v>38</v>
+        <v>111</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" s="2">
-        <v>45744.08333333334</v>
+        <v>45745.08333333334</v>
       </c>
       <c r="B106">
-        <v>38</v>
+        <v>112</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" s="2">
-        <v>45744.09375</v>
+        <v>45745.09375</v>
       </c>
       <c r="B107">
-        <v>38</v>
+        <v>114</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" s="2">
-        <v>45744.10416666666</v>
+        <v>45745.10416666666</v>
       </c>
       <c r="B108">
-        <v>37</v>
+        <v>116</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" s="2">
-        <v>45744.11458333334</v>
+        <v>45745.11458333334</v>
       </c>
       <c r="B109">
-        <v>38</v>
+        <v>111</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" s="2">
-        <v>45744.125</v>
+        <v>45745.125</v>
       </c>
       <c r="B110">
-        <v>41</v>
+        <v>111</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" s="2">
-        <v>45744.13541666666</v>
+        <v>45745.13541666666</v>
       </c>
       <c r="B111">
-        <v>41</v>
+        <v>111</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112" s="2">
-        <v>45744.14583333334</v>
+        <v>45745.14583333334</v>
       </c>
       <c r="B112">
-        <v>41</v>
+        <v>111</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" s="2">
-        <v>45744.15625</v>
+        <v>45745.15625</v>
       </c>
       <c r="B113">
-        <v>41</v>
+        <v>111</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" s="2">
-        <v>45744.16666666666</v>
+        <v>45745.16666666666</v>
       </c>
       <c r="B114">
-        <v>41</v>
+        <v>103</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" s="2">
-        <v>45744.17708333334</v>
+        <v>45745.17708333334</v>
       </c>
       <c r="B115">
-        <v>41</v>
+        <v>97</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" s="2">
-        <v>45744.1875</v>
+        <v>45745.1875</v>
       </c>
       <c r="B116">
-        <v>42</v>
+        <v>97</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117" s="2">
-        <v>45744.19791666666</v>
+        <v>45745.19791666666</v>
       </c>
       <c r="B117">
-        <v>45</v>
+        <v>104</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" s="2">
-        <v>45744.20833333334</v>
+        <v>45745.20833333334</v>
       </c>
       <c r="B118">
-        <v>86</v>
+        <v>177</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" s="2">
-        <v>45744.21875</v>
+        <v>45745.21875</v>
       </c>
       <c r="B119">
-        <v>112</v>
+        <v>180</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" s="2">
-        <v>45744.22916666666</v>
+        <v>45745.22916666666</v>
       </c>
       <c r="B120">
-        <v>119</v>
+        <v>180</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" s="2">
-        <v>45744.23958333334</v>
+        <v>45745.23958333334</v>
       </c>
       <c r="B121">
-        <v>127</v>
+        <v>189</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" s="2">
-        <v>45744.25</v>
+        <v>45745.25</v>
       </c>
       <c r="B122">
-        <v>235</v>
+        <v>309</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123" s="2">
-        <v>45744.26041666666</v>
+        <v>45745.26041666666</v>
       </c>
       <c r="B123">
-        <v>0</v>
+        <v>385</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" s="2">
-        <v>45744.27083333334</v>
+        <v>45745.27083333334</v>
       </c>
       <c r="B124">
-        <v>0</v>
+        <v>393</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" s="2">
-        <v>45744.28125</v>
+        <v>45745.28125</v>
       </c>
       <c r="B125">
-        <v>0</v>
+        <v>402</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" s="2">
-        <v>45744.29166666666</v>
+        <v>45745.29166666666</v>
       </c>
       <c r="B126">
-        <v>0</v>
+        <v>438</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127" s="2">
-        <v>45744.30208333334</v>
+        <v>45745.30208333334</v>
       </c>
       <c r="B127">
-        <v>0</v>
+        <v>446</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128" s="2">
-        <v>45744.3125</v>
+        <v>45745.3125</v>
       </c>
       <c r="B128">
-        <v>0</v>
+        <v>456</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" s="2">
-        <v>45744.32291666666</v>
+        <v>45745.32291666666</v>
       </c>
       <c r="B129">
-        <v>0</v>
+        <v>448</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" s="2">
-        <v>45744.33333333334</v>
+        <v>45745.33333333334</v>
       </c>
       <c r="B130">
-        <v>0</v>
+        <v>396</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" s="2">
-        <v>45744.34375</v>
+        <v>45745.34375</v>
       </c>
       <c r="B131">
-        <v>0</v>
+        <v>386</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132" s="2">
-        <v>45744.35416666666</v>
+        <v>45745.35416666666</v>
       </c>
       <c r="B132">
-        <v>0</v>
+        <v>373</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" s="2">
-        <v>45744.36458333334</v>
+        <v>45745.36458333334</v>
       </c>
       <c r="B133">
-        <v>0</v>
+        <v>369</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134" s="2">
-        <v>45744.375</v>
+        <v>45745.375</v>
       </c>
       <c r="B134">
-        <v>0</v>
+        <v>374</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135" s="2">
-        <v>45744.38541666666</v>
+        <v>45745.38541666666</v>
       </c>
       <c r="B135">
-        <v>0</v>
+        <v>379</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136" s="2">
-        <v>45744.39583333334</v>
+        <v>45745.39583333334</v>
       </c>
       <c r="B136">
-        <v>0</v>
+        <v>383</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137" s="2">
-        <v>45744.40625</v>
+        <v>45745.40625</v>
       </c>
       <c r="B137">
-        <v>0</v>
+        <v>391</v>
       </c>
     </row>
     <row r="138" spans="1:2">
       <c r="A138" s="2">
-        <v>45744.41666666666</v>
+        <v>45745.41666666666</v>
       </c>
       <c r="B138">
-        <v>0</v>
+        <v>311</v>
       </c>
     </row>
     <row r="139" spans="1:2">
       <c r="A139" s="2">
-        <v>45744.42708333334</v>
+        <v>45745.42708333334</v>
       </c>
       <c r="B139">
-        <v>0</v>
+        <v>299</v>
       </c>
     </row>
     <row r="140" spans="1:2">
       <c r="A140" s="2">
-        <v>45744.4375</v>
+        <v>45745.4375</v>
       </c>
       <c r="B140">
-        <v>0</v>
+        <v>270</v>
       </c>
     </row>
     <row r="141" spans="1:2">
       <c r="A141" s="2">
-        <v>45744.44791666666</v>
+        <v>45745.44791666666</v>
       </c>
       <c r="B141">
-        <v>0</v>
+        <v>275</v>
       </c>
     </row>
     <row r="142" spans="1:2">
       <c r="A142" s="2">
-        <v>45744.45833333334</v>
+        <v>45745.45833333334</v>
       </c>
       <c r="B142">
-        <v>0</v>
+        <v>291</v>
       </c>
     </row>
     <row r="143" spans="1:2">
       <c r="A143" s="2">
-        <v>45744.46875</v>
+        <v>45745.46875</v>
       </c>
       <c r="B143">
-        <v>0</v>
+        <v>290</v>
       </c>
     </row>
     <row r="144" spans="1:2">
       <c r="A144" s="2">
-        <v>45744.47916666666</v>
+        <v>45745.47916666666</v>
       </c>
       <c r="B144">
-        <v>0</v>
+        <v>297</v>
       </c>
     </row>
     <row r="145" spans="1:2">
       <c r="A145" s="2">
-        <v>45744.48958333334</v>
+        <v>45745.48958333334</v>
       </c>
       <c r="B145">
-        <v>0</v>
+        <v>269</v>
       </c>
     </row>
     <row r="146" spans="1:2">
       <c r="A146" s="2">
-        <v>45744.5</v>
+        <v>45745.5</v>
       </c>
       <c r="B146">
-        <v>0</v>
+        <v>289</v>
       </c>
     </row>
     <row r="147" spans="1:2">
       <c r="A147" s="2">
-        <v>45744.51041666666</v>
+        <v>45745.51041666666</v>
       </c>
       <c r="B147">
-        <v>0</v>
+        <v>286</v>
       </c>
     </row>
     <row r="148" spans="1:2">
       <c r="A148" s="2">
-        <v>45744.52083333334</v>
+        <v>45745.52083333334</v>
       </c>
       <c r="B148">
-        <v>0</v>
+        <v>293</v>
       </c>
     </row>
     <row r="149" spans="1:2">
       <c r="A149" s="2">
-        <v>45744.53125</v>
+        <v>45745.53125</v>
       </c>
       <c r="B149">
-        <v>0</v>
+        <v>292</v>
       </c>
     </row>
     <row r="150" spans="1:2">
       <c r="A150" s="2">
-        <v>45744.54166666666</v>
+        <v>45745.54166666666</v>
       </c>
       <c r="B150">
-        <v>0</v>
+        <v>297</v>
       </c>
     </row>
     <row r="151" spans="1:2">
       <c r="A151" s="2">
-        <v>45744.55208333334</v>
+        <v>45745.55208333334</v>
       </c>
       <c r="B151">
-        <v>0</v>
+        <v>297</v>
       </c>
     </row>
     <row r="152" spans="1:2">
       <c r="A152" s="2">
-        <v>45744.5625</v>
+        <v>45745.5625</v>
       </c>
       <c r="B152">
-        <v>0</v>
+        <v>296</v>
       </c>
     </row>
     <row r="153" spans="1:2">
       <c r="A153" s="2">
-        <v>45744.57291666666</v>
+        <v>45745.57291666666</v>
       </c>
       <c r="B153">
-        <v>0</v>
+        <v>294</v>
       </c>
     </row>
     <row r="154" spans="1:2">
       <c r="A154" s="2">
-        <v>45744.58333333334</v>
+        <v>45745.58333333334</v>
       </c>
       <c r="B154">
-        <v>0</v>
+        <v>291</v>
       </c>
     </row>
     <row r="155" spans="1:2">
       <c r="A155" s="2">
-        <v>45744.59375</v>
+        <v>45745.59375</v>
       </c>
       <c r="B155">
-        <v>0</v>
+        <v>291</v>
       </c>
     </row>
     <row r="156" spans="1:2">
       <c r="A156" s="2">
-        <v>45744.60416666666</v>
+        <v>45745.60416666666</v>
       </c>
       <c r="B156">
-        <v>0</v>
+        <v>291</v>
       </c>
     </row>
     <row r="157" spans="1:2">
       <c r="A157" s="2">
-        <v>45744.61458333334</v>
+        <v>45745.61458333334</v>
       </c>
       <c r="B157">
-        <v>0</v>
+        <v>291</v>
       </c>
     </row>
     <row r="158" spans="1:2">
       <c r="A158" s="2">
-        <v>45744.625</v>
+        <v>45745.625</v>
       </c>
       <c r="B158">
-        <v>0</v>
+        <v>266</v>
       </c>
     </row>
     <row r="159" spans="1:2">
       <c r="A159" s="2">
-        <v>45744.63541666666</v>
+        <v>45745.63541666666</v>
       </c>
       <c r="B159">
-        <v>0</v>
+        <v>264</v>
       </c>
     </row>
     <row r="160" spans="1:2">
       <c r="A160" s="2">
-        <v>45744.64583333334</v>
+        <v>45745.64583333334</v>
       </c>
       <c r="B160">
-        <v>0</v>
+        <v>263</v>
       </c>
     </row>
     <row r="161" spans="1:2">
       <c r="A161" s="2">
-        <v>45744.65625</v>
+        <v>45745.65625</v>
       </c>
       <c r="B161">
-        <v>0</v>
+        <v>268</v>
       </c>
     </row>
     <row r="162" spans="1:2">
       <c r="A162" s="2">
-        <v>45744.66666666666</v>
+        <v>45745.66666666666</v>
       </c>
       <c r="B162">
-        <v>0</v>
+        <v>293</v>
       </c>
     </row>
     <row r="163" spans="1:2">
       <c r="A163" s="2">
-        <v>45744.67708333334</v>
+        <v>45745.67708333334</v>
       </c>
       <c r="B163">
-        <v>0</v>
+        <v>300</v>
       </c>
     </row>
     <row r="164" spans="1:2">
       <c r="A164" s="2">
-        <v>45744.6875</v>
+        <v>45745.6875</v>
       </c>
       <c r="B164">
-        <v>0</v>
+        <v>301</v>
       </c>
     </row>
     <row r="165" spans="1:2">
       <c r="A165" s="2">
-        <v>45744.69791666666</v>
+        <v>45745.69791666666</v>
       </c>
       <c r="B165">
-        <v>0</v>
+        <v>300</v>
       </c>
     </row>
     <row r="166" spans="1:2">
       <c r="A166" s="2">
-        <v>45744.70833333334</v>
+        <v>45745.70833333334</v>
       </c>
       <c r="B166">
-        <v>0</v>
+        <v>331</v>
       </c>
     </row>
     <row r="167" spans="1:2">
       <c r="A167" s="2">
-        <v>45744.71875</v>
+        <v>45745.71875</v>
       </c>
       <c r="B167">
-        <v>0</v>
+        <v>335</v>
       </c>
     </row>
     <row r="168" spans="1:2">
       <c r="A168" s="2">
-        <v>45744.72916666666</v>
+        <v>45745.72916666666</v>
       </c>
       <c r="B168">
-        <v>0</v>
+        <v>335</v>
       </c>
     </row>
     <row r="169" spans="1:2">
       <c r="A169" s="2">
-        <v>45744.73958333334</v>
+        <v>45745.73958333334</v>
       </c>
       <c r="B169">
-        <v>0</v>
+        <v>337</v>
       </c>
     </row>
     <row r="170" spans="1:2">
       <c r="A170" s="2">
-        <v>45744.75</v>
+        <v>45745.75</v>
       </c>
       <c r="B170">
-        <v>0</v>
+        <v>375</v>
       </c>
     </row>
     <row r="171" spans="1:2">
       <c r="A171" s="2">
-        <v>45744.76041666666</v>
+        <v>45745.76041666666</v>
       </c>
       <c r="B171">
-        <v>0</v>
+        <v>399</v>
       </c>
     </row>
     <row r="172" spans="1:2">
       <c r="A172" s="2">
-        <v>45744.77083333334</v>
+        <v>45745.77083333334</v>
       </c>
       <c r="B172">
-        <v>0</v>
+        <v>420</v>
       </c>
     </row>
     <row r="173" spans="1:2">
       <c r="A173" s="2">
-        <v>45744.78125</v>
+        <v>45745.78125</v>
       </c>
       <c r="B173">
-        <v>0</v>
+        <v>417</v>
       </c>
     </row>
     <row r="174" spans="1:2">
       <c r="A174" s="2">
-        <v>45744.79166666666</v>
+        <v>45745.79166666666</v>
       </c>
       <c r="B174">
-        <v>0</v>
+        <v>428</v>
       </c>
     </row>
     <row r="175" spans="1:2">
       <c r="A175" s="2">
-        <v>45744.80208333334</v>
+        <v>45745.80208333334</v>
       </c>
       <c r="B175">
-        <v>0</v>
+        <v>409</v>
       </c>
     </row>
     <row r="176" spans="1:2">
       <c r="A176" s="2">
-        <v>45744.8125</v>
+        <v>45745.8125</v>
       </c>
       <c r="B176">
-        <v>0</v>
+        <v>403</v>
       </c>
     </row>
     <row r="177" spans="1:2">
       <c r="A177" s="2">
-        <v>45744.82291666666</v>
+        <v>45745.82291666666</v>
       </c>
       <c r="B177">
-        <v>0</v>
+        <v>401</v>
       </c>
     </row>
     <row r="178" spans="1:2">
       <c r="A178" s="2">
-        <v>45744.83333333334</v>
+        <v>45745.83333333334</v>
       </c>
       <c r="B178">
-        <v>0</v>
+        <v>381</v>
       </c>
     </row>
     <row r="179" spans="1:2">
       <c r="A179" s="2">
-        <v>45744.84375</v>
+        <v>45745.84375</v>
       </c>
       <c r="B179">
-        <v>0</v>
+        <v>378</v>
       </c>
     </row>
     <row r="180" spans="1:2">
       <c r="A180" s="2">
-        <v>45744.85416666666</v>
+        <v>45745.85416666666</v>
       </c>
       <c r="B180">
-        <v>0</v>
+        <v>380</v>
       </c>
     </row>
     <row r="181" spans="1:2">
       <c r="A181" s="2">
-        <v>45744.86458333334</v>
+        <v>45745.86458333334</v>
       </c>
       <c r="B181">
-        <v>0</v>
+        <v>375</v>
       </c>
     </row>
     <row r="182" spans="1:2">
       <c r="A182" s="2">
-        <v>45744.875</v>
+        <v>45745.875</v>
       </c>
       <c r="B182">
-        <v>0</v>
+        <v>270</v>
       </c>
     </row>
     <row r="183" spans="1:2">
       <c r="A183" s="2">
-        <v>45744.88541666666</v>
+        <v>45745.88541666666</v>
       </c>
       <c r="B183">
-        <v>0</v>
+        <v>269</v>
       </c>
     </row>
     <row r="184" spans="1:2">
       <c r="A184" s="2">
-        <v>45744.89583333334</v>
+        <v>45745.89583333334</v>
       </c>
       <c r="B184">
-        <v>0</v>
+        <v>270</v>
       </c>
     </row>
     <row r="185" spans="1:2">
       <c r="A185" s="2">
-        <v>45744.90625</v>
+        <v>45745.90625</v>
       </c>
       <c r="B185">
-        <v>0</v>
+        <v>267</v>
       </c>
     </row>
     <row r="186" spans="1:2">
       <c r="A186" s="2">
-        <v>45744.91666666666</v>
+        <v>45745.91666666666</v>
       </c>
       <c r="B186">
-        <v>0</v>
+        <v>245</v>
       </c>
     </row>
     <row r="187" spans="1:2">
       <c r="A187" s="2">
-        <v>45744.92708333334</v>
+        <v>45745.92708333334</v>
       </c>
       <c r="B187">
-        <v>0</v>
+        <v>243</v>
       </c>
     </row>
     <row r="188" spans="1:2">
       <c r="A188" s="2">
-        <v>45744.9375</v>
+        <v>45745.9375</v>
       </c>
       <c r="B188">
-        <v>0</v>
+        <v>243</v>
       </c>
     </row>
     <row r="189" spans="1:2">
       <c r="A189" s="2">
-        <v>45744.94791666666</v>
+        <v>45745.94791666666</v>
       </c>
       <c r="B189">
-        <v>0</v>
+        <v>242</v>
       </c>
     </row>
     <row r="190" spans="1:2">
       <c r="A190" s="2">
-        <v>45744.95833333334</v>
+        <v>45745.95833333334</v>
       </c>
       <c r="B190">
-        <v>0</v>
+        <v>275</v>
       </c>
     </row>
     <row r="191" spans="1:2">
       <c r="A191" s="2">
-        <v>45744.96875</v>
+        <v>45745.96875</v>
       </c>
       <c r="B191">
-        <v>0</v>
+        <v>267</v>
       </c>
     </row>
     <row r="192" spans="1:2">
       <c r="A192" s="2">
-        <v>45744.97916666666</v>
+        <v>45745.97916666666</v>
       </c>
       <c r="B192">
-        <v>0</v>
+        <v>266</v>
       </c>
     </row>
     <row r="193" spans="1:2">
       <c r="A193" s="2">
-        <v>45744.98958333334</v>
+        <v>45745.98958333334</v>
       </c>
       <c r="B193">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2">
+      <c r="A194" s="2">
+        <v>45746</v>
+      </c>
+      <c r="B194">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2">
+      <c r="A195" s="2">
+        <v>45746.01041666666</v>
+      </c>
+      <c r="B195">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2">
+      <c r="A196" s="2">
+        <v>45746.02083333334</v>
+      </c>
+      <c r="B196">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2">
+      <c r="A197" s="2">
+        <v>45746.03125</v>
+      </c>
+      <c r="B197">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2">
+      <c r="A198" s="2">
+        <v>45746.04166666666</v>
+      </c>
+      <c r="B198">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2">
+      <c r="A199" s="2">
+        <v>45746.05208333334</v>
+      </c>
+      <c r="B199">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2">
+      <c r="A200" s="2">
+        <v>45746.0625</v>
+      </c>
+      <c r="B200">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2">
+      <c r="A201" s="2">
+        <v>45746.07291666666</v>
+      </c>
+      <c r="B201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2">
+      <c r="A202" s="2">
+        <v>45746.125</v>
+      </c>
+      <c r="B202">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2">
+      <c r="A203" s="2">
+        <v>45746.13541666666</v>
+      </c>
+      <c r="B203">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2">
+      <c r="A204" s="2">
+        <v>45746.14583333334</v>
+      </c>
+      <c r="B204">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2">
+      <c r="A205" s="2">
+        <v>45746.15625</v>
+      </c>
+      <c r="B205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2">
+      <c r="A206" s="2">
+        <v>45746.16666666666</v>
+      </c>
+      <c r="B206">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2">
+      <c r="A207" s="2">
+        <v>45746.17708333334</v>
+      </c>
+      <c r="B207">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2">
+      <c r="A208" s="2">
+        <v>45746.1875</v>
+      </c>
+      <c r="B208">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2">
+      <c r="A209" s="2">
+        <v>45746.19791666666</v>
+      </c>
+      <c r="B209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2">
+      <c r="A210" s="2">
+        <v>45746.20833333334</v>
+      </c>
+      <c r="B210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2">
+      <c r="A211" s="2">
+        <v>45746.21875</v>
+      </c>
+      <c r="B211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2">
+      <c r="A212" s="2">
+        <v>45746.22916666666</v>
+      </c>
+      <c r="B212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2">
+      <c r="A213" s="2">
+        <v>45746.23958333334</v>
+      </c>
+      <c r="B213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2">
+      <c r="A214" s="2">
+        <v>45746.25</v>
+      </c>
+      <c r="B214">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2">
+      <c r="A215" s="2">
+        <v>45746.26041666666</v>
+      </c>
+      <c r="B215">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2">
+      <c r="A216" s="2">
+        <v>45746.27083333334</v>
+      </c>
+      <c r="B216">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2">
+      <c r="A217" s="2">
+        <v>45746.28125</v>
+      </c>
+      <c r="B217">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2">
+      <c r="A218" s="2">
+        <v>45746.29166666666</v>
+      </c>
+      <c r="B218">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2">
+      <c r="A219" s="2">
+        <v>45746.30208333334</v>
+      </c>
+      <c r="B219">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2">
+      <c r="A220" s="2">
+        <v>45746.3125</v>
+      </c>
+      <c r="B220">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2">
+      <c r="A221" s="2">
+        <v>45746.32291666666</v>
+      </c>
+      <c r="B221">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2">
+      <c r="A222" s="2">
+        <v>45746.33333333334</v>
+      </c>
+      <c r="B222">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2">
+      <c r="A223" s="2">
+        <v>45746.34375</v>
+      </c>
+      <c r="B223">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2">
+      <c r="A224" s="2">
+        <v>45746.35416666666</v>
+      </c>
+      <c r="B224">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2">
+      <c r="A225" s="2">
+        <v>45746.36458333334</v>
+      </c>
+      <c r="B225">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2">
+      <c r="A226" s="2">
+        <v>45746.375</v>
+      </c>
+      <c r="B226">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2">
+      <c r="A227" s="2">
+        <v>45746.38541666666</v>
+      </c>
+      <c r="B227">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2">
+      <c r="A228" s="2">
+        <v>45746.39583333334</v>
+      </c>
+      <c r="B228">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2">
+      <c r="A229" s="2">
+        <v>45746.40625</v>
+      </c>
+      <c r="B229">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2">
+      <c r="A230" s="2">
+        <v>45746.41666666666</v>
+      </c>
+      <c r="B230">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2">
+      <c r="A231" s="2">
+        <v>45746.42708333334</v>
+      </c>
+      <c r="B231">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2">
+      <c r="A232" s="2">
+        <v>45746.4375</v>
+      </c>
+      <c r="B232">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2">
+      <c r="A233" s="2">
+        <v>45746.44791666666</v>
+      </c>
+      <c r="B233">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2">
+      <c r="A234" s="2">
+        <v>45746.45833333334</v>
+      </c>
+      <c r="B234">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2">
+      <c r="A235" s="2">
+        <v>45746.46875</v>
+      </c>
+      <c r="B235">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2">
+      <c r="A236" s="2">
+        <v>45746.47916666666</v>
+      </c>
+      <c r="B236">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2">
+      <c r="A237" s="2">
+        <v>45746.48958333334</v>
+      </c>
+      <c r="B237">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2">
+      <c r="A238" s="2">
+        <v>45746.5</v>
+      </c>
+      <c r="B238">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2">
+      <c r="A239" s="2">
+        <v>45746.51041666666</v>
+      </c>
+      <c r="B239">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2">
+      <c r="A240" s="2">
+        <v>45746.52083333334</v>
+      </c>
+      <c r="B240">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2">
+      <c r="A241" s="2">
+        <v>45746.53125</v>
+      </c>
+      <c r="B241">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2">
+      <c r="A242" s="2">
+        <v>45746.54166666666</v>
+      </c>
+      <c r="B242">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2">
+      <c r="A243" s="2">
+        <v>45746.55208333334</v>
+      </c>
+      <c r="B243">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2">
+      <c r="A244" s="2">
+        <v>45746.5625</v>
+      </c>
+      <c r="B244">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2">
+      <c r="A245" s="2">
+        <v>45746.57291666666</v>
+      </c>
+      <c r="B245">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2">
+      <c r="A246" s="2">
+        <v>45746.58333333334</v>
+      </c>
+      <c r="B246">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2">
+      <c r="A247" s="2">
+        <v>45746.59375</v>
+      </c>
+      <c r="B247">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2">
+      <c r="A248" s="2">
+        <v>45746.60416666666</v>
+      </c>
+      <c r="B248">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2">
+      <c r="A249" s="2">
+        <v>45746.61458333334</v>
+      </c>
+      <c r="B249">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2">
+      <c r="A250" s="2">
+        <v>45746.625</v>
+      </c>
+      <c r="B250">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2">
+      <c r="A251" s="2">
+        <v>45746.63541666666</v>
+      </c>
+      <c r="B251">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2">
+      <c r="A252" s="2">
+        <v>45746.64583333334</v>
+      </c>
+      <c r="B252">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2">
+      <c r="A253" s="2">
+        <v>45746.65625</v>
+      </c>
+      <c r="B253">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2">
+      <c r="A254" s="2">
+        <v>45746.66666666666</v>
+      </c>
+      <c r="B254">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2">
+      <c r="A255" s="2">
+        <v>45746.67708333334</v>
+      </c>
+      <c r="B255">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2">
+      <c r="A256" s="2">
+        <v>45746.6875</v>
+      </c>
+      <c r="B256">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2">
+      <c r="A257" s="2">
+        <v>45746.69791666666</v>
+      </c>
+      <c r="B257">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2">
+      <c r="A258" s="2">
+        <v>45746.70833333334</v>
+      </c>
+      <c r="B258">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2">
+      <c r="A259" s="2">
+        <v>45746.71875</v>
+      </c>
+      <c r="B259">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2">
+      <c r="A260" s="2">
+        <v>45746.72916666666</v>
+      </c>
+      <c r="B260">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2">
+      <c r="A261" s="2">
+        <v>45746.73958333334</v>
+      </c>
+      <c r="B261">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2">
+      <c r="A262" s="2">
+        <v>45746.75</v>
+      </c>
+      <c r="B262">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2">
+      <c r="A263" s="2">
+        <v>45746.76041666666</v>
+      </c>
+      <c r="B263">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2">
+      <c r="A264" s="2">
+        <v>45746.77083333334</v>
+      </c>
+      <c r="B264">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2">
+      <c r="A265" s="2">
+        <v>45746.78125</v>
+      </c>
+      <c r="B265">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2">
+      <c r="A266" s="2">
+        <v>45746.79166666666</v>
+      </c>
+      <c r="B266">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2">
+      <c r="A267" s="2">
+        <v>45746.80208333334</v>
+      </c>
+      <c r="B267">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2">
+      <c r="A268" s="2">
+        <v>45746.8125</v>
+      </c>
+      <c r="B268">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2">
+      <c r="A269" s="2">
+        <v>45746.82291666666</v>
+      </c>
+      <c r="B269">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2">
+      <c r="A270" s="2">
+        <v>45746.83333333334</v>
+      </c>
+      <c r="B270">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2">
+      <c r="A271" s="2">
+        <v>45746.84375</v>
+      </c>
+      <c r="B271">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2">
+      <c r="A272" s="2">
+        <v>45746.85416666666</v>
+      </c>
+      <c r="B272">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2">
+      <c r="A273" s="2">
+        <v>45746.86458333334</v>
+      </c>
+      <c r="B273">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2">
+      <c r="A274" s="2">
+        <v>45746.875</v>
+      </c>
+      <c r="B274">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2">
+      <c r="A275" s="2">
+        <v>45746.88541666666</v>
+      </c>
+      <c r="B275">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2">
+      <c r="A276" s="2">
+        <v>45746.89583333334</v>
+      </c>
+      <c r="B276">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2">
+      <c r="A277" s="2">
+        <v>45746.90625</v>
+      </c>
+      <c r="B277">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2">
+      <c r="A278" s="2">
+        <v>45746.91666666666</v>
+      </c>
+      <c r="B278">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2">
+      <c r="A279" s="2">
+        <v>45746.92708333334</v>
+      </c>
+      <c r="B279">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2">
+      <c r="A280" s="2">
+        <v>45746.9375</v>
+      </c>
+      <c r="B280">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2">
+      <c r="A281" s="2">
+        <v>45746.94791666666</v>
+      </c>
+      <c r="B281">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2">
+      <c r="A282" s="2">
+        <v>45746.95833333334</v>
+      </c>
+      <c r="B282">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2">
+      <c r="A283" s="2">
+        <v>45746.96875</v>
+      </c>
+      <c r="B283">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2">
+      <c r="A284" s="2">
+        <v>45746.97916666666</v>
+      </c>
+      <c r="B284">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2">
+      <c r="A285" s="2">
+        <v>45746.98958333334</v>
+      </c>
+      <c r="B285">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2">
+      <c r="A286" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B286">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2">
+      <c r="A287" s="2">
+        <v>45747.01041666666</v>
+      </c>
+      <c r="B287">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2">
+      <c r="A288" s="2">
+        <v>45747.02083333334</v>
+      </c>
+      <c r="B288">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2">
+      <c r="A289" s="2">
+        <v>45747.03125</v>
+      </c>
+      <c r="B289">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2">
+      <c r="A290" s="2">
+        <v>45747.04166666666</v>
+      </c>
+      <c r="B290">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2">
+      <c r="A291" s="2">
+        <v>45747.05208333334</v>
+      </c>
+      <c r="B291">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2">
+      <c r="A292" s="2">
+        <v>45747.0625</v>
+      </c>
+      <c r="B292">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2">
+      <c r="A293" s="2">
+        <v>45747.07291666666</v>
+      </c>
+      <c r="B293">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2">
+      <c r="A294" s="2">
+        <v>45747.08333333334</v>
+      </c>
+      <c r="B294">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2">
+      <c r="A295" s="2">
+        <v>45747.09375</v>
+      </c>
+      <c r="B295">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2">
+      <c r="A296" s="2">
+        <v>45747.10416666666</v>
+      </c>
+      <c r="B296">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2">
+      <c r="A297" s="2">
+        <v>45747.11458333334</v>
+      </c>
+      <c r="B297">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2">
+      <c r="A298" s="2">
+        <v>45747.125</v>
+      </c>
+      <c r="B298">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2">
+      <c r="A299" s="2">
+        <v>45747.13541666666</v>
+      </c>
+      <c r="B299">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2">
+      <c r="A300" s="2">
+        <v>45747.14583333334</v>
+      </c>
+      <c r="B300">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2">
+      <c r="A301" s="2">
+        <v>45747.15625</v>
+      </c>
+      <c r="B301">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2">
+      <c r="A302" s="2">
+        <v>45747.16666666666</v>
+      </c>
+      <c r="B302">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2">
+      <c r="A303" s="2">
+        <v>45747.17708333334</v>
+      </c>
+      <c r="B303">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2">
+      <c r="A304" s="2">
+        <v>45747.1875</v>
+      </c>
+      <c r="B304">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2">
+      <c r="A305" s="2">
+        <v>45747.19791666666</v>
+      </c>
+      <c r="B305">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2">
+      <c r="A306" s="2">
+        <v>45747.20833333334</v>
+      </c>
+      <c r="B306">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2">
+      <c r="A307" s="2">
+        <v>45747.21875</v>
+      </c>
+      <c r="B307">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2">
+      <c r="A308" s="2">
+        <v>45747.22916666666</v>
+      </c>
+      <c r="B308">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2">
+      <c r="A309" s="2">
+        <v>45747.23958333334</v>
+      </c>
+      <c r="B309">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2">
+      <c r="A310" s="2">
+        <v>45747.25</v>
+      </c>
+      <c r="B310">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2">
+      <c r="A311" s="2">
+        <v>45747.26041666666</v>
+      </c>
+      <c r="B311">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2">
+      <c r="A312" s="2">
+        <v>45747.27083333334</v>
+      </c>
+      <c r="B312">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2">
+      <c r="A313" s="2">
+        <v>45747.28125</v>
+      </c>
+      <c r="B313">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2">
+      <c r="A314" s="2">
+        <v>45747.29166666666</v>
+      </c>
+      <c r="B314">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2">
+      <c r="A315" s="2">
+        <v>45747.30208333334</v>
+      </c>
+      <c r="B315">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2">
+      <c r="A316" s="2">
+        <v>45747.3125</v>
+      </c>
+      <c r="B316">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2">
+      <c r="A317" s="2">
+        <v>45747.32291666666</v>
+      </c>
+      <c r="B317">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2">
+      <c r="A318" s="2">
+        <v>45747.33333333334</v>
+      </c>
+      <c r="B318">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2">
+      <c r="A319" s="2">
+        <v>45747.34375</v>
+      </c>
+      <c r="B319">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2">
+      <c r="A320" s="2">
+        <v>45747.35416666666</v>
+      </c>
+      <c r="B320">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2">
+      <c r="A321" s="2">
+        <v>45747.36458333334</v>
+      </c>
+      <c r="B321">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2">
+      <c r="A322" s="2">
+        <v>45747.375</v>
+      </c>
+      <c r="B322">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2">
+      <c r="A323" s="2">
+        <v>45747.38541666666</v>
+      </c>
+      <c r="B323">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2">
+      <c r="A324" s="2">
+        <v>45747.39583333334</v>
+      </c>
+      <c r="B324">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2">
+      <c r="A325" s="2">
+        <v>45747.40625</v>
+      </c>
+      <c r="B325">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2">
+      <c r="A326" s="2">
+        <v>45747.41666666666</v>
+      </c>
+      <c r="B326">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2">
+      <c r="A327" s="2">
+        <v>45747.42708333334</v>
+      </c>
+      <c r="B327">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2">
+      <c r="A328" s="2">
+        <v>45747.4375</v>
+      </c>
+      <c r="B328">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2">
+      <c r="A329" s="2">
+        <v>45747.44791666666</v>
+      </c>
+      <c r="B329">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2">
+      <c r="A330" s="2">
+        <v>45747.45833333334</v>
+      </c>
+      <c r="B330">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2">
+      <c r="A331" s="2">
+        <v>45747.46875</v>
+      </c>
+      <c r="B331">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2">
+      <c r="A332" s="2">
+        <v>45747.47916666666</v>
+      </c>
+      <c r="B332">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2">
+      <c r="A333" s="2">
+        <v>45747.48958333334</v>
+      </c>
+      <c r="B333">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2">
+      <c r="A334" s="2">
+        <v>45747.5</v>
+      </c>
+      <c r="B334">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2">
+      <c r="A335" s="2">
+        <v>45747.51041666666</v>
+      </c>
+      <c r="B335">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2">
+      <c r="A336" s="2">
+        <v>45747.52083333334</v>
+      </c>
+      <c r="B336">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2">
+      <c r="A337" s="2">
+        <v>45747.53125</v>
+      </c>
+      <c r="B337">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2">
+      <c r="A338" s="2">
+        <v>45747.54166666666</v>
+      </c>
+      <c r="B338">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2">
+      <c r="A339" s="2">
+        <v>45747.55208333334</v>
+      </c>
+      <c r="B339">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2">
+      <c r="A340" s="2">
+        <v>45747.5625</v>
+      </c>
+      <c r="B340">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2">
+      <c r="A341" s="2">
+        <v>45747.57291666666</v>
+      </c>
+      <c r="B341">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2">
+      <c r="A342" s="2">
+        <v>45747.58333333334</v>
+      </c>
+      <c r="B342">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2">
+      <c r="A343" s="2">
+        <v>45747.59375</v>
+      </c>
+      <c r="B343">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2">
+      <c r="A344" s="2">
+        <v>45747.60416666666</v>
+      </c>
+      <c r="B344">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2">
+      <c r="A345" s="2">
+        <v>45747.61458333334</v>
+      </c>
+      <c r="B345">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2">
+      <c r="A346" s="2">
+        <v>45747.625</v>
+      </c>
+      <c r="B346">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2">
+      <c r="A347" s="2">
+        <v>45747.63541666666</v>
+      </c>
+      <c r="B347">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2">
+      <c r="A348" s="2">
+        <v>45747.64583333334</v>
+      </c>
+      <c r="B348">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2">
+      <c r="A349" s="2">
+        <v>45747.65625</v>
+      </c>
+      <c r="B349">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2">
+      <c r="A350" s="2">
+        <v>45747.66666666666</v>
+      </c>
+      <c r="B350">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2">
+      <c r="A351" s="2">
+        <v>45747.67708333334</v>
+      </c>
+      <c r="B351">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2">
+      <c r="A352" s="2">
+        <v>45747.6875</v>
+      </c>
+      <c r="B352">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2">
+      <c r="A353" s="2">
+        <v>45747.69791666666</v>
+      </c>
+      <c r="B353">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2">
+      <c r="A354" s="2">
+        <v>45747.70833333334</v>
+      </c>
+      <c r="B354">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2">
+      <c r="A355" s="2">
+        <v>45747.71875</v>
+      </c>
+      <c r="B355">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2">
+      <c r="A356" s="2">
+        <v>45747.72916666666</v>
+      </c>
+      <c r="B356">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2">
+      <c r="A357" s="2">
+        <v>45747.73958333334</v>
+      </c>
+      <c r="B357">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2">
+      <c r="A358" s="2">
+        <v>45747.75</v>
+      </c>
+      <c r="B358">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2">
+      <c r="A359" s="2">
+        <v>45747.76041666666</v>
+      </c>
+      <c r="B359">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2">
+      <c r="A360" s="2">
+        <v>45747.77083333334</v>
+      </c>
+      <c r="B360">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2">
+      <c r="A361" s="2">
+        <v>45747.78125</v>
+      </c>
+      <c r="B361">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2">
+      <c r="A362" s="2">
+        <v>45747.79166666666</v>
+      </c>
+      <c r="B362">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2">
+      <c r="A363" s="2">
+        <v>45747.80208333334</v>
+      </c>
+      <c r="B363">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2">
+      <c r="A364" s="2">
+        <v>45747.8125</v>
+      </c>
+      <c r="B364">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2">
+      <c r="A365" s="2">
+        <v>45747.82291666666</v>
+      </c>
+      <c r="B365">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2">
+      <c r="A366" s="2">
+        <v>45747.83333333334</v>
+      </c>
+      <c r="B366">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2">
+      <c r="A367" s="2">
+        <v>45747.84375</v>
+      </c>
+      <c r="B367">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2">
+      <c r="A368" s="2">
+        <v>45747.85416666666</v>
+      </c>
+      <c r="B368">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2">
+      <c r="A369" s="2">
+        <v>45747.86458333334</v>
+      </c>
+      <c r="B369">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2">
+      <c r="A370" s="2">
+        <v>45747.875</v>
+      </c>
+      <c r="B370">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2">
+      <c r="A371" s="2">
+        <v>45747.88541666666</v>
+      </c>
+      <c r="B371">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2">
+      <c r="A372" s="2">
+        <v>45747.89583333334</v>
+      </c>
+      <c r="B372">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2">
+      <c r="A373" s="2">
+        <v>45747.90625</v>
+      </c>
+      <c r="B373">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2">
+      <c r="A374" s="2">
+        <v>45747.91666666666</v>
+      </c>
+      <c r="B374">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2">
+      <c r="A375" s="2">
+        <v>45747.92708333334</v>
+      </c>
+      <c r="B375">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2">
+      <c r="A376" s="2">
+        <v>45747.9375</v>
+      </c>
+      <c r="B376">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2">
+      <c r="A377" s="2">
+        <v>45747.94791666666</v>
+      </c>
+      <c r="B377">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2">
+      <c r="A378" s="2">
+        <v>45747.95833333334</v>
+      </c>
+      <c r="B378">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2">
+      <c r="A379" s="2">
+        <v>45747.96875</v>
+      </c>
+      <c r="B379">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2">
+      <c r="A380" s="2">
+        <v>45747.97916666666</v>
+      </c>
+      <c r="B380">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2">
+      <c r="A381" s="2">
+        <v>45747.98958333334</v>
+      </c>
+      <c r="B381">
         <v>0</v>
       </c>
     </row>

--- a/data_fetching/Entsoe/Actual_Production_Hydro_Water_Reservoir.xlsx
+++ b/data_fetching/Entsoe/Actual_Production_Hydro_Water_Reservoir.xlsx
@@ -397,1071 +397,1071 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2">
-        <v>45750</v>
+        <v>45757</v>
       </c>
       <c r="B2">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2">
-        <v>45750.01041666666</v>
+        <v>45757.01041666666</v>
       </c>
       <c r="B3">
-        <v>186</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2">
-        <v>45750.02083333334</v>
+        <v>45757.02083333334</v>
       </c>
       <c r="B4">
-        <v>186</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2">
-        <v>45750.03125</v>
+        <v>45757.03125</v>
       </c>
       <c r="B5">
-        <v>186</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2">
-        <v>45750.04166666666</v>
+        <v>45757.04166666666</v>
       </c>
       <c r="B6">
-        <v>183</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2">
-        <v>45750.05208333334</v>
+        <v>45757.05208333334</v>
       </c>
       <c r="B7">
-        <v>183</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2">
-        <v>45750.0625</v>
+        <v>45757.0625</v>
       </c>
       <c r="B8">
-        <v>183</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2">
-        <v>45750.07291666666</v>
+        <v>45757.07291666666</v>
       </c>
       <c r="B9">
-        <v>183</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2">
-        <v>45750.08333333334</v>
+        <v>45757.08333333334</v>
       </c>
       <c r="B10">
-        <v>183</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2">
-        <v>45750.09375</v>
+        <v>45757.09375</v>
       </c>
       <c r="B11">
-        <v>183</v>
+        <v>115</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2">
-        <v>45750.10416666666</v>
+        <v>45757.10416666666</v>
       </c>
       <c r="B12">
-        <v>183</v>
+        <v>115</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2">
-        <v>45750.11458333334</v>
+        <v>45757.11458333334</v>
       </c>
       <c r="B13">
-        <v>184</v>
+        <v>115</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2">
-        <v>45750.125</v>
+        <v>45757.125</v>
       </c>
       <c r="B14">
-        <v>278</v>
+        <v>212</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2">
-        <v>45750.13541666666</v>
+        <v>45757.13541666666</v>
       </c>
       <c r="B15">
-        <v>278</v>
+        <v>222</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2">
-        <v>45750.14583333334</v>
+        <v>45757.14583333334</v>
       </c>
       <c r="B16">
-        <v>278</v>
+        <v>221</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2">
-        <v>45750.15625</v>
+        <v>45757.15625</v>
       </c>
       <c r="B17">
-        <v>287</v>
+        <v>232</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2">
-        <v>45750.16666666666</v>
+        <v>45757.16666666666</v>
       </c>
       <c r="B18">
-        <v>297</v>
+        <v>250</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2">
-        <v>45750.17708333334</v>
+        <v>45757.17708333334</v>
       </c>
       <c r="B19">
-        <v>314</v>
+        <v>265</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2">
-        <v>45750.1875</v>
+        <v>45757.1875</v>
       </c>
       <c r="B20">
-        <v>315</v>
+        <v>266</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2">
-        <v>45750.19791666666</v>
+        <v>45757.19791666666</v>
       </c>
       <c r="B21">
-        <v>318</v>
+        <v>270</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2">
-        <v>45750.20833333334</v>
+        <v>45757.20833333334</v>
       </c>
       <c r="B22">
-        <v>354</v>
+        <v>339</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2">
-        <v>45750.21875</v>
+        <v>45757.21875</v>
       </c>
       <c r="B23">
-        <v>363</v>
+        <v>348</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2">
-        <v>45750.22916666666</v>
+        <v>45757.22916666666</v>
       </c>
       <c r="B24">
-        <v>364</v>
+        <v>348</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2">
-        <v>45750.23958333334</v>
+        <v>45757.23958333334</v>
       </c>
       <c r="B25">
-        <v>381</v>
+        <v>372</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2">
-        <v>45750.25</v>
+        <v>45757.25</v>
       </c>
       <c r="B26">
-        <v>585</v>
+        <v>568</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2">
-        <v>45750.26041666666</v>
+        <v>45757.26041666666</v>
       </c>
       <c r="B27">
-        <v>593</v>
+        <v>572</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2">
-        <v>45750.27083333334</v>
+        <v>45757.27083333334</v>
       </c>
       <c r="B28">
-        <v>592</v>
+        <v>577</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2">
-        <v>45750.28125</v>
+        <v>45757.28125</v>
       </c>
       <c r="B29">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2">
-        <v>45750.29166666666</v>
+        <v>45757.29166666666</v>
       </c>
       <c r="B30">
-        <v>666</v>
+        <v>645</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2">
-        <v>45750.30208333334</v>
+        <v>45757.30208333334</v>
       </c>
       <c r="B31">
-        <v>671</v>
+        <v>631</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2">
-        <v>45750.3125</v>
+        <v>45757.3125</v>
       </c>
       <c r="B32">
-        <v>658</v>
+        <v>627</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2">
-        <v>45750.32291666666</v>
+        <v>45757.32291666666</v>
       </c>
       <c r="B33">
-        <v>663</v>
+        <v>625</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2">
-        <v>45750.33333333334</v>
+        <v>45757.33333333334</v>
       </c>
       <c r="B34">
-        <v>688</v>
+        <v>764</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="2">
-        <v>45750.34375</v>
+        <v>45757.34375</v>
       </c>
       <c r="B35">
-        <v>649</v>
+        <v>737</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="2">
-        <v>45750.35416666666</v>
+        <v>45757.35416666666</v>
       </c>
       <c r="B36">
-        <v>627</v>
+        <v>680</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="2">
-        <v>45750.36458333334</v>
+        <v>45757.36458333334</v>
       </c>
       <c r="B37">
-        <v>625</v>
+        <v>670</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="2">
-        <v>45750.375</v>
+        <v>45757.375</v>
       </c>
       <c r="B38">
-        <v>492</v>
+        <v>419</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="2">
-        <v>45750.38541666666</v>
+        <v>45757.38541666666</v>
       </c>
       <c r="B39">
-        <v>452</v>
+        <v>404</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="2">
-        <v>45750.39583333334</v>
+        <v>45757.39583333334</v>
       </c>
       <c r="B40">
-        <v>433</v>
+        <v>392</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="2">
-        <v>45750.40625</v>
+        <v>45757.40625</v>
       </c>
       <c r="B41">
-        <v>411</v>
+        <v>526</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="2">
-        <v>45750.41666666666</v>
+        <v>45757.41666666666</v>
       </c>
       <c r="B42">
-        <v>253</v>
+        <v>637</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="2">
-        <v>45750.42708333334</v>
+        <v>45757.42708333334</v>
       </c>
       <c r="B43">
-        <v>210</v>
+        <v>642</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="2">
-        <v>45750.4375</v>
+        <v>45757.4375</v>
       </c>
       <c r="B44">
-        <v>206</v>
+        <v>618</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="2">
-        <v>45750.44791666666</v>
+        <v>45757.44791666666</v>
       </c>
       <c r="B45">
-        <v>203</v>
+        <v>598</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="2">
-        <v>45750.45833333334</v>
+        <v>45757.45833333334</v>
       </c>
       <c r="B46">
-        <v>135</v>
+        <v>519</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="2">
-        <v>45750.46875</v>
+        <v>45757.46875</v>
       </c>
       <c r="B47">
-        <v>132</v>
+        <v>498</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="2">
-        <v>45750.47916666666</v>
+        <v>45757.47916666666</v>
       </c>
       <c r="B48">
-        <v>129</v>
+        <v>488</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="2">
-        <v>45750.48958333334</v>
+        <v>45757.48958333334</v>
       </c>
       <c r="B49">
-        <v>129</v>
+        <v>319</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="2">
-        <v>45750.5</v>
+        <v>45757.5</v>
       </c>
       <c r="B50">
-        <v>122</v>
+        <v>150</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="2">
-        <v>45750.51041666666</v>
+        <v>45757.51041666666</v>
       </c>
       <c r="B51">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="2">
-        <v>45750.52083333334</v>
+        <v>45757.52083333334</v>
       </c>
       <c r="B52">
-        <v>123</v>
+        <v>154</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="2">
-        <v>45750.53125</v>
+        <v>45757.53125</v>
       </c>
       <c r="B53">
-        <v>122</v>
+        <v>183</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="2">
-        <v>45750.54166666666</v>
+        <v>45757.54166666666</v>
       </c>
       <c r="B54">
-        <v>124</v>
+        <v>212</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="2">
-        <v>45750.55208333334</v>
+        <v>45757.55208333334</v>
       </c>
       <c r="B55">
-        <v>124</v>
+        <v>210</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="2">
-        <v>45750.5625</v>
+        <v>45757.5625</v>
       </c>
       <c r="B56">
-        <v>122</v>
+        <v>206</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="2">
-        <v>45750.57291666666</v>
+        <v>45757.57291666666</v>
       </c>
       <c r="B57">
-        <v>124</v>
+        <v>206</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="2">
-        <v>45750.58333333334</v>
+        <v>45757.58333333334</v>
       </c>
       <c r="B58">
-        <v>132</v>
+        <v>233</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="2">
-        <v>45750.59375</v>
+        <v>45757.59375</v>
       </c>
       <c r="B59">
-        <v>133</v>
+        <v>248</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="2">
-        <v>45750.60416666666</v>
+        <v>45757.60416666666</v>
       </c>
       <c r="B60">
-        <v>133</v>
+        <v>275</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="2">
-        <v>45750.61458333334</v>
+        <v>45757.61458333334</v>
       </c>
       <c r="B61">
-        <v>137</v>
+        <v>277</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="2">
-        <v>45750.625</v>
+        <v>45757.625</v>
       </c>
       <c r="B62">
-        <v>174</v>
+        <v>382</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="2">
-        <v>45750.63541666666</v>
+        <v>45757.63541666666</v>
       </c>
       <c r="B63">
-        <v>177</v>
+        <v>408</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="2">
-        <v>45750.64583333334</v>
+        <v>45757.64583333334</v>
       </c>
       <c r="B64">
-        <v>178</v>
+        <v>390</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="2">
-        <v>45750.65625</v>
+        <v>45757.65625</v>
       </c>
       <c r="B65">
-        <v>182</v>
+        <v>350</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="2">
-        <v>45750.66666666666</v>
+        <v>45757.66666666666</v>
       </c>
       <c r="B66">
-        <v>241</v>
+        <v>289</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="2">
-        <v>45750.67708333334</v>
+        <v>45757.67708333334</v>
       </c>
       <c r="B67">
-        <v>243</v>
+        <v>295</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="2">
-        <v>45750.6875</v>
+        <v>45757.6875</v>
       </c>
       <c r="B68">
-        <v>244</v>
+        <v>294</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="2">
-        <v>45750.69791666666</v>
+        <v>45757.69791666666</v>
       </c>
       <c r="B69">
-        <v>250</v>
+        <v>271</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="2">
-        <v>45750.70833333334</v>
+        <v>45757.70833333334</v>
       </c>
       <c r="B70">
-        <v>421</v>
+        <v>253</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="2">
-        <v>45750.71875</v>
+        <v>45757.71875</v>
       </c>
       <c r="B71">
-        <v>423</v>
+        <v>259</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="2">
-        <v>45750.72916666666</v>
+        <v>45757.72916666666</v>
       </c>
       <c r="B72">
-        <v>423</v>
+        <v>310</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="2">
-        <v>45750.73958333334</v>
+        <v>45757.73958333334</v>
       </c>
       <c r="B73">
-        <v>449</v>
+        <v>409</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="2">
-        <v>45750.75</v>
+        <v>45757.75</v>
       </c>
       <c r="B74">
-        <v>680</v>
+        <v>556</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="2">
-        <v>45750.76041666666</v>
+        <v>45757.76041666666</v>
       </c>
       <c r="B75">
-        <v>710</v>
+        <v>586</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="2">
-        <v>45750.77083333334</v>
+        <v>45757.77083333334</v>
       </c>
       <c r="B76">
-        <v>711</v>
+        <v>613</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="2">
-        <v>45750.78125</v>
+        <v>45757.78125</v>
       </c>
       <c r="B77">
-        <v>721</v>
+        <v>658</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="2">
-        <v>45750.79166666666</v>
+        <v>45757.79166666666</v>
       </c>
       <c r="B78">
-        <v>694</v>
+        <v>602</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="2">
-        <v>45750.80208333334</v>
+        <v>45757.80208333334</v>
       </c>
       <c r="B79">
-        <v>734</v>
+        <v>655</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="2">
-        <v>45750.8125</v>
+        <v>45757.8125</v>
       </c>
       <c r="B80">
-        <v>740</v>
+        <v>678</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="2">
-        <v>45750.82291666666</v>
+        <v>45757.82291666666</v>
       </c>
       <c r="B81">
-        <v>721</v>
+        <v>689</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="2">
-        <v>45750.83333333334</v>
+        <v>45757.83333333334</v>
       </c>
       <c r="B82">
-        <v>739</v>
+        <v>744</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="2">
-        <v>45750.84375</v>
+        <v>45757.84375</v>
       </c>
       <c r="B83">
-        <v>734</v>
+        <v>745</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="2">
-        <v>45750.85416666666</v>
+        <v>45757.85416666666</v>
       </c>
       <c r="B84">
-        <v>703</v>
+        <v>825</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="2">
-        <v>45750.86458333334</v>
+        <v>45757.86458333334</v>
       </c>
       <c r="B85">
-        <v>685</v>
+        <v>823</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="2">
-        <v>45750.875</v>
+        <v>45757.875</v>
       </c>
       <c r="B86">
-        <v>602</v>
+        <v>729</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="2">
-        <v>45750.88541666666</v>
+        <v>45757.88541666666</v>
       </c>
       <c r="B87">
-        <v>598</v>
+        <v>683</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="2">
-        <v>45750.89583333334</v>
+        <v>45757.89583333334</v>
       </c>
       <c r="B88">
-        <v>599</v>
+        <v>683</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="2">
-        <v>45750.90625</v>
+        <v>45757.90625</v>
       </c>
       <c r="B89">
-        <v>599</v>
+        <v>483</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="2">
-        <v>45750.91666666666</v>
+        <v>45757.91666666666</v>
       </c>
       <c r="B90">
-        <v>366</v>
+        <v>301</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="2">
-        <v>45750.92708333334</v>
+        <v>45757.92708333334</v>
       </c>
       <c r="B91">
-        <v>346</v>
+        <v>256</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="2">
-        <v>45750.9375</v>
+        <v>45757.9375</v>
       </c>
       <c r="B92">
-        <v>345</v>
+        <v>251</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="2">
-        <v>45750.94791666666</v>
+        <v>45757.94791666666</v>
       </c>
       <c r="B93">
-        <v>345</v>
+        <v>239</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="2">
-        <v>45750.95833333334</v>
+        <v>45757.95833333334</v>
       </c>
       <c r="B94">
-        <v>348</v>
+        <v>179</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="2">
-        <v>45750.96875</v>
+        <v>45757.96875</v>
       </c>
       <c r="B95">
-        <v>321</v>
+        <v>157</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="2">
-        <v>45750.97916666666</v>
+        <v>45757.97916666666</v>
       </c>
       <c r="B96">
-        <v>318</v>
+        <v>155</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="2">
-        <v>45750.98958333334</v>
+        <v>45757.98958333334</v>
       </c>
       <c r="B97">
-        <v>330</v>
+        <v>119</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" s="2">
-        <v>45751</v>
+        <v>45758</v>
       </c>
       <c r="B98">
-        <v>381</v>
+        <v>133</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" s="2">
-        <v>45751.01041666666</v>
+        <v>45758.01041666666</v>
       </c>
       <c r="B99">
-        <v>328</v>
+        <v>112</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" s="2">
-        <v>45751.02083333334</v>
+        <v>45758.02083333334</v>
       </c>
       <c r="B100">
-        <v>326</v>
+        <v>101</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" s="2">
-        <v>45751.03125</v>
+        <v>45758.03125</v>
       </c>
       <c r="B101">
-        <v>326</v>
+        <v>92</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" s="2">
-        <v>45751.04166666666</v>
+        <v>45758.04166666666</v>
       </c>
       <c r="B102">
-        <v>250</v>
+        <v>109</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" s="2">
-        <v>45751.05208333334</v>
+        <v>45758.05208333334</v>
       </c>
       <c r="B103">
-        <v>249</v>
+        <v>94</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" s="2">
-        <v>45751.0625</v>
+        <v>45758.0625</v>
       </c>
       <c r="B104">
-        <v>249</v>
+        <v>121</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" s="2">
-        <v>45751.07291666666</v>
+        <v>45758.07291666666</v>
       </c>
       <c r="B105">
-        <v>248</v>
+        <v>103</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" s="2">
-        <v>45751.08333333334</v>
+        <v>45758.08333333334</v>
       </c>
       <c r="B106">
-        <v>249</v>
+        <v>106</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" s="2">
-        <v>45751.09375</v>
+        <v>45758.09375</v>
       </c>
       <c r="B107">
-        <v>250</v>
+        <v>122</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" s="2">
-        <v>45751.10416666666</v>
+        <v>45758.10416666666</v>
       </c>
       <c r="B108">
-        <v>250</v>
+        <v>117</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" s="2">
-        <v>45751.11458333334</v>
+        <v>45758.11458333334</v>
       </c>
       <c r="B109">
-        <v>249</v>
+        <v>135</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" s="2">
-        <v>45751.125</v>
+        <v>45758.125</v>
       </c>
       <c r="B110">
-        <v>250</v>
+        <v>135</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" s="2">
-        <v>45751.13541666666</v>
+        <v>45758.13541666666</v>
       </c>
       <c r="B111">
-        <v>250</v>
+        <v>123</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112" s="2">
-        <v>45751.14583333334</v>
+        <v>45758.14583333334</v>
       </c>
       <c r="B112">
-        <v>251</v>
+        <v>121</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" s="2">
-        <v>45751.15625</v>
+        <v>45758.15625</v>
       </c>
       <c r="B113">
-        <v>266</v>
+        <v>142</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" s="2">
-        <v>45751.16666666666</v>
+        <v>45758.16666666666</v>
       </c>
       <c r="B114">
-        <v>437</v>
+        <v>120</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" s="2">
-        <v>45751.17708333334</v>
+        <v>45758.17708333334</v>
       </c>
       <c r="B115">
-        <v>453</v>
+        <v>150</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" s="2">
-        <v>45751.1875</v>
+        <v>45758.1875</v>
       </c>
       <c r="B116">
-        <v>455</v>
+        <v>163</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117" s="2">
-        <v>45751.19791666666</v>
+        <v>45758.19791666666</v>
       </c>
       <c r="B117">
-        <v>457</v>
+        <v>165</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" s="2">
-        <v>45751.20833333334</v>
+        <v>45758.20833333334</v>
       </c>
       <c r="B118">
-        <v>449</v>
+        <v>143</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" s="2">
-        <v>45751.21875</v>
+        <v>45758.21875</v>
       </c>
       <c r="B119">
-        <v>450</v>
+        <v>151</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" s="2">
-        <v>45751.22916666666</v>
+        <v>45758.22916666666</v>
       </c>
       <c r="B120">
-        <v>450</v>
+        <v>188</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" s="2">
-        <v>45751.23958333334</v>
+        <v>45758.23958333334</v>
       </c>
       <c r="B121">
-        <v>460</v>
+        <v>239</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" s="2">
-        <v>45751.25</v>
+        <v>45758.25</v>
       </c>
       <c r="B122">
-        <v>550</v>
+        <v>518</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123" s="2">
-        <v>45751.26041666666</v>
+        <v>45758.26041666666</v>
       </c>
       <c r="B123">
-        <v>570</v>
+        <v>588</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" s="2">
-        <v>45751.27083333334</v>
+        <v>45758.27083333334</v>
       </c>
       <c r="B124">
-        <v>570</v>
+        <v>600</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" s="2">
-        <v>45751.28125</v>
+        <v>45758.28125</v>
       </c>
       <c r="B125">
-        <v>579</v>
+        <v>538</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" s="2">
-        <v>45751.29166666666</v>
+        <v>45758.29166666666</v>
       </c>
       <c r="B126">
-        <v>602</v>
+        <v>606</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127" s="2">
-        <v>45751.30208333334</v>
+        <v>45758.30208333334</v>
       </c>
       <c r="B127">
-        <v>599</v>
+        <v>647</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128" s="2">
-        <v>45751.3125</v>
+        <v>45758.3125</v>
       </c>
       <c r="B128">
-        <v>600</v>
+        <v>676</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" s="2">
-        <v>45751.32291666666</v>
+        <v>45758.32291666666</v>
       </c>
       <c r="B129">
-        <v>600</v>
+        <v>706</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" s="2">
-        <v>45751.33333333334</v>
+        <v>45758.33333333334</v>
       </c>
       <c r="B130">
-        <v>606</v>
+        <v>579</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" s="2">
-        <v>45751.34375</v>
+        <v>45758.34375</v>
       </c>
       <c r="B131">
-        <v>620</v>
+        <v>561</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132" s="2">
-        <v>45751.35416666666</v>
+        <v>45758.35416666666</v>
       </c>
       <c r="B132">
-        <v>614</v>
+        <v>537</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" s="2">
-        <v>45751.36458333334</v>
+        <v>45758.36458333334</v>
       </c>
       <c r="B133">
-        <v>609</v>
+        <v>532</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134" s="2">
-        <v>45751.375</v>
+        <v>45758.375</v>
       </c>
       <c r="B134">
-        <v>379</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135" s="2">
-        <v>45751.38541666666</v>
+        <v>45758.38541666666</v>
       </c>
       <c r="B135">
         <v>0</v>
@@ -1469,7 +1469,7 @@
     </row>
     <row r="136" spans="1:2">
       <c r="A136" s="2">
-        <v>45751.39583333334</v>
+        <v>45758.39583333334</v>
       </c>
       <c r="B136">
         <v>0</v>
@@ -1477,7 +1477,7 @@
     </row>
     <row r="137" spans="1:2">
       <c r="A137" s="2">
-        <v>45751.40625</v>
+        <v>45758.40625</v>
       </c>
       <c r="B137">
         <v>0</v>
@@ -1485,7 +1485,7 @@
     </row>
     <row r="138" spans="1:2">
       <c r="A138" s="2">
-        <v>45751.41666666666</v>
+        <v>45758.41666666666</v>
       </c>
       <c r="B138">
         <v>0</v>
@@ -1493,7 +1493,7 @@
     </row>
     <row r="139" spans="1:2">
       <c r="A139" s="2">
-        <v>45751.42708333334</v>
+        <v>45758.42708333334</v>
       </c>
       <c r="B139">
         <v>0</v>
@@ -1501,7 +1501,7 @@
     </row>
     <row r="140" spans="1:2">
       <c r="A140" s="2">
-        <v>45751.4375</v>
+        <v>45758.4375</v>
       </c>
       <c r="B140">
         <v>0</v>
@@ -1509,7 +1509,7 @@
     </row>
     <row r="141" spans="1:2">
       <c r="A141" s="2">
-        <v>45751.44791666666</v>
+        <v>45758.44791666666</v>
       </c>
       <c r="B141">
         <v>0</v>
@@ -1517,7 +1517,7 @@
     </row>
     <row r="142" spans="1:2">
       <c r="A142" s="2">
-        <v>45751.45833333334</v>
+        <v>45758.45833333334</v>
       </c>
       <c r="B142">
         <v>0</v>
@@ -1525,7 +1525,7 @@
     </row>
     <row r="143" spans="1:2">
       <c r="A143" s="2">
-        <v>45751.46875</v>
+        <v>45758.46875</v>
       </c>
       <c r="B143">
         <v>0</v>
@@ -1533,7 +1533,7 @@
     </row>
     <row r="144" spans="1:2">
       <c r="A144" s="2">
-        <v>45751.47916666666</v>
+        <v>45758.47916666666</v>
       </c>
       <c r="B144">
         <v>0</v>
@@ -1541,7 +1541,7 @@
     </row>
     <row r="145" spans="1:2">
       <c r="A145" s="2">
-        <v>45751.48958333334</v>
+        <v>45758.48958333334</v>
       </c>
       <c r="B145">
         <v>0</v>
@@ -1549,7 +1549,7 @@
     </row>
     <row r="146" spans="1:2">
       <c r="A146" s="2">
-        <v>45751.5</v>
+        <v>45758.5</v>
       </c>
       <c r="B146">
         <v>0</v>
@@ -1557,7 +1557,7 @@
     </row>
     <row r="147" spans="1:2">
       <c r="A147" s="2">
-        <v>45751.51041666666</v>
+        <v>45758.51041666666</v>
       </c>
       <c r="B147">
         <v>0</v>
@@ -1565,7 +1565,7 @@
     </row>
     <row r="148" spans="1:2">
       <c r="A148" s="2">
-        <v>45751.52083333334</v>
+        <v>45758.52083333334</v>
       </c>
       <c r="B148">
         <v>0</v>
@@ -1573,7 +1573,7 @@
     </row>
     <row r="149" spans="1:2">
       <c r="A149" s="2">
-        <v>45751.53125</v>
+        <v>45758.53125</v>
       </c>
       <c r="B149">
         <v>0</v>
@@ -1581,7 +1581,7 @@
     </row>
     <row r="150" spans="1:2">
       <c r="A150" s="2">
-        <v>45751.54166666666</v>
+        <v>45758.54166666666</v>
       </c>
       <c r="B150">
         <v>0</v>
@@ -1589,7 +1589,7 @@
     </row>
     <row r="151" spans="1:2">
       <c r="A151" s="2">
-        <v>45751.55208333334</v>
+        <v>45758.55208333334</v>
       </c>
       <c r="B151">
         <v>0</v>
@@ -1597,7 +1597,7 @@
     </row>
     <row r="152" spans="1:2">
       <c r="A152" s="2">
-        <v>45751.5625</v>
+        <v>45758.5625</v>
       </c>
       <c r="B152">
         <v>0</v>
@@ -1605,7 +1605,7 @@
     </row>
     <row r="153" spans="1:2">
       <c r="A153" s="2">
-        <v>45751.57291666666</v>
+        <v>45758.57291666666</v>
       </c>
       <c r="B153">
         <v>0</v>
@@ -1613,7 +1613,7 @@
     </row>
     <row r="154" spans="1:2">
       <c r="A154" s="2">
-        <v>45751.58333333334</v>
+        <v>45758.58333333334</v>
       </c>
       <c r="B154">
         <v>0</v>
@@ -1621,7 +1621,7 @@
     </row>
     <row r="155" spans="1:2">
       <c r="A155" s="2">
-        <v>45751.59375</v>
+        <v>45758.59375</v>
       </c>
       <c r="B155">
         <v>0</v>
@@ -1629,7 +1629,7 @@
     </row>
     <row r="156" spans="1:2">
       <c r="A156" s="2">
-        <v>45751.60416666666</v>
+        <v>45758.60416666666</v>
       </c>
       <c r="B156">
         <v>0</v>
@@ -1637,7 +1637,7 @@
     </row>
     <row r="157" spans="1:2">
       <c r="A157" s="2">
-        <v>45751.61458333334</v>
+        <v>45758.61458333334</v>
       </c>
       <c r="B157">
         <v>0</v>
@@ -1645,7 +1645,7 @@
     </row>
     <row r="158" spans="1:2">
       <c r="A158" s="2">
-        <v>45751.625</v>
+        <v>45758.625</v>
       </c>
       <c r="B158">
         <v>0</v>
@@ -1653,7 +1653,7 @@
     </row>
     <row r="159" spans="1:2">
       <c r="A159" s="2">
-        <v>45751.63541666666</v>
+        <v>45758.63541666666</v>
       </c>
       <c r="B159">
         <v>0</v>
@@ -1661,7 +1661,7 @@
     </row>
     <row r="160" spans="1:2">
       <c r="A160" s="2">
-        <v>45751.64583333334</v>
+        <v>45758.64583333334</v>
       </c>
       <c r="B160">
         <v>0</v>
@@ -1669,7 +1669,7 @@
     </row>
     <row r="161" spans="1:2">
       <c r="A161" s="2">
-        <v>45751.65625</v>
+        <v>45758.65625</v>
       </c>
       <c r="B161">
         <v>0</v>
@@ -1677,7 +1677,7 @@
     </row>
     <row r="162" spans="1:2">
       <c r="A162" s="2">
-        <v>45751.66666666666</v>
+        <v>45758.66666666666</v>
       </c>
       <c r="B162">
         <v>0</v>
@@ -1685,7 +1685,7 @@
     </row>
     <row r="163" spans="1:2">
       <c r="A163" s="2">
-        <v>45751.67708333334</v>
+        <v>45758.67708333334</v>
       </c>
       <c r="B163">
         <v>0</v>
@@ -1693,7 +1693,7 @@
     </row>
     <row r="164" spans="1:2">
       <c r="A164" s="2">
-        <v>45751.6875</v>
+        <v>45758.6875</v>
       </c>
       <c r="B164">
         <v>0</v>
@@ -1701,7 +1701,7 @@
     </row>
     <row r="165" spans="1:2">
       <c r="A165" s="2">
-        <v>45751.69791666666</v>
+        <v>45758.69791666666</v>
       </c>
       <c r="B165">
         <v>0</v>
@@ -1709,7 +1709,7 @@
     </row>
     <row r="166" spans="1:2">
       <c r="A166" s="2">
-        <v>45751.70833333334</v>
+        <v>45758.70833333334</v>
       </c>
       <c r="B166">
         <v>0</v>
@@ -1717,7 +1717,7 @@
     </row>
     <row r="167" spans="1:2">
       <c r="A167" s="2">
-        <v>45751.71875</v>
+        <v>45758.71875</v>
       </c>
       <c r="B167">
         <v>0</v>
@@ -1725,7 +1725,7 @@
     </row>
     <row r="168" spans="1:2">
       <c r="A168" s="2">
-        <v>45751.72916666666</v>
+        <v>45758.72916666666</v>
       </c>
       <c r="B168">
         <v>0</v>
@@ -1733,7 +1733,7 @@
     </row>
     <row r="169" spans="1:2">
       <c r="A169" s="2">
-        <v>45751.73958333334</v>
+        <v>45758.73958333334</v>
       </c>
       <c r="B169">
         <v>0</v>
@@ -1741,7 +1741,7 @@
     </row>
     <row r="170" spans="1:2">
       <c r="A170" s="2">
-        <v>45751.75</v>
+        <v>45758.75</v>
       </c>
       <c r="B170">
         <v>0</v>
@@ -1749,7 +1749,7 @@
     </row>
     <row r="171" spans="1:2">
       <c r="A171" s="2">
-        <v>45751.76041666666</v>
+        <v>45758.76041666666</v>
       </c>
       <c r="B171">
         <v>0</v>
@@ -1757,7 +1757,7 @@
     </row>
     <row r="172" spans="1:2">
       <c r="A172" s="2">
-        <v>45751.77083333334</v>
+        <v>45758.77083333334</v>
       </c>
       <c r="B172">
         <v>0</v>
@@ -1765,7 +1765,7 @@
     </row>
     <row r="173" spans="1:2">
       <c r="A173" s="2">
-        <v>45751.78125</v>
+        <v>45758.78125</v>
       </c>
       <c r="B173">
         <v>0</v>
@@ -1773,7 +1773,7 @@
     </row>
     <row r="174" spans="1:2">
       <c r="A174" s="2">
-        <v>45751.79166666666</v>
+        <v>45758.79166666666</v>
       </c>
       <c r="B174">
         <v>0</v>
@@ -1781,7 +1781,7 @@
     </row>
     <row r="175" spans="1:2">
       <c r="A175" s="2">
-        <v>45751.80208333334</v>
+        <v>45758.80208333334</v>
       </c>
       <c r="B175">
         <v>0</v>
@@ -1789,7 +1789,7 @@
     </row>
     <row r="176" spans="1:2">
       <c r="A176" s="2">
-        <v>45751.8125</v>
+        <v>45758.8125</v>
       </c>
       <c r="B176">
         <v>0</v>
@@ -1797,7 +1797,7 @@
     </row>
     <row r="177" spans="1:2">
       <c r="A177" s="2">
-        <v>45751.82291666666</v>
+        <v>45758.82291666666</v>
       </c>
       <c r="B177">
         <v>0</v>
@@ -1805,7 +1805,7 @@
     </row>
     <row r="178" spans="1:2">
       <c r="A178" s="2">
-        <v>45751.83333333334</v>
+        <v>45758.83333333334</v>
       </c>
       <c r="B178">
         <v>0</v>
@@ -1813,7 +1813,7 @@
     </row>
     <row r="179" spans="1:2">
       <c r="A179" s="2">
-        <v>45751.84375</v>
+        <v>45758.84375</v>
       </c>
       <c r="B179">
         <v>0</v>
@@ -1821,7 +1821,7 @@
     </row>
     <row r="180" spans="1:2">
       <c r="A180" s="2">
-        <v>45751.85416666666</v>
+        <v>45758.85416666666</v>
       </c>
       <c r="B180">
         <v>0</v>
@@ -1829,7 +1829,7 @@
     </row>
     <row r="181" spans="1:2">
       <c r="A181" s="2">
-        <v>45751.86458333334</v>
+        <v>45758.86458333334</v>
       </c>
       <c r="B181">
         <v>0</v>
@@ -1837,7 +1837,7 @@
     </row>
     <row r="182" spans="1:2">
       <c r="A182" s="2">
-        <v>45751.875</v>
+        <v>45758.875</v>
       </c>
       <c r="B182">
         <v>0</v>
@@ -1845,7 +1845,7 @@
     </row>
     <row r="183" spans="1:2">
       <c r="A183" s="2">
-        <v>45751.88541666666</v>
+        <v>45758.88541666666</v>
       </c>
       <c r="B183">
         <v>0</v>
@@ -1853,7 +1853,7 @@
     </row>
     <row r="184" spans="1:2">
       <c r="A184" s="2">
-        <v>45751.89583333334</v>
+        <v>45758.89583333334</v>
       </c>
       <c r="B184">
         <v>0</v>
@@ -1861,7 +1861,7 @@
     </row>
     <row r="185" spans="1:2">
       <c r="A185" s="2">
-        <v>45751.90625</v>
+        <v>45758.90625</v>
       </c>
       <c r="B185">
         <v>0</v>
@@ -1869,7 +1869,7 @@
     </row>
     <row r="186" spans="1:2">
       <c r="A186" s="2">
-        <v>45751.91666666666</v>
+        <v>45758.91666666666</v>
       </c>
       <c r="B186">
         <v>0</v>
@@ -1877,7 +1877,7 @@
     </row>
     <row r="187" spans="1:2">
       <c r="A187" s="2">
-        <v>45751.92708333334</v>
+        <v>45758.92708333334</v>
       </c>
       <c r="B187">
         <v>0</v>
@@ -1885,7 +1885,7 @@
     </row>
     <row r="188" spans="1:2">
       <c r="A188" s="2">
-        <v>45751.9375</v>
+        <v>45758.9375</v>
       </c>
       <c r="B188">
         <v>0</v>
@@ -1893,7 +1893,7 @@
     </row>
     <row r="189" spans="1:2">
       <c r="A189" s="2">
-        <v>45751.94791666666</v>
+        <v>45758.94791666666</v>
       </c>
       <c r="B189">
         <v>0</v>
@@ -1901,7 +1901,7 @@
     </row>
     <row r="190" spans="1:2">
       <c r="A190" s="2">
-        <v>45751.95833333334</v>
+        <v>45758.95833333334</v>
       </c>
       <c r="B190">
         <v>0</v>
@@ -1909,7 +1909,7 @@
     </row>
     <row r="191" spans="1:2">
       <c r="A191" s="2">
-        <v>45751.96875</v>
+        <v>45758.96875</v>
       </c>
       <c r="B191">
         <v>0</v>
@@ -1917,7 +1917,7 @@
     </row>
     <row r="192" spans="1:2">
       <c r="A192" s="2">
-        <v>45751.97916666666</v>
+        <v>45758.97916666666</v>
       </c>
       <c r="B192">
         <v>0</v>
@@ -1925,7 +1925,7 @@
     </row>
     <row r="193" spans="1:2">
       <c r="A193" s="2">
-        <v>45751.98958333334</v>
+        <v>45758.98958333334</v>
       </c>
       <c r="B193">
         <v>0</v>

--- a/data_fetching/Entsoe/Actual_Production_Hydro_Water_Reservoir.xlsx
+++ b/data_fetching/Entsoe/Actual_Production_Hydro_Water_Reservoir.xlsx
@@ -397,391 +397,391 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2">
-        <v>45757</v>
+        <v>45775</v>
       </c>
       <c r="B2">
-        <v>169</v>
+        <v>200</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2">
-        <v>45757.01041666666</v>
+        <v>45775.01041666666</v>
       </c>
       <c r="B3">
-        <v>160</v>
+        <v>199</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2">
-        <v>45757.02083333334</v>
+        <v>45775.02083333334</v>
       </c>
       <c r="B4">
-        <v>161</v>
+        <v>198</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2">
-        <v>45757.03125</v>
+        <v>45775.03125</v>
       </c>
       <c r="B5">
-        <v>150</v>
+        <v>199</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2">
-        <v>45757.04166666666</v>
+        <v>45775.04166666666</v>
       </c>
       <c r="B6">
-        <v>127</v>
+        <v>259</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2">
-        <v>45757.05208333334</v>
+        <v>45775.05208333334</v>
       </c>
       <c r="B7">
-        <v>116</v>
+        <v>289</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2">
-        <v>45757.0625</v>
+        <v>45775.0625</v>
       </c>
       <c r="B8">
-        <v>115</v>
+        <v>273</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2">
-        <v>45757.07291666666</v>
+        <v>45775.07291666666</v>
       </c>
       <c r="B9">
-        <v>115</v>
+        <v>264</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2">
-        <v>45757.08333333334</v>
+        <v>45775.08333333334</v>
       </c>
       <c r="B10">
-        <v>116</v>
+        <v>280</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2">
-        <v>45757.09375</v>
+        <v>45775.09375</v>
       </c>
       <c r="B11">
-        <v>115</v>
+        <v>283</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2">
-        <v>45757.10416666666</v>
+        <v>45775.10416666666</v>
       </c>
       <c r="B12">
-        <v>115</v>
+        <v>294</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2">
-        <v>45757.11458333334</v>
+        <v>45775.11458333334</v>
       </c>
       <c r="B13">
-        <v>115</v>
+        <v>288</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2">
-        <v>45757.125</v>
+        <v>45775.125</v>
       </c>
       <c r="B14">
-        <v>212</v>
+        <v>259</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2">
-        <v>45757.13541666666</v>
+        <v>45775.13541666666</v>
       </c>
       <c r="B15">
-        <v>222</v>
+        <v>272</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2">
-        <v>45757.14583333334</v>
+        <v>45775.14583333334</v>
       </c>
       <c r="B16">
-        <v>221</v>
+        <v>300</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2">
-        <v>45757.15625</v>
+        <v>45775.15625</v>
       </c>
       <c r="B17">
-        <v>232</v>
+        <v>294</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2">
-        <v>45757.16666666666</v>
+        <v>45775.16666666666</v>
       </c>
       <c r="B18">
-        <v>250</v>
+        <v>271</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2">
-        <v>45757.17708333334</v>
+        <v>45775.17708333334</v>
       </c>
       <c r="B19">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2">
-        <v>45757.1875</v>
+        <v>45775.1875</v>
       </c>
       <c r="B20">
-        <v>266</v>
+        <v>274</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2">
-        <v>45757.19791666666</v>
+        <v>45775.19791666666</v>
       </c>
       <c r="B21">
-        <v>270</v>
+        <v>275</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2">
-        <v>45757.20833333334</v>
+        <v>45775.20833333334</v>
       </c>
       <c r="B22">
-        <v>339</v>
+        <v>278</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2">
-        <v>45757.21875</v>
+        <v>45775.21875</v>
       </c>
       <c r="B23">
-        <v>348</v>
+        <v>281</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2">
-        <v>45757.22916666666</v>
+        <v>45775.22916666666</v>
       </c>
       <c r="B24">
-        <v>348</v>
+        <v>294</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2">
-        <v>45757.23958333334</v>
+        <v>45775.23958333334</v>
       </c>
       <c r="B25">
-        <v>372</v>
+        <v>322</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2">
-        <v>45757.25</v>
+        <v>45775.25</v>
       </c>
       <c r="B26">
-        <v>568</v>
+        <v>470</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2">
-        <v>45757.26041666666</v>
+        <v>45775.26041666666</v>
       </c>
       <c r="B27">
-        <v>572</v>
+        <v>491</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2">
-        <v>45757.27083333334</v>
+        <v>45775.27083333334</v>
       </c>
       <c r="B28">
-        <v>577</v>
+        <v>454</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2">
-        <v>45757.28125</v>
+        <v>45775.28125</v>
       </c>
       <c r="B29">
-        <v>596</v>
+        <v>449</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2">
-        <v>45757.29166666666</v>
+        <v>45775.29166666666</v>
       </c>
       <c r="B30">
-        <v>645</v>
+        <v>443</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2">
-        <v>45757.30208333334</v>
+        <v>45775.30208333334</v>
       </c>
       <c r="B31">
-        <v>631</v>
+        <v>438</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2">
-        <v>45757.3125</v>
+        <v>45775.3125</v>
       </c>
       <c r="B32">
-        <v>627</v>
+        <v>426</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2">
-        <v>45757.32291666666</v>
+        <v>45775.32291666666</v>
       </c>
       <c r="B33">
-        <v>625</v>
+        <v>427</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2">
-        <v>45757.33333333334</v>
+        <v>45775.33333333334</v>
       </c>
       <c r="B34">
-        <v>764</v>
+        <v>292</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="2">
-        <v>45757.34375</v>
+        <v>45775.34375</v>
       </c>
       <c r="B35">
-        <v>737</v>
+        <v>260</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="2">
-        <v>45757.35416666666</v>
+        <v>45775.35416666666</v>
       </c>
       <c r="B36">
-        <v>680</v>
+        <v>251</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="2">
-        <v>45757.36458333334</v>
+        <v>45775.36458333334</v>
       </c>
       <c r="B37">
-        <v>670</v>
+        <v>239</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="2">
-        <v>45757.375</v>
+        <v>45775.375</v>
       </c>
       <c r="B38">
-        <v>419</v>
+        <v>283</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="2">
-        <v>45757.38541666666</v>
+        <v>45775.38541666666</v>
       </c>
       <c r="B39">
-        <v>404</v>
+        <v>235</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="2">
-        <v>45757.39583333334</v>
+        <v>45775.39583333334</v>
       </c>
       <c r="B40">
-        <v>392</v>
+        <v>230</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="2">
-        <v>45757.40625</v>
+        <v>45775.40625</v>
       </c>
       <c r="B41">
-        <v>526</v>
+        <v>230</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="2">
-        <v>45757.41666666666</v>
+        <v>45775.41666666666</v>
       </c>
       <c r="B42">
-        <v>637</v>
+        <v>214</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="2">
-        <v>45757.42708333334</v>
+        <v>45775.42708333334</v>
       </c>
       <c r="B43">
-        <v>642</v>
+        <v>176</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="2">
-        <v>45757.4375</v>
+        <v>45775.4375</v>
       </c>
       <c r="B44">
-        <v>618</v>
+        <v>125</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="2">
-        <v>45757.44791666666</v>
+        <v>45775.44791666666</v>
       </c>
       <c r="B45">
-        <v>598</v>
+        <v>153</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="2">
-        <v>45757.45833333334</v>
+        <v>45775.45833333334</v>
       </c>
       <c r="B46">
-        <v>519</v>
+        <v>194</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="2">
-        <v>45757.46875</v>
+        <v>45775.46875</v>
       </c>
       <c r="B47">
-        <v>498</v>
+        <v>221</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="2">
-        <v>45757.47916666666</v>
+        <v>45775.47916666666</v>
       </c>
       <c r="B48">
-        <v>488</v>
+        <v>203</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="2">
-        <v>45757.48958333334</v>
+        <v>45775.48958333334</v>
       </c>
       <c r="B49">
-        <v>319</v>
+        <v>178</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="2">
-        <v>45757.5</v>
+        <v>45775.5</v>
       </c>
       <c r="B50">
         <v>150</v>
@@ -789,679 +789,679 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="2">
-        <v>45757.51041666666</v>
+        <v>45775.51041666666</v>
       </c>
       <c r="B51">
-        <v>124</v>
+        <v>164</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="2">
-        <v>45757.52083333334</v>
+        <v>45775.52083333334</v>
       </c>
       <c r="B52">
-        <v>154</v>
+        <v>198</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="2">
-        <v>45757.53125</v>
+        <v>45775.53125</v>
       </c>
       <c r="B53">
-        <v>183</v>
+        <v>148</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="2">
-        <v>45757.54166666666</v>
+        <v>45775.54166666666</v>
       </c>
       <c r="B54">
-        <v>212</v>
+        <v>148</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="2">
-        <v>45757.55208333334</v>
+        <v>45775.55208333334</v>
       </c>
       <c r="B55">
-        <v>210</v>
+        <v>157</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="2">
-        <v>45757.5625</v>
+        <v>45775.5625</v>
       </c>
       <c r="B56">
-        <v>206</v>
+        <v>133</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="2">
-        <v>45757.57291666666</v>
+        <v>45775.57291666666</v>
       </c>
       <c r="B57">
-        <v>206</v>
+        <v>130</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="2">
-        <v>45757.58333333334</v>
+        <v>45775.58333333334</v>
       </c>
       <c r="B58">
-        <v>233</v>
+        <v>123</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="2">
-        <v>45757.59375</v>
+        <v>45775.59375</v>
       </c>
       <c r="B59">
-        <v>248</v>
+        <v>120</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="2">
-        <v>45757.60416666666</v>
+        <v>45775.60416666666</v>
       </c>
       <c r="B60">
-        <v>275</v>
+        <v>147</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="2">
-        <v>45757.61458333334</v>
+        <v>45775.61458333334</v>
       </c>
       <c r="B61">
-        <v>277</v>
+        <v>140</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="2">
-        <v>45757.625</v>
+        <v>45775.625</v>
       </c>
       <c r="B62">
-        <v>382</v>
+        <v>129</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="2">
-        <v>45757.63541666666</v>
+        <v>45775.63541666666</v>
       </c>
       <c r="B63">
-        <v>408</v>
+        <v>128</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="2">
-        <v>45757.64583333334</v>
+        <v>45775.64583333334</v>
       </c>
       <c r="B64">
-        <v>390</v>
+        <v>163</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="2">
-        <v>45757.65625</v>
+        <v>45775.65625</v>
       </c>
       <c r="B65">
-        <v>350</v>
+        <v>219</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="2">
-        <v>45757.66666666666</v>
+        <v>45775.66666666666</v>
       </c>
       <c r="B66">
-        <v>289</v>
+        <v>234</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="2">
-        <v>45757.67708333334</v>
+        <v>45775.67708333334</v>
       </c>
       <c r="B67">
-        <v>295</v>
+        <v>224</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="2">
-        <v>45757.6875</v>
+        <v>45775.6875</v>
       </c>
       <c r="B68">
-        <v>294</v>
+        <v>267</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="2">
-        <v>45757.69791666666</v>
+        <v>45775.69791666666</v>
       </c>
       <c r="B69">
-        <v>271</v>
+        <v>323</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="2">
-        <v>45757.70833333334</v>
+        <v>45775.70833333334</v>
       </c>
       <c r="B70">
-        <v>253</v>
+        <v>467</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="2">
-        <v>45757.71875</v>
+        <v>45775.71875</v>
       </c>
       <c r="B71">
-        <v>259</v>
+        <v>516</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="2">
-        <v>45757.72916666666</v>
+        <v>45775.72916666666</v>
       </c>
       <c r="B72">
-        <v>310</v>
+        <v>602</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="2">
-        <v>45757.73958333334</v>
+        <v>45775.73958333334</v>
       </c>
       <c r="B73">
-        <v>409</v>
+        <v>613</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="2">
-        <v>45757.75</v>
+        <v>45775.75</v>
       </c>
       <c r="B74">
-        <v>556</v>
+        <v>725</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="2">
-        <v>45757.76041666666</v>
+        <v>45775.76041666666</v>
       </c>
       <c r="B75">
-        <v>586</v>
+        <v>757</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="2">
-        <v>45757.77083333334</v>
+        <v>45775.77083333334</v>
       </c>
       <c r="B76">
-        <v>613</v>
+        <v>779</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="2">
-        <v>45757.78125</v>
+        <v>45775.78125</v>
       </c>
       <c r="B77">
-        <v>658</v>
+        <v>826</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="2">
-        <v>45757.79166666666</v>
+        <v>45775.79166666666</v>
       </c>
       <c r="B78">
-        <v>602</v>
+        <v>749</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="2">
-        <v>45757.80208333334</v>
+        <v>45775.80208333334</v>
       </c>
       <c r="B79">
-        <v>655</v>
+        <v>757</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="2">
-        <v>45757.8125</v>
+        <v>45775.8125</v>
       </c>
       <c r="B80">
-        <v>678</v>
+        <v>767</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="2">
-        <v>45757.82291666666</v>
+        <v>45775.82291666666</v>
       </c>
       <c r="B81">
-        <v>689</v>
+        <v>791</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="2">
-        <v>45757.83333333334</v>
+        <v>45775.83333333334</v>
       </c>
       <c r="B82">
-        <v>744</v>
+        <v>747</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="2">
-        <v>45757.84375</v>
+        <v>45775.84375</v>
       </c>
       <c r="B83">
-        <v>745</v>
+        <v>732</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="2">
-        <v>45757.85416666666</v>
+        <v>45775.85416666666</v>
       </c>
       <c r="B84">
-        <v>825</v>
+        <v>731</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="2">
-        <v>45757.86458333334</v>
+        <v>45775.86458333334</v>
       </c>
       <c r="B85">
-        <v>823</v>
+        <v>726</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="2">
-        <v>45757.875</v>
+        <v>45775.875</v>
       </c>
       <c r="B86">
-        <v>729</v>
+        <v>635</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="2">
-        <v>45757.88541666666</v>
+        <v>45775.88541666666</v>
       </c>
       <c r="B87">
-        <v>683</v>
+        <v>579</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="2">
-        <v>45757.89583333334</v>
+        <v>45775.89583333334</v>
       </c>
       <c r="B88">
-        <v>683</v>
+        <v>568</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="2">
-        <v>45757.90625</v>
+        <v>45775.90625</v>
       </c>
       <c r="B89">
-        <v>483</v>
+        <v>536</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="2">
-        <v>45757.91666666666</v>
+        <v>45775.91666666666</v>
       </c>
       <c r="B90">
-        <v>301</v>
+        <v>363</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="2">
-        <v>45757.92708333334</v>
+        <v>45775.92708333334</v>
       </c>
       <c r="B91">
-        <v>256</v>
+        <v>361</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="2">
-        <v>45757.9375</v>
+        <v>45775.9375</v>
       </c>
       <c r="B92">
-        <v>251</v>
+        <v>332</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="2">
-        <v>45757.94791666666</v>
+        <v>45775.94791666666</v>
       </c>
       <c r="B93">
-        <v>239</v>
+        <v>347</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="2">
-        <v>45757.95833333334</v>
+        <v>45775.95833333334</v>
       </c>
       <c r="B94">
-        <v>179</v>
+        <v>338</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="2">
-        <v>45757.96875</v>
+        <v>45775.96875</v>
       </c>
       <c r="B95">
-        <v>157</v>
+        <v>335</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="2">
-        <v>45757.97916666666</v>
+        <v>45775.97916666666</v>
       </c>
       <c r="B96">
-        <v>155</v>
+        <v>329</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="2">
-        <v>45757.98958333334</v>
+        <v>45775.98958333334</v>
       </c>
       <c r="B97">
-        <v>119</v>
+        <v>328</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" s="2">
-        <v>45758</v>
+        <v>45776</v>
       </c>
       <c r="B98">
-        <v>133</v>
+        <v>344</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" s="2">
-        <v>45758.01041666666</v>
+        <v>45776.01041666666</v>
       </c>
       <c r="B99">
-        <v>112</v>
+        <v>350</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" s="2">
-        <v>45758.02083333334</v>
+        <v>45776.02083333334</v>
       </c>
       <c r="B100">
-        <v>101</v>
+        <v>349</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" s="2">
-        <v>45758.03125</v>
+        <v>45776.03125</v>
       </c>
       <c r="B101">
-        <v>92</v>
+        <v>349</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" s="2">
-        <v>45758.04166666666</v>
+        <v>45776.04166666666</v>
       </c>
       <c r="B102">
-        <v>109</v>
+        <v>350</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" s="2">
-        <v>45758.05208333334</v>
+        <v>45776.05208333334</v>
       </c>
       <c r="B103">
-        <v>94</v>
+        <v>346</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" s="2">
-        <v>45758.0625</v>
+        <v>45776.0625</v>
       </c>
       <c r="B104">
-        <v>121</v>
+        <v>338</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" s="2">
-        <v>45758.07291666666</v>
+        <v>45776.07291666666</v>
       </c>
       <c r="B105">
-        <v>103</v>
+        <v>346</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" s="2">
-        <v>45758.08333333334</v>
+        <v>45776.08333333334</v>
       </c>
       <c r="B106">
-        <v>106</v>
+        <v>339</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" s="2">
-        <v>45758.09375</v>
+        <v>45776.09375</v>
       </c>
       <c r="B107">
-        <v>122</v>
+        <v>337</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" s="2">
-        <v>45758.10416666666</v>
+        <v>45776.10416666666</v>
       </c>
       <c r="B108">
-        <v>117</v>
+        <v>337</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" s="2">
-        <v>45758.11458333334</v>
+        <v>45776.11458333334</v>
       </c>
       <c r="B109">
-        <v>135</v>
+        <v>336</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" s="2">
-        <v>45758.125</v>
+        <v>45776.125</v>
       </c>
       <c r="B110">
-        <v>135</v>
+        <v>333</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" s="2">
-        <v>45758.13541666666</v>
+        <v>45776.13541666666</v>
       </c>
       <c r="B111">
-        <v>123</v>
+        <v>334</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112" s="2">
-        <v>45758.14583333334</v>
+        <v>45776.14583333334</v>
       </c>
       <c r="B112">
-        <v>121</v>
+        <v>334</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" s="2">
-        <v>45758.15625</v>
+        <v>45776.15625</v>
       </c>
       <c r="B113">
-        <v>142</v>
+        <v>334</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" s="2">
-        <v>45758.16666666666</v>
+        <v>45776.16666666666</v>
       </c>
       <c r="B114">
-        <v>120</v>
+        <v>337</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" s="2">
-        <v>45758.17708333334</v>
+        <v>45776.17708333334</v>
       </c>
       <c r="B115">
-        <v>150</v>
+        <v>338</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" s="2">
-        <v>45758.1875</v>
+        <v>45776.1875</v>
       </c>
       <c r="B116">
-        <v>163</v>
+        <v>338</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117" s="2">
-        <v>45758.19791666666</v>
+        <v>45776.19791666666</v>
       </c>
       <c r="B117">
-        <v>165</v>
+        <v>359</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" s="2">
-        <v>45758.20833333334</v>
+        <v>45776.20833333334</v>
       </c>
       <c r="B118">
-        <v>143</v>
+        <v>388</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" s="2">
-        <v>45758.21875</v>
+        <v>45776.21875</v>
       </c>
       <c r="B119">
-        <v>151</v>
+        <v>355</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" s="2">
-        <v>45758.22916666666</v>
+        <v>45776.22916666666</v>
       </c>
       <c r="B120">
-        <v>188</v>
+        <v>389</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" s="2">
-        <v>45758.23958333334</v>
+        <v>45776.23958333334</v>
       </c>
       <c r="B121">
-        <v>239</v>
+        <v>398</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" s="2">
-        <v>45758.25</v>
+        <v>45776.25</v>
       </c>
       <c r="B122">
-        <v>518</v>
+        <v>417</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123" s="2">
-        <v>45758.26041666666</v>
+        <v>45776.26041666666</v>
       </c>
       <c r="B123">
-        <v>588</v>
+        <v>425</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" s="2">
-        <v>45758.27083333334</v>
+        <v>45776.27083333334</v>
       </c>
       <c r="B124">
-        <v>600</v>
+        <v>414</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" s="2">
-        <v>45758.28125</v>
+        <v>45776.28125</v>
       </c>
       <c r="B125">
-        <v>538</v>
+        <v>427</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" s="2">
-        <v>45758.29166666666</v>
+        <v>45776.29166666666</v>
       </c>
       <c r="B126">
-        <v>606</v>
+        <v>728</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127" s="2">
-        <v>45758.30208333334</v>
+        <v>45776.30208333334</v>
       </c>
       <c r="B127">
-        <v>647</v>
+        <v>738</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128" s="2">
-        <v>45758.3125</v>
+        <v>45776.3125</v>
       </c>
       <c r="B128">
-        <v>676</v>
+        <v>723</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" s="2">
-        <v>45758.32291666666</v>
+        <v>45776.32291666666</v>
       </c>
       <c r="B129">
-        <v>706</v>
+        <v>719</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" s="2">
-        <v>45758.33333333334</v>
+        <v>45776.33333333334</v>
       </c>
       <c r="B130">
-        <v>579</v>
+        <v>450</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" s="2">
-        <v>45758.34375</v>
+        <v>45776.34375</v>
       </c>
       <c r="B131">
-        <v>561</v>
+        <v>442</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132" s="2">
-        <v>45758.35416666666</v>
+        <v>45776.35416666666</v>
       </c>
       <c r="B132">
-        <v>537</v>
+        <v>416</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" s="2">
-        <v>45758.36458333334</v>
+        <v>45776.36458333334</v>
       </c>
       <c r="B133">
-        <v>532</v>
+        <v>329</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134" s="2">
-        <v>45758.375</v>
+        <v>45776.375</v>
       </c>
       <c r="B134">
-        <v>0</v>
+        <v>379</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135" s="2">
-        <v>45758.38541666666</v>
+        <v>45776.38541666666</v>
       </c>
       <c r="B135">
         <v>0</v>
@@ -1469,7 +1469,7 @@
     </row>
     <row r="136" spans="1:2">
       <c r="A136" s="2">
-        <v>45758.39583333334</v>
+        <v>45776.39583333334</v>
       </c>
       <c r="B136">
         <v>0</v>
@@ -1477,7 +1477,7 @@
     </row>
     <row r="137" spans="1:2">
       <c r="A137" s="2">
-        <v>45758.40625</v>
+        <v>45776.40625</v>
       </c>
       <c r="B137">
         <v>0</v>
@@ -1485,7 +1485,7 @@
     </row>
     <row r="138" spans="1:2">
       <c r="A138" s="2">
-        <v>45758.41666666666</v>
+        <v>45776.41666666666</v>
       </c>
       <c r="B138">
         <v>0</v>
@@ -1493,7 +1493,7 @@
     </row>
     <row r="139" spans="1:2">
       <c r="A139" s="2">
-        <v>45758.42708333334</v>
+        <v>45776.42708333334</v>
       </c>
       <c r="B139">
         <v>0</v>
@@ -1501,7 +1501,7 @@
     </row>
     <row r="140" spans="1:2">
       <c r="A140" s="2">
-        <v>45758.4375</v>
+        <v>45776.4375</v>
       </c>
       <c r="B140">
         <v>0</v>
@@ -1509,7 +1509,7 @@
     </row>
     <row r="141" spans="1:2">
       <c r="A141" s="2">
-        <v>45758.44791666666</v>
+        <v>45776.44791666666</v>
       </c>
       <c r="B141">
         <v>0</v>
@@ -1517,7 +1517,7 @@
     </row>
     <row r="142" spans="1:2">
       <c r="A142" s="2">
-        <v>45758.45833333334</v>
+        <v>45776.45833333334</v>
       </c>
       <c r="B142">
         <v>0</v>
@@ -1525,7 +1525,7 @@
     </row>
     <row r="143" spans="1:2">
       <c r="A143" s="2">
-        <v>45758.46875</v>
+        <v>45776.46875</v>
       </c>
       <c r="B143">
         <v>0</v>
@@ -1533,7 +1533,7 @@
     </row>
     <row r="144" spans="1:2">
       <c r="A144" s="2">
-        <v>45758.47916666666</v>
+        <v>45776.47916666666</v>
       </c>
       <c r="B144">
         <v>0</v>
@@ -1541,7 +1541,7 @@
     </row>
     <row r="145" spans="1:2">
       <c r="A145" s="2">
-        <v>45758.48958333334</v>
+        <v>45776.48958333334</v>
       </c>
       <c r="B145">
         <v>0</v>
@@ -1549,7 +1549,7 @@
     </row>
     <row r="146" spans="1:2">
       <c r="A146" s="2">
-        <v>45758.5</v>
+        <v>45776.5</v>
       </c>
       <c r="B146">
         <v>0</v>
@@ -1557,7 +1557,7 @@
     </row>
     <row r="147" spans="1:2">
       <c r="A147" s="2">
-        <v>45758.51041666666</v>
+        <v>45776.51041666666</v>
       </c>
       <c r="B147">
         <v>0</v>
@@ -1565,7 +1565,7 @@
     </row>
     <row r="148" spans="1:2">
       <c r="A148" s="2">
-        <v>45758.52083333334</v>
+        <v>45776.52083333334</v>
       </c>
       <c r="B148">
         <v>0</v>
@@ -1573,7 +1573,7 @@
     </row>
     <row r="149" spans="1:2">
       <c r="A149" s="2">
-        <v>45758.53125</v>
+        <v>45776.53125</v>
       </c>
       <c r="B149">
         <v>0</v>
@@ -1581,7 +1581,7 @@
     </row>
     <row r="150" spans="1:2">
       <c r="A150" s="2">
-        <v>45758.54166666666</v>
+        <v>45776.54166666666</v>
       </c>
       <c r="B150">
         <v>0</v>
@@ -1589,7 +1589,7 @@
     </row>
     <row r="151" spans="1:2">
       <c r="A151" s="2">
-        <v>45758.55208333334</v>
+        <v>45776.55208333334</v>
       </c>
       <c r="B151">
         <v>0</v>
@@ -1597,7 +1597,7 @@
     </row>
     <row r="152" spans="1:2">
       <c r="A152" s="2">
-        <v>45758.5625</v>
+        <v>45776.5625</v>
       </c>
       <c r="B152">
         <v>0</v>
@@ -1605,7 +1605,7 @@
     </row>
     <row r="153" spans="1:2">
       <c r="A153" s="2">
-        <v>45758.57291666666</v>
+        <v>45776.57291666666</v>
       </c>
       <c r="B153">
         <v>0</v>
@@ -1613,7 +1613,7 @@
     </row>
     <row r="154" spans="1:2">
       <c r="A154" s="2">
-        <v>45758.58333333334</v>
+        <v>45776.58333333334</v>
       </c>
       <c r="B154">
         <v>0</v>
@@ -1621,7 +1621,7 @@
     </row>
     <row r="155" spans="1:2">
       <c r="A155" s="2">
-        <v>45758.59375</v>
+        <v>45776.59375</v>
       </c>
       <c r="B155">
         <v>0</v>
@@ -1629,7 +1629,7 @@
     </row>
     <row r="156" spans="1:2">
       <c r="A156" s="2">
-        <v>45758.60416666666</v>
+        <v>45776.60416666666</v>
       </c>
       <c r="B156">
         <v>0</v>
@@ -1637,7 +1637,7 @@
     </row>
     <row r="157" spans="1:2">
       <c r="A157" s="2">
-        <v>45758.61458333334</v>
+        <v>45776.61458333334</v>
       </c>
       <c r="B157">
         <v>0</v>
@@ -1645,7 +1645,7 @@
     </row>
     <row r="158" spans="1:2">
       <c r="A158" s="2">
-        <v>45758.625</v>
+        <v>45776.625</v>
       </c>
       <c r="B158">
         <v>0</v>
@@ -1653,7 +1653,7 @@
     </row>
     <row r="159" spans="1:2">
       <c r="A159" s="2">
-        <v>45758.63541666666</v>
+        <v>45776.63541666666</v>
       </c>
       <c r="B159">
         <v>0</v>
@@ -1661,7 +1661,7 @@
     </row>
     <row r="160" spans="1:2">
       <c r="A160" s="2">
-        <v>45758.64583333334</v>
+        <v>45776.64583333334</v>
       </c>
       <c r="B160">
         <v>0</v>
@@ -1669,7 +1669,7 @@
     </row>
     <row r="161" spans="1:2">
       <c r="A161" s="2">
-        <v>45758.65625</v>
+        <v>45776.65625</v>
       </c>
       <c r="B161">
         <v>0</v>
@@ -1677,7 +1677,7 @@
     </row>
     <row r="162" spans="1:2">
       <c r="A162" s="2">
-        <v>45758.66666666666</v>
+        <v>45776.66666666666</v>
       </c>
       <c r="B162">
         <v>0</v>
@@ -1685,7 +1685,7 @@
     </row>
     <row r="163" spans="1:2">
       <c r="A163" s="2">
-        <v>45758.67708333334</v>
+        <v>45776.67708333334</v>
       </c>
       <c r="B163">
         <v>0</v>
@@ -1693,7 +1693,7 @@
     </row>
     <row r="164" spans="1:2">
       <c r="A164" s="2">
-        <v>45758.6875</v>
+        <v>45776.6875</v>
       </c>
       <c r="B164">
         <v>0</v>
@@ -1701,7 +1701,7 @@
     </row>
     <row r="165" spans="1:2">
       <c r="A165" s="2">
-        <v>45758.69791666666</v>
+        <v>45776.69791666666</v>
       </c>
       <c r="B165">
         <v>0</v>
@@ -1709,7 +1709,7 @@
     </row>
     <row r="166" spans="1:2">
       <c r="A166" s="2">
-        <v>45758.70833333334</v>
+        <v>45776.70833333334</v>
       </c>
       <c r="B166">
         <v>0</v>
@@ -1717,7 +1717,7 @@
     </row>
     <row r="167" spans="1:2">
       <c r="A167" s="2">
-        <v>45758.71875</v>
+        <v>45776.71875</v>
       </c>
       <c r="B167">
         <v>0</v>
@@ -1725,7 +1725,7 @@
     </row>
     <row r="168" spans="1:2">
       <c r="A168" s="2">
-        <v>45758.72916666666</v>
+        <v>45776.72916666666</v>
       </c>
       <c r="B168">
         <v>0</v>
@@ -1733,7 +1733,7 @@
     </row>
     <row r="169" spans="1:2">
       <c r="A169" s="2">
-        <v>45758.73958333334</v>
+        <v>45776.73958333334</v>
       </c>
       <c r="B169">
         <v>0</v>
@@ -1741,7 +1741,7 @@
     </row>
     <row r="170" spans="1:2">
       <c r="A170" s="2">
-        <v>45758.75</v>
+        <v>45776.75</v>
       </c>
       <c r="B170">
         <v>0</v>
@@ -1749,7 +1749,7 @@
     </row>
     <row r="171" spans="1:2">
       <c r="A171" s="2">
-        <v>45758.76041666666</v>
+        <v>45776.76041666666</v>
       </c>
       <c r="B171">
         <v>0</v>
@@ -1757,7 +1757,7 @@
     </row>
     <row r="172" spans="1:2">
       <c r="A172" s="2">
-        <v>45758.77083333334</v>
+        <v>45776.77083333334</v>
       </c>
       <c r="B172">
         <v>0</v>
@@ -1765,7 +1765,7 @@
     </row>
     <row r="173" spans="1:2">
       <c r="A173" s="2">
-        <v>45758.78125</v>
+        <v>45776.78125</v>
       </c>
       <c r="B173">
         <v>0</v>
@@ -1773,7 +1773,7 @@
     </row>
     <row r="174" spans="1:2">
       <c r="A174" s="2">
-        <v>45758.79166666666</v>
+        <v>45776.79166666666</v>
       </c>
       <c r="B174">
         <v>0</v>
@@ -1781,7 +1781,7 @@
     </row>
     <row r="175" spans="1:2">
       <c r="A175" s="2">
-        <v>45758.80208333334</v>
+        <v>45776.80208333334</v>
       </c>
       <c r="B175">
         <v>0</v>
@@ -1789,7 +1789,7 @@
     </row>
     <row r="176" spans="1:2">
       <c r="A176" s="2">
-        <v>45758.8125</v>
+        <v>45776.8125</v>
       </c>
       <c r="B176">
         <v>0</v>
@@ -1797,7 +1797,7 @@
     </row>
     <row r="177" spans="1:2">
       <c r="A177" s="2">
-        <v>45758.82291666666</v>
+        <v>45776.82291666666</v>
       </c>
       <c r="B177">
         <v>0</v>
@@ -1805,7 +1805,7 @@
     </row>
     <row r="178" spans="1:2">
       <c r="A178" s="2">
-        <v>45758.83333333334</v>
+        <v>45776.83333333334</v>
       </c>
       <c r="B178">
         <v>0</v>
@@ -1813,7 +1813,7 @@
     </row>
     <row r="179" spans="1:2">
       <c r="A179" s="2">
-        <v>45758.84375</v>
+        <v>45776.84375</v>
       </c>
       <c r="B179">
         <v>0</v>
@@ -1821,7 +1821,7 @@
     </row>
     <row r="180" spans="1:2">
       <c r="A180" s="2">
-        <v>45758.85416666666</v>
+        <v>45776.85416666666</v>
       </c>
       <c r="B180">
         <v>0</v>
@@ -1829,7 +1829,7 @@
     </row>
     <row r="181" spans="1:2">
       <c r="A181" s="2">
-        <v>45758.86458333334</v>
+        <v>45776.86458333334</v>
       </c>
       <c r="B181">
         <v>0</v>
@@ -1837,7 +1837,7 @@
     </row>
     <row r="182" spans="1:2">
       <c r="A182" s="2">
-        <v>45758.875</v>
+        <v>45776.875</v>
       </c>
       <c r="B182">
         <v>0</v>
@@ -1845,7 +1845,7 @@
     </row>
     <row r="183" spans="1:2">
       <c r="A183" s="2">
-        <v>45758.88541666666</v>
+        <v>45776.88541666666</v>
       </c>
       <c r="B183">
         <v>0</v>
@@ -1853,7 +1853,7 @@
     </row>
     <row r="184" spans="1:2">
       <c r="A184" s="2">
-        <v>45758.89583333334</v>
+        <v>45776.89583333334</v>
       </c>
       <c r="B184">
         <v>0</v>
@@ -1861,7 +1861,7 @@
     </row>
     <row r="185" spans="1:2">
       <c r="A185" s="2">
-        <v>45758.90625</v>
+        <v>45776.90625</v>
       </c>
       <c r="B185">
         <v>0</v>
@@ -1869,7 +1869,7 @@
     </row>
     <row r="186" spans="1:2">
       <c r="A186" s="2">
-        <v>45758.91666666666</v>
+        <v>45776.91666666666</v>
       </c>
       <c r="B186">
         <v>0</v>
@@ -1877,7 +1877,7 @@
     </row>
     <row r="187" spans="1:2">
       <c r="A187" s="2">
-        <v>45758.92708333334</v>
+        <v>45776.92708333334</v>
       </c>
       <c r="B187">
         <v>0</v>
@@ -1885,7 +1885,7 @@
     </row>
     <row r="188" spans="1:2">
       <c r="A188" s="2">
-        <v>45758.9375</v>
+        <v>45776.9375</v>
       </c>
       <c r="B188">
         <v>0</v>
@@ -1893,7 +1893,7 @@
     </row>
     <row r="189" spans="1:2">
       <c r="A189" s="2">
-        <v>45758.94791666666</v>
+        <v>45776.94791666666</v>
       </c>
       <c r="B189">
         <v>0</v>
@@ -1901,7 +1901,7 @@
     </row>
     <row r="190" spans="1:2">
       <c r="A190" s="2">
-        <v>45758.95833333334</v>
+        <v>45776.95833333334</v>
       </c>
       <c r="B190">
         <v>0</v>
@@ -1909,7 +1909,7 @@
     </row>
     <row r="191" spans="1:2">
       <c r="A191" s="2">
-        <v>45758.96875</v>
+        <v>45776.96875</v>
       </c>
       <c r="B191">
         <v>0</v>
@@ -1917,7 +1917,7 @@
     </row>
     <row r="192" spans="1:2">
       <c r="A192" s="2">
-        <v>45758.97916666666</v>
+        <v>45776.97916666666</v>
       </c>
       <c r="B192">
         <v>0</v>
@@ -1925,7 +1925,7 @@
     </row>
     <row r="193" spans="1:2">
       <c r="A193" s="2">
-        <v>45758.98958333334</v>
+        <v>45776.98958333334</v>
       </c>
       <c r="B193">
         <v>0</v>

--- a/data_fetching/Entsoe/Actual_Production_Hydro_Water_Reservoir.xlsx
+++ b/data_fetching/Entsoe/Actual_Production_Hydro_Water_Reservoir.xlsx
@@ -397,1071 +397,1071 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2">
-        <v>45775</v>
+        <v>45785</v>
       </c>
       <c r="B2">
-        <v>200</v>
+        <v>622</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2">
-        <v>45775.01041666666</v>
+        <v>45785.01041666666</v>
       </c>
       <c r="B3">
-        <v>199</v>
+        <v>619</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2">
-        <v>45775.02083333334</v>
+        <v>45785.02083333334</v>
       </c>
       <c r="B4">
-        <v>198</v>
+        <v>620</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2">
-        <v>45775.03125</v>
+        <v>45785.03125</v>
       </c>
       <c r="B5">
-        <v>199</v>
+        <v>620</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2">
-        <v>45775.04166666666</v>
+        <v>45785.04166666666</v>
       </c>
       <c r="B6">
-        <v>259</v>
+        <v>621</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2">
-        <v>45775.05208333334</v>
+        <v>45785.05208333334</v>
       </c>
       <c r="B7">
-        <v>289</v>
+        <v>620</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2">
-        <v>45775.0625</v>
+        <v>45785.0625</v>
       </c>
       <c r="B8">
-        <v>273</v>
+        <v>621</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2">
-        <v>45775.07291666666</v>
+        <v>45785.07291666666</v>
       </c>
       <c r="B9">
-        <v>264</v>
+        <v>620</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2">
-        <v>45775.08333333334</v>
+        <v>45785.08333333334</v>
       </c>
       <c r="B10">
-        <v>280</v>
+        <v>621</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2">
-        <v>45775.09375</v>
+        <v>45785.09375</v>
       </c>
       <c r="B11">
-        <v>283</v>
+        <v>620</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2">
-        <v>45775.10416666666</v>
+        <v>45785.10416666666</v>
       </c>
       <c r="B12">
-        <v>294</v>
+        <v>624</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2">
-        <v>45775.11458333334</v>
+        <v>45785.11458333334</v>
       </c>
       <c r="B13">
-        <v>288</v>
+        <v>622</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2">
-        <v>45775.125</v>
+        <v>45785.125</v>
       </c>
       <c r="B14">
-        <v>259</v>
+        <v>610</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2">
-        <v>45775.13541666666</v>
+        <v>45785.13541666666</v>
       </c>
       <c r="B15">
-        <v>272</v>
+        <v>605</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2">
-        <v>45775.14583333334</v>
+        <v>45785.14583333334</v>
       </c>
       <c r="B16">
-        <v>300</v>
+        <v>605</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2">
-        <v>45775.15625</v>
+        <v>45785.15625</v>
       </c>
       <c r="B17">
-        <v>294</v>
+        <v>611</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2">
-        <v>45775.16666666666</v>
+        <v>45785.16666666666</v>
       </c>
       <c r="B18">
-        <v>271</v>
+        <v>625</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2">
-        <v>45775.17708333334</v>
+        <v>45785.17708333334</v>
       </c>
       <c r="B19">
-        <v>271</v>
+        <v>624</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2">
-        <v>45775.1875</v>
+        <v>45785.1875</v>
       </c>
       <c r="B20">
-        <v>274</v>
+        <v>624</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2">
-        <v>45775.19791666666</v>
+        <v>45785.19791666666</v>
       </c>
       <c r="B21">
-        <v>275</v>
+        <v>621</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2">
-        <v>45775.20833333334</v>
+        <v>45785.20833333334</v>
       </c>
       <c r="B22">
-        <v>278</v>
+        <v>538</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2">
-        <v>45775.21875</v>
+        <v>45785.21875</v>
       </c>
       <c r="B23">
-        <v>281</v>
+        <v>544</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2">
-        <v>45775.22916666666</v>
+        <v>45785.22916666666</v>
       </c>
       <c r="B24">
-        <v>294</v>
+        <v>546</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2">
-        <v>45775.23958333334</v>
+        <v>45785.23958333334</v>
       </c>
       <c r="B25">
-        <v>322</v>
+        <v>573</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2">
-        <v>45775.25</v>
+        <v>45785.25</v>
       </c>
       <c r="B26">
-        <v>470</v>
+        <v>731</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2">
-        <v>45775.26041666666</v>
+        <v>45785.26041666666</v>
       </c>
       <c r="B27">
-        <v>491</v>
+        <v>737</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2">
-        <v>45775.27083333334</v>
+        <v>45785.27083333334</v>
       </c>
       <c r="B28">
-        <v>454</v>
+        <v>734</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2">
-        <v>45775.28125</v>
+        <v>45785.28125</v>
       </c>
       <c r="B29">
-        <v>449</v>
+        <v>740</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2">
-        <v>45775.29166666666</v>
+        <v>45785.29166666666</v>
       </c>
       <c r="B30">
-        <v>443</v>
+        <v>775</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2">
-        <v>45775.30208333334</v>
+        <v>45785.30208333334</v>
       </c>
       <c r="B31">
-        <v>438</v>
+        <v>777</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2">
-        <v>45775.3125</v>
+        <v>45785.3125</v>
       </c>
       <c r="B32">
-        <v>426</v>
+        <v>785</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2">
-        <v>45775.32291666666</v>
+        <v>45785.32291666666</v>
       </c>
       <c r="B33">
-        <v>427</v>
+        <v>798</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2">
-        <v>45775.33333333334</v>
+        <v>45785.33333333334</v>
       </c>
       <c r="B34">
-        <v>292</v>
+        <v>831</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="2">
-        <v>45775.34375</v>
+        <v>45785.34375</v>
       </c>
       <c r="B35">
-        <v>260</v>
+        <v>827</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="2">
-        <v>45775.35416666666</v>
+        <v>45785.35416666666</v>
       </c>
       <c r="B36">
-        <v>251</v>
+        <v>821</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="2">
-        <v>45775.36458333334</v>
+        <v>45785.36458333334</v>
       </c>
       <c r="B37">
-        <v>239</v>
+        <v>799</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="2">
-        <v>45775.375</v>
+        <v>45785.375</v>
       </c>
       <c r="B38">
-        <v>283</v>
+        <v>650</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="2">
-        <v>45775.38541666666</v>
+        <v>45785.38541666666</v>
       </c>
       <c r="B39">
-        <v>235</v>
+        <v>649</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="2">
-        <v>45775.39583333334</v>
+        <v>45785.39583333334</v>
       </c>
       <c r="B40">
-        <v>230</v>
+        <v>648</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="2">
-        <v>45775.40625</v>
+        <v>45785.40625</v>
       </c>
       <c r="B41">
-        <v>230</v>
+        <v>635</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="2">
-        <v>45775.41666666666</v>
+        <v>45785.41666666666</v>
       </c>
       <c r="B42">
-        <v>214</v>
+        <v>459</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="2">
-        <v>45775.42708333334</v>
+        <v>45785.42708333334</v>
       </c>
       <c r="B43">
-        <v>176</v>
+        <v>466</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="2">
-        <v>45775.4375</v>
+        <v>45785.4375</v>
       </c>
       <c r="B44">
-        <v>125</v>
+        <v>442</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="2">
-        <v>45775.44791666666</v>
+        <v>45785.44791666666</v>
       </c>
       <c r="B45">
-        <v>153</v>
+        <v>432</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="2">
-        <v>45775.45833333334</v>
+        <v>45785.45833333334</v>
       </c>
       <c r="B46">
-        <v>194</v>
+        <v>277</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="2">
-        <v>45775.46875</v>
+        <v>45785.46875</v>
       </c>
       <c r="B47">
-        <v>221</v>
+        <v>270</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="2">
-        <v>45775.47916666666</v>
+        <v>45785.47916666666</v>
       </c>
       <c r="B48">
-        <v>203</v>
+        <v>272</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="2">
-        <v>45775.48958333334</v>
+        <v>45785.48958333334</v>
       </c>
       <c r="B49">
-        <v>178</v>
+        <v>266</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="2">
-        <v>45775.5</v>
+        <v>45785.5</v>
       </c>
       <c r="B50">
-        <v>150</v>
+        <v>312</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="2">
-        <v>45775.51041666666</v>
+        <v>45785.51041666666</v>
       </c>
       <c r="B51">
-        <v>164</v>
+        <v>318</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="2">
-        <v>45775.52083333334</v>
+        <v>45785.52083333334</v>
       </c>
       <c r="B52">
-        <v>198</v>
+        <v>328</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="2">
-        <v>45775.53125</v>
+        <v>45785.53125</v>
       </c>
       <c r="B53">
-        <v>148</v>
+        <v>350</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="2">
-        <v>45775.54166666666</v>
+        <v>45785.54166666666</v>
       </c>
       <c r="B54">
-        <v>148</v>
+        <v>340</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="2">
-        <v>45775.55208333334</v>
+        <v>45785.55208333334</v>
       </c>
       <c r="B55">
-        <v>157</v>
+        <v>325</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="2">
-        <v>45775.5625</v>
+        <v>45785.5625</v>
       </c>
       <c r="B56">
-        <v>133</v>
+        <v>302</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="2">
-        <v>45775.57291666666</v>
+        <v>45785.57291666666</v>
       </c>
       <c r="B57">
-        <v>130</v>
+        <v>301</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="2">
-        <v>45775.58333333334</v>
+        <v>45785.58333333334</v>
       </c>
       <c r="B58">
-        <v>123</v>
+        <v>291</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="2">
-        <v>45775.59375</v>
+        <v>45785.59375</v>
       </c>
       <c r="B59">
-        <v>120</v>
+        <v>288</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="2">
-        <v>45775.60416666666</v>
+        <v>45785.60416666666</v>
       </c>
       <c r="B60">
-        <v>147</v>
+        <v>289</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="2">
-        <v>45775.61458333334</v>
+        <v>45785.61458333334</v>
       </c>
       <c r="B61">
-        <v>140</v>
+        <v>289</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="2">
-        <v>45775.625</v>
+        <v>45785.625</v>
       </c>
       <c r="B62">
-        <v>129</v>
+        <v>195</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="2">
-        <v>45775.63541666666</v>
+        <v>45785.63541666666</v>
       </c>
       <c r="B63">
-        <v>128</v>
+        <v>192</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="2">
-        <v>45775.64583333334</v>
+        <v>45785.64583333334</v>
       </c>
       <c r="B64">
-        <v>163</v>
+        <v>227</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="2">
-        <v>45775.65625</v>
+        <v>45785.65625</v>
       </c>
       <c r="B65">
-        <v>219</v>
+        <v>248</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="2">
-        <v>45775.66666666666</v>
+        <v>45785.66666666666</v>
       </c>
       <c r="B66">
-        <v>234</v>
+        <v>434</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="2">
-        <v>45775.67708333334</v>
+        <v>45785.67708333334</v>
       </c>
       <c r="B67">
-        <v>224</v>
+        <v>442</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="2">
-        <v>45775.6875</v>
+        <v>45785.6875</v>
       </c>
       <c r="B68">
-        <v>267</v>
+        <v>462</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="2">
-        <v>45775.69791666666</v>
+        <v>45785.69791666666</v>
       </c>
       <c r="B69">
-        <v>323</v>
+        <v>512</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="2">
-        <v>45775.70833333334</v>
+        <v>45785.70833333334</v>
       </c>
       <c r="B70">
-        <v>467</v>
+        <v>834</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="2">
-        <v>45775.71875</v>
+        <v>45785.71875</v>
       </c>
       <c r="B71">
-        <v>516</v>
+        <v>850</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="2">
-        <v>45775.72916666666</v>
+        <v>45785.72916666666</v>
       </c>
       <c r="B72">
-        <v>602</v>
+        <v>847</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="2">
-        <v>45775.73958333334</v>
+        <v>45785.73958333334</v>
       </c>
       <c r="B73">
-        <v>613</v>
+        <v>839</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="2">
-        <v>45775.75</v>
+        <v>45785.75</v>
       </c>
       <c r="B74">
-        <v>725</v>
+        <v>903</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="2">
-        <v>45775.76041666666</v>
+        <v>45785.76041666666</v>
       </c>
       <c r="B75">
-        <v>757</v>
+        <v>918</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="2">
-        <v>45775.77083333334</v>
+        <v>45785.77083333334</v>
       </c>
       <c r="B76">
-        <v>779</v>
+        <v>914</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="2">
-        <v>45775.78125</v>
+        <v>45785.78125</v>
       </c>
       <c r="B77">
-        <v>826</v>
+        <v>949</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="2">
-        <v>45775.79166666666</v>
+        <v>45785.79166666666</v>
       </c>
       <c r="B78">
-        <v>749</v>
+        <v>908</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="2">
-        <v>45775.80208333334</v>
+        <v>45785.80208333334</v>
       </c>
       <c r="B79">
-        <v>757</v>
+        <v>924</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="2">
-        <v>45775.8125</v>
+        <v>45785.8125</v>
       </c>
       <c r="B80">
-        <v>767</v>
+        <v>933</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="2">
-        <v>45775.82291666666</v>
+        <v>45785.82291666666</v>
       </c>
       <c r="B81">
-        <v>791</v>
+        <v>939</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="2">
-        <v>45775.83333333334</v>
+        <v>45785.83333333334</v>
       </c>
       <c r="B82">
-        <v>747</v>
+        <v>875</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="2">
-        <v>45775.84375</v>
+        <v>45785.84375</v>
       </c>
       <c r="B83">
-        <v>732</v>
+        <v>870</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="2">
-        <v>45775.85416666666</v>
+        <v>45785.85416666666</v>
       </c>
       <c r="B84">
-        <v>731</v>
+        <v>850</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="2">
-        <v>45775.86458333334</v>
+        <v>45785.86458333334</v>
       </c>
       <c r="B85">
-        <v>726</v>
+        <v>867</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="2">
-        <v>45775.875</v>
+        <v>45785.875</v>
       </c>
       <c r="B86">
-        <v>635</v>
+        <v>826</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="2">
-        <v>45775.88541666666</v>
+        <v>45785.88541666666</v>
       </c>
       <c r="B87">
-        <v>579</v>
+        <v>816</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="2">
-        <v>45775.89583333334</v>
+        <v>45785.89583333334</v>
       </c>
       <c r="B88">
-        <v>568</v>
+        <v>775</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="2">
-        <v>45775.90625</v>
+        <v>45785.90625</v>
       </c>
       <c r="B89">
-        <v>536</v>
+        <v>770</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="2">
-        <v>45775.91666666666</v>
+        <v>45785.91666666666</v>
       </c>
       <c r="B90">
-        <v>363</v>
+        <v>516</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="2">
-        <v>45775.92708333334</v>
+        <v>45785.92708333334</v>
       </c>
       <c r="B91">
-        <v>361</v>
+        <v>492</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="2">
-        <v>45775.9375</v>
+        <v>45785.9375</v>
       </c>
       <c r="B92">
-        <v>332</v>
+        <v>470</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="2">
-        <v>45775.94791666666</v>
+        <v>45785.94791666666</v>
       </c>
       <c r="B93">
-        <v>347</v>
+        <v>465</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="2">
-        <v>45775.95833333334</v>
+        <v>45785.95833333334</v>
       </c>
       <c r="B94">
-        <v>338</v>
+        <v>488</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="2">
-        <v>45775.96875</v>
+        <v>45785.96875</v>
       </c>
       <c r="B95">
-        <v>335</v>
+        <v>494</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="2">
-        <v>45775.97916666666</v>
+        <v>45785.97916666666</v>
       </c>
       <c r="B96">
-        <v>329</v>
+        <v>500</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="2">
-        <v>45775.98958333334</v>
+        <v>45785.98958333334</v>
       </c>
       <c r="B97">
-        <v>328</v>
+        <v>585</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" s="2">
-        <v>45776</v>
+        <v>45786</v>
       </c>
       <c r="B98">
-        <v>344</v>
+        <v>571</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" s="2">
-        <v>45776.01041666666</v>
+        <v>45786.01041666666</v>
       </c>
       <c r="B99">
-        <v>350</v>
+        <v>581</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" s="2">
-        <v>45776.02083333334</v>
+        <v>45786.02083333334</v>
       </c>
       <c r="B100">
-        <v>349</v>
+        <v>574</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" s="2">
-        <v>45776.03125</v>
+        <v>45786.03125</v>
       </c>
       <c r="B101">
-        <v>349</v>
+        <v>556</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" s="2">
-        <v>45776.04166666666</v>
+        <v>45786.04166666666</v>
       </c>
       <c r="B102">
-        <v>350</v>
+        <v>551</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" s="2">
-        <v>45776.05208333334</v>
+        <v>45786.05208333334</v>
       </c>
       <c r="B103">
-        <v>346</v>
+        <v>546</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" s="2">
-        <v>45776.0625</v>
+        <v>45786.0625</v>
       </c>
       <c r="B104">
-        <v>338</v>
+        <v>537</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" s="2">
-        <v>45776.07291666666</v>
+        <v>45786.07291666666</v>
       </c>
       <c r="B105">
-        <v>346</v>
+        <v>534</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" s="2">
-        <v>45776.08333333334</v>
+        <v>45786.08333333334</v>
       </c>
       <c r="B106">
-        <v>339</v>
+        <v>548</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" s="2">
-        <v>45776.09375</v>
+        <v>45786.09375</v>
       </c>
       <c r="B107">
-        <v>337</v>
+        <v>548</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" s="2">
-        <v>45776.10416666666</v>
+        <v>45786.10416666666</v>
       </c>
       <c r="B108">
-        <v>337</v>
+        <v>589</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" s="2">
-        <v>45776.11458333334</v>
+        <v>45786.11458333334</v>
       </c>
       <c r="B109">
-        <v>336</v>
+        <v>574</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" s="2">
-        <v>45776.125</v>
+        <v>45786.125</v>
       </c>
       <c r="B110">
-        <v>333</v>
+        <v>555</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" s="2">
-        <v>45776.13541666666</v>
+        <v>45786.13541666666</v>
       </c>
       <c r="B111">
-        <v>334</v>
+        <v>556</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112" s="2">
-        <v>45776.14583333334</v>
+        <v>45786.14583333334</v>
       </c>
       <c r="B112">
-        <v>334</v>
+        <v>548</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" s="2">
-        <v>45776.15625</v>
+        <v>45786.15625</v>
       </c>
       <c r="B113">
-        <v>334</v>
+        <v>553</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" s="2">
-        <v>45776.16666666666</v>
+        <v>45786.16666666666</v>
       </c>
       <c r="B114">
-        <v>337</v>
+        <v>550</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" s="2">
-        <v>45776.17708333334</v>
+        <v>45786.17708333334</v>
       </c>
       <c r="B115">
-        <v>338</v>
+        <v>501</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" s="2">
-        <v>45776.1875</v>
+        <v>45786.1875</v>
       </c>
       <c r="B116">
-        <v>338</v>
+        <v>540</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117" s="2">
-        <v>45776.19791666666</v>
+        <v>45786.19791666666</v>
       </c>
       <c r="B117">
-        <v>359</v>
+        <v>561</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" s="2">
-        <v>45776.20833333334</v>
+        <v>45786.20833333334</v>
       </c>
       <c r="B118">
-        <v>388</v>
+        <v>341</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" s="2">
-        <v>45776.21875</v>
+        <v>45786.21875</v>
       </c>
       <c r="B119">
-        <v>355</v>
+        <v>341</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" s="2">
-        <v>45776.22916666666</v>
+        <v>45786.22916666666</v>
       </c>
       <c r="B120">
-        <v>389</v>
+        <v>345</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" s="2">
-        <v>45776.23958333334</v>
+        <v>45786.23958333334</v>
       </c>
       <c r="B121">
-        <v>398</v>
+        <v>383</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" s="2">
-        <v>45776.25</v>
+        <v>45786.25</v>
       </c>
       <c r="B122">
-        <v>417</v>
+        <v>536</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123" s="2">
-        <v>45776.26041666666</v>
+        <v>45786.26041666666</v>
       </c>
       <c r="B123">
-        <v>425</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" s="2">
-        <v>45776.27083333334</v>
+        <v>45786.27083333334</v>
       </c>
       <c r="B124">
-        <v>414</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" s="2">
-        <v>45776.28125</v>
+        <v>45786.28125</v>
       </c>
       <c r="B125">
-        <v>427</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" s="2">
-        <v>45776.29166666666</v>
+        <v>45786.29166666666</v>
       </c>
       <c r="B126">
-        <v>728</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127" s="2">
-        <v>45776.30208333334</v>
+        <v>45786.30208333334</v>
       </c>
       <c r="B127">
-        <v>738</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128" s="2">
-        <v>45776.3125</v>
+        <v>45786.3125</v>
       </c>
       <c r="B128">
-        <v>723</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" s="2">
-        <v>45776.32291666666</v>
+        <v>45786.32291666666</v>
       </c>
       <c r="B129">
-        <v>719</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" s="2">
-        <v>45776.33333333334</v>
+        <v>45786.33333333334</v>
       </c>
       <c r="B130">
-        <v>450</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" s="2">
-        <v>45776.34375</v>
+        <v>45786.34375</v>
       </c>
       <c r="B131">
-        <v>442</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132" s="2">
-        <v>45776.35416666666</v>
+        <v>45786.35416666666</v>
       </c>
       <c r="B132">
-        <v>416</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" s="2">
-        <v>45776.36458333334</v>
+        <v>45786.36458333334</v>
       </c>
       <c r="B133">
-        <v>329</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134" s="2">
-        <v>45776.375</v>
+        <v>45786.375</v>
       </c>
       <c r="B134">
-        <v>379</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135" s="2">
-        <v>45776.38541666666</v>
+        <v>45786.38541666666</v>
       </c>
       <c r="B135">
         <v>0</v>
@@ -1469,7 +1469,7 @@
     </row>
     <row r="136" spans="1:2">
       <c r="A136" s="2">
-        <v>45776.39583333334</v>
+        <v>45786.39583333334</v>
       </c>
       <c r="B136">
         <v>0</v>
@@ -1477,7 +1477,7 @@
     </row>
     <row r="137" spans="1:2">
       <c r="A137" s="2">
-        <v>45776.40625</v>
+        <v>45786.40625</v>
       </c>
       <c r="B137">
         <v>0</v>
@@ -1485,7 +1485,7 @@
     </row>
     <row r="138" spans="1:2">
       <c r="A138" s="2">
-        <v>45776.41666666666</v>
+        <v>45786.41666666666</v>
       </c>
       <c r="B138">
         <v>0</v>
@@ -1493,7 +1493,7 @@
     </row>
     <row r="139" spans="1:2">
       <c r="A139" s="2">
-        <v>45776.42708333334</v>
+        <v>45786.42708333334</v>
       </c>
       <c r="B139">
         <v>0</v>
@@ -1501,7 +1501,7 @@
     </row>
     <row r="140" spans="1:2">
       <c r="A140" s="2">
-        <v>45776.4375</v>
+        <v>45786.4375</v>
       </c>
       <c r="B140">
         <v>0</v>
@@ -1509,7 +1509,7 @@
     </row>
     <row r="141" spans="1:2">
       <c r="A141" s="2">
-        <v>45776.44791666666</v>
+        <v>45786.44791666666</v>
       </c>
       <c r="B141">
         <v>0</v>
@@ -1517,7 +1517,7 @@
     </row>
     <row r="142" spans="1:2">
       <c r="A142" s="2">
-        <v>45776.45833333334</v>
+        <v>45786.45833333334</v>
       </c>
       <c r="B142">
         <v>0</v>
@@ -1525,7 +1525,7 @@
     </row>
     <row r="143" spans="1:2">
       <c r="A143" s="2">
-        <v>45776.46875</v>
+        <v>45786.46875</v>
       </c>
       <c r="B143">
         <v>0</v>
@@ -1533,7 +1533,7 @@
     </row>
     <row r="144" spans="1:2">
       <c r="A144" s="2">
-        <v>45776.47916666666</v>
+        <v>45786.47916666666</v>
       </c>
       <c r="B144">
         <v>0</v>
@@ -1541,7 +1541,7 @@
     </row>
     <row r="145" spans="1:2">
       <c r="A145" s="2">
-        <v>45776.48958333334</v>
+        <v>45786.48958333334</v>
       </c>
       <c r="B145">
         <v>0</v>
@@ -1549,7 +1549,7 @@
     </row>
     <row r="146" spans="1:2">
       <c r="A146" s="2">
-        <v>45776.5</v>
+        <v>45786.5</v>
       </c>
       <c r="B146">
         <v>0</v>
@@ -1557,7 +1557,7 @@
     </row>
     <row r="147" spans="1:2">
       <c r="A147" s="2">
-        <v>45776.51041666666</v>
+        <v>45786.51041666666</v>
       </c>
       <c r="B147">
         <v>0</v>
@@ -1565,7 +1565,7 @@
     </row>
     <row r="148" spans="1:2">
       <c r="A148" s="2">
-        <v>45776.52083333334</v>
+        <v>45786.52083333334</v>
       </c>
       <c r="B148">
         <v>0</v>
@@ -1573,7 +1573,7 @@
     </row>
     <row r="149" spans="1:2">
       <c r="A149" s="2">
-        <v>45776.53125</v>
+        <v>45786.53125</v>
       </c>
       <c r="B149">
         <v>0</v>
@@ -1581,7 +1581,7 @@
     </row>
     <row r="150" spans="1:2">
       <c r="A150" s="2">
-        <v>45776.54166666666</v>
+        <v>45786.54166666666</v>
       </c>
       <c r="B150">
         <v>0</v>
@@ -1589,7 +1589,7 @@
     </row>
     <row r="151" spans="1:2">
       <c r="A151" s="2">
-        <v>45776.55208333334</v>
+        <v>45786.55208333334</v>
       </c>
       <c r="B151">
         <v>0</v>
@@ -1597,7 +1597,7 @@
     </row>
     <row r="152" spans="1:2">
       <c r="A152" s="2">
-        <v>45776.5625</v>
+        <v>45786.5625</v>
       </c>
       <c r="B152">
         <v>0</v>
@@ -1605,7 +1605,7 @@
     </row>
     <row r="153" spans="1:2">
       <c r="A153" s="2">
-        <v>45776.57291666666</v>
+        <v>45786.57291666666</v>
       </c>
       <c r="B153">
         <v>0</v>
@@ -1613,7 +1613,7 @@
     </row>
     <row r="154" spans="1:2">
       <c r="A154" s="2">
-        <v>45776.58333333334</v>
+        <v>45786.58333333334</v>
       </c>
       <c r="B154">
         <v>0</v>
@@ -1621,7 +1621,7 @@
     </row>
     <row r="155" spans="1:2">
       <c r="A155" s="2">
-        <v>45776.59375</v>
+        <v>45786.59375</v>
       </c>
       <c r="B155">
         <v>0</v>
@@ -1629,7 +1629,7 @@
     </row>
     <row r="156" spans="1:2">
       <c r="A156" s="2">
-        <v>45776.60416666666</v>
+        <v>45786.60416666666</v>
       </c>
       <c r="B156">
         <v>0</v>
@@ -1637,7 +1637,7 @@
     </row>
     <row r="157" spans="1:2">
       <c r="A157" s="2">
-        <v>45776.61458333334</v>
+        <v>45786.61458333334</v>
       </c>
       <c r="B157">
         <v>0</v>
@@ -1645,7 +1645,7 @@
     </row>
     <row r="158" spans="1:2">
       <c r="A158" s="2">
-        <v>45776.625</v>
+        <v>45786.625</v>
       </c>
       <c r="B158">
         <v>0</v>
@@ -1653,7 +1653,7 @@
     </row>
     <row r="159" spans="1:2">
       <c r="A159" s="2">
-        <v>45776.63541666666</v>
+        <v>45786.63541666666</v>
       </c>
       <c r="B159">
         <v>0</v>
@@ -1661,7 +1661,7 @@
     </row>
     <row r="160" spans="1:2">
       <c r="A160" s="2">
-        <v>45776.64583333334</v>
+        <v>45786.64583333334</v>
       </c>
       <c r="B160">
         <v>0</v>
@@ -1669,7 +1669,7 @@
     </row>
     <row r="161" spans="1:2">
       <c r="A161" s="2">
-        <v>45776.65625</v>
+        <v>45786.65625</v>
       </c>
       <c r="B161">
         <v>0</v>
@@ -1677,7 +1677,7 @@
     </row>
     <row r="162" spans="1:2">
       <c r="A162" s="2">
-        <v>45776.66666666666</v>
+        <v>45786.66666666666</v>
       </c>
       <c r="B162">
         <v>0</v>
@@ -1685,7 +1685,7 @@
     </row>
     <row r="163" spans="1:2">
       <c r="A163" s="2">
-        <v>45776.67708333334</v>
+        <v>45786.67708333334</v>
       </c>
       <c r="B163">
         <v>0</v>
@@ -1693,7 +1693,7 @@
     </row>
     <row r="164" spans="1:2">
       <c r="A164" s="2">
-        <v>45776.6875</v>
+        <v>45786.6875</v>
       </c>
       <c r="B164">
         <v>0</v>
@@ -1701,7 +1701,7 @@
     </row>
     <row r="165" spans="1:2">
       <c r="A165" s="2">
-        <v>45776.69791666666</v>
+        <v>45786.69791666666</v>
       </c>
       <c r="B165">
         <v>0</v>
@@ -1709,7 +1709,7 @@
     </row>
     <row r="166" spans="1:2">
       <c r="A166" s="2">
-        <v>45776.70833333334</v>
+        <v>45786.70833333334</v>
       </c>
       <c r="B166">
         <v>0</v>
@@ -1717,7 +1717,7 @@
     </row>
     <row r="167" spans="1:2">
       <c r="A167" s="2">
-        <v>45776.71875</v>
+        <v>45786.71875</v>
       </c>
       <c r="B167">
         <v>0</v>
@@ -1725,7 +1725,7 @@
     </row>
     <row r="168" spans="1:2">
       <c r="A168" s="2">
-        <v>45776.72916666666</v>
+        <v>45786.72916666666</v>
       </c>
       <c r="B168">
         <v>0</v>
@@ -1733,7 +1733,7 @@
     </row>
     <row r="169" spans="1:2">
       <c r="A169" s="2">
-        <v>45776.73958333334</v>
+        <v>45786.73958333334</v>
       </c>
       <c r="B169">
         <v>0</v>
@@ -1741,7 +1741,7 @@
     </row>
     <row r="170" spans="1:2">
       <c r="A170" s="2">
-        <v>45776.75</v>
+        <v>45786.75</v>
       </c>
       <c r="B170">
         <v>0</v>
@@ -1749,7 +1749,7 @@
     </row>
     <row r="171" spans="1:2">
       <c r="A171" s="2">
-        <v>45776.76041666666</v>
+        <v>45786.76041666666</v>
       </c>
       <c r="B171">
         <v>0</v>
@@ -1757,7 +1757,7 @@
     </row>
     <row r="172" spans="1:2">
       <c r="A172" s="2">
-        <v>45776.77083333334</v>
+        <v>45786.77083333334</v>
       </c>
       <c r="B172">
         <v>0</v>
@@ -1765,7 +1765,7 @@
     </row>
     <row r="173" spans="1:2">
       <c r="A173" s="2">
-        <v>45776.78125</v>
+        <v>45786.78125</v>
       </c>
       <c r="B173">
         <v>0</v>
@@ -1773,7 +1773,7 @@
     </row>
     <row r="174" spans="1:2">
       <c r="A174" s="2">
-        <v>45776.79166666666</v>
+        <v>45786.79166666666</v>
       </c>
       <c r="B174">
         <v>0</v>
@@ -1781,7 +1781,7 @@
     </row>
     <row r="175" spans="1:2">
       <c r="A175" s="2">
-        <v>45776.80208333334</v>
+        <v>45786.80208333334</v>
       </c>
       <c r="B175">
         <v>0</v>
@@ -1789,7 +1789,7 @@
     </row>
     <row r="176" spans="1:2">
       <c r="A176" s="2">
-        <v>45776.8125</v>
+        <v>45786.8125</v>
       </c>
       <c r="B176">
         <v>0</v>
@@ -1797,7 +1797,7 @@
     </row>
     <row r="177" spans="1:2">
       <c r="A177" s="2">
-        <v>45776.82291666666</v>
+        <v>45786.82291666666</v>
       </c>
       <c r="B177">
         <v>0</v>
@@ -1805,7 +1805,7 @@
     </row>
     <row r="178" spans="1:2">
       <c r="A178" s="2">
-        <v>45776.83333333334</v>
+        <v>45786.83333333334</v>
       </c>
       <c r="B178">
         <v>0</v>
@@ -1813,7 +1813,7 @@
     </row>
     <row r="179" spans="1:2">
       <c r="A179" s="2">
-        <v>45776.84375</v>
+        <v>45786.84375</v>
       </c>
       <c r="B179">
         <v>0</v>
@@ -1821,7 +1821,7 @@
     </row>
     <row r="180" spans="1:2">
       <c r="A180" s="2">
-        <v>45776.85416666666</v>
+        <v>45786.85416666666</v>
       </c>
       <c r="B180">
         <v>0</v>
@@ -1829,7 +1829,7 @@
     </row>
     <row r="181" spans="1:2">
       <c r="A181" s="2">
-        <v>45776.86458333334</v>
+        <v>45786.86458333334</v>
       </c>
       <c r="B181">
         <v>0</v>
@@ -1837,7 +1837,7 @@
     </row>
     <row r="182" spans="1:2">
       <c r="A182" s="2">
-        <v>45776.875</v>
+        <v>45786.875</v>
       </c>
       <c r="B182">
         <v>0</v>
@@ -1845,7 +1845,7 @@
     </row>
     <row r="183" spans="1:2">
       <c r="A183" s="2">
-        <v>45776.88541666666</v>
+        <v>45786.88541666666</v>
       </c>
       <c r="B183">
         <v>0</v>
@@ -1853,7 +1853,7 @@
     </row>
     <row r="184" spans="1:2">
       <c r="A184" s="2">
-        <v>45776.89583333334</v>
+        <v>45786.89583333334</v>
       </c>
       <c r="B184">
         <v>0</v>
@@ -1861,7 +1861,7 @@
     </row>
     <row r="185" spans="1:2">
       <c r="A185" s="2">
-        <v>45776.90625</v>
+        <v>45786.90625</v>
       </c>
       <c r="B185">
         <v>0</v>
@@ -1869,7 +1869,7 @@
     </row>
     <row r="186" spans="1:2">
       <c r="A186" s="2">
-        <v>45776.91666666666</v>
+        <v>45786.91666666666</v>
       </c>
       <c r="B186">
         <v>0</v>
@@ -1877,7 +1877,7 @@
     </row>
     <row r="187" spans="1:2">
       <c r="A187" s="2">
-        <v>45776.92708333334</v>
+        <v>45786.92708333334</v>
       </c>
       <c r="B187">
         <v>0</v>
@@ -1885,7 +1885,7 @@
     </row>
     <row r="188" spans="1:2">
       <c r="A188" s="2">
-        <v>45776.9375</v>
+        <v>45786.9375</v>
       </c>
       <c r="B188">
         <v>0</v>
@@ -1893,7 +1893,7 @@
     </row>
     <row r="189" spans="1:2">
       <c r="A189" s="2">
-        <v>45776.94791666666</v>
+        <v>45786.94791666666</v>
       </c>
       <c r="B189">
         <v>0</v>
@@ -1901,7 +1901,7 @@
     </row>
     <row r="190" spans="1:2">
       <c r="A190" s="2">
-        <v>45776.95833333334</v>
+        <v>45786.95833333334</v>
       </c>
       <c r="B190">
         <v>0</v>
@@ -1909,7 +1909,7 @@
     </row>
     <row r="191" spans="1:2">
       <c r="A191" s="2">
-        <v>45776.96875</v>
+        <v>45786.96875</v>
       </c>
       <c r="B191">
         <v>0</v>
@@ -1917,7 +1917,7 @@
     </row>
     <row r="192" spans="1:2">
       <c r="A192" s="2">
-        <v>45776.97916666666</v>
+        <v>45786.97916666666</v>
       </c>
       <c r="B192">
         <v>0</v>
@@ -1925,7 +1925,7 @@
     </row>
     <row r="193" spans="1:2">
       <c r="A193" s="2">
-        <v>45776.98958333334</v>
+        <v>45786.98958333334</v>
       </c>
       <c r="B193">
         <v>0</v>

--- a/data_fetching/Entsoe/Actual_Production_Hydro_Water_Reservoir.xlsx
+++ b/data_fetching/Entsoe/Actual_Production_Hydro_Water_Reservoir.xlsx
@@ -397,1087 +397,1087 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2">
-        <v>45785</v>
+        <v>45796</v>
       </c>
       <c r="B2">
-        <v>622</v>
+        <v>982</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2">
-        <v>45785.01041666666</v>
+        <v>45796.01041666666</v>
       </c>
       <c r="B3">
-        <v>619</v>
+        <v>970</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2">
-        <v>45785.02083333334</v>
+        <v>45796.02083333334</v>
       </c>
       <c r="B4">
-        <v>620</v>
+        <v>966</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2">
-        <v>45785.03125</v>
+        <v>45796.03125</v>
       </c>
       <c r="B5">
-        <v>620</v>
+        <v>904</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2">
-        <v>45785.04166666666</v>
+        <v>45796.04166666666</v>
       </c>
       <c r="B6">
-        <v>621</v>
+        <v>668</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2">
-        <v>45785.05208333334</v>
+        <v>45796.05208333334</v>
       </c>
       <c r="B7">
-        <v>620</v>
+        <v>663</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2">
-        <v>45785.0625</v>
+        <v>45796.0625</v>
       </c>
       <c r="B8">
-        <v>621</v>
+        <v>659</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2">
-        <v>45785.07291666666</v>
+        <v>45796.07291666666</v>
       </c>
       <c r="B9">
-        <v>620</v>
+        <v>640</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2">
-        <v>45785.08333333334</v>
+        <v>45796.08333333334</v>
       </c>
       <c r="B10">
-        <v>621</v>
+        <v>616</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2">
-        <v>45785.09375</v>
+        <v>45796.09375</v>
       </c>
       <c r="B11">
-        <v>620</v>
+        <v>541</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2">
-        <v>45785.10416666666</v>
+        <v>45796.10416666666</v>
       </c>
       <c r="B12">
-        <v>624</v>
+        <v>538</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2">
-        <v>45785.11458333334</v>
+        <v>45796.11458333334</v>
       </c>
       <c r="B13">
-        <v>622</v>
+        <v>533</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2">
-        <v>45785.125</v>
+        <v>45796.125</v>
       </c>
       <c r="B14">
-        <v>610</v>
+        <v>536</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2">
-        <v>45785.13541666666</v>
+        <v>45796.13541666666</v>
       </c>
       <c r="B15">
-        <v>605</v>
+        <v>536</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2">
-        <v>45785.14583333334</v>
+        <v>45796.14583333334</v>
       </c>
       <c r="B16">
-        <v>605</v>
+        <v>551</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2">
-        <v>45785.15625</v>
+        <v>45796.15625</v>
       </c>
       <c r="B17">
-        <v>611</v>
+        <v>568</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2">
-        <v>45785.16666666666</v>
+        <v>45796.16666666666</v>
       </c>
       <c r="B18">
-        <v>625</v>
+        <v>543</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2">
-        <v>45785.17708333334</v>
+        <v>45796.17708333334</v>
       </c>
       <c r="B19">
-        <v>624</v>
+        <v>581</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2">
-        <v>45785.1875</v>
+        <v>45796.1875</v>
       </c>
       <c r="B20">
-        <v>624</v>
+        <v>539</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2">
-        <v>45785.19791666666</v>
+        <v>45796.19791666666</v>
       </c>
       <c r="B21">
-        <v>621</v>
+        <v>541</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2">
-        <v>45785.20833333334</v>
+        <v>45796.20833333334</v>
       </c>
       <c r="B22">
-        <v>538</v>
+        <v>560</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2">
-        <v>45785.21875</v>
+        <v>45796.21875</v>
       </c>
       <c r="B23">
-        <v>544</v>
+        <v>569</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2">
-        <v>45785.22916666666</v>
+        <v>45796.22916666666</v>
       </c>
       <c r="B24">
-        <v>546</v>
+        <v>569</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2">
-        <v>45785.23958333334</v>
+        <v>45796.23958333334</v>
       </c>
       <c r="B25">
-        <v>573</v>
+        <v>591</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2">
-        <v>45785.25</v>
+        <v>45796.25</v>
       </c>
       <c r="B26">
-        <v>731</v>
+        <v>739</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2">
-        <v>45785.26041666666</v>
+        <v>45796.26041666666</v>
       </c>
       <c r="B27">
-        <v>737</v>
+        <v>699</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2">
-        <v>45785.27083333334</v>
+        <v>45796.27083333334</v>
       </c>
       <c r="B28">
-        <v>734</v>
+        <v>757</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2">
-        <v>45785.28125</v>
+        <v>45796.28125</v>
       </c>
       <c r="B29">
-        <v>740</v>
+        <v>760</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2">
-        <v>45785.29166666666</v>
+        <v>45796.29166666666</v>
       </c>
       <c r="B30">
-        <v>775</v>
+        <v>706</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2">
-        <v>45785.30208333334</v>
+        <v>45796.30208333334</v>
       </c>
       <c r="B31">
-        <v>777</v>
+        <v>697</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2">
-        <v>45785.3125</v>
+        <v>45796.3125</v>
       </c>
       <c r="B32">
-        <v>785</v>
+        <v>697</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2">
-        <v>45785.32291666666</v>
+        <v>45796.32291666666</v>
       </c>
       <c r="B33">
-        <v>798</v>
+        <v>679</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2">
-        <v>45785.33333333334</v>
+        <v>45796.33333333334</v>
       </c>
       <c r="B34">
-        <v>831</v>
+        <v>686</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="2">
-        <v>45785.34375</v>
+        <v>45796.34375</v>
       </c>
       <c r="B35">
-        <v>827</v>
+        <v>701</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="2">
-        <v>45785.35416666666</v>
+        <v>45796.35416666666</v>
       </c>
       <c r="B36">
-        <v>821</v>
+        <v>686</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="2">
-        <v>45785.36458333334</v>
+        <v>45796.36458333334</v>
       </c>
       <c r="B37">
-        <v>799</v>
+        <v>625</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="2">
-        <v>45785.375</v>
+        <v>45796.375</v>
       </c>
       <c r="B38">
-        <v>650</v>
+        <v>599</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="2">
-        <v>45785.38541666666</v>
+        <v>45796.38541666666</v>
       </c>
       <c r="B39">
-        <v>649</v>
+        <v>606</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="2">
-        <v>45785.39583333334</v>
+        <v>45796.39583333334</v>
       </c>
       <c r="B40">
-        <v>648</v>
+        <v>722</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="2">
-        <v>45785.40625</v>
+        <v>45796.40625</v>
       </c>
       <c r="B41">
-        <v>635</v>
+        <v>682</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="2">
-        <v>45785.41666666666</v>
+        <v>45796.41666666666</v>
       </c>
       <c r="B42">
-        <v>459</v>
+        <v>405</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="2">
-        <v>45785.42708333334</v>
+        <v>45796.42708333334</v>
       </c>
       <c r="B43">
-        <v>466</v>
+        <v>631</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="2">
-        <v>45785.4375</v>
+        <v>45796.4375</v>
       </c>
       <c r="B44">
-        <v>442</v>
+        <v>669</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="2">
-        <v>45785.44791666666</v>
+        <v>45796.44791666666</v>
       </c>
       <c r="B45">
-        <v>432</v>
+        <v>631</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="2">
-        <v>45785.45833333334</v>
+        <v>45796.45833333334</v>
       </c>
       <c r="B46">
-        <v>277</v>
+        <v>472</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="2">
-        <v>45785.46875</v>
+        <v>45796.46875</v>
       </c>
       <c r="B47">
-        <v>270</v>
+        <v>455</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="2">
-        <v>45785.47916666666</v>
+        <v>45796.47916666666</v>
       </c>
       <c r="B48">
-        <v>272</v>
+        <v>172</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="2">
-        <v>45785.48958333334</v>
+        <v>45796.48958333334</v>
       </c>
       <c r="B49">
-        <v>266</v>
+        <v>129</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="2">
-        <v>45785.5</v>
+        <v>45796.5</v>
       </c>
       <c r="B50">
-        <v>312</v>
+        <v>102</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="2">
-        <v>45785.51041666666</v>
+        <v>45796.51041666666</v>
       </c>
       <c r="B51">
-        <v>318</v>
+        <v>94</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="2">
-        <v>45785.52083333334</v>
+        <v>45796.52083333334</v>
       </c>
       <c r="B52">
-        <v>328</v>
+        <v>93</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="2">
-        <v>45785.53125</v>
+        <v>45796.53125</v>
       </c>
       <c r="B53">
-        <v>350</v>
+        <v>97</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="2">
-        <v>45785.54166666666</v>
+        <v>45796.54166666666</v>
       </c>
       <c r="B54">
-        <v>340</v>
+        <v>206</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="2">
-        <v>45785.55208333334</v>
+        <v>45796.55208333334</v>
       </c>
       <c r="B55">
-        <v>325</v>
+        <v>193</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="2">
-        <v>45785.5625</v>
+        <v>45796.5625</v>
       </c>
       <c r="B56">
-        <v>302</v>
+        <v>177</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="2">
-        <v>45785.57291666666</v>
+        <v>45796.57291666666</v>
       </c>
       <c r="B57">
-        <v>301</v>
+        <v>163</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="2">
-        <v>45785.58333333334</v>
+        <v>45796.58333333334</v>
       </c>
       <c r="B58">
-        <v>291</v>
+        <v>186</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="2">
-        <v>45785.59375</v>
+        <v>45796.59375</v>
       </c>
       <c r="B59">
-        <v>288</v>
+        <v>191</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="2">
-        <v>45785.60416666666</v>
+        <v>45796.60416666666</v>
       </c>
       <c r="B60">
-        <v>289</v>
+        <v>212</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="2">
-        <v>45785.61458333334</v>
+        <v>45796.61458333334</v>
       </c>
       <c r="B61">
-        <v>289</v>
+        <v>240</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="2">
-        <v>45785.625</v>
+        <v>45796.625</v>
       </c>
       <c r="B62">
-        <v>195</v>
+        <v>267</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="2">
-        <v>45785.63541666666</v>
+        <v>45796.63541666666</v>
       </c>
       <c r="B63">
-        <v>192</v>
+        <v>466</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="2">
-        <v>45785.64583333334</v>
+        <v>45796.64583333334</v>
       </c>
       <c r="B64">
-        <v>227</v>
+        <v>442</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="2">
-        <v>45785.65625</v>
+        <v>45796.65625</v>
       </c>
       <c r="B65">
-        <v>248</v>
+        <v>429</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="2">
-        <v>45785.66666666666</v>
+        <v>45796.66666666666</v>
       </c>
       <c r="B66">
-        <v>434</v>
+        <v>413</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="2">
-        <v>45785.67708333334</v>
+        <v>45796.67708333334</v>
       </c>
       <c r="B67">
-        <v>442</v>
+        <v>333</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="2">
-        <v>45785.6875</v>
+        <v>45796.6875</v>
       </c>
       <c r="B68">
-        <v>462</v>
+        <v>327</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="2">
-        <v>45785.69791666666</v>
+        <v>45796.69791666666</v>
       </c>
       <c r="B69">
-        <v>512</v>
+        <v>371</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="2">
-        <v>45785.70833333334</v>
+        <v>45796.70833333334</v>
       </c>
       <c r="B70">
-        <v>834</v>
+        <v>676</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="2">
-        <v>45785.71875</v>
+        <v>45796.71875</v>
       </c>
       <c r="B71">
-        <v>850</v>
+        <v>722</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="2">
-        <v>45785.72916666666</v>
+        <v>45796.72916666666</v>
       </c>
       <c r="B72">
-        <v>847</v>
+        <v>717</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="2">
-        <v>45785.73958333334</v>
+        <v>45796.73958333334</v>
       </c>
       <c r="B73">
-        <v>839</v>
+        <v>743</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="2">
-        <v>45785.75</v>
+        <v>45796.75</v>
       </c>
       <c r="B74">
-        <v>903</v>
+        <v>793</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="2">
-        <v>45785.76041666666</v>
+        <v>45796.76041666666</v>
       </c>
       <c r="B75">
-        <v>918</v>
+        <v>814</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="2">
-        <v>45785.77083333334</v>
+        <v>45796.77083333334</v>
       </c>
       <c r="B76">
-        <v>914</v>
+        <v>855</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="2">
-        <v>45785.78125</v>
+        <v>45796.78125</v>
       </c>
       <c r="B77">
-        <v>949</v>
+        <v>921</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="2">
-        <v>45785.79166666666</v>
+        <v>45796.79166666666</v>
       </c>
       <c r="B78">
-        <v>908</v>
+        <v>988</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="2">
-        <v>45785.80208333334</v>
+        <v>45796.80208333334</v>
       </c>
       <c r="B79">
-        <v>924</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="2">
-        <v>45785.8125</v>
+        <v>45796.8125</v>
       </c>
       <c r="B80">
-        <v>933</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="2">
-        <v>45785.82291666666</v>
+        <v>45796.82291666666</v>
       </c>
       <c r="B81">
-        <v>939</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="2">
-        <v>45785.83333333334</v>
+        <v>45796.83333333334</v>
       </c>
       <c r="B82">
-        <v>875</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="2">
-        <v>45785.84375</v>
+        <v>45796.84375</v>
       </c>
       <c r="B83">
-        <v>870</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="2">
-        <v>45785.85416666666</v>
+        <v>45796.85416666666</v>
       </c>
       <c r="B84">
-        <v>850</v>
+        <v>939</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="2">
-        <v>45785.86458333334</v>
+        <v>45796.86458333334</v>
       </c>
       <c r="B85">
-        <v>867</v>
+        <v>924</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="2">
-        <v>45785.875</v>
+        <v>45796.875</v>
       </c>
       <c r="B86">
-        <v>826</v>
+        <v>900</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="2">
-        <v>45785.88541666666</v>
+        <v>45796.88541666666</v>
       </c>
       <c r="B87">
-        <v>816</v>
+        <v>897</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="2">
-        <v>45785.89583333334</v>
+        <v>45796.89583333334</v>
       </c>
       <c r="B88">
-        <v>775</v>
+        <v>895</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="2">
-        <v>45785.90625</v>
+        <v>45796.90625</v>
       </c>
       <c r="B89">
-        <v>770</v>
+        <v>890</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="2">
-        <v>45785.91666666666</v>
+        <v>45796.91666666666</v>
       </c>
       <c r="B90">
-        <v>516</v>
+        <v>670</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="2">
-        <v>45785.92708333334</v>
+        <v>45796.92708333334</v>
       </c>
       <c r="B91">
-        <v>492</v>
+        <v>610</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="2">
-        <v>45785.9375</v>
+        <v>45796.9375</v>
       </c>
       <c r="B92">
-        <v>470</v>
+        <v>553</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="2">
-        <v>45785.94791666666</v>
+        <v>45796.94791666666</v>
       </c>
       <c r="B93">
-        <v>465</v>
+        <v>613</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="2">
-        <v>45785.95833333334</v>
+        <v>45796.95833333334</v>
       </c>
       <c r="B94">
-        <v>488</v>
+        <v>739</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="2">
-        <v>45785.96875</v>
+        <v>45796.96875</v>
       </c>
       <c r="B95">
-        <v>494</v>
+        <v>734</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="2">
-        <v>45785.97916666666</v>
+        <v>45796.97916666666</v>
       </c>
       <c r="B96">
-        <v>500</v>
+        <v>734</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="2">
-        <v>45785.98958333334</v>
+        <v>45796.98958333334</v>
       </c>
       <c r="B97">
-        <v>585</v>
+        <v>738</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" s="2">
-        <v>45786</v>
+        <v>45797</v>
       </c>
       <c r="B98">
-        <v>571</v>
+        <v>669</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" s="2">
-        <v>45786.01041666666</v>
+        <v>45797.01041666666</v>
       </c>
       <c r="B99">
-        <v>581</v>
+        <v>665</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" s="2">
-        <v>45786.02083333334</v>
+        <v>45797.02083333334</v>
       </c>
       <c r="B100">
-        <v>574</v>
+        <v>666</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" s="2">
-        <v>45786.03125</v>
+        <v>45797.03125</v>
       </c>
       <c r="B101">
-        <v>556</v>
+        <v>665</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" s="2">
-        <v>45786.04166666666</v>
+        <v>45797.04166666666</v>
       </c>
       <c r="B102">
-        <v>551</v>
+        <v>666</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" s="2">
-        <v>45786.05208333334</v>
+        <v>45797.05208333334</v>
       </c>
       <c r="B103">
-        <v>546</v>
+        <v>655</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" s="2">
-        <v>45786.0625</v>
+        <v>45797.0625</v>
       </c>
       <c r="B104">
-        <v>537</v>
+        <v>643</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" s="2">
-        <v>45786.07291666666</v>
+        <v>45797.07291666666</v>
       </c>
       <c r="B105">
-        <v>534</v>
+        <v>664</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" s="2">
-        <v>45786.08333333334</v>
+        <v>45797.08333333334</v>
       </c>
       <c r="B106">
-        <v>548</v>
+        <v>659</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" s="2">
-        <v>45786.09375</v>
+        <v>45797.09375</v>
       </c>
       <c r="B107">
-        <v>548</v>
+        <v>659</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" s="2">
-        <v>45786.10416666666</v>
+        <v>45797.10416666666</v>
       </c>
       <c r="B108">
-        <v>589</v>
+        <v>660</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" s="2">
-        <v>45786.11458333334</v>
+        <v>45797.11458333334</v>
       </c>
       <c r="B109">
-        <v>574</v>
+        <v>661</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" s="2">
-        <v>45786.125</v>
+        <v>45797.125</v>
       </c>
       <c r="B110">
-        <v>555</v>
+        <v>660</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" s="2">
-        <v>45786.13541666666</v>
+        <v>45797.13541666666</v>
       </c>
       <c r="B111">
-        <v>556</v>
+        <v>660</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112" s="2">
-        <v>45786.14583333334</v>
+        <v>45797.14583333334</v>
       </c>
       <c r="B112">
-        <v>548</v>
+        <v>676</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" s="2">
-        <v>45786.15625</v>
+        <v>45797.15625</v>
       </c>
       <c r="B113">
-        <v>553</v>
+        <v>670</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" s="2">
-        <v>45786.16666666666</v>
+        <v>45797.16666666666</v>
       </c>
       <c r="B114">
-        <v>550</v>
+        <v>672</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" s="2">
-        <v>45786.17708333334</v>
+        <v>45797.17708333334</v>
       </c>
       <c r="B115">
-        <v>501</v>
+        <v>651</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" s="2">
-        <v>45786.1875</v>
+        <v>45797.1875</v>
       </c>
       <c r="B116">
-        <v>540</v>
+        <v>646</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117" s="2">
-        <v>45786.19791666666</v>
+        <v>45797.19791666666</v>
       </c>
       <c r="B117">
-        <v>561</v>
+        <v>648</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" s="2">
-        <v>45786.20833333334</v>
+        <v>45797.20833333334</v>
       </c>
       <c r="B118">
-        <v>341</v>
+        <v>691</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" s="2">
-        <v>45786.21875</v>
+        <v>45797.21875</v>
       </c>
       <c r="B119">
-        <v>341</v>
+        <v>702</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" s="2">
-        <v>45786.22916666666</v>
+        <v>45797.22916666666</v>
       </c>
       <c r="B120">
-        <v>345</v>
+        <v>722</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" s="2">
-        <v>45786.23958333334</v>
+        <v>45797.23958333334</v>
       </c>
       <c r="B121">
-        <v>383</v>
+        <v>706</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" s="2">
-        <v>45786.25</v>
+        <v>45797.25</v>
       </c>
       <c r="B122">
-        <v>536</v>
+        <v>762</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123" s="2">
-        <v>45786.26041666666</v>
+        <v>45797.26041666666</v>
       </c>
       <c r="B123">
-        <v>0</v>
+        <v>845</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" s="2">
-        <v>45786.27083333334</v>
+        <v>45797.27083333334</v>
       </c>
       <c r="B124">
-        <v>0</v>
+        <v>825</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" s="2">
-        <v>45786.28125</v>
+        <v>45797.28125</v>
       </c>
       <c r="B125">
-        <v>0</v>
+        <v>843</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" s="2">
-        <v>45786.29166666666</v>
+        <v>45797.29166666666</v>
       </c>
       <c r="B126">
-        <v>0</v>
+        <v>914</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127" s="2">
-        <v>45786.30208333334</v>
+        <v>45797.30208333334</v>
       </c>
       <c r="B127">
-        <v>0</v>
+        <v>873</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128" s="2">
-        <v>45786.3125</v>
+        <v>45797.3125</v>
       </c>
       <c r="B128">
-        <v>0</v>
+        <v>894</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" s="2">
-        <v>45786.32291666666</v>
+        <v>45797.32291666666</v>
       </c>
       <c r="B129">
-        <v>0</v>
+        <v>901</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" s="2">
-        <v>45786.33333333334</v>
+        <v>45797.33333333334</v>
       </c>
       <c r="B130">
-        <v>0</v>
+        <v>871</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" s="2">
-        <v>45786.34375</v>
+        <v>45797.34375</v>
       </c>
       <c r="B131">
-        <v>0</v>
+        <v>856</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132" s="2">
-        <v>45786.35416666666</v>
+        <v>45797.35416666666</v>
       </c>
       <c r="B132">
-        <v>0</v>
+        <v>745</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" s="2">
-        <v>45786.36458333334</v>
+        <v>45797.36458333334</v>
       </c>
       <c r="B133">
-        <v>0</v>
+        <v>732</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134" s="2">
-        <v>45786.375</v>
+        <v>45797.375</v>
       </c>
       <c r="B134">
-        <v>0</v>
+        <v>287</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135" s="2">
-        <v>45786.38541666666</v>
+        <v>45797.38541666666</v>
       </c>
       <c r="B135">
-        <v>0</v>
+        <v>255</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136" s="2">
-        <v>45786.39583333334</v>
+        <v>45797.39583333334</v>
       </c>
       <c r="B136">
-        <v>0</v>
+        <v>240</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137" s="2">
-        <v>45786.40625</v>
+        <v>45797.40625</v>
       </c>
       <c r="B137">
         <v>0</v>
@@ -1485,7 +1485,7 @@
     </row>
     <row r="138" spans="1:2">
       <c r="A138" s="2">
-        <v>45786.41666666666</v>
+        <v>45797.41666666666</v>
       </c>
       <c r="B138">
         <v>0</v>
@@ -1493,7 +1493,7 @@
     </row>
     <row r="139" spans="1:2">
       <c r="A139" s="2">
-        <v>45786.42708333334</v>
+        <v>45797.42708333334</v>
       </c>
       <c r="B139">
         <v>0</v>
@@ -1501,7 +1501,7 @@
     </row>
     <row r="140" spans="1:2">
       <c r="A140" s="2">
-        <v>45786.4375</v>
+        <v>45797.4375</v>
       </c>
       <c r="B140">
         <v>0</v>
@@ -1509,7 +1509,7 @@
     </row>
     <row r="141" spans="1:2">
       <c r="A141" s="2">
-        <v>45786.44791666666</v>
+        <v>45797.44791666666</v>
       </c>
       <c r="B141">
         <v>0</v>
@@ -1517,7 +1517,7 @@
     </row>
     <row r="142" spans="1:2">
       <c r="A142" s="2">
-        <v>45786.45833333334</v>
+        <v>45797.45833333334</v>
       </c>
       <c r="B142">
         <v>0</v>
@@ -1525,7 +1525,7 @@
     </row>
     <row r="143" spans="1:2">
       <c r="A143" s="2">
-        <v>45786.46875</v>
+        <v>45797.46875</v>
       </c>
       <c r="B143">
         <v>0</v>
@@ -1533,7 +1533,7 @@
     </row>
     <row r="144" spans="1:2">
       <c r="A144" s="2">
-        <v>45786.47916666666</v>
+        <v>45797.47916666666</v>
       </c>
       <c r="B144">
         <v>0</v>
@@ -1541,7 +1541,7 @@
     </row>
     <row r="145" spans="1:2">
       <c r="A145" s="2">
-        <v>45786.48958333334</v>
+        <v>45797.48958333334</v>
       </c>
       <c r="B145">
         <v>0</v>
@@ -1549,7 +1549,7 @@
     </row>
     <row r="146" spans="1:2">
       <c r="A146" s="2">
-        <v>45786.5</v>
+        <v>45797.5</v>
       </c>
       <c r="B146">
         <v>0</v>
@@ -1557,7 +1557,7 @@
     </row>
     <row r="147" spans="1:2">
       <c r="A147" s="2">
-        <v>45786.51041666666</v>
+        <v>45797.51041666666</v>
       </c>
       <c r="B147">
         <v>0</v>
@@ -1565,7 +1565,7 @@
     </row>
     <row r="148" spans="1:2">
       <c r="A148" s="2">
-        <v>45786.52083333334</v>
+        <v>45797.52083333334</v>
       </c>
       <c r="B148">
         <v>0</v>
@@ -1573,7 +1573,7 @@
     </row>
     <row r="149" spans="1:2">
       <c r="A149" s="2">
-        <v>45786.53125</v>
+        <v>45797.53125</v>
       </c>
       <c r="B149">
         <v>0</v>
@@ -1581,7 +1581,7 @@
     </row>
     <row r="150" spans="1:2">
       <c r="A150" s="2">
-        <v>45786.54166666666</v>
+        <v>45797.54166666666</v>
       </c>
       <c r="B150">
         <v>0</v>
@@ -1589,7 +1589,7 @@
     </row>
     <row r="151" spans="1:2">
       <c r="A151" s="2">
-        <v>45786.55208333334</v>
+        <v>45797.55208333334</v>
       </c>
       <c r="B151">
         <v>0</v>
@@ -1597,7 +1597,7 @@
     </row>
     <row r="152" spans="1:2">
       <c r="A152" s="2">
-        <v>45786.5625</v>
+        <v>45797.5625</v>
       </c>
       <c r="B152">
         <v>0</v>
@@ -1605,7 +1605,7 @@
     </row>
     <row r="153" spans="1:2">
       <c r="A153" s="2">
-        <v>45786.57291666666</v>
+        <v>45797.57291666666</v>
       </c>
       <c r="B153">
         <v>0</v>
@@ -1613,7 +1613,7 @@
     </row>
     <row r="154" spans="1:2">
       <c r="A154" s="2">
-        <v>45786.58333333334</v>
+        <v>45797.58333333334</v>
       </c>
       <c r="B154">
         <v>0</v>
@@ -1621,7 +1621,7 @@
     </row>
     <row r="155" spans="1:2">
       <c r="A155" s="2">
-        <v>45786.59375</v>
+        <v>45797.59375</v>
       </c>
       <c r="B155">
         <v>0</v>
@@ -1629,7 +1629,7 @@
     </row>
     <row r="156" spans="1:2">
       <c r="A156" s="2">
-        <v>45786.60416666666</v>
+        <v>45797.60416666666</v>
       </c>
       <c r="B156">
         <v>0</v>
@@ -1637,7 +1637,7 @@
     </row>
     <row r="157" spans="1:2">
       <c r="A157" s="2">
-        <v>45786.61458333334</v>
+        <v>45797.61458333334</v>
       </c>
       <c r="B157">
         <v>0</v>
@@ -1645,7 +1645,7 @@
     </row>
     <row r="158" spans="1:2">
       <c r="A158" s="2">
-        <v>45786.625</v>
+        <v>45797.625</v>
       </c>
       <c r="B158">
         <v>0</v>
@@ -1653,7 +1653,7 @@
     </row>
     <row r="159" spans="1:2">
       <c r="A159" s="2">
-        <v>45786.63541666666</v>
+        <v>45797.63541666666</v>
       </c>
       <c r="B159">
         <v>0</v>
@@ -1661,7 +1661,7 @@
     </row>
     <row r="160" spans="1:2">
       <c r="A160" s="2">
-        <v>45786.64583333334</v>
+        <v>45797.64583333334</v>
       </c>
       <c r="B160">
         <v>0</v>
@@ -1669,7 +1669,7 @@
     </row>
     <row r="161" spans="1:2">
       <c r="A161" s="2">
-        <v>45786.65625</v>
+        <v>45797.65625</v>
       </c>
       <c r="B161">
         <v>0</v>
@@ -1677,7 +1677,7 @@
     </row>
     <row r="162" spans="1:2">
       <c r="A162" s="2">
-        <v>45786.66666666666</v>
+        <v>45797.66666666666</v>
       </c>
       <c r="B162">
         <v>0</v>
@@ -1685,7 +1685,7 @@
     </row>
     <row r="163" spans="1:2">
       <c r="A163" s="2">
-        <v>45786.67708333334</v>
+        <v>45797.67708333334</v>
       </c>
       <c r="B163">
         <v>0</v>
@@ -1693,7 +1693,7 @@
     </row>
     <row r="164" spans="1:2">
       <c r="A164" s="2">
-        <v>45786.6875</v>
+        <v>45797.6875</v>
       </c>
       <c r="B164">
         <v>0</v>
@@ -1701,7 +1701,7 @@
     </row>
     <row r="165" spans="1:2">
       <c r="A165" s="2">
-        <v>45786.69791666666</v>
+        <v>45797.69791666666</v>
       </c>
       <c r="B165">
         <v>0</v>
@@ -1709,7 +1709,7 @@
     </row>
     <row r="166" spans="1:2">
       <c r="A166" s="2">
-        <v>45786.70833333334</v>
+        <v>45797.70833333334</v>
       </c>
       <c r="B166">
         <v>0</v>
@@ -1717,7 +1717,7 @@
     </row>
     <row r="167" spans="1:2">
       <c r="A167" s="2">
-        <v>45786.71875</v>
+        <v>45797.71875</v>
       </c>
       <c r="B167">
         <v>0</v>
@@ -1725,7 +1725,7 @@
     </row>
     <row r="168" spans="1:2">
       <c r="A168" s="2">
-        <v>45786.72916666666</v>
+        <v>45797.72916666666</v>
       </c>
       <c r="B168">
         <v>0</v>
@@ -1733,7 +1733,7 @@
     </row>
     <row r="169" spans="1:2">
       <c r="A169" s="2">
-        <v>45786.73958333334</v>
+        <v>45797.73958333334</v>
       </c>
       <c r="B169">
         <v>0</v>
@@ -1741,7 +1741,7 @@
     </row>
     <row r="170" spans="1:2">
       <c r="A170" s="2">
-        <v>45786.75</v>
+        <v>45797.75</v>
       </c>
       <c r="B170">
         <v>0</v>
@@ -1749,7 +1749,7 @@
     </row>
     <row r="171" spans="1:2">
       <c r="A171" s="2">
-        <v>45786.76041666666</v>
+        <v>45797.76041666666</v>
       </c>
       <c r="B171">
         <v>0</v>
@@ -1757,7 +1757,7 @@
     </row>
     <row r="172" spans="1:2">
       <c r="A172" s="2">
-        <v>45786.77083333334</v>
+        <v>45797.77083333334</v>
       </c>
       <c r="B172">
         <v>0</v>
@@ -1765,7 +1765,7 @@
     </row>
     <row r="173" spans="1:2">
       <c r="A173" s="2">
-        <v>45786.78125</v>
+        <v>45797.78125</v>
       </c>
       <c r="B173">
         <v>0</v>
@@ -1773,7 +1773,7 @@
     </row>
     <row r="174" spans="1:2">
       <c r="A174" s="2">
-        <v>45786.79166666666</v>
+        <v>45797.79166666666</v>
       </c>
       <c r="B174">
         <v>0</v>
@@ -1781,7 +1781,7 @@
     </row>
     <row r="175" spans="1:2">
       <c r="A175" s="2">
-        <v>45786.80208333334</v>
+        <v>45797.80208333334</v>
       </c>
       <c r="B175">
         <v>0</v>
@@ -1789,7 +1789,7 @@
     </row>
     <row r="176" spans="1:2">
       <c r="A176" s="2">
-        <v>45786.8125</v>
+        <v>45797.8125</v>
       </c>
       <c r="B176">
         <v>0</v>
@@ -1797,7 +1797,7 @@
     </row>
     <row r="177" spans="1:2">
       <c r="A177" s="2">
-        <v>45786.82291666666</v>
+        <v>45797.82291666666</v>
       </c>
       <c r="B177">
         <v>0</v>
@@ -1805,7 +1805,7 @@
     </row>
     <row r="178" spans="1:2">
       <c r="A178" s="2">
-        <v>45786.83333333334</v>
+        <v>45797.83333333334</v>
       </c>
       <c r="B178">
         <v>0</v>
@@ -1813,7 +1813,7 @@
     </row>
     <row r="179" spans="1:2">
       <c r="A179" s="2">
-        <v>45786.84375</v>
+        <v>45797.84375</v>
       </c>
       <c r="B179">
         <v>0</v>
@@ -1821,7 +1821,7 @@
     </row>
     <row r="180" spans="1:2">
       <c r="A180" s="2">
-        <v>45786.85416666666</v>
+        <v>45797.85416666666</v>
       </c>
       <c r="B180">
         <v>0</v>
@@ -1829,7 +1829,7 @@
     </row>
     <row r="181" spans="1:2">
       <c r="A181" s="2">
-        <v>45786.86458333334</v>
+        <v>45797.86458333334</v>
       </c>
       <c r="B181">
         <v>0</v>
@@ -1837,7 +1837,7 @@
     </row>
     <row r="182" spans="1:2">
       <c r="A182" s="2">
-        <v>45786.875</v>
+        <v>45797.875</v>
       </c>
       <c r="B182">
         <v>0</v>
@@ -1845,7 +1845,7 @@
     </row>
     <row r="183" spans="1:2">
       <c r="A183" s="2">
-        <v>45786.88541666666</v>
+        <v>45797.88541666666</v>
       </c>
       <c r="B183">
         <v>0</v>
@@ -1853,7 +1853,7 @@
     </row>
     <row r="184" spans="1:2">
       <c r="A184" s="2">
-        <v>45786.89583333334</v>
+        <v>45797.89583333334</v>
       </c>
       <c r="B184">
         <v>0</v>
@@ -1861,7 +1861,7 @@
     </row>
     <row r="185" spans="1:2">
       <c r="A185" s="2">
-        <v>45786.90625</v>
+        <v>45797.90625</v>
       </c>
       <c r="B185">
         <v>0</v>
@@ -1869,7 +1869,7 @@
     </row>
     <row r="186" spans="1:2">
       <c r="A186" s="2">
-        <v>45786.91666666666</v>
+        <v>45797.91666666666</v>
       </c>
       <c r="B186">
         <v>0</v>
@@ -1877,7 +1877,7 @@
     </row>
     <row r="187" spans="1:2">
       <c r="A187" s="2">
-        <v>45786.92708333334</v>
+        <v>45797.92708333334</v>
       </c>
       <c r="B187">
         <v>0</v>
@@ -1885,7 +1885,7 @@
     </row>
     <row r="188" spans="1:2">
       <c r="A188" s="2">
-        <v>45786.9375</v>
+        <v>45797.9375</v>
       </c>
       <c r="B188">
         <v>0</v>
@@ -1893,7 +1893,7 @@
     </row>
     <row r="189" spans="1:2">
       <c r="A189" s="2">
-        <v>45786.94791666666</v>
+        <v>45797.94791666666</v>
       </c>
       <c r="B189">
         <v>0</v>
@@ -1901,7 +1901,7 @@
     </row>
     <row r="190" spans="1:2">
       <c r="A190" s="2">
-        <v>45786.95833333334</v>
+        <v>45797.95833333334</v>
       </c>
       <c r="B190">
         <v>0</v>
@@ -1909,7 +1909,7 @@
     </row>
     <row r="191" spans="1:2">
       <c r="A191" s="2">
-        <v>45786.96875</v>
+        <v>45797.96875</v>
       </c>
       <c r="B191">
         <v>0</v>
@@ -1917,7 +1917,7 @@
     </row>
     <row r="192" spans="1:2">
       <c r="A192" s="2">
-        <v>45786.97916666666</v>
+        <v>45797.97916666666</v>
       </c>
       <c r="B192">
         <v>0</v>
@@ -1925,7 +1925,7 @@
     </row>
     <row r="193" spans="1:2">
       <c r="A193" s="2">
-        <v>45786.98958333334</v>
+        <v>45797.98958333334</v>
       </c>
       <c r="B193">
         <v>0</v>

--- a/data_fetching/Entsoe/Actual_Production_Hydro_Water_Reservoir.xlsx
+++ b/data_fetching/Entsoe/Actual_Production_Hydro_Water_Reservoir.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B193"/>
+  <dimension ref="A1:B289"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -397,1537 +397,2305 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2">
-        <v>45796</v>
+        <v>45797</v>
       </c>
       <c r="B2">
-        <v>982</v>
+        <v>669</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2">
-        <v>45796.01041666666</v>
+        <v>45797.01041666666</v>
       </c>
       <c r="B3">
-        <v>970</v>
+        <v>665</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2">
-        <v>45796.02083333334</v>
+        <v>45797.02083333334</v>
       </c>
       <c r="B4">
-        <v>966</v>
+        <v>666</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2">
-        <v>45796.03125</v>
+        <v>45797.03125</v>
       </c>
       <c r="B5">
-        <v>904</v>
+        <v>665</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2">
-        <v>45796.04166666666</v>
+        <v>45797.04166666666</v>
       </c>
       <c r="B6">
-        <v>668</v>
+        <v>666</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2">
-        <v>45796.05208333334</v>
+        <v>45797.05208333334</v>
       </c>
       <c r="B7">
-        <v>663</v>
+        <v>655</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2">
-        <v>45796.0625</v>
+        <v>45797.0625</v>
       </c>
       <c r="B8">
-        <v>659</v>
+        <v>643</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2">
-        <v>45796.07291666666</v>
+        <v>45797.07291666666</v>
       </c>
       <c r="B9">
-        <v>640</v>
+        <v>664</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2">
-        <v>45796.08333333334</v>
+        <v>45797.08333333334</v>
       </c>
       <c r="B10">
-        <v>616</v>
+        <v>659</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2">
-        <v>45796.09375</v>
+        <v>45797.09375</v>
       </c>
       <c r="B11">
-        <v>541</v>
+        <v>659</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2">
-        <v>45796.10416666666</v>
+        <v>45797.10416666666</v>
       </c>
       <c r="B12">
-        <v>538</v>
+        <v>660</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2">
-        <v>45796.11458333334</v>
+        <v>45797.11458333334</v>
       </c>
       <c r="B13">
-        <v>533</v>
+        <v>661</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2">
-        <v>45796.125</v>
+        <v>45797.125</v>
       </c>
       <c r="B14">
-        <v>536</v>
+        <v>660</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2">
-        <v>45796.13541666666</v>
+        <v>45797.13541666666</v>
       </c>
       <c r="B15">
-        <v>536</v>
+        <v>660</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2">
-        <v>45796.14583333334</v>
+        <v>45797.14583333334</v>
       </c>
       <c r="B16">
-        <v>551</v>
+        <v>676</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2">
-        <v>45796.15625</v>
+        <v>45797.15625</v>
       </c>
       <c r="B17">
-        <v>568</v>
+        <v>670</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2">
-        <v>45796.16666666666</v>
+        <v>45797.16666666666</v>
       </c>
       <c r="B18">
-        <v>543</v>
+        <v>672</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2">
-        <v>45796.17708333334</v>
+        <v>45797.17708333334</v>
       </c>
       <c r="B19">
-        <v>581</v>
+        <v>651</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2">
-        <v>45796.1875</v>
+        <v>45797.1875</v>
       </c>
       <c r="B20">
-        <v>539</v>
+        <v>646</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2">
-        <v>45796.19791666666</v>
+        <v>45797.19791666666</v>
       </c>
       <c r="B21">
-        <v>541</v>
+        <v>648</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2">
-        <v>45796.20833333334</v>
+        <v>45797.20833333334</v>
       </c>
       <c r="B22">
-        <v>560</v>
+        <v>691</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2">
-        <v>45796.21875</v>
+        <v>45797.21875</v>
       </c>
       <c r="B23">
-        <v>569</v>
+        <v>702</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2">
-        <v>45796.22916666666</v>
+        <v>45797.22916666666</v>
       </c>
       <c r="B24">
-        <v>569</v>
+        <v>722</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2">
-        <v>45796.23958333334</v>
+        <v>45797.23958333334</v>
       </c>
       <c r="B25">
-        <v>591</v>
+        <v>706</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2">
-        <v>45796.25</v>
+        <v>45797.25</v>
       </c>
       <c r="B26">
-        <v>739</v>
+        <v>762</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2">
-        <v>45796.26041666666</v>
+        <v>45797.26041666666</v>
       </c>
       <c r="B27">
-        <v>699</v>
+        <v>845</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2">
-        <v>45796.27083333334</v>
+        <v>45797.27083333334</v>
       </c>
       <c r="B28">
-        <v>757</v>
+        <v>825</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2">
-        <v>45796.28125</v>
+        <v>45797.28125</v>
       </c>
       <c r="B29">
-        <v>760</v>
+        <v>843</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2">
-        <v>45796.29166666666</v>
+        <v>45797.29166666666</v>
       </c>
       <c r="B30">
-        <v>706</v>
+        <v>914</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2">
-        <v>45796.30208333334</v>
+        <v>45797.30208333334</v>
       </c>
       <c r="B31">
-        <v>697</v>
+        <v>873</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2">
-        <v>45796.3125</v>
+        <v>45797.3125</v>
       </c>
       <c r="B32">
-        <v>697</v>
+        <v>894</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2">
-        <v>45796.32291666666</v>
+        <v>45797.32291666666</v>
       </c>
       <c r="B33">
-        <v>679</v>
+        <v>901</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2">
-        <v>45796.33333333334</v>
+        <v>45797.33333333334</v>
       </c>
       <c r="B34">
-        <v>686</v>
+        <v>871</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="2">
-        <v>45796.34375</v>
+        <v>45797.34375</v>
       </c>
       <c r="B35">
-        <v>701</v>
+        <v>856</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="2">
-        <v>45796.35416666666</v>
+        <v>45797.35416666666</v>
       </c>
       <c r="B36">
-        <v>686</v>
+        <v>745</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="2">
-        <v>45796.36458333334</v>
+        <v>45797.36458333334</v>
       </c>
       <c r="B37">
-        <v>625</v>
+        <v>732</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="2">
-        <v>45796.375</v>
+        <v>45797.375</v>
       </c>
       <c r="B38">
-        <v>599</v>
+        <v>287</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="2">
-        <v>45796.38541666666</v>
+        <v>45797.38541666666</v>
       </c>
       <c r="B39">
-        <v>606</v>
+        <v>255</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="2">
-        <v>45796.39583333334</v>
+        <v>45797.39583333334</v>
       </c>
       <c r="B40">
-        <v>722</v>
+        <v>240</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="2">
-        <v>45796.40625</v>
+        <v>45797.40625</v>
       </c>
       <c r="B41">
-        <v>682</v>
+        <v>224</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="2">
-        <v>45796.41666666666</v>
+        <v>45797.41666666666</v>
       </c>
       <c r="B42">
-        <v>405</v>
+        <v>236</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="2">
-        <v>45796.42708333334</v>
+        <v>45797.42708333334</v>
       </c>
       <c r="B43">
-        <v>631</v>
+        <v>212</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="2">
-        <v>45796.4375</v>
+        <v>45797.4375</v>
       </c>
       <c r="B44">
-        <v>669</v>
+        <v>255</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="2">
-        <v>45796.44791666666</v>
+        <v>45797.44791666666</v>
       </c>
       <c r="B45">
-        <v>631</v>
+        <v>254</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="2">
-        <v>45796.45833333334</v>
+        <v>45797.45833333334</v>
       </c>
       <c r="B46">
-        <v>472</v>
+        <v>111</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="2">
-        <v>45796.46875</v>
+        <v>45797.46875</v>
       </c>
       <c r="B47">
-        <v>455</v>
+        <v>103</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="2">
-        <v>45796.47916666666</v>
+        <v>45797.47916666666</v>
       </c>
       <c r="B48">
-        <v>172</v>
+        <v>114</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="2">
-        <v>45796.48958333334</v>
+        <v>45797.48958333334</v>
       </c>
       <c r="B49">
-        <v>129</v>
+        <v>116</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="2">
-        <v>45796.5</v>
+        <v>45797.5</v>
       </c>
       <c r="B50">
-        <v>102</v>
+        <v>107</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="2">
-        <v>45796.51041666666</v>
+        <v>45797.51041666666</v>
       </c>
       <c r="B51">
-        <v>94</v>
+        <v>158</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="2">
-        <v>45796.52083333334</v>
+        <v>45797.52083333334</v>
       </c>
       <c r="B52">
-        <v>93</v>
+        <v>171</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="2">
-        <v>45796.53125</v>
+        <v>45797.53125</v>
       </c>
       <c r="B53">
-        <v>97</v>
+        <v>174</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="2">
-        <v>45796.54166666666</v>
+        <v>45797.54166666666</v>
       </c>
       <c r="B54">
-        <v>206</v>
+        <v>195</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="2">
-        <v>45796.55208333334</v>
+        <v>45797.55208333334</v>
       </c>
       <c r="B55">
-        <v>193</v>
+        <v>202</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="2">
-        <v>45796.5625</v>
+        <v>45797.5625</v>
       </c>
       <c r="B56">
-        <v>177</v>
+        <v>204</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="2">
-        <v>45796.57291666666</v>
+        <v>45797.57291666666</v>
       </c>
       <c r="B57">
-        <v>163</v>
+        <v>222</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="2">
-        <v>45796.58333333334</v>
+        <v>45797.58333333334</v>
       </c>
       <c r="B58">
-        <v>186</v>
+        <v>203</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="2">
-        <v>45796.59375</v>
+        <v>45797.59375</v>
       </c>
       <c r="B59">
-        <v>191</v>
+        <v>223</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="2">
-        <v>45796.60416666666</v>
+        <v>45797.60416666666</v>
       </c>
       <c r="B60">
-        <v>212</v>
+        <v>247</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="2">
-        <v>45796.61458333334</v>
+        <v>45797.61458333334</v>
       </c>
       <c r="B61">
-        <v>240</v>
+        <v>273</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="2">
-        <v>45796.625</v>
+        <v>45797.625</v>
       </c>
       <c r="B62">
-        <v>267</v>
+        <v>290</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="2">
-        <v>45796.63541666666</v>
+        <v>45797.63541666666</v>
       </c>
       <c r="B63">
-        <v>466</v>
+        <v>313</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="2">
-        <v>45796.64583333334</v>
+        <v>45797.64583333334</v>
       </c>
       <c r="B64">
-        <v>442</v>
+        <v>272</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="2">
-        <v>45796.65625</v>
+        <v>45797.65625</v>
       </c>
       <c r="B65">
-        <v>429</v>
+        <v>296</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="2">
-        <v>45796.66666666666</v>
+        <v>45797.66666666666</v>
       </c>
       <c r="B66">
-        <v>413</v>
+        <v>532</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="2">
-        <v>45796.67708333334</v>
+        <v>45797.67708333334</v>
       </c>
       <c r="B67">
-        <v>333</v>
+        <v>575</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="2">
-        <v>45796.6875</v>
+        <v>45797.6875</v>
       </c>
       <c r="B68">
-        <v>327</v>
+        <v>593</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="2">
-        <v>45796.69791666666</v>
+        <v>45797.69791666666</v>
       </c>
       <c r="B69">
-        <v>371</v>
+        <v>618</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="2">
-        <v>45796.70833333334</v>
+        <v>45797.70833333334</v>
       </c>
       <c r="B70">
-        <v>676</v>
+        <v>794</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="2">
-        <v>45796.71875</v>
+        <v>45797.71875</v>
       </c>
       <c r="B71">
-        <v>722</v>
+        <v>837</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="2">
-        <v>45796.72916666666</v>
+        <v>45797.72916666666</v>
       </c>
       <c r="B72">
-        <v>717</v>
+        <v>828</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="2">
-        <v>45796.73958333334</v>
+        <v>45797.73958333334</v>
       </c>
       <c r="B73">
-        <v>743</v>
+        <v>845</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="2">
-        <v>45796.75</v>
+        <v>45797.75</v>
       </c>
       <c r="B74">
-        <v>793</v>
+        <v>900</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="2">
-        <v>45796.76041666666</v>
+        <v>45797.76041666666</v>
       </c>
       <c r="B75">
-        <v>814</v>
+        <v>922</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="2">
-        <v>45796.77083333334</v>
+        <v>45797.77083333334</v>
       </c>
       <c r="B76">
-        <v>855</v>
+        <v>951</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="2">
-        <v>45796.78125</v>
+        <v>45797.78125</v>
       </c>
       <c r="B77">
-        <v>921</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="2">
-        <v>45796.79166666666</v>
+        <v>45797.79166666666</v>
       </c>
       <c r="B78">
-        <v>988</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="2">
-        <v>45796.80208333334</v>
+        <v>45797.80208333334</v>
       </c>
       <c r="B79">
-        <v>1168</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="2">
-        <v>45796.8125</v>
+        <v>45797.8125</v>
       </c>
       <c r="B80">
-        <v>1296</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="2">
-        <v>45796.82291666666</v>
+        <v>45797.82291666666</v>
       </c>
       <c r="B81">
-        <v>1447</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="2">
-        <v>45796.83333333334</v>
+        <v>45797.83333333334</v>
       </c>
       <c r="B82">
-        <v>1086</v>
+        <v>984</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="2">
-        <v>45796.84375</v>
+        <v>45797.84375</v>
       </c>
       <c r="B83">
-        <v>1033</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="2">
-        <v>45796.85416666666</v>
+        <v>45797.85416666666</v>
       </c>
       <c r="B84">
-        <v>939</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="2">
-        <v>45796.86458333334</v>
+        <v>45797.86458333334</v>
       </c>
       <c r="B85">
-        <v>924</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="2">
-        <v>45796.875</v>
+        <v>45797.875</v>
       </c>
       <c r="B86">
-        <v>900</v>
+        <v>970</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="2">
-        <v>45796.88541666666</v>
+        <v>45797.88541666666</v>
       </c>
       <c r="B87">
-        <v>897</v>
+        <v>967</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="2">
-        <v>45796.89583333334</v>
+        <v>45797.89583333334</v>
       </c>
       <c r="B88">
-        <v>895</v>
+        <v>944</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="2">
-        <v>45796.90625</v>
+        <v>45797.90625</v>
       </c>
       <c r="B89">
-        <v>890</v>
+        <v>917</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="2">
-        <v>45796.91666666666</v>
+        <v>45797.91666666666</v>
       </c>
       <c r="B90">
-        <v>670</v>
+        <v>599</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="2">
-        <v>45796.92708333334</v>
+        <v>45797.92708333334</v>
       </c>
       <c r="B91">
-        <v>610</v>
+        <v>552</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="2">
-        <v>45796.9375</v>
+        <v>45797.9375</v>
       </c>
       <c r="B92">
-        <v>553</v>
+        <v>555</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="2">
-        <v>45796.94791666666</v>
+        <v>45797.94791666666</v>
       </c>
       <c r="B93">
-        <v>613</v>
+        <v>549</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="2">
-        <v>45796.95833333334</v>
+        <v>45797.95833333334</v>
       </c>
       <c r="B94">
-        <v>739</v>
+        <v>555</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="2">
-        <v>45796.96875</v>
+        <v>45797.96875</v>
       </c>
       <c r="B95">
-        <v>734</v>
+        <v>542</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="2">
-        <v>45796.97916666666</v>
+        <v>45797.97916666666</v>
       </c>
       <c r="B96">
-        <v>734</v>
+        <v>521</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="2">
-        <v>45796.98958333334</v>
+        <v>45797.98958333334</v>
       </c>
       <c r="B97">
-        <v>738</v>
+        <v>534</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" s="2">
-        <v>45797</v>
+        <v>45798</v>
       </c>
       <c r="B98">
-        <v>669</v>
+        <v>561</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" s="2">
-        <v>45797.01041666666</v>
+        <v>45798.01041666666</v>
       </c>
       <c r="B99">
-        <v>665</v>
+        <v>556</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" s="2">
-        <v>45797.02083333334</v>
+        <v>45798.02083333334</v>
       </c>
       <c r="B100">
-        <v>666</v>
+        <v>555</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" s="2">
-        <v>45797.03125</v>
+        <v>45798.03125</v>
       </c>
       <c r="B101">
-        <v>665</v>
+        <v>553</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" s="2">
-        <v>45797.04166666666</v>
+        <v>45798.04166666666</v>
       </c>
       <c r="B102">
-        <v>666</v>
+        <v>556</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" s="2">
-        <v>45797.05208333334</v>
+        <v>45798.05208333334</v>
       </c>
       <c r="B103">
-        <v>655</v>
+        <v>555</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" s="2">
-        <v>45797.0625</v>
+        <v>45798.0625</v>
       </c>
       <c r="B104">
-        <v>643</v>
+        <v>556</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" s="2">
-        <v>45797.07291666666</v>
+        <v>45798.07291666666</v>
       </c>
       <c r="B105">
-        <v>664</v>
+        <v>555</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" s="2">
-        <v>45797.08333333334</v>
+        <v>45798.08333333334</v>
       </c>
       <c r="B106">
-        <v>659</v>
+        <v>556</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" s="2">
-        <v>45797.09375</v>
+        <v>45798.09375</v>
       </c>
       <c r="B107">
-        <v>659</v>
+        <v>556</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" s="2">
-        <v>45797.10416666666</v>
+        <v>45798.10416666666</v>
       </c>
       <c r="B108">
-        <v>660</v>
+        <v>557</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" s="2">
-        <v>45797.11458333334</v>
+        <v>45798.11458333334</v>
       </c>
       <c r="B109">
-        <v>661</v>
+        <v>557</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" s="2">
-        <v>45797.125</v>
+        <v>45798.125</v>
       </c>
       <c r="B110">
-        <v>660</v>
+        <v>540</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" s="2">
-        <v>45797.13541666666</v>
+        <v>45798.13541666666</v>
       </c>
       <c r="B111">
-        <v>660</v>
+        <v>545</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112" s="2">
-        <v>45797.14583333334</v>
+        <v>45798.14583333334</v>
       </c>
       <c r="B112">
-        <v>676</v>
+        <v>545</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" s="2">
-        <v>45797.15625</v>
+        <v>45798.15625</v>
       </c>
       <c r="B113">
-        <v>670</v>
+        <v>546</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" s="2">
-        <v>45797.16666666666</v>
+        <v>45798.16666666666</v>
       </c>
       <c r="B114">
-        <v>672</v>
+        <v>544</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" s="2">
-        <v>45797.17708333334</v>
+        <v>45798.17708333334</v>
       </c>
       <c r="B115">
-        <v>651</v>
+        <v>546</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" s="2">
-        <v>45797.1875</v>
+        <v>45798.1875</v>
       </c>
       <c r="B116">
-        <v>646</v>
+        <v>550</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117" s="2">
-        <v>45797.19791666666</v>
+        <v>45798.19791666666</v>
       </c>
       <c r="B117">
-        <v>648</v>
+        <v>552</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" s="2">
-        <v>45797.20833333334</v>
+        <v>45798.20833333334</v>
       </c>
       <c r="B118">
-        <v>691</v>
+        <v>579</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" s="2">
-        <v>45797.21875</v>
+        <v>45798.21875</v>
       </c>
       <c r="B119">
-        <v>702</v>
+        <v>569</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" s="2">
-        <v>45797.22916666666</v>
+        <v>45798.22916666666</v>
       </c>
       <c r="B120">
-        <v>722</v>
+        <v>576</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" s="2">
-        <v>45797.23958333334</v>
+        <v>45798.23958333334</v>
       </c>
       <c r="B121">
-        <v>706</v>
+        <v>589</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" s="2">
-        <v>45797.25</v>
+        <v>45798.25</v>
       </c>
       <c r="B122">
-        <v>762</v>
+        <v>728</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123" s="2">
-        <v>45797.26041666666</v>
+        <v>45798.26041666666</v>
       </c>
       <c r="B123">
-        <v>845</v>
+        <v>736</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" s="2">
-        <v>45797.27083333334</v>
+        <v>45798.27083333334</v>
       </c>
       <c r="B124">
-        <v>825</v>
+        <v>737</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" s="2">
-        <v>45797.28125</v>
+        <v>45798.28125</v>
       </c>
       <c r="B125">
-        <v>843</v>
+        <v>747</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" s="2">
-        <v>45797.29166666666</v>
+        <v>45798.29166666666</v>
       </c>
       <c r="B126">
-        <v>914</v>
+        <v>742</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127" s="2">
-        <v>45797.30208333334</v>
+        <v>45798.30208333334</v>
       </c>
       <c r="B127">
-        <v>873</v>
+        <v>628</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128" s="2">
-        <v>45797.3125</v>
+        <v>45798.3125</v>
       </c>
       <c r="B128">
-        <v>894</v>
+        <v>641</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" s="2">
-        <v>45797.32291666666</v>
+        <v>45798.32291666666</v>
       </c>
       <c r="B129">
-        <v>901</v>
+        <v>617</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" s="2">
-        <v>45797.33333333334</v>
+        <v>45798.33333333334</v>
       </c>
       <c r="B130">
-        <v>871</v>
+        <v>660</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" s="2">
-        <v>45797.34375</v>
+        <v>45798.34375</v>
       </c>
       <c r="B131">
-        <v>856</v>
+        <v>664</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132" s="2">
-        <v>45797.35416666666</v>
+        <v>45798.35416666666</v>
       </c>
       <c r="B132">
-        <v>745</v>
+        <v>681</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" s="2">
-        <v>45797.36458333334</v>
+        <v>45798.36458333334</v>
       </c>
       <c r="B133">
-        <v>732</v>
+        <v>636</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134" s="2">
-        <v>45797.375</v>
+        <v>45798.375</v>
       </c>
       <c r="B134">
-        <v>287</v>
+        <v>403</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135" s="2">
-        <v>45797.38541666666</v>
+        <v>45798.38541666666</v>
       </c>
       <c r="B135">
-        <v>255</v>
+        <v>372</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136" s="2">
-        <v>45797.39583333334</v>
+        <v>45798.39583333334</v>
       </c>
       <c r="B136">
-        <v>240</v>
+        <v>376</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137" s="2">
-        <v>45797.40625</v>
+        <v>45798.40625</v>
       </c>
       <c r="B137">
-        <v>0</v>
+        <v>331</v>
       </c>
     </row>
     <row r="138" spans="1:2">
       <c r="A138" s="2">
-        <v>45797.41666666666</v>
+        <v>45798.41666666666</v>
       </c>
       <c r="B138">
-        <v>0</v>
+        <v>353</v>
       </c>
     </row>
     <row r="139" spans="1:2">
       <c r="A139" s="2">
-        <v>45797.42708333334</v>
+        <v>45798.42708333334</v>
       </c>
       <c r="B139">
-        <v>0</v>
+        <v>350</v>
       </c>
     </row>
     <row r="140" spans="1:2">
       <c r="A140" s="2">
-        <v>45797.4375</v>
+        <v>45798.4375</v>
       </c>
       <c r="B140">
-        <v>0</v>
+        <v>297</v>
       </c>
     </row>
     <row r="141" spans="1:2">
       <c r="A141" s="2">
-        <v>45797.44791666666</v>
+        <v>45798.44791666666</v>
       </c>
       <c r="B141">
-        <v>0</v>
+        <v>347</v>
       </c>
     </row>
     <row r="142" spans="1:2">
       <c r="A142" s="2">
-        <v>45797.45833333334</v>
+        <v>45798.45833333334</v>
       </c>
       <c r="B142">
-        <v>0</v>
+        <v>441</v>
       </c>
     </row>
     <row r="143" spans="1:2">
       <c r="A143" s="2">
-        <v>45797.46875</v>
+        <v>45798.46875</v>
       </c>
       <c r="B143">
-        <v>0</v>
+        <v>446</v>
       </c>
     </row>
     <row r="144" spans="1:2">
       <c r="A144" s="2">
-        <v>45797.47916666666</v>
+        <v>45798.47916666666</v>
       </c>
       <c r="B144">
-        <v>0</v>
+        <v>450</v>
       </c>
     </row>
     <row r="145" spans="1:2">
       <c r="A145" s="2">
-        <v>45797.48958333334</v>
+        <v>45798.48958333334</v>
       </c>
       <c r="B145">
-        <v>0</v>
+        <v>450</v>
       </c>
     </row>
     <row r="146" spans="1:2">
       <c r="A146" s="2">
-        <v>45797.5</v>
+        <v>45798.5</v>
       </c>
       <c r="B146">
-        <v>0</v>
+        <v>435</v>
       </c>
     </row>
     <row r="147" spans="1:2">
       <c r="A147" s="2">
-        <v>45797.51041666666</v>
+        <v>45798.51041666666</v>
       </c>
       <c r="B147">
-        <v>0</v>
+        <v>338</v>
       </c>
     </row>
     <row r="148" spans="1:2">
       <c r="A148" s="2">
-        <v>45797.52083333334</v>
+        <v>45798.52083333334</v>
       </c>
       <c r="B148">
-        <v>0</v>
+        <v>421</v>
       </c>
     </row>
     <row r="149" spans="1:2">
       <c r="A149" s="2">
-        <v>45797.53125</v>
+        <v>45798.53125</v>
       </c>
       <c r="B149">
-        <v>0</v>
+        <v>364</v>
       </c>
     </row>
     <row r="150" spans="1:2">
       <c r="A150" s="2">
-        <v>45797.54166666666</v>
+        <v>45798.54166666666</v>
       </c>
       <c r="B150">
-        <v>0</v>
+        <v>307</v>
       </c>
     </row>
     <row r="151" spans="1:2">
       <c r="A151" s="2">
-        <v>45797.55208333334</v>
+        <v>45798.55208333334</v>
       </c>
       <c r="B151">
-        <v>0</v>
+        <v>307</v>
       </c>
     </row>
     <row r="152" spans="1:2">
       <c r="A152" s="2">
-        <v>45797.5625</v>
+        <v>45798.5625</v>
       </c>
       <c r="B152">
-        <v>0</v>
+        <v>304</v>
       </c>
     </row>
     <row r="153" spans="1:2">
       <c r="A153" s="2">
-        <v>45797.57291666666</v>
+        <v>45798.57291666666</v>
       </c>
       <c r="B153">
-        <v>0</v>
+        <v>311</v>
       </c>
     </row>
     <row r="154" spans="1:2">
       <c r="A154" s="2">
-        <v>45797.58333333334</v>
+        <v>45798.58333333334</v>
       </c>
       <c r="B154">
-        <v>0</v>
+        <v>370</v>
       </c>
     </row>
     <row r="155" spans="1:2">
       <c r="A155" s="2">
-        <v>45797.59375</v>
+        <v>45798.59375</v>
       </c>
       <c r="B155">
-        <v>0</v>
+        <v>372</v>
       </c>
     </row>
     <row r="156" spans="1:2">
       <c r="A156" s="2">
-        <v>45797.60416666666</v>
+        <v>45798.60416666666</v>
       </c>
       <c r="B156">
-        <v>0</v>
+        <v>371</v>
       </c>
     </row>
     <row r="157" spans="1:2">
       <c r="A157" s="2">
-        <v>45797.61458333334</v>
+        <v>45798.61458333334</v>
       </c>
       <c r="B157">
-        <v>0</v>
+        <v>395</v>
       </c>
     </row>
     <row r="158" spans="1:2">
       <c r="A158" s="2">
-        <v>45797.625</v>
+        <v>45798.625</v>
       </c>
       <c r="B158">
-        <v>0</v>
+        <v>621</v>
       </c>
     </row>
     <row r="159" spans="1:2">
       <c r="A159" s="2">
-        <v>45797.63541666666</v>
+        <v>45798.63541666666</v>
       </c>
       <c r="B159">
-        <v>0</v>
+        <v>650</v>
       </c>
     </row>
     <row r="160" spans="1:2">
       <c r="A160" s="2">
-        <v>45797.64583333334</v>
+        <v>45798.64583333334</v>
       </c>
       <c r="B160">
-        <v>0</v>
+        <v>639</v>
       </c>
     </row>
     <row r="161" spans="1:2">
       <c r="A161" s="2">
-        <v>45797.65625</v>
+        <v>45798.65625</v>
       </c>
       <c r="B161">
-        <v>0</v>
+        <v>629</v>
       </c>
     </row>
     <row r="162" spans="1:2">
       <c r="A162" s="2">
-        <v>45797.66666666666</v>
+        <v>45798.66666666666</v>
       </c>
       <c r="B162">
-        <v>0</v>
+        <v>614</v>
       </c>
     </row>
     <row r="163" spans="1:2">
       <c r="A163" s="2">
-        <v>45797.67708333334</v>
+        <v>45798.67708333334</v>
       </c>
       <c r="B163">
-        <v>0</v>
+        <v>701</v>
       </c>
     </row>
     <row r="164" spans="1:2">
       <c r="A164" s="2">
-        <v>45797.6875</v>
+        <v>45798.6875</v>
       </c>
       <c r="B164">
-        <v>0</v>
+        <v>700</v>
       </c>
     </row>
     <row r="165" spans="1:2">
       <c r="A165" s="2">
-        <v>45797.69791666666</v>
+        <v>45798.69791666666</v>
       </c>
       <c r="B165">
-        <v>0</v>
+        <v>711</v>
       </c>
     </row>
     <row r="166" spans="1:2">
       <c r="A166" s="2">
-        <v>45797.70833333334</v>
+        <v>45798.70833333334</v>
       </c>
       <c r="B166">
-        <v>0</v>
+        <v>752</v>
       </c>
     </row>
     <row r="167" spans="1:2">
       <c r="A167" s="2">
-        <v>45797.71875</v>
+        <v>45798.71875</v>
       </c>
       <c r="B167">
-        <v>0</v>
+        <v>752</v>
       </c>
     </row>
     <row r="168" spans="1:2">
       <c r="A168" s="2">
-        <v>45797.72916666666</v>
+        <v>45798.72916666666</v>
       </c>
       <c r="B168">
-        <v>0</v>
+        <v>754</v>
       </c>
     </row>
     <row r="169" spans="1:2">
       <c r="A169" s="2">
-        <v>45797.73958333334</v>
+        <v>45798.73958333334</v>
       </c>
       <c r="B169">
-        <v>0</v>
+        <v>765</v>
       </c>
     </row>
     <row r="170" spans="1:2">
       <c r="A170" s="2">
-        <v>45797.75</v>
+        <v>45798.75</v>
       </c>
       <c r="B170">
-        <v>0</v>
+        <v>953</v>
       </c>
     </row>
     <row r="171" spans="1:2">
       <c r="A171" s="2">
-        <v>45797.76041666666</v>
+        <v>45798.76041666666</v>
       </c>
       <c r="B171">
-        <v>0</v>
+        <v>978</v>
       </c>
     </row>
     <row r="172" spans="1:2">
       <c r="A172" s="2">
-        <v>45797.77083333334</v>
+        <v>45798.77083333334</v>
       </c>
       <c r="B172">
-        <v>0</v>
+        <v>982</v>
       </c>
     </row>
     <row r="173" spans="1:2">
       <c r="A173" s="2">
-        <v>45797.78125</v>
+        <v>45798.78125</v>
       </c>
       <c r="B173">
-        <v>0</v>
+        <v>999</v>
       </c>
     </row>
     <row r="174" spans="1:2">
       <c r="A174" s="2">
-        <v>45797.79166666666</v>
+        <v>45798.79166666666</v>
       </c>
       <c r="B174">
-        <v>0</v>
+        <v>968</v>
       </c>
     </row>
     <row r="175" spans="1:2">
       <c r="A175" s="2">
-        <v>45797.80208333334</v>
+        <v>45798.80208333334</v>
       </c>
       <c r="B175">
-        <v>0</v>
+        <v>974</v>
       </c>
     </row>
     <row r="176" spans="1:2">
       <c r="A176" s="2">
-        <v>45797.8125</v>
+        <v>45798.8125</v>
       </c>
       <c r="B176">
-        <v>0</v>
+        <v>974</v>
       </c>
     </row>
     <row r="177" spans="1:2">
       <c r="A177" s="2">
-        <v>45797.82291666666</v>
+        <v>45798.82291666666</v>
       </c>
       <c r="B177">
-        <v>0</v>
+        <v>974</v>
       </c>
     </row>
     <row r="178" spans="1:2">
       <c r="A178" s="2">
-        <v>45797.83333333334</v>
+        <v>45798.83333333334</v>
       </c>
       <c r="B178">
-        <v>0</v>
+        <v>914</v>
       </c>
     </row>
     <row r="179" spans="1:2">
       <c r="A179" s="2">
-        <v>45797.84375</v>
+        <v>45798.84375</v>
       </c>
       <c r="B179">
-        <v>0</v>
+        <v>911</v>
       </c>
     </row>
     <row r="180" spans="1:2">
       <c r="A180" s="2">
-        <v>45797.85416666666</v>
+        <v>45798.85416666666</v>
       </c>
       <c r="B180">
-        <v>0</v>
+        <v>911</v>
       </c>
     </row>
     <row r="181" spans="1:2">
       <c r="A181" s="2">
-        <v>45797.86458333334</v>
+        <v>45798.86458333334</v>
       </c>
       <c r="B181">
-        <v>0</v>
+        <v>911</v>
       </c>
     </row>
     <row r="182" spans="1:2">
       <c r="A182" s="2">
-        <v>45797.875</v>
+        <v>45798.875</v>
       </c>
       <c r="B182">
-        <v>0</v>
+        <v>869</v>
       </c>
     </row>
     <row r="183" spans="1:2">
       <c r="A183" s="2">
-        <v>45797.88541666666</v>
+        <v>45798.88541666666</v>
       </c>
       <c r="B183">
-        <v>0</v>
+        <v>865</v>
       </c>
     </row>
     <row r="184" spans="1:2">
       <c r="A184" s="2">
-        <v>45797.89583333334</v>
+        <v>45798.89583333334</v>
       </c>
       <c r="B184">
-        <v>0</v>
+        <v>867</v>
       </c>
     </row>
     <row r="185" spans="1:2">
       <c r="A185" s="2">
-        <v>45797.90625</v>
+        <v>45798.90625</v>
       </c>
       <c r="B185">
-        <v>0</v>
+        <v>861</v>
       </c>
     </row>
     <row r="186" spans="1:2">
       <c r="A186" s="2">
-        <v>45797.91666666666</v>
+        <v>45798.91666666666</v>
       </c>
       <c r="B186">
-        <v>0</v>
+        <v>691</v>
       </c>
     </row>
     <row r="187" spans="1:2">
       <c r="A187" s="2">
-        <v>45797.92708333334</v>
+        <v>45798.92708333334</v>
       </c>
       <c r="B187">
-        <v>0</v>
+        <v>649</v>
       </c>
     </row>
     <row r="188" spans="1:2">
       <c r="A188" s="2">
-        <v>45797.9375</v>
+        <v>45798.9375</v>
       </c>
       <c r="B188">
-        <v>0</v>
+        <v>652</v>
       </c>
     </row>
     <row r="189" spans="1:2">
       <c r="A189" s="2">
-        <v>45797.94791666666</v>
+        <v>45798.94791666666</v>
       </c>
       <c r="B189">
-        <v>0</v>
+        <v>643</v>
       </c>
     </row>
     <row r="190" spans="1:2">
       <c r="A190" s="2">
-        <v>45797.95833333334</v>
+        <v>45798.95833333334</v>
       </c>
       <c r="B190">
-        <v>0</v>
+        <v>588</v>
       </c>
     </row>
     <row r="191" spans="1:2">
       <c r="A191" s="2">
-        <v>45797.96875</v>
+        <v>45798.96875</v>
       </c>
       <c r="B191">
-        <v>0</v>
+        <v>569</v>
       </c>
     </row>
     <row r="192" spans="1:2">
       <c r="A192" s="2">
-        <v>45797.97916666666</v>
+        <v>45798.97916666666</v>
       </c>
       <c r="B192">
-        <v>0</v>
+        <v>557</v>
       </c>
     </row>
     <row r="193" spans="1:2">
       <c r="A193" s="2">
-        <v>45797.98958333334</v>
+        <v>45798.98958333334</v>
       </c>
       <c r="B193">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2">
+      <c r="A194" s="2">
+        <v>45799</v>
+      </c>
+      <c r="B194">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2">
+      <c r="A195" s="2">
+        <v>45799.01041666666</v>
+      </c>
+      <c r="B195">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2">
+      <c r="A196" s="2">
+        <v>45799.02083333334</v>
+      </c>
+      <c r="B196">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2">
+      <c r="A197" s="2">
+        <v>45799.03125</v>
+      </c>
+      <c r="B197">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2">
+      <c r="A198" s="2">
+        <v>45799.04166666666</v>
+      </c>
+      <c r="B198">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2">
+      <c r="A199" s="2">
+        <v>45799.05208333334</v>
+      </c>
+      <c r="B199">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2">
+      <c r="A200" s="2">
+        <v>45799.0625</v>
+      </c>
+      <c r="B200">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2">
+      <c r="A201" s="2">
+        <v>45799.07291666666</v>
+      </c>
+      <c r="B201">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2">
+      <c r="A202" s="2">
+        <v>45799.08333333334</v>
+      </c>
+      <c r="B202">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2">
+      <c r="A203" s="2">
+        <v>45799.09375</v>
+      </c>
+      <c r="B203">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2">
+      <c r="A204" s="2">
+        <v>45799.10416666666</v>
+      </c>
+      <c r="B204">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2">
+      <c r="A205" s="2">
+        <v>45799.11458333334</v>
+      </c>
+      <c r="B205">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2">
+      <c r="A206" s="2">
+        <v>45799.125</v>
+      </c>
+      <c r="B206">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2">
+      <c r="A207" s="2">
+        <v>45799.13541666666</v>
+      </c>
+      <c r="B207">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2">
+      <c r="A208" s="2">
+        <v>45799.14583333334</v>
+      </c>
+      <c r="B208">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2">
+      <c r="A209" s="2">
+        <v>45799.15625</v>
+      </c>
+      <c r="B209">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2">
+      <c r="A210" s="2">
+        <v>45799.16666666666</v>
+      </c>
+      <c r="B210">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2">
+      <c r="A211" s="2">
+        <v>45799.17708333334</v>
+      </c>
+      <c r="B211">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2">
+      <c r="A212" s="2">
+        <v>45799.1875</v>
+      </c>
+      <c r="B212">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2">
+      <c r="A213" s="2">
+        <v>45799.19791666666</v>
+      </c>
+      <c r="B213">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2">
+      <c r="A214" s="2">
+        <v>45799.20833333334</v>
+      </c>
+      <c r="B214">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2">
+      <c r="A215" s="2">
+        <v>45799.21875</v>
+      </c>
+      <c r="B215">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2">
+      <c r="A216" s="2">
+        <v>45799.22916666666</v>
+      </c>
+      <c r="B216">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2">
+      <c r="A217" s="2">
+        <v>45799.23958333334</v>
+      </c>
+      <c r="B217">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2">
+      <c r="A218" s="2">
+        <v>45799.25</v>
+      </c>
+      <c r="B218">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2">
+      <c r="A219" s="2">
+        <v>45799.26041666666</v>
+      </c>
+      <c r="B219">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2">
+      <c r="A220" s="2">
+        <v>45799.27083333334</v>
+      </c>
+      <c r="B220">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2">
+      <c r="A221" s="2">
+        <v>45799.28125</v>
+      </c>
+      <c r="B221">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2">
+      <c r="A222" s="2">
+        <v>45799.29166666666</v>
+      </c>
+      <c r="B222">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2">
+      <c r="A223" s="2">
+        <v>45799.30208333334</v>
+      </c>
+      <c r="B223">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2">
+      <c r="A224" s="2">
+        <v>45799.3125</v>
+      </c>
+      <c r="B224">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2">
+      <c r="A225" s="2">
+        <v>45799.32291666666</v>
+      </c>
+      <c r="B225">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2">
+      <c r="A226" s="2">
+        <v>45799.33333333334</v>
+      </c>
+      <c r="B226">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2">
+      <c r="A227" s="2">
+        <v>45799.34375</v>
+      </c>
+      <c r="B227">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2">
+      <c r="A228" s="2">
+        <v>45799.35416666666</v>
+      </c>
+      <c r="B228">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2">
+      <c r="A229" s="2">
+        <v>45799.36458333334</v>
+      </c>
+      <c r="B229">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2">
+      <c r="A230" s="2">
+        <v>45799.375</v>
+      </c>
+      <c r="B230">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2">
+      <c r="A231" s="2">
+        <v>45799.38541666666</v>
+      </c>
+      <c r="B231">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2">
+      <c r="A232" s="2">
+        <v>45799.39583333334</v>
+      </c>
+      <c r="B232">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2">
+      <c r="A233" s="2">
+        <v>45799.40625</v>
+      </c>
+      <c r="B233">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2">
+      <c r="A234" s="2">
+        <v>45799.41666666666</v>
+      </c>
+      <c r="B234">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2">
+      <c r="A235" s="2">
+        <v>45799.42708333334</v>
+      </c>
+      <c r="B235">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2">
+      <c r="A236" s="2">
+        <v>45799.4375</v>
+      </c>
+      <c r="B236">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2">
+      <c r="A237" s="2">
+        <v>45799.44791666666</v>
+      </c>
+      <c r="B237">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2">
+      <c r="A238" s="2">
+        <v>45799.45833333334</v>
+      </c>
+      <c r="B238">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2">
+      <c r="A239" s="2">
+        <v>45799.46875</v>
+      </c>
+      <c r="B239">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2">
+      <c r="A240" s="2">
+        <v>45799.47916666666</v>
+      </c>
+      <c r="B240">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2">
+      <c r="A241" s="2">
+        <v>45799.48958333334</v>
+      </c>
+      <c r="B241">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2">
+      <c r="A242" s="2">
+        <v>45799.5</v>
+      </c>
+      <c r="B242">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2">
+      <c r="A243" s="2">
+        <v>45799.51041666666</v>
+      </c>
+      <c r="B243">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2">
+      <c r="A244" s="2">
+        <v>45799.52083333334</v>
+      </c>
+      <c r="B244">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2">
+      <c r="A245" s="2">
+        <v>45799.53125</v>
+      </c>
+      <c r="B245">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2">
+      <c r="A246" s="2">
+        <v>45799.54166666666</v>
+      </c>
+      <c r="B246">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2">
+      <c r="A247" s="2">
+        <v>45799.55208333334</v>
+      </c>
+      <c r="B247">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2">
+      <c r="A248" s="2">
+        <v>45799.5625</v>
+      </c>
+      <c r="B248">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2">
+      <c r="A249" s="2">
+        <v>45799.57291666666</v>
+      </c>
+      <c r="B249">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2">
+      <c r="A250" s="2">
+        <v>45799.58333333334</v>
+      </c>
+      <c r="B250">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2">
+      <c r="A251" s="2">
+        <v>45799.59375</v>
+      </c>
+      <c r="B251">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2">
+      <c r="A252" s="2">
+        <v>45799.60416666666</v>
+      </c>
+      <c r="B252">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2">
+      <c r="A253" s="2">
+        <v>45799.61458333334</v>
+      </c>
+      <c r="B253">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2">
+      <c r="A254" s="2">
+        <v>45799.625</v>
+      </c>
+      <c r="B254">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2">
+      <c r="A255" s="2">
+        <v>45799.63541666666</v>
+      </c>
+      <c r="B255">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2">
+      <c r="A256" s="2">
+        <v>45799.64583333334</v>
+      </c>
+      <c r="B256">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2">
+      <c r="A257" s="2">
+        <v>45799.65625</v>
+      </c>
+      <c r="B257">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2">
+      <c r="A258" s="2">
+        <v>45799.66666666666</v>
+      </c>
+      <c r="B258">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2">
+      <c r="A259" s="2">
+        <v>45799.67708333334</v>
+      </c>
+      <c r="B259">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2">
+      <c r="A260" s="2">
+        <v>45799.6875</v>
+      </c>
+      <c r="B260">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2">
+      <c r="A261" s="2">
+        <v>45799.69791666666</v>
+      </c>
+      <c r="B261">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2">
+      <c r="A262" s="2">
+        <v>45799.70833333334</v>
+      </c>
+      <c r="B262">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2">
+      <c r="A263" s="2">
+        <v>45799.71875</v>
+      </c>
+      <c r="B263">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2">
+      <c r="A264" s="2">
+        <v>45799.72916666666</v>
+      </c>
+      <c r="B264">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2">
+      <c r="A265" s="2">
+        <v>45799.73958333334</v>
+      </c>
+      <c r="B265">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2">
+      <c r="A266" s="2">
+        <v>45799.75</v>
+      </c>
+      <c r="B266">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2">
+      <c r="A267" s="2">
+        <v>45799.76041666666</v>
+      </c>
+      <c r="B267">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2">
+      <c r="A268" s="2">
+        <v>45799.77083333334</v>
+      </c>
+      <c r="B268">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2">
+      <c r="A269" s="2">
+        <v>45799.78125</v>
+      </c>
+      <c r="B269">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2">
+      <c r="A270" s="2">
+        <v>45799.79166666666</v>
+      </c>
+      <c r="B270">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2">
+      <c r="A271" s="2">
+        <v>45799.80208333334</v>
+      </c>
+      <c r="B271">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2">
+      <c r="A272" s="2">
+        <v>45799.8125</v>
+      </c>
+      <c r="B272">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2">
+      <c r="A273" s="2">
+        <v>45799.82291666666</v>
+      </c>
+      <c r="B273">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2">
+      <c r="A274" s="2">
+        <v>45799.83333333334</v>
+      </c>
+      <c r="B274">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2">
+      <c r="A275" s="2">
+        <v>45799.84375</v>
+      </c>
+      <c r="B275">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2">
+      <c r="A276" s="2">
+        <v>45799.85416666666</v>
+      </c>
+      <c r="B276">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2">
+      <c r="A277" s="2">
+        <v>45799.86458333334</v>
+      </c>
+      <c r="B277">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2">
+      <c r="A278" s="2">
+        <v>45799.875</v>
+      </c>
+      <c r="B278">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2">
+      <c r="A279" s="2">
+        <v>45799.88541666666</v>
+      </c>
+      <c r="B279">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2">
+      <c r="A280" s="2">
+        <v>45799.89583333334</v>
+      </c>
+      <c r="B280">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2">
+      <c r="A281" s="2">
+        <v>45799.90625</v>
+      </c>
+      <c r="B281">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2">
+      <c r="A282" s="2">
+        <v>45799.91666666666</v>
+      </c>
+      <c r="B282">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2">
+      <c r="A283" s="2">
+        <v>45799.92708333334</v>
+      </c>
+      <c r="B283">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2">
+      <c r="A284" s="2">
+        <v>45799.9375</v>
+      </c>
+      <c r="B284">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2">
+      <c r="A285" s="2">
+        <v>45799.94791666666</v>
+      </c>
+      <c r="B285">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2">
+      <c r="A286" s="2">
+        <v>45799.95833333334</v>
+      </c>
+      <c r="B286">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2">
+      <c r="A287" s="2">
+        <v>45799.96875</v>
+      </c>
+      <c r="B287">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2">
+      <c r="A288" s="2">
+        <v>45799.97916666666</v>
+      </c>
+      <c r="B288">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2">
+      <c r="A289" s="2">
+        <v>45799.98958333334</v>
+      </c>
+      <c r="B289">
         <v>0</v>
       </c>
     </row>

--- a/data_fetching/Entsoe/Actual_Production_Hydro_Water_Reservoir.xlsx
+++ b/data_fetching/Entsoe/Actual_Production_Hydro_Water_Reservoir.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B289"/>
+  <dimension ref="A1:B193"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -397,2305 +397,1537 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2">
-        <v>45797</v>
+        <v>45806</v>
       </c>
       <c r="B2">
-        <v>669</v>
+        <v>436</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2">
-        <v>45797.01041666666</v>
+        <v>45806.01041666666</v>
       </c>
       <c r="B3">
-        <v>665</v>
+        <v>427</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2">
-        <v>45797.02083333334</v>
+        <v>45806.02083333334</v>
       </c>
       <c r="B4">
-        <v>666</v>
+        <v>433</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2">
-        <v>45797.03125</v>
+        <v>45806.03125</v>
       </c>
       <c r="B5">
-        <v>665</v>
+        <v>439</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2">
-        <v>45797.04166666666</v>
+        <v>45806.04166666666</v>
       </c>
       <c r="B6">
-        <v>666</v>
+        <v>439</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2">
-        <v>45797.05208333334</v>
+        <v>45806.05208333334</v>
       </c>
       <c r="B7">
-        <v>655</v>
+        <v>439</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2">
-        <v>45797.0625</v>
+        <v>45806.0625</v>
       </c>
       <c r="B8">
-        <v>643</v>
+        <v>429</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2">
-        <v>45797.07291666666</v>
+        <v>45806.07291666666</v>
       </c>
       <c r="B9">
-        <v>664</v>
+        <v>429</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2">
-        <v>45797.08333333334</v>
+        <v>45806.08333333334</v>
       </c>
       <c r="B10">
-        <v>659</v>
+        <v>435</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2">
-        <v>45797.09375</v>
+        <v>45806.09375</v>
       </c>
       <c r="B11">
-        <v>659</v>
+        <v>433</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2">
-        <v>45797.10416666666</v>
+        <v>45806.10416666666</v>
       </c>
       <c r="B12">
-        <v>660</v>
+        <v>429</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2">
-        <v>45797.11458333334</v>
+        <v>45806.11458333334</v>
       </c>
       <c r="B13">
-        <v>661</v>
+        <v>440</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2">
-        <v>45797.125</v>
+        <v>45806.125</v>
       </c>
       <c r="B14">
-        <v>660</v>
+        <v>493</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2">
-        <v>45797.13541666666</v>
+        <v>45806.13541666666</v>
       </c>
       <c r="B15">
-        <v>660</v>
+        <v>490</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2">
-        <v>45797.14583333334</v>
+        <v>45806.14583333334</v>
       </c>
       <c r="B16">
-        <v>676</v>
+        <v>506</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2">
-        <v>45797.15625</v>
+        <v>45806.15625</v>
       </c>
       <c r="B17">
-        <v>670</v>
+        <v>484</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2">
-        <v>45797.16666666666</v>
+        <v>45806.16666666666</v>
       </c>
       <c r="B18">
-        <v>672</v>
+        <v>460</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2">
-        <v>45797.17708333334</v>
+        <v>45806.17708333334</v>
       </c>
       <c r="B19">
-        <v>651</v>
+        <v>453</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2">
-        <v>45797.1875</v>
+        <v>45806.1875</v>
       </c>
       <c r="B20">
-        <v>646</v>
+        <v>454</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2">
-        <v>45797.19791666666</v>
+        <v>45806.19791666666</v>
       </c>
       <c r="B21">
-        <v>648</v>
+        <v>458</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2">
-        <v>45797.20833333334</v>
+        <v>45806.20833333334</v>
       </c>
       <c r="B22">
-        <v>691</v>
+        <v>500</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2">
-        <v>45797.21875</v>
+        <v>45806.21875</v>
       </c>
       <c r="B23">
-        <v>702</v>
+        <v>499</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2">
-        <v>45797.22916666666</v>
+        <v>45806.22916666666</v>
       </c>
       <c r="B24">
-        <v>722</v>
+        <v>510</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2">
-        <v>45797.23958333334</v>
+        <v>45806.23958333334</v>
       </c>
       <c r="B25">
-        <v>706</v>
+        <v>523</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2">
-        <v>45797.25</v>
+        <v>45806.25</v>
       </c>
       <c r="B26">
-        <v>762</v>
+        <v>558</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2">
-        <v>45797.26041666666</v>
+        <v>45806.26041666666</v>
       </c>
       <c r="B27">
-        <v>845</v>
+        <v>560</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2">
-        <v>45797.27083333334</v>
+        <v>45806.27083333334</v>
       </c>
       <c r="B28">
-        <v>825</v>
+        <v>565</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2">
-        <v>45797.28125</v>
+        <v>45806.28125</v>
       </c>
       <c r="B29">
-        <v>843</v>
+        <v>563</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2">
-        <v>45797.29166666666</v>
+        <v>45806.29166666666</v>
       </c>
       <c r="B30">
-        <v>914</v>
+        <v>513</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2">
-        <v>45797.30208333334</v>
+        <v>45806.30208333334</v>
       </c>
       <c r="B31">
-        <v>873</v>
+        <v>514</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2">
-        <v>45797.3125</v>
+        <v>45806.3125</v>
       </c>
       <c r="B32">
-        <v>894</v>
+        <v>547</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2">
-        <v>45797.32291666666</v>
+        <v>45806.32291666666</v>
       </c>
       <c r="B33">
-        <v>901</v>
+        <v>546</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2">
-        <v>45797.33333333334</v>
+        <v>45806.33333333334</v>
       </c>
       <c r="B34">
-        <v>871</v>
+        <v>381</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="2">
-        <v>45797.34375</v>
+        <v>45806.34375</v>
       </c>
       <c r="B35">
-        <v>856</v>
+        <v>369</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="2">
-        <v>45797.35416666666</v>
+        <v>45806.35416666666</v>
       </c>
       <c r="B36">
-        <v>745</v>
+        <v>447</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="2">
-        <v>45797.36458333334</v>
+        <v>45806.36458333334</v>
       </c>
       <c r="B37">
-        <v>732</v>
+        <v>461</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="2">
-        <v>45797.375</v>
+        <v>45806.375</v>
       </c>
       <c r="B38">
-        <v>287</v>
+        <v>370</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="2">
-        <v>45797.38541666666</v>
+        <v>45806.38541666666</v>
       </c>
       <c r="B39">
-        <v>255</v>
+        <v>505</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="2">
-        <v>45797.39583333334</v>
+        <v>45806.39583333334</v>
       </c>
       <c r="B40">
-        <v>240</v>
+        <v>614</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="2">
-        <v>45797.40625</v>
+        <v>45806.40625</v>
       </c>
       <c r="B41">
-        <v>224</v>
+        <v>608</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="2">
-        <v>45797.41666666666</v>
+        <v>45806.41666666666</v>
       </c>
       <c r="B42">
-        <v>236</v>
+        <v>596</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="2">
-        <v>45797.42708333334</v>
+        <v>45806.42708333334</v>
       </c>
       <c r="B43">
-        <v>212</v>
+        <v>569</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="2">
-        <v>45797.4375</v>
+        <v>45806.4375</v>
       </c>
       <c r="B44">
-        <v>255</v>
+        <v>412</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="2">
-        <v>45797.44791666666</v>
+        <v>45806.44791666666</v>
       </c>
       <c r="B45">
-        <v>254</v>
+        <v>371</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="2">
-        <v>45797.45833333334</v>
+        <v>45806.45833333334</v>
       </c>
       <c r="B46">
-        <v>111</v>
+        <v>333</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="2">
-        <v>45797.46875</v>
+        <v>45806.46875</v>
       </c>
       <c r="B47">
-        <v>103</v>
+        <v>340</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="2">
-        <v>45797.47916666666</v>
+        <v>45806.47916666666</v>
       </c>
       <c r="B48">
-        <v>114</v>
+        <v>335</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="2">
-        <v>45797.48958333334</v>
+        <v>45806.48958333334</v>
       </c>
       <c r="B49">
-        <v>116</v>
+        <v>338</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="2">
-        <v>45797.5</v>
+        <v>45806.5</v>
       </c>
       <c r="B50">
-        <v>107</v>
+        <v>320</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="2">
-        <v>45797.51041666666</v>
+        <v>45806.51041666666</v>
       </c>
       <c r="B51">
-        <v>158</v>
+        <v>305</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="2">
-        <v>45797.52083333334</v>
+        <v>45806.52083333334</v>
       </c>
       <c r="B52">
-        <v>171</v>
+        <v>317</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="2">
-        <v>45797.53125</v>
+        <v>45806.53125</v>
       </c>
       <c r="B53">
-        <v>174</v>
+        <v>320</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="2">
-        <v>45797.54166666666</v>
+        <v>45806.54166666666</v>
       </c>
       <c r="B54">
-        <v>195</v>
+        <v>384</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="2">
-        <v>45797.55208333334</v>
+        <v>45806.55208333334</v>
       </c>
       <c r="B55">
-        <v>202</v>
+        <v>407</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="2">
-        <v>45797.5625</v>
+        <v>45806.5625</v>
       </c>
       <c r="B56">
-        <v>204</v>
+        <v>397</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="2">
-        <v>45797.57291666666</v>
+        <v>45806.57291666666</v>
       </c>
       <c r="B57">
-        <v>222</v>
+        <v>376</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="2">
-        <v>45797.58333333334</v>
+        <v>45806.58333333334</v>
       </c>
       <c r="B58">
-        <v>203</v>
+        <v>372</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="2">
-        <v>45797.59375</v>
+        <v>45806.59375</v>
       </c>
       <c r="B59">
-        <v>223</v>
+        <v>362</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="2">
-        <v>45797.60416666666</v>
+        <v>45806.60416666666</v>
       </c>
       <c r="B60">
-        <v>247</v>
+        <v>361</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="2">
-        <v>45797.61458333334</v>
+        <v>45806.61458333334</v>
       </c>
       <c r="B61">
-        <v>273</v>
+        <v>359</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="2">
-        <v>45797.625</v>
+        <v>45806.625</v>
       </c>
       <c r="B62">
-        <v>290</v>
+        <v>308</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="2">
-        <v>45797.63541666666</v>
+        <v>45806.63541666666</v>
       </c>
       <c r="B63">
-        <v>313</v>
+        <v>297</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="2">
-        <v>45797.64583333334</v>
+        <v>45806.64583333334</v>
       </c>
       <c r="B64">
-        <v>272</v>
+        <v>295</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="2">
-        <v>45797.65625</v>
+        <v>45806.65625</v>
       </c>
       <c r="B65">
-        <v>296</v>
+        <v>300</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="2">
-        <v>45797.66666666666</v>
+        <v>45806.66666666666</v>
       </c>
       <c r="B66">
-        <v>532</v>
+        <v>292</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="2">
-        <v>45797.67708333334</v>
+        <v>45806.67708333334</v>
       </c>
       <c r="B67">
-        <v>575</v>
+        <v>325</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="2">
-        <v>45797.6875</v>
+        <v>45806.6875</v>
       </c>
       <c r="B68">
-        <v>593</v>
+        <v>308</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="2">
-        <v>45797.69791666666</v>
+        <v>45806.69791666666</v>
       </c>
       <c r="B69">
-        <v>618</v>
+        <v>340</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="2">
-        <v>45797.70833333334</v>
+        <v>45806.70833333334</v>
       </c>
       <c r="B70">
-        <v>794</v>
+        <v>390</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="2">
-        <v>45797.71875</v>
+        <v>45806.71875</v>
       </c>
       <c r="B71">
-        <v>837</v>
+        <v>409</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="2">
-        <v>45797.72916666666</v>
+        <v>45806.72916666666</v>
       </c>
       <c r="B72">
-        <v>828</v>
+        <v>420</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="2">
-        <v>45797.73958333334</v>
+        <v>45806.73958333334</v>
       </c>
       <c r="B73">
-        <v>845</v>
+        <v>478</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="2">
-        <v>45797.75</v>
+        <v>45806.75</v>
       </c>
       <c r="B74">
-        <v>900</v>
+        <v>667</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="2">
-        <v>45797.76041666666</v>
+        <v>45806.76041666666</v>
       </c>
       <c r="B75">
-        <v>922</v>
+        <v>677</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="2">
-        <v>45797.77083333334</v>
+        <v>45806.77083333334</v>
       </c>
       <c r="B76">
-        <v>951</v>
+        <v>690</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="2">
-        <v>45797.78125</v>
+        <v>45806.78125</v>
       </c>
       <c r="B77">
-        <v>1031</v>
+        <v>706</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="2">
-        <v>45797.79166666666</v>
+        <v>45806.79166666666</v>
       </c>
       <c r="B78">
-        <v>1013</v>
+        <v>694</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="2">
-        <v>45797.80208333334</v>
+        <v>45806.80208333334</v>
       </c>
       <c r="B79">
-        <v>1054</v>
+        <v>693</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="2">
-        <v>45797.8125</v>
+        <v>45806.8125</v>
       </c>
       <c r="B80">
-        <v>1056</v>
+        <v>680</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="2">
-        <v>45797.82291666666</v>
+        <v>45806.82291666666</v>
       </c>
       <c r="B81">
-        <v>1061</v>
+        <v>671</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="2">
-        <v>45797.83333333334</v>
+        <v>45806.83333333334</v>
       </c>
       <c r="B82">
-        <v>984</v>
+        <v>648</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="2">
-        <v>45797.84375</v>
+        <v>45806.84375</v>
       </c>
       <c r="B83">
-        <v>1002</v>
+        <v>650</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="2">
-        <v>45797.85416666666</v>
+        <v>45806.85416666666</v>
       </c>
       <c r="B84">
-        <v>1012</v>
+        <v>647</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="2">
-        <v>45797.86458333334</v>
+        <v>45806.86458333334</v>
       </c>
       <c r="B85">
-        <v>1007</v>
+        <v>645</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="2">
-        <v>45797.875</v>
+        <v>45806.875</v>
       </c>
       <c r="B86">
-        <v>970</v>
+        <v>590</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="2">
-        <v>45797.88541666666</v>
+        <v>45806.88541666666</v>
       </c>
       <c r="B87">
-        <v>967</v>
+        <v>540</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="2">
-        <v>45797.89583333334</v>
+        <v>45806.89583333334</v>
       </c>
       <c r="B88">
-        <v>944</v>
+        <v>516</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="2">
-        <v>45797.90625</v>
+        <v>45806.90625</v>
       </c>
       <c r="B89">
-        <v>917</v>
+        <v>516</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="2">
-        <v>45797.91666666666</v>
+        <v>45806.91666666666</v>
       </c>
       <c r="B90">
-        <v>599</v>
+        <v>482</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="2">
-        <v>45797.92708333334</v>
+        <v>45806.92708333334</v>
       </c>
       <c r="B91">
-        <v>552</v>
+        <v>455</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="2">
-        <v>45797.9375</v>
+        <v>45806.9375</v>
       </c>
       <c r="B92">
-        <v>555</v>
+        <v>455</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="2">
-        <v>45797.94791666666</v>
+        <v>45806.94791666666</v>
       </c>
       <c r="B93">
-        <v>549</v>
+        <v>447</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="2">
-        <v>45797.95833333334</v>
+        <v>45806.95833333334</v>
       </c>
       <c r="B94">
-        <v>555</v>
+        <v>400</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="2">
-        <v>45797.96875</v>
+        <v>45806.96875</v>
       </c>
       <c r="B95">
-        <v>542</v>
+        <v>395</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="2">
-        <v>45797.97916666666</v>
+        <v>45806.97916666666</v>
       </c>
       <c r="B96">
-        <v>521</v>
+        <v>388</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="2">
-        <v>45797.98958333334</v>
+        <v>45806.98958333334</v>
       </c>
       <c r="B97">
-        <v>534</v>
+        <v>371</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" s="2">
-        <v>45798</v>
+        <v>45807</v>
       </c>
       <c r="B98">
-        <v>561</v>
+        <v>393</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" s="2">
-        <v>45798.01041666666</v>
+        <v>45807.01041666666</v>
       </c>
       <c r="B99">
-        <v>556</v>
+        <v>378</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" s="2">
-        <v>45798.02083333334</v>
+        <v>45807.02083333334</v>
       </c>
       <c r="B100">
-        <v>555</v>
+        <v>361</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" s="2">
-        <v>45798.03125</v>
+        <v>45807.03125</v>
       </c>
       <c r="B101">
-        <v>553</v>
+        <v>360</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" s="2">
-        <v>45798.04166666666</v>
+        <v>45807.04166666666</v>
       </c>
       <c r="B102">
-        <v>556</v>
+        <v>387</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" s="2">
-        <v>45798.05208333334</v>
+        <v>45807.05208333334</v>
       </c>
       <c r="B103">
-        <v>555</v>
+        <v>366</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" s="2">
-        <v>45798.0625</v>
+        <v>45807.0625</v>
       </c>
       <c r="B104">
-        <v>556</v>
+        <v>361</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" s="2">
-        <v>45798.07291666666</v>
+        <v>45807.07291666666</v>
       </c>
       <c r="B105">
-        <v>555</v>
+        <v>343</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" s="2">
-        <v>45798.08333333334</v>
+        <v>45807.08333333334</v>
       </c>
       <c r="B106">
-        <v>556</v>
+        <v>339</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" s="2">
-        <v>45798.09375</v>
+        <v>45807.09375</v>
       </c>
       <c r="B107">
-        <v>556</v>
+        <v>321</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" s="2">
-        <v>45798.10416666666</v>
+        <v>45807.10416666666</v>
       </c>
       <c r="B108">
-        <v>557</v>
+        <v>310</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" s="2">
-        <v>45798.11458333334</v>
+        <v>45807.11458333334</v>
       </c>
       <c r="B109">
-        <v>557</v>
+        <v>289</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" s="2">
-        <v>45798.125</v>
+        <v>45807.125</v>
       </c>
       <c r="B110">
-        <v>540</v>
+        <v>276</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" s="2">
-        <v>45798.13541666666</v>
+        <v>45807.13541666666</v>
       </c>
       <c r="B111">
-        <v>545</v>
+        <v>289</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112" s="2">
-        <v>45798.14583333334</v>
+        <v>45807.14583333334</v>
       </c>
       <c r="B112">
-        <v>545</v>
+        <v>299</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" s="2">
-        <v>45798.15625</v>
+        <v>45807.15625</v>
       </c>
       <c r="B113">
-        <v>546</v>
+        <v>295</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" s="2">
-        <v>45798.16666666666</v>
+        <v>45807.16666666666</v>
       </c>
       <c r="B114">
-        <v>544</v>
+        <v>300</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" s="2">
-        <v>45798.17708333334</v>
+        <v>45807.17708333334</v>
       </c>
       <c r="B115">
-        <v>546</v>
+        <v>295</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" s="2">
-        <v>45798.1875</v>
+        <v>45807.1875</v>
       </c>
       <c r="B116">
-        <v>550</v>
+        <v>304</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117" s="2">
-        <v>45798.19791666666</v>
+        <v>45807.19791666666</v>
       </c>
       <c r="B117">
-        <v>552</v>
+        <v>326</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" s="2">
-        <v>45798.20833333334</v>
+        <v>45807.20833333334</v>
       </c>
       <c r="B118">
-        <v>579</v>
+        <v>397</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" s="2">
-        <v>45798.21875</v>
+        <v>45807.21875</v>
       </c>
       <c r="B119">
-        <v>569</v>
+        <v>399</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" s="2">
-        <v>45798.22916666666</v>
+        <v>45807.22916666666</v>
       </c>
       <c r="B120">
-        <v>576</v>
+        <v>405</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" s="2">
-        <v>45798.23958333334</v>
+        <v>45807.23958333334</v>
       </c>
       <c r="B121">
-        <v>589</v>
+        <v>411</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" s="2">
-        <v>45798.25</v>
+        <v>45807.25</v>
       </c>
       <c r="B122">
-        <v>728</v>
+        <v>522</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123" s="2">
-        <v>45798.26041666666</v>
+        <v>45807.26041666666</v>
       </c>
       <c r="B123">
-        <v>736</v>
+        <v>547</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" s="2">
-        <v>45798.27083333334</v>
+        <v>45807.27083333334</v>
       </c>
       <c r="B124">
-        <v>737</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" s="2">
-        <v>45798.28125</v>
+        <v>45807.28125</v>
       </c>
       <c r="B125">
-        <v>747</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" s="2">
-        <v>45798.29166666666</v>
+        <v>45807.29166666666</v>
       </c>
       <c r="B126">
-        <v>742</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127" s="2">
-        <v>45798.30208333334</v>
+        <v>45807.30208333334</v>
       </c>
       <c r="B127">
-        <v>628</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128" s="2">
-        <v>45798.3125</v>
+        <v>45807.3125</v>
       </c>
       <c r="B128">
-        <v>641</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" s="2">
-        <v>45798.32291666666</v>
+        <v>45807.32291666666</v>
       </c>
       <c r="B129">
-        <v>617</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" s="2">
-        <v>45798.33333333334</v>
+        <v>45807.33333333334</v>
       </c>
       <c r="B130">
-        <v>660</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" s="2">
-        <v>45798.34375</v>
+        <v>45807.34375</v>
       </c>
       <c r="B131">
-        <v>664</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132" s="2">
-        <v>45798.35416666666</v>
+        <v>45807.35416666666</v>
       </c>
       <c r="B132">
-        <v>681</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" s="2">
-        <v>45798.36458333334</v>
+        <v>45807.36458333334</v>
       </c>
       <c r="B133">
-        <v>636</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134" s="2">
-        <v>45798.375</v>
+        <v>45807.375</v>
       </c>
       <c r="B134">
-        <v>403</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135" s="2">
-        <v>45798.38541666666</v>
+        <v>45807.38541666666</v>
       </c>
       <c r="B135">
-        <v>372</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136" s="2">
-        <v>45798.39583333334</v>
+        <v>45807.39583333334</v>
       </c>
       <c r="B136">
-        <v>376</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137" s="2">
-        <v>45798.40625</v>
+        <v>45807.40625</v>
       </c>
       <c r="B137">
-        <v>331</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:2">
       <c r="A138" s="2">
-        <v>45798.41666666666</v>
+        <v>45807.41666666666</v>
       </c>
       <c r="B138">
-        <v>353</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:2">
       <c r="A139" s="2">
-        <v>45798.42708333334</v>
+        <v>45807.42708333334</v>
       </c>
       <c r="B139">
-        <v>350</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:2">
       <c r="A140" s="2">
-        <v>45798.4375</v>
+        <v>45807.4375</v>
       </c>
       <c r="B140">
-        <v>297</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:2">
       <c r="A141" s="2">
-        <v>45798.44791666666</v>
+        <v>45807.44791666666</v>
       </c>
       <c r="B141">
-        <v>347</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:2">
       <c r="A142" s="2">
-        <v>45798.45833333334</v>
+        <v>45807.45833333334</v>
       </c>
       <c r="B142">
-        <v>441</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:2">
       <c r="A143" s="2">
-        <v>45798.46875</v>
+        <v>45807.46875</v>
       </c>
       <c r="B143">
-        <v>446</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:2">
       <c r="A144" s="2">
-        <v>45798.47916666666</v>
+        <v>45807.47916666666</v>
       </c>
       <c r="B144">
-        <v>450</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:2">
       <c r="A145" s="2">
-        <v>45798.48958333334</v>
+        <v>45807.48958333334</v>
       </c>
       <c r="B145">
-        <v>450</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:2">
       <c r="A146" s="2">
-        <v>45798.5</v>
+        <v>45807.5</v>
       </c>
       <c r="B146">
-        <v>435</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:2">
       <c r="A147" s="2">
-        <v>45798.51041666666</v>
+        <v>45807.51041666666</v>
       </c>
       <c r="B147">
-        <v>338</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:2">
       <c r="A148" s="2">
-        <v>45798.52083333334</v>
+        <v>45807.52083333334</v>
       </c>
       <c r="B148">
-        <v>421</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:2">
       <c r="A149" s="2">
-        <v>45798.53125</v>
+        <v>45807.53125</v>
       </c>
       <c r="B149">
-        <v>364</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:2">
       <c r="A150" s="2">
-        <v>45798.54166666666</v>
+        <v>45807.54166666666</v>
       </c>
       <c r="B150">
-        <v>307</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:2">
       <c r="A151" s="2">
-        <v>45798.55208333334</v>
+        <v>45807.55208333334</v>
       </c>
       <c r="B151">
-        <v>307</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:2">
       <c r="A152" s="2">
-        <v>45798.5625</v>
+        <v>45807.5625</v>
       </c>
       <c r="B152">
-        <v>304</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:2">
       <c r="A153" s="2">
-        <v>45798.57291666666</v>
+        <v>45807.57291666666</v>
       </c>
       <c r="B153">
-        <v>311</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:2">
       <c r="A154" s="2">
-        <v>45798.58333333334</v>
+        <v>45807.58333333334</v>
       </c>
       <c r="B154">
-        <v>370</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:2">
       <c r="A155" s="2">
-        <v>45798.59375</v>
+        <v>45807.59375</v>
       </c>
       <c r="B155">
-        <v>372</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:2">
       <c r="A156" s="2">
-        <v>45798.60416666666</v>
+        <v>45807.60416666666</v>
       </c>
       <c r="B156">
-        <v>371</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:2">
       <c r="A157" s="2">
-        <v>45798.61458333334</v>
+        <v>45807.61458333334</v>
       </c>
       <c r="B157">
-        <v>395</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:2">
       <c r="A158" s="2">
-        <v>45798.625</v>
+        <v>45807.625</v>
       </c>
       <c r="B158">
-        <v>621</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:2">
       <c r="A159" s="2">
-        <v>45798.63541666666</v>
+        <v>45807.63541666666</v>
       </c>
       <c r="B159">
-        <v>650</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:2">
       <c r="A160" s="2">
-        <v>45798.64583333334</v>
+        <v>45807.64583333334</v>
       </c>
       <c r="B160">
-        <v>639</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:2">
       <c r="A161" s="2">
-        <v>45798.65625</v>
+        <v>45807.65625</v>
       </c>
       <c r="B161">
-        <v>629</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:2">
       <c r="A162" s="2">
-        <v>45798.66666666666</v>
+        <v>45807.66666666666</v>
       </c>
       <c r="B162">
-        <v>614</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:2">
       <c r="A163" s="2">
-        <v>45798.67708333334</v>
+        <v>45807.67708333334</v>
       </c>
       <c r="B163">
-        <v>701</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:2">
       <c r="A164" s="2">
-        <v>45798.6875</v>
+        <v>45807.6875</v>
       </c>
       <c r="B164">
-        <v>700</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:2">
       <c r="A165" s="2">
-        <v>45798.69791666666</v>
+        <v>45807.69791666666</v>
       </c>
       <c r="B165">
-        <v>711</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:2">
       <c r="A166" s="2">
-        <v>45798.70833333334</v>
+        <v>45807.70833333334</v>
       </c>
       <c r="B166">
-        <v>752</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:2">
       <c r="A167" s="2">
-        <v>45798.71875</v>
+        <v>45807.71875</v>
       </c>
       <c r="B167">
-        <v>752</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:2">
       <c r="A168" s="2">
-        <v>45798.72916666666</v>
+        <v>45807.72916666666</v>
       </c>
       <c r="B168">
-        <v>754</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:2">
       <c r="A169" s="2">
-        <v>45798.73958333334</v>
+        <v>45807.73958333334</v>
       </c>
       <c r="B169">
-        <v>765</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:2">
       <c r="A170" s="2">
-        <v>45798.75</v>
+        <v>45807.75</v>
       </c>
       <c r="B170">
-        <v>953</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:2">
       <c r="A171" s="2">
-        <v>45798.76041666666</v>
+        <v>45807.76041666666</v>
       </c>
       <c r="B171">
-        <v>978</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:2">
       <c r="A172" s="2">
-        <v>45798.77083333334</v>
+        <v>45807.77083333334</v>
       </c>
       <c r="B172">
-        <v>982</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:2">
       <c r="A173" s="2">
-        <v>45798.78125</v>
+        <v>45807.78125</v>
       </c>
       <c r="B173">
-        <v>999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:2">
       <c r="A174" s="2">
-        <v>45798.79166666666</v>
+        <v>45807.79166666666</v>
       </c>
       <c r="B174">
-        <v>968</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:2">
       <c r="A175" s="2">
-        <v>45798.80208333334</v>
+        <v>45807.80208333334</v>
       </c>
       <c r="B175">
-        <v>974</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:2">
       <c r="A176" s="2">
-        <v>45798.8125</v>
+        <v>45807.8125</v>
       </c>
       <c r="B176">
-        <v>974</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:2">
       <c r="A177" s="2">
-        <v>45798.82291666666</v>
+        <v>45807.82291666666</v>
       </c>
       <c r="B177">
-        <v>974</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:2">
       <c r="A178" s="2">
-        <v>45798.83333333334</v>
+        <v>45807.83333333334</v>
       </c>
       <c r="B178">
-        <v>914</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:2">
       <c r="A179" s="2">
-        <v>45798.84375</v>
+        <v>45807.84375</v>
       </c>
       <c r="B179">
-        <v>911</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:2">
       <c r="A180" s="2">
-        <v>45798.85416666666</v>
+        <v>45807.85416666666</v>
       </c>
       <c r="B180">
-        <v>911</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:2">
       <c r="A181" s="2">
-        <v>45798.86458333334</v>
+        <v>45807.86458333334</v>
       </c>
       <c r="B181">
-        <v>911</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:2">
       <c r="A182" s="2">
-        <v>45798.875</v>
+        <v>45807.875</v>
       </c>
       <c r="B182">
-        <v>869</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:2">
       <c r="A183" s="2">
-        <v>45798.88541666666</v>
+        <v>45807.88541666666</v>
       </c>
       <c r="B183">
-        <v>865</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:2">
       <c r="A184" s="2">
-        <v>45798.89583333334</v>
+        <v>45807.89583333334</v>
       </c>
       <c r="B184">
-        <v>867</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:2">
       <c r="A185" s="2">
-        <v>45798.90625</v>
+        <v>45807.90625</v>
       </c>
       <c r="B185">
-        <v>861</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:2">
       <c r="A186" s="2">
-        <v>45798.91666666666</v>
+        <v>45807.91666666666</v>
       </c>
       <c r="B186">
-        <v>691</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:2">
       <c r="A187" s="2">
-        <v>45798.92708333334</v>
+        <v>45807.92708333334</v>
       </c>
       <c r="B187">
-        <v>649</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:2">
       <c r="A188" s="2">
-        <v>45798.9375</v>
+        <v>45807.9375</v>
       </c>
       <c r="B188">
-        <v>652</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:2">
       <c r="A189" s="2">
-        <v>45798.94791666666</v>
+        <v>45807.94791666666</v>
       </c>
       <c r="B189">
-        <v>643</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:2">
       <c r="A190" s="2">
-        <v>45798.95833333334</v>
+        <v>45807.95833333334</v>
       </c>
       <c r="B190">
-        <v>588</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:2">
       <c r="A191" s="2">
-        <v>45798.96875</v>
+        <v>45807.96875</v>
       </c>
       <c r="B191">
-        <v>569</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:2">
       <c r="A192" s="2">
-        <v>45798.97916666666</v>
+        <v>45807.97916666666</v>
       </c>
       <c r="B192">
-        <v>557</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:2">
       <c r="A193" s="2">
-        <v>45798.98958333334</v>
+        <v>45807.98958333334</v>
       </c>
       <c r="B193">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="194" spans="1:2">
-      <c r="A194" s="2">
-        <v>45799</v>
-      </c>
-      <c r="B194">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="195" spans="1:2">
-      <c r="A195" s="2">
-        <v>45799.01041666666</v>
-      </c>
-      <c r="B195">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="196" spans="1:2">
-      <c r="A196" s="2">
-        <v>45799.02083333334</v>
-      </c>
-      <c r="B196">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="197" spans="1:2">
-      <c r="A197" s="2">
-        <v>45799.03125</v>
-      </c>
-      <c r="B197">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="198" spans="1:2">
-      <c r="A198" s="2">
-        <v>45799.04166666666</v>
-      </c>
-      <c r="B198">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="199" spans="1:2">
-      <c r="A199" s="2">
-        <v>45799.05208333334</v>
-      </c>
-      <c r="B199">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="200" spans="1:2">
-      <c r="A200" s="2">
-        <v>45799.0625</v>
-      </c>
-      <c r="B200">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="201" spans="1:2">
-      <c r="A201" s="2">
-        <v>45799.07291666666</v>
-      </c>
-      <c r="B201">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="202" spans="1:2">
-      <c r="A202" s="2">
-        <v>45799.08333333334</v>
-      </c>
-      <c r="B202">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="203" spans="1:2">
-      <c r="A203" s="2">
-        <v>45799.09375</v>
-      </c>
-      <c r="B203">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="204" spans="1:2">
-      <c r="A204" s="2">
-        <v>45799.10416666666</v>
-      </c>
-      <c r="B204">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="205" spans="1:2">
-      <c r="A205" s="2">
-        <v>45799.11458333334</v>
-      </c>
-      <c r="B205">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="206" spans="1:2">
-      <c r="A206" s="2">
-        <v>45799.125</v>
-      </c>
-      <c r="B206">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="207" spans="1:2">
-      <c r="A207" s="2">
-        <v>45799.13541666666</v>
-      </c>
-      <c r="B207">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="208" spans="1:2">
-      <c r="A208" s="2">
-        <v>45799.14583333334</v>
-      </c>
-      <c r="B208">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="209" spans="1:2">
-      <c r="A209" s="2">
-        <v>45799.15625</v>
-      </c>
-      <c r="B209">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="210" spans="1:2">
-      <c r="A210" s="2">
-        <v>45799.16666666666</v>
-      </c>
-      <c r="B210">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="211" spans="1:2">
-      <c r="A211" s="2">
-        <v>45799.17708333334</v>
-      </c>
-      <c r="B211">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="212" spans="1:2">
-      <c r="A212" s="2">
-        <v>45799.1875</v>
-      </c>
-      <c r="B212">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="213" spans="1:2">
-      <c r="A213" s="2">
-        <v>45799.19791666666</v>
-      </c>
-      <c r="B213">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="214" spans="1:2">
-      <c r="A214" s="2">
-        <v>45799.20833333334</v>
-      </c>
-      <c r="B214">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="215" spans="1:2">
-      <c r="A215" s="2">
-        <v>45799.21875</v>
-      </c>
-      <c r="B215">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="216" spans="1:2">
-      <c r="A216" s="2">
-        <v>45799.22916666666</v>
-      </c>
-      <c r="B216">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="217" spans="1:2">
-      <c r="A217" s="2">
-        <v>45799.23958333334</v>
-      </c>
-      <c r="B217">
-        <v>865</v>
-      </c>
-    </row>
-    <row r="218" spans="1:2">
-      <c r="A218" s="2">
-        <v>45799.25</v>
-      </c>
-      <c r="B218">
-        <v>938</v>
-      </c>
-    </row>
-    <row r="219" spans="1:2">
-      <c r="A219" s="2">
-        <v>45799.26041666666</v>
-      </c>
-      <c r="B219">
-        <v>939</v>
-      </c>
-    </row>
-    <row r="220" spans="1:2">
-      <c r="A220" s="2">
-        <v>45799.27083333334</v>
-      </c>
-      <c r="B220">
-        <v>977</v>
-      </c>
-    </row>
-    <row r="221" spans="1:2">
-      <c r="A221" s="2">
-        <v>45799.28125</v>
-      </c>
-      <c r="B221">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="222" spans="1:2">
-      <c r="A222" s="2">
-        <v>45799.29166666666</v>
-      </c>
-      <c r="B222">
-        <v>1055</v>
-      </c>
-    </row>
-    <row r="223" spans="1:2">
-      <c r="A223" s="2">
-        <v>45799.30208333334</v>
-      </c>
-      <c r="B223">
-        <v>1050</v>
-      </c>
-    </row>
-    <row r="224" spans="1:2">
-      <c r="A224" s="2">
-        <v>45799.3125</v>
-      </c>
-      <c r="B224">
-        <v>1074</v>
-      </c>
-    </row>
-    <row r="225" spans="1:2">
-      <c r="A225" s="2">
-        <v>45799.32291666666</v>
-      </c>
-      <c r="B225">
-        <v>1075</v>
-      </c>
-    </row>
-    <row r="226" spans="1:2">
-      <c r="A226" s="2">
-        <v>45799.33333333334</v>
-      </c>
-      <c r="B226">
-        <v>1095</v>
-      </c>
-    </row>
-    <row r="227" spans="1:2">
-      <c r="A227" s="2">
-        <v>45799.34375</v>
-      </c>
-      <c r="B227">
-        <v>1101</v>
-      </c>
-    </row>
-    <row r="228" spans="1:2">
-      <c r="A228" s="2">
-        <v>45799.35416666666</v>
-      </c>
-      <c r="B228">
-        <v>1099</v>
-      </c>
-    </row>
-    <row r="229" spans="1:2">
-      <c r="A229" s="2">
-        <v>45799.36458333334</v>
-      </c>
-      <c r="B229">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="230" spans="1:2">
-      <c r="A230" s="2">
-        <v>45799.375</v>
-      </c>
-      <c r="B230">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="231" spans="1:2">
-      <c r="A231" s="2">
-        <v>45799.38541666666</v>
-      </c>
-      <c r="B231">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="232" spans="1:2">
-      <c r="A232" s="2">
-        <v>45799.39583333334</v>
-      </c>
-      <c r="B232">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="233" spans="1:2">
-      <c r="A233" s="2">
-        <v>45799.40625</v>
-      </c>
-      <c r="B233">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="234" spans="1:2">
-      <c r="A234" s="2">
-        <v>45799.41666666666</v>
-      </c>
-      <c r="B234">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="235" spans="1:2">
-      <c r="A235" s="2">
-        <v>45799.42708333334</v>
-      </c>
-      <c r="B235">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="236" spans="1:2">
-      <c r="A236" s="2">
-        <v>45799.4375</v>
-      </c>
-      <c r="B236">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="237" spans="1:2">
-      <c r="A237" s="2">
-        <v>45799.44791666666</v>
-      </c>
-      <c r="B237">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="238" spans="1:2">
-      <c r="A238" s="2">
-        <v>45799.45833333334</v>
-      </c>
-      <c r="B238">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="239" spans="1:2">
-      <c r="A239" s="2">
-        <v>45799.46875</v>
-      </c>
-      <c r="B239">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="240" spans="1:2">
-      <c r="A240" s="2">
-        <v>45799.47916666666</v>
-      </c>
-      <c r="B240">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="241" spans="1:2">
-      <c r="A241" s="2">
-        <v>45799.48958333334</v>
-      </c>
-      <c r="B241">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="242" spans="1:2">
-      <c r="A242" s="2">
-        <v>45799.5</v>
-      </c>
-      <c r="B242">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="243" spans="1:2">
-      <c r="A243" s="2">
-        <v>45799.51041666666</v>
-      </c>
-      <c r="B243">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="244" spans="1:2">
-      <c r="A244" s="2">
-        <v>45799.52083333334</v>
-      </c>
-      <c r="B244">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="245" spans="1:2">
-      <c r="A245" s="2">
-        <v>45799.53125</v>
-      </c>
-      <c r="B245">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="246" spans="1:2">
-      <c r="A246" s="2">
-        <v>45799.54166666666</v>
-      </c>
-      <c r="B246">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="247" spans="1:2">
-      <c r="A247" s="2">
-        <v>45799.55208333334</v>
-      </c>
-      <c r="B247">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="248" spans="1:2">
-      <c r="A248" s="2">
-        <v>45799.5625</v>
-      </c>
-      <c r="B248">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="249" spans="1:2">
-      <c r="A249" s="2">
-        <v>45799.57291666666</v>
-      </c>
-      <c r="B249">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="250" spans="1:2">
-      <c r="A250" s="2">
-        <v>45799.58333333334</v>
-      </c>
-      <c r="B250">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="251" spans="1:2">
-      <c r="A251" s="2">
-        <v>45799.59375</v>
-      </c>
-      <c r="B251">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="252" spans="1:2">
-      <c r="A252" s="2">
-        <v>45799.60416666666</v>
-      </c>
-      <c r="B252">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="253" spans="1:2">
-      <c r="A253" s="2">
-        <v>45799.61458333334</v>
-      </c>
-      <c r="B253">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="254" spans="1:2">
-      <c r="A254" s="2">
-        <v>45799.625</v>
-      </c>
-      <c r="B254">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="255" spans="1:2">
-      <c r="A255" s="2">
-        <v>45799.63541666666</v>
-      </c>
-      <c r="B255">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="256" spans="1:2">
-      <c r="A256" s="2">
-        <v>45799.64583333334</v>
-      </c>
-      <c r="B256">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="257" spans="1:2">
-      <c r="A257" s="2">
-        <v>45799.65625</v>
-      </c>
-      <c r="B257">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="258" spans="1:2">
-      <c r="A258" s="2">
-        <v>45799.66666666666</v>
-      </c>
-      <c r="B258">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="259" spans="1:2">
-      <c r="A259" s="2">
-        <v>45799.67708333334</v>
-      </c>
-      <c r="B259">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="260" spans="1:2">
-      <c r="A260" s="2">
-        <v>45799.6875</v>
-      </c>
-      <c r="B260">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="261" spans="1:2">
-      <c r="A261" s="2">
-        <v>45799.69791666666</v>
-      </c>
-      <c r="B261">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="262" spans="1:2">
-      <c r="A262" s="2">
-        <v>45799.70833333334</v>
-      </c>
-      <c r="B262">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="263" spans="1:2">
-      <c r="A263" s="2">
-        <v>45799.71875</v>
-      </c>
-      <c r="B263">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="264" spans="1:2">
-      <c r="A264" s="2">
-        <v>45799.72916666666</v>
-      </c>
-      <c r="B264">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="265" spans="1:2">
-      <c r="A265" s="2">
-        <v>45799.73958333334</v>
-      </c>
-      <c r="B265">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="266" spans="1:2">
-      <c r="A266" s="2">
-        <v>45799.75</v>
-      </c>
-      <c r="B266">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="267" spans="1:2">
-      <c r="A267" s="2">
-        <v>45799.76041666666</v>
-      </c>
-      <c r="B267">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="268" spans="1:2">
-      <c r="A268" s="2">
-        <v>45799.77083333334</v>
-      </c>
-      <c r="B268">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="269" spans="1:2">
-      <c r="A269" s="2">
-        <v>45799.78125</v>
-      </c>
-      <c r="B269">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="270" spans="1:2">
-      <c r="A270" s="2">
-        <v>45799.79166666666</v>
-      </c>
-      <c r="B270">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="271" spans="1:2">
-      <c r="A271" s="2">
-        <v>45799.80208333334</v>
-      </c>
-      <c r="B271">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="272" spans="1:2">
-      <c r="A272" s="2">
-        <v>45799.8125</v>
-      </c>
-      <c r="B272">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="273" spans="1:2">
-      <c r="A273" s="2">
-        <v>45799.82291666666</v>
-      </c>
-      <c r="B273">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="274" spans="1:2">
-      <c r="A274" s="2">
-        <v>45799.83333333334</v>
-      </c>
-      <c r="B274">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="275" spans="1:2">
-      <c r="A275" s="2">
-        <v>45799.84375</v>
-      </c>
-      <c r="B275">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="276" spans="1:2">
-      <c r="A276" s="2">
-        <v>45799.85416666666</v>
-      </c>
-      <c r="B276">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="277" spans="1:2">
-      <c r="A277" s="2">
-        <v>45799.86458333334</v>
-      </c>
-      <c r="B277">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="278" spans="1:2">
-      <c r="A278" s="2">
-        <v>45799.875</v>
-      </c>
-      <c r="B278">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="279" spans="1:2">
-      <c r="A279" s="2">
-        <v>45799.88541666666</v>
-      </c>
-      <c r="B279">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="280" spans="1:2">
-      <c r="A280" s="2">
-        <v>45799.89583333334</v>
-      </c>
-      <c r="B280">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="281" spans="1:2">
-      <c r="A281" s="2">
-        <v>45799.90625</v>
-      </c>
-      <c r="B281">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="282" spans="1:2">
-      <c r="A282" s="2">
-        <v>45799.91666666666</v>
-      </c>
-      <c r="B282">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="283" spans="1:2">
-      <c r="A283" s="2">
-        <v>45799.92708333334</v>
-      </c>
-      <c r="B283">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="284" spans="1:2">
-      <c r="A284" s="2">
-        <v>45799.9375</v>
-      </c>
-      <c r="B284">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="285" spans="1:2">
-      <c r="A285" s="2">
-        <v>45799.94791666666</v>
-      </c>
-      <c r="B285">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="286" spans="1:2">
-      <c r="A286" s="2">
-        <v>45799.95833333334</v>
-      </c>
-      <c r="B286">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="287" spans="1:2">
-      <c r="A287" s="2">
-        <v>45799.96875</v>
-      </c>
-      <c r="B287">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="288" spans="1:2">
-      <c r="A288" s="2">
-        <v>45799.97916666666</v>
-      </c>
-      <c r="B288">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="289" spans="1:2">
-      <c r="A289" s="2">
-        <v>45799.98958333334</v>
-      </c>
-      <c r="B289">
         <v>0</v>
       </c>
     </row>

--- a/data_fetching/Entsoe/Actual_Production_Hydro_Water_Reservoir.xlsx
+++ b/data_fetching/Entsoe/Actual_Production_Hydro_Water_Reservoir.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B193"/>
+  <dimension ref="A1:B385"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -397,1537 +397,3073 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2">
-        <v>45806</v>
+        <v>45807</v>
       </c>
       <c r="B2">
-        <v>436</v>
+        <v>393</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2">
-        <v>45806.01041666666</v>
+        <v>45807.01041666666</v>
       </c>
       <c r="B3">
-        <v>427</v>
+        <v>378</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2">
-        <v>45806.02083333334</v>
+        <v>45807.02083333334</v>
       </c>
       <c r="B4">
-        <v>433</v>
+        <v>361</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2">
-        <v>45806.03125</v>
+        <v>45807.03125</v>
       </c>
       <c r="B5">
-        <v>439</v>
+        <v>360</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2">
-        <v>45806.04166666666</v>
+        <v>45807.04166666666</v>
       </c>
       <c r="B6">
-        <v>439</v>
+        <v>387</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2">
-        <v>45806.05208333334</v>
+        <v>45807.05208333334</v>
       </c>
       <c r="B7">
-        <v>439</v>
+        <v>366</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2">
-        <v>45806.0625</v>
+        <v>45807.0625</v>
       </c>
       <c r="B8">
-        <v>429</v>
+        <v>361</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2">
-        <v>45806.07291666666</v>
+        <v>45807.07291666666</v>
       </c>
       <c r="B9">
-        <v>429</v>
+        <v>343</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2">
-        <v>45806.08333333334</v>
+        <v>45807.08333333334</v>
       </c>
       <c r="B10">
-        <v>435</v>
+        <v>339</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2">
-        <v>45806.09375</v>
+        <v>45807.09375</v>
       </c>
       <c r="B11">
-        <v>433</v>
+        <v>321</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2">
-        <v>45806.10416666666</v>
+        <v>45807.10416666666</v>
       </c>
       <c r="B12">
-        <v>429</v>
+        <v>310</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2">
-        <v>45806.11458333334</v>
+        <v>45807.11458333334</v>
       </c>
       <c r="B13">
-        <v>440</v>
+        <v>289</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2">
-        <v>45806.125</v>
+        <v>45807.125</v>
       </c>
       <c r="B14">
-        <v>493</v>
+        <v>276</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2">
-        <v>45806.13541666666</v>
+        <v>45807.13541666666</v>
       </c>
       <c r="B15">
-        <v>490</v>
+        <v>289</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2">
-        <v>45806.14583333334</v>
+        <v>45807.14583333334</v>
       </c>
       <c r="B16">
-        <v>506</v>
+        <v>299</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2">
-        <v>45806.15625</v>
+        <v>45807.15625</v>
       </c>
       <c r="B17">
-        <v>484</v>
+        <v>295</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2">
-        <v>45806.16666666666</v>
+        <v>45807.16666666666</v>
       </c>
       <c r="B18">
-        <v>460</v>
+        <v>300</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2">
-        <v>45806.17708333334</v>
+        <v>45807.17708333334</v>
       </c>
       <c r="B19">
-        <v>453</v>
+        <v>295</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2">
-        <v>45806.1875</v>
+        <v>45807.1875</v>
       </c>
       <c r="B20">
-        <v>454</v>
+        <v>304</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2">
-        <v>45806.19791666666</v>
+        <v>45807.19791666666</v>
       </c>
       <c r="B21">
-        <v>458</v>
+        <v>326</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2">
-        <v>45806.20833333334</v>
+        <v>45807.20833333334</v>
       </c>
       <c r="B22">
-        <v>500</v>
+        <v>397</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2">
-        <v>45806.21875</v>
+        <v>45807.21875</v>
       </c>
       <c r="B23">
-        <v>499</v>
+        <v>399</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2">
-        <v>45806.22916666666</v>
+        <v>45807.22916666666</v>
       </c>
       <c r="B24">
-        <v>510</v>
+        <v>405</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2">
-        <v>45806.23958333334</v>
+        <v>45807.23958333334</v>
       </c>
       <c r="B25">
-        <v>523</v>
+        <v>411</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2">
-        <v>45806.25</v>
+        <v>45807.25</v>
       </c>
       <c r="B26">
-        <v>558</v>
+        <v>522</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2">
-        <v>45806.26041666666</v>
+        <v>45807.26041666666</v>
       </c>
       <c r="B27">
-        <v>560</v>
+        <v>547</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2">
-        <v>45806.27083333334</v>
+        <v>45807.27083333334</v>
       </c>
       <c r="B28">
-        <v>565</v>
+        <v>541</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2">
-        <v>45806.28125</v>
+        <v>45807.28125</v>
       </c>
       <c r="B29">
-        <v>563</v>
+        <v>537</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2">
-        <v>45806.29166666666</v>
+        <v>45807.29166666666</v>
       </c>
       <c r="B30">
-        <v>513</v>
+        <v>499</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2">
-        <v>45806.30208333334</v>
+        <v>45807.30208333334</v>
       </c>
       <c r="B31">
-        <v>514</v>
+        <v>517</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2">
-        <v>45806.3125</v>
+        <v>45807.3125</v>
       </c>
       <c r="B32">
-        <v>547</v>
+        <v>640</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2">
-        <v>45806.32291666666</v>
+        <v>45807.32291666666</v>
       </c>
       <c r="B33">
-        <v>546</v>
+        <v>612</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2">
-        <v>45806.33333333334</v>
+        <v>45807.33333333334</v>
       </c>
       <c r="B34">
-        <v>381</v>
+        <v>538</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="2">
-        <v>45806.34375</v>
+        <v>45807.34375</v>
       </c>
       <c r="B35">
-        <v>369</v>
+        <v>534</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="2">
-        <v>45806.35416666666</v>
+        <v>45807.35416666666</v>
       </c>
       <c r="B36">
-        <v>447</v>
+        <v>512</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="2">
-        <v>45806.36458333334</v>
+        <v>45807.36458333334</v>
       </c>
       <c r="B37">
-        <v>461</v>
+        <v>483</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="2">
-        <v>45806.375</v>
+        <v>45807.375</v>
       </c>
       <c r="B38">
-        <v>370</v>
+        <v>413</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="2">
-        <v>45806.38541666666</v>
+        <v>45807.38541666666</v>
       </c>
       <c r="B39">
-        <v>505</v>
+        <v>398</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="2">
-        <v>45806.39583333334</v>
+        <v>45807.39583333334</v>
       </c>
       <c r="B40">
-        <v>614</v>
+        <v>398</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="2">
-        <v>45806.40625</v>
+        <v>45807.40625</v>
       </c>
       <c r="B41">
-        <v>608</v>
+        <v>365</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="2">
-        <v>45806.41666666666</v>
+        <v>45807.41666666666</v>
       </c>
       <c r="B42">
-        <v>596</v>
+        <v>356</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="2">
-        <v>45806.42708333334</v>
+        <v>45807.42708333334</v>
       </c>
       <c r="B43">
-        <v>569</v>
+        <v>326</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="2">
-        <v>45806.4375</v>
+        <v>45807.4375</v>
       </c>
       <c r="B44">
-        <v>412</v>
+        <v>330</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="2">
-        <v>45806.44791666666</v>
+        <v>45807.44791666666</v>
       </c>
       <c r="B45">
-        <v>371</v>
+        <v>345</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="2">
-        <v>45806.45833333334</v>
+        <v>45807.45833333334</v>
       </c>
       <c r="B46">
-        <v>333</v>
+        <v>342</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="2">
-        <v>45806.46875</v>
+        <v>45807.46875</v>
       </c>
       <c r="B47">
-        <v>340</v>
+        <v>370</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="2">
-        <v>45806.47916666666</v>
+        <v>45807.47916666666</v>
       </c>
       <c r="B48">
-        <v>335</v>
+        <v>369</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="2">
-        <v>45806.48958333334</v>
+        <v>45807.48958333334</v>
       </c>
       <c r="B49">
-        <v>338</v>
+        <v>373</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="2">
-        <v>45806.5</v>
+        <v>45807.5</v>
       </c>
       <c r="B50">
-        <v>320</v>
+        <v>394</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="2">
-        <v>45806.51041666666</v>
+        <v>45807.51041666666</v>
       </c>
       <c r="B51">
-        <v>305</v>
+        <v>402</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="2">
-        <v>45806.52083333334</v>
+        <v>45807.52083333334</v>
       </c>
       <c r="B52">
-        <v>317</v>
+        <v>378</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="2">
-        <v>45806.53125</v>
+        <v>45807.53125</v>
       </c>
       <c r="B53">
-        <v>320</v>
+        <v>376</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="2">
-        <v>45806.54166666666</v>
+        <v>45807.54166666666</v>
       </c>
       <c r="B54">
-        <v>384</v>
+        <v>320</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="2">
-        <v>45806.55208333334</v>
+        <v>45807.55208333334</v>
       </c>
       <c r="B55">
-        <v>407</v>
+        <v>305</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="2">
-        <v>45806.5625</v>
+        <v>45807.5625</v>
       </c>
       <c r="B56">
-        <v>397</v>
+        <v>303</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="2">
-        <v>45806.57291666666</v>
+        <v>45807.57291666666</v>
       </c>
       <c r="B57">
-        <v>376</v>
+        <v>309</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="2">
-        <v>45806.58333333334</v>
+        <v>45807.58333333334</v>
       </c>
       <c r="B58">
-        <v>372</v>
+        <v>314</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="2">
-        <v>45806.59375</v>
+        <v>45807.59375</v>
       </c>
       <c r="B59">
-        <v>362</v>
+        <v>317</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="2">
-        <v>45806.60416666666</v>
+        <v>45807.60416666666</v>
       </c>
       <c r="B60">
-        <v>361</v>
+        <v>322</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="2">
-        <v>45806.61458333334</v>
+        <v>45807.61458333334</v>
       </c>
       <c r="B61">
-        <v>359</v>
+        <v>327</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="2">
-        <v>45806.625</v>
+        <v>45807.625</v>
       </c>
       <c r="B62">
-        <v>308</v>
+        <v>332</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="2">
-        <v>45806.63541666666</v>
+        <v>45807.63541666666</v>
       </c>
       <c r="B63">
-        <v>297</v>
+        <v>317</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="2">
-        <v>45806.64583333334</v>
+        <v>45807.64583333334</v>
       </c>
       <c r="B64">
-        <v>295</v>
+        <v>320</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="2">
-        <v>45806.65625</v>
+        <v>45807.65625</v>
       </c>
       <c r="B65">
-        <v>300</v>
+        <v>319</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="2">
-        <v>45806.66666666666</v>
+        <v>45807.66666666666</v>
       </c>
       <c r="B66">
-        <v>292</v>
+        <v>363</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="2">
-        <v>45806.67708333334</v>
+        <v>45807.67708333334</v>
       </c>
       <c r="B67">
-        <v>325</v>
+        <v>365</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="2">
-        <v>45806.6875</v>
+        <v>45807.6875</v>
       </c>
       <c r="B68">
-        <v>308</v>
+        <v>373</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="2">
-        <v>45806.69791666666</v>
+        <v>45807.69791666666</v>
       </c>
       <c r="B69">
-        <v>340</v>
+        <v>391</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="2">
-        <v>45806.70833333334</v>
+        <v>45807.70833333334</v>
       </c>
       <c r="B70">
-        <v>390</v>
+        <v>438</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="2">
-        <v>45806.71875</v>
+        <v>45807.71875</v>
       </c>
       <c r="B71">
-        <v>409</v>
+        <v>442</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="2">
-        <v>45806.72916666666</v>
+        <v>45807.72916666666</v>
       </c>
       <c r="B72">
-        <v>420</v>
+        <v>479</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="2">
-        <v>45806.73958333334</v>
+        <v>45807.73958333334</v>
       </c>
       <c r="B73">
-        <v>478</v>
+        <v>515</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="2">
-        <v>45806.75</v>
+        <v>45807.75</v>
       </c>
       <c r="B74">
-        <v>667</v>
+        <v>534</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="2">
-        <v>45806.76041666666</v>
+        <v>45807.76041666666</v>
       </c>
       <c r="B75">
-        <v>677</v>
+        <v>566</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="2">
-        <v>45806.77083333334</v>
+        <v>45807.77083333334</v>
       </c>
       <c r="B76">
-        <v>690</v>
+        <v>634</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="2">
-        <v>45806.78125</v>
+        <v>45807.78125</v>
       </c>
       <c r="B77">
-        <v>706</v>
+        <v>605</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="2">
-        <v>45806.79166666666</v>
+        <v>45807.79166666666</v>
       </c>
       <c r="B78">
-        <v>694</v>
+        <v>654</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="2">
-        <v>45806.80208333334</v>
+        <v>45807.80208333334</v>
       </c>
       <c r="B79">
-        <v>693</v>
+        <v>671</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="2">
-        <v>45806.8125</v>
+        <v>45807.8125</v>
       </c>
       <c r="B80">
-        <v>680</v>
+        <v>665</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="2">
-        <v>45806.82291666666</v>
+        <v>45807.82291666666</v>
       </c>
       <c r="B81">
-        <v>671</v>
+        <v>664</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="2">
-        <v>45806.83333333334</v>
+        <v>45807.83333333334</v>
       </c>
       <c r="B82">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="2">
-        <v>45806.84375</v>
+        <v>45807.84375</v>
       </c>
       <c r="B83">
-        <v>650</v>
+        <v>665</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="2">
-        <v>45806.85416666666</v>
+        <v>45807.85416666666</v>
       </c>
       <c r="B84">
-        <v>647</v>
+        <v>669</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="2">
-        <v>45806.86458333334</v>
+        <v>45807.86458333334</v>
       </c>
       <c r="B85">
-        <v>645</v>
+        <v>670</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="2">
-        <v>45806.875</v>
+        <v>45807.875</v>
       </c>
       <c r="B86">
-        <v>590</v>
+        <v>728</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="2">
-        <v>45806.88541666666</v>
+        <v>45807.88541666666</v>
       </c>
       <c r="B87">
-        <v>540</v>
+        <v>724</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="2">
-        <v>45806.89583333334</v>
+        <v>45807.89583333334</v>
       </c>
       <c r="B88">
-        <v>516</v>
+        <v>725</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="2">
-        <v>45806.90625</v>
+        <v>45807.90625</v>
       </c>
       <c r="B89">
-        <v>516</v>
+        <v>771</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="2">
-        <v>45806.91666666666</v>
+        <v>45807.91666666666</v>
       </c>
       <c r="B90">
-        <v>482</v>
+        <v>671</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="2">
-        <v>45806.92708333334</v>
+        <v>45807.92708333334</v>
       </c>
       <c r="B91">
-        <v>455</v>
+        <v>667</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="2">
-        <v>45806.9375</v>
+        <v>45807.9375</v>
       </c>
       <c r="B92">
-        <v>455</v>
+        <v>666</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="2">
-        <v>45806.94791666666</v>
+        <v>45807.94791666666</v>
       </c>
       <c r="B93">
-        <v>447</v>
+        <v>594</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="2">
-        <v>45806.95833333334</v>
+        <v>45807.95833333334</v>
       </c>
       <c r="B94">
-        <v>400</v>
+        <v>604</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="2">
-        <v>45806.96875</v>
+        <v>45807.96875</v>
       </c>
       <c r="B95">
-        <v>395</v>
+        <v>576</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="2">
-        <v>45806.97916666666</v>
+        <v>45807.97916666666</v>
       </c>
       <c r="B96">
-        <v>388</v>
+        <v>550</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="2">
-        <v>45806.98958333334</v>
+        <v>45807.98958333334</v>
       </c>
       <c r="B97">
-        <v>371</v>
+        <v>577</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" s="2">
-        <v>45807</v>
+        <v>45808</v>
       </c>
       <c r="B98">
-        <v>393</v>
+        <v>637</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" s="2">
-        <v>45807.01041666666</v>
+        <v>45808.01041666666</v>
       </c>
       <c r="B99">
-        <v>378</v>
+        <v>625</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" s="2">
-        <v>45807.02083333334</v>
+        <v>45808.02083333334</v>
       </c>
       <c r="B100">
-        <v>361</v>
+        <v>570</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" s="2">
-        <v>45807.03125</v>
+        <v>45808.03125</v>
       </c>
       <c r="B101">
-        <v>360</v>
+        <v>569</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" s="2">
-        <v>45807.04166666666</v>
+        <v>45808.04166666666</v>
       </c>
       <c r="B102">
-        <v>387</v>
+        <v>612</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" s="2">
-        <v>45807.05208333334</v>
+        <v>45808.05208333334</v>
       </c>
       <c r="B103">
-        <v>366</v>
+        <v>597</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" s="2">
-        <v>45807.0625</v>
+        <v>45808.0625</v>
       </c>
       <c r="B104">
-        <v>361</v>
+        <v>604</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" s="2">
-        <v>45807.07291666666</v>
+        <v>45808.07291666666</v>
       </c>
       <c r="B105">
-        <v>343</v>
+        <v>592</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" s="2">
-        <v>45807.08333333334</v>
+        <v>45808.08333333334</v>
       </c>
       <c r="B106">
-        <v>339</v>
+        <v>609</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" s="2">
-        <v>45807.09375</v>
+        <v>45808.09375</v>
       </c>
       <c r="B107">
-        <v>321</v>
+        <v>628</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" s="2">
-        <v>45807.10416666666</v>
+        <v>45808.10416666666</v>
       </c>
       <c r="B108">
-        <v>310</v>
+        <v>581</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" s="2">
-        <v>45807.11458333334</v>
+        <v>45808.11458333334</v>
       </c>
       <c r="B109">
-        <v>289</v>
+        <v>569</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" s="2">
-        <v>45807.125</v>
+        <v>45808.125</v>
       </c>
       <c r="B110">
-        <v>276</v>
+        <v>580</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" s="2">
-        <v>45807.13541666666</v>
+        <v>45808.13541666666</v>
       </c>
       <c r="B111">
-        <v>289</v>
+        <v>572</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112" s="2">
-        <v>45807.14583333334</v>
+        <v>45808.14583333334</v>
       </c>
       <c r="B112">
-        <v>299</v>
+        <v>569</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" s="2">
-        <v>45807.15625</v>
+        <v>45808.15625</v>
       </c>
       <c r="B113">
-        <v>295</v>
+        <v>566</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" s="2">
-        <v>45807.16666666666</v>
+        <v>45808.16666666666</v>
       </c>
       <c r="B114">
-        <v>300</v>
+        <v>390</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" s="2">
-        <v>45807.17708333334</v>
+        <v>45808.17708333334</v>
       </c>
       <c r="B115">
-        <v>295</v>
+        <v>393</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" s="2">
-        <v>45807.1875</v>
+        <v>45808.1875</v>
       </c>
       <c r="B116">
-        <v>304</v>
+        <v>390</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117" s="2">
-        <v>45807.19791666666</v>
+        <v>45808.19791666666</v>
       </c>
       <c r="B117">
-        <v>326</v>
+        <v>393</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" s="2">
-        <v>45807.20833333334</v>
+        <v>45808.20833333334</v>
       </c>
       <c r="B118">
-        <v>397</v>
+        <v>440</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" s="2">
-        <v>45807.21875</v>
+        <v>45808.21875</v>
       </c>
       <c r="B119">
-        <v>399</v>
+        <v>442</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" s="2">
-        <v>45807.22916666666</v>
+        <v>45808.22916666666</v>
       </c>
       <c r="B120">
-        <v>405</v>
+        <v>444</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" s="2">
-        <v>45807.23958333334</v>
+        <v>45808.23958333334</v>
       </c>
       <c r="B121">
-        <v>411</v>
+        <v>428</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" s="2">
-        <v>45807.25</v>
+        <v>45808.25</v>
       </c>
       <c r="B122">
-        <v>522</v>
+        <v>373</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123" s="2">
-        <v>45807.26041666666</v>
+        <v>45808.26041666666</v>
       </c>
       <c r="B123">
-        <v>547</v>
+        <v>369</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" s="2">
-        <v>45807.27083333334</v>
+        <v>45808.27083333334</v>
       </c>
       <c r="B124">
-        <v>0</v>
+        <v>392</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" s="2">
-        <v>45807.28125</v>
+        <v>45808.28125</v>
       </c>
       <c r="B125">
-        <v>0</v>
+        <v>365</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" s="2">
-        <v>45807.29166666666</v>
+        <v>45808.29166666666</v>
       </c>
       <c r="B126">
-        <v>0</v>
+        <v>430</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127" s="2">
-        <v>45807.30208333334</v>
+        <v>45808.30208333334</v>
       </c>
       <c r="B127">
-        <v>0</v>
+        <v>434</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128" s="2">
-        <v>45807.3125</v>
+        <v>45808.3125</v>
       </c>
       <c r="B128">
-        <v>0</v>
+        <v>432</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" s="2">
-        <v>45807.32291666666</v>
+        <v>45808.32291666666</v>
       </c>
       <c r="B129">
-        <v>0</v>
+        <v>425</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" s="2">
-        <v>45807.33333333334</v>
+        <v>45808.33333333334</v>
       </c>
       <c r="B130">
-        <v>0</v>
+        <v>392</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" s="2">
-        <v>45807.34375</v>
+        <v>45808.34375</v>
       </c>
       <c r="B131">
-        <v>0</v>
+        <v>369</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132" s="2">
-        <v>45807.35416666666</v>
+        <v>45808.35416666666</v>
       </c>
       <c r="B132">
-        <v>0</v>
+        <v>334</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" s="2">
-        <v>45807.36458333334</v>
+        <v>45808.36458333334</v>
       </c>
       <c r="B133">
-        <v>0</v>
+        <v>325</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134" s="2">
-        <v>45807.375</v>
+        <v>45808.375</v>
       </c>
       <c r="B134">
-        <v>0</v>
+        <v>326</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135" s="2">
-        <v>45807.38541666666</v>
+        <v>45808.38541666666</v>
       </c>
       <c r="B135">
-        <v>0</v>
+        <v>287</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136" s="2">
-        <v>45807.39583333334</v>
+        <v>45808.39583333334</v>
       </c>
       <c r="B136">
-        <v>0</v>
+        <v>274</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137" s="2">
-        <v>45807.40625</v>
+        <v>45808.40625</v>
       </c>
       <c r="B137">
-        <v>0</v>
+        <v>269</v>
       </c>
     </row>
     <row r="138" spans="1:2">
       <c r="A138" s="2">
-        <v>45807.41666666666</v>
+        <v>45808.41666666666</v>
       </c>
       <c r="B138">
-        <v>0</v>
+        <v>258</v>
       </c>
     </row>
     <row r="139" spans="1:2">
       <c r="A139" s="2">
-        <v>45807.42708333334</v>
+        <v>45808.42708333334</v>
       </c>
       <c r="B139">
-        <v>0</v>
+        <v>237</v>
       </c>
     </row>
     <row r="140" spans="1:2">
       <c r="A140" s="2">
-        <v>45807.4375</v>
+        <v>45808.4375</v>
       </c>
       <c r="B140">
-        <v>0</v>
+        <v>237</v>
       </c>
     </row>
     <row r="141" spans="1:2">
       <c r="A141" s="2">
-        <v>45807.44791666666</v>
+        <v>45808.44791666666</v>
       </c>
       <c r="B141">
-        <v>0</v>
+        <v>236</v>
       </c>
     </row>
     <row r="142" spans="1:2">
       <c r="A142" s="2">
-        <v>45807.45833333334</v>
+        <v>45808.45833333334</v>
       </c>
       <c r="B142">
-        <v>0</v>
+        <v>267</v>
       </c>
     </row>
     <row r="143" spans="1:2">
       <c r="A143" s="2">
-        <v>45807.46875</v>
+        <v>45808.46875</v>
       </c>
       <c r="B143">
-        <v>0</v>
+        <v>266</v>
       </c>
     </row>
     <row r="144" spans="1:2">
       <c r="A144" s="2">
-        <v>45807.47916666666</v>
+        <v>45808.47916666666</v>
       </c>
       <c r="B144">
-        <v>0</v>
+        <v>256</v>
       </c>
     </row>
     <row r="145" spans="1:2">
       <c r="A145" s="2">
-        <v>45807.48958333334</v>
+        <v>45808.48958333334</v>
       </c>
       <c r="B145">
-        <v>0</v>
+        <v>254</v>
       </c>
     </row>
     <row r="146" spans="1:2">
       <c r="A146" s="2">
-        <v>45807.5</v>
+        <v>45808.5</v>
       </c>
       <c r="B146">
-        <v>0</v>
+        <v>256</v>
       </c>
     </row>
     <row r="147" spans="1:2">
       <c r="A147" s="2">
-        <v>45807.51041666666</v>
+        <v>45808.51041666666</v>
       </c>
       <c r="B147">
-        <v>0</v>
+        <v>254</v>
       </c>
     </row>
     <row r="148" spans="1:2">
       <c r="A148" s="2">
-        <v>45807.52083333334</v>
+        <v>45808.52083333334</v>
       </c>
       <c r="B148">
-        <v>0</v>
+        <v>254</v>
       </c>
     </row>
     <row r="149" spans="1:2">
       <c r="A149" s="2">
-        <v>45807.53125</v>
+        <v>45808.53125</v>
       </c>
       <c r="B149">
-        <v>0</v>
+        <v>256</v>
       </c>
     </row>
     <row r="150" spans="1:2">
       <c r="A150" s="2">
-        <v>45807.54166666666</v>
+        <v>45808.54166666666</v>
       </c>
       <c r="B150">
-        <v>0</v>
+        <v>264</v>
       </c>
     </row>
     <row r="151" spans="1:2">
       <c r="A151" s="2">
-        <v>45807.55208333334</v>
+        <v>45808.55208333334</v>
       </c>
       <c r="B151">
-        <v>0</v>
+        <v>265</v>
       </c>
     </row>
     <row r="152" spans="1:2">
       <c r="A152" s="2">
-        <v>45807.5625</v>
+        <v>45808.5625</v>
       </c>
       <c r="B152">
-        <v>0</v>
+        <v>267</v>
       </c>
     </row>
     <row r="153" spans="1:2">
       <c r="A153" s="2">
-        <v>45807.57291666666</v>
+        <v>45808.57291666666</v>
       </c>
       <c r="B153">
-        <v>0</v>
+        <v>266</v>
       </c>
     </row>
     <row r="154" spans="1:2">
       <c r="A154" s="2">
-        <v>45807.58333333334</v>
+        <v>45808.58333333334</v>
       </c>
       <c r="B154">
-        <v>0</v>
+        <v>250</v>
       </c>
     </row>
     <row r="155" spans="1:2">
       <c r="A155" s="2">
-        <v>45807.59375</v>
+        <v>45808.59375</v>
       </c>
       <c r="B155">
-        <v>0</v>
+        <v>250</v>
       </c>
     </row>
     <row r="156" spans="1:2">
       <c r="A156" s="2">
-        <v>45807.60416666666</v>
+        <v>45808.60416666666</v>
       </c>
       <c r="B156">
-        <v>0</v>
+        <v>250</v>
       </c>
     </row>
     <row r="157" spans="1:2">
       <c r="A157" s="2">
-        <v>45807.61458333334</v>
+        <v>45808.61458333334</v>
       </c>
       <c r="B157">
-        <v>0</v>
+        <v>252</v>
       </c>
     </row>
     <row r="158" spans="1:2">
       <c r="A158" s="2">
-        <v>45807.625</v>
+        <v>45808.625</v>
       </c>
       <c r="B158">
-        <v>0</v>
+        <v>251</v>
       </c>
     </row>
     <row r="159" spans="1:2">
       <c r="A159" s="2">
-        <v>45807.63541666666</v>
+        <v>45808.63541666666</v>
       </c>
       <c r="B159">
-        <v>0</v>
+        <v>250</v>
       </c>
     </row>
     <row r="160" spans="1:2">
       <c r="A160" s="2">
-        <v>45807.64583333334</v>
+        <v>45808.64583333334</v>
       </c>
       <c r="B160">
-        <v>0</v>
+        <v>255</v>
       </c>
     </row>
     <row r="161" spans="1:2">
       <c r="A161" s="2">
-        <v>45807.65625</v>
+        <v>45808.65625</v>
       </c>
       <c r="B161">
-        <v>0</v>
+        <v>257</v>
       </c>
     </row>
     <row r="162" spans="1:2">
       <c r="A162" s="2">
-        <v>45807.66666666666</v>
+        <v>45808.66666666666</v>
       </c>
       <c r="B162">
-        <v>0</v>
+        <v>261</v>
       </c>
     </row>
     <row r="163" spans="1:2">
       <c r="A163" s="2">
-        <v>45807.67708333334</v>
+        <v>45808.67708333334</v>
       </c>
       <c r="B163">
-        <v>0</v>
+        <v>259</v>
       </c>
     </row>
     <row r="164" spans="1:2">
       <c r="A164" s="2">
-        <v>45807.6875</v>
+        <v>45808.6875</v>
       </c>
       <c r="B164">
-        <v>0</v>
+        <v>283</v>
       </c>
     </row>
     <row r="165" spans="1:2">
       <c r="A165" s="2">
-        <v>45807.69791666666</v>
+        <v>45808.69791666666</v>
       </c>
       <c r="B165">
-        <v>0</v>
+        <v>288</v>
       </c>
     </row>
     <row r="166" spans="1:2">
       <c r="A166" s="2">
-        <v>45807.70833333334</v>
+        <v>45808.70833333334</v>
       </c>
       <c r="B166">
-        <v>0</v>
+        <v>422</v>
       </c>
     </row>
     <row r="167" spans="1:2">
       <c r="A167" s="2">
-        <v>45807.71875</v>
+        <v>45808.71875</v>
       </c>
       <c r="B167">
-        <v>0</v>
+        <v>435</v>
       </c>
     </row>
     <row r="168" spans="1:2">
       <c r="A168" s="2">
-        <v>45807.72916666666</v>
+        <v>45808.72916666666</v>
       </c>
       <c r="B168">
-        <v>0</v>
+        <v>484</v>
       </c>
     </row>
     <row r="169" spans="1:2">
       <c r="A169" s="2">
-        <v>45807.73958333334</v>
+        <v>45808.73958333334</v>
       </c>
       <c r="B169">
-        <v>0</v>
+        <v>519</v>
       </c>
     </row>
     <row r="170" spans="1:2">
       <c r="A170" s="2">
-        <v>45807.75</v>
+        <v>45808.75</v>
       </c>
       <c r="B170">
-        <v>0</v>
+        <v>523</v>
       </c>
     </row>
     <row r="171" spans="1:2">
       <c r="A171" s="2">
-        <v>45807.76041666666</v>
+        <v>45808.76041666666</v>
       </c>
       <c r="B171">
-        <v>0</v>
+        <v>503</v>
       </c>
     </row>
     <row r="172" spans="1:2">
       <c r="A172" s="2">
-        <v>45807.77083333334</v>
+        <v>45808.77083333334</v>
       </c>
       <c r="B172">
-        <v>0</v>
+        <v>499</v>
       </c>
     </row>
     <row r="173" spans="1:2">
       <c r="A173" s="2">
-        <v>45807.78125</v>
+        <v>45808.78125</v>
       </c>
       <c r="B173">
-        <v>0</v>
+        <v>536</v>
       </c>
     </row>
     <row r="174" spans="1:2">
       <c r="A174" s="2">
-        <v>45807.79166666666</v>
+        <v>45808.79166666666</v>
       </c>
       <c r="B174">
-        <v>0</v>
+        <v>459</v>
       </c>
     </row>
     <row r="175" spans="1:2">
       <c r="A175" s="2">
-        <v>45807.80208333334</v>
+        <v>45808.80208333334</v>
       </c>
       <c r="B175">
-        <v>0</v>
+        <v>456</v>
       </c>
     </row>
     <row r="176" spans="1:2">
       <c r="A176" s="2">
-        <v>45807.8125</v>
+        <v>45808.8125</v>
       </c>
       <c r="B176">
-        <v>0</v>
+        <v>455</v>
       </c>
     </row>
     <row r="177" spans="1:2">
       <c r="A177" s="2">
-        <v>45807.82291666666</v>
+        <v>45808.82291666666</v>
       </c>
       <c r="B177">
-        <v>0</v>
+        <v>457</v>
       </c>
     </row>
     <row r="178" spans="1:2">
       <c r="A178" s="2">
-        <v>45807.83333333334</v>
+        <v>45808.83333333334</v>
       </c>
       <c r="B178">
-        <v>0</v>
+        <v>447</v>
       </c>
     </row>
     <row r="179" spans="1:2">
       <c r="A179" s="2">
-        <v>45807.84375</v>
+        <v>45808.84375</v>
       </c>
       <c r="B179">
-        <v>0</v>
+        <v>449</v>
       </c>
     </row>
     <row r="180" spans="1:2">
       <c r="A180" s="2">
-        <v>45807.85416666666</v>
+        <v>45808.85416666666</v>
       </c>
       <c r="B180">
-        <v>0</v>
+        <v>463</v>
       </c>
     </row>
     <row r="181" spans="1:2">
       <c r="A181" s="2">
-        <v>45807.86458333334</v>
+        <v>45808.86458333334</v>
       </c>
       <c r="B181">
-        <v>0</v>
+        <v>450</v>
       </c>
     </row>
     <row r="182" spans="1:2">
       <c r="A182" s="2">
-        <v>45807.875</v>
+        <v>45808.875</v>
       </c>
       <c r="B182">
-        <v>0</v>
+        <v>510</v>
       </c>
     </row>
     <row r="183" spans="1:2">
       <c r="A183" s="2">
-        <v>45807.88541666666</v>
+        <v>45808.88541666666</v>
       </c>
       <c r="B183">
-        <v>0</v>
+        <v>466</v>
       </c>
     </row>
     <row r="184" spans="1:2">
       <c r="A184" s="2">
-        <v>45807.89583333334</v>
+        <v>45808.89583333334</v>
       </c>
       <c r="B184">
-        <v>0</v>
+        <v>491</v>
       </c>
     </row>
     <row r="185" spans="1:2">
       <c r="A185" s="2">
-        <v>45807.90625</v>
+        <v>45808.90625</v>
       </c>
       <c r="B185">
-        <v>0</v>
+        <v>489</v>
       </c>
     </row>
     <row r="186" spans="1:2">
       <c r="A186" s="2">
-        <v>45807.91666666666</v>
+        <v>45808.91666666666</v>
       </c>
       <c r="B186">
-        <v>0</v>
+        <v>489</v>
       </c>
     </row>
     <row r="187" spans="1:2">
       <c r="A187" s="2">
-        <v>45807.92708333334</v>
+        <v>45808.92708333334</v>
       </c>
       <c r="B187">
-        <v>0</v>
+        <v>443</v>
       </c>
     </row>
     <row r="188" spans="1:2">
       <c r="A188" s="2">
-        <v>45807.9375</v>
+        <v>45808.9375</v>
       </c>
       <c r="B188">
-        <v>0</v>
+        <v>441</v>
       </c>
     </row>
     <row r="189" spans="1:2">
       <c r="A189" s="2">
-        <v>45807.94791666666</v>
+        <v>45808.94791666666</v>
       </c>
       <c r="B189">
-        <v>0</v>
+        <v>438</v>
       </c>
     </row>
     <row r="190" spans="1:2">
       <c r="A190" s="2">
-        <v>45807.95833333334</v>
+        <v>45808.95833333334</v>
       </c>
       <c r="B190">
-        <v>0</v>
+        <v>412</v>
       </c>
     </row>
     <row r="191" spans="1:2">
       <c r="A191" s="2">
-        <v>45807.96875</v>
+        <v>45808.96875</v>
       </c>
       <c r="B191">
-        <v>0</v>
+        <v>373</v>
       </c>
     </row>
     <row r="192" spans="1:2">
       <c r="A192" s="2">
-        <v>45807.97916666666</v>
+        <v>45808.97916666666</v>
       </c>
       <c r="B192">
-        <v>0</v>
+        <v>374</v>
       </c>
     </row>
     <row r="193" spans="1:2">
       <c r="A193" s="2">
-        <v>45807.98958333334</v>
+        <v>45808.98958333334</v>
       </c>
       <c r="B193">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2">
+      <c r="A194" s="2">
+        <v>45809</v>
+      </c>
+      <c r="B194">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2">
+      <c r="A195" s="2">
+        <v>45809.01041666666</v>
+      </c>
+      <c r="B195">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2">
+      <c r="A196" s="2">
+        <v>45809.02083333334</v>
+      </c>
+      <c r="B196">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2">
+      <c r="A197" s="2">
+        <v>45809.03125</v>
+      </c>
+      <c r="B197">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2">
+      <c r="A198" s="2">
+        <v>45809.04166666666</v>
+      </c>
+      <c r="B198">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2">
+      <c r="A199" s="2">
+        <v>45809.05208333334</v>
+      </c>
+      <c r="B199">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2">
+      <c r="A200" s="2">
+        <v>45809.0625</v>
+      </c>
+      <c r="B200">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2">
+      <c r="A201" s="2">
+        <v>45809.07291666666</v>
+      </c>
+      <c r="B201">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2">
+      <c r="A202" s="2">
+        <v>45809.08333333334</v>
+      </c>
+      <c r="B202">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2">
+      <c r="A203" s="2">
+        <v>45809.09375</v>
+      </c>
+      <c r="B203">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2">
+      <c r="A204" s="2">
+        <v>45809.10416666666</v>
+      </c>
+      <c r="B204">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2">
+      <c r="A205" s="2">
+        <v>45809.11458333334</v>
+      </c>
+      <c r="B205">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2">
+      <c r="A206" s="2">
+        <v>45809.125</v>
+      </c>
+      <c r="B206">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2">
+      <c r="A207" s="2">
+        <v>45809.13541666666</v>
+      </c>
+      <c r="B207">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2">
+      <c r="A208" s="2">
+        <v>45809.14583333334</v>
+      </c>
+      <c r="B208">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2">
+      <c r="A209" s="2">
+        <v>45809.15625</v>
+      </c>
+      <c r="B209">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2">
+      <c r="A210" s="2">
+        <v>45809.16666666666</v>
+      </c>
+      <c r="B210">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2">
+      <c r="A211" s="2">
+        <v>45809.17708333334</v>
+      </c>
+      <c r="B211">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2">
+      <c r="A212" s="2">
+        <v>45809.1875</v>
+      </c>
+      <c r="B212">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2">
+      <c r="A213" s="2">
+        <v>45809.19791666666</v>
+      </c>
+      <c r="B213">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2">
+      <c r="A214" s="2">
+        <v>45809.20833333334</v>
+      </c>
+      <c r="B214">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2">
+      <c r="A215" s="2">
+        <v>45809.21875</v>
+      </c>
+      <c r="B215">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2">
+      <c r="A216" s="2">
+        <v>45809.22916666666</v>
+      </c>
+      <c r="B216">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2">
+      <c r="A217" s="2">
+        <v>45809.23958333334</v>
+      </c>
+      <c r="B217">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2">
+      <c r="A218" s="2">
+        <v>45809.25</v>
+      </c>
+      <c r="B218">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2">
+      <c r="A219" s="2">
+        <v>45809.26041666666</v>
+      </c>
+      <c r="B219">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2">
+      <c r="A220" s="2">
+        <v>45809.27083333334</v>
+      </c>
+      <c r="B220">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2">
+      <c r="A221" s="2">
+        <v>45809.28125</v>
+      </c>
+      <c r="B221">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2">
+      <c r="A222" s="2">
+        <v>45809.29166666666</v>
+      </c>
+      <c r="B222">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2">
+      <c r="A223" s="2">
+        <v>45809.30208333334</v>
+      </c>
+      <c r="B223">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2">
+      <c r="A224" s="2">
+        <v>45809.3125</v>
+      </c>
+      <c r="B224">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2">
+      <c r="A225" s="2">
+        <v>45809.32291666666</v>
+      </c>
+      <c r="B225">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2">
+      <c r="A226" s="2">
+        <v>45809.33333333334</v>
+      </c>
+      <c r="B226">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2">
+      <c r="A227" s="2">
+        <v>45809.34375</v>
+      </c>
+      <c r="B227">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2">
+      <c r="A228" s="2">
+        <v>45809.35416666666</v>
+      </c>
+      <c r="B228">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2">
+      <c r="A229" s="2">
+        <v>45809.36458333334</v>
+      </c>
+      <c r="B229">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2">
+      <c r="A230" s="2">
+        <v>45809.375</v>
+      </c>
+      <c r="B230">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2">
+      <c r="A231" s="2">
+        <v>45809.38541666666</v>
+      </c>
+      <c r="B231">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2">
+      <c r="A232" s="2">
+        <v>45809.39583333334</v>
+      </c>
+      <c r="B232">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2">
+      <c r="A233" s="2">
+        <v>45809.40625</v>
+      </c>
+      <c r="B233">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2">
+      <c r="A234" s="2">
+        <v>45809.41666666666</v>
+      </c>
+      <c r="B234">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2">
+      <c r="A235" s="2">
+        <v>45809.42708333334</v>
+      </c>
+      <c r="B235">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2">
+      <c r="A236" s="2">
+        <v>45809.4375</v>
+      </c>
+      <c r="B236">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2">
+      <c r="A237" s="2">
+        <v>45809.44791666666</v>
+      </c>
+      <c r="B237">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2">
+      <c r="A238" s="2">
+        <v>45809.45833333334</v>
+      </c>
+      <c r="B238">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2">
+      <c r="A239" s="2">
+        <v>45809.46875</v>
+      </c>
+      <c r="B239">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2">
+      <c r="A240" s="2">
+        <v>45809.47916666666</v>
+      </c>
+      <c r="B240">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2">
+      <c r="A241" s="2">
+        <v>45809.48958333334</v>
+      </c>
+      <c r="B241">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2">
+      <c r="A242" s="2">
+        <v>45809.5</v>
+      </c>
+      <c r="B242">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2">
+      <c r="A243" s="2">
+        <v>45809.51041666666</v>
+      </c>
+      <c r="B243">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2">
+      <c r="A244" s="2">
+        <v>45809.52083333334</v>
+      </c>
+      <c r="B244">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2">
+      <c r="A245" s="2">
+        <v>45809.53125</v>
+      </c>
+      <c r="B245">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2">
+      <c r="A246" s="2">
+        <v>45809.54166666666</v>
+      </c>
+      <c r="B246">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2">
+      <c r="A247" s="2">
+        <v>45809.55208333334</v>
+      </c>
+      <c r="B247">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2">
+      <c r="A248" s="2">
+        <v>45809.5625</v>
+      </c>
+      <c r="B248">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2">
+      <c r="A249" s="2">
+        <v>45809.57291666666</v>
+      </c>
+      <c r="B249">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2">
+      <c r="A250" s="2">
+        <v>45809.58333333334</v>
+      </c>
+      <c r="B250">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2">
+      <c r="A251" s="2">
+        <v>45809.59375</v>
+      </c>
+      <c r="B251">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2">
+      <c r="A252" s="2">
+        <v>45809.60416666666</v>
+      </c>
+      <c r="B252">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2">
+      <c r="A253" s="2">
+        <v>45809.61458333334</v>
+      </c>
+      <c r="B253">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2">
+      <c r="A254" s="2">
+        <v>45809.625</v>
+      </c>
+      <c r="B254">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2">
+      <c r="A255" s="2">
+        <v>45809.63541666666</v>
+      </c>
+      <c r="B255">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2">
+      <c r="A256" s="2">
+        <v>45809.64583333334</v>
+      </c>
+      <c r="B256">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2">
+      <c r="A257" s="2">
+        <v>45809.65625</v>
+      </c>
+      <c r="B257">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2">
+      <c r="A258" s="2">
+        <v>45809.66666666666</v>
+      </c>
+      <c r="B258">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2">
+      <c r="A259" s="2">
+        <v>45809.67708333334</v>
+      </c>
+      <c r="B259">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2">
+      <c r="A260" s="2">
+        <v>45809.6875</v>
+      </c>
+      <c r="B260">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2">
+      <c r="A261" s="2">
+        <v>45809.69791666666</v>
+      </c>
+      <c r="B261">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2">
+      <c r="A262" s="2">
+        <v>45809.70833333334</v>
+      </c>
+      <c r="B262">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2">
+      <c r="A263" s="2">
+        <v>45809.71875</v>
+      </c>
+      <c r="B263">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2">
+      <c r="A264" s="2">
+        <v>45809.72916666666</v>
+      </c>
+      <c r="B264">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2">
+      <c r="A265" s="2">
+        <v>45809.73958333334</v>
+      </c>
+      <c r="B265">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2">
+      <c r="A266" s="2">
+        <v>45809.75</v>
+      </c>
+      <c r="B266">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2">
+      <c r="A267" s="2">
+        <v>45809.76041666666</v>
+      </c>
+      <c r="B267">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2">
+      <c r="A268" s="2">
+        <v>45809.77083333334</v>
+      </c>
+      <c r="B268">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2">
+      <c r="A269" s="2">
+        <v>45809.78125</v>
+      </c>
+      <c r="B269">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2">
+      <c r="A270" s="2">
+        <v>45809.79166666666</v>
+      </c>
+      <c r="B270">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2">
+      <c r="A271" s="2">
+        <v>45809.80208333334</v>
+      </c>
+      <c r="B271">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2">
+      <c r="A272" s="2">
+        <v>45809.8125</v>
+      </c>
+      <c r="B272">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2">
+      <c r="A273" s="2">
+        <v>45809.82291666666</v>
+      </c>
+      <c r="B273">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2">
+      <c r="A274" s="2">
+        <v>45809.83333333334</v>
+      </c>
+      <c r="B274">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2">
+      <c r="A275" s="2">
+        <v>45809.84375</v>
+      </c>
+      <c r="B275">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2">
+      <c r="A276" s="2">
+        <v>45809.85416666666</v>
+      </c>
+      <c r="B276">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2">
+      <c r="A277" s="2">
+        <v>45809.86458333334</v>
+      </c>
+      <c r="B277">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2">
+      <c r="A278" s="2">
+        <v>45809.875</v>
+      </c>
+      <c r="B278">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2">
+      <c r="A279" s="2">
+        <v>45809.88541666666</v>
+      </c>
+      <c r="B279">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2">
+      <c r="A280" s="2">
+        <v>45809.89583333334</v>
+      </c>
+      <c r="B280">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2">
+      <c r="A281" s="2">
+        <v>45809.90625</v>
+      </c>
+      <c r="B281">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2">
+      <c r="A282" s="2">
+        <v>45809.91666666666</v>
+      </c>
+      <c r="B282">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2">
+      <c r="A283" s="2">
+        <v>45809.92708333334</v>
+      </c>
+      <c r="B283">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2">
+      <c r="A284" s="2">
+        <v>45809.9375</v>
+      </c>
+      <c r="B284">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2">
+      <c r="A285" s="2">
+        <v>45809.94791666666</v>
+      </c>
+      <c r="B285">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2">
+      <c r="A286" s="2">
+        <v>45809.95833333334</v>
+      </c>
+      <c r="B286">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2">
+      <c r="A287" s="2">
+        <v>45809.96875</v>
+      </c>
+      <c r="B287">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2">
+      <c r="A288" s="2">
+        <v>45809.97916666666</v>
+      </c>
+      <c r="B288">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2">
+      <c r="A289" s="2">
+        <v>45809.98958333334</v>
+      </c>
+      <c r="B289">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2">
+      <c r="A290" s="2">
+        <v>45810</v>
+      </c>
+      <c r="B290">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2">
+      <c r="A291" s="2">
+        <v>45810.01041666666</v>
+      </c>
+      <c r="B291">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2">
+      <c r="A292" s="2">
+        <v>45810.02083333334</v>
+      </c>
+      <c r="B292">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2">
+      <c r="A293" s="2">
+        <v>45810.03125</v>
+      </c>
+      <c r="B293">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2">
+      <c r="A294" s="2">
+        <v>45810.04166666666</v>
+      </c>
+      <c r="B294">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2">
+      <c r="A295" s="2">
+        <v>45810.05208333334</v>
+      </c>
+      <c r="B295">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2">
+      <c r="A296" s="2">
+        <v>45810.0625</v>
+      </c>
+      <c r="B296">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2">
+      <c r="A297" s="2">
+        <v>45810.07291666666</v>
+      </c>
+      <c r="B297">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2">
+      <c r="A298" s="2">
+        <v>45810.08333333334</v>
+      </c>
+      <c r="B298">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2">
+      <c r="A299" s="2">
+        <v>45810.09375</v>
+      </c>
+      <c r="B299">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2">
+      <c r="A300" s="2">
+        <v>45810.10416666666</v>
+      </c>
+      <c r="B300">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2">
+      <c r="A301" s="2">
+        <v>45810.11458333334</v>
+      </c>
+      <c r="B301">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2">
+      <c r="A302" s="2">
+        <v>45810.125</v>
+      </c>
+      <c r="B302">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2">
+      <c r="A303" s="2">
+        <v>45810.13541666666</v>
+      </c>
+      <c r="B303">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2">
+      <c r="A304" s="2">
+        <v>45810.14583333334</v>
+      </c>
+      <c r="B304">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2">
+      <c r="A305" s="2">
+        <v>45810.15625</v>
+      </c>
+      <c r="B305">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2">
+      <c r="A306" s="2">
+        <v>45810.16666666666</v>
+      </c>
+      <c r="B306">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2">
+      <c r="A307" s="2">
+        <v>45810.17708333334</v>
+      </c>
+      <c r="B307">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2">
+      <c r="A308" s="2">
+        <v>45810.1875</v>
+      </c>
+      <c r="B308">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2">
+      <c r="A309" s="2">
+        <v>45810.19791666666</v>
+      </c>
+      <c r="B309">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2">
+      <c r="A310" s="2">
+        <v>45810.20833333334</v>
+      </c>
+      <c r="B310">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2">
+      <c r="A311" s="2">
+        <v>45810.21875</v>
+      </c>
+      <c r="B311">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2">
+      <c r="A312" s="2">
+        <v>45810.22916666666</v>
+      </c>
+      <c r="B312">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2">
+      <c r="A313" s="2">
+        <v>45810.23958333334</v>
+      </c>
+      <c r="B313">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2">
+      <c r="A314" s="2">
+        <v>45810.25</v>
+      </c>
+      <c r="B314">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2">
+      <c r="A315" s="2">
+        <v>45810.26041666666</v>
+      </c>
+      <c r="B315">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2">
+      <c r="A316" s="2">
+        <v>45810.27083333334</v>
+      </c>
+      <c r="B316">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2">
+      <c r="A317" s="2">
+        <v>45810.28125</v>
+      </c>
+      <c r="B317">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2">
+      <c r="A318" s="2">
+        <v>45810.29166666666</v>
+      </c>
+      <c r="B318">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2">
+      <c r="A319" s="2">
+        <v>45810.30208333334</v>
+      </c>
+      <c r="B319">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2">
+      <c r="A320" s="2">
+        <v>45810.3125</v>
+      </c>
+      <c r="B320">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2">
+      <c r="A321" s="2">
+        <v>45810.32291666666</v>
+      </c>
+      <c r="B321">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2">
+      <c r="A322" s="2">
+        <v>45810.33333333334</v>
+      </c>
+      <c r="B322">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2">
+      <c r="A323" s="2">
+        <v>45810.34375</v>
+      </c>
+      <c r="B323">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2">
+      <c r="A324" s="2">
+        <v>45810.35416666666</v>
+      </c>
+      <c r="B324">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2">
+      <c r="A325" s="2">
+        <v>45810.36458333334</v>
+      </c>
+      <c r="B325">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2">
+      <c r="A326" s="2">
+        <v>45810.375</v>
+      </c>
+      <c r="B326">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2">
+      <c r="A327" s="2">
+        <v>45810.38541666666</v>
+      </c>
+      <c r="B327">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2">
+      <c r="A328" s="2">
+        <v>45810.39583333334</v>
+      </c>
+      <c r="B328">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2">
+      <c r="A329" s="2">
+        <v>45810.40625</v>
+      </c>
+      <c r="B329">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2">
+      <c r="A330" s="2">
+        <v>45810.41666666666</v>
+      </c>
+      <c r="B330">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2">
+      <c r="A331" s="2">
+        <v>45810.42708333334</v>
+      </c>
+      <c r="B331">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2">
+      <c r="A332" s="2">
+        <v>45810.4375</v>
+      </c>
+      <c r="B332">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2">
+      <c r="A333" s="2">
+        <v>45810.44791666666</v>
+      </c>
+      <c r="B333">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2">
+      <c r="A334" s="2">
+        <v>45810.45833333334</v>
+      </c>
+      <c r="B334">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2">
+      <c r="A335" s="2">
+        <v>45810.46875</v>
+      </c>
+      <c r="B335">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2">
+      <c r="A336" s="2">
+        <v>45810.47916666666</v>
+      </c>
+      <c r="B336">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2">
+      <c r="A337" s="2">
+        <v>45810.48958333334</v>
+      </c>
+      <c r="B337">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2">
+      <c r="A338" s="2">
+        <v>45810.5</v>
+      </c>
+      <c r="B338">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2">
+      <c r="A339" s="2">
+        <v>45810.51041666666</v>
+      </c>
+      <c r="B339">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2">
+      <c r="A340" s="2">
+        <v>45810.52083333334</v>
+      </c>
+      <c r="B340">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2">
+      <c r="A341" s="2">
+        <v>45810.53125</v>
+      </c>
+      <c r="B341">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2">
+      <c r="A342" s="2">
+        <v>45810.54166666666</v>
+      </c>
+      <c r="B342">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2">
+      <c r="A343" s="2">
+        <v>45810.55208333334</v>
+      </c>
+      <c r="B343">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2">
+      <c r="A344" s="2">
+        <v>45810.5625</v>
+      </c>
+      <c r="B344">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2">
+      <c r="A345" s="2">
+        <v>45810.57291666666</v>
+      </c>
+      <c r="B345">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2">
+      <c r="A346" s="2">
+        <v>45810.58333333334</v>
+      </c>
+      <c r="B346">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2">
+      <c r="A347" s="2">
+        <v>45810.59375</v>
+      </c>
+      <c r="B347">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2">
+      <c r="A348" s="2">
+        <v>45810.60416666666</v>
+      </c>
+      <c r="B348">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2">
+      <c r="A349" s="2">
+        <v>45810.61458333334</v>
+      </c>
+      <c r="B349">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2">
+      <c r="A350" s="2">
+        <v>45810.625</v>
+      </c>
+      <c r="B350">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2">
+      <c r="A351" s="2">
+        <v>45810.63541666666</v>
+      </c>
+      <c r="B351">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2">
+      <c r="A352" s="2">
+        <v>45810.64583333334</v>
+      </c>
+      <c r="B352">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2">
+      <c r="A353" s="2">
+        <v>45810.65625</v>
+      </c>
+      <c r="B353">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2">
+      <c r="A354" s="2">
+        <v>45810.66666666666</v>
+      </c>
+      <c r="B354">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2">
+      <c r="A355" s="2">
+        <v>45810.67708333334</v>
+      </c>
+      <c r="B355">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2">
+      <c r="A356" s="2">
+        <v>45810.6875</v>
+      </c>
+      <c r="B356">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2">
+      <c r="A357" s="2">
+        <v>45810.69791666666</v>
+      </c>
+      <c r="B357">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2">
+      <c r="A358" s="2">
+        <v>45810.70833333334</v>
+      </c>
+      <c r="B358">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2">
+      <c r="A359" s="2">
+        <v>45810.71875</v>
+      </c>
+      <c r="B359">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2">
+      <c r="A360" s="2">
+        <v>45810.72916666666</v>
+      </c>
+      <c r="B360">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2">
+      <c r="A361" s="2">
+        <v>45810.73958333334</v>
+      </c>
+      <c r="B361">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2">
+      <c r="A362" s="2">
+        <v>45810.75</v>
+      </c>
+      <c r="B362">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2">
+      <c r="A363" s="2">
+        <v>45810.76041666666</v>
+      </c>
+      <c r="B363">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2">
+      <c r="A364" s="2">
+        <v>45810.77083333334</v>
+      </c>
+      <c r="B364">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2">
+      <c r="A365" s="2">
+        <v>45810.78125</v>
+      </c>
+      <c r="B365">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2">
+      <c r="A366" s="2">
+        <v>45810.79166666666</v>
+      </c>
+      <c r="B366">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2">
+      <c r="A367" s="2">
+        <v>45810.80208333334</v>
+      </c>
+      <c r="B367">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2">
+      <c r="A368" s="2">
+        <v>45810.8125</v>
+      </c>
+      <c r="B368">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2">
+      <c r="A369" s="2">
+        <v>45810.82291666666</v>
+      </c>
+      <c r="B369">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2">
+      <c r="A370" s="2">
+        <v>45810.83333333334</v>
+      </c>
+      <c r="B370">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2">
+      <c r="A371" s="2">
+        <v>45810.84375</v>
+      </c>
+      <c r="B371">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2">
+      <c r="A372" s="2">
+        <v>45810.85416666666</v>
+      </c>
+      <c r="B372">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2">
+      <c r="A373" s="2">
+        <v>45810.86458333334</v>
+      </c>
+      <c r="B373">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2">
+      <c r="A374" s="2">
+        <v>45810.875</v>
+      </c>
+      <c r="B374">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2">
+      <c r="A375" s="2">
+        <v>45810.88541666666</v>
+      </c>
+      <c r="B375">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2">
+      <c r="A376" s="2">
+        <v>45810.89583333334</v>
+      </c>
+      <c r="B376">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2">
+      <c r="A377" s="2">
+        <v>45810.90625</v>
+      </c>
+      <c r="B377">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2">
+      <c r="A378" s="2">
+        <v>45810.91666666666</v>
+      </c>
+      <c r="B378">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2">
+      <c r="A379" s="2">
+        <v>45810.92708333334</v>
+      </c>
+      <c r="B379">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2">
+      <c r="A380" s="2">
+        <v>45810.9375</v>
+      </c>
+      <c r="B380">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2">
+      <c r="A381" s="2">
+        <v>45810.94791666666</v>
+      </c>
+      <c r="B381">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2">
+      <c r="A382" s="2">
+        <v>45810.95833333334</v>
+      </c>
+      <c r="B382">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2">
+      <c r="A383" s="2">
+        <v>45810.96875</v>
+      </c>
+      <c r="B383">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2">
+      <c r="A384" s="2">
+        <v>45810.97916666666</v>
+      </c>
+      <c r="B384">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2">
+      <c r="A385" s="2">
+        <v>45810.98958333334</v>
+      </c>
+      <c r="B385">
         <v>0</v>
       </c>
     </row>

--- a/data_fetching/Entsoe/Actual_Production_Hydro_Water_Reservoir.xlsx
+++ b/data_fetching/Entsoe/Actual_Production_Hydro_Water_Reservoir.xlsx
@@ -397,1095 +397,1095 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2">
-        <v>45820</v>
+        <v>45824</v>
       </c>
       <c r="B2">
-        <v>536</v>
+        <v>485</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2">
-        <v>45820.01041666666</v>
+        <v>45824.01041666666</v>
       </c>
       <c r="B3">
-        <v>521</v>
+        <v>451</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2">
-        <v>45820.02083333334</v>
+        <v>45824.02083333334</v>
       </c>
       <c r="B4">
-        <v>517</v>
+        <v>438</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2">
-        <v>45820.03125</v>
+        <v>45824.03125</v>
       </c>
       <c r="B5">
-        <v>644</v>
+        <v>439</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2">
-        <v>45820.04166666666</v>
+        <v>45824.04166666666</v>
       </c>
       <c r="B6">
-        <v>663</v>
+        <v>442</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2">
-        <v>45820.05208333334</v>
+        <v>45824.05208333334</v>
       </c>
       <c r="B7">
-        <v>661</v>
+        <v>439</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2">
-        <v>45820.0625</v>
+        <v>45824.0625</v>
       </c>
       <c r="B8">
-        <v>643</v>
+        <v>416</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2">
-        <v>45820.07291666666</v>
+        <v>45824.07291666666</v>
       </c>
       <c r="B9">
-        <v>638</v>
+        <v>427</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2">
-        <v>45820.08333333334</v>
+        <v>45824.08333333334</v>
       </c>
       <c r="B10">
-        <v>448</v>
+        <v>363</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2">
-        <v>45820.09375</v>
+        <v>45824.09375</v>
       </c>
       <c r="B11">
-        <v>430</v>
+        <v>328</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2">
-        <v>45820.10416666666</v>
+        <v>45824.10416666666</v>
       </c>
       <c r="B12">
-        <v>378</v>
+        <v>334</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2">
-        <v>45820.11458333334</v>
+        <v>45824.11458333334</v>
       </c>
       <c r="B13">
-        <v>299</v>
+        <v>357</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2">
-        <v>45820.125</v>
+        <v>45824.125</v>
       </c>
       <c r="B14">
-        <v>350</v>
+        <v>365</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2">
-        <v>45820.13541666666</v>
+        <v>45824.13541666666</v>
       </c>
       <c r="B15">
-        <v>343</v>
+        <v>371</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2">
-        <v>45820.14583333334</v>
+        <v>45824.14583333334</v>
       </c>
       <c r="B16">
-        <v>339</v>
+        <v>369</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2">
-        <v>45820.15625</v>
+        <v>45824.15625</v>
       </c>
       <c r="B17">
-        <v>350</v>
+        <v>378</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2">
-        <v>45820.16666666666</v>
+        <v>45824.16666666666</v>
       </c>
       <c r="B18">
-        <v>440</v>
+        <v>378</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2">
-        <v>45820.17708333334</v>
+        <v>45824.17708333334</v>
       </c>
       <c r="B19">
-        <v>439</v>
+        <v>376</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2">
-        <v>45820.1875</v>
+        <v>45824.1875</v>
       </c>
       <c r="B20">
-        <v>440</v>
+        <v>377</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2">
-        <v>45820.19791666666</v>
+        <v>45824.19791666666</v>
       </c>
       <c r="B21">
-        <v>447</v>
+        <v>383</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2">
-        <v>45820.20833333334</v>
+        <v>45824.20833333334</v>
       </c>
       <c r="B22">
-        <v>499</v>
+        <v>578</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2">
-        <v>45820.21875</v>
+        <v>45824.21875</v>
       </c>
       <c r="B23">
-        <v>501</v>
+        <v>578</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2">
-        <v>45820.22916666666</v>
+        <v>45824.22916666666</v>
       </c>
       <c r="B24">
-        <v>503</v>
+        <v>582</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2">
-        <v>45820.23958333334</v>
+        <v>45824.23958333334</v>
       </c>
       <c r="B25">
-        <v>513</v>
+        <v>593</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2">
-        <v>45820.25</v>
+        <v>45824.25</v>
       </c>
       <c r="B26">
-        <v>663</v>
+        <v>768</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2">
-        <v>45820.26041666666</v>
+        <v>45824.26041666666</v>
       </c>
       <c r="B27">
-        <v>690</v>
+        <v>775</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2">
-        <v>45820.27083333334</v>
+        <v>45824.27083333334</v>
       </c>
       <c r="B28">
-        <v>689</v>
+        <v>775</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2">
-        <v>45820.28125</v>
+        <v>45824.28125</v>
       </c>
       <c r="B29">
-        <v>698</v>
+        <v>807</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2">
-        <v>45820.29166666666</v>
+        <v>45824.29166666666</v>
       </c>
       <c r="B30">
-        <v>580</v>
+        <v>792</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2">
-        <v>45820.30208333334</v>
+        <v>45824.30208333334</v>
       </c>
       <c r="B31">
-        <v>579</v>
+        <v>800</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2">
-        <v>45820.3125</v>
+        <v>45824.3125</v>
       </c>
       <c r="B32">
-        <v>567</v>
+        <v>791</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2">
-        <v>45820.32291666666</v>
+        <v>45824.32291666666</v>
       </c>
       <c r="B33">
-        <v>562</v>
+        <v>792</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2">
-        <v>45820.33333333334</v>
+        <v>45824.33333333334</v>
       </c>
       <c r="B34">
-        <v>521</v>
+        <v>641</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="2">
-        <v>45820.34375</v>
+        <v>45824.34375</v>
       </c>
       <c r="B35">
-        <v>519</v>
+        <v>597</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="2">
-        <v>45820.35416666666</v>
+        <v>45824.35416666666</v>
       </c>
       <c r="B36">
-        <v>516</v>
+        <v>600</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="2">
-        <v>45820.36458333334</v>
+        <v>45824.36458333334</v>
       </c>
       <c r="B37">
-        <v>509</v>
+        <v>600</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="2">
-        <v>45820.375</v>
+        <v>45824.375</v>
       </c>
       <c r="B38">
-        <v>305</v>
+        <v>467</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="2">
-        <v>45820.38541666666</v>
+        <v>45824.38541666666</v>
       </c>
       <c r="B39">
-        <v>307</v>
+        <v>459</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="2">
-        <v>45820.39583333334</v>
+        <v>45824.39583333334</v>
       </c>
       <c r="B40">
-        <v>308</v>
+        <v>450</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="2">
-        <v>45820.40625</v>
+        <v>45824.40625</v>
       </c>
       <c r="B41">
-        <v>304</v>
+        <v>452</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="2">
-        <v>45820.41666666666</v>
+        <v>45824.41666666666</v>
       </c>
       <c r="B42">
-        <v>275</v>
+        <v>270</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="2">
-        <v>45820.42708333334</v>
+        <v>45824.42708333334</v>
       </c>
       <c r="B43">
-        <v>273</v>
+        <v>267</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="2">
-        <v>45820.4375</v>
+        <v>45824.4375</v>
       </c>
       <c r="B44">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="2">
-        <v>45820.44791666666</v>
+        <v>45824.44791666666</v>
       </c>
       <c r="B45">
-        <v>277</v>
+        <v>267</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="2">
-        <v>45820.45833333334</v>
+        <v>45824.45833333334</v>
       </c>
       <c r="B46">
-        <v>252</v>
+        <v>278</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="2">
-        <v>45820.46875</v>
+        <v>45824.46875</v>
       </c>
       <c r="B47">
-        <v>251</v>
+        <v>281</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="2">
-        <v>45820.47916666666</v>
+        <v>45824.47916666666</v>
       </c>
       <c r="B48">
-        <v>255</v>
+        <v>281</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="2">
-        <v>45820.48958333334</v>
+        <v>45824.48958333334</v>
       </c>
       <c r="B49">
-        <v>256</v>
+        <v>282</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="2">
-        <v>45820.5</v>
+        <v>45824.5</v>
       </c>
       <c r="B50">
-        <v>257</v>
+        <v>283</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="2">
-        <v>45820.51041666666</v>
+        <v>45824.51041666666</v>
       </c>
       <c r="B51">
-        <v>257</v>
+        <v>292</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="2">
-        <v>45820.52083333334</v>
+        <v>45824.52083333334</v>
       </c>
       <c r="B52">
-        <v>255</v>
+        <v>285</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="2">
-        <v>45820.53125</v>
+        <v>45824.53125</v>
       </c>
       <c r="B53">
-        <v>257</v>
+        <v>295</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="2">
-        <v>45820.54166666666</v>
+        <v>45824.54166666666</v>
       </c>
       <c r="B54">
-        <v>277</v>
+        <v>409</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="2">
-        <v>45820.55208333334</v>
+        <v>45824.55208333334</v>
       </c>
       <c r="B55">
-        <v>281</v>
+        <v>418</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="2">
-        <v>45820.5625</v>
+        <v>45824.5625</v>
       </c>
       <c r="B56">
-        <v>282</v>
+        <v>418</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="2">
-        <v>45820.57291666666</v>
+        <v>45824.57291666666</v>
       </c>
       <c r="B57">
-        <v>281</v>
+        <v>410</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="2">
-        <v>45820.58333333334</v>
+        <v>45824.58333333334</v>
       </c>
       <c r="B58">
-        <v>288</v>
+        <v>350</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="2">
-        <v>45820.59375</v>
+        <v>45824.59375</v>
       </c>
       <c r="B59">
-        <v>288</v>
+        <v>350</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="2">
-        <v>45820.60416666666</v>
+        <v>45824.60416666666</v>
       </c>
       <c r="B60">
-        <v>289</v>
+        <v>374</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="2">
-        <v>45820.61458333334</v>
+        <v>45824.61458333334</v>
       </c>
       <c r="B61">
-        <v>287</v>
+        <v>398</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="2">
-        <v>45820.625</v>
+        <v>45824.625</v>
       </c>
       <c r="B62">
-        <v>285</v>
+        <v>488</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="2">
-        <v>45820.63541666666</v>
+        <v>45824.63541666666</v>
       </c>
       <c r="B63">
-        <v>283</v>
+        <v>506</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="2">
-        <v>45820.64583333334</v>
+        <v>45824.64583333334</v>
       </c>
       <c r="B64">
-        <v>285</v>
+        <v>508</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="2">
-        <v>45820.65625</v>
+        <v>45824.65625</v>
       </c>
       <c r="B65">
-        <v>291</v>
+        <v>512</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="2">
-        <v>45820.66666666666</v>
+        <v>45824.66666666666</v>
       </c>
       <c r="B66">
-        <v>387</v>
+        <v>496</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="2">
-        <v>45820.67708333334</v>
+        <v>45824.67708333334</v>
       </c>
       <c r="B67">
-        <v>401</v>
+        <v>509</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="2">
-        <v>45820.6875</v>
+        <v>45824.6875</v>
       </c>
       <c r="B68">
-        <v>400</v>
+        <v>517</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="2">
-        <v>45820.69791666666</v>
+        <v>45824.69791666666</v>
       </c>
       <c r="B69">
-        <v>424</v>
+        <v>535</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="2">
-        <v>45820.70833333334</v>
+        <v>45824.70833333334</v>
       </c>
       <c r="B70">
-        <v>647</v>
+        <v>843</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="2">
-        <v>45820.71875</v>
+        <v>45824.71875</v>
       </c>
       <c r="B71">
-        <v>692</v>
+        <v>863</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="2">
-        <v>45820.72916666666</v>
+        <v>45824.72916666666</v>
       </c>
       <c r="B72">
-        <v>731</v>
+        <v>866</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="2">
-        <v>45820.73958333334</v>
+        <v>45824.73958333334</v>
       </c>
       <c r="B73">
-        <v>763</v>
+        <v>915</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="2">
-        <v>45820.75</v>
+        <v>45824.75</v>
       </c>
       <c r="B74">
-        <v>809</v>
+        <v>945</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="2">
-        <v>45820.76041666666</v>
+        <v>45824.76041666666</v>
       </c>
       <c r="B75">
-        <v>815</v>
+        <v>955</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="2">
-        <v>45820.77083333334</v>
+        <v>45824.77083333334</v>
       </c>
       <c r="B76">
-        <v>835</v>
+        <v>962</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="2">
-        <v>45820.78125</v>
+        <v>45824.78125</v>
       </c>
       <c r="B77">
-        <v>871</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="2">
-        <v>45820.79166666666</v>
+        <v>45824.79166666666</v>
       </c>
       <c r="B78">
-        <v>823</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="2">
-        <v>45820.80208333334</v>
+        <v>45824.80208333334</v>
       </c>
       <c r="B79">
-        <v>836</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="2">
-        <v>45820.8125</v>
+        <v>45824.8125</v>
       </c>
       <c r="B80">
-        <v>851</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="2">
-        <v>45820.82291666666</v>
+        <v>45824.82291666666</v>
       </c>
       <c r="B81">
-        <v>845</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="2">
-        <v>45820.83333333334</v>
+        <v>45824.83333333334</v>
       </c>
       <c r="B82">
-        <v>807</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="2">
-        <v>45820.84375</v>
+        <v>45824.84375</v>
       </c>
       <c r="B83">
-        <v>795</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="2">
-        <v>45820.85416666666</v>
+        <v>45824.85416666666</v>
       </c>
       <c r="B84">
-        <v>797</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="2">
-        <v>45820.86458333334</v>
+        <v>45824.86458333334</v>
       </c>
       <c r="B85">
-        <v>805</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="2">
-        <v>45820.875</v>
+        <v>45824.875</v>
       </c>
       <c r="B86">
-        <v>740</v>
+        <v>979</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="2">
-        <v>45820.88541666666</v>
+        <v>45824.88541666666</v>
       </c>
       <c r="B87">
-        <v>748</v>
+        <v>993</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="2">
-        <v>45820.89583333334</v>
+        <v>45824.89583333334</v>
       </c>
       <c r="B88">
-        <v>733</v>
+        <v>978</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="2">
-        <v>45820.90625</v>
+        <v>45824.90625</v>
       </c>
       <c r="B89">
-        <v>731</v>
+        <v>958</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="2">
-        <v>45820.91666666666</v>
+        <v>45824.91666666666</v>
       </c>
       <c r="B90">
-        <v>655</v>
+        <v>736</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="2">
-        <v>45820.92708333334</v>
+        <v>45824.92708333334</v>
       </c>
       <c r="B91">
-        <v>646</v>
+        <v>713</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="2">
-        <v>45820.9375</v>
+        <v>45824.9375</v>
       </c>
       <c r="B92">
-        <v>617</v>
+        <v>712</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="2">
-        <v>45820.94791666666</v>
+        <v>45824.94791666666</v>
       </c>
       <c r="B93">
-        <v>613</v>
+        <v>710</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="2">
-        <v>45820.95833333334</v>
+        <v>45824.95833333334</v>
       </c>
       <c r="B94">
-        <v>540</v>
+        <v>674</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="2">
-        <v>45820.96875</v>
+        <v>45824.96875</v>
       </c>
       <c r="B95">
-        <v>504</v>
+        <v>670</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="2">
-        <v>45820.97916666666</v>
+        <v>45824.97916666666</v>
       </c>
       <c r="B96">
-        <v>499</v>
+        <v>670</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="2">
-        <v>45820.98958333334</v>
+        <v>45824.98958333334</v>
       </c>
       <c r="B97">
-        <v>482</v>
+        <v>665</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" s="2">
-        <v>45821</v>
+        <v>45825</v>
       </c>
       <c r="B98">
-        <v>601</v>
+        <v>642</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" s="2">
-        <v>45821.01041666666</v>
+        <v>45825.01041666666</v>
       </c>
       <c r="B99">
-        <v>599</v>
+        <v>641</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" s="2">
-        <v>45821.02083333334</v>
+        <v>45825.02083333334</v>
       </c>
       <c r="B100">
-        <v>598</v>
+        <v>643</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" s="2">
-        <v>45821.03125</v>
+        <v>45825.03125</v>
       </c>
       <c r="B101">
-        <v>605</v>
+        <v>641</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" s="2">
-        <v>45821.04166666666</v>
+        <v>45825.04166666666</v>
       </c>
       <c r="B102">
-        <v>619</v>
+        <v>653</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" s="2">
-        <v>45821.05208333334</v>
+        <v>45825.05208333334</v>
       </c>
       <c r="B103">
-        <v>619</v>
+        <v>658</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" s="2">
-        <v>45821.0625</v>
+        <v>45825.0625</v>
       </c>
       <c r="B104">
-        <v>621</v>
+        <v>642</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" s="2">
-        <v>45821.07291666666</v>
+        <v>45825.07291666666</v>
       </c>
       <c r="B105">
-        <v>628</v>
+        <v>636</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" s="2">
-        <v>45821.08333333334</v>
+        <v>45825.08333333334</v>
       </c>
       <c r="B106">
-        <v>638</v>
+        <v>672</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" s="2">
-        <v>45821.09375</v>
+        <v>45825.09375</v>
       </c>
       <c r="B107">
-        <v>637</v>
+        <v>711</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" s="2">
-        <v>45821.10416666666</v>
+        <v>45825.10416666666</v>
       </c>
       <c r="B108">
-        <v>636</v>
+        <v>683</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" s="2">
-        <v>45821.11458333334</v>
+        <v>45825.11458333334</v>
       </c>
       <c r="B109">
-        <v>634</v>
+        <v>641</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" s="2">
-        <v>45821.125</v>
+        <v>45825.125</v>
       </c>
       <c r="B110">
-        <v>504</v>
+        <v>646</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" s="2">
-        <v>45821.13541666666</v>
+        <v>45825.13541666666</v>
       </c>
       <c r="B111">
-        <v>483</v>
+        <v>643</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112" s="2">
-        <v>45821.14583333334</v>
+        <v>45825.14583333334</v>
       </c>
       <c r="B112">
-        <v>487</v>
+        <v>645</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" s="2">
-        <v>45821.15625</v>
+        <v>45825.15625</v>
       </c>
       <c r="B113">
-        <v>497</v>
+        <v>645</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" s="2">
-        <v>45821.16666666666</v>
+        <v>45825.16666666666</v>
       </c>
       <c r="B114">
-        <v>538</v>
+        <v>626</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" s="2">
-        <v>45821.17708333334</v>
+        <v>45825.17708333334</v>
       </c>
       <c r="B115">
-        <v>536</v>
+        <v>627</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" s="2">
-        <v>45821.1875</v>
+        <v>45825.1875</v>
       </c>
       <c r="B116">
-        <v>536</v>
+        <v>624</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117" s="2">
-        <v>45821.19791666666</v>
+        <v>45825.19791666666</v>
       </c>
       <c r="B117">
-        <v>545</v>
+        <v>625</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" s="2">
-        <v>45821.20833333334</v>
+        <v>45825.20833333334</v>
       </c>
       <c r="B118">
-        <v>673</v>
+        <v>677</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" s="2">
-        <v>45821.21875</v>
+        <v>45825.21875</v>
       </c>
       <c r="B119">
-        <v>669</v>
+        <v>649</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" s="2">
-        <v>45821.22916666666</v>
+        <v>45825.22916666666</v>
       </c>
       <c r="B120">
-        <v>668</v>
+        <v>636</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" s="2">
-        <v>45821.23958333334</v>
+        <v>45825.23958333334</v>
       </c>
       <c r="B121">
-        <v>676</v>
+        <v>665</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" s="2">
-        <v>45821.25</v>
+        <v>45825.25</v>
       </c>
       <c r="B122">
-        <v>0</v>
+        <v>850</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123" s="2">
-        <v>45821.26041666666</v>
+        <v>45825.26041666666</v>
       </c>
       <c r="B123">
-        <v>0</v>
+        <v>848</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" s="2">
-        <v>45821.27083333334</v>
+        <v>45825.27083333334</v>
       </c>
       <c r="B124">
-        <v>0</v>
+        <v>847</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" s="2">
-        <v>45821.28125</v>
+        <v>45825.28125</v>
       </c>
       <c r="B125">
-        <v>0</v>
+        <v>848</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" s="2">
-        <v>45821.29166666666</v>
+        <v>45825.29166666666</v>
       </c>
       <c r="B126">
-        <v>0</v>
+        <v>849</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127" s="2">
-        <v>45821.30208333334</v>
+        <v>45825.30208333334</v>
       </c>
       <c r="B127">
-        <v>0</v>
+        <v>844</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128" s="2">
-        <v>45821.3125</v>
+        <v>45825.3125</v>
       </c>
       <c r="B128">
-        <v>0</v>
+        <v>841</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" s="2">
-        <v>45821.32291666666</v>
+        <v>45825.32291666666</v>
       </c>
       <c r="B129">
-        <v>0</v>
+        <v>843</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" s="2">
-        <v>45821.33333333334</v>
+        <v>45825.33333333334</v>
       </c>
       <c r="B130">
-        <v>0</v>
+        <v>780</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" s="2">
-        <v>45821.34375</v>
+        <v>45825.34375</v>
       </c>
       <c r="B131">
-        <v>0</v>
+        <v>777</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132" s="2">
-        <v>45821.35416666666</v>
+        <v>45825.35416666666</v>
       </c>
       <c r="B132">
-        <v>0</v>
+        <v>771</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" s="2">
-        <v>45821.36458333334</v>
+        <v>45825.36458333334</v>
       </c>
       <c r="B133">
-        <v>0</v>
+        <v>737</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134" s="2">
-        <v>45821.375</v>
+        <v>45825.375</v>
       </c>
       <c r="B134">
-        <v>0</v>
+        <v>586</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135" s="2">
-        <v>45821.38541666666</v>
+        <v>45825.38541666666</v>
       </c>
       <c r="B135">
-        <v>0</v>
+        <v>580</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136" s="2">
-        <v>45821.39583333334</v>
+        <v>45825.39583333334</v>
       </c>
       <c r="B136">
-        <v>0</v>
+        <v>576</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137" s="2">
-        <v>45821.40625</v>
+        <v>45825.40625</v>
       </c>
       <c r="B137">
-        <v>0</v>
+        <v>563</v>
       </c>
     </row>
     <row r="138" spans="1:2">
       <c r="A138" s="2">
-        <v>45821.41666666666</v>
+        <v>45825.41666666666</v>
       </c>
       <c r="B138">
         <v>0</v>
@@ -1493,7 +1493,7 @@
     </row>
     <row r="139" spans="1:2">
       <c r="A139" s="2">
-        <v>45821.42708333334</v>
+        <v>45825.42708333334</v>
       </c>
       <c r="B139">
         <v>0</v>
@@ -1501,7 +1501,7 @@
     </row>
     <row r="140" spans="1:2">
       <c r="A140" s="2">
-        <v>45821.4375</v>
+        <v>45825.4375</v>
       </c>
       <c r="B140">
         <v>0</v>
@@ -1509,7 +1509,7 @@
     </row>
     <row r="141" spans="1:2">
       <c r="A141" s="2">
-        <v>45821.44791666666</v>
+        <v>45825.44791666666</v>
       </c>
       <c r="B141">
         <v>0</v>
@@ -1517,7 +1517,7 @@
     </row>
     <row r="142" spans="1:2">
       <c r="A142" s="2">
-        <v>45821.45833333334</v>
+        <v>45825.45833333334</v>
       </c>
       <c r="B142">
         <v>0</v>
@@ -1525,7 +1525,7 @@
     </row>
     <row r="143" spans="1:2">
       <c r="A143" s="2">
-        <v>45821.46875</v>
+        <v>45825.46875</v>
       </c>
       <c r="B143">
         <v>0</v>
@@ -1533,7 +1533,7 @@
     </row>
     <row r="144" spans="1:2">
       <c r="A144" s="2">
-        <v>45821.47916666666</v>
+        <v>45825.47916666666</v>
       </c>
       <c r="B144">
         <v>0</v>
@@ -1541,7 +1541,7 @@
     </row>
     <row r="145" spans="1:2">
       <c r="A145" s="2">
-        <v>45821.48958333334</v>
+        <v>45825.48958333334</v>
       </c>
       <c r="B145">
         <v>0</v>
@@ -1549,7 +1549,7 @@
     </row>
     <row r="146" spans="1:2">
       <c r="A146" s="2">
-        <v>45821.5</v>
+        <v>45825.5</v>
       </c>
       <c r="B146">
         <v>0</v>
@@ -1557,7 +1557,7 @@
     </row>
     <row r="147" spans="1:2">
       <c r="A147" s="2">
-        <v>45821.51041666666</v>
+        <v>45825.51041666666</v>
       </c>
       <c r="B147">
         <v>0</v>
@@ -1565,7 +1565,7 @@
     </row>
     <row r="148" spans="1:2">
       <c r="A148" s="2">
-        <v>45821.52083333334</v>
+        <v>45825.52083333334</v>
       </c>
       <c r="B148">
         <v>0</v>
@@ -1573,7 +1573,7 @@
     </row>
     <row r="149" spans="1:2">
       <c r="A149" s="2">
-        <v>45821.53125</v>
+        <v>45825.53125</v>
       </c>
       <c r="B149">
         <v>0</v>
@@ -1581,7 +1581,7 @@
     </row>
     <row r="150" spans="1:2">
       <c r="A150" s="2">
-        <v>45821.54166666666</v>
+        <v>45825.54166666666</v>
       </c>
       <c r="B150">
         <v>0</v>
@@ -1589,7 +1589,7 @@
     </row>
     <row r="151" spans="1:2">
       <c r="A151" s="2">
-        <v>45821.55208333334</v>
+        <v>45825.55208333334</v>
       </c>
       <c r="B151">
         <v>0</v>
@@ -1597,7 +1597,7 @@
     </row>
     <row r="152" spans="1:2">
       <c r="A152" s="2">
-        <v>45821.5625</v>
+        <v>45825.5625</v>
       </c>
       <c r="B152">
         <v>0</v>
@@ -1605,7 +1605,7 @@
     </row>
     <row r="153" spans="1:2">
       <c r="A153" s="2">
-        <v>45821.57291666666</v>
+        <v>45825.57291666666</v>
       </c>
       <c r="B153">
         <v>0</v>
@@ -1613,7 +1613,7 @@
     </row>
     <row r="154" spans="1:2">
       <c r="A154" s="2">
-        <v>45821.58333333334</v>
+        <v>45825.58333333334</v>
       </c>
       <c r="B154">
         <v>0</v>
@@ -1621,7 +1621,7 @@
     </row>
     <row r="155" spans="1:2">
       <c r="A155" s="2">
-        <v>45821.59375</v>
+        <v>45825.59375</v>
       </c>
       <c r="B155">
         <v>0</v>
@@ -1629,7 +1629,7 @@
     </row>
     <row r="156" spans="1:2">
       <c r="A156" s="2">
-        <v>45821.60416666666</v>
+        <v>45825.60416666666</v>
       </c>
       <c r="B156">
         <v>0</v>
@@ -1637,7 +1637,7 @@
     </row>
     <row r="157" spans="1:2">
       <c r="A157" s="2">
-        <v>45821.61458333334</v>
+        <v>45825.61458333334</v>
       </c>
       <c r="B157">
         <v>0</v>
@@ -1645,7 +1645,7 @@
     </row>
     <row r="158" spans="1:2">
       <c r="A158" s="2">
-        <v>45821.625</v>
+        <v>45825.625</v>
       </c>
       <c r="B158">
         <v>0</v>
@@ -1653,7 +1653,7 @@
     </row>
     <row r="159" spans="1:2">
       <c r="A159" s="2">
-        <v>45821.63541666666</v>
+        <v>45825.63541666666</v>
       </c>
       <c r="B159">
         <v>0</v>
@@ -1661,7 +1661,7 @@
     </row>
     <row r="160" spans="1:2">
       <c r="A160" s="2">
-        <v>45821.64583333334</v>
+        <v>45825.64583333334</v>
       </c>
       <c r="B160">
         <v>0</v>
@@ -1669,7 +1669,7 @@
     </row>
     <row r="161" spans="1:2">
       <c r="A161" s="2">
-        <v>45821.65625</v>
+        <v>45825.65625</v>
       </c>
       <c r="B161">
         <v>0</v>
@@ -1677,7 +1677,7 @@
     </row>
     <row r="162" spans="1:2">
       <c r="A162" s="2">
-        <v>45821.66666666666</v>
+        <v>45825.66666666666</v>
       </c>
       <c r="B162">
         <v>0</v>
@@ -1685,7 +1685,7 @@
     </row>
     <row r="163" spans="1:2">
       <c r="A163" s="2">
-        <v>45821.67708333334</v>
+        <v>45825.67708333334</v>
       </c>
       <c r="B163">
         <v>0</v>
@@ -1693,7 +1693,7 @@
     </row>
     <row r="164" spans="1:2">
       <c r="A164" s="2">
-        <v>45821.6875</v>
+        <v>45825.6875</v>
       </c>
       <c r="B164">
         <v>0</v>
@@ -1701,7 +1701,7 @@
     </row>
     <row r="165" spans="1:2">
       <c r="A165" s="2">
-        <v>45821.69791666666</v>
+        <v>45825.69791666666</v>
       </c>
       <c r="B165">
         <v>0</v>
@@ -1709,7 +1709,7 @@
     </row>
     <row r="166" spans="1:2">
       <c r="A166" s="2">
-        <v>45821.70833333334</v>
+        <v>45825.70833333334</v>
       </c>
       <c r="B166">
         <v>0</v>
@@ -1717,7 +1717,7 @@
     </row>
     <row r="167" spans="1:2">
       <c r="A167" s="2">
-        <v>45821.71875</v>
+        <v>45825.71875</v>
       </c>
       <c r="B167">
         <v>0</v>
@@ -1725,7 +1725,7 @@
     </row>
     <row r="168" spans="1:2">
       <c r="A168" s="2">
-        <v>45821.72916666666</v>
+        <v>45825.72916666666</v>
       </c>
       <c r="B168">
         <v>0</v>
@@ -1733,7 +1733,7 @@
     </row>
     <row r="169" spans="1:2">
       <c r="A169" s="2">
-        <v>45821.73958333334</v>
+        <v>45825.73958333334</v>
       </c>
       <c r="B169">
         <v>0</v>
@@ -1741,7 +1741,7 @@
     </row>
     <row r="170" spans="1:2">
       <c r="A170" s="2">
-        <v>45821.75</v>
+        <v>45825.75</v>
       </c>
       <c r="B170">
         <v>0</v>
@@ -1749,7 +1749,7 @@
     </row>
     <row r="171" spans="1:2">
       <c r="A171" s="2">
-        <v>45821.76041666666</v>
+        <v>45825.76041666666</v>
       </c>
       <c r="B171">
         <v>0</v>
@@ -1757,7 +1757,7 @@
     </row>
     <row r="172" spans="1:2">
       <c r="A172" s="2">
-        <v>45821.77083333334</v>
+        <v>45825.77083333334</v>
       </c>
       <c r="B172">
         <v>0</v>
@@ -1765,7 +1765,7 @@
     </row>
     <row r="173" spans="1:2">
       <c r="A173" s="2">
-        <v>45821.78125</v>
+        <v>45825.78125</v>
       </c>
       <c r="B173">
         <v>0</v>
@@ -1773,7 +1773,7 @@
     </row>
     <row r="174" spans="1:2">
       <c r="A174" s="2">
-        <v>45821.79166666666</v>
+        <v>45825.79166666666</v>
       </c>
       <c r="B174">
         <v>0</v>
@@ -1781,7 +1781,7 @@
     </row>
     <row r="175" spans="1:2">
       <c r="A175" s="2">
-        <v>45821.80208333334</v>
+        <v>45825.80208333334</v>
       </c>
       <c r="B175">
         <v>0</v>
@@ -1789,7 +1789,7 @@
     </row>
     <row r="176" spans="1:2">
       <c r="A176" s="2">
-        <v>45821.8125</v>
+        <v>45825.8125</v>
       </c>
       <c r="B176">
         <v>0</v>
@@ -1797,7 +1797,7 @@
     </row>
     <row r="177" spans="1:2">
       <c r="A177" s="2">
-        <v>45821.82291666666</v>
+        <v>45825.82291666666</v>
       </c>
       <c r="B177">
         <v>0</v>
@@ -1805,7 +1805,7 @@
     </row>
     <row r="178" spans="1:2">
       <c r="A178" s="2">
-        <v>45821.83333333334</v>
+        <v>45825.83333333334</v>
       </c>
       <c r="B178">
         <v>0</v>
@@ -1813,7 +1813,7 @@
     </row>
     <row r="179" spans="1:2">
       <c r="A179" s="2">
-        <v>45821.84375</v>
+        <v>45825.84375</v>
       </c>
       <c r="B179">
         <v>0</v>
@@ -1821,7 +1821,7 @@
     </row>
     <row r="180" spans="1:2">
       <c r="A180" s="2">
-        <v>45821.85416666666</v>
+        <v>45825.85416666666</v>
       </c>
       <c r="B180">
         <v>0</v>
@@ -1829,7 +1829,7 @@
     </row>
     <row r="181" spans="1:2">
       <c r="A181" s="2">
-        <v>45821.86458333334</v>
+        <v>45825.86458333334</v>
       </c>
       <c r="B181">
         <v>0</v>
@@ -1837,7 +1837,7 @@
     </row>
     <row r="182" spans="1:2">
       <c r="A182" s="2">
-        <v>45821.875</v>
+        <v>45825.875</v>
       </c>
       <c r="B182">
         <v>0</v>
@@ -1845,7 +1845,7 @@
     </row>
     <row r="183" spans="1:2">
       <c r="A183" s="2">
-        <v>45821.88541666666</v>
+        <v>45825.88541666666</v>
       </c>
       <c r="B183">
         <v>0</v>
@@ -1853,7 +1853,7 @@
     </row>
     <row r="184" spans="1:2">
       <c r="A184" s="2">
-        <v>45821.89583333334</v>
+        <v>45825.89583333334</v>
       </c>
       <c r="B184">
         <v>0</v>
@@ -1861,7 +1861,7 @@
     </row>
     <row r="185" spans="1:2">
       <c r="A185" s="2">
-        <v>45821.90625</v>
+        <v>45825.90625</v>
       </c>
       <c r="B185">
         <v>0</v>
@@ -1869,7 +1869,7 @@
     </row>
     <row r="186" spans="1:2">
       <c r="A186" s="2">
-        <v>45821.91666666666</v>
+        <v>45825.91666666666</v>
       </c>
       <c r="B186">
         <v>0</v>
@@ -1877,7 +1877,7 @@
     </row>
     <row r="187" spans="1:2">
       <c r="A187" s="2">
-        <v>45821.92708333334</v>
+        <v>45825.92708333334</v>
       </c>
       <c r="B187">
         <v>0</v>
@@ -1885,7 +1885,7 @@
     </row>
     <row r="188" spans="1:2">
       <c r="A188" s="2">
-        <v>45821.9375</v>
+        <v>45825.9375</v>
       </c>
       <c r="B188">
         <v>0</v>
@@ -1893,7 +1893,7 @@
     </row>
     <row r="189" spans="1:2">
       <c r="A189" s="2">
-        <v>45821.94791666666</v>
+        <v>45825.94791666666</v>
       </c>
       <c r="B189">
         <v>0</v>
@@ -1901,7 +1901,7 @@
     </row>
     <row r="190" spans="1:2">
       <c r="A190" s="2">
-        <v>45821.95833333334</v>
+        <v>45825.95833333334</v>
       </c>
       <c r="B190">
         <v>0</v>
@@ -1909,7 +1909,7 @@
     </row>
     <row r="191" spans="1:2">
       <c r="A191" s="2">
-        <v>45821.96875</v>
+        <v>45825.96875</v>
       </c>
       <c r="B191">
         <v>0</v>
@@ -1917,7 +1917,7 @@
     </row>
     <row r="192" spans="1:2">
       <c r="A192" s="2">
-        <v>45821.97916666666</v>
+        <v>45825.97916666666</v>
       </c>
       <c r="B192">
         <v>0</v>
@@ -1925,7 +1925,7 @@
     </row>
     <row r="193" spans="1:2">
       <c r="A193" s="2">
-        <v>45821.98958333334</v>
+        <v>45825.98958333334</v>
       </c>
       <c r="B193">
         <v>0</v>

--- a/data_fetching/Entsoe/Actual_Production_Hydro_Water_Reservoir.xlsx
+++ b/data_fetching/Entsoe/Actual_Production_Hydro_Water_Reservoir.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B193"/>
+  <dimension ref="A1:B385"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -397,1537 +397,3073 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2">
-        <v>45824</v>
+        <v>45825</v>
       </c>
       <c r="B2">
-        <v>485</v>
+        <v>642</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2">
-        <v>45824.01041666666</v>
+        <v>45825.01041666666</v>
       </c>
       <c r="B3">
-        <v>451</v>
+        <v>641</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2">
-        <v>45824.02083333334</v>
+        <v>45825.02083333334</v>
       </c>
       <c r="B4">
-        <v>438</v>
+        <v>643</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2">
-        <v>45824.03125</v>
+        <v>45825.03125</v>
       </c>
       <c r="B5">
-        <v>439</v>
+        <v>641</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2">
-        <v>45824.04166666666</v>
+        <v>45825.04166666666</v>
       </c>
       <c r="B6">
-        <v>442</v>
+        <v>653</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2">
-        <v>45824.05208333334</v>
+        <v>45825.05208333334</v>
       </c>
       <c r="B7">
-        <v>439</v>
+        <v>658</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2">
-        <v>45824.0625</v>
+        <v>45825.0625</v>
       </c>
       <c r="B8">
-        <v>416</v>
+        <v>642</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2">
-        <v>45824.07291666666</v>
+        <v>45825.07291666666</v>
       </c>
       <c r="B9">
-        <v>427</v>
+        <v>636</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2">
-        <v>45824.08333333334</v>
+        <v>45825.08333333334</v>
       </c>
       <c r="B10">
-        <v>363</v>
+        <v>672</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2">
-        <v>45824.09375</v>
+        <v>45825.09375</v>
       </c>
       <c r="B11">
-        <v>328</v>
+        <v>711</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2">
-        <v>45824.10416666666</v>
+        <v>45825.10416666666</v>
       </c>
       <c r="B12">
-        <v>334</v>
+        <v>683</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2">
-        <v>45824.11458333334</v>
+        <v>45825.11458333334</v>
       </c>
       <c r="B13">
-        <v>357</v>
+        <v>641</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2">
-        <v>45824.125</v>
+        <v>45825.125</v>
       </c>
       <c r="B14">
-        <v>365</v>
+        <v>646</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2">
-        <v>45824.13541666666</v>
+        <v>45825.13541666666</v>
       </c>
       <c r="B15">
-        <v>371</v>
+        <v>643</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2">
-        <v>45824.14583333334</v>
+        <v>45825.14583333334</v>
       </c>
       <c r="B16">
-        <v>369</v>
+        <v>645</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2">
-        <v>45824.15625</v>
+        <v>45825.15625</v>
       </c>
       <c r="B17">
-        <v>378</v>
+        <v>645</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2">
-        <v>45824.16666666666</v>
+        <v>45825.16666666666</v>
       </c>
       <c r="B18">
-        <v>378</v>
+        <v>626</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2">
-        <v>45824.17708333334</v>
+        <v>45825.17708333334</v>
       </c>
       <c r="B19">
-        <v>376</v>
+        <v>627</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2">
-        <v>45824.1875</v>
+        <v>45825.1875</v>
       </c>
       <c r="B20">
-        <v>377</v>
+        <v>624</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2">
-        <v>45824.19791666666</v>
+        <v>45825.19791666666</v>
       </c>
       <c r="B21">
-        <v>383</v>
+        <v>625</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2">
-        <v>45824.20833333334</v>
+        <v>45825.20833333334</v>
       </c>
       <c r="B22">
-        <v>578</v>
+        <v>677</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2">
-        <v>45824.21875</v>
+        <v>45825.21875</v>
       </c>
       <c r="B23">
-        <v>578</v>
+        <v>649</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2">
-        <v>45824.22916666666</v>
+        <v>45825.22916666666</v>
       </c>
       <c r="B24">
-        <v>582</v>
+        <v>636</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2">
-        <v>45824.23958333334</v>
+        <v>45825.23958333334</v>
       </c>
       <c r="B25">
-        <v>593</v>
+        <v>665</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2">
-        <v>45824.25</v>
+        <v>45825.25</v>
       </c>
       <c r="B26">
-        <v>768</v>
+        <v>850</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2">
-        <v>45824.26041666666</v>
+        <v>45825.26041666666</v>
       </c>
       <c r="B27">
-        <v>775</v>
+        <v>848</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2">
-        <v>45824.27083333334</v>
+        <v>45825.27083333334</v>
       </c>
       <c r="B28">
-        <v>775</v>
+        <v>847</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2">
-        <v>45824.28125</v>
+        <v>45825.28125</v>
       </c>
       <c r="B29">
-        <v>807</v>
+        <v>848</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2">
-        <v>45824.29166666666</v>
+        <v>45825.29166666666</v>
       </c>
       <c r="B30">
-        <v>792</v>
+        <v>849</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2">
-        <v>45824.30208333334</v>
+        <v>45825.30208333334</v>
       </c>
       <c r="B31">
-        <v>800</v>
+        <v>844</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2">
-        <v>45824.3125</v>
+        <v>45825.3125</v>
       </c>
       <c r="B32">
-        <v>791</v>
+        <v>841</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2">
-        <v>45824.32291666666</v>
+        <v>45825.32291666666</v>
       </c>
       <c r="B33">
-        <v>792</v>
+        <v>843</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2">
-        <v>45824.33333333334</v>
+        <v>45825.33333333334</v>
       </c>
       <c r="B34">
-        <v>641</v>
+        <v>780</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="2">
-        <v>45824.34375</v>
+        <v>45825.34375</v>
       </c>
       <c r="B35">
-        <v>597</v>
+        <v>777</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="2">
-        <v>45824.35416666666</v>
+        <v>45825.35416666666</v>
       </c>
       <c r="B36">
-        <v>600</v>
+        <v>771</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="2">
-        <v>45824.36458333334</v>
+        <v>45825.36458333334</v>
       </c>
       <c r="B37">
-        <v>600</v>
+        <v>737</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="2">
-        <v>45824.375</v>
+        <v>45825.375</v>
       </c>
       <c r="B38">
-        <v>467</v>
+        <v>586</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="2">
-        <v>45824.38541666666</v>
+        <v>45825.38541666666</v>
       </c>
       <c r="B39">
-        <v>459</v>
+        <v>580</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="2">
-        <v>45824.39583333334</v>
+        <v>45825.39583333334</v>
       </c>
       <c r="B40">
-        <v>450</v>
+        <v>576</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="2">
-        <v>45824.40625</v>
+        <v>45825.40625</v>
       </c>
       <c r="B41">
-        <v>452</v>
+        <v>563</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="2">
-        <v>45824.41666666666</v>
+        <v>45825.41666666666</v>
       </c>
       <c r="B42">
-        <v>270</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="2">
-        <v>45824.42708333334</v>
+        <v>45825.42708333334</v>
       </c>
       <c r="B43">
-        <v>267</v>
+        <v>203</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="2">
-        <v>45824.4375</v>
+        <v>45825.4375</v>
       </c>
       <c r="B44">
-        <v>269</v>
+        <v>200</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="2">
-        <v>45824.44791666666</v>
+        <v>45825.44791666666</v>
       </c>
       <c r="B45">
-        <v>267</v>
+        <v>189</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="2">
-        <v>45824.45833333334</v>
+        <v>45825.45833333334</v>
       </c>
       <c r="B46">
-        <v>278</v>
+        <v>179</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="2">
-        <v>45824.46875</v>
+        <v>45825.46875</v>
       </c>
       <c r="B47">
-        <v>281</v>
+        <v>162</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="2">
-        <v>45824.47916666666</v>
+        <v>45825.47916666666</v>
       </c>
       <c r="B48">
-        <v>281</v>
+        <v>155</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="2">
-        <v>45824.48958333334</v>
+        <v>45825.48958333334</v>
       </c>
       <c r="B49">
-        <v>282</v>
+        <v>215</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="2">
-        <v>45824.5</v>
+        <v>45825.5</v>
       </c>
       <c r="B50">
-        <v>283</v>
+        <v>222</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="2">
-        <v>45824.51041666666</v>
+        <v>45825.51041666666</v>
       </c>
       <c r="B51">
-        <v>292</v>
+        <v>213</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="2">
-        <v>45824.52083333334</v>
+        <v>45825.52083333334</v>
       </c>
       <c r="B52">
-        <v>285</v>
+        <v>215</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="2">
-        <v>45824.53125</v>
+        <v>45825.53125</v>
       </c>
       <c r="B53">
-        <v>295</v>
+        <v>189</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="2">
-        <v>45824.54166666666</v>
+        <v>45825.54166666666</v>
       </c>
       <c r="B54">
-        <v>409</v>
+        <v>208</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="2">
-        <v>45824.55208333334</v>
+        <v>45825.55208333334</v>
       </c>
       <c r="B55">
-        <v>418</v>
+        <v>213</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="2">
-        <v>45824.5625</v>
+        <v>45825.5625</v>
       </c>
       <c r="B56">
-        <v>418</v>
+        <v>159</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="2">
-        <v>45824.57291666666</v>
+        <v>45825.57291666666</v>
       </c>
       <c r="B57">
-        <v>410</v>
+        <v>158</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="2">
-        <v>45824.58333333334</v>
+        <v>45825.58333333334</v>
       </c>
       <c r="B58">
-        <v>350</v>
+        <v>161</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="2">
-        <v>45824.59375</v>
+        <v>45825.59375</v>
       </c>
       <c r="B59">
-        <v>350</v>
+        <v>157</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="2">
-        <v>45824.60416666666</v>
+        <v>45825.60416666666</v>
       </c>
       <c r="B60">
-        <v>374</v>
+        <v>159</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="2">
-        <v>45824.61458333334</v>
+        <v>45825.61458333334</v>
       </c>
       <c r="B61">
-        <v>398</v>
+        <v>160</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="2">
-        <v>45824.625</v>
+        <v>45825.625</v>
       </c>
       <c r="B62">
-        <v>488</v>
+        <v>196</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="2">
-        <v>45824.63541666666</v>
+        <v>45825.63541666666</v>
       </c>
       <c r="B63">
-        <v>506</v>
+        <v>230</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="2">
-        <v>45824.64583333334</v>
+        <v>45825.64583333334</v>
       </c>
       <c r="B64">
-        <v>508</v>
+        <v>239</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="2">
-        <v>45824.65625</v>
+        <v>45825.65625</v>
       </c>
       <c r="B65">
-        <v>512</v>
+        <v>292</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="2">
-        <v>45824.66666666666</v>
+        <v>45825.66666666666</v>
       </c>
       <c r="B66">
-        <v>496</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="2">
-        <v>45824.67708333334</v>
+        <v>45825.67708333334</v>
       </c>
       <c r="B67">
-        <v>509</v>
+        <v>575</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="2">
-        <v>45824.6875</v>
+        <v>45825.6875</v>
       </c>
       <c r="B68">
-        <v>517</v>
+        <v>575</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="2">
-        <v>45824.69791666666</v>
+        <v>45825.69791666666</v>
       </c>
       <c r="B69">
-        <v>535</v>
+        <v>595</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="2">
-        <v>45824.70833333334</v>
+        <v>45825.70833333334</v>
       </c>
       <c r="B70">
-        <v>843</v>
+        <v>929</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="2">
-        <v>45824.71875</v>
+        <v>45825.71875</v>
       </c>
       <c r="B71">
-        <v>863</v>
+        <v>953</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="2">
-        <v>45824.72916666666</v>
+        <v>45825.72916666666</v>
       </c>
       <c r="B72">
-        <v>866</v>
+        <v>954</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="2">
-        <v>45824.73958333334</v>
+        <v>45825.73958333334</v>
       </c>
       <c r="B73">
-        <v>915</v>
+        <v>974</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="2">
-        <v>45824.75</v>
+        <v>45825.75</v>
       </c>
       <c r="B74">
-        <v>945</v>
+        <v>997</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="2">
-        <v>45824.76041666666</v>
+        <v>45825.76041666666</v>
       </c>
       <c r="B75">
-        <v>955</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="2">
-        <v>45824.77083333334</v>
+        <v>45825.77083333334</v>
       </c>
       <c r="B76">
-        <v>962</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="2">
-        <v>45824.78125</v>
+        <v>45825.78125</v>
       </c>
       <c r="B77">
-        <v>1015</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="2">
-        <v>45824.79166666666</v>
+        <v>45825.79166666666</v>
       </c>
       <c r="B78">
-        <v>1064</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="2">
-        <v>45824.80208333334</v>
+        <v>45825.80208333334</v>
       </c>
       <c r="B79">
-        <v>1072</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="2">
-        <v>45824.8125</v>
+        <v>45825.8125</v>
       </c>
       <c r="B80">
-        <v>1071</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="2">
-        <v>45824.82291666666</v>
+        <v>45825.82291666666</v>
       </c>
       <c r="B81">
-        <v>1092</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="2">
-        <v>45824.83333333334</v>
+        <v>45825.83333333334</v>
       </c>
       <c r="B82">
-        <v>1020</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="2">
-        <v>45824.84375</v>
+        <v>45825.84375</v>
       </c>
       <c r="B83">
-        <v>1018</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="2">
-        <v>45824.85416666666</v>
+        <v>45825.85416666666</v>
       </c>
       <c r="B84">
-        <v>1023</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="2">
-        <v>45824.86458333334</v>
+        <v>45825.86458333334</v>
       </c>
       <c r="B85">
-        <v>1023</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="2">
-        <v>45824.875</v>
+        <v>45825.875</v>
       </c>
       <c r="B86">
-        <v>979</v>
+        <v>996</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="2">
-        <v>45824.88541666666</v>
+        <v>45825.88541666666</v>
       </c>
       <c r="B87">
-        <v>993</v>
+        <v>996</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="2">
-        <v>45824.89583333334</v>
+        <v>45825.89583333334</v>
       </c>
       <c r="B88">
-        <v>978</v>
+        <v>989</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="2">
-        <v>45824.90625</v>
+        <v>45825.90625</v>
       </c>
       <c r="B89">
-        <v>958</v>
+        <v>908</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="2">
-        <v>45824.91666666666</v>
+        <v>45825.91666666666</v>
       </c>
       <c r="B90">
-        <v>736</v>
+        <v>818</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="2">
-        <v>45824.92708333334</v>
+        <v>45825.92708333334</v>
       </c>
       <c r="B91">
-        <v>713</v>
+        <v>818</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="2">
-        <v>45824.9375</v>
+        <v>45825.9375</v>
       </c>
       <c r="B92">
-        <v>712</v>
+        <v>806</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="2">
-        <v>45824.94791666666</v>
+        <v>45825.94791666666</v>
       </c>
       <c r="B93">
-        <v>710</v>
+        <v>758</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="2">
-        <v>45824.95833333334</v>
+        <v>45825.95833333334</v>
       </c>
       <c r="B94">
-        <v>674</v>
+        <v>636</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="2">
-        <v>45824.96875</v>
+        <v>45825.96875</v>
       </c>
       <c r="B95">
-        <v>670</v>
+        <v>673</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="2">
-        <v>45824.97916666666</v>
+        <v>45825.97916666666</v>
       </c>
       <c r="B96">
-        <v>670</v>
+        <v>675</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="2">
-        <v>45824.98958333334</v>
+        <v>45825.98958333334</v>
       </c>
       <c r="B97">
-        <v>665</v>
+        <v>644</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" s="2">
-        <v>45825</v>
+        <v>45826</v>
       </c>
       <c r="B98">
-        <v>642</v>
+        <v>695</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" s="2">
-        <v>45825.01041666666</v>
+        <v>45826.01041666666</v>
       </c>
       <c r="B99">
-        <v>641</v>
+        <v>679</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" s="2">
-        <v>45825.02083333334</v>
+        <v>45826.02083333334</v>
       </c>
       <c r="B100">
-        <v>643</v>
+        <v>628</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" s="2">
-        <v>45825.03125</v>
+        <v>45826.03125</v>
       </c>
       <c r="B101">
-        <v>641</v>
+        <v>628</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" s="2">
-        <v>45825.04166666666</v>
+        <v>45826.04166666666</v>
       </c>
       <c r="B102">
-        <v>653</v>
+        <v>322</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" s="2">
-        <v>45825.05208333334</v>
+        <v>45826.05208333334</v>
       </c>
       <c r="B103">
-        <v>658</v>
+        <v>306</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" s="2">
-        <v>45825.0625</v>
+        <v>45826.0625</v>
       </c>
       <c r="B104">
-        <v>642</v>
+        <v>300</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" s="2">
-        <v>45825.07291666666</v>
+        <v>45826.07291666666</v>
       </c>
       <c r="B105">
-        <v>636</v>
+        <v>291</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" s="2">
-        <v>45825.08333333334</v>
+        <v>45826.08333333334</v>
       </c>
       <c r="B106">
-        <v>672</v>
+        <v>268</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" s="2">
-        <v>45825.09375</v>
+        <v>45826.09375</v>
       </c>
       <c r="B107">
-        <v>711</v>
+        <v>250</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" s="2">
-        <v>45825.10416666666</v>
+        <v>45826.10416666666</v>
       </c>
       <c r="B108">
-        <v>683</v>
+        <v>250</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" s="2">
-        <v>45825.11458333334</v>
+        <v>45826.11458333334</v>
       </c>
       <c r="B109">
-        <v>641</v>
+        <v>249</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" s="2">
-        <v>45825.125</v>
+        <v>45826.125</v>
       </c>
       <c r="B110">
-        <v>646</v>
+        <v>250</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" s="2">
-        <v>45825.13541666666</v>
+        <v>45826.13541666666</v>
       </c>
       <c r="B111">
-        <v>643</v>
+        <v>247</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112" s="2">
-        <v>45825.14583333334</v>
+        <v>45826.14583333334</v>
       </c>
       <c r="B112">
-        <v>645</v>
+        <v>247</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" s="2">
-        <v>45825.15625</v>
+        <v>45826.15625</v>
       </c>
       <c r="B113">
-        <v>645</v>
+        <v>248</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" s="2">
-        <v>45825.16666666666</v>
+        <v>45826.16666666666</v>
       </c>
       <c r="B114">
-        <v>626</v>
+        <v>248</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" s="2">
-        <v>45825.17708333334</v>
+        <v>45826.17708333334</v>
       </c>
       <c r="B115">
-        <v>627</v>
+        <v>246</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" s="2">
-        <v>45825.1875</v>
+        <v>45826.1875</v>
       </c>
       <c r="B116">
-        <v>624</v>
+        <v>246</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117" s="2">
-        <v>45825.19791666666</v>
+        <v>45826.19791666666</v>
       </c>
       <c r="B117">
-        <v>625</v>
+        <v>250</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" s="2">
-        <v>45825.20833333334</v>
+        <v>45826.20833333334</v>
       </c>
       <c r="B118">
-        <v>677</v>
+        <v>327</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" s="2">
-        <v>45825.21875</v>
+        <v>45826.21875</v>
       </c>
       <c r="B119">
-        <v>649</v>
+        <v>328</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" s="2">
-        <v>45825.22916666666</v>
+        <v>45826.22916666666</v>
       </c>
       <c r="B120">
-        <v>636</v>
+        <v>328</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" s="2">
-        <v>45825.23958333334</v>
+        <v>45826.23958333334</v>
       </c>
       <c r="B121">
-        <v>665</v>
+        <v>399</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" s="2">
-        <v>45825.25</v>
+        <v>45826.25</v>
       </c>
       <c r="B122">
-        <v>850</v>
+        <v>801</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123" s="2">
-        <v>45825.26041666666</v>
+        <v>45826.26041666666</v>
       </c>
       <c r="B123">
-        <v>848</v>
+        <v>823</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" s="2">
-        <v>45825.27083333334</v>
+        <v>45826.27083333334</v>
       </c>
       <c r="B124">
-        <v>847</v>
+        <v>877</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" s="2">
-        <v>45825.28125</v>
+        <v>45826.28125</v>
       </c>
       <c r="B125">
-        <v>848</v>
+        <v>916</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" s="2">
-        <v>45825.29166666666</v>
+        <v>45826.29166666666</v>
       </c>
       <c r="B126">
-        <v>849</v>
+        <v>978</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127" s="2">
-        <v>45825.30208333334</v>
+        <v>45826.30208333334</v>
       </c>
       <c r="B127">
-        <v>844</v>
+        <v>948</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128" s="2">
-        <v>45825.3125</v>
+        <v>45826.3125</v>
       </c>
       <c r="B128">
-        <v>841</v>
+        <v>950</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" s="2">
-        <v>45825.32291666666</v>
+        <v>45826.32291666666</v>
       </c>
       <c r="B129">
-        <v>843</v>
+        <v>952</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" s="2">
-        <v>45825.33333333334</v>
+        <v>45826.33333333334</v>
       </c>
       <c r="B130">
-        <v>780</v>
+        <v>479</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" s="2">
-        <v>45825.34375</v>
+        <v>45826.34375</v>
       </c>
       <c r="B131">
-        <v>777</v>
+        <v>457</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132" s="2">
-        <v>45825.35416666666</v>
+        <v>45826.35416666666</v>
       </c>
       <c r="B132">
-        <v>771</v>
+        <v>447</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" s="2">
-        <v>45825.36458333334</v>
+        <v>45826.36458333334</v>
       </c>
       <c r="B133">
-        <v>737</v>
+        <v>432</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134" s="2">
-        <v>45825.375</v>
+        <v>45826.375</v>
       </c>
       <c r="B134">
-        <v>586</v>
+        <v>375</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135" s="2">
-        <v>45825.38541666666</v>
+        <v>45826.38541666666</v>
       </c>
       <c r="B135">
-        <v>580</v>
+        <v>357</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136" s="2">
-        <v>45825.39583333334</v>
+        <v>45826.39583333334</v>
       </c>
       <c r="B136">
-        <v>576</v>
+        <v>347</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137" s="2">
-        <v>45825.40625</v>
+        <v>45826.40625</v>
       </c>
       <c r="B137">
-        <v>563</v>
+        <v>341</v>
       </c>
     </row>
     <row r="138" spans="1:2">
       <c r="A138" s="2">
-        <v>45825.41666666666</v>
+        <v>45826.41666666666</v>
       </c>
       <c r="B138">
-        <v>0</v>
+        <v>278</v>
       </c>
     </row>
     <row r="139" spans="1:2">
       <c r="A139" s="2">
-        <v>45825.42708333334</v>
+        <v>45826.42708333334</v>
       </c>
       <c r="B139">
-        <v>0</v>
+        <v>278</v>
       </c>
     </row>
     <row r="140" spans="1:2">
       <c r="A140" s="2">
-        <v>45825.4375</v>
+        <v>45826.4375</v>
       </c>
       <c r="B140">
-        <v>0</v>
+        <v>276</v>
       </c>
     </row>
     <row r="141" spans="1:2">
       <c r="A141" s="2">
-        <v>45825.44791666666</v>
+        <v>45826.44791666666</v>
       </c>
       <c r="B141">
-        <v>0</v>
+        <v>277</v>
       </c>
     </row>
     <row r="142" spans="1:2">
       <c r="A142" s="2">
-        <v>45825.45833333334</v>
+        <v>45826.45833333334</v>
       </c>
       <c r="B142">
-        <v>0</v>
+        <v>259</v>
       </c>
     </row>
     <row r="143" spans="1:2">
       <c r="A143" s="2">
-        <v>45825.46875</v>
+        <v>45826.46875</v>
       </c>
       <c r="B143">
-        <v>0</v>
+        <v>245</v>
       </c>
     </row>
     <row r="144" spans="1:2">
       <c r="A144" s="2">
-        <v>45825.47916666666</v>
+        <v>45826.47916666666</v>
       </c>
       <c r="B144">
-        <v>0</v>
+        <v>267</v>
       </c>
     </row>
     <row r="145" spans="1:2">
       <c r="A145" s="2">
-        <v>45825.48958333334</v>
+        <v>45826.48958333334</v>
       </c>
       <c r="B145">
-        <v>0</v>
+        <v>266</v>
       </c>
     </row>
     <row r="146" spans="1:2">
       <c r="A146" s="2">
-        <v>45825.5</v>
+        <v>45826.5</v>
       </c>
       <c r="B146">
-        <v>0</v>
+        <v>253</v>
       </c>
     </row>
     <row r="147" spans="1:2">
       <c r="A147" s="2">
-        <v>45825.51041666666</v>
+        <v>45826.51041666666</v>
       </c>
       <c r="B147">
-        <v>0</v>
+        <v>251</v>
       </c>
     </row>
     <row r="148" spans="1:2">
       <c r="A148" s="2">
-        <v>45825.52083333334</v>
+        <v>45826.52083333334</v>
       </c>
       <c r="B148">
-        <v>0</v>
+        <v>252</v>
       </c>
     </row>
     <row r="149" spans="1:2">
       <c r="A149" s="2">
-        <v>45825.53125</v>
+        <v>45826.53125</v>
       </c>
       <c r="B149">
-        <v>0</v>
+        <v>253</v>
       </c>
     </row>
     <row r="150" spans="1:2">
       <c r="A150" s="2">
-        <v>45825.54166666666</v>
+        <v>45826.54166666666</v>
       </c>
       <c r="B150">
-        <v>0</v>
+        <v>291</v>
       </c>
     </row>
     <row r="151" spans="1:2">
       <c r="A151" s="2">
-        <v>45825.55208333334</v>
+        <v>45826.55208333334</v>
       </c>
       <c r="B151">
-        <v>0</v>
+        <v>317</v>
       </c>
     </row>
     <row r="152" spans="1:2">
       <c r="A152" s="2">
-        <v>45825.5625</v>
+        <v>45826.5625</v>
       </c>
       <c r="B152">
-        <v>0</v>
+        <v>313</v>
       </c>
     </row>
     <row r="153" spans="1:2">
       <c r="A153" s="2">
-        <v>45825.57291666666</v>
+        <v>45826.57291666666</v>
       </c>
       <c r="B153">
-        <v>0</v>
+        <v>258</v>
       </c>
     </row>
     <row r="154" spans="1:2">
       <c r="A154" s="2">
-        <v>45825.58333333334</v>
+        <v>45826.58333333334</v>
       </c>
       <c r="B154">
-        <v>0</v>
+        <v>243</v>
       </c>
     </row>
     <row r="155" spans="1:2">
       <c r="A155" s="2">
-        <v>45825.59375</v>
+        <v>45826.59375</v>
       </c>
       <c r="B155">
-        <v>0</v>
+        <v>235</v>
       </c>
     </row>
     <row r="156" spans="1:2">
       <c r="A156" s="2">
-        <v>45825.60416666666</v>
+        <v>45826.60416666666</v>
       </c>
       <c r="B156">
-        <v>0</v>
+        <v>233</v>
       </c>
     </row>
     <row r="157" spans="1:2">
       <c r="A157" s="2">
-        <v>45825.61458333334</v>
+        <v>45826.61458333334</v>
       </c>
       <c r="B157">
-        <v>0</v>
+        <v>249</v>
       </c>
     </row>
     <row r="158" spans="1:2">
       <c r="A158" s="2">
-        <v>45825.625</v>
+        <v>45826.625</v>
       </c>
       <c r="B158">
-        <v>0</v>
+        <v>405</v>
       </c>
     </row>
     <row r="159" spans="1:2">
       <c r="A159" s="2">
-        <v>45825.63541666666</v>
+        <v>45826.63541666666</v>
       </c>
       <c r="B159">
-        <v>0</v>
+        <v>430</v>
       </c>
     </row>
     <row r="160" spans="1:2">
       <c r="A160" s="2">
-        <v>45825.64583333334</v>
+        <v>45826.64583333334</v>
       </c>
       <c r="B160">
-        <v>0</v>
+        <v>441</v>
       </c>
     </row>
     <row r="161" spans="1:2">
       <c r="A161" s="2">
-        <v>45825.65625</v>
+        <v>45826.65625</v>
       </c>
       <c r="B161">
-        <v>0</v>
+        <v>437</v>
       </c>
     </row>
     <row r="162" spans="1:2">
       <c r="A162" s="2">
-        <v>45825.66666666666</v>
+        <v>45826.66666666666</v>
       </c>
       <c r="B162">
-        <v>0</v>
+        <v>456</v>
       </c>
     </row>
     <row r="163" spans="1:2">
       <c r="A163" s="2">
-        <v>45825.67708333334</v>
+        <v>45826.67708333334</v>
       </c>
       <c r="B163">
-        <v>0</v>
+        <v>476</v>
       </c>
     </row>
     <row r="164" spans="1:2">
       <c r="A164" s="2">
-        <v>45825.6875</v>
+        <v>45826.6875</v>
       </c>
       <c r="B164">
-        <v>0</v>
+        <v>474</v>
       </c>
     </row>
     <row r="165" spans="1:2">
       <c r="A165" s="2">
-        <v>45825.69791666666</v>
+        <v>45826.69791666666</v>
       </c>
       <c r="B165">
-        <v>0</v>
+        <v>490</v>
       </c>
     </row>
     <row r="166" spans="1:2">
       <c r="A166" s="2">
-        <v>45825.70833333334</v>
+        <v>45826.70833333334</v>
       </c>
       <c r="B166">
-        <v>0</v>
+        <v>509</v>
       </c>
     </row>
     <row r="167" spans="1:2">
       <c r="A167" s="2">
-        <v>45825.71875</v>
+        <v>45826.71875</v>
       </c>
       <c r="B167">
-        <v>0</v>
+        <v>523</v>
       </c>
     </row>
     <row r="168" spans="1:2">
       <c r="A168" s="2">
-        <v>45825.72916666666</v>
+        <v>45826.72916666666</v>
       </c>
       <c r="B168">
-        <v>0</v>
+        <v>523</v>
       </c>
     </row>
     <row r="169" spans="1:2">
       <c r="A169" s="2">
-        <v>45825.73958333334</v>
+        <v>45826.73958333334</v>
       </c>
       <c r="B169">
-        <v>0</v>
+        <v>567</v>
       </c>
     </row>
     <row r="170" spans="1:2">
       <c r="A170" s="2">
-        <v>45825.75</v>
+        <v>45826.75</v>
       </c>
       <c r="B170">
-        <v>0</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="171" spans="1:2">
       <c r="A171" s="2">
-        <v>45825.76041666666</v>
+        <v>45826.76041666666</v>
       </c>
       <c r="B171">
-        <v>0</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="172" spans="1:2">
       <c r="A172" s="2">
-        <v>45825.77083333334</v>
+        <v>45826.77083333334</v>
       </c>
       <c r="B172">
-        <v>0</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="173" spans="1:2">
       <c r="A173" s="2">
-        <v>45825.78125</v>
+        <v>45826.78125</v>
       </c>
       <c r="B173">
-        <v>0</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="174" spans="1:2">
       <c r="A174" s="2">
-        <v>45825.79166666666</v>
+        <v>45826.79166666666</v>
       </c>
       <c r="B174">
-        <v>0</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="175" spans="1:2">
       <c r="A175" s="2">
-        <v>45825.80208333334</v>
+        <v>45826.80208333334</v>
       </c>
       <c r="B175">
-        <v>0</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="176" spans="1:2">
       <c r="A176" s="2">
-        <v>45825.8125</v>
+        <v>45826.8125</v>
       </c>
       <c r="B176">
-        <v>0</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="177" spans="1:2">
       <c r="A177" s="2">
-        <v>45825.82291666666</v>
+        <v>45826.82291666666</v>
       </c>
       <c r="B177">
-        <v>0</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="178" spans="1:2">
       <c r="A178" s="2">
-        <v>45825.83333333334</v>
+        <v>45826.83333333334</v>
       </c>
       <c r="B178">
-        <v>0</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="179" spans="1:2">
       <c r="A179" s="2">
-        <v>45825.84375</v>
+        <v>45826.84375</v>
       </c>
       <c r="B179">
-        <v>0</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="180" spans="1:2">
       <c r="A180" s="2">
-        <v>45825.85416666666</v>
+        <v>45826.85416666666</v>
       </c>
       <c r="B180">
-        <v>0</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="181" spans="1:2">
       <c r="A181" s="2">
-        <v>45825.86458333334</v>
+        <v>45826.86458333334</v>
       </c>
       <c r="B181">
-        <v>0</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="182" spans="1:2">
       <c r="A182" s="2">
-        <v>45825.875</v>
+        <v>45826.875</v>
       </c>
       <c r="B182">
-        <v>0</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="183" spans="1:2">
       <c r="A183" s="2">
-        <v>45825.88541666666</v>
+        <v>45826.88541666666</v>
       </c>
       <c r="B183">
-        <v>0</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="184" spans="1:2">
       <c r="A184" s="2">
-        <v>45825.89583333334</v>
+        <v>45826.89583333334</v>
       </c>
       <c r="B184">
-        <v>0</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="185" spans="1:2">
       <c r="A185" s="2">
-        <v>45825.90625</v>
+        <v>45826.90625</v>
       </c>
       <c r="B185">
-        <v>0</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="186" spans="1:2">
       <c r="A186" s="2">
-        <v>45825.91666666666</v>
+        <v>45826.91666666666</v>
       </c>
       <c r="B186">
-        <v>0</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="187" spans="1:2">
       <c r="A187" s="2">
-        <v>45825.92708333334</v>
+        <v>45826.92708333334</v>
       </c>
       <c r="B187">
-        <v>0</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="188" spans="1:2">
       <c r="A188" s="2">
-        <v>45825.9375</v>
+        <v>45826.9375</v>
       </c>
       <c r="B188">
-        <v>0</v>
+        <v>904</v>
       </c>
     </row>
     <row r="189" spans="1:2">
       <c r="A189" s="2">
-        <v>45825.94791666666</v>
+        <v>45826.94791666666</v>
       </c>
       <c r="B189">
-        <v>0</v>
+        <v>899</v>
       </c>
     </row>
     <row r="190" spans="1:2">
       <c r="A190" s="2">
-        <v>45825.95833333334</v>
+        <v>45826.95833333334</v>
       </c>
       <c r="B190">
-        <v>0</v>
+        <v>854</v>
       </c>
     </row>
     <row r="191" spans="1:2">
       <c r="A191" s="2">
-        <v>45825.96875</v>
+        <v>45826.96875</v>
       </c>
       <c r="B191">
-        <v>0</v>
+        <v>836</v>
       </c>
     </row>
     <row r="192" spans="1:2">
       <c r="A192" s="2">
-        <v>45825.97916666666</v>
+        <v>45826.97916666666</v>
       </c>
       <c r="B192">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="193" spans="1:2">
       <c r="A193" s="2">
-        <v>45825.98958333334</v>
+        <v>45826.98958333334</v>
       </c>
       <c r="B193">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2">
+      <c r="A194" s="2">
+        <v>45827</v>
+      </c>
+      <c r="B194">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2">
+      <c r="A195" s="2">
+        <v>45827.01041666666</v>
+      </c>
+      <c r="B195">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2">
+      <c r="A196" s="2">
+        <v>45827.02083333334</v>
+      </c>
+      <c r="B196">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2">
+      <c r="A197" s="2">
+        <v>45827.03125</v>
+      </c>
+      <c r="B197">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2">
+      <c r="A198" s="2">
+        <v>45827.04166666666</v>
+      </c>
+      <c r="B198">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2">
+      <c r="A199" s="2">
+        <v>45827.05208333334</v>
+      </c>
+      <c r="B199">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2">
+      <c r="A200" s="2">
+        <v>45827.0625</v>
+      </c>
+      <c r="B200">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2">
+      <c r="A201" s="2">
+        <v>45827.07291666666</v>
+      </c>
+      <c r="B201">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2">
+      <c r="A202" s="2">
+        <v>45827.08333333334</v>
+      </c>
+      <c r="B202">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2">
+      <c r="A203" s="2">
+        <v>45827.09375</v>
+      </c>
+      <c r="B203">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2">
+      <c r="A204" s="2">
+        <v>45827.10416666666</v>
+      </c>
+      <c r="B204">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2">
+      <c r="A205" s="2">
+        <v>45827.11458333334</v>
+      </c>
+      <c r="B205">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2">
+      <c r="A206" s="2">
+        <v>45827.125</v>
+      </c>
+      <c r="B206">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2">
+      <c r="A207" s="2">
+        <v>45827.13541666666</v>
+      </c>
+      <c r="B207">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2">
+      <c r="A208" s="2">
+        <v>45827.14583333334</v>
+      </c>
+      <c r="B208">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2">
+      <c r="A209" s="2">
+        <v>45827.15625</v>
+      </c>
+      <c r="B209">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2">
+      <c r="A210" s="2">
+        <v>45827.16666666666</v>
+      </c>
+      <c r="B210">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2">
+      <c r="A211" s="2">
+        <v>45827.17708333334</v>
+      </c>
+      <c r="B211">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2">
+      <c r="A212" s="2">
+        <v>45827.1875</v>
+      </c>
+      <c r="B212">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2">
+      <c r="A213" s="2">
+        <v>45827.19791666666</v>
+      </c>
+      <c r="B213">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2">
+      <c r="A214" s="2">
+        <v>45827.20833333334</v>
+      </c>
+      <c r="B214">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2">
+      <c r="A215" s="2">
+        <v>45827.21875</v>
+      </c>
+      <c r="B215">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2">
+      <c r="A216" s="2">
+        <v>45827.22916666666</v>
+      </c>
+      <c r="B216">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2">
+      <c r="A217" s="2">
+        <v>45827.23958333334</v>
+      </c>
+      <c r="B217">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2">
+      <c r="A218" s="2">
+        <v>45827.25</v>
+      </c>
+      <c r="B218">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2">
+      <c r="A219" s="2">
+        <v>45827.26041666666</v>
+      </c>
+      <c r="B219">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2">
+      <c r="A220" s="2">
+        <v>45827.27083333334</v>
+      </c>
+      <c r="B220">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2">
+      <c r="A221" s="2">
+        <v>45827.28125</v>
+      </c>
+      <c r="B221">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2">
+      <c r="A222" s="2">
+        <v>45827.29166666666</v>
+      </c>
+      <c r="B222">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2">
+      <c r="A223" s="2">
+        <v>45827.30208333334</v>
+      </c>
+      <c r="B223">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2">
+      <c r="A224" s="2">
+        <v>45827.3125</v>
+      </c>
+      <c r="B224">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2">
+      <c r="A225" s="2">
+        <v>45827.32291666666</v>
+      </c>
+      <c r="B225">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2">
+      <c r="A226" s="2">
+        <v>45827.33333333334</v>
+      </c>
+      <c r="B226">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2">
+      <c r="A227" s="2">
+        <v>45827.34375</v>
+      </c>
+      <c r="B227">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2">
+      <c r="A228" s="2">
+        <v>45827.35416666666</v>
+      </c>
+      <c r="B228">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2">
+      <c r="A229" s="2">
+        <v>45827.36458333334</v>
+      </c>
+      <c r="B229">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2">
+      <c r="A230" s="2">
+        <v>45827.375</v>
+      </c>
+      <c r="B230">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2">
+      <c r="A231" s="2">
+        <v>45827.38541666666</v>
+      </c>
+      <c r="B231">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2">
+      <c r="A232" s="2">
+        <v>45827.39583333334</v>
+      </c>
+      <c r="B232">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2">
+      <c r="A233" s="2">
+        <v>45827.40625</v>
+      </c>
+      <c r="B233">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2">
+      <c r="A234" s="2">
+        <v>45827.41666666666</v>
+      </c>
+      <c r="B234">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2">
+      <c r="A235" s="2">
+        <v>45827.42708333334</v>
+      </c>
+      <c r="B235">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2">
+      <c r="A236" s="2">
+        <v>45827.4375</v>
+      </c>
+      <c r="B236">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2">
+      <c r="A237" s="2">
+        <v>45827.44791666666</v>
+      </c>
+      <c r="B237">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2">
+      <c r="A238" s="2">
+        <v>45827.45833333334</v>
+      </c>
+      <c r="B238">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2">
+      <c r="A239" s="2">
+        <v>45827.46875</v>
+      </c>
+      <c r="B239">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2">
+      <c r="A240" s="2">
+        <v>45827.47916666666</v>
+      </c>
+      <c r="B240">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2">
+      <c r="A241" s="2">
+        <v>45827.48958333334</v>
+      </c>
+      <c r="B241">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2">
+      <c r="A242" s="2">
+        <v>45827.5</v>
+      </c>
+      <c r="B242">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2">
+      <c r="A243" s="2">
+        <v>45827.51041666666</v>
+      </c>
+      <c r="B243">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2">
+      <c r="A244" s="2">
+        <v>45827.52083333334</v>
+      </c>
+      <c r="B244">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2">
+      <c r="A245" s="2">
+        <v>45827.53125</v>
+      </c>
+      <c r="B245">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2">
+      <c r="A246" s="2">
+        <v>45827.54166666666</v>
+      </c>
+      <c r="B246">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2">
+      <c r="A247" s="2">
+        <v>45827.55208333334</v>
+      </c>
+      <c r="B247">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2">
+      <c r="A248" s="2">
+        <v>45827.5625</v>
+      </c>
+      <c r="B248">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2">
+      <c r="A249" s="2">
+        <v>45827.57291666666</v>
+      </c>
+      <c r="B249">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2">
+      <c r="A250" s="2">
+        <v>45827.58333333334</v>
+      </c>
+      <c r="B250">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2">
+      <c r="A251" s="2">
+        <v>45827.59375</v>
+      </c>
+      <c r="B251">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2">
+      <c r="A252" s="2">
+        <v>45827.60416666666</v>
+      </c>
+      <c r="B252">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2">
+      <c r="A253" s="2">
+        <v>45827.61458333334</v>
+      </c>
+      <c r="B253">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2">
+      <c r="A254" s="2">
+        <v>45827.625</v>
+      </c>
+      <c r="B254">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2">
+      <c r="A255" s="2">
+        <v>45827.63541666666</v>
+      </c>
+      <c r="B255">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2">
+      <c r="A256" s="2">
+        <v>45827.64583333334</v>
+      </c>
+      <c r="B256">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2">
+      <c r="A257" s="2">
+        <v>45827.65625</v>
+      </c>
+      <c r="B257">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2">
+      <c r="A258" s="2">
+        <v>45827.66666666666</v>
+      </c>
+      <c r="B258">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2">
+      <c r="A259" s="2">
+        <v>45827.67708333334</v>
+      </c>
+      <c r="B259">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2">
+      <c r="A260" s="2">
+        <v>45827.6875</v>
+      </c>
+      <c r="B260">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2">
+      <c r="A261" s="2">
+        <v>45827.69791666666</v>
+      </c>
+      <c r="B261">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2">
+      <c r="A262" s="2">
+        <v>45827.70833333334</v>
+      </c>
+      <c r="B262">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2">
+      <c r="A263" s="2">
+        <v>45827.71875</v>
+      </c>
+      <c r="B263">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2">
+      <c r="A264" s="2">
+        <v>45827.72916666666</v>
+      </c>
+      <c r="B264">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2">
+      <c r="A265" s="2">
+        <v>45827.73958333334</v>
+      </c>
+      <c r="B265">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2">
+      <c r="A266" s="2">
+        <v>45827.75</v>
+      </c>
+      <c r="B266">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2">
+      <c r="A267" s="2">
+        <v>45827.76041666666</v>
+      </c>
+      <c r="B267">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2">
+      <c r="A268" s="2">
+        <v>45827.77083333334</v>
+      </c>
+      <c r="B268">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2">
+      <c r="A269" s="2">
+        <v>45827.78125</v>
+      </c>
+      <c r="B269">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2">
+      <c r="A270" s="2">
+        <v>45827.79166666666</v>
+      </c>
+      <c r="B270">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2">
+      <c r="A271" s="2">
+        <v>45827.80208333334</v>
+      </c>
+      <c r="B271">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2">
+      <c r="A272" s="2">
+        <v>45827.8125</v>
+      </c>
+      <c r="B272">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2">
+      <c r="A273" s="2">
+        <v>45827.82291666666</v>
+      </c>
+      <c r="B273">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2">
+      <c r="A274" s="2">
+        <v>45827.83333333334</v>
+      </c>
+      <c r="B274">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2">
+      <c r="A275" s="2">
+        <v>45827.84375</v>
+      </c>
+      <c r="B275">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2">
+      <c r="A276" s="2">
+        <v>45827.85416666666</v>
+      </c>
+      <c r="B276">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2">
+      <c r="A277" s="2">
+        <v>45827.86458333334</v>
+      </c>
+      <c r="B277">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2">
+      <c r="A278" s="2">
+        <v>45827.875</v>
+      </c>
+      <c r="B278">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2">
+      <c r="A279" s="2">
+        <v>45827.88541666666</v>
+      </c>
+      <c r="B279">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2">
+      <c r="A280" s="2">
+        <v>45827.89583333334</v>
+      </c>
+      <c r="B280">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2">
+      <c r="A281" s="2">
+        <v>45827.90625</v>
+      </c>
+      <c r="B281">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2">
+      <c r="A282" s="2">
+        <v>45827.91666666666</v>
+      </c>
+      <c r="B282">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2">
+      <c r="A283" s="2">
+        <v>45827.92708333334</v>
+      </c>
+      <c r="B283">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2">
+      <c r="A284" s="2">
+        <v>45827.9375</v>
+      </c>
+      <c r="B284">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2">
+      <c r="A285" s="2">
+        <v>45827.94791666666</v>
+      </c>
+      <c r="B285">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2">
+      <c r="A286" s="2">
+        <v>45827.95833333334</v>
+      </c>
+      <c r="B286">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2">
+      <c r="A287" s="2">
+        <v>45827.96875</v>
+      </c>
+      <c r="B287">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2">
+      <c r="A288" s="2">
+        <v>45827.97916666666</v>
+      </c>
+      <c r="B288">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2">
+      <c r="A289" s="2">
+        <v>45827.98958333334</v>
+      </c>
+      <c r="B289">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2">
+      <c r="A290" s="2">
+        <v>45828</v>
+      </c>
+      <c r="B290">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2">
+      <c r="A291" s="2">
+        <v>45828.01041666666</v>
+      </c>
+      <c r="B291">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2">
+      <c r="A292" s="2">
+        <v>45828.02083333334</v>
+      </c>
+      <c r="B292">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2">
+      <c r="A293" s="2">
+        <v>45828.03125</v>
+      </c>
+      <c r="B293">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2">
+      <c r="A294" s="2">
+        <v>45828.04166666666</v>
+      </c>
+      <c r="B294">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2">
+      <c r="A295" s="2">
+        <v>45828.05208333334</v>
+      </c>
+      <c r="B295">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2">
+      <c r="A296" s="2">
+        <v>45828.0625</v>
+      </c>
+      <c r="B296">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2">
+      <c r="A297" s="2">
+        <v>45828.07291666666</v>
+      </c>
+      <c r="B297">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2">
+      <c r="A298" s="2">
+        <v>45828.08333333334</v>
+      </c>
+      <c r="B298">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2">
+      <c r="A299" s="2">
+        <v>45828.09375</v>
+      </c>
+      <c r="B299">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2">
+      <c r="A300" s="2">
+        <v>45828.10416666666</v>
+      </c>
+      <c r="B300">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2">
+      <c r="A301" s="2">
+        <v>45828.11458333334</v>
+      </c>
+      <c r="B301">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2">
+      <c r="A302" s="2">
+        <v>45828.125</v>
+      </c>
+      <c r="B302">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2">
+      <c r="A303" s="2">
+        <v>45828.13541666666</v>
+      </c>
+      <c r="B303">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2">
+      <c r="A304" s="2">
+        <v>45828.14583333334</v>
+      </c>
+      <c r="B304">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2">
+      <c r="A305" s="2">
+        <v>45828.15625</v>
+      </c>
+      <c r="B305">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2">
+      <c r="A306" s="2">
+        <v>45828.16666666666</v>
+      </c>
+      <c r="B306">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2">
+      <c r="A307" s="2">
+        <v>45828.17708333334</v>
+      </c>
+      <c r="B307">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2">
+      <c r="A308" s="2">
+        <v>45828.1875</v>
+      </c>
+      <c r="B308">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2">
+      <c r="A309" s="2">
+        <v>45828.19791666666</v>
+      </c>
+      <c r="B309">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2">
+      <c r="A310" s="2">
+        <v>45828.20833333334</v>
+      </c>
+      <c r="B310">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2">
+      <c r="A311" s="2">
+        <v>45828.21875</v>
+      </c>
+      <c r="B311">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2">
+      <c r="A312" s="2">
+        <v>45828.22916666666</v>
+      </c>
+      <c r="B312">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2">
+      <c r="A313" s="2">
+        <v>45828.23958333334</v>
+      </c>
+      <c r="B313">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2">
+      <c r="A314" s="2">
+        <v>45828.25</v>
+      </c>
+      <c r="B314">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2">
+      <c r="A315" s="2">
+        <v>45828.26041666666</v>
+      </c>
+      <c r="B315">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2">
+      <c r="A316" s="2">
+        <v>45828.27083333334</v>
+      </c>
+      <c r="B316">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2">
+      <c r="A317" s="2">
+        <v>45828.28125</v>
+      </c>
+      <c r="B317">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2">
+      <c r="A318" s="2">
+        <v>45828.29166666666</v>
+      </c>
+      <c r="B318">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2">
+      <c r="A319" s="2">
+        <v>45828.30208333334</v>
+      </c>
+      <c r="B319">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2">
+      <c r="A320" s="2">
+        <v>45828.3125</v>
+      </c>
+      <c r="B320">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2">
+      <c r="A321" s="2">
+        <v>45828.32291666666</v>
+      </c>
+      <c r="B321">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2">
+      <c r="A322" s="2">
+        <v>45828.33333333334</v>
+      </c>
+      <c r="B322">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2">
+      <c r="A323" s="2">
+        <v>45828.34375</v>
+      </c>
+      <c r="B323">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2">
+      <c r="A324" s="2">
+        <v>45828.35416666666</v>
+      </c>
+      <c r="B324">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2">
+      <c r="A325" s="2">
+        <v>45828.36458333334</v>
+      </c>
+      <c r="B325">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2">
+      <c r="A326" s="2">
+        <v>45828.375</v>
+      </c>
+      <c r="B326">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2">
+      <c r="A327" s="2">
+        <v>45828.38541666666</v>
+      </c>
+      <c r="B327">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2">
+      <c r="A328" s="2">
+        <v>45828.39583333334</v>
+      </c>
+      <c r="B328">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2">
+      <c r="A329" s="2">
+        <v>45828.40625</v>
+      </c>
+      <c r="B329">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2">
+      <c r="A330" s="2">
+        <v>45828.41666666666</v>
+      </c>
+      <c r="B330">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2">
+      <c r="A331" s="2">
+        <v>45828.42708333334</v>
+      </c>
+      <c r="B331">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2">
+      <c r="A332" s="2">
+        <v>45828.4375</v>
+      </c>
+      <c r="B332">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2">
+      <c r="A333" s="2">
+        <v>45828.44791666666</v>
+      </c>
+      <c r="B333">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2">
+      <c r="A334" s="2">
+        <v>45828.45833333334</v>
+      </c>
+      <c r="B334">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2">
+      <c r="A335" s="2">
+        <v>45828.46875</v>
+      </c>
+      <c r="B335">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2">
+      <c r="A336" s="2">
+        <v>45828.47916666666</v>
+      </c>
+      <c r="B336">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2">
+      <c r="A337" s="2">
+        <v>45828.48958333334</v>
+      </c>
+      <c r="B337">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2">
+      <c r="A338" s="2">
+        <v>45828.5</v>
+      </c>
+      <c r="B338">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2">
+      <c r="A339" s="2">
+        <v>45828.51041666666</v>
+      </c>
+      <c r="B339">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2">
+      <c r="A340" s="2">
+        <v>45828.52083333334</v>
+      </c>
+      <c r="B340">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2">
+      <c r="A341" s="2">
+        <v>45828.53125</v>
+      </c>
+      <c r="B341">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2">
+      <c r="A342" s="2">
+        <v>45828.54166666666</v>
+      </c>
+      <c r="B342">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2">
+      <c r="A343" s="2">
+        <v>45828.55208333334</v>
+      </c>
+      <c r="B343">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2">
+      <c r="A344" s="2">
+        <v>45828.5625</v>
+      </c>
+      <c r="B344">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2">
+      <c r="A345" s="2">
+        <v>45828.57291666666</v>
+      </c>
+      <c r="B345">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2">
+      <c r="A346" s="2">
+        <v>45828.58333333334</v>
+      </c>
+      <c r="B346">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2">
+      <c r="A347" s="2">
+        <v>45828.59375</v>
+      </c>
+      <c r="B347">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2">
+      <c r="A348" s="2">
+        <v>45828.60416666666</v>
+      </c>
+      <c r="B348">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2">
+      <c r="A349" s="2">
+        <v>45828.61458333334</v>
+      </c>
+      <c r="B349">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2">
+      <c r="A350" s="2">
+        <v>45828.625</v>
+      </c>
+      <c r="B350">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2">
+      <c r="A351" s="2">
+        <v>45828.63541666666</v>
+      </c>
+      <c r="B351">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2">
+      <c r="A352" s="2">
+        <v>45828.64583333334</v>
+      </c>
+      <c r="B352">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2">
+      <c r="A353" s="2">
+        <v>45828.65625</v>
+      </c>
+      <c r="B353">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2">
+      <c r="A354" s="2">
+        <v>45828.66666666666</v>
+      </c>
+      <c r="B354">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2">
+      <c r="A355" s="2">
+        <v>45828.67708333334</v>
+      </c>
+      <c r="B355">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2">
+      <c r="A356" s="2">
+        <v>45828.6875</v>
+      </c>
+      <c r="B356">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2">
+      <c r="A357" s="2">
+        <v>45828.69791666666</v>
+      </c>
+      <c r="B357">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2">
+      <c r="A358" s="2">
+        <v>45828.70833333334</v>
+      </c>
+      <c r="B358">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2">
+      <c r="A359" s="2">
+        <v>45828.71875</v>
+      </c>
+      <c r="B359">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2">
+      <c r="A360" s="2">
+        <v>45828.72916666666</v>
+      </c>
+      <c r="B360">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2">
+      <c r="A361" s="2">
+        <v>45828.73958333334</v>
+      </c>
+      <c r="B361">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2">
+      <c r="A362" s="2">
+        <v>45828.75</v>
+      </c>
+      <c r="B362">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2">
+      <c r="A363" s="2">
+        <v>45828.76041666666</v>
+      </c>
+      <c r="B363">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2">
+      <c r="A364" s="2">
+        <v>45828.77083333334</v>
+      </c>
+      <c r="B364">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2">
+      <c r="A365" s="2">
+        <v>45828.78125</v>
+      </c>
+      <c r="B365">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2">
+      <c r="A366" s="2">
+        <v>45828.79166666666</v>
+      </c>
+      <c r="B366">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2">
+      <c r="A367" s="2">
+        <v>45828.80208333334</v>
+      </c>
+      <c r="B367">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2">
+      <c r="A368" s="2">
+        <v>45828.8125</v>
+      </c>
+      <c r="B368">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2">
+      <c r="A369" s="2">
+        <v>45828.82291666666</v>
+      </c>
+      <c r="B369">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2">
+      <c r="A370" s="2">
+        <v>45828.83333333334</v>
+      </c>
+      <c r="B370">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2">
+      <c r="A371" s="2">
+        <v>45828.84375</v>
+      </c>
+      <c r="B371">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2">
+      <c r="A372" s="2">
+        <v>45828.85416666666</v>
+      </c>
+      <c r="B372">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2">
+      <c r="A373" s="2">
+        <v>45828.86458333334</v>
+      </c>
+      <c r="B373">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2">
+      <c r="A374" s="2">
+        <v>45828.875</v>
+      </c>
+      <c r="B374">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2">
+      <c r="A375" s="2">
+        <v>45828.88541666666</v>
+      </c>
+      <c r="B375">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2">
+      <c r="A376" s="2">
+        <v>45828.89583333334</v>
+      </c>
+      <c r="B376">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2">
+      <c r="A377" s="2">
+        <v>45828.90625</v>
+      </c>
+      <c r="B377">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2">
+      <c r="A378" s="2">
+        <v>45828.91666666666</v>
+      </c>
+      <c r="B378">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2">
+      <c r="A379" s="2">
+        <v>45828.92708333334</v>
+      </c>
+      <c r="B379">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2">
+      <c r="A380" s="2">
+        <v>45828.9375</v>
+      </c>
+      <c r="B380">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2">
+      <c r="A381" s="2">
+        <v>45828.94791666666</v>
+      </c>
+      <c r="B381">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2">
+      <c r="A382" s="2">
+        <v>45828.95833333334</v>
+      </c>
+      <c r="B382">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2">
+      <c r="A383" s="2">
+        <v>45828.96875</v>
+      </c>
+      <c r="B383">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2">
+      <c r="A384" s="2">
+        <v>45828.97916666666</v>
+      </c>
+      <c r="B384">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2">
+      <c r="A385" s="2">
+        <v>45828.98958333334</v>
+      </c>
+      <c r="B385">
         <v>0</v>
       </c>
     </row>

--- a/data_fetching/Entsoe/Actual_Production_Hydro_Water_Reservoir.xlsx
+++ b/data_fetching/Entsoe/Actual_Production_Hydro_Water_Reservoir.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B385"/>
+  <dimension ref="A1:B865"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -397,815 +397,815 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2">
-        <v>45825</v>
+        <v>45851</v>
       </c>
       <c r="B2">
-        <v>642</v>
+        <v>556</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2">
-        <v>45825.01041666666</v>
+        <v>45851.01041666666</v>
       </c>
       <c r="B3">
-        <v>641</v>
+        <v>546</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2">
-        <v>45825.02083333334</v>
+        <v>45851.02083333334</v>
       </c>
       <c r="B4">
-        <v>643</v>
+        <v>547</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2">
-        <v>45825.03125</v>
+        <v>45851.03125</v>
       </c>
       <c r="B5">
-        <v>641</v>
+        <v>544</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2">
-        <v>45825.04166666666</v>
+        <v>45851.04166666666</v>
       </c>
       <c r="B6">
-        <v>653</v>
+        <v>252</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2">
-        <v>45825.05208333334</v>
+        <v>45851.05208333334</v>
       </c>
       <c r="B7">
-        <v>658</v>
+        <v>238</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2">
-        <v>45825.0625</v>
+        <v>45851.0625</v>
       </c>
       <c r="B8">
-        <v>642</v>
+        <v>237</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2">
-        <v>45825.07291666666</v>
+        <v>45851.07291666666</v>
       </c>
       <c r="B9">
-        <v>636</v>
+        <v>235</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2">
-        <v>45825.08333333334</v>
+        <v>45851.08333333334</v>
       </c>
       <c r="B10">
-        <v>672</v>
+        <v>237</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2">
-        <v>45825.09375</v>
+        <v>45851.09375</v>
       </c>
       <c r="B11">
-        <v>711</v>
+        <v>235</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2">
-        <v>45825.10416666666</v>
+        <v>45851.10416666666</v>
       </c>
       <c r="B12">
-        <v>683</v>
+        <v>235</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2">
-        <v>45825.11458333334</v>
+        <v>45851.11458333334</v>
       </c>
       <c r="B13">
-        <v>641</v>
+        <v>235</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2">
-        <v>45825.125</v>
+        <v>45851.125</v>
       </c>
       <c r="B14">
-        <v>646</v>
+        <v>235</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2">
-        <v>45825.13541666666</v>
+        <v>45851.13541666666</v>
       </c>
       <c r="B15">
-        <v>643</v>
+        <v>236</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2">
-        <v>45825.14583333334</v>
+        <v>45851.14583333334</v>
       </c>
       <c r="B16">
-        <v>645</v>
+        <v>236</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2">
-        <v>45825.15625</v>
+        <v>45851.15625</v>
       </c>
       <c r="B17">
-        <v>645</v>
+        <v>235</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2">
-        <v>45825.16666666666</v>
+        <v>45851.16666666666</v>
       </c>
       <c r="B18">
-        <v>626</v>
+        <v>236</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2">
-        <v>45825.17708333334</v>
+        <v>45851.17708333334</v>
       </c>
       <c r="B19">
-        <v>627</v>
+        <v>236</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2">
-        <v>45825.1875</v>
+        <v>45851.1875</v>
       </c>
       <c r="B20">
-        <v>624</v>
+        <v>236</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2">
-        <v>45825.19791666666</v>
+        <v>45851.19791666666</v>
       </c>
       <c r="B21">
-        <v>625</v>
+        <v>235</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2">
-        <v>45825.20833333334</v>
+        <v>45851.20833333334</v>
       </c>
       <c r="B22">
-        <v>677</v>
+        <v>237</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2">
-        <v>45825.21875</v>
+        <v>45851.21875</v>
       </c>
       <c r="B23">
-        <v>649</v>
+        <v>235</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2">
-        <v>45825.22916666666</v>
+        <v>45851.22916666666</v>
       </c>
       <c r="B24">
-        <v>636</v>
+        <v>235</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2">
-        <v>45825.23958333334</v>
+        <v>45851.23958333334</v>
       </c>
       <c r="B25">
-        <v>665</v>
+        <v>240</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2">
-        <v>45825.25</v>
+        <v>45851.25</v>
       </c>
       <c r="B26">
-        <v>850</v>
+        <v>235</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2">
-        <v>45825.26041666666</v>
+        <v>45851.26041666666</v>
       </c>
       <c r="B27">
-        <v>848</v>
+        <v>217</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2">
-        <v>45825.27083333334</v>
+        <v>45851.27083333334</v>
       </c>
       <c r="B28">
-        <v>847</v>
+        <v>213</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2">
-        <v>45825.28125</v>
+        <v>45851.28125</v>
       </c>
       <c r="B29">
-        <v>848</v>
+        <v>213</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2">
-        <v>45825.29166666666</v>
+        <v>45851.29166666666</v>
       </c>
       <c r="B30">
-        <v>849</v>
+        <v>178</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2">
-        <v>45825.30208333334</v>
+        <v>45851.30208333334</v>
       </c>
       <c r="B31">
-        <v>844</v>
+        <v>175</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2">
-        <v>45825.3125</v>
+        <v>45851.3125</v>
       </c>
       <c r="B32">
-        <v>841</v>
+        <v>176</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2">
-        <v>45825.32291666666</v>
+        <v>45851.32291666666</v>
       </c>
       <c r="B33">
-        <v>843</v>
+        <v>174</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2">
-        <v>45825.33333333334</v>
+        <v>45851.33333333334</v>
       </c>
       <c r="B34">
-        <v>780</v>
+        <v>116</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="2">
-        <v>45825.34375</v>
+        <v>45851.34375</v>
       </c>
       <c r="B35">
-        <v>777</v>
+        <v>100</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="2">
-        <v>45825.35416666666</v>
+        <v>45851.35416666666</v>
       </c>
       <c r="B36">
-        <v>771</v>
+        <v>107</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="2">
-        <v>45825.36458333334</v>
+        <v>45851.36458333334</v>
       </c>
       <c r="B37">
-        <v>737</v>
+        <v>101</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="2">
-        <v>45825.375</v>
+        <v>45851.375</v>
       </c>
       <c r="B38">
-        <v>586</v>
+        <v>62</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="2">
-        <v>45825.38541666666</v>
+        <v>45851.38541666666</v>
       </c>
       <c r="B39">
-        <v>580</v>
+        <v>48</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="2">
-        <v>45825.39583333334</v>
+        <v>45851.39583333334</v>
       </c>
       <c r="B40">
-        <v>576</v>
+        <v>49</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="2">
-        <v>45825.40625</v>
+        <v>45851.40625</v>
       </c>
       <c r="B41">
-        <v>563</v>
+        <v>48</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="2">
-        <v>45825.41666666666</v>
+        <v>45851.41666666666</v>
       </c>
       <c r="B42">
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="2">
-        <v>45825.42708333334</v>
+        <v>45851.42708333334</v>
       </c>
       <c r="B43">
-        <v>203</v>
+        <v>36</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="2">
-        <v>45825.4375</v>
+        <v>45851.4375</v>
       </c>
       <c r="B44">
-        <v>200</v>
+        <v>47</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="2">
-        <v>45825.44791666666</v>
+        <v>45851.44791666666</v>
       </c>
       <c r="B45">
-        <v>189</v>
+        <v>48</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="2">
-        <v>45825.45833333334</v>
+        <v>45851.45833333334</v>
       </c>
       <c r="B46">
-        <v>179</v>
+        <v>40</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="2">
-        <v>45825.46875</v>
+        <v>45851.46875</v>
       </c>
       <c r="B47">
-        <v>162</v>
+        <v>39</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="2">
-        <v>45825.47916666666</v>
+        <v>45851.47916666666</v>
       </c>
       <c r="B48">
-        <v>155</v>
+        <v>39</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="2">
-        <v>45825.48958333334</v>
+        <v>45851.48958333334</v>
       </c>
       <c r="B49">
-        <v>215</v>
+        <v>39</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="2">
-        <v>45825.5</v>
+        <v>45851.5</v>
       </c>
       <c r="B50">
-        <v>222</v>
+        <v>36</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="2">
-        <v>45825.51041666666</v>
+        <v>45851.51041666666</v>
       </c>
       <c r="B51">
-        <v>213</v>
+        <v>35</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="2">
-        <v>45825.52083333334</v>
+        <v>45851.52083333334</v>
       </c>
       <c r="B52">
-        <v>215</v>
+        <v>35</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="2">
-        <v>45825.53125</v>
+        <v>45851.53125</v>
       </c>
       <c r="B53">
-        <v>189</v>
+        <v>36</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="2">
-        <v>45825.54166666666</v>
+        <v>45851.54166666666</v>
       </c>
       <c r="B54">
-        <v>208</v>
+        <v>37</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="2">
-        <v>45825.55208333334</v>
+        <v>45851.55208333334</v>
       </c>
       <c r="B55">
-        <v>213</v>
+        <v>35</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="2">
-        <v>45825.5625</v>
+        <v>45851.5625</v>
       </c>
       <c r="B56">
-        <v>159</v>
+        <v>35</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="2">
-        <v>45825.57291666666</v>
+        <v>45851.57291666666</v>
       </c>
       <c r="B57">
-        <v>158</v>
+        <v>33</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="2">
-        <v>45825.58333333334</v>
+        <v>45851.58333333334</v>
       </c>
       <c r="B58">
-        <v>161</v>
+        <v>33</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="2">
-        <v>45825.59375</v>
+        <v>45851.59375</v>
       </c>
       <c r="B59">
-        <v>157</v>
+        <v>35</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="2">
-        <v>45825.60416666666</v>
+        <v>45851.60416666666</v>
       </c>
       <c r="B60">
-        <v>159</v>
+        <v>35</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="2">
-        <v>45825.61458333334</v>
+        <v>45851.61458333334</v>
       </c>
       <c r="B61">
-        <v>160</v>
+        <v>37</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="2">
-        <v>45825.625</v>
+        <v>45851.625</v>
       </c>
       <c r="B62">
-        <v>196</v>
+        <v>54</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="2">
-        <v>45825.63541666666</v>
+        <v>45851.63541666666</v>
       </c>
       <c r="B63">
-        <v>230</v>
+        <v>56</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="2">
-        <v>45825.64583333334</v>
+        <v>45851.64583333334</v>
       </c>
       <c r="B64">
-        <v>239</v>
+        <v>56</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="2">
-        <v>45825.65625</v>
+        <v>45851.65625</v>
       </c>
       <c r="B65">
-        <v>292</v>
+        <v>56</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="2">
-        <v>45825.66666666666</v>
+        <v>45851.66666666666</v>
       </c>
       <c r="B66">
-        <v>0</v>
+        <v>97</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="2">
-        <v>45825.67708333334</v>
+        <v>45851.67708333334</v>
       </c>
       <c r="B67">
-        <v>575</v>
+        <v>125</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="2">
-        <v>45825.6875</v>
+        <v>45851.6875</v>
       </c>
       <c r="B68">
-        <v>575</v>
+        <v>131</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="2">
-        <v>45825.69791666666</v>
+        <v>45851.69791666666</v>
       </c>
       <c r="B69">
-        <v>595</v>
+        <v>142</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="2">
-        <v>45825.70833333334</v>
+        <v>45851.70833333334</v>
       </c>
       <c r="B70">
-        <v>929</v>
+        <v>269</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="2">
-        <v>45825.71875</v>
+        <v>45851.71875</v>
       </c>
       <c r="B71">
-        <v>953</v>
+        <v>287</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="2">
-        <v>45825.72916666666</v>
+        <v>45851.72916666666</v>
       </c>
       <c r="B72">
-        <v>954</v>
+        <v>292</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="2">
-        <v>45825.73958333334</v>
+        <v>45851.73958333334</v>
       </c>
       <c r="B73">
-        <v>974</v>
+        <v>295</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="2">
-        <v>45825.75</v>
+        <v>45851.75</v>
       </c>
       <c r="B74">
-        <v>997</v>
+        <v>328</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="2">
-        <v>45825.76041666666</v>
+        <v>45851.76041666666</v>
       </c>
       <c r="B75">
-        <v>1041</v>
+        <v>371</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="2">
-        <v>45825.77083333334</v>
+        <v>45851.77083333334</v>
       </c>
       <c r="B76">
-        <v>1045</v>
+        <v>466</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="2">
-        <v>45825.78125</v>
+        <v>45851.78125</v>
       </c>
       <c r="B77">
-        <v>1071</v>
+        <v>493</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="2">
-        <v>45825.79166666666</v>
+        <v>45851.79166666666</v>
       </c>
       <c r="B78">
-        <v>1075</v>
+        <v>950</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="2">
-        <v>45825.80208333334</v>
+        <v>45851.80208333334</v>
       </c>
       <c r="B79">
-        <v>1137</v>
+        <v>960</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="2">
-        <v>45825.8125</v>
+        <v>45851.8125</v>
       </c>
       <c r="B80">
-        <v>1073</v>
+        <v>796</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="2">
-        <v>45825.82291666666</v>
+        <v>45851.82291666666</v>
       </c>
       <c r="B81">
-        <v>1087</v>
+        <v>798</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="2">
-        <v>45825.83333333334</v>
+        <v>45851.83333333334</v>
       </c>
       <c r="B82">
-        <v>1056</v>
+        <v>788</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="2">
-        <v>45825.84375</v>
+        <v>45851.84375</v>
       </c>
       <c r="B83">
-        <v>1062</v>
+        <v>805</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="2">
-        <v>45825.85416666666</v>
+        <v>45851.85416666666</v>
       </c>
       <c r="B84">
-        <v>1054</v>
+        <v>804</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="2">
-        <v>45825.86458333334</v>
+        <v>45851.86458333334</v>
       </c>
       <c r="B85">
-        <v>1057</v>
+        <v>801</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="2">
-        <v>45825.875</v>
+        <v>45851.875</v>
       </c>
       <c r="B86">
-        <v>996</v>
+        <v>721</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="2">
-        <v>45825.88541666666</v>
+        <v>45851.88541666666</v>
       </c>
       <c r="B87">
-        <v>996</v>
+        <v>718</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="2">
-        <v>45825.89583333334</v>
+        <v>45851.89583333334</v>
       </c>
       <c r="B88">
-        <v>989</v>
+        <v>724</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="2">
-        <v>45825.90625</v>
+        <v>45851.90625</v>
       </c>
       <c r="B89">
-        <v>908</v>
+        <v>721</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="2">
-        <v>45825.91666666666</v>
+        <v>45851.91666666666</v>
       </c>
       <c r="B90">
-        <v>818</v>
+        <v>643</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="2">
-        <v>45825.92708333334</v>
+        <v>45851.92708333334</v>
       </c>
       <c r="B91">
-        <v>818</v>
+        <v>637</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="2">
-        <v>45825.9375</v>
+        <v>45851.9375</v>
       </c>
       <c r="B92">
-        <v>806</v>
+        <v>636</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="2">
-        <v>45825.94791666666</v>
+        <v>45851.94791666666</v>
       </c>
       <c r="B93">
-        <v>758</v>
+        <v>652</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="2">
-        <v>45825.95833333334</v>
+        <v>45851.95833333334</v>
       </c>
       <c r="B94">
-        <v>636</v>
+        <v>738</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="2">
-        <v>45825.96875</v>
+        <v>45851.96875</v>
       </c>
       <c r="B95">
-        <v>673</v>
+        <v>727</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="2">
-        <v>45825.97916666666</v>
+        <v>45851.97916666666</v>
       </c>
       <c r="B96">
-        <v>675</v>
+        <v>729</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="2">
-        <v>45825.98958333334</v>
+        <v>45851.98958333334</v>
       </c>
       <c r="B97">
-        <v>644</v>
+        <v>727</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" s="2">
-        <v>45826</v>
+        <v>45852</v>
       </c>
       <c r="B98">
-        <v>695</v>
+        <v>733</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" s="2">
-        <v>45826.01041666666</v>
+        <v>45852.01041666666</v>
       </c>
       <c r="B99">
-        <v>679</v>
+        <v>725</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" s="2">
-        <v>45826.02083333334</v>
+        <v>45852.02083333334</v>
       </c>
       <c r="B100">
-        <v>628</v>
+        <v>724</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" s="2">
-        <v>45826.03125</v>
+        <v>45852.03125</v>
       </c>
       <c r="B101">
-        <v>628</v>
+        <v>725</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" s="2">
-        <v>45826.04166666666</v>
+        <v>45852.04166666666</v>
       </c>
       <c r="B102">
-        <v>322</v>
+        <v>359</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" s="2">
-        <v>45826.05208333334</v>
+        <v>45852.05208333334</v>
       </c>
       <c r="B103">
         <v>306</v>
@@ -1213,1815 +1213,1815 @@
     </row>
     <row r="104" spans="1:2">
       <c r="A104" s="2">
-        <v>45826.0625</v>
+        <v>45852.0625</v>
       </c>
       <c r="B104">
-        <v>300</v>
+        <v>305</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" s="2">
-        <v>45826.07291666666</v>
+        <v>45852.07291666666</v>
       </c>
       <c r="B105">
-        <v>291</v>
+        <v>296</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" s="2">
-        <v>45826.08333333334</v>
+        <v>45852.08333333334</v>
       </c>
       <c r="B106">
-        <v>268</v>
+        <v>288</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" s="2">
-        <v>45826.09375</v>
+        <v>45852.09375</v>
       </c>
       <c r="B107">
-        <v>250</v>
+        <v>277</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" s="2">
-        <v>45826.10416666666</v>
+        <v>45852.10416666666</v>
       </c>
       <c r="B108">
-        <v>250</v>
+        <v>274</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" s="2">
-        <v>45826.11458333334</v>
+        <v>45852.11458333334</v>
       </c>
       <c r="B109">
-        <v>249</v>
+        <v>273</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" s="2">
-        <v>45826.125</v>
+        <v>45852.125</v>
       </c>
       <c r="B110">
-        <v>250</v>
+        <v>275</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" s="2">
-        <v>45826.13541666666</v>
+        <v>45852.13541666666</v>
       </c>
       <c r="B111">
-        <v>247</v>
+        <v>275</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112" s="2">
-        <v>45826.14583333334</v>
+        <v>45852.14583333334</v>
       </c>
       <c r="B112">
-        <v>247</v>
+        <v>273</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" s="2">
-        <v>45826.15625</v>
+        <v>45852.15625</v>
       </c>
       <c r="B113">
-        <v>248</v>
+        <v>274</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" s="2">
-        <v>45826.16666666666</v>
+        <v>45852.16666666666</v>
       </c>
       <c r="B114">
-        <v>248</v>
+        <v>318</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" s="2">
-        <v>45826.17708333334</v>
+        <v>45852.17708333334</v>
       </c>
       <c r="B115">
-        <v>246</v>
+        <v>319</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" s="2">
-        <v>45826.1875</v>
+        <v>45852.1875</v>
       </c>
       <c r="B116">
-        <v>246</v>
+        <v>320</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117" s="2">
-        <v>45826.19791666666</v>
+        <v>45852.19791666666</v>
       </c>
       <c r="B117">
-        <v>250</v>
+        <v>323</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" s="2">
-        <v>45826.20833333334</v>
+        <v>45852.20833333334</v>
       </c>
       <c r="B118">
-        <v>327</v>
+        <v>352</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" s="2">
-        <v>45826.21875</v>
+        <v>45852.21875</v>
       </c>
       <c r="B119">
-        <v>328</v>
+        <v>352</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" s="2">
-        <v>45826.22916666666</v>
+        <v>45852.22916666666</v>
       </c>
       <c r="B120">
-        <v>328</v>
+        <v>353</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" s="2">
-        <v>45826.23958333334</v>
+        <v>45852.23958333334</v>
       </c>
       <c r="B121">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" s="2">
-        <v>45826.25</v>
+        <v>45852.25</v>
       </c>
       <c r="B122">
-        <v>801</v>
+        <v>743</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123" s="2">
-        <v>45826.26041666666</v>
+        <v>45852.26041666666</v>
       </c>
       <c r="B123">
-        <v>823</v>
+        <v>746</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" s="2">
-        <v>45826.27083333334</v>
+        <v>45852.27083333334</v>
       </c>
       <c r="B124">
-        <v>877</v>
+        <v>747</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" s="2">
-        <v>45826.28125</v>
+        <v>45852.28125</v>
       </c>
       <c r="B125">
-        <v>916</v>
+        <v>748</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" s="2">
-        <v>45826.29166666666</v>
+        <v>45852.29166666666</v>
       </c>
       <c r="B126">
-        <v>978</v>
+        <v>561</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127" s="2">
-        <v>45826.30208333334</v>
+        <v>45852.30208333334</v>
       </c>
       <c r="B127">
-        <v>948</v>
+        <v>556</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128" s="2">
-        <v>45826.3125</v>
+        <v>45852.3125</v>
       </c>
       <c r="B128">
-        <v>950</v>
+        <v>640</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" s="2">
-        <v>45826.32291666666</v>
+        <v>45852.32291666666</v>
       </c>
       <c r="B129">
-        <v>952</v>
+        <v>649</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" s="2">
-        <v>45826.33333333334</v>
+        <v>45852.33333333334</v>
       </c>
       <c r="B130">
-        <v>479</v>
+        <v>172</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" s="2">
-        <v>45826.34375</v>
+        <v>45852.34375</v>
       </c>
       <c r="B131">
-        <v>457</v>
+        <v>146</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132" s="2">
-        <v>45826.35416666666</v>
+        <v>45852.35416666666</v>
       </c>
       <c r="B132">
-        <v>447</v>
+        <v>136</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" s="2">
-        <v>45826.36458333334</v>
+        <v>45852.36458333334</v>
       </c>
       <c r="B133">
-        <v>432</v>
+        <v>136</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134" s="2">
-        <v>45826.375</v>
+        <v>45852.375</v>
       </c>
       <c r="B134">
-        <v>375</v>
+        <v>130</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135" s="2">
-        <v>45826.38541666666</v>
+        <v>45852.38541666666</v>
       </c>
       <c r="B135">
-        <v>357</v>
+        <v>131</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136" s="2">
-        <v>45826.39583333334</v>
+        <v>45852.39583333334</v>
       </c>
       <c r="B136">
-        <v>347</v>
+        <v>271</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137" s="2">
-        <v>45826.40625</v>
+        <v>45852.40625</v>
       </c>
       <c r="B137">
-        <v>341</v>
+        <v>270</v>
       </c>
     </row>
     <row r="138" spans="1:2">
       <c r="A138" s="2">
-        <v>45826.41666666666</v>
+        <v>45852.41666666666</v>
       </c>
       <c r="B138">
-        <v>278</v>
+        <v>241</v>
       </c>
     </row>
     <row r="139" spans="1:2">
       <c r="A139" s="2">
-        <v>45826.42708333334</v>
+        <v>45852.42708333334</v>
       </c>
       <c r="B139">
-        <v>278</v>
+        <v>246</v>
       </c>
     </row>
     <row r="140" spans="1:2">
       <c r="A140" s="2">
-        <v>45826.4375</v>
+        <v>45852.4375</v>
       </c>
       <c r="B140">
-        <v>276</v>
+        <v>116</v>
       </c>
     </row>
     <row r="141" spans="1:2">
       <c r="A141" s="2">
-        <v>45826.44791666666</v>
+        <v>45852.44791666666</v>
       </c>
       <c r="B141">
-        <v>277</v>
+        <v>113</v>
       </c>
     </row>
     <row r="142" spans="1:2">
       <c r="A142" s="2">
-        <v>45826.45833333334</v>
+        <v>45852.45833333334</v>
       </c>
       <c r="B142">
-        <v>259</v>
+        <v>108</v>
       </c>
     </row>
     <row r="143" spans="1:2">
       <c r="A143" s="2">
-        <v>45826.46875</v>
+        <v>45852.46875</v>
       </c>
       <c r="B143">
-        <v>245</v>
+        <v>104</v>
       </c>
     </row>
     <row r="144" spans="1:2">
       <c r="A144" s="2">
-        <v>45826.47916666666</v>
+        <v>45852.47916666666</v>
       </c>
       <c r="B144">
-        <v>267</v>
+        <v>107</v>
       </c>
     </row>
     <row r="145" spans="1:2">
       <c r="A145" s="2">
-        <v>45826.48958333334</v>
+        <v>45852.48958333334</v>
       </c>
       <c r="B145">
-        <v>266</v>
+        <v>113</v>
       </c>
     </row>
     <row r="146" spans="1:2">
       <c r="A146" s="2">
-        <v>45826.5</v>
+        <v>45852.5</v>
       </c>
       <c r="B146">
-        <v>253</v>
+        <v>159</v>
       </c>
     </row>
     <row r="147" spans="1:2">
       <c r="A147" s="2">
-        <v>45826.51041666666</v>
+        <v>45852.51041666666</v>
       </c>
       <c r="B147">
-        <v>251</v>
+        <v>158</v>
       </c>
     </row>
     <row r="148" spans="1:2">
       <c r="A148" s="2">
-        <v>45826.52083333334</v>
+        <v>45852.52083333334</v>
       </c>
       <c r="B148">
-        <v>252</v>
+        <v>168</v>
       </c>
     </row>
     <row r="149" spans="1:2">
       <c r="A149" s="2">
-        <v>45826.53125</v>
+        <v>45852.53125</v>
       </c>
       <c r="B149">
-        <v>253</v>
+        <v>172</v>
       </c>
     </row>
     <row r="150" spans="1:2">
       <c r="A150" s="2">
-        <v>45826.54166666666</v>
+        <v>45852.54166666666</v>
       </c>
       <c r="B150">
-        <v>291</v>
+        <v>277</v>
       </c>
     </row>
     <row r="151" spans="1:2">
       <c r="A151" s="2">
-        <v>45826.55208333334</v>
+        <v>45852.55208333334</v>
       </c>
       <c r="B151">
-        <v>317</v>
+        <v>292</v>
       </c>
     </row>
     <row r="152" spans="1:2">
       <c r="A152" s="2">
-        <v>45826.5625</v>
+        <v>45852.5625</v>
       </c>
       <c r="B152">
-        <v>313</v>
+        <v>297</v>
       </c>
     </row>
     <row r="153" spans="1:2">
       <c r="A153" s="2">
-        <v>45826.57291666666</v>
+        <v>45852.57291666666</v>
       </c>
       <c r="B153">
-        <v>258</v>
+        <v>297</v>
       </c>
     </row>
     <row r="154" spans="1:2">
       <c r="A154" s="2">
-        <v>45826.58333333334</v>
+        <v>45852.58333333334</v>
       </c>
       <c r="B154">
-        <v>243</v>
+        <v>297</v>
       </c>
     </row>
     <row r="155" spans="1:2">
       <c r="A155" s="2">
-        <v>45826.59375</v>
+        <v>45852.59375</v>
       </c>
       <c r="B155">
-        <v>235</v>
+        <v>297</v>
       </c>
     </row>
     <row r="156" spans="1:2">
       <c r="A156" s="2">
-        <v>45826.60416666666</v>
+        <v>45852.60416666666</v>
       </c>
       <c r="B156">
-        <v>233</v>
+        <v>298</v>
       </c>
     </row>
     <row r="157" spans="1:2">
       <c r="A157" s="2">
-        <v>45826.61458333334</v>
+        <v>45852.61458333334</v>
       </c>
       <c r="B157">
-        <v>249</v>
+        <v>299</v>
       </c>
     </row>
     <row r="158" spans="1:2">
       <c r="A158" s="2">
-        <v>45826.625</v>
+        <v>45852.625</v>
       </c>
       <c r="B158">
-        <v>405</v>
+        <v>340</v>
       </c>
     </row>
     <row r="159" spans="1:2">
       <c r="A159" s="2">
-        <v>45826.63541666666</v>
+        <v>45852.63541666666</v>
       </c>
       <c r="B159">
-        <v>430</v>
+        <v>346</v>
       </c>
     </row>
     <row r="160" spans="1:2">
       <c r="A160" s="2">
-        <v>45826.64583333334</v>
+        <v>45852.64583333334</v>
       </c>
       <c r="B160">
-        <v>441</v>
+        <v>343</v>
       </c>
     </row>
     <row r="161" spans="1:2">
       <c r="A161" s="2">
-        <v>45826.65625</v>
+        <v>45852.65625</v>
       </c>
       <c r="B161">
-        <v>437</v>
+        <v>348</v>
       </c>
     </row>
     <row r="162" spans="1:2">
       <c r="A162" s="2">
-        <v>45826.66666666666</v>
+        <v>45852.66666666666</v>
       </c>
       <c r="B162">
-        <v>456</v>
+        <v>382</v>
       </c>
     </row>
     <row r="163" spans="1:2">
       <c r="A163" s="2">
-        <v>45826.67708333334</v>
+        <v>45852.67708333334</v>
       </c>
       <c r="B163">
-        <v>476</v>
+        <v>385</v>
       </c>
     </row>
     <row r="164" spans="1:2">
       <c r="A164" s="2">
-        <v>45826.6875</v>
+        <v>45852.6875</v>
       </c>
       <c r="B164">
-        <v>474</v>
+        <v>383</v>
       </c>
     </row>
     <row r="165" spans="1:2">
       <c r="A165" s="2">
-        <v>45826.69791666666</v>
+        <v>45852.69791666666</v>
       </c>
       <c r="B165">
-        <v>490</v>
+        <v>444</v>
       </c>
     </row>
     <row r="166" spans="1:2">
       <c r="A166" s="2">
-        <v>45826.70833333334</v>
+        <v>45852.70833333334</v>
       </c>
       <c r="B166">
-        <v>509</v>
+        <v>916</v>
       </c>
     </row>
     <row r="167" spans="1:2">
       <c r="A167" s="2">
-        <v>45826.71875</v>
+        <v>45852.71875</v>
       </c>
       <c r="B167">
-        <v>523</v>
+        <v>925</v>
       </c>
     </row>
     <row r="168" spans="1:2">
       <c r="A168" s="2">
-        <v>45826.72916666666</v>
+        <v>45852.72916666666</v>
       </c>
       <c r="B168">
-        <v>523</v>
+        <v>928</v>
       </c>
     </row>
     <row r="169" spans="1:2">
       <c r="A169" s="2">
-        <v>45826.73958333334</v>
+        <v>45852.73958333334</v>
       </c>
       <c r="B169">
-        <v>567</v>
+        <v>938</v>
       </c>
     </row>
     <row r="170" spans="1:2">
       <c r="A170" s="2">
-        <v>45826.75</v>
+        <v>45852.75</v>
       </c>
       <c r="B170">
-        <v>1092</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="171" spans="1:2">
       <c r="A171" s="2">
-        <v>45826.76041666666</v>
+        <v>45852.76041666666</v>
       </c>
       <c r="B171">
-        <v>1106</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="172" spans="1:2">
       <c r="A172" s="2">
-        <v>45826.77083333334</v>
+        <v>45852.77083333334</v>
       </c>
       <c r="B172">
-        <v>1166</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="173" spans="1:2">
       <c r="A173" s="2">
-        <v>45826.78125</v>
+        <v>45852.78125</v>
       </c>
       <c r="B173">
-        <v>1193</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="174" spans="1:2">
       <c r="A174" s="2">
-        <v>45826.79166666666</v>
+        <v>45852.79166666666</v>
       </c>
       <c r="B174">
-        <v>1272</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="175" spans="1:2">
       <c r="A175" s="2">
-        <v>45826.80208333334</v>
+        <v>45852.80208333334</v>
       </c>
       <c r="B175">
-        <v>1283</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="176" spans="1:2">
       <c r="A176" s="2">
-        <v>45826.8125</v>
+        <v>45852.8125</v>
       </c>
       <c r="B176">
-        <v>1293</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="177" spans="1:2">
       <c r="A177" s="2">
-        <v>45826.82291666666</v>
+        <v>45852.82291666666</v>
       </c>
       <c r="B177">
-        <v>1317</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="178" spans="1:2">
       <c r="A178" s="2">
-        <v>45826.83333333334</v>
+        <v>45852.83333333334</v>
       </c>
       <c r="B178">
-        <v>1289</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="179" spans="1:2">
       <c r="A179" s="2">
-        <v>45826.84375</v>
+        <v>45852.84375</v>
       </c>
       <c r="B179">
-        <v>1287</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="180" spans="1:2">
       <c r="A180" s="2">
-        <v>45826.85416666666</v>
+        <v>45852.85416666666</v>
       </c>
       <c r="B180">
-        <v>1298</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="181" spans="1:2">
       <c r="A181" s="2">
-        <v>45826.86458333334</v>
+        <v>45852.86458333334</v>
       </c>
       <c r="B181">
-        <v>1269</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="182" spans="1:2">
       <c r="A182" s="2">
-        <v>45826.875</v>
+        <v>45852.875</v>
       </c>
       <c r="B182">
-        <v>1203</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="183" spans="1:2">
       <c r="A183" s="2">
-        <v>45826.88541666666</v>
+        <v>45852.88541666666</v>
       </c>
       <c r="B183">
-        <v>1390</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="184" spans="1:2">
       <c r="A184" s="2">
-        <v>45826.89583333334</v>
+        <v>45852.89583333334</v>
       </c>
       <c r="B184">
-        <v>1338</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="185" spans="1:2">
       <c r="A185" s="2">
-        <v>45826.90625</v>
+        <v>45852.90625</v>
       </c>
       <c r="B185">
-        <v>1309</v>
+        <v>993</v>
       </c>
     </row>
     <row r="186" spans="1:2">
       <c r="A186" s="2">
-        <v>45826.91666666666</v>
+        <v>45852.91666666666</v>
       </c>
       <c r="B186">
-        <v>1066</v>
+        <v>745</v>
       </c>
     </row>
     <row r="187" spans="1:2">
       <c r="A187" s="2">
-        <v>45826.92708333334</v>
+        <v>45852.92708333334</v>
       </c>
       <c r="B187">
-        <v>1044</v>
+        <v>732</v>
       </c>
     </row>
     <row r="188" spans="1:2">
       <c r="A188" s="2">
-        <v>45826.9375</v>
+        <v>45852.9375</v>
       </c>
       <c r="B188">
-        <v>904</v>
+        <v>730</v>
       </c>
     </row>
     <row r="189" spans="1:2">
       <c r="A189" s="2">
-        <v>45826.94791666666</v>
+        <v>45852.94791666666</v>
       </c>
       <c r="B189">
-        <v>899</v>
+        <v>725</v>
       </c>
     </row>
     <row r="190" spans="1:2">
       <c r="A190" s="2">
-        <v>45826.95833333334</v>
+        <v>45852.95833333334</v>
       </c>
       <c r="B190">
-        <v>854</v>
+        <v>656</v>
       </c>
     </row>
     <row r="191" spans="1:2">
       <c r="A191" s="2">
-        <v>45826.96875</v>
+        <v>45852.96875</v>
       </c>
       <c r="B191">
-        <v>836</v>
+        <v>647</v>
       </c>
     </row>
     <row r="192" spans="1:2">
       <c r="A192" s="2">
-        <v>45826.97916666666</v>
+        <v>45852.97916666666</v>
       </c>
       <c r="B192">
-        <v>840</v>
+        <v>643</v>
       </c>
     </row>
     <row r="193" spans="1:2">
       <c r="A193" s="2">
-        <v>45826.98958333334</v>
+        <v>45852.98958333334</v>
       </c>
       <c r="B193">
-        <v>834</v>
+        <v>635</v>
       </c>
     </row>
     <row r="194" spans="1:2">
       <c r="A194" s="2">
-        <v>45827</v>
+        <v>45853</v>
       </c>
       <c r="B194">
-        <v>799</v>
+        <v>274</v>
       </c>
     </row>
     <row r="195" spans="1:2">
       <c r="A195" s="2">
-        <v>45827.01041666666</v>
+        <v>45853.01041666666</v>
       </c>
       <c r="B195">
-        <v>793</v>
+        <v>259</v>
       </c>
     </row>
     <row r="196" spans="1:2">
       <c r="A196" s="2">
-        <v>45827.02083333334</v>
+        <v>45853.02083333334</v>
       </c>
       <c r="B196">
-        <v>794</v>
+        <v>260</v>
       </c>
     </row>
     <row r="197" spans="1:2">
       <c r="A197" s="2">
-        <v>45827.03125</v>
+        <v>45853.03125</v>
       </c>
       <c r="B197">
-        <v>788</v>
+        <v>258</v>
       </c>
     </row>
     <row r="198" spans="1:2">
       <c r="A198" s="2">
-        <v>45827.04166666666</v>
+        <v>45853.04166666666</v>
       </c>
       <c r="B198">
-        <v>440</v>
+        <v>260</v>
       </c>
     </row>
     <row r="199" spans="1:2">
       <c r="A199" s="2">
-        <v>45827.05208333334</v>
+        <v>45853.05208333334</v>
       </c>
       <c r="B199">
-        <v>427</v>
+        <v>257</v>
       </c>
     </row>
     <row r="200" spans="1:2">
       <c r="A200" s="2">
-        <v>45827.0625</v>
+        <v>45853.0625</v>
       </c>
       <c r="B200">
-        <v>422</v>
+        <v>259</v>
       </c>
     </row>
     <row r="201" spans="1:2">
       <c r="A201" s="2">
-        <v>45827.07291666666</v>
+        <v>45853.07291666666</v>
       </c>
       <c r="B201">
-        <v>400</v>
+        <v>256</v>
       </c>
     </row>
     <row r="202" spans="1:2">
       <c r="A202" s="2">
-        <v>45827.08333333334</v>
+        <v>45853.08333333334</v>
       </c>
       <c r="B202">
-        <v>397</v>
+        <v>258</v>
       </c>
     </row>
     <row r="203" spans="1:2">
       <c r="A203" s="2">
-        <v>45827.09375</v>
+        <v>45853.09375</v>
       </c>
       <c r="B203">
-        <v>391</v>
+        <v>256</v>
       </c>
     </row>
     <row r="204" spans="1:2">
       <c r="A204" s="2">
-        <v>45827.10416666666</v>
+        <v>45853.10416666666</v>
       </c>
       <c r="B204">
-        <v>392</v>
+        <v>258</v>
       </c>
     </row>
     <row r="205" spans="1:2">
       <c r="A205" s="2">
-        <v>45827.11458333334</v>
+        <v>45853.11458333334</v>
       </c>
       <c r="B205">
-        <v>391</v>
+        <v>252</v>
       </c>
     </row>
     <row r="206" spans="1:2">
       <c r="A206" s="2">
-        <v>45827.125</v>
+        <v>45853.125</v>
       </c>
       <c r="B206">
-        <v>398</v>
+        <v>251</v>
       </c>
     </row>
     <row r="207" spans="1:2">
       <c r="A207" s="2">
-        <v>45827.13541666666</v>
+        <v>45853.13541666666</v>
       </c>
       <c r="B207">
-        <v>391</v>
+        <v>255</v>
       </c>
     </row>
     <row r="208" spans="1:2">
       <c r="A208" s="2">
-        <v>45827.14583333334</v>
+        <v>45853.14583333334</v>
       </c>
       <c r="B208">
-        <v>391</v>
+        <v>256</v>
       </c>
     </row>
     <row r="209" spans="1:2">
       <c r="A209" s="2">
-        <v>45827.15625</v>
+        <v>45853.15625</v>
       </c>
       <c r="B209">
-        <v>391</v>
+        <v>255</v>
       </c>
     </row>
     <row r="210" spans="1:2">
       <c r="A210" s="2">
-        <v>45827.16666666666</v>
+        <v>45853.16666666666</v>
       </c>
       <c r="B210">
-        <v>394</v>
+        <v>257</v>
       </c>
     </row>
     <row r="211" spans="1:2">
       <c r="A211" s="2">
-        <v>45827.17708333334</v>
+        <v>45853.17708333334</v>
       </c>
       <c r="B211">
-        <v>391</v>
+        <v>256</v>
       </c>
     </row>
     <row r="212" spans="1:2">
       <c r="A212" s="2">
-        <v>45827.1875</v>
+        <v>45853.1875</v>
       </c>
       <c r="B212">
-        <v>388</v>
+        <v>256</v>
       </c>
     </row>
     <row r="213" spans="1:2">
       <c r="A213" s="2">
-        <v>45827.19791666666</v>
+        <v>45853.19791666666</v>
       </c>
       <c r="B213">
-        <v>389</v>
+        <v>263</v>
       </c>
     </row>
     <row r="214" spans="1:2">
       <c r="A214" s="2">
-        <v>45827.20833333334</v>
+        <v>45853.20833333334</v>
       </c>
       <c r="B214">
-        <v>413</v>
+        <v>317</v>
       </c>
     </row>
     <row r="215" spans="1:2">
       <c r="A215" s="2">
-        <v>45827.21875</v>
+        <v>45853.21875</v>
       </c>
       <c r="B215">
-        <v>426</v>
+        <v>323</v>
       </c>
     </row>
     <row r="216" spans="1:2">
       <c r="A216" s="2">
-        <v>45827.22916666666</v>
+        <v>45853.22916666666</v>
       </c>
       <c r="B216">
-        <v>427</v>
+        <v>324</v>
       </c>
     </row>
     <row r="217" spans="1:2">
       <c r="A217" s="2">
-        <v>45827.23958333334</v>
+        <v>45853.23958333334</v>
       </c>
       <c r="B217">
-        <v>434</v>
+        <v>332</v>
       </c>
     </row>
     <row r="218" spans="1:2">
       <c r="A218" s="2">
-        <v>45827.25</v>
+        <v>45853.25</v>
       </c>
       <c r="B218">
-        <v>491</v>
+        <v>495</v>
       </c>
     </row>
     <row r="219" spans="1:2">
       <c r="A219" s="2">
-        <v>45827.26041666666</v>
+        <v>45853.26041666666</v>
       </c>
       <c r="B219">
-        <v>493</v>
+        <v>503</v>
       </c>
     </row>
     <row r="220" spans="1:2">
       <c r="A220" s="2">
-        <v>45827.27083333334</v>
+        <v>45853.27083333334</v>
       </c>
       <c r="B220">
-        <v>490</v>
+        <v>496</v>
       </c>
     </row>
     <row r="221" spans="1:2">
       <c r="A221" s="2">
-        <v>45827.28125</v>
+        <v>45853.28125</v>
       </c>
       <c r="B221">
-        <v>487</v>
+        <v>530</v>
       </c>
     </row>
     <row r="222" spans="1:2">
       <c r="A222" s="2">
-        <v>45827.29166666666</v>
+        <v>45853.29166666666</v>
       </c>
       <c r="B222">
-        <v>427</v>
+        <v>618</v>
       </c>
     </row>
     <row r="223" spans="1:2">
       <c r="A223" s="2">
-        <v>45827.30208333334</v>
+        <v>45853.30208333334</v>
       </c>
       <c r="B223">
-        <v>422</v>
+        <v>627</v>
       </c>
     </row>
     <row r="224" spans="1:2">
       <c r="A224" s="2">
-        <v>45827.3125</v>
+        <v>45853.3125</v>
       </c>
       <c r="B224">
-        <v>424</v>
+        <v>631</v>
       </c>
     </row>
     <row r="225" spans="1:2">
       <c r="A225" s="2">
-        <v>45827.32291666666</v>
+        <v>45853.32291666666</v>
       </c>
       <c r="B225">
-        <v>401</v>
+        <v>626</v>
       </c>
     </row>
     <row r="226" spans="1:2">
       <c r="A226" s="2">
-        <v>45827.33333333334</v>
+        <v>45853.33333333334</v>
       </c>
       <c r="B226">
-        <v>452</v>
+        <v>310</v>
       </c>
     </row>
     <row r="227" spans="1:2">
       <c r="A227" s="2">
-        <v>45827.34375</v>
+        <v>45853.34375</v>
       </c>
       <c r="B227">
-        <v>460</v>
+        <v>296</v>
       </c>
     </row>
     <row r="228" spans="1:2">
       <c r="A228" s="2">
-        <v>45827.35416666666</v>
+        <v>45853.35416666666</v>
       </c>
       <c r="B228">
-        <v>460</v>
+        <v>292</v>
       </c>
     </row>
     <row r="229" spans="1:2">
       <c r="A229" s="2">
-        <v>45827.36458333334</v>
+        <v>45853.36458333334</v>
       </c>
       <c r="B229">
-        <v>445</v>
+        <v>284</v>
       </c>
     </row>
     <row r="230" spans="1:2">
       <c r="A230" s="2">
-        <v>45827.375</v>
+        <v>45853.375</v>
       </c>
       <c r="B230">
-        <v>295</v>
+        <v>285</v>
       </c>
     </row>
     <row r="231" spans="1:2">
       <c r="A231" s="2">
-        <v>45827.38541666666</v>
+        <v>45853.38541666666</v>
       </c>
       <c r="B231">
-        <v>293</v>
+        <v>277</v>
       </c>
     </row>
     <row r="232" spans="1:2">
       <c r="A232" s="2">
-        <v>45827.39583333334</v>
+        <v>45853.39583333334</v>
       </c>
       <c r="B232">
-        <v>292</v>
+        <v>275</v>
       </c>
     </row>
     <row r="233" spans="1:2">
       <c r="A233" s="2">
-        <v>45827.40625</v>
+        <v>45853.40625</v>
       </c>
       <c r="B233">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
     <row r="234" spans="1:2">
       <c r="A234" s="2">
-        <v>45827.41666666666</v>
+        <v>45853.41666666666</v>
       </c>
       <c r="B234">
-        <v>179</v>
+        <v>250</v>
       </c>
     </row>
     <row r="235" spans="1:2">
       <c r="A235" s="2">
-        <v>45827.42708333334</v>
+        <v>45853.42708333334</v>
       </c>
       <c r="B235">
-        <v>172</v>
+        <v>248</v>
       </c>
     </row>
     <row r="236" spans="1:2">
       <c r="A236" s="2">
-        <v>45827.4375</v>
+        <v>45853.4375</v>
       </c>
       <c r="B236">
-        <v>172</v>
+        <v>248</v>
       </c>
     </row>
     <row r="237" spans="1:2">
       <c r="A237" s="2">
-        <v>45827.44791666666</v>
+        <v>45853.44791666666</v>
       </c>
       <c r="B237">
-        <v>174</v>
+        <v>248</v>
       </c>
     </row>
     <row r="238" spans="1:2">
       <c r="A238" s="2">
-        <v>45827.45833333334</v>
+        <v>45853.45833333334</v>
       </c>
       <c r="B238">
-        <v>118</v>
+        <v>241</v>
       </c>
     </row>
     <row r="239" spans="1:2">
       <c r="A239" s="2">
-        <v>45827.46875</v>
+        <v>45853.46875</v>
       </c>
       <c r="B239">
-        <v>116</v>
+        <v>228</v>
       </c>
     </row>
     <row r="240" spans="1:2">
       <c r="A240" s="2">
-        <v>45827.47916666666</v>
+        <v>45853.47916666666</v>
       </c>
       <c r="B240">
-        <v>118</v>
+        <v>239</v>
       </c>
     </row>
     <row r="241" spans="1:2">
       <c r="A241" s="2">
-        <v>45827.48958333334</v>
+        <v>45853.48958333334</v>
       </c>
       <c r="B241">
-        <v>112</v>
+        <v>238</v>
       </c>
     </row>
     <row r="242" spans="1:2">
       <c r="A242" s="2">
-        <v>45827.5</v>
+        <v>45853.5</v>
       </c>
       <c r="B242">
-        <v>117</v>
+        <v>233</v>
       </c>
     </row>
     <row r="243" spans="1:2">
       <c r="A243" s="2">
-        <v>45827.51041666666</v>
+        <v>45853.51041666666</v>
       </c>
       <c r="B243">
-        <v>121</v>
+        <v>234</v>
       </c>
     </row>
     <row r="244" spans="1:2">
       <c r="A244" s="2">
-        <v>45827.52083333334</v>
+        <v>45853.52083333334</v>
       </c>
       <c r="B244">
-        <v>123</v>
+        <v>233</v>
       </c>
     </row>
     <row r="245" spans="1:2">
       <c r="A245" s="2">
-        <v>45827.53125</v>
+        <v>45853.53125</v>
       </c>
       <c r="B245">
-        <v>122</v>
+        <v>232</v>
       </c>
     </row>
     <row r="246" spans="1:2">
       <c r="A246" s="2">
-        <v>45827.54166666666</v>
+        <v>45853.54166666666</v>
       </c>
       <c r="B246">
-        <v>121</v>
+        <v>220</v>
       </c>
     </row>
     <row r="247" spans="1:2">
       <c r="A247" s="2">
-        <v>45827.55208333334</v>
+        <v>45853.55208333334</v>
       </c>
       <c r="B247">
-        <v>124</v>
+        <v>214</v>
       </c>
     </row>
     <row r="248" spans="1:2">
       <c r="A248" s="2">
-        <v>45827.5625</v>
+        <v>45853.5625</v>
       </c>
       <c r="B248">
-        <v>113</v>
+        <v>213</v>
       </c>
     </row>
     <row r="249" spans="1:2">
       <c r="A249" s="2">
-        <v>45827.57291666666</v>
+        <v>45853.57291666666</v>
       </c>
       <c r="B249">
-        <v>118</v>
+        <v>215</v>
       </c>
     </row>
     <row r="250" spans="1:2">
       <c r="A250" s="2">
-        <v>45827.58333333334</v>
+        <v>45853.58333333334</v>
       </c>
       <c r="B250">
-        <v>317</v>
+        <v>228</v>
       </c>
     </row>
     <row r="251" spans="1:2">
       <c r="A251" s="2">
-        <v>45827.59375</v>
+        <v>45853.59375</v>
       </c>
       <c r="B251">
-        <v>367</v>
+        <v>226</v>
       </c>
     </row>
     <row r="252" spans="1:2">
       <c r="A252" s="2">
-        <v>45827.60416666666</v>
+        <v>45853.60416666666</v>
       </c>
       <c r="B252">
-        <v>372</v>
+        <v>227</v>
       </c>
     </row>
     <row r="253" spans="1:2">
       <c r="A253" s="2">
-        <v>45827.61458333334</v>
+        <v>45853.61458333334</v>
       </c>
       <c r="B253">
-        <v>390</v>
+        <v>226</v>
       </c>
     </row>
     <row r="254" spans="1:2">
       <c r="A254" s="2">
-        <v>45827.625</v>
+        <v>45853.625</v>
       </c>
       <c r="B254">
-        <v>454</v>
+        <v>230</v>
       </c>
     </row>
     <row r="255" spans="1:2">
       <c r="A255" s="2">
-        <v>45827.63541666666</v>
+        <v>45853.63541666666</v>
       </c>
       <c r="B255">
-        <v>460</v>
+        <v>243</v>
       </c>
     </row>
     <row r="256" spans="1:2">
       <c r="A256" s="2">
-        <v>45827.64583333334</v>
+        <v>45853.64583333334</v>
       </c>
       <c r="B256">
-        <v>455</v>
+        <v>250</v>
       </c>
     </row>
     <row r="257" spans="1:2">
       <c r="A257" s="2">
-        <v>45827.65625</v>
+        <v>45853.65625</v>
       </c>
       <c r="B257">
-        <v>474</v>
+        <v>250</v>
       </c>
     </row>
     <row r="258" spans="1:2">
       <c r="A258" s="2">
-        <v>45827.66666666666</v>
+        <v>45853.66666666666</v>
       </c>
       <c r="B258">
-        <v>477</v>
+        <v>254</v>
       </c>
     </row>
     <row r="259" spans="1:2">
       <c r="A259" s="2">
-        <v>45827.67708333334</v>
+        <v>45853.67708333334</v>
       </c>
       <c r="B259">
-        <v>495</v>
+        <v>254</v>
       </c>
     </row>
     <row r="260" spans="1:2">
       <c r="A260" s="2">
-        <v>45827.6875</v>
+        <v>45853.6875</v>
       </c>
       <c r="B260">
-        <v>520</v>
+        <v>235</v>
       </c>
     </row>
     <row r="261" spans="1:2">
       <c r="A261" s="2">
-        <v>45827.69791666666</v>
+        <v>45853.69791666666</v>
       </c>
       <c r="B261">
-        <v>540</v>
+        <v>289</v>
       </c>
     </row>
     <row r="262" spans="1:2">
       <c r="A262" s="2">
-        <v>45827.70833333334</v>
+        <v>45853.70833333334</v>
       </c>
       <c r="B262">
-        <v>949</v>
+        <v>915</v>
       </c>
     </row>
     <row r="263" spans="1:2">
       <c r="A263" s="2">
-        <v>45827.71875</v>
+        <v>45853.71875</v>
       </c>
       <c r="B263">
-        <v>975</v>
+        <v>931</v>
       </c>
     </row>
     <row r="264" spans="1:2">
       <c r="A264" s="2">
-        <v>45827.72916666666</v>
+        <v>45853.72916666666</v>
       </c>
       <c r="B264">
-        <v>979</v>
+        <v>932</v>
       </c>
     </row>
     <row r="265" spans="1:2">
       <c r="A265" s="2">
-        <v>45827.73958333334</v>
+        <v>45853.73958333334</v>
       </c>
       <c r="B265">
-        <v>1007</v>
+        <v>947</v>
       </c>
     </row>
     <row r="266" spans="1:2">
       <c r="A266" s="2">
-        <v>45827.75</v>
+        <v>45853.75</v>
       </c>
       <c r="B266">
-        <v>1072</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="267" spans="1:2">
       <c r="A267" s="2">
-        <v>45827.76041666666</v>
+        <v>45853.76041666666</v>
       </c>
       <c r="B267">
-        <v>1101</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="268" spans="1:2">
       <c r="A268" s="2">
-        <v>45827.77083333334</v>
+        <v>45853.77083333334</v>
       </c>
       <c r="B268">
-        <v>1122</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="269" spans="1:2">
       <c r="A269" s="2">
-        <v>45827.78125</v>
+        <v>45853.78125</v>
       </c>
       <c r="B269">
-        <v>1141</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="270" spans="1:2">
       <c r="A270" s="2">
-        <v>45827.79166666666</v>
+        <v>45853.79166666666</v>
       </c>
       <c r="B270">
-        <v>1167</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="271" spans="1:2">
       <c r="A271" s="2">
-        <v>45827.80208333334</v>
+        <v>45853.80208333334</v>
       </c>
       <c r="B271">
-        <v>1176</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="272" spans="1:2">
       <c r="A272" s="2">
-        <v>45827.8125</v>
+        <v>45853.8125</v>
       </c>
       <c r="B272">
-        <v>1173</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="273" spans="1:2">
       <c r="A273" s="2">
-        <v>45827.82291666666</v>
+        <v>45853.82291666666</v>
       </c>
       <c r="B273">
-        <v>1204</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="274" spans="1:2">
       <c r="A274" s="2">
-        <v>45827.83333333334</v>
+        <v>45853.83333333334</v>
       </c>
       <c r="B274">
-        <v>1164</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="275" spans="1:2">
       <c r="A275" s="2">
-        <v>45827.84375</v>
+        <v>45853.84375</v>
       </c>
       <c r="B275">
-        <v>1165</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="276" spans="1:2">
       <c r="A276" s="2">
-        <v>45827.85416666666</v>
+        <v>45853.85416666666</v>
       </c>
       <c r="B276">
-        <v>1168</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="277" spans="1:2">
       <c r="A277" s="2">
-        <v>45827.86458333334</v>
+        <v>45853.86458333334</v>
       </c>
       <c r="B277">
-        <v>1165</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="278" spans="1:2">
       <c r="A278" s="2">
-        <v>45827.875</v>
+        <v>45853.875</v>
       </c>
       <c r="B278">
-        <v>1155</v>
+        <v>975</v>
       </c>
     </row>
     <row r="279" spans="1:2">
       <c r="A279" s="2">
-        <v>45827.88541666666</v>
+        <v>45853.88541666666</v>
       </c>
       <c r="B279">
-        <v>1121</v>
+        <v>971</v>
       </c>
     </row>
     <row r="280" spans="1:2">
       <c r="A280" s="2">
-        <v>45827.89583333334</v>
+        <v>45853.89583333334</v>
       </c>
       <c r="B280">
-        <v>1091</v>
+        <v>964</v>
       </c>
     </row>
     <row r="281" spans="1:2">
       <c r="A281" s="2">
-        <v>45827.90625</v>
+        <v>45853.90625</v>
       </c>
       <c r="B281">
-        <v>1089</v>
+        <v>950</v>
       </c>
     </row>
     <row r="282" spans="1:2">
       <c r="A282" s="2">
-        <v>45827.91666666666</v>
+        <v>45853.91666666666</v>
       </c>
       <c r="B282">
-        <v>985</v>
+        <v>703</v>
       </c>
     </row>
     <row r="283" spans="1:2">
       <c r="A283" s="2">
-        <v>45827.92708333334</v>
+        <v>45853.92708333334</v>
       </c>
       <c r="B283">
-        <v>950</v>
+        <v>696</v>
       </c>
     </row>
     <row r="284" spans="1:2">
       <c r="A284" s="2">
-        <v>45827.9375</v>
+        <v>45853.9375</v>
       </c>
       <c r="B284">
-        <v>938</v>
+        <v>697</v>
       </c>
     </row>
     <row r="285" spans="1:2">
       <c r="A285" s="2">
-        <v>45827.94791666666</v>
+        <v>45853.94791666666</v>
       </c>
       <c r="B285">
-        <v>918</v>
+        <v>687</v>
       </c>
     </row>
     <row r="286" spans="1:2">
       <c r="A286" s="2">
-        <v>45827.95833333334</v>
+        <v>45853.95833333334</v>
       </c>
       <c r="B286">
-        <v>953</v>
+        <v>359</v>
       </c>
     </row>
     <row r="287" spans="1:2">
       <c r="A287" s="2">
-        <v>45827.96875</v>
+        <v>45853.96875</v>
       </c>
       <c r="B287">
-        <v>923</v>
+        <v>343</v>
       </c>
     </row>
     <row r="288" spans="1:2">
       <c r="A288" s="2">
-        <v>45827.97916666666</v>
+        <v>45853.97916666666</v>
       </c>
       <c r="B288">
-        <v>879</v>
+        <v>343</v>
       </c>
     </row>
     <row r="289" spans="1:2">
       <c r="A289" s="2">
-        <v>45827.98958333334</v>
+        <v>45853.98958333334</v>
       </c>
       <c r="B289">
-        <v>878</v>
+        <v>328</v>
       </c>
     </row>
     <row r="290" spans="1:2">
       <c r="A290" s="2">
-        <v>45828</v>
+        <v>45854</v>
       </c>
       <c r="B290">
-        <v>864</v>
+        <v>230</v>
       </c>
     </row>
     <row r="291" spans="1:2">
       <c r="A291" s="2">
-        <v>45828.01041666666</v>
+        <v>45854.01041666666</v>
       </c>
       <c r="B291">
-        <v>857</v>
+        <v>207</v>
       </c>
     </row>
     <row r="292" spans="1:2">
       <c r="A292" s="2">
-        <v>45828.02083333334</v>
+        <v>45854.02083333334</v>
       </c>
       <c r="B292">
-        <v>857</v>
+        <v>199</v>
       </c>
     </row>
     <row r="293" spans="1:2">
       <c r="A293" s="2">
-        <v>45828.03125</v>
+        <v>45854.03125</v>
       </c>
       <c r="B293">
-        <v>857</v>
+        <v>200</v>
       </c>
     </row>
     <row r="294" spans="1:2">
       <c r="A294" s="2">
-        <v>45828.04166666666</v>
+        <v>45854.04166666666</v>
       </c>
       <c r="B294">
-        <v>716</v>
+        <v>196</v>
       </c>
     </row>
     <row r="295" spans="1:2">
       <c r="A295" s="2">
-        <v>45828.05208333334</v>
+        <v>45854.05208333334</v>
       </c>
       <c r="B295">
-        <v>712</v>
+        <v>186</v>
       </c>
     </row>
     <row r="296" spans="1:2">
       <c r="A296" s="2">
-        <v>45828.0625</v>
+        <v>45854.0625</v>
       </c>
       <c r="B296">
-        <v>710</v>
+        <v>188</v>
       </c>
     </row>
     <row r="297" spans="1:2">
       <c r="A297" s="2">
-        <v>45828.07291666666</v>
+        <v>45854.07291666666</v>
       </c>
       <c r="B297">
-        <v>644</v>
+        <v>188</v>
       </c>
     </row>
     <row r="298" spans="1:2">
       <c r="A298" s="2">
-        <v>45828.08333333334</v>
+        <v>45854.08333333334</v>
       </c>
       <c r="B298">
-        <v>401</v>
+        <v>190</v>
       </c>
     </row>
     <row r="299" spans="1:2">
       <c r="A299" s="2">
-        <v>45828.09375</v>
+        <v>45854.09375</v>
       </c>
       <c r="B299">
-        <v>374</v>
+        <v>189</v>
       </c>
     </row>
     <row r="300" spans="1:2">
       <c r="A300" s="2">
-        <v>45828.10416666666</v>
+        <v>45854.10416666666</v>
       </c>
       <c r="B300">
-        <v>381</v>
+        <v>190</v>
       </c>
     </row>
     <row r="301" spans="1:2">
       <c r="A301" s="2">
-        <v>45828.11458333334</v>
+        <v>45854.11458333334</v>
       </c>
       <c r="B301">
-        <v>360</v>
+        <v>189</v>
       </c>
     </row>
     <row r="302" spans="1:2">
       <c r="A302" s="2">
-        <v>45828.125</v>
+        <v>45854.125</v>
       </c>
       <c r="B302">
-        <v>248</v>
+        <v>191</v>
       </c>
     </row>
     <row r="303" spans="1:2">
       <c r="A303" s="2">
-        <v>45828.13541666666</v>
+        <v>45854.13541666666</v>
       </c>
       <c r="B303">
-        <v>241</v>
+        <v>188</v>
       </c>
     </row>
     <row r="304" spans="1:2">
       <c r="A304" s="2">
-        <v>45828.14583333334</v>
+        <v>45854.14583333334</v>
       </c>
       <c r="B304">
-        <v>231</v>
+        <v>189</v>
       </c>
     </row>
     <row r="305" spans="1:2">
       <c r="A305" s="2">
-        <v>45828.15625</v>
+        <v>45854.15625</v>
       </c>
       <c r="B305">
-        <v>210</v>
+        <v>190</v>
       </c>
     </row>
     <row r="306" spans="1:2">
       <c r="A306" s="2">
-        <v>45828.16666666666</v>
+        <v>45854.16666666666</v>
       </c>
       <c r="B306">
-        <v>208</v>
+        <v>256</v>
       </c>
     </row>
     <row r="307" spans="1:2">
       <c r="A307" s="2">
-        <v>45828.17708333334</v>
+        <v>45854.17708333334</v>
       </c>
       <c r="B307">
-        <v>280</v>
+        <v>258</v>
       </c>
     </row>
     <row r="308" spans="1:2">
       <c r="A308" s="2">
-        <v>45828.1875</v>
+        <v>45854.1875</v>
       </c>
       <c r="B308">
-        <v>320</v>
+        <v>259</v>
       </c>
     </row>
     <row r="309" spans="1:2">
       <c r="A309" s="2">
-        <v>45828.19791666666</v>
+        <v>45854.19791666666</v>
       </c>
       <c r="B309">
-        <v>321</v>
+        <v>262</v>
       </c>
     </row>
     <row r="310" spans="1:2">
       <c r="A310" s="2">
-        <v>45828.20833333334</v>
+        <v>45854.20833333334</v>
       </c>
       <c r="B310">
-        <v>369</v>
+        <v>278</v>
       </c>
     </row>
     <row r="311" spans="1:2">
       <c r="A311" s="2">
-        <v>45828.21875</v>
+        <v>45854.21875</v>
       </c>
       <c r="B311">
-        <v>372</v>
+        <v>280</v>
       </c>
     </row>
     <row r="312" spans="1:2">
       <c r="A312" s="2">
-        <v>45828.22916666666</v>
+        <v>45854.22916666666</v>
       </c>
       <c r="B312">
-        <v>377</v>
+        <v>283</v>
       </c>
     </row>
     <row r="313" spans="1:2">
       <c r="A313" s="2">
-        <v>45828.23958333334</v>
+        <v>45854.23958333334</v>
       </c>
       <c r="B313">
-        <v>392</v>
+        <v>281</v>
       </c>
     </row>
     <row r="314" spans="1:2">
       <c r="A314" s="2">
-        <v>45828.25</v>
+        <v>45854.25</v>
       </c>
       <c r="B314">
-        <v>742</v>
+        <v>350</v>
       </c>
     </row>
     <row r="315" spans="1:2">
       <c r="A315" s="2">
-        <v>45828.26041666666</v>
+        <v>45854.26041666666</v>
       </c>
       <c r="B315">
-        <v>760</v>
+        <v>350</v>
       </c>
     </row>
     <row r="316" spans="1:2">
       <c r="A316" s="2">
-        <v>45828.27083333334</v>
+        <v>45854.27083333334</v>
       </c>
       <c r="B316">
-        <v>749</v>
+        <v>385</v>
       </c>
     </row>
     <row r="317" spans="1:2">
       <c r="A317" s="2">
-        <v>45828.28125</v>
+        <v>45854.28125</v>
       </c>
       <c r="B317">
-        <v>774</v>
+        <v>388</v>
       </c>
     </row>
     <row r="318" spans="1:2">
       <c r="A318" s="2">
-        <v>45828.29166666666</v>
+        <v>45854.29166666666</v>
       </c>
       <c r="B318">
-        <v>841</v>
+        <v>640</v>
       </c>
     </row>
     <row r="319" spans="1:2">
       <c r="A319" s="2">
-        <v>45828.30208333334</v>
+        <v>45854.30208333334</v>
       </c>
       <c r="B319">
-        <v>819</v>
+        <v>669</v>
       </c>
     </row>
     <row r="320" spans="1:2">
       <c r="A320" s="2">
-        <v>45828.3125</v>
+        <v>45854.3125</v>
       </c>
       <c r="B320">
-        <v>810</v>
+        <v>661</v>
       </c>
     </row>
     <row r="321" spans="1:2">
       <c r="A321" s="2">
-        <v>45828.32291666666</v>
+        <v>45854.32291666666</v>
       </c>
       <c r="B321">
-        <v>788</v>
+        <v>673</v>
       </c>
     </row>
     <row r="322" spans="1:2">
       <c r="A322" s="2">
-        <v>45828.33333333334</v>
+        <v>45854.33333333334</v>
       </c>
       <c r="B322">
-        <v>420</v>
+        <v>531</v>
       </c>
     </row>
     <row r="323" spans="1:2">
       <c r="A323" s="2">
-        <v>45828.34375</v>
+        <v>45854.34375</v>
       </c>
       <c r="B323">
-        <v>392</v>
+        <v>534</v>
       </c>
     </row>
     <row r="324" spans="1:2">
       <c r="A324" s="2">
-        <v>45828.35416666666</v>
+        <v>45854.35416666666</v>
       </c>
       <c r="B324">
-        <v>430</v>
+        <v>541</v>
       </c>
     </row>
     <row r="325" spans="1:2">
       <c r="A325" s="2">
-        <v>45828.36458333334</v>
+        <v>45854.36458333334</v>
       </c>
       <c r="B325">
-        <v>359</v>
+        <v>529</v>
       </c>
     </row>
     <row r="326" spans="1:2">
       <c r="A326" s="2">
-        <v>45828.375</v>
+        <v>45854.375</v>
       </c>
       <c r="B326">
-        <v>391</v>
+        <v>295</v>
       </c>
     </row>
     <row r="327" spans="1:2">
       <c r="A327" s="2">
-        <v>45828.38541666666</v>
+        <v>45854.38541666666</v>
       </c>
       <c r="B327">
-        <v>391</v>
+        <v>279</v>
       </c>
     </row>
     <row r="328" spans="1:2">
       <c r="A328" s="2">
-        <v>45828.39583333334</v>
+        <v>45854.39583333334</v>
       </c>
       <c r="B328">
-        <v>343</v>
+        <v>277</v>
       </c>
     </row>
     <row r="329" spans="1:2">
       <c r="A329" s="2">
-        <v>45828.40625</v>
+        <v>45854.40625</v>
       </c>
       <c r="B329">
-        <v>305</v>
+        <v>274</v>
       </c>
     </row>
     <row r="330" spans="1:2">
       <c r="A330" s="2">
-        <v>45828.41666666666</v>
+        <v>45854.41666666666</v>
       </c>
       <c r="B330">
         <v>274</v>
@@ -3029,441 +3029,4281 @@
     </row>
     <row r="331" spans="1:2">
       <c r="A331" s="2">
-        <v>45828.42708333334</v>
+        <v>45854.42708333334</v>
       </c>
       <c r="B331">
-        <v>257</v>
+        <v>274</v>
       </c>
     </row>
     <row r="332" spans="1:2">
       <c r="A332" s="2">
-        <v>45828.4375</v>
+        <v>45854.4375</v>
       </c>
       <c r="B332">
-        <v>269</v>
+        <v>281</v>
       </c>
     </row>
     <row r="333" spans="1:2">
       <c r="A333" s="2">
-        <v>45828.44791666666</v>
+        <v>45854.44791666666</v>
       </c>
       <c r="B333">
-        <v>273</v>
+        <v>280</v>
       </c>
     </row>
     <row r="334" spans="1:2">
       <c r="A334" s="2">
-        <v>45828.45833333334</v>
+        <v>45854.45833333334</v>
       </c>
       <c r="B334">
-        <v>240</v>
+        <v>257</v>
       </c>
     </row>
     <row r="335" spans="1:2">
       <c r="A335" s="2">
-        <v>45828.46875</v>
+        <v>45854.46875</v>
       </c>
       <c r="B335">
-        <v>0</v>
+        <v>255</v>
       </c>
     </row>
     <row r="336" spans="1:2">
       <c r="A336" s="2">
-        <v>45828.47916666666</v>
+        <v>45854.47916666666</v>
       </c>
       <c r="B336">
-        <v>0</v>
+        <v>259</v>
       </c>
     </row>
     <row r="337" spans="1:2">
       <c r="A337" s="2">
-        <v>45828.48958333334</v>
+        <v>45854.48958333334</v>
       </c>
       <c r="B337">
-        <v>0</v>
+        <v>260</v>
       </c>
     </row>
     <row r="338" spans="1:2">
       <c r="A338" s="2">
-        <v>45828.5</v>
+        <v>45854.5</v>
       </c>
       <c r="B338">
-        <v>0</v>
+        <v>238</v>
       </c>
     </row>
     <row r="339" spans="1:2">
       <c r="A339" s="2">
-        <v>45828.51041666666</v>
+        <v>45854.51041666666</v>
       </c>
       <c r="B339">
-        <v>0</v>
+        <v>236</v>
       </c>
     </row>
     <row r="340" spans="1:2">
       <c r="A340" s="2">
-        <v>45828.52083333334</v>
+        <v>45854.52083333334</v>
       </c>
       <c r="B340">
-        <v>0</v>
+        <v>236</v>
       </c>
     </row>
     <row r="341" spans="1:2">
       <c r="A341" s="2">
-        <v>45828.53125</v>
+        <v>45854.53125</v>
       </c>
       <c r="B341">
-        <v>0</v>
+        <v>233</v>
       </c>
     </row>
     <row r="342" spans="1:2">
       <c r="A342" s="2">
-        <v>45828.54166666666</v>
+        <v>45854.54166666666</v>
       </c>
       <c r="B342">
-        <v>0</v>
+        <v>247</v>
       </c>
     </row>
     <row r="343" spans="1:2">
       <c r="A343" s="2">
-        <v>45828.55208333334</v>
+        <v>45854.55208333334</v>
       </c>
       <c r="B343">
-        <v>0</v>
+        <v>248</v>
       </c>
     </row>
     <row r="344" spans="1:2">
       <c r="A344" s="2">
-        <v>45828.5625</v>
+        <v>45854.5625</v>
       </c>
       <c r="B344">
-        <v>0</v>
+        <v>248</v>
       </c>
     </row>
     <row r="345" spans="1:2">
       <c r="A345" s="2">
-        <v>45828.57291666666</v>
+        <v>45854.57291666666</v>
       </c>
       <c r="B345">
-        <v>0</v>
+        <v>233</v>
       </c>
     </row>
     <row r="346" spans="1:2">
       <c r="A346" s="2">
-        <v>45828.58333333334</v>
+        <v>45854.58333333334</v>
       </c>
       <c r="B346">
-        <v>0</v>
+        <v>216</v>
       </c>
     </row>
     <row r="347" spans="1:2">
       <c r="A347" s="2">
-        <v>45828.59375</v>
+        <v>45854.59375</v>
       </c>
       <c r="B347">
-        <v>0</v>
+        <v>216</v>
       </c>
     </row>
     <row r="348" spans="1:2">
       <c r="A348" s="2">
-        <v>45828.60416666666</v>
+        <v>45854.60416666666</v>
       </c>
       <c r="B348">
-        <v>0</v>
+        <v>216</v>
       </c>
     </row>
     <row r="349" spans="1:2">
       <c r="A349" s="2">
-        <v>45828.61458333334</v>
+        <v>45854.61458333334</v>
       </c>
       <c r="B349">
-        <v>0</v>
+        <v>218</v>
       </c>
     </row>
     <row r="350" spans="1:2">
       <c r="A350" s="2">
-        <v>45828.625</v>
+        <v>45854.625</v>
       </c>
       <c r="B350">
-        <v>0</v>
+        <v>217</v>
       </c>
     </row>
     <row r="351" spans="1:2">
       <c r="A351" s="2">
-        <v>45828.63541666666</v>
+        <v>45854.63541666666</v>
       </c>
       <c r="B351">
-        <v>0</v>
+        <v>210</v>
       </c>
     </row>
     <row r="352" spans="1:2">
       <c r="A352" s="2">
-        <v>45828.64583333334</v>
+        <v>45854.64583333334</v>
       </c>
       <c r="B352">
-        <v>0</v>
+        <v>230</v>
       </c>
     </row>
     <row r="353" spans="1:2">
       <c r="A353" s="2">
-        <v>45828.65625</v>
+        <v>45854.65625</v>
       </c>
       <c r="B353">
-        <v>0</v>
+        <v>236</v>
       </c>
     </row>
     <row r="354" spans="1:2">
       <c r="A354" s="2">
-        <v>45828.66666666666</v>
+        <v>45854.66666666666</v>
       </c>
       <c r="B354">
-        <v>0</v>
+        <v>189</v>
       </c>
     </row>
     <row r="355" spans="1:2">
       <c r="A355" s="2">
-        <v>45828.67708333334</v>
+        <v>45854.67708333334</v>
       </c>
       <c r="B355">
-        <v>0</v>
+        <v>171</v>
       </c>
     </row>
     <row r="356" spans="1:2">
       <c r="A356" s="2">
-        <v>45828.6875</v>
+        <v>45854.6875</v>
       </c>
       <c r="B356">
-        <v>0</v>
+        <v>171</v>
       </c>
     </row>
     <row r="357" spans="1:2">
       <c r="A357" s="2">
-        <v>45828.69791666666</v>
+        <v>45854.69791666666</v>
       </c>
       <c r="B357">
-        <v>0</v>
+        <v>232</v>
       </c>
     </row>
     <row r="358" spans="1:2">
       <c r="A358" s="2">
-        <v>45828.70833333334</v>
+        <v>45854.70833333334</v>
       </c>
       <c r="B358">
-        <v>0</v>
+        <v>743</v>
       </c>
     </row>
     <row r="359" spans="1:2">
       <c r="A359" s="2">
-        <v>45828.71875</v>
+        <v>45854.71875</v>
       </c>
       <c r="B359">
-        <v>0</v>
+        <v>861</v>
       </c>
     </row>
     <row r="360" spans="1:2">
       <c r="A360" s="2">
-        <v>45828.72916666666</v>
+        <v>45854.72916666666</v>
       </c>
       <c r="B360">
-        <v>0</v>
+        <v>865</v>
       </c>
     </row>
     <row r="361" spans="1:2">
       <c r="A361" s="2">
-        <v>45828.73958333334</v>
+        <v>45854.73958333334</v>
       </c>
       <c r="B361">
-        <v>0</v>
+        <v>897</v>
       </c>
     </row>
     <row r="362" spans="1:2">
       <c r="A362" s="2">
-        <v>45828.75</v>
+        <v>45854.75</v>
       </c>
       <c r="B362">
-        <v>0</v>
+        <v>909</v>
       </c>
     </row>
     <row r="363" spans="1:2">
       <c r="A363" s="2">
-        <v>45828.76041666666</v>
+        <v>45854.76041666666</v>
       </c>
       <c r="B363">
-        <v>0</v>
+        <v>775</v>
       </c>
     </row>
     <row r="364" spans="1:2">
       <c r="A364" s="2">
-        <v>45828.77083333334</v>
+        <v>45854.77083333334</v>
       </c>
       <c r="B364">
-        <v>0</v>
+        <v>710</v>
       </c>
     </row>
     <row r="365" spans="1:2">
       <c r="A365" s="2">
-        <v>45828.78125</v>
+        <v>45854.78125</v>
       </c>
       <c r="B365">
-        <v>0</v>
+        <v>704</v>
       </c>
     </row>
     <row r="366" spans="1:2">
       <c r="A366" s="2">
-        <v>45828.79166666666</v>
+        <v>45854.79166666666</v>
       </c>
       <c r="B366">
-        <v>0</v>
+        <v>759</v>
       </c>
     </row>
     <row r="367" spans="1:2">
       <c r="A367" s="2">
-        <v>45828.80208333334</v>
+        <v>45854.80208333334</v>
       </c>
       <c r="B367">
-        <v>0</v>
+        <v>659</v>
       </c>
     </row>
     <row r="368" spans="1:2">
       <c r="A368" s="2">
-        <v>45828.8125</v>
+        <v>45854.8125</v>
       </c>
       <c r="B368">
-        <v>0</v>
+        <v>637</v>
       </c>
     </row>
     <row r="369" spans="1:2">
       <c r="A369" s="2">
-        <v>45828.82291666666</v>
+        <v>45854.82291666666</v>
       </c>
       <c r="B369">
-        <v>0</v>
+        <v>749</v>
       </c>
     </row>
     <row r="370" spans="1:2">
       <c r="A370" s="2">
-        <v>45828.83333333334</v>
+        <v>45854.83333333334</v>
       </c>
       <c r="B370">
-        <v>0</v>
+        <v>666</v>
       </c>
     </row>
     <row r="371" spans="1:2">
       <c r="A371" s="2">
-        <v>45828.84375</v>
+        <v>45854.84375</v>
       </c>
       <c r="B371">
-        <v>0</v>
+        <v>678</v>
       </c>
     </row>
     <row r="372" spans="1:2">
       <c r="A372" s="2">
-        <v>45828.85416666666</v>
+        <v>45854.85416666666</v>
       </c>
       <c r="B372">
-        <v>0</v>
+        <v>781</v>
       </c>
     </row>
     <row r="373" spans="1:2">
       <c r="A373" s="2">
-        <v>45828.86458333334</v>
+        <v>45854.86458333334</v>
       </c>
       <c r="B373">
-        <v>0</v>
+        <v>810</v>
       </c>
     </row>
     <row r="374" spans="1:2">
       <c r="A374" s="2">
-        <v>45828.875</v>
+        <v>45854.875</v>
       </c>
       <c r="B374">
-        <v>0</v>
+        <v>768</v>
       </c>
     </row>
     <row r="375" spans="1:2">
       <c r="A375" s="2">
-        <v>45828.88541666666</v>
+        <v>45854.88541666666</v>
       </c>
       <c r="B375">
-        <v>0</v>
+        <v>781</v>
       </c>
     </row>
     <row r="376" spans="1:2">
       <c r="A376" s="2">
-        <v>45828.89583333334</v>
+        <v>45854.89583333334</v>
       </c>
       <c r="B376">
-        <v>0</v>
+        <v>793</v>
       </c>
     </row>
     <row r="377" spans="1:2">
       <c r="A377" s="2">
-        <v>45828.90625</v>
+        <v>45854.90625</v>
       </c>
       <c r="B377">
-        <v>0</v>
+        <v>797</v>
       </c>
     </row>
     <row r="378" spans="1:2">
       <c r="A378" s="2">
-        <v>45828.91666666666</v>
+        <v>45854.91666666666</v>
       </c>
       <c r="B378">
-        <v>0</v>
+        <v>540</v>
       </c>
     </row>
     <row r="379" spans="1:2">
       <c r="A379" s="2">
-        <v>45828.92708333334</v>
+        <v>45854.92708333334</v>
       </c>
       <c r="B379">
-        <v>0</v>
+        <v>517</v>
       </c>
     </row>
     <row r="380" spans="1:2">
       <c r="A380" s="2">
-        <v>45828.9375</v>
+        <v>45854.9375</v>
       </c>
       <c r="B380">
-        <v>0</v>
+        <v>518</v>
       </c>
     </row>
     <row r="381" spans="1:2">
       <c r="A381" s="2">
-        <v>45828.94791666666</v>
+        <v>45854.94791666666</v>
       </c>
       <c r="B381">
-        <v>0</v>
+        <v>510</v>
       </c>
     </row>
     <row r="382" spans="1:2">
       <c r="A382" s="2">
-        <v>45828.95833333334</v>
+        <v>45854.95833333334</v>
       </c>
       <c r="B382">
-        <v>0</v>
+        <v>413</v>
       </c>
     </row>
     <row r="383" spans="1:2">
       <c r="A383" s="2">
-        <v>45828.96875</v>
+        <v>45854.96875</v>
       </c>
       <c r="B383">
-        <v>0</v>
+        <v>402</v>
       </c>
     </row>
     <row r="384" spans="1:2">
       <c r="A384" s="2">
-        <v>45828.97916666666</v>
+        <v>45854.97916666666</v>
       </c>
       <c r="B384">
-        <v>0</v>
+        <v>401</v>
       </c>
     </row>
     <row r="385" spans="1:2">
       <c r="A385" s="2">
-        <v>45828.98958333334</v>
+        <v>45854.98958333334</v>
       </c>
       <c r="B385">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2">
+      <c r="A386" s="2">
+        <v>45855</v>
+      </c>
+      <c r="B386">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2">
+      <c r="A387" s="2">
+        <v>45855.01041666666</v>
+      </c>
+      <c r="B387">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2">
+      <c r="A388" s="2">
+        <v>45855.02083333334</v>
+      </c>
+      <c r="B388">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2">
+      <c r="A389" s="2">
+        <v>45855.03125</v>
+      </c>
+      <c r="B389">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2">
+      <c r="A390" s="2">
+        <v>45855.04166666666</v>
+      </c>
+      <c r="B390">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2">
+      <c r="A391" s="2">
+        <v>45855.05208333334</v>
+      </c>
+      <c r="B391">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2">
+      <c r="A392" s="2">
+        <v>45855.0625</v>
+      </c>
+      <c r="B392">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2">
+      <c r="A393" s="2">
+        <v>45855.07291666666</v>
+      </c>
+      <c r="B393">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2">
+      <c r="A394" s="2">
+        <v>45855.08333333334</v>
+      </c>
+      <c r="B394">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2">
+      <c r="A395" s="2">
+        <v>45855.09375</v>
+      </c>
+      <c r="B395">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2">
+      <c r="A396" s="2">
+        <v>45855.10416666666</v>
+      </c>
+      <c r="B396">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2">
+      <c r="A397" s="2">
+        <v>45855.11458333334</v>
+      </c>
+      <c r="B397">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2">
+      <c r="A398" s="2">
+        <v>45855.125</v>
+      </c>
+      <c r="B398">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2">
+      <c r="A399" s="2">
+        <v>45855.13541666666</v>
+      </c>
+      <c r="B399">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2">
+      <c r="A400" s="2">
+        <v>45855.14583333334</v>
+      </c>
+      <c r="B400">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2">
+      <c r="A401" s="2">
+        <v>45855.15625</v>
+      </c>
+      <c r="B401">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2">
+      <c r="A402" s="2">
+        <v>45855.16666666666</v>
+      </c>
+      <c r="B402">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2">
+      <c r="A403" s="2">
+        <v>45855.17708333334</v>
+      </c>
+      <c r="B403">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2">
+      <c r="A404" s="2">
+        <v>45855.1875</v>
+      </c>
+      <c r="B404">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2">
+      <c r="A405" s="2">
+        <v>45855.19791666666</v>
+      </c>
+      <c r="B405">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2">
+      <c r="A406" s="2">
+        <v>45855.20833333334</v>
+      </c>
+      <c r="B406">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2">
+      <c r="A407" s="2">
+        <v>45855.21875</v>
+      </c>
+      <c r="B407">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2">
+      <c r="A408" s="2">
+        <v>45855.22916666666</v>
+      </c>
+      <c r="B408">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2">
+      <c r="A409" s="2">
+        <v>45855.23958333334</v>
+      </c>
+      <c r="B409">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2">
+      <c r="A410" s="2">
+        <v>45855.25</v>
+      </c>
+      <c r="B410">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2">
+      <c r="A411" s="2">
+        <v>45855.26041666666</v>
+      </c>
+      <c r="B411">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2">
+      <c r="A412" s="2">
+        <v>45855.27083333334</v>
+      </c>
+      <c r="B412">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2">
+      <c r="A413" s="2">
+        <v>45855.28125</v>
+      </c>
+      <c r="B413">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2">
+      <c r="A414" s="2">
+        <v>45855.29166666666</v>
+      </c>
+      <c r="B414">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2">
+      <c r="A415" s="2">
+        <v>45855.30208333334</v>
+      </c>
+      <c r="B415">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2">
+      <c r="A416" s="2">
+        <v>45855.3125</v>
+      </c>
+      <c r="B416">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2">
+      <c r="A417" s="2">
+        <v>45855.32291666666</v>
+      </c>
+      <c r="B417">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2">
+      <c r="A418" s="2">
+        <v>45855.33333333334</v>
+      </c>
+      <c r="B418">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2">
+      <c r="A419" s="2">
+        <v>45855.34375</v>
+      </c>
+      <c r="B419">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2">
+      <c r="A420" s="2">
+        <v>45855.35416666666</v>
+      </c>
+      <c r="B420">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2">
+      <c r="A421" s="2">
+        <v>45855.36458333334</v>
+      </c>
+      <c r="B421">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2">
+      <c r="A422" s="2">
+        <v>45855.375</v>
+      </c>
+      <c r="B422">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2">
+      <c r="A423" s="2">
+        <v>45855.38541666666</v>
+      </c>
+      <c r="B423">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2">
+      <c r="A424" s="2">
+        <v>45855.39583333334</v>
+      </c>
+      <c r="B424">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2">
+      <c r="A425" s="2">
+        <v>45855.40625</v>
+      </c>
+      <c r="B425">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2">
+      <c r="A426" s="2">
+        <v>45855.41666666666</v>
+      </c>
+      <c r="B426">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2">
+      <c r="A427" s="2">
+        <v>45855.42708333334</v>
+      </c>
+      <c r="B427">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2">
+      <c r="A428" s="2">
+        <v>45855.4375</v>
+      </c>
+      <c r="B428">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2">
+      <c r="A429" s="2">
+        <v>45855.44791666666</v>
+      </c>
+      <c r="B429">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2">
+      <c r="A430" s="2">
+        <v>45855.45833333334</v>
+      </c>
+      <c r="B430">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2">
+      <c r="A431" s="2">
+        <v>45855.46875</v>
+      </c>
+      <c r="B431">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2">
+      <c r="A432" s="2">
+        <v>45855.47916666666</v>
+      </c>
+      <c r="B432">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2">
+      <c r="A433" s="2">
+        <v>45855.48958333334</v>
+      </c>
+      <c r="B433">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2">
+      <c r="A434" s="2">
+        <v>45855.5</v>
+      </c>
+      <c r="B434">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2">
+      <c r="A435" s="2">
+        <v>45855.51041666666</v>
+      </c>
+      <c r="B435">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2">
+      <c r="A436" s="2">
+        <v>45855.52083333334</v>
+      </c>
+      <c r="B436">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2">
+      <c r="A437" s="2">
+        <v>45855.53125</v>
+      </c>
+      <c r="B437">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2">
+      <c r="A438" s="2">
+        <v>45855.54166666666</v>
+      </c>
+      <c r="B438">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2">
+      <c r="A439" s="2">
+        <v>45855.55208333334</v>
+      </c>
+      <c r="B439">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2">
+      <c r="A440" s="2">
+        <v>45855.5625</v>
+      </c>
+      <c r="B440">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2">
+      <c r="A441" s="2">
+        <v>45855.57291666666</v>
+      </c>
+      <c r="B441">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2">
+      <c r="A442" s="2">
+        <v>45855.58333333334</v>
+      </c>
+      <c r="B442">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2">
+      <c r="A443" s="2">
+        <v>45855.59375</v>
+      </c>
+      <c r="B443">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2">
+      <c r="A444" s="2">
+        <v>45855.60416666666</v>
+      </c>
+      <c r="B444">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2">
+      <c r="A445" s="2">
+        <v>45855.61458333334</v>
+      </c>
+      <c r="B445">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2">
+      <c r="A446" s="2">
+        <v>45855.625</v>
+      </c>
+      <c r="B446">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2">
+      <c r="A447" s="2">
+        <v>45855.63541666666</v>
+      </c>
+      <c r="B447">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2">
+      <c r="A448" s="2">
+        <v>45855.64583333334</v>
+      </c>
+      <c r="B448">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2">
+      <c r="A449" s="2">
+        <v>45855.65625</v>
+      </c>
+      <c r="B449">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2">
+      <c r="A450" s="2">
+        <v>45855.66666666666</v>
+      </c>
+      <c r="B450">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2">
+      <c r="A451" s="2">
+        <v>45855.67708333334</v>
+      </c>
+      <c r="B451">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2">
+      <c r="A452" s="2">
+        <v>45855.6875</v>
+      </c>
+      <c r="B452">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2">
+      <c r="A453" s="2">
+        <v>45855.69791666666</v>
+      </c>
+      <c r="B453">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2">
+      <c r="A454" s="2">
+        <v>45855.70833333334</v>
+      </c>
+      <c r="B454">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2">
+      <c r="A455" s="2">
+        <v>45855.71875</v>
+      </c>
+      <c r="B455">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2">
+      <c r="A456" s="2">
+        <v>45855.72916666666</v>
+      </c>
+      <c r="B456">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2">
+      <c r="A457" s="2">
+        <v>45855.73958333334</v>
+      </c>
+      <c r="B457">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2">
+      <c r="A458" s="2">
+        <v>45855.75</v>
+      </c>
+      <c r="B458">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2">
+      <c r="A459" s="2">
+        <v>45855.76041666666</v>
+      </c>
+      <c r="B459">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2">
+      <c r="A460" s="2">
+        <v>45855.77083333334</v>
+      </c>
+      <c r="B460">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2">
+      <c r="A461" s="2">
+        <v>45855.78125</v>
+      </c>
+      <c r="B461">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2">
+      <c r="A462" s="2">
+        <v>45855.79166666666</v>
+      </c>
+      <c r="B462">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2">
+      <c r="A463" s="2">
+        <v>45855.80208333334</v>
+      </c>
+      <c r="B463">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="464" spans="1:2">
+      <c r="A464" s="2">
+        <v>45855.8125</v>
+      </c>
+      <c r="B464">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="465" spans="1:2">
+      <c r="A465" s="2">
+        <v>45855.82291666666</v>
+      </c>
+      <c r="B465">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="466" spans="1:2">
+      <c r="A466" s="2">
+        <v>45855.83333333334</v>
+      </c>
+      <c r="B466">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="467" spans="1:2">
+      <c r="A467" s="2">
+        <v>45855.84375</v>
+      </c>
+      <c r="B467">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="468" spans="1:2">
+      <c r="A468" s="2">
+        <v>45855.85416666666</v>
+      </c>
+      <c r="B468">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="469" spans="1:2">
+      <c r="A469" s="2">
+        <v>45855.86458333334</v>
+      </c>
+      <c r="B469">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="470" spans="1:2">
+      <c r="A470" s="2">
+        <v>45855.875</v>
+      </c>
+      <c r="B470">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="471" spans="1:2">
+      <c r="A471" s="2">
+        <v>45855.88541666666</v>
+      </c>
+      <c r="B471">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="472" spans="1:2">
+      <c r="A472" s="2">
+        <v>45855.89583333334</v>
+      </c>
+      <c r="B472">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="473" spans="1:2">
+      <c r="A473" s="2">
+        <v>45855.90625</v>
+      </c>
+      <c r="B473">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="474" spans="1:2">
+      <c r="A474" s="2">
+        <v>45855.91666666666</v>
+      </c>
+      <c r="B474">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="475" spans="1:2">
+      <c r="A475" s="2">
+        <v>45855.92708333334</v>
+      </c>
+      <c r="B475">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="476" spans="1:2">
+      <c r="A476" s="2">
+        <v>45855.9375</v>
+      </c>
+      <c r="B476">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="477" spans="1:2">
+      <c r="A477" s="2">
+        <v>45855.94791666666</v>
+      </c>
+      <c r="B477">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="478" spans="1:2">
+      <c r="A478" s="2">
+        <v>45855.95833333334</v>
+      </c>
+      <c r="B478">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="479" spans="1:2">
+      <c r="A479" s="2">
+        <v>45855.96875</v>
+      </c>
+      <c r="B479">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="480" spans="1:2">
+      <c r="A480" s="2">
+        <v>45855.97916666666</v>
+      </c>
+      <c r="B480">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="481" spans="1:2">
+      <c r="A481" s="2">
+        <v>45855.98958333334</v>
+      </c>
+      <c r="B481">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="482" spans="1:2">
+      <c r="A482" s="2">
+        <v>45856</v>
+      </c>
+      <c r="B482">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="483" spans="1:2">
+      <c r="A483" s="2">
+        <v>45856.01041666666</v>
+      </c>
+      <c r="B483">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="484" spans="1:2">
+      <c r="A484" s="2">
+        <v>45856.02083333334</v>
+      </c>
+      <c r="B484">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="485" spans="1:2">
+      <c r="A485" s="2">
+        <v>45856.03125</v>
+      </c>
+      <c r="B485">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="486" spans="1:2">
+      <c r="A486" s="2">
+        <v>45856.04166666666</v>
+      </c>
+      <c r="B486">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="487" spans="1:2">
+      <c r="A487" s="2">
+        <v>45856.05208333334</v>
+      </c>
+      <c r="B487">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="488" spans="1:2">
+      <c r="A488" s="2">
+        <v>45856.0625</v>
+      </c>
+      <c r="B488">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="489" spans="1:2">
+      <c r="A489" s="2">
+        <v>45856.07291666666</v>
+      </c>
+      <c r="B489">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="490" spans="1:2">
+      <c r="A490" s="2">
+        <v>45856.08333333334</v>
+      </c>
+      <c r="B490">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="491" spans="1:2">
+      <c r="A491" s="2">
+        <v>45856.09375</v>
+      </c>
+      <c r="B491">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="492" spans="1:2">
+      <c r="A492" s="2">
+        <v>45856.10416666666</v>
+      </c>
+      <c r="B492">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="493" spans="1:2">
+      <c r="A493" s="2">
+        <v>45856.11458333334</v>
+      </c>
+      <c r="B493">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="494" spans="1:2">
+      <c r="A494" s="2">
+        <v>45856.125</v>
+      </c>
+      <c r="B494">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="495" spans="1:2">
+      <c r="A495" s="2">
+        <v>45856.13541666666</v>
+      </c>
+      <c r="B495">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="496" spans="1:2">
+      <c r="A496" s="2">
+        <v>45856.14583333334</v>
+      </c>
+      <c r="B496">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="497" spans="1:2">
+      <c r="A497" s="2">
+        <v>45856.15625</v>
+      </c>
+      <c r="B497">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="498" spans="1:2">
+      <c r="A498" s="2">
+        <v>45856.16666666666</v>
+      </c>
+      <c r="B498">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="499" spans="1:2">
+      <c r="A499" s="2">
+        <v>45856.17708333334</v>
+      </c>
+      <c r="B499">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="500" spans="1:2">
+      <c r="A500" s="2">
+        <v>45856.1875</v>
+      </c>
+      <c r="B500">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="501" spans="1:2">
+      <c r="A501" s="2">
+        <v>45856.19791666666</v>
+      </c>
+      <c r="B501">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="502" spans="1:2">
+      <c r="A502" s="2">
+        <v>45856.20833333334</v>
+      </c>
+      <c r="B502">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="503" spans="1:2">
+      <c r="A503" s="2">
+        <v>45856.21875</v>
+      </c>
+      <c r="B503">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="504" spans="1:2">
+      <c r="A504" s="2">
+        <v>45856.22916666666</v>
+      </c>
+      <c r="B504">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="505" spans="1:2">
+      <c r="A505" s="2">
+        <v>45856.23958333334</v>
+      </c>
+      <c r="B505">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="506" spans="1:2">
+      <c r="A506" s="2">
+        <v>45856.25</v>
+      </c>
+      <c r="B506">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="507" spans="1:2">
+      <c r="A507" s="2">
+        <v>45856.26041666666</v>
+      </c>
+      <c r="B507">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="508" spans="1:2">
+      <c r="A508" s="2">
+        <v>45856.27083333334</v>
+      </c>
+      <c r="B508">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="509" spans="1:2">
+      <c r="A509" s="2">
+        <v>45856.28125</v>
+      </c>
+      <c r="B509">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="510" spans="1:2">
+      <c r="A510" s="2">
+        <v>45856.29166666666</v>
+      </c>
+      <c r="B510">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="511" spans="1:2">
+      <c r="A511" s="2">
+        <v>45856.30208333334</v>
+      </c>
+      <c r="B511">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="512" spans="1:2">
+      <c r="A512" s="2">
+        <v>45856.3125</v>
+      </c>
+      <c r="B512">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="513" spans="1:2">
+      <c r="A513" s="2">
+        <v>45856.32291666666</v>
+      </c>
+      <c r="B513">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="514" spans="1:2">
+      <c r="A514" s="2">
+        <v>45856.33333333334</v>
+      </c>
+      <c r="B514">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="515" spans="1:2">
+      <c r="A515" s="2">
+        <v>45856.34375</v>
+      </c>
+      <c r="B515">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="516" spans="1:2">
+      <c r="A516" s="2">
+        <v>45856.35416666666</v>
+      </c>
+      <c r="B516">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="517" spans="1:2">
+      <c r="A517" s="2">
+        <v>45856.36458333334</v>
+      </c>
+      <c r="B517">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="518" spans="1:2">
+      <c r="A518" s="2">
+        <v>45856.375</v>
+      </c>
+      <c r="B518">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="519" spans="1:2">
+      <c r="A519" s="2">
+        <v>45856.38541666666</v>
+      </c>
+      <c r="B519">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="520" spans="1:2">
+      <c r="A520" s="2">
+        <v>45856.39583333334</v>
+      </c>
+      <c r="B520">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="521" spans="1:2">
+      <c r="A521" s="2">
+        <v>45856.40625</v>
+      </c>
+      <c r="B521">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="522" spans="1:2">
+      <c r="A522" s="2">
+        <v>45856.41666666666</v>
+      </c>
+      <c r="B522">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="523" spans="1:2">
+      <c r="A523" s="2">
+        <v>45856.42708333334</v>
+      </c>
+      <c r="B523">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="524" spans="1:2">
+      <c r="A524" s="2">
+        <v>45856.4375</v>
+      </c>
+      <c r="B524">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="525" spans="1:2">
+      <c r="A525" s="2">
+        <v>45856.44791666666</v>
+      </c>
+      <c r="B525">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="526" spans="1:2">
+      <c r="A526" s="2">
+        <v>45856.45833333334</v>
+      </c>
+      <c r="B526">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="527" spans="1:2">
+      <c r="A527" s="2">
+        <v>45856.46875</v>
+      </c>
+      <c r="B527">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="528" spans="1:2">
+      <c r="A528" s="2">
+        <v>45856.47916666666</v>
+      </c>
+      <c r="B528">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="529" spans="1:2">
+      <c r="A529" s="2">
+        <v>45856.48958333334</v>
+      </c>
+      <c r="B529">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="530" spans="1:2">
+      <c r="A530" s="2">
+        <v>45856.5</v>
+      </c>
+      <c r="B530">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="531" spans="1:2">
+      <c r="A531" s="2">
+        <v>45856.51041666666</v>
+      </c>
+      <c r="B531">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="532" spans="1:2">
+      <c r="A532" s="2">
+        <v>45856.52083333334</v>
+      </c>
+      <c r="B532">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="533" spans="1:2">
+      <c r="A533" s="2">
+        <v>45856.53125</v>
+      </c>
+      <c r="B533">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="534" spans="1:2">
+      <c r="A534" s="2">
+        <v>45856.54166666666</v>
+      </c>
+      <c r="B534">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="535" spans="1:2">
+      <c r="A535" s="2">
+        <v>45856.55208333334</v>
+      </c>
+      <c r="B535">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="536" spans="1:2">
+      <c r="A536" s="2">
+        <v>45856.5625</v>
+      </c>
+      <c r="B536">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="537" spans="1:2">
+      <c r="A537" s="2">
+        <v>45856.57291666666</v>
+      </c>
+      <c r="B537">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="538" spans="1:2">
+      <c r="A538" s="2">
+        <v>45856.58333333334</v>
+      </c>
+      <c r="B538">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="539" spans="1:2">
+      <c r="A539" s="2">
+        <v>45856.59375</v>
+      </c>
+      <c r="B539">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="540" spans="1:2">
+      <c r="A540" s="2">
+        <v>45856.60416666666</v>
+      </c>
+      <c r="B540">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="541" spans="1:2">
+      <c r="A541" s="2">
+        <v>45856.61458333334</v>
+      </c>
+      <c r="B541">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="542" spans="1:2">
+      <c r="A542" s="2">
+        <v>45856.625</v>
+      </c>
+      <c r="B542">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="543" spans="1:2">
+      <c r="A543" s="2">
+        <v>45856.63541666666</v>
+      </c>
+      <c r="B543">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="544" spans="1:2">
+      <c r="A544" s="2">
+        <v>45856.64583333334</v>
+      </c>
+      <c r="B544">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="545" spans="1:2">
+      <c r="A545" s="2">
+        <v>45856.65625</v>
+      </c>
+      <c r="B545">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="546" spans="1:2">
+      <c r="A546" s="2">
+        <v>45856.66666666666</v>
+      </c>
+      <c r="B546">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="547" spans="1:2">
+      <c r="A547" s="2">
+        <v>45856.67708333334</v>
+      </c>
+      <c r="B547">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="548" spans="1:2">
+      <c r="A548" s="2">
+        <v>45856.6875</v>
+      </c>
+      <c r="B548">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="549" spans="1:2">
+      <c r="A549" s="2">
+        <v>45856.69791666666</v>
+      </c>
+      <c r="B549">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="550" spans="1:2">
+      <c r="A550" s="2">
+        <v>45856.70833333334</v>
+      </c>
+      <c r="B550">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="551" spans="1:2">
+      <c r="A551" s="2">
+        <v>45856.71875</v>
+      </c>
+      <c r="B551">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="552" spans="1:2">
+      <c r="A552" s="2">
+        <v>45856.72916666666</v>
+      </c>
+      <c r="B552">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="553" spans="1:2">
+      <c r="A553" s="2">
+        <v>45856.73958333334</v>
+      </c>
+      <c r="B553">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="554" spans="1:2">
+      <c r="A554" s="2">
+        <v>45856.75</v>
+      </c>
+      <c r="B554">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="555" spans="1:2">
+      <c r="A555" s="2">
+        <v>45856.76041666666</v>
+      </c>
+      <c r="B555">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="556" spans="1:2">
+      <c r="A556" s="2">
+        <v>45856.77083333334</v>
+      </c>
+      <c r="B556">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="557" spans="1:2">
+      <c r="A557" s="2">
+        <v>45856.78125</v>
+      </c>
+      <c r="B557">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="558" spans="1:2">
+      <c r="A558" s="2">
+        <v>45856.79166666666</v>
+      </c>
+      <c r="B558">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="559" spans="1:2">
+      <c r="A559" s="2">
+        <v>45856.80208333334</v>
+      </c>
+      <c r="B559">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="560" spans="1:2">
+      <c r="A560" s="2">
+        <v>45856.8125</v>
+      </c>
+      <c r="B560">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="561" spans="1:2">
+      <c r="A561" s="2">
+        <v>45856.82291666666</v>
+      </c>
+      <c r="B561">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="562" spans="1:2">
+      <c r="A562" s="2">
+        <v>45856.83333333334</v>
+      </c>
+      <c r="B562">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="563" spans="1:2">
+      <c r="A563" s="2">
+        <v>45856.84375</v>
+      </c>
+      <c r="B563">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="564" spans="1:2">
+      <c r="A564" s="2">
+        <v>45856.85416666666</v>
+      </c>
+      <c r="B564">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="565" spans="1:2">
+      <c r="A565" s="2">
+        <v>45856.86458333334</v>
+      </c>
+      <c r="B565">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="566" spans="1:2">
+      <c r="A566" s="2">
+        <v>45856.875</v>
+      </c>
+      <c r="B566">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="567" spans="1:2">
+      <c r="A567" s="2">
+        <v>45856.88541666666</v>
+      </c>
+      <c r="B567">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="568" spans="1:2">
+      <c r="A568" s="2">
+        <v>45856.89583333334</v>
+      </c>
+      <c r="B568">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="569" spans="1:2">
+      <c r="A569" s="2">
+        <v>45856.90625</v>
+      </c>
+      <c r="B569">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="570" spans="1:2">
+      <c r="A570" s="2">
+        <v>45856.91666666666</v>
+      </c>
+      <c r="B570">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="571" spans="1:2">
+      <c r="A571" s="2">
+        <v>45856.92708333334</v>
+      </c>
+      <c r="B571">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="572" spans="1:2">
+      <c r="A572" s="2">
+        <v>45856.9375</v>
+      </c>
+      <c r="B572">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="573" spans="1:2">
+      <c r="A573" s="2">
+        <v>45856.94791666666</v>
+      </c>
+      <c r="B573">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="574" spans="1:2">
+      <c r="A574" s="2">
+        <v>45856.95833333334</v>
+      </c>
+      <c r="B574">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="575" spans="1:2">
+      <c r="A575" s="2">
+        <v>45856.96875</v>
+      </c>
+      <c r="B575">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="576" spans="1:2">
+      <c r="A576" s="2">
+        <v>45856.97916666666</v>
+      </c>
+      <c r="B576">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="577" spans="1:2">
+      <c r="A577" s="2">
+        <v>45856.98958333334</v>
+      </c>
+      <c r="B577">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="578" spans="1:2">
+      <c r="A578" s="2">
+        <v>45857</v>
+      </c>
+      <c r="B578">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="579" spans="1:2">
+      <c r="A579" s="2">
+        <v>45857.01041666666</v>
+      </c>
+      <c r="B579">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="580" spans="1:2">
+      <c r="A580" s="2">
+        <v>45857.02083333334</v>
+      </c>
+      <c r="B580">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="581" spans="1:2">
+      <c r="A581" s="2">
+        <v>45857.03125</v>
+      </c>
+      <c r="B581">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="582" spans="1:2">
+      <c r="A582" s="2">
+        <v>45857.04166666666</v>
+      </c>
+      <c r="B582">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="583" spans="1:2">
+      <c r="A583" s="2">
+        <v>45857.05208333334</v>
+      </c>
+      <c r="B583">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="584" spans="1:2">
+      <c r="A584" s="2">
+        <v>45857.0625</v>
+      </c>
+      <c r="B584">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="585" spans="1:2">
+      <c r="A585" s="2">
+        <v>45857.07291666666</v>
+      </c>
+      <c r="B585">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="586" spans="1:2">
+      <c r="A586" s="2">
+        <v>45857.08333333334</v>
+      </c>
+      <c r="B586">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="587" spans="1:2">
+      <c r="A587" s="2">
+        <v>45857.09375</v>
+      </c>
+      <c r="B587">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="588" spans="1:2">
+      <c r="A588" s="2">
+        <v>45857.10416666666</v>
+      </c>
+      <c r="B588">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="589" spans="1:2">
+      <c r="A589" s="2">
+        <v>45857.11458333334</v>
+      </c>
+      <c r="B589">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="590" spans="1:2">
+      <c r="A590" s="2">
+        <v>45857.125</v>
+      </c>
+      <c r="B590">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="591" spans="1:2">
+      <c r="A591" s="2">
+        <v>45857.13541666666</v>
+      </c>
+      <c r="B591">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="592" spans="1:2">
+      <c r="A592" s="2">
+        <v>45857.14583333334</v>
+      </c>
+      <c r="B592">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="593" spans="1:2">
+      <c r="A593" s="2">
+        <v>45857.15625</v>
+      </c>
+      <c r="B593">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="594" spans="1:2">
+      <c r="A594" s="2">
+        <v>45857.16666666666</v>
+      </c>
+      <c r="B594">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="595" spans="1:2">
+      <c r="A595" s="2">
+        <v>45857.17708333334</v>
+      </c>
+      <c r="B595">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="596" spans="1:2">
+      <c r="A596" s="2">
+        <v>45857.1875</v>
+      </c>
+      <c r="B596">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="597" spans="1:2">
+      <c r="A597" s="2">
+        <v>45857.19791666666</v>
+      </c>
+      <c r="B597">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="598" spans="1:2">
+      <c r="A598" s="2">
+        <v>45857.20833333334</v>
+      </c>
+      <c r="B598">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="599" spans="1:2">
+      <c r="A599" s="2">
+        <v>45857.21875</v>
+      </c>
+      <c r="B599">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="600" spans="1:2">
+      <c r="A600" s="2">
+        <v>45857.22916666666</v>
+      </c>
+      <c r="B600">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="601" spans="1:2">
+      <c r="A601" s="2">
+        <v>45857.23958333334</v>
+      </c>
+      <c r="B601">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="602" spans="1:2">
+      <c r="A602" s="2">
+        <v>45857.25</v>
+      </c>
+      <c r="B602">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="603" spans="1:2">
+      <c r="A603" s="2">
+        <v>45857.26041666666</v>
+      </c>
+      <c r="B603">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="604" spans="1:2">
+      <c r="A604" s="2">
+        <v>45857.27083333334</v>
+      </c>
+      <c r="B604">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="605" spans="1:2">
+      <c r="A605" s="2">
+        <v>45857.28125</v>
+      </c>
+      <c r="B605">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="606" spans="1:2">
+      <c r="A606" s="2">
+        <v>45857.29166666666</v>
+      </c>
+      <c r="B606">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="607" spans="1:2">
+      <c r="A607" s="2">
+        <v>45857.30208333334</v>
+      </c>
+      <c r="B607">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="608" spans="1:2">
+      <c r="A608" s="2">
+        <v>45857.3125</v>
+      </c>
+      <c r="B608">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="609" spans="1:2">
+      <c r="A609" s="2">
+        <v>45857.32291666666</v>
+      </c>
+      <c r="B609">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="610" spans="1:2">
+      <c r="A610" s="2">
+        <v>45857.33333333334</v>
+      </c>
+      <c r="B610">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="611" spans="1:2">
+      <c r="A611" s="2">
+        <v>45857.34375</v>
+      </c>
+      <c r="B611">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="612" spans="1:2">
+      <c r="A612" s="2">
+        <v>45857.35416666666</v>
+      </c>
+      <c r="B612">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="613" spans="1:2">
+      <c r="A613" s="2">
+        <v>45857.36458333334</v>
+      </c>
+      <c r="B613">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="614" spans="1:2">
+      <c r="A614" s="2">
+        <v>45857.375</v>
+      </c>
+      <c r="B614">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="615" spans="1:2">
+      <c r="A615" s="2">
+        <v>45857.38541666666</v>
+      </c>
+      <c r="B615">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="616" spans="1:2">
+      <c r="A616" s="2">
+        <v>45857.39583333334</v>
+      </c>
+      <c r="B616">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="617" spans="1:2">
+      <c r="A617" s="2">
+        <v>45857.40625</v>
+      </c>
+      <c r="B617">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="618" spans="1:2">
+      <c r="A618" s="2">
+        <v>45857.41666666666</v>
+      </c>
+      <c r="B618">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="619" spans="1:2">
+      <c r="A619" s="2">
+        <v>45857.42708333334</v>
+      </c>
+      <c r="B619">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="620" spans="1:2">
+      <c r="A620" s="2">
+        <v>45857.4375</v>
+      </c>
+      <c r="B620">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="621" spans="1:2">
+      <c r="A621" s="2">
+        <v>45857.44791666666</v>
+      </c>
+      <c r="B621">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="622" spans="1:2">
+      <c r="A622" s="2">
+        <v>45857.45833333334</v>
+      </c>
+      <c r="B622">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="623" spans="1:2">
+      <c r="A623" s="2">
+        <v>45857.46875</v>
+      </c>
+      <c r="B623">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="624" spans="1:2">
+      <c r="A624" s="2">
+        <v>45857.47916666666</v>
+      </c>
+      <c r="B624">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="625" spans="1:2">
+      <c r="A625" s="2">
+        <v>45857.48958333334</v>
+      </c>
+      <c r="B625">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="626" spans="1:2">
+      <c r="A626" s="2">
+        <v>45857.5</v>
+      </c>
+      <c r="B626">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="627" spans="1:2">
+      <c r="A627" s="2">
+        <v>45857.51041666666</v>
+      </c>
+      <c r="B627">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="628" spans="1:2">
+      <c r="A628" s="2">
+        <v>45857.52083333334</v>
+      </c>
+      <c r="B628">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="629" spans="1:2">
+      <c r="A629" s="2">
+        <v>45857.53125</v>
+      </c>
+      <c r="B629">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="630" spans="1:2">
+      <c r="A630" s="2">
+        <v>45857.54166666666</v>
+      </c>
+      <c r="B630">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="631" spans="1:2">
+      <c r="A631" s="2">
+        <v>45857.55208333334</v>
+      </c>
+      <c r="B631">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="632" spans="1:2">
+      <c r="A632" s="2">
+        <v>45857.5625</v>
+      </c>
+      <c r="B632">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="633" spans="1:2">
+      <c r="A633" s="2">
+        <v>45857.57291666666</v>
+      </c>
+      <c r="B633">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="634" spans="1:2">
+      <c r="A634" s="2">
+        <v>45857.58333333334</v>
+      </c>
+      <c r="B634">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="635" spans="1:2">
+      <c r="A635" s="2">
+        <v>45857.59375</v>
+      </c>
+      <c r="B635">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="636" spans="1:2">
+      <c r="A636" s="2">
+        <v>45857.60416666666</v>
+      </c>
+      <c r="B636">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="637" spans="1:2">
+      <c r="A637" s="2">
+        <v>45857.61458333334</v>
+      </c>
+      <c r="B637">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="638" spans="1:2">
+      <c r="A638" s="2">
+        <v>45857.625</v>
+      </c>
+      <c r="B638">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="639" spans="1:2">
+      <c r="A639" s="2">
+        <v>45857.63541666666</v>
+      </c>
+      <c r="B639">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="640" spans="1:2">
+      <c r="A640" s="2">
+        <v>45857.64583333334</v>
+      </c>
+      <c r="B640">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="641" spans="1:2">
+      <c r="A641" s="2">
+        <v>45857.65625</v>
+      </c>
+      <c r="B641">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="642" spans="1:2">
+      <c r="A642" s="2">
+        <v>45857.66666666666</v>
+      </c>
+      <c r="B642">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="643" spans="1:2">
+      <c r="A643" s="2">
+        <v>45857.67708333334</v>
+      </c>
+      <c r="B643">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="644" spans="1:2">
+      <c r="A644" s="2">
+        <v>45857.6875</v>
+      </c>
+      <c r="B644">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="645" spans="1:2">
+      <c r="A645" s="2">
+        <v>45857.69791666666</v>
+      </c>
+      <c r="B645">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="646" spans="1:2">
+      <c r="A646" s="2">
+        <v>45857.70833333334</v>
+      </c>
+      <c r="B646">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="647" spans="1:2">
+      <c r="A647" s="2">
+        <v>45857.71875</v>
+      </c>
+      <c r="B647">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="648" spans="1:2">
+      <c r="A648" s="2">
+        <v>45857.72916666666</v>
+      </c>
+      <c r="B648">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="649" spans="1:2">
+      <c r="A649" s="2">
+        <v>45857.73958333334</v>
+      </c>
+      <c r="B649">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="650" spans="1:2">
+      <c r="A650" s="2">
+        <v>45857.75</v>
+      </c>
+      <c r="B650">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="651" spans="1:2">
+      <c r="A651" s="2">
+        <v>45857.76041666666</v>
+      </c>
+      <c r="B651">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="652" spans="1:2">
+      <c r="A652" s="2">
+        <v>45857.77083333334</v>
+      </c>
+      <c r="B652">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="653" spans="1:2">
+      <c r="A653" s="2">
+        <v>45857.78125</v>
+      </c>
+      <c r="B653">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="654" spans="1:2">
+      <c r="A654" s="2">
+        <v>45857.79166666666</v>
+      </c>
+      <c r="B654">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="655" spans="1:2">
+      <c r="A655" s="2">
+        <v>45857.80208333334</v>
+      </c>
+      <c r="B655">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="656" spans="1:2">
+      <c r="A656" s="2">
+        <v>45857.8125</v>
+      </c>
+      <c r="B656">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="657" spans="1:2">
+      <c r="A657" s="2">
+        <v>45857.82291666666</v>
+      </c>
+      <c r="B657">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="658" spans="1:2">
+      <c r="A658" s="2">
+        <v>45857.83333333334</v>
+      </c>
+      <c r="B658">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="659" spans="1:2">
+      <c r="A659" s="2">
+        <v>45857.84375</v>
+      </c>
+      <c r="B659">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="660" spans="1:2">
+      <c r="A660" s="2">
+        <v>45857.85416666666</v>
+      </c>
+      <c r="B660">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="661" spans="1:2">
+      <c r="A661" s="2">
+        <v>45857.86458333334</v>
+      </c>
+      <c r="B661">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="662" spans="1:2">
+      <c r="A662" s="2">
+        <v>45857.875</v>
+      </c>
+      <c r="B662">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="663" spans="1:2">
+      <c r="A663" s="2">
+        <v>45857.88541666666</v>
+      </c>
+      <c r="B663">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="664" spans="1:2">
+      <c r="A664" s="2">
+        <v>45857.89583333334</v>
+      </c>
+      <c r="B664">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="665" spans="1:2">
+      <c r="A665" s="2">
+        <v>45857.90625</v>
+      </c>
+      <c r="B665">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="666" spans="1:2">
+      <c r="A666" s="2">
+        <v>45857.91666666666</v>
+      </c>
+      <c r="B666">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="667" spans="1:2">
+      <c r="A667" s="2">
+        <v>45857.92708333334</v>
+      </c>
+      <c r="B667">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="668" spans="1:2">
+      <c r="A668" s="2">
+        <v>45857.9375</v>
+      </c>
+      <c r="B668">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="669" spans="1:2">
+      <c r="A669" s="2">
+        <v>45857.94791666666</v>
+      </c>
+      <c r="B669">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="670" spans="1:2">
+      <c r="A670" s="2">
+        <v>45857.95833333334</v>
+      </c>
+      <c r="B670">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="671" spans="1:2">
+      <c r="A671" s="2">
+        <v>45857.96875</v>
+      </c>
+      <c r="B671">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="672" spans="1:2">
+      <c r="A672" s="2">
+        <v>45857.97916666666</v>
+      </c>
+      <c r="B672">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="673" spans="1:2">
+      <c r="A673" s="2">
+        <v>45857.98958333334</v>
+      </c>
+      <c r="B673">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="674" spans="1:2">
+      <c r="A674" s="2">
+        <v>45858</v>
+      </c>
+      <c r="B674">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="675" spans="1:2">
+      <c r="A675" s="2">
+        <v>45858.01041666666</v>
+      </c>
+      <c r="B675">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="676" spans="1:2">
+      <c r="A676" s="2">
+        <v>45858.02083333334</v>
+      </c>
+      <c r="B676">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="677" spans="1:2">
+      <c r="A677" s="2">
+        <v>45858.03125</v>
+      </c>
+      <c r="B677">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="678" spans="1:2">
+      <c r="A678" s="2">
+        <v>45858.04166666666</v>
+      </c>
+      <c r="B678">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="679" spans="1:2">
+      <c r="A679" s="2">
+        <v>45858.05208333334</v>
+      </c>
+      <c r="B679">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="680" spans="1:2">
+      <c r="A680" s="2">
+        <v>45858.0625</v>
+      </c>
+      <c r="B680">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="681" spans="1:2">
+      <c r="A681" s="2">
+        <v>45858.07291666666</v>
+      </c>
+      <c r="B681">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="682" spans="1:2">
+      <c r="A682" s="2">
+        <v>45858.08333333334</v>
+      </c>
+      <c r="B682">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="683" spans="1:2">
+      <c r="A683" s="2">
+        <v>45858.09375</v>
+      </c>
+      <c r="B683">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="684" spans="1:2">
+      <c r="A684" s="2">
+        <v>45858.10416666666</v>
+      </c>
+      <c r="B684">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="685" spans="1:2">
+      <c r="A685" s="2">
+        <v>45858.11458333334</v>
+      </c>
+      <c r="B685">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="686" spans="1:2">
+      <c r="A686" s="2">
+        <v>45858.125</v>
+      </c>
+      <c r="B686">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="687" spans="1:2">
+      <c r="A687" s="2">
+        <v>45858.13541666666</v>
+      </c>
+      <c r="B687">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="688" spans="1:2">
+      <c r="A688" s="2">
+        <v>45858.14583333334</v>
+      </c>
+      <c r="B688">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="689" spans="1:2">
+      <c r="A689" s="2">
+        <v>45858.15625</v>
+      </c>
+      <c r="B689">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="690" spans="1:2">
+      <c r="A690" s="2">
+        <v>45858.16666666666</v>
+      </c>
+      <c r="B690">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="691" spans="1:2">
+      <c r="A691" s="2">
+        <v>45858.17708333334</v>
+      </c>
+      <c r="B691">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="692" spans="1:2">
+      <c r="A692" s="2">
+        <v>45858.1875</v>
+      </c>
+      <c r="B692">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="693" spans="1:2">
+      <c r="A693" s="2">
+        <v>45858.19791666666</v>
+      </c>
+      <c r="B693">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="694" spans="1:2">
+      <c r="A694" s="2">
+        <v>45858.20833333334</v>
+      </c>
+      <c r="B694">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="695" spans="1:2">
+      <c r="A695" s="2">
+        <v>45858.21875</v>
+      </c>
+      <c r="B695">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="696" spans="1:2">
+      <c r="A696" s="2">
+        <v>45858.22916666666</v>
+      </c>
+      <c r="B696">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="697" spans="1:2">
+      <c r="A697" s="2">
+        <v>45858.23958333334</v>
+      </c>
+      <c r="B697">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="698" spans="1:2">
+      <c r="A698" s="2">
+        <v>45858.25</v>
+      </c>
+      <c r="B698">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="699" spans="1:2">
+      <c r="A699" s="2">
+        <v>45858.26041666666</v>
+      </c>
+      <c r="B699">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="700" spans="1:2">
+      <c r="A700" s="2">
+        <v>45858.27083333334</v>
+      </c>
+      <c r="B700">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="701" spans="1:2">
+      <c r="A701" s="2">
+        <v>45858.28125</v>
+      </c>
+      <c r="B701">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="702" spans="1:2">
+      <c r="A702" s="2">
+        <v>45858.29166666666</v>
+      </c>
+      <c r="B702">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="703" spans="1:2">
+      <c r="A703" s="2">
+        <v>45858.30208333334</v>
+      </c>
+      <c r="B703">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="704" spans="1:2">
+      <c r="A704" s="2">
+        <v>45858.3125</v>
+      </c>
+      <c r="B704">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="705" spans="1:2">
+      <c r="A705" s="2">
+        <v>45858.32291666666</v>
+      </c>
+      <c r="B705">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="706" spans="1:2">
+      <c r="A706" s="2">
+        <v>45858.33333333334</v>
+      </c>
+      <c r="B706">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="707" spans="1:2">
+      <c r="A707" s="2">
+        <v>45858.34375</v>
+      </c>
+      <c r="B707">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="708" spans="1:2">
+      <c r="A708" s="2">
+        <v>45858.35416666666</v>
+      </c>
+      <c r="B708">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="709" spans="1:2">
+      <c r="A709" s="2">
+        <v>45858.36458333334</v>
+      </c>
+      <c r="B709">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="710" spans="1:2">
+      <c r="A710" s="2">
+        <v>45858.375</v>
+      </c>
+      <c r="B710">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="711" spans="1:2">
+      <c r="A711" s="2">
+        <v>45858.38541666666</v>
+      </c>
+      <c r="B711">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="712" spans="1:2">
+      <c r="A712" s="2">
+        <v>45858.39583333334</v>
+      </c>
+      <c r="B712">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="713" spans="1:2">
+      <c r="A713" s="2">
+        <v>45858.40625</v>
+      </c>
+      <c r="B713">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="714" spans="1:2">
+      <c r="A714" s="2">
+        <v>45858.41666666666</v>
+      </c>
+      <c r="B714">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="715" spans="1:2">
+      <c r="A715" s="2">
+        <v>45858.42708333334</v>
+      </c>
+      <c r="B715">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="716" spans="1:2">
+      <c r="A716" s="2">
+        <v>45858.4375</v>
+      </c>
+      <c r="B716">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="717" spans="1:2">
+      <c r="A717" s="2">
+        <v>45858.44791666666</v>
+      </c>
+      <c r="B717">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="718" spans="1:2">
+      <c r="A718" s="2">
+        <v>45858.45833333334</v>
+      </c>
+      <c r="B718">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="719" spans="1:2">
+      <c r="A719" s="2">
+        <v>45858.46875</v>
+      </c>
+      <c r="B719">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="720" spans="1:2">
+      <c r="A720" s="2">
+        <v>45858.47916666666</v>
+      </c>
+      <c r="B720">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="721" spans="1:2">
+      <c r="A721" s="2">
+        <v>45858.48958333334</v>
+      </c>
+      <c r="B721">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="722" spans="1:2">
+      <c r="A722" s="2">
+        <v>45858.5</v>
+      </c>
+      <c r="B722">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="723" spans="1:2">
+      <c r="A723" s="2">
+        <v>45858.51041666666</v>
+      </c>
+      <c r="B723">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="724" spans="1:2">
+      <c r="A724" s="2">
+        <v>45858.52083333334</v>
+      </c>
+      <c r="B724">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="725" spans="1:2">
+      <c r="A725" s="2">
+        <v>45858.53125</v>
+      </c>
+      <c r="B725">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="726" spans="1:2">
+      <c r="A726" s="2">
+        <v>45858.54166666666</v>
+      </c>
+      <c r="B726">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="727" spans="1:2">
+      <c r="A727" s="2">
+        <v>45858.55208333334</v>
+      </c>
+      <c r="B727">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="728" spans="1:2">
+      <c r="A728" s="2">
+        <v>45858.5625</v>
+      </c>
+      <c r="B728">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="729" spans="1:2">
+      <c r="A729" s="2">
+        <v>45858.57291666666</v>
+      </c>
+      <c r="B729">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="730" spans="1:2">
+      <c r="A730" s="2">
+        <v>45858.58333333334</v>
+      </c>
+      <c r="B730">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="731" spans="1:2">
+      <c r="A731" s="2">
+        <v>45858.59375</v>
+      </c>
+      <c r="B731">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="732" spans="1:2">
+      <c r="A732" s="2">
+        <v>45858.60416666666</v>
+      </c>
+      <c r="B732">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="733" spans="1:2">
+      <c r="A733" s="2">
+        <v>45858.61458333334</v>
+      </c>
+      <c r="B733">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="734" spans="1:2">
+      <c r="A734" s="2">
+        <v>45858.625</v>
+      </c>
+      <c r="B734">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="735" spans="1:2">
+      <c r="A735" s="2">
+        <v>45858.63541666666</v>
+      </c>
+      <c r="B735">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="736" spans="1:2">
+      <c r="A736" s="2">
+        <v>45858.64583333334</v>
+      </c>
+      <c r="B736">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="737" spans="1:2">
+      <c r="A737" s="2">
+        <v>45858.65625</v>
+      </c>
+      <c r="B737">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="738" spans="1:2">
+      <c r="A738" s="2">
+        <v>45858.66666666666</v>
+      </c>
+      <c r="B738">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="739" spans="1:2">
+      <c r="A739" s="2">
+        <v>45858.67708333334</v>
+      </c>
+      <c r="B739">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="740" spans="1:2">
+      <c r="A740" s="2">
+        <v>45858.6875</v>
+      </c>
+      <c r="B740">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="741" spans="1:2">
+      <c r="A741" s="2">
+        <v>45858.69791666666</v>
+      </c>
+      <c r="B741">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="742" spans="1:2">
+      <c r="A742" s="2">
+        <v>45858.70833333334</v>
+      </c>
+      <c r="B742">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="743" spans="1:2">
+      <c r="A743" s="2">
+        <v>45858.71875</v>
+      </c>
+      <c r="B743">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="744" spans="1:2">
+      <c r="A744" s="2">
+        <v>45858.72916666666</v>
+      </c>
+      <c r="B744">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="745" spans="1:2">
+      <c r="A745" s="2">
+        <v>45858.73958333334</v>
+      </c>
+      <c r="B745">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="746" spans="1:2">
+      <c r="A746" s="2">
+        <v>45858.75</v>
+      </c>
+      <c r="B746">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="747" spans="1:2">
+      <c r="A747" s="2">
+        <v>45858.76041666666</v>
+      </c>
+      <c r="B747">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="748" spans="1:2">
+      <c r="A748" s="2">
+        <v>45858.77083333334</v>
+      </c>
+      <c r="B748">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="749" spans="1:2">
+      <c r="A749" s="2">
+        <v>45858.78125</v>
+      </c>
+      <c r="B749">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="750" spans="1:2">
+      <c r="A750" s="2">
+        <v>45858.79166666666</v>
+      </c>
+      <c r="B750">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="751" spans="1:2">
+      <c r="A751" s="2">
+        <v>45858.80208333334</v>
+      </c>
+      <c r="B751">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="752" spans="1:2">
+      <c r="A752" s="2">
+        <v>45858.8125</v>
+      </c>
+      <c r="B752">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="753" spans="1:2">
+      <c r="A753" s="2">
+        <v>45858.82291666666</v>
+      </c>
+      <c r="B753">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="754" spans="1:2">
+      <c r="A754" s="2">
+        <v>45858.83333333334</v>
+      </c>
+      <c r="B754">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="755" spans="1:2">
+      <c r="A755" s="2">
+        <v>45858.84375</v>
+      </c>
+      <c r="B755">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="756" spans="1:2">
+      <c r="A756" s="2">
+        <v>45858.85416666666</v>
+      </c>
+      <c r="B756">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="757" spans="1:2">
+      <c r="A757" s="2">
+        <v>45858.86458333334</v>
+      </c>
+      <c r="B757">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="758" spans="1:2">
+      <c r="A758" s="2">
+        <v>45858.875</v>
+      </c>
+      <c r="B758">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="759" spans="1:2">
+      <c r="A759" s="2">
+        <v>45858.88541666666</v>
+      </c>
+      <c r="B759">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="760" spans="1:2">
+      <c r="A760" s="2">
+        <v>45858.89583333334</v>
+      </c>
+      <c r="B760">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="761" spans="1:2">
+      <c r="A761" s="2">
+        <v>45858.90625</v>
+      </c>
+      <c r="B761">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="762" spans="1:2">
+      <c r="A762" s="2">
+        <v>45858.91666666666</v>
+      </c>
+      <c r="B762">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="763" spans="1:2">
+      <c r="A763" s="2">
+        <v>45858.92708333334</v>
+      </c>
+      <c r="B763">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="764" spans="1:2">
+      <c r="A764" s="2">
+        <v>45858.9375</v>
+      </c>
+      <c r="B764">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="765" spans="1:2">
+      <c r="A765" s="2">
+        <v>45858.94791666666</v>
+      </c>
+      <c r="B765">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="766" spans="1:2">
+      <c r="A766" s="2">
+        <v>45858.95833333334</v>
+      </c>
+      <c r="B766">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="767" spans="1:2">
+      <c r="A767" s="2">
+        <v>45858.96875</v>
+      </c>
+      <c r="B767">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="768" spans="1:2">
+      <c r="A768" s="2">
+        <v>45858.97916666666</v>
+      </c>
+      <c r="B768">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="769" spans="1:2">
+      <c r="A769" s="2">
+        <v>45858.98958333334</v>
+      </c>
+      <c r="B769">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="770" spans="1:2">
+      <c r="A770" s="2">
+        <v>45859</v>
+      </c>
+      <c r="B770">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="771" spans="1:2">
+      <c r="A771" s="2">
+        <v>45859.01041666666</v>
+      </c>
+      <c r="B771">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="772" spans="1:2">
+      <c r="A772" s="2">
+        <v>45859.02083333334</v>
+      </c>
+      <c r="B772">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="773" spans="1:2">
+      <c r="A773" s="2">
+        <v>45859.03125</v>
+      </c>
+      <c r="B773">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="774" spans="1:2">
+      <c r="A774" s="2">
+        <v>45859.04166666666</v>
+      </c>
+      <c r="B774">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="775" spans="1:2">
+      <c r="A775" s="2">
+        <v>45859.05208333334</v>
+      </c>
+      <c r="B775">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="776" spans="1:2">
+      <c r="A776" s="2">
+        <v>45859.0625</v>
+      </c>
+      <c r="B776">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="777" spans="1:2">
+      <c r="A777" s="2">
+        <v>45859.07291666666</v>
+      </c>
+      <c r="B777">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="778" spans="1:2">
+      <c r="A778" s="2">
+        <v>45859.08333333334</v>
+      </c>
+      <c r="B778">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="779" spans="1:2">
+      <c r="A779" s="2">
+        <v>45859.09375</v>
+      </c>
+      <c r="B779">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="780" spans="1:2">
+      <c r="A780" s="2">
+        <v>45859.10416666666</v>
+      </c>
+      <c r="B780">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="781" spans="1:2">
+      <c r="A781" s="2">
+        <v>45859.11458333334</v>
+      </c>
+      <c r="B781">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="782" spans="1:2">
+      <c r="A782" s="2">
+        <v>45859.125</v>
+      </c>
+      <c r="B782">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="783" spans="1:2">
+      <c r="A783" s="2">
+        <v>45859.13541666666</v>
+      </c>
+      <c r="B783">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="784" spans="1:2">
+      <c r="A784" s="2">
+        <v>45859.14583333334</v>
+      </c>
+      <c r="B784">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="785" spans="1:2">
+      <c r="A785" s="2">
+        <v>45859.15625</v>
+      </c>
+      <c r="B785">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="786" spans="1:2">
+      <c r="A786" s="2">
+        <v>45859.16666666666</v>
+      </c>
+      <c r="B786">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="787" spans="1:2">
+      <c r="A787" s="2">
+        <v>45859.17708333334</v>
+      </c>
+      <c r="B787">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="788" spans="1:2">
+      <c r="A788" s="2">
+        <v>45859.1875</v>
+      </c>
+      <c r="B788">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="789" spans="1:2">
+      <c r="A789" s="2">
+        <v>45859.19791666666</v>
+      </c>
+      <c r="B789">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="790" spans="1:2">
+      <c r="A790" s="2">
+        <v>45859.20833333334</v>
+      </c>
+      <c r="B790">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="791" spans="1:2">
+      <c r="A791" s="2">
+        <v>45859.21875</v>
+      </c>
+      <c r="B791">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="792" spans="1:2">
+      <c r="A792" s="2">
+        <v>45859.22916666666</v>
+      </c>
+      <c r="B792">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="793" spans="1:2">
+      <c r="A793" s="2">
+        <v>45859.23958333334</v>
+      </c>
+      <c r="B793">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="794" spans="1:2">
+      <c r="A794" s="2">
+        <v>45859.25</v>
+      </c>
+      <c r="B794">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="795" spans="1:2">
+      <c r="A795" s="2">
+        <v>45859.26041666666</v>
+      </c>
+      <c r="B795">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="796" spans="1:2">
+      <c r="A796" s="2">
+        <v>45859.27083333334</v>
+      </c>
+      <c r="B796">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="797" spans="1:2">
+      <c r="A797" s="2">
+        <v>45859.28125</v>
+      </c>
+      <c r="B797">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="798" spans="1:2">
+      <c r="A798" s="2">
+        <v>45859.29166666666</v>
+      </c>
+      <c r="B798">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="799" spans="1:2">
+      <c r="A799" s="2">
+        <v>45859.30208333334</v>
+      </c>
+      <c r="B799">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="800" spans="1:2">
+      <c r="A800" s="2">
+        <v>45859.3125</v>
+      </c>
+      <c r="B800">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="801" spans="1:2">
+      <c r="A801" s="2">
+        <v>45859.32291666666</v>
+      </c>
+      <c r="B801">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="802" spans="1:2">
+      <c r="A802" s="2">
+        <v>45859.33333333334</v>
+      </c>
+      <c r="B802">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="803" spans="1:2">
+      <c r="A803" s="2">
+        <v>45859.34375</v>
+      </c>
+      <c r="B803">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="804" spans="1:2">
+      <c r="A804" s="2">
+        <v>45859.35416666666</v>
+      </c>
+      <c r="B804">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="805" spans="1:2">
+      <c r="A805" s="2">
+        <v>45859.36458333334</v>
+      </c>
+      <c r="B805">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="806" spans="1:2">
+      <c r="A806" s="2">
+        <v>45859.375</v>
+      </c>
+      <c r="B806">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="807" spans="1:2">
+      <c r="A807" s="2">
+        <v>45859.38541666666</v>
+      </c>
+      <c r="B807">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="808" spans="1:2">
+      <c r="A808" s="2">
+        <v>45859.39583333334</v>
+      </c>
+      <c r="B808">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="809" spans="1:2">
+      <c r="A809" s="2">
+        <v>45859.40625</v>
+      </c>
+      <c r="B809">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="810" spans="1:2">
+      <c r="A810" s="2">
+        <v>45859.41666666666</v>
+      </c>
+      <c r="B810">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="811" spans="1:2">
+      <c r="A811" s="2">
+        <v>45859.42708333334</v>
+      </c>
+      <c r="B811">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="812" spans="1:2">
+      <c r="A812" s="2">
+        <v>45859.4375</v>
+      </c>
+      <c r="B812">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="813" spans="1:2">
+      <c r="A813" s="2">
+        <v>45859.44791666666</v>
+      </c>
+      <c r="B813">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="814" spans="1:2">
+      <c r="A814" s="2">
+        <v>45859.45833333334</v>
+      </c>
+      <c r="B814">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="815" spans="1:2">
+      <c r="A815" s="2">
+        <v>45859.46875</v>
+      </c>
+      <c r="B815">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="816" spans="1:2">
+      <c r="A816" s="2">
+        <v>45859.47916666666</v>
+      </c>
+      <c r="B816">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="817" spans="1:2">
+      <c r="A817" s="2">
+        <v>45859.48958333334</v>
+      </c>
+      <c r="B817">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="818" spans="1:2">
+      <c r="A818" s="2">
+        <v>45859.5</v>
+      </c>
+      <c r="B818">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="819" spans="1:2">
+      <c r="A819" s="2">
+        <v>45859.51041666666</v>
+      </c>
+      <c r="B819">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="820" spans="1:2">
+      <c r="A820" s="2">
+        <v>45859.52083333334</v>
+      </c>
+      <c r="B820">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="821" spans="1:2">
+      <c r="A821" s="2">
+        <v>45859.53125</v>
+      </c>
+      <c r="B821">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="822" spans="1:2">
+      <c r="A822" s="2">
+        <v>45859.54166666666</v>
+      </c>
+      <c r="B822">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="823" spans="1:2">
+      <c r="A823" s="2">
+        <v>45859.55208333334</v>
+      </c>
+      <c r="B823">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="824" spans="1:2">
+      <c r="A824" s="2">
+        <v>45859.5625</v>
+      </c>
+      <c r="B824">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="825" spans="1:2">
+      <c r="A825" s="2">
+        <v>45859.57291666666</v>
+      </c>
+      <c r="B825">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="826" spans="1:2">
+      <c r="A826" s="2">
+        <v>45859.58333333334</v>
+      </c>
+      <c r="B826">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="827" spans="1:2">
+      <c r="A827" s="2">
+        <v>45859.59375</v>
+      </c>
+      <c r="B827">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="828" spans="1:2">
+      <c r="A828" s="2">
+        <v>45859.60416666666</v>
+      </c>
+      <c r="B828">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="829" spans="1:2">
+      <c r="A829" s="2">
+        <v>45859.61458333334</v>
+      </c>
+      <c r="B829">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="830" spans="1:2">
+      <c r="A830" s="2">
+        <v>45859.625</v>
+      </c>
+      <c r="B830">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="831" spans="1:2">
+      <c r="A831" s="2">
+        <v>45859.63541666666</v>
+      </c>
+      <c r="B831">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="832" spans="1:2">
+      <c r="A832" s="2">
+        <v>45859.64583333334</v>
+      </c>
+      <c r="B832">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="833" spans="1:2">
+      <c r="A833" s="2">
+        <v>45859.65625</v>
+      </c>
+      <c r="B833">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="834" spans="1:2">
+      <c r="A834" s="2">
+        <v>45859.66666666666</v>
+      </c>
+      <c r="B834">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="835" spans="1:2">
+      <c r="A835" s="2">
+        <v>45859.67708333334</v>
+      </c>
+      <c r="B835">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="836" spans="1:2">
+      <c r="A836" s="2">
+        <v>45859.6875</v>
+      </c>
+      <c r="B836">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="837" spans="1:2">
+      <c r="A837" s="2">
+        <v>45859.69791666666</v>
+      </c>
+      <c r="B837">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="838" spans="1:2">
+      <c r="A838" s="2">
+        <v>45859.70833333334</v>
+      </c>
+      <c r="B838">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="839" spans="1:2">
+      <c r="A839" s="2">
+        <v>45859.71875</v>
+      </c>
+      <c r="B839">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="840" spans="1:2">
+      <c r="A840" s="2">
+        <v>45859.72916666666</v>
+      </c>
+      <c r="B840">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="841" spans="1:2">
+      <c r="A841" s="2">
+        <v>45859.73958333334</v>
+      </c>
+      <c r="B841">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="842" spans="1:2">
+      <c r="A842" s="2">
+        <v>45859.75</v>
+      </c>
+      <c r="B842">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="843" spans="1:2">
+      <c r="A843" s="2">
+        <v>45859.76041666666</v>
+      </c>
+      <c r="B843">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="844" spans="1:2">
+      <c r="A844" s="2">
+        <v>45859.77083333334</v>
+      </c>
+      <c r="B844">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="845" spans="1:2">
+      <c r="A845" s="2">
+        <v>45859.78125</v>
+      </c>
+      <c r="B845">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="846" spans="1:2">
+      <c r="A846" s="2">
+        <v>45859.79166666666</v>
+      </c>
+      <c r="B846">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="847" spans="1:2">
+      <c r="A847" s="2">
+        <v>45859.80208333334</v>
+      </c>
+      <c r="B847">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="848" spans="1:2">
+      <c r="A848" s="2">
+        <v>45859.8125</v>
+      </c>
+      <c r="B848">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="849" spans="1:2">
+      <c r="A849" s="2">
+        <v>45859.82291666666</v>
+      </c>
+      <c r="B849">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="850" spans="1:2">
+      <c r="A850" s="2">
+        <v>45859.83333333334</v>
+      </c>
+      <c r="B850">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="851" spans="1:2">
+      <c r="A851" s="2">
+        <v>45859.84375</v>
+      </c>
+      <c r="B851">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="852" spans="1:2">
+      <c r="A852" s="2">
+        <v>45859.85416666666</v>
+      </c>
+      <c r="B852">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="853" spans="1:2">
+      <c r="A853" s="2">
+        <v>45859.86458333334</v>
+      </c>
+      <c r="B853">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="854" spans="1:2">
+      <c r="A854" s="2">
+        <v>45859.875</v>
+      </c>
+      <c r="B854">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="855" spans="1:2">
+      <c r="A855" s="2">
+        <v>45859.88541666666</v>
+      </c>
+      <c r="B855">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="856" spans="1:2">
+      <c r="A856" s="2">
+        <v>45859.89583333334</v>
+      </c>
+      <c r="B856">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="857" spans="1:2">
+      <c r="A857" s="2">
+        <v>45859.90625</v>
+      </c>
+      <c r="B857">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="858" spans="1:2">
+      <c r="A858" s="2">
+        <v>45859.91666666666</v>
+      </c>
+      <c r="B858">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="859" spans="1:2">
+      <c r="A859" s="2">
+        <v>45859.92708333334</v>
+      </c>
+      <c r="B859">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="860" spans="1:2">
+      <c r="A860" s="2">
+        <v>45859.9375</v>
+      </c>
+      <c r="B860">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="861" spans="1:2">
+      <c r="A861" s="2">
+        <v>45859.94791666666</v>
+      </c>
+      <c r="B861">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="862" spans="1:2">
+      <c r="A862" s="2">
+        <v>45859.95833333334</v>
+      </c>
+      <c r="B862">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="863" spans="1:2">
+      <c r="A863" s="2">
+        <v>45859.96875</v>
+      </c>
+      <c r="B863">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="864" spans="1:2">
+      <c r="A864" s="2">
+        <v>45859.97916666666</v>
+      </c>
+      <c r="B864">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="865" spans="1:2">
+      <c r="A865" s="2">
+        <v>45859.98958333334</v>
+      </c>
+      <c r="B865">
         <v>0</v>
       </c>
     </row>

--- a/data_fetching/Entsoe/Actual_Production_Hydro_Water_Reservoir.xlsx
+++ b/data_fetching/Entsoe/Actual_Production_Hydro_Water_Reservoir.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B193"/>
+  <dimension ref="A1:B577"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -397,1537 +397,4609 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2">
-        <v>45874</v>
+        <v>45884</v>
       </c>
       <c r="B2">
-        <v>359</v>
+        <v>414</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2">
-        <v>45874.01041666666</v>
+        <v>45884.01041666666</v>
       </c>
       <c r="B3">
-        <v>355</v>
+        <v>407</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2">
-        <v>45874.02083333334</v>
+        <v>45884.02083333334</v>
       </c>
       <c r="B4">
-        <v>353</v>
+        <v>406</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2">
-        <v>45874.03125</v>
+        <v>45884.03125</v>
       </c>
       <c r="B5">
-        <v>356</v>
+        <v>408</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2">
-        <v>45874.04166666666</v>
+        <v>45884.04166666666</v>
       </c>
       <c r="B6">
-        <v>311</v>
+        <v>405</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2">
-        <v>45874.05208333334</v>
+        <v>45884.05208333334</v>
       </c>
       <c r="B7">
-        <v>305</v>
+        <v>406</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2">
-        <v>45874.0625</v>
+        <v>45884.0625</v>
       </c>
       <c r="B8">
-        <v>304</v>
+        <v>406</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2">
-        <v>45874.07291666666</v>
+        <v>45884.07291666666</v>
       </c>
       <c r="B9">
-        <v>305</v>
+        <v>405</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2">
-        <v>45874.08333333334</v>
+        <v>45884.08333333334</v>
       </c>
       <c r="B10">
-        <v>284</v>
+        <v>406</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2">
-        <v>45874.09375</v>
+        <v>45884.09375</v>
       </c>
       <c r="B11">
-        <v>281</v>
+        <v>406</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2">
-        <v>45874.10416666666</v>
+        <v>45884.10416666666</v>
       </c>
       <c r="B12">
-        <v>281</v>
+        <v>406</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2">
-        <v>45874.11458333334</v>
+        <v>45884.11458333334</v>
       </c>
       <c r="B13">
-        <v>281</v>
+        <v>405</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2">
-        <v>45874.125</v>
+        <v>45884.125</v>
       </c>
       <c r="B14">
-        <v>282</v>
+        <v>406</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2">
-        <v>45874.13541666666</v>
+        <v>45884.13541666666</v>
       </c>
       <c r="B15">
-        <v>282</v>
+        <v>407</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2">
-        <v>45874.14583333334</v>
+        <v>45884.14583333334</v>
       </c>
       <c r="B16">
-        <v>280</v>
+        <v>408</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2">
-        <v>45874.15625</v>
+        <v>45884.15625</v>
       </c>
       <c r="B17">
-        <v>280</v>
+        <v>407</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2">
-        <v>45874.16666666666</v>
+        <v>45884.16666666666</v>
       </c>
       <c r="B18">
-        <v>281</v>
+        <v>408</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2">
-        <v>45874.17708333334</v>
+        <v>45884.17708333334</v>
       </c>
       <c r="B19">
-        <v>280</v>
+        <v>406</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2">
-        <v>45874.1875</v>
+        <v>45884.1875</v>
       </c>
       <c r="B20">
-        <v>280</v>
+        <v>405</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2">
-        <v>45874.19791666666</v>
+        <v>45884.19791666666</v>
       </c>
       <c r="B21">
-        <v>286</v>
+        <v>403</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2">
-        <v>45874.20833333334</v>
+        <v>45884.20833333334</v>
       </c>
       <c r="B22">
-        <v>364</v>
+        <v>433</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2">
-        <v>45874.21875</v>
+        <v>45884.21875</v>
       </c>
       <c r="B23">
-        <v>363</v>
+        <v>427</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2">
-        <v>45874.22916666666</v>
+        <v>45884.22916666666</v>
       </c>
       <c r="B24">
-        <v>364</v>
+        <v>430</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2">
-        <v>45874.23958333334</v>
+        <v>45884.23958333334</v>
       </c>
       <c r="B25">
-        <v>366</v>
+        <v>422</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2">
-        <v>45874.25</v>
+        <v>45884.25</v>
       </c>
       <c r="B26">
-        <v>518</v>
+        <v>382</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2">
-        <v>45874.26041666666</v>
+        <v>45884.26041666666</v>
       </c>
       <c r="B27">
-        <v>521</v>
+        <v>386</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2">
-        <v>45874.27083333334</v>
+        <v>45884.27083333334</v>
       </c>
       <c r="B28">
-        <v>521</v>
+        <v>386</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2">
-        <v>45874.28125</v>
+        <v>45884.28125</v>
       </c>
       <c r="B29">
-        <v>522</v>
+        <v>383</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2">
-        <v>45874.29166666666</v>
+        <v>45884.29166666666</v>
       </c>
       <c r="B30">
-        <v>479</v>
+        <v>333</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2">
-        <v>45874.30208333334</v>
+        <v>45884.30208333334</v>
       </c>
       <c r="B31">
-        <v>472</v>
+        <v>323</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2">
-        <v>45874.3125</v>
+        <v>45884.3125</v>
       </c>
       <c r="B32">
-        <v>473</v>
+        <v>323</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2">
-        <v>45874.32291666666</v>
+        <v>45884.32291666666</v>
       </c>
       <c r="B33">
-        <v>472</v>
+        <v>323</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2">
-        <v>45874.33333333334</v>
+        <v>45884.33333333334</v>
       </c>
       <c r="B34">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="2">
-        <v>45874.34375</v>
+        <v>45884.34375</v>
       </c>
       <c r="B35">
-        <v>258</v>
+        <v>253</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="2">
-        <v>45874.35416666666</v>
+        <v>45884.35416666666</v>
       </c>
       <c r="B36">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="2">
-        <v>45874.36458333334</v>
+        <v>45884.36458333334</v>
       </c>
       <c r="B37">
-        <v>269</v>
+        <v>252</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="2">
-        <v>45874.375</v>
+        <v>45884.375</v>
       </c>
       <c r="B38">
-        <v>332</v>
+        <v>236</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="2">
-        <v>45874.38541666666</v>
+        <v>45884.38541666666</v>
       </c>
       <c r="B39">
-        <v>333</v>
+        <v>235</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="2">
-        <v>45874.39583333334</v>
+        <v>45884.39583333334</v>
       </c>
       <c r="B40">
-        <v>331</v>
+        <v>231</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="2">
-        <v>45874.40625</v>
+        <v>45884.40625</v>
       </c>
       <c r="B41">
-        <v>329</v>
+        <v>233</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="2">
-        <v>45874.41666666666</v>
+        <v>45884.41666666666</v>
       </c>
       <c r="B42">
-        <v>227</v>
+        <v>113</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="2">
-        <v>45874.42708333334</v>
+        <v>45884.42708333334</v>
       </c>
       <c r="B43">
-        <v>221</v>
+        <v>98</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="2">
-        <v>45874.4375</v>
+        <v>45884.4375</v>
       </c>
       <c r="B44">
-        <v>219</v>
+        <v>99</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="2">
-        <v>45874.44791666666</v>
+        <v>45884.44791666666</v>
       </c>
       <c r="B45">
-        <v>220</v>
+        <v>100</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="2">
-        <v>45874.45833333334</v>
+        <v>45884.45833333334</v>
       </c>
       <c r="B46">
-        <v>208</v>
+        <v>50</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="2">
-        <v>45874.46875</v>
+        <v>45884.46875</v>
       </c>
       <c r="B47">
-        <v>204</v>
+        <v>48</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="2">
-        <v>45874.47916666666</v>
+        <v>45884.47916666666</v>
       </c>
       <c r="B48">
-        <v>212</v>
+        <v>49</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="2">
-        <v>45874.48958333334</v>
+        <v>45884.48958333334</v>
       </c>
       <c r="B49">
-        <v>216</v>
+        <v>43</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="2">
-        <v>45874.5</v>
+        <v>45884.5</v>
       </c>
       <c r="B50">
-        <v>199</v>
+        <v>46</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="2">
-        <v>45874.51041666666</v>
+        <v>45884.51041666666</v>
       </c>
       <c r="B51">
-        <v>199</v>
+        <v>47</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="2">
-        <v>45874.52083333334</v>
+        <v>45884.52083333334</v>
       </c>
       <c r="B52">
-        <v>197</v>
+        <v>55</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="2">
-        <v>45874.53125</v>
+        <v>45884.53125</v>
       </c>
       <c r="B53">
-        <v>199</v>
+        <v>46</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="2">
-        <v>45874.54166666666</v>
+        <v>45884.54166666666</v>
       </c>
       <c r="B54">
-        <v>191</v>
+        <v>50</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="2">
-        <v>45874.55208333334</v>
+        <v>45884.55208333334</v>
       </c>
       <c r="B55">
-        <v>191</v>
+        <v>47</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="2">
-        <v>45874.5625</v>
+        <v>45884.5625</v>
       </c>
       <c r="B56">
-        <v>193</v>
+        <v>46</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="2">
-        <v>45874.57291666666</v>
+        <v>45884.57291666666</v>
       </c>
       <c r="B57">
-        <v>188</v>
+        <v>50</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="2">
-        <v>45874.58333333334</v>
+        <v>45884.58333333334</v>
       </c>
       <c r="B58">
-        <v>209</v>
+        <v>45</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="2">
-        <v>45874.59375</v>
+        <v>45884.59375</v>
       </c>
       <c r="B59">
-        <v>214</v>
+        <v>47</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="2">
-        <v>45874.60416666666</v>
+        <v>45884.60416666666</v>
       </c>
       <c r="B60">
-        <v>212</v>
+        <v>48</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="2">
-        <v>45874.61458333334</v>
+        <v>45884.61458333334</v>
       </c>
       <c r="B61">
-        <v>212</v>
+        <v>47</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="2">
-        <v>45874.625</v>
+        <v>45884.625</v>
       </c>
       <c r="B62">
-        <v>210</v>
+        <v>42</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="2">
-        <v>45874.63541666666</v>
+        <v>45884.63541666666</v>
       </c>
       <c r="B63">
-        <v>212</v>
+        <v>43</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="2">
-        <v>45874.64583333334</v>
+        <v>45884.64583333334</v>
       </c>
       <c r="B64">
-        <v>211</v>
+        <v>46</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="2">
-        <v>45874.65625</v>
+        <v>45884.65625</v>
       </c>
       <c r="B65">
-        <v>213</v>
+        <v>56</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="2">
-        <v>45874.66666666666</v>
+        <v>45884.66666666666</v>
       </c>
       <c r="B66">
-        <v>230</v>
+        <v>161</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="2">
-        <v>45874.67708333334</v>
+        <v>45884.67708333334</v>
       </c>
       <c r="B67">
-        <v>242</v>
+        <v>190</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="2">
-        <v>45874.6875</v>
+        <v>45884.6875</v>
       </c>
       <c r="B68">
-        <v>245</v>
+        <v>203</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="2">
-        <v>45874.69791666666</v>
+        <v>45884.69791666666</v>
       </c>
       <c r="B69">
-        <v>257</v>
+        <v>241</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="2">
-        <v>45874.70833333334</v>
+        <v>45884.70833333334</v>
       </c>
       <c r="B70">
-        <v>634</v>
+        <v>561</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="2">
-        <v>45874.71875</v>
+        <v>45884.71875</v>
       </c>
       <c r="B71">
-        <v>672</v>
+        <v>594</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="2">
-        <v>45874.72916666666</v>
+        <v>45884.72916666666</v>
       </c>
       <c r="B72">
-        <v>670</v>
+        <v>596</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="2">
-        <v>45874.73958333334</v>
+        <v>45884.73958333334</v>
       </c>
       <c r="B73">
-        <v>686</v>
+        <v>602</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="2">
-        <v>45874.75</v>
+        <v>45884.75</v>
       </c>
       <c r="B74">
-        <v>773</v>
+        <v>646</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="2">
-        <v>45874.76041666666</v>
+        <v>45884.76041666666</v>
       </c>
       <c r="B75">
-        <v>794</v>
+        <v>659</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="2">
-        <v>45874.77083333334</v>
+        <v>45884.77083333334</v>
       </c>
       <c r="B76">
-        <v>800</v>
+        <v>649</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="2">
-        <v>45874.78125</v>
+        <v>45884.78125</v>
       </c>
       <c r="B77">
-        <v>802</v>
+        <v>678</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="2">
-        <v>45874.79166666666</v>
+        <v>45884.79166666666</v>
       </c>
       <c r="B78">
-        <v>793</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="2">
-        <v>45874.80208333334</v>
+        <v>45884.80208333334</v>
       </c>
       <c r="B79">
-        <v>796</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="2">
-        <v>45874.8125</v>
+        <v>45884.8125</v>
       </c>
       <c r="B80">
-        <v>795</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="2">
-        <v>45874.82291666666</v>
+        <v>45884.82291666666</v>
       </c>
       <c r="B81">
-        <v>800</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="2">
-        <v>45874.83333333334</v>
+        <v>45884.83333333334</v>
       </c>
       <c r="B82">
-        <v>757</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="2">
-        <v>45874.84375</v>
+        <v>45884.84375</v>
       </c>
       <c r="B83">
-        <v>763</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="2">
-        <v>45874.85416666666</v>
+        <v>45884.85416666666</v>
       </c>
       <c r="B84">
-        <v>763</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="2">
-        <v>45874.86458333334</v>
+        <v>45884.86458333334</v>
       </c>
       <c r="B85">
-        <v>763</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="2">
-        <v>45874.875</v>
+        <v>45884.875</v>
       </c>
       <c r="B86">
-        <v>745</v>
+        <v>891</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="2">
-        <v>45874.88541666666</v>
+        <v>45884.88541666666</v>
       </c>
       <c r="B87">
-        <v>742</v>
+        <v>884</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="2">
-        <v>45874.89583333334</v>
+        <v>45884.89583333334</v>
       </c>
       <c r="B88">
-        <v>735</v>
+        <v>894</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="2">
-        <v>45874.90625</v>
+        <v>45884.90625</v>
       </c>
       <c r="B89">
-        <v>728</v>
+        <v>878</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="2">
-        <v>45874.91666666666</v>
+        <v>45884.91666666666</v>
       </c>
       <c r="B90">
-        <v>503</v>
+        <v>489</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="2">
-        <v>45874.92708333334</v>
+        <v>45884.92708333334</v>
       </c>
       <c r="B91">
-        <v>494</v>
+        <v>484</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="2">
-        <v>45874.9375</v>
+        <v>45884.9375</v>
       </c>
       <c r="B92">
-        <v>0</v>
+        <v>488</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="2">
-        <v>45874.94791666666</v>
+        <v>45884.94791666666</v>
       </c>
       <c r="B93">
-        <v>466</v>
+        <v>486</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="2">
-        <v>45874.95833333334</v>
+        <v>45884.95833333334</v>
       </c>
       <c r="B94">
-        <v>453</v>
+        <v>433</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="2">
-        <v>45874.96875</v>
+        <v>45884.96875</v>
       </c>
       <c r="B95">
-        <v>447</v>
+        <v>420</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="2">
-        <v>45874.97916666666</v>
+        <v>45884.97916666666</v>
       </c>
       <c r="B96">
-        <v>449</v>
+        <v>426</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="2">
-        <v>45874.98958333334</v>
+        <v>45884.98958333334</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>413</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" s="2">
-        <v>45875</v>
+        <v>45885</v>
       </c>
       <c r="B98">
-        <v>369</v>
+        <v>271</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" s="2">
-        <v>45875.01041666666</v>
+        <v>45885.01041666666</v>
       </c>
       <c r="B99">
-        <v>361</v>
+        <v>252</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" s="2">
-        <v>45875.02083333334</v>
+        <v>45885.02083333334</v>
       </c>
       <c r="B100">
-        <v>360</v>
+        <v>254</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" s="2">
-        <v>45875.03125</v>
+        <v>45885.03125</v>
       </c>
       <c r="B101">
-        <v>362</v>
+        <v>254</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" s="2">
-        <v>45875.04166666666</v>
+        <v>45885.04166666666</v>
       </c>
       <c r="B102">
-        <v>365</v>
+        <v>249</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" s="2">
-        <v>45875.05208333334</v>
+        <v>45885.05208333334</v>
       </c>
       <c r="B103">
-        <v>362</v>
+        <v>242</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" s="2">
-        <v>45875.0625</v>
+        <v>45885.0625</v>
       </c>
       <c r="B104">
-        <v>362</v>
+        <v>243</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" s="2">
-        <v>45875.07291666666</v>
+        <v>45885.07291666666</v>
       </c>
       <c r="B105">
-        <v>360</v>
+        <v>244</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" s="2">
-        <v>45875.08333333334</v>
+        <v>45885.08333333334</v>
       </c>
       <c r="B106">
-        <v>360</v>
+        <v>248</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" s="2">
-        <v>45875.09375</v>
+        <v>45885.09375</v>
       </c>
       <c r="B107">
-        <v>360</v>
+        <v>247</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" s="2">
-        <v>45875.10416666666</v>
+        <v>45885.10416666666</v>
       </c>
       <c r="B108">
-        <v>362</v>
+        <v>247</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" s="2">
-        <v>45875.11458333334</v>
+        <v>45885.11458333334</v>
       </c>
       <c r="B109">
-        <v>359</v>
+        <v>247</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" s="2">
-        <v>45875.125</v>
+        <v>45885.125</v>
       </c>
       <c r="B110">
-        <v>363</v>
+        <v>244</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" s="2">
-        <v>45875.13541666666</v>
+        <v>45885.13541666666</v>
       </c>
       <c r="B111">
-        <v>366</v>
+        <v>243</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112" s="2">
-        <v>45875.14583333334</v>
+        <v>45885.14583333334</v>
       </c>
       <c r="B112">
-        <v>367</v>
+        <v>245</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" s="2">
-        <v>45875.15625</v>
+        <v>45885.15625</v>
       </c>
       <c r="B113">
-        <v>368</v>
+        <v>244</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" s="2">
-        <v>45875.16666666666</v>
+        <v>45885.16666666666</v>
       </c>
       <c r="B114">
-        <v>380</v>
+        <v>245</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" s="2">
-        <v>45875.17708333334</v>
+        <v>45885.17708333334</v>
       </c>
       <c r="B115">
-        <v>379</v>
+        <v>245</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" s="2">
-        <v>45875.1875</v>
+        <v>45885.1875</v>
       </c>
       <c r="B116">
-        <v>381</v>
+        <v>243</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117" s="2">
-        <v>45875.19791666666</v>
+        <v>45885.19791666666</v>
       </c>
       <c r="B117">
-        <v>385</v>
+        <v>246</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" s="2">
-        <v>45875.20833333334</v>
+        <v>45885.20833333334</v>
       </c>
       <c r="B118">
-        <v>392</v>
+        <v>262</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" s="2">
-        <v>45875.21875</v>
+        <v>45885.21875</v>
       </c>
       <c r="B119">
-        <v>390</v>
+        <v>262</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" s="2">
-        <v>45875.22916666666</v>
+        <v>45885.22916666666</v>
       </c>
       <c r="B120">
-        <v>394</v>
+        <v>264</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" s="2">
-        <v>45875.23958333334</v>
+        <v>45885.23958333334</v>
       </c>
       <c r="B121">
-        <v>398</v>
+        <v>265</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" s="2">
-        <v>45875.25</v>
+        <v>45885.25</v>
       </c>
       <c r="B122">
-        <v>427</v>
+        <v>276</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123" s="2">
-        <v>45875.26041666666</v>
+        <v>45885.26041666666</v>
       </c>
       <c r="B123">
-        <v>426</v>
+        <v>276</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" s="2">
-        <v>45875.27083333334</v>
+        <v>45885.27083333334</v>
       </c>
       <c r="B124">
-        <v>428</v>
+        <v>277</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" s="2">
-        <v>45875.28125</v>
+        <v>45885.28125</v>
       </c>
       <c r="B125">
-        <v>0</v>
+        <v>283</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" s="2">
-        <v>45875.29166666666</v>
+        <v>45885.29166666666</v>
       </c>
       <c r="B126">
-        <v>0</v>
+        <v>323</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127" s="2">
-        <v>45875.30208333334</v>
+        <v>45885.30208333334</v>
       </c>
       <c r="B127">
-        <v>0</v>
+        <v>321</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128" s="2">
-        <v>45875.3125</v>
+        <v>45885.3125</v>
       </c>
       <c r="B128">
-        <v>0</v>
+        <v>321</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" s="2">
-        <v>45875.32291666666</v>
+        <v>45885.32291666666</v>
       </c>
       <c r="B129">
-        <v>0</v>
+        <v>365</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" s="2">
-        <v>45875.33333333334</v>
+        <v>45885.33333333334</v>
       </c>
       <c r="B130">
-        <v>0</v>
+        <v>201</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" s="2">
-        <v>45875.34375</v>
+        <v>45885.34375</v>
       </c>
       <c r="B131">
-        <v>0</v>
+        <v>193</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132" s="2">
-        <v>45875.35416666666</v>
+        <v>45885.35416666666</v>
       </c>
       <c r="B132">
-        <v>0</v>
+        <v>185</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" s="2">
-        <v>45875.36458333334</v>
+        <v>45885.36458333334</v>
       </c>
       <c r="B133">
-        <v>0</v>
+        <v>173</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134" s="2">
-        <v>45875.375</v>
+        <v>45885.375</v>
       </c>
       <c r="B134">
-        <v>0</v>
+        <v>202</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135" s="2">
-        <v>45875.38541666666</v>
+        <v>45885.38541666666</v>
       </c>
       <c r="B135">
-        <v>0</v>
+        <v>199</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136" s="2">
-        <v>45875.39583333334</v>
+        <v>45885.39583333334</v>
       </c>
       <c r="B136">
-        <v>0</v>
+        <v>201</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137" s="2">
-        <v>45875.40625</v>
+        <v>45885.40625</v>
       </c>
       <c r="B137">
-        <v>0</v>
+        <v>202</v>
       </c>
     </row>
     <row r="138" spans="1:2">
       <c r="A138" s="2">
-        <v>45875.41666666666</v>
+        <v>45885.41666666666</v>
       </c>
       <c r="B138">
-        <v>0</v>
+        <v>130</v>
       </c>
     </row>
     <row r="139" spans="1:2">
       <c r="A139" s="2">
-        <v>45875.42708333334</v>
+        <v>45885.42708333334</v>
       </c>
       <c r="B139">
-        <v>0</v>
+        <v>121</v>
       </c>
     </row>
     <row r="140" spans="1:2">
       <c r="A140" s="2">
-        <v>45875.4375</v>
+        <v>45885.4375</v>
       </c>
       <c r="B140">
-        <v>0</v>
+        <v>120</v>
       </c>
     </row>
     <row r="141" spans="1:2">
       <c r="A141" s="2">
-        <v>45875.44791666666</v>
+        <v>45885.44791666666</v>
       </c>
       <c r="B141">
-        <v>0</v>
+        <v>120</v>
       </c>
     </row>
     <row r="142" spans="1:2">
       <c r="A142" s="2">
-        <v>45875.45833333334</v>
+        <v>45885.45833333334</v>
       </c>
       <c r="B142">
-        <v>0</v>
+        <v>43</v>
       </c>
     </row>
     <row r="143" spans="1:2">
       <c r="A143" s="2">
-        <v>45875.46875</v>
+        <v>45885.46875</v>
       </c>
       <c r="B143">
-        <v>0</v>
+        <v>41</v>
       </c>
     </row>
     <row r="144" spans="1:2">
       <c r="A144" s="2">
-        <v>45875.47916666666</v>
+        <v>45885.47916666666</v>
       </c>
       <c r="B144">
-        <v>0</v>
+        <v>44</v>
       </c>
     </row>
     <row r="145" spans="1:2">
       <c r="A145" s="2">
-        <v>45875.48958333334</v>
+        <v>45885.48958333334</v>
       </c>
       <c r="B145">
-        <v>0</v>
+        <v>43</v>
       </c>
     </row>
     <row r="146" spans="1:2">
       <c r="A146" s="2">
-        <v>45875.5</v>
+        <v>45885.5</v>
       </c>
       <c r="B146">
-        <v>0</v>
+        <v>38</v>
       </c>
     </row>
     <row r="147" spans="1:2">
       <c r="A147" s="2">
-        <v>45875.51041666666</v>
+        <v>45885.51041666666</v>
       </c>
       <c r="B147">
-        <v>0</v>
+        <v>36</v>
       </c>
     </row>
     <row r="148" spans="1:2">
       <c r="A148" s="2">
-        <v>45875.52083333334</v>
+        <v>45885.52083333334</v>
       </c>
       <c r="B148">
-        <v>0</v>
+        <v>37</v>
       </c>
     </row>
     <row r="149" spans="1:2">
       <c r="A149" s="2">
-        <v>45875.53125</v>
+        <v>45885.53125</v>
       </c>
       <c r="B149">
-        <v>0</v>
+        <v>39</v>
       </c>
     </row>
     <row r="150" spans="1:2">
       <c r="A150" s="2">
-        <v>45875.54166666666</v>
+        <v>45885.54166666666</v>
       </c>
       <c r="B150">
-        <v>0</v>
+        <v>41</v>
       </c>
     </row>
     <row r="151" spans="1:2">
       <c r="A151" s="2">
-        <v>45875.55208333334</v>
+        <v>45885.55208333334</v>
       </c>
       <c r="B151">
-        <v>0</v>
+        <v>41</v>
       </c>
     </row>
     <row r="152" spans="1:2">
       <c r="A152" s="2">
-        <v>45875.5625</v>
+        <v>45885.5625</v>
       </c>
       <c r="B152">
-        <v>0</v>
+        <v>41</v>
       </c>
     </row>
     <row r="153" spans="1:2">
       <c r="A153" s="2">
-        <v>45875.57291666666</v>
+        <v>45885.57291666666</v>
       </c>
       <c r="B153">
-        <v>0</v>
+        <v>41</v>
       </c>
     </row>
     <row r="154" spans="1:2">
       <c r="A154" s="2">
-        <v>45875.58333333334</v>
+        <v>45885.58333333334</v>
       </c>
       <c r="B154">
-        <v>0</v>
+        <v>37</v>
       </c>
     </row>
     <row r="155" spans="1:2">
       <c r="A155" s="2">
-        <v>45875.59375</v>
+        <v>45885.59375</v>
       </c>
       <c r="B155">
-        <v>0</v>
+        <v>38</v>
       </c>
     </row>
     <row r="156" spans="1:2">
       <c r="A156" s="2">
-        <v>45875.60416666666</v>
+        <v>45885.60416666666</v>
       </c>
       <c r="B156">
-        <v>0</v>
+        <v>38</v>
       </c>
     </row>
     <row r="157" spans="1:2">
       <c r="A157" s="2">
-        <v>45875.61458333334</v>
+        <v>45885.61458333334</v>
       </c>
       <c r="B157">
-        <v>0</v>
+        <v>37</v>
       </c>
     </row>
     <row r="158" spans="1:2">
       <c r="A158" s="2">
-        <v>45875.625</v>
+        <v>45885.625</v>
       </c>
       <c r="B158">
-        <v>0</v>
+        <v>37</v>
       </c>
     </row>
     <row r="159" spans="1:2">
       <c r="A159" s="2">
-        <v>45875.63541666666</v>
+        <v>45885.63541666666</v>
       </c>
       <c r="B159">
-        <v>0</v>
+        <v>39</v>
       </c>
     </row>
     <row r="160" spans="1:2">
       <c r="A160" s="2">
-        <v>45875.64583333334</v>
+        <v>45885.64583333334</v>
       </c>
       <c r="B160">
-        <v>0</v>
+        <v>38</v>
       </c>
     </row>
     <row r="161" spans="1:2">
       <c r="A161" s="2">
-        <v>45875.65625</v>
+        <v>45885.65625</v>
       </c>
       <c r="B161">
-        <v>0</v>
+        <v>43</v>
       </c>
     </row>
     <row r="162" spans="1:2">
       <c r="A162" s="2">
-        <v>45875.66666666666</v>
+        <v>45885.66666666666</v>
       </c>
       <c r="B162">
-        <v>0</v>
+        <v>80</v>
       </c>
     </row>
     <row r="163" spans="1:2">
       <c r="A163" s="2">
-        <v>45875.67708333334</v>
+        <v>45885.67708333334</v>
       </c>
       <c r="B163">
-        <v>0</v>
+        <v>98</v>
       </c>
     </row>
     <row r="164" spans="1:2">
       <c r="A164" s="2">
-        <v>45875.6875</v>
+        <v>45885.6875</v>
       </c>
       <c r="B164">
-        <v>0</v>
+        <v>112</v>
       </c>
     </row>
     <row r="165" spans="1:2">
       <c r="A165" s="2">
-        <v>45875.69791666666</v>
+        <v>45885.69791666666</v>
       </c>
       <c r="B165">
-        <v>0</v>
+        <v>126</v>
       </c>
     </row>
     <row r="166" spans="1:2">
       <c r="A166" s="2">
-        <v>45875.70833333334</v>
+        <v>45885.70833333334</v>
       </c>
       <c r="B166">
-        <v>0</v>
+        <v>390</v>
       </c>
     </row>
     <row r="167" spans="1:2">
       <c r="A167" s="2">
-        <v>45875.71875</v>
+        <v>45885.71875</v>
       </c>
       <c r="B167">
-        <v>0</v>
+        <v>403</v>
       </c>
     </row>
     <row r="168" spans="1:2">
       <c r="A168" s="2">
-        <v>45875.72916666666</v>
+        <v>45885.72916666666</v>
       </c>
       <c r="B168">
-        <v>0</v>
+        <v>404</v>
       </c>
     </row>
     <row r="169" spans="1:2">
       <c r="A169" s="2">
-        <v>45875.73958333334</v>
+        <v>45885.73958333334</v>
       </c>
       <c r="B169">
-        <v>0</v>
+        <v>429</v>
       </c>
     </row>
     <row r="170" spans="1:2">
       <c r="A170" s="2">
-        <v>45875.75</v>
+        <v>45885.75</v>
       </c>
       <c r="B170">
-        <v>0</v>
+        <v>604</v>
       </c>
     </row>
     <row r="171" spans="1:2">
       <c r="A171" s="2">
-        <v>45875.76041666666</v>
+        <v>45885.76041666666</v>
       </c>
       <c r="B171">
-        <v>0</v>
+        <v>625</v>
       </c>
     </row>
     <row r="172" spans="1:2">
       <c r="A172" s="2">
-        <v>45875.77083333334</v>
+        <v>45885.77083333334</v>
       </c>
       <c r="B172">
-        <v>0</v>
+        <v>632</v>
       </c>
     </row>
     <row r="173" spans="1:2">
       <c r="A173" s="2">
-        <v>45875.78125</v>
+        <v>45885.78125</v>
       </c>
       <c r="B173">
-        <v>0</v>
+        <v>643</v>
       </c>
     </row>
     <row r="174" spans="1:2">
       <c r="A174" s="2">
-        <v>45875.79166666666</v>
+        <v>45885.79166666666</v>
       </c>
       <c r="B174">
-        <v>0</v>
+        <v>672</v>
       </c>
     </row>
     <row r="175" spans="1:2">
       <c r="A175" s="2">
-        <v>45875.80208333334</v>
+        <v>45885.80208333334</v>
       </c>
       <c r="B175">
-        <v>0</v>
+        <v>672</v>
       </c>
     </row>
     <row r="176" spans="1:2">
       <c r="A176" s="2">
-        <v>45875.8125</v>
+        <v>45885.8125</v>
       </c>
       <c r="B176">
-        <v>0</v>
+        <v>676</v>
       </c>
     </row>
     <row r="177" spans="1:2">
       <c r="A177" s="2">
-        <v>45875.82291666666</v>
+        <v>45885.82291666666</v>
       </c>
       <c r="B177">
-        <v>0</v>
+        <v>679</v>
       </c>
     </row>
     <row r="178" spans="1:2">
       <c r="A178" s="2">
-        <v>45875.83333333334</v>
+        <v>45885.83333333334</v>
       </c>
       <c r="B178">
-        <v>0</v>
+        <v>667</v>
       </c>
     </row>
     <row r="179" spans="1:2">
       <c r="A179" s="2">
-        <v>45875.84375</v>
+        <v>45885.84375</v>
       </c>
       <c r="B179">
-        <v>0</v>
+        <v>664</v>
       </c>
     </row>
     <row r="180" spans="1:2">
       <c r="A180" s="2">
-        <v>45875.85416666666</v>
+        <v>45885.85416666666</v>
       </c>
       <c r="B180">
-        <v>0</v>
+        <v>663</v>
       </c>
     </row>
     <row r="181" spans="1:2">
       <c r="A181" s="2">
-        <v>45875.86458333334</v>
+        <v>45885.86458333334</v>
       </c>
       <c r="B181">
-        <v>0</v>
+        <v>666</v>
       </c>
     </row>
     <row r="182" spans="1:2">
       <c r="A182" s="2">
-        <v>45875.875</v>
+        <v>45885.875</v>
       </c>
       <c r="B182">
-        <v>0</v>
+        <v>609</v>
       </c>
     </row>
     <row r="183" spans="1:2">
       <c r="A183" s="2">
-        <v>45875.88541666666</v>
+        <v>45885.88541666666</v>
       </c>
       <c r="B183">
-        <v>0</v>
+        <v>602</v>
       </c>
     </row>
     <row r="184" spans="1:2">
       <c r="A184" s="2">
-        <v>45875.89583333334</v>
+        <v>45885.89583333334</v>
       </c>
       <c r="B184">
-        <v>0</v>
+        <v>602</v>
       </c>
     </row>
     <row r="185" spans="1:2">
       <c r="A185" s="2">
-        <v>45875.90625</v>
+        <v>45885.90625</v>
       </c>
       <c r="B185">
-        <v>0</v>
+        <v>595</v>
       </c>
     </row>
     <row r="186" spans="1:2">
       <c r="A186" s="2">
-        <v>45875.91666666666</v>
+        <v>45885.91666666666</v>
       </c>
       <c r="B186">
-        <v>0</v>
+        <v>396</v>
       </c>
     </row>
     <row r="187" spans="1:2">
       <c r="A187" s="2">
-        <v>45875.92708333334</v>
+        <v>45885.92708333334</v>
       </c>
       <c r="B187">
-        <v>0</v>
+        <v>380</v>
       </c>
     </row>
     <row r="188" spans="1:2">
       <c r="A188" s="2">
-        <v>45875.9375</v>
+        <v>45885.9375</v>
       </c>
       <c r="B188">
-        <v>0</v>
+        <v>381</v>
       </c>
     </row>
     <row r="189" spans="1:2">
       <c r="A189" s="2">
-        <v>45875.94791666666</v>
+        <v>45885.94791666666</v>
       </c>
       <c r="B189">
-        <v>0</v>
+        <v>380</v>
       </c>
     </row>
     <row r="190" spans="1:2">
       <c r="A190" s="2">
-        <v>45875.95833333334</v>
+        <v>45885.95833333334</v>
       </c>
       <c r="B190">
-        <v>0</v>
+        <v>377</v>
       </c>
     </row>
     <row r="191" spans="1:2">
       <c r="A191" s="2">
-        <v>45875.96875</v>
+        <v>45885.96875</v>
       </c>
       <c r="B191">
-        <v>0</v>
+        <v>373</v>
       </c>
     </row>
     <row r="192" spans="1:2">
       <c r="A192" s="2">
-        <v>45875.97916666666</v>
+        <v>45885.97916666666</v>
       </c>
       <c r="B192">
-        <v>0</v>
+        <v>374</v>
       </c>
     </row>
     <row r="193" spans="1:2">
       <c r="A193" s="2">
-        <v>45875.98958333334</v>
+        <v>45885.98958333334</v>
       </c>
       <c r="B193">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2">
+      <c r="A194" s="2">
+        <v>45886</v>
+      </c>
+      <c r="B194">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2">
+      <c r="A195" s="2">
+        <v>45886.01041666666</v>
+      </c>
+      <c r="B195">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2">
+      <c r="A196" s="2">
+        <v>45886.02083333334</v>
+      </c>
+      <c r="B196">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2">
+      <c r="A197" s="2">
+        <v>45886.03125</v>
+      </c>
+      <c r="B197">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2">
+      <c r="A198" s="2">
+        <v>45886.04166666666</v>
+      </c>
+      <c r="B198">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2">
+      <c r="A199" s="2">
+        <v>45886.05208333334</v>
+      </c>
+      <c r="B199">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2">
+      <c r="A200" s="2">
+        <v>45886.0625</v>
+      </c>
+      <c r="B200">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2">
+      <c r="A201" s="2">
+        <v>45886.07291666666</v>
+      </c>
+      <c r="B201">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2">
+      <c r="A202" s="2">
+        <v>45886.08333333334</v>
+      </c>
+      <c r="B202">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2">
+      <c r="A203" s="2">
+        <v>45886.09375</v>
+      </c>
+      <c r="B203">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2">
+      <c r="A204" s="2">
+        <v>45886.10416666666</v>
+      </c>
+      <c r="B204">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2">
+      <c r="A205" s="2">
+        <v>45886.11458333334</v>
+      </c>
+      <c r="B205">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2">
+      <c r="A206" s="2">
+        <v>45886.125</v>
+      </c>
+      <c r="B206">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2">
+      <c r="A207" s="2">
+        <v>45886.13541666666</v>
+      </c>
+      <c r="B207">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2">
+      <c r="A208" s="2">
+        <v>45886.14583333334</v>
+      </c>
+      <c r="B208">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2">
+      <c r="A209" s="2">
+        <v>45886.15625</v>
+      </c>
+      <c r="B209">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2">
+      <c r="A210" s="2">
+        <v>45886.16666666666</v>
+      </c>
+      <c r="B210">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2">
+      <c r="A211" s="2">
+        <v>45886.17708333334</v>
+      </c>
+      <c r="B211">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2">
+      <c r="A212" s="2">
+        <v>45886.1875</v>
+      </c>
+      <c r="B212">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2">
+      <c r="A213" s="2">
+        <v>45886.19791666666</v>
+      </c>
+      <c r="B213">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2">
+      <c r="A214" s="2">
+        <v>45886.20833333334</v>
+      </c>
+      <c r="B214">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2">
+      <c r="A215" s="2">
+        <v>45886.21875</v>
+      </c>
+      <c r="B215">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2">
+      <c r="A216" s="2">
+        <v>45886.22916666666</v>
+      </c>
+      <c r="B216">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2">
+      <c r="A217" s="2">
+        <v>45886.23958333334</v>
+      </c>
+      <c r="B217">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2">
+      <c r="A218" s="2">
+        <v>45886.25</v>
+      </c>
+      <c r="B218">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2">
+      <c r="A219" s="2">
+        <v>45886.26041666666</v>
+      </c>
+      <c r="B219">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2">
+      <c r="A220" s="2">
+        <v>45886.27083333334</v>
+      </c>
+      <c r="B220">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2">
+      <c r="A221" s="2">
+        <v>45886.28125</v>
+      </c>
+      <c r="B221">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2">
+      <c r="A222" s="2">
+        <v>45886.29166666666</v>
+      </c>
+      <c r="B222">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2">
+      <c r="A223" s="2">
+        <v>45886.30208333334</v>
+      </c>
+      <c r="B223">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2">
+      <c r="A224" s="2">
+        <v>45886.3125</v>
+      </c>
+      <c r="B224">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2">
+      <c r="A225" s="2">
+        <v>45886.32291666666</v>
+      </c>
+      <c r="B225">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2">
+      <c r="A226" s="2">
+        <v>45886.33333333334</v>
+      </c>
+      <c r="B226">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2">
+      <c r="A227" s="2">
+        <v>45886.34375</v>
+      </c>
+      <c r="B227">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2">
+      <c r="A228" s="2">
+        <v>45886.35416666666</v>
+      </c>
+      <c r="B228">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2">
+      <c r="A229" s="2">
+        <v>45886.36458333334</v>
+      </c>
+      <c r="B229">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2">
+      <c r="A230" s="2">
+        <v>45886.375</v>
+      </c>
+      <c r="B230">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2">
+      <c r="A231" s="2">
+        <v>45886.38541666666</v>
+      </c>
+      <c r="B231">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2">
+      <c r="A232" s="2">
+        <v>45886.39583333334</v>
+      </c>
+      <c r="B232">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2">
+      <c r="A233" s="2">
+        <v>45886.40625</v>
+      </c>
+      <c r="B233">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2">
+      <c r="A234" s="2">
+        <v>45886.41666666666</v>
+      </c>
+      <c r="B234">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2">
+      <c r="A235" s="2">
+        <v>45886.42708333334</v>
+      </c>
+      <c r="B235">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2">
+      <c r="A236" s="2">
+        <v>45886.4375</v>
+      </c>
+      <c r="B236">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2">
+      <c r="A237" s="2">
+        <v>45886.44791666666</v>
+      </c>
+      <c r="B237">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2">
+      <c r="A238" s="2">
+        <v>45886.45833333334</v>
+      </c>
+      <c r="B238">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2">
+      <c r="A239" s="2">
+        <v>45886.46875</v>
+      </c>
+      <c r="B239">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2">
+      <c r="A240" s="2">
+        <v>45886.47916666666</v>
+      </c>
+      <c r="B240">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2">
+      <c r="A241" s="2">
+        <v>45886.48958333334</v>
+      </c>
+      <c r="B241">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2">
+      <c r="A242" s="2">
+        <v>45886.5</v>
+      </c>
+      <c r="B242">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2">
+      <c r="A243" s="2">
+        <v>45886.51041666666</v>
+      </c>
+      <c r="B243">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2">
+      <c r="A244" s="2">
+        <v>45886.52083333334</v>
+      </c>
+      <c r="B244">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2">
+      <c r="A245" s="2">
+        <v>45886.53125</v>
+      </c>
+      <c r="B245">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2">
+      <c r="A246" s="2">
+        <v>45886.54166666666</v>
+      </c>
+      <c r="B246">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2">
+      <c r="A247" s="2">
+        <v>45886.55208333334</v>
+      </c>
+      <c r="B247">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2">
+      <c r="A248" s="2">
+        <v>45886.5625</v>
+      </c>
+      <c r="B248">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2">
+      <c r="A249" s="2">
+        <v>45886.57291666666</v>
+      </c>
+      <c r="B249">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2">
+      <c r="A250" s="2">
+        <v>45886.58333333334</v>
+      </c>
+      <c r="B250">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2">
+      <c r="A251" s="2">
+        <v>45886.59375</v>
+      </c>
+      <c r="B251">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2">
+      <c r="A252" s="2">
+        <v>45886.60416666666</v>
+      </c>
+      <c r="B252">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2">
+      <c r="A253" s="2">
+        <v>45886.61458333334</v>
+      </c>
+      <c r="B253">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2">
+      <c r="A254" s="2">
+        <v>45886.625</v>
+      </c>
+      <c r="B254">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2">
+      <c r="A255" s="2">
+        <v>45886.63541666666</v>
+      </c>
+      <c r="B255">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2">
+      <c r="A256" s="2">
+        <v>45886.64583333334</v>
+      </c>
+      <c r="B256">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2">
+      <c r="A257" s="2">
+        <v>45886.65625</v>
+      </c>
+      <c r="B257">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2">
+      <c r="A258" s="2">
+        <v>45886.66666666666</v>
+      </c>
+      <c r="B258">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2">
+      <c r="A259" s="2">
+        <v>45886.67708333334</v>
+      </c>
+      <c r="B259">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2">
+      <c r="A260" s="2">
+        <v>45886.6875</v>
+      </c>
+      <c r="B260">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2">
+      <c r="A261" s="2">
+        <v>45886.69791666666</v>
+      </c>
+      <c r="B261">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2">
+      <c r="A262" s="2">
+        <v>45886.70833333334</v>
+      </c>
+      <c r="B262">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2">
+      <c r="A263" s="2">
+        <v>45886.71875</v>
+      </c>
+      <c r="B263">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2">
+      <c r="A264" s="2">
+        <v>45886.72916666666</v>
+      </c>
+      <c r="B264">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2">
+      <c r="A265" s="2">
+        <v>45886.73958333334</v>
+      </c>
+      <c r="B265">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2">
+      <c r="A266" s="2">
+        <v>45886.75</v>
+      </c>
+      <c r="B266">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2">
+      <c r="A267" s="2">
+        <v>45886.76041666666</v>
+      </c>
+      <c r="B267">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2">
+      <c r="A268" s="2">
+        <v>45886.77083333334</v>
+      </c>
+      <c r="B268">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2">
+      <c r="A269" s="2">
+        <v>45886.78125</v>
+      </c>
+      <c r="B269">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2">
+      <c r="A270" s="2">
+        <v>45886.79166666666</v>
+      </c>
+      <c r="B270">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2">
+      <c r="A271" s="2">
+        <v>45886.80208333334</v>
+      </c>
+      <c r="B271">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2">
+      <c r="A272" s="2">
+        <v>45886.8125</v>
+      </c>
+      <c r="B272">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2">
+      <c r="A273" s="2">
+        <v>45886.82291666666</v>
+      </c>
+      <c r="B273">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2">
+      <c r="A274" s="2">
+        <v>45886.83333333334</v>
+      </c>
+      <c r="B274">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2">
+      <c r="A275" s="2">
+        <v>45886.84375</v>
+      </c>
+      <c r="B275">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2">
+      <c r="A276" s="2">
+        <v>45886.85416666666</v>
+      </c>
+      <c r="B276">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2">
+      <c r="A277" s="2">
+        <v>45886.86458333334</v>
+      </c>
+      <c r="B277">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2">
+      <c r="A278" s="2">
+        <v>45886.875</v>
+      </c>
+      <c r="B278">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2">
+      <c r="A279" s="2">
+        <v>45886.88541666666</v>
+      </c>
+      <c r="B279">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2">
+      <c r="A280" s="2">
+        <v>45886.89583333334</v>
+      </c>
+      <c r="B280">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2">
+      <c r="A281" s="2">
+        <v>45886.90625</v>
+      </c>
+      <c r="B281">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2">
+      <c r="A282" s="2">
+        <v>45886.91666666666</v>
+      </c>
+      <c r="B282">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2">
+      <c r="A283" s="2">
+        <v>45886.92708333334</v>
+      </c>
+      <c r="B283">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2">
+      <c r="A284" s="2">
+        <v>45886.9375</v>
+      </c>
+      <c r="B284">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2">
+      <c r="A285" s="2">
+        <v>45886.94791666666</v>
+      </c>
+      <c r="B285">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2">
+      <c r="A286" s="2">
+        <v>45886.95833333334</v>
+      </c>
+      <c r="B286">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2">
+      <c r="A287" s="2">
+        <v>45886.96875</v>
+      </c>
+      <c r="B287">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2">
+      <c r="A288" s="2">
+        <v>45886.97916666666</v>
+      </c>
+      <c r="B288">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2">
+      <c r="A289" s="2">
+        <v>45886.98958333334</v>
+      </c>
+      <c r="B289">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2">
+      <c r="A290" s="2">
+        <v>45887</v>
+      </c>
+      <c r="B290">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2">
+      <c r="A291" s="2">
+        <v>45887.01041666666</v>
+      </c>
+      <c r="B291">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2">
+      <c r="A292" s="2">
+        <v>45887.02083333334</v>
+      </c>
+      <c r="B292">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2">
+      <c r="A293" s="2">
+        <v>45887.03125</v>
+      </c>
+      <c r="B293">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2">
+      <c r="A294" s="2">
+        <v>45887.04166666666</v>
+      </c>
+      <c r="B294">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2">
+      <c r="A295" s="2">
+        <v>45887.05208333334</v>
+      </c>
+      <c r="B295">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2">
+      <c r="A296" s="2">
+        <v>45887.0625</v>
+      </c>
+      <c r="B296">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2">
+      <c r="A297" s="2">
+        <v>45887.07291666666</v>
+      </c>
+      <c r="B297">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2">
+      <c r="A298" s="2">
+        <v>45887.08333333334</v>
+      </c>
+      <c r="B298">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2">
+      <c r="A299" s="2">
+        <v>45887.09375</v>
+      </c>
+      <c r="B299">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2">
+      <c r="A300" s="2">
+        <v>45887.10416666666</v>
+      </c>
+      <c r="B300">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2">
+      <c r="A301" s="2">
+        <v>45887.11458333334</v>
+      </c>
+      <c r="B301">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2">
+      <c r="A302" s="2">
+        <v>45887.125</v>
+      </c>
+      <c r="B302">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2">
+      <c r="A303" s="2">
+        <v>45887.13541666666</v>
+      </c>
+      <c r="B303">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2">
+      <c r="A304" s="2">
+        <v>45887.14583333334</v>
+      </c>
+      <c r="B304">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2">
+      <c r="A305" s="2">
+        <v>45887.15625</v>
+      </c>
+      <c r="B305">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2">
+      <c r="A306" s="2">
+        <v>45887.16666666666</v>
+      </c>
+      <c r="B306">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2">
+      <c r="A307" s="2">
+        <v>45887.17708333334</v>
+      </c>
+      <c r="B307">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2">
+      <c r="A308" s="2">
+        <v>45887.1875</v>
+      </c>
+      <c r="B308">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2">
+      <c r="A309" s="2">
+        <v>45887.19791666666</v>
+      </c>
+      <c r="B309">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2">
+      <c r="A310" s="2">
+        <v>45887.20833333334</v>
+      </c>
+      <c r="B310">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2">
+      <c r="A311" s="2">
+        <v>45887.21875</v>
+      </c>
+      <c r="B311">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2">
+      <c r="A312" s="2">
+        <v>45887.22916666666</v>
+      </c>
+      <c r="B312">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2">
+      <c r="A313" s="2">
+        <v>45887.23958333334</v>
+      </c>
+      <c r="B313">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2">
+      <c r="A314" s="2">
+        <v>45887.25</v>
+      </c>
+      <c r="B314">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2">
+      <c r="A315" s="2">
+        <v>45887.26041666666</v>
+      </c>
+      <c r="B315">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2">
+      <c r="A316" s="2">
+        <v>45887.27083333334</v>
+      </c>
+      <c r="B316">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2">
+      <c r="A317" s="2">
+        <v>45887.28125</v>
+      </c>
+      <c r="B317">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2">
+      <c r="A318" s="2">
+        <v>45887.29166666666</v>
+      </c>
+      <c r="B318">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2">
+      <c r="A319" s="2">
+        <v>45887.30208333334</v>
+      </c>
+      <c r="B319">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2">
+      <c r="A320" s="2">
+        <v>45887.3125</v>
+      </c>
+      <c r="B320">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2">
+      <c r="A321" s="2">
+        <v>45887.32291666666</v>
+      </c>
+      <c r="B321">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2">
+      <c r="A322" s="2">
+        <v>45887.33333333334</v>
+      </c>
+      <c r="B322">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2">
+      <c r="A323" s="2">
+        <v>45887.34375</v>
+      </c>
+      <c r="B323">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2">
+      <c r="A324" s="2">
+        <v>45887.35416666666</v>
+      </c>
+      <c r="B324">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2">
+      <c r="A325" s="2">
+        <v>45887.36458333334</v>
+      </c>
+      <c r="B325">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2">
+      <c r="A326" s="2">
+        <v>45887.375</v>
+      </c>
+      <c r="B326">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2">
+      <c r="A327" s="2">
+        <v>45887.38541666666</v>
+      </c>
+      <c r="B327">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2">
+      <c r="A328" s="2">
+        <v>45887.39583333334</v>
+      </c>
+      <c r="B328">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2">
+      <c r="A329" s="2">
+        <v>45887.40625</v>
+      </c>
+      <c r="B329">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2">
+      <c r="A330" s="2">
+        <v>45887.41666666666</v>
+      </c>
+      <c r="B330">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2">
+      <c r="A331" s="2">
+        <v>45887.42708333334</v>
+      </c>
+      <c r="B331">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2">
+      <c r="A332" s="2">
+        <v>45887.4375</v>
+      </c>
+      <c r="B332">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2">
+      <c r="A333" s="2">
+        <v>45887.44791666666</v>
+      </c>
+      <c r="B333">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2">
+      <c r="A334" s="2">
+        <v>45887.45833333334</v>
+      </c>
+      <c r="B334">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2">
+      <c r="A335" s="2">
+        <v>45887.46875</v>
+      </c>
+      <c r="B335">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2">
+      <c r="A336" s="2">
+        <v>45887.47916666666</v>
+      </c>
+      <c r="B336">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2">
+      <c r="A337" s="2">
+        <v>45887.48958333334</v>
+      </c>
+      <c r="B337">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2">
+      <c r="A338" s="2">
+        <v>45887.5</v>
+      </c>
+      <c r="B338">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2">
+      <c r="A339" s="2">
+        <v>45887.51041666666</v>
+      </c>
+      <c r="B339">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2">
+      <c r="A340" s="2">
+        <v>45887.52083333334</v>
+      </c>
+      <c r="B340">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2">
+      <c r="A341" s="2">
+        <v>45887.53125</v>
+      </c>
+      <c r="B341">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2">
+      <c r="A342" s="2">
+        <v>45887.54166666666</v>
+      </c>
+      <c r="B342">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2">
+      <c r="A343" s="2">
+        <v>45887.55208333334</v>
+      </c>
+      <c r="B343">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2">
+      <c r="A344" s="2">
+        <v>45887.5625</v>
+      </c>
+      <c r="B344">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2">
+      <c r="A345" s="2">
+        <v>45887.57291666666</v>
+      </c>
+      <c r="B345">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2">
+      <c r="A346" s="2">
+        <v>45887.58333333334</v>
+      </c>
+      <c r="B346">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2">
+      <c r="A347" s="2">
+        <v>45887.59375</v>
+      </c>
+      <c r="B347">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2">
+      <c r="A348" s="2">
+        <v>45887.60416666666</v>
+      </c>
+      <c r="B348">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2">
+      <c r="A349" s="2">
+        <v>45887.61458333334</v>
+      </c>
+      <c r="B349">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2">
+      <c r="A350" s="2">
+        <v>45887.625</v>
+      </c>
+      <c r="B350">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2">
+      <c r="A351" s="2">
+        <v>45887.63541666666</v>
+      </c>
+      <c r="B351">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2">
+      <c r="A352" s="2">
+        <v>45887.64583333334</v>
+      </c>
+      <c r="B352">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2">
+      <c r="A353" s="2">
+        <v>45887.65625</v>
+      </c>
+      <c r="B353">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2">
+      <c r="A354" s="2">
+        <v>45887.66666666666</v>
+      </c>
+      <c r="B354">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2">
+      <c r="A355" s="2">
+        <v>45887.67708333334</v>
+      </c>
+      <c r="B355">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2">
+      <c r="A356" s="2">
+        <v>45887.6875</v>
+      </c>
+      <c r="B356">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2">
+      <c r="A357" s="2">
+        <v>45887.69791666666</v>
+      </c>
+      <c r="B357">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2">
+      <c r="A358" s="2">
+        <v>45887.70833333334</v>
+      </c>
+      <c r="B358">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2">
+      <c r="A359" s="2">
+        <v>45887.71875</v>
+      </c>
+      <c r="B359">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2">
+      <c r="A360" s="2">
+        <v>45887.72916666666</v>
+      </c>
+      <c r="B360">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2">
+      <c r="A361" s="2">
+        <v>45887.73958333334</v>
+      </c>
+      <c r="B361">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2">
+      <c r="A362" s="2">
+        <v>45887.75</v>
+      </c>
+      <c r="B362">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2">
+      <c r="A363" s="2">
+        <v>45887.76041666666</v>
+      </c>
+      <c r="B363">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2">
+      <c r="A364" s="2">
+        <v>45887.77083333334</v>
+      </c>
+      <c r="B364">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2">
+      <c r="A365" s="2">
+        <v>45887.78125</v>
+      </c>
+      <c r="B365">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2">
+      <c r="A366" s="2">
+        <v>45887.79166666666</v>
+      </c>
+      <c r="B366">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2">
+      <c r="A367" s="2">
+        <v>45887.80208333334</v>
+      </c>
+      <c r="B367">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2">
+      <c r="A368" s="2">
+        <v>45887.8125</v>
+      </c>
+      <c r="B368">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2">
+      <c r="A369" s="2">
+        <v>45887.82291666666</v>
+      </c>
+      <c r="B369">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2">
+      <c r="A370" s="2">
+        <v>45887.83333333334</v>
+      </c>
+      <c r="B370">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2">
+      <c r="A371" s="2">
+        <v>45887.84375</v>
+      </c>
+      <c r="B371">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2">
+      <c r="A372" s="2">
+        <v>45887.85416666666</v>
+      </c>
+      <c r="B372">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2">
+      <c r="A373" s="2">
+        <v>45887.86458333334</v>
+      </c>
+      <c r="B373">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2">
+      <c r="A374" s="2">
+        <v>45887.875</v>
+      </c>
+      <c r="B374">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2">
+      <c r="A375" s="2">
+        <v>45887.88541666666</v>
+      </c>
+      <c r="B375">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2">
+      <c r="A376" s="2">
+        <v>45887.89583333334</v>
+      </c>
+      <c r="B376">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2">
+      <c r="A377" s="2">
+        <v>45887.90625</v>
+      </c>
+      <c r="B377">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2">
+      <c r="A378" s="2">
+        <v>45887.91666666666</v>
+      </c>
+      <c r="B378">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2">
+      <c r="A379" s="2">
+        <v>45887.92708333334</v>
+      </c>
+      <c r="B379">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2">
+      <c r="A380" s="2">
+        <v>45887.9375</v>
+      </c>
+      <c r="B380">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2">
+      <c r="A381" s="2">
+        <v>45887.94791666666</v>
+      </c>
+      <c r="B381">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2">
+      <c r="A382" s="2">
+        <v>45887.95833333334</v>
+      </c>
+      <c r="B382">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2">
+      <c r="A383" s="2">
+        <v>45887.96875</v>
+      </c>
+      <c r="B383">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2">
+      <c r="A384" s="2">
+        <v>45887.97916666666</v>
+      </c>
+      <c r="B384">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2">
+      <c r="A385" s="2">
+        <v>45887.98958333334</v>
+      </c>
+      <c r="B385">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2">
+      <c r="A386" s="2">
+        <v>45888</v>
+      </c>
+      <c r="B386">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2">
+      <c r="A387" s="2">
+        <v>45888.01041666666</v>
+      </c>
+      <c r="B387">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2">
+      <c r="A388" s="2">
+        <v>45888.02083333334</v>
+      </c>
+      <c r="B388">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2">
+      <c r="A389" s="2">
+        <v>45888.03125</v>
+      </c>
+      <c r="B389">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2">
+      <c r="A390" s="2">
+        <v>45888.04166666666</v>
+      </c>
+      <c r="B390">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2">
+      <c r="A391" s="2">
+        <v>45888.05208333334</v>
+      </c>
+      <c r="B391">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2">
+      <c r="A392" s="2">
+        <v>45888.0625</v>
+      </c>
+      <c r="B392">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2">
+      <c r="A393" s="2">
+        <v>45888.07291666666</v>
+      </c>
+      <c r="B393">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2">
+      <c r="A394" s="2">
+        <v>45888.08333333334</v>
+      </c>
+      <c r="B394">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2">
+      <c r="A395" s="2">
+        <v>45888.09375</v>
+      </c>
+      <c r="B395">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2">
+      <c r="A396" s="2">
+        <v>45888.10416666666</v>
+      </c>
+      <c r="B396">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2">
+      <c r="A397" s="2">
+        <v>45888.11458333334</v>
+      </c>
+      <c r="B397">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2">
+      <c r="A398" s="2">
+        <v>45888.125</v>
+      </c>
+      <c r="B398">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2">
+      <c r="A399" s="2">
+        <v>45888.13541666666</v>
+      </c>
+      <c r="B399">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2">
+      <c r="A400" s="2">
+        <v>45888.14583333334</v>
+      </c>
+      <c r="B400">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2">
+      <c r="A401" s="2">
+        <v>45888.15625</v>
+      </c>
+      <c r="B401">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2">
+      <c r="A402" s="2">
+        <v>45888.16666666666</v>
+      </c>
+      <c r="B402">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2">
+      <c r="A403" s="2">
+        <v>45888.17708333334</v>
+      </c>
+      <c r="B403">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2">
+      <c r="A404" s="2">
+        <v>45888.1875</v>
+      </c>
+      <c r="B404">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2">
+      <c r="A405" s="2">
+        <v>45888.19791666666</v>
+      </c>
+      <c r="B405">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2">
+      <c r="A406" s="2">
+        <v>45888.20833333334</v>
+      </c>
+      <c r="B406">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2">
+      <c r="A407" s="2">
+        <v>45888.21875</v>
+      </c>
+      <c r="B407">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2">
+      <c r="A408" s="2">
+        <v>45888.22916666666</v>
+      </c>
+      <c r="B408">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2">
+      <c r="A409" s="2">
+        <v>45888.23958333334</v>
+      </c>
+      <c r="B409">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2">
+      <c r="A410" s="2">
+        <v>45888.25</v>
+      </c>
+      <c r="B410">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2">
+      <c r="A411" s="2">
+        <v>45888.26041666666</v>
+      </c>
+      <c r="B411">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2">
+      <c r="A412" s="2">
+        <v>45888.27083333334</v>
+      </c>
+      <c r="B412">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2">
+      <c r="A413" s="2">
+        <v>45888.28125</v>
+      </c>
+      <c r="B413">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2">
+      <c r="A414" s="2">
+        <v>45888.29166666666</v>
+      </c>
+      <c r="B414">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2">
+      <c r="A415" s="2">
+        <v>45888.30208333334</v>
+      </c>
+      <c r="B415">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2">
+      <c r="A416" s="2">
+        <v>45888.3125</v>
+      </c>
+      <c r="B416">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2">
+      <c r="A417" s="2">
+        <v>45888.32291666666</v>
+      </c>
+      <c r="B417">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2">
+      <c r="A418" s="2">
+        <v>45888.33333333334</v>
+      </c>
+      <c r="B418">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2">
+      <c r="A419" s="2">
+        <v>45888.34375</v>
+      </c>
+      <c r="B419">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2">
+      <c r="A420" s="2">
+        <v>45888.35416666666</v>
+      </c>
+      <c r="B420">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2">
+      <c r="A421" s="2">
+        <v>45888.36458333334</v>
+      </c>
+      <c r="B421">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2">
+      <c r="A422" s="2">
+        <v>45888.375</v>
+      </c>
+      <c r="B422">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2">
+      <c r="A423" s="2">
+        <v>45888.38541666666</v>
+      </c>
+      <c r="B423">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2">
+      <c r="A424" s="2">
+        <v>45888.39583333334</v>
+      </c>
+      <c r="B424">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2">
+      <c r="A425" s="2">
+        <v>45888.40625</v>
+      </c>
+      <c r="B425">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2">
+      <c r="A426" s="2">
+        <v>45888.41666666666</v>
+      </c>
+      <c r="B426">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2">
+      <c r="A427" s="2">
+        <v>45888.42708333334</v>
+      </c>
+      <c r="B427">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2">
+      <c r="A428" s="2">
+        <v>45888.4375</v>
+      </c>
+      <c r="B428">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2">
+      <c r="A429" s="2">
+        <v>45888.44791666666</v>
+      </c>
+      <c r="B429">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2">
+      <c r="A430" s="2">
+        <v>45888.45833333334</v>
+      </c>
+      <c r="B430">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2">
+      <c r="A431" s="2">
+        <v>45888.46875</v>
+      </c>
+      <c r="B431">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2">
+      <c r="A432" s="2">
+        <v>45888.47916666666</v>
+      </c>
+      <c r="B432">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2">
+      <c r="A433" s="2">
+        <v>45888.48958333334</v>
+      </c>
+      <c r="B433">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2">
+      <c r="A434" s="2">
+        <v>45888.5</v>
+      </c>
+      <c r="B434">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2">
+      <c r="A435" s="2">
+        <v>45888.51041666666</v>
+      </c>
+      <c r="B435">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2">
+      <c r="A436" s="2">
+        <v>45888.52083333334</v>
+      </c>
+      <c r="B436">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2">
+      <c r="A437" s="2">
+        <v>45888.53125</v>
+      </c>
+      <c r="B437">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2">
+      <c r="A438" s="2">
+        <v>45888.54166666666</v>
+      </c>
+      <c r="B438">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2">
+      <c r="A439" s="2">
+        <v>45888.55208333334</v>
+      </c>
+      <c r="B439">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2">
+      <c r="A440" s="2">
+        <v>45888.5625</v>
+      </c>
+      <c r="B440">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2">
+      <c r="A441" s="2">
+        <v>45888.57291666666</v>
+      </c>
+      <c r="B441">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2">
+      <c r="A442" s="2">
+        <v>45888.58333333334</v>
+      </c>
+      <c r="B442">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2">
+      <c r="A443" s="2">
+        <v>45888.59375</v>
+      </c>
+      <c r="B443">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2">
+      <c r="A444" s="2">
+        <v>45888.60416666666</v>
+      </c>
+      <c r="B444">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2">
+      <c r="A445" s="2">
+        <v>45888.61458333334</v>
+      </c>
+      <c r="B445">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2">
+      <c r="A446" s="2">
+        <v>45888.625</v>
+      </c>
+      <c r="B446">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2">
+      <c r="A447" s="2">
+        <v>45888.63541666666</v>
+      </c>
+      <c r="B447">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2">
+      <c r="A448" s="2">
+        <v>45888.64583333334</v>
+      </c>
+      <c r="B448">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2">
+      <c r="A449" s="2">
+        <v>45888.65625</v>
+      </c>
+      <c r="B449">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2">
+      <c r="A450" s="2">
+        <v>45888.66666666666</v>
+      </c>
+      <c r="B450">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2">
+      <c r="A451" s="2">
+        <v>45888.67708333334</v>
+      </c>
+      <c r="B451">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2">
+      <c r="A452" s="2">
+        <v>45888.6875</v>
+      </c>
+      <c r="B452">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2">
+      <c r="A453" s="2">
+        <v>45888.69791666666</v>
+      </c>
+      <c r="B453">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2">
+      <c r="A454" s="2">
+        <v>45888.70833333334</v>
+      </c>
+      <c r="B454">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2">
+      <c r="A455" s="2">
+        <v>45888.71875</v>
+      </c>
+      <c r="B455">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2">
+      <c r="A456" s="2">
+        <v>45888.72916666666</v>
+      </c>
+      <c r="B456">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2">
+      <c r="A457" s="2">
+        <v>45888.73958333334</v>
+      </c>
+      <c r="B457">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2">
+      <c r="A458" s="2">
+        <v>45888.75</v>
+      </c>
+      <c r="B458">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2">
+      <c r="A459" s="2">
+        <v>45888.76041666666</v>
+      </c>
+      <c r="B459">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2">
+      <c r="A460" s="2">
+        <v>45888.77083333334</v>
+      </c>
+      <c r="B460">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2">
+      <c r="A461" s="2">
+        <v>45888.78125</v>
+      </c>
+      <c r="B461">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2">
+      <c r="A462" s="2">
+        <v>45888.79166666666</v>
+      </c>
+      <c r="B462">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2">
+      <c r="A463" s="2">
+        <v>45888.80208333334</v>
+      </c>
+      <c r="B463">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="464" spans="1:2">
+      <c r="A464" s="2">
+        <v>45888.8125</v>
+      </c>
+      <c r="B464">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="465" spans="1:2">
+      <c r="A465" s="2">
+        <v>45888.82291666666</v>
+      </c>
+      <c r="B465">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="466" spans="1:2">
+      <c r="A466" s="2">
+        <v>45888.83333333334</v>
+      </c>
+      <c r="B466">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="467" spans="1:2">
+      <c r="A467" s="2">
+        <v>45888.84375</v>
+      </c>
+      <c r="B467">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="468" spans="1:2">
+      <c r="A468" s="2">
+        <v>45888.85416666666</v>
+      </c>
+      <c r="B468">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="469" spans="1:2">
+      <c r="A469" s="2">
+        <v>45888.86458333334</v>
+      </c>
+      <c r="B469">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="470" spans="1:2">
+      <c r="A470" s="2">
+        <v>45888.875</v>
+      </c>
+      <c r="B470">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="471" spans="1:2">
+      <c r="A471" s="2">
+        <v>45888.88541666666</v>
+      </c>
+      <c r="B471">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="472" spans="1:2">
+      <c r="A472" s="2">
+        <v>45888.89583333334</v>
+      </c>
+      <c r="B472">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="473" spans="1:2">
+      <c r="A473" s="2">
+        <v>45888.90625</v>
+      </c>
+      <c r="B473">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="474" spans="1:2">
+      <c r="A474" s="2">
+        <v>45888.91666666666</v>
+      </c>
+      <c r="B474">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="475" spans="1:2">
+      <c r="A475" s="2">
+        <v>45888.92708333334</v>
+      </c>
+      <c r="B475">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="476" spans="1:2">
+      <c r="A476" s="2">
+        <v>45888.9375</v>
+      </c>
+      <c r="B476">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="477" spans="1:2">
+      <c r="A477" s="2">
+        <v>45888.94791666666</v>
+      </c>
+      <c r="B477">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="478" spans="1:2">
+      <c r="A478" s="2">
+        <v>45888.95833333334</v>
+      </c>
+      <c r="B478">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="479" spans="1:2">
+      <c r="A479" s="2">
+        <v>45888.96875</v>
+      </c>
+      <c r="B479">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="480" spans="1:2">
+      <c r="A480" s="2">
+        <v>45888.97916666666</v>
+      </c>
+      <c r="B480">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="481" spans="1:2">
+      <c r="A481" s="2">
+        <v>45888.98958333334</v>
+      </c>
+      <c r="B481">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="482" spans="1:2">
+      <c r="A482" s="2">
+        <v>45889</v>
+      </c>
+      <c r="B482">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="483" spans="1:2">
+      <c r="A483" s="2">
+        <v>45889.01041666666</v>
+      </c>
+      <c r="B483">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="484" spans="1:2">
+      <c r="A484" s="2">
+        <v>45889.02083333334</v>
+      </c>
+      <c r="B484">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="485" spans="1:2">
+      <c r="A485" s="2">
+        <v>45889.03125</v>
+      </c>
+      <c r="B485">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="486" spans="1:2">
+      <c r="A486" s="2">
+        <v>45889.04166666666</v>
+      </c>
+      <c r="B486">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="487" spans="1:2">
+      <c r="A487" s="2">
+        <v>45889.05208333334</v>
+      </c>
+      <c r="B487">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="488" spans="1:2">
+      <c r="A488" s="2">
+        <v>45889.0625</v>
+      </c>
+      <c r="B488">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="489" spans="1:2">
+      <c r="A489" s="2">
+        <v>45889.07291666666</v>
+      </c>
+      <c r="B489">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="490" spans="1:2">
+      <c r="A490" s="2">
+        <v>45889.08333333334</v>
+      </c>
+      <c r="B490">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="491" spans="1:2">
+      <c r="A491" s="2">
+        <v>45889.09375</v>
+      </c>
+      <c r="B491">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="492" spans="1:2">
+      <c r="A492" s="2">
+        <v>45889.10416666666</v>
+      </c>
+      <c r="B492">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="493" spans="1:2">
+      <c r="A493" s="2">
+        <v>45889.11458333334</v>
+      </c>
+      <c r="B493">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="494" spans="1:2">
+      <c r="A494" s="2">
+        <v>45889.125</v>
+      </c>
+      <c r="B494">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="495" spans="1:2">
+      <c r="A495" s="2">
+        <v>45889.13541666666</v>
+      </c>
+      <c r="B495">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="496" spans="1:2">
+      <c r="A496" s="2">
+        <v>45889.14583333334</v>
+      </c>
+      <c r="B496">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="497" spans="1:2">
+      <c r="A497" s="2">
+        <v>45889.15625</v>
+      </c>
+      <c r="B497">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="498" spans="1:2">
+      <c r="A498" s="2">
+        <v>45889.16666666666</v>
+      </c>
+      <c r="B498">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="499" spans="1:2">
+      <c r="A499" s="2">
+        <v>45889.17708333334</v>
+      </c>
+      <c r="B499">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="500" spans="1:2">
+      <c r="A500" s="2">
+        <v>45889.1875</v>
+      </c>
+      <c r="B500">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="501" spans="1:2">
+      <c r="A501" s="2">
+        <v>45889.19791666666</v>
+      </c>
+      <c r="B501">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="502" spans="1:2">
+      <c r="A502" s="2">
+        <v>45889.20833333334</v>
+      </c>
+      <c r="B502">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="503" spans="1:2">
+      <c r="A503" s="2">
+        <v>45889.21875</v>
+      </c>
+      <c r="B503">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="504" spans="1:2">
+      <c r="A504" s="2">
+        <v>45889.22916666666</v>
+      </c>
+      <c r="B504">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="505" spans="1:2">
+      <c r="A505" s="2">
+        <v>45889.23958333334</v>
+      </c>
+      <c r="B505">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="506" spans="1:2">
+      <c r="A506" s="2">
+        <v>45889.25</v>
+      </c>
+      <c r="B506">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="507" spans="1:2">
+      <c r="A507" s="2">
+        <v>45889.26041666666</v>
+      </c>
+      <c r="B507">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="508" spans="1:2">
+      <c r="A508" s="2">
+        <v>45889.27083333334</v>
+      </c>
+      <c r="B508">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="509" spans="1:2">
+      <c r="A509" s="2">
+        <v>45889.28125</v>
+      </c>
+      <c r="B509">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="510" spans="1:2">
+      <c r="A510" s="2">
+        <v>45889.29166666666</v>
+      </c>
+      <c r="B510">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="511" spans="1:2">
+      <c r="A511" s="2">
+        <v>45889.30208333334</v>
+      </c>
+      <c r="B511">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="512" spans="1:2">
+      <c r="A512" s="2">
+        <v>45889.3125</v>
+      </c>
+      <c r="B512">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="513" spans="1:2">
+      <c r="A513" s="2">
+        <v>45889.32291666666</v>
+      </c>
+      <c r="B513">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="514" spans="1:2">
+      <c r="A514" s="2">
+        <v>45889.33333333334</v>
+      </c>
+      <c r="B514">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="515" spans="1:2">
+      <c r="A515" s="2">
+        <v>45889.34375</v>
+      </c>
+      <c r="B515">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="516" spans="1:2">
+      <c r="A516" s="2">
+        <v>45889.35416666666</v>
+      </c>
+      <c r="B516">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="517" spans="1:2">
+      <c r="A517" s="2">
+        <v>45889.36458333334</v>
+      </c>
+      <c r="B517">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="518" spans="1:2">
+      <c r="A518" s="2">
+        <v>45889.375</v>
+      </c>
+      <c r="B518">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="519" spans="1:2">
+      <c r="A519" s="2">
+        <v>45889.38541666666</v>
+      </c>
+      <c r="B519">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="520" spans="1:2">
+      <c r="A520" s="2">
+        <v>45889.39583333334</v>
+      </c>
+      <c r="B520">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="521" spans="1:2">
+      <c r="A521" s="2">
+        <v>45889.40625</v>
+      </c>
+      <c r="B521">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="522" spans="1:2">
+      <c r="A522" s="2">
+        <v>45889.41666666666</v>
+      </c>
+      <c r="B522">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="523" spans="1:2">
+      <c r="A523" s="2">
+        <v>45889.42708333334</v>
+      </c>
+      <c r="B523">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="524" spans="1:2">
+      <c r="A524" s="2">
+        <v>45889.4375</v>
+      </c>
+      <c r="B524">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="525" spans="1:2">
+      <c r="A525" s="2">
+        <v>45889.44791666666</v>
+      </c>
+      <c r="B525">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="526" spans="1:2">
+      <c r="A526" s="2">
+        <v>45889.45833333334</v>
+      </c>
+      <c r="B526">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="527" spans="1:2">
+      <c r="A527" s="2">
+        <v>45889.46875</v>
+      </c>
+      <c r="B527">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="528" spans="1:2">
+      <c r="A528" s="2">
+        <v>45889.47916666666</v>
+      </c>
+      <c r="B528">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="529" spans="1:2">
+      <c r="A529" s="2">
+        <v>45889.48958333334</v>
+      </c>
+      <c r="B529">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="530" spans="1:2">
+      <c r="A530" s="2">
+        <v>45889.5</v>
+      </c>
+      <c r="B530">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="531" spans="1:2">
+      <c r="A531" s="2">
+        <v>45889.51041666666</v>
+      </c>
+      <c r="B531">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="532" spans="1:2">
+      <c r="A532" s="2">
+        <v>45889.52083333334</v>
+      </c>
+      <c r="B532">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="533" spans="1:2">
+      <c r="A533" s="2">
+        <v>45889.53125</v>
+      </c>
+      <c r="B533">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="534" spans="1:2">
+      <c r="A534" s="2">
+        <v>45889.54166666666</v>
+      </c>
+      <c r="B534">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="535" spans="1:2">
+      <c r="A535" s="2">
+        <v>45889.55208333334</v>
+      </c>
+      <c r="B535">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="536" spans="1:2">
+      <c r="A536" s="2">
+        <v>45889.5625</v>
+      </c>
+      <c r="B536">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="537" spans="1:2">
+      <c r="A537" s="2">
+        <v>45889.57291666666</v>
+      </c>
+      <c r="B537">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="538" spans="1:2">
+      <c r="A538" s="2">
+        <v>45889.58333333334</v>
+      </c>
+      <c r="B538">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="539" spans="1:2">
+      <c r="A539" s="2">
+        <v>45889.59375</v>
+      </c>
+      <c r="B539">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="540" spans="1:2">
+      <c r="A540" s="2">
+        <v>45889.60416666666</v>
+      </c>
+      <c r="B540">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="541" spans="1:2">
+      <c r="A541" s="2">
+        <v>45889.61458333334</v>
+      </c>
+      <c r="B541">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="542" spans="1:2">
+      <c r="A542" s="2">
+        <v>45889.625</v>
+      </c>
+      <c r="B542">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="543" spans="1:2">
+      <c r="A543" s="2">
+        <v>45889.63541666666</v>
+      </c>
+      <c r="B543">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="544" spans="1:2">
+      <c r="A544" s="2">
+        <v>45889.64583333334</v>
+      </c>
+      <c r="B544">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="545" spans="1:2">
+      <c r="A545" s="2">
+        <v>45889.65625</v>
+      </c>
+      <c r="B545">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="546" spans="1:2">
+      <c r="A546" s="2">
+        <v>45889.66666666666</v>
+      </c>
+      <c r="B546">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="547" spans="1:2">
+      <c r="A547" s="2">
+        <v>45889.67708333334</v>
+      </c>
+      <c r="B547">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="548" spans="1:2">
+      <c r="A548" s="2">
+        <v>45889.6875</v>
+      </c>
+      <c r="B548">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="549" spans="1:2">
+      <c r="A549" s="2">
+        <v>45889.69791666666</v>
+      </c>
+      <c r="B549">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="550" spans="1:2">
+      <c r="A550" s="2">
+        <v>45889.70833333334</v>
+      </c>
+      <c r="B550">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="551" spans="1:2">
+      <c r="A551" s="2">
+        <v>45889.71875</v>
+      </c>
+      <c r="B551">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="552" spans="1:2">
+      <c r="A552" s="2">
+        <v>45889.72916666666</v>
+      </c>
+      <c r="B552">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="553" spans="1:2">
+      <c r="A553" s="2">
+        <v>45889.73958333334</v>
+      </c>
+      <c r="B553">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="554" spans="1:2">
+      <c r="A554" s="2">
+        <v>45889.75</v>
+      </c>
+      <c r="B554">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="555" spans="1:2">
+      <c r="A555" s="2">
+        <v>45889.76041666666</v>
+      </c>
+      <c r="B555">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="556" spans="1:2">
+      <c r="A556" s="2">
+        <v>45889.77083333334</v>
+      </c>
+      <c r="B556">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="557" spans="1:2">
+      <c r="A557" s="2">
+        <v>45889.78125</v>
+      </c>
+      <c r="B557">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="558" spans="1:2">
+      <c r="A558" s="2">
+        <v>45889.79166666666</v>
+      </c>
+      <c r="B558">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="559" spans="1:2">
+      <c r="A559" s="2">
+        <v>45889.80208333334</v>
+      </c>
+      <c r="B559">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="560" spans="1:2">
+      <c r="A560" s="2">
+        <v>45889.8125</v>
+      </c>
+      <c r="B560">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="561" spans="1:2">
+      <c r="A561" s="2">
+        <v>45889.82291666666</v>
+      </c>
+      <c r="B561">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="562" spans="1:2">
+      <c r="A562" s="2">
+        <v>45889.83333333334</v>
+      </c>
+      <c r="B562">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="563" spans="1:2">
+      <c r="A563" s="2">
+        <v>45889.84375</v>
+      </c>
+      <c r="B563">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="564" spans="1:2">
+      <c r="A564" s="2">
+        <v>45889.85416666666</v>
+      </c>
+      <c r="B564">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="565" spans="1:2">
+      <c r="A565" s="2">
+        <v>45889.86458333334</v>
+      </c>
+      <c r="B565">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="566" spans="1:2">
+      <c r="A566" s="2">
+        <v>45889.875</v>
+      </c>
+      <c r="B566">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="567" spans="1:2">
+      <c r="A567" s="2">
+        <v>45889.88541666666</v>
+      </c>
+      <c r="B567">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="568" spans="1:2">
+      <c r="A568" s="2">
+        <v>45889.89583333334</v>
+      </c>
+      <c r="B568">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="569" spans="1:2">
+      <c r="A569" s="2">
+        <v>45889.90625</v>
+      </c>
+      <c r="B569">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="570" spans="1:2">
+      <c r="A570" s="2">
+        <v>45889.91666666666</v>
+      </c>
+      <c r="B570">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="571" spans="1:2">
+      <c r="A571" s="2">
+        <v>45889.92708333334</v>
+      </c>
+      <c r="B571">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="572" spans="1:2">
+      <c r="A572" s="2">
+        <v>45889.9375</v>
+      </c>
+      <c r="B572">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="573" spans="1:2">
+      <c r="A573" s="2">
+        <v>45889.94791666666</v>
+      </c>
+      <c r="B573">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="574" spans="1:2">
+      <c r="A574" s="2">
+        <v>45889.95833333334</v>
+      </c>
+      <c r="B574">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="575" spans="1:2">
+      <c r="A575" s="2">
+        <v>45889.96875</v>
+      </c>
+      <c r="B575">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="576" spans="1:2">
+      <c r="A576" s="2">
+        <v>45889.97916666666</v>
+      </c>
+      <c r="B576">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="577" spans="1:2">
+      <c r="A577" s="2">
+        <v>45889.98958333334</v>
+      </c>
+      <c r="B577">
         <v>0</v>
       </c>
     </row>

--- a/data_fetching/Entsoe/Actual_Production_Hydro_Water_Reservoir.xlsx
+++ b/data_fetching/Entsoe/Actual_Production_Hydro_Water_Reservoir.xlsx
@@ -397,1103 +397,1103 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2">
-        <v>45889</v>
+        <v>45917</v>
       </c>
       <c r="B2">
-        <v>351</v>
+        <v>405</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2">
-        <v>45889.01041666666</v>
+        <v>45917.01041666666</v>
       </c>
       <c r="B3">
-        <v>343</v>
+        <v>400</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2">
-        <v>45889.02083333334</v>
+        <v>45917.02083333334</v>
       </c>
       <c r="B4">
-        <v>343</v>
+        <v>401</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2">
-        <v>45889.03125</v>
+        <v>45917.03125</v>
       </c>
       <c r="B5">
-        <v>339</v>
+        <v>401</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2">
-        <v>45889.04166666666</v>
+        <v>45917.04166666666</v>
       </c>
       <c r="B6">
-        <v>344</v>
+        <v>403</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2">
-        <v>45889.05208333334</v>
+        <v>45917.05208333334</v>
       </c>
       <c r="B7">
-        <v>341</v>
+        <v>402</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2">
-        <v>45889.0625</v>
+        <v>45917.0625</v>
       </c>
       <c r="B8">
-        <v>342</v>
+        <v>402</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2">
-        <v>45889.07291666666</v>
+        <v>45917.07291666666</v>
       </c>
       <c r="B9">
-        <v>338</v>
+        <v>400</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2">
-        <v>45889.08333333334</v>
+        <v>45917.08333333334</v>
       </c>
       <c r="B10">
-        <v>282</v>
+        <v>404</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2">
-        <v>45889.09375</v>
+        <v>45917.09375</v>
       </c>
       <c r="B11">
-        <v>278</v>
+        <v>400</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2">
-        <v>45889.10416666666</v>
+        <v>45917.10416666666</v>
       </c>
       <c r="B12">
-        <v>279</v>
+        <v>403</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2">
-        <v>45889.11458333334</v>
+        <v>45917.11458333334</v>
       </c>
       <c r="B13">
-        <v>278</v>
+        <v>402</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2">
-        <v>45889.125</v>
+        <v>45917.125</v>
       </c>
       <c r="B14">
-        <v>298</v>
+        <v>402</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2">
-        <v>45889.13541666666</v>
+        <v>45917.13541666666</v>
       </c>
       <c r="B15">
-        <v>300</v>
+        <v>402</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2">
-        <v>45889.14583333334</v>
+        <v>45917.14583333334</v>
       </c>
       <c r="B16">
-        <v>300</v>
+        <v>403</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2">
-        <v>45889.15625</v>
+        <v>45917.15625</v>
       </c>
       <c r="B17">
-        <v>300</v>
+        <v>402</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2">
-        <v>45889.16666666666</v>
+        <v>45917.16666666666</v>
       </c>
       <c r="B18">
-        <v>285</v>
+        <v>400</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2">
-        <v>45889.17708333334</v>
+        <v>45917.17708333334</v>
       </c>
       <c r="B19">
-        <v>360</v>
+        <v>402</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2">
-        <v>45889.1875</v>
+        <v>45917.1875</v>
       </c>
       <c r="B20">
-        <v>387</v>
+        <v>403</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2">
-        <v>45889.19791666666</v>
+        <v>45917.19791666666</v>
       </c>
       <c r="B21">
-        <v>385</v>
+        <v>404</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2">
-        <v>45889.20833333334</v>
+        <v>45917.20833333334</v>
       </c>
       <c r="B22">
-        <v>393</v>
+        <v>413</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2">
-        <v>45889.21875</v>
+        <v>45917.21875</v>
       </c>
       <c r="B23">
-        <v>361</v>
+        <v>414</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2">
-        <v>45889.22916666666</v>
+        <v>45917.22916666666</v>
       </c>
       <c r="B24">
-        <v>373</v>
+        <v>434</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2">
-        <v>45889.23958333334</v>
+        <v>45917.23958333334</v>
       </c>
       <c r="B25">
-        <v>374</v>
+        <v>498</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2">
-        <v>45889.25</v>
+        <v>45917.25</v>
       </c>
       <c r="B26">
-        <v>409</v>
+        <v>790</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2">
-        <v>45889.26041666666</v>
+        <v>45917.26041666666</v>
       </c>
       <c r="B27">
-        <v>400</v>
+        <v>817</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2">
-        <v>45889.27083333334</v>
+        <v>45917.27083333334</v>
       </c>
       <c r="B28">
-        <v>404</v>
+        <v>850</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2">
-        <v>45889.28125</v>
+        <v>45917.28125</v>
       </c>
       <c r="B29">
-        <v>406</v>
+        <v>827</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2">
-        <v>45889.29166666666</v>
+        <v>45917.29166666666</v>
       </c>
       <c r="B30">
-        <v>345</v>
+        <v>827</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2">
-        <v>45889.30208333334</v>
+        <v>45917.30208333334</v>
       </c>
       <c r="B31">
-        <v>339</v>
+        <v>887</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2">
-        <v>45889.3125</v>
+        <v>45917.3125</v>
       </c>
       <c r="B32">
-        <v>331</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2">
-        <v>45889.32291666666</v>
+        <v>45917.32291666666</v>
       </c>
       <c r="B33">
-        <v>321</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2">
-        <v>45889.33333333334</v>
+        <v>45917.33333333334</v>
       </c>
       <c r="B34">
-        <v>264</v>
+        <v>549</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="2">
-        <v>45889.34375</v>
+        <v>45917.34375</v>
       </c>
       <c r="B35">
-        <v>261</v>
+        <v>554</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="2">
-        <v>45889.35416666666</v>
+        <v>45917.35416666666</v>
       </c>
       <c r="B36">
-        <v>259</v>
+        <v>503</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="2">
-        <v>45889.36458333334</v>
+        <v>45917.36458333334</v>
       </c>
       <c r="B37">
-        <v>255</v>
+        <v>493</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="2">
-        <v>45889.375</v>
+        <v>45917.375</v>
       </c>
       <c r="B38">
-        <v>299</v>
+        <v>329</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="2">
-        <v>45889.38541666666</v>
+        <v>45917.38541666666</v>
       </c>
       <c r="B39">
-        <v>288</v>
+        <v>323</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="2">
-        <v>45889.39583333334</v>
+        <v>45917.39583333334</v>
       </c>
       <c r="B40">
-        <v>285</v>
+        <v>307</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="2">
-        <v>45889.40625</v>
+        <v>45917.40625</v>
       </c>
       <c r="B41">
-        <v>268</v>
+        <v>304</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="2">
-        <v>45889.41666666666</v>
+        <v>45917.41666666666</v>
       </c>
       <c r="B42">
-        <v>179</v>
+        <v>312</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="2">
-        <v>45889.42708333334</v>
+        <v>45917.42708333334</v>
       </c>
       <c r="B43">
-        <v>168</v>
+        <v>302</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="2">
-        <v>45889.4375</v>
+        <v>45917.4375</v>
       </c>
       <c r="B44">
-        <v>158</v>
+        <v>293</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="2">
-        <v>45889.44791666666</v>
+        <v>45917.44791666666</v>
       </c>
       <c r="B45">
-        <v>136</v>
+        <v>292</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="2">
-        <v>45889.45833333334</v>
+        <v>45917.45833333334</v>
       </c>
       <c r="B46">
-        <v>309</v>
+        <v>241</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="2">
-        <v>45889.46875</v>
+        <v>45917.46875</v>
       </c>
       <c r="B47">
-        <v>294</v>
+        <v>237</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="2">
-        <v>45889.47916666666</v>
+        <v>45917.47916666666</v>
       </c>
       <c r="B48">
-        <v>296</v>
+        <v>238</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="2">
-        <v>45889.48958333334</v>
+        <v>45917.48958333334</v>
       </c>
       <c r="B49">
-        <v>298</v>
+        <v>231</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="2">
-        <v>45889.5</v>
+        <v>45917.5</v>
       </c>
       <c r="B50">
-        <v>110</v>
+        <v>199</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="2">
-        <v>45889.51041666666</v>
+        <v>45917.51041666666</v>
       </c>
       <c r="B51">
-        <v>113</v>
+        <v>185</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="2">
-        <v>45889.52083333334</v>
+        <v>45917.52083333334</v>
       </c>
       <c r="B52">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="2">
-        <v>45889.53125</v>
+        <v>45917.53125</v>
       </c>
       <c r="B53">
-        <v>117</v>
+        <v>88</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="2">
-        <v>45889.54166666666</v>
+        <v>45917.54166666666</v>
       </c>
       <c r="B54">
-        <v>95</v>
+        <v>75</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="2">
-        <v>45889.55208333334</v>
+        <v>45917.55208333334</v>
       </c>
       <c r="B55">
-        <v>83</v>
+        <v>67</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="2">
-        <v>45889.5625</v>
+        <v>45917.5625</v>
       </c>
       <c r="B56">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="2">
-        <v>45889.57291666666</v>
+        <v>45917.57291666666</v>
       </c>
       <c r="B57">
-        <v>72</v>
+        <v>61</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="2">
-        <v>45889.58333333334</v>
+        <v>45917.58333333334</v>
       </c>
       <c r="B58">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="2">
-        <v>45889.59375</v>
+        <v>45917.59375</v>
       </c>
       <c r="B59">
-        <v>64</v>
+        <v>74</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="2">
-        <v>45889.60416666666</v>
+        <v>45917.60416666666</v>
       </c>
       <c r="B60">
-        <v>69</v>
+        <v>78</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="2">
-        <v>45889.61458333334</v>
+        <v>45917.61458333334</v>
       </c>
       <c r="B61">
-        <v>93</v>
+        <v>77</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="2">
-        <v>45889.625</v>
+        <v>45917.625</v>
       </c>
       <c r="B62">
-        <v>281</v>
+        <v>118</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="2">
-        <v>45889.63541666666</v>
+        <v>45917.63541666666</v>
       </c>
       <c r="B63">
-        <v>300</v>
+        <v>138</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="2">
-        <v>45889.64583333334</v>
+        <v>45917.64583333334</v>
       </c>
       <c r="B64">
-        <v>313</v>
+        <v>131</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="2">
-        <v>45889.65625</v>
+        <v>45917.65625</v>
       </c>
       <c r="B65">
-        <v>306</v>
+        <v>142</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="2">
-        <v>45889.66666666666</v>
+        <v>45917.66666666666</v>
       </c>
       <c r="B66">
-        <v>298</v>
+        <v>342</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="2">
-        <v>45889.67708333334</v>
+        <v>45917.67708333334</v>
       </c>
       <c r="B67">
-        <v>325</v>
+        <v>397</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="2">
-        <v>45889.6875</v>
+        <v>45917.6875</v>
       </c>
       <c r="B68">
-        <v>332</v>
+        <v>397</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="2">
-        <v>45889.69791666666</v>
+        <v>45917.69791666666</v>
       </c>
       <c r="B69">
-        <v>344</v>
+        <v>415</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="2">
-        <v>45889.70833333334</v>
+        <v>45917.70833333334</v>
       </c>
       <c r="B70">
-        <v>451</v>
+        <v>662</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="2">
-        <v>45889.71875</v>
+        <v>45917.71875</v>
       </c>
       <c r="B71">
-        <v>461</v>
+        <v>691</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="2">
-        <v>45889.72916666666</v>
+        <v>45917.72916666666</v>
       </c>
       <c r="B72">
-        <v>446</v>
+        <v>674</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="2">
-        <v>45889.73958333334</v>
+        <v>45917.73958333334</v>
       </c>
       <c r="B73">
-        <v>468</v>
+        <v>691</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="2">
-        <v>45889.75</v>
+        <v>45917.75</v>
       </c>
       <c r="B74">
-        <v>871</v>
+        <v>863</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="2">
-        <v>45889.76041666666</v>
+        <v>45917.76041666666</v>
       </c>
       <c r="B75">
-        <v>893</v>
+        <v>870</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="2">
-        <v>45889.77083333334</v>
+        <v>45917.77083333334</v>
       </c>
       <c r="B76">
-        <v>894</v>
+        <v>843</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="2">
-        <v>45889.78125</v>
+        <v>45917.78125</v>
       </c>
       <c r="B77">
-        <v>936</v>
+        <v>849</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="2">
-        <v>45889.79166666666</v>
+        <v>45917.79166666666</v>
       </c>
       <c r="B78">
-        <v>1041</v>
+        <v>841</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="2">
-        <v>45889.80208333334</v>
+        <v>45917.80208333334</v>
       </c>
       <c r="B79">
-        <v>1055</v>
+        <v>889</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="2">
-        <v>45889.8125</v>
+        <v>45917.8125</v>
       </c>
       <c r="B80">
-        <v>1050</v>
+        <v>923</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="2">
-        <v>45889.82291666666</v>
+        <v>45917.82291666666</v>
       </c>
       <c r="B81">
-        <v>1053</v>
+        <v>914</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="2">
-        <v>45889.83333333334</v>
+        <v>45917.83333333334</v>
       </c>
       <c r="B82">
-        <v>1013</v>
+        <v>917</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="2">
-        <v>45889.84375</v>
+        <v>45917.84375</v>
       </c>
       <c r="B83">
-        <v>1009</v>
+        <v>969</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="2">
-        <v>45889.85416666666</v>
+        <v>45917.85416666666</v>
       </c>
       <c r="B84">
-        <v>1013</v>
+        <v>972</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="2">
-        <v>45889.86458333334</v>
+        <v>45917.86458333334</v>
       </c>
       <c r="B85">
-        <v>1014</v>
+        <v>874</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="2">
-        <v>45889.875</v>
+        <v>45917.875</v>
       </c>
       <c r="B86">
-        <v>931</v>
+        <v>669</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="2">
-        <v>45889.88541666666</v>
+        <v>45917.88541666666</v>
       </c>
       <c r="B87">
-        <v>924</v>
+        <v>666</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="2">
-        <v>45889.89583333334</v>
+        <v>45917.89583333334</v>
       </c>
       <c r="B88">
-        <v>924</v>
+        <v>664</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="2">
-        <v>45889.90625</v>
+        <v>45917.90625</v>
       </c>
       <c r="B89">
-        <v>919</v>
+        <v>650</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="2">
-        <v>45889.91666666666</v>
+        <v>45917.91666666666</v>
       </c>
       <c r="B90">
-        <v>590</v>
+        <v>465</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="2">
-        <v>45889.92708333334</v>
+        <v>45917.92708333334</v>
       </c>
       <c r="B91">
-        <v>576</v>
+        <v>449</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="2">
-        <v>45889.9375</v>
+        <v>45917.9375</v>
       </c>
       <c r="B92">
-        <v>570</v>
+        <v>449</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="2">
-        <v>45889.94791666666</v>
+        <v>45917.94791666666</v>
       </c>
       <c r="B93">
-        <v>564</v>
+        <v>449</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="2">
-        <v>45889.95833333334</v>
+        <v>45917.95833333334</v>
       </c>
       <c r="B94">
-        <v>538</v>
+        <v>414</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="2">
-        <v>45889.96875</v>
+        <v>45917.96875</v>
       </c>
       <c r="B95">
-        <v>534</v>
+        <v>409</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="2">
-        <v>45889.97916666666</v>
+        <v>45917.97916666666</v>
       </c>
       <c r="B96">
-        <v>534</v>
+        <v>408</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="2">
-        <v>45889.98958333334</v>
+        <v>45917.98958333334</v>
       </c>
       <c r="B97">
-        <v>530</v>
+        <v>405</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" s="2">
-        <v>45890</v>
+        <v>45918</v>
       </c>
       <c r="B98">
-        <v>410</v>
+        <v>365</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" s="2">
-        <v>45890.01041666666</v>
+        <v>45918.01041666666</v>
       </c>
       <c r="B99">
-        <v>408</v>
+        <v>362</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" s="2">
-        <v>45890.02083333334</v>
+        <v>45918.02083333334</v>
       </c>
       <c r="B100">
-        <v>408</v>
+        <v>360</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" s="2">
-        <v>45890.03125</v>
+        <v>45918.03125</v>
       </c>
       <c r="B101">
-        <v>407</v>
+        <v>356</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" s="2">
-        <v>45890.04166666666</v>
+        <v>45918.04166666666</v>
       </c>
       <c r="B102">
-        <v>399</v>
+        <v>360</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" s="2">
-        <v>45890.05208333334</v>
+        <v>45918.05208333334</v>
       </c>
       <c r="B103">
-        <v>397</v>
+        <v>358</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" s="2">
-        <v>45890.0625</v>
+        <v>45918.0625</v>
       </c>
       <c r="B104">
-        <v>396</v>
+        <v>359</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" s="2">
-        <v>45890.07291666666</v>
+        <v>45918.07291666666</v>
       </c>
       <c r="B105">
-        <v>392</v>
+        <v>358</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" s="2">
-        <v>45890.08333333334</v>
+        <v>45918.08333333334</v>
       </c>
       <c r="B106">
-        <v>389</v>
+        <v>356</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" s="2">
-        <v>45890.09375</v>
+        <v>45918.09375</v>
       </c>
       <c r="B107">
-        <v>388</v>
+        <v>351</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" s="2">
-        <v>45890.10416666666</v>
+        <v>45918.10416666666</v>
       </c>
       <c r="B108">
-        <v>389</v>
+        <v>353</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" s="2">
-        <v>45890.11458333334</v>
+        <v>45918.11458333334</v>
       </c>
       <c r="B109">
-        <v>389</v>
+        <v>351</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" s="2">
-        <v>45890.125</v>
+        <v>45918.125</v>
       </c>
       <c r="B110">
-        <v>389</v>
+        <v>353</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" s="2">
-        <v>45890.13541666666</v>
+        <v>45918.13541666666</v>
       </c>
       <c r="B111">
-        <v>397</v>
+        <v>351</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112" s="2">
-        <v>45890.14583333334</v>
+        <v>45918.14583333334</v>
       </c>
       <c r="B112">
-        <v>399</v>
+        <v>352</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" s="2">
-        <v>45890.15625</v>
+        <v>45918.15625</v>
       </c>
       <c r="B113">
-        <v>404</v>
+        <v>351</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" s="2">
-        <v>45890.16666666666</v>
+        <v>45918.16666666666</v>
       </c>
       <c r="B114">
-        <v>431</v>
+        <v>356</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" s="2">
-        <v>45890.17708333334</v>
+        <v>45918.17708333334</v>
       </c>
       <c r="B115">
-        <v>432</v>
+        <v>356</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" s="2">
-        <v>45890.1875</v>
+        <v>45918.1875</v>
       </c>
       <c r="B116">
-        <v>432</v>
+        <v>355</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117" s="2">
-        <v>45890.19791666666</v>
+        <v>45918.19791666666</v>
       </c>
       <c r="B117">
-        <v>437</v>
+        <v>361</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" s="2">
-        <v>45890.20833333334</v>
+        <v>45918.20833333334</v>
       </c>
       <c r="B118">
-        <v>468</v>
+        <v>460</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" s="2">
-        <v>45890.21875</v>
+        <v>45918.21875</v>
       </c>
       <c r="B119">
-        <v>470</v>
+        <v>463</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" s="2">
-        <v>45890.22916666666</v>
+        <v>45918.22916666666</v>
       </c>
       <c r="B120">
-        <v>471</v>
+        <v>463</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" s="2">
-        <v>45890.23958333334</v>
+        <v>45918.23958333334</v>
       </c>
       <c r="B121">
-        <v>512</v>
+        <v>467</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" s="2">
-        <v>45890.25</v>
+        <v>45918.25</v>
       </c>
       <c r="B122">
-        <v>814</v>
+        <v>505</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123" s="2">
-        <v>45890.26041666666</v>
+        <v>45918.26041666666</v>
       </c>
       <c r="B123">
-        <v>810</v>
+        <v>501</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" s="2">
-        <v>45890.27083333334</v>
+        <v>45918.27083333334</v>
       </c>
       <c r="B124">
-        <v>812</v>
+        <v>502</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" s="2">
-        <v>45890.28125</v>
+        <v>45918.28125</v>
       </c>
       <c r="B125">
-        <v>817</v>
+        <v>503</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" s="2">
-        <v>45890.29166666666</v>
+        <v>45918.29166666666</v>
       </c>
       <c r="B126">
-        <v>812</v>
+        <v>411</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127" s="2">
-        <v>45890.30208333334</v>
+        <v>45918.30208333334</v>
       </c>
       <c r="B127">
-        <v>804</v>
+        <v>391</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128" s="2">
-        <v>45890.3125</v>
+        <v>45918.3125</v>
       </c>
       <c r="B128">
-        <v>802</v>
+        <v>390</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" s="2">
-        <v>45890.32291666666</v>
+        <v>45918.32291666666</v>
       </c>
       <c r="B129">
-        <v>797</v>
+        <v>373</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" s="2">
-        <v>45890.33333333334</v>
+        <v>45918.33333333334</v>
       </c>
       <c r="B130">
-        <v>236</v>
+        <v>399</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" s="2">
-        <v>45890.34375</v>
+        <v>45918.34375</v>
       </c>
       <c r="B131">
-        <v>203</v>
+        <v>373</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132" s="2">
-        <v>45890.35416666666</v>
+        <v>45918.35416666666</v>
       </c>
       <c r="B132">
-        <v>196</v>
+        <v>371</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" s="2">
-        <v>45890.36458333334</v>
+        <v>45918.36458333334</v>
       </c>
       <c r="B133">
-        <v>184</v>
+        <v>366</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134" s="2">
-        <v>45890.375</v>
+        <v>45918.375</v>
       </c>
       <c r="B134">
-        <v>274</v>
+        <v>150</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135" s="2">
-        <v>45890.38541666666</v>
+        <v>45918.38541666666</v>
       </c>
       <c r="B135">
-        <v>269</v>
+        <v>100</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136" s="2">
-        <v>45890.39583333334</v>
+        <v>45918.39583333334</v>
       </c>
       <c r="B136">
-        <v>259</v>
+        <v>84</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137" s="2">
-        <v>45890.40625</v>
+        <v>45918.40625</v>
       </c>
       <c r="B137">
-        <v>0</v>
+        <v>74</v>
       </c>
     </row>
     <row r="138" spans="1:2">
       <c r="A138" s="2">
-        <v>45890.41666666666</v>
+        <v>45918.41666666666</v>
       </c>
       <c r="B138">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="139" spans="1:2">
       <c r="A139" s="2">
-        <v>45890.42708333334</v>
+        <v>45918.42708333334</v>
       </c>
       <c r="B139">
         <v>0</v>
@@ -1501,7 +1501,7 @@
     </row>
     <row r="140" spans="1:2">
       <c r="A140" s="2">
-        <v>45890.4375</v>
+        <v>45918.4375</v>
       </c>
       <c r="B140">
         <v>0</v>
@@ -1509,7 +1509,7 @@
     </row>
     <row r="141" spans="1:2">
       <c r="A141" s="2">
-        <v>45890.44791666666</v>
+        <v>45918.44791666666</v>
       </c>
       <c r="B141">
         <v>0</v>
@@ -1517,7 +1517,7 @@
     </row>
     <row r="142" spans="1:2">
       <c r="A142" s="2">
-        <v>45890.45833333334</v>
+        <v>45918.45833333334</v>
       </c>
       <c r="B142">
         <v>0</v>
@@ -1525,7 +1525,7 @@
     </row>
     <row r="143" spans="1:2">
       <c r="A143" s="2">
-        <v>45890.46875</v>
+        <v>45918.46875</v>
       </c>
       <c r="B143">
         <v>0</v>
@@ -1533,7 +1533,7 @@
     </row>
     <row r="144" spans="1:2">
       <c r="A144" s="2">
-        <v>45890.47916666666</v>
+        <v>45918.47916666666</v>
       </c>
       <c r="B144">
         <v>0</v>
@@ -1541,7 +1541,7 @@
     </row>
     <row r="145" spans="1:2">
       <c r="A145" s="2">
-        <v>45890.48958333334</v>
+        <v>45918.48958333334</v>
       </c>
       <c r="B145">
         <v>0</v>
@@ -1549,7 +1549,7 @@
     </row>
     <row r="146" spans="1:2">
       <c r="A146" s="2">
-        <v>45890.5</v>
+        <v>45918.5</v>
       </c>
       <c r="B146">
         <v>0</v>
@@ -1557,7 +1557,7 @@
     </row>
     <row r="147" spans="1:2">
       <c r="A147" s="2">
-        <v>45890.51041666666</v>
+        <v>45918.51041666666</v>
       </c>
       <c r="B147">
         <v>0</v>
@@ -1565,7 +1565,7 @@
     </row>
     <row r="148" spans="1:2">
       <c r="A148" s="2">
-        <v>45890.52083333334</v>
+        <v>45918.52083333334</v>
       </c>
       <c r="B148">
         <v>0</v>
@@ -1573,7 +1573,7 @@
     </row>
     <row r="149" spans="1:2">
       <c r="A149" s="2">
-        <v>45890.53125</v>
+        <v>45918.53125</v>
       </c>
       <c r="B149">
         <v>0</v>
@@ -1581,7 +1581,7 @@
     </row>
     <row r="150" spans="1:2">
       <c r="A150" s="2">
-        <v>45890.54166666666</v>
+        <v>45918.54166666666</v>
       </c>
       <c r="B150">
         <v>0</v>
@@ -1589,7 +1589,7 @@
     </row>
     <row r="151" spans="1:2">
       <c r="A151" s="2">
-        <v>45890.55208333334</v>
+        <v>45918.55208333334</v>
       </c>
       <c r="B151">
         <v>0</v>
@@ -1597,7 +1597,7 @@
     </row>
     <row r="152" spans="1:2">
       <c r="A152" s="2">
-        <v>45890.5625</v>
+        <v>45918.5625</v>
       </c>
       <c r="B152">
         <v>0</v>
@@ -1605,7 +1605,7 @@
     </row>
     <row r="153" spans="1:2">
       <c r="A153" s="2">
-        <v>45890.57291666666</v>
+        <v>45918.57291666666</v>
       </c>
       <c r="B153">
         <v>0</v>
@@ -1613,7 +1613,7 @@
     </row>
     <row r="154" spans="1:2">
       <c r="A154" s="2">
-        <v>45890.58333333334</v>
+        <v>45918.58333333334</v>
       </c>
       <c r="B154">
         <v>0</v>
@@ -1621,7 +1621,7 @@
     </row>
     <row r="155" spans="1:2">
       <c r="A155" s="2">
-        <v>45890.59375</v>
+        <v>45918.59375</v>
       </c>
       <c r="B155">
         <v>0</v>
@@ -1629,7 +1629,7 @@
     </row>
     <row r="156" spans="1:2">
       <c r="A156" s="2">
-        <v>45890.60416666666</v>
+        <v>45918.60416666666</v>
       </c>
       <c r="B156">
         <v>0</v>
@@ -1637,7 +1637,7 @@
     </row>
     <row r="157" spans="1:2">
       <c r="A157" s="2">
-        <v>45890.61458333334</v>
+        <v>45918.61458333334</v>
       </c>
       <c r="B157">
         <v>0</v>
@@ -1645,7 +1645,7 @@
     </row>
     <row r="158" spans="1:2">
       <c r="A158" s="2">
-        <v>45890.625</v>
+        <v>45918.625</v>
       </c>
       <c r="B158">
         <v>0</v>
@@ -1653,7 +1653,7 @@
     </row>
     <row r="159" spans="1:2">
       <c r="A159" s="2">
-        <v>45890.63541666666</v>
+        <v>45918.63541666666</v>
       </c>
       <c r="B159">
         <v>0</v>
@@ -1661,7 +1661,7 @@
     </row>
     <row r="160" spans="1:2">
       <c r="A160" s="2">
-        <v>45890.64583333334</v>
+        <v>45918.64583333334</v>
       </c>
       <c r="B160">
         <v>0</v>
@@ -1669,7 +1669,7 @@
     </row>
     <row r="161" spans="1:2">
       <c r="A161" s="2">
-        <v>45890.65625</v>
+        <v>45918.65625</v>
       </c>
       <c r="B161">
         <v>0</v>
@@ -1677,7 +1677,7 @@
     </row>
     <row r="162" spans="1:2">
       <c r="A162" s="2">
-        <v>45890.66666666666</v>
+        <v>45918.66666666666</v>
       </c>
       <c r="B162">
         <v>0</v>
@@ -1685,7 +1685,7 @@
     </row>
     <row r="163" spans="1:2">
       <c r="A163" s="2">
-        <v>45890.67708333334</v>
+        <v>45918.67708333334</v>
       </c>
       <c r="B163">
         <v>0</v>
@@ -1693,7 +1693,7 @@
     </row>
     <row r="164" spans="1:2">
       <c r="A164" s="2">
-        <v>45890.6875</v>
+        <v>45918.6875</v>
       </c>
       <c r="B164">
         <v>0</v>
@@ -1701,7 +1701,7 @@
     </row>
     <row r="165" spans="1:2">
       <c r="A165" s="2">
-        <v>45890.69791666666</v>
+        <v>45918.69791666666</v>
       </c>
       <c r="B165">
         <v>0</v>
@@ -1709,7 +1709,7 @@
     </row>
     <row r="166" spans="1:2">
       <c r="A166" s="2">
-        <v>45890.70833333334</v>
+        <v>45918.70833333334</v>
       </c>
       <c r="B166">
         <v>0</v>
@@ -1717,7 +1717,7 @@
     </row>
     <row r="167" spans="1:2">
       <c r="A167" s="2">
-        <v>45890.71875</v>
+        <v>45918.71875</v>
       </c>
       <c r="B167">
         <v>0</v>
@@ -1725,7 +1725,7 @@
     </row>
     <row r="168" spans="1:2">
       <c r="A168" s="2">
-        <v>45890.72916666666</v>
+        <v>45918.72916666666</v>
       </c>
       <c r="B168">
         <v>0</v>
@@ -1733,7 +1733,7 @@
     </row>
     <row r="169" spans="1:2">
       <c r="A169" s="2">
-        <v>45890.73958333334</v>
+        <v>45918.73958333334</v>
       </c>
       <c r="B169">
         <v>0</v>
@@ -1741,7 +1741,7 @@
     </row>
     <row r="170" spans="1:2">
       <c r="A170" s="2">
-        <v>45890.75</v>
+        <v>45918.75</v>
       </c>
       <c r="B170">
         <v>0</v>
@@ -1749,7 +1749,7 @@
     </row>
     <row r="171" spans="1:2">
       <c r="A171" s="2">
-        <v>45890.76041666666</v>
+        <v>45918.76041666666</v>
       </c>
       <c r="B171">
         <v>0</v>
@@ -1757,7 +1757,7 @@
     </row>
     <row r="172" spans="1:2">
       <c r="A172" s="2">
-        <v>45890.77083333334</v>
+        <v>45918.77083333334</v>
       </c>
       <c r="B172">
         <v>0</v>
@@ -1765,7 +1765,7 @@
     </row>
     <row r="173" spans="1:2">
       <c r="A173" s="2">
-        <v>45890.78125</v>
+        <v>45918.78125</v>
       </c>
       <c r="B173">
         <v>0</v>
@@ -1773,7 +1773,7 @@
     </row>
     <row r="174" spans="1:2">
       <c r="A174" s="2">
-        <v>45890.79166666666</v>
+        <v>45918.79166666666</v>
       </c>
       <c r="B174">
         <v>0</v>
@@ -1781,7 +1781,7 @@
     </row>
     <row r="175" spans="1:2">
       <c r="A175" s="2">
-        <v>45890.80208333334</v>
+        <v>45918.80208333334</v>
       </c>
       <c r="B175">
         <v>0</v>
@@ -1789,7 +1789,7 @@
     </row>
     <row r="176" spans="1:2">
       <c r="A176" s="2">
-        <v>45890.8125</v>
+        <v>45918.8125</v>
       </c>
       <c r="B176">
         <v>0</v>
@@ -1797,7 +1797,7 @@
     </row>
     <row r="177" spans="1:2">
       <c r="A177" s="2">
-        <v>45890.82291666666</v>
+        <v>45918.82291666666</v>
       </c>
       <c r="B177">
         <v>0</v>
@@ -1805,7 +1805,7 @@
     </row>
     <row r="178" spans="1:2">
       <c r="A178" s="2">
-        <v>45890.83333333334</v>
+        <v>45918.83333333334</v>
       </c>
       <c r="B178">
         <v>0</v>
@@ -1813,7 +1813,7 @@
     </row>
     <row r="179" spans="1:2">
       <c r="A179" s="2">
-        <v>45890.84375</v>
+        <v>45918.84375</v>
       </c>
       <c r="B179">
         <v>0</v>
@@ -1821,7 +1821,7 @@
     </row>
     <row r="180" spans="1:2">
       <c r="A180" s="2">
-        <v>45890.85416666666</v>
+        <v>45918.85416666666</v>
       </c>
       <c r="B180">
         <v>0</v>
@@ -1829,7 +1829,7 @@
     </row>
     <row r="181" spans="1:2">
       <c r="A181" s="2">
-        <v>45890.86458333334</v>
+        <v>45918.86458333334</v>
       </c>
       <c r="B181">
         <v>0</v>
@@ -1837,7 +1837,7 @@
     </row>
     <row r="182" spans="1:2">
       <c r="A182" s="2">
-        <v>45890.875</v>
+        <v>45918.875</v>
       </c>
       <c r="B182">
         <v>0</v>
@@ -1845,7 +1845,7 @@
     </row>
     <row r="183" spans="1:2">
       <c r="A183" s="2">
-        <v>45890.88541666666</v>
+        <v>45918.88541666666</v>
       </c>
       <c r="B183">
         <v>0</v>
@@ -1853,7 +1853,7 @@
     </row>
     <row r="184" spans="1:2">
       <c r="A184" s="2">
-        <v>45890.89583333334</v>
+        <v>45918.89583333334</v>
       </c>
       <c r="B184">
         <v>0</v>
@@ -1861,7 +1861,7 @@
     </row>
     <row r="185" spans="1:2">
       <c r="A185" s="2">
-        <v>45890.90625</v>
+        <v>45918.90625</v>
       </c>
       <c r="B185">
         <v>0</v>
@@ -1869,7 +1869,7 @@
     </row>
     <row r="186" spans="1:2">
       <c r="A186" s="2">
-        <v>45890.91666666666</v>
+        <v>45918.91666666666</v>
       </c>
       <c r="B186">
         <v>0</v>
@@ -1877,7 +1877,7 @@
     </row>
     <row r="187" spans="1:2">
       <c r="A187" s="2">
-        <v>45890.92708333334</v>
+        <v>45918.92708333334</v>
       </c>
       <c r="B187">
         <v>0</v>
@@ -1885,7 +1885,7 @@
     </row>
     <row r="188" spans="1:2">
       <c r="A188" s="2">
-        <v>45890.9375</v>
+        <v>45918.9375</v>
       </c>
       <c r="B188">
         <v>0</v>
@@ -1893,7 +1893,7 @@
     </row>
     <row r="189" spans="1:2">
       <c r="A189" s="2">
-        <v>45890.94791666666</v>
+        <v>45918.94791666666</v>
       </c>
       <c r="B189">
         <v>0</v>
@@ -1901,7 +1901,7 @@
     </row>
     <row r="190" spans="1:2">
       <c r="A190" s="2">
-        <v>45890.95833333334</v>
+        <v>45918.95833333334</v>
       </c>
       <c r="B190">
         <v>0</v>
@@ -1909,7 +1909,7 @@
     </row>
     <row r="191" spans="1:2">
       <c r="A191" s="2">
-        <v>45890.96875</v>
+        <v>45918.96875</v>
       </c>
       <c r="B191">
         <v>0</v>
@@ -1917,7 +1917,7 @@
     </row>
     <row r="192" spans="1:2">
       <c r="A192" s="2">
-        <v>45890.97916666666</v>
+        <v>45918.97916666666</v>
       </c>
       <c r="B192">
         <v>0</v>
@@ -1925,7 +1925,7 @@
     </row>
     <row r="193" spans="1:2">
       <c r="A193" s="2">
-        <v>45890.98958333334</v>
+        <v>45918.98958333334</v>
       </c>
       <c r="B193">
         <v>0</v>

--- a/data_fetching/Entsoe/Actual_Production_Hydro_Water_Reservoir.xlsx
+++ b/data_fetching/Entsoe/Actual_Production_Hydro_Water_Reservoir.xlsx
@@ -397,1103 +397,1103 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2">
-        <v>45917</v>
+        <v>45918</v>
       </c>
       <c r="B2">
-        <v>405</v>
+        <v>365</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2">
-        <v>45917.01041666666</v>
+        <v>45918.01041666666</v>
       </c>
       <c r="B3">
-        <v>400</v>
+        <v>362</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2">
-        <v>45917.02083333334</v>
+        <v>45918.02083333334</v>
       </c>
       <c r="B4">
-        <v>401</v>
+        <v>360</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2">
-        <v>45917.03125</v>
+        <v>45918.03125</v>
       </c>
       <c r="B5">
-        <v>401</v>
+        <v>356</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2">
-        <v>45917.04166666666</v>
+        <v>45918.04166666666</v>
       </c>
       <c r="B6">
-        <v>403</v>
+        <v>360</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2">
-        <v>45917.05208333334</v>
+        <v>45918.05208333334</v>
       </c>
       <c r="B7">
-        <v>402</v>
+        <v>358</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2">
-        <v>45917.0625</v>
+        <v>45918.0625</v>
       </c>
       <c r="B8">
-        <v>402</v>
+        <v>359</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2">
-        <v>45917.07291666666</v>
+        <v>45918.07291666666</v>
       </c>
       <c r="B9">
-        <v>400</v>
+        <v>358</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2">
-        <v>45917.08333333334</v>
+        <v>45918.08333333334</v>
       </c>
       <c r="B10">
-        <v>404</v>
+        <v>356</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2">
-        <v>45917.09375</v>
+        <v>45918.09375</v>
       </c>
       <c r="B11">
-        <v>400</v>
+        <v>351</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2">
-        <v>45917.10416666666</v>
+        <v>45918.10416666666</v>
       </c>
       <c r="B12">
-        <v>403</v>
+        <v>353</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2">
-        <v>45917.11458333334</v>
+        <v>45918.11458333334</v>
       </c>
       <c r="B13">
-        <v>402</v>
+        <v>351</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2">
-        <v>45917.125</v>
+        <v>45918.125</v>
       </c>
       <c r="B14">
-        <v>402</v>
+        <v>353</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2">
-        <v>45917.13541666666</v>
+        <v>45918.13541666666</v>
       </c>
       <c r="B15">
-        <v>402</v>
+        <v>351</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2">
-        <v>45917.14583333334</v>
+        <v>45918.14583333334</v>
       </c>
       <c r="B16">
-        <v>403</v>
+        <v>352</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2">
-        <v>45917.15625</v>
+        <v>45918.15625</v>
       </c>
       <c r="B17">
-        <v>402</v>
+        <v>351</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2">
-        <v>45917.16666666666</v>
+        <v>45918.16666666666</v>
       </c>
       <c r="B18">
-        <v>400</v>
+        <v>356</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2">
-        <v>45917.17708333334</v>
+        <v>45918.17708333334</v>
       </c>
       <c r="B19">
-        <v>402</v>
+        <v>356</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2">
-        <v>45917.1875</v>
+        <v>45918.1875</v>
       </c>
       <c r="B20">
-        <v>403</v>
+        <v>355</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2">
-        <v>45917.19791666666</v>
+        <v>45918.19791666666</v>
       </c>
       <c r="B21">
-        <v>404</v>
+        <v>361</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2">
-        <v>45917.20833333334</v>
+        <v>45918.20833333334</v>
       </c>
       <c r="B22">
-        <v>413</v>
+        <v>460</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2">
-        <v>45917.21875</v>
+        <v>45918.21875</v>
       </c>
       <c r="B23">
-        <v>414</v>
+        <v>463</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2">
-        <v>45917.22916666666</v>
+        <v>45918.22916666666</v>
       </c>
       <c r="B24">
-        <v>434</v>
+        <v>463</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2">
-        <v>45917.23958333334</v>
+        <v>45918.23958333334</v>
       </c>
       <c r="B25">
-        <v>498</v>
+        <v>467</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2">
-        <v>45917.25</v>
+        <v>45918.25</v>
       </c>
       <c r="B26">
-        <v>790</v>
+        <v>505</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2">
-        <v>45917.26041666666</v>
+        <v>45918.26041666666</v>
       </c>
       <c r="B27">
-        <v>817</v>
+        <v>501</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2">
-        <v>45917.27083333334</v>
+        <v>45918.27083333334</v>
       </c>
       <c r="B28">
-        <v>850</v>
+        <v>502</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2">
-        <v>45917.28125</v>
+        <v>45918.28125</v>
       </c>
       <c r="B29">
-        <v>827</v>
+        <v>503</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2">
-        <v>45917.29166666666</v>
+        <v>45918.29166666666</v>
       </c>
       <c r="B30">
-        <v>827</v>
+        <v>411</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2">
-        <v>45917.30208333334</v>
+        <v>45918.30208333334</v>
       </c>
       <c r="B31">
-        <v>887</v>
+        <v>391</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2">
-        <v>45917.3125</v>
+        <v>45918.3125</v>
       </c>
       <c r="B32">
-        <v>1027</v>
+        <v>390</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2">
-        <v>45917.32291666666</v>
+        <v>45918.32291666666</v>
       </c>
       <c r="B33">
-        <v>1087</v>
+        <v>373</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2">
-        <v>45917.33333333334</v>
+        <v>45918.33333333334</v>
       </c>
       <c r="B34">
-        <v>549</v>
+        <v>399</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="2">
-        <v>45917.34375</v>
+        <v>45918.34375</v>
       </c>
       <c r="B35">
-        <v>554</v>
+        <v>373</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="2">
-        <v>45917.35416666666</v>
+        <v>45918.35416666666</v>
       </c>
       <c r="B36">
-        <v>503</v>
+        <v>371</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="2">
-        <v>45917.36458333334</v>
+        <v>45918.36458333334</v>
       </c>
       <c r="B37">
-        <v>493</v>
+        <v>366</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="2">
-        <v>45917.375</v>
+        <v>45918.375</v>
       </c>
       <c r="B38">
-        <v>329</v>
+        <v>150</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="2">
-        <v>45917.38541666666</v>
+        <v>45918.38541666666</v>
       </c>
       <c r="B39">
-        <v>323</v>
+        <v>100</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="2">
-        <v>45917.39583333334</v>
+        <v>45918.39583333334</v>
       </c>
       <c r="B40">
-        <v>307</v>
+        <v>84</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="2">
-        <v>45917.40625</v>
+        <v>45918.40625</v>
       </c>
       <c r="B41">
-        <v>304</v>
+        <v>74</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="2">
-        <v>45917.41666666666</v>
+        <v>45918.41666666666</v>
       </c>
       <c r="B42">
-        <v>312</v>
+        <v>50</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="2">
-        <v>45917.42708333334</v>
+        <v>45918.42708333334</v>
       </c>
       <c r="B43">
-        <v>302</v>
+        <v>39</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="2">
-        <v>45917.4375</v>
+        <v>45918.4375</v>
       </c>
       <c r="B44">
-        <v>293</v>
+        <v>38</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="2">
-        <v>45917.44791666666</v>
+        <v>45918.44791666666</v>
       </c>
       <c r="B45">
-        <v>292</v>
+        <v>32</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="2">
-        <v>45917.45833333334</v>
+        <v>45918.45833333334</v>
       </c>
       <c r="B46">
-        <v>241</v>
+        <v>93</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="2">
-        <v>45917.46875</v>
+        <v>45918.46875</v>
       </c>
       <c r="B47">
-        <v>237</v>
+        <v>89</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="2">
-        <v>45917.47916666666</v>
+        <v>45918.47916666666</v>
       </c>
       <c r="B48">
-        <v>238</v>
+        <v>83</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="2">
-        <v>45917.48958333334</v>
+        <v>45918.48958333334</v>
       </c>
       <c r="B49">
-        <v>231</v>
+        <v>84</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="2">
-        <v>45917.5</v>
+        <v>45918.5</v>
       </c>
       <c r="B50">
-        <v>199</v>
+        <v>66</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="2">
-        <v>45917.51041666666</v>
+        <v>45918.51041666666</v>
       </c>
       <c r="B51">
-        <v>185</v>
+        <v>80</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="2">
-        <v>45917.52083333334</v>
+        <v>45918.52083333334</v>
       </c>
       <c r="B52">
-        <v>120</v>
+        <v>86</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="2">
-        <v>45917.53125</v>
+        <v>45918.53125</v>
       </c>
       <c r="B53">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="2">
-        <v>45917.54166666666</v>
+        <v>45918.54166666666</v>
       </c>
       <c r="B54">
-        <v>75</v>
+        <v>45</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="2">
-        <v>45917.55208333334</v>
+        <v>45918.55208333334</v>
       </c>
       <c r="B55">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="2">
-        <v>45917.5625</v>
+        <v>45918.5625</v>
       </c>
       <c r="B56">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="2">
-        <v>45917.57291666666</v>
+        <v>45918.57291666666</v>
       </c>
       <c r="B57">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="2">
-        <v>45917.58333333334</v>
+        <v>45918.58333333334</v>
       </c>
       <c r="B58">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="2">
-        <v>45917.59375</v>
+        <v>45918.59375</v>
       </c>
       <c r="B59">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="2">
-        <v>45917.60416666666</v>
+        <v>45918.60416666666</v>
       </c>
       <c r="B60">
-        <v>78</v>
+        <v>68</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="2">
-        <v>45917.61458333334</v>
+        <v>45918.61458333334</v>
       </c>
       <c r="B61">
-        <v>77</v>
+        <v>67</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="2">
-        <v>45917.625</v>
+        <v>45918.625</v>
       </c>
       <c r="B62">
-        <v>118</v>
+        <v>84</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="2">
-        <v>45917.63541666666</v>
+        <v>45918.63541666666</v>
       </c>
       <c r="B63">
-        <v>138</v>
+        <v>89</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="2">
-        <v>45917.64583333334</v>
+        <v>45918.64583333334</v>
       </c>
       <c r="B64">
-        <v>131</v>
+        <v>90</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="2">
-        <v>45917.65625</v>
+        <v>45918.65625</v>
       </c>
       <c r="B65">
-        <v>142</v>
+        <v>105</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="2">
-        <v>45917.66666666666</v>
+        <v>45918.66666666666</v>
       </c>
       <c r="B66">
-        <v>342</v>
+        <v>464</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="2">
-        <v>45917.67708333334</v>
+        <v>45918.67708333334</v>
       </c>
       <c r="B67">
-        <v>397</v>
+        <v>492</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="2">
-        <v>45917.6875</v>
+        <v>45918.6875</v>
       </c>
       <c r="B68">
-        <v>397</v>
+        <v>499</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="2">
-        <v>45917.69791666666</v>
+        <v>45918.69791666666</v>
       </c>
       <c r="B69">
-        <v>415</v>
+        <v>523</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="2">
-        <v>45917.70833333334</v>
+        <v>45918.70833333334</v>
       </c>
       <c r="B70">
-        <v>662</v>
+        <v>621</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="2">
-        <v>45917.71875</v>
+        <v>45918.71875</v>
       </c>
       <c r="B71">
-        <v>691</v>
+        <v>650</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="2">
-        <v>45917.72916666666</v>
+        <v>45918.72916666666</v>
       </c>
       <c r="B72">
-        <v>674</v>
+        <v>652</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="2">
-        <v>45917.73958333334</v>
+        <v>45918.73958333334</v>
       </c>
       <c r="B73">
-        <v>691</v>
+        <v>664</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="2">
-        <v>45917.75</v>
+        <v>45918.75</v>
       </c>
       <c r="B74">
-        <v>863</v>
+        <v>810</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="2">
-        <v>45917.76041666666</v>
+        <v>45918.76041666666</v>
       </c>
       <c r="B75">
-        <v>870</v>
+        <v>819</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="2">
-        <v>45917.77083333334</v>
+        <v>45918.77083333334</v>
       </c>
       <c r="B76">
-        <v>843</v>
+        <v>819</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="2">
-        <v>45917.78125</v>
+        <v>45918.78125</v>
       </c>
       <c r="B77">
-        <v>849</v>
+        <v>836</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="2">
-        <v>45917.79166666666</v>
+        <v>45918.79166666666</v>
       </c>
       <c r="B78">
-        <v>841</v>
+        <v>876</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="2">
-        <v>45917.80208333334</v>
+        <v>45918.80208333334</v>
       </c>
       <c r="B79">
-        <v>889</v>
+        <v>885</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="2">
-        <v>45917.8125</v>
+        <v>45918.8125</v>
       </c>
       <c r="B80">
-        <v>923</v>
+        <v>882</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="2">
-        <v>45917.82291666666</v>
+        <v>45918.82291666666</v>
       </c>
       <c r="B81">
-        <v>914</v>
+        <v>881</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="2">
-        <v>45917.83333333334</v>
+        <v>45918.83333333334</v>
       </c>
       <c r="B82">
-        <v>917</v>
+        <v>869</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="2">
-        <v>45917.84375</v>
+        <v>45918.84375</v>
       </c>
       <c r="B83">
-        <v>969</v>
+        <v>864</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="2">
-        <v>45917.85416666666</v>
+        <v>45918.85416666666</v>
       </c>
       <c r="B84">
-        <v>972</v>
+        <v>860</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="2">
-        <v>45917.86458333334</v>
+        <v>45918.86458333334</v>
       </c>
       <c r="B85">
-        <v>874</v>
+        <v>863</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="2">
-        <v>45917.875</v>
+        <v>45918.875</v>
       </c>
       <c r="B86">
-        <v>669</v>
+        <v>776</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="2">
-        <v>45917.88541666666</v>
+        <v>45918.88541666666</v>
       </c>
       <c r="B87">
-        <v>666</v>
+        <v>769</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="2">
-        <v>45917.89583333334</v>
+        <v>45918.89583333334</v>
       </c>
       <c r="B88">
-        <v>664</v>
+        <v>770</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="2">
-        <v>45917.90625</v>
+        <v>45918.90625</v>
       </c>
       <c r="B89">
-        <v>650</v>
+        <v>762</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="2">
-        <v>45917.91666666666</v>
+        <v>45918.91666666666</v>
       </c>
       <c r="B90">
-        <v>465</v>
+        <v>462</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="2">
-        <v>45917.92708333334</v>
+        <v>45918.92708333334</v>
       </c>
       <c r="B91">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="2">
-        <v>45917.9375</v>
+        <v>45918.9375</v>
       </c>
       <c r="B92">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="2">
-        <v>45917.94791666666</v>
+        <v>45918.94791666666</v>
       </c>
       <c r="B93">
-        <v>449</v>
+        <v>444</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="2">
-        <v>45917.95833333334</v>
+        <v>45918.95833333334</v>
       </c>
       <c r="B94">
-        <v>414</v>
+        <v>396</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="2">
-        <v>45917.96875</v>
+        <v>45918.96875</v>
       </c>
       <c r="B95">
-        <v>409</v>
+        <v>389</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="2">
-        <v>45917.97916666666</v>
+        <v>45918.97916666666</v>
       </c>
       <c r="B96">
-        <v>408</v>
+        <v>388</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="2">
-        <v>45917.98958333334</v>
+        <v>45918.98958333334</v>
       </c>
       <c r="B97">
-        <v>405</v>
+        <v>385</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" s="2">
-        <v>45918</v>
+        <v>45919</v>
       </c>
       <c r="B98">
-        <v>365</v>
+        <v>350</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" s="2">
-        <v>45918.01041666666</v>
+        <v>45919.01041666666</v>
       </c>
       <c r="B99">
-        <v>362</v>
+        <v>343</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" s="2">
-        <v>45918.02083333334</v>
+        <v>45919.02083333334</v>
       </c>
       <c r="B100">
-        <v>360</v>
+        <v>338</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" s="2">
-        <v>45918.03125</v>
+        <v>45919.03125</v>
       </c>
       <c r="B101">
-        <v>356</v>
+        <v>335</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" s="2">
-        <v>45918.04166666666</v>
+        <v>45919.04166666666</v>
       </c>
       <c r="B102">
-        <v>360</v>
+        <v>342</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" s="2">
-        <v>45918.05208333334</v>
+        <v>45919.05208333334</v>
       </c>
       <c r="B103">
-        <v>358</v>
+        <v>337</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" s="2">
-        <v>45918.0625</v>
+        <v>45919.0625</v>
       </c>
       <c r="B104">
-        <v>359</v>
+        <v>339</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" s="2">
-        <v>45918.07291666666</v>
+        <v>45919.07291666666</v>
       </c>
       <c r="B105">
-        <v>358</v>
+        <v>335</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" s="2">
-        <v>45918.08333333334</v>
+        <v>45919.08333333334</v>
       </c>
       <c r="B106">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" s="2">
-        <v>45918.09375</v>
+        <v>45919.09375</v>
       </c>
       <c r="B107">
-        <v>351</v>
+        <v>355</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" s="2">
-        <v>45918.10416666666</v>
+        <v>45919.10416666666</v>
       </c>
       <c r="B108">
-        <v>353</v>
+        <v>356</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" s="2">
-        <v>45918.11458333334</v>
+        <v>45919.11458333334</v>
       </c>
       <c r="B109">
-        <v>351</v>
+        <v>355</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" s="2">
-        <v>45918.125</v>
+        <v>45919.125</v>
       </c>
       <c r="B110">
-        <v>353</v>
+        <v>355</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" s="2">
-        <v>45918.13541666666</v>
+        <v>45919.13541666666</v>
       </c>
       <c r="B111">
-        <v>351</v>
+        <v>355</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112" s="2">
-        <v>45918.14583333334</v>
+        <v>45919.14583333334</v>
       </c>
       <c r="B112">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" s="2">
-        <v>45918.15625</v>
+        <v>45919.15625</v>
       </c>
       <c r="B113">
-        <v>351</v>
+        <v>354</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" s="2">
-        <v>45918.16666666666</v>
+        <v>45919.16666666666</v>
       </c>
       <c r="B114">
-        <v>356</v>
+        <v>376</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" s="2">
-        <v>45918.17708333334</v>
+        <v>45919.17708333334</v>
       </c>
       <c r="B115">
-        <v>356</v>
+        <v>385</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" s="2">
-        <v>45918.1875</v>
+        <v>45919.1875</v>
       </c>
       <c r="B116">
-        <v>355</v>
+        <v>387</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117" s="2">
-        <v>45918.19791666666</v>
+        <v>45919.19791666666</v>
       </c>
       <c r="B117">
-        <v>361</v>
+        <v>393</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" s="2">
-        <v>45918.20833333334</v>
+        <v>45919.20833333334</v>
       </c>
       <c r="B118">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" s="2">
-        <v>45918.21875</v>
+        <v>45919.21875</v>
       </c>
       <c r="B119">
-        <v>463</v>
+        <v>475</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" s="2">
-        <v>45918.22916666666</v>
+        <v>45919.22916666666</v>
       </c>
       <c r="B120">
-        <v>463</v>
+        <v>478</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" s="2">
-        <v>45918.23958333334</v>
+        <v>45919.23958333334</v>
       </c>
       <c r="B121">
-        <v>467</v>
+        <v>477</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" s="2">
-        <v>45918.25</v>
+        <v>45919.25</v>
       </c>
       <c r="B122">
-        <v>505</v>
+        <v>509</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123" s="2">
-        <v>45918.26041666666</v>
+        <v>45919.26041666666</v>
       </c>
       <c r="B123">
-        <v>501</v>
+        <v>510</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" s="2">
-        <v>45918.27083333334</v>
+        <v>45919.27083333334</v>
       </c>
       <c r="B124">
-        <v>502</v>
+        <v>509</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" s="2">
-        <v>45918.28125</v>
+        <v>45919.28125</v>
       </c>
       <c r="B125">
-        <v>503</v>
+        <v>507</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" s="2">
-        <v>45918.29166666666</v>
+        <v>45919.29166666666</v>
       </c>
       <c r="B126">
-        <v>411</v>
+        <v>536</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127" s="2">
-        <v>45918.30208333334</v>
+        <v>45919.30208333334</v>
       </c>
       <c r="B127">
-        <v>391</v>
+        <v>523</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128" s="2">
-        <v>45918.3125</v>
+        <v>45919.3125</v>
       </c>
       <c r="B128">
-        <v>390</v>
+        <v>510</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" s="2">
-        <v>45918.32291666666</v>
+        <v>45919.32291666666</v>
       </c>
       <c r="B129">
-        <v>373</v>
+        <v>501</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" s="2">
-        <v>45918.33333333334</v>
+        <v>45919.33333333334</v>
       </c>
       <c r="B130">
-        <v>399</v>
+        <v>503</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" s="2">
-        <v>45918.34375</v>
+        <v>45919.34375</v>
       </c>
       <c r="B131">
-        <v>373</v>
+        <v>468</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132" s="2">
-        <v>45918.35416666666</v>
+        <v>45919.35416666666</v>
       </c>
       <c r="B132">
-        <v>371</v>
+        <v>470</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" s="2">
-        <v>45918.36458333334</v>
+        <v>45919.36458333334</v>
       </c>
       <c r="B133">
-        <v>366</v>
+        <v>434</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134" s="2">
-        <v>45918.375</v>
+        <v>45919.375</v>
       </c>
       <c r="B134">
-        <v>150</v>
+        <v>366</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135" s="2">
-        <v>45918.38541666666</v>
+        <v>45919.38541666666</v>
       </c>
       <c r="B135">
-        <v>100</v>
+        <v>358</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136" s="2">
-        <v>45918.39583333334</v>
+        <v>45919.39583333334</v>
       </c>
       <c r="B136">
-        <v>84</v>
+        <v>354</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137" s="2">
-        <v>45918.40625</v>
+        <v>45919.40625</v>
       </c>
       <c r="B137">
-        <v>74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:2">
       <c r="A138" s="2">
-        <v>45918.41666666666</v>
+        <v>45919.41666666666</v>
       </c>
       <c r="B138">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:2">
       <c r="A139" s="2">
-        <v>45918.42708333334</v>
+        <v>45919.42708333334</v>
       </c>
       <c r="B139">
         <v>0</v>
@@ -1501,7 +1501,7 @@
     </row>
     <row r="140" spans="1:2">
       <c r="A140" s="2">
-        <v>45918.4375</v>
+        <v>45919.4375</v>
       </c>
       <c r="B140">
         <v>0</v>
@@ -1509,7 +1509,7 @@
     </row>
     <row r="141" spans="1:2">
       <c r="A141" s="2">
-        <v>45918.44791666666</v>
+        <v>45919.44791666666</v>
       </c>
       <c r="B141">
         <v>0</v>
@@ -1517,7 +1517,7 @@
     </row>
     <row r="142" spans="1:2">
       <c r="A142" s="2">
-        <v>45918.45833333334</v>
+        <v>45919.45833333334</v>
       </c>
       <c r="B142">
         <v>0</v>
@@ -1525,7 +1525,7 @@
     </row>
     <row r="143" spans="1:2">
       <c r="A143" s="2">
-        <v>45918.46875</v>
+        <v>45919.46875</v>
       </c>
       <c r="B143">
         <v>0</v>
@@ -1533,7 +1533,7 @@
     </row>
     <row r="144" spans="1:2">
       <c r="A144" s="2">
-        <v>45918.47916666666</v>
+        <v>45919.47916666666</v>
       </c>
       <c r="B144">
         <v>0</v>
@@ -1541,7 +1541,7 @@
     </row>
     <row r="145" spans="1:2">
       <c r="A145" s="2">
-        <v>45918.48958333334</v>
+        <v>45919.48958333334</v>
       </c>
       <c r="B145">
         <v>0</v>
@@ -1549,7 +1549,7 @@
     </row>
     <row r="146" spans="1:2">
       <c r="A146" s="2">
-        <v>45918.5</v>
+        <v>45919.5</v>
       </c>
       <c r="B146">
         <v>0</v>
@@ -1557,7 +1557,7 @@
     </row>
     <row r="147" spans="1:2">
       <c r="A147" s="2">
-        <v>45918.51041666666</v>
+        <v>45919.51041666666</v>
       </c>
       <c r="B147">
         <v>0</v>
@@ -1565,7 +1565,7 @@
     </row>
     <row r="148" spans="1:2">
       <c r="A148" s="2">
-        <v>45918.52083333334</v>
+        <v>45919.52083333334</v>
       </c>
       <c r="B148">
         <v>0</v>
@@ -1573,7 +1573,7 @@
     </row>
     <row r="149" spans="1:2">
       <c r="A149" s="2">
-        <v>45918.53125</v>
+        <v>45919.53125</v>
       </c>
       <c r="B149">
         <v>0</v>
@@ -1581,7 +1581,7 @@
     </row>
     <row r="150" spans="1:2">
       <c r="A150" s="2">
-        <v>45918.54166666666</v>
+        <v>45919.54166666666</v>
       </c>
       <c r="B150">
         <v>0</v>
@@ -1589,7 +1589,7 @@
     </row>
     <row r="151" spans="1:2">
       <c r="A151" s="2">
-        <v>45918.55208333334</v>
+        <v>45919.55208333334</v>
       </c>
       <c r="B151">
         <v>0</v>
@@ -1597,7 +1597,7 @@
     </row>
     <row r="152" spans="1:2">
       <c r="A152" s="2">
-        <v>45918.5625</v>
+        <v>45919.5625</v>
       </c>
       <c r="B152">
         <v>0</v>
@@ -1605,7 +1605,7 @@
     </row>
     <row r="153" spans="1:2">
       <c r="A153" s="2">
-        <v>45918.57291666666</v>
+        <v>45919.57291666666</v>
       </c>
       <c r="B153">
         <v>0</v>
@@ -1613,7 +1613,7 @@
     </row>
     <row r="154" spans="1:2">
       <c r="A154" s="2">
-        <v>45918.58333333334</v>
+        <v>45919.58333333334</v>
       </c>
       <c r="B154">
         <v>0</v>
@@ -1621,7 +1621,7 @@
     </row>
     <row r="155" spans="1:2">
       <c r="A155" s="2">
-        <v>45918.59375</v>
+        <v>45919.59375</v>
       </c>
       <c r="B155">
         <v>0</v>
@@ -1629,7 +1629,7 @@
     </row>
     <row r="156" spans="1:2">
       <c r="A156" s="2">
-        <v>45918.60416666666</v>
+        <v>45919.60416666666</v>
       </c>
       <c r="B156">
         <v>0</v>
@@ -1637,7 +1637,7 @@
     </row>
     <row r="157" spans="1:2">
       <c r="A157" s="2">
-        <v>45918.61458333334</v>
+        <v>45919.61458333334</v>
       </c>
       <c r="B157">
         <v>0</v>
@@ -1645,7 +1645,7 @@
     </row>
     <row r="158" spans="1:2">
       <c r="A158" s="2">
-        <v>45918.625</v>
+        <v>45919.625</v>
       </c>
       <c r="B158">
         <v>0</v>
@@ -1653,7 +1653,7 @@
     </row>
     <row r="159" spans="1:2">
       <c r="A159" s="2">
-        <v>45918.63541666666</v>
+        <v>45919.63541666666</v>
       </c>
       <c r="B159">
         <v>0</v>
@@ -1661,7 +1661,7 @@
     </row>
     <row r="160" spans="1:2">
       <c r="A160" s="2">
-        <v>45918.64583333334</v>
+        <v>45919.64583333334</v>
       </c>
       <c r="B160">
         <v>0</v>
@@ -1669,7 +1669,7 @@
     </row>
     <row r="161" spans="1:2">
       <c r="A161" s="2">
-        <v>45918.65625</v>
+        <v>45919.65625</v>
       </c>
       <c r="B161">
         <v>0</v>
@@ -1677,7 +1677,7 @@
     </row>
     <row r="162" spans="1:2">
       <c r="A162" s="2">
-        <v>45918.66666666666</v>
+        <v>45919.66666666666</v>
       </c>
       <c r="B162">
         <v>0</v>
@@ -1685,7 +1685,7 @@
     </row>
     <row r="163" spans="1:2">
       <c r="A163" s="2">
-        <v>45918.67708333334</v>
+        <v>45919.67708333334</v>
       </c>
       <c r="B163">
         <v>0</v>
@@ -1693,7 +1693,7 @@
     </row>
     <row r="164" spans="1:2">
       <c r="A164" s="2">
-        <v>45918.6875</v>
+        <v>45919.6875</v>
       </c>
       <c r="B164">
         <v>0</v>
@@ -1701,7 +1701,7 @@
     </row>
     <row r="165" spans="1:2">
       <c r="A165" s="2">
-        <v>45918.69791666666</v>
+        <v>45919.69791666666</v>
       </c>
       <c r="B165">
         <v>0</v>
@@ -1709,7 +1709,7 @@
     </row>
     <row r="166" spans="1:2">
       <c r="A166" s="2">
-        <v>45918.70833333334</v>
+        <v>45919.70833333334</v>
       </c>
       <c r="B166">
         <v>0</v>
@@ -1717,7 +1717,7 @@
     </row>
     <row r="167" spans="1:2">
       <c r="A167" s="2">
-        <v>45918.71875</v>
+        <v>45919.71875</v>
       </c>
       <c r="B167">
         <v>0</v>
@@ -1725,7 +1725,7 @@
     </row>
     <row r="168" spans="1:2">
       <c r="A168" s="2">
-        <v>45918.72916666666</v>
+        <v>45919.72916666666</v>
       </c>
       <c r="B168">
         <v>0</v>
@@ -1733,7 +1733,7 @@
     </row>
     <row r="169" spans="1:2">
       <c r="A169" s="2">
-        <v>45918.73958333334</v>
+        <v>45919.73958333334</v>
       </c>
       <c r="B169">
         <v>0</v>
@@ -1741,7 +1741,7 @@
     </row>
     <row r="170" spans="1:2">
       <c r="A170" s="2">
-        <v>45918.75</v>
+        <v>45919.75</v>
       </c>
       <c r="B170">
         <v>0</v>
@@ -1749,7 +1749,7 @@
     </row>
     <row r="171" spans="1:2">
       <c r="A171" s="2">
-        <v>45918.76041666666</v>
+        <v>45919.76041666666</v>
       </c>
       <c r="B171">
         <v>0</v>
@@ -1757,7 +1757,7 @@
     </row>
     <row r="172" spans="1:2">
       <c r="A172" s="2">
-        <v>45918.77083333334</v>
+        <v>45919.77083333334</v>
       </c>
       <c r="B172">
         <v>0</v>
@@ -1765,7 +1765,7 @@
     </row>
     <row r="173" spans="1:2">
       <c r="A173" s="2">
-        <v>45918.78125</v>
+        <v>45919.78125</v>
       </c>
       <c r="B173">
         <v>0</v>
@@ -1773,7 +1773,7 @@
     </row>
     <row r="174" spans="1:2">
       <c r="A174" s="2">
-        <v>45918.79166666666</v>
+        <v>45919.79166666666</v>
       </c>
       <c r="B174">
         <v>0</v>
@@ -1781,7 +1781,7 @@
     </row>
     <row r="175" spans="1:2">
       <c r="A175" s="2">
-        <v>45918.80208333334</v>
+        <v>45919.80208333334</v>
       </c>
       <c r="B175">
         <v>0</v>
@@ -1789,7 +1789,7 @@
     </row>
     <row r="176" spans="1:2">
       <c r="A176" s="2">
-        <v>45918.8125</v>
+        <v>45919.8125</v>
       </c>
       <c r="B176">
         <v>0</v>
@@ -1797,7 +1797,7 @@
     </row>
     <row r="177" spans="1:2">
       <c r="A177" s="2">
-        <v>45918.82291666666</v>
+        <v>45919.82291666666</v>
       </c>
       <c r="B177">
         <v>0</v>
@@ -1805,7 +1805,7 @@
     </row>
     <row r="178" spans="1:2">
       <c r="A178" s="2">
-        <v>45918.83333333334</v>
+        <v>45919.83333333334</v>
       </c>
       <c r="B178">
         <v>0</v>
@@ -1813,7 +1813,7 @@
     </row>
     <row r="179" spans="1:2">
       <c r="A179" s="2">
-        <v>45918.84375</v>
+        <v>45919.84375</v>
       </c>
       <c r="B179">
         <v>0</v>
@@ -1821,7 +1821,7 @@
     </row>
     <row r="180" spans="1:2">
       <c r="A180" s="2">
-        <v>45918.85416666666</v>
+        <v>45919.85416666666</v>
       </c>
       <c r="B180">
         <v>0</v>
@@ -1829,7 +1829,7 @@
     </row>
     <row r="181" spans="1:2">
       <c r="A181" s="2">
-        <v>45918.86458333334</v>
+        <v>45919.86458333334</v>
       </c>
       <c r="B181">
         <v>0</v>
@@ -1837,7 +1837,7 @@
     </row>
     <row r="182" spans="1:2">
       <c r="A182" s="2">
-        <v>45918.875</v>
+        <v>45919.875</v>
       </c>
       <c r="B182">
         <v>0</v>
@@ -1845,7 +1845,7 @@
     </row>
     <row r="183" spans="1:2">
       <c r="A183" s="2">
-        <v>45918.88541666666</v>
+        <v>45919.88541666666</v>
       </c>
       <c r="B183">
         <v>0</v>
@@ -1853,7 +1853,7 @@
     </row>
     <row r="184" spans="1:2">
       <c r="A184" s="2">
-        <v>45918.89583333334</v>
+        <v>45919.89583333334</v>
       </c>
       <c r="B184">
         <v>0</v>
@@ -1861,7 +1861,7 @@
     </row>
     <row r="185" spans="1:2">
       <c r="A185" s="2">
-        <v>45918.90625</v>
+        <v>45919.90625</v>
       </c>
       <c r="B185">
         <v>0</v>
@@ -1869,7 +1869,7 @@
     </row>
     <row r="186" spans="1:2">
       <c r="A186" s="2">
-        <v>45918.91666666666</v>
+        <v>45919.91666666666</v>
       </c>
       <c r="B186">
         <v>0</v>
@@ -1877,7 +1877,7 @@
     </row>
     <row r="187" spans="1:2">
       <c r="A187" s="2">
-        <v>45918.92708333334</v>
+        <v>45919.92708333334</v>
       </c>
       <c r="B187">
         <v>0</v>
@@ -1885,7 +1885,7 @@
     </row>
     <row r="188" spans="1:2">
       <c r="A188" s="2">
-        <v>45918.9375</v>
+        <v>45919.9375</v>
       </c>
       <c r="B188">
         <v>0</v>
@@ -1893,7 +1893,7 @@
     </row>
     <row r="189" spans="1:2">
       <c r="A189" s="2">
-        <v>45918.94791666666</v>
+        <v>45919.94791666666</v>
       </c>
       <c r="B189">
         <v>0</v>
@@ -1901,7 +1901,7 @@
     </row>
     <row r="190" spans="1:2">
       <c r="A190" s="2">
-        <v>45918.95833333334</v>
+        <v>45919.95833333334</v>
       </c>
       <c r="B190">
         <v>0</v>
@@ -1909,7 +1909,7 @@
     </row>
     <row r="191" spans="1:2">
       <c r="A191" s="2">
-        <v>45918.96875</v>
+        <v>45919.96875</v>
       </c>
       <c r="B191">
         <v>0</v>
@@ -1917,7 +1917,7 @@
     </row>
     <row r="192" spans="1:2">
       <c r="A192" s="2">
-        <v>45918.97916666666</v>
+        <v>45919.97916666666</v>
       </c>
       <c r="B192">
         <v>0</v>
@@ -1925,7 +1925,7 @@
     </row>
     <row r="193" spans="1:2">
       <c r="A193" s="2">
-        <v>45918.98958333334</v>
+        <v>45919.98958333334</v>
       </c>
       <c r="B193">
         <v>0</v>

--- a/data_fetching/Entsoe/Actual_Production_Hydro_Water_Reservoir.xlsx
+++ b/data_fetching/Entsoe/Actual_Production_Hydro_Water_Reservoir.xlsx
@@ -397,1087 +397,1087 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2">
-        <v>45918</v>
+        <v>45922</v>
       </c>
       <c r="B2">
-        <v>365</v>
+        <v>392</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2">
-        <v>45918.01041666666</v>
+        <v>45922.01041666666</v>
       </c>
       <c r="B3">
-        <v>362</v>
+        <v>390</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2">
-        <v>45918.02083333334</v>
+        <v>45922.02083333334</v>
       </c>
       <c r="B4">
-        <v>360</v>
+        <v>391</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2">
-        <v>45918.03125</v>
+        <v>45922.03125</v>
       </c>
       <c r="B5">
-        <v>356</v>
+        <v>390</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2">
-        <v>45918.04166666666</v>
+        <v>45922.04166666666</v>
       </c>
       <c r="B6">
-        <v>360</v>
+        <v>392</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2">
-        <v>45918.05208333334</v>
+        <v>45922.05208333334</v>
       </c>
       <c r="B7">
-        <v>358</v>
+        <v>390</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2">
-        <v>45918.0625</v>
+        <v>45922.0625</v>
       </c>
       <c r="B8">
-        <v>359</v>
+        <v>391</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2">
-        <v>45918.07291666666</v>
+        <v>45922.07291666666</v>
       </c>
       <c r="B9">
-        <v>358</v>
+        <v>389</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2">
-        <v>45918.08333333334</v>
+        <v>45922.08333333334</v>
       </c>
       <c r="B10">
-        <v>356</v>
+        <v>392</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2">
-        <v>45918.09375</v>
+        <v>45922.09375</v>
       </c>
       <c r="B11">
-        <v>351</v>
+        <v>390</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2">
-        <v>45918.10416666666</v>
+        <v>45922.10416666666</v>
       </c>
       <c r="B12">
-        <v>353</v>
+        <v>391</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2">
-        <v>45918.11458333334</v>
+        <v>45922.11458333334</v>
       </c>
       <c r="B13">
-        <v>351</v>
+        <v>390</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2">
-        <v>45918.125</v>
+        <v>45922.125</v>
       </c>
       <c r="B14">
-        <v>353</v>
+        <v>390</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2">
-        <v>45918.13541666666</v>
+        <v>45922.13541666666</v>
       </c>
       <c r="B15">
-        <v>351</v>
+        <v>390</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2">
-        <v>45918.14583333334</v>
+        <v>45922.14583333334</v>
       </c>
       <c r="B16">
-        <v>352</v>
+        <v>391</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2">
-        <v>45918.15625</v>
+        <v>45922.15625</v>
       </c>
       <c r="B17">
-        <v>351</v>
+        <v>391</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2">
-        <v>45918.16666666666</v>
+        <v>45922.16666666666</v>
       </c>
       <c r="B18">
-        <v>356</v>
+        <v>391</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2">
-        <v>45918.17708333334</v>
+        <v>45922.17708333334</v>
       </c>
       <c r="B19">
-        <v>356</v>
+        <v>391</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2">
-        <v>45918.1875</v>
+        <v>45922.1875</v>
       </c>
       <c r="B20">
-        <v>355</v>
+        <v>390</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2">
-        <v>45918.19791666666</v>
+        <v>45922.19791666666</v>
       </c>
       <c r="B21">
-        <v>361</v>
+        <v>394</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2">
-        <v>45918.20833333334</v>
+        <v>45922.20833333334</v>
       </c>
       <c r="B22">
-        <v>460</v>
+        <v>403</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2">
-        <v>45918.21875</v>
+        <v>45922.21875</v>
       </c>
       <c r="B23">
-        <v>463</v>
+        <v>404</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2">
-        <v>45918.22916666666</v>
+        <v>45922.22916666666</v>
       </c>
       <c r="B24">
-        <v>463</v>
+        <v>412</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2">
-        <v>45918.23958333334</v>
+        <v>45922.23958333334</v>
       </c>
       <c r="B25">
-        <v>467</v>
+        <v>422</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2">
-        <v>45918.25</v>
+        <v>45922.25</v>
       </c>
       <c r="B26">
-        <v>505</v>
+        <v>562</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2">
-        <v>45918.26041666666</v>
+        <v>45922.26041666666</v>
       </c>
       <c r="B27">
-        <v>501</v>
+        <v>562</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2">
-        <v>45918.27083333334</v>
+        <v>45922.27083333334</v>
       </c>
       <c r="B28">
-        <v>502</v>
+        <v>569</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2">
-        <v>45918.28125</v>
+        <v>45922.28125</v>
       </c>
       <c r="B29">
-        <v>503</v>
+        <v>557</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2">
-        <v>45918.29166666666</v>
+        <v>45922.29166666666</v>
       </c>
       <c r="B30">
-        <v>411</v>
+        <v>578</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2">
-        <v>45918.30208333334</v>
+        <v>45922.30208333334</v>
       </c>
       <c r="B31">
-        <v>391</v>
+        <v>566</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2">
-        <v>45918.3125</v>
+        <v>45922.3125</v>
       </c>
       <c r="B32">
-        <v>390</v>
+        <v>530</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2">
-        <v>45918.32291666666</v>
+        <v>45922.32291666666</v>
       </c>
       <c r="B33">
-        <v>373</v>
+        <v>570</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2">
-        <v>45918.33333333334</v>
+        <v>45922.33333333334</v>
       </c>
       <c r="B34">
-        <v>399</v>
+        <v>404</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="2">
-        <v>45918.34375</v>
+        <v>45922.34375</v>
       </c>
       <c r="B35">
-        <v>373</v>
+        <v>351</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="2">
-        <v>45918.35416666666</v>
+        <v>45922.35416666666</v>
       </c>
       <c r="B36">
-        <v>371</v>
+        <v>358</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="2">
-        <v>45918.36458333334</v>
+        <v>45922.36458333334</v>
       </c>
       <c r="B37">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="2">
-        <v>45918.375</v>
+        <v>45922.375</v>
       </c>
       <c r="B38">
-        <v>150</v>
+        <v>266</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="2">
-        <v>45918.38541666666</v>
+        <v>45922.38541666666</v>
       </c>
       <c r="B39">
-        <v>100</v>
+        <v>260</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="2">
-        <v>45918.39583333334</v>
+        <v>45922.39583333334</v>
       </c>
       <c r="B40">
-        <v>84</v>
+        <v>252</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="2">
-        <v>45918.40625</v>
+        <v>45922.40625</v>
       </c>
       <c r="B41">
-        <v>74</v>
+        <v>247</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="2">
-        <v>45918.41666666666</v>
+        <v>45922.41666666666</v>
       </c>
       <c r="B42">
-        <v>50</v>
+        <v>186</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="2">
-        <v>45918.42708333334</v>
+        <v>45922.42708333334</v>
       </c>
       <c r="B43">
-        <v>39</v>
+        <v>165</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="2">
-        <v>45918.4375</v>
+        <v>45922.4375</v>
       </c>
       <c r="B44">
-        <v>38</v>
+        <v>158</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="2">
-        <v>45918.44791666666</v>
+        <v>45922.44791666666</v>
       </c>
       <c r="B45">
-        <v>32</v>
+        <v>177</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="2">
-        <v>45918.45833333334</v>
+        <v>45922.45833333334</v>
       </c>
       <c r="B46">
-        <v>93</v>
+        <v>156</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="2">
-        <v>45918.46875</v>
+        <v>45922.46875</v>
       </c>
       <c r="B47">
-        <v>89</v>
+        <v>150</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="2">
-        <v>45918.47916666666</v>
+        <v>45922.47916666666</v>
       </c>
       <c r="B48">
-        <v>83</v>
+        <v>170</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="2">
-        <v>45918.48958333334</v>
+        <v>45922.48958333334</v>
       </c>
       <c r="B49">
-        <v>84</v>
+        <v>162</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="2">
-        <v>45918.5</v>
+        <v>45922.5</v>
       </c>
       <c r="B50">
-        <v>66</v>
+        <v>173</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="2">
-        <v>45918.51041666666</v>
+        <v>45922.51041666666</v>
       </c>
       <c r="B51">
-        <v>80</v>
+        <v>165</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="2">
-        <v>45918.52083333334</v>
+        <v>45922.52083333334</v>
       </c>
       <c r="B52">
-        <v>86</v>
+        <v>157</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="2">
-        <v>45918.53125</v>
+        <v>45922.53125</v>
       </c>
       <c r="B53">
-        <v>82</v>
+        <v>166</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="2">
-        <v>45918.54166666666</v>
+        <v>45922.54166666666</v>
       </c>
       <c r="B54">
-        <v>45</v>
+        <v>172</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="2">
-        <v>45918.55208333334</v>
+        <v>45922.55208333334</v>
       </c>
       <c r="B55">
-        <v>66</v>
+        <v>179</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="2">
-        <v>45918.5625</v>
+        <v>45922.5625</v>
       </c>
       <c r="B56">
-        <v>66</v>
+        <v>186</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="2">
-        <v>45918.57291666666</v>
+        <v>45922.57291666666</v>
       </c>
       <c r="B57">
-        <v>65</v>
+        <v>191</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="2">
-        <v>45918.58333333334</v>
+        <v>45922.58333333334</v>
       </c>
       <c r="B58">
-        <v>66</v>
+        <v>156</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="2">
-        <v>45918.59375</v>
+        <v>45922.59375</v>
       </c>
       <c r="B59">
-        <v>67</v>
+        <v>180</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="2">
-        <v>45918.60416666666</v>
+        <v>45922.60416666666</v>
       </c>
       <c r="B60">
-        <v>68</v>
+        <v>195</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="2">
-        <v>45918.61458333334</v>
+        <v>45922.61458333334</v>
       </c>
       <c r="B61">
-        <v>67</v>
+        <v>190</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="2">
-        <v>45918.625</v>
+        <v>45922.625</v>
       </c>
       <c r="B62">
-        <v>84</v>
+        <v>301</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="2">
-        <v>45918.63541666666</v>
+        <v>45922.63541666666</v>
       </c>
       <c r="B63">
-        <v>89</v>
+        <v>319</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="2">
-        <v>45918.64583333334</v>
+        <v>45922.64583333334</v>
       </c>
       <c r="B64">
-        <v>90</v>
+        <v>322</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="2">
-        <v>45918.65625</v>
+        <v>45922.65625</v>
       </c>
       <c r="B65">
-        <v>105</v>
+        <v>358</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="2">
-        <v>45918.66666666666</v>
+        <v>45922.66666666666</v>
       </c>
       <c r="B66">
-        <v>464</v>
+        <v>453</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="2">
-        <v>45918.67708333334</v>
+        <v>45922.67708333334</v>
       </c>
       <c r="B67">
-        <v>492</v>
+        <v>467</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="2">
-        <v>45918.6875</v>
+        <v>45922.6875</v>
       </c>
       <c r="B68">
-        <v>499</v>
+        <v>471</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="2">
-        <v>45918.69791666666</v>
+        <v>45922.69791666666</v>
       </c>
       <c r="B69">
-        <v>523</v>
+        <v>502</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="2">
-        <v>45918.70833333334</v>
+        <v>45922.70833333334</v>
       </c>
       <c r="B70">
-        <v>621</v>
+        <v>751</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="2">
-        <v>45918.71875</v>
+        <v>45922.71875</v>
       </c>
       <c r="B71">
-        <v>650</v>
+        <v>766</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="2">
-        <v>45918.72916666666</v>
+        <v>45922.72916666666</v>
       </c>
       <c r="B72">
-        <v>652</v>
+        <v>767</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="2">
-        <v>45918.73958333334</v>
+        <v>45922.73958333334</v>
       </c>
       <c r="B73">
-        <v>664</v>
+        <v>790</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="2">
-        <v>45918.75</v>
+        <v>45922.75</v>
       </c>
       <c r="B74">
-        <v>810</v>
+        <v>846</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="2">
-        <v>45918.76041666666</v>
+        <v>45922.76041666666</v>
       </c>
       <c r="B75">
-        <v>819</v>
+        <v>863</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="2">
-        <v>45918.77083333334</v>
+        <v>45922.77083333334</v>
       </c>
       <c r="B76">
-        <v>819</v>
+        <v>863</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="2">
-        <v>45918.78125</v>
+        <v>45922.78125</v>
       </c>
       <c r="B77">
-        <v>836</v>
+        <v>946</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="2">
-        <v>45918.79166666666</v>
+        <v>45922.79166666666</v>
       </c>
       <c r="B78">
-        <v>876</v>
+        <v>907</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="2">
-        <v>45918.80208333334</v>
+        <v>45922.80208333334</v>
       </c>
       <c r="B79">
-        <v>885</v>
+        <v>878</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="2">
-        <v>45918.8125</v>
+        <v>45922.8125</v>
       </c>
       <c r="B80">
-        <v>882</v>
+        <v>870</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="2">
-        <v>45918.82291666666</v>
+        <v>45922.82291666666</v>
       </c>
       <c r="B81">
-        <v>881</v>
+        <v>867</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="2">
-        <v>45918.83333333334</v>
+        <v>45922.83333333334</v>
       </c>
       <c r="B82">
-        <v>869</v>
+        <v>848</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="2">
-        <v>45918.84375</v>
+        <v>45922.84375</v>
       </c>
       <c r="B83">
-        <v>864</v>
+        <v>850</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="2">
-        <v>45918.85416666666</v>
+        <v>45922.85416666666</v>
       </c>
       <c r="B84">
-        <v>860</v>
+        <v>851</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="2">
-        <v>45918.86458333334</v>
+        <v>45922.86458333334</v>
       </c>
       <c r="B85">
-        <v>863</v>
+        <v>854</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="2">
-        <v>45918.875</v>
+        <v>45922.875</v>
       </c>
       <c r="B86">
-        <v>776</v>
+        <v>742</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="2">
-        <v>45918.88541666666</v>
+        <v>45922.88541666666</v>
       </c>
       <c r="B87">
-        <v>769</v>
+        <v>729</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="2">
-        <v>45918.89583333334</v>
+        <v>45922.89583333334</v>
       </c>
       <c r="B88">
-        <v>770</v>
+        <v>730</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="2">
-        <v>45918.90625</v>
+        <v>45922.90625</v>
       </c>
       <c r="B89">
-        <v>762</v>
+        <v>721</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="2">
-        <v>45918.91666666666</v>
+        <v>45922.91666666666</v>
       </c>
       <c r="B90">
-        <v>462</v>
+        <v>443</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="2">
-        <v>45918.92708333334</v>
+        <v>45922.92708333334</v>
       </c>
       <c r="B91">
-        <v>446</v>
+        <v>432</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="2">
-        <v>45918.9375</v>
+        <v>45922.9375</v>
       </c>
       <c r="B92">
-        <v>448</v>
+        <v>432</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="2">
-        <v>45918.94791666666</v>
+        <v>45922.94791666666</v>
       </c>
       <c r="B93">
-        <v>444</v>
+        <v>429</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="2">
-        <v>45918.95833333334</v>
+        <v>45922.95833333334</v>
       </c>
       <c r="B94">
-        <v>396</v>
+        <v>415</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="2">
-        <v>45918.96875</v>
+        <v>45922.96875</v>
       </c>
       <c r="B95">
-        <v>389</v>
+        <v>414</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="2">
-        <v>45918.97916666666</v>
+        <v>45922.97916666666</v>
       </c>
       <c r="B96">
-        <v>388</v>
+        <v>413</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="2">
-        <v>45918.98958333334</v>
+        <v>45922.98958333334</v>
       </c>
       <c r="B97">
-        <v>385</v>
+        <v>412</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" s="2">
-        <v>45919</v>
+        <v>45923</v>
       </c>
       <c r="B98">
-        <v>350</v>
+        <v>415</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" s="2">
-        <v>45919.01041666666</v>
+        <v>45923.01041666666</v>
       </c>
       <c r="B99">
-        <v>343</v>
+        <v>409</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" s="2">
-        <v>45919.02083333334</v>
+        <v>45923.02083333334</v>
       </c>
       <c r="B100">
-        <v>338</v>
+        <v>410</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" s="2">
-        <v>45919.03125</v>
+        <v>45923.03125</v>
       </c>
       <c r="B101">
-        <v>335</v>
+        <v>409</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" s="2">
-        <v>45919.04166666666</v>
+        <v>45923.04166666666</v>
       </c>
       <c r="B102">
-        <v>342</v>
+        <v>419</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" s="2">
-        <v>45919.05208333334</v>
+        <v>45923.05208333334</v>
       </c>
       <c r="B103">
-        <v>337</v>
+        <v>418</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" s="2">
-        <v>45919.0625</v>
+        <v>45923.0625</v>
       </c>
       <c r="B104">
-        <v>339</v>
+        <v>416</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" s="2">
-        <v>45919.07291666666</v>
+        <v>45923.07291666666</v>
       </c>
       <c r="B105">
-        <v>335</v>
+        <v>414</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" s="2">
-        <v>45919.08333333334</v>
+        <v>45923.08333333334</v>
       </c>
       <c r="B106">
-        <v>355</v>
+        <v>404</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" s="2">
-        <v>45919.09375</v>
+        <v>45923.09375</v>
       </c>
       <c r="B107">
-        <v>355</v>
+        <v>404</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" s="2">
-        <v>45919.10416666666</v>
+        <v>45923.10416666666</v>
       </c>
       <c r="B108">
-        <v>356</v>
+        <v>404</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" s="2">
-        <v>45919.11458333334</v>
+        <v>45923.11458333334</v>
       </c>
       <c r="B109">
-        <v>355</v>
+        <v>405</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" s="2">
-        <v>45919.125</v>
+        <v>45923.125</v>
       </c>
       <c r="B110">
-        <v>355</v>
+        <v>408</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" s="2">
-        <v>45919.13541666666</v>
+        <v>45923.13541666666</v>
       </c>
       <c r="B111">
-        <v>355</v>
+        <v>408</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112" s="2">
-        <v>45919.14583333334</v>
+        <v>45923.14583333334</v>
       </c>
       <c r="B112">
-        <v>353</v>
+        <v>408</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" s="2">
-        <v>45919.15625</v>
+        <v>45923.15625</v>
       </c>
       <c r="B113">
-        <v>354</v>
+        <v>409</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" s="2">
-        <v>45919.16666666666</v>
+        <v>45923.16666666666</v>
       </c>
       <c r="B114">
-        <v>376</v>
+        <v>412</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" s="2">
-        <v>45919.17708333334</v>
+        <v>45923.17708333334</v>
       </c>
       <c r="B115">
-        <v>385</v>
+        <v>413</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" s="2">
-        <v>45919.1875</v>
+        <v>45923.1875</v>
       </c>
       <c r="B116">
-        <v>387</v>
+        <v>417</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117" s="2">
-        <v>45919.19791666666</v>
+        <v>45923.19791666666</v>
       </c>
       <c r="B117">
-        <v>393</v>
+        <v>423</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" s="2">
-        <v>45919.20833333334</v>
+        <v>45923.20833333334</v>
       </c>
       <c r="B118">
-        <v>471</v>
+        <v>439</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" s="2">
-        <v>45919.21875</v>
+        <v>45923.21875</v>
       </c>
       <c r="B119">
-        <v>475</v>
+        <v>440</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" s="2">
-        <v>45919.22916666666</v>
+        <v>45923.22916666666</v>
       </c>
       <c r="B120">
-        <v>478</v>
+        <v>442</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" s="2">
-        <v>45919.23958333334</v>
+        <v>45923.23958333334</v>
       </c>
       <c r="B121">
-        <v>477</v>
+        <v>469</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" s="2">
-        <v>45919.25</v>
+        <v>45923.25</v>
       </c>
       <c r="B122">
-        <v>509</v>
+        <v>752</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123" s="2">
-        <v>45919.26041666666</v>
+        <v>45923.26041666666</v>
       </c>
       <c r="B123">
-        <v>510</v>
+        <v>756</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" s="2">
-        <v>45919.27083333334</v>
+        <v>45923.27083333334</v>
       </c>
       <c r="B124">
-        <v>509</v>
+        <v>770</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" s="2">
-        <v>45919.28125</v>
+        <v>45923.28125</v>
       </c>
       <c r="B125">
-        <v>507</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" s="2">
-        <v>45919.29166666666</v>
+        <v>45923.29166666666</v>
       </c>
       <c r="B126">
-        <v>536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127" s="2">
-        <v>45919.30208333334</v>
+        <v>45923.30208333334</v>
       </c>
       <c r="B127">
-        <v>523</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128" s="2">
-        <v>45919.3125</v>
+        <v>45923.3125</v>
       </c>
       <c r="B128">
-        <v>510</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" s="2">
-        <v>45919.32291666666</v>
+        <v>45923.32291666666</v>
       </c>
       <c r="B129">
-        <v>501</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" s="2">
-        <v>45919.33333333334</v>
+        <v>45923.33333333334</v>
       </c>
       <c r="B130">
-        <v>503</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" s="2">
-        <v>45919.34375</v>
+        <v>45923.34375</v>
       </c>
       <c r="B131">
-        <v>468</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132" s="2">
-        <v>45919.35416666666</v>
+        <v>45923.35416666666</v>
       </c>
       <c r="B132">
-        <v>470</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" s="2">
-        <v>45919.36458333334</v>
+        <v>45923.36458333334</v>
       </c>
       <c r="B133">
-        <v>434</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134" s="2">
-        <v>45919.375</v>
+        <v>45923.375</v>
       </c>
       <c r="B134">
-        <v>366</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135" s="2">
-        <v>45919.38541666666</v>
+        <v>45923.38541666666</v>
       </c>
       <c r="B135">
-        <v>358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136" s="2">
-        <v>45919.39583333334</v>
+        <v>45923.39583333334</v>
       </c>
       <c r="B136">
-        <v>354</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137" s="2">
-        <v>45919.40625</v>
+        <v>45923.40625</v>
       </c>
       <c r="B137">
         <v>0</v>
@@ -1485,7 +1485,7 @@
     </row>
     <row r="138" spans="1:2">
       <c r="A138" s="2">
-        <v>45919.41666666666</v>
+        <v>45923.41666666666</v>
       </c>
       <c r="B138">
         <v>0</v>
@@ -1493,7 +1493,7 @@
     </row>
     <row r="139" spans="1:2">
       <c r="A139" s="2">
-        <v>45919.42708333334</v>
+        <v>45923.42708333334</v>
       </c>
       <c r="B139">
         <v>0</v>
@@ -1501,7 +1501,7 @@
     </row>
     <row r="140" spans="1:2">
       <c r="A140" s="2">
-        <v>45919.4375</v>
+        <v>45923.4375</v>
       </c>
       <c r="B140">
         <v>0</v>
@@ -1509,7 +1509,7 @@
     </row>
     <row r="141" spans="1:2">
       <c r="A141" s="2">
-        <v>45919.44791666666</v>
+        <v>45923.44791666666</v>
       </c>
       <c r="B141">
         <v>0</v>
@@ -1517,7 +1517,7 @@
     </row>
     <row r="142" spans="1:2">
       <c r="A142" s="2">
-        <v>45919.45833333334</v>
+        <v>45923.45833333334</v>
       </c>
       <c r="B142">
         <v>0</v>
@@ -1525,7 +1525,7 @@
     </row>
     <row r="143" spans="1:2">
       <c r="A143" s="2">
-        <v>45919.46875</v>
+        <v>45923.46875</v>
       </c>
       <c r="B143">
         <v>0</v>
@@ -1533,7 +1533,7 @@
     </row>
     <row r="144" spans="1:2">
       <c r="A144" s="2">
-        <v>45919.47916666666</v>
+        <v>45923.47916666666</v>
       </c>
       <c r="B144">
         <v>0</v>
@@ -1541,7 +1541,7 @@
     </row>
     <row r="145" spans="1:2">
       <c r="A145" s="2">
-        <v>45919.48958333334</v>
+        <v>45923.48958333334</v>
       </c>
       <c r="B145">
         <v>0</v>
@@ -1549,7 +1549,7 @@
     </row>
     <row r="146" spans="1:2">
       <c r="A146" s="2">
-        <v>45919.5</v>
+        <v>45923.5</v>
       </c>
       <c r="B146">
         <v>0</v>
@@ -1557,7 +1557,7 @@
     </row>
     <row r="147" spans="1:2">
       <c r="A147" s="2">
-        <v>45919.51041666666</v>
+        <v>45923.51041666666</v>
       </c>
       <c r="B147">
         <v>0</v>
@@ -1565,7 +1565,7 @@
     </row>
     <row r="148" spans="1:2">
       <c r="A148" s="2">
-        <v>45919.52083333334</v>
+        <v>45923.52083333334</v>
       </c>
       <c r="B148">
         <v>0</v>
@@ -1573,7 +1573,7 @@
     </row>
     <row r="149" spans="1:2">
       <c r="A149" s="2">
-        <v>45919.53125</v>
+        <v>45923.53125</v>
       </c>
       <c r="B149">
         <v>0</v>
@@ -1581,7 +1581,7 @@
     </row>
     <row r="150" spans="1:2">
       <c r="A150" s="2">
-        <v>45919.54166666666</v>
+        <v>45923.54166666666</v>
       </c>
       <c r="B150">
         <v>0</v>
@@ -1589,7 +1589,7 @@
     </row>
     <row r="151" spans="1:2">
       <c r="A151" s="2">
-        <v>45919.55208333334</v>
+        <v>45923.55208333334</v>
       </c>
       <c r="B151">
         <v>0</v>
@@ -1597,7 +1597,7 @@
     </row>
     <row r="152" spans="1:2">
       <c r="A152" s="2">
-        <v>45919.5625</v>
+        <v>45923.5625</v>
       </c>
       <c r="B152">
         <v>0</v>
@@ -1605,7 +1605,7 @@
     </row>
     <row r="153" spans="1:2">
       <c r="A153" s="2">
-        <v>45919.57291666666</v>
+        <v>45923.57291666666</v>
       </c>
       <c r="B153">
         <v>0</v>
@@ -1613,7 +1613,7 @@
     </row>
     <row r="154" spans="1:2">
       <c r="A154" s="2">
-        <v>45919.58333333334</v>
+        <v>45923.58333333334</v>
       </c>
       <c r="B154">
         <v>0</v>
@@ -1621,7 +1621,7 @@
     </row>
     <row r="155" spans="1:2">
       <c r="A155" s="2">
-        <v>45919.59375</v>
+        <v>45923.59375</v>
       </c>
       <c r="B155">
         <v>0</v>
@@ -1629,7 +1629,7 @@
     </row>
     <row r="156" spans="1:2">
       <c r="A156" s="2">
-        <v>45919.60416666666</v>
+        <v>45923.60416666666</v>
       </c>
       <c r="B156">
         <v>0</v>
@@ -1637,7 +1637,7 @@
     </row>
     <row r="157" spans="1:2">
       <c r="A157" s="2">
-        <v>45919.61458333334</v>
+        <v>45923.61458333334</v>
       </c>
       <c r="B157">
         <v>0</v>
@@ -1645,7 +1645,7 @@
     </row>
     <row r="158" spans="1:2">
       <c r="A158" s="2">
-        <v>45919.625</v>
+        <v>45923.625</v>
       </c>
       <c r="B158">
         <v>0</v>
@@ -1653,7 +1653,7 @@
     </row>
     <row r="159" spans="1:2">
       <c r="A159" s="2">
-        <v>45919.63541666666</v>
+        <v>45923.63541666666</v>
       </c>
       <c r="B159">
         <v>0</v>
@@ -1661,7 +1661,7 @@
     </row>
     <row r="160" spans="1:2">
       <c r="A160" s="2">
-        <v>45919.64583333334</v>
+        <v>45923.64583333334</v>
       </c>
       <c r="B160">
         <v>0</v>
@@ -1669,7 +1669,7 @@
     </row>
     <row r="161" spans="1:2">
       <c r="A161" s="2">
-        <v>45919.65625</v>
+        <v>45923.65625</v>
       </c>
       <c r="B161">
         <v>0</v>
@@ -1677,7 +1677,7 @@
     </row>
     <row r="162" spans="1:2">
       <c r="A162" s="2">
-        <v>45919.66666666666</v>
+        <v>45923.66666666666</v>
       </c>
       <c r="B162">
         <v>0</v>
@@ -1685,7 +1685,7 @@
     </row>
     <row r="163" spans="1:2">
       <c r="A163" s="2">
-        <v>45919.67708333334</v>
+        <v>45923.67708333334</v>
       </c>
       <c r="B163">
         <v>0</v>
@@ -1693,7 +1693,7 @@
     </row>
     <row r="164" spans="1:2">
       <c r="A164" s="2">
-        <v>45919.6875</v>
+        <v>45923.6875</v>
       </c>
       <c r="B164">
         <v>0</v>
@@ -1701,7 +1701,7 @@
     </row>
     <row r="165" spans="1:2">
       <c r="A165" s="2">
-        <v>45919.69791666666</v>
+        <v>45923.69791666666</v>
       </c>
       <c r="B165">
         <v>0</v>
@@ -1709,7 +1709,7 @@
     </row>
     <row r="166" spans="1:2">
       <c r="A166" s="2">
-        <v>45919.70833333334</v>
+        <v>45923.70833333334</v>
       </c>
       <c r="B166">
         <v>0</v>
@@ -1717,7 +1717,7 @@
     </row>
     <row r="167" spans="1:2">
       <c r="A167" s="2">
-        <v>45919.71875</v>
+        <v>45923.71875</v>
       </c>
       <c r="B167">
         <v>0</v>
@@ -1725,7 +1725,7 @@
     </row>
     <row r="168" spans="1:2">
       <c r="A168" s="2">
-        <v>45919.72916666666</v>
+        <v>45923.72916666666</v>
       </c>
       <c r="B168">
         <v>0</v>
@@ -1733,7 +1733,7 @@
     </row>
     <row r="169" spans="1:2">
       <c r="A169" s="2">
-        <v>45919.73958333334</v>
+        <v>45923.73958333334</v>
       </c>
       <c r="B169">
         <v>0</v>
@@ -1741,7 +1741,7 @@
     </row>
     <row r="170" spans="1:2">
       <c r="A170" s="2">
-        <v>45919.75</v>
+        <v>45923.75</v>
       </c>
       <c r="B170">
         <v>0</v>
@@ -1749,7 +1749,7 @@
     </row>
     <row r="171" spans="1:2">
       <c r="A171" s="2">
-        <v>45919.76041666666</v>
+        <v>45923.76041666666</v>
       </c>
       <c r="B171">
         <v>0</v>
@@ -1757,7 +1757,7 @@
     </row>
     <row r="172" spans="1:2">
       <c r="A172" s="2">
-        <v>45919.77083333334</v>
+        <v>45923.77083333334</v>
       </c>
       <c r="B172">
         <v>0</v>
@@ -1765,7 +1765,7 @@
     </row>
     <row r="173" spans="1:2">
       <c r="A173" s="2">
-        <v>45919.78125</v>
+        <v>45923.78125</v>
       </c>
       <c r="B173">
         <v>0</v>
@@ -1773,7 +1773,7 @@
     </row>
     <row r="174" spans="1:2">
       <c r="A174" s="2">
-        <v>45919.79166666666</v>
+        <v>45923.79166666666</v>
       </c>
       <c r="B174">
         <v>0</v>
@@ -1781,7 +1781,7 @@
     </row>
     <row r="175" spans="1:2">
       <c r="A175" s="2">
-        <v>45919.80208333334</v>
+        <v>45923.80208333334</v>
       </c>
       <c r="B175">
         <v>0</v>
@@ -1789,7 +1789,7 @@
     </row>
     <row r="176" spans="1:2">
       <c r="A176" s="2">
-        <v>45919.8125</v>
+        <v>45923.8125</v>
       </c>
       <c r="B176">
         <v>0</v>
@@ -1797,7 +1797,7 @@
     </row>
     <row r="177" spans="1:2">
       <c r="A177" s="2">
-        <v>45919.82291666666</v>
+        <v>45923.82291666666</v>
       </c>
       <c r="B177">
         <v>0</v>
@@ -1805,7 +1805,7 @@
     </row>
     <row r="178" spans="1:2">
       <c r="A178" s="2">
-        <v>45919.83333333334</v>
+        <v>45923.83333333334</v>
       </c>
       <c r="B178">
         <v>0</v>
@@ -1813,7 +1813,7 @@
     </row>
     <row r="179" spans="1:2">
       <c r="A179" s="2">
-        <v>45919.84375</v>
+        <v>45923.84375</v>
       </c>
       <c r="B179">
         <v>0</v>
@@ -1821,7 +1821,7 @@
     </row>
     <row r="180" spans="1:2">
       <c r="A180" s="2">
-        <v>45919.85416666666</v>
+        <v>45923.85416666666</v>
       </c>
       <c r="B180">
         <v>0</v>
@@ -1829,7 +1829,7 @@
     </row>
     <row r="181" spans="1:2">
       <c r="A181" s="2">
-        <v>45919.86458333334</v>
+        <v>45923.86458333334</v>
       </c>
       <c r="B181">
         <v>0</v>
@@ -1837,7 +1837,7 @@
     </row>
     <row r="182" spans="1:2">
       <c r="A182" s="2">
-        <v>45919.875</v>
+        <v>45923.875</v>
       </c>
       <c r="B182">
         <v>0</v>
@@ -1845,7 +1845,7 @@
     </row>
     <row r="183" spans="1:2">
       <c r="A183" s="2">
-        <v>45919.88541666666</v>
+        <v>45923.88541666666</v>
       </c>
       <c r="B183">
         <v>0</v>
@@ -1853,7 +1853,7 @@
     </row>
     <row r="184" spans="1:2">
       <c r="A184" s="2">
-        <v>45919.89583333334</v>
+        <v>45923.89583333334</v>
       </c>
       <c r="B184">
         <v>0</v>
@@ -1861,7 +1861,7 @@
     </row>
     <row r="185" spans="1:2">
       <c r="A185" s="2">
-        <v>45919.90625</v>
+        <v>45923.90625</v>
       </c>
       <c r="B185">
         <v>0</v>
@@ -1869,7 +1869,7 @@
     </row>
     <row r="186" spans="1:2">
       <c r="A186" s="2">
-        <v>45919.91666666666</v>
+        <v>45923.91666666666</v>
       </c>
       <c r="B186">
         <v>0</v>
@@ -1877,7 +1877,7 @@
     </row>
     <row r="187" spans="1:2">
       <c r="A187" s="2">
-        <v>45919.92708333334</v>
+        <v>45923.92708333334</v>
       </c>
       <c r="B187">
         <v>0</v>
@@ -1885,7 +1885,7 @@
     </row>
     <row r="188" spans="1:2">
       <c r="A188" s="2">
-        <v>45919.9375</v>
+        <v>45923.9375</v>
       </c>
       <c r="B188">
         <v>0</v>
@@ -1893,7 +1893,7 @@
     </row>
     <row r="189" spans="1:2">
       <c r="A189" s="2">
-        <v>45919.94791666666</v>
+        <v>45923.94791666666</v>
       </c>
       <c r="B189">
         <v>0</v>
@@ -1901,7 +1901,7 @@
     </row>
     <row r="190" spans="1:2">
       <c r="A190" s="2">
-        <v>45919.95833333334</v>
+        <v>45923.95833333334</v>
       </c>
       <c r="B190">
         <v>0</v>
@@ -1909,7 +1909,7 @@
     </row>
     <row r="191" spans="1:2">
       <c r="A191" s="2">
-        <v>45919.96875</v>
+        <v>45923.96875</v>
       </c>
       <c r="B191">
         <v>0</v>
@@ -1917,7 +1917,7 @@
     </row>
     <row r="192" spans="1:2">
       <c r="A192" s="2">
-        <v>45919.97916666666</v>
+        <v>45923.97916666666</v>
       </c>
       <c r="B192">
         <v>0</v>
@@ -1925,7 +1925,7 @@
     </row>
     <row r="193" spans="1:2">
       <c r="A193" s="2">
-        <v>45919.98958333334</v>
+        <v>45923.98958333334</v>
       </c>
       <c r="B193">
         <v>0</v>

--- a/data_fetching/Entsoe/Actual_Production_Hydro_Water_Reservoir.xlsx
+++ b/data_fetching/Entsoe/Actual_Production_Hydro_Water_Reservoir.xlsx
@@ -397,991 +397,991 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2">
-        <v>45922</v>
+        <v>45931</v>
       </c>
       <c r="B2">
-        <v>392</v>
+        <v>792</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2">
-        <v>45922.01041666666</v>
+        <v>45931.01041666666</v>
       </c>
       <c r="B3">
-        <v>390</v>
+        <v>794</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2">
-        <v>45922.02083333334</v>
+        <v>45931.02083333334</v>
       </c>
       <c r="B4">
-        <v>391</v>
+        <v>795</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2">
-        <v>45922.03125</v>
+        <v>45931.03125</v>
       </c>
       <c r="B5">
-        <v>390</v>
+        <v>791</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2">
-        <v>45922.04166666666</v>
+        <v>45931.04166666666</v>
       </c>
       <c r="B6">
-        <v>392</v>
+        <v>803</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2">
-        <v>45922.05208333334</v>
+        <v>45931.05208333334</v>
       </c>
       <c r="B7">
-        <v>390</v>
+        <v>807</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2">
-        <v>45922.0625</v>
+        <v>45931.0625</v>
       </c>
       <c r="B8">
-        <v>391</v>
+        <v>807</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2">
-        <v>45922.07291666666</v>
+        <v>45931.07291666666</v>
       </c>
       <c r="B9">
-        <v>389</v>
+        <v>811</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2">
-        <v>45922.08333333334</v>
+        <v>45931.08333333334</v>
       </c>
       <c r="B10">
-        <v>392</v>
+        <v>772</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2">
-        <v>45922.09375</v>
+        <v>45931.09375</v>
       </c>
       <c r="B11">
-        <v>390</v>
+        <v>771</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2">
-        <v>45922.10416666666</v>
+        <v>45931.10416666666</v>
       </c>
       <c r="B12">
-        <v>391</v>
+        <v>772</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2">
-        <v>45922.11458333334</v>
+        <v>45931.11458333334</v>
       </c>
       <c r="B13">
-        <v>390</v>
+        <v>772</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2">
-        <v>45922.125</v>
+        <v>45931.125</v>
       </c>
       <c r="B14">
-        <v>390</v>
+        <v>775</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2">
-        <v>45922.13541666666</v>
+        <v>45931.13541666666</v>
       </c>
       <c r="B15">
-        <v>390</v>
+        <v>774</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2">
-        <v>45922.14583333334</v>
+        <v>45931.14583333334</v>
       </c>
       <c r="B16">
-        <v>391</v>
+        <v>774</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2">
-        <v>45922.15625</v>
+        <v>45931.15625</v>
       </c>
       <c r="B17">
-        <v>391</v>
+        <v>773</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2">
-        <v>45922.16666666666</v>
+        <v>45931.16666666666</v>
       </c>
       <c r="B18">
-        <v>391</v>
+        <v>733</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2">
-        <v>45922.17708333334</v>
+        <v>45931.17708333334</v>
       </c>
       <c r="B19">
-        <v>391</v>
+        <v>732</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2">
-        <v>45922.1875</v>
+        <v>45931.1875</v>
       </c>
       <c r="B20">
-        <v>390</v>
+        <v>732</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2">
-        <v>45922.19791666666</v>
+        <v>45931.19791666666</v>
       </c>
       <c r="B21">
-        <v>394</v>
+        <v>734</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2">
-        <v>45922.20833333334</v>
+        <v>45931.20833333334</v>
       </c>
       <c r="B22">
-        <v>403</v>
+        <v>793</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2">
-        <v>45922.21875</v>
+        <v>45931.21875</v>
       </c>
       <c r="B23">
-        <v>404</v>
+        <v>822</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2">
-        <v>45922.22916666666</v>
+        <v>45931.22916666666</v>
       </c>
       <c r="B24">
-        <v>412</v>
+        <v>823</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2">
-        <v>45922.23958333334</v>
+        <v>45931.23958333334</v>
       </c>
       <c r="B25">
-        <v>422</v>
+        <v>840</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2">
-        <v>45922.25</v>
+        <v>45931.25</v>
       </c>
       <c r="B26">
-        <v>562</v>
+        <v>860</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2">
-        <v>45922.26041666666</v>
+        <v>45931.26041666666</v>
       </c>
       <c r="B27">
-        <v>562</v>
+        <v>825</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2">
-        <v>45922.27083333334</v>
+        <v>45931.27083333334</v>
       </c>
       <c r="B28">
-        <v>569</v>
+        <v>817</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2">
-        <v>45922.28125</v>
+        <v>45931.28125</v>
       </c>
       <c r="B29">
-        <v>557</v>
+        <v>813</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2">
-        <v>45922.29166666666</v>
+        <v>45931.29166666666</v>
       </c>
       <c r="B30">
-        <v>578</v>
+        <v>841</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2">
-        <v>45922.30208333334</v>
+        <v>45931.30208333334</v>
       </c>
       <c r="B31">
-        <v>566</v>
+        <v>857</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2">
-        <v>45922.3125</v>
+        <v>45931.3125</v>
       </c>
       <c r="B32">
-        <v>530</v>
+        <v>857</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2">
-        <v>45922.32291666666</v>
+        <v>45931.32291666666</v>
       </c>
       <c r="B33">
-        <v>570</v>
+        <v>860</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2">
-        <v>45922.33333333334</v>
+        <v>45931.33333333334</v>
       </c>
       <c r="B34">
-        <v>404</v>
+        <v>581</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="2">
-        <v>45922.34375</v>
+        <v>45931.34375</v>
       </c>
       <c r="B35">
-        <v>351</v>
+        <v>570</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="2">
-        <v>45922.35416666666</v>
+        <v>45931.35416666666</v>
       </c>
       <c r="B36">
-        <v>358</v>
+        <v>565</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="2">
-        <v>45922.36458333334</v>
+        <v>45931.36458333334</v>
       </c>
       <c r="B37">
-        <v>365</v>
+        <v>560</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="2">
-        <v>45922.375</v>
+        <v>45931.375</v>
       </c>
       <c r="B38">
-        <v>266</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="2">
-        <v>45922.38541666666</v>
+        <v>45931.38541666666</v>
       </c>
       <c r="B39">
-        <v>260</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="2">
-        <v>45922.39583333334</v>
+        <v>45931.39583333334</v>
       </c>
       <c r="B40">
-        <v>252</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="2">
-        <v>45922.40625</v>
+        <v>45931.40625</v>
       </c>
       <c r="B41">
-        <v>247</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="2">
-        <v>45922.41666666666</v>
+        <v>45931.41666666666</v>
       </c>
       <c r="B42">
-        <v>186</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="2">
-        <v>45922.42708333334</v>
+        <v>45931.42708333334</v>
       </c>
       <c r="B43">
-        <v>165</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="2">
-        <v>45922.4375</v>
+        <v>45931.4375</v>
       </c>
       <c r="B44">
-        <v>158</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="2">
-        <v>45922.44791666666</v>
+        <v>45931.44791666666</v>
       </c>
       <c r="B45">
-        <v>177</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="2">
-        <v>45922.45833333334</v>
+        <v>45931.45833333334</v>
       </c>
       <c r="B46">
-        <v>156</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="2">
-        <v>45922.46875</v>
+        <v>45931.46875</v>
       </c>
       <c r="B47">
-        <v>150</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="2">
-        <v>45922.47916666666</v>
+        <v>45931.47916666666</v>
       </c>
       <c r="B48">
-        <v>170</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="2">
-        <v>45922.48958333334</v>
+        <v>45931.48958333334</v>
       </c>
       <c r="B49">
-        <v>162</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="2">
-        <v>45922.5</v>
+        <v>45931.5</v>
       </c>
       <c r="B50">
-        <v>173</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="2">
-        <v>45922.51041666666</v>
+        <v>45931.51041666666</v>
       </c>
       <c r="B51">
-        <v>165</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="2">
-        <v>45922.52083333334</v>
+        <v>45931.52083333334</v>
       </c>
       <c r="B52">
-        <v>157</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="2">
-        <v>45922.53125</v>
+        <v>45931.53125</v>
       </c>
       <c r="B53">
-        <v>166</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="2">
-        <v>45922.54166666666</v>
+        <v>45931.54166666666</v>
       </c>
       <c r="B54">
-        <v>172</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="2">
-        <v>45922.55208333334</v>
+        <v>45931.55208333334</v>
       </c>
       <c r="B55">
-        <v>179</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="2">
-        <v>45922.5625</v>
+        <v>45931.5625</v>
       </c>
       <c r="B56">
-        <v>186</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="2">
-        <v>45922.57291666666</v>
+        <v>45931.57291666666</v>
       </c>
       <c r="B57">
-        <v>191</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="2">
-        <v>45922.58333333334</v>
+        <v>45931.58333333334</v>
       </c>
       <c r="B58">
-        <v>156</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="2">
-        <v>45922.59375</v>
+        <v>45931.59375</v>
       </c>
       <c r="B59">
-        <v>180</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="2">
-        <v>45922.60416666666</v>
+        <v>45931.60416666666</v>
       </c>
       <c r="B60">
-        <v>195</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="2">
-        <v>45922.61458333334</v>
+        <v>45931.61458333334</v>
       </c>
       <c r="B61">
-        <v>190</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="2">
-        <v>45922.625</v>
+        <v>45931.625</v>
       </c>
       <c r="B62">
-        <v>301</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="2">
-        <v>45922.63541666666</v>
+        <v>45931.63541666666</v>
       </c>
       <c r="B63">
-        <v>319</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="2">
-        <v>45922.64583333334</v>
+        <v>45931.64583333334</v>
       </c>
       <c r="B64">
-        <v>322</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="2">
-        <v>45922.65625</v>
+        <v>45931.65625</v>
       </c>
       <c r="B65">
-        <v>358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="2">
-        <v>45922.66666666666</v>
+        <v>45931.66666666666</v>
       </c>
       <c r="B66">
-        <v>453</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="2">
-        <v>45922.67708333334</v>
+        <v>45931.67708333334</v>
       </c>
       <c r="B67">
-        <v>467</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="2">
-        <v>45922.6875</v>
+        <v>45931.6875</v>
       </c>
       <c r="B68">
-        <v>471</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="2">
-        <v>45922.69791666666</v>
+        <v>45931.69791666666</v>
       </c>
       <c r="B69">
-        <v>502</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="2">
-        <v>45922.70833333334</v>
+        <v>45931.70833333334</v>
       </c>
       <c r="B70">
-        <v>751</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="2">
-        <v>45922.71875</v>
+        <v>45931.71875</v>
       </c>
       <c r="B71">
-        <v>766</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="2">
-        <v>45922.72916666666</v>
+        <v>45931.72916666666</v>
       </c>
       <c r="B72">
-        <v>767</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="2">
-        <v>45922.73958333334</v>
+        <v>45931.73958333334</v>
       </c>
       <c r="B73">
-        <v>790</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="2">
-        <v>45922.75</v>
+        <v>45931.75</v>
       </c>
       <c r="B74">
-        <v>846</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="2">
-        <v>45922.76041666666</v>
+        <v>45931.76041666666</v>
       </c>
       <c r="B75">
-        <v>863</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="2">
-        <v>45922.77083333334</v>
+        <v>45931.77083333334</v>
       </c>
       <c r="B76">
-        <v>863</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="2">
-        <v>45922.78125</v>
+        <v>45931.78125</v>
       </c>
       <c r="B77">
-        <v>946</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="2">
-        <v>45922.79166666666</v>
+        <v>45931.79166666666</v>
       </c>
       <c r="B78">
-        <v>907</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="2">
-        <v>45922.80208333334</v>
+        <v>45931.80208333334</v>
       </c>
       <c r="B79">
-        <v>878</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="2">
-        <v>45922.8125</v>
+        <v>45931.8125</v>
       </c>
       <c r="B80">
-        <v>870</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="2">
-        <v>45922.82291666666</v>
+        <v>45931.82291666666</v>
       </c>
       <c r="B81">
-        <v>867</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="2">
-        <v>45922.83333333334</v>
+        <v>45931.83333333334</v>
       </c>
       <c r="B82">
-        <v>848</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="2">
-        <v>45922.84375</v>
+        <v>45931.84375</v>
       </c>
       <c r="B83">
-        <v>850</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="2">
-        <v>45922.85416666666</v>
+        <v>45931.85416666666</v>
       </c>
       <c r="B84">
-        <v>851</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="2">
-        <v>45922.86458333334</v>
+        <v>45931.86458333334</v>
       </c>
       <c r="B85">
-        <v>854</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="2">
-        <v>45922.875</v>
+        <v>45931.875</v>
       </c>
       <c r="B86">
-        <v>742</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="2">
-        <v>45922.88541666666</v>
+        <v>45931.88541666666</v>
       </c>
       <c r="B87">
-        <v>729</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="2">
-        <v>45922.89583333334</v>
+        <v>45931.89583333334</v>
       </c>
       <c r="B88">
-        <v>730</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="2">
-        <v>45922.90625</v>
+        <v>45931.90625</v>
       </c>
       <c r="B89">
-        <v>721</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="2">
-        <v>45922.91666666666</v>
+        <v>45931.91666666666</v>
       </c>
       <c r="B90">
-        <v>443</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="2">
-        <v>45922.92708333334</v>
+        <v>45931.92708333334</v>
       </c>
       <c r="B91">
-        <v>432</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="2">
-        <v>45922.9375</v>
+        <v>45931.9375</v>
       </c>
       <c r="B92">
-        <v>432</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="2">
-        <v>45922.94791666666</v>
+        <v>45931.94791666666</v>
       </c>
       <c r="B93">
-        <v>429</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="2">
-        <v>45922.95833333334</v>
+        <v>45931.95833333334</v>
       </c>
       <c r="B94">
-        <v>415</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="2">
-        <v>45922.96875</v>
+        <v>45931.96875</v>
       </c>
       <c r="B95">
-        <v>414</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="2">
-        <v>45922.97916666666</v>
+        <v>45931.97916666666</v>
       </c>
       <c r="B96">
-        <v>413</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="2">
-        <v>45922.98958333334</v>
+        <v>45931.98958333334</v>
       </c>
       <c r="B97">
-        <v>412</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" s="2">
-        <v>45923</v>
+        <v>45932</v>
       </c>
       <c r="B98">
-        <v>415</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" s="2">
-        <v>45923.01041666666</v>
+        <v>45932.01041666666</v>
       </c>
       <c r="B99">
-        <v>409</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" s="2">
-        <v>45923.02083333334</v>
+        <v>45932.02083333334</v>
       </c>
       <c r="B100">
-        <v>410</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" s="2">
-        <v>45923.03125</v>
+        <v>45932.03125</v>
       </c>
       <c r="B101">
-        <v>409</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" s="2">
-        <v>45923.04166666666</v>
+        <v>45932.04166666666</v>
       </c>
       <c r="B102">
-        <v>419</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" s="2">
-        <v>45923.05208333334</v>
+        <v>45932.05208333334</v>
       </c>
       <c r="B103">
-        <v>418</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" s="2">
-        <v>45923.0625</v>
+        <v>45932.0625</v>
       </c>
       <c r="B104">
-        <v>416</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" s="2">
-        <v>45923.07291666666</v>
+        <v>45932.07291666666</v>
       </c>
       <c r="B105">
-        <v>414</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" s="2">
-        <v>45923.08333333334</v>
+        <v>45932.08333333334</v>
       </c>
       <c r="B106">
-        <v>404</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" s="2">
-        <v>45923.09375</v>
+        <v>45932.09375</v>
       </c>
       <c r="B107">
-        <v>404</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" s="2">
-        <v>45923.10416666666</v>
+        <v>45932.10416666666</v>
       </c>
       <c r="B108">
-        <v>404</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" s="2">
-        <v>45923.11458333334</v>
+        <v>45932.11458333334</v>
       </c>
       <c r="B109">
-        <v>405</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" s="2">
-        <v>45923.125</v>
+        <v>45932.125</v>
       </c>
       <c r="B110">
-        <v>408</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" s="2">
-        <v>45923.13541666666</v>
+        <v>45932.13541666666</v>
       </c>
       <c r="B111">
-        <v>408</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112" s="2">
-        <v>45923.14583333334</v>
+        <v>45932.14583333334</v>
       </c>
       <c r="B112">
-        <v>408</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" s="2">
-        <v>45923.15625</v>
+        <v>45932.15625</v>
       </c>
       <c r="B113">
-        <v>409</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" s="2">
-        <v>45923.16666666666</v>
+        <v>45932.16666666666</v>
       </c>
       <c r="B114">
-        <v>412</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" s="2">
-        <v>45923.17708333334</v>
+        <v>45932.17708333334</v>
       </c>
       <c r="B115">
-        <v>413</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" s="2">
-        <v>45923.1875</v>
+        <v>45932.1875</v>
       </c>
       <c r="B116">
-        <v>417</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117" s="2">
-        <v>45923.19791666666</v>
+        <v>45932.19791666666</v>
       </c>
       <c r="B117">
-        <v>423</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" s="2">
-        <v>45923.20833333334</v>
+        <v>45932.20833333334</v>
       </c>
       <c r="B118">
-        <v>439</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" s="2">
-        <v>45923.21875</v>
+        <v>45932.21875</v>
       </c>
       <c r="B119">
-        <v>440</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" s="2">
-        <v>45923.22916666666</v>
+        <v>45932.22916666666</v>
       </c>
       <c r="B120">
-        <v>442</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" s="2">
-        <v>45923.23958333334</v>
+        <v>45932.23958333334</v>
       </c>
       <c r="B121">
-        <v>469</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" s="2">
-        <v>45923.25</v>
+        <v>45932.25</v>
       </c>
       <c r="B122">
-        <v>752</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123" s="2">
-        <v>45923.26041666666</v>
+        <v>45932.26041666666</v>
       </c>
       <c r="B123">
-        <v>756</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" s="2">
-        <v>45923.27083333334</v>
+        <v>45932.27083333334</v>
       </c>
       <c r="B124">
-        <v>770</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" s="2">
-        <v>45923.28125</v>
+        <v>45932.28125</v>
       </c>
       <c r="B125">
         <v>0</v>
@@ -1389,7 +1389,7 @@
     </row>
     <row r="126" spans="1:2">
       <c r="A126" s="2">
-        <v>45923.29166666666</v>
+        <v>45932.29166666666</v>
       </c>
       <c r="B126">
         <v>0</v>
@@ -1397,7 +1397,7 @@
     </row>
     <row r="127" spans="1:2">
       <c r="A127" s="2">
-        <v>45923.30208333334</v>
+        <v>45932.30208333334</v>
       </c>
       <c r="B127">
         <v>0</v>
@@ -1405,7 +1405,7 @@
     </row>
     <row r="128" spans="1:2">
       <c r="A128" s="2">
-        <v>45923.3125</v>
+        <v>45932.3125</v>
       </c>
       <c r="B128">
         <v>0</v>
@@ -1413,7 +1413,7 @@
     </row>
     <row r="129" spans="1:2">
       <c r="A129" s="2">
-        <v>45923.32291666666</v>
+        <v>45932.32291666666</v>
       </c>
       <c r="B129">
         <v>0</v>
@@ -1421,7 +1421,7 @@
     </row>
     <row r="130" spans="1:2">
       <c r="A130" s="2">
-        <v>45923.33333333334</v>
+        <v>45932.33333333334</v>
       </c>
       <c r="B130">
         <v>0</v>
@@ -1429,7 +1429,7 @@
     </row>
     <row r="131" spans="1:2">
       <c r="A131" s="2">
-        <v>45923.34375</v>
+        <v>45932.34375</v>
       </c>
       <c r="B131">
         <v>0</v>
@@ -1437,7 +1437,7 @@
     </row>
     <row r="132" spans="1:2">
       <c r="A132" s="2">
-        <v>45923.35416666666</v>
+        <v>45932.35416666666</v>
       </c>
       <c r="B132">
         <v>0</v>
@@ -1445,7 +1445,7 @@
     </row>
     <row r="133" spans="1:2">
       <c r="A133" s="2">
-        <v>45923.36458333334</v>
+        <v>45932.36458333334</v>
       </c>
       <c r="B133">
         <v>0</v>
@@ -1453,7 +1453,7 @@
     </row>
     <row r="134" spans="1:2">
       <c r="A134" s="2">
-        <v>45923.375</v>
+        <v>45932.375</v>
       </c>
       <c r="B134">
         <v>0</v>
@@ -1461,7 +1461,7 @@
     </row>
     <row r="135" spans="1:2">
       <c r="A135" s="2">
-        <v>45923.38541666666</v>
+        <v>45932.38541666666</v>
       </c>
       <c r="B135">
         <v>0</v>
@@ -1469,7 +1469,7 @@
     </row>
     <row r="136" spans="1:2">
       <c r="A136" s="2">
-        <v>45923.39583333334</v>
+        <v>45932.39583333334</v>
       </c>
       <c r="B136">
         <v>0</v>
@@ -1477,7 +1477,7 @@
     </row>
     <row r="137" spans="1:2">
       <c r="A137" s="2">
-        <v>45923.40625</v>
+        <v>45932.40625</v>
       </c>
       <c r="B137">
         <v>0</v>
@@ -1485,7 +1485,7 @@
     </row>
     <row r="138" spans="1:2">
       <c r="A138" s="2">
-        <v>45923.41666666666</v>
+        <v>45932.41666666666</v>
       </c>
       <c r="B138">
         <v>0</v>
@@ -1493,7 +1493,7 @@
     </row>
     <row r="139" spans="1:2">
       <c r="A139" s="2">
-        <v>45923.42708333334</v>
+        <v>45932.42708333334</v>
       </c>
       <c r="B139">
         <v>0</v>
@@ -1501,7 +1501,7 @@
     </row>
     <row r="140" spans="1:2">
       <c r="A140" s="2">
-        <v>45923.4375</v>
+        <v>45932.4375</v>
       </c>
       <c r="B140">
         <v>0</v>
@@ -1509,7 +1509,7 @@
     </row>
     <row r="141" spans="1:2">
       <c r="A141" s="2">
-        <v>45923.44791666666</v>
+        <v>45932.44791666666</v>
       </c>
       <c r="B141">
         <v>0</v>
@@ -1517,7 +1517,7 @@
     </row>
     <row r="142" spans="1:2">
       <c r="A142" s="2">
-        <v>45923.45833333334</v>
+        <v>45932.45833333334</v>
       </c>
       <c r="B142">
         <v>0</v>
@@ -1525,7 +1525,7 @@
     </row>
     <row r="143" spans="1:2">
       <c r="A143" s="2">
-        <v>45923.46875</v>
+        <v>45932.46875</v>
       </c>
       <c r="B143">
         <v>0</v>
@@ -1533,7 +1533,7 @@
     </row>
     <row r="144" spans="1:2">
       <c r="A144" s="2">
-        <v>45923.47916666666</v>
+        <v>45932.47916666666</v>
       </c>
       <c r="B144">
         <v>0</v>
@@ -1541,7 +1541,7 @@
     </row>
     <row r="145" spans="1:2">
       <c r="A145" s="2">
-        <v>45923.48958333334</v>
+        <v>45932.48958333334</v>
       </c>
       <c r="B145">
         <v>0</v>
@@ -1549,7 +1549,7 @@
     </row>
     <row r="146" spans="1:2">
       <c r="A146" s="2">
-        <v>45923.5</v>
+        <v>45932.5</v>
       </c>
       <c r="B146">
         <v>0</v>
@@ -1557,7 +1557,7 @@
     </row>
     <row r="147" spans="1:2">
       <c r="A147" s="2">
-        <v>45923.51041666666</v>
+        <v>45932.51041666666</v>
       </c>
       <c r="B147">
         <v>0</v>
@@ -1565,7 +1565,7 @@
     </row>
     <row r="148" spans="1:2">
       <c r="A148" s="2">
-        <v>45923.52083333334</v>
+        <v>45932.52083333334</v>
       </c>
       <c r="B148">
         <v>0</v>
@@ -1573,7 +1573,7 @@
     </row>
     <row r="149" spans="1:2">
       <c r="A149" s="2">
-        <v>45923.53125</v>
+        <v>45932.53125</v>
       </c>
       <c r="B149">
         <v>0</v>
@@ -1581,7 +1581,7 @@
     </row>
     <row r="150" spans="1:2">
       <c r="A150" s="2">
-        <v>45923.54166666666</v>
+        <v>45932.54166666666</v>
       </c>
       <c r="B150">
         <v>0</v>
@@ -1589,7 +1589,7 @@
     </row>
     <row r="151" spans="1:2">
       <c r="A151" s="2">
-        <v>45923.55208333334</v>
+        <v>45932.55208333334</v>
       </c>
       <c r="B151">
         <v>0</v>
@@ -1597,7 +1597,7 @@
     </row>
     <row r="152" spans="1:2">
       <c r="A152" s="2">
-        <v>45923.5625</v>
+        <v>45932.5625</v>
       </c>
       <c r="B152">
         <v>0</v>
@@ -1605,7 +1605,7 @@
     </row>
     <row r="153" spans="1:2">
       <c r="A153" s="2">
-        <v>45923.57291666666</v>
+        <v>45932.57291666666</v>
       </c>
       <c r="B153">
         <v>0</v>
@@ -1613,7 +1613,7 @@
     </row>
     <row r="154" spans="1:2">
       <c r="A154" s="2">
-        <v>45923.58333333334</v>
+        <v>45932.58333333334</v>
       </c>
       <c r="B154">
         <v>0</v>
@@ -1621,7 +1621,7 @@
     </row>
     <row r="155" spans="1:2">
       <c r="A155" s="2">
-        <v>45923.59375</v>
+        <v>45932.59375</v>
       </c>
       <c r="B155">
         <v>0</v>
@@ -1629,7 +1629,7 @@
     </row>
     <row r="156" spans="1:2">
       <c r="A156" s="2">
-        <v>45923.60416666666</v>
+        <v>45932.60416666666</v>
       </c>
       <c r="B156">
         <v>0</v>
@@ -1637,7 +1637,7 @@
     </row>
     <row r="157" spans="1:2">
       <c r="A157" s="2">
-        <v>45923.61458333334</v>
+        <v>45932.61458333334</v>
       </c>
       <c r="B157">
         <v>0</v>
@@ -1645,7 +1645,7 @@
     </row>
     <row r="158" spans="1:2">
       <c r="A158" s="2">
-        <v>45923.625</v>
+        <v>45932.625</v>
       </c>
       <c r="B158">
         <v>0</v>
@@ -1653,7 +1653,7 @@
     </row>
     <row r="159" spans="1:2">
       <c r="A159" s="2">
-        <v>45923.63541666666</v>
+        <v>45932.63541666666</v>
       </c>
       <c r="B159">
         <v>0</v>
@@ -1661,7 +1661,7 @@
     </row>
     <row r="160" spans="1:2">
       <c r="A160" s="2">
-        <v>45923.64583333334</v>
+        <v>45932.64583333334</v>
       </c>
       <c r="B160">
         <v>0</v>
@@ -1669,7 +1669,7 @@
     </row>
     <row r="161" spans="1:2">
       <c r="A161" s="2">
-        <v>45923.65625</v>
+        <v>45932.65625</v>
       </c>
       <c r="B161">
         <v>0</v>
@@ -1677,7 +1677,7 @@
     </row>
     <row r="162" spans="1:2">
       <c r="A162" s="2">
-        <v>45923.66666666666</v>
+        <v>45932.66666666666</v>
       </c>
       <c r="B162">
         <v>0</v>
@@ -1685,7 +1685,7 @@
     </row>
     <row r="163" spans="1:2">
       <c r="A163" s="2">
-        <v>45923.67708333334</v>
+        <v>45932.67708333334</v>
       </c>
       <c r="B163">
         <v>0</v>
@@ -1693,7 +1693,7 @@
     </row>
     <row r="164" spans="1:2">
       <c r="A164" s="2">
-        <v>45923.6875</v>
+        <v>45932.6875</v>
       </c>
       <c r="B164">
         <v>0</v>
@@ -1701,7 +1701,7 @@
     </row>
     <row r="165" spans="1:2">
       <c r="A165" s="2">
-        <v>45923.69791666666</v>
+        <v>45932.69791666666</v>
       </c>
       <c r="B165">
         <v>0</v>
@@ -1709,7 +1709,7 @@
     </row>
     <row r="166" spans="1:2">
       <c r="A166" s="2">
-        <v>45923.70833333334</v>
+        <v>45932.70833333334</v>
       </c>
       <c r="B166">
         <v>0</v>
@@ -1717,7 +1717,7 @@
     </row>
     <row r="167" spans="1:2">
       <c r="A167" s="2">
-        <v>45923.71875</v>
+        <v>45932.71875</v>
       </c>
       <c r="B167">
         <v>0</v>
@@ -1725,7 +1725,7 @@
     </row>
     <row r="168" spans="1:2">
       <c r="A168" s="2">
-        <v>45923.72916666666</v>
+        <v>45932.72916666666</v>
       </c>
       <c r="B168">
         <v>0</v>
@@ -1733,7 +1733,7 @@
     </row>
     <row r="169" spans="1:2">
       <c r="A169" s="2">
-        <v>45923.73958333334</v>
+        <v>45932.73958333334</v>
       </c>
       <c r="B169">
         <v>0</v>
@@ -1741,7 +1741,7 @@
     </row>
     <row r="170" spans="1:2">
       <c r="A170" s="2">
-        <v>45923.75</v>
+        <v>45932.75</v>
       </c>
       <c r="B170">
         <v>0</v>
@@ -1749,7 +1749,7 @@
     </row>
     <row r="171" spans="1:2">
       <c r="A171" s="2">
-        <v>45923.76041666666</v>
+        <v>45932.76041666666</v>
       </c>
       <c r="B171">
         <v>0</v>
@@ -1757,7 +1757,7 @@
     </row>
     <row r="172" spans="1:2">
       <c r="A172" s="2">
-        <v>45923.77083333334</v>
+        <v>45932.77083333334</v>
       </c>
       <c r="B172">
         <v>0</v>
@@ -1765,7 +1765,7 @@
     </row>
     <row r="173" spans="1:2">
       <c r="A173" s="2">
-        <v>45923.78125</v>
+        <v>45932.78125</v>
       </c>
       <c r="B173">
         <v>0</v>
@@ -1773,7 +1773,7 @@
     </row>
     <row r="174" spans="1:2">
       <c r="A174" s="2">
-        <v>45923.79166666666</v>
+        <v>45932.79166666666</v>
       </c>
       <c r="B174">
         <v>0</v>
@@ -1781,7 +1781,7 @@
     </row>
     <row r="175" spans="1:2">
       <c r="A175" s="2">
-        <v>45923.80208333334</v>
+        <v>45932.80208333334</v>
       </c>
       <c r="B175">
         <v>0</v>
@@ -1789,7 +1789,7 @@
     </row>
     <row r="176" spans="1:2">
       <c r="A176" s="2">
-        <v>45923.8125</v>
+        <v>45932.8125</v>
       </c>
       <c r="B176">
         <v>0</v>
@@ -1797,7 +1797,7 @@
     </row>
     <row r="177" spans="1:2">
       <c r="A177" s="2">
-        <v>45923.82291666666</v>
+        <v>45932.82291666666</v>
       </c>
       <c r="B177">
         <v>0</v>
@@ -1805,7 +1805,7 @@
     </row>
     <row r="178" spans="1:2">
       <c r="A178" s="2">
-        <v>45923.83333333334</v>
+        <v>45932.83333333334</v>
       </c>
       <c r="B178">
         <v>0</v>
@@ -1813,7 +1813,7 @@
     </row>
     <row r="179" spans="1:2">
       <c r="A179" s="2">
-        <v>45923.84375</v>
+        <v>45932.84375</v>
       </c>
       <c r="B179">
         <v>0</v>
@@ -1821,7 +1821,7 @@
     </row>
     <row r="180" spans="1:2">
       <c r="A180" s="2">
-        <v>45923.85416666666</v>
+        <v>45932.85416666666</v>
       </c>
       <c r="B180">
         <v>0</v>
@@ -1829,7 +1829,7 @@
     </row>
     <row r="181" spans="1:2">
       <c r="A181" s="2">
-        <v>45923.86458333334</v>
+        <v>45932.86458333334</v>
       </c>
       <c r="B181">
         <v>0</v>
@@ -1837,7 +1837,7 @@
     </row>
     <row r="182" spans="1:2">
       <c r="A182" s="2">
-        <v>45923.875</v>
+        <v>45932.875</v>
       </c>
       <c r="B182">
         <v>0</v>
@@ -1845,7 +1845,7 @@
     </row>
     <row r="183" spans="1:2">
       <c r="A183" s="2">
-        <v>45923.88541666666</v>
+        <v>45932.88541666666</v>
       </c>
       <c r="B183">
         <v>0</v>
@@ -1853,7 +1853,7 @@
     </row>
     <row r="184" spans="1:2">
       <c r="A184" s="2">
-        <v>45923.89583333334</v>
+        <v>45932.89583333334</v>
       </c>
       <c r="B184">
         <v>0</v>
@@ -1861,7 +1861,7 @@
     </row>
     <row r="185" spans="1:2">
       <c r="A185" s="2">
-        <v>45923.90625</v>
+        <v>45932.90625</v>
       </c>
       <c r="B185">
         <v>0</v>
@@ -1869,7 +1869,7 @@
     </row>
     <row r="186" spans="1:2">
       <c r="A186" s="2">
-        <v>45923.91666666666</v>
+        <v>45932.91666666666</v>
       </c>
       <c r="B186">
         <v>0</v>
@@ -1877,7 +1877,7 @@
     </row>
     <row r="187" spans="1:2">
       <c r="A187" s="2">
-        <v>45923.92708333334</v>
+        <v>45932.92708333334</v>
       </c>
       <c r="B187">
         <v>0</v>
@@ -1885,7 +1885,7 @@
     </row>
     <row r="188" spans="1:2">
       <c r="A188" s="2">
-        <v>45923.9375</v>
+        <v>45932.9375</v>
       </c>
       <c r="B188">
         <v>0</v>
@@ -1893,7 +1893,7 @@
     </row>
     <row r="189" spans="1:2">
       <c r="A189" s="2">
-        <v>45923.94791666666</v>
+        <v>45932.94791666666</v>
       </c>
       <c r="B189">
         <v>0</v>
@@ -1901,7 +1901,7 @@
     </row>
     <row r="190" spans="1:2">
       <c r="A190" s="2">
-        <v>45923.95833333334</v>
+        <v>45932.95833333334</v>
       </c>
       <c r="B190">
         <v>0</v>
@@ -1909,7 +1909,7 @@
     </row>
     <row r="191" spans="1:2">
       <c r="A191" s="2">
-        <v>45923.96875</v>
+        <v>45932.96875</v>
       </c>
       <c r="B191">
         <v>0</v>
@@ -1917,7 +1917,7 @@
     </row>
     <row r="192" spans="1:2">
       <c r="A192" s="2">
-        <v>45923.97916666666</v>
+        <v>45932.97916666666</v>
       </c>
       <c r="B192">
         <v>0</v>
@@ -1925,7 +1925,7 @@
     </row>
     <row r="193" spans="1:2">
       <c r="A193" s="2">
-        <v>45923.98958333334</v>
+        <v>45932.98958333334</v>
       </c>
       <c r="B193">
         <v>0</v>

--- a/data_fetching/Entsoe/Actual_Production_Hydro_Water_Reservoir.xlsx
+++ b/data_fetching/Entsoe/Actual_Production_Hydro_Water_Reservoir.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B193"/>
+  <dimension ref="A1:B289"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -397,1359 +397,1359 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2">
-        <v>45931</v>
+        <v>45944</v>
       </c>
       <c r="B2">
-        <v>792</v>
+        <v>429</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2">
-        <v>45931.01041666666</v>
+        <v>45944.01041666666</v>
       </c>
       <c r="B3">
-        <v>794</v>
+        <v>425</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2">
-        <v>45931.02083333334</v>
+        <v>45944.02083333334</v>
       </c>
       <c r="B4">
-        <v>795</v>
+        <v>427</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2">
-        <v>45931.03125</v>
+        <v>45944.03125</v>
       </c>
       <c r="B5">
-        <v>791</v>
+        <v>419</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2">
-        <v>45931.04166666666</v>
+        <v>45944.04166666666</v>
       </c>
       <c r="B6">
-        <v>803</v>
+        <v>395</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2">
-        <v>45931.05208333334</v>
+        <v>45944.05208333334</v>
       </c>
       <c r="B7">
-        <v>807</v>
+        <v>376</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2">
-        <v>45931.0625</v>
+        <v>45944.0625</v>
       </c>
       <c r="B8">
-        <v>807</v>
+        <v>376</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2">
-        <v>45931.07291666666</v>
+        <v>45944.07291666666</v>
       </c>
       <c r="B9">
-        <v>811</v>
+        <v>379</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2">
-        <v>45931.08333333334</v>
+        <v>45944.08333333334</v>
       </c>
       <c r="B10">
-        <v>772</v>
+        <v>417</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2">
-        <v>45931.09375</v>
+        <v>45944.09375</v>
       </c>
       <c r="B11">
-        <v>771</v>
+        <v>431</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2">
-        <v>45931.10416666666</v>
+        <v>45944.10416666666</v>
       </c>
       <c r="B12">
-        <v>772</v>
+        <v>432</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2">
-        <v>45931.11458333334</v>
+        <v>45944.11458333334</v>
       </c>
       <c r="B13">
-        <v>772</v>
+        <v>432</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2">
-        <v>45931.125</v>
+        <v>45944.125</v>
       </c>
       <c r="B14">
-        <v>775</v>
+        <v>432</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2">
-        <v>45931.13541666666</v>
+        <v>45944.13541666666</v>
       </c>
       <c r="B15">
-        <v>774</v>
+        <v>430</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2">
-        <v>45931.14583333334</v>
+        <v>45944.14583333334</v>
       </c>
       <c r="B16">
-        <v>774</v>
+        <v>431</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2">
-        <v>45931.15625</v>
+        <v>45944.15625</v>
       </c>
       <c r="B17">
-        <v>773</v>
+        <v>436</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2">
-        <v>45931.16666666666</v>
+        <v>45944.16666666666</v>
       </c>
       <c r="B18">
-        <v>733</v>
+        <v>457</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2">
-        <v>45931.17708333334</v>
+        <v>45944.17708333334</v>
       </c>
       <c r="B19">
-        <v>732</v>
+        <v>460</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2">
-        <v>45931.1875</v>
+        <v>45944.1875</v>
       </c>
       <c r="B20">
-        <v>732</v>
+        <v>459</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2">
-        <v>45931.19791666666</v>
+        <v>45944.19791666666</v>
       </c>
       <c r="B21">
-        <v>734</v>
+        <v>460</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2">
-        <v>45931.20833333334</v>
+        <v>45944.20833333334</v>
       </c>
       <c r="B22">
-        <v>793</v>
+        <v>558</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2">
-        <v>45931.21875</v>
+        <v>45944.21875</v>
       </c>
       <c r="B23">
-        <v>822</v>
+        <v>560</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2">
-        <v>45931.22916666666</v>
+        <v>45944.22916666666</v>
       </c>
       <c r="B24">
-        <v>823</v>
+        <v>562</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2">
-        <v>45931.23958333334</v>
+        <v>45944.23958333334</v>
       </c>
       <c r="B25">
-        <v>840</v>
+        <v>584</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2">
-        <v>45931.25</v>
+        <v>45944.25</v>
       </c>
       <c r="B26">
-        <v>860</v>
+        <v>651</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2">
-        <v>45931.26041666666</v>
+        <v>45944.26041666666</v>
       </c>
       <c r="B27">
-        <v>825</v>
+        <v>673</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2">
-        <v>45931.27083333334</v>
+        <v>45944.27083333334</v>
       </c>
       <c r="B28">
-        <v>817</v>
+        <v>686</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2">
-        <v>45931.28125</v>
+        <v>45944.28125</v>
       </c>
       <c r="B29">
-        <v>813</v>
+        <v>676</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2">
-        <v>45931.29166666666</v>
+        <v>45944.29166666666</v>
       </c>
       <c r="B30">
-        <v>841</v>
+        <v>614</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2">
-        <v>45931.30208333334</v>
+        <v>45944.30208333334</v>
       </c>
       <c r="B31">
-        <v>857</v>
+        <v>604</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2">
-        <v>45931.3125</v>
+        <v>45944.3125</v>
       </c>
       <c r="B32">
-        <v>857</v>
+        <v>597</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2">
-        <v>45931.32291666666</v>
+        <v>45944.32291666666</v>
       </c>
       <c r="B33">
-        <v>860</v>
+        <v>596</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2">
-        <v>45931.33333333334</v>
+        <v>45944.33333333334</v>
       </c>
       <c r="B34">
-        <v>581</v>
+        <v>493</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="2">
-        <v>45931.34375</v>
+        <v>45944.34375</v>
       </c>
       <c r="B35">
-        <v>570</v>
+        <v>497</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="2">
-        <v>45931.35416666666</v>
+        <v>45944.35416666666</v>
       </c>
       <c r="B36">
-        <v>565</v>
+        <v>500</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="2">
-        <v>45931.36458333334</v>
+        <v>45944.36458333334</v>
       </c>
       <c r="B37">
-        <v>560</v>
+        <v>492</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="2">
-        <v>45931.375</v>
+        <v>45944.375</v>
       </c>
       <c r="B38">
-        <v>0</v>
+        <v>422</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="2">
-        <v>45931.38541666666</v>
+        <v>45944.38541666666</v>
       </c>
       <c r="B39">
-        <v>0</v>
+        <v>414</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="2">
-        <v>45931.39583333334</v>
+        <v>45944.39583333334</v>
       </c>
       <c r="B40">
-        <v>0</v>
+        <v>415</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="2">
-        <v>45931.40625</v>
+        <v>45944.40625</v>
       </c>
       <c r="B41">
-        <v>0</v>
+        <v>409</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="2">
-        <v>45931.41666666666</v>
+        <v>45944.41666666666</v>
       </c>
       <c r="B42">
-        <v>0</v>
+        <v>388</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="2">
-        <v>45931.42708333334</v>
+        <v>45944.42708333334</v>
       </c>
       <c r="B43">
-        <v>0</v>
+        <v>383</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="2">
-        <v>45931.4375</v>
+        <v>45944.4375</v>
       </c>
       <c r="B44">
-        <v>0</v>
+        <v>381</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="2">
-        <v>45931.44791666666</v>
+        <v>45944.44791666666</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>381</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="2">
-        <v>45931.45833333334</v>
+        <v>45944.45833333334</v>
       </c>
       <c r="B46">
-        <v>0</v>
+        <v>303</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="2">
-        <v>45931.46875</v>
+        <v>45944.46875</v>
       </c>
       <c r="B47">
-        <v>0</v>
+        <v>293</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="2">
-        <v>45931.47916666666</v>
+        <v>45944.47916666666</v>
       </c>
       <c r="B48">
-        <v>0</v>
+        <v>295</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="2">
-        <v>45931.48958333334</v>
+        <v>45944.48958333334</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>298</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="2">
-        <v>45931.5</v>
+        <v>45944.5</v>
       </c>
       <c r="B50">
-        <v>0</v>
+        <v>309</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="2">
-        <v>45931.51041666666</v>
+        <v>45944.51041666666</v>
       </c>
       <c r="B51">
-        <v>0</v>
+        <v>308</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="2">
-        <v>45931.52083333334</v>
+        <v>45944.52083333334</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>274</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="2">
-        <v>45931.53125</v>
+        <v>45944.53125</v>
       </c>
       <c r="B53">
-        <v>0</v>
+        <v>271</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="2">
-        <v>45931.54166666666</v>
+        <v>45944.54166666666</v>
       </c>
       <c r="B54">
-        <v>0</v>
+        <v>319</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="2">
-        <v>45931.55208333334</v>
+        <v>45944.55208333334</v>
       </c>
       <c r="B55">
-        <v>0</v>
+        <v>323</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="2">
-        <v>45931.5625</v>
+        <v>45944.5625</v>
       </c>
       <c r="B56">
-        <v>0</v>
+        <v>325</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="2">
-        <v>45931.57291666666</v>
+        <v>45944.57291666666</v>
       </c>
       <c r="B57">
-        <v>0</v>
+        <v>328</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="2">
-        <v>45931.58333333334</v>
+        <v>45944.58333333334</v>
       </c>
       <c r="B58">
-        <v>0</v>
+        <v>386</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="2">
-        <v>45931.59375</v>
+        <v>45944.59375</v>
       </c>
       <c r="B59">
-        <v>0</v>
+        <v>387</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="2">
-        <v>45931.60416666666</v>
+        <v>45944.60416666666</v>
       </c>
       <c r="B60">
-        <v>0</v>
+        <v>385</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="2">
-        <v>45931.61458333334</v>
+        <v>45944.61458333334</v>
       </c>
       <c r="B61">
-        <v>0</v>
+        <v>392</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="2">
-        <v>45931.625</v>
+        <v>45944.625</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>389</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="2">
-        <v>45931.63541666666</v>
+        <v>45944.63541666666</v>
       </c>
       <c r="B63">
-        <v>0</v>
+        <v>387</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="2">
-        <v>45931.64583333334</v>
+        <v>45944.64583333334</v>
       </c>
       <c r="B64">
-        <v>0</v>
+        <v>391</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="2">
-        <v>45931.65625</v>
+        <v>45944.65625</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>405</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="2">
-        <v>45931.66666666666</v>
+        <v>45944.66666666666</v>
       </c>
       <c r="B66">
-        <v>0</v>
+        <v>465</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="2">
-        <v>45931.67708333334</v>
+        <v>45944.67708333334</v>
       </c>
       <c r="B67">
-        <v>0</v>
+        <v>468</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="2">
-        <v>45931.6875</v>
+        <v>45944.6875</v>
       </c>
       <c r="B68">
-        <v>0</v>
+        <v>470</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="2">
-        <v>45931.69791666666</v>
+        <v>45944.69791666666</v>
       </c>
       <c r="B69">
-        <v>0</v>
+        <v>496</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="2">
-        <v>45931.70833333334</v>
+        <v>45944.70833333334</v>
       </c>
       <c r="B70">
-        <v>0</v>
+        <v>722</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="2">
-        <v>45931.71875</v>
+        <v>45944.71875</v>
       </c>
       <c r="B71">
-        <v>0</v>
+        <v>726</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="2">
-        <v>45931.72916666666</v>
+        <v>45944.72916666666</v>
       </c>
       <c r="B72">
-        <v>0</v>
+        <v>725</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="2">
-        <v>45931.73958333334</v>
+        <v>45944.73958333334</v>
       </c>
       <c r="B73">
-        <v>0</v>
+        <v>726</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="2">
-        <v>45931.75</v>
+        <v>45944.75</v>
       </c>
       <c r="B74">
-        <v>0</v>
+        <v>764</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="2">
-        <v>45931.76041666666</v>
+        <v>45944.76041666666</v>
       </c>
       <c r="B75">
-        <v>0</v>
+        <v>771</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="2">
-        <v>45931.77083333334</v>
+        <v>45944.77083333334</v>
       </c>
       <c r="B76">
-        <v>0</v>
+        <v>766</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="2">
-        <v>45931.78125</v>
+        <v>45944.78125</v>
       </c>
       <c r="B77">
-        <v>0</v>
+        <v>777</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="2">
-        <v>45931.79166666666</v>
+        <v>45944.79166666666</v>
       </c>
       <c r="B78">
-        <v>0</v>
+        <v>775</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="2">
-        <v>45931.80208333334</v>
+        <v>45944.80208333334</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>774</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="2">
-        <v>45931.8125</v>
+        <v>45944.8125</v>
       </c>
       <c r="B80">
-        <v>0</v>
+        <v>776</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="2">
-        <v>45931.82291666666</v>
+        <v>45944.82291666666</v>
       </c>
       <c r="B81">
-        <v>0</v>
+        <v>774</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="2">
-        <v>45931.83333333334</v>
+        <v>45944.83333333334</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="2">
-        <v>45931.84375</v>
+        <v>45944.84375</v>
       </c>
       <c r="B83">
-        <v>0</v>
+        <v>736</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="2">
-        <v>45931.85416666666</v>
+        <v>45944.85416666666</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>741</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="2">
-        <v>45931.86458333334</v>
+        <v>45944.86458333334</v>
       </c>
       <c r="B85">
-        <v>0</v>
+        <v>740</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="2">
-        <v>45931.875</v>
+        <v>45944.875</v>
       </c>
       <c r="B86">
-        <v>0</v>
+        <v>711</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="2">
-        <v>45931.88541666666</v>
+        <v>45944.88541666666</v>
       </c>
       <c r="B87">
-        <v>0</v>
+        <v>704</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="2">
-        <v>45931.89583333334</v>
+        <v>45944.89583333334</v>
       </c>
       <c r="B88">
-        <v>0</v>
+        <v>709</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="2">
-        <v>45931.90625</v>
+        <v>45944.90625</v>
       </c>
       <c r="B89">
-        <v>0</v>
+        <v>700</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="2">
-        <v>45931.91666666666</v>
+        <v>45944.91666666666</v>
       </c>
       <c r="B90">
-        <v>0</v>
+        <v>531</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="2">
-        <v>45931.92708333334</v>
+        <v>45944.92708333334</v>
       </c>
       <c r="B91">
-        <v>0</v>
+        <v>530</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="2">
-        <v>45931.9375</v>
+        <v>45944.9375</v>
       </c>
       <c r="B92">
-        <v>0</v>
+        <v>535</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="2">
-        <v>45931.94791666666</v>
+        <v>45944.94791666666</v>
       </c>
       <c r="B93">
-        <v>0</v>
+        <v>542</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="2">
-        <v>45931.95833333334</v>
+        <v>45944.95833333334</v>
       </c>
       <c r="B94">
-        <v>0</v>
+        <v>514</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="2">
-        <v>45931.96875</v>
+        <v>45944.96875</v>
       </c>
       <c r="B95">
-        <v>0</v>
+        <v>512</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="2">
-        <v>45931.97916666666</v>
+        <v>45944.97916666666</v>
       </c>
       <c r="B96">
-        <v>0</v>
+        <v>511</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="2">
-        <v>45931.98958333334</v>
+        <v>45944.98958333334</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>508</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" s="2">
-        <v>45932</v>
+        <v>45945</v>
       </c>
       <c r="B98">
-        <v>0</v>
+        <v>420</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" s="2">
-        <v>45932.01041666666</v>
+        <v>45945.01041666666</v>
       </c>
       <c r="B99">
-        <v>0</v>
+        <v>414</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" s="2">
-        <v>45932.02083333334</v>
+        <v>45945.02083333334</v>
       </c>
       <c r="B100">
-        <v>0</v>
+        <v>414</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" s="2">
-        <v>45932.03125</v>
+        <v>45945.03125</v>
       </c>
       <c r="B101">
-        <v>0</v>
+        <v>414</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" s="2">
-        <v>45932.04166666666</v>
+        <v>45945.04166666666</v>
       </c>
       <c r="B102">
-        <v>0</v>
+        <v>417</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" s="2">
-        <v>45932.05208333334</v>
+        <v>45945.05208333334</v>
       </c>
       <c r="B103">
-        <v>0</v>
+        <v>413</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" s="2">
-        <v>45932.0625</v>
+        <v>45945.0625</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>414</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" s="2">
-        <v>45932.07291666666</v>
+        <v>45945.07291666666</v>
       </c>
       <c r="B105">
-        <v>0</v>
+        <v>414</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" s="2">
-        <v>45932.08333333334</v>
+        <v>45945.08333333334</v>
       </c>
       <c r="B106">
-        <v>0</v>
+        <v>414</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" s="2">
-        <v>45932.09375</v>
+        <v>45945.09375</v>
       </c>
       <c r="B107">
-        <v>0</v>
+        <v>413</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" s="2">
-        <v>45932.10416666666</v>
+        <v>45945.10416666666</v>
       </c>
       <c r="B108">
-        <v>0</v>
+        <v>419</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" s="2">
-        <v>45932.11458333334</v>
+        <v>45945.11458333334</v>
       </c>
       <c r="B109">
-        <v>0</v>
+        <v>417</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" s="2">
-        <v>45932.125</v>
+        <v>45945.125</v>
       </c>
       <c r="B110">
-        <v>0</v>
+        <v>418</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" s="2">
-        <v>45932.13541666666</v>
+        <v>45945.13541666666</v>
       </c>
       <c r="B111">
-        <v>0</v>
+        <v>417</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112" s="2">
-        <v>45932.14583333334</v>
+        <v>45945.14583333334</v>
       </c>
       <c r="B112">
-        <v>0</v>
+        <v>418</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" s="2">
-        <v>45932.15625</v>
+        <v>45945.15625</v>
       </c>
       <c r="B113">
-        <v>0</v>
+        <v>422</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" s="2">
-        <v>45932.16666666666</v>
+        <v>45945.16666666666</v>
       </c>
       <c r="B114">
-        <v>0</v>
+        <v>433</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" s="2">
-        <v>45932.17708333334</v>
+        <v>45945.17708333334</v>
       </c>
       <c r="B115">
-        <v>0</v>
+        <v>434</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" s="2">
-        <v>45932.1875</v>
+        <v>45945.1875</v>
       </c>
       <c r="B116">
-        <v>0</v>
+        <v>436</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117" s="2">
-        <v>45932.19791666666</v>
+        <v>45945.19791666666</v>
       </c>
       <c r="B117">
-        <v>0</v>
+        <v>448</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" s="2">
-        <v>45932.20833333334</v>
+        <v>45945.20833333334</v>
       </c>
       <c r="B118">
-        <v>0</v>
+        <v>573</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" s="2">
-        <v>45932.21875</v>
+        <v>45945.21875</v>
       </c>
       <c r="B119">
-        <v>0</v>
+        <v>574</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" s="2">
-        <v>45932.22916666666</v>
+        <v>45945.22916666666</v>
       </c>
       <c r="B120">
-        <v>0</v>
+        <v>580</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" s="2">
-        <v>45932.23958333334</v>
+        <v>45945.23958333334</v>
       </c>
       <c r="B121">
-        <v>0</v>
+        <v>610</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" s="2">
-        <v>45932.25</v>
+        <v>45945.25</v>
       </c>
       <c r="B122">
-        <v>0</v>
+        <v>795</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123" s="2">
-        <v>45932.26041666666</v>
+        <v>45945.26041666666</v>
       </c>
       <c r="B123">
-        <v>0</v>
+        <v>809</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" s="2">
-        <v>45932.27083333334</v>
+        <v>45945.27083333334</v>
       </c>
       <c r="B124">
-        <v>0</v>
+        <v>772</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" s="2">
-        <v>45932.28125</v>
+        <v>45945.28125</v>
       </c>
       <c r="B125">
-        <v>0</v>
+        <v>768</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" s="2">
-        <v>45932.29166666666</v>
+        <v>45945.29166666666</v>
       </c>
       <c r="B126">
-        <v>0</v>
+        <v>742</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127" s="2">
-        <v>45932.30208333334</v>
+        <v>45945.30208333334</v>
       </c>
       <c r="B127">
-        <v>0</v>
+        <v>787</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128" s="2">
-        <v>45932.3125</v>
+        <v>45945.3125</v>
       </c>
       <c r="B128">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" s="2">
-        <v>45932.32291666666</v>
+        <v>45945.32291666666</v>
       </c>
       <c r="B129">
-        <v>0</v>
+        <v>722</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" s="2">
-        <v>45932.33333333334</v>
+        <v>45945.33333333334</v>
       </c>
       <c r="B130">
-        <v>0</v>
+        <v>603</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" s="2">
-        <v>45932.34375</v>
+        <v>45945.34375</v>
       </c>
       <c r="B131">
-        <v>0</v>
+        <v>579</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132" s="2">
-        <v>45932.35416666666</v>
+        <v>45945.35416666666</v>
       </c>
       <c r="B132">
-        <v>0</v>
+        <v>570</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" s="2">
-        <v>45932.36458333334</v>
+        <v>45945.36458333334</v>
       </c>
       <c r="B133">
-        <v>0</v>
+        <v>568</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134" s="2">
-        <v>45932.375</v>
+        <v>45945.375</v>
       </c>
       <c r="B134">
-        <v>0</v>
+        <v>560</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135" s="2">
-        <v>45932.38541666666</v>
+        <v>45945.38541666666</v>
       </c>
       <c r="B135">
-        <v>0</v>
+        <v>556</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136" s="2">
-        <v>45932.39583333334</v>
+        <v>45945.39583333334</v>
       </c>
       <c r="B136">
-        <v>0</v>
+        <v>554</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137" s="2">
-        <v>45932.40625</v>
+        <v>45945.40625</v>
       </c>
       <c r="B137">
-        <v>0</v>
+        <v>564</v>
       </c>
     </row>
     <row r="138" spans="1:2">
       <c r="A138" s="2">
-        <v>45932.41666666666</v>
+        <v>45945.41666666666</v>
       </c>
       <c r="B138">
-        <v>0</v>
+        <v>515</v>
       </c>
     </row>
     <row r="139" spans="1:2">
       <c r="A139" s="2">
-        <v>45932.42708333334</v>
+        <v>45945.42708333334</v>
       </c>
       <c r="B139">
-        <v>0</v>
+        <v>508</v>
       </c>
     </row>
     <row r="140" spans="1:2">
       <c r="A140" s="2">
-        <v>45932.4375</v>
+        <v>45945.4375</v>
       </c>
       <c r="B140">
-        <v>0</v>
+        <v>506</v>
       </c>
     </row>
     <row r="141" spans="1:2">
       <c r="A141" s="2">
-        <v>45932.44791666666</v>
+        <v>45945.44791666666</v>
       </c>
       <c r="B141">
-        <v>0</v>
+        <v>502</v>
       </c>
     </row>
     <row r="142" spans="1:2">
       <c r="A142" s="2">
-        <v>45932.45833333334</v>
+        <v>45945.45833333334</v>
       </c>
       <c r="B142">
-        <v>0</v>
+        <v>292</v>
       </c>
     </row>
     <row r="143" spans="1:2">
       <c r="A143" s="2">
-        <v>45932.46875</v>
+        <v>45945.46875</v>
       </c>
       <c r="B143">
-        <v>0</v>
+        <v>288</v>
       </c>
     </row>
     <row r="144" spans="1:2">
       <c r="A144" s="2">
-        <v>45932.47916666666</v>
+        <v>45945.47916666666</v>
       </c>
       <c r="B144">
-        <v>0</v>
+        <v>290</v>
       </c>
     </row>
     <row r="145" spans="1:2">
       <c r="A145" s="2">
-        <v>45932.48958333334</v>
+        <v>45945.48958333334</v>
       </c>
       <c r="B145">
-        <v>0</v>
+        <v>294</v>
       </c>
     </row>
     <row r="146" spans="1:2">
       <c r="A146" s="2">
-        <v>45932.5</v>
+        <v>45945.5</v>
       </c>
       <c r="B146">
-        <v>0</v>
+        <v>278</v>
       </c>
     </row>
     <row r="147" spans="1:2">
       <c r="A147" s="2">
-        <v>45932.51041666666</v>
+        <v>45945.51041666666</v>
       </c>
       <c r="B147">
-        <v>0</v>
+        <v>273</v>
       </c>
     </row>
     <row r="148" spans="1:2">
       <c r="A148" s="2">
-        <v>45932.52083333334</v>
+        <v>45945.52083333334</v>
       </c>
       <c r="B148">
-        <v>0</v>
+        <v>278</v>
       </c>
     </row>
     <row r="149" spans="1:2">
       <c r="A149" s="2">
-        <v>45932.53125</v>
+        <v>45945.53125</v>
       </c>
       <c r="B149">
-        <v>0</v>
+        <v>278</v>
       </c>
     </row>
     <row r="150" spans="1:2">
       <c r="A150" s="2">
-        <v>45932.54166666666</v>
+        <v>45945.54166666666</v>
       </c>
       <c r="B150">
-        <v>0</v>
+        <v>307</v>
       </c>
     </row>
     <row r="151" spans="1:2">
       <c r="A151" s="2">
-        <v>45932.55208333334</v>
+        <v>45945.55208333334</v>
       </c>
       <c r="B151">
-        <v>0</v>
+        <v>310</v>
       </c>
     </row>
     <row r="152" spans="1:2">
       <c r="A152" s="2">
-        <v>45932.5625</v>
+        <v>45945.5625</v>
       </c>
       <c r="B152">
-        <v>0</v>
+        <v>309</v>
       </c>
     </row>
     <row r="153" spans="1:2">
       <c r="A153" s="2">
-        <v>45932.57291666666</v>
+        <v>45945.57291666666</v>
       </c>
       <c r="B153">
-        <v>0</v>
+        <v>314</v>
       </c>
     </row>
     <row r="154" spans="1:2">
       <c r="A154" s="2">
-        <v>45932.58333333334</v>
+        <v>45945.58333333334</v>
       </c>
       <c r="B154">
-        <v>0</v>
+        <v>289</v>
       </c>
     </row>
     <row r="155" spans="1:2">
       <c r="A155" s="2">
-        <v>45932.59375</v>
+        <v>45945.59375</v>
       </c>
       <c r="B155">
-        <v>0</v>
+        <v>290</v>
       </c>
     </row>
     <row r="156" spans="1:2">
       <c r="A156" s="2">
-        <v>45932.60416666666</v>
+        <v>45945.60416666666</v>
       </c>
       <c r="B156">
-        <v>0</v>
+        <v>292</v>
       </c>
     </row>
     <row r="157" spans="1:2">
       <c r="A157" s="2">
-        <v>45932.61458333334</v>
+        <v>45945.61458333334</v>
       </c>
       <c r="B157">
-        <v>0</v>
+        <v>301</v>
       </c>
     </row>
     <row r="158" spans="1:2">
       <c r="A158" s="2">
-        <v>45932.625</v>
+        <v>45945.625</v>
       </c>
       <c r="B158">
-        <v>0</v>
+        <v>455</v>
       </c>
     </row>
     <row r="159" spans="1:2">
       <c r="A159" s="2">
-        <v>45932.63541666666</v>
+        <v>45945.63541666666</v>
       </c>
       <c r="B159">
-        <v>0</v>
+        <v>471</v>
       </c>
     </row>
     <row r="160" spans="1:2">
       <c r="A160" s="2">
-        <v>45932.64583333334</v>
+        <v>45945.64583333334</v>
       </c>
       <c r="B160">
-        <v>0</v>
+        <v>496</v>
       </c>
     </row>
     <row r="161" spans="1:2">
       <c r="A161" s="2">
-        <v>45932.65625</v>
+        <v>45945.65625</v>
       </c>
       <c r="B161">
-        <v>0</v>
+        <v>502</v>
       </c>
     </row>
     <row r="162" spans="1:2">
       <c r="A162" s="2">
-        <v>45932.66666666666</v>
+        <v>45945.66666666666</v>
       </c>
       <c r="B162">
-        <v>0</v>
+        <v>599</v>
       </c>
     </row>
     <row r="163" spans="1:2">
       <c r="A163" s="2">
-        <v>45932.67708333334</v>
+        <v>45945.67708333334</v>
       </c>
       <c r="B163">
-        <v>0</v>
+        <v>617</v>
       </c>
     </row>
     <row r="164" spans="1:2">
       <c r="A164" s="2">
-        <v>45932.6875</v>
+        <v>45945.6875</v>
       </c>
       <c r="B164">
-        <v>0</v>
+        <v>647</v>
       </c>
     </row>
     <row r="165" spans="1:2">
       <c r="A165" s="2">
-        <v>45932.69791666666</v>
+        <v>45945.69791666666</v>
       </c>
       <c r="B165">
-        <v>0</v>
+        <v>726</v>
       </c>
     </row>
     <row r="166" spans="1:2">
       <c r="A166" s="2">
-        <v>45932.70833333334</v>
+        <v>45945.70833333334</v>
       </c>
       <c r="B166">
-        <v>0</v>
+        <v>809</v>
       </c>
     </row>
     <row r="167" spans="1:2">
       <c r="A167" s="2">
-        <v>45932.71875</v>
+        <v>45945.71875</v>
       </c>
       <c r="B167">
-        <v>0</v>
+        <v>812</v>
       </c>
     </row>
     <row r="168" spans="1:2">
       <c r="A168" s="2">
-        <v>45932.72916666666</v>
+        <v>45945.72916666666</v>
       </c>
       <c r="B168">
-        <v>0</v>
+        <v>816</v>
       </c>
     </row>
     <row r="169" spans="1:2">
       <c r="A169" s="2">
-        <v>45932.73958333334</v>
+        <v>45945.73958333334</v>
       </c>
       <c r="B169">
-        <v>0</v>
+        <v>882</v>
       </c>
     </row>
     <row r="170" spans="1:2">
       <c r="A170" s="2">
-        <v>45932.75</v>
+        <v>45945.75</v>
       </c>
       <c r="B170">
-        <v>0</v>
+        <v>897</v>
       </c>
     </row>
     <row r="171" spans="1:2">
       <c r="A171" s="2">
-        <v>45932.76041666666</v>
+        <v>45945.76041666666</v>
       </c>
       <c r="B171">
         <v>0</v>
@@ -1757,7 +1757,7 @@
     </row>
     <row r="172" spans="1:2">
       <c r="A172" s="2">
-        <v>45932.77083333334</v>
+        <v>45945.77083333334</v>
       </c>
       <c r="B172">
         <v>0</v>
@@ -1765,7 +1765,7 @@
     </row>
     <row r="173" spans="1:2">
       <c r="A173" s="2">
-        <v>45932.78125</v>
+        <v>45945.78125</v>
       </c>
       <c r="B173">
         <v>0</v>
@@ -1773,7 +1773,7 @@
     </row>
     <row r="174" spans="1:2">
       <c r="A174" s="2">
-        <v>45932.79166666666</v>
+        <v>45945.79166666666</v>
       </c>
       <c r="B174">
         <v>0</v>
@@ -1781,7 +1781,7 @@
     </row>
     <row r="175" spans="1:2">
       <c r="A175" s="2">
-        <v>45932.80208333334</v>
+        <v>45945.80208333334</v>
       </c>
       <c r="B175">
         <v>0</v>
@@ -1789,7 +1789,7 @@
     </row>
     <row r="176" spans="1:2">
       <c r="A176" s="2">
-        <v>45932.8125</v>
+        <v>45945.8125</v>
       </c>
       <c r="B176">
         <v>0</v>
@@ -1797,7 +1797,7 @@
     </row>
     <row r="177" spans="1:2">
       <c r="A177" s="2">
-        <v>45932.82291666666</v>
+        <v>45945.82291666666</v>
       </c>
       <c r="B177">
         <v>0</v>
@@ -1805,7 +1805,7 @@
     </row>
     <row r="178" spans="1:2">
       <c r="A178" s="2">
-        <v>45932.83333333334</v>
+        <v>45945.83333333334</v>
       </c>
       <c r="B178">
         <v>0</v>
@@ -1813,7 +1813,7 @@
     </row>
     <row r="179" spans="1:2">
       <c r="A179" s="2">
-        <v>45932.84375</v>
+        <v>45945.84375</v>
       </c>
       <c r="B179">
         <v>0</v>
@@ -1821,7 +1821,7 @@
     </row>
     <row r="180" spans="1:2">
       <c r="A180" s="2">
-        <v>45932.85416666666</v>
+        <v>45945.85416666666</v>
       </c>
       <c r="B180">
         <v>0</v>
@@ -1829,7 +1829,7 @@
     </row>
     <row r="181" spans="1:2">
       <c r="A181" s="2">
-        <v>45932.86458333334</v>
+        <v>45945.86458333334</v>
       </c>
       <c r="B181">
         <v>0</v>
@@ -1837,7 +1837,7 @@
     </row>
     <row r="182" spans="1:2">
       <c r="A182" s="2">
-        <v>45932.875</v>
+        <v>45945.875</v>
       </c>
       <c r="B182">
         <v>0</v>
@@ -1845,7 +1845,7 @@
     </row>
     <row r="183" spans="1:2">
       <c r="A183" s="2">
-        <v>45932.88541666666</v>
+        <v>45945.88541666666</v>
       </c>
       <c r="B183">
         <v>0</v>
@@ -1853,7 +1853,7 @@
     </row>
     <row r="184" spans="1:2">
       <c r="A184" s="2">
-        <v>45932.89583333334</v>
+        <v>45945.89583333334</v>
       </c>
       <c r="B184">
         <v>0</v>
@@ -1861,7 +1861,7 @@
     </row>
     <row r="185" spans="1:2">
       <c r="A185" s="2">
-        <v>45932.90625</v>
+        <v>45945.90625</v>
       </c>
       <c r="B185">
         <v>0</v>
@@ -1869,7 +1869,7 @@
     </row>
     <row r="186" spans="1:2">
       <c r="A186" s="2">
-        <v>45932.91666666666</v>
+        <v>45945.91666666666</v>
       </c>
       <c r="B186">
         <v>0</v>
@@ -1877,7 +1877,7 @@
     </row>
     <row r="187" spans="1:2">
       <c r="A187" s="2">
-        <v>45932.92708333334</v>
+        <v>45945.92708333334</v>
       </c>
       <c r="B187">
         <v>0</v>
@@ -1885,7 +1885,7 @@
     </row>
     <row r="188" spans="1:2">
       <c r="A188" s="2">
-        <v>45932.9375</v>
+        <v>45945.9375</v>
       </c>
       <c r="B188">
         <v>0</v>
@@ -1893,7 +1893,7 @@
     </row>
     <row r="189" spans="1:2">
       <c r="A189" s="2">
-        <v>45932.94791666666</v>
+        <v>45945.94791666666</v>
       </c>
       <c r="B189">
         <v>0</v>
@@ -1901,7 +1901,7 @@
     </row>
     <row r="190" spans="1:2">
       <c r="A190" s="2">
-        <v>45932.95833333334</v>
+        <v>45945.95833333334</v>
       </c>
       <c r="B190">
         <v>0</v>
@@ -1909,7 +1909,7 @@
     </row>
     <row r="191" spans="1:2">
       <c r="A191" s="2">
-        <v>45932.96875</v>
+        <v>45945.96875</v>
       </c>
       <c r="B191">
         <v>0</v>
@@ -1917,7 +1917,7 @@
     </row>
     <row r="192" spans="1:2">
       <c r="A192" s="2">
-        <v>45932.97916666666</v>
+        <v>45945.97916666666</v>
       </c>
       <c r="B192">
         <v>0</v>
@@ -1925,9 +1925,777 @@
     </row>
     <row r="193" spans="1:2">
       <c r="A193" s="2">
-        <v>45932.98958333334</v>
+        <v>45945.98958333334</v>
       </c>
       <c r="B193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2">
+      <c r="A194" s="2">
+        <v>45946</v>
+      </c>
+      <c r="B194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2">
+      <c r="A195" s="2">
+        <v>45946.01041666666</v>
+      </c>
+      <c r="B195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2">
+      <c r="A196" s="2">
+        <v>45946.02083333334</v>
+      </c>
+      <c r="B196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2">
+      <c r="A197" s="2">
+        <v>45946.03125</v>
+      </c>
+      <c r="B197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2">
+      <c r="A198" s="2">
+        <v>45946.04166666666</v>
+      </c>
+      <c r="B198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2">
+      <c r="A199" s="2">
+        <v>45946.05208333334</v>
+      </c>
+      <c r="B199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2">
+      <c r="A200" s="2">
+        <v>45946.0625</v>
+      </c>
+      <c r="B200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2">
+      <c r="A201" s="2">
+        <v>45946.07291666666</v>
+      </c>
+      <c r="B201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2">
+      <c r="A202" s="2">
+        <v>45946.08333333334</v>
+      </c>
+      <c r="B202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2">
+      <c r="A203" s="2">
+        <v>45946.09375</v>
+      </c>
+      <c r="B203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2">
+      <c r="A204" s="2">
+        <v>45946.10416666666</v>
+      </c>
+      <c r="B204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2">
+      <c r="A205" s="2">
+        <v>45946.11458333334</v>
+      </c>
+      <c r="B205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2">
+      <c r="A206" s="2">
+        <v>45946.125</v>
+      </c>
+      <c r="B206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2">
+      <c r="A207" s="2">
+        <v>45946.13541666666</v>
+      </c>
+      <c r="B207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2">
+      <c r="A208" s="2">
+        <v>45946.14583333334</v>
+      </c>
+      <c r="B208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2">
+      <c r="A209" s="2">
+        <v>45946.15625</v>
+      </c>
+      <c r="B209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2">
+      <c r="A210" s="2">
+        <v>45946.16666666666</v>
+      </c>
+      <c r="B210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2">
+      <c r="A211" s="2">
+        <v>45946.17708333334</v>
+      </c>
+      <c r="B211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2">
+      <c r="A212" s="2">
+        <v>45946.1875</v>
+      </c>
+      <c r="B212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2">
+      <c r="A213" s="2">
+        <v>45946.19791666666</v>
+      </c>
+      <c r="B213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2">
+      <c r="A214" s="2">
+        <v>45946.20833333334</v>
+      </c>
+      <c r="B214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2">
+      <c r="A215" s="2">
+        <v>45946.21875</v>
+      </c>
+      <c r="B215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2">
+      <c r="A216" s="2">
+        <v>45946.22916666666</v>
+      </c>
+      <c r="B216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2">
+      <c r="A217" s="2">
+        <v>45946.23958333334</v>
+      </c>
+      <c r="B217">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2">
+      <c r="A218" s="2">
+        <v>45946.25</v>
+      </c>
+      <c r="B218">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2">
+      <c r="A219" s="2">
+        <v>45946.26041666666</v>
+      </c>
+      <c r="B219">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2">
+      <c r="A220" s="2">
+        <v>45946.27083333334</v>
+      </c>
+      <c r="B220">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2">
+      <c r="A221" s="2">
+        <v>45946.28125</v>
+      </c>
+      <c r="B221">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2">
+      <c r="A222" s="2">
+        <v>45946.29166666666</v>
+      </c>
+      <c r="B222">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2">
+      <c r="A223" s="2">
+        <v>45946.30208333334</v>
+      </c>
+      <c r="B223">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2">
+      <c r="A224" s="2">
+        <v>45946.3125</v>
+      </c>
+      <c r="B224">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2">
+      <c r="A225" s="2">
+        <v>45946.32291666666</v>
+      </c>
+      <c r="B225">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2">
+      <c r="A226" s="2">
+        <v>45946.33333333334</v>
+      </c>
+      <c r="B226">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2">
+      <c r="A227" s="2">
+        <v>45946.34375</v>
+      </c>
+      <c r="B227">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2">
+      <c r="A228" s="2">
+        <v>45946.35416666666</v>
+      </c>
+      <c r="B228">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2">
+      <c r="A229" s="2">
+        <v>45946.36458333334</v>
+      </c>
+      <c r="B229">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2">
+      <c r="A230" s="2">
+        <v>45946.375</v>
+      </c>
+      <c r="B230">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2">
+      <c r="A231" s="2">
+        <v>45946.38541666666</v>
+      </c>
+      <c r="B231">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2">
+      <c r="A232" s="2">
+        <v>45946.39583333334</v>
+      </c>
+      <c r="B232">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2">
+      <c r="A233" s="2">
+        <v>45946.40625</v>
+      </c>
+      <c r="B233">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2">
+      <c r="A234" s="2">
+        <v>45946.41666666666</v>
+      </c>
+      <c r="B234">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2">
+      <c r="A235" s="2">
+        <v>45946.42708333334</v>
+      </c>
+      <c r="B235">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2">
+      <c r="A236" s="2">
+        <v>45946.4375</v>
+      </c>
+      <c r="B236">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2">
+      <c r="A237" s="2">
+        <v>45946.44791666666</v>
+      </c>
+      <c r="B237">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2">
+      <c r="A238" s="2">
+        <v>45946.45833333334</v>
+      </c>
+      <c r="B238">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2">
+      <c r="A239" s="2">
+        <v>45946.46875</v>
+      </c>
+      <c r="B239">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2">
+      <c r="A240" s="2">
+        <v>45946.47916666666</v>
+      </c>
+      <c r="B240">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2">
+      <c r="A241" s="2">
+        <v>45946.48958333334</v>
+      </c>
+      <c r="B241">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2">
+      <c r="A242" s="2">
+        <v>45946.5</v>
+      </c>
+      <c r="B242">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2">
+      <c r="A243" s="2">
+        <v>45946.51041666666</v>
+      </c>
+      <c r="B243">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2">
+      <c r="A244" s="2">
+        <v>45946.52083333334</v>
+      </c>
+      <c r="B244">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2">
+      <c r="A245" s="2">
+        <v>45946.53125</v>
+      </c>
+      <c r="B245">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2">
+      <c r="A246" s="2">
+        <v>45946.54166666666</v>
+      </c>
+      <c r="B246">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2">
+      <c r="A247" s="2">
+        <v>45946.55208333334</v>
+      </c>
+      <c r="B247">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2">
+      <c r="A248" s="2">
+        <v>45946.5625</v>
+      </c>
+      <c r="B248">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2">
+      <c r="A249" s="2">
+        <v>45946.57291666666</v>
+      </c>
+      <c r="B249">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2">
+      <c r="A250" s="2">
+        <v>45946.58333333334</v>
+      </c>
+      <c r="B250">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2">
+      <c r="A251" s="2">
+        <v>45946.59375</v>
+      </c>
+      <c r="B251">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2">
+      <c r="A252" s="2">
+        <v>45946.60416666666</v>
+      </c>
+      <c r="B252">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2">
+      <c r="A253" s="2">
+        <v>45946.61458333334</v>
+      </c>
+      <c r="B253">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2">
+      <c r="A254" s="2">
+        <v>45946.625</v>
+      </c>
+      <c r="B254">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2">
+      <c r="A255" s="2">
+        <v>45946.63541666666</v>
+      </c>
+      <c r="B255">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2">
+      <c r="A256" s="2">
+        <v>45946.64583333334</v>
+      </c>
+      <c r="B256">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2">
+      <c r="A257" s="2">
+        <v>45946.65625</v>
+      </c>
+      <c r="B257">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2">
+      <c r="A258" s="2">
+        <v>45946.66666666666</v>
+      </c>
+      <c r="B258">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2">
+      <c r="A259" s="2">
+        <v>45946.67708333334</v>
+      </c>
+      <c r="B259">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2">
+      <c r="A260" s="2">
+        <v>45946.6875</v>
+      </c>
+      <c r="B260">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2">
+      <c r="A261" s="2">
+        <v>45946.69791666666</v>
+      </c>
+      <c r="B261">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2">
+      <c r="A262" s="2">
+        <v>45946.70833333334</v>
+      </c>
+      <c r="B262">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2">
+      <c r="A263" s="2">
+        <v>45946.71875</v>
+      </c>
+      <c r="B263">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2">
+      <c r="A264" s="2">
+        <v>45946.72916666666</v>
+      </c>
+      <c r="B264">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2">
+      <c r="A265" s="2">
+        <v>45946.73958333334</v>
+      </c>
+      <c r="B265">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2">
+      <c r="A266" s="2">
+        <v>45946.75</v>
+      </c>
+      <c r="B266">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2">
+      <c r="A267" s="2">
+        <v>45946.76041666666</v>
+      </c>
+      <c r="B267">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2">
+      <c r="A268" s="2">
+        <v>45946.77083333334</v>
+      </c>
+      <c r="B268">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2">
+      <c r="A269" s="2">
+        <v>45946.78125</v>
+      </c>
+      <c r="B269">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2">
+      <c r="A270" s="2">
+        <v>45946.79166666666</v>
+      </c>
+      <c r="B270">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2">
+      <c r="A271" s="2">
+        <v>45946.80208333334</v>
+      </c>
+      <c r="B271">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2">
+      <c r="A272" s="2">
+        <v>45946.8125</v>
+      </c>
+      <c r="B272">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2">
+      <c r="A273" s="2">
+        <v>45946.82291666666</v>
+      </c>
+      <c r="B273">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2">
+      <c r="A274" s="2">
+        <v>45946.83333333334</v>
+      </c>
+      <c r="B274">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2">
+      <c r="A275" s="2">
+        <v>45946.84375</v>
+      </c>
+      <c r="B275">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2">
+      <c r="A276" s="2">
+        <v>45946.85416666666</v>
+      </c>
+      <c r="B276">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2">
+      <c r="A277" s="2">
+        <v>45946.86458333334</v>
+      </c>
+      <c r="B277">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2">
+      <c r="A278" s="2">
+        <v>45946.875</v>
+      </c>
+      <c r="B278">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2">
+      <c r="A279" s="2">
+        <v>45946.88541666666</v>
+      </c>
+      <c r="B279">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2">
+      <c r="A280" s="2">
+        <v>45946.89583333334</v>
+      </c>
+      <c r="B280">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2">
+      <c r="A281" s="2">
+        <v>45946.90625</v>
+      </c>
+      <c r="B281">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2">
+      <c r="A282" s="2">
+        <v>45946.91666666666</v>
+      </c>
+      <c r="B282">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2">
+      <c r="A283" s="2">
+        <v>45946.92708333334</v>
+      </c>
+      <c r="B283">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2">
+      <c r="A284" s="2">
+        <v>45946.9375</v>
+      </c>
+      <c r="B284">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2">
+      <c r="A285" s="2">
+        <v>45946.94791666666</v>
+      </c>
+      <c r="B285">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2">
+      <c r="A286" s="2">
+        <v>45946.95833333334</v>
+      </c>
+      <c r="B286">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2">
+      <c r="A287" s="2">
+        <v>45946.96875</v>
+      </c>
+      <c r="B287">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2">
+      <c r="A288" s="2">
+        <v>45946.97916666666</v>
+      </c>
+      <c r="B288">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2">
+      <c r="A289" s="2">
+        <v>45946.98958333334</v>
+      </c>
+      <c r="B289">
         <v>0</v>
       </c>
     </row>

--- a/data_fetching/Entsoe/Actual_Production_Hydro_Water_Reservoir.xlsx
+++ b/data_fetching/Entsoe/Actual_Production_Hydro_Water_Reservoir.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B289"/>
+  <dimension ref="A1:B193"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -397,1359 +397,1359 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2">
-        <v>45944</v>
+        <v>45953</v>
       </c>
       <c r="B2">
-        <v>429</v>
+        <v>436</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2">
-        <v>45944.01041666666</v>
+        <v>45953.01041666666</v>
       </c>
       <c r="B3">
-        <v>425</v>
+        <v>431</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2">
-        <v>45944.02083333334</v>
+        <v>45953.02083333334</v>
       </c>
       <c r="B4">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2">
-        <v>45944.03125</v>
+        <v>45953.03125</v>
       </c>
       <c r="B5">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2">
-        <v>45944.04166666666</v>
+        <v>45953.04166666666</v>
       </c>
       <c r="B6">
-        <v>395</v>
+        <v>352</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2">
-        <v>45944.05208333334</v>
+        <v>45953.05208333334</v>
       </c>
       <c r="B7">
-        <v>376</v>
+        <v>343</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2">
-        <v>45944.0625</v>
+        <v>45953.0625</v>
       </c>
       <c r="B8">
-        <v>376</v>
+        <v>337</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2">
-        <v>45944.07291666666</v>
+        <v>45953.07291666666</v>
       </c>
       <c r="B9">
-        <v>379</v>
+        <v>329</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2">
-        <v>45944.08333333334</v>
+        <v>45953.08333333334</v>
       </c>
       <c r="B10">
-        <v>417</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2">
-        <v>45944.09375</v>
+        <v>45953.09375</v>
       </c>
       <c r="B11">
-        <v>431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2">
-        <v>45944.10416666666</v>
+        <v>45953.10416666666</v>
       </c>
       <c r="B12">
-        <v>432</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2">
-        <v>45944.11458333334</v>
+        <v>45953.11458333334</v>
       </c>
       <c r="B13">
-        <v>432</v>
+        <v>332</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2">
-        <v>45944.125</v>
+        <v>45953.125</v>
       </c>
       <c r="B14">
-        <v>432</v>
+        <v>327</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2">
-        <v>45944.13541666666</v>
+        <v>45953.13541666666</v>
       </c>
       <c r="B15">
-        <v>430</v>
+        <v>328</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2">
-        <v>45944.14583333334</v>
+        <v>45953.14583333334</v>
       </c>
       <c r="B16">
-        <v>431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2">
-        <v>45944.15625</v>
+        <v>45953.15625</v>
       </c>
       <c r="B17">
-        <v>436</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2">
-        <v>45944.16666666666</v>
+        <v>45953.16666666666</v>
       </c>
       <c r="B18">
-        <v>457</v>
+        <v>331</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2">
-        <v>45944.17708333334</v>
+        <v>45953.17708333334</v>
       </c>
       <c r="B19">
-        <v>460</v>
+        <v>332</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2">
-        <v>45944.1875</v>
+        <v>45953.1875</v>
       </c>
       <c r="B20">
-        <v>459</v>
+        <v>331</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2">
-        <v>45944.19791666666</v>
+        <v>45953.19791666666</v>
       </c>
       <c r="B21">
-        <v>460</v>
+        <v>355</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2">
-        <v>45944.20833333334</v>
+        <v>45953.20833333334</v>
       </c>
       <c r="B22">
-        <v>558</v>
+        <v>513</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2">
-        <v>45944.21875</v>
+        <v>45953.21875</v>
       </c>
       <c r="B23">
-        <v>560</v>
+        <v>521</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2">
-        <v>45944.22916666666</v>
+        <v>45953.22916666666</v>
       </c>
       <c r="B24">
-        <v>562</v>
+        <v>530</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2">
-        <v>45944.23958333334</v>
+        <v>45953.23958333334</v>
       </c>
       <c r="B25">
-        <v>584</v>
+        <v>544</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2">
-        <v>45944.25</v>
+        <v>45953.25</v>
       </c>
       <c r="B26">
-        <v>651</v>
+        <v>682</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2">
-        <v>45944.26041666666</v>
+        <v>45953.26041666666</v>
       </c>
       <c r="B27">
-        <v>673</v>
+        <v>651</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2">
-        <v>45944.27083333334</v>
+        <v>45953.27083333334</v>
       </c>
       <c r="B28">
-        <v>686</v>
+        <v>689</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2">
-        <v>45944.28125</v>
+        <v>45953.28125</v>
       </c>
       <c r="B29">
-        <v>676</v>
+        <v>738</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2">
-        <v>45944.29166666666</v>
+        <v>45953.29166666666</v>
       </c>
       <c r="B30">
-        <v>614</v>
+        <v>781</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2">
-        <v>45944.30208333334</v>
+        <v>45953.30208333334</v>
       </c>
       <c r="B31">
-        <v>604</v>
+        <v>804</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2">
-        <v>45944.3125</v>
+        <v>45953.3125</v>
       </c>
       <c r="B32">
-        <v>597</v>
+        <v>790</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2">
-        <v>45944.32291666666</v>
+        <v>45953.32291666666</v>
       </c>
       <c r="B33">
-        <v>596</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2">
-        <v>45944.33333333334</v>
+        <v>45953.33333333334</v>
       </c>
       <c r="B34">
-        <v>493</v>
+        <v>650</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="2">
-        <v>45944.34375</v>
+        <v>45953.34375</v>
       </c>
       <c r="B35">
-        <v>497</v>
+        <v>646</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="2">
-        <v>45944.35416666666</v>
+        <v>45953.35416666666</v>
       </c>
       <c r="B36">
-        <v>500</v>
+        <v>648</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="2">
-        <v>45944.36458333334</v>
+        <v>45953.36458333334</v>
       </c>
       <c r="B37">
-        <v>492</v>
+        <v>641</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="2">
-        <v>45944.375</v>
+        <v>45953.375</v>
       </c>
       <c r="B38">
-        <v>422</v>
+        <v>366</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="2">
-        <v>45944.38541666666</v>
+        <v>45953.38541666666</v>
       </c>
       <c r="B39">
-        <v>414</v>
+        <v>572</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="2">
-        <v>45944.39583333334</v>
+        <v>45953.39583333334</v>
       </c>
       <c r="B40">
-        <v>415</v>
+        <v>578</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="2">
-        <v>45944.40625</v>
+        <v>45953.40625</v>
       </c>
       <c r="B41">
-        <v>409</v>
+        <v>509</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="2">
-        <v>45944.41666666666</v>
+        <v>45953.41666666666</v>
       </c>
       <c r="B42">
-        <v>388</v>
+        <v>424</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="2">
-        <v>45944.42708333334</v>
+        <v>45953.42708333334</v>
       </c>
       <c r="B43">
-        <v>383</v>
+        <v>415</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="2">
-        <v>45944.4375</v>
+        <v>45953.4375</v>
       </c>
       <c r="B44">
-        <v>381</v>
+        <v>412</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="2">
-        <v>45944.44791666666</v>
+        <v>45953.44791666666</v>
       </c>
       <c r="B45">
-        <v>381</v>
+        <v>304</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="2">
-        <v>45944.45833333334</v>
+        <v>45953.45833333334</v>
       </c>
       <c r="B46">
-        <v>303</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="2">
-        <v>45944.46875</v>
+        <v>45953.46875</v>
       </c>
       <c r="B47">
-        <v>293</v>
+        <v>301</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="2">
-        <v>45944.47916666666</v>
+        <v>45953.47916666666</v>
       </c>
       <c r="B48">
-        <v>295</v>
+        <v>227</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="2">
-        <v>45944.48958333334</v>
+        <v>45953.48958333334</v>
       </c>
       <c r="B49">
-        <v>298</v>
+        <v>219</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="2">
-        <v>45944.5</v>
+        <v>45953.5</v>
       </c>
       <c r="B50">
-        <v>309</v>
+        <v>221</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="2">
-        <v>45944.51041666666</v>
+        <v>45953.51041666666</v>
       </c>
       <c r="B51">
-        <v>308</v>
+        <v>219</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="2">
-        <v>45944.52083333334</v>
+        <v>45953.52083333334</v>
       </c>
       <c r="B52">
-        <v>274</v>
+        <v>222</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="2">
-        <v>45944.53125</v>
+        <v>45953.53125</v>
       </c>
       <c r="B53">
-        <v>271</v>
+        <v>221</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="2">
-        <v>45944.54166666666</v>
+        <v>45953.54166666666</v>
       </c>
       <c r="B54">
-        <v>319</v>
+        <v>226</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="2">
-        <v>45944.55208333334</v>
+        <v>45953.55208333334</v>
       </c>
       <c r="B55">
-        <v>323</v>
+        <v>225</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="2">
-        <v>45944.5625</v>
+        <v>45953.5625</v>
       </c>
       <c r="B56">
-        <v>325</v>
+        <v>226</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="2">
-        <v>45944.57291666666</v>
+        <v>45953.57291666666</v>
       </c>
       <c r="B57">
-        <v>328</v>
+        <v>231</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="2">
-        <v>45944.58333333334</v>
+        <v>45953.58333333334</v>
       </c>
       <c r="B58">
-        <v>386</v>
+        <v>299</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="2">
-        <v>45944.59375</v>
+        <v>45953.59375</v>
       </c>
       <c r="B59">
-        <v>387</v>
+        <v>305</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="2">
-        <v>45944.60416666666</v>
+        <v>45953.60416666666</v>
       </c>
       <c r="B60">
-        <v>385</v>
+        <v>320</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="2">
-        <v>45944.61458333334</v>
+        <v>45953.61458333334</v>
       </c>
       <c r="B61">
-        <v>392</v>
+        <v>329</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="2">
-        <v>45944.625</v>
+        <v>45953.625</v>
       </c>
       <c r="B62">
-        <v>389</v>
+        <v>402</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="2">
-        <v>45944.63541666666</v>
+        <v>45953.63541666666</v>
       </c>
       <c r="B63">
-        <v>387</v>
+        <v>410</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="2">
-        <v>45944.64583333334</v>
+        <v>45953.64583333334</v>
       </c>
       <c r="B64">
-        <v>391</v>
+        <v>409</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="2">
-        <v>45944.65625</v>
+        <v>45953.65625</v>
       </c>
       <c r="B65">
-        <v>405</v>
+        <v>441</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="2">
-        <v>45944.66666666666</v>
+        <v>45953.66666666666</v>
       </c>
       <c r="B66">
-        <v>465</v>
+        <v>764</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="2">
-        <v>45944.67708333334</v>
+        <v>45953.67708333334</v>
       </c>
       <c r="B67">
-        <v>468</v>
+        <v>771</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="2">
-        <v>45944.6875</v>
+        <v>45953.6875</v>
       </c>
       <c r="B68">
-        <v>470</v>
+        <v>768</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="2">
-        <v>45944.69791666666</v>
+        <v>45953.69791666666</v>
       </c>
       <c r="B69">
-        <v>496</v>
+        <v>852</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="2">
-        <v>45944.70833333334</v>
+        <v>45953.70833333334</v>
       </c>
       <c r="B70">
-        <v>722</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="2">
-        <v>45944.71875</v>
+        <v>45953.71875</v>
       </c>
       <c r="B71">
-        <v>726</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="2">
-        <v>45944.72916666666</v>
+        <v>45953.72916666666</v>
       </c>
       <c r="B72">
-        <v>725</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="2">
-        <v>45944.73958333334</v>
+        <v>45953.73958333334</v>
       </c>
       <c r="B73">
-        <v>726</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="2">
-        <v>45944.75</v>
+        <v>45953.75</v>
       </c>
       <c r="B74">
-        <v>764</v>
+        <v>983</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="2">
-        <v>45944.76041666666</v>
+        <v>45953.76041666666</v>
       </c>
       <c r="B75">
-        <v>771</v>
+        <v>976</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="2">
-        <v>45944.77083333334</v>
+        <v>45953.77083333334</v>
       </c>
       <c r="B76">
-        <v>766</v>
+        <v>975</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="2">
-        <v>45944.78125</v>
+        <v>45953.78125</v>
       </c>
       <c r="B77">
-        <v>777</v>
+        <v>979</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="2">
-        <v>45944.79166666666</v>
+        <v>45953.79166666666</v>
       </c>
       <c r="B78">
-        <v>775</v>
+        <v>868</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="2">
-        <v>45944.80208333334</v>
+        <v>45953.80208333334</v>
       </c>
       <c r="B79">
-        <v>774</v>
+        <v>881</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="2">
-        <v>45944.8125</v>
+        <v>45953.8125</v>
       </c>
       <c r="B80">
-        <v>776</v>
+        <v>866</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="2">
-        <v>45944.82291666666</v>
+        <v>45953.82291666666</v>
       </c>
       <c r="B81">
-        <v>774</v>
+        <v>856</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="2">
-        <v>45944.83333333334</v>
+        <v>45953.83333333334</v>
       </c>
       <c r="B82">
-        <v>746</v>
+        <v>859</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="2">
-        <v>45944.84375</v>
+        <v>45953.84375</v>
       </c>
       <c r="B83">
-        <v>736</v>
+        <v>860</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="2">
-        <v>45944.85416666666</v>
+        <v>45953.85416666666</v>
       </c>
       <c r="B84">
-        <v>741</v>
+        <v>859</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="2">
-        <v>45944.86458333334</v>
+        <v>45953.86458333334</v>
       </c>
       <c r="B85">
-        <v>740</v>
+        <v>860</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="2">
-        <v>45944.875</v>
+        <v>45953.875</v>
       </c>
       <c r="B86">
-        <v>711</v>
+        <v>768</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="2">
-        <v>45944.88541666666</v>
+        <v>45953.88541666666</v>
       </c>
       <c r="B87">
-        <v>704</v>
+        <v>762</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="2">
-        <v>45944.89583333334</v>
+        <v>45953.89583333334</v>
       </c>
       <c r="B88">
-        <v>709</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="2">
-        <v>45944.90625</v>
+        <v>45953.90625</v>
       </c>
       <c r="B89">
-        <v>700</v>
+        <v>755</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="2">
-        <v>45944.91666666666</v>
+        <v>45953.91666666666</v>
       </c>
       <c r="B90">
-        <v>531</v>
+        <v>426</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="2">
-        <v>45944.92708333334</v>
+        <v>45953.92708333334</v>
       </c>
       <c r="B91">
-        <v>530</v>
+        <v>411</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="2">
-        <v>45944.9375</v>
+        <v>45953.9375</v>
       </c>
       <c r="B92">
-        <v>535</v>
+        <v>409</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="2">
-        <v>45944.94791666666</v>
+        <v>45953.94791666666</v>
       </c>
       <c r="B93">
-        <v>542</v>
+        <v>418</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="2">
-        <v>45944.95833333334</v>
+        <v>45953.95833333334</v>
       </c>
       <c r="B94">
-        <v>514</v>
+        <v>415</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="2">
-        <v>45944.96875</v>
+        <v>45953.96875</v>
       </c>
       <c r="B95">
-        <v>512</v>
+        <v>408</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="2">
-        <v>45944.97916666666</v>
+        <v>45953.97916666666</v>
       </c>
       <c r="B96">
-        <v>511</v>
+        <v>410</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="2">
-        <v>45944.98958333334</v>
+        <v>45953.98958333334</v>
       </c>
       <c r="B97">
-        <v>508</v>
+        <v>407</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" s="2">
-        <v>45945</v>
+        <v>45954</v>
       </c>
       <c r="B98">
-        <v>420</v>
+        <v>409</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" s="2">
-        <v>45945.01041666666</v>
+        <v>45954.01041666666</v>
       </c>
       <c r="B99">
-        <v>414</v>
+        <v>403</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" s="2">
-        <v>45945.02083333334</v>
+        <v>45954.02083333334</v>
       </c>
       <c r="B100">
-        <v>414</v>
+        <v>404</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" s="2">
-        <v>45945.03125</v>
+        <v>45954.03125</v>
       </c>
       <c r="B101">
-        <v>414</v>
+        <v>403</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" s="2">
-        <v>45945.04166666666</v>
+        <v>45954.04166666666</v>
       </c>
       <c r="B102">
-        <v>417</v>
+        <v>404</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" s="2">
-        <v>45945.05208333334</v>
+        <v>45954.05208333334</v>
       </c>
       <c r="B103">
-        <v>413</v>
+        <v>403</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" s="2">
-        <v>45945.0625</v>
+        <v>45954.0625</v>
       </c>
       <c r="B104">
-        <v>414</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" s="2">
-        <v>45945.07291666666</v>
+        <v>45954.07291666666</v>
       </c>
       <c r="B105">
-        <v>414</v>
+        <v>401</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" s="2">
-        <v>45945.08333333334</v>
+        <v>45954.08333333334</v>
       </c>
       <c r="B106">
-        <v>414</v>
+        <v>403</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" s="2">
-        <v>45945.09375</v>
+        <v>45954.09375</v>
       </c>
       <c r="B107">
-        <v>413</v>
+        <v>402</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" s="2">
-        <v>45945.10416666666</v>
+        <v>45954.10416666666</v>
       </c>
       <c r="B108">
-        <v>419</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" s="2">
-        <v>45945.11458333334</v>
+        <v>45954.11458333334</v>
       </c>
       <c r="B109">
-        <v>417</v>
+        <v>400</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" s="2">
-        <v>45945.125</v>
+        <v>45954.125</v>
       </c>
       <c r="B110">
-        <v>418</v>
+        <v>402</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" s="2">
-        <v>45945.13541666666</v>
+        <v>45954.13541666666</v>
       </c>
       <c r="B111">
-        <v>417</v>
+        <v>401</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112" s="2">
-        <v>45945.14583333334</v>
+        <v>45954.14583333334</v>
       </c>
       <c r="B112">
-        <v>418</v>
+        <v>399</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" s="2">
-        <v>45945.15625</v>
+        <v>45954.15625</v>
       </c>
       <c r="B113">
-        <v>422</v>
+        <v>401</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" s="2">
-        <v>45945.16666666666</v>
+        <v>45954.16666666666</v>
       </c>
       <c r="B114">
-        <v>433</v>
+        <v>405</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" s="2">
-        <v>45945.17708333334</v>
+        <v>45954.17708333334</v>
       </c>
       <c r="B115">
-        <v>434</v>
+        <v>404</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" s="2">
-        <v>45945.1875</v>
+        <v>45954.1875</v>
       </c>
       <c r="B116">
-        <v>436</v>
+        <v>405</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117" s="2">
-        <v>45945.19791666666</v>
+        <v>45954.19791666666</v>
       </c>
       <c r="B117">
-        <v>448</v>
+        <v>408</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" s="2">
-        <v>45945.20833333334</v>
+        <v>45954.20833333334</v>
       </c>
       <c r="B118">
-        <v>573</v>
+        <v>436</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" s="2">
-        <v>45945.21875</v>
+        <v>45954.21875</v>
       </c>
       <c r="B119">
-        <v>574</v>
+        <v>441</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" s="2">
-        <v>45945.22916666666</v>
+        <v>45954.22916666666</v>
       </c>
       <c r="B120">
-        <v>580</v>
+        <v>445</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" s="2">
-        <v>45945.23958333334</v>
+        <v>45954.23958333334</v>
       </c>
       <c r="B121">
-        <v>610</v>
+        <v>468</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" s="2">
-        <v>45945.25</v>
+        <v>45954.25</v>
       </c>
       <c r="B122">
-        <v>795</v>
+        <v>623</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123" s="2">
-        <v>45945.26041666666</v>
+        <v>45954.26041666666</v>
       </c>
       <c r="B123">
-        <v>809</v>
+        <v>624</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" s="2">
-        <v>45945.27083333334</v>
+        <v>45954.27083333334</v>
       </c>
       <c r="B124">
-        <v>772</v>
+        <v>629</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" s="2">
-        <v>45945.28125</v>
+        <v>45954.28125</v>
       </c>
       <c r="B125">
-        <v>768</v>
+        <v>634</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" s="2">
-        <v>45945.29166666666</v>
+        <v>45954.29166666666</v>
       </c>
       <c r="B126">
-        <v>742</v>
+        <v>587</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127" s="2">
-        <v>45945.30208333334</v>
+        <v>45954.30208333334</v>
       </c>
       <c r="B127">
-        <v>787</v>
+        <v>572</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128" s="2">
-        <v>45945.3125</v>
+        <v>45954.3125</v>
       </c>
       <c r="B128">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" s="2">
-        <v>45945.32291666666</v>
+        <v>45954.32291666666</v>
       </c>
       <c r="B129">
-        <v>722</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" s="2">
-        <v>45945.33333333334</v>
+        <v>45954.33333333334</v>
       </c>
       <c r="B130">
-        <v>603</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" s="2">
-        <v>45945.34375</v>
+        <v>45954.34375</v>
       </c>
       <c r="B131">
-        <v>579</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132" s="2">
-        <v>45945.35416666666</v>
+        <v>45954.35416666666</v>
       </c>
       <c r="B132">
-        <v>570</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" s="2">
-        <v>45945.36458333334</v>
+        <v>45954.36458333334</v>
       </c>
       <c r="B133">
-        <v>568</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134" s="2">
-        <v>45945.375</v>
+        <v>45954.375</v>
       </c>
       <c r="B134">
-        <v>560</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135" s="2">
-        <v>45945.38541666666</v>
+        <v>45954.38541666666</v>
       </c>
       <c r="B135">
-        <v>556</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136" s="2">
-        <v>45945.39583333334</v>
+        <v>45954.39583333334</v>
       </c>
       <c r="B136">
-        <v>554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137" s="2">
-        <v>45945.40625</v>
+        <v>45954.40625</v>
       </c>
       <c r="B137">
-        <v>564</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:2">
       <c r="A138" s="2">
-        <v>45945.41666666666</v>
+        <v>45954.41666666666</v>
       </c>
       <c r="B138">
-        <v>515</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:2">
       <c r="A139" s="2">
-        <v>45945.42708333334</v>
+        <v>45954.42708333334</v>
       </c>
       <c r="B139">
-        <v>508</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:2">
       <c r="A140" s="2">
-        <v>45945.4375</v>
+        <v>45954.4375</v>
       </c>
       <c r="B140">
-        <v>506</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:2">
       <c r="A141" s="2">
-        <v>45945.44791666666</v>
+        <v>45954.44791666666</v>
       </c>
       <c r="B141">
-        <v>502</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:2">
       <c r="A142" s="2">
-        <v>45945.45833333334</v>
+        <v>45954.45833333334</v>
       </c>
       <c r="B142">
-        <v>292</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:2">
       <c r="A143" s="2">
-        <v>45945.46875</v>
+        <v>45954.46875</v>
       </c>
       <c r="B143">
-        <v>288</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:2">
       <c r="A144" s="2">
-        <v>45945.47916666666</v>
+        <v>45954.47916666666</v>
       </c>
       <c r="B144">
-        <v>290</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:2">
       <c r="A145" s="2">
-        <v>45945.48958333334</v>
+        <v>45954.48958333334</v>
       </c>
       <c r="B145">
-        <v>294</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:2">
       <c r="A146" s="2">
-        <v>45945.5</v>
+        <v>45954.5</v>
       </c>
       <c r="B146">
-        <v>278</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:2">
       <c r="A147" s="2">
-        <v>45945.51041666666</v>
+        <v>45954.51041666666</v>
       </c>
       <c r="B147">
-        <v>273</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:2">
       <c r="A148" s="2">
-        <v>45945.52083333334</v>
+        <v>45954.52083333334</v>
       </c>
       <c r="B148">
-        <v>278</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:2">
       <c r="A149" s="2">
-        <v>45945.53125</v>
+        <v>45954.53125</v>
       </c>
       <c r="B149">
-        <v>278</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:2">
       <c r="A150" s="2">
-        <v>45945.54166666666</v>
+        <v>45954.54166666666</v>
       </c>
       <c r="B150">
-        <v>307</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:2">
       <c r="A151" s="2">
-        <v>45945.55208333334</v>
+        <v>45954.55208333334</v>
       </c>
       <c r="B151">
-        <v>310</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:2">
       <c r="A152" s="2">
-        <v>45945.5625</v>
+        <v>45954.5625</v>
       </c>
       <c r="B152">
-        <v>309</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:2">
       <c r="A153" s="2">
-        <v>45945.57291666666</v>
+        <v>45954.57291666666</v>
       </c>
       <c r="B153">
-        <v>314</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:2">
       <c r="A154" s="2">
-        <v>45945.58333333334</v>
+        <v>45954.58333333334</v>
       </c>
       <c r="B154">
-        <v>289</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:2">
       <c r="A155" s="2">
-        <v>45945.59375</v>
+        <v>45954.59375</v>
       </c>
       <c r="B155">
-        <v>290</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:2">
       <c r="A156" s="2">
-        <v>45945.60416666666</v>
+        <v>45954.60416666666</v>
       </c>
       <c r="B156">
-        <v>292</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:2">
       <c r="A157" s="2">
-        <v>45945.61458333334</v>
+        <v>45954.61458333334</v>
       </c>
       <c r="B157">
-        <v>301</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:2">
       <c r="A158" s="2">
-        <v>45945.625</v>
+        <v>45954.625</v>
       </c>
       <c r="B158">
-        <v>455</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:2">
       <c r="A159" s="2">
-        <v>45945.63541666666</v>
+        <v>45954.63541666666</v>
       </c>
       <c r="B159">
-        <v>471</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:2">
       <c r="A160" s="2">
-        <v>45945.64583333334</v>
+        <v>45954.64583333334</v>
       </c>
       <c r="B160">
-        <v>496</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:2">
       <c r="A161" s="2">
-        <v>45945.65625</v>
+        <v>45954.65625</v>
       </c>
       <c r="B161">
-        <v>502</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:2">
       <c r="A162" s="2">
-        <v>45945.66666666666</v>
+        <v>45954.66666666666</v>
       </c>
       <c r="B162">
-        <v>599</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:2">
       <c r="A163" s="2">
-        <v>45945.67708333334</v>
+        <v>45954.67708333334</v>
       </c>
       <c r="B163">
-        <v>617</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:2">
       <c r="A164" s="2">
-        <v>45945.6875</v>
+        <v>45954.6875</v>
       </c>
       <c r="B164">
-        <v>647</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:2">
       <c r="A165" s="2">
-        <v>45945.69791666666</v>
+        <v>45954.69791666666</v>
       </c>
       <c r="B165">
-        <v>726</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:2">
       <c r="A166" s="2">
-        <v>45945.70833333334</v>
+        <v>45954.70833333334</v>
       </c>
       <c r="B166">
-        <v>809</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:2">
       <c r="A167" s="2">
-        <v>45945.71875</v>
+        <v>45954.71875</v>
       </c>
       <c r="B167">
-        <v>812</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:2">
       <c r="A168" s="2">
-        <v>45945.72916666666</v>
+        <v>45954.72916666666</v>
       </c>
       <c r="B168">
-        <v>816</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:2">
       <c r="A169" s="2">
-        <v>45945.73958333334</v>
+        <v>45954.73958333334</v>
       </c>
       <c r="B169">
-        <v>882</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:2">
       <c r="A170" s="2">
-        <v>45945.75</v>
+        <v>45954.75</v>
       </c>
       <c r="B170">
-        <v>897</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:2">
       <c r="A171" s="2">
-        <v>45945.76041666666</v>
+        <v>45954.76041666666</v>
       </c>
       <c r="B171">
         <v>0</v>
@@ -1757,7 +1757,7 @@
     </row>
     <row r="172" spans="1:2">
       <c r="A172" s="2">
-        <v>45945.77083333334</v>
+        <v>45954.77083333334</v>
       </c>
       <c r="B172">
         <v>0</v>
@@ -1765,7 +1765,7 @@
     </row>
     <row r="173" spans="1:2">
       <c r="A173" s="2">
-        <v>45945.78125</v>
+        <v>45954.78125</v>
       </c>
       <c r="B173">
         <v>0</v>
@@ -1773,7 +1773,7 @@
     </row>
     <row r="174" spans="1:2">
       <c r="A174" s="2">
-        <v>45945.79166666666</v>
+        <v>45954.79166666666</v>
       </c>
       <c r="B174">
         <v>0</v>
@@ -1781,7 +1781,7 @@
     </row>
     <row r="175" spans="1:2">
       <c r="A175" s="2">
-        <v>45945.80208333334</v>
+        <v>45954.80208333334</v>
       </c>
       <c r="B175">
         <v>0</v>
@@ -1789,7 +1789,7 @@
     </row>
     <row r="176" spans="1:2">
       <c r="A176" s="2">
-        <v>45945.8125</v>
+        <v>45954.8125</v>
       </c>
       <c r="B176">
         <v>0</v>
@@ -1797,7 +1797,7 @@
     </row>
     <row r="177" spans="1:2">
       <c r="A177" s="2">
-        <v>45945.82291666666</v>
+        <v>45954.82291666666</v>
       </c>
       <c r="B177">
         <v>0</v>
@@ -1805,7 +1805,7 @@
     </row>
     <row r="178" spans="1:2">
       <c r="A178" s="2">
-        <v>45945.83333333334</v>
+        <v>45954.83333333334</v>
       </c>
       <c r="B178">
         <v>0</v>
@@ -1813,7 +1813,7 @@
     </row>
     <row r="179" spans="1:2">
       <c r="A179" s="2">
-        <v>45945.84375</v>
+        <v>45954.84375</v>
       </c>
       <c r="B179">
         <v>0</v>
@@ -1821,7 +1821,7 @@
     </row>
     <row r="180" spans="1:2">
       <c r="A180" s="2">
-        <v>45945.85416666666</v>
+        <v>45954.85416666666</v>
       </c>
       <c r="B180">
         <v>0</v>
@@ -1829,7 +1829,7 @@
     </row>
     <row r="181" spans="1:2">
       <c r="A181" s="2">
-        <v>45945.86458333334</v>
+        <v>45954.86458333334</v>
       </c>
       <c r="B181">
         <v>0</v>
@@ -1837,7 +1837,7 @@
     </row>
     <row r="182" spans="1:2">
       <c r="A182" s="2">
-        <v>45945.875</v>
+        <v>45954.875</v>
       </c>
       <c r="B182">
         <v>0</v>
@@ -1845,7 +1845,7 @@
     </row>
     <row r="183" spans="1:2">
       <c r="A183" s="2">
-        <v>45945.88541666666</v>
+        <v>45954.88541666666</v>
       </c>
       <c r="B183">
         <v>0</v>
@@ -1853,7 +1853,7 @@
     </row>
     <row r="184" spans="1:2">
       <c r="A184" s="2">
-        <v>45945.89583333334</v>
+        <v>45954.89583333334</v>
       </c>
       <c r="B184">
         <v>0</v>
@@ -1861,7 +1861,7 @@
     </row>
     <row r="185" spans="1:2">
       <c r="A185" s="2">
-        <v>45945.90625</v>
+        <v>45954.90625</v>
       </c>
       <c r="B185">
         <v>0</v>
@@ -1869,7 +1869,7 @@
     </row>
     <row r="186" spans="1:2">
       <c r="A186" s="2">
-        <v>45945.91666666666</v>
+        <v>45954.91666666666</v>
       </c>
       <c r="B186">
         <v>0</v>
@@ -1877,7 +1877,7 @@
     </row>
     <row r="187" spans="1:2">
       <c r="A187" s="2">
-        <v>45945.92708333334</v>
+        <v>45954.92708333334</v>
       </c>
       <c r="B187">
         <v>0</v>
@@ -1885,7 +1885,7 @@
     </row>
     <row r="188" spans="1:2">
       <c r="A188" s="2">
-        <v>45945.9375</v>
+        <v>45954.9375</v>
       </c>
       <c r="B188">
         <v>0</v>
@@ -1893,7 +1893,7 @@
     </row>
     <row r="189" spans="1:2">
       <c r="A189" s="2">
-        <v>45945.94791666666</v>
+        <v>45954.94791666666</v>
       </c>
       <c r="B189">
         <v>0</v>
@@ -1901,7 +1901,7 @@
     </row>
     <row r="190" spans="1:2">
       <c r="A190" s="2">
-        <v>45945.95833333334</v>
+        <v>45954.95833333334</v>
       </c>
       <c r="B190">
         <v>0</v>
@@ -1909,7 +1909,7 @@
     </row>
     <row r="191" spans="1:2">
       <c r="A191" s="2">
-        <v>45945.96875</v>
+        <v>45954.96875</v>
       </c>
       <c r="B191">
         <v>0</v>
@@ -1917,7 +1917,7 @@
     </row>
     <row r="192" spans="1:2">
       <c r="A192" s="2">
-        <v>45945.97916666666</v>
+        <v>45954.97916666666</v>
       </c>
       <c r="B192">
         <v>0</v>
@@ -1925,777 +1925,9 @@
     </row>
     <row r="193" spans="1:2">
       <c r="A193" s="2">
-        <v>45945.98958333334</v>
+        <v>45954.98958333334</v>
       </c>
       <c r="B193">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="194" spans="1:2">
-      <c r="A194" s="2">
-        <v>45946</v>
-      </c>
-      <c r="B194">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="195" spans="1:2">
-      <c r="A195" s="2">
-        <v>45946.01041666666</v>
-      </c>
-      <c r="B195">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="196" spans="1:2">
-      <c r="A196" s="2">
-        <v>45946.02083333334</v>
-      </c>
-      <c r="B196">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="197" spans="1:2">
-      <c r="A197" s="2">
-        <v>45946.03125</v>
-      </c>
-      <c r="B197">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="198" spans="1:2">
-      <c r="A198" s="2">
-        <v>45946.04166666666</v>
-      </c>
-      <c r="B198">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="199" spans="1:2">
-      <c r="A199" s="2">
-        <v>45946.05208333334</v>
-      </c>
-      <c r="B199">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="200" spans="1:2">
-      <c r="A200" s="2">
-        <v>45946.0625</v>
-      </c>
-      <c r="B200">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="201" spans="1:2">
-      <c r="A201" s="2">
-        <v>45946.07291666666</v>
-      </c>
-      <c r="B201">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="202" spans="1:2">
-      <c r="A202" s="2">
-        <v>45946.08333333334</v>
-      </c>
-      <c r="B202">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="203" spans="1:2">
-      <c r="A203" s="2">
-        <v>45946.09375</v>
-      </c>
-      <c r="B203">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="204" spans="1:2">
-      <c r="A204" s="2">
-        <v>45946.10416666666</v>
-      </c>
-      <c r="B204">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="205" spans="1:2">
-      <c r="A205" s="2">
-        <v>45946.11458333334</v>
-      </c>
-      <c r="B205">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="206" spans="1:2">
-      <c r="A206" s="2">
-        <v>45946.125</v>
-      </c>
-      <c r="B206">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="207" spans="1:2">
-      <c r="A207" s="2">
-        <v>45946.13541666666</v>
-      </c>
-      <c r="B207">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="208" spans="1:2">
-      <c r="A208" s="2">
-        <v>45946.14583333334</v>
-      </c>
-      <c r="B208">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="209" spans="1:2">
-      <c r="A209" s="2">
-        <v>45946.15625</v>
-      </c>
-      <c r="B209">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="210" spans="1:2">
-      <c r="A210" s="2">
-        <v>45946.16666666666</v>
-      </c>
-      <c r="B210">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="211" spans="1:2">
-      <c r="A211" s="2">
-        <v>45946.17708333334</v>
-      </c>
-      <c r="B211">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="212" spans="1:2">
-      <c r="A212" s="2">
-        <v>45946.1875</v>
-      </c>
-      <c r="B212">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="213" spans="1:2">
-      <c r="A213" s="2">
-        <v>45946.19791666666</v>
-      </c>
-      <c r="B213">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="214" spans="1:2">
-      <c r="A214" s="2">
-        <v>45946.20833333334</v>
-      </c>
-      <c r="B214">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="215" spans="1:2">
-      <c r="A215" s="2">
-        <v>45946.21875</v>
-      </c>
-      <c r="B215">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="216" spans="1:2">
-      <c r="A216" s="2">
-        <v>45946.22916666666</v>
-      </c>
-      <c r="B216">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="217" spans="1:2">
-      <c r="A217" s="2">
-        <v>45946.23958333334</v>
-      </c>
-      <c r="B217">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="218" spans="1:2">
-      <c r="A218" s="2">
-        <v>45946.25</v>
-      </c>
-      <c r="B218">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="219" spans="1:2">
-      <c r="A219" s="2">
-        <v>45946.26041666666</v>
-      </c>
-      <c r="B219">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="220" spans="1:2">
-      <c r="A220" s="2">
-        <v>45946.27083333334</v>
-      </c>
-      <c r="B220">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="221" spans="1:2">
-      <c r="A221" s="2">
-        <v>45946.28125</v>
-      </c>
-      <c r="B221">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="222" spans="1:2">
-      <c r="A222" s="2">
-        <v>45946.29166666666</v>
-      </c>
-      <c r="B222">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="223" spans="1:2">
-      <c r="A223" s="2">
-        <v>45946.30208333334</v>
-      </c>
-      <c r="B223">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="224" spans="1:2">
-      <c r="A224" s="2">
-        <v>45946.3125</v>
-      </c>
-      <c r="B224">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="225" spans="1:2">
-      <c r="A225" s="2">
-        <v>45946.32291666666</v>
-      </c>
-      <c r="B225">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="226" spans="1:2">
-      <c r="A226" s="2">
-        <v>45946.33333333334</v>
-      </c>
-      <c r="B226">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="227" spans="1:2">
-      <c r="A227" s="2">
-        <v>45946.34375</v>
-      </c>
-      <c r="B227">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="228" spans="1:2">
-      <c r="A228" s="2">
-        <v>45946.35416666666</v>
-      </c>
-      <c r="B228">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="229" spans="1:2">
-      <c r="A229" s="2">
-        <v>45946.36458333334</v>
-      </c>
-      <c r="B229">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="230" spans="1:2">
-      <c r="A230" s="2">
-        <v>45946.375</v>
-      </c>
-      <c r="B230">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="231" spans="1:2">
-      <c r="A231" s="2">
-        <v>45946.38541666666</v>
-      </c>
-      <c r="B231">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="232" spans="1:2">
-      <c r="A232" s="2">
-        <v>45946.39583333334</v>
-      </c>
-      <c r="B232">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="233" spans="1:2">
-      <c r="A233" s="2">
-        <v>45946.40625</v>
-      </c>
-      <c r="B233">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="234" spans="1:2">
-      <c r="A234" s="2">
-        <v>45946.41666666666</v>
-      </c>
-      <c r="B234">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="235" spans="1:2">
-      <c r="A235" s="2">
-        <v>45946.42708333334</v>
-      </c>
-      <c r="B235">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="236" spans="1:2">
-      <c r="A236" s="2">
-        <v>45946.4375</v>
-      </c>
-      <c r="B236">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="237" spans="1:2">
-      <c r="A237" s="2">
-        <v>45946.44791666666</v>
-      </c>
-      <c r="B237">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="238" spans="1:2">
-      <c r="A238" s="2">
-        <v>45946.45833333334</v>
-      </c>
-      <c r="B238">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="239" spans="1:2">
-      <c r="A239" s="2">
-        <v>45946.46875</v>
-      </c>
-      <c r="B239">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="240" spans="1:2">
-      <c r="A240" s="2">
-        <v>45946.47916666666</v>
-      </c>
-      <c r="B240">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="241" spans="1:2">
-      <c r="A241" s="2">
-        <v>45946.48958333334</v>
-      </c>
-      <c r="B241">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="242" spans="1:2">
-      <c r="A242" s="2">
-        <v>45946.5</v>
-      </c>
-      <c r="B242">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="243" spans="1:2">
-      <c r="A243" s="2">
-        <v>45946.51041666666</v>
-      </c>
-      <c r="B243">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="244" spans="1:2">
-      <c r="A244" s="2">
-        <v>45946.52083333334</v>
-      </c>
-      <c r="B244">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="245" spans="1:2">
-      <c r="A245" s="2">
-        <v>45946.53125</v>
-      </c>
-      <c r="B245">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="246" spans="1:2">
-      <c r="A246" s="2">
-        <v>45946.54166666666</v>
-      </c>
-      <c r="B246">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="247" spans="1:2">
-      <c r="A247" s="2">
-        <v>45946.55208333334</v>
-      </c>
-      <c r="B247">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="248" spans="1:2">
-      <c r="A248" s="2">
-        <v>45946.5625</v>
-      </c>
-      <c r="B248">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="249" spans="1:2">
-      <c r="A249" s="2">
-        <v>45946.57291666666</v>
-      </c>
-      <c r="B249">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="250" spans="1:2">
-      <c r="A250" s="2">
-        <v>45946.58333333334</v>
-      </c>
-      <c r="B250">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="251" spans="1:2">
-      <c r="A251" s="2">
-        <v>45946.59375</v>
-      </c>
-      <c r="B251">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="252" spans="1:2">
-      <c r="A252" s="2">
-        <v>45946.60416666666</v>
-      </c>
-      <c r="B252">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="253" spans="1:2">
-      <c r="A253" s="2">
-        <v>45946.61458333334</v>
-      </c>
-      <c r="B253">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="254" spans="1:2">
-      <c r="A254" s="2">
-        <v>45946.625</v>
-      </c>
-      <c r="B254">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="255" spans="1:2">
-      <c r="A255" s="2">
-        <v>45946.63541666666</v>
-      </c>
-      <c r="B255">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="256" spans="1:2">
-      <c r="A256" s="2">
-        <v>45946.64583333334</v>
-      </c>
-      <c r="B256">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="257" spans="1:2">
-      <c r="A257" s="2">
-        <v>45946.65625</v>
-      </c>
-      <c r="B257">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="258" spans="1:2">
-      <c r="A258" s="2">
-        <v>45946.66666666666</v>
-      </c>
-      <c r="B258">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="259" spans="1:2">
-      <c r="A259" s="2">
-        <v>45946.67708333334</v>
-      </c>
-      <c r="B259">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="260" spans="1:2">
-      <c r="A260" s="2">
-        <v>45946.6875</v>
-      </c>
-      <c r="B260">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="261" spans="1:2">
-      <c r="A261" s="2">
-        <v>45946.69791666666</v>
-      </c>
-      <c r="B261">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="262" spans="1:2">
-      <c r="A262" s="2">
-        <v>45946.70833333334</v>
-      </c>
-      <c r="B262">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="263" spans="1:2">
-      <c r="A263" s="2">
-        <v>45946.71875</v>
-      </c>
-      <c r="B263">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="264" spans="1:2">
-      <c r="A264" s="2">
-        <v>45946.72916666666</v>
-      </c>
-      <c r="B264">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="265" spans="1:2">
-      <c r="A265" s="2">
-        <v>45946.73958333334</v>
-      </c>
-      <c r="B265">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="266" spans="1:2">
-      <c r="A266" s="2">
-        <v>45946.75</v>
-      </c>
-      <c r="B266">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="267" spans="1:2">
-      <c r="A267" s="2">
-        <v>45946.76041666666</v>
-      </c>
-      <c r="B267">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="268" spans="1:2">
-      <c r="A268" s="2">
-        <v>45946.77083333334</v>
-      </c>
-      <c r="B268">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="269" spans="1:2">
-      <c r="A269" s="2">
-        <v>45946.78125</v>
-      </c>
-      <c r="B269">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="270" spans="1:2">
-      <c r="A270" s="2">
-        <v>45946.79166666666</v>
-      </c>
-      <c r="B270">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="271" spans="1:2">
-      <c r="A271" s="2">
-        <v>45946.80208333334</v>
-      </c>
-      <c r="B271">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="272" spans="1:2">
-      <c r="A272" s="2">
-        <v>45946.8125</v>
-      </c>
-      <c r="B272">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="273" spans="1:2">
-      <c r="A273" s="2">
-        <v>45946.82291666666</v>
-      </c>
-      <c r="B273">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="274" spans="1:2">
-      <c r="A274" s="2">
-        <v>45946.83333333334</v>
-      </c>
-      <c r="B274">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="275" spans="1:2">
-      <c r="A275" s="2">
-        <v>45946.84375</v>
-      </c>
-      <c r="B275">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="276" spans="1:2">
-      <c r="A276" s="2">
-        <v>45946.85416666666</v>
-      </c>
-      <c r="B276">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="277" spans="1:2">
-      <c r="A277" s="2">
-        <v>45946.86458333334</v>
-      </c>
-      <c r="B277">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="278" spans="1:2">
-      <c r="A278" s="2">
-        <v>45946.875</v>
-      </c>
-      <c r="B278">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="279" spans="1:2">
-      <c r="A279" s="2">
-        <v>45946.88541666666</v>
-      </c>
-      <c r="B279">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="280" spans="1:2">
-      <c r="A280" s="2">
-        <v>45946.89583333334</v>
-      </c>
-      <c r="B280">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="281" spans="1:2">
-      <c r="A281" s="2">
-        <v>45946.90625</v>
-      </c>
-      <c r="B281">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="282" spans="1:2">
-      <c r="A282" s="2">
-        <v>45946.91666666666</v>
-      </c>
-      <c r="B282">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="283" spans="1:2">
-      <c r="A283" s="2">
-        <v>45946.92708333334</v>
-      </c>
-      <c r="B283">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="284" spans="1:2">
-      <c r="A284" s="2">
-        <v>45946.9375</v>
-      </c>
-      <c r="B284">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="285" spans="1:2">
-      <c r="A285" s="2">
-        <v>45946.94791666666</v>
-      </c>
-      <c r="B285">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="286" spans="1:2">
-      <c r="A286" s="2">
-        <v>45946.95833333334</v>
-      </c>
-      <c r="B286">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="287" spans="1:2">
-      <c r="A287" s="2">
-        <v>45946.96875</v>
-      </c>
-      <c r="B287">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="288" spans="1:2">
-      <c r="A288" s="2">
-        <v>45946.97916666666</v>
-      </c>
-      <c r="B288">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="289" spans="1:2">
-      <c r="A289" s="2">
-        <v>45946.98958333334</v>
-      </c>
-      <c r="B289">
         <v>0</v>
       </c>
     </row>

--- a/data_fetching/Entsoe/Actual_Production_Hydro_Water_Reservoir.xlsx
+++ b/data_fetching/Entsoe/Actual_Production_Hydro_Water_Reservoir.xlsx
@@ -397,1015 +397,1015 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2">
-        <v>45953</v>
+        <v>45968</v>
       </c>
       <c r="B2">
-        <v>436</v>
+        <v>351</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2">
-        <v>45953.01041666666</v>
+        <v>45968.01041666666</v>
       </c>
       <c r="B3">
-        <v>431</v>
+        <v>344</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2">
-        <v>45953.02083333334</v>
+        <v>45968.02083333334</v>
       </c>
       <c r="B4">
-        <v>426</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2">
-        <v>45953.03125</v>
+        <v>45968.03125</v>
       </c>
       <c r="B5">
-        <v>420</v>
+        <v>343</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2">
-        <v>45953.04166666666</v>
+        <v>45968.04166666666</v>
       </c>
       <c r="B6">
-        <v>352</v>
+        <v>344</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2">
-        <v>45953.05208333334</v>
+        <v>45968.05208333334</v>
       </c>
       <c r="B7">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2">
-        <v>45953.0625</v>
+        <v>45968.0625</v>
       </c>
       <c r="B8">
-        <v>337</v>
+        <v>344</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2">
-        <v>45953.07291666666</v>
+        <v>45968.07291666666</v>
       </c>
       <c r="B9">
-        <v>329</v>
+        <v>343</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2">
-        <v>45953.08333333334</v>
+        <v>45968.08333333334</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>353</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2">
-        <v>45953.09375</v>
+        <v>45968.09375</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>348</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2">
-        <v>45953.10416666666</v>
+        <v>45968.10416666666</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>430</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2">
-        <v>45953.11458333334</v>
+        <v>45968.11458333334</v>
       </c>
       <c r="B13">
-        <v>332</v>
+        <v>428</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2">
-        <v>45953.125</v>
+        <v>45968.125</v>
       </c>
       <c r="B14">
-        <v>327</v>
+        <v>431</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2">
-        <v>45953.13541666666</v>
+        <v>45968.13541666666</v>
       </c>
       <c r="B15">
-        <v>328</v>
+        <v>428</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2">
-        <v>45953.14583333334</v>
+        <v>45968.14583333334</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>430</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2">
-        <v>45953.15625</v>
+        <v>45968.15625</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>525</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2">
-        <v>45953.16666666666</v>
+        <v>45968.16666666666</v>
       </c>
       <c r="B18">
-        <v>331</v>
+        <v>541</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2">
-        <v>45953.17708333334</v>
+        <v>45968.17708333334</v>
       </c>
       <c r="B19">
-        <v>332</v>
+        <v>544</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2">
-        <v>45953.1875</v>
+        <v>45968.1875</v>
       </c>
       <c r="B20">
-        <v>331</v>
+        <v>552</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2">
-        <v>45953.19791666666</v>
+        <v>45968.19791666666</v>
       </c>
       <c r="B21">
-        <v>355</v>
+        <v>561</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2">
-        <v>45953.20833333334</v>
+        <v>45968.20833333334</v>
       </c>
       <c r="B22">
-        <v>513</v>
+        <v>637</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2">
-        <v>45953.21875</v>
+        <v>45968.21875</v>
       </c>
       <c r="B23">
-        <v>521</v>
+        <v>537</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2">
-        <v>45953.22916666666</v>
+        <v>45968.22916666666</v>
       </c>
       <c r="B24">
-        <v>530</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2">
-        <v>45953.23958333334</v>
+        <v>45968.23958333334</v>
       </c>
       <c r="B25">
-        <v>544</v>
+        <v>558</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2">
-        <v>45953.25</v>
+        <v>45968.25</v>
       </c>
       <c r="B26">
-        <v>682</v>
+        <v>725</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2">
-        <v>45953.26041666666</v>
+        <v>45968.26041666666</v>
       </c>
       <c r="B27">
-        <v>651</v>
+        <v>713</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2">
-        <v>45953.27083333334</v>
+        <v>45968.27083333334</v>
       </c>
       <c r="B28">
-        <v>689</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2">
-        <v>45953.28125</v>
+        <v>45968.28125</v>
       </c>
       <c r="B29">
-        <v>738</v>
+        <v>705</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2">
-        <v>45953.29166666666</v>
+        <v>45968.29166666666</v>
       </c>
       <c r="B30">
-        <v>781</v>
+        <v>709</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2">
-        <v>45953.30208333334</v>
+        <v>45968.30208333334</v>
       </c>
       <c r="B31">
-        <v>804</v>
+        <v>711</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2">
-        <v>45953.3125</v>
+        <v>45968.3125</v>
       </c>
       <c r="B32">
-        <v>790</v>
+        <v>710</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2">
-        <v>45953.32291666666</v>
+        <v>45968.32291666666</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>707</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2">
-        <v>45953.33333333334</v>
+        <v>45968.33333333334</v>
       </c>
       <c r="B34">
-        <v>650</v>
+        <v>583</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="2">
-        <v>45953.34375</v>
+        <v>45968.34375</v>
       </c>
       <c r="B35">
-        <v>646</v>
+        <v>573</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="2">
-        <v>45953.35416666666</v>
+        <v>45968.35416666666</v>
       </c>
       <c r="B36">
-        <v>648</v>
+        <v>570</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="2">
-        <v>45953.36458333334</v>
+        <v>45968.36458333334</v>
       </c>
       <c r="B37">
-        <v>641</v>
+        <v>566</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="2">
-        <v>45953.375</v>
+        <v>45968.375</v>
       </c>
       <c r="B38">
-        <v>366</v>
+        <v>412</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="2">
-        <v>45953.38541666666</v>
+        <v>45968.38541666666</v>
       </c>
       <c r="B39">
-        <v>572</v>
+        <v>392</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="2">
-        <v>45953.39583333334</v>
+        <v>45968.39583333334</v>
       </c>
       <c r="B40">
-        <v>578</v>
+        <v>393</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="2">
-        <v>45953.40625</v>
+        <v>45968.40625</v>
       </c>
       <c r="B41">
-        <v>509</v>
+        <v>374</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="2">
-        <v>45953.41666666666</v>
+        <v>45968.41666666666</v>
       </c>
       <c r="B42">
-        <v>424</v>
+        <v>348</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="2">
-        <v>45953.42708333334</v>
+        <v>45968.42708333334</v>
       </c>
       <c r="B43">
-        <v>415</v>
+        <v>338</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="2">
-        <v>45953.4375</v>
+        <v>45968.4375</v>
       </c>
       <c r="B44">
-        <v>412</v>
+        <v>327</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="2">
-        <v>45953.44791666666</v>
+        <v>45968.44791666666</v>
       </c>
       <c r="B45">
-        <v>304</v>
+        <v>328</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="2">
-        <v>45953.45833333334</v>
+        <v>45968.45833333334</v>
       </c>
       <c r="B46">
-        <v>0</v>
+        <v>271</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="2">
-        <v>45953.46875</v>
+        <v>45968.46875</v>
       </c>
       <c r="B47">
-        <v>301</v>
+        <v>239</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="2">
-        <v>45953.47916666666</v>
+        <v>45968.47916666666</v>
       </c>
       <c r="B48">
-        <v>227</v>
+        <v>235</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="2">
-        <v>45953.48958333334</v>
+        <v>45968.48958333334</v>
       </c>
       <c r="B49">
-        <v>219</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="2">
-        <v>45953.5</v>
+        <v>45968.5</v>
       </c>
       <c r="B50">
-        <v>221</v>
+        <v>238</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="2">
-        <v>45953.51041666666</v>
+        <v>45968.51041666666</v>
       </c>
       <c r="B51">
-        <v>219</v>
+        <v>291</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="2">
-        <v>45953.52083333334</v>
+        <v>45968.52083333334</v>
       </c>
       <c r="B52">
-        <v>222</v>
+        <v>310</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="2">
-        <v>45953.53125</v>
+        <v>45968.53125</v>
       </c>
       <c r="B53">
-        <v>221</v>
+        <v>436</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="2">
-        <v>45953.54166666666</v>
+        <v>45968.54166666666</v>
       </c>
       <c r="B54">
-        <v>226</v>
+        <v>453</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="2">
-        <v>45953.55208333334</v>
+        <v>45968.55208333334</v>
       </c>
       <c r="B55">
-        <v>225</v>
+        <v>461</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="2">
-        <v>45953.5625</v>
+        <v>45968.5625</v>
       </c>
       <c r="B56">
-        <v>226</v>
+        <v>490</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="2">
-        <v>45953.57291666666</v>
+        <v>45968.57291666666</v>
       </c>
       <c r="B57">
-        <v>231</v>
+        <v>489</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="2">
-        <v>45953.58333333334</v>
+        <v>45968.58333333334</v>
       </c>
       <c r="B58">
-        <v>299</v>
+        <v>594</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="2">
-        <v>45953.59375</v>
+        <v>45968.59375</v>
       </c>
       <c r="B59">
-        <v>305</v>
+        <v>611</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="2">
-        <v>45953.60416666666</v>
+        <v>45968.60416666666</v>
       </c>
       <c r="B60">
-        <v>320</v>
+        <v>551</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="2">
-        <v>45953.61458333334</v>
+        <v>45968.61458333334</v>
       </c>
       <c r="B61">
-        <v>329</v>
+        <v>559</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="2">
-        <v>45953.625</v>
+        <v>45968.625</v>
       </c>
       <c r="B62">
-        <v>402</v>
+        <v>603</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="2">
-        <v>45953.63541666666</v>
+        <v>45968.63541666666</v>
       </c>
       <c r="B63">
-        <v>410</v>
+        <v>621</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="2">
-        <v>45953.64583333334</v>
+        <v>45968.64583333334</v>
       </c>
       <c r="B64">
-        <v>409</v>
+        <v>636</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="2">
-        <v>45953.65625</v>
+        <v>45968.65625</v>
       </c>
       <c r="B65">
-        <v>441</v>
+        <v>649</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="2">
-        <v>45953.66666666666</v>
+        <v>45968.66666666666</v>
       </c>
       <c r="B66">
-        <v>764</v>
+        <v>714</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="2">
-        <v>45953.67708333334</v>
+        <v>45968.67708333334</v>
       </c>
       <c r="B67">
-        <v>771</v>
+        <v>725</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="2">
-        <v>45953.6875</v>
+        <v>45968.6875</v>
       </c>
       <c r="B68">
-        <v>768</v>
+        <v>759</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="2">
-        <v>45953.69791666666</v>
+        <v>45968.69791666666</v>
       </c>
       <c r="B69">
-        <v>852</v>
+        <v>872</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="2">
-        <v>45953.70833333334</v>
+        <v>45968.70833333334</v>
       </c>
       <c r="B70">
-        <v>1020</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="2">
-        <v>45953.71875</v>
+        <v>45968.71875</v>
       </c>
       <c r="B71">
-        <v>0</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="2">
-        <v>45953.72916666666</v>
+        <v>45968.72916666666</v>
       </c>
       <c r="B72">
-        <v>0</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="2">
-        <v>45953.73958333334</v>
+        <v>45968.73958333334</v>
       </c>
       <c r="B73">
-        <v>1030</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="2">
-        <v>45953.75</v>
+        <v>45968.75</v>
       </c>
       <c r="B74">
-        <v>983</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="2">
-        <v>45953.76041666666</v>
+        <v>45968.76041666666</v>
       </c>
       <c r="B75">
-        <v>976</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="2">
-        <v>45953.77083333334</v>
+        <v>45968.77083333334</v>
       </c>
       <c r="B76">
-        <v>975</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="2">
-        <v>45953.78125</v>
+        <v>45968.78125</v>
       </c>
       <c r="B77">
-        <v>979</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="2">
-        <v>45953.79166666666</v>
+        <v>45968.79166666666</v>
       </c>
       <c r="B78">
-        <v>868</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="2">
-        <v>45953.80208333334</v>
+        <v>45968.80208333334</v>
       </c>
       <c r="B79">
-        <v>881</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="2">
-        <v>45953.8125</v>
+        <v>45968.8125</v>
       </c>
       <c r="B80">
-        <v>866</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="2">
-        <v>45953.82291666666</v>
+        <v>45968.82291666666</v>
       </c>
       <c r="B81">
-        <v>856</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="2">
-        <v>45953.83333333334</v>
+        <v>45968.83333333334</v>
       </c>
       <c r="B82">
-        <v>859</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="2">
-        <v>45953.84375</v>
+        <v>45968.84375</v>
       </c>
       <c r="B83">
-        <v>860</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="2">
-        <v>45953.85416666666</v>
+        <v>45968.85416666666</v>
       </c>
       <c r="B84">
-        <v>859</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="2">
-        <v>45953.86458333334</v>
+        <v>45968.86458333334</v>
       </c>
       <c r="B85">
-        <v>860</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="2">
-        <v>45953.875</v>
+        <v>45968.875</v>
       </c>
       <c r="B86">
-        <v>768</v>
+        <v>938</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="2">
-        <v>45953.88541666666</v>
+        <v>45968.88541666666</v>
       </c>
       <c r="B87">
-        <v>762</v>
+        <v>900</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="2">
-        <v>45953.89583333334</v>
+        <v>45968.89583333334</v>
       </c>
       <c r="B88">
-        <v>0</v>
+        <v>899</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="2">
-        <v>45953.90625</v>
+        <v>45968.90625</v>
       </c>
       <c r="B89">
-        <v>755</v>
+        <v>893</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="2">
-        <v>45953.91666666666</v>
+        <v>45968.91666666666</v>
       </c>
       <c r="B90">
-        <v>426</v>
+        <v>646</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="2">
-        <v>45953.92708333334</v>
+        <v>45968.92708333334</v>
       </c>
       <c r="B91">
-        <v>411</v>
+        <v>633</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="2">
-        <v>45953.9375</v>
+        <v>45968.9375</v>
       </c>
       <c r="B92">
-        <v>409</v>
+        <v>634</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="2">
-        <v>45953.94791666666</v>
+        <v>45968.94791666666</v>
       </c>
       <c r="B93">
-        <v>418</v>
+        <v>625</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="2">
-        <v>45953.95833333334</v>
+        <v>45968.95833333334</v>
       </c>
       <c r="B94">
-        <v>415</v>
+        <v>401</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="2">
-        <v>45953.96875</v>
+        <v>45968.96875</v>
       </c>
       <c r="B95">
-        <v>408</v>
+        <v>380</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="2">
-        <v>45953.97916666666</v>
+        <v>45968.97916666666</v>
       </c>
       <c r="B96">
-        <v>410</v>
+        <v>386</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="2">
-        <v>45953.98958333334</v>
+        <v>45968.98958333334</v>
       </c>
       <c r="B97">
-        <v>407</v>
+        <v>383</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" s="2">
-        <v>45954</v>
+        <v>45969</v>
       </c>
       <c r="B98">
-        <v>409</v>
+        <v>333</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" s="2">
-        <v>45954.01041666666</v>
+        <v>45969.01041666666</v>
       </c>
       <c r="B99">
-        <v>403</v>
+        <v>329</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" s="2">
-        <v>45954.02083333334</v>
+        <v>45969.02083333334</v>
       </c>
       <c r="B100">
-        <v>404</v>
+        <v>328</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" s="2">
-        <v>45954.03125</v>
+        <v>45969.03125</v>
       </c>
       <c r="B101">
-        <v>403</v>
+        <v>326</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" s="2">
-        <v>45954.04166666666</v>
+        <v>45969.04166666666</v>
       </c>
       <c r="B102">
-        <v>404</v>
+        <v>328</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" s="2">
-        <v>45954.05208333334</v>
+        <v>45969.05208333334</v>
       </c>
       <c r="B103">
-        <v>403</v>
+        <v>329</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" s="2">
-        <v>45954.0625</v>
+        <v>45969.0625</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>330</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" s="2">
-        <v>45954.07291666666</v>
+        <v>45969.07291666666</v>
       </c>
       <c r="B105">
-        <v>401</v>
+        <v>328</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" s="2">
-        <v>45954.08333333334</v>
+        <v>45969.08333333334</v>
       </c>
       <c r="B106">
-        <v>403</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" s="2">
-        <v>45954.09375</v>
+        <v>45969.09375</v>
       </c>
       <c r="B107">
-        <v>402</v>
+        <v>327</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" s="2">
-        <v>45954.10416666666</v>
+        <v>45969.10416666666</v>
       </c>
       <c r="B108">
-        <v>0</v>
+        <v>328</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" s="2">
-        <v>45954.11458333334</v>
+        <v>45969.11458333334</v>
       </c>
       <c r="B109">
-        <v>400</v>
+        <v>326</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" s="2">
-        <v>45954.125</v>
+        <v>45969.125</v>
       </c>
       <c r="B110">
-        <v>402</v>
+        <v>327</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" s="2">
-        <v>45954.13541666666</v>
+        <v>45969.13541666666</v>
       </c>
       <c r="B111">
-        <v>401</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112" s="2">
-        <v>45954.14583333334</v>
+        <v>45969.14583333334</v>
       </c>
       <c r="B112">
-        <v>399</v>
+        <v>326</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" s="2">
-        <v>45954.15625</v>
+        <v>45969.15625</v>
       </c>
       <c r="B113">
-        <v>401</v>
+        <v>327</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" s="2">
-        <v>45954.16666666666</v>
+        <v>45969.16666666666</v>
       </c>
       <c r="B114">
-        <v>405</v>
+        <v>326</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" s="2">
-        <v>45954.17708333334</v>
+        <v>45969.17708333334</v>
       </c>
       <c r="B115">
-        <v>404</v>
+        <v>325</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" s="2">
-        <v>45954.1875</v>
+        <v>45969.1875</v>
       </c>
       <c r="B116">
-        <v>405</v>
+        <v>321</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117" s="2">
-        <v>45954.19791666666</v>
+        <v>45969.19791666666</v>
       </c>
       <c r="B117">
-        <v>408</v>
+        <v>311</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" s="2">
-        <v>45954.20833333334</v>
+        <v>45969.20833333334</v>
       </c>
       <c r="B118">
-        <v>436</v>
+        <v>336</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" s="2">
-        <v>45954.21875</v>
+        <v>45969.21875</v>
       </c>
       <c r="B119">
-        <v>441</v>
+        <v>340</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" s="2">
-        <v>45954.22916666666</v>
+        <v>45969.22916666666</v>
       </c>
       <c r="B120">
-        <v>445</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" s="2">
-        <v>45954.23958333334</v>
+        <v>45969.23958333334</v>
       </c>
       <c r="B121">
-        <v>468</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" s="2">
-        <v>45954.25</v>
+        <v>45969.25</v>
       </c>
       <c r="B122">
-        <v>623</v>
+        <v>483</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123" s="2">
-        <v>45954.26041666666</v>
+        <v>45969.26041666666</v>
       </c>
       <c r="B123">
-        <v>624</v>
+        <v>433</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" s="2">
-        <v>45954.27083333334</v>
+        <v>45969.27083333334</v>
       </c>
       <c r="B124">
-        <v>629</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" s="2">
-        <v>45954.28125</v>
+        <v>45969.28125</v>
       </c>
       <c r="B125">
-        <v>634</v>
+        <v>436</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" s="2">
-        <v>45954.29166666666</v>
+        <v>45969.29166666666</v>
       </c>
       <c r="B126">
-        <v>587</v>
+        <v>580</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127" s="2">
-        <v>45954.30208333334</v>
+        <v>45969.30208333334</v>
       </c>
       <c r="B127">
-        <v>572</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128" s="2">
-        <v>45954.3125</v>
+        <v>45969.3125</v>
       </c>
       <c r="B128">
         <v>0</v>
@@ -1413,7 +1413,7 @@
     </row>
     <row r="129" spans="1:2">
       <c r="A129" s="2">
-        <v>45954.32291666666</v>
+        <v>45969.32291666666</v>
       </c>
       <c r="B129">
         <v>0</v>
@@ -1421,7 +1421,7 @@
     </row>
     <row r="130" spans="1:2">
       <c r="A130" s="2">
-        <v>45954.33333333334</v>
+        <v>45969.33333333334</v>
       </c>
       <c r="B130">
         <v>0</v>
@@ -1429,7 +1429,7 @@
     </row>
     <row r="131" spans="1:2">
       <c r="A131" s="2">
-        <v>45954.34375</v>
+        <v>45969.34375</v>
       </c>
       <c r="B131">
         <v>0</v>
@@ -1437,7 +1437,7 @@
     </row>
     <row r="132" spans="1:2">
       <c r="A132" s="2">
-        <v>45954.35416666666</v>
+        <v>45969.35416666666</v>
       </c>
       <c r="B132">
         <v>0</v>
@@ -1445,7 +1445,7 @@
     </row>
     <row r="133" spans="1:2">
       <c r="A133" s="2">
-        <v>45954.36458333334</v>
+        <v>45969.36458333334</v>
       </c>
       <c r="B133">
         <v>0</v>
@@ -1453,7 +1453,7 @@
     </row>
     <row r="134" spans="1:2">
       <c r="A134" s="2">
-        <v>45954.375</v>
+        <v>45969.375</v>
       </c>
       <c r="B134">
         <v>0</v>
@@ -1461,7 +1461,7 @@
     </row>
     <row r="135" spans="1:2">
       <c r="A135" s="2">
-        <v>45954.38541666666</v>
+        <v>45969.38541666666</v>
       </c>
       <c r="B135">
         <v>0</v>
@@ -1469,7 +1469,7 @@
     </row>
     <row r="136" spans="1:2">
       <c r="A136" s="2">
-        <v>45954.39583333334</v>
+        <v>45969.39583333334</v>
       </c>
       <c r="B136">
         <v>0</v>
@@ -1477,7 +1477,7 @@
     </row>
     <row r="137" spans="1:2">
       <c r="A137" s="2">
-        <v>45954.40625</v>
+        <v>45969.40625</v>
       </c>
       <c r="B137">
         <v>0</v>
@@ -1485,7 +1485,7 @@
     </row>
     <row r="138" spans="1:2">
       <c r="A138" s="2">
-        <v>45954.41666666666</v>
+        <v>45969.41666666666</v>
       </c>
       <c r="B138">
         <v>0</v>
@@ -1493,7 +1493,7 @@
     </row>
     <row r="139" spans="1:2">
       <c r="A139" s="2">
-        <v>45954.42708333334</v>
+        <v>45969.42708333334</v>
       </c>
       <c r="B139">
         <v>0</v>
@@ -1501,7 +1501,7 @@
     </row>
     <row r="140" spans="1:2">
       <c r="A140" s="2">
-        <v>45954.4375</v>
+        <v>45969.4375</v>
       </c>
       <c r="B140">
         <v>0</v>
@@ -1509,7 +1509,7 @@
     </row>
     <row r="141" spans="1:2">
       <c r="A141" s="2">
-        <v>45954.44791666666</v>
+        <v>45969.44791666666</v>
       </c>
       <c r="B141">
         <v>0</v>
@@ -1517,7 +1517,7 @@
     </row>
     <row r="142" spans="1:2">
       <c r="A142" s="2">
-        <v>45954.45833333334</v>
+        <v>45969.45833333334</v>
       </c>
       <c r="B142">
         <v>0</v>
@@ -1525,7 +1525,7 @@
     </row>
     <row r="143" spans="1:2">
       <c r="A143" s="2">
-        <v>45954.46875</v>
+        <v>45969.46875</v>
       </c>
       <c r="B143">
         <v>0</v>
@@ -1533,7 +1533,7 @@
     </row>
     <row r="144" spans="1:2">
       <c r="A144" s="2">
-        <v>45954.47916666666</v>
+        <v>45969.47916666666</v>
       </c>
       <c r="B144">
         <v>0</v>
@@ -1541,7 +1541,7 @@
     </row>
     <row r="145" spans="1:2">
       <c r="A145" s="2">
-        <v>45954.48958333334</v>
+        <v>45969.48958333334</v>
       </c>
       <c r="B145">
         <v>0</v>
@@ -1549,7 +1549,7 @@
     </row>
     <row r="146" spans="1:2">
       <c r="A146" s="2">
-        <v>45954.5</v>
+        <v>45969.5</v>
       </c>
       <c r="B146">
         <v>0</v>
@@ -1557,7 +1557,7 @@
     </row>
     <row r="147" spans="1:2">
       <c r="A147" s="2">
-        <v>45954.51041666666</v>
+        <v>45969.51041666666</v>
       </c>
       <c r="B147">
         <v>0</v>
@@ -1565,7 +1565,7 @@
     </row>
     <row r="148" spans="1:2">
       <c r="A148" s="2">
-        <v>45954.52083333334</v>
+        <v>45969.52083333334</v>
       </c>
       <c r="B148">
         <v>0</v>
@@ -1573,7 +1573,7 @@
     </row>
     <row r="149" spans="1:2">
       <c r="A149" s="2">
-        <v>45954.53125</v>
+        <v>45969.53125</v>
       </c>
       <c r="B149">
         <v>0</v>
@@ -1581,7 +1581,7 @@
     </row>
     <row r="150" spans="1:2">
       <c r="A150" s="2">
-        <v>45954.54166666666</v>
+        <v>45969.54166666666</v>
       </c>
       <c r="B150">
         <v>0</v>
@@ -1589,7 +1589,7 @@
     </row>
     <row r="151" spans="1:2">
       <c r="A151" s="2">
-        <v>45954.55208333334</v>
+        <v>45969.55208333334</v>
       </c>
       <c r="B151">
         <v>0</v>
@@ -1597,7 +1597,7 @@
     </row>
     <row r="152" spans="1:2">
       <c r="A152" s="2">
-        <v>45954.5625</v>
+        <v>45969.5625</v>
       </c>
       <c r="B152">
         <v>0</v>
@@ -1605,7 +1605,7 @@
     </row>
     <row r="153" spans="1:2">
       <c r="A153" s="2">
-        <v>45954.57291666666</v>
+        <v>45969.57291666666</v>
       </c>
       <c r="B153">
         <v>0</v>
@@ -1613,7 +1613,7 @@
     </row>
     <row r="154" spans="1:2">
       <c r="A154" s="2">
-        <v>45954.58333333334</v>
+        <v>45969.58333333334</v>
       </c>
       <c r="B154">
         <v>0</v>
@@ -1621,7 +1621,7 @@
     </row>
     <row r="155" spans="1:2">
       <c r="A155" s="2">
-        <v>45954.59375</v>
+        <v>45969.59375</v>
       </c>
       <c r="B155">
         <v>0</v>
@@ -1629,7 +1629,7 @@
     </row>
     <row r="156" spans="1:2">
       <c r="A156" s="2">
-        <v>45954.60416666666</v>
+        <v>45969.60416666666</v>
       </c>
       <c r="B156">
         <v>0</v>
@@ -1637,7 +1637,7 @@
     </row>
     <row r="157" spans="1:2">
       <c r="A157" s="2">
-        <v>45954.61458333334</v>
+        <v>45969.61458333334</v>
       </c>
       <c r="B157">
         <v>0</v>
@@ -1645,7 +1645,7 @@
     </row>
     <row r="158" spans="1:2">
       <c r="A158" s="2">
-        <v>45954.625</v>
+        <v>45969.625</v>
       </c>
       <c r="B158">
         <v>0</v>
@@ -1653,7 +1653,7 @@
     </row>
     <row r="159" spans="1:2">
       <c r="A159" s="2">
-        <v>45954.63541666666</v>
+        <v>45969.63541666666</v>
       </c>
       <c r="B159">
         <v>0</v>
@@ -1661,7 +1661,7 @@
     </row>
     <row r="160" spans="1:2">
       <c r="A160" s="2">
-        <v>45954.64583333334</v>
+        <v>45969.64583333334</v>
       </c>
       <c r="B160">
         <v>0</v>
@@ -1669,7 +1669,7 @@
     </row>
     <row r="161" spans="1:2">
       <c r="A161" s="2">
-        <v>45954.65625</v>
+        <v>45969.65625</v>
       </c>
       <c r="B161">
         <v>0</v>
@@ -1677,7 +1677,7 @@
     </row>
     <row r="162" spans="1:2">
       <c r="A162" s="2">
-        <v>45954.66666666666</v>
+        <v>45969.66666666666</v>
       </c>
       <c r="B162">
         <v>0</v>
@@ -1685,7 +1685,7 @@
     </row>
     <row r="163" spans="1:2">
       <c r="A163" s="2">
-        <v>45954.67708333334</v>
+        <v>45969.67708333334</v>
       </c>
       <c r="B163">
         <v>0</v>
@@ -1693,7 +1693,7 @@
     </row>
     <row r="164" spans="1:2">
       <c r="A164" s="2">
-        <v>45954.6875</v>
+        <v>45969.6875</v>
       </c>
       <c r="B164">
         <v>0</v>
@@ -1701,7 +1701,7 @@
     </row>
     <row r="165" spans="1:2">
       <c r="A165" s="2">
-        <v>45954.69791666666</v>
+        <v>45969.69791666666</v>
       </c>
       <c r="B165">
         <v>0</v>
@@ -1709,7 +1709,7 @@
     </row>
     <row r="166" spans="1:2">
       <c r="A166" s="2">
-        <v>45954.70833333334</v>
+        <v>45969.70833333334</v>
       </c>
       <c r="B166">
         <v>0</v>
@@ -1717,7 +1717,7 @@
     </row>
     <row r="167" spans="1:2">
       <c r="A167" s="2">
-        <v>45954.71875</v>
+        <v>45969.71875</v>
       </c>
       <c r="B167">
         <v>0</v>
@@ -1725,7 +1725,7 @@
     </row>
     <row r="168" spans="1:2">
       <c r="A168" s="2">
-        <v>45954.72916666666</v>
+        <v>45969.72916666666</v>
       </c>
       <c r="B168">
         <v>0</v>
@@ -1733,7 +1733,7 @@
     </row>
     <row r="169" spans="1:2">
       <c r="A169" s="2">
-        <v>45954.73958333334</v>
+        <v>45969.73958333334</v>
       </c>
       <c r="B169">
         <v>0</v>
@@ -1741,7 +1741,7 @@
     </row>
     <row r="170" spans="1:2">
       <c r="A170" s="2">
-        <v>45954.75</v>
+        <v>45969.75</v>
       </c>
       <c r="B170">
         <v>0</v>
@@ -1749,7 +1749,7 @@
     </row>
     <row r="171" spans="1:2">
       <c r="A171" s="2">
-        <v>45954.76041666666</v>
+        <v>45969.76041666666</v>
       </c>
       <c r="B171">
         <v>0</v>
@@ -1757,7 +1757,7 @@
     </row>
     <row r="172" spans="1:2">
       <c r="A172" s="2">
-        <v>45954.77083333334</v>
+        <v>45969.77083333334</v>
       </c>
       <c r="B172">
         <v>0</v>
@@ -1765,7 +1765,7 @@
     </row>
     <row r="173" spans="1:2">
       <c r="A173" s="2">
-        <v>45954.78125</v>
+        <v>45969.78125</v>
       </c>
       <c r="B173">
         <v>0</v>
@@ -1773,7 +1773,7 @@
     </row>
     <row r="174" spans="1:2">
       <c r="A174" s="2">
-        <v>45954.79166666666</v>
+        <v>45969.79166666666</v>
       </c>
       <c r="B174">
         <v>0</v>
@@ -1781,7 +1781,7 @@
     </row>
     <row r="175" spans="1:2">
       <c r="A175" s="2">
-        <v>45954.80208333334</v>
+        <v>45969.80208333334</v>
       </c>
       <c r="B175">
         <v>0</v>
@@ -1789,7 +1789,7 @@
     </row>
     <row r="176" spans="1:2">
       <c r="A176" s="2">
-        <v>45954.8125</v>
+        <v>45969.8125</v>
       </c>
       <c r="B176">
         <v>0</v>
@@ -1797,7 +1797,7 @@
     </row>
     <row r="177" spans="1:2">
       <c r="A177" s="2">
-        <v>45954.82291666666</v>
+        <v>45969.82291666666</v>
       </c>
       <c r="B177">
         <v>0</v>
@@ -1805,7 +1805,7 @@
     </row>
     <row r="178" spans="1:2">
       <c r="A178" s="2">
-        <v>45954.83333333334</v>
+        <v>45969.83333333334</v>
       </c>
       <c r="B178">
         <v>0</v>
@@ -1813,7 +1813,7 @@
     </row>
     <row r="179" spans="1:2">
       <c r="A179" s="2">
-        <v>45954.84375</v>
+        <v>45969.84375</v>
       </c>
       <c r="B179">
         <v>0</v>
@@ -1821,7 +1821,7 @@
     </row>
     <row r="180" spans="1:2">
       <c r="A180" s="2">
-        <v>45954.85416666666</v>
+        <v>45969.85416666666</v>
       </c>
       <c r="B180">
         <v>0</v>
@@ -1829,7 +1829,7 @@
     </row>
     <row r="181" spans="1:2">
       <c r="A181" s="2">
-        <v>45954.86458333334</v>
+        <v>45969.86458333334</v>
       </c>
       <c r="B181">
         <v>0</v>
@@ -1837,7 +1837,7 @@
     </row>
     <row r="182" spans="1:2">
       <c r="A182" s="2">
-        <v>45954.875</v>
+        <v>45969.875</v>
       </c>
       <c r="B182">
         <v>0</v>
@@ -1845,7 +1845,7 @@
     </row>
     <row r="183" spans="1:2">
       <c r="A183" s="2">
-        <v>45954.88541666666</v>
+        <v>45969.88541666666</v>
       </c>
       <c r="B183">
         <v>0</v>
@@ -1853,7 +1853,7 @@
     </row>
     <row r="184" spans="1:2">
       <c r="A184" s="2">
-        <v>45954.89583333334</v>
+        <v>45969.89583333334</v>
       </c>
       <c r="B184">
         <v>0</v>
@@ -1861,7 +1861,7 @@
     </row>
     <row r="185" spans="1:2">
       <c r="A185" s="2">
-        <v>45954.90625</v>
+        <v>45969.90625</v>
       </c>
       <c r="B185">
         <v>0</v>
@@ -1869,7 +1869,7 @@
     </row>
     <row r="186" spans="1:2">
       <c r="A186" s="2">
-        <v>45954.91666666666</v>
+        <v>45969.91666666666</v>
       </c>
       <c r="B186">
         <v>0</v>
@@ -1877,7 +1877,7 @@
     </row>
     <row r="187" spans="1:2">
       <c r="A187" s="2">
-        <v>45954.92708333334</v>
+        <v>45969.92708333334</v>
       </c>
       <c r="B187">
         <v>0</v>
@@ -1885,7 +1885,7 @@
     </row>
     <row r="188" spans="1:2">
       <c r="A188" s="2">
-        <v>45954.9375</v>
+        <v>45969.9375</v>
       </c>
       <c r="B188">
         <v>0</v>
@@ -1893,7 +1893,7 @@
     </row>
     <row r="189" spans="1:2">
       <c r="A189" s="2">
-        <v>45954.94791666666</v>
+        <v>45969.94791666666</v>
       </c>
       <c r="B189">
         <v>0</v>
@@ -1901,7 +1901,7 @@
     </row>
     <row r="190" spans="1:2">
       <c r="A190" s="2">
-        <v>45954.95833333334</v>
+        <v>45969.95833333334</v>
       </c>
       <c r="B190">
         <v>0</v>
@@ -1909,7 +1909,7 @@
     </row>
     <row r="191" spans="1:2">
       <c r="A191" s="2">
-        <v>45954.96875</v>
+        <v>45969.96875</v>
       </c>
       <c r="B191">
         <v>0</v>
@@ -1917,7 +1917,7 @@
     </row>
     <row r="192" spans="1:2">
       <c r="A192" s="2">
-        <v>45954.97916666666</v>
+        <v>45969.97916666666</v>
       </c>
       <c r="B192">
         <v>0</v>
@@ -1925,7 +1925,7 @@
     </row>
     <row r="193" spans="1:2">
       <c r="A193" s="2">
-        <v>45954.98958333334</v>
+        <v>45969.98958333334</v>
       </c>
       <c r="B193">
         <v>0</v>

--- a/data_fetching/Entsoe/Actual_Production_Hydro_Water_Reservoir.xlsx
+++ b/data_fetching/Entsoe/Actual_Production_Hydro_Water_Reservoir.xlsx
@@ -397,183 +397,183 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2">
-        <v>45968</v>
+        <v>45969</v>
       </c>
       <c r="B2">
-        <v>351</v>
+        <v>333</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2">
-        <v>45968.01041666666</v>
+        <v>45969.01041666666</v>
       </c>
       <c r="B3">
-        <v>344</v>
+        <v>329</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2">
-        <v>45968.02083333334</v>
+        <v>45969.02083333334</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>328</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2">
-        <v>45968.03125</v>
+        <v>45969.03125</v>
       </c>
       <c r="B5">
-        <v>343</v>
+        <v>326</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2">
-        <v>45968.04166666666</v>
+        <v>45969.04166666666</v>
       </c>
       <c r="B6">
-        <v>344</v>
+        <v>328</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2">
-        <v>45968.05208333334</v>
+        <v>45969.05208333334</v>
       </c>
       <c r="B7">
-        <v>342</v>
+        <v>329</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2">
-        <v>45968.0625</v>
+        <v>45969.0625</v>
       </c>
       <c r="B8">
-        <v>344</v>
+        <v>330</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2">
-        <v>45968.07291666666</v>
+        <v>45969.07291666666</v>
       </c>
       <c r="B9">
-        <v>343</v>
+        <v>328</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2">
-        <v>45968.08333333334</v>
+        <v>45969.08333333334</v>
       </c>
       <c r="B10">
-        <v>353</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2">
-        <v>45968.09375</v>
+        <v>45969.09375</v>
       </c>
       <c r="B11">
-        <v>348</v>
+        <v>327</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2">
-        <v>45968.10416666666</v>
+        <v>45969.10416666666</v>
       </c>
       <c r="B12">
-        <v>430</v>
+        <v>328</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2">
-        <v>45968.11458333334</v>
+        <v>45969.11458333334</v>
       </c>
       <c r="B13">
-        <v>428</v>
+        <v>326</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2">
-        <v>45968.125</v>
+        <v>45969.125</v>
       </c>
       <c r="B14">
-        <v>431</v>
+        <v>327</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2">
-        <v>45968.13541666666</v>
+        <v>45969.13541666666</v>
       </c>
       <c r="B15">
-        <v>428</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2">
-        <v>45968.14583333334</v>
+        <v>45969.14583333334</v>
       </c>
       <c r="B16">
-        <v>430</v>
+        <v>326</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2">
-        <v>45968.15625</v>
+        <v>45969.15625</v>
       </c>
       <c r="B17">
-        <v>525</v>
+        <v>327</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2">
-        <v>45968.16666666666</v>
+        <v>45969.16666666666</v>
       </c>
       <c r="B18">
-        <v>541</v>
+        <v>326</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2">
-        <v>45968.17708333334</v>
+        <v>45969.17708333334</v>
       </c>
       <c r="B19">
-        <v>544</v>
+        <v>325</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2">
-        <v>45968.1875</v>
+        <v>45969.1875</v>
       </c>
       <c r="B20">
-        <v>552</v>
+        <v>321</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2">
-        <v>45968.19791666666</v>
+        <v>45969.19791666666</v>
       </c>
       <c r="B21">
-        <v>561</v>
+        <v>311</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2">
-        <v>45968.20833333334</v>
+        <v>45969.20833333334</v>
       </c>
       <c r="B22">
-        <v>637</v>
+        <v>336</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2">
-        <v>45968.21875</v>
+        <v>45969.21875</v>
       </c>
       <c r="B23">
-        <v>537</v>
+        <v>340</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2">
-        <v>45968.22916666666</v>
+        <v>45969.22916666666</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -581,31 +581,31 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2">
-        <v>45968.23958333334</v>
+        <v>45969.23958333334</v>
       </c>
       <c r="B25">
-        <v>558</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2">
-        <v>45968.25</v>
+        <v>45969.25</v>
       </c>
       <c r="B26">
-        <v>725</v>
+        <v>483</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2">
-        <v>45968.26041666666</v>
+        <v>45969.26041666666</v>
       </c>
       <c r="B27">
-        <v>713</v>
+        <v>433</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2">
-        <v>45968.27083333334</v>
+        <v>45969.27083333334</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -613,791 +613,791 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2">
-        <v>45968.28125</v>
+        <v>45969.28125</v>
       </c>
       <c r="B29">
-        <v>705</v>
+        <v>436</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2">
-        <v>45968.29166666666</v>
+        <v>45969.29166666666</v>
       </c>
       <c r="B30">
-        <v>709</v>
+        <v>580</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2">
-        <v>45968.30208333334</v>
+        <v>45969.30208333334</v>
       </c>
       <c r="B31">
-        <v>711</v>
+        <v>518</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2">
-        <v>45968.3125</v>
+        <v>45969.3125</v>
       </c>
       <c r="B32">
-        <v>710</v>
+        <v>509</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2">
-        <v>45968.32291666666</v>
+        <v>45969.32291666666</v>
       </c>
       <c r="B33">
-        <v>707</v>
+        <v>512</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2">
-        <v>45968.33333333334</v>
+        <v>45969.33333333334</v>
       </c>
       <c r="B34">
-        <v>583</v>
+        <v>375</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="2">
-        <v>45968.34375</v>
+        <v>45969.34375</v>
       </c>
       <c r="B35">
-        <v>573</v>
+        <v>374</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="2">
-        <v>45968.35416666666</v>
+        <v>45969.35416666666</v>
       </c>
       <c r="B36">
-        <v>570</v>
+        <v>447</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="2">
-        <v>45968.36458333334</v>
+        <v>45969.36458333334</v>
       </c>
       <c r="B37">
-        <v>566</v>
+        <v>449</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="2">
-        <v>45968.375</v>
+        <v>45969.375</v>
       </c>
       <c r="B38">
-        <v>412</v>
+        <v>293</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="2">
-        <v>45968.38541666666</v>
+        <v>45969.38541666666</v>
       </c>
       <c r="B39">
-        <v>392</v>
+        <v>279</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="2">
-        <v>45968.39583333334</v>
+        <v>45969.39583333334</v>
       </c>
       <c r="B40">
-        <v>393</v>
+        <v>276</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="2">
-        <v>45968.40625</v>
+        <v>45969.40625</v>
       </c>
       <c r="B41">
-        <v>374</v>
+        <v>274</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="2">
-        <v>45968.41666666666</v>
+        <v>45969.41666666666</v>
       </c>
       <c r="B42">
-        <v>348</v>
+        <v>299</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="2">
-        <v>45968.42708333334</v>
+        <v>45969.42708333334</v>
       </c>
       <c r="B43">
-        <v>338</v>
+        <v>308</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="2">
-        <v>45968.4375</v>
+        <v>45969.4375</v>
       </c>
       <c r="B44">
-        <v>327</v>
+        <v>306</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="2">
-        <v>45968.44791666666</v>
+        <v>45969.44791666666</v>
       </c>
       <c r="B45">
-        <v>328</v>
+        <v>309</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="2">
-        <v>45968.45833333334</v>
+        <v>45969.45833333334</v>
       </c>
       <c r="B46">
-        <v>271</v>
+        <v>216</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="2">
-        <v>45968.46875</v>
+        <v>45969.46875</v>
       </c>
       <c r="B47">
-        <v>239</v>
+        <v>208</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="2">
-        <v>45968.47916666666</v>
+        <v>45969.47916666666</v>
       </c>
       <c r="B48">
-        <v>235</v>
+        <v>209</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="2">
-        <v>45968.48958333334</v>
+        <v>45969.48958333334</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>207</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="2">
-        <v>45968.5</v>
+        <v>45969.5</v>
       </c>
       <c r="B50">
-        <v>238</v>
+        <v>227</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="2">
-        <v>45968.51041666666</v>
+        <v>45969.51041666666</v>
       </c>
       <c r="B51">
-        <v>291</v>
+        <v>231</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="2">
-        <v>45968.52083333334</v>
+        <v>45969.52083333334</v>
       </c>
       <c r="B52">
-        <v>310</v>
+        <v>234</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="2">
-        <v>45968.53125</v>
+        <v>45969.53125</v>
       </c>
       <c r="B53">
-        <v>436</v>
+        <v>215</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="2">
-        <v>45968.54166666666</v>
+        <v>45969.54166666666</v>
       </c>
       <c r="B54">
-        <v>453</v>
+        <v>319</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="2">
-        <v>45968.55208333334</v>
+        <v>45969.55208333334</v>
       </c>
       <c r="B55">
-        <v>461</v>
+        <v>298</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="2">
-        <v>45968.5625</v>
+        <v>45969.5625</v>
       </c>
       <c r="B56">
-        <v>490</v>
+        <v>294</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="2">
-        <v>45968.57291666666</v>
+        <v>45969.57291666666</v>
       </c>
       <c r="B57">
-        <v>489</v>
+        <v>336</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="2">
-        <v>45968.58333333334</v>
+        <v>45969.58333333334</v>
       </c>
       <c r="B58">
-        <v>594</v>
+        <v>494</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="2">
-        <v>45968.59375</v>
+        <v>45969.59375</v>
       </c>
       <c r="B59">
-        <v>611</v>
+        <v>512</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="2">
-        <v>45968.60416666666</v>
+        <v>45969.60416666666</v>
       </c>
       <c r="B60">
-        <v>551</v>
+        <v>526</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="2">
-        <v>45968.61458333334</v>
+        <v>45969.61458333334</v>
       </c>
       <c r="B61">
-        <v>559</v>
+        <v>536</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="2">
-        <v>45968.625</v>
+        <v>45969.625</v>
       </c>
       <c r="B62">
-        <v>603</v>
+        <v>617</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="2">
-        <v>45968.63541666666</v>
+        <v>45969.63541666666</v>
       </c>
       <c r="B63">
-        <v>621</v>
+        <v>603</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="2">
-        <v>45968.64583333334</v>
+        <v>45969.64583333334</v>
       </c>
       <c r="B64">
-        <v>636</v>
+        <v>602</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="2">
-        <v>45968.65625</v>
+        <v>45969.65625</v>
       </c>
       <c r="B65">
-        <v>649</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="2">
-        <v>45968.66666666666</v>
+        <v>45969.66666666666</v>
       </c>
       <c r="B66">
-        <v>714</v>
+        <v>637</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="2">
-        <v>45968.67708333334</v>
+        <v>45969.67708333334</v>
       </c>
       <c r="B67">
-        <v>725</v>
+        <v>648</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="2">
-        <v>45968.6875</v>
+        <v>45969.6875</v>
       </c>
       <c r="B68">
-        <v>759</v>
+        <v>664</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="2">
-        <v>45968.69791666666</v>
+        <v>45969.69791666666</v>
       </c>
       <c r="B69">
-        <v>872</v>
+        <v>663</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="2">
-        <v>45968.70833333334</v>
+        <v>45969.70833333334</v>
       </c>
       <c r="B70">
-        <v>1027</v>
+        <v>686</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="2">
-        <v>45968.71875</v>
+        <v>45969.71875</v>
       </c>
       <c r="B71">
-        <v>1028</v>
+        <v>687</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="2">
-        <v>45968.72916666666</v>
+        <v>45969.72916666666</v>
       </c>
       <c r="B72">
-        <v>1005</v>
+        <v>684</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="2">
-        <v>45968.73958333334</v>
+        <v>45969.73958333334</v>
       </c>
       <c r="B73">
-        <v>1010</v>
+        <v>683</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="2">
-        <v>45968.75</v>
+        <v>45969.75</v>
       </c>
       <c r="B74">
-        <v>1136</v>
+        <v>650</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="2">
-        <v>45968.76041666666</v>
+        <v>45969.76041666666</v>
       </c>
       <c r="B75">
-        <v>1063</v>
+        <v>767</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="2">
-        <v>45968.77083333334</v>
+        <v>45969.77083333334</v>
       </c>
       <c r="B76">
-        <v>1061</v>
+        <v>762</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="2">
-        <v>45968.78125</v>
+        <v>45969.78125</v>
       </c>
       <c r="B77">
-        <v>1059</v>
+        <v>769</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="2">
-        <v>45968.79166666666</v>
+        <v>45969.79166666666</v>
       </c>
       <c r="B78">
-        <v>1053</v>
+        <v>648</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="2">
-        <v>45968.80208333334</v>
+        <v>45969.80208333334</v>
       </c>
       <c r="B79">
-        <v>1057</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="2">
-        <v>45968.8125</v>
+        <v>45969.8125</v>
       </c>
       <c r="B80">
-        <v>1059</v>
+        <v>731</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="2">
-        <v>45968.82291666666</v>
+        <v>45969.82291666666</v>
       </c>
       <c r="B81">
-        <v>1061</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="2">
-        <v>45968.83333333334</v>
+        <v>45969.83333333334</v>
       </c>
       <c r="B82">
-        <v>1073</v>
+        <v>682</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="2">
-        <v>45968.84375</v>
+        <v>45969.84375</v>
       </c>
       <c r="B83">
-        <v>1039</v>
+        <v>670</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="2">
-        <v>45968.85416666666</v>
+        <v>45969.85416666666</v>
       </c>
       <c r="B84">
-        <v>1033</v>
+        <v>671</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="2">
-        <v>45968.86458333334</v>
+        <v>45969.86458333334</v>
       </c>
       <c r="B85">
-        <v>1032</v>
+        <v>669</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="2">
-        <v>45968.875</v>
+        <v>45969.875</v>
       </c>
       <c r="B86">
-        <v>938</v>
+        <v>599</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="2">
-        <v>45968.88541666666</v>
+        <v>45969.88541666666</v>
       </c>
       <c r="B87">
-        <v>900</v>
+        <v>594</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="2">
-        <v>45968.89583333334</v>
+        <v>45969.89583333334</v>
       </c>
       <c r="B88">
-        <v>899</v>
+        <v>609</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="2">
-        <v>45968.90625</v>
+        <v>45969.90625</v>
       </c>
       <c r="B89">
-        <v>893</v>
+        <v>598</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="2">
-        <v>45968.91666666666</v>
+        <v>45969.91666666666</v>
       </c>
       <c r="B90">
-        <v>646</v>
+        <v>358</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="2">
-        <v>45968.92708333334</v>
+        <v>45969.92708333334</v>
       </c>
       <c r="B91">
-        <v>633</v>
+        <v>349</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="2">
-        <v>45968.9375</v>
+        <v>45969.9375</v>
       </c>
       <c r="B92">
-        <v>634</v>
+        <v>351</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="2">
-        <v>45968.94791666666</v>
+        <v>45969.94791666666</v>
       </c>
       <c r="B93">
-        <v>625</v>
+        <v>356</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="2">
-        <v>45968.95833333334</v>
+        <v>45969.95833333334</v>
       </c>
       <c r="B94">
-        <v>401</v>
+        <v>380</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="2">
-        <v>45968.96875</v>
+        <v>45969.96875</v>
       </c>
       <c r="B95">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="2">
-        <v>45968.97916666666</v>
+        <v>45969.97916666666</v>
       </c>
       <c r="B96">
-        <v>386</v>
+        <v>377</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="2">
-        <v>45968.98958333334</v>
+        <v>45969.98958333334</v>
       </c>
       <c r="B97">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" s="2">
-        <v>45969</v>
+        <v>45970</v>
       </c>
       <c r="B98">
-        <v>333</v>
+        <v>378</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" s="2">
-        <v>45969.01041666666</v>
+        <v>45970.01041666666</v>
       </c>
       <c r="B99">
-        <v>329</v>
+        <v>377</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" s="2">
-        <v>45969.02083333334</v>
+        <v>45970.02083333334</v>
       </c>
       <c r="B100">
-        <v>328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" s="2">
-        <v>45969.03125</v>
+        <v>45970.03125</v>
       </c>
       <c r="B101">
-        <v>326</v>
+        <v>368</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" s="2">
-        <v>45969.04166666666</v>
+        <v>45970.04166666666</v>
       </c>
       <c r="B102">
-        <v>328</v>
+        <v>358</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" s="2">
-        <v>45969.05208333334</v>
+        <v>45970.05208333334</v>
       </c>
       <c r="B103">
-        <v>329</v>
+        <v>357</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" s="2">
-        <v>45969.0625</v>
+        <v>45970.0625</v>
       </c>
       <c r="B104">
-        <v>330</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" s="2">
-        <v>45969.07291666666</v>
+        <v>45970.07291666666</v>
       </c>
       <c r="B105">
-        <v>328</v>
+        <v>359</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" s="2">
-        <v>45969.08333333334</v>
+        <v>45970.08333333334</v>
       </c>
       <c r="B106">
-        <v>0</v>
+        <v>362</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" s="2">
-        <v>45969.09375</v>
+        <v>45970.09375</v>
       </c>
       <c r="B107">
-        <v>327</v>
+        <v>359</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" s="2">
-        <v>45969.10416666666</v>
+        <v>45970.10416666666</v>
       </c>
       <c r="B108">
-        <v>328</v>
+        <v>360</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" s="2">
-        <v>45969.11458333334</v>
+        <v>45970.11458333334</v>
       </c>
       <c r="B109">
-        <v>326</v>
+        <v>359</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" s="2">
-        <v>45969.125</v>
+        <v>45970.125</v>
       </c>
       <c r="B110">
-        <v>327</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" s="2">
-        <v>45969.13541666666</v>
+        <v>45970.13541666666</v>
       </c>
       <c r="B111">
-        <v>0</v>
+        <v>361</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112" s="2">
-        <v>45969.14583333334</v>
+        <v>45970.14583333334</v>
       </c>
       <c r="B112">
-        <v>326</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" s="2">
-        <v>45969.15625</v>
+        <v>45970.15625</v>
       </c>
       <c r="B113">
-        <v>327</v>
+        <v>360</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" s="2">
-        <v>45969.16666666666</v>
+        <v>45970.16666666666</v>
       </c>
       <c r="B114">
-        <v>326</v>
+        <v>363</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" s="2">
-        <v>45969.17708333334</v>
+        <v>45970.17708333334</v>
       </c>
       <c r="B115">
-        <v>325</v>
+        <v>361</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" s="2">
-        <v>45969.1875</v>
+        <v>45970.1875</v>
       </c>
       <c r="B116">
-        <v>321</v>
+        <v>358</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117" s="2">
-        <v>45969.19791666666</v>
+        <v>45970.19791666666</v>
       </c>
       <c r="B117">
-        <v>311</v>
+        <v>360</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" s="2">
-        <v>45969.20833333334</v>
+        <v>45970.20833333334</v>
       </c>
       <c r="B118">
-        <v>336</v>
+        <v>361</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" s="2">
-        <v>45969.21875</v>
+        <v>45970.21875</v>
       </c>
       <c r="B119">
-        <v>340</v>
+        <v>360</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" s="2">
-        <v>45969.22916666666</v>
+        <v>45970.22916666666</v>
       </c>
       <c r="B120">
-        <v>0</v>
+        <v>359</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" s="2">
-        <v>45969.23958333334</v>
+        <v>45970.23958333334</v>
       </c>
       <c r="B121">
-        <v>0</v>
+        <v>365</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" s="2">
-        <v>45969.25</v>
+        <v>45970.25</v>
       </c>
       <c r="B122">
-        <v>483</v>
+        <v>396</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123" s="2">
-        <v>45969.26041666666</v>
+        <v>45970.26041666666</v>
       </c>
       <c r="B123">
-        <v>433</v>
+        <v>395</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" s="2">
-        <v>45969.27083333334</v>
+        <v>45970.27083333334</v>
       </c>
       <c r="B124">
-        <v>0</v>
+        <v>396</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" s="2">
-        <v>45969.28125</v>
+        <v>45970.28125</v>
       </c>
       <c r="B125">
-        <v>436</v>
+        <v>397</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" s="2">
-        <v>45969.29166666666</v>
+        <v>45970.29166666666</v>
       </c>
       <c r="B126">
-        <v>580</v>
+        <v>407</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127" s="2">
-        <v>45969.30208333334</v>
+        <v>45970.30208333334</v>
       </c>
       <c r="B127">
         <v>0</v>
@@ -1405,7 +1405,7 @@
     </row>
     <row r="128" spans="1:2">
       <c r="A128" s="2">
-        <v>45969.3125</v>
+        <v>45970.3125</v>
       </c>
       <c r="B128">
         <v>0</v>
@@ -1413,7 +1413,7 @@
     </row>
     <row r="129" spans="1:2">
       <c r="A129" s="2">
-        <v>45969.32291666666</v>
+        <v>45970.32291666666</v>
       </c>
       <c r="B129">
         <v>0</v>
@@ -1421,7 +1421,7 @@
     </row>
     <row r="130" spans="1:2">
       <c r="A130" s="2">
-        <v>45969.33333333334</v>
+        <v>45970.33333333334</v>
       </c>
       <c r="B130">
         <v>0</v>
@@ -1429,7 +1429,7 @@
     </row>
     <row r="131" spans="1:2">
       <c r="A131" s="2">
-        <v>45969.34375</v>
+        <v>45970.34375</v>
       </c>
       <c r="B131">
         <v>0</v>
@@ -1437,7 +1437,7 @@
     </row>
     <row r="132" spans="1:2">
       <c r="A132" s="2">
-        <v>45969.35416666666</v>
+        <v>45970.35416666666</v>
       </c>
       <c r="B132">
         <v>0</v>
@@ -1445,7 +1445,7 @@
     </row>
     <row r="133" spans="1:2">
       <c r="A133" s="2">
-        <v>45969.36458333334</v>
+        <v>45970.36458333334</v>
       </c>
       <c r="B133">
         <v>0</v>
@@ -1453,7 +1453,7 @@
     </row>
     <row r="134" spans="1:2">
       <c r="A134" s="2">
-        <v>45969.375</v>
+        <v>45970.375</v>
       </c>
       <c r="B134">
         <v>0</v>
@@ -1461,7 +1461,7 @@
     </row>
     <row r="135" spans="1:2">
       <c r="A135" s="2">
-        <v>45969.38541666666</v>
+        <v>45970.38541666666</v>
       </c>
       <c r="B135">
         <v>0</v>
@@ -1469,7 +1469,7 @@
     </row>
     <row r="136" spans="1:2">
       <c r="A136" s="2">
-        <v>45969.39583333334</v>
+        <v>45970.39583333334</v>
       </c>
       <c r="B136">
         <v>0</v>
@@ -1477,7 +1477,7 @@
     </row>
     <row r="137" spans="1:2">
       <c r="A137" s="2">
-        <v>45969.40625</v>
+        <v>45970.40625</v>
       </c>
       <c r="B137">
         <v>0</v>
@@ -1485,7 +1485,7 @@
     </row>
     <row r="138" spans="1:2">
       <c r="A138" s="2">
-        <v>45969.41666666666</v>
+        <v>45970.41666666666</v>
       </c>
       <c r="B138">
         <v>0</v>
@@ -1493,7 +1493,7 @@
     </row>
     <row r="139" spans="1:2">
       <c r="A139" s="2">
-        <v>45969.42708333334</v>
+        <v>45970.42708333334</v>
       </c>
       <c r="B139">
         <v>0</v>
@@ -1501,7 +1501,7 @@
     </row>
     <row r="140" spans="1:2">
       <c r="A140" s="2">
-        <v>45969.4375</v>
+        <v>45970.4375</v>
       </c>
       <c r="B140">
         <v>0</v>
@@ -1509,7 +1509,7 @@
     </row>
     <row r="141" spans="1:2">
       <c r="A141" s="2">
-        <v>45969.44791666666</v>
+        <v>45970.44791666666</v>
       </c>
       <c r="B141">
         <v>0</v>
@@ -1517,7 +1517,7 @@
     </row>
     <row r="142" spans="1:2">
       <c r="A142" s="2">
-        <v>45969.45833333334</v>
+        <v>45970.45833333334</v>
       </c>
       <c r="B142">
         <v>0</v>
@@ -1525,7 +1525,7 @@
     </row>
     <row r="143" spans="1:2">
       <c r="A143" s="2">
-        <v>45969.46875</v>
+        <v>45970.46875</v>
       </c>
       <c r="B143">
         <v>0</v>
@@ -1533,7 +1533,7 @@
     </row>
     <row r="144" spans="1:2">
       <c r="A144" s="2">
-        <v>45969.47916666666</v>
+        <v>45970.47916666666</v>
       </c>
       <c r="B144">
         <v>0</v>
@@ -1541,7 +1541,7 @@
     </row>
     <row r="145" spans="1:2">
       <c r="A145" s="2">
-        <v>45969.48958333334</v>
+        <v>45970.48958333334</v>
       </c>
       <c r="B145">
         <v>0</v>
@@ -1549,7 +1549,7 @@
     </row>
     <row r="146" spans="1:2">
       <c r="A146" s="2">
-        <v>45969.5</v>
+        <v>45970.5</v>
       </c>
       <c r="B146">
         <v>0</v>
@@ -1557,7 +1557,7 @@
     </row>
     <row r="147" spans="1:2">
       <c r="A147" s="2">
-        <v>45969.51041666666</v>
+        <v>45970.51041666666</v>
       </c>
       <c r="B147">
         <v>0</v>
@@ -1565,7 +1565,7 @@
     </row>
     <row r="148" spans="1:2">
       <c r="A148" s="2">
-        <v>45969.52083333334</v>
+        <v>45970.52083333334</v>
       </c>
       <c r="B148">
         <v>0</v>
@@ -1573,7 +1573,7 @@
     </row>
     <row r="149" spans="1:2">
       <c r="A149" s="2">
-        <v>45969.53125</v>
+        <v>45970.53125</v>
       </c>
       <c r="B149">
         <v>0</v>
@@ -1581,7 +1581,7 @@
     </row>
     <row r="150" spans="1:2">
       <c r="A150" s="2">
-        <v>45969.54166666666</v>
+        <v>45970.54166666666</v>
       </c>
       <c r="B150">
         <v>0</v>
@@ -1589,7 +1589,7 @@
     </row>
     <row r="151" spans="1:2">
       <c r="A151" s="2">
-        <v>45969.55208333334</v>
+        <v>45970.55208333334</v>
       </c>
       <c r="B151">
         <v>0</v>
@@ -1597,7 +1597,7 @@
     </row>
     <row r="152" spans="1:2">
       <c r="A152" s="2">
-        <v>45969.5625</v>
+        <v>45970.5625</v>
       </c>
       <c r="B152">
         <v>0</v>
@@ -1605,7 +1605,7 @@
     </row>
     <row r="153" spans="1:2">
       <c r="A153" s="2">
-        <v>45969.57291666666</v>
+        <v>45970.57291666666</v>
       </c>
       <c r="B153">
         <v>0</v>
@@ -1613,7 +1613,7 @@
     </row>
     <row r="154" spans="1:2">
       <c r="A154" s="2">
-        <v>45969.58333333334</v>
+        <v>45970.58333333334</v>
       </c>
       <c r="B154">
         <v>0</v>
@@ -1621,7 +1621,7 @@
     </row>
     <row r="155" spans="1:2">
       <c r="A155" s="2">
-        <v>45969.59375</v>
+        <v>45970.59375</v>
       </c>
       <c r="B155">
         <v>0</v>
@@ -1629,7 +1629,7 @@
     </row>
     <row r="156" spans="1:2">
       <c r="A156" s="2">
-        <v>45969.60416666666</v>
+        <v>45970.60416666666</v>
       </c>
       <c r="B156">
         <v>0</v>
@@ -1637,7 +1637,7 @@
     </row>
     <row r="157" spans="1:2">
       <c r="A157" s="2">
-        <v>45969.61458333334</v>
+        <v>45970.61458333334</v>
       </c>
       <c r="B157">
         <v>0</v>
@@ -1645,7 +1645,7 @@
     </row>
     <row r="158" spans="1:2">
       <c r="A158" s="2">
-        <v>45969.625</v>
+        <v>45970.625</v>
       </c>
       <c r="B158">
         <v>0</v>
@@ -1653,7 +1653,7 @@
     </row>
     <row r="159" spans="1:2">
       <c r="A159" s="2">
-        <v>45969.63541666666</v>
+        <v>45970.63541666666</v>
       </c>
       <c r="B159">
         <v>0</v>
@@ -1661,7 +1661,7 @@
     </row>
     <row r="160" spans="1:2">
       <c r="A160" s="2">
-        <v>45969.64583333334</v>
+        <v>45970.64583333334</v>
       </c>
       <c r="B160">
         <v>0</v>
@@ -1669,7 +1669,7 @@
     </row>
     <row r="161" spans="1:2">
       <c r="A161" s="2">
-        <v>45969.65625</v>
+        <v>45970.65625</v>
       </c>
       <c r="B161">
         <v>0</v>
@@ -1677,7 +1677,7 @@
     </row>
     <row r="162" spans="1:2">
       <c r="A162" s="2">
-        <v>45969.66666666666</v>
+        <v>45970.66666666666</v>
       </c>
       <c r="B162">
         <v>0</v>
@@ -1685,7 +1685,7 @@
     </row>
     <row r="163" spans="1:2">
       <c r="A163" s="2">
-        <v>45969.67708333334</v>
+        <v>45970.67708333334</v>
       </c>
       <c r="B163">
         <v>0</v>
@@ -1693,7 +1693,7 @@
     </row>
     <row r="164" spans="1:2">
       <c r="A164" s="2">
-        <v>45969.6875</v>
+        <v>45970.6875</v>
       </c>
       <c r="B164">
         <v>0</v>
@@ -1701,7 +1701,7 @@
     </row>
     <row r="165" spans="1:2">
       <c r="A165" s="2">
-        <v>45969.69791666666</v>
+        <v>45970.69791666666</v>
       </c>
       <c r="B165">
         <v>0</v>
@@ -1709,7 +1709,7 @@
     </row>
     <row r="166" spans="1:2">
       <c r="A166" s="2">
-        <v>45969.70833333334</v>
+        <v>45970.70833333334</v>
       </c>
       <c r="B166">
         <v>0</v>
@@ -1717,7 +1717,7 @@
     </row>
     <row r="167" spans="1:2">
       <c r="A167" s="2">
-        <v>45969.71875</v>
+        <v>45970.71875</v>
       </c>
       <c r="B167">
         <v>0</v>
@@ -1725,7 +1725,7 @@
     </row>
     <row r="168" spans="1:2">
       <c r="A168" s="2">
-        <v>45969.72916666666</v>
+        <v>45970.72916666666</v>
       </c>
       <c r="B168">
         <v>0</v>
@@ -1733,7 +1733,7 @@
     </row>
     <row r="169" spans="1:2">
       <c r="A169" s="2">
-        <v>45969.73958333334</v>
+        <v>45970.73958333334</v>
       </c>
       <c r="B169">
         <v>0</v>
@@ -1741,7 +1741,7 @@
     </row>
     <row r="170" spans="1:2">
       <c r="A170" s="2">
-        <v>45969.75</v>
+        <v>45970.75</v>
       </c>
       <c r="B170">
         <v>0</v>
@@ -1749,7 +1749,7 @@
     </row>
     <row r="171" spans="1:2">
       <c r="A171" s="2">
-        <v>45969.76041666666</v>
+        <v>45970.76041666666</v>
       </c>
       <c r="B171">
         <v>0</v>
@@ -1757,7 +1757,7 @@
     </row>
     <row r="172" spans="1:2">
       <c r="A172" s="2">
-        <v>45969.77083333334</v>
+        <v>45970.77083333334</v>
       </c>
       <c r="B172">
         <v>0</v>
@@ -1765,7 +1765,7 @@
     </row>
     <row r="173" spans="1:2">
       <c r="A173" s="2">
-        <v>45969.78125</v>
+        <v>45970.78125</v>
       </c>
       <c r="B173">
         <v>0</v>
@@ -1773,7 +1773,7 @@
     </row>
     <row r="174" spans="1:2">
       <c r="A174" s="2">
-        <v>45969.79166666666</v>
+        <v>45970.79166666666</v>
       </c>
       <c r="B174">
         <v>0</v>
@@ -1781,7 +1781,7 @@
     </row>
     <row r="175" spans="1:2">
       <c r="A175" s="2">
-        <v>45969.80208333334</v>
+        <v>45970.80208333334</v>
       </c>
       <c r="B175">
         <v>0</v>
@@ -1789,7 +1789,7 @@
     </row>
     <row r="176" spans="1:2">
       <c r="A176" s="2">
-        <v>45969.8125</v>
+        <v>45970.8125</v>
       </c>
       <c r="B176">
         <v>0</v>
@@ -1797,7 +1797,7 @@
     </row>
     <row r="177" spans="1:2">
       <c r="A177" s="2">
-        <v>45969.82291666666</v>
+        <v>45970.82291666666</v>
       </c>
       <c r="B177">
         <v>0</v>
@@ -1805,7 +1805,7 @@
     </row>
     <row r="178" spans="1:2">
       <c r="A178" s="2">
-        <v>45969.83333333334</v>
+        <v>45970.83333333334</v>
       </c>
       <c r="B178">
         <v>0</v>
@@ -1813,7 +1813,7 @@
     </row>
     <row r="179" spans="1:2">
       <c r="A179" s="2">
-        <v>45969.84375</v>
+        <v>45970.84375</v>
       </c>
       <c r="B179">
         <v>0</v>
@@ -1821,7 +1821,7 @@
     </row>
     <row r="180" spans="1:2">
       <c r="A180" s="2">
-        <v>45969.85416666666</v>
+        <v>45970.85416666666</v>
       </c>
       <c r="B180">
         <v>0</v>
@@ -1829,7 +1829,7 @@
     </row>
     <row r="181" spans="1:2">
       <c r="A181" s="2">
-        <v>45969.86458333334</v>
+        <v>45970.86458333334</v>
       </c>
       <c r="B181">
         <v>0</v>
@@ -1837,7 +1837,7 @@
     </row>
     <row r="182" spans="1:2">
       <c r="A182" s="2">
-        <v>45969.875</v>
+        <v>45970.875</v>
       </c>
       <c r="B182">
         <v>0</v>
@@ -1845,7 +1845,7 @@
     </row>
     <row r="183" spans="1:2">
       <c r="A183" s="2">
-        <v>45969.88541666666</v>
+        <v>45970.88541666666</v>
       </c>
       <c r="B183">
         <v>0</v>
@@ -1853,7 +1853,7 @@
     </row>
     <row r="184" spans="1:2">
       <c r="A184" s="2">
-        <v>45969.89583333334</v>
+        <v>45970.89583333334</v>
       </c>
       <c r="B184">
         <v>0</v>
@@ -1861,7 +1861,7 @@
     </row>
     <row r="185" spans="1:2">
       <c r="A185" s="2">
-        <v>45969.90625</v>
+        <v>45970.90625</v>
       </c>
       <c r="B185">
         <v>0</v>
@@ -1869,7 +1869,7 @@
     </row>
     <row r="186" spans="1:2">
       <c r="A186" s="2">
-        <v>45969.91666666666</v>
+        <v>45970.91666666666</v>
       </c>
       <c r="B186">
         <v>0</v>
@@ -1877,7 +1877,7 @@
     </row>
     <row r="187" spans="1:2">
       <c r="A187" s="2">
-        <v>45969.92708333334</v>
+        <v>45970.92708333334</v>
       </c>
       <c r="B187">
         <v>0</v>
@@ -1885,7 +1885,7 @@
     </row>
     <row r="188" spans="1:2">
       <c r="A188" s="2">
-        <v>45969.9375</v>
+        <v>45970.9375</v>
       </c>
       <c r="B188">
         <v>0</v>
@@ -1893,7 +1893,7 @@
     </row>
     <row r="189" spans="1:2">
       <c r="A189" s="2">
-        <v>45969.94791666666</v>
+        <v>45970.94791666666</v>
       </c>
       <c r="B189">
         <v>0</v>
@@ -1901,7 +1901,7 @@
     </row>
     <row r="190" spans="1:2">
       <c r="A190" s="2">
-        <v>45969.95833333334</v>
+        <v>45970.95833333334</v>
       </c>
       <c r="B190">
         <v>0</v>
@@ -1909,7 +1909,7 @@
     </row>
     <row r="191" spans="1:2">
       <c r="A191" s="2">
-        <v>45969.96875</v>
+        <v>45970.96875</v>
       </c>
       <c r="B191">
         <v>0</v>
@@ -1917,7 +1917,7 @@
     </row>
     <row r="192" spans="1:2">
       <c r="A192" s="2">
-        <v>45969.97916666666</v>
+        <v>45970.97916666666</v>
       </c>
       <c r="B192">
         <v>0</v>
@@ -1925,7 +1925,7 @@
     </row>
     <row r="193" spans="1:2">
       <c r="A193" s="2">
-        <v>45969.98958333334</v>
+        <v>45970.98958333334</v>
       </c>
       <c r="B193">
         <v>0</v>

--- a/data_fetching/Entsoe/Actual_Production_Hydro_Water_Reservoir.xlsx
+++ b/data_fetching/Entsoe/Actual_Production_Hydro_Water_Reservoir.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B193"/>
+  <dimension ref="A1:B289"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -397,71 +397,71 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2">
-        <v>45969</v>
+        <v>45972</v>
       </c>
       <c r="B2">
-        <v>333</v>
+        <v>367</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2">
-        <v>45969.01041666666</v>
+        <v>45972.01041666666</v>
       </c>
       <c r="B3">
-        <v>329</v>
+        <v>357</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2">
-        <v>45969.02083333334</v>
+        <v>45972.02083333334</v>
       </c>
       <c r="B4">
-        <v>328</v>
+        <v>356</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2">
-        <v>45969.03125</v>
+        <v>45972.03125</v>
       </c>
       <c r="B5">
-        <v>326</v>
+        <v>352</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2">
-        <v>45969.04166666666</v>
+        <v>45972.04166666666</v>
       </c>
       <c r="B6">
-        <v>328</v>
+        <v>356</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2">
-        <v>45969.05208333334</v>
+        <v>45972.05208333334</v>
       </c>
       <c r="B7">
-        <v>329</v>
+        <v>354</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2">
-        <v>45969.0625</v>
+        <v>45972.0625</v>
       </c>
       <c r="B8">
-        <v>330</v>
+        <v>353</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2">
-        <v>45969.07291666666</v>
+        <v>45972.07291666666</v>
       </c>
       <c r="B9">
-        <v>328</v>
+        <v>354</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2">
-        <v>45969.08333333334</v>
+        <v>45972.08333333334</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -469,799 +469,799 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2">
-        <v>45969.09375</v>
+        <v>45972.09375</v>
       </c>
       <c r="B11">
-        <v>327</v>
+        <v>352</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2">
-        <v>45969.10416666666</v>
+        <v>45972.10416666666</v>
       </c>
       <c r="B12">
-        <v>328</v>
+        <v>350</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2">
-        <v>45969.11458333334</v>
+        <v>45972.11458333334</v>
       </c>
       <c r="B13">
-        <v>326</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2">
-        <v>45969.125</v>
+        <v>45972.125</v>
       </c>
       <c r="B14">
-        <v>327</v>
+        <v>352</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2">
-        <v>45969.13541666666</v>
+        <v>45972.13541666666</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>351</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2">
-        <v>45969.14583333334</v>
+        <v>45972.14583333334</v>
       </c>
       <c r="B16">
-        <v>326</v>
+        <v>350</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2">
-        <v>45969.15625</v>
+        <v>45972.15625</v>
       </c>
       <c r="B17">
-        <v>327</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2">
-        <v>45969.16666666666</v>
+        <v>45972.16666666666</v>
       </c>
       <c r="B18">
-        <v>326</v>
+        <v>351</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2">
-        <v>45969.17708333334</v>
+        <v>45972.17708333334</v>
       </c>
       <c r="B19">
-        <v>325</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2">
-        <v>45969.1875</v>
+        <v>45972.1875</v>
       </c>
       <c r="B20">
-        <v>321</v>
+        <v>353</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2">
-        <v>45969.19791666666</v>
+        <v>45972.19791666666</v>
       </c>
       <c r="B21">
-        <v>311</v>
+        <v>358</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2">
-        <v>45969.20833333334</v>
+        <v>45972.20833333334</v>
       </c>
       <c r="B22">
-        <v>336</v>
+        <v>407</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2">
-        <v>45969.21875</v>
+        <v>45972.21875</v>
       </c>
       <c r="B23">
-        <v>340</v>
+        <v>409</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2">
-        <v>45969.22916666666</v>
+        <v>45972.22916666666</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>415</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2">
-        <v>45969.23958333334</v>
+        <v>45972.23958333334</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>450</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2">
-        <v>45969.25</v>
+        <v>45972.25</v>
       </c>
       <c r="B26">
-        <v>483</v>
+        <v>841</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2">
-        <v>45969.26041666666</v>
+        <v>45972.26041666666</v>
       </c>
       <c r="B27">
-        <v>433</v>
+        <v>837</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2">
-        <v>45969.27083333334</v>
+        <v>45972.27083333334</v>
       </c>
       <c r="B28">
-        <v>0</v>
+        <v>830</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2">
-        <v>45969.28125</v>
+        <v>45972.28125</v>
       </c>
       <c r="B29">
-        <v>436</v>
+        <v>839</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2">
-        <v>45969.29166666666</v>
+        <v>45972.29166666666</v>
       </c>
       <c r="B30">
-        <v>580</v>
+        <v>846</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2">
-        <v>45969.30208333334</v>
+        <v>45972.30208333334</v>
       </c>
       <c r="B31">
-        <v>518</v>
+        <v>842</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2">
-        <v>45969.3125</v>
+        <v>45972.3125</v>
       </c>
       <c r="B32">
-        <v>509</v>
+        <v>845</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2">
-        <v>45969.32291666666</v>
+        <v>45972.32291666666</v>
       </c>
       <c r="B33">
-        <v>512</v>
+        <v>839</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2">
-        <v>45969.33333333334</v>
+        <v>45972.33333333334</v>
       </c>
       <c r="B34">
-        <v>375</v>
+        <v>844</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="2">
-        <v>45969.34375</v>
+        <v>45972.34375</v>
       </c>
       <c r="B35">
-        <v>374</v>
+        <v>842</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="2">
-        <v>45969.35416666666</v>
+        <v>45972.35416666666</v>
       </c>
       <c r="B36">
-        <v>447</v>
+        <v>841</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="2">
-        <v>45969.36458333334</v>
+        <v>45972.36458333334</v>
       </c>
       <c r="B37">
-        <v>449</v>
+        <v>842</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="2">
-        <v>45969.375</v>
+        <v>45972.375</v>
       </c>
       <c r="B38">
-        <v>293</v>
+        <v>683</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="2">
-        <v>45969.38541666666</v>
+        <v>45972.38541666666</v>
       </c>
       <c r="B39">
-        <v>279</v>
+        <v>677</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="2">
-        <v>45969.39583333334</v>
+        <v>45972.39583333334</v>
       </c>
       <c r="B40">
-        <v>276</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="2">
-        <v>45969.40625</v>
+        <v>45972.40625</v>
       </c>
       <c r="B41">
-        <v>274</v>
+        <v>676</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="2">
-        <v>45969.41666666666</v>
+        <v>45972.41666666666</v>
       </c>
       <c r="B42">
-        <v>299</v>
+        <v>470</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="2">
-        <v>45969.42708333334</v>
+        <v>45972.42708333334</v>
       </c>
       <c r="B43">
-        <v>308</v>
+        <v>464</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="2">
-        <v>45969.4375</v>
+        <v>45972.4375</v>
       </c>
       <c r="B44">
-        <v>306</v>
+        <v>463</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="2">
-        <v>45969.44791666666</v>
+        <v>45972.44791666666</v>
       </c>
       <c r="B45">
-        <v>309</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="2">
-        <v>45969.45833333334</v>
+        <v>45972.45833333334</v>
       </c>
       <c r="B46">
-        <v>216</v>
+        <v>464</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="2">
-        <v>45969.46875</v>
+        <v>45972.46875</v>
       </c>
       <c r="B47">
-        <v>208</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="2">
-        <v>45969.47916666666</v>
+        <v>45972.47916666666</v>
       </c>
       <c r="B48">
-        <v>209</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="2">
-        <v>45969.48958333334</v>
+        <v>45972.48958333334</v>
       </c>
       <c r="B49">
-        <v>207</v>
+        <v>465</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="2">
-        <v>45969.5</v>
+        <v>45972.5</v>
       </c>
       <c r="B50">
-        <v>227</v>
+        <v>453</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="2">
-        <v>45969.51041666666</v>
+        <v>45972.51041666666</v>
       </c>
       <c r="B51">
-        <v>231</v>
+        <v>454</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="2">
-        <v>45969.52083333334</v>
+        <v>45972.52083333334</v>
       </c>
       <c r="B52">
-        <v>234</v>
+        <v>461</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="2">
-        <v>45969.53125</v>
+        <v>45972.53125</v>
       </c>
       <c r="B53">
-        <v>215</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="2">
-        <v>45969.54166666666</v>
+        <v>45972.54166666666</v>
       </c>
       <c r="B54">
-        <v>319</v>
+        <v>458</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="2">
-        <v>45969.55208333334</v>
+        <v>45972.55208333334</v>
       </c>
       <c r="B55">
-        <v>298</v>
+        <v>462</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="2">
-        <v>45969.5625</v>
+        <v>45972.5625</v>
       </c>
       <c r="B56">
-        <v>294</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="2">
-        <v>45969.57291666666</v>
+        <v>45972.57291666666</v>
       </c>
       <c r="B57">
-        <v>336</v>
+        <v>443</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="2">
-        <v>45969.58333333334</v>
+        <v>45972.58333333334</v>
       </c>
       <c r="B58">
-        <v>494</v>
+        <v>597</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="2">
-        <v>45969.59375</v>
+        <v>45972.59375</v>
       </c>
       <c r="B59">
-        <v>512</v>
+        <v>810</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="2">
-        <v>45969.60416666666</v>
+        <v>45972.60416666666</v>
       </c>
       <c r="B60">
-        <v>526</v>
+        <v>908</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="2">
-        <v>45969.61458333334</v>
+        <v>45972.61458333334</v>
       </c>
       <c r="B61">
-        <v>536</v>
+        <v>921</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="2">
-        <v>45969.625</v>
+        <v>45972.625</v>
       </c>
       <c r="B62">
-        <v>617</v>
+        <v>943</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="2">
-        <v>45969.63541666666</v>
+        <v>45972.63541666666</v>
       </c>
       <c r="B63">
-        <v>603</v>
+        <v>949</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="2">
-        <v>45969.64583333334</v>
+        <v>45972.64583333334</v>
       </c>
       <c r="B64">
-        <v>602</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="2">
-        <v>45969.65625</v>
+        <v>45972.65625</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>955</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="2">
-        <v>45969.66666666666</v>
+        <v>45972.66666666666</v>
       </c>
       <c r="B66">
-        <v>637</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="2">
-        <v>45969.67708333334</v>
+        <v>45972.67708333334</v>
       </c>
       <c r="B67">
-        <v>648</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="2">
-        <v>45969.6875</v>
+        <v>45972.6875</v>
       </c>
       <c r="B68">
-        <v>664</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="2">
-        <v>45969.69791666666</v>
+        <v>45972.69791666666</v>
       </c>
       <c r="B69">
-        <v>663</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="2">
-        <v>45969.70833333334</v>
+        <v>45972.70833333334</v>
       </c>
       <c r="B70">
-        <v>686</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="2">
-        <v>45969.71875</v>
+        <v>45972.71875</v>
       </c>
       <c r="B71">
-        <v>687</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="2">
-        <v>45969.72916666666</v>
+        <v>45972.72916666666</v>
       </c>
       <c r="B72">
-        <v>684</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="2">
-        <v>45969.73958333334</v>
+        <v>45972.73958333334</v>
       </c>
       <c r="B73">
-        <v>683</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="2">
-        <v>45969.75</v>
+        <v>45972.75</v>
       </c>
       <c r="B74">
-        <v>650</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="2">
-        <v>45969.76041666666</v>
+        <v>45972.76041666666</v>
       </c>
       <c r="B75">
-        <v>767</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="2">
-        <v>45969.77083333334</v>
+        <v>45972.77083333334</v>
       </c>
       <c r="B76">
-        <v>762</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="2">
-        <v>45969.78125</v>
+        <v>45972.78125</v>
       </c>
       <c r="B77">
-        <v>769</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="2">
-        <v>45969.79166666666</v>
+        <v>45972.79166666666</v>
       </c>
       <c r="B78">
-        <v>648</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="2">
-        <v>45969.80208333334</v>
+        <v>45972.80208333334</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="2">
-        <v>45969.8125</v>
+        <v>45972.8125</v>
       </c>
       <c r="B80">
-        <v>731</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="2">
-        <v>45969.82291666666</v>
+        <v>45972.82291666666</v>
       </c>
       <c r="B81">
-        <v>0</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="2">
-        <v>45969.83333333334</v>
+        <v>45972.83333333334</v>
       </c>
       <c r="B82">
-        <v>682</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="2">
-        <v>45969.84375</v>
+        <v>45972.84375</v>
       </c>
       <c r="B83">
-        <v>670</v>
+        <v>998</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="2">
-        <v>45969.85416666666</v>
+        <v>45972.85416666666</v>
       </c>
       <c r="B84">
-        <v>671</v>
+        <v>990</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="2">
-        <v>45969.86458333334</v>
+        <v>45972.86458333334</v>
       </c>
       <c r="B85">
-        <v>669</v>
+        <v>991</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="2">
-        <v>45969.875</v>
+        <v>45972.875</v>
       </c>
       <c r="B86">
-        <v>599</v>
+        <v>908</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="2">
-        <v>45969.88541666666</v>
+        <v>45972.88541666666</v>
       </c>
       <c r="B87">
-        <v>594</v>
+        <v>881</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="2">
-        <v>45969.89583333334</v>
+        <v>45972.89583333334</v>
       </c>
       <c r="B88">
-        <v>609</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="2">
-        <v>45969.90625</v>
+        <v>45972.90625</v>
       </c>
       <c r="B89">
-        <v>598</v>
+        <v>872</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="2">
-        <v>45969.91666666666</v>
+        <v>45972.91666666666</v>
       </c>
       <c r="B90">
-        <v>358</v>
+        <v>581</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="2">
-        <v>45969.92708333334</v>
+        <v>45972.92708333334</v>
       </c>
       <c r="B91">
-        <v>349</v>
+        <v>568</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="2">
-        <v>45969.9375</v>
+        <v>45972.9375</v>
       </c>
       <c r="B92">
-        <v>351</v>
+        <v>571</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="2">
-        <v>45969.94791666666</v>
+        <v>45972.94791666666</v>
       </c>
       <c r="B93">
-        <v>356</v>
+        <v>564</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="2">
-        <v>45969.95833333334</v>
+        <v>45972.95833333334</v>
       </c>
       <c r="B94">
-        <v>380</v>
+        <v>455</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="2">
-        <v>45969.96875</v>
+        <v>45972.96875</v>
       </c>
       <c r="B95">
-        <v>379</v>
+        <v>450</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="2">
-        <v>45969.97916666666</v>
+        <v>45972.97916666666</v>
       </c>
       <c r="B96">
-        <v>377</v>
+        <v>445</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="2">
-        <v>45969.98958333334</v>
+        <v>45972.98958333334</v>
       </c>
       <c r="B97">
-        <v>381</v>
+        <v>431</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" s="2">
-        <v>45970</v>
+        <v>45973</v>
       </c>
       <c r="B98">
-        <v>378</v>
+        <v>356</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" s="2">
-        <v>45970.01041666666</v>
+        <v>45973.01041666666</v>
       </c>
       <c r="B99">
-        <v>377</v>
+        <v>354</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" s="2">
-        <v>45970.02083333334</v>
+        <v>45973.02083333334</v>
       </c>
       <c r="B100">
-        <v>0</v>
+        <v>353</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" s="2">
-        <v>45970.03125</v>
+        <v>45973.03125</v>
       </c>
       <c r="B101">
-        <v>368</v>
+        <v>355</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" s="2">
-        <v>45970.04166666666</v>
+        <v>45973.04166666666</v>
       </c>
       <c r="B102">
-        <v>358</v>
+        <v>354</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" s="2">
-        <v>45970.05208333334</v>
+        <v>45973.05208333334</v>
       </c>
       <c r="B103">
-        <v>357</v>
+        <v>353</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" s="2">
-        <v>45970.0625</v>
+        <v>45973.0625</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>354</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" s="2">
-        <v>45970.07291666666</v>
+        <v>45973.07291666666</v>
       </c>
       <c r="B105">
-        <v>359</v>
+        <v>352</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" s="2">
-        <v>45970.08333333334</v>
+        <v>45973.08333333334</v>
       </c>
       <c r="B106">
-        <v>362</v>
+        <v>355</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" s="2">
-        <v>45970.09375</v>
+        <v>45973.09375</v>
       </c>
       <c r="B107">
-        <v>359</v>
+        <v>353</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" s="2">
-        <v>45970.10416666666</v>
+        <v>45973.10416666666</v>
       </c>
       <c r="B108">
-        <v>360</v>
+        <v>355</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" s="2">
-        <v>45970.11458333334</v>
+        <v>45973.11458333334</v>
       </c>
       <c r="B109">
-        <v>359</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" s="2">
-        <v>45970.125</v>
+        <v>45973.125</v>
       </c>
       <c r="B110">
         <v>0</v>
@@ -1269,15 +1269,15 @@
     </row>
     <row r="111" spans="1:2">
       <c r="A111" s="2">
-        <v>45970.13541666666</v>
+        <v>45973.13541666666</v>
       </c>
       <c r="B111">
-        <v>361</v>
+        <v>357</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112" s="2">
-        <v>45970.14583333334</v>
+        <v>45973.14583333334</v>
       </c>
       <c r="B112">
         <v>0</v>
@@ -1285,135 +1285,135 @@
     </row>
     <row r="113" spans="1:2">
       <c r="A113" s="2">
-        <v>45970.15625</v>
+        <v>45973.15625</v>
       </c>
       <c r="B113">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" s="2">
-        <v>45970.16666666666</v>
+        <v>45973.16666666666</v>
       </c>
       <c r="B114">
-        <v>363</v>
+        <v>393</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" s="2">
-        <v>45970.17708333334</v>
+        <v>45973.17708333334</v>
       </c>
       <c r="B115">
-        <v>361</v>
+        <v>392</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" s="2">
-        <v>45970.1875</v>
+        <v>45973.1875</v>
       </c>
       <c r="B116">
-        <v>358</v>
+        <v>403</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117" s="2">
-        <v>45970.19791666666</v>
+        <v>45973.19791666666</v>
       </c>
       <c r="B117">
-        <v>360</v>
+        <v>418</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" s="2">
-        <v>45970.20833333334</v>
+        <v>45973.20833333334</v>
       </c>
       <c r="B118">
-        <v>361</v>
+        <v>509</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" s="2">
-        <v>45970.21875</v>
+        <v>45973.21875</v>
       </c>
       <c r="B119">
-        <v>360</v>
+        <v>506</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" s="2">
-        <v>45970.22916666666</v>
+        <v>45973.22916666666</v>
       </c>
       <c r="B120">
-        <v>359</v>
+        <v>507</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" s="2">
-        <v>45970.23958333334</v>
+        <v>45973.23958333334</v>
       </c>
       <c r="B121">
-        <v>365</v>
+        <v>543</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" s="2">
-        <v>45970.25</v>
+        <v>45973.25</v>
       </c>
       <c r="B122">
-        <v>396</v>
+        <v>796</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123" s="2">
-        <v>45970.26041666666</v>
+        <v>45973.26041666666</v>
       </c>
       <c r="B123">
-        <v>395</v>
+        <v>793</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" s="2">
-        <v>45970.27083333334</v>
+        <v>45973.27083333334</v>
       </c>
       <c r="B124">
-        <v>396</v>
+        <v>794</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" s="2">
-        <v>45970.28125</v>
+        <v>45973.28125</v>
       </c>
       <c r="B125">
-        <v>397</v>
+        <v>795</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" s="2">
-        <v>45970.29166666666</v>
+        <v>45973.29166666666</v>
       </c>
       <c r="B126">
-        <v>407</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127" s="2">
-        <v>45970.30208333334</v>
+        <v>45973.30208333334</v>
       </c>
       <c r="B127">
-        <v>0</v>
+        <v>796</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128" s="2">
-        <v>45970.3125</v>
+        <v>45973.3125</v>
       </c>
       <c r="B128">
-        <v>0</v>
+        <v>803</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" s="2">
-        <v>45970.32291666666</v>
+        <v>45973.32291666666</v>
       </c>
       <c r="B129">
         <v>0</v>
@@ -1421,23 +1421,23 @@
     </row>
     <row r="130" spans="1:2">
       <c r="A130" s="2">
-        <v>45970.33333333334</v>
+        <v>45973.33333333334</v>
       </c>
       <c r="B130">
-        <v>0</v>
+        <v>816</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" s="2">
-        <v>45970.34375</v>
+        <v>45973.34375</v>
       </c>
       <c r="B131">
-        <v>0</v>
+        <v>818</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132" s="2">
-        <v>45970.35416666666</v>
+        <v>45973.35416666666</v>
       </c>
       <c r="B132">
         <v>0</v>
@@ -1445,255 +1445,255 @@
     </row>
     <row r="133" spans="1:2">
       <c r="A133" s="2">
-        <v>45970.36458333334</v>
+        <v>45973.36458333334</v>
       </c>
       <c r="B133">
-        <v>0</v>
+        <v>805</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134" s="2">
-        <v>45970.375</v>
+        <v>45973.375</v>
       </c>
       <c r="B134">
-        <v>0</v>
+        <v>721</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135" s="2">
-        <v>45970.38541666666</v>
+        <v>45973.38541666666</v>
       </c>
       <c r="B135">
-        <v>0</v>
+        <v>757</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136" s="2">
-        <v>45970.39583333334</v>
+        <v>45973.39583333334</v>
       </c>
       <c r="B136">
-        <v>0</v>
+        <v>740</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137" s="2">
-        <v>45970.40625</v>
+        <v>45973.40625</v>
       </c>
       <c r="B137">
-        <v>0</v>
+        <v>731</v>
       </c>
     </row>
     <row r="138" spans="1:2">
       <c r="A138" s="2">
-        <v>45970.41666666666</v>
+        <v>45973.41666666666</v>
       </c>
       <c r="B138">
-        <v>0</v>
+        <v>465</v>
       </c>
     </row>
     <row r="139" spans="1:2">
       <c r="A139" s="2">
-        <v>45970.42708333334</v>
+        <v>45973.42708333334</v>
       </c>
       <c r="B139">
-        <v>0</v>
+        <v>456</v>
       </c>
     </row>
     <row r="140" spans="1:2">
       <c r="A140" s="2">
-        <v>45970.4375</v>
+        <v>45973.4375</v>
       </c>
       <c r="B140">
-        <v>0</v>
+        <v>466</v>
       </c>
     </row>
     <row r="141" spans="1:2">
       <c r="A141" s="2">
-        <v>45970.44791666666</v>
+        <v>45973.44791666666</v>
       </c>
       <c r="B141">
-        <v>0</v>
+        <v>480</v>
       </c>
     </row>
     <row r="142" spans="1:2">
       <c r="A142" s="2">
-        <v>45970.45833333334</v>
+        <v>45973.45833333334</v>
       </c>
       <c r="B142">
-        <v>0</v>
+        <v>443</v>
       </c>
     </row>
     <row r="143" spans="1:2">
       <c r="A143" s="2">
-        <v>45970.46875</v>
+        <v>45973.46875</v>
       </c>
       <c r="B143">
-        <v>0</v>
+        <v>433</v>
       </c>
     </row>
     <row r="144" spans="1:2">
       <c r="A144" s="2">
-        <v>45970.47916666666</v>
+        <v>45973.47916666666</v>
       </c>
       <c r="B144">
-        <v>0</v>
+        <v>447</v>
       </c>
     </row>
     <row r="145" spans="1:2">
       <c r="A145" s="2">
-        <v>45970.48958333334</v>
+        <v>45973.48958333334</v>
       </c>
       <c r="B145">
-        <v>0</v>
+        <v>444</v>
       </c>
     </row>
     <row r="146" spans="1:2">
       <c r="A146" s="2">
-        <v>45970.5</v>
+        <v>45973.5</v>
       </c>
       <c r="B146">
-        <v>0</v>
+        <v>489</v>
       </c>
     </row>
     <row r="147" spans="1:2">
       <c r="A147" s="2">
-        <v>45970.51041666666</v>
+        <v>45973.51041666666</v>
       </c>
       <c r="B147">
-        <v>0</v>
+        <v>483</v>
       </c>
     </row>
     <row r="148" spans="1:2">
       <c r="A148" s="2">
-        <v>45970.52083333334</v>
+        <v>45973.52083333334</v>
       </c>
       <c r="B148">
-        <v>0</v>
+        <v>428</v>
       </c>
     </row>
     <row r="149" spans="1:2">
       <c r="A149" s="2">
-        <v>45970.53125</v>
+        <v>45973.53125</v>
       </c>
       <c r="B149">
-        <v>0</v>
+        <v>429</v>
       </c>
     </row>
     <row r="150" spans="1:2">
       <c r="A150" s="2">
-        <v>45970.54166666666</v>
+        <v>45973.54166666666</v>
       </c>
       <c r="B150">
-        <v>0</v>
+        <v>515</v>
       </c>
     </row>
     <row r="151" spans="1:2">
       <c r="A151" s="2">
-        <v>45970.55208333334</v>
+        <v>45973.55208333334</v>
       </c>
       <c r="B151">
-        <v>0</v>
+        <v>518</v>
       </c>
     </row>
     <row r="152" spans="1:2">
       <c r="A152" s="2">
-        <v>45970.5625</v>
+        <v>45973.5625</v>
       </c>
       <c r="B152">
-        <v>0</v>
+        <v>525</v>
       </c>
     </row>
     <row r="153" spans="1:2">
       <c r="A153" s="2">
-        <v>45970.57291666666</v>
+        <v>45973.57291666666</v>
       </c>
       <c r="B153">
-        <v>0</v>
+        <v>559</v>
       </c>
     </row>
     <row r="154" spans="1:2">
       <c r="A154" s="2">
-        <v>45970.58333333334</v>
+        <v>45973.58333333334</v>
       </c>
       <c r="B154">
-        <v>0</v>
+        <v>948</v>
       </c>
     </row>
     <row r="155" spans="1:2">
       <c r="A155" s="2">
-        <v>45970.59375</v>
+        <v>45973.59375</v>
       </c>
       <c r="B155">
-        <v>0</v>
+        <v>924</v>
       </c>
     </row>
     <row r="156" spans="1:2">
       <c r="A156" s="2">
-        <v>45970.60416666666</v>
+        <v>45973.60416666666</v>
       </c>
       <c r="B156">
-        <v>0</v>
+        <v>945</v>
       </c>
     </row>
     <row r="157" spans="1:2">
       <c r="A157" s="2">
-        <v>45970.61458333334</v>
+        <v>45973.61458333334</v>
       </c>
       <c r="B157">
-        <v>0</v>
+        <v>969</v>
       </c>
     </row>
     <row r="158" spans="1:2">
       <c r="A158" s="2">
-        <v>45970.625</v>
+        <v>45973.625</v>
       </c>
       <c r="B158">
-        <v>0</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="159" spans="1:2">
       <c r="A159" s="2">
-        <v>45970.63541666666</v>
+        <v>45973.63541666666</v>
       </c>
       <c r="B159">
-        <v>0</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="160" spans="1:2">
       <c r="A160" s="2">
-        <v>45970.64583333334</v>
+        <v>45973.64583333334</v>
       </c>
       <c r="B160">
-        <v>0</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="161" spans="1:2">
       <c r="A161" s="2">
-        <v>45970.65625</v>
+        <v>45973.65625</v>
       </c>
       <c r="B161">
-        <v>0</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="162" spans="1:2">
       <c r="A162" s="2">
-        <v>45970.66666666666</v>
+        <v>45973.66666666666</v>
       </c>
       <c r="B162">
-        <v>0</v>
+        <v>983</v>
       </c>
     </row>
     <row r="163" spans="1:2">
       <c r="A163" s="2">
-        <v>45970.67708333334</v>
+        <v>45973.67708333334</v>
       </c>
       <c r="B163">
-        <v>0</v>
+        <v>980</v>
       </c>
     </row>
     <row r="164" spans="1:2">
       <c r="A164" s="2">
-        <v>45970.6875</v>
+        <v>45973.6875</v>
       </c>
       <c r="B164">
         <v>0</v>
@@ -1701,23 +1701,23 @@
     </row>
     <row r="165" spans="1:2">
       <c r="A165" s="2">
-        <v>45970.69791666666</v>
+        <v>45973.69791666666</v>
       </c>
       <c r="B165">
-        <v>0</v>
+        <v>991</v>
       </c>
     </row>
     <row r="166" spans="1:2">
       <c r="A166" s="2">
-        <v>45970.70833333334</v>
+        <v>45973.70833333334</v>
       </c>
       <c r="B166">
-        <v>0</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="167" spans="1:2">
       <c r="A167" s="2">
-        <v>45970.71875</v>
+        <v>45973.71875</v>
       </c>
       <c r="B167">
         <v>0</v>
@@ -1725,63 +1725,63 @@
     </row>
     <row r="168" spans="1:2">
       <c r="A168" s="2">
-        <v>45970.72916666666</v>
+        <v>45973.72916666666</v>
       </c>
       <c r="B168">
-        <v>0</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="169" spans="1:2">
       <c r="A169" s="2">
-        <v>45970.73958333334</v>
+        <v>45973.73958333334</v>
       </c>
       <c r="B169">
-        <v>0</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="170" spans="1:2">
       <c r="A170" s="2">
-        <v>45970.75</v>
+        <v>45973.75</v>
       </c>
       <c r="B170">
-        <v>0</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="171" spans="1:2">
       <c r="A171" s="2">
-        <v>45970.76041666666</v>
+        <v>45973.76041666666</v>
       </c>
       <c r="B171">
-        <v>0</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="172" spans="1:2">
       <c r="A172" s="2">
-        <v>45970.77083333334</v>
+        <v>45973.77083333334</v>
       </c>
       <c r="B172">
-        <v>0</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="173" spans="1:2">
       <c r="A173" s="2">
-        <v>45970.78125</v>
+        <v>45973.78125</v>
       </c>
       <c r="B173">
-        <v>0</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="174" spans="1:2">
       <c r="A174" s="2">
-        <v>45970.79166666666</v>
+        <v>45973.79166666666</v>
       </c>
       <c r="B174">
-        <v>0</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="175" spans="1:2">
       <c r="A175" s="2">
-        <v>45970.80208333334</v>
+        <v>45973.80208333334</v>
       </c>
       <c r="B175">
         <v>0</v>
@@ -1789,103 +1789,103 @@
     </row>
     <row r="176" spans="1:2">
       <c r="A176" s="2">
-        <v>45970.8125</v>
+        <v>45973.8125</v>
       </c>
       <c r="B176">
-        <v>0</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="177" spans="1:2">
       <c r="A177" s="2">
-        <v>45970.82291666666</v>
+        <v>45973.82291666666</v>
       </c>
       <c r="B177">
-        <v>0</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="178" spans="1:2">
       <c r="A178" s="2">
-        <v>45970.83333333334</v>
+        <v>45973.83333333334</v>
       </c>
       <c r="B178">
-        <v>0</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="179" spans="1:2">
       <c r="A179" s="2">
-        <v>45970.84375</v>
+        <v>45973.84375</v>
       </c>
       <c r="B179">
-        <v>0</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="180" spans="1:2">
       <c r="A180" s="2">
-        <v>45970.85416666666</v>
+        <v>45973.85416666666</v>
       </c>
       <c r="B180">
-        <v>0</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="181" spans="1:2">
       <c r="A181" s="2">
-        <v>45970.86458333334</v>
+        <v>45973.86458333334</v>
       </c>
       <c r="B181">
-        <v>0</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="182" spans="1:2">
       <c r="A182" s="2">
-        <v>45970.875</v>
+        <v>45973.875</v>
       </c>
       <c r="B182">
-        <v>0</v>
+        <v>939</v>
       </c>
     </row>
     <row r="183" spans="1:2">
       <c r="A183" s="2">
-        <v>45970.88541666666</v>
+        <v>45973.88541666666</v>
       </c>
       <c r="B183">
-        <v>0</v>
+        <v>930</v>
       </c>
     </row>
     <row r="184" spans="1:2">
       <c r="A184" s="2">
-        <v>45970.89583333334</v>
+        <v>45973.89583333334</v>
       </c>
       <c r="B184">
-        <v>0</v>
+        <v>927</v>
       </c>
     </row>
     <row r="185" spans="1:2">
       <c r="A185" s="2">
-        <v>45970.90625</v>
+        <v>45973.90625</v>
       </c>
       <c r="B185">
-        <v>0</v>
+        <v>923</v>
       </c>
     </row>
     <row r="186" spans="1:2">
       <c r="A186" s="2">
-        <v>45970.91666666666</v>
+        <v>45973.91666666666</v>
       </c>
       <c r="B186">
-        <v>0</v>
+        <v>686</v>
       </c>
     </row>
     <row r="187" spans="1:2">
       <c r="A187" s="2">
-        <v>45970.92708333334</v>
+        <v>45973.92708333334</v>
       </c>
       <c r="B187">
-        <v>0</v>
+        <v>670</v>
       </c>
     </row>
     <row r="188" spans="1:2">
       <c r="A188" s="2">
-        <v>45970.9375</v>
+        <v>45973.9375</v>
       </c>
       <c r="B188">
         <v>0</v>
@@ -1893,41 +1893,809 @@
     </row>
     <row r="189" spans="1:2">
       <c r="A189" s="2">
-        <v>45970.94791666666</v>
+        <v>45973.94791666666</v>
       </c>
       <c r="B189">
-        <v>0</v>
+        <v>666</v>
       </c>
     </row>
     <row r="190" spans="1:2">
       <c r="A190" s="2">
-        <v>45970.95833333334</v>
+        <v>45973.95833333334</v>
       </c>
       <c r="B190">
-        <v>0</v>
+        <v>682</v>
       </c>
     </row>
     <row r="191" spans="1:2">
       <c r="A191" s="2">
-        <v>45970.96875</v>
+        <v>45973.96875</v>
       </c>
       <c r="B191">
-        <v>0</v>
+        <v>683</v>
       </c>
     </row>
     <row r="192" spans="1:2">
       <c r="A192" s="2">
-        <v>45970.97916666666</v>
+        <v>45973.97916666666</v>
       </c>
       <c r="B192">
-        <v>0</v>
+        <v>687</v>
       </c>
     </row>
     <row r="193" spans="1:2">
       <c r="A193" s="2">
-        <v>45970.98958333334</v>
+        <v>45973.98958333334</v>
       </c>
       <c r="B193">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2">
+      <c r="A194" s="2">
+        <v>45974</v>
+      </c>
+      <c r="B194">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2">
+      <c r="A195" s="2">
+        <v>45974.01041666666</v>
+      </c>
+      <c r="B195">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2">
+      <c r="A196" s="2">
+        <v>45974.02083333334</v>
+      </c>
+      <c r="B196">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2">
+      <c r="A197" s="2">
+        <v>45974.03125</v>
+      </c>
+      <c r="B197">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2">
+      <c r="A198" s="2">
+        <v>45974.04166666666</v>
+      </c>
+      <c r="B198">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2">
+      <c r="A199" s="2">
+        <v>45974.05208333334</v>
+      </c>
+      <c r="B199">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2">
+      <c r="A200" s="2">
+        <v>45974.0625</v>
+      </c>
+      <c r="B200">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2">
+      <c r="A201" s="2">
+        <v>45974.07291666666</v>
+      </c>
+      <c r="B201">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2">
+      <c r="A202" s="2">
+        <v>45974.08333333334</v>
+      </c>
+      <c r="B202">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2">
+      <c r="A203" s="2">
+        <v>45974.09375</v>
+      </c>
+      <c r="B203">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2">
+      <c r="A204" s="2">
+        <v>45974.10416666666</v>
+      </c>
+      <c r="B204">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2">
+      <c r="A205" s="2">
+        <v>45974.11458333334</v>
+      </c>
+      <c r="B205">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2">
+      <c r="A206" s="2">
+        <v>45974.125</v>
+      </c>
+      <c r="B206">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2">
+      <c r="A207" s="2">
+        <v>45974.13541666666</v>
+      </c>
+      <c r="B207">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2">
+      <c r="A208" s="2">
+        <v>45974.14583333334</v>
+      </c>
+      <c r="B208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2">
+      <c r="A209" s="2">
+        <v>45974.15625</v>
+      </c>
+      <c r="B209">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2">
+      <c r="A210" s="2">
+        <v>45974.16666666666</v>
+      </c>
+      <c r="B210">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2">
+      <c r="A211" s="2">
+        <v>45974.17708333334</v>
+      </c>
+      <c r="B211">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2">
+      <c r="A212" s="2">
+        <v>45974.1875</v>
+      </c>
+      <c r="B212">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2">
+      <c r="A213" s="2">
+        <v>45974.19791666666</v>
+      </c>
+      <c r="B213">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2">
+      <c r="A214" s="2">
+        <v>45974.20833333334</v>
+      </c>
+      <c r="B214">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2">
+      <c r="A215" s="2">
+        <v>45974.21875</v>
+      </c>
+      <c r="B215">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2">
+      <c r="A216" s="2">
+        <v>45974.22916666666</v>
+      </c>
+      <c r="B216">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2">
+      <c r="A217" s="2">
+        <v>45974.23958333334</v>
+      </c>
+      <c r="B217">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2">
+      <c r="A218" s="2">
+        <v>45974.25</v>
+      </c>
+      <c r="B218">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2">
+      <c r="A219" s="2">
+        <v>45974.26041666666</v>
+      </c>
+      <c r="B219">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2">
+      <c r="A220" s="2">
+        <v>45974.27083333334</v>
+      </c>
+      <c r="B220">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2">
+      <c r="A221" s="2">
+        <v>45974.28125</v>
+      </c>
+      <c r="B221">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2">
+      <c r="A222" s="2">
+        <v>45974.29166666666</v>
+      </c>
+      <c r="B222">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2">
+      <c r="A223" s="2">
+        <v>45974.30208333334</v>
+      </c>
+      <c r="B223">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2">
+      <c r="A224" s="2">
+        <v>45974.3125</v>
+      </c>
+      <c r="B224">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2">
+      <c r="A225" s="2">
+        <v>45974.32291666666</v>
+      </c>
+      <c r="B225">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2">
+      <c r="A226" s="2">
+        <v>45974.33333333334</v>
+      </c>
+      <c r="B226">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2">
+      <c r="A227" s="2">
+        <v>45974.34375</v>
+      </c>
+      <c r="B227">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2">
+      <c r="A228" s="2">
+        <v>45974.35416666666</v>
+      </c>
+      <c r="B228">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2">
+      <c r="A229" s="2">
+        <v>45974.36458333334</v>
+      </c>
+      <c r="B229">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2">
+      <c r="A230" s="2">
+        <v>45974.375</v>
+      </c>
+      <c r="B230">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2">
+      <c r="A231" s="2">
+        <v>45974.38541666666</v>
+      </c>
+      <c r="B231">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2">
+      <c r="A232" s="2">
+        <v>45974.39583333334</v>
+      </c>
+      <c r="B232">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2">
+      <c r="A233" s="2">
+        <v>45974.40625</v>
+      </c>
+      <c r="B233">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2">
+      <c r="A234" s="2">
+        <v>45974.41666666666</v>
+      </c>
+      <c r="B234">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2">
+      <c r="A235" s="2">
+        <v>45974.42708333334</v>
+      </c>
+      <c r="B235">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2">
+      <c r="A236" s="2">
+        <v>45974.4375</v>
+      </c>
+      <c r="B236">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2">
+      <c r="A237" s="2">
+        <v>45974.44791666666</v>
+      </c>
+      <c r="B237">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2">
+      <c r="A238" s="2">
+        <v>45974.45833333334</v>
+      </c>
+      <c r="B238">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2">
+      <c r="A239" s="2">
+        <v>45974.46875</v>
+      </c>
+      <c r="B239">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2">
+      <c r="A240" s="2">
+        <v>45974.47916666666</v>
+      </c>
+      <c r="B240">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2">
+      <c r="A241" s="2">
+        <v>45974.48958333334</v>
+      </c>
+      <c r="B241">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2">
+      <c r="A242" s="2">
+        <v>45974.5</v>
+      </c>
+      <c r="B242">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2">
+      <c r="A243" s="2">
+        <v>45974.51041666666</v>
+      </c>
+      <c r="B243">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2">
+      <c r="A244" s="2">
+        <v>45974.52083333334</v>
+      </c>
+      <c r="B244">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2">
+      <c r="A245" s="2">
+        <v>45974.53125</v>
+      </c>
+      <c r="B245">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2">
+      <c r="A246" s="2">
+        <v>45974.54166666666</v>
+      </c>
+      <c r="B246">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2">
+      <c r="A247" s="2">
+        <v>45974.55208333334</v>
+      </c>
+      <c r="B247">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2">
+      <c r="A248" s="2">
+        <v>45974.5625</v>
+      </c>
+      <c r="B248">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2">
+      <c r="A249" s="2">
+        <v>45974.57291666666</v>
+      </c>
+      <c r="B249">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2">
+      <c r="A250" s="2">
+        <v>45974.58333333334</v>
+      </c>
+      <c r="B250">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2">
+      <c r="A251" s="2">
+        <v>45974.59375</v>
+      </c>
+      <c r="B251">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2">
+      <c r="A252" s="2">
+        <v>45974.60416666666</v>
+      </c>
+      <c r="B252">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2">
+      <c r="A253" s="2">
+        <v>45974.61458333334</v>
+      </c>
+      <c r="B253">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2">
+      <c r="A254" s="2">
+        <v>45974.625</v>
+      </c>
+      <c r="B254">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2">
+      <c r="A255" s="2">
+        <v>45974.63541666666</v>
+      </c>
+      <c r="B255">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2">
+      <c r="A256" s="2">
+        <v>45974.64583333334</v>
+      </c>
+      <c r="B256">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2">
+      <c r="A257" s="2">
+        <v>45974.65625</v>
+      </c>
+      <c r="B257">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2">
+      <c r="A258" s="2">
+        <v>45974.66666666666</v>
+      </c>
+      <c r="B258">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2">
+      <c r="A259" s="2">
+        <v>45974.67708333334</v>
+      </c>
+      <c r="B259">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2">
+      <c r="A260" s="2">
+        <v>45974.6875</v>
+      </c>
+      <c r="B260">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2">
+      <c r="A261" s="2">
+        <v>45974.69791666666</v>
+      </c>
+      <c r="B261">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2">
+      <c r="A262" s="2">
+        <v>45974.70833333334</v>
+      </c>
+      <c r="B262">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2">
+      <c r="A263" s="2">
+        <v>45974.71875</v>
+      </c>
+      <c r="B263">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2">
+      <c r="A264" s="2">
+        <v>45974.72916666666</v>
+      </c>
+      <c r="B264">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2">
+      <c r="A265" s="2">
+        <v>45974.73958333334</v>
+      </c>
+      <c r="B265">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2">
+      <c r="A266" s="2">
+        <v>45974.75</v>
+      </c>
+      <c r="B266">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2">
+      <c r="A267" s="2">
+        <v>45974.76041666666</v>
+      </c>
+      <c r="B267">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2">
+      <c r="A268" s="2">
+        <v>45974.77083333334</v>
+      </c>
+      <c r="B268">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2">
+      <c r="A269" s="2">
+        <v>45974.78125</v>
+      </c>
+      <c r="B269">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2">
+      <c r="A270" s="2">
+        <v>45974.79166666666</v>
+      </c>
+      <c r="B270">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2">
+      <c r="A271" s="2">
+        <v>45974.80208333334</v>
+      </c>
+      <c r="B271">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2">
+      <c r="A272" s="2">
+        <v>45974.8125</v>
+      </c>
+      <c r="B272">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2">
+      <c r="A273" s="2">
+        <v>45974.82291666666</v>
+      </c>
+      <c r="B273">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2">
+      <c r="A274" s="2">
+        <v>45974.83333333334</v>
+      </c>
+      <c r="B274">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2">
+      <c r="A275" s="2">
+        <v>45974.84375</v>
+      </c>
+      <c r="B275">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2">
+      <c r="A276" s="2">
+        <v>45974.85416666666</v>
+      </c>
+      <c r="B276">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2">
+      <c r="A277" s="2">
+        <v>45974.86458333334</v>
+      </c>
+      <c r="B277">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2">
+      <c r="A278" s="2">
+        <v>45974.875</v>
+      </c>
+      <c r="B278">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2">
+      <c r="A279" s="2">
+        <v>45974.88541666666</v>
+      </c>
+      <c r="B279">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2">
+      <c r="A280" s="2">
+        <v>45974.89583333334</v>
+      </c>
+      <c r="B280">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2">
+      <c r="A281" s="2">
+        <v>45974.90625</v>
+      </c>
+      <c r="B281">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2">
+      <c r="A282" s="2">
+        <v>45974.91666666666</v>
+      </c>
+      <c r="B282">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2">
+      <c r="A283" s="2">
+        <v>45974.92708333334</v>
+      </c>
+      <c r="B283">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2">
+      <c r="A284" s="2">
+        <v>45974.9375</v>
+      </c>
+      <c r="B284">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2">
+      <c r="A285" s="2">
+        <v>45974.94791666666</v>
+      </c>
+      <c r="B285">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2">
+      <c r="A286" s="2">
+        <v>45974.95833333334</v>
+      </c>
+      <c r="B286">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2">
+      <c r="A287" s="2">
+        <v>45974.96875</v>
+      </c>
+      <c r="B287">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2">
+      <c r="A288" s="2">
+        <v>45974.97916666666</v>
+      </c>
+      <c r="B288">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2">
+      <c r="A289" s="2">
+        <v>45974.98958333334</v>
+      </c>
+      <c r="B289">
         <v>0</v>
       </c>
     </row>

--- a/data_fetching/Entsoe/Actual_Production_Hydro_Water_Reservoir.xlsx
+++ b/data_fetching/Entsoe/Actual_Production_Hydro_Water_Reservoir.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B289"/>
+  <dimension ref="A1:B193"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -397,143 +397,143 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2">
-        <v>45972</v>
+        <v>45981</v>
       </c>
       <c r="B2">
-        <v>367</v>
+        <v>703</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2">
-        <v>45972.01041666666</v>
+        <v>45981.01041666666</v>
       </c>
       <c r="B3">
-        <v>357</v>
+        <v>706</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2">
-        <v>45972.02083333334</v>
+        <v>45981.02083333334</v>
       </c>
       <c r="B4">
-        <v>356</v>
+        <v>702</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2">
-        <v>45972.03125</v>
+        <v>45981.03125</v>
       </c>
       <c r="B5">
-        <v>352</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2">
-        <v>45972.04166666666</v>
+        <v>45981.04166666666</v>
       </c>
       <c r="B6">
-        <v>356</v>
+        <v>637</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2">
-        <v>45972.05208333334</v>
+        <v>45981.05208333334</v>
       </c>
       <c r="B7">
-        <v>354</v>
+        <v>632</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2">
-        <v>45972.0625</v>
+        <v>45981.0625</v>
       </c>
       <c r="B8">
-        <v>353</v>
+        <v>630</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2">
-        <v>45972.07291666666</v>
+        <v>45981.07291666666</v>
       </c>
       <c r="B9">
-        <v>354</v>
+        <v>634</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2">
-        <v>45972.08333333334</v>
+        <v>45981.08333333334</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>607</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2">
-        <v>45972.09375</v>
+        <v>45981.09375</v>
       </c>
       <c r="B11">
-        <v>352</v>
+        <v>602</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2">
-        <v>45972.10416666666</v>
+        <v>45981.10416666666</v>
       </c>
       <c r="B12">
-        <v>350</v>
+        <v>601</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2">
-        <v>45972.11458333334</v>
+        <v>45981.11458333334</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>603</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2">
-        <v>45972.125</v>
+        <v>45981.125</v>
       </c>
       <c r="B14">
-        <v>352</v>
+        <v>606</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2">
-        <v>45972.13541666666</v>
+        <v>45981.13541666666</v>
       </c>
       <c r="B15">
-        <v>351</v>
+        <v>605</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2">
-        <v>45972.14583333334</v>
+        <v>45981.14583333334</v>
       </c>
       <c r="B16">
-        <v>350</v>
+        <v>604</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2">
-        <v>45972.15625</v>
+        <v>45981.15625</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>606</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2">
-        <v>45972.16666666666</v>
+        <v>45981.16666666666</v>
       </c>
       <c r="B18">
-        <v>351</v>
+        <v>634</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2">
-        <v>45972.17708333334</v>
+        <v>45981.17708333334</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -541,879 +541,879 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2">
-        <v>45972.1875</v>
+        <v>45981.1875</v>
       </c>
       <c r="B20">
-        <v>353</v>
+        <v>635</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2">
-        <v>45972.19791666666</v>
+        <v>45981.19791666666</v>
       </c>
       <c r="B21">
-        <v>358</v>
+        <v>648</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2">
-        <v>45972.20833333334</v>
+        <v>45981.20833333334</v>
       </c>
       <c r="B22">
-        <v>407</v>
+        <v>723</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2">
-        <v>45972.21875</v>
+        <v>45981.21875</v>
       </c>
       <c r="B23">
-        <v>409</v>
+        <v>721</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2">
-        <v>45972.22916666666</v>
+        <v>45981.22916666666</v>
       </c>
       <c r="B24">
-        <v>415</v>
+        <v>724</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2">
-        <v>45972.23958333334</v>
+        <v>45981.23958333334</v>
       </c>
       <c r="B25">
-        <v>450</v>
+        <v>732</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2">
-        <v>45972.25</v>
+        <v>45981.25</v>
       </c>
       <c r="B26">
-        <v>841</v>
+        <v>957</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2">
-        <v>45972.26041666666</v>
+        <v>45981.26041666666</v>
       </c>
       <c r="B27">
-        <v>837</v>
+        <v>950</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2">
-        <v>45972.27083333334</v>
+        <v>45981.27083333334</v>
       </c>
       <c r="B28">
-        <v>830</v>
+        <v>945</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2">
-        <v>45972.28125</v>
+        <v>45981.28125</v>
       </c>
       <c r="B29">
-        <v>839</v>
+        <v>950</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2">
-        <v>45972.29166666666</v>
+        <v>45981.29166666666</v>
       </c>
       <c r="B30">
-        <v>846</v>
+        <v>933</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2">
-        <v>45972.30208333334</v>
+        <v>45981.30208333334</v>
       </c>
       <c r="B31">
-        <v>842</v>
+        <v>924</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2">
-        <v>45972.3125</v>
+        <v>45981.3125</v>
       </c>
       <c r="B32">
-        <v>845</v>
+        <v>919</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2">
-        <v>45972.32291666666</v>
+        <v>45981.32291666666</v>
       </c>
       <c r="B33">
-        <v>839</v>
+        <v>921</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2">
-        <v>45972.33333333334</v>
+        <v>45981.33333333334</v>
       </c>
       <c r="B34">
-        <v>844</v>
+        <v>923</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="2">
-        <v>45972.34375</v>
+        <v>45981.34375</v>
       </c>
       <c r="B35">
-        <v>842</v>
+        <v>920</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="2">
-        <v>45972.35416666666</v>
+        <v>45981.35416666666</v>
       </c>
       <c r="B36">
-        <v>841</v>
+        <v>912</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="2">
-        <v>45972.36458333334</v>
+        <v>45981.36458333334</v>
       </c>
       <c r="B37">
-        <v>842</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="2">
-        <v>45972.375</v>
+        <v>45981.375</v>
       </c>
       <c r="B38">
-        <v>683</v>
+        <v>841</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="2">
-        <v>45972.38541666666</v>
+        <v>45981.38541666666</v>
       </c>
       <c r="B39">
-        <v>677</v>
+        <v>833</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="2">
-        <v>45972.39583333334</v>
+        <v>45981.39583333334</v>
       </c>
       <c r="B40">
-        <v>0</v>
+        <v>824</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="2">
-        <v>45972.40625</v>
+        <v>45981.40625</v>
       </c>
       <c r="B41">
-        <v>676</v>
+        <v>829</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="2">
-        <v>45972.41666666666</v>
+        <v>45981.41666666666</v>
       </c>
       <c r="B42">
-        <v>470</v>
+        <v>838</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="2">
-        <v>45972.42708333334</v>
+        <v>45981.42708333334</v>
       </c>
       <c r="B43">
-        <v>464</v>
+        <v>835</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="2">
-        <v>45972.4375</v>
+        <v>45981.4375</v>
       </c>
       <c r="B44">
-        <v>463</v>
+        <v>837</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="2">
-        <v>45972.44791666666</v>
+        <v>45981.44791666666</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>836</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="2">
-        <v>45972.45833333334</v>
+        <v>45981.45833333334</v>
       </c>
       <c r="B46">
-        <v>464</v>
+        <v>785</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="2">
-        <v>45972.46875</v>
+        <v>45981.46875</v>
       </c>
       <c r="B47">
-        <v>0</v>
+        <v>777</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="2">
-        <v>45972.47916666666</v>
+        <v>45981.47916666666</v>
       </c>
       <c r="B48">
-        <v>0</v>
+        <v>773</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="2">
-        <v>45972.48958333334</v>
+        <v>45981.48958333334</v>
       </c>
       <c r="B49">
-        <v>465</v>
+        <v>776</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="2">
-        <v>45972.5</v>
+        <v>45981.5</v>
       </c>
       <c r="B50">
-        <v>453</v>
+        <v>764</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="2">
-        <v>45972.51041666666</v>
+        <v>45981.51041666666</v>
       </c>
       <c r="B51">
-        <v>454</v>
+        <v>756</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="2">
-        <v>45972.52083333334</v>
+        <v>45981.52083333334</v>
       </c>
       <c r="B52">
-        <v>461</v>
+        <v>757</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="2">
-        <v>45972.53125</v>
+        <v>45981.53125</v>
       </c>
       <c r="B53">
-        <v>0</v>
+        <v>752</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="2">
-        <v>45972.54166666666</v>
+        <v>45981.54166666666</v>
       </c>
       <c r="B54">
-        <v>458</v>
+        <v>773</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="2">
-        <v>45972.55208333334</v>
+        <v>45981.55208333334</v>
       </c>
       <c r="B55">
-        <v>462</v>
+        <v>768</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="2">
-        <v>45972.5625</v>
+        <v>45981.5625</v>
       </c>
       <c r="B56">
-        <v>0</v>
+        <v>770</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="2">
-        <v>45972.57291666666</v>
+        <v>45981.57291666666</v>
       </c>
       <c r="B57">
-        <v>443</v>
+        <v>789</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="2">
-        <v>45972.58333333334</v>
+        <v>45981.58333333334</v>
       </c>
       <c r="B58">
-        <v>597</v>
+        <v>948</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="2">
-        <v>45972.59375</v>
+        <v>45981.59375</v>
       </c>
       <c r="B59">
-        <v>810</v>
+        <v>950</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="2">
-        <v>45972.60416666666</v>
+        <v>45981.60416666666</v>
       </c>
       <c r="B60">
-        <v>908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="2">
-        <v>45972.61458333334</v>
+        <v>45981.61458333334</v>
       </c>
       <c r="B61">
-        <v>921</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="2">
-        <v>45972.625</v>
+        <v>45981.625</v>
       </c>
       <c r="B62">
-        <v>943</v>
+        <v>914</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="2">
-        <v>45972.63541666666</v>
+        <v>45981.63541666666</v>
       </c>
       <c r="B63">
-        <v>949</v>
+        <v>917</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="2">
-        <v>45972.64583333334</v>
+        <v>45981.64583333334</v>
       </c>
       <c r="B64">
-        <v>0</v>
+        <v>912</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="2">
-        <v>45972.65625</v>
+        <v>45981.65625</v>
       </c>
       <c r="B65">
-        <v>955</v>
+        <v>914</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="2">
-        <v>45972.66666666666</v>
+        <v>45981.66666666666</v>
       </c>
       <c r="B66">
-        <v>1050</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="2">
-        <v>45972.67708333334</v>
+        <v>45981.67708333334</v>
       </c>
       <c r="B67">
-        <v>1072</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="2">
-        <v>45972.6875</v>
+        <v>45981.6875</v>
       </c>
       <c r="B68">
-        <v>1076</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="2">
-        <v>45972.69791666666</v>
+        <v>45981.69791666666</v>
       </c>
       <c r="B69">
-        <v>1081</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="2">
-        <v>45972.70833333334</v>
+        <v>45981.70833333334</v>
       </c>
       <c r="B70">
-        <v>1253</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="2">
-        <v>45972.71875</v>
+        <v>45981.71875</v>
       </c>
       <c r="B71">
-        <v>1258</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="2">
-        <v>45972.72916666666</v>
+        <v>45981.72916666666</v>
       </c>
       <c r="B72">
-        <v>1252</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="2">
-        <v>45972.73958333334</v>
+        <v>45981.73958333334</v>
       </c>
       <c r="B73">
-        <v>1261</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="2">
-        <v>45972.75</v>
+        <v>45981.75</v>
       </c>
       <c r="B74">
-        <v>1293</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="2">
-        <v>45972.76041666666</v>
+        <v>45981.76041666666</v>
       </c>
       <c r="B75">
-        <v>1300</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="2">
-        <v>45972.77083333334</v>
+        <v>45981.77083333334</v>
       </c>
       <c r="B76">
-        <v>1254</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="2">
-        <v>45972.78125</v>
+        <v>45981.78125</v>
       </c>
       <c r="B77">
-        <v>1253</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="2">
-        <v>45972.79166666666</v>
+        <v>45981.79166666666</v>
       </c>
       <c r="B78">
-        <v>1215</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="2">
-        <v>45972.80208333334</v>
+        <v>45981.80208333334</v>
       </c>
       <c r="B79">
-        <v>1099</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="2">
-        <v>45972.8125</v>
+        <v>45981.8125</v>
       </c>
       <c r="B80">
-        <v>1112</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="2">
-        <v>45972.82291666666</v>
+        <v>45981.82291666666</v>
       </c>
       <c r="B81">
-        <v>1109</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="2">
-        <v>45972.83333333334</v>
+        <v>45981.83333333334</v>
       </c>
       <c r="B82">
-        <v>1007</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="2">
-        <v>45972.84375</v>
+        <v>45981.84375</v>
       </c>
       <c r="B83">
-        <v>998</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="2">
-        <v>45972.85416666666</v>
+        <v>45981.85416666666</v>
       </c>
       <c r="B84">
-        <v>990</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="2">
-        <v>45972.86458333334</v>
+        <v>45981.86458333334</v>
       </c>
       <c r="B85">
-        <v>991</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="2">
-        <v>45972.875</v>
+        <v>45981.875</v>
       </c>
       <c r="B86">
-        <v>908</v>
+        <v>824</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="2">
-        <v>45972.88541666666</v>
+        <v>45981.88541666666</v>
       </c>
       <c r="B87">
-        <v>881</v>
+        <v>813</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="2">
-        <v>45972.89583333334</v>
+        <v>45981.89583333334</v>
       </c>
       <c r="B88">
-        <v>0</v>
+        <v>816</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="2">
-        <v>45972.90625</v>
+        <v>45981.90625</v>
       </c>
       <c r="B89">
-        <v>872</v>
+        <v>810</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="2">
-        <v>45972.91666666666</v>
+        <v>45981.91666666666</v>
       </c>
       <c r="B90">
-        <v>581</v>
+        <v>681</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="2">
-        <v>45972.92708333334</v>
+        <v>45981.92708333334</v>
       </c>
       <c r="B91">
-        <v>568</v>
+        <v>674</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="2">
-        <v>45972.9375</v>
+        <v>45981.9375</v>
       </c>
       <c r="B92">
-        <v>571</v>
+        <v>677</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="2">
-        <v>45972.94791666666</v>
+        <v>45981.94791666666</v>
       </c>
       <c r="B93">
-        <v>564</v>
+        <v>674</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="2">
-        <v>45972.95833333334</v>
+        <v>45981.95833333334</v>
       </c>
       <c r="B94">
-        <v>455</v>
+        <v>615</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="2">
-        <v>45972.96875</v>
+        <v>45981.96875</v>
       </c>
       <c r="B95">
-        <v>450</v>
+        <v>608</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="2">
-        <v>45972.97916666666</v>
+        <v>45981.97916666666</v>
       </c>
       <c r="B96">
-        <v>445</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="2">
-        <v>45972.98958333334</v>
+        <v>45981.98958333334</v>
       </c>
       <c r="B97">
-        <v>431</v>
+        <v>605</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" s="2">
-        <v>45973</v>
+        <v>45982</v>
       </c>
       <c r="B98">
-        <v>356</v>
+        <v>611</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" s="2">
-        <v>45973.01041666666</v>
+        <v>45982.01041666666</v>
       </c>
       <c r="B99">
-        <v>354</v>
+        <v>609</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" s="2">
-        <v>45973.02083333334</v>
+        <v>45982.02083333334</v>
       </c>
       <c r="B100">
-        <v>353</v>
+        <v>607</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" s="2">
-        <v>45973.03125</v>
+        <v>45982.03125</v>
       </c>
       <c r="B101">
-        <v>355</v>
+        <v>610</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" s="2">
-        <v>45973.04166666666</v>
+        <v>45982.04166666666</v>
       </c>
       <c r="B102">
-        <v>354</v>
+        <v>616</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" s="2">
-        <v>45973.05208333334</v>
+        <v>45982.05208333334</v>
       </c>
       <c r="B103">
-        <v>353</v>
+        <v>609</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" s="2">
-        <v>45973.0625</v>
+        <v>45982.0625</v>
       </c>
       <c r="B104">
-        <v>354</v>
+        <v>608</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" s="2">
-        <v>45973.07291666666</v>
+        <v>45982.07291666666</v>
       </c>
       <c r="B105">
-        <v>352</v>
+        <v>609</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" s="2">
-        <v>45973.08333333334</v>
+        <v>45982.08333333334</v>
       </c>
       <c r="B106">
-        <v>355</v>
+        <v>611</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" s="2">
-        <v>45973.09375</v>
+        <v>45982.09375</v>
       </c>
       <c r="B107">
-        <v>353</v>
+        <v>605</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" s="2">
-        <v>45973.10416666666</v>
+        <v>45982.10416666666</v>
       </c>
       <c r="B108">
-        <v>355</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" s="2">
-        <v>45973.11458333334</v>
+        <v>45982.11458333334</v>
       </c>
       <c r="B109">
-        <v>0</v>
+        <v>607</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" s="2">
-        <v>45973.125</v>
+        <v>45982.125</v>
       </c>
       <c r="B110">
-        <v>0</v>
+        <v>605</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" s="2">
-        <v>45973.13541666666</v>
+        <v>45982.13541666666</v>
       </c>
       <c r="B111">
-        <v>357</v>
+        <v>607</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112" s="2">
-        <v>45973.14583333334</v>
+        <v>45982.14583333334</v>
       </c>
       <c r="B112">
-        <v>0</v>
+        <v>608</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" s="2">
-        <v>45973.15625</v>
+        <v>45982.15625</v>
       </c>
       <c r="B113">
-        <v>358</v>
+        <v>609</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" s="2">
-        <v>45973.16666666666</v>
+        <v>45982.16666666666</v>
       </c>
       <c r="B114">
-        <v>393</v>
+        <v>685</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" s="2">
-        <v>45973.17708333334</v>
+        <v>45982.17708333334</v>
       </c>
       <c r="B115">
-        <v>392</v>
+        <v>682</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" s="2">
-        <v>45973.1875</v>
+        <v>45982.1875</v>
       </c>
       <c r="B116">
-        <v>403</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117" s="2">
-        <v>45973.19791666666</v>
+        <v>45982.19791666666</v>
       </c>
       <c r="B117">
-        <v>418</v>
+        <v>670</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" s="2">
-        <v>45973.20833333334</v>
+        <v>45982.20833333334</v>
       </c>
       <c r="B118">
-        <v>509</v>
+        <v>708</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" s="2">
-        <v>45973.21875</v>
+        <v>45982.21875</v>
       </c>
       <c r="B119">
-        <v>506</v>
+        <v>709</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" s="2">
-        <v>45973.22916666666</v>
+        <v>45982.22916666666</v>
       </c>
       <c r="B120">
-        <v>507</v>
+        <v>710</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" s="2">
-        <v>45973.23958333334</v>
+        <v>45982.23958333334</v>
       </c>
       <c r="B121">
-        <v>543</v>
+        <v>728</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" s="2">
-        <v>45973.25</v>
+        <v>45982.25</v>
       </c>
       <c r="B122">
-        <v>796</v>
+        <v>849</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123" s="2">
-        <v>45973.26041666666</v>
+        <v>45982.26041666666</v>
       </c>
       <c r="B123">
-        <v>793</v>
+        <v>842</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" s="2">
-        <v>45973.27083333334</v>
+        <v>45982.27083333334</v>
       </c>
       <c r="B124">
-        <v>794</v>
+        <v>840</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" s="2">
-        <v>45973.28125</v>
+        <v>45982.28125</v>
       </c>
       <c r="B125">
-        <v>795</v>
+        <v>847</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" s="2">
-        <v>45973.29166666666</v>
+        <v>45982.29166666666</v>
       </c>
       <c r="B126">
-        <v>0</v>
+        <v>865</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127" s="2">
-        <v>45973.30208333334</v>
+        <v>45982.30208333334</v>
       </c>
       <c r="B127">
-        <v>796</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128" s="2">
-        <v>45973.3125</v>
+        <v>45982.3125</v>
       </c>
       <c r="B128">
-        <v>803</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" s="2">
-        <v>45973.32291666666</v>
+        <v>45982.32291666666</v>
       </c>
       <c r="B129">
         <v>0</v>
@@ -1421,23 +1421,23 @@
     </row>
     <row r="130" spans="1:2">
       <c r="A130" s="2">
-        <v>45973.33333333334</v>
+        <v>45982.33333333334</v>
       </c>
       <c r="B130">
-        <v>816</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" s="2">
-        <v>45973.34375</v>
+        <v>45982.34375</v>
       </c>
       <c r="B131">
-        <v>818</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132" s="2">
-        <v>45973.35416666666</v>
+        <v>45982.35416666666</v>
       </c>
       <c r="B132">
         <v>0</v>
@@ -1445,255 +1445,255 @@
     </row>
     <row r="133" spans="1:2">
       <c r="A133" s="2">
-        <v>45973.36458333334</v>
+        <v>45982.36458333334</v>
       </c>
       <c r="B133">
-        <v>805</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134" s="2">
-        <v>45973.375</v>
+        <v>45982.375</v>
       </c>
       <c r="B134">
-        <v>721</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135" s="2">
-        <v>45973.38541666666</v>
+        <v>45982.38541666666</v>
       </c>
       <c r="B135">
-        <v>757</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136" s="2">
-        <v>45973.39583333334</v>
+        <v>45982.39583333334</v>
       </c>
       <c r="B136">
-        <v>740</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137" s="2">
-        <v>45973.40625</v>
+        <v>45982.40625</v>
       </c>
       <c r="B137">
-        <v>731</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:2">
       <c r="A138" s="2">
-        <v>45973.41666666666</v>
+        <v>45982.41666666666</v>
       </c>
       <c r="B138">
-        <v>465</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:2">
       <c r="A139" s="2">
-        <v>45973.42708333334</v>
+        <v>45982.42708333334</v>
       </c>
       <c r="B139">
-        <v>456</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:2">
       <c r="A140" s="2">
-        <v>45973.4375</v>
+        <v>45982.4375</v>
       </c>
       <c r="B140">
-        <v>466</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:2">
       <c r="A141" s="2">
-        <v>45973.44791666666</v>
+        <v>45982.44791666666</v>
       </c>
       <c r="B141">
-        <v>480</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:2">
       <c r="A142" s="2">
-        <v>45973.45833333334</v>
+        <v>45982.45833333334</v>
       </c>
       <c r="B142">
-        <v>443</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:2">
       <c r="A143" s="2">
-        <v>45973.46875</v>
+        <v>45982.46875</v>
       </c>
       <c r="B143">
-        <v>433</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:2">
       <c r="A144" s="2">
-        <v>45973.47916666666</v>
+        <v>45982.47916666666</v>
       </c>
       <c r="B144">
-        <v>447</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:2">
       <c r="A145" s="2">
-        <v>45973.48958333334</v>
+        <v>45982.48958333334</v>
       </c>
       <c r="B145">
-        <v>444</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:2">
       <c r="A146" s="2">
-        <v>45973.5</v>
+        <v>45982.5</v>
       </c>
       <c r="B146">
-        <v>489</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:2">
       <c r="A147" s="2">
-        <v>45973.51041666666</v>
+        <v>45982.51041666666</v>
       </c>
       <c r="B147">
-        <v>483</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:2">
       <c r="A148" s="2">
-        <v>45973.52083333334</v>
+        <v>45982.52083333334</v>
       </c>
       <c r="B148">
-        <v>428</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:2">
       <c r="A149" s="2">
-        <v>45973.53125</v>
+        <v>45982.53125</v>
       </c>
       <c r="B149">
-        <v>429</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:2">
       <c r="A150" s="2">
-        <v>45973.54166666666</v>
+        <v>45982.54166666666</v>
       </c>
       <c r="B150">
-        <v>515</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:2">
       <c r="A151" s="2">
-        <v>45973.55208333334</v>
+        <v>45982.55208333334</v>
       </c>
       <c r="B151">
-        <v>518</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:2">
       <c r="A152" s="2">
-        <v>45973.5625</v>
+        <v>45982.5625</v>
       </c>
       <c r="B152">
-        <v>525</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:2">
       <c r="A153" s="2">
-        <v>45973.57291666666</v>
+        <v>45982.57291666666</v>
       </c>
       <c r="B153">
-        <v>559</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:2">
       <c r="A154" s="2">
-        <v>45973.58333333334</v>
+        <v>45982.58333333334</v>
       </c>
       <c r="B154">
-        <v>948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:2">
       <c r="A155" s="2">
-        <v>45973.59375</v>
+        <v>45982.59375</v>
       </c>
       <c r="B155">
-        <v>924</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:2">
       <c r="A156" s="2">
-        <v>45973.60416666666</v>
+        <v>45982.60416666666</v>
       </c>
       <c r="B156">
-        <v>945</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:2">
       <c r="A157" s="2">
-        <v>45973.61458333334</v>
+        <v>45982.61458333334</v>
       </c>
       <c r="B157">
-        <v>969</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:2">
       <c r="A158" s="2">
-        <v>45973.625</v>
+        <v>45982.625</v>
       </c>
       <c r="B158">
-        <v>1079</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:2">
       <c r="A159" s="2">
-        <v>45973.63541666666</v>
+        <v>45982.63541666666</v>
       </c>
       <c r="B159">
-        <v>1081</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:2">
       <c r="A160" s="2">
-        <v>45973.64583333334</v>
+        <v>45982.64583333334</v>
       </c>
       <c r="B160">
-        <v>1080</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:2">
       <c r="A161" s="2">
-        <v>45973.65625</v>
+        <v>45982.65625</v>
       </c>
       <c r="B161">
-        <v>1076</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:2">
       <c r="A162" s="2">
-        <v>45973.66666666666</v>
+        <v>45982.66666666666</v>
       </c>
       <c r="B162">
-        <v>983</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:2">
       <c r="A163" s="2">
-        <v>45973.67708333334</v>
+        <v>45982.67708333334</v>
       </c>
       <c r="B163">
-        <v>980</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:2">
       <c r="A164" s="2">
-        <v>45973.6875</v>
+        <v>45982.6875</v>
       </c>
       <c r="B164">
         <v>0</v>
@@ -1701,23 +1701,23 @@
     </row>
     <row r="165" spans="1:2">
       <c r="A165" s="2">
-        <v>45973.69791666666</v>
+        <v>45982.69791666666</v>
       </c>
       <c r="B165">
-        <v>991</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:2">
       <c r="A166" s="2">
-        <v>45973.70833333334</v>
+        <v>45982.70833333334</v>
       </c>
       <c r="B166">
-        <v>1048</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:2">
       <c r="A167" s="2">
-        <v>45973.71875</v>
+        <v>45982.71875</v>
       </c>
       <c r="B167">
         <v>0</v>
@@ -1725,63 +1725,63 @@
     </row>
     <row r="168" spans="1:2">
       <c r="A168" s="2">
-        <v>45973.72916666666</v>
+        <v>45982.72916666666</v>
       </c>
       <c r="B168">
-        <v>1043</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:2">
       <c r="A169" s="2">
-        <v>45973.73958333334</v>
+        <v>45982.73958333334</v>
       </c>
       <c r="B169">
-        <v>1051</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:2">
       <c r="A170" s="2">
-        <v>45973.75</v>
+        <v>45982.75</v>
       </c>
       <c r="B170">
-        <v>1078</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:2">
       <c r="A171" s="2">
-        <v>45973.76041666666</v>
+        <v>45982.76041666666</v>
       </c>
       <c r="B171">
-        <v>1077</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:2">
       <c r="A172" s="2">
-        <v>45973.77083333334</v>
+        <v>45982.77083333334</v>
       </c>
       <c r="B172">
-        <v>1076</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:2">
       <c r="A173" s="2">
-        <v>45973.78125</v>
+        <v>45982.78125</v>
       </c>
       <c r="B173">
-        <v>1077</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:2">
       <c r="A174" s="2">
-        <v>45973.79166666666</v>
+        <v>45982.79166666666</v>
       </c>
       <c r="B174">
-        <v>1091</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:2">
       <c r="A175" s="2">
-        <v>45973.80208333334</v>
+        <v>45982.80208333334</v>
       </c>
       <c r="B175">
         <v>0</v>
@@ -1789,103 +1789,103 @@
     </row>
     <row r="176" spans="1:2">
       <c r="A176" s="2">
-        <v>45973.8125</v>
+        <v>45982.8125</v>
       </c>
       <c r="B176">
-        <v>1095</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:2">
       <c r="A177" s="2">
-        <v>45973.82291666666</v>
+        <v>45982.82291666666</v>
       </c>
       <c r="B177">
-        <v>1092</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:2">
       <c r="A178" s="2">
-        <v>45973.83333333334</v>
+        <v>45982.83333333334</v>
       </c>
       <c r="B178">
-        <v>1056</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:2">
       <c r="A179" s="2">
-        <v>45973.84375</v>
+        <v>45982.84375</v>
       </c>
       <c r="B179">
-        <v>1042</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:2">
       <c r="A180" s="2">
-        <v>45973.85416666666</v>
+        <v>45982.85416666666</v>
       </c>
       <c r="B180">
-        <v>1046</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:2">
       <c r="A181" s="2">
-        <v>45973.86458333334</v>
+        <v>45982.86458333334</v>
       </c>
       <c r="B181">
-        <v>1044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:2">
       <c r="A182" s="2">
-        <v>45973.875</v>
+        <v>45982.875</v>
       </c>
       <c r="B182">
-        <v>939</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:2">
       <c r="A183" s="2">
-        <v>45973.88541666666</v>
+        <v>45982.88541666666</v>
       </c>
       <c r="B183">
-        <v>930</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:2">
       <c r="A184" s="2">
-        <v>45973.89583333334</v>
+        <v>45982.89583333334</v>
       </c>
       <c r="B184">
-        <v>927</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:2">
       <c r="A185" s="2">
-        <v>45973.90625</v>
+        <v>45982.90625</v>
       </c>
       <c r="B185">
-        <v>923</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:2">
       <c r="A186" s="2">
-        <v>45973.91666666666</v>
+        <v>45982.91666666666</v>
       </c>
       <c r="B186">
-        <v>686</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:2">
       <c r="A187" s="2">
-        <v>45973.92708333334</v>
+        <v>45982.92708333334</v>
       </c>
       <c r="B187">
-        <v>670</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:2">
       <c r="A188" s="2">
-        <v>45973.9375</v>
+        <v>45982.9375</v>
       </c>
       <c r="B188">
         <v>0</v>
@@ -1893,809 +1893,41 @@
     </row>
     <row r="189" spans="1:2">
       <c r="A189" s="2">
-        <v>45973.94791666666</v>
+        <v>45982.94791666666</v>
       </c>
       <c r="B189">
-        <v>666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:2">
       <c r="A190" s="2">
-        <v>45973.95833333334</v>
+        <v>45982.95833333334</v>
       </c>
       <c r="B190">
-        <v>682</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:2">
       <c r="A191" s="2">
-        <v>45973.96875</v>
+        <v>45982.96875</v>
       </c>
       <c r="B191">
-        <v>683</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:2">
       <c r="A192" s="2">
-        <v>45973.97916666666</v>
+        <v>45982.97916666666</v>
       </c>
       <c r="B192">
-        <v>687</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:2">
       <c r="A193" s="2">
-        <v>45973.98958333334</v>
+        <v>45982.98958333334</v>
       </c>
       <c r="B193">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="194" spans="1:2">
-      <c r="A194" s="2">
-        <v>45974</v>
-      </c>
-      <c r="B194">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="195" spans="1:2">
-      <c r="A195" s="2">
-        <v>45974.01041666666</v>
-      </c>
-      <c r="B195">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="196" spans="1:2">
-      <c r="A196" s="2">
-        <v>45974.02083333334</v>
-      </c>
-      <c r="B196">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="197" spans="1:2">
-      <c r="A197" s="2">
-        <v>45974.03125</v>
-      </c>
-      <c r="B197">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="198" spans="1:2">
-      <c r="A198" s="2">
-        <v>45974.04166666666</v>
-      </c>
-      <c r="B198">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="199" spans="1:2">
-      <c r="A199" s="2">
-        <v>45974.05208333334</v>
-      </c>
-      <c r="B199">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="200" spans="1:2">
-      <c r="A200" s="2">
-        <v>45974.0625</v>
-      </c>
-      <c r="B200">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="201" spans="1:2">
-      <c r="A201" s="2">
-        <v>45974.07291666666</v>
-      </c>
-      <c r="B201">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="202" spans="1:2">
-      <c r="A202" s="2">
-        <v>45974.08333333334</v>
-      </c>
-      <c r="B202">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="203" spans="1:2">
-      <c r="A203" s="2">
-        <v>45974.09375</v>
-      </c>
-      <c r="B203">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="204" spans="1:2">
-      <c r="A204" s="2">
-        <v>45974.10416666666</v>
-      </c>
-      <c r="B204">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="205" spans="1:2">
-      <c r="A205" s="2">
-        <v>45974.11458333334</v>
-      </c>
-      <c r="B205">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="206" spans="1:2">
-      <c r="A206" s="2">
-        <v>45974.125</v>
-      </c>
-      <c r="B206">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="207" spans="1:2">
-      <c r="A207" s="2">
-        <v>45974.13541666666</v>
-      </c>
-      <c r="B207">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="208" spans="1:2">
-      <c r="A208" s="2">
-        <v>45974.14583333334</v>
-      </c>
-      <c r="B208">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="209" spans="1:2">
-      <c r="A209" s="2">
-        <v>45974.15625</v>
-      </c>
-      <c r="B209">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="210" spans="1:2">
-      <c r="A210" s="2">
-        <v>45974.16666666666</v>
-      </c>
-      <c r="B210">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="211" spans="1:2">
-      <c r="A211" s="2">
-        <v>45974.17708333334</v>
-      </c>
-      <c r="B211">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="212" spans="1:2">
-      <c r="A212" s="2">
-        <v>45974.1875</v>
-      </c>
-      <c r="B212">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="213" spans="1:2">
-      <c r="A213" s="2">
-        <v>45974.19791666666</v>
-      </c>
-      <c r="B213">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="214" spans="1:2">
-      <c r="A214" s="2">
-        <v>45974.20833333334</v>
-      </c>
-      <c r="B214">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="215" spans="1:2">
-      <c r="A215" s="2">
-        <v>45974.21875</v>
-      </c>
-      <c r="B215">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="216" spans="1:2">
-      <c r="A216" s="2">
-        <v>45974.22916666666</v>
-      </c>
-      <c r="B216">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="217" spans="1:2">
-      <c r="A217" s="2">
-        <v>45974.23958333334</v>
-      </c>
-      <c r="B217">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="218" spans="1:2">
-      <c r="A218" s="2">
-        <v>45974.25</v>
-      </c>
-      <c r="B218">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="219" spans="1:2">
-      <c r="A219" s="2">
-        <v>45974.26041666666</v>
-      </c>
-      <c r="B219">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="220" spans="1:2">
-      <c r="A220" s="2">
-        <v>45974.27083333334</v>
-      </c>
-      <c r="B220">
-        <v>845</v>
-      </c>
-    </row>
-    <row r="221" spans="1:2">
-      <c r="A221" s="2">
-        <v>45974.28125</v>
-      </c>
-      <c r="B221">
-        <v>847</v>
-      </c>
-    </row>
-    <row r="222" spans="1:2">
-      <c r="A222" s="2">
-        <v>45974.29166666666</v>
-      </c>
-      <c r="B222">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="223" spans="1:2">
-      <c r="A223" s="2">
-        <v>45974.30208333334</v>
-      </c>
-      <c r="B223">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="224" spans="1:2">
-      <c r="A224" s="2">
-        <v>45974.3125</v>
-      </c>
-      <c r="B224">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="225" spans="1:2">
-      <c r="A225" s="2">
-        <v>45974.32291666666</v>
-      </c>
-      <c r="B225">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="226" spans="1:2">
-      <c r="A226" s="2">
-        <v>45974.33333333334</v>
-      </c>
-      <c r="B226">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="227" spans="1:2">
-      <c r="A227" s="2">
-        <v>45974.34375</v>
-      </c>
-      <c r="B227">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="228" spans="1:2">
-      <c r="A228" s="2">
-        <v>45974.35416666666</v>
-      </c>
-      <c r="B228">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="229" spans="1:2">
-      <c r="A229" s="2">
-        <v>45974.36458333334</v>
-      </c>
-      <c r="B229">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="230" spans="1:2">
-      <c r="A230" s="2">
-        <v>45974.375</v>
-      </c>
-      <c r="B230">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="231" spans="1:2">
-      <c r="A231" s="2">
-        <v>45974.38541666666</v>
-      </c>
-      <c r="B231">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="232" spans="1:2">
-      <c r="A232" s="2">
-        <v>45974.39583333334</v>
-      </c>
-      <c r="B232">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="233" spans="1:2">
-      <c r="A233" s="2">
-        <v>45974.40625</v>
-      </c>
-      <c r="B233">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="234" spans="1:2">
-      <c r="A234" s="2">
-        <v>45974.41666666666</v>
-      </c>
-      <c r="B234">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="235" spans="1:2">
-      <c r="A235" s="2">
-        <v>45974.42708333334</v>
-      </c>
-      <c r="B235">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="236" spans="1:2">
-      <c r="A236" s="2">
-        <v>45974.4375</v>
-      </c>
-      <c r="B236">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="237" spans="1:2">
-      <c r="A237" s="2">
-        <v>45974.44791666666</v>
-      </c>
-      <c r="B237">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="238" spans="1:2">
-      <c r="A238" s="2">
-        <v>45974.45833333334</v>
-      </c>
-      <c r="B238">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="239" spans="1:2">
-      <c r="A239" s="2">
-        <v>45974.46875</v>
-      </c>
-      <c r="B239">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="240" spans="1:2">
-      <c r="A240" s="2">
-        <v>45974.47916666666</v>
-      </c>
-      <c r="B240">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="241" spans="1:2">
-      <c r="A241" s="2">
-        <v>45974.48958333334</v>
-      </c>
-      <c r="B241">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="242" spans="1:2">
-      <c r="A242" s="2">
-        <v>45974.5</v>
-      </c>
-      <c r="B242">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="243" spans="1:2">
-      <c r="A243" s="2">
-        <v>45974.51041666666</v>
-      </c>
-      <c r="B243">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="244" spans="1:2">
-      <c r="A244" s="2">
-        <v>45974.52083333334</v>
-      </c>
-      <c r="B244">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="245" spans="1:2">
-      <c r="A245" s="2">
-        <v>45974.53125</v>
-      </c>
-      <c r="B245">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="246" spans="1:2">
-      <c r="A246" s="2">
-        <v>45974.54166666666</v>
-      </c>
-      <c r="B246">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="247" spans="1:2">
-      <c r="A247" s="2">
-        <v>45974.55208333334</v>
-      </c>
-      <c r="B247">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="248" spans="1:2">
-      <c r="A248" s="2">
-        <v>45974.5625</v>
-      </c>
-      <c r="B248">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="249" spans="1:2">
-      <c r="A249" s="2">
-        <v>45974.57291666666</v>
-      </c>
-      <c r="B249">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="250" spans="1:2">
-      <c r="A250" s="2">
-        <v>45974.58333333334</v>
-      </c>
-      <c r="B250">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="251" spans="1:2">
-      <c r="A251" s="2">
-        <v>45974.59375</v>
-      </c>
-      <c r="B251">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="252" spans="1:2">
-      <c r="A252" s="2">
-        <v>45974.60416666666</v>
-      </c>
-      <c r="B252">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="253" spans="1:2">
-      <c r="A253" s="2">
-        <v>45974.61458333334</v>
-      </c>
-      <c r="B253">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="254" spans="1:2">
-      <c r="A254" s="2">
-        <v>45974.625</v>
-      </c>
-      <c r="B254">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="255" spans="1:2">
-      <c r="A255" s="2">
-        <v>45974.63541666666</v>
-      </c>
-      <c r="B255">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="256" spans="1:2">
-      <c r="A256" s="2">
-        <v>45974.64583333334</v>
-      </c>
-      <c r="B256">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="257" spans="1:2">
-      <c r="A257" s="2">
-        <v>45974.65625</v>
-      </c>
-      <c r="B257">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="258" spans="1:2">
-      <c r="A258" s="2">
-        <v>45974.66666666666</v>
-      </c>
-      <c r="B258">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="259" spans="1:2">
-      <c r="A259" s="2">
-        <v>45974.67708333334</v>
-      </c>
-      <c r="B259">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="260" spans="1:2">
-      <c r="A260" s="2">
-        <v>45974.6875</v>
-      </c>
-      <c r="B260">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="261" spans="1:2">
-      <c r="A261" s="2">
-        <v>45974.69791666666</v>
-      </c>
-      <c r="B261">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="262" spans="1:2">
-      <c r="A262" s="2">
-        <v>45974.70833333334</v>
-      </c>
-      <c r="B262">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="263" spans="1:2">
-      <c r="A263" s="2">
-        <v>45974.71875</v>
-      </c>
-      <c r="B263">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="264" spans="1:2">
-      <c r="A264" s="2">
-        <v>45974.72916666666</v>
-      </c>
-      <c r="B264">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="265" spans="1:2">
-      <c r="A265" s="2">
-        <v>45974.73958333334</v>
-      </c>
-      <c r="B265">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="266" spans="1:2">
-      <c r="A266" s="2">
-        <v>45974.75</v>
-      </c>
-      <c r="B266">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="267" spans="1:2">
-      <c r="A267" s="2">
-        <v>45974.76041666666</v>
-      </c>
-      <c r="B267">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="268" spans="1:2">
-      <c r="A268" s="2">
-        <v>45974.77083333334</v>
-      </c>
-      <c r="B268">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="269" spans="1:2">
-      <c r="A269" s="2">
-        <v>45974.78125</v>
-      </c>
-      <c r="B269">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="270" spans="1:2">
-      <c r="A270" s="2">
-        <v>45974.79166666666</v>
-      </c>
-      <c r="B270">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="271" spans="1:2">
-      <c r="A271" s="2">
-        <v>45974.80208333334</v>
-      </c>
-      <c r="B271">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="272" spans="1:2">
-      <c r="A272" s="2">
-        <v>45974.8125</v>
-      </c>
-      <c r="B272">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="273" spans="1:2">
-      <c r="A273" s="2">
-        <v>45974.82291666666</v>
-      </c>
-      <c r="B273">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="274" spans="1:2">
-      <c r="A274" s="2">
-        <v>45974.83333333334</v>
-      </c>
-      <c r="B274">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="275" spans="1:2">
-      <c r="A275" s="2">
-        <v>45974.84375</v>
-      </c>
-      <c r="B275">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="276" spans="1:2">
-      <c r="A276" s="2">
-        <v>45974.85416666666</v>
-      </c>
-      <c r="B276">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="277" spans="1:2">
-      <c r="A277" s="2">
-        <v>45974.86458333334</v>
-      </c>
-      <c r="B277">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="278" spans="1:2">
-      <c r="A278" s="2">
-        <v>45974.875</v>
-      </c>
-      <c r="B278">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="279" spans="1:2">
-      <c r="A279" s="2">
-        <v>45974.88541666666</v>
-      </c>
-      <c r="B279">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="280" spans="1:2">
-      <c r="A280" s="2">
-        <v>45974.89583333334</v>
-      </c>
-      <c r="B280">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="281" spans="1:2">
-      <c r="A281" s="2">
-        <v>45974.90625</v>
-      </c>
-      <c r="B281">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="282" spans="1:2">
-      <c r="A282" s="2">
-        <v>45974.91666666666</v>
-      </c>
-      <c r="B282">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="283" spans="1:2">
-      <c r="A283" s="2">
-        <v>45974.92708333334</v>
-      </c>
-      <c r="B283">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="284" spans="1:2">
-      <c r="A284" s="2">
-        <v>45974.9375</v>
-      </c>
-      <c r="B284">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="285" spans="1:2">
-      <c r="A285" s="2">
-        <v>45974.94791666666</v>
-      </c>
-      <c r="B285">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="286" spans="1:2">
-      <c r="A286" s="2">
-        <v>45974.95833333334</v>
-      </c>
-      <c r="B286">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="287" spans="1:2">
-      <c r="A287" s="2">
-        <v>45974.96875</v>
-      </c>
-      <c r="B287">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="288" spans="1:2">
-      <c r="A288" s="2">
-        <v>45974.97916666666</v>
-      </c>
-      <c r="B288">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="289" spans="1:2">
-      <c r="A289" s="2">
-        <v>45974.98958333334</v>
-      </c>
-      <c r="B289">
         <v>0</v>
       </c>
     </row>

--- a/data_fetching/Entsoe/Actual_Production_Hydro_Water_Reservoir.xlsx
+++ b/data_fetching/Entsoe/Actual_Production_Hydro_Water_Reservoir.xlsx
@@ -397,1183 +397,1183 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2">
-        <v>45981</v>
+        <v>45984</v>
       </c>
       <c r="B2">
-        <v>703</v>
+        <v>454</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2">
-        <v>45981.01041666666</v>
+        <v>45984.01041666666</v>
       </c>
       <c r="B3">
-        <v>706</v>
+        <v>449</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2">
-        <v>45981.02083333334</v>
+        <v>45984.02083333334</v>
       </c>
       <c r="B4">
-        <v>702</v>
+        <v>455</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2">
-        <v>45981.03125</v>
+        <v>45984.03125</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>451</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2">
-        <v>45981.04166666666</v>
+        <v>45984.04166666666</v>
       </c>
       <c r="B6">
-        <v>637</v>
+        <v>447</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2">
-        <v>45981.05208333334</v>
+        <v>45984.05208333334</v>
       </c>
       <c r="B7">
-        <v>632</v>
+        <v>445</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2">
-        <v>45981.0625</v>
+        <v>45984.0625</v>
       </c>
       <c r="B8">
-        <v>630</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2">
-        <v>45981.07291666666</v>
+        <v>45984.07291666666</v>
       </c>
       <c r="B9">
-        <v>634</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2">
-        <v>45981.08333333334</v>
+        <v>45984.08333333334</v>
       </c>
       <c r="B10">
-        <v>607</v>
+        <v>450</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2">
-        <v>45981.09375</v>
+        <v>45984.09375</v>
       </c>
       <c r="B11">
-        <v>602</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2">
-        <v>45981.10416666666</v>
+        <v>45984.10416666666</v>
       </c>
       <c r="B12">
-        <v>601</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2">
-        <v>45981.11458333334</v>
+        <v>45984.11458333334</v>
       </c>
       <c r="B13">
-        <v>603</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2">
-        <v>45981.125</v>
+        <v>45984.125</v>
       </c>
       <c r="B14">
-        <v>606</v>
+        <v>465</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2">
-        <v>45981.13541666666</v>
+        <v>45984.13541666666</v>
       </c>
       <c r="B15">
-        <v>605</v>
+        <v>464</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2">
-        <v>45981.14583333334</v>
+        <v>45984.14583333334</v>
       </c>
       <c r="B16">
-        <v>604</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2">
-        <v>45981.15625</v>
+        <v>45984.15625</v>
       </c>
       <c r="B17">
-        <v>606</v>
+        <v>466</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2">
-        <v>45981.16666666666</v>
+        <v>45984.16666666666</v>
       </c>
       <c r="B18">
-        <v>634</v>
+        <v>473</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2">
-        <v>45981.17708333334</v>
+        <v>45984.17708333334</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>472</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2">
-        <v>45981.1875</v>
+        <v>45984.1875</v>
       </c>
       <c r="B20">
-        <v>635</v>
+        <v>473</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2">
-        <v>45981.19791666666</v>
+        <v>45984.19791666666</v>
       </c>
       <c r="B21">
-        <v>648</v>
+        <v>475</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2">
-        <v>45981.20833333334</v>
+        <v>45984.20833333334</v>
       </c>
       <c r="B22">
-        <v>723</v>
+        <v>507</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2">
-        <v>45981.21875</v>
+        <v>45984.21875</v>
       </c>
       <c r="B23">
-        <v>721</v>
+        <v>508</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2">
-        <v>45981.22916666666</v>
+        <v>45984.22916666666</v>
       </c>
       <c r="B24">
-        <v>724</v>
+        <v>509</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2">
-        <v>45981.23958333334</v>
+        <v>45984.23958333334</v>
       </c>
       <c r="B25">
-        <v>732</v>
+        <v>535</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2">
-        <v>45981.25</v>
+        <v>45984.25</v>
       </c>
       <c r="B26">
-        <v>957</v>
+        <v>591</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2">
-        <v>45981.26041666666</v>
+        <v>45984.26041666666</v>
       </c>
       <c r="B27">
-        <v>950</v>
+        <v>573</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2">
-        <v>45981.27083333334</v>
+        <v>45984.27083333334</v>
       </c>
       <c r="B28">
-        <v>945</v>
+        <v>562</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2">
-        <v>45981.28125</v>
+        <v>45984.28125</v>
       </c>
       <c r="B29">
-        <v>950</v>
+        <v>560</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2">
-        <v>45981.29166666666</v>
+        <v>45984.29166666666</v>
       </c>
       <c r="B30">
-        <v>933</v>
+        <v>603</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2">
-        <v>45981.30208333334</v>
+        <v>45984.30208333334</v>
       </c>
       <c r="B31">
-        <v>924</v>
+        <v>610</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2">
-        <v>45981.3125</v>
+        <v>45984.3125</v>
       </c>
       <c r="B32">
-        <v>919</v>
+        <v>626</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2">
-        <v>45981.32291666666</v>
+        <v>45984.32291666666</v>
       </c>
       <c r="B33">
-        <v>921</v>
+        <v>629</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2">
-        <v>45981.33333333334</v>
+        <v>45984.33333333334</v>
       </c>
       <c r="B34">
-        <v>923</v>
+        <v>634</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="2">
-        <v>45981.34375</v>
+        <v>45984.34375</v>
       </c>
       <c r="B35">
-        <v>920</v>
+        <v>639</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="2">
-        <v>45981.35416666666</v>
+        <v>45984.35416666666</v>
       </c>
       <c r="B36">
-        <v>912</v>
+        <v>640</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="2">
-        <v>45981.36458333334</v>
+        <v>45984.36458333334</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>639</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="2">
-        <v>45981.375</v>
+        <v>45984.375</v>
       </c>
       <c r="B38">
-        <v>841</v>
+        <v>611</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="2">
-        <v>45981.38541666666</v>
+        <v>45984.38541666666</v>
       </c>
       <c r="B39">
-        <v>833</v>
+        <v>606</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="2">
-        <v>45981.39583333334</v>
+        <v>45984.39583333334</v>
       </c>
       <c r="B40">
-        <v>824</v>
+        <v>607</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="2">
-        <v>45981.40625</v>
+        <v>45984.40625</v>
       </c>
       <c r="B41">
-        <v>829</v>
+        <v>606</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="2">
-        <v>45981.41666666666</v>
+        <v>45984.41666666666</v>
       </c>
       <c r="B42">
-        <v>838</v>
+        <v>628</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="2">
-        <v>45981.42708333334</v>
+        <v>45984.42708333334</v>
       </c>
       <c r="B43">
-        <v>835</v>
+        <v>789</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="2">
-        <v>45981.4375</v>
+        <v>45984.4375</v>
       </c>
       <c r="B44">
-        <v>837</v>
+        <v>798</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="2">
-        <v>45981.44791666666</v>
+        <v>45984.44791666666</v>
       </c>
       <c r="B45">
-        <v>836</v>
+        <v>789</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="2">
-        <v>45981.45833333334</v>
+        <v>45984.45833333334</v>
       </c>
       <c r="B46">
-        <v>785</v>
+        <v>556</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="2">
-        <v>45981.46875</v>
+        <v>45984.46875</v>
       </c>
       <c r="B47">
-        <v>777</v>
+        <v>552</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="2">
-        <v>45981.47916666666</v>
+        <v>45984.47916666666</v>
       </c>
       <c r="B48">
-        <v>773</v>
+        <v>553</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="2">
-        <v>45981.48958333334</v>
+        <v>45984.48958333334</v>
       </c>
       <c r="B49">
-        <v>776</v>
+        <v>550</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="2">
-        <v>45981.5</v>
+        <v>45984.5</v>
       </c>
       <c r="B50">
-        <v>764</v>
+        <v>671</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="2">
-        <v>45981.51041666666</v>
+        <v>45984.51041666666</v>
       </c>
       <c r="B51">
-        <v>756</v>
+        <v>736</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="2">
-        <v>45981.52083333334</v>
+        <v>45984.52083333334</v>
       </c>
       <c r="B52">
-        <v>757</v>
+        <v>741</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="2">
-        <v>45981.53125</v>
+        <v>45984.53125</v>
       </c>
       <c r="B53">
-        <v>752</v>
+        <v>746</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="2">
-        <v>45981.54166666666</v>
+        <v>45984.54166666666</v>
       </c>
       <c r="B54">
-        <v>773</v>
+        <v>716</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="2">
-        <v>45981.55208333334</v>
+        <v>45984.55208333334</v>
       </c>
       <c r="B55">
-        <v>768</v>
+        <v>724</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="2">
-        <v>45981.5625</v>
+        <v>45984.5625</v>
       </c>
       <c r="B56">
-        <v>770</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="2">
-        <v>45981.57291666666</v>
+        <v>45984.57291666666</v>
       </c>
       <c r="B57">
-        <v>789</v>
+        <v>723</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="2">
-        <v>45981.58333333334</v>
+        <v>45984.58333333334</v>
       </c>
       <c r="B58">
-        <v>948</v>
+        <v>726</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="2">
-        <v>45981.59375</v>
+        <v>45984.59375</v>
       </c>
       <c r="B59">
-        <v>950</v>
+        <v>640</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="2">
-        <v>45981.60416666666</v>
+        <v>45984.60416666666</v>
       </c>
       <c r="B60">
-        <v>0</v>
+        <v>632</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="2">
-        <v>45981.61458333334</v>
+        <v>45984.61458333334</v>
       </c>
       <c r="B61">
-        <v>0</v>
+        <v>637</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="2">
-        <v>45981.625</v>
+        <v>45984.625</v>
       </c>
       <c r="B62">
-        <v>914</v>
+        <v>730</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="2">
-        <v>45981.63541666666</v>
+        <v>45984.63541666666</v>
       </c>
       <c r="B63">
-        <v>917</v>
+        <v>732</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="2">
-        <v>45981.64583333334</v>
+        <v>45984.64583333334</v>
       </c>
       <c r="B64">
-        <v>912</v>
+        <v>734</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="2">
-        <v>45981.65625</v>
+        <v>45984.65625</v>
       </c>
       <c r="B65">
-        <v>914</v>
+        <v>736</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="2">
-        <v>45981.66666666666</v>
+        <v>45984.66666666666</v>
       </c>
       <c r="B66">
-        <v>1020</v>
+        <v>784</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="2">
-        <v>45981.67708333334</v>
+        <v>45984.67708333334</v>
       </c>
       <c r="B67">
-        <v>1032</v>
+        <v>789</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="2">
-        <v>45981.6875</v>
+        <v>45984.6875</v>
       </c>
       <c r="B68">
-        <v>1027</v>
+        <v>793</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="2">
-        <v>45981.69791666666</v>
+        <v>45984.69791666666</v>
       </c>
       <c r="B69">
-        <v>1034</v>
+        <v>825</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="2">
-        <v>45981.70833333334</v>
+        <v>45984.70833333334</v>
       </c>
       <c r="B70">
-        <v>1149</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="2">
-        <v>45981.71875</v>
+        <v>45984.71875</v>
       </c>
       <c r="B71">
-        <v>1150</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="2">
-        <v>45981.72916666666</v>
+        <v>45984.72916666666</v>
       </c>
       <c r="B72">
-        <v>1112</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="2">
-        <v>45981.73958333334</v>
+        <v>45984.73958333334</v>
       </c>
       <c r="B73">
-        <v>1120</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="2">
-        <v>45981.75</v>
+        <v>45984.75</v>
       </c>
       <c r="B74">
-        <v>1174</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="2">
-        <v>45981.76041666666</v>
+        <v>45984.76041666666</v>
       </c>
       <c r="B75">
-        <v>1206</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="2">
-        <v>45981.77083333334</v>
+        <v>45984.77083333334</v>
       </c>
       <c r="B76">
-        <v>1205</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="2">
-        <v>45981.78125</v>
+        <v>45984.78125</v>
       </c>
       <c r="B77">
-        <v>1211</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="2">
-        <v>45981.79166666666</v>
+        <v>45984.79166666666</v>
       </c>
       <c r="B78">
-        <v>1158</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="2">
-        <v>45981.80208333334</v>
+        <v>45984.80208333334</v>
       </c>
       <c r="B79">
-        <v>1156</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="2">
-        <v>45981.8125</v>
+        <v>45984.8125</v>
       </c>
       <c r="B80">
-        <v>1225</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="2">
-        <v>45981.82291666666</v>
+        <v>45984.82291666666</v>
       </c>
       <c r="B81">
-        <v>1229</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="2">
-        <v>45981.83333333334</v>
+        <v>45984.83333333334</v>
       </c>
       <c r="B82">
-        <v>1152</v>
+        <v>930</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="2">
-        <v>45981.84375</v>
+        <v>45984.84375</v>
       </c>
       <c r="B83">
-        <v>1150</v>
+        <v>846</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="2">
-        <v>45981.85416666666</v>
+        <v>45984.85416666666</v>
       </c>
       <c r="B84">
-        <v>1147</v>
+        <v>868</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="2">
-        <v>45981.86458333334</v>
+        <v>45984.86458333334</v>
       </c>
       <c r="B85">
-        <v>1133</v>
+        <v>977</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="2">
-        <v>45981.875</v>
+        <v>45984.875</v>
       </c>
       <c r="B86">
-        <v>824</v>
+        <v>923</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="2">
-        <v>45981.88541666666</v>
+        <v>45984.88541666666</v>
       </c>
       <c r="B87">
-        <v>813</v>
+        <v>913</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="2">
-        <v>45981.89583333334</v>
+        <v>45984.89583333334</v>
       </c>
       <c r="B88">
-        <v>816</v>
+        <v>938</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="2">
-        <v>45981.90625</v>
+        <v>45984.90625</v>
       </c>
       <c r="B89">
-        <v>810</v>
+        <v>929</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="2">
-        <v>45981.91666666666</v>
+        <v>45984.91666666666</v>
       </c>
       <c r="B90">
-        <v>681</v>
+        <v>573</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="2">
-        <v>45981.92708333334</v>
+        <v>45984.92708333334</v>
       </c>
       <c r="B91">
-        <v>674</v>
+        <v>563</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="2">
-        <v>45981.9375</v>
+        <v>45984.9375</v>
       </c>
       <c r="B92">
-        <v>677</v>
+        <v>564</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="2">
-        <v>45981.94791666666</v>
+        <v>45984.94791666666</v>
       </c>
       <c r="B93">
-        <v>674</v>
+        <v>558</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="2">
-        <v>45981.95833333334</v>
+        <v>45984.95833333334</v>
       </c>
       <c r="B94">
-        <v>615</v>
+        <v>478</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="2">
-        <v>45981.96875</v>
+        <v>45984.96875</v>
       </c>
       <c r="B95">
-        <v>608</v>
+        <v>474</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="2">
-        <v>45981.97916666666</v>
+        <v>45984.97916666666</v>
       </c>
       <c r="B96">
-        <v>0</v>
+        <v>477</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="2">
-        <v>45981.98958333334</v>
+        <v>45984.98958333334</v>
       </c>
       <c r="B97">
-        <v>605</v>
+        <v>476</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" s="2">
-        <v>45982</v>
+        <v>45985</v>
       </c>
       <c r="B98">
-        <v>611</v>
+        <v>462</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" s="2">
-        <v>45982.01041666666</v>
+        <v>45985.01041666666</v>
       </c>
       <c r="B99">
-        <v>609</v>
+        <v>475</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" s="2">
-        <v>45982.02083333334</v>
+        <v>45985.02083333334</v>
       </c>
       <c r="B100">
-        <v>607</v>
+        <v>476</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" s="2">
-        <v>45982.03125</v>
+        <v>45985.03125</v>
       </c>
       <c r="B101">
-        <v>610</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" s="2">
-        <v>45982.04166666666</v>
+        <v>45985.04166666666</v>
       </c>
       <c r="B102">
-        <v>616</v>
+        <v>477</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" s="2">
-        <v>45982.05208333334</v>
+        <v>45985.05208333334</v>
       </c>
       <c r="B103">
-        <v>609</v>
+        <v>473</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" s="2">
-        <v>45982.0625</v>
+        <v>45985.0625</v>
       </c>
       <c r="B104">
-        <v>608</v>
+        <v>472</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" s="2">
-        <v>45982.07291666666</v>
+        <v>45985.07291666666</v>
       </c>
       <c r="B105">
-        <v>609</v>
+        <v>473</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" s="2">
-        <v>45982.08333333334</v>
+        <v>45985.08333333334</v>
       </c>
       <c r="B106">
-        <v>611</v>
+        <v>468</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" s="2">
-        <v>45982.09375</v>
+        <v>45985.09375</v>
       </c>
       <c r="B107">
-        <v>605</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" s="2">
-        <v>45982.10416666666</v>
+        <v>45985.10416666666</v>
       </c>
       <c r="B108">
-        <v>0</v>
+        <v>470</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" s="2">
-        <v>45982.11458333334</v>
+        <v>45985.11458333334</v>
       </c>
       <c r="B109">
-        <v>607</v>
+        <v>468</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" s="2">
-        <v>45982.125</v>
+        <v>45985.125</v>
       </c>
       <c r="B110">
-        <v>605</v>
+        <v>471</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" s="2">
-        <v>45982.13541666666</v>
+        <v>45985.13541666666</v>
       </c>
       <c r="B111">
-        <v>607</v>
+        <v>470</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112" s="2">
-        <v>45982.14583333334</v>
+        <v>45985.14583333334</v>
       </c>
       <c r="B112">
-        <v>608</v>
+        <v>472</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" s="2">
-        <v>45982.15625</v>
+        <v>45985.15625</v>
       </c>
       <c r="B113">
-        <v>609</v>
+        <v>478</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" s="2">
-        <v>45982.16666666666</v>
+        <v>45985.16666666666</v>
       </c>
       <c r="B114">
-        <v>685</v>
+        <v>533</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" s="2">
-        <v>45982.17708333334</v>
+        <v>45985.17708333334</v>
       </c>
       <c r="B115">
-        <v>682</v>
+        <v>532</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" s="2">
-        <v>45982.1875</v>
+        <v>45985.1875</v>
       </c>
       <c r="B116">
-        <v>0</v>
+        <v>530</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117" s="2">
-        <v>45982.19791666666</v>
+        <v>45985.19791666666</v>
       </c>
       <c r="B117">
-        <v>670</v>
+        <v>536</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" s="2">
-        <v>45982.20833333334</v>
+        <v>45985.20833333334</v>
       </c>
       <c r="B118">
-        <v>708</v>
+        <v>548</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" s="2">
-        <v>45982.21875</v>
+        <v>45985.21875</v>
       </c>
       <c r="B119">
-        <v>709</v>
+        <v>545</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" s="2">
-        <v>45982.22916666666</v>
+        <v>45985.22916666666</v>
       </c>
       <c r="B120">
-        <v>710</v>
+        <v>548</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" s="2">
-        <v>45982.23958333334</v>
+        <v>45985.23958333334</v>
       </c>
       <c r="B121">
-        <v>728</v>
+        <v>572</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" s="2">
-        <v>45982.25</v>
+        <v>45985.25</v>
       </c>
       <c r="B122">
-        <v>849</v>
+        <v>950</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123" s="2">
-        <v>45982.26041666666</v>
+        <v>45985.26041666666</v>
       </c>
       <c r="B123">
-        <v>842</v>
+        <v>992</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" s="2">
-        <v>45982.27083333334</v>
+        <v>45985.27083333334</v>
       </c>
       <c r="B124">
-        <v>840</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" s="2">
-        <v>45982.28125</v>
+        <v>45985.28125</v>
       </c>
       <c r="B125">
-        <v>847</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" s="2">
-        <v>45982.29166666666</v>
+        <v>45985.29166666666</v>
       </c>
       <c r="B126">
-        <v>865</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127" s="2">
-        <v>45982.30208333334</v>
+        <v>45985.30208333334</v>
       </c>
       <c r="B127">
-        <v>0</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128" s="2">
-        <v>45982.3125</v>
+        <v>45985.3125</v>
       </c>
       <c r="B128">
-        <v>0</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" s="2">
-        <v>45982.32291666666</v>
+        <v>45985.32291666666</v>
       </c>
       <c r="B129">
-        <v>0</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" s="2">
-        <v>45982.33333333334</v>
+        <v>45985.33333333334</v>
       </c>
       <c r="B130">
-        <v>0</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" s="2">
-        <v>45982.34375</v>
+        <v>45985.34375</v>
       </c>
       <c r="B131">
-        <v>0</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132" s="2">
-        <v>45982.35416666666</v>
+        <v>45985.35416666666</v>
       </c>
       <c r="B132">
-        <v>0</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" s="2">
-        <v>45982.36458333334</v>
+        <v>45985.36458333334</v>
       </c>
       <c r="B133">
-        <v>0</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134" s="2">
-        <v>45982.375</v>
+        <v>45985.375</v>
       </c>
       <c r="B134">
-        <v>0</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135" s="2">
-        <v>45982.38541666666</v>
+        <v>45985.38541666666</v>
       </c>
       <c r="B135">
-        <v>0</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136" s="2">
-        <v>45982.39583333334</v>
+        <v>45985.39583333334</v>
       </c>
       <c r="B136">
-        <v>0</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137" s="2">
-        <v>45982.40625</v>
+        <v>45985.40625</v>
       </c>
       <c r="B137">
-        <v>0</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="138" spans="1:2">
       <c r="A138" s="2">
-        <v>45982.41666666666</v>
+        <v>45985.41666666666</v>
       </c>
       <c r="B138">
-        <v>0</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="139" spans="1:2">
       <c r="A139" s="2">
-        <v>45982.42708333334</v>
+        <v>45985.42708333334</v>
       </c>
       <c r="B139">
-        <v>0</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="140" spans="1:2">
       <c r="A140" s="2">
-        <v>45982.4375</v>
+        <v>45985.4375</v>
       </c>
       <c r="B140">
-        <v>0</v>
+        <v>979</v>
       </c>
     </row>
     <row r="141" spans="1:2">
       <c r="A141" s="2">
-        <v>45982.44791666666</v>
+        <v>45985.44791666666</v>
       </c>
       <c r="B141">
-        <v>0</v>
+        <v>983</v>
       </c>
     </row>
     <row r="142" spans="1:2">
       <c r="A142" s="2">
-        <v>45982.45833333334</v>
+        <v>45985.45833333334</v>
       </c>
       <c r="B142">
-        <v>0</v>
+        <v>703</v>
       </c>
     </row>
     <row r="143" spans="1:2">
       <c r="A143" s="2">
-        <v>45982.46875</v>
+        <v>45985.46875</v>
       </c>
       <c r="B143">
-        <v>0</v>
+        <v>698</v>
       </c>
     </row>
     <row r="144" spans="1:2">
       <c r="A144" s="2">
-        <v>45982.47916666666</v>
+        <v>45985.47916666666</v>
       </c>
       <c r="B144">
-        <v>0</v>
+        <v>699</v>
       </c>
     </row>
     <row r="145" spans="1:2">
       <c r="A145" s="2">
-        <v>45982.48958333334</v>
+        <v>45985.48958333334</v>
       </c>
       <c r="B145">
-        <v>0</v>
+        <v>696</v>
       </c>
     </row>
     <row r="146" spans="1:2">
       <c r="A146" s="2">
-        <v>45982.5</v>
+        <v>45985.5</v>
       </c>
       <c r="B146">
-        <v>0</v>
+        <v>683</v>
       </c>
     </row>
     <row r="147" spans="1:2">
       <c r="A147" s="2">
-        <v>45982.51041666666</v>
+        <v>45985.51041666666</v>
       </c>
       <c r="B147">
-        <v>0</v>
+        <v>682</v>
       </c>
     </row>
     <row r="148" spans="1:2">
       <c r="A148" s="2">
-        <v>45982.52083333334</v>
+        <v>45985.52083333334</v>
       </c>
       <c r="B148">
-        <v>0</v>
+        <v>684</v>
       </c>
     </row>
     <row r="149" spans="1:2">
       <c r="A149" s="2">
-        <v>45982.53125</v>
+        <v>45985.53125</v>
       </c>
       <c r="B149">
         <v>0</v>
@@ -1581,7 +1581,7 @@
     </row>
     <row r="150" spans="1:2">
       <c r="A150" s="2">
-        <v>45982.54166666666</v>
+        <v>45985.54166666666</v>
       </c>
       <c r="B150">
         <v>0</v>
@@ -1589,7 +1589,7 @@
     </row>
     <row r="151" spans="1:2">
       <c r="A151" s="2">
-        <v>45982.55208333334</v>
+        <v>45985.55208333334</v>
       </c>
       <c r="B151">
         <v>0</v>
@@ -1597,7 +1597,7 @@
     </row>
     <row r="152" spans="1:2">
       <c r="A152" s="2">
-        <v>45982.5625</v>
+        <v>45985.5625</v>
       </c>
       <c r="B152">
         <v>0</v>
@@ -1605,7 +1605,7 @@
     </row>
     <row r="153" spans="1:2">
       <c r="A153" s="2">
-        <v>45982.57291666666</v>
+        <v>45985.57291666666</v>
       </c>
       <c r="B153">
         <v>0</v>
@@ -1613,7 +1613,7 @@
     </row>
     <row r="154" spans="1:2">
       <c r="A154" s="2">
-        <v>45982.58333333334</v>
+        <v>45985.58333333334</v>
       </c>
       <c r="B154">
         <v>0</v>
@@ -1621,7 +1621,7 @@
     </row>
     <row r="155" spans="1:2">
       <c r="A155" s="2">
-        <v>45982.59375</v>
+        <v>45985.59375</v>
       </c>
       <c r="B155">
         <v>0</v>
@@ -1629,7 +1629,7 @@
     </row>
     <row r="156" spans="1:2">
       <c r="A156" s="2">
-        <v>45982.60416666666</v>
+        <v>45985.60416666666</v>
       </c>
       <c r="B156">
         <v>0</v>
@@ -1637,7 +1637,7 @@
     </row>
     <row r="157" spans="1:2">
       <c r="A157" s="2">
-        <v>45982.61458333334</v>
+        <v>45985.61458333334</v>
       </c>
       <c r="B157">
         <v>0</v>
@@ -1645,7 +1645,7 @@
     </row>
     <row r="158" spans="1:2">
       <c r="A158" s="2">
-        <v>45982.625</v>
+        <v>45985.625</v>
       </c>
       <c r="B158">
         <v>0</v>
@@ -1653,7 +1653,7 @@
     </row>
     <row r="159" spans="1:2">
       <c r="A159" s="2">
-        <v>45982.63541666666</v>
+        <v>45985.63541666666</v>
       </c>
       <c r="B159">
         <v>0</v>
@@ -1661,7 +1661,7 @@
     </row>
     <row r="160" spans="1:2">
       <c r="A160" s="2">
-        <v>45982.64583333334</v>
+        <v>45985.64583333334</v>
       </c>
       <c r="B160">
         <v>0</v>
@@ -1669,7 +1669,7 @@
     </row>
     <row r="161" spans="1:2">
       <c r="A161" s="2">
-        <v>45982.65625</v>
+        <v>45985.65625</v>
       </c>
       <c r="B161">
         <v>0</v>
@@ -1677,7 +1677,7 @@
     </row>
     <row r="162" spans="1:2">
       <c r="A162" s="2">
-        <v>45982.66666666666</v>
+        <v>45985.66666666666</v>
       </c>
       <c r="B162">
         <v>0</v>
@@ -1685,7 +1685,7 @@
     </row>
     <row r="163" spans="1:2">
       <c r="A163" s="2">
-        <v>45982.67708333334</v>
+        <v>45985.67708333334</v>
       </c>
       <c r="B163">
         <v>0</v>
@@ -1693,7 +1693,7 @@
     </row>
     <row r="164" spans="1:2">
       <c r="A164" s="2">
-        <v>45982.6875</v>
+        <v>45985.6875</v>
       </c>
       <c r="B164">
         <v>0</v>
@@ -1701,7 +1701,7 @@
     </row>
     <row r="165" spans="1:2">
       <c r="A165" s="2">
-        <v>45982.69791666666</v>
+        <v>45985.69791666666</v>
       </c>
       <c r="B165">
         <v>0</v>
@@ -1709,7 +1709,7 @@
     </row>
     <row r="166" spans="1:2">
       <c r="A166" s="2">
-        <v>45982.70833333334</v>
+        <v>45985.70833333334</v>
       </c>
       <c r="B166">
         <v>0</v>
@@ -1717,7 +1717,7 @@
     </row>
     <row r="167" spans="1:2">
       <c r="A167" s="2">
-        <v>45982.71875</v>
+        <v>45985.71875</v>
       </c>
       <c r="B167">
         <v>0</v>
@@ -1725,7 +1725,7 @@
     </row>
     <row r="168" spans="1:2">
       <c r="A168" s="2">
-        <v>45982.72916666666</v>
+        <v>45985.72916666666</v>
       </c>
       <c r="B168">
         <v>0</v>
@@ -1733,7 +1733,7 @@
     </row>
     <row r="169" spans="1:2">
       <c r="A169" s="2">
-        <v>45982.73958333334</v>
+        <v>45985.73958333334</v>
       </c>
       <c r="B169">
         <v>0</v>
@@ -1741,7 +1741,7 @@
     </row>
     <row r="170" spans="1:2">
       <c r="A170" s="2">
-        <v>45982.75</v>
+        <v>45985.75</v>
       </c>
       <c r="B170">
         <v>0</v>
@@ -1749,7 +1749,7 @@
     </row>
     <row r="171" spans="1:2">
       <c r="A171" s="2">
-        <v>45982.76041666666</v>
+        <v>45985.76041666666</v>
       </c>
       <c r="B171">
         <v>0</v>
@@ -1757,7 +1757,7 @@
     </row>
     <row r="172" spans="1:2">
       <c r="A172" s="2">
-        <v>45982.77083333334</v>
+        <v>45985.77083333334</v>
       </c>
       <c r="B172">
         <v>0</v>
@@ -1765,7 +1765,7 @@
     </row>
     <row r="173" spans="1:2">
       <c r="A173" s="2">
-        <v>45982.78125</v>
+        <v>45985.78125</v>
       </c>
       <c r="B173">
         <v>0</v>
@@ -1773,7 +1773,7 @@
     </row>
     <row r="174" spans="1:2">
       <c r="A174" s="2">
-        <v>45982.79166666666</v>
+        <v>45985.79166666666</v>
       </c>
       <c r="B174">
         <v>0</v>
@@ -1781,7 +1781,7 @@
     </row>
     <row r="175" spans="1:2">
       <c r="A175" s="2">
-        <v>45982.80208333334</v>
+        <v>45985.80208333334</v>
       </c>
       <c r="B175">
         <v>0</v>
@@ -1789,7 +1789,7 @@
     </row>
     <row r="176" spans="1:2">
       <c r="A176" s="2">
-        <v>45982.8125</v>
+        <v>45985.8125</v>
       </c>
       <c r="B176">
         <v>0</v>
@@ -1797,7 +1797,7 @@
     </row>
     <row r="177" spans="1:2">
       <c r="A177" s="2">
-        <v>45982.82291666666</v>
+        <v>45985.82291666666</v>
       </c>
       <c r="B177">
         <v>0</v>
@@ -1805,7 +1805,7 @@
     </row>
     <row r="178" spans="1:2">
       <c r="A178" s="2">
-        <v>45982.83333333334</v>
+        <v>45985.83333333334</v>
       </c>
       <c r="B178">
         <v>0</v>
@@ -1813,7 +1813,7 @@
     </row>
     <row r="179" spans="1:2">
       <c r="A179" s="2">
-        <v>45982.84375</v>
+        <v>45985.84375</v>
       </c>
       <c r="B179">
         <v>0</v>
@@ -1821,7 +1821,7 @@
     </row>
     <row r="180" spans="1:2">
       <c r="A180" s="2">
-        <v>45982.85416666666</v>
+        <v>45985.85416666666</v>
       </c>
       <c r="B180">
         <v>0</v>
@@ -1829,7 +1829,7 @@
     </row>
     <row r="181" spans="1:2">
       <c r="A181" s="2">
-        <v>45982.86458333334</v>
+        <v>45985.86458333334</v>
       </c>
       <c r="B181">
         <v>0</v>
@@ -1837,7 +1837,7 @@
     </row>
     <row r="182" spans="1:2">
       <c r="A182" s="2">
-        <v>45982.875</v>
+        <v>45985.875</v>
       </c>
       <c r="B182">
         <v>0</v>
@@ -1845,7 +1845,7 @@
     </row>
     <row r="183" spans="1:2">
       <c r="A183" s="2">
-        <v>45982.88541666666</v>
+        <v>45985.88541666666</v>
       </c>
       <c r="B183">
         <v>0</v>
@@ -1853,7 +1853,7 @@
     </row>
     <row r="184" spans="1:2">
       <c r="A184" s="2">
-        <v>45982.89583333334</v>
+        <v>45985.89583333334</v>
       </c>
       <c r="B184">
         <v>0</v>
@@ -1861,7 +1861,7 @@
     </row>
     <row r="185" spans="1:2">
       <c r="A185" s="2">
-        <v>45982.90625</v>
+        <v>45985.90625</v>
       </c>
       <c r="B185">
         <v>0</v>
@@ -1869,7 +1869,7 @@
     </row>
     <row r="186" spans="1:2">
       <c r="A186" s="2">
-        <v>45982.91666666666</v>
+        <v>45985.91666666666</v>
       </c>
       <c r="B186">
         <v>0</v>
@@ -1877,7 +1877,7 @@
     </row>
     <row r="187" spans="1:2">
       <c r="A187" s="2">
-        <v>45982.92708333334</v>
+        <v>45985.92708333334</v>
       </c>
       <c r="B187">
         <v>0</v>
@@ -1885,7 +1885,7 @@
     </row>
     <row r="188" spans="1:2">
       <c r="A188" s="2">
-        <v>45982.9375</v>
+        <v>45985.9375</v>
       </c>
       <c r="B188">
         <v>0</v>
@@ -1893,7 +1893,7 @@
     </row>
     <row r="189" spans="1:2">
       <c r="A189" s="2">
-        <v>45982.94791666666</v>
+        <v>45985.94791666666</v>
       </c>
       <c r="B189">
         <v>0</v>
@@ -1901,7 +1901,7 @@
     </row>
     <row r="190" spans="1:2">
       <c r="A190" s="2">
-        <v>45982.95833333334</v>
+        <v>45985.95833333334</v>
       </c>
       <c r="B190">
         <v>0</v>
@@ -1909,7 +1909,7 @@
     </row>
     <row r="191" spans="1:2">
       <c r="A191" s="2">
-        <v>45982.96875</v>
+        <v>45985.96875</v>
       </c>
       <c r="B191">
         <v>0</v>
@@ -1917,7 +1917,7 @@
     </row>
     <row r="192" spans="1:2">
       <c r="A192" s="2">
-        <v>45982.97916666666</v>
+        <v>45985.97916666666</v>
       </c>
       <c r="B192">
         <v>0</v>
@@ -1925,7 +1925,7 @@
     </row>
     <row r="193" spans="1:2">
       <c r="A193" s="2">
-        <v>45982.98958333334</v>
+        <v>45985.98958333334</v>
       </c>
       <c r="B193">
         <v>0</v>

--- a/data_fetching/Entsoe/Actual_Production_Hydro_Water_Reservoir.xlsx
+++ b/data_fetching/Entsoe/Actual_Production_Hydro_Water_Reservoir.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B193"/>
+  <dimension ref="A1:B865"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -397,79 +397,79 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2">
-        <v>45984</v>
+        <v>45985</v>
       </c>
       <c r="B2">
-        <v>454</v>
+        <v>462</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2">
-        <v>45984.01041666666</v>
+        <v>45985.01041666666</v>
       </c>
       <c r="B3">
-        <v>449</v>
+        <v>475</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2">
-        <v>45984.02083333334</v>
+        <v>45985.02083333334</v>
       </c>
       <c r="B4">
-        <v>455</v>
+        <v>476</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2">
-        <v>45984.03125</v>
+        <v>45985.03125</v>
       </c>
       <c r="B5">
-        <v>451</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2">
-        <v>45984.04166666666</v>
+        <v>45985.04166666666</v>
       </c>
       <c r="B6">
-        <v>447</v>
+        <v>477</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2">
-        <v>45984.05208333334</v>
+        <v>45985.05208333334</v>
       </c>
       <c r="B7">
-        <v>445</v>
+        <v>473</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2">
-        <v>45984.0625</v>
+        <v>45985.0625</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>472</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2">
-        <v>45984.07291666666</v>
+        <v>45985.07291666666</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>473</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2">
-        <v>45984.08333333334</v>
+        <v>45985.08333333334</v>
       </c>
       <c r="B10">
-        <v>450</v>
+        <v>468</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2">
-        <v>45984.09375</v>
+        <v>45985.09375</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -477,359 +477,359 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2">
-        <v>45984.10416666666</v>
+        <v>45985.10416666666</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>470</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2">
-        <v>45984.11458333334</v>
+        <v>45985.11458333334</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>468</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2">
-        <v>45984.125</v>
+        <v>45985.125</v>
       </c>
       <c r="B14">
-        <v>465</v>
+        <v>471</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2">
-        <v>45984.13541666666</v>
+        <v>45985.13541666666</v>
       </c>
       <c r="B15">
-        <v>464</v>
+        <v>470</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2">
-        <v>45984.14583333334</v>
+        <v>45985.14583333334</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>472</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2">
-        <v>45984.15625</v>
+        <v>45985.15625</v>
       </c>
       <c r="B17">
-        <v>466</v>
+        <v>478</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2">
-        <v>45984.16666666666</v>
+        <v>45985.16666666666</v>
       </c>
       <c r="B18">
-        <v>473</v>
+        <v>533</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2">
-        <v>45984.17708333334</v>
+        <v>45985.17708333334</v>
       </c>
       <c r="B19">
-        <v>472</v>
+        <v>532</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2">
-        <v>45984.1875</v>
+        <v>45985.1875</v>
       </c>
       <c r="B20">
-        <v>473</v>
+        <v>530</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2">
-        <v>45984.19791666666</v>
+        <v>45985.19791666666</v>
       </c>
       <c r="B21">
-        <v>475</v>
+        <v>536</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2">
-        <v>45984.20833333334</v>
+        <v>45985.20833333334</v>
       </c>
       <c r="B22">
-        <v>507</v>
+        <v>548</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2">
-        <v>45984.21875</v>
+        <v>45985.21875</v>
       </c>
       <c r="B23">
-        <v>508</v>
+        <v>545</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2">
-        <v>45984.22916666666</v>
+        <v>45985.22916666666</v>
       </c>
       <c r="B24">
-        <v>509</v>
+        <v>548</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2">
-        <v>45984.23958333334</v>
+        <v>45985.23958333334</v>
       </c>
       <c r="B25">
-        <v>535</v>
+        <v>572</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2">
-        <v>45984.25</v>
+        <v>45985.25</v>
       </c>
       <c r="B26">
-        <v>591</v>
+        <v>950</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2">
-        <v>45984.26041666666</v>
+        <v>45985.26041666666</v>
       </c>
       <c r="B27">
-        <v>573</v>
+        <v>992</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2">
-        <v>45984.27083333334</v>
+        <v>45985.27083333334</v>
       </c>
       <c r="B28">
-        <v>562</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2">
-        <v>45984.28125</v>
+        <v>45985.28125</v>
       </c>
       <c r="B29">
-        <v>560</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2">
-        <v>45984.29166666666</v>
+        <v>45985.29166666666</v>
       </c>
       <c r="B30">
-        <v>603</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2">
-        <v>45984.30208333334</v>
+        <v>45985.30208333334</v>
       </c>
       <c r="B31">
-        <v>610</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2">
-        <v>45984.3125</v>
+        <v>45985.3125</v>
       </c>
       <c r="B32">
-        <v>626</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2">
-        <v>45984.32291666666</v>
+        <v>45985.32291666666</v>
       </c>
       <c r="B33">
-        <v>629</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2">
-        <v>45984.33333333334</v>
+        <v>45985.33333333334</v>
       </c>
       <c r="B34">
-        <v>634</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="2">
-        <v>45984.34375</v>
+        <v>45985.34375</v>
       </c>
       <c r="B35">
-        <v>639</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="2">
-        <v>45984.35416666666</v>
+        <v>45985.35416666666</v>
       </c>
       <c r="B36">
-        <v>640</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="2">
-        <v>45984.36458333334</v>
+        <v>45985.36458333334</v>
       </c>
       <c r="B37">
-        <v>639</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="2">
-        <v>45984.375</v>
+        <v>45985.375</v>
       </c>
       <c r="B38">
-        <v>611</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="2">
-        <v>45984.38541666666</v>
+        <v>45985.38541666666</v>
       </c>
       <c r="B39">
-        <v>606</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="2">
-        <v>45984.39583333334</v>
+        <v>45985.39583333334</v>
       </c>
       <c r="B40">
-        <v>607</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="2">
-        <v>45984.40625</v>
+        <v>45985.40625</v>
       </c>
       <c r="B41">
-        <v>606</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="2">
-        <v>45984.41666666666</v>
+        <v>45985.41666666666</v>
       </c>
       <c r="B42">
-        <v>628</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="2">
-        <v>45984.42708333334</v>
+        <v>45985.42708333334</v>
       </c>
       <c r="B43">
-        <v>789</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="2">
-        <v>45984.4375</v>
+        <v>45985.4375</v>
       </c>
       <c r="B44">
-        <v>798</v>
+        <v>979</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="2">
-        <v>45984.44791666666</v>
+        <v>45985.44791666666</v>
       </c>
       <c r="B45">
-        <v>789</v>
+        <v>983</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="2">
-        <v>45984.45833333334</v>
+        <v>45985.45833333334</v>
       </c>
       <c r="B46">
-        <v>556</v>
+        <v>703</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="2">
-        <v>45984.46875</v>
+        <v>45985.46875</v>
       </c>
       <c r="B47">
-        <v>552</v>
+        <v>698</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="2">
-        <v>45984.47916666666</v>
+        <v>45985.47916666666</v>
       </c>
       <c r="B48">
-        <v>553</v>
+        <v>699</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="2">
-        <v>45984.48958333334</v>
+        <v>45985.48958333334</v>
       </c>
       <c r="B49">
-        <v>550</v>
+        <v>696</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="2">
-        <v>45984.5</v>
+        <v>45985.5</v>
       </c>
       <c r="B50">
-        <v>671</v>
+        <v>683</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="2">
-        <v>45984.51041666666</v>
+        <v>45985.51041666666</v>
       </c>
       <c r="B51">
-        <v>736</v>
+        <v>682</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="2">
-        <v>45984.52083333334</v>
+        <v>45985.52083333334</v>
       </c>
       <c r="B52">
-        <v>741</v>
+        <v>684</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="2">
-        <v>45984.53125</v>
+        <v>45985.53125</v>
       </c>
       <c r="B53">
-        <v>746</v>
+        <v>698</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="2">
-        <v>45984.54166666666</v>
+        <v>45985.54166666666</v>
       </c>
       <c r="B54">
-        <v>716</v>
+        <v>897</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="2">
-        <v>45984.55208333334</v>
+        <v>45985.55208333334</v>
       </c>
       <c r="B55">
-        <v>724</v>
+        <v>899</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="2">
-        <v>45984.5625</v>
+        <v>45985.5625</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -837,919 +837,919 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="2">
-        <v>45984.57291666666</v>
+        <v>45985.57291666666</v>
       </c>
       <c r="B57">
-        <v>723</v>
+        <v>907</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="2">
-        <v>45984.58333333334</v>
+        <v>45985.58333333334</v>
       </c>
       <c r="B58">
-        <v>726</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="2">
-        <v>45984.59375</v>
+        <v>45985.59375</v>
       </c>
       <c r="B59">
-        <v>640</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="2">
-        <v>45984.60416666666</v>
+        <v>45985.60416666666</v>
       </c>
       <c r="B60">
-        <v>632</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="2">
-        <v>45984.61458333334</v>
+        <v>45985.61458333334</v>
       </c>
       <c r="B61">
-        <v>637</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="2">
-        <v>45984.625</v>
+        <v>45985.625</v>
       </c>
       <c r="B62">
-        <v>730</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="2">
-        <v>45984.63541666666</v>
+        <v>45985.63541666666</v>
       </c>
       <c r="B63">
-        <v>732</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="2">
-        <v>45984.64583333334</v>
+        <v>45985.64583333334</v>
       </c>
       <c r="B64">
-        <v>734</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="2">
-        <v>45984.65625</v>
+        <v>45985.65625</v>
       </c>
       <c r="B65">
-        <v>736</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="2">
-        <v>45984.66666666666</v>
+        <v>45985.66666666666</v>
       </c>
       <c r="B66">
-        <v>784</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="2">
-        <v>45984.67708333334</v>
+        <v>45985.67708333334</v>
       </c>
       <c r="B67">
-        <v>789</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="2">
-        <v>45984.6875</v>
+        <v>45985.6875</v>
       </c>
       <c r="B68">
-        <v>793</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="2">
-        <v>45984.69791666666</v>
+        <v>45985.69791666666</v>
       </c>
       <c r="B69">
-        <v>825</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="2">
-        <v>45984.70833333334</v>
+        <v>45985.70833333334</v>
       </c>
       <c r="B70">
-        <v>1063</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="2">
-        <v>45984.71875</v>
+        <v>45985.71875</v>
       </c>
       <c r="B71">
-        <v>1064</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="2">
-        <v>45984.72916666666</v>
+        <v>45985.72916666666</v>
       </c>
       <c r="B72">
-        <v>1070</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="2">
-        <v>45984.73958333334</v>
+        <v>45985.73958333334</v>
       </c>
       <c r="B73">
-        <v>1150</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="2">
-        <v>45984.75</v>
+        <v>45985.75</v>
       </c>
       <c r="B74">
-        <v>1180</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="2">
-        <v>45984.76041666666</v>
+        <v>45985.76041666666</v>
       </c>
       <c r="B75">
-        <v>1155</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="2">
-        <v>45984.77083333334</v>
+        <v>45985.77083333334</v>
       </c>
       <c r="B76">
-        <v>1111</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="2">
-        <v>45984.78125</v>
+        <v>45985.78125</v>
       </c>
       <c r="B77">
-        <v>1110</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="2">
-        <v>45984.79166666666</v>
+        <v>45985.79166666666</v>
       </c>
       <c r="B78">
-        <v>1057</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="2">
-        <v>45984.80208333334</v>
+        <v>45985.80208333334</v>
       </c>
       <c r="B79">
-        <v>1025</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="2">
-        <v>45984.8125</v>
+        <v>45985.8125</v>
       </c>
       <c r="B80">
-        <v>1022</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="2">
-        <v>45984.82291666666</v>
+        <v>45985.82291666666</v>
       </c>
       <c r="B81">
-        <v>1024</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="2">
-        <v>45984.83333333334</v>
+        <v>45985.83333333334</v>
       </c>
       <c r="B82">
-        <v>930</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="2">
-        <v>45984.84375</v>
+        <v>45985.84375</v>
       </c>
       <c r="B83">
-        <v>846</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="2">
-        <v>45984.85416666666</v>
+        <v>45985.85416666666</v>
       </c>
       <c r="B84">
-        <v>868</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="2">
-        <v>45984.86458333334</v>
+        <v>45985.86458333334</v>
       </c>
       <c r="B85">
-        <v>977</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="2">
-        <v>45984.875</v>
+        <v>45985.875</v>
       </c>
       <c r="B86">
-        <v>923</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="2">
-        <v>45984.88541666666</v>
+        <v>45985.88541666666</v>
       </c>
       <c r="B87">
-        <v>913</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="2">
-        <v>45984.89583333334</v>
+        <v>45985.89583333334</v>
       </c>
       <c r="B88">
-        <v>938</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="2">
-        <v>45984.90625</v>
+        <v>45985.90625</v>
       </c>
       <c r="B89">
-        <v>929</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="2">
-        <v>45984.91666666666</v>
+        <v>45985.91666666666</v>
       </c>
       <c r="B90">
-        <v>573</v>
+        <v>728</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="2">
-        <v>45984.92708333334</v>
+        <v>45985.92708333334</v>
       </c>
       <c r="B91">
-        <v>563</v>
+        <v>704</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="2">
-        <v>45984.9375</v>
+        <v>45985.9375</v>
       </c>
       <c r="B92">
-        <v>564</v>
+        <v>705</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="2">
-        <v>45984.94791666666</v>
+        <v>45985.94791666666</v>
       </c>
       <c r="B93">
-        <v>558</v>
+        <v>709</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="2">
-        <v>45984.95833333334</v>
+        <v>45985.95833333334</v>
       </c>
       <c r="B94">
-        <v>478</v>
+        <v>686</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="2">
-        <v>45984.96875</v>
+        <v>45985.96875</v>
       </c>
       <c r="B95">
-        <v>474</v>
+        <v>717</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="2">
-        <v>45984.97916666666</v>
+        <v>45985.97916666666</v>
       </c>
       <c r="B96">
-        <v>477</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="2">
-        <v>45984.98958333334</v>
+        <v>45985.98958333334</v>
       </c>
       <c r="B97">
-        <v>476</v>
+        <v>713</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" s="2">
-        <v>45985</v>
+        <v>45986</v>
       </c>
       <c r="B98">
-        <v>462</v>
+        <v>527</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" s="2">
-        <v>45985.01041666666</v>
+        <v>45986.01041666666</v>
       </c>
       <c r="B99">
-        <v>475</v>
+        <v>513</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" s="2">
-        <v>45985.02083333334</v>
+        <v>45986.02083333334</v>
       </c>
       <c r="B100">
-        <v>476</v>
+        <v>515</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" s="2">
-        <v>45985.03125</v>
+        <v>45986.03125</v>
       </c>
       <c r="B101">
-        <v>0</v>
+        <v>508</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" s="2">
-        <v>45985.04166666666</v>
+        <v>45986.04166666666</v>
       </c>
       <c r="B102">
-        <v>477</v>
+        <v>512</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" s="2">
-        <v>45985.05208333334</v>
+        <v>45986.05208333334</v>
       </c>
       <c r="B103">
-        <v>473</v>
+        <v>514</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" s="2">
-        <v>45985.0625</v>
+        <v>45986.0625</v>
       </c>
       <c r="B104">
-        <v>472</v>
+        <v>516</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" s="2">
-        <v>45985.07291666666</v>
+        <v>45986.07291666666</v>
       </c>
       <c r="B105">
-        <v>473</v>
+        <v>514</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" s="2">
-        <v>45985.08333333334</v>
+        <v>45986.08333333334</v>
       </c>
       <c r="B106">
-        <v>468</v>
+        <v>493</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" s="2">
-        <v>45985.09375</v>
+        <v>45986.09375</v>
       </c>
       <c r="B107">
-        <v>0</v>
+        <v>485</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" s="2">
-        <v>45985.10416666666</v>
+        <v>45986.10416666666</v>
       </c>
       <c r="B108">
-        <v>470</v>
+        <v>486</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" s="2">
-        <v>45985.11458333334</v>
+        <v>45986.11458333334</v>
       </c>
       <c r="B109">
-        <v>468</v>
+        <v>484</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" s="2">
-        <v>45985.125</v>
+        <v>45986.125</v>
       </c>
       <c r="B110">
-        <v>471</v>
+        <v>486</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" s="2">
-        <v>45985.13541666666</v>
+        <v>45986.13541666666</v>
       </c>
       <c r="B111">
-        <v>470</v>
+        <v>487</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112" s="2">
-        <v>45985.14583333334</v>
+        <v>45986.14583333334</v>
       </c>
       <c r="B112">
-        <v>472</v>
+        <v>485</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" s="2">
-        <v>45985.15625</v>
+        <v>45986.15625</v>
       </c>
       <c r="B113">
-        <v>478</v>
+        <v>489</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" s="2">
-        <v>45985.16666666666</v>
+        <v>45986.16666666666</v>
       </c>
       <c r="B114">
-        <v>533</v>
+        <v>554</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" s="2">
-        <v>45985.17708333334</v>
+        <v>45986.17708333334</v>
       </c>
       <c r="B115">
-        <v>532</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" s="2">
-        <v>45985.1875</v>
+        <v>45986.1875</v>
       </c>
       <c r="B116">
-        <v>530</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117" s="2">
-        <v>45985.19791666666</v>
+        <v>45986.19791666666</v>
       </c>
       <c r="B117">
-        <v>536</v>
+        <v>547</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" s="2">
-        <v>45985.20833333334</v>
+        <v>45986.20833333334</v>
       </c>
       <c r="B118">
-        <v>548</v>
+        <v>646</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" s="2">
-        <v>45985.21875</v>
+        <v>45986.21875</v>
       </c>
       <c r="B119">
-        <v>545</v>
+        <v>648</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" s="2">
-        <v>45985.22916666666</v>
+        <v>45986.22916666666</v>
       </c>
       <c r="B120">
-        <v>548</v>
+        <v>647</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" s="2">
-        <v>45985.23958333334</v>
+        <v>45986.23958333334</v>
       </c>
       <c r="B121">
-        <v>572</v>
+        <v>661</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" s="2">
-        <v>45985.25</v>
+        <v>45986.25</v>
       </c>
       <c r="B122">
-        <v>950</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123" s="2">
-        <v>45985.26041666666</v>
+        <v>45986.26041666666</v>
       </c>
       <c r="B123">
-        <v>992</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" s="2">
-        <v>45985.27083333334</v>
+        <v>45986.27083333334</v>
       </c>
       <c r="B124">
-        <v>1004</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" s="2">
-        <v>45985.28125</v>
+        <v>45986.28125</v>
       </c>
       <c r="B125">
-        <v>0</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" s="2">
-        <v>45985.29166666666</v>
+        <v>45986.29166666666</v>
       </c>
       <c r="B126">
-        <v>1040</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127" s="2">
-        <v>45985.30208333334</v>
+        <v>45986.30208333334</v>
       </c>
       <c r="B127">
-        <v>1041</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128" s="2">
-        <v>45985.3125</v>
+        <v>45986.3125</v>
       </c>
       <c r="B128">
-        <v>1043</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" s="2">
-        <v>45985.32291666666</v>
+        <v>45986.32291666666</v>
       </c>
       <c r="B129">
-        <v>1052</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" s="2">
-        <v>45985.33333333334</v>
+        <v>45986.33333333334</v>
       </c>
       <c r="B130">
-        <v>1102</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" s="2">
-        <v>45985.34375</v>
+        <v>45986.34375</v>
       </c>
       <c r="B131">
-        <v>1113</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132" s="2">
-        <v>45985.35416666666</v>
+        <v>45986.35416666666</v>
       </c>
       <c r="B132">
-        <v>1103</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" s="2">
-        <v>45985.36458333334</v>
+        <v>45986.36458333334</v>
       </c>
       <c r="B133">
-        <v>1199</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134" s="2">
-        <v>45985.375</v>
+        <v>45986.375</v>
       </c>
       <c r="B134">
-        <v>1034</v>
+        <v>885</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135" s="2">
-        <v>45985.38541666666</v>
+        <v>45986.38541666666</v>
       </c>
       <c r="B135">
-        <v>1100</v>
+        <v>871</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136" s="2">
-        <v>45985.39583333334</v>
+        <v>45986.39583333334</v>
       </c>
       <c r="B136">
-        <v>1163</v>
+        <v>872</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137" s="2">
-        <v>45985.40625</v>
+        <v>45986.40625</v>
       </c>
       <c r="B137">
-        <v>1168</v>
+        <v>878</v>
       </c>
     </row>
     <row r="138" spans="1:2">
       <c r="A138" s="2">
-        <v>45985.41666666666</v>
+        <v>45986.41666666666</v>
       </c>
       <c r="B138">
-        <v>1134</v>
+        <v>659</v>
       </c>
     </row>
     <row r="139" spans="1:2">
       <c r="A139" s="2">
-        <v>45985.42708333334</v>
+        <v>45986.42708333334</v>
       </c>
       <c r="B139">
-        <v>1120</v>
+        <v>652</v>
       </c>
     </row>
     <row r="140" spans="1:2">
       <c r="A140" s="2">
-        <v>45985.4375</v>
+        <v>45986.4375</v>
       </c>
       <c r="B140">
-        <v>979</v>
+        <v>643</v>
       </c>
     </row>
     <row r="141" spans="1:2">
       <c r="A141" s="2">
-        <v>45985.44791666666</v>
+        <v>45986.44791666666</v>
       </c>
       <c r="B141">
-        <v>983</v>
+        <v>644</v>
       </c>
     </row>
     <row r="142" spans="1:2">
       <c r="A142" s="2">
-        <v>45985.45833333334</v>
+        <v>45986.45833333334</v>
       </c>
       <c r="B142">
-        <v>703</v>
+        <v>584</v>
       </c>
     </row>
     <row r="143" spans="1:2">
       <c r="A143" s="2">
-        <v>45985.46875</v>
+        <v>45986.46875</v>
       </c>
       <c r="B143">
-        <v>698</v>
+        <v>573</v>
       </c>
     </row>
     <row r="144" spans="1:2">
       <c r="A144" s="2">
-        <v>45985.47916666666</v>
+        <v>45986.47916666666</v>
       </c>
       <c r="B144">
-        <v>699</v>
+        <v>574</v>
       </c>
     </row>
     <row r="145" spans="1:2">
       <c r="A145" s="2">
-        <v>45985.48958333334</v>
+        <v>45986.48958333334</v>
       </c>
       <c r="B145">
-        <v>696</v>
+        <v>572</v>
       </c>
     </row>
     <row r="146" spans="1:2">
       <c r="A146" s="2">
-        <v>45985.5</v>
+        <v>45986.5</v>
       </c>
       <c r="B146">
-        <v>683</v>
+        <v>596</v>
       </c>
     </row>
     <row r="147" spans="1:2">
       <c r="A147" s="2">
-        <v>45985.51041666666</v>
+        <v>45986.51041666666</v>
       </c>
       <c r="B147">
-        <v>682</v>
+        <v>605</v>
       </c>
     </row>
     <row r="148" spans="1:2">
       <c r="A148" s="2">
-        <v>45985.52083333334</v>
+        <v>45986.52083333334</v>
       </c>
       <c r="B148">
-        <v>684</v>
+        <v>664</v>
       </c>
     </row>
     <row r="149" spans="1:2">
       <c r="A149" s="2">
-        <v>45985.53125</v>
+        <v>45986.53125</v>
       </c>
       <c r="B149">
-        <v>0</v>
+        <v>669</v>
       </c>
     </row>
     <row r="150" spans="1:2">
       <c r="A150" s="2">
-        <v>45985.54166666666</v>
+        <v>45986.54166666666</v>
       </c>
       <c r="B150">
-        <v>0</v>
+        <v>804</v>
       </c>
     </row>
     <row r="151" spans="1:2">
       <c r="A151" s="2">
-        <v>45985.55208333334</v>
+        <v>45986.55208333334</v>
       </c>
       <c r="B151">
-        <v>0</v>
+        <v>828</v>
       </c>
     </row>
     <row r="152" spans="1:2">
       <c r="A152" s="2">
-        <v>45985.5625</v>
+        <v>45986.5625</v>
       </c>
       <c r="B152">
-        <v>0</v>
+        <v>836</v>
       </c>
     </row>
     <row r="153" spans="1:2">
       <c r="A153" s="2">
-        <v>45985.57291666666</v>
+        <v>45986.57291666666</v>
       </c>
       <c r="B153">
-        <v>0</v>
+        <v>850</v>
       </c>
     </row>
     <row r="154" spans="1:2">
       <c r="A154" s="2">
-        <v>45985.58333333334</v>
+        <v>45986.58333333334</v>
       </c>
       <c r="B154">
-        <v>0</v>
+        <v>966</v>
       </c>
     </row>
     <row r="155" spans="1:2">
       <c r="A155" s="2">
-        <v>45985.59375</v>
+        <v>45986.59375</v>
       </c>
       <c r="B155">
-        <v>0</v>
+        <v>982</v>
       </c>
     </row>
     <row r="156" spans="1:2">
       <c r="A156" s="2">
-        <v>45985.60416666666</v>
+        <v>45986.60416666666</v>
       </c>
       <c r="B156">
-        <v>0</v>
+        <v>994</v>
       </c>
     </row>
     <row r="157" spans="1:2">
       <c r="A157" s="2">
-        <v>45985.61458333334</v>
+        <v>45986.61458333334</v>
       </c>
       <c r="B157">
-        <v>0</v>
+        <v>998</v>
       </c>
     </row>
     <row r="158" spans="1:2">
       <c r="A158" s="2">
-        <v>45985.625</v>
+        <v>45986.625</v>
       </c>
       <c r="B158">
-        <v>0</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="159" spans="1:2">
       <c r="A159" s="2">
-        <v>45985.63541666666</v>
+        <v>45986.63541666666</v>
       </c>
       <c r="B159">
-        <v>0</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="160" spans="1:2">
       <c r="A160" s="2">
-        <v>45985.64583333334</v>
+        <v>45986.64583333334</v>
       </c>
       <c r="B160">
-        <v>0</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="161" spans="1:2">
       <c r="A161" s="2">
-        <v>45985.65625</v>
+        <v>45986.65625</v>
       </c>
       <c r="B161">
-        <v>0</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="162" spans="1:2">
       <c r="A162" s="2">
-        <v>45985.66666666666</v>
+        <v>45986.66666666666</v>
       </c>
       <c r="B162">
-        <v>0</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="163" spans="1:2">
       <c r="A163" s="2">
-        <v>45985.67708333334</v>
+        <v>45986.67708333334</v>
       </c>
       <c r="B163">
-        <v>0</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="164" spans="1:2">
       <c r="A164" s="2">
-        <v>45985.6875</v>
+        <v>45986.6875</v>
       </c>
       <c r="B164">
-        <v>0</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="165" spans="1:2">
       <c r="A165" s="2">
-        <v>45985.69791666666</v>
+        <v>45986.69791666666</v>
       </c>
       <c r="B165">
-        <v>0</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="166" spans="1:2">
       <c r="A166" s="2">
-        <v>45985.70833333334</v>
+        <v>45986.70833333334</v>
       </c>
       <c r="B166">
-        <v>0</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="167" spans="1:2">
       <c r="A167" s="2">
-        <v>45985.71875</v>
+        <v>45986.71875</v>
       </c>
       <c r="B167">
-        <v>0</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="168" spans="1:2">
       <c r="A168" s="2">
-        <v>45985.72916666666</v>
+        <v>45986.72916666666</v>
       </c>
       <c r="B168">
-        <v>0</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="169" spans="1:2">
       <c r="A169" s="2">
-        <v>45985.73958333334</v>
+        <v>45986.73958333334</v>
       </c>
       <c r="B169">
-        <v>0</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="170" spans="1:2">
       <c r="A170" s="2">
-        <v>45985.75</v>
+        <v>45986.75</v>
       </c>
       <c r="B170">
-        <v>0</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="171" spans="1:2">
       <c r="A171" s="2">
-        <v>45985.76041666666</v>
+        <v>45986.76041666666</v>
       </c>
       <c r="B171">
         <v>0</v>
@@ -1757,47 +1757,47 @@
     </row>
     <row r="172" spans="1:2">
       <c r="A172" s="2">
-        <v>45985.77083333334</v>
+        <v>45986.77083333334</v>
       </c>
       <c r="B172">
-        <v>0</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="173" spans="1:2">
       <c r="A173" s="2">
-        <v>45985.78125</v>
+        <v>45986.78125</v>
       </c>
       <c r="B173">
-        <v>0</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="174" spans="1:2">
       <c r="A174" s="2">
-        <v>45985.79166666666</v>
+        <v>45986.79166666666</v>
       </c>
       <c r="B174">
-        <v>0</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="175" spans="1:2">
       <c r="A175" s="2">
-        <v>45985.80208333334</v>
+        <v>45986.80208333334</v>
       </c>
       <c r="B175">
-        <v>0</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="176" spans="1:2">
       <c r="A176" s="2">
-        <v>45985.8125</v>
+        <v>45986.8125</v>
       </c>
       <c r="B176">
-        <v>0</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="177" spans="1:2">
       <c r="A177" s="2">
-        <v>45985.82291666666</v>
+        <v>45986.82291666666</v>
       </c>
       <c r="B177">
         <v>0</v>
@@ -1805,129 +1805,5505 @@
     </row>
     <row r="178" spans="1:2">
       <c r="A178" s="2">
-        <v>45985.83333333334</v>
+        <v>45986.83333333334</v>
       </c>
       <c r="B178">
-        <v>0</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="179" spans="1:2">
       <c r="A179" s="2">
-        <v>45985.84375</v>
+        <v>45986.84375</v>
       </c>
       <c r="B179">
-        <v>0</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="180" spans="1:2">
       <c r="A180" s="2">
-        <v>45985.85416666666</v>
+        <v>45986.85416666666</v>
       </c>
       <c r="B180">
-        <v>0</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="181" spans="1:2">
       <c r="A181" s="2">
-        <v>45985.86458333334</v>
+        <v>45986.86458333334</v>
       </c>
       <c r="B181">
-        <v>0</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="182" spans="1:2">
       <c r="A182" s="2">
-        <v>45985.875</v>
+        <v>45986.875</v>
       </c>
       <c r="B182">
-        <v>0</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="183" spans="1:2">
       <c r="A183" s="2">
-        <v>45985.88541666666</v>
+        <v>45986.88541666666</v>
       </c>
       <c r="B183">
-        <v>0</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="184" spans="1:2">
       <c r="A184" s="2">
-        <v>45985.89583333334</v>
+        <v>45986.89583333334</v>
       </c>
       <c r="B184">
-        <v>0</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="185" spans="1:2">
       <c r="A185" s="2">
-        <v>45985.90625</v>
+        <v>45986.90625</v>
       </c>
       <c r="B185">
-        <v>0</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="186" spans="1:2">
       <c r="A186" s="2">
-        <v>45985.91666666666</v>
+        <v>45986.91666666666</v>
       </c>
       <c r="B186">
-        <v>0</v>
+        <v>730</v>
       </c>
     </row>
     <row r="187" spans="1:2">
       <c r="A187" s="2">
-        <v>45985.92708333334</v>
+        <v>45986.92708333334</v>
       </c>
       <c r="B187">
-        <v>0</v>
+        <v>713</v>
       </c>
     </row>
     <row r="188" spans="1:2">
       <c r="A188" s="2">
-        <v>45985.9375</v>
+        <v>45986.9375</v>
       </c>
       <c r="B188">
-        <v>0</v>
+        <v>709</v>
       </c>
     </row>
     <row r="189" spans="1:2">
       <c r="A189" s="2">
-        <v>45985.94791666666</v>
+        <v>45986.94791666666</v>
       </c>
       <c r="B189">
-        <v>0</v>
+        <v>713</v>
       </c>
     </row>
     <row r="190" spans="1:2">
       <c r="A190" s="2">
-        <v>45985.95833333334</v>
+        <v>45986.95833333334</v>
       </c>
       <c r="B190">
-        <v>0</v>
+        <v>492</v>
       </c>
     </row>
     <row r="191" spans="1:2">
       <c r="A191" s="2">
-        <v>45985.96875</v>
+        <v>45986.96875</v>
       </c>
       <c r="B191">
-        <v>0</v>
+        <v>468</v>
       </c>
     </row>
     <row r="192" spans="1:2">
       <c r="A192" s="2">
-        <v>45985.97916666666</v>
+        <v>45986.97916666666</v>
       </c>
       <c r="B192">
-        <v>0</v>
+        <v>463</v>
       </c>
     </row>
     <row r="193" spans="1:2">
       <c r="A193" s="2">
-        <v>45985.98958333334</v>
+        <v>45986.98958333334</v>
       </c>
       <c r="B193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2">
+      <c r="A194" s="2">
+        <v>45987</v>
+      </c>
+      <c r="B194">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2">
+      <c r="A195" s="2">
+        <v>45987.01041666666</v>
+      </c>
+      <c r="B195">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2">
+      <c r="A196" s="2">
+        <v>45987.02083333334</v>
+      </c>
+      <c r="B196">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2">
+      <c r="A197" s="2">
+        <v>45987.03125</v>
+      </c>
+      <c r="B197">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2">
+      <c r="A198" s="2">
+        <v>45987.04166666666</v>
+      </c>
+      <c r="B198">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2">
+      <c r="A199" s="2">
+        <v>45987.05208333334</v>
+      </c>
+      <c r="B199">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2">
+      <c r="A200" s="2">
+        <v>45987.0625</v>
+      </c>
+      <c r="B200">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2">
+      <c r="A201" s="2">
+        <v>45987.07291666666</v>
+      </c>
+      <c r="B201">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2">
+      <c r="A202" s="2">
+        <v>45987.08333333334</v>
+      </c>
+      <c r="B202">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2">
+      <c r="A203" s="2">
+        <v>45987.09375</v>
+      </c>
+      <c r="B203">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2">
+      <c r="A204" s="2">
+        <v>45987.10416666666</v>
+      </c>
+      <c r="B204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2">
+      <c r="A205" s="2">
+        <v>45987.11458333334</v>
+      </c>
+      <c r="B205">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2">
+      <c r="A206" s="2">
+        <v>45987.125</v>
+      </c>
+      <c r="B206">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2">
+      <c r="A207" s="2">
+        <v>45987.13541666666</v>
+      </c>
+      <c r="B207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2">
+      <c r="A208" s="2">
+        <v>45987.14583333334</v>
+      </c>
+      <c r="B208">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2">
+      <c r="A209" s="2">
+        <v>45987.15625</v>
+      </c>
+      <c r="B209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2">
+      <c r="A210" s="2">
+        <v>45987.16666666666</v>
+      </c>
+      <c r="B210">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2">
+      <c r="A211" s="2">
+        <v>45987.17708333334</v>
+      </c>
+      <c r="B211">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2">
+      <c r="A212" s="2">
+        <v>45987.1875</v>
+      </c>
+      <c r="B212">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2">
+      <c r="A213" s="2">
+        <v>45987.19791666666</v>
+      </c>
+      <c r="B213">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2">
+      <c r="A214" s="2">
+        <v>45987.20833333334</v>
+      </c>
+      <c r="B214">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2">
+      <c r="A215" s="2">
+        <v>45987.21875</v>
+      </c>
+      <c r="B215">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2">
+      <c r="A216" s="2">
+        <v>45987.22916666666</v>
+      </c>
+      <c r="B216">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2">
+      <c r="A217" s="2">
+        <v>45987.23958333334</v>
+      </c>
+      <c r="B217">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2">
+      <c r="A218" s="2">
+        <v>45987.25</v>
+      </c>
+      <c r="B218">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2">
+      <c r="A219" s="2">
+        <v>45987.26041666666</v>
+      </c>
+      <c r="B219">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2">
+      <c r="A220" s="2">
+        <v>45987.27083333334</v>
+      </c>
+      <c r="B220">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2">
+      <c r="A221" s="2">
+        <v>45987.28125</v>
+      </c>
+      <c r="B221">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2">
+      <c r="A222" s="2">
+        <v>45987.29166666666</v>
+      </c>
+      <c r="B222">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2">
+      <c r="A223" s="2">
+        <v>45987.30208333334</v>
+      </c>
+      <c r="B223">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2">
+      <c r="A224" s="2">
+        <v>45987.3125</v>
+      </c>
+      <c r="B224">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2">
+      <c r="A225" s="2">
+        <v>45987.32291666666</v>
+      </c>
+      <c r="B225">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2">
+      <c r="A226" s="2">
+        <v>45987.33333333334</v>
+      </c>
+      <c r="B226">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2">
+      <c r="A227" s="2">
+        <v>45987.34375</v>
+      </c>
+      <c r="B227">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2">
+      <c r="A228" s="2">
+        <v>45987.35416666666</v>
+      </c>
+      <c r="B228">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2">
+      <c r="A229" s="2">
+        <v>45987.36458333334</v>
+      </c>
+      <c r="B229">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2">
+      <c r="A230" s="2">
+        <v>45987.375</v>
+      </c>
+      <c r="B230">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2">
+      <c r="A231" s="2">
+        <v>45987.38541666666</v>
+      </c>
+      <c r="B231">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2">
+      <c r="A232" s="2">
+        <v>45987.39583333334</v>
+      </c>
+      <c r="B232">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2">
+      <c r="A233" s="2">
+        <v>45987.40625</v>
+      </c>
+      <c r="B233">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2">
+      <c r="A234" s="2">
+        <v>45987.41666666666</v>
+      </c>
+      <c r="B234">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2">
+      <c r="A235" s="2">
+        <v>45987.42708333334</v>
+      </c>
+      <c r="B235">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2">
+      <c r="A236" s="2">
+        <v>45987.4375</v>
+      </c>
+      <c r="B236">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2">
+      <c r="A237" s="2">
+        <v>45987.44791666666</v>
+      </c>
+      <c r="B237">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2">
+      <c r="A238" s="2">
+        <v>45987.45833333334</v>
+      </c>
+      <c r="B238">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2">
+      <c r="A239" s="2">
+        <v>45987.46875</v>
+      </c>
+      <c r="B239">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2">
+      <c r="A240" s="2">
+        <v>45987.47916666666</v>
+      </c>
+      <c r="B240">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2">
+      <c r="A241" s="2">
+        <v>45987.48958333334</v>
+      </c>
+      <c r="B241">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2">
+      <c r="A242" s="2">
+        <v>45987.5</v>
+      </c>
+      <c r="B242">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2">
+      <c r="A243" s="2">
+        <v>45987.51041666666</v>
+      </c>
+      <c r="B243">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2">
+      <c r="A244" s="2">
+        <v>45987.52083333334</v>
+      </c>
+      <c r="B244">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2">
+      <c r="A245" s="2">
+        <v>45987.53125</v>
+      </c>
+      <c r="B245">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2">
+      <c r="A246" s="2">
+        <v>45987.54166666666</v>
+      </c>
+      <c r="B246">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2">
+      <c r="A247" s="2">
+        <v>45987.55208333334</v>
+      </c>
+      <c r="B247">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2">
+      <c r="A248" s="2">
+        <v>45987.5625</v>
+      </c>
+      <c r="B248">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2">
+      <c r="A249" s="2">
+        <v>45987.57291666666</v>
+      </c>
+      <c r="B249">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2">
+      <c r="A250" s="2">
+        <v>45987.58333333334</v>
+      </c>
+      <c r="B250">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2">
+      <c r="A251" s="2">
+        <v>45987.59375</v>
+      </c>
+      <c r="B251">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2">
+      <c r="A252" s="2">
+        <v>45987.60416666666</v>
+      </c>
+      <c r="B252">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2">
+      <c r="A253" s="2">
+        <v>45987.61458333334</v>
+      </c>
+      <c r="B253">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2">
+      <c r="A254" s="2">
+        <v>45987.625</v>
+      </c>
+      <c r="B254">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2">
+      <c r="A255" s="2">
+        <v>45987.63541666666</v>
+      </c>
+      <c r="B255">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2">
+      <c r="A256" s="2">
+        <v>45987.64583333334</v>
+      </c>
+      <c r="B256">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2">
+      <c r="A257" s="2">
+        <v>45987.65625</v>
+      </c>
+      <c r="B257">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2">
+      <c r="A258" s="2">
+        <v>45987.66666666666</v>
+      </c>
+      <c r="B258">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2">
+      <c r="A259" s="2">
+        <v>45987.67708333334</v>
+      </c>
+      <c r="B259">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2">
+      <c r="A260" s="2">
+        <v>45987.6875</v>
+      </c>
+      <c r="B260">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2">
+      <c r="A261" s="2">
+        <v>45987.69791666666</v>
+      </c>
+      <c r="B261">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2">
+      <c r="A262" s="2">
+        <v>45987.70833333334</v>
+      </c>
+      <c r="B262">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2">
+      <c r="A263" s="2">
+        <v>45987.71875</v>
+      </c>
+      <c r="B263">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2">
+      <c r="A264" s="2">
+        <v>45987.72916666666</v>
+      </c>
+      <c r="B264">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2">
+      <c r="A265" s="2">
+        <v>45987.73958333334</v>
+      </c>
+      <c r="B265">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2">
+      <c r="A266" s="2">
+        <v>45987.75</v>
+      </c>
+      <c r="B266">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2">
+      <c r="A267" s="2">
+        <v>45987.76041666666</v>
+      </c>
+      <c r="B267">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2">
+      <c r="A268" s="2">
+        <v>45987.77083333334</v>
+      </c>
+      <c r="B268">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2">
+      <c r="A269" s="2">
+        <v>45987.78125</v>
+      </c>
+      <c r="B269">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2">
+      <c r="A270" s="2">
+        <v>45987.79166666666</v>
+      </c>
+      <c r="B270">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2">
+      <c r="A271" s="2">
+        <v>45987.80208333334</v>
+      </c>
+      <c r="B271">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2">
+      <c r="A272" s="2">
+        <v>45987.8125</v>
+      </c>
+      <c r="B272">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2">
+      <c r="A273" s="2">
+        <v>45987.82291666666</v>
+      </c>
+      <c r="B273">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2">
+      <c r="A274" s="2">
+        <v>45987.83333333334</v>
+      </c>
+      <c r="B274">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2">
+      <c r="A275" s="2">
+        <v>45987.84375</v>
+      </c>
+      <c r="B275">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2">
+      <c r="A276" s="2">
+        <v>45987.85416666666</v>
+      </c>
+      <c r="B276">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2">
+      <c r="A277" s="2">
+        <v>45987.86458333334</v>
+      </c>
+      <c r="B277">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2">
+      <c r="A278" s="2">
+        <v>45987.875</v>
+      </c>
+      <c r="B278">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2">
+      <c r="A279" s="2">
+        <v>45987.88541666666</v>
+      </c>
+      <c r="B279">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2">
+      <c r="A280" s="2">
+        <v>45987.89583333334</v>
+      </c>
+      <c r="B280">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2">
+      <c r="A281" s="2">
+        <v>45987.90625</v>
+      </c>
+      <c r="B281">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2">
+      <c r="A282" s="2">
+        <v>45987.91666666666</v>
+      </c>
+      <c r="B282">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2">
+      <c r="A283" s="2">
+        <v>45987.92708333334</v>
+      </c>
+      <c r="B283">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2">
+      <c r="A284" s="2">
+        <v>45987.9375</v>
+      </c>
+      <c r="B284">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2">
+      <c r="A285" s="2">
+        <v>45987.94791666666</v>
+      </c>
+      <c r="B285">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2">
+      <c r="A286" s="2">
+        <v>45987.95833333334</v>
+      </c>
+      <c r="B286">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2">
+      <c r="A287" s="2">
+        <v>45987.96875</v>
+      </c>
+      <c r="B287">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2">
+      <c r="A288" s="2">
+        <v>45987.97916666666</v>
+      </c>
+      <c r="B288">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2">
+      <c r="A289" s="2">
+        <v>45987.98958333334</v>
+      </c>
+      <c r="B289">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2">
+      <c r="A290" s="2">
+        <v>45988</v>
+      </c>
+      <c r="B290">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2">
+      <c r="A291" s="2">
+        <v>45988.01041666666</v>
+      </c>
+      <c r="B291">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2">
+      <c r="A292" s="2">
+        <v>45988.02083333334</v>
+      </c>
+      <c r="B292">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2">
+      <c r="A293" s="2">
+        <v>45988.03125</v>
+      </c>
+      <c r="B293">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2">
+      <c r="A294" s="2">
+        <v>45988.04166666666</v>
+      </c>
+      <c r="B294">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2">
+      <c r="A295" s="2">
+        <v>45988.05208333334</v>
+      </c>
+      <c r="B295">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2">
+      <c r="A296" s="2">
+        <v>45988.0625</v>
+      </c>
+      <c r="B296">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2">
+      <c r="A297" s="2">
+        <v>45988.07291666666</v>
+      </c>
+      <c r="B297">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2">
+      <c r="A298" s="2">
+        <v>45988.08333333334</v>
+      </c>
+      <c r="B298">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2">
+      <c r="A299" s="2">
+        <v>45988.09375</v>
+      </c>
+      <c r="B299">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2">
+      <c r="A300" s="2">
+        <v>45988.10416666666</v>
+      </c>
+      <c r="B300">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2">
+      <c r="A301" s="2">
+        <v>45988.11458333334</v>
+      </c>
+      <c r="B301">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2">
+      <c r="A302" s="2">
+        <v>45988.125</v>
+      </c>
+      <c r="B302">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2">
+      <c r="A303" s="2">
+        <v>45988.13541666666</v>
+      </c>
+      <c r="B303">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2">
+      <c r="A304" s="2">
+        <v>45988.14583333334</v>
+      </c>
+      <c r="B304">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2">
+      <c r="A305" s="2">
+        <v>45988.15625</v>
+      </c>
+      <c r="B305">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2">
+      <c r="A306" s="2">
+        <v>45988.16666666666</v>
+      </c>
+      <c r="B306">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2">
+      <c r="A307" s="2">
+        <v>45988.17708333334</v>
+      </c>
+      <c r="B307">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2">
+      <c r="A308" s="2">
+        <v>45988.1875</v>
+      </c>
+      <c r="B308">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2">
+      <c r="A309" s="2">
+        <v>45988.19791666666</v>
+      </c>
+      <c r="B309">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2">
+      <c r="A310" s="2">
+        <v>45988.20833333334</v>
+      </c>
+      <c r="B310">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2">
+      <c r="A311" s="2">
+        <v>45988.21875</v>
+      </c>
+      <c r="B311">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2">
+      <c r="A312" s="2">
+        <v>45988.22916666666</v>
+      </c>
+      <c r="B312">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2">
+      <c r="A313" s="2">
+        <v>45988.23958333334</v>
+      </c>
+      <c r="B313">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2">
+      <c r="A314" s="2">
+        <v>45988.25</v>
+      </c>
+      <c r="B314">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2">
+      <c r="A315" s="2">
+        <v>45988.26041666666</v>
+      </c>
+      <c r="B315">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2">
+      <c r="A316" s="2">
+        <v>45988.27083333334</v>
+      </c>
+      <c r="B316">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2">
+      <c r="A317" s="2">
+        <v>45988.28125</v>
+      </c>
+      <c r="B317">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2">
+      <c r="A318" s="2">
+        <v>45988.29166666666</v>
+      </c>
+      <c r="B318">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2">
+      <c r="A319" s="2">
+        <v>45988.30208333334</v>
+      </c>
+      <c r="B319">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2">
+      <c r="A320" s="2">
+        <v>45988.3125</v>
+      </c>
+      <c r="B320">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2">
+      <c r="A321" s="2">
+        <v>45988.32291666666</v>
+      </c>
+      <c r="B321">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2">
+      <c r="A322" s="2">
+        <v>45988.33333333334</v>
+      </c>
+      <c r="B322">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2">
+      <c r="A323" s="2">
+        <v>45988.34375</v>
+      </c>
+      <c r="B323">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2">
+      <c r="A324" s="2">
+        <v>45988.35416666666</v>
+      </c>
+      <c r="B324">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2">
+      <c r="A325" s="2">
+        <v>45988.36458333334</v>
+      </c>
+      <c r="B325">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2">
+      <c r="A326" s="2">
+        <v>45988.375</v>
+      </c>
+      <c r="B326">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2">
+      <c r="A327" s="2">
+        <v>45988.38541666666</v>
+      </c>
+      <c r="B327">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2">
+      <c r="A328" s="2">
+        <v>45988.39583333334</v>
+      </c>
+      <c r="B328">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2">
+      <c r="A329" s="2">
+        <v>45988.40625</v>
+      </c>
+      <c r="B329">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2">
+      <c r="A330" s="2">
+        <v>45988.41666666666</v>
+      </c>
+      <c r="B330">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2">
+      <c r="A331" s="2">
+        <v>45988.42708333334</v>
+      </c>
+      <c r="B331">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2">
+      <c r="A332" s="2">
+        <v>45988.4375</v>
+      </c>
+      <c r="B332">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2">
+      <c r="A333" s="2">
+        <v>45988.44791666666</v>
+      </c>
+      <c r="B333">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2">
+      <c r="A334" s="2">
+        <v>45988.45833333334</v>
+      </c>
+      <c r="B334">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2">
+      <c r="A335" s="2">
+        <v>45988.46875</v>
+      </c>
+      <c r="B335">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2">
+      <c r="A336" s="2">
+        <v>45988.47916666666</v>
+      </c>
+      <c r="B336">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2">
+      <c r="A337" s="2">
+        <v>45988.48958333334</v>
+      </c>
+      <c r="B337">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2">
+      <c r="A338" s="2">
+        <v>45988.5</v>
+      </c>
+      <c r="B338">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2">
+      <c r="A339" s="2">
+        <v>45988.51041666666</v>
+      </c>
+      <c r="B339">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2">
+      <c r="A340" s="2">
+        <v>45988.52083333334</v>
+      </c>
+      <c r="B340">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2">
+      <c r="A341" s="2">
+        <v>45988.53125</v>
+      </c>
+      <c r="B341">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2">
+      <c r="A342" s="2">
+        <v>45988.54166666666</v>
+      </c>
+      <c r="B342">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2">
+      <c r="A343" s="2">
+        <v>45988.55208333334</v>
+      </c>
+      <c r="B343">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2">
+      <c r="A344" s="2">
+        <v>45988.5625</v>
+      </c>
+      <c r="B344">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2">
+      <c r="A345" s="2">
+        <v>45988.57291666666</v>
+      </c>
+      <c r="B345">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2">
+      <c r="A346" s="2">
+        <v>45988.58333333334</v>
+      </c>
+      <c r="B346">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2">
+      <c r="A347" s="2">
+        <v>45988.59375</v>
+      </c>
+      <c r="B347">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2">
+      <c r="A348" s="2">
+        <v>45988.60416666666</v>
+      </c>
+      <c r="B348">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2">
+      <c r="A349" s="2">
+        <v>45988.61458333334</v>
+      </c>
+      <c r="B349">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2">
+      <c r="A350" s="2">
+        <v>45988.625</v>
+      </c>
+      <c r="B350">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2">
+      <c r="A351" s="2">
+        <v>45988.63541666666</v>
+      </c>
+      <c r="B351">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2">
+      <c r="A352" s="2">
+        <v>45988.64583333334</v>
+      </c>
+      <c r="B352">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2">
+      <c r="A353" s="2">
+        <v>45988.65625</v>
+      </c>
+      <c r="B353">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2">
+      <c r="A354" s="2">
+        <v>45988.66666666666</v>
+      </c>
+      <c r="B354">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2">
+      <c r="A355" s="2">
+        <v>45988.67708333334</v>
+      </c>
+      <c r="B355">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2">
+      <c r="A356" s="2">
+        <v>45988.6875</v>
+      </c>
+      <c r="B356">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2">
+      <c r="A357" s="2">
+        <v>45988.69791666666</v>
+      </c>
+      <c r="B357">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2">
+      <c r="A358" s="2">
+        <v>45988.70833333334</v>
+      </c>
+      <c r="B358">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2">
+      <c r="A359" s="2">
+        <v>45988.71875</v>
+      </c>
+      <c r="B359">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2">
+      <c r="A360" s="2">
+        <v>45988.72916666666</v>
+      </c>
+      <c r="B360">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2">
+      <c r="A361" s="2">
+        <v>45988.73958333334</v>
+      </c>
+      <c r="B361">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2">
+      <c r="A362" s="2">
+        <v>45988.75</v>
+      </c>
+      <c r="B362">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2">
+      <c r="A363" s="2">
+        <v>45988.76041666666</v>
+      </c>
+      <c r="B363">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2">
+      <c r="A364" s="2">
+        <v>45988.77083333334</v>
+      </c>
+      <c r="B364">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2">
+      <c r="A365" s="2">
+        <v>45988.78125</v>
+      </c>
+      <c r="B365">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2">
+      <c r="A366" s="2">
+        <v>45988.79166666666</v>
+      </c>
+      <c r="B366">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2">
+      <c r="A367" s="2">
+        <v>45988.80208333334</v>
+      </c>
+      <c r="B367">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2">
+      <c r="A368" s="2">
+        <v>45988.8125</v>
+      </c>
+      <c r="B368">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2">
+      <c r="A369" s="2">
+        <v>45988.82291666666</v>
+      </c>
+      <c r="B369">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2">
+      <c r="A370" s="2">
+        <v>45988.83333333334</v>
+      </c>
+      <c r="B370">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2">
+      <c r="A371" s="2">
+        <v>45988.84375</v>
+      </c>
+      <c r="B371">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2">
+      <c r="A372" s="2">
+        <v>45988.85416666666</v>
+      </c>
+      <c r="B372">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2">
+      <c r="A373" s="2">
+        <v>45988.86458333334</v>
+      </c>
+      <c r="B373">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2">
+      <c r="A374" s="2">
+        <v>45988.875</v>
+      </c>
+      <c r="B374">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2">
+      <c r="A375" s="2">
+        <v>45988.88541666666</v>
+      </c>
+      <c r="B375">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2">
+      <c r="A376" s="2">
+        <v>45988.89583333334</v>
+      </c>
+      <c r="B376">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2">
+      <c r="A377" s="2">
+        <v>45988.90625</v>
+      </c>
+      <c r="B377">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2">
+      <c r="A378" s="2">
+        <v>45988.91666666666</v>
+      </c>
+      <c r="B378">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2">
+      <c r="A379" s="2">
+        <v>45988.92708333334</v>
+      </c>
+      <c r="B379">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2">
+      <c r="A380" s="2">
+        <v>45988.9375</v>
+      </c>
+      <c r="B380">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2">
+      <c r="A381" s="2">
+        <v>45988.94791666666</v>
+      </c>
+      <c r="B381">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2">
+      <c r="A382" s="2">
+        <v>45988.95833333334</v>
+      </c>
+      <c r="B382">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2">
+      <c r="A383" s="2">
+        <v>45988.96875</v>
+      </c>
+      <c r="B383">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2">
+      <c r="A384" s="2">
+        <v>45988.97916666666</v>
+      </c>
+      <c r="B384">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2">
+      <c r="A385" s="2">
+        <v>45988.98958333334</v>
+      </c>
+      <c r="B385">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2">
+      <c r="A386" s="2">
+        <v>45989</v>
+      </c>
+      <c r="B386">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2">
+      <c r="A387" s="2">
+        <v>45989.01041666666</v>
+      </c>
+      <c r="B387">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2">
+      <c r="A388" s="2">
+        <v>45989.02083333334</v>
+      </c>
+      <c r="B388">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2">
+      <c r="A389" s="2">
+        <v>45989.03125</v>
+      </c>
+      <c r="B389">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2">
+      <c r="A390" s="2">
+        <v>45989.04166666666</v>
+      </c>
+      <c r="B390">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2">
+      <c r="A391" s="2">
+        <v>45989.05208333334</v>
+      </c>
+      <c r="B391">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2">
+      <c r="A392" s="2">
+        <v>45989.0625</v>
+      </c>
+      <c r="B392">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2">
+      <c r="A393" s="2">
+        <v>45989.07291666666</v>
+      </c>
+      <c r="B393">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2">
+      <c r="A394" s="2">
+        <v>45989.08333333334</v>
+      </c>
+      <c r="B394">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2">
+      <c r="A395" s="2">
+        <v>45989.09375</v>
+      </c>
+      <c r="B395">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2">
+      <c r="A396" s="2">
+        <v>45989.10416666666</v>
+      </c>
+      <c r="B396">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2">
+      <c r="A397" s="2">
+        <v>45989.11458333334</v>
+      </c>
+      <c r="B397">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2">
+      <c r="A398" s="2">
+        <v>45989.125</v>
+      </c>
+      <c r="B398">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2">
+      <c r="A399" s="2">
+        <v>45989.13541666666</v>
+      </c>
+      <c r="B399">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2">
+      <c r="A400" s="2">
+        <v>45989.14583333334</v>
+      </c>
+      <c r="B400">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2">
+      <c r="A401" s="2">
+        <v>45989.15625</v>
+      </c>
+      <c r="B401">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2">
+      <c r="A402" s="2">
+        <v>45989.16666666666</v>
+      </c>
+      <c r="B402">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2">
+      <c r="A403" s="2">
+        <v>45989.17708333334</v>
+      </c>
+      <c r="B403">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2">
+      <c r="A404" s="2">
+        <v>45989.1875</v>
+      </c>
+      <c r="B404">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2">
+      <c r="A405" s="2">
+        <v>45989.19791666666</v>
+      </c>
+      <c r="B405">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2">
+      <c r="A406" s="2">
+        <v>45989.20833333334</v>
+      </c>
+      <c r="B406">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2">
+      <c r="A407" s="2">
+        <v>45989.21875</v>
+      </c>
+      <c r="B407">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2">
+      <c r="A408" s="2">
+        <v>45989.22916666666</v>
+      </c>
+      <c r="B408">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2">
+      <c r="A409" s="2">
+        <v>45989.23958333334</v>
+      </c>
+      <c r="B409">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2">
+      <c r="A410" s="2">
+        <v>45989.25</v>
+      </c>
+      <c r="B410">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2">
+      <c r="A411" s="2">
+        <v>45989.26041666666</v>
+      </c>
+      <c r="B411">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2">
+      <c r="A412" s="2">
+        <v>45989.27083333334</v>
+      </c>
+      <c r="B412">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2">
+      <c r="A413" s="2">
+        <v>45989.28125</v>
+      </c>
+      <c r="B413">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2">
+      <c r="A414" s="2">
+        <v>45989.29166666666</v>
+      </c>
+      <c r="B414">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2">
+      <c r="A415" s="2">
+        <v>45989.30208333334</v>
+      </c>
+      <c r="B415">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2">
+      <c r="A416" s="2">
+        <v>45989.3125</v>
+      </c>
+      <c r="B416">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2">
+      <c r="A417" s="2">
+        <v>45989.32291666666</v>
+      </c>
+      <c r="B417">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2">
+      <c r="A418" s="2">
+        <v>45989.33333333334</v>
+      </c>
+      <c r="B418">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2">
+      <c r="A419" s="2">
+        <v>45989.34375</v>
+      </c>
+      <c r="B419">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2">
+      <c r="A420" s="2">
+        <v>45989.35416666666</v>
+      </c>
+      <c r="B420">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2">
+      <c r="A421" s="2">
+        <v>45989.36458333334</v>
+      </c>
+      <c r="B421">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2">
+      <c r="A422" s="2">
+        <v>45989.375</v>
+      </c>
+      <c r="B422">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2">
+      <c r="A423" s="2">
+        <v>45989.38541666666</v>
+      </c>
+      <c r="B423">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2">
+      <c r="A424" s="2">
+        <v>45989.39583333334</v>
+      </c>
+      <c r="B424">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2">
+      <c r="A425" s="2">
+        <v>45989.40625</v>
+      </c>
+      <c r="B425">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2">
+      <c r="A426" s="2">
+        <v>45989.41666666666</v>
+      </c>
+      <c r="B426">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2">
+      <c r="A427" s="2">
+        <v>45989.42708333334</v>
+      </c>
+      <c r="B427">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2">
+      <c r="A428" s="2">
+        <v>45989.4375</v>
+      </c>
+      <c r="B428">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2">
+      <c r="A429" s="2">
+        <v>45989.44791666666</v>
+      </c>
+      <c r="B429">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2">
+      <c r="A430" s="2">
+        <v>45989.45833333334</v>
+      </c>
+      <c r="B430">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2">
+      <c r="A431" s="2">
+        <v>45989.46875</v>
+      </c>
+      <c r="B431">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2">
+      <c r="A432" s="2">
+        <v>45989.47916666666</v>
+      </c>
+      <c r="B432">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2">
+      <c r="A433" s="2">
+        <v>45989.48958333334</v>
+      </c>
+      <c r="B433">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2">
+      <c r="A434" s="2">
+        <v>45989.5</v>
+      </c>
+      <c r="B434">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2">
+      <c r="A435" s="2">
+        <v>45989.51041666666</v>
+      </c>
+      <c r="B435">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2">
+      <c r="A436" s="2">
+        <v>45989.52083333334</v>
+      </c>
+      <c r="B436">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2">
+      <c r="A437" s="2">
+        <v>45989.53125</v>
+      </c>
+      <c r="B437">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2">
+      <c r="A438" s="2">
+        <v>45989.54166666666</v>
+      </c>
+      <c r="B438">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2">
+      <c r="A439" s="2">
+        <v>45989.55208333334</v>
+      </c>
+      <c r="B439">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2">
+      <c r="A440" s="2">
+        <v>45989.5625</v>
+      </c>
+      <c r="B440">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2">
+      <c r="A441" s="2">
+        <v>45989.57291666666</v>
+      </c>
+      <c r="B441">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2">
+      <c r="A442" s="2">
+        <v>45989.58333333334</v>
+      </c>
+      <c r="B442">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2">
+      <c r="A443" s="2">
+        <v>45989.59375</v>
+      </c>
+      <c r="B443">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2">
+      <c r="A444" s="2">
+        <v>45989.60416666666</v>
+      </c>
+      <c r="B444">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2">
+      <c r="A445" s="2">
+        <v>45989.61458333334</v>
+      </c>
+      <c r="B445">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2">
+      <c r="A446" s="2">
+        <v>45989.625</v>
+      </c>
+      <c r="B446">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2">
+      <c r="A447" s="2">
+        <v>45989.63541666666</v>
+      </c>
+      <c r="B447">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2">
+      <c r="A448" s="2">
+        <v>45989.64583333334</v>
+      </c>
+      <c r="B448">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2">
+      <c r="A449" s="2">
+        <v>45989.65625</v>
+      </c>
+      <c r="B449">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2">
+      <c r="A450" s="2">
+        <v>45989.66666666666</v>
+      </c>
+      <c r="B450">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2">
+      <c r="A451" s="2">
+        <v>45989.67708333334</v>
+      </c>
+      <c r="B451">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2">
+      <c r="A452" s="2">
+        <v>45989.6875</v>
+      </c>
+      <c r="B452">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2">
+      <c r="A453" s="2">
+        <v>45989.69791666666</v>
+      </c>
+      <c r="B453">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2">
+      <c r="A454" s="2">
+        <v>45989.70833333334</v>
+      </c>
+      <c r="B454">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2">
+      <c r="A455" s="2">
+        <v>45989.71875</v>
+      </c>
+      <c r="B455">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2">
+      <c r="A456" s="2">
+        <v>45989.72916666666</v>
+      </c>
+      <c r="B456">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2">
+      <c r="A457" s="2">
+        <v>45989.73958333334</v>
+      </c>
+      <c r="B457">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2">
+      <c r="A458" s="2">
+        <v>45989.75</v>
+      </c>
+      <c r="B458">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2">
+      <c r="A459" s="2">
+        <v>45989.76041666666</v>
+      </c>
+      <c r="B459">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2">
+      <c r="A460" s="2">
+        <v>45989.77083333334</v>
+      </c>
+      <c r="B460">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2">
+      <c r="A461" s="2">
+        <v>45989.78125</v>
+      </c>
+      <c r="B461">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2">
+      <c r="A462" s="2">
+        <v>45989.79166666666</v>
+      </c>
+      <c r="B462">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2">
+      <c r="A463" s="2">
+        <v>45989.80208333334</v>
+      </c>
+      <c r="B463">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="464" spans="1:2">
+      <c r="A464" s="2">
+        <v>45989.8125</v>
+      </c>
+      <c r="B464">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="465" spans="1:2">
+      <c r="A465" s="2">
+        <v>45989.82291666666</v>
+      </c>
+      <c r="B465">
+        <v>1397</v>
+      </c>
+    </row>
+    <row r="466" spans="1:2">
+      <c r="A466" s="2">
+        <v>45989.83333333334</v>
+      </c>
+      <c r="B466">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="467" spans="1:2">
+      <c r="A467" s="2">
+        <v>45989.84375</v>
+      </c>
+      <c r="B467">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="468" spans="1:2">
+      <c r="A468" s="2">
+        <v>45989.85416666666</v>
+      </c>
+      <c r="B468">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="469" spans="1:2">
+      <c r="A469" s="2">
+        <v>45989.86458333334</v>
+      </c>
+      <c r="B469">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="470" spans="1:2">
+      <c r="A470" s="2">
+        <v>45989.875</v>
+      </c>
+      <c r="B470">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="471" spans="1:2">
+      <c r="A471" s="2">
+        <v>45989.88541666666</v>
+      </c>
+      <c r="B471">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="472" spans="1:2">
+      <c r="A472" s="2">
+        <v>45989.89583333334</v>
+      </c>
+      <c r="B472">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="473" spans="1:2">
+      <c r="A473" s="2">
+        <v>45989.90625</v>
+      </c>
+      <c r="B473">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="474" spans="1:2">
+      <c r="A474" s="2">
+        <v>45989.91666666666</v>
+      </c>
+      <c r="B474">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="475" spans="1:2">
+      <c r="A475" s="2">
+        <v>45989.92708333334</v>
+      </c>
+      <c r="B475">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="476" spans="1:2">
+      <c r="A476" s="2">
+        <v>45989.9375</v>
+      </c>
+      <c r="B476">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="477" spans="1:2">
+      <c r="A477" s="2">
+        <v>45989.94791666666</v>
+      </c>
+      <c r="B477">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="478" spans="1:2">
+      <c r="A478" s="2">
+        <v>45989.95833333334</v>
+      </c>
+      <c r="B478">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="479" spans="1:2">
+      <c r="A479" s="2">
+        <v>45989.96875</v>
+      </c>
+      <c r="B479">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="480" spans="1:2">
+      <c r="A480" s="2">
+        <v>45989.97916666666</v>
+      </c>
+      <c r="B480">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="481" spans="1:2">
+      <c r="A481" s="2">
+        <v>45989.98958333334</v>
+      </c>
+      <c r="B481">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="482" spans="1:2">
+      <c r="A482" s="2">
+        <v>45990</v>
+      </c>
+      <c r="B482">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="483" spans="1:2">
+      <c r="A483" s="2">
+        <v>45990.01041666666</v>
+      </c>
+      <c r="B483">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="484" spans="1:2">
+      <c r="A484" s="2">
+        <v>45990.02083333334</v>
+      </c>
+      <c r="B484">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="485" spans="1:2">
+      <c r="A485" s="2">
+        <v>45990.03125</v>
+      </c>
+      <c r="B485">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="486" spans="1:2">
+      <c r="A486" s="2">
+        <v>45990.04166666666</v>
+      </c>
+      <c r="B486">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="487" spans="1:2">
+      <c r="A487" s="2">
+        <v>45990.05208333334</v>
+      </c>
+      <c r="B487">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="488" spans="1:2">
+      <c r="A488" s="2">
+        <v>45990.0625</v>
+      </c>
+      <c r="B488">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="489" spans="1:2">
+      <c r="A489" s="2">
+        <v>45990.07291666666</v>
+      </c>
+      <c r="B489">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="490" spans="1:2">
+      <c r="A490" s="2">
+        <v>45990.08333333334</v>
+      </c>
+      <c r="B490">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="491" spans="1:2">
+      <c r="A491" s="2">
+        <v>45990.09375</v>
+      </c>
+      <c r="B491">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="492" spans="1:2">
+      <c r="A492" s="2">
+        <v>45990.10416666666</v>
+      </c>
+      <c r="B492">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="493" spans="1:2">
+      <c r="A493" s="2">
+        <v>45990.11458333334</v>
+      </c>
+      <c r="B493">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="494" spans="1:2">
+      <c r="A494" s="2">
+        <v>45990.125</v>
+      </c>
+      <c r="B494">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="495" spans="1:2">
+      <c r="A495" s="2">
+        <v>45990.13541666666</v>
+      </c>
+      <c r="B495">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="496" spans="1:2">
+      <c r="A496" s="2">
+        <v>45990.14583333334</v>
+      </c>
+      <c r="B496">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="497" spans="1:2">
+      <c r="A497" s="2">
+        <v>45990.15625</v>
+      </c>
+      <c r="B497">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="498" spans="1:2">
+      <c r="A498" s="2">
+        <v>45990.16666666666</v>
+      </c>
+      <c r="B498">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="499" spans="1:2">
+      <c r="A499" s="2">
+        <v>45990.17708333334</v>
+      </c>
+      <c r="B499">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="500" spans="1:2">
+      <c r="A500" s="2">
+        <v>45990.1875</v>
+      </c>
+      <c r="B500">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="501" spans="1:2">
+      <c r="A501" s="2">
+        <v>45990.19791666666</v>
+      </c>
+      <c r="B501">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="502" spans="1:2">
+      <c r="A502" s="2">
+        <v>45990.20833333334</v>
+      </c>
+      <c r="B502">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="503" spans="1:2">
+      <c r="A503" s="2">
+        <v>45990.21875</v>
+      </c>
+      <c r="B503">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="504" spans="1:2">
+      <c r="A504" s="2">
+        <v>45990.22916666666</v>
+      </c>
+      <c r="B504">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="505" spans="1:2">
+      <c r="A505" s="2">
+        <v>45990.23958333334</v>
+      </c>
+      <c r="B505">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="506" spans="1:2">
+      <c r="A506" s="2">
+        <v>45990.25</v>
+      </c>
+      <c r="B506">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="507" spans="1:2">
+      <c r="A507" s="2">
+        <v>45990.26041666666</v>
+      </c>
+      <c r="B507">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="508" spans="1:2">
+      <c r="A508" s="2">
+        <v>45990.27083333334</v>
+      </c>
+      <c r="B508">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="509" spans="1:2">
+      <c r="A509" s="2">
+        <v>45990.28125</v>
+      </c>
+      <c r="B509">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="510" spans="1:2">
+      <c r="A510" s="2">
+        <v>45990.29166666666</v>
+      </c>
+      <c r="B510">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="511" spans="1:2">
+      <c r="A511" s="2">
+        <v>45990.30208333334</v>
+      </c>
+      <c r="B511">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="512" spans="1:2">
+      <c r="A512" s="2">
+        <v>45990.3125</v>
+      </c>
+      <c r="B512">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="513" spans="1:2">
+      <c r="A513" s="2">
+        <v>45990.32291666666</v>
+      </c>
+      <c r="B513">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="514" spans="1:2">
+      <c r="A514" s="2">
+        <v>45990.33333333334</v>
+      </c>
+      <c r="B514">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="515" spans="1:2">
+      <c r="A515" s="2">
+        <v>45990.34375</v>
+      </c>
+      <c r="B515">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="516" spans="1:2">
+      <c r="A516" s="2">
+        <v>45990.35416666666</v>
+      </c>
+      <c r="B516">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="517" spans="1:2">
+      <c r="A517" s="2">
+        <v>45990.36458333334</v>
+      </c>
+      <c r="B517">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="518" spans="1:2">
+      <c r="A518" s="2">
+        <v>45990.375</v>
+      </c>
+      <c r="B518">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="519" spans="1:2">
+      <c r="A519" s="2">
+        <v>45990.38541666666</v>
+      </c>
+      <c r="B519">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="520" spans="1:2">
+      <c r="A520" s="2">
+        <v>45990.39583333334</v>
+      </c>
+      <c r="B520">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="521" spans="1:2">
+      <c r="A521" s="2">
+        <v>45990.40625</v>
+      </c>
+      <c r="B521">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="522" spans="1:2">
+      <c r="A522" s="2">
+        <v>45990.41666666666</v>
+      </c>
+      <c r="B522">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="523" spans="1:2">
+      <c r="A523" s="2">
+        <v>45990.42708333334</v>
+      </c>
+      <c r="B523">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="524" spans="1:2">
+      <c r="A524" s="2">
+        <v>45990.4375</v>
+      </c>
+      <c r="B524">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="525" spans="1:2">
+      <c r="A525" s="2">
+        <v>45990.44791666666</v>
+      </c>
+      <c r="B525">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="526" spans="1:2">
+      <c r="A526" s="2">
+        <v>45990.45833333334</v>
+      </c>
+      <c r="B526">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="527" spans="1:2">
+      <c r="A527" s="2">
+        <v>45990.46875</v>
+      </c>
+      <c r="B527">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="528" spans="1:2">
+      <c r="A528" s="2">
+        <v>45990.47916666666</v>
+      </c>
+      <c r="B528">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="529" spans="1:2">
+      <c r="A529" s="2">
+        <v>45990.48958333334</v>
+      </c>
+      <c r="B529">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="530" spans="1:2">
+      <c r="A530" s="2">
+        <v>45990.5</v>
+      </c>
+      <c r="B530">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="531" spans="1:2">
+      <c r="A531" s="2">
+        <v>45990.51041666666</v>
+      </c>
+      <c r="B531">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="532" spans="1:2">
+      <c r="A532" s="2">
+        <v>45990.52083333334</v>
+      </c>
+      <c r="B532">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="533" spans="1:2">
+      <c r="A533" s="2">
+        <v>45990.53125</v>
+      </c>
+      <c r="B533">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="534" spans="1:2">
+      <c r="A534" s="2">
+        <v>45990.54166666666</v>
+      </c>
+      <c r="B534">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="535" spans="1:2">
+      <c r="A535" s="2">
+        <v>45990.55208333334</v>
+      </c>
+      <c r="B535">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="536" spans="1:2">
+      <c r="A536" s="2">
+        <v>45990.5625</v>
+      </c>
+      <c r="B536">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="537" spans="1:2">
+      <c r="A537" s="2">
+        <v>45990.57291666666</v>
+      </c>
+      <c r="B537">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="538" spans="1:2">
+      <c r="A538" s="2">
+        <v>45990.58333333334</v>
+      </c>
+      <c r="B538">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="539" spans="1:2">
+      <c r="A539" s="2">
+        <v>45990.59375</v>
+      </c>
+      <c r="B539">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="540" spans="1:2">
+      <c r="A540" s="2">
+        <v>45990.60416666666</v>
+      </c>
+      <c r="B540">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="541" spans="1:2">
+      <c r="A541" s="2">
+        <v>45990.61458333334</v>
+      </c>
+      <c r="B541">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="542" spans="1:2">
+      <c r="A542" s="2">
+        <v>45990.625</v>
+      </c>
+      <c r="B542">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="543" spans="1:2">
+      <c r="A543" s="2">
+        <v>45990.63541666666</v>
+      </c>
+      <c r="B543">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="544" spans="1:2">
+      <c r="A544" s="2">
+        <v>45990.64583333334</v>
+      </c>
+      <c r="B544">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="545" spans="1:2">
+      <c r="A545" s="2">
+        <v>45990.65625</v>
+      </c>
+      <c r="B545">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="546" spans="1:2">
+      <c r="A546" s="2">
+        <v>45990.66666666666</v>
+      </c>
+      <c r="B546">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="547" spans="1:2">
+      <c r="A547" s="2">
+        <v>45990.67708333334</v>
+      </c>
+      <c r="B547">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="548" spans="1:2">
+      <c r="A548" s="2">
+        <v>45990.6875</v>
+      </c>
+      <c r="B548">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="549" spans="1:2">
+      <c r="A549" s="2">
+        <v>45990.69791666666</v>
+      </c>
+      <c r="B549">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="550" spans="1:2">
+      <c r="A550" s="2">
+        <v>45990.70833333334</v>
+      </c>
+      <c r="B550">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="551" spans="1:2">
+      <c r="A551" s="2">
+        <v>45990.71875</v>
+      </c>
+      <c r="B551">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="552" spans="1:2">
+      <c r="A552" s="2">
+        <v>45990.72916666666</v>
+      </c>
+      <c r="B552">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="553" spans="1:2">
+      <c r="A553" s="2">
+        <v>45990.73958333334</v>
+      </c>
+      <c r="B553">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="554" spans="1:2">
+      <c r="A554" s="2">
+        <v>45990.75</v>
+      </c>
+      <c r="B554">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="555" spans="1:2">
+      <c r="A555" s="2">
+        <v>45990.76041666666</v>
+      </c>
+      <c r="B555">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="556" spans="1:2">
+      <c r="A556" s="2">
+        <v>45990.77083333334</v>
+      </c>
+      <c r="B556">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="557" spans="1:2">
+      <c r="A557" s="2">
+        <v>45990.78125</v>
+      </c>
+      <c r="B557">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="558" spans="1:2">
+      <c r="A558" s="2">
+        <v>45990.79166666666</v>
+      </c>
+      <c r="B558">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="559" spans="1:2">
+      <c r="A559" s="2">
+        <v>45990.80208333334</v>
+      </c>
+      <c r="B559">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="560" spans="1:2">
+      <c r="A560" s="2">
+        <v>45990.8125</v>
+      </c>
+      <c r="B560">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="561" spans="1:2">
+      <c r="A561" s="2">
+        <v>45990.82291666666</v>
+      </c>
+      <c r="B561">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="562" spans="1:2">
+      <c r="A562" s="2">
+        <v>45990.83333333334</v>
+      </c>
+      <c r="B562">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="563" spans="1:2">
+      <c r="A563" s="2">
+        <v>45990.84375</v>
+      </c>
+      <c r="B563">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="564" spans="1:2">
+      <c r="A564" s="2">
+        <v>45990.85416666666</v>
+      </c>
+      <c r="B564">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="565" spans="1:2">
+      <c r="A565" s="2">
+        <v>45990.86458333334</v>
+      </c>
+      <c r="B565">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="566" spans="1:2">
+      <c r="A566" s="2">
+        <v>45990.875</v>
+      </c>
+      <c r="B566">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="567" spans="1:2">
+      <c r="A567" s="2">
+        <v>45990.88541666666</v>
+      </c>
+      <c r="B567">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="568" spans="1:2">
+      <c r="A568" s="2">
+        <v>45990.89583333334</v>
+      </c>
+      <c r="B568">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="569" spans="1:2">
+      <c r="A569" s="2">
+        <v>45990.90625</v>
+      </c>
+      <c r="B569">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="570" spans="1:2">
+      <c r="A570" s="2">
+        <v>45990.91666666666</v>
+      </c>
+      <c r="B570">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="571" spans="1:2">
+      <c r="A571" s="2">
+        <v>45990.92708333334</v>
+      </c>
+      <c r="B571">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="572" spans="1:2">
+      <c r="A572" s="2">
+        <v>45990.9375</v>
+      </c>
+      <c r="B572">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="573" spans="1:2">
+      <c r="A573" s="2">
+        <v>45990.94791666666</v>
+      </c>
+      <c r="B573">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="574" spans="1:2">
+      <c r="A574" s="2">
+        <v>45990.95833333334</v>
+      </c>
+      <c r="B574">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="575" spans="1:2">
+      <c r="A575" s="2">
+        <v>45990.96875</v>
+      </c>
+      <c r="B575">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="576" spans="1:2">
+      <c r="A576" s="2">
+        <v>45990.97916666666</v>
+      </c>
+      <c r="B576">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="577" spans="1:2">
+      <c r="A577" s="2">
+        <v>45990.98958333334</v>
+      </c>
+      <c r="B577">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="578" spans="1:2">
+      <c r="A578" s="2">
+        <v>45991</v>
+      </c>
+      <c r="B578">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="579" spans="1:2">
+      <c r="A579" s="2">
+        <v>45991.01041666666</v>
+      </c>
+      <c r="B579">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="580" spans="1:2">
+      <c r="A580" s="2">
+        <v>45991.02083333334</v>
+      </c>
+      <c r="B580">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="581" spans="1:2">
+      <c r="A581" s="2">
+        <v>45991.03125</v>
+      </c>
+      <c r="B581">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="582" spans="1:2">
+      <c r="A582" s="2">
+        <v>45991.04166666666</v>
+      </c>
+      <c r="B582">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="583" spans="1:2">
+      <c r="A583" s="2">
+        <v>45991.05208333334</v>
+      </c>
+      <c r="B583">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="584" spans="1:2">
+      <c r="A584" s="2">
+        <v>45991.0625</v>
+      </c>
+      <c r="B584">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="585" spans="1:2">
+      <c r="A585" s="2">
+        <v>45991.07291666666</v>
+      </c>
+      <c r="B585">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="586" spans="1:2">
+      <c r="A586" s="2">
+        <v>45991.08333333334</v>
+      </c>
+      <c r="B586">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="587" spans="1:2">
+      <c r="A587" s="2">
+        <v>45991.09375</v>
+      </c>
+      <c r="B587">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="588" spans="1:2">
+      <c r="A588" s="2">
+        <v>45991.10416666666</v>
+      </c>
+      <c r="B588">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="589" spans="1:2">
+      <c r="A589" s="2">
+        <v>45991.11458333334</v>
+      </c>
+      <c r="B589">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="590" spans="1:2">
+      <c r="A590" s="2">
+        <v>45991.125</v>
+      </c>
+      <c r="B590">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="591" spans="1:2">
+      <c r="A591" s="2">
+        <v>45991.13541666666</v>
+      </c>
+      <c r="B591">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="592" spans="1:2">
+      <c r="A592" s="2">
+        <v>45991.14583333334</v>
+      </c>
+      <c r="B592">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="593" spans="1:2">
+      <c r="A593" s="2">
+        <v>45991.15625</v>
+      </c>
+      <c r="B593">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="594" spans="1:2">
+      <c r="A594" s="2">
+        <v>45991.16666666666</v>
+      </c>
+      <c r="B594">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="595" spans="1:2">
+      <c r="A595" s="2">
+        <v>45991.17708333334</v>
+      </c>
+      <c r="B595">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="596" spans="1:2">
+      <c r="A596" s="2">
+        <v>45991.1875</v>
+      </c>
+      <c r="B596">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="597" spans="1:2">
+      <c r="A597" s="2">
+        <v>45991.19791666666</v>
+      </c>
+      <c r="B597">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="598" spans="1:2">
+      <c r="A598" s="2">
+        <v>45991.20833333334</v>
+      </c>
+      <c r="B598">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="599" spans="1:2">
+      <c r="A599" s="2">
+        <v>45991.21875</v>
+      </c>
+      <c r="B599">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="600" spans="1:2">
+      <c r="A600" s="2">
+        <v>45991.22916666666</v>
+      </c>
+      <c r="B600">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="601" spans="1:2">
+      <c r="A601" s="2">
+        <v>45991.23958333334</v>
+      </c>
+      <c r="B601">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="602" spans="1:2">
+      <c r="A602" s="2">
+        <v>45991.25</v>
+      </c>
+      <c r="B602">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="603" spans="1:2">
+      <c r="A603" s="2">
+        <v>45991.26041666666</v>
+      </c>
+      <c r="B603">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="604" spans="1:2">
+      <c r="A604" s="2">
+        <v>45991.27083333334</v>
+      </c>
+      <c r="B604">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="605" spans="1:2">
+      <c r="A605" s="2">
+        <v>45991.28125</v>
+      </c>
+      <c r="B605">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="606" spans="1:2">
+      <c r="A606" s="2">
+        <v>45991.29166666666</v>
+      </c>
+      <c r="B606">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="607" spans="1:2">
+      <c r="A607" s="2">
+        <v>45991.30208333334</v>
+      </c>
+      <c r="B607">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="608" spans="1:2">
+      <c r="A608" s="2">
+        <v>45991.3125</v>
+      </c>
+      <c r="B608">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="609" spans="1:2">
+      <c r="A609" s="2">
+        <v>45991.32291666666</v>
+      </c>
+      <c r="B609">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="610" spans="1:2">
+      <c r="A610" s="2">
+        <v>45991.33333333334</v>
+      </c>
+      <c r="B610">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="611" spans="1:2">
+      <c r="A611" s="2">
+        <v>45991.34375</v>
+      </c>
+      <c r="B611">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="612" spans="1:2">
+      <c r="A612" s="2">
+        <v>45991.35416666666</v>
+      </c>
+      <c r="B612">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="613" spans="1:2">
+      <c r="A613" s="2">
+        <v>45991.36458333334</v>
+      </c>
+      <c r="B613">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="614" spans="1:2">
+      <c r="A614" s="2">
+        <v>45991.375</v>
+      </c>
+      <c r="B614">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="615" spans="1:2">
+      <c r="A615" s="2">
+        <v>45991.38541666666</v>
+      </c>
+      <c r="B615">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="616" spans="1:2">
+      <c r="A616" s="2">
+        <v>45991.39583333334</v>
+      </c>
+      <c r="B616">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="617" spans="1:2">
+      <c r="A617" s="2">
+        <v>45991.40625</v>
+      </c>
+      <c r="B617">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="618" spans="1:2">
+      <c r="A618" s="2">
+        <v>45991.41666666666</v>
+      </c>
+      <c r="B618">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="619" spans="1:2">
+      <c r="A619" s="2">
+        <v>45991.42708333334</v>
+      </c>
+      <c r="B619">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="620" spans="1:2">
+      <c r="A620" s="2">
+        <v>45991.4375</v>
+      </c>
+      <c r="B620">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="621" spans="1:2">
+      <c r="A621" s="2">
+        <v>45991.44791666666</v>
+      </c>
+      <c r="B621">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="622" spans="1:2">
+      <c r="A622" s="2">
+        <v>45991.45833333334</v>
+      </c>
+      <c r="B622">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="623" spans="1:2">
+      <c r="A623" s="2">
+        <v>45991.46875</v>
+      </c>
+      <c r="B623">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="624" spans="1:2">
+      <c r="A624" s="2">
+        <v>45991.47916666666</v>
+      </c>
+      <c r="B624">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="625" spans="1:2">
+      <c r="A625" s="2">
+        <v>45991.48958333334</v>
+      </c>
+      <c r="B625">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="626" spans="1:2">
+      <c r="A626" s="2">
+        <v>45991.5</v>
+      </c>
+      <c r="B626">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="627" spans="1:2">
+      <c r="A627" s="2">
+        <v>45991.51041666666</v>
+      </c>
+      <c r="B627">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="628" spans="1:2">
+      <c r="A628" s="2">
+        <v>45991.52083333334</v>
+      </c>
+      <c r="B628">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="629" spans="1:2">
+      <c r="A629" s="2">
+        <v>45991.53125</v>
+      </c>
+      <c r="B629">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="630" spans="1:2">
+      <c r="A630" s="2">
+        <v>45991.54166666666</v>
+      </c>
+      <c r="B630">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="631" spans="1:2">
+      <c r="A631" s="2">
+        <v>45991.55208333334</v>
+      </c>
+      <c r="B631">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="632" spans="1:2">
+      <c r="A632" s="2">
+        <v>45991.5625</v>
+      </c>
+      <c r="B632">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="633" spans="1:2">
+      <c r="A633" s="2">
+        <v>45991.57291666666</v>
+      </c>
+      <c r="B633">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="634" spans="1:2">
+      <c r="A634" s="2">
+        <v>45991.58333333334</v>
+      </c>
+      <c r="B634">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="635" spans="1:2">
+      <c r="A635" s="2">
+        <v>45991.59375</v>
+      </c>
+      <c r="B635">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="636" spans="1:2">
+      <c r="A636" s="2">
+        <v>45991.60416666666</v>
+      </c>
+      <c r="B636">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="637" spans="1:2">
+      <c r="A637" s="2">
+        <v>45991.61458333334</v>
+      </c>
+      <c r="B637">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="638" spans="1:2">
+      <c r="A638" s="2">
+        <v>45991.625</v>
+      </c>
+      <c r="B638">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="639" spans="1:2">
+      <c r="A639" s="2">
+        <v>45991.63541666666</v>
+      </c>
+      <c r="B639">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="640" spans="1:2">
+      <c r="A640" s="2">
+        <v>45991.64583333334</v>
+      </c>
+      <c r="B640">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="641" spans="1:2">
+      <c r="A641" s="2">
+        <v>45991.65625</v>
+      </c>
+      <c r="B641">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="642" spans="1:2">
+      <c r="A642" s="2">
+        <v>45991.66666666666</v>
+      </c>
+      <c r="B642">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="643" spans="1:2">
+      <c r="A643" s="2">
+        <v>45991.67708333334</v>
+      </c>
+      <c r="B643">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="644" spans="1:2">
+      <c r="A644" s="2">
+        <v>45991.6875</v>
+      </c>
+      <c r="B644">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="645" spans="1:2">
+      <c r="A645" s="2">
+        <v>45991.69791666666</v>
+      </c>
+      <c r="B645">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="646" spans="1:2">
+      <c r="A646" s="2">
+        <v>45991.70833333334</v>
+      </c>
+      <c r="B646">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="647" spans="1:2">
+      <c r="A647" s="2">
+        <v>45991.71875</v>
+      </c>
+      <c r="B647">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="648" spans="1:2">
+      <c r="A648" s="2">
+        <v>45991.72916666666</v>
+      </c>
+      <c r="B648">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="649" spans="1:2">
+      <c r="A649" s="2">
+        <v>45991.73958333334</v>
+      </c>
+      <c r="B649">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="650" spans="1:2">
+      <c r="A650" s="2">
+        <v>45991.75</v>
+      </c>
+      <c r="B650">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="651" spans="1:2">
+      <c r="A651" s="2">
+        <v>45991.76041666666</v>
+      </c>
+      <c r="B651">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="652" spans="1:2">
+      <c r="A652" s="2">
+        <v>45991.77083333334</v>
+      </c>
+      <c r="B652">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="653" spans="1:2">
+      <c r="A653" s="2">
+        <v>45991.78125</v>
+      </c>
+      <c r="B653">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="654" spans="1:2">
+      <c r="A654" s="2">
+        <v>45991.79166666666</v>
+      </c>
+      <c r="B654">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="655" spans="1:2">
+      <c r="A655" s="2">
+        <v>45991.80208333334</v>
+      </c>
+      <c r="B655">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="656" spans="1:2">
+      <c r="A656" s="2">
+        <v>45991.8125</v>
+      </c>
+      <c r="B656">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="657" spans="1:2">
+      <c r="A657" s="2">
+        <v>45991.82291666666</v>
+      </c>
+      <c r="B657">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="658" spans="1:2">
+      <c r="A658" s="2">
+        <v>45991.83333333334</v>
+      </c>
+      <c r="B658">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="659" spans="1:2">
+      <c r="A659" s="2">
+        <v>45991.84375</v>
+      </c>
+      <c r="B659">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="660" spans="1:2">
+      <c r="A660" s="2">
+        <v>45991.85416666666</v>
+      </c>
+      <c r="B660">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="661" spans="1:2">
+      <c r="A661" s="2">
+        <v>45991.86458333334</v>
+      </c>
+      <c r="B661">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="662" spans="1:2">
+      <c r="A662" s="2">
+        <v>45991.875</v>
+      </c>
+      <c r="B662">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="663" spans="1:2">
+      <c r="A663" s="2">
+        <v>45991.88541666666</v>
+      </c>
+      <c r="B663">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="664" spans="1:2">
+      <c r="A664" s="2">
+        <v>45991.89583333334</v>
+      </c>
+      <c r="B664">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="665" spans="1:2">
+      <c r="A665" s="2">
+        <v>45991.90625</v>
+      </c>
+      <c r="B665">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="666" spans="1:2">
+      <c r="A666" s="2">
+        <v>45991.91666666666</v>
+      </c>
+      <c r="B666">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="667" spans="1:2">
+      <c r="A667" s="2">
+        <v>45991.92708333334</v>
+      </c>
+      <c r="B667">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="668" spans="1:2">
+      <c r="A668" s="2">
+        <v>45991.9375</v>
+      </c>
+      <c r="B668">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="669" spans="1:2">
+      <c r="A669" s="2">
+        <v>45991.94791666666</v>
+      </c>
+      <c r="B669">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="670" spans="1:2">
+      <c r="A670" s="2">
+        <v>45991.95833333334</v>
+      </c>
+      <c r="B670">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="671" spans="1:2">
+      <c r="A671" s="2">
+        <v>45991.96875</v>
+      </c>
+      <c r="B671">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="672" spans="1:2">
+      <c r="A672" s="2">
+        <v>45991.97916666666</v>
+      </c>
+      <c r="B672">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="673" spans="1:2">
+      <c r="A673" s="2">
+        <v>45991.98958333334</v>
+      </c>
+      <c r="B673">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="674" spans="1:2">
+      <c r="A674" s="2">
+        <v>45992</v>
+      </c>
+      <c r="B674">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="675" spans="1:2">
+      <c r="A675" s="2">
+        <v>45992.01041666666</v>
+      </c>
+      <c r="B675">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="676" spans="1:2">
+      <c r="A676" s="2">
+        <v>45992.02083333334</v>
+      </c>
+      <c r="B676">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="677" spans="1:2">
+      <c r="A677" s="2">
+        <v>45992.03125</v>
+      </c>
+      <c r="B677">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="678" spans="1:2">
+      <c r="A678" s="2">
+        <v>45992.04166666666</v>
+      </c>
+      <c r="B678">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="679" spans="1:2">
+      <c r="A679" s="2">
+        <v>45992.05208333334</v>
+      </c>
+      <c r="B679">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="680" spans="1:2">
+      <c r="A680" s="2">
+        <v>45992.0625</v>
+      </c>
+      <c r="B680">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="681" spans="1:2">
+      <c r="A681" s="2">
+        <v>45992.07291666666</v>
+      </c>
+      <c r="B681">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="682" spans="1:2">
+      <c r="A682" s="2">
+        <v>45992.08333333334</v>
+      </c>
+      <c r="B682">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="683" spans="1:2">
+      <c r="A683" s="2">
+        <v>45992.09375</v>
+      </c>
+      <c r="B683">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="684" spans="1:2">
+      <c r="A684" s="2">
+        <v>45992.10416666666</v>
+      </c>
+      <c r="B684">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="685" spans="1:2">
+      <c r="A685" s="2">
+        <v>45992.11458333334</v>
+      </c>
+      <c r="B685">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="686" spans="1:2">
+      <c r="A686" s="2">
+        <v>45992.125</v>
+      </c>
+      <c r="B686">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="687" spans="1:2">
+      <c r="A687" s="2">
+        <v>45992.13541666666</v>
+      </c>
+      <c r="B687">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="688" spans="1:2">
+      <c r="A688" s="2">
+        <v>45992.14583333334</v>
+      </c>
+      <c r="B688">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="689" spans="1:2">
+      <c r="A689" s="2">
+        <v>45992.15625</v>
+      </c>
+      <c r="B689">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="690" spans="1:2">
+      <c r="A690" s="2">
+        <v>45992.16666666666</v>
+      </c>
+      <c r="B690">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="691" spans="1:2">
+      <c r="A691" s="2">
+        <v>45992.17708333334</v>
+      </c>
+      <c r="B691">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="692" spans="1:2">
+      <c r="A692" s="2">
+        <v>45992.1875</v>
+      </c>
+      <c r="B692">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="693" spans="1:2">
+      <c r="A693" s="2">
+        <v>45992.19791666666</v>
+      </c>
+      <c r="B693">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="694" spans="1:2">
+      <c r="A694" s="2">
+        <v>45992.20833333334</v>
+      </c>
+      <c r="B694">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="695" spans="1:2">
+      <c r="A695" s="2">
+        <v>45992.21875</v>
+      </c>
+      <c r="B695">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="696" spans="1:2">
+      <c r="A696" s="2">
+        <v>45992.22916666666</v>
+      </c>
+      <c r="B696">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="697" spans="1:2">
+      <c r="A697" s="2">
+        <v>45992.23958333334</v>
+      </c>
+      <c r="B697">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="698" spans="1:2">
+      <c r="A698" s="2">
+        <v>45992.25</v>
+      </c>
+      <c r="B698">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="699" spans="1:2">
+      <c r="A699" s="2">
+        <v>45992.26041666666</v>
+      </c>
+      <c r="B699">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="700" spans="1:2">
+      <c r="A700" s="2">
+        <v>45992.27083333334</v>
+      </c>
+      <c r="B700">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="701" spans="1:2">
+      <c r="A701" s="2">
+        <v>45992.28125</v>
+      </c>
+      <c r="B701">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="702" spans="1:2">
+      <c r="A702" s="2">
+        <v>45992.29166666666</v>
+      </c>
+      <c r="B702">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="703" spans="1:2">
+      <c r="A703" s="2">
+        <v>45992.30208333334</v>
+      </c>
+      <c r="B703">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="704" spans="1:2">
+      <c r="A704" s="2">
+        <v>45992.3125</v>
+      </c>
+      <c r="B704">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="705" spans="1:2">
+      <c r="A705" s="2">
+        <v>45992.32291666666</v>
+      </c>
+      <c r="B705">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="706" spans="1:2">
+      <c r="A706" s="2">
+        <v>45992.33333333334</v>
+      </c>
+      <c r="B706">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="707" spans="1:2">
+      <c r="A707" s="2">
+        <v>45992.34375</v>
+      </c>
+      <c r="B707">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="708" spans="1:2">
+      <c r="A708" s="2">
+        <v>45992.35416666666</v>
+      </c>
+      <c r="B708">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="709" spans="1:2">
+      <c r="A709" s="2">
+        <v>45992.36458333334</v>
+      </c>
+      <c r="B709">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="710" spans="1:2">
+      <c r="A710" s="2">
+        <v>45992.375</v>
+      </c>
+      <c r="B710">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="711" spans="1:2">
+      <c r="A711" s="2">
+        <v>45992.38541666666</v>
+      </c>
+      <c r="B711">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="712" spans="1:2">
+      <c r="A712" s="2">
+        <v>45992.39583333334</v>
+      </c>
+      <c r="B712">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="713" spans="1:2">
+      <c r="A713" s="2">
+        <v>45992.40625</v>
+      </c>
+      <c r="B713">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="714" spans="1:2">
+      <c r="A714" s="2">
+        <v>45992.41666666666</v>
+      </c>
+      <c r="B714">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="715" spans="1:2">
+      <c r="A715" s="2">
+        <v>45992.42708333334</v>
+      </c>
+      <c r="B715">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="716" spans="1:2">
+      <c r="A716" s="2">
+        <v>45992.4375</v>
+      </c>
+      <c r="B716">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="717" spans="1:2">
+      <c r="A717" s="2">
+        <v>45992.44791666666</v>
+      </c>
+      <c r="B717">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="718" spans="1:2">
+      <c r="A718" s="2">
+        <v>45992.45833333334</v>
+      </c>
+      <c r="B718">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="719" spans="1:2">
+      <c r="A719" s="2">
+        <v>45992.46875</v>
+      </c>
+      <c r="B719">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="720" spans="1:2">
+      <c r="A720" s="2">
+        <v>45992.47916666666</v>
+      </c>
+      <c r="B720">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="721" spans="1:2">
+      <c r="A721" s="2">
+        <v>45992.48958333334</v>
+      </c>
+      <c r="B721">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="722" spans="1:2">
+      <c r="A722" s="2">
+        <v>45992.5</v>
+      </c>
+      <c r="B722">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="723" spans="1:2">
+      <c r="A723" s="2">
+        <v>45992.51041666666</v>
+      </c>
+      <c r="B723">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="724" spans="1:2">
+      <c r="A724" s="2">
+        <v>45992.52083333334</v>
+      </c>
+      <c r="B724">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="725" spans="1:2">
+      <c r="A725" s="2">
+        <v>45992.53125</v>
+      </c>
+      <c r="B725">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="726" spans="1:2">
+      <c r="A726" s="2">
+        <v>45992.54166666666</v>
+      </c>
+      <c r="B726">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="727" spans="1:2">
+      <c r="A727" s="2">
+        <v>45992.55208333334</v>
+      </c>
+      <c r="B727">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="728" spans="1:2">
+      <c r="A728" s="2">
+        <v>45992.5625</v>
+      </c>
+      <c r="B728">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="729" spans="1:2">
+      <c r="A729" s="2">
+        <v>45992.57291666666</v>
+      </c>
+      <c r="B729">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="730" spans="1:2">
+      <c r="A730" s="2">
+        <v>45992.58333333334</v>
+      </c>
+      <c r="B730">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="731" spans="1:2">
+      <c r="A731" s="2">
+        <v>45992.59375</v>
+      </c>
+      <c r="B731">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="732" spans="1:2">
+      <c r="A732" s="2">
+        <v>45992.60416666666</v>
+      </c>
+      <c r="B732">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="733" spans="1:2">
+      <c r="A733" s="2">
+        <v>45992.61458333334</v>
+      </c>
+      <c r="B733">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="734" spans="1:2">
+      <c r="A734" s="2">
+        <v>45992.625</v>
+      </c>
+      <c r="B734">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="735" spans="1:2">
+      <c r="A735" s="2">
+        <v>45992.63541666666</v>
+      </c>
+      <c r="B735">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="736" spans="1:2">
+      <c r="A736" s="2">
+        <v>45992.64583333334</v>
+      </c>
+      <c r="B736">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="737" spans="1:2">
+      <c r="A737" s="2">
+        <v>45992.65625</v>
+      </c>
+      <c r="B737">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="738" spans="1:2">
+      <c r="A738" s="2">
+        <v>45992.66666666666</v>
+      </c>
+      <c r="B738">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="739" spans="1:2">
+      <c r="A739" s="2">
+        <v>45992.67708333334</v>
+      </c>
+      <c r="B739">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="740" spans="1:2">
+      <c r="A740" s="2">
+        <v>45992.6875</v>
+      </c>
+      <c r="B740">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="741" spans="1:2">
+      <c r="A741" s="2">
+        <v>45992.69791666666</v>
+      </c>
+      <c r="B741">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="742" spans="1:2">
+      <c r="A742" s="2">
+        <v>45992.70833333334</v>
+      </c>
+      <c r="B742">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="743" spans="1:2">
+      <c r="A743" s="2">
+        <v>45992.71875</v>
+      </c>
+      <c r="B743">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="744" spans="1:2">
+      <c r="A744" s="2">
+        <v>45992.72916666666</v>
+      </c>
+      <c r="B744">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="745" spans="1:2">
+      <c r="A745" s="2">
+        <v>45992.73958333334</v>
+      </c>
+      <c r="B745">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="746" spans="1:2">
+      <c r="A746" s="2">
+        <v>45992.75</v>
+      </c>
+      <c r="B746">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="747" spans="1:2">
+      <c r="A747" s="2">
+        <v>45992.76041666666</v>
+      </c>
+      <c r="B747">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="748" spans="1:2">
+      <c r="A748" s="2">
+        <v>45992.77083333334</v>
+      </c>
+      <c r="B748">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="749" spans="1:2">
+      <c r="A749" s="2">
+        <v>45992.78125</v>
+      </c>
+      <c r="B749">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="750" spans="1:2">
+      <c r="A750" s="2">
+        <v>45992.79166666666</v>
+      </c>
+      <c r="B750">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="751" spans="1:2">
+      <c r="A751" s="2">
+        <v>45992.80208333334</v>
+      </c>
+      <c r="B751">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="752" spans="1:2">
+      <c r="A752" s="2">
+        <v>45992.8125</v>
+      </c>
+      <c r="B752">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="753" spans="1:2">
+      <c r="A753" s="2">
+        <v>45992.82291666666</v>
+      </c>
+      <c r="B753">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="754" spans="1:2">
+      <c r="A754" s="2">
+        <v>45992.83333333334</v>
+      </c>
+      <c r="B754">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="755" spans="1:2">
+      <c r="A755" s="2">
+        <v>45992.84375</v>
+      </c>
+      <c r="B755">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="756" spans="1:2">
+      <c r="A756" s="2">
+        <v>45992.85416666666</v>
+      </c>
+      <c r="B756">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="757" spans="1:2">
+      <c r="A757" s="2">
+        <v>45992.86458333334</v>
+      </c>
+      <c r="B757">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="758" spans="1:2">
+      <c r="A758" s="2">
+        <v>45992.875</v>
+      </c>
+      <c r="B758">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="759" spans="1:2">
+      <c r="A759" s="2">
+        <v>45992.88541666666</v>
+      </c>
+      <c r="B759">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="760" spans="1:2">
+      <c r="A760" s="2">
+        <v>45992.89583333334</v>
+      </c>
+      <c r="B760">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="761" spans="1:2">
+      <c r="A761" s="2">
+        <v>45992.90625</v>
+      </c>
+      <c r="B761">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="762" spans="1:2">
+      <c r="A762" s="2">
+        <v>45992.91666666666</v>
+      </c>
+      <c r="B762">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="763" spans="1:2">
+      <c r="A763" s="2">
+        <v>45992.92708333334</v>
+      </c>
+      <c r="B763">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="764" spans="1:2">
+      <c r="A764" s="2">
+        <v>45992.9375</v>
+      </c>
+      <c r="B764">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="765" spans="1:2">
+      <c r="A765" s="2">
+        <v>45992.94791666666</v>
+      </c>
+      <c r="B765">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="766" spans="1:2">
+      <c r="A766" s="2">
+        <v>45992.95833333334</v>
+      </c>
+      <c r="B766">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="767" spans="1:2">
+      <c r="A767" s="2">
+        <v>45992.96875</v>
+      </c>
+      <c r="B767">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="768" spans="1:2">
+      <c r="A768" s="2">
+        <v>45992.97916666666</v>
+      </c>
+      <c r="B768">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="769" spans="1:2">
+      <c r="A769" s="2">
+        <v>45992.98958333334</v>
+      </c>
+      <c r="B769">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="770" spans="1:2">
+      <c r="A770" s="2">
+        <v>45993</v>
+      </c>
+      <c r="B770">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="771" spans="1:2">
+      <c r="A771" s="2">
+        <v>45993.01041666666</v>
+      </c>
+      <c r="B771">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="772" spans="1:2">
+      <c r="A772" s="2">
+        <v>45993.02083333334</v>
+      </c>
+      <c r="B772">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="773" spans="1:2">
+      <c r="A773" s="2">
+        <v>45993.03125</v>
+      </c>
+      <c r="B773">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="774" spans="1:2">
+      <c r="A774" s="2">
+        <v>45993.04166666666</v>
+      </c>
+      <c r="B774">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="775" spans="1:2">
+      <c r="A775" s="2">
+        <v>45993.05208333334</v>
+      </c>
+      <c r="B775">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="776" spans="1:2">
+      <c r="A776" s="2">
+        <v>45993.0625</v>
+      </c>
+      <c r="B776">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="777" spans="1:2">
+      <c r="A777" s="2">
+        <v>45993.07291666666</v>
+      </c>
+      <c r="B777">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="778" spans="1:2">
+      <c r="A778" s="2">
+        <v>45993.08333333334</v>
+      </c>
+      <c r="B778">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="779" spans="1:2">
+      <c r="A779" s="2">
+        <v>45993.09375</v>
+      </c>
+      <c r="B779">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="780" spans="1:2">
+      <c r="A780" s="2">
+        <v>45993.10416666666</v>
+      </c>
+      <c r="B780">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="781" spans="1:2">
+      <c r="A781" s="2">
+        <v>45993.11458333334</v>
+      </c>
+      <c r="B781">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="782" spans="1:2">
+      <c r="A782" s="2">
+        <v>45993.125</v>
+      </c>
+      <c r="B782">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="783" spans="1:2">
+      <c r="A783" s="2">
+        <v>45993.13541666666</v>
+      </c>
+      <c r="B783">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="784" spans="1:2">
+      <c r="A784" s="2">
+        <v>45993.14583333334</v>
+      </c>
+      <c r="B784">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="785" spans="1:2">
+      <c r="A785" s="2">
+        <v>45993.15625</v>
+      </c>
+      <c r="B785">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="786" spans="1:2">
+      <c r="A786" s="2">
+        <v>45993.16666666666</v>
+      </c>
+      <c r="B786">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="787" spans="1:2">
+      <c r="A787" s="2">
+        <v>45993.17708333334</v>
+      </c>
+      <c r="B787">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="788" spans="1:2">
+      <c r="A788" s="2">
+        <v>45993.1875</v>
+      </c>
+      <c r="B788">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="789" spans="1:2">
+      <c r="A789" s="2">
+        <v>45993.19791666666</v>
+      </c>
+      <c r="B789">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="790" spans="1:2">
+      <c r="A790" s="2">
+        <v>45993.20833333334</v>
+      </c>
+      <c r="B790">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="791" spans="1:2">
+      <c r="A791" s="2">
+        <v>45993.21875</v>
+      </c>
+      <c r="B791">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="792" spans="1:2">
+      <c r="A792" s="2">
+        <v>45993.22916666666</v>
+      </c>
+      <c r="B792">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="793" spans="1:2">
+      <c r="A793" s="2">
+        <v>45993.23958333334</v>
+      </c>
+      <c r="B793">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="794" spans="1:2">
+      <c r="A794" s="2">
+        <v>45993.25</v>
+      </c>
+      <c r="B794">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="795" spans="1:2">
+      <c r="A795" s="2">
+        <v>45993.26041666666</v>
+      </c>
+      <c r="B795">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="796" spans="1:2">
+      <c r="A796" s="2">
+        <v>45993.27083333334</v>
+      </c>
+      <c r="B796">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="797" spans="1:2">
+      <c r="A797" s="2">
+        <v>45993.28125</v>
+      </c>
+      <c r="B797">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="798" spans="1:2">
+      <c r="A798" s="2">
+        <v>45993.29166666666</v>
+      </c>
+      <c r="B798">
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="799" spans="1:2">
+      <c r="A799" s="2">
+        <v>45993.30208333334</v>
+      </c>
+      <c r="B799">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="800" spans="1:2">
+      <c r="A800" s="2">
+        <v>45993.3125</v>
+      </c>
+      <c r="B800">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="801" spans="1:2">
+      <c r="A801" s="2">
+        <v>45993.32291666666</v>
+      </c>
+      <c r="B801">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="802" spans="1:2">
+      <c r="A802" s="2">
+        <v>45993.33333333334</v>
+      </c>
+      <c r="B802">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="803" spans="1:2">
+      <c r="A803" s="2">
+        <v>45993.34375</v>
+      </c>
+      <c r="B803">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="804" spans="1:2">
+      <c r="A804" s="2">
+        <v>45993.35416666666</v>
+      </c>
+      <c r="B804">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="805" spans="1:2">
+      <c r="A805" s="2">
+        <v>45993.36458333334</v>
+      </c>
+      <c r="B805">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="806" spans="1:2">
+      <c r="A806" s="2">
+        <v>45993.375</v>
+      </c>
+      <c r="B806">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="807" spans="1:2">
+      <c r="A807" s="2">
+        <v>45993.38541666666</v>
+      </c>
+      <c r="B807">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="808" spans="1:2">
+      <c r="A808" s="2">
+        <v>45993.39583333334</v>
+      </c>
+      <c r="B808">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="809" spans="1:2">
+      <c r="A809" s="2">
+        <v>45993.40625</v>
+      </c>
+      <c r="B809">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="810" spans="1:2">
+      <c r="A810" s="2">
+        <v>45993.41666666666</v>
+      </c>
+      <c r="B810">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="811" spans="1:2">
+      <c r="A811" s="2">
+        <v>45993.42708333334</v>
+      </c>
+      <c r="B811">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="812" spans="1:2">
+      <c r="A812" s="2">
+        <v>45993.4375</v>
+      </c>
+      <c r="B812">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="813" spans="1:2">
+      <c r="A813" s="2">
+        <v>45993.44791666666</v>
+      </c>
+      <c r="B813">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="814" spans="1:2">
+      <c r="A814" s="2">
+        <v>45993.45833333334</v>
+      </c>
+      <c r="B814">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="815" spans="1:2">
+      <c r="A815" s="2">
+        <v>45993.46875</v>
+      </c>
+      <c r="B815">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="816" spans="1:2">
+      <c r="A816" s="2">
+        <v>45993.47916666666</v>
+      </c>
+      <c r="B816">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="817" spans="1:2">
+      <c r="A817" s="2">
+        <v>45993.48958333334</v>
+      </c>
+      <c r="B817">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="818" spans="1:2">
+      <c r="A818" s="2">
+        <v>45993.5</v>
+      </c>
+      <c r="B818">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="819" spans="1:2">
+      <c r="A819" s="2">
+        <v>45993.51041666666</v>
+      </c>
+      <c r="B819">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="820" spans="1:2">
+      <c r="A820" s="2">
+        <v>45993.52083333334</v>
+      </c>
+      <c r="B820">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="821" spans="1:2">
+      <c r="A821" s="2">
+        <v>45993.53125</v>
+      </c>
+      <c r="B821">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="822" spans="1:2">
+      <c r="A822" s="2">
+        <v>45993.54166666666</v>
+      </c>
+      <c r="B822">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="823" spans="1:2">
+      <c r="A823" s="2">
+        <v>45993.55208333334</v>
+      </c>
+      <c r="B823">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="824" spans="1:2">
+      <c r="A824" s="2">
+        <v>45993.5625</v>
+      </c>
+      <c r="B824">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="825" spans="1:2">
+      <c r="A825" s="2">
+        <v>45993.57291666666</v>
+      </c>
+      <c r="B825">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="826" spans="1:2">
+      <c r="A826" s="2">
+        <v>45993.58333333334</v>
+      </c>
+      <c r="B826">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="827" spans="1:2">
+      <c r="A827" s="2">
+        <v>45993.59375</v>
+      </c>
+      <c r="B827">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="828" spans="1:2">
+      <c r="A828" s="2">
+        <v>45993.60416666666</v>
+      </c>
+      <c r="B828">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="829" spans="1:2">
+      <c r="A829" s="2">
+        <v>45993.61458333334</v>
+      </c>
+      <c r="B829">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="830" spans="1:2">
+      <c r="A830" s="2">
+        <v>45993.625</v>
+      </c>
+      <c r="B830">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="831" spans="1:2">
+      <c r="A831" s="2">
+        <v>45993.63541666666</v>
+      </c>
+      <c r="B831">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="832" spans="1:2">
+      <c r="A832" s="2">
+        <v>45993.64583333334</v>
+      </c>
+      <c r="B832">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="833" spans="1:2">
+      <c r="A833" s="2">
+        <v>45993.65625</v>
+      </c>
+      <c r="B833">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="834" spans="1:2">
+      <c r="A834" s="2">
+        <v>45993.66666666666</v>
+      </c>
+      <c r="B834">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="835" spans="1:2">
+      <c r="A835" s="2">
+        <v>45993.67708333334</v>
+      </c>
+      <c r="B835">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="836" spans="1:2">
+      <c r="A836" s="2">
+        <v>45993.6875</v>
+      </c>
+      <c r="B836">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="837" spans="1:2">
+      <c r="A837" s="2">
+        <v>45993.69791666666</v>
+      </c>
+      <c r="B837">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="838" spans="1:2">
+      <c r="A838" s="2">
+        <v>45993.70833333334</v>
+      </c>
+      <c r="B838">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="839" spans="1:2">
+      <c r="A839" s="2">
+        <v>45993.71875</v>
+      </c>
+      <c r="B839">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="840" spans="1:2">
+      <c r="A840" s="2">
+        <v>45993.72916666666</v>
+      </c>
+      <c r="B840">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="841" spans="1:2">
+      <c r="A841" s="2">
+        <v>45993.73958333334</v>
+      </c>
+      <c r="B841">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="842" spans="1:2">
+      <c r="A842" s="2">
+        <v>45993.75</v>
+      </c>
+      <c r="B842">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="843" spans="1:2">
+      <c r="A843" s="2">
+        <v>45993.76041666666</v>
+      </c>
+      <c r="B843">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="844" spans="1:2">
+      <c r="A844" s="2">
+        <v>45993.77083333334</v>
+      </c>
+      <c r="B844">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="845" spans="1:2">
+      <c r="A845" s="2">
+        <v>45993.78125</v>
+      </c>
+      <c r="B845">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="846" spans="1:2">
+      <c r="A846" s="2">
+        <v>45993.79166666666</v>
+      </c>
+      <c r="B846">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="847" spans="1:2">
+      <c r="A847" s="2">
+        <v>45993.80208333334</v>
+      </c>
+      <c r="B847">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="848" spans="1:2">
+      <c r="A848" s="2">
+        <v>45993.8125</v>
+      </c>
+      <c r="B848">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="849" spans="1:2">
+      <c r="A849" s="2">
+        <v>45993.82291666666</v>
+      </c>
+      <c r="B849">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="850" spans="1:2">
+      <c r="A850" s="2">
+        <v>45993.83333333334</v>
+      </c>
+      <c r="B850">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="851" spans="1:2">
+      <c r="A851" s="2">
+        <v>45993.84375</v>
+      </c>
+      <c r="B851">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="852" spans="1:2">
+      <c r="A852" s="2">
+        <v>45993.85416666666</v>
+      </c>
+      <c r="B852">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="853" spans="1:2">
+      <c r="A853" s="2">
+        <v>45993.86458333334</v>
+      </c>
+      <c r="B853">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="854" spans="1:2">
+      <c r="A854" s="2">
+        <v>45993.875</v>
+      </c>
+      <c r="B854">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="855" spans="1:2">
+      <c r="A855" s="2">
+        <v>45993.88541666666</v>
+      </c>
+      <c r="B855">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="856" spans="1:2">
+      <c r="A856" s="2">
+        <v>45993.89583333334</v>
+      </c>
+      <c r="B856">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="857" spans="1:2">
+      <c r="A857" s="2">
+        <v>45993.90625</v>
+      </c>
+      <c r="B857">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="858" spans="1:2">
+      <c r="A858" s="2">
+        <v>45993.91666666666</v>
+      </c>
+      <c r="B858">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="859" spans="1:2">
+      <c r="A859" s="2">
+        <v>45993.92708333334</v>
+      </c>
+      <c r="B859">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="860" spans="1:2">
+      <c r="A860" s="2">
+        <v>45993.9375</v>
+      </c>
+      <c r="B860">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="861" spans="1:2">
+      <c r="A861" s="2">
+        <v>45993.94791666666</v>
+      </c>
+      <c r="B861">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="862" spans="1:2">
+      <c r="A862" s="2">
+        <v>45993.95833333334</v>
+      </c>
+      <c r="B862">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="863" spans="1:2">
+      <c r="A863" s="2">
+        <v>45993.96875</v>
+      </c>
+      <c r="B863">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="864" spans="1:2">
+      <c r="A864" s="2">
+        <v>45993.97916666666</v>
+      </c>
+      <c r="B864">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="865" spans="1:2">
+      <c r="A865" s="2">
+        <v>45993.98958333334</v>
+      </c>
+      <c r="B865">
         <v>0</v>
       </c>
     </row>

--- a/data_fetching/Entsoe/Actual_Production_Hydro_Water_Reservoir.xlsx
+++ b/data_fetching/Entsoe/Actual_Production_Hydro_Water_Reservoir.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B193"/>
+  <dimension ref="A1:B481"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -397,1271 +397,1271 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2">
-        <v>45994</v>
+        <v>46002</v>
       </c>
       <c r="B2">
-        <v>950</v>
+        <v>419</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2">
-        <v>45994.01041666666</v>
+        <v>46002.01041666666</v>
       </c>
       <c r="B3">
-        <v>957</v>
+        <v>411</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2">
-        <v>45994.02083333334</v>
+        <v>46002.02083333334</v>
       </c>
       <c r="B4">
-        <v>955</v>
+        <v>413</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2">
-        <v>45994.03125</v>
+        <v>46002.03125</v>
       </c>
       <c r="B5">
-        <v>952</v>
+        <v>411</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2">
-        <v>45994.04166666666</v>
+        <v>46002.04166666666</v>
       </c>
       <c r="B6">
-        <v>972</v>
+        <v>412</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2">
-        <v>45994.05208333334</v>
+        <v>46002.05208333334</v>
       </c>
       <c r="B7">
-        <v>971</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2">
-        <v>45994.0625</v>
+        <v>46002.0625</v>
       </c>
       <c r="B8">
-        <v>970</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2">
-        <v>45994.07291666666</v>
+        <v>46002.07291666666</v>
       </c>
       <c r="B9">
-        <v>968</v>
+        <v>407</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2">
-        <v>45994.08333333334</v>
+        <v>46002.08333333334</v>
       </c>
       <c r="B10">
-        <v>992</v>
+        <v>414</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2">
-        <v>45994.09375</v>
+        <v>46002.09375</v>
       </c>
       <c r="B11">
-        <v>989</v>
+        <v>413</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2">
-        <v>45994.10416666666</v>
+        <v>46002.10416666666</v>
       </c>
       <c r="B12">
-        <v>986</v>
+        <v>414</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2">
-        <v>45994.11458333334</v>
+        <v>46002.11458333334</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>413</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2">
-        <v>45994.125</v>
+        <v>46002.125</v>
       </c>
       <c r="B14">
-        <v>969</v>
+        <v>416</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2">
-        <v>45994.13541666666</v>
+        <v>46002.13541666666</v>
       </c>
       <c r="B15">
-        <v>980</v>
+        <v>415</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2">
-        <v>45994.14583333334</v>
+        <v>46002.14583333334</v>
       </c>
       <c r="B16">
-        <v>991</v>
+        <v>416</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2">
-        <v>45994.15625</v>
+        <v>46002.15625</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>414</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2">
-        <v>45994.16666666666</v>
+        <v>46002.16666666666</v>
       </c>
       <c r="B18">
-        <v>988</v>
+        <v>428</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2">
-        <v>45994.17708333334</v>
+        <v>46002.17708333334</v>
       </c>
       <c r="B19">
-        <v>986</v>
+        <v>437</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2">
-        <v>45994.1875</v>
+        <v>46002.1875</v>
       </c>
       <c r="B20">
-        <v>983</v>
+        <v>438</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2">
-        <v>45994.19791666666</v>
+        <v>46002.19791666666</v>
       </c>
       <c r="B21">
-        <v>997</v>
+        <v>449</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2">
-        <v>45994.20833333334</v>
+        <v>46002.20833333334</v>
       </c>
       <c r="B22">
-        <v>1034</v>
+        <v>536</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2">
-        <v>45994.21875</v>
+        <v>46002.21875</v>
       </c>
       <c r="B23">
-        <v>1030</v>
+        <v>533</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2">
-        <v>45994.22916666666</v>
+        <v>46002.22916666666</v>
       </c>
       <c r="B24">
-        <v>1029</v>
+        <v>535</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2">
-        <v>45994.23958333334</v>
+        <v>46002.23958333334</v>
       </c>
       <c r="B25">
-        <v>1033</v>
+        <v>558</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2">
-        <v>45994.25</v>
+        <v>46002.25</v>
       </c>
       <c r="B26">
-        <v>1150</v>
+        <v>934</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2">
-        <v>45994.26041666666</v>
+        <v>46002.26041666666</v>
       </c>
       <c r="B27">
-        <v>1155</v>
+        <v>978</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2">
-        <v>45994.27083333334</v>
+        <v>46002.27083333334</v>
       </c>
       <c r="B28">
-        <v>1154</v>
+        <v>974</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2">
-        <v>45994.28125</v>
+        <v>46002.28125</v>
       </c>
       <c r="B29">
-        <v>1162</v>
+        <v>984</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2">
-        <v>45994.29166666666</v>
+        <v>46002.29166666666</v>
       </c>
       <c r="B30">
-        <v>1256</v>
+        <v>953</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2">
-        <v>45994.30208333334</v>
+        <v>46002.30208333334</v>
       </c>
       <c r="B31">
-        <v>1260</v>
+        <v>947</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2">
-        <v>45994.3125</v>
+        <v>46002.3125</v>
       </c>
       <c r="B32">
-        <v>1266</v>
+        <v>946</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2">
-        <v>45994.32291666666</v>
+        <v>46002.32291666666</v>
       </c>
       <c r="B33">
-        <v>1263</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2">
-        <v>45994.33333333334</v>
+        <v>46002.33333333334</v>
       </c>
       <c r="B34">
-        <v>1235</v>
+        <v>928</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="2">
-        <v>45994.34375</v>
+        <v>46002.34375</v>
       </c>
       <c r="B35">
-        <v>1221</v>
+        <v>941</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="2">
-        <v>45994.35416666666</v>
+        <v>46002.35416666666</v>
       </c>
       <c r="B36">
-        <v>1234</v>
+        <v>932</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="2">
-        <v>45994.36458333334</v>
+        <v>46002.36458333334</v>
       </c>
       <c r="B37">
-        <v>1224</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="2">
-        <v>45994.375</v>
+        <v>46002.375</v>
       </c>
       <c r="B38">
-        <v>1194</v>
+        <v>831</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="2">
-        <v>45994.38541666666</v>
+        <v>46002.38541666666</v>
       </c>
       <c r="B39">
-        <v>1186</v>
+        <v>834</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="2">
-        <v>45994.39583333334</v>
+        <v>46002.39583333334</v>
       </c>
       <c r="B40">
-        <v>1174</v>
+        <v>835</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="2">
-        <v>45994.40625</v>
+        <v>46002.40625</v>
       </c>
       <c r="B41">
-        <v>1162</v>
+        <v>825</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="2">
-        <v>45994.41666666666</v>
+        <v>46002.41666666666</v>
       </c>
       <c r="B42">
-        <v>1114</v>
+        <v>751</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="2">
-        <v>45994.42708333334</v>
+        <v>46002.42708333334</v>
       </c>
       <c r="B43">
-        <v>1119</v>
+        <v>756</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="2">
-        <v>45994.4375</v>
+        <v>46002.4375</v>
       </c>
       <c r="B44">
-        <v>1123</v>
+        <v>766</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="2">
-        <v>45994.44791666666</v>
+        <v>46002.44791666666</v>
       </c>
       <c r="B45">
-        <v>1124</v>
+        <v>765</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="2">
-        <v>45994.45833333334</v>
+        <v>46002.45833333334</v>
       </c>
       <c r="B46">
-        <v>1105</v>
+        <v>710</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="2">
-        <v>45994.46875</v>
+        <v>46002.46875</v>
       </c>
       <c r="B47">
-        <v>1106</v>
+        <v>704</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="2">
-        <v>45994.47916666666</v>
+        <v>46002.47916666666</v>
       </c>
       <c r="B48">
-        <v>1107</v>
+        <v>710</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="2">
-        <v>45994.48958333334</v>
+        <v>46002.48958333334</v>
       </c>
       <c r="B49">
-        <v>1103</v>
+        <v>705</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="2">
-        <v>45994.5</v>
+        <v>46002.5</v>
       </c>
       <c r="B50">
-        <v>1060</v>
+        <v>533</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="2">
-        <v>45994.51041666666</v>
+        <v>46002.51041666666</v>
       </c>
       <c r="B51">
-        <v>1074</v>
+        <v>501</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="2">
-        <v>45994.52083333334</v>
+        <v>46002.52083333334</v>
       </c>
       <c r="B52">
-        <v>1084</v>
+        <v>498</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="2">
-        <v>45994.53125</v>
+        <v>46002.53125</v>
       </c>
       <c r="B53">
-        <v>1076</v>
+        <v>506</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="2">
-        <v>45994.54166666666</v>
+        <v>46002.54166666666</v>
       </c>
       <c r="B54">
-        <v>1074</v>
+        <v>690</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="2">
-        <v>45994.55208333334</v>
+        <v>46002.55208333334</v>
       </c>
       <c r="B55">
-        <v>1073</v>
+        <v>700</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="2">
-        <v>45994.5625</v>
+        <v>46002.5625</v>
       </c>
       <c r="B56">
-        <v>1071</v>
+        <v>699</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="2">
-        <v>45994.57291666666</v>
+        <v>46002.57291666666</v>
       </c>
       <c r="B57">
-        <v>1072</v>
+        <v>698</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="2">
-        <v>45994.58333333334</v>
+        <v>46002.58333333334</v>
       </c>
       <c r="B58">
-        <v>1170</v>
+        <v>813</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="2">
-        <v>45994.59375</v>
+        <v>46002.59375</v>
       </c>
       <c r="B59">
-        <v>0</v>
+        <v>818</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="2">
-        <v>45994.60416666666</v>
+        <v>46002.60416666666</v>
       </c>
       <c r="B60">
-        <v>1161</v>
+        <v>824</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="2">
-        <v>45994.61458333334</v>
+        <v>46002.61458333334</v>
       </c>
       <c r="B61">
-        <v>1177</v>
+        <v>825</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="2">
-        <v>45994.625</v>
+        <v>46002.625</v>
       </c>
       <c r="B62">
-        <v>1233</v>
+        <v>963</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="2">
-        <v>45994.63541666666</v>
+        <v>46002.63541666666</v>
       </c>
       <c r="B63">
-        <v>1234</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="2">
-        <v>45994.64583333334</v>
+        <v>46002.64583333334</v>
       </c>
       <c r="B64">
-        <v>1235</v>
+        <v>959</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="2">
-        <v>45994.65625</v>
+        <v>46002.65625</v>
       </c>
       <c r="B65">
-        <v>1216</v>
+        <v>966</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="2">
-        <v>45994.66666666666</v>
+        <v>46002.66666666666</v>
       </c>
       <c r="B66">
-        <v>1298</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="2">
-        <v>45994.67708333334</v>
+        <v>46002.67708333334</v>
       </c>
       <c r="B67">
-        <v>1301</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="2">
-        <v>45994.6875</v>
+        <v>46002.6875</v>
       </c>
       <c r="B68">
-        <v>1303</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="2">
-        <v>45994.69791666666</v>
+        <v>46002.69791666666</v>
       </c>
       <c r="B69">
-        <v>1296</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="2">
-        <v>45994.70833333334</v>
+        <v>46002.70833333334</v>
       </c>
       <c r="B70">
-        <v>1406</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="2">
-        <v>45994.71875</v>
+        <v>46002.71875</v>
       </c>
       <c r="B71">
-        <v>1414</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="2">
-        <v>45994.72916666666</v>
+        <v>46002.72916666666</v>
       </c>
       <c r="B72">
-        <v>1411</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="2">
-        <v>45994.73958333334</v>
+        <v>46002.73958333334</v>
       </c>
       <c r="B73">
-        <v>0</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="2">
-        <v>45994.75</v>
+        <v>46002.75</v>
       </c>
       <c r="B74">
-        <v>1438</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="2">
-        <v>45994.76041666666</v>
+        <v>46002.76041666666</v>
       </c>
       <c r="B75">
-        <v>1452</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="2">
-        <v>45994.77083333334</v>
+        <v>46002.77083333334</v>
       </c>
       <c r="B76">
-        <v>1453</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="2">
-        <v>45994.78125</v>
+        <v>46002.78125</v>
       </c>
       <c r="B77">
-        <v>1456</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="2">
-        <v>45994.79166666666</v>
+        <v>46002.79166666666</v>
       </c>
       <c r="B78">
-        <v>1465</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="2">
-        <v>45994.80208333334</v>
+        <v>46002.80208333334</v>
       </c>
       <c r="B79">
-        <v>1474</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="2">
-        <v>45994.8125</v>
+        <v>46002.8125</v>
       </c>
       <c r="B80">
-        <v>0</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="2">
-        <v>45994.82291666666</v>
+        <v>46002.82291666666</v>
       </c>
       <c r="B81">
-        <v>1476</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="2">
-        <v>45994.83333333334</v>
+        <v>46002.83333333334</v>
       </c>
       <c r="B82">
-        <v>1452</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="2">
-        <v>45994.84375</v>
+        <v>46002.84375</v>
       </c>
       <c r="B83">
-        <v>1455</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="2">
-        <v>45994.85416666666</v>
+        <v>46002.85416666666</v>
       </c>
       <c r="B84">
-        <v>1457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="2">
-        <v>45994.86458333334</v>
+        <v>46002.86458333334</v>
       </c>
       <c r="B85">
-        <v>1451</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="2">
-        <v>45994.875</v>
+        <v>46002.875</v>
       </c>
       <c r="B86">
-        <v>1363</v>
+        <v>965</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="2">
-        <v>45994.88541666666</v>
+        <v>46002.88541666666</v>
       </c>
       <c r="B87">
-        <v>1367</v>
+        <v>955</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="2">
-        <v>45994.89583333334</v>
+        <v>46002.89583333334</v>
       </c>
       <c r="B88">
-        <v>1298</v>
+        <v>953</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="2">
-        <v>45994.90625</v>
+        <v>46002.90625</v>
       </c>
       <c r="B89">
-        <v>1273</v>
+        <v>948</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="2">
-        <v>45994.91666666666</v>
+        <v>46002.91666666666</v>
       </c>
       <c r="B90">
-        <v>1064</v>
+        <v>604</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="2">
-        <v>45994.92708333334</v>
+        <v>46002.92708333334</v>
       </c>
       <c r="B91">
-        <v>1059</v>
+        <v>583</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="2">
-        <v>45994.9375</v>
+        <v>46002.9375</v>
       </c>
       <c r="B92">
-        <v>1054</v>
+        <v>585</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="2">
-        <v>45994.94791666666</v>
+        <v>46002.94791666666</v>
       </c>
       <c r="B93">
-        <v>1037</v>
+        <v>581</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="2">
-        <v>45994.95833333334</v>
+        <v>46002.95833333334</v>
       </c>
       <c r="B94">
-        <v>759</v>
+        <v>467</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="2">
-        <v>45994.96875</v>
+        <v>46002.96875</v>
       </c>
       <c r="B95">
-        <v>751</v>
+        <v>463</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="2">
-        <v>45994.97916666666</v>
+        <v>46002.97916666666</v>
       </c>
       <c r="B96">
-        <v>750</v>
+        <v>462</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="2">
-        <v>45994.98958333334</v>
+        <v>46002.98958333334</v>
       </c>
       <c r="B97">
-        <v>747</v>
+        <v>459</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" s="2">
-        <v>45995</v>
+        <v>46003</v>
       </c>
       <c r="B98">
-        <v>1021</v>
+        <v>446</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" s="2">
-        <v>45995.01041666666</v>
+        <v>46003.01041666666</v>
       </c>
       <c r="B99">
-        <v>1030</v>
+        <v>443</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" s="2">
-        <v>45995.02083333334</v>
+        <v>46003.02083333334</v>
       </c>
       <c r="B100">
-        <v>1027</v>
+        <v>441</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" s="2">
-        <v>45995.03125</v>
+        <v>46003.03125</v>
       </c>
       <c r="B101">
-        <v>1026</v>
+        <v>439</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" s="2">
-        <v>45995.04166666666</v>
+        <v>46003.04166666666</v>
       </c>
       <c r="B102">
-        <v>912</v>
+        <v>444</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" s="2">
-        <v>45995.05208333334</v>
+        <v>46003.05208333334</v>
       </c>
       <c r="B103">
-        <v>906</v>
+        <v>439</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" s="2">
-        <v>45995.0625</v>
+        <v>46003.0625</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>441</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" s="2">
-        <v>45995.07291666666</v>
+        <v>46003.07291666666</v>
       </c>
       <c r="B105">
-        <v>905</v>
+        <v>440</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" s="2">
-        <v>45995.08333333334</v>
+        <v>46003.08333333334</v>
       </c>
       <c r="B106">
-        <v>915</v>
+        <v>436</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" s="2">
-        <v>45995.09375</v>
+        <v>46003.09375</v>
       </c>
       <c r="B107">
-        <v>912</v>
+        <v>435</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" s="2">
-        <v>45995.10416666666</v>
+        <v>46003.10416666666</v>
       </c>
       <c r="B108">
-        <v>0</v>
+        <v>438</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" s="2">
-        <v>45995.11458333334</v>
+        <v>46003.11458333334</v>
       </c>
       <c r="B109">
-        <v>913</v>
+        <v>442</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" s="2">
-        <v>45995.125</v>
+        <v>46003.125</v>
       </c>
       <c r="B110">
-        <v>915</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" s="2">
-        <v>45995.13541666666</v>
+        <v>46003.13541666666</v>
       </c>
       <c r="B111">
-        <v>0</v>
+        <v>440</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112" s="2">
-        <v>45995.14583333334</v>
+        <v>46003.14583333334</v>
       </c>
       <c r="B112">
-        <v>916</v>
+        <v>439</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" s="2">
-        <v>45995.15625</v>
+        <v>46003.15625</v>
       </c>
       <c r="B113">
-        <v>915</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" s="2">
-        <v>45995.16666666666</v>
+        <v>46003.16666666666</v>
       </c>
       <c r="B114">
-        <v>930</v>
+        <v>466</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" s="2">
-        <v>45995.17708333334</v>
+        <v>46003.17708333334</v>
       </c>
       <c r="B115">
-        <v>0</v>
+        <v>465</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" s="2">
-        <v>45995.1875</v>
+        <v>46003.1875</v>
       </c>
       <c r="B116">
-        <v>932</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117" s="2">
-        <v>45995.19791666666</v>
+        <v>46003.19791666666</v>
       </c>
       <c r="B117">
-        <v>950</v>
+        <v>484</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" s="2">
-        <v>45995.20833333334</v>
+        <v>46003.20833333334</v>
       </c>
       <c r="B118">
-        <v>1161</v>
+        <v>544</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" s="2">
-        <v>45995.21875</v>
+        <v>46003.21875</v>
       </c>
       <c r="B119">
-        <v>1156</v>
+        <v>542</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" s="2">
-        <v>45995.22916666666</v>
+        <v>46003.22916666666</v>
       </c>
       <c r="B120">
-        <v>1163</v>
+        <v>546</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" s="2">
-        <v>45995.23958333334</v>
+        <v>46003.23958333334</v>
       </c>
       <c r="B121">
-        <v>1175</v>
+        <v>568</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" s="2">
-        <v>45995.25</v>
+        <v>46003.25</v>
       </c>
       <c r="B122">
-        <v>1300</v>
+        <v>906</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123" s="2">
-        <v>45995.26041666666</v>
+        <v>46003.26041666666</v>
       </c>
       <c r="B123">
-        <v>1289</v>
+        <v>943</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" s="2">
-        <v>45995.27083333334</v>
+        <v>46003.27083333334</v>
       </c>
       <c r="B124">
-        <v>1285</v>
+        <v>960</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" s="2">
-        <v>45995.28125</v>
+        <v>46003.28125</v>
       </c>
       <c r="B125">
-        <v>1284</v>
+        <v>962</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" s="2">
-        <v>45995.29166666666</v>
+        <v>46003.29166666666</v>
       </c>
       <c r="B126">
-        <v>1327</v>
+        <v>945</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127" s="2">
-        <v>45995.30208333334</v>
+        <v>46003.30208333334</v>
       </c>
       <c r="B127">
-        <v>1325</v>
+        <v>954</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128" s="2">
-        <v>45995.3125</v>
+        <v>46003.3125</v>
       </c>
       <c r="B128">
-        <v>0</v>
+        <v>944</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" s="2">
-        <v>45995.32291666666</v>
+        <v>46003.32291666666</v>
       </c>
       <c r="B129">
-        <v>1329</v>
+        <v>942</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" s="2">
-        <v>45995.33333333334</v>
+        <v>46003.33333333334</v>
       </c>
       <c r="B130">
-        <v>1295</v>
+        <v>896</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" s="2">
-        <v>45995.34375</v>
+        <v>46003.34375</v>
       </c>
       <c r="B131">
-        <v>1284</v>
+        <v>893</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132" s="2">
-        <v>45995.35416666666</v>
+        <v>46003.35416666666</v>
       </c>
       <c r="B132">
-        <v>1288</v>
+        <v>894</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" s="2">
-        <v>45995.36458333334</v>
+        <v>46003.36458333334</v>
       </c>
       <c r="B133">
-        <v>1300</v>
+        <v>889</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134" s="2">
-        <v>45995.375</v>
+        <v>46003.375</v>
       </c>
       <c r="B134">
-        <v>1229</v>
+        <v>792</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135" s="2">
-        <v>45995.38541666666</v>
+        <v>46003.38541666666</v>
       </c>
       <c r="B135">
-        <v>1218</v>
+        <v>779</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136" s="2">
-        <v>45995.39583333334</v>
+        <v>46003.39583333334</v>
       </c>
       <c r="B136">
-        <v>1216</v>
+        <v>780</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137" s="2">
-        <v>45995.40625</v>
+        <v>46003.40625</v>
       </c>
       <c r="B137">
-        <v>1215</v>
+        <v>789</v>
       </c>
     </row>
     <row r="138" spans="1:2">
       <c r="A138" s="2">
-        <v>45995.41666666666</v>
+        <v>46003.41666666666</v>
       </c>
       <c r="B138">
-        <v>0</v>
+        <v>736</v>
       </c>
     </row>
     <row r="139" spans="1:2">
       <c r="A139" s="2">
-        <v>45995.42708333334</v>
+        <v>46003.42708333334</v>
       </c>
       <c r="B139">
-        <v>0</v>
+        <v>749</v>
       </c>
     </row>
     <row r="140" spans="1:2">
       <c r="A140" s="2">
-        <v>45995.4375</v>
+        <v>46003.4375</v>
       </c>
       <c r="B140">
-        <v>0</v>
+        <v>756</v>
       </c>
     </row>
     <row r="141" spans="1:2">
       <c r="A141" s="2">
-        <v>45995.44791666666</v>
+        <v>46003.44791666666</v>
       </c>
       <c r="B141">
-        <v>0</v>
+        <v>751</v>
       </c>
     </row>
     <row r="142" spans="1:2">
       <c r="A142" s="2">
-        <v>45995.45833333334</v>
+        <v>46003.45833333334</v>
       </c>
       <c r="B142">
-        <v>0</v>
+        <v>693</v>
       </c>
     </row>
     <row r="143" spans="1:2">
       <c r="A143" s="2">
-        <v>45995.46875</v>
+        <v>46003.46875</v>
       </c>
       <c r="B143">
-        <v>0</v>
+        <v>684</v>
       </c>
     </row>
     <row r="144" spans="1:2">
       <c r="A144" s="2">
-        <v>45995.47916666666</v>
+        <v>46003.47916666666</v>
       </c>
       <c r="B144">
-        <v>0</v>
+        <v>677</v>
       </c>
     </row>
     <row r="145" spans="1:2">
       <c r="A145" s="2">
-        <v>45995.48958333334</v>
+        <v>46003.48958333334</v>
       </c>
       <c r="B145">
-        <v>0</v>
+        <v>668</v>
       </c>
     </row>
     <row r="146" spans="1:2">
       <c r="A146" s="2">
-        <v>45995.5</v>
+        <v>46003.5</v>
       </c>
       <c r="B146">
-        <v>0</v>
+        <v>754</v>
       </c>
     </row>
     <row r="147" spans="1:2">
       <c r="A147" s="2">
-        <v>45995.51041666666</v>
+        <v>46003.51041666666</v>
       </c>
       <c r="B147">
-        <v>0</v>
+        <v>756</v>
       </c>
     </row>
     <row r="148" spans="1:2">
       <c r="A148" s="2">
-        <v>45995.52083333334</v>
+        <v>46003.52083333334</v>
       </c>
       <c r="B148">
-        <v>0</v>
+        <v>751</v>
       </c>
     </row>
     <row r="149" spans="1:2">
       <c r="A149" s="2">
-        <v>45995.53125</v>
+        <v>46003.53125</v>
       </c>
       <c r="B149">
-        <v>0</v>
+        <v>747</v>
       </c>
     </row>
     <row r="150" spans="1:2">
       <c r="A150" s="2">
-        <v>45995.54166666666</v>
+        <v>46003.54166666666</v>
       </c>
       <c r="B150">
-        <v>0</v>
+        <v>784</v>
       </c>
     </row>
     <row r="151" spans="1:2">
       <c r="A151" s="2">
-        <v>45995.55208333334</v>
+        <v>46003.55208333334</v>
       </c>
       <c r="B151">
-        <v>0</v>
+        <v>786</v>
       </c>
     </row>
     <row r="152" spans="1:2">
       <c r="A152" s="2">
-        <v>45995.5625</v>
+        <v>46003.5625</v>
       </c>
       <c r="B152">
-        <v>0</v>
+        <v>766</v>
       </c>
     </row>
     <row r="153" spans="1:2">
       <c r="A153" s="2">
-        <v>45995.57291666666</v>
+        <v>46003.57291666666</v>
       </c>
       <c r="B153">
-        <v>0</v>
+        <v>773</v>
       </c>
     </row>
     <row r="154" spans="1:2">
       <c r="A154" s="2">
-        <v>45995.58333333334</v>
+        <v>46003.58333333334</v>
       </c>
       <c r="B154">
-        <v>0</v>
+        <v>856</v>
       </c>
     </row>
     <row r="155" spans="1:2">
       <c r="A155" s="2">
-        <v>45995.59375</v>
+        <v>46003.59375</v>
       </c>
       <c r="B155">
-        <v>0</v>
+        <v>882</v>
       </c>
     </row>
     <row r="156" spans="1:2">
       <c r="A156" s="2">
-        <v>45995.60416666666</v>
+        <v>46003.60416666666</v>
       </c>
       <c r="B156">
-        <v>0</v>
+        <v>871</v>
       </c>
     </row>
     <row r="157" spans="1:2">
       <c r="A157" s="2">
-        <v>45995.61458333334</v>
+        <v>46003.61458333334</v>
       </c>
       <c r="B157">
-        <v>0</v>
+        <v>877</v>
       </c>
     </row>
     <row r="158" spans="1:2">
       <c r="A158" s="2">
-        <v>45995.625</v>
+        <v>46003.625</v>
       </c>
       <c r="B158">
-        <v>0</v>
+        <v>932</v>
       </c>
     </row>
     <row r="159" spans="1:2">
       <c r="A159" s="2">
-        <v>45995.63541666666</v>
+        <v>46003.63541666666</v>
       </c>
       <c r="B159">
-        <v>0</v>
+        <v>938</v>
       </c>
     </row>
     <row r="160" spans="1:2">
       <c r="A160" s="2">
-        <v>45995.64583333334</v>
+        <v>46003.64583333334</v>
       </c>
       <c r="B160">
         <v>0</v>
@@ -1669,119 +1669,119 @@
     </row>
     <row r="161" spans="1:2">
       <c r="A161" s="2">
-        <v>45995.65625</v>
+        <v>46003.65625</v>
       </c>
       <c r="B161">
-        <v>0</v>
+        <v>941</v>
       </c>
     </row>
     <row r="162" spans="1:2">
       <c r="A162" s="2">
-        <v>45995.66666666666</v>
+        <v>46003.66666666666</v>
       </c>
       <c r="B162">
-        <v>0</v>
+        <v>957</v>
       </c>
     </row>
     <row r="163" spans="1:2">
       <c r="A163" s="2">
-        <v>45995.67708333334</v>
+        <v>46003.67708333334</v>
       </c>
       <c r="B163">
-        <v>0</v>
+        <v>949</v>
       </c>
     </row>
     <row r="164" spans="1:2">
       <c r="A164" s="2">
-        <v>45995.6875</v>
+        <v>46003.6875</v>
       </c>
       <c r="B164">
-        <v>0</v>
+        <v>986</v>
       </c>
     </row>
     <row r="165" spans="1:2">
       <c r="A165" s="2">
-        <v>45995.69791666666</v>
+        <v>46003.69791666666</v>
       </c>
       <c r="B165">
-        <v>0</v>
+        <v>988</v>
       </c>
     </row>
     <row r="166" spans="1:2">
       <c r="A166" s="2">
-        <v>45995.70833333334</v>
+        <v>46003.70833333334</v>
       </c>
       <c r="B166">
-        <v>0</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="167" spans="1:2">
       <c r="A167" s="2">
-        <v>45995.71875</v>
+        <v>46003.71875</v>
       </c>
       <c r="B167">
-        <v>0</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="168" spans="1:2">
       <c r="A168" s="2">
-        <v>45995.72916666666</v>
+        <v>46003.72916666666</v>
       </c>
       <c r="B168">
-        <v>0</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="169" spans="1:2">
       <c r="A169" s="2">
-        <v>45995.73958333334</v>
+        <v>46003.73958333334</v>
       </c>
       <c r="B169">
-        <v>0</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="170" spans="1:2">
       <c r="A170" s="2">
-        <v>45995.75</v>
+        <v>46003.75</v>
       </c>
       <c r="B170">
-        <v>0</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="171" spans="1:2">
       <c r="A171" s="2">
-        <v>45995.76041666666</v>
+        <v>46003.76041666666</v>
       </c>
       <c r="B171">
-        <v>0</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="172" spans="1:2">
       <c r="A172" s="2">
-        <v>45995.77083333334</v>
+        <v>46003.77083333334</v>
       </c>
       <c r="B172">
-        <v>0</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="173" spans="1:2">
       <c r="A173" s="2">
-        <v>45995.78125</v>
+        <v>46003.78125</v>
       </c>
       <c r="B173">
-        <v>0</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="174" spans="1:2">
       <c r="A174" s="2">
-        <v>45995.79166666666</v>
+        <v>46003.79166666666</v>
       </c>
       <c r="B174">
-        <v>0</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="175" spans="1:2">
       <c r="A175" s="2">
-        <v>45995.80208333334</v>
+        <v>46003.80208333334</v>
       </c>
       <c r="B175">
         <v>0</v>
@@ -1789,39 +1789,39 @@
     </row>
     <row r="176" spans="1:2">
       <c r="A176" s="2">
-        <v>45995.8125</v>
+        <v>46003.8125</v>
       </c>
       <c r="B176">
-        <v>0</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="177" spans="1:2">
       <c r="A177" s="2">
-        <v>45995.82291666666</v>
+        <v>46003.82291666666</v>
       </c>
       <c r="B177">
-        <v>0</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="178" spans="1:2">
       <c r="A178" s="2">
-        <v>45995.83333333334</v>
+        <v>46003.83333333334</v>
       </c>
       <c r="B178">
-        <v>0</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="179" spans="1:2">
       <c r="A179" s="2">
-        <v>45995.84375</v>
+        <v>46003.84375</v>
       </c>
       <c r="B179">
-        <v>0</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="180" spans="1:2">
       <c r="A180" s="2">
-        <v>45995.85416666666</v>
+        <v>46003.85416666666</v>
       </c>
       <c r="B180">
         <v>0</v>
@@ -1829,95 +1829,95 @@
     </row>
     <row r="181" spans="1:2">
       <c r="A181" s="2">
-        <v>45995.86458333334</v>
+        <v>46003.86458333334</v>
       </c>
       <c r="B181">
-        <v>0</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="182" spans="1:2">
       <c r="A182" s="2">
-        <v>45995.875</v>
+        <v>46003.875</v>
       </c>
       <c r="B182">
-        <v>0</v>
+        <v>944</v>
       </c>
     </row>
     <row r="183" spans="1:2">
       <c r="A183" s="2">
-        <v>45995.88541666666</v>
+        <v>46003.88541666666</v>
       </c>
       <c r="B183">
-        <v>0</v>
+        <v>937</v>
       </c>
     </row>
     <row r="184" spans="1:2">
       <c r="A184" s="2">
-        <v>45995.89583333334</v>
+        <v>46003.89583333334</v>
       </c>
       <c r="B184">
-        <v>0</v>
+        <v>935</v>
       </c>
     </row>
     <row r="185" spans="1:2">
       <c r="A185" s="2">
-        <v>45995.90625</v>
+        <v>46003.90625</v>
       </c>
       <c r="B185">
-        <v>0</v>
+        <v>931</v>
       </c>
     </row>
     <row r="186" spans="1:2">
       <c r="A186" s="2">
-        <v>45995.91666666666</v>
+        <v>46003.91666666666</v>
       </c>
       <c r="B186">
-        <v>0</v>
+        <v>781</v>
       </c>
     </row>
     <row r="187" spans="1:2">
       <c r="A187" s="2">
-        <v>45995.92708333334</v>
+        <v>46003.92708333334</v>
       </c>
       <c r="B187">
-        <v>0</v>
+        <v>778</v>
       </c>
     </row>
     <row r="188" spans="1:2">
       <c r="A188" s="2">
-        <v>45995.9375</v>
+        <v>46003.9375</v>
       </c>
       <c r="B188">
-        <v>0</v>
+        <v>777</v>
       </c>
     </row>
     <row r="189" spans="1:2">
       <c r="A189" s="2">
-        <v>45995.94791666666</v>
+        <v>46003.94791666666</v>
       </c>
       <c r="B189">
-        <v>0</v>
+        <v>769</v>
       </c>
     </row>
     <row r="190" spans="1:2">
       <c r="A190" s="2">
-        <v>45995.95833333334</v>
+        <v>46003.95833333334</v>
       </c>
       <c r="B190">
-        <v>0</v>
+        <v>602</v>
       </c>
     </row>
     <row r="191" spans="1:2">
       <c r="A191" s="2">
-        <v>45995.96875</v>
+        <v>46003.96875</v>
       </c>
       <c r="B191">
-        <v>0</v>
+        <v>597</v>
       </c>
     </row>
     <row r="192" spans="1:2">
       <c r="A192" s="2">
-        <v>45995.97916666666</v>
+        <v>46003.97916666666</v>
       </c>
       <c r="B192">
         <v>0</v>
@@ -1925,9 +1925,2313 @@
     </row>
     <row r="193" spans="1:2">
       <c r="A193" s="2">
-        <v>45995.98958333334</v>
+        <v>46003.98958333334</v>
       </c>
       <c r="B193">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2">
+      <c r="A194" s="2">
+        <v>46004</v>
+      </c>
+      <c r="B194">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2">
+      <c r="A195" s="2">
+        <v>46004.01041666666</v>
+      </c>
+      <c r="B195">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2">
+      <c r="A196" s="2">
+        <v>46004.02083333334</v>
+      </c>
+      <c r="B196">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2">
+      <c r="A197" s="2">
+        <v>46004.03125</v>
+      </c>
+      <c r="B197">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2">
+      <c r="A198" s="2">
+        <v>46004.04166666666</v>
+      </c>
+      <c r="B198">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2">
+      <c r="A199" s="2">
+        <v>46004.05208333334</v>
+      </c>
+      <c r="B199">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2">
+      <c r="A200" s="2">
+        <v>46004.0625</v>
+      </c>
+      <c r="B200">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2">
+      <c r="A201" s="2">
+        <v>46004.07291666666</v>
+      </c>
+      <c r="B201">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2">
+      <c r="A202" s="2">
+        <v>46004.08333333334</v>
+      </c>
+      <c r="B202">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2">
+      <c r="A203" s="2">
+        <v>46004.09375</v>
+      </c>
+      <c r="B203">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2">
+      <c r="A204" s="2">
+        <v>46004.10416666666</v>
+      </c>
+      <c r="B204">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2">
+      <c r="A205" s="2">
+        <v>46004.11458333334</v>
+      </c>
+      <c r="B205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2">
+      <c r="A206" s="2">
+        <v>46004.125</v>
+      </c>
+      <c r="B206">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2">
+      <c r="A207" s="2">
+        <v>46004.13541666666</v>
+      </c>
+      <c r="B207">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2">
+      <c r="A208" s="2">
+        <v>46004.14583333334</v>
+      </c>
+      <c r="B208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2">
+      <c r="A209" s="2">
+        <v>46004.15625</v>
+      </c>
+      <c r="B209">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2">
+      <c r="A210" s="2">
+        <v>46004.16666666666</v>
+      </c>
+      <c r="B210">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2">
+      <c r="A211" s="2">
+        <v>46004.17708333334</v>
+      </c>
+      <c r="B211">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2">
+      <c r="A212" s="2">
+        <v>46004.1875</v>
+      </c>
+      <c r="B212">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2">
+      <c r="A213" s="2">
+        <v>46004.19791666666</v>
+      </c>
+      <c r="B213">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2">
+      <c r="A214" s="2">
+        <v>46004.20833333334</v>
+      </c>
+      <c r="B214">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2">
+      <c r="A215" s="2">
+        <v>46004.21875</v>
+      </c>
+      <c r="B215">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2">
+      <c r="A216" s="2">
+        <v>46004.22916666666</v>
+      </c>
+      <c r="B216">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2">
+      <c r="A217" s="2">
+        <v>46004.23958333334</v>
+      </c>
+      <c r="B217">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2">
+      <c r="A218" s="2">
+        <v>46004.25</v>
+      </c>
+      <c r="B218">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2">
+      <c r="A219" s="2">
+        <v>46004.26041666666</v>
+      </c>
+      <c r="B219">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2">
+      <c r="A220" s="2">
+        <v>46004.27083333334</v>
+      </c>
+      <c r="B220">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2">
+      <c r="A221" s="2">
+        <v>46004.28125</v>
+      </c>
+      <c r="B221">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2">
+      <c r="A222" s="2">
+        <v>46004.29166666666</v>
+      </c>
+      <c r="B222">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2">
+      <c r="A223" s="2">
+        <v>46004.30208333334</v>
+      </c>
+      <c r="B223">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2">
+      <c r="A224" s="2">
+        <v>46004.3125</v>
+      </c>
+      <c r="B224">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2">
+      <c r="A225" s="2">
+        <v>46004.32291666666</v>
+      </c>
+      <c r="B225">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2">
+      <c r="A226" s="2">
+        <v>46004.33333333334</v>
+      </c>
+      <c r="B226">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2">
+      <c r="A227" s="2">
+        <v>46004.34375</v>
+      </c>
+      <c r="B227">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2">
+      <c r="A228" s="2">
+        <v>46004.35416666666</v>
+      </c>
+      <c r="B228">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2">
+      <c r="A229" s="2">
+        <v>46004.36458333334</v>
+      </c>
+      <c r="B229">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2">
+      <c r="A230" s="2">
+        <v>46004.375</v>
+      </c>
+      <c r="B230">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2">
+      <c r="A231" s="2">
+        <v>46004.38541666666</v>
+      </c>
+      <c r="B231">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2">
+      <c r="A232" s="2">
+        <v>46004.39583333334</v>
+      </c>
+      <c r="B232">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2">
+      <c r="A233" s="2">
+        <v>46004.40625</v>
+      </c>
+      <c r="B233">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2">
+      <c r="A234" s="2">
+        <v>46004.41666666666</v>
+      </c>
+      <c r="B234">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2">
+      <c r="A235" s="2">
+        <v>46004.42708333334</v>
+      </c>
+      <c r="B235">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2">
+      <c r="A236" s="2">
+        <v>46004.4375</v>
+      </c>
+      <c r="B236">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2">
+      <c r="A237" s="2">
+        <v>46004.44791666666</v>
+      </c>
+      <c r="B237">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2">
+      <c r="A238" s="2">
+        <v>46004.45833333334</v>
+      </c>
+      <c r="B238">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2">
+      <c r="A239" s="2">
+        <v>46004.46875</v>
+      </c>
+      <c r="B239">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2">
+      <c r="A240" s="2">
+        <v>46004.47916666666</v>
+      </c>
+      <c r="B240">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2">
+      <c r="A241" s="2">
+        <v>46004.48958333334</v>
+      </c>
+      <c r="B241">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2">
+      <c r="A242" s="2">
+        <v>46004.5</v>
+      </c>
+      <c r="B242">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2">
+      <c r="A243" s="2">
+        <v>46004.51041666666</v>
+      </c>
+      <c r="B243">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2">
+      <c r="A244" s="2">
+        <v>46004.52083333334</v>
+      </c>
+      <c r="B244">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2">
+      <c r="A245" s="2">
+        <v>46004.53125</v>
+      </c>
+      <c r="B245">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2">
+      <c r="A246" s="2">
+        <v>46004.54166666666</v>
+      </c>
+      <c r="B246">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2">
+      <c r="A247" s="2">
+        <v>46004.55208333334</v>
+      </c>
+      <c r="B247">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2">
+      <c r="A248" s="2">
+        <v>46004.5625</v>
+      </c>
+      <c r="B248">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2">
+      <c r="A249" s="2">
+        <v>46004.57291666666</v>
+      </c>
+      <c r="B249">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2">
+      <c r="A250" s="2">
+        <v>46004.58333333334</v>
+      </c>
+      <c r="B250">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2">
+      <c r="A251" s="2">
+        <v>46004.59375</v>
+      </c>
+      <c r="B251">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2">
+      <c r="A252" s="2">
+        <v>46004.60416666666</v>
+      </c>
+      <c r="B252">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2">
+      <c r="A253" s="2">
+        <v>46004.61458333334</v>
+      </c>
+      <c r="B253">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2">
+      <c r="A254" s="2">
+        <v>46004.625</v>
+      </c>
+      <c r="B254">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2">
+      <c r="A255" s="2">
+        <v>46004.63541666666</v>
+      </c>
+      <c r="B255">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2">
+      <c r="A256" s="2">
+        <v>46004.64583333334</v>
+      </c>
+      <c r="B256">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2">
+      <c r="A257" s="2">
+        <v>46004.65625</v>
+      </c>
+      <c r="B257">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2">
+      <c r="A258" s="2">
+        <v>46004.66666666666</v>
+      </c>
+      <c r="B258">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2">
+      <c r="A259" s="2">
+        <v>46004.67708333334</v>
+      </c>
+      <c r="B259">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2">
+      <c r="A260" s="2">
+        <v>46004.6875</v>
+      </c>
+      <c r="B260">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2">
+      <c r="A261" s="2">
+        <v>46004.69791666666</v>
+      </c>
+      <c r="B261">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2">
+      <c r="A262" s="2">
+        <v>46004.70833333334</v>
+      </c>
+      <c r="B262">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2">
+      <c r="A263" s="2">
+        <v>46004.71875</v>
+      </c>
+      <c r="B263">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2">
+      <c r="A264" s="2">
+        <v>46004.72916666666</v>
+      </c>
+      <c r="B264">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2">
+      <c r="A265" s="2">
+        <v>46004.73958333334</v>
+      </c>
+      <c r="B265">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2">
+      <c r="A266" s="2">
+        <v>46004.75</v>
+      </c>
+      <c r="B266">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2">
+      <c r="A267" s="2">
+        <v>46004.76041666666</v>
+      </c>
+      <c r="B267">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2">
+      <c r="A268" s="2">
+        <v>46004.77083333334</v>
+      </c>
+      <c r="B268">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2">
+      <c r="A269" s="2">
+        <v>46004.78125</v>
+      </c>
+      <c r="B269">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2">
+      <c r="A270" s="2">
+        <v>46004.79166666666</v>
+      </c>
+      <c r="B270">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2">
+      <c r="A271" s="2">
+        <v>46004.80208333334</v>
+      </c>
+      <c r="B271">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2">
+      <c r="A272" s="2">
+        <v>46004.8125</v>
+      </c>
+      <c r="B272">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2">
+      <c r="A273" s="2">
+        <v>46004.82291666666</v>
+      </c>
+      <c r="B273">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2">
+      <c r="A274" s="2">
+        <v>46004.83333333334</v>
+      </c>
+      <c r="B274">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2">
+      <c r="A275" s="2">
+        <v>46004.84375</v>
+      </c>
+      <c r="B275">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2">
+      <c r="A276" s="2">
+        <v>46004.85416666666</v>
+      </c>
+      <c r="B276">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2">
+      <c r="A277" s="2">
+        <v>46004.86458333334</v>
+      </c>
+      <c r="B277">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2">
+      <c r="A278" s="2">
+        <v>46004.875</v>
+      </c>
+      <c r="B278">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2">
+      <c r="A279" s="2">
+        <v>46004.88541666666</v>
+      </c>
+      <c r="B279">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2">
+      <c r="A280" s="2">
+        <v>46004.89583333334</v>
+      </c>
+      <c r="B280">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2">
+      <c r="A281" s="2">
+        <v>46004.90625</v>
+      </c>
+      <c r="B281">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2">
+      <c r="A282" s="2">
+        <v>46004.91666666666</v>
+      </c>
+      <c r="B282">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2">
+      <c r="A283" s="2">
+        <v>46004.92708333334</v>
+      </c>
+      <c r="B283">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2">
+      <c r="A284" s="2">
+        <v>46004.9375</v>
+      </c>
+      <c r="B284">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2">
+      <c r="A285" s="2">
+        <v>46004.94791666666</v>
+      </c>
+      <c r="B285">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2">
+      <c r="A286" s="2">
+        <v>46004.95833333334</v>
+      </c>
+      <c r="B286">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2">
+      <c r="A287" s="2">
+        <v>46004.96875</v>
+      </c>
+      <c r="B287">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2">
+      <c r="A288" s="2">
+        <v>46004.97916666666</v>
+      </c>
+      <c r="B288">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2">
+      <c r="A289" s="2">
+        <v>46004.98958333334</v>
+      </c>
+      <c r="B289">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2">
+      <c r="A290" s="2">
+        <v>46005</v>
+      </c>
+      <c r="B290">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2">
+      <c r="A291" s="2">
+        <v>46005.01041666666</v>
+      </c>
+      <c r="B291">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2">
+      <c r="A292" s="2">
+        <v>46005.02083333334</v>
+      </c>
+      <c r="B292">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2">
+      <c r="A293" s="2">
+        <v>46005.03125</v>
+      </c>
+      <c r="B293">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2">
+      <c r="A294" s="2">
+        <v>46005.04166666666</v>
+      </c>
+      <c r="B294">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2">
+      <c r="A295" s="2">
+        <v>46005.05208333334</v>
+      </c>
+      <c r="B295">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2">
+      <c r="A296" s="2">
+        <v>46005.0625</v>
+      </c>
+      <c r="B296">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2">
+      <c r="A297" s="2">
+        <v>46005.07291666666</v>
+      </c>
+      <c r="B297">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2">
+      <c r="A298" s="2">
+        <v>46005.08333333334</v>
+      </c>
+      <c r="B298">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2">
+      <c r="A299" s="2">
+        <v>46005.09375</v>
+      </c>
+      <c r="B299">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2">
+      <c r="A300" s="2">
+        <v>46005.10416666666</v>
+      </c>
+      <c r="B300">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2">
+      <c r="A301" s="2">
+        <v>46005.11458333334</v>
+      </c>
+      <c r="B301">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2">
+      <c r="A302" s="2">
+        <v>46005.125</v>
+      </c>
+      <c r="B302">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2">
+      <c r="A303" s="2">
+        <v>46005.13541666666</v>
+      </c>
+      <c r="B303">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2">
+      <c r="A304" s="2">
+        <v>46005.14583333334</v>
+      </c>
+      <c r="B304">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2">
+      <c r="A305" s="2">
+        <v>46005.15625</v>
+      </c>
+      <c r="B305">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2">
+      <c r="A306" s="2">
+        <v>46005.16666666666</v>
+      </c>
+      <c r="B306">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2">
+      <c r="A307" s="2">
+        <v>46005.17708333334</v>
+      </c>
+      <c r="B307">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2">
+      <c r="A308" s="2">
+        <v>46005.1875</v>
+      </c>
+      <c r="B308">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2">
+      <c r="A309" s="2">
+        <v>46005.19791666666</v>
+      </c>
+      <c r="B309">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2">
+      <c r="A310" s="2">
+        <v>46005.20833333334</v>
+      </c>
+      <c r="B310">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2">
+      <c r="A311" s="2">
+        <v>46005.21875</v>
+      </c>
+      <c r="B311">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2">
+      <c r="A312" s="2">
+        <v>46005.22916666666</v>
+      </c>
+      <c r="B312">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2">
+      <c r="A313" s="2">
+        <v>46005.23958333334</v>
+      </c>
+      <c r="B313">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2">
+      <c r="A314" s="2">
+        <v>46005.25</v>
+      </c>
+      <c r="B314">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2">
+      <c r="A315" s="2">
+        <v>46005.26041666666</v>
+      </c>
+      <c r="B315">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2">
+      <c r="A316" s="2">
+        <v>46005.27083333334</v>
+      </c>
+      <c r="B316">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2">
+      <c r="A317" s="2">
+        <v>46005.28125</v>
+      </c>
+      <c r="B317">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2">
+      <c r="A318" s="2">
+        <v>46005.29166666666</v>
+      </c>
+      <c r="B318">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2">
+      <c r="A319" s="2">
+        <v>46005.30208333334</v>
+      </c>
+      <c r="B319">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2">
+      <c r="A320" s="2">
+        <v>46005.3125</v>
+      </c>
+      <c r="B320">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2">
+      <c r="A321" s="2">
+        <v>46005.32291666666</v>
+      </c>
+      <c r="B321">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2">
+      <c r="A322" s="2">
+        <v>46005.33333333334</v>
+      </c>
+      <c r="B322">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2">
+      <c r="A323" s="2">
+        <v>46005.34375</v>
+      </c>
+      <c r="B323">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2">
+      <c r="A324" s="2">
+        <v>46005.35416666666</v>
+      </c>
+      <c r="B324">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2">
+      <c r="A325" s="2">
+        <v>46005.36458333334</v>
+      </c>
+      <c r="B325">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2">
+      <c r="A326" s="2">
+        <v>46005.375</v>
+      </c>
+      <c r="B326">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2">
+      <c r="A327" s="2">
+        <v>46005.38541666666</v>
+      </c>
+      <c r="B327">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2">
+      <c r="A328" s="2">
+        <v>46005.39583333334</v>
+      </c>
+      <c r="B328">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2">
+      <c r="A329" s="2">
+        <v>46005.40625</v>
+      </c>
+      <c r="B329">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2">
+      <c r="A330" s="2">
+        <v>46005.41666666666</v>
+      </c>
+      <c r="B330">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2">
+      <c r="A331" s="2">
+        <v>46005.42708333334</v>
+      </c>
+      <c r="B331">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2">
+      <c r="A332" s="2">
+        <v>46005.4375</v>
+      </c>
+      <c r="B332">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2">
+      <c r="A333" s="2">
+        <v>46005.44791666666</v>
+      </c>
+      <c r="B333">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2">
+      <c r="A334" s="2">
+        <v>46005.45833333334</v>
+      </c>
+      <c r="B334">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2">
+      <c r="A335" s="2">
+        <v>46005.46875</v>
+      </c>
+      <c r="B335">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2">
+      <c r="A336" s="2">
+        <v>46005.47916666666</v>
+      </c>
+      <c r="B336">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2">
+      <c r="A337" s="2">
+        <v>46005.48958333334</v>
+      </c>
+      <c r="B337">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2">
+      <c r="A338" s="2">
+        <v>46005.5</v>
+      </c>
+      <c r="B338">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2">
+      <c r="A339" s="2">
+        <v>46005.51041666666</v>
+      </c>
+      <c r="B339">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2">
+      <c r="A340" s="2">
+        <v>46005.52083333334</v>
+      </c>
+      <c r="B340">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2">
+      <c r="A341" s="2">
+        <v>46005.53125</v>
+      </c>
+      <c r="B341">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2">
+      <c r="A342" s="2">
+        <v>46005.54166666666</v>
+      </c>
+      <c r="B342">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2">
+      <c r="A343" s="2">
+        <v>46005.55208333334</v>
+      </c>
+      <c r="B343">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2">
+      <c r="A344" s="2">
+        <v>46005.5625</v>
+      </c>
+      <c r="B344">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2">
+      <c r="A345" s="2">
+        <v>46005.57291666666</v>
+      </c>
+      <c r="B345">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2">
+      <c r="A346" s="2">
+        <v>46005.58333333334</v>
+      </c>
+      <c r="B346">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2">
+      <c r="A347" s="2">
+        <v>46005.59375</v>
+      </c>
+      <c r="B347">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2">
+      <c r="A348" s="2">
+        <v>46005.60416666666</v>
+      </c>
+      <c r="B348">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2">
+      <c r="A349" s="2">
+        <v>46005.61458333334</v>
+      </c>
+      <c r="B349">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2">
+      <c r="A350" s="2">
+        <v>46005.625</v>
+      </c>
+      <c r="B350">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2">
+      <c r="A351" s="2">
+        <v>46005.63541666666</v>
+      </c>
+      <c r="B351">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2">
+      <c r="A352" s="2">
+        <v>46005.64583333334</v>
+      </c>
+      <c r="B352">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2">
+      <c r="A353" s="2">
+        <v>46005.65625</v>
+      </c>
+      <c r="B353">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2">
+      <c r="A354" s="2">
+        <v>46005.66666666666</v>
+      </c>
+      <c r="B354">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2">
+      <c r="A355" s="2">
+        <v>46005.67708333334</v>
+      </c>
+      <c r="B355">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2">
+      <c r="A356" s="2">
+        <v>46005.6875</v>
+      </c>
+      <c r="B356">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2">
+      <c r="A357" s="2">
+        <v>46005.69791666666</v>
+      </c>
+      <c r="B357">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2">
+      <c r="A358" s="2">
+        <v>46005.70833333334</v>
+      </c>
+      <c r="B358">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2">
+      <c r="A359" s="2">
+        <v>46005.71875</v>
+      </c>
+      <c r="B359">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2">
+      <c r="A360" s="2">
+        <v>46005.72916666666</v>
+      </c>
+      <c r="B360">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2">
+      <c r="A361" s="2">
+        <v>46005.73958333334</v>
+      </c>
+      <c r="B361">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2">
+      <c r="A362" s="2">
+        <v>46005.75</v>
+      </c>
+      <c r="B362">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2">
+      <c r="A363" s="2">
+        <v>46005.76041666666</v>
+      </c>
+      <c r="B363">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2">
+      <c r="A364" s="2">
+        <v>46005.77083333334</v>
+      </c>
+      <c r="B364">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2">
+      <c r="A365" s="2">
+        <v>46005.78125</v>
+      </c>
+      <c r="B365">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2">
+      <c r="A366" s="2">
+        <v>46005.79166666666</v>
+      </c>
+      <c r="B366">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2">
+      <c r="A367" s="2">
+        <v>46005.80208333334</v>
+      </c>
+      <c r="B367">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2">
+      <c r="A368" s="2">
+        <v>46005.8125</v>
+      </c>
+      <c r="B368">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2">
+      <c r="A369" s="2">
+        <v>46005.82291666666</v>
+      </c>
+      <c r="B369">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2">
+      <c r="A370" s="2">
+        <v>46005.83333333334</v>
+      </c>
+      <c r="B370">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2">
+      <c r="A371" s="2">
+        <v>46005.84375</v>
+      </c>
+      <c r="B371">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2">
+      <c r="A372" s="2">
+        <v>46005.85416666666</v>
+      </c>
+      <c r="B372">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2">
+      <c r="A373" s="2">
+        <v>46005.86458333334</v>
+      </c>
+      <c r="B373">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2">
+      <c r="A374" s="2">
+        <v>46005.875</v>
+      </c>
+      <c r="B374">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2">
+      <c r="A375" s="2">
+        <v>46005.88541666666</v>
+      </c>
+      <c r="B375">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2">
+      <c r="A376" s="2">
+        <v>46005.89583333334</v>
+      </c>
+      <c r="B376">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2">
+      <c r="A377" s="2">
+        <v>46005.90625</v>
+      </c>
+      <c r="B377">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2">
+      <c r="A378" s="2">
+        <v>46005.91666666666</v>
+      </c>
+      <c r="B378">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2">
+      <c r="A379" s="2">
+        <v>46005.92708333334</v>
+      </c>
+      <c r="B379">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2">
+      <c r="A380" s="2">
+        <v>46005.9375</v>
+      </c>
+      <c r="B380">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2">
+      <c r="A381" s="2">
+        <v>46005.94791666666</v>
+      </c>
+      <c r="B381">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2">
+      <c r="A382" s="2">
+        <v>46005.95833333334</v>
+      </c>
+      <c r="B382">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2">
+      <c r="A383" s="2">
+        <v>46005.96875</v>
+      </c>
+      <c r="B383">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2">
+      <c r="A384" s="2">
+        <v>46005.97916666666</v>
+      </c>
+      <c r="B384">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2">
+      <c r="A385" s="2">
+        <v>46005.98958333334</v>
+      </c>
+      <c r="B385">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2">
+      <c r="A386" s="2">
+        <v>46006</v>
+      </c>
+      <c r="B386">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2">
+      <c r="A387" s="2">
+        <v>46006.01041666666</v>
+      </c>
+      <c r="B387">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2">
+      <c r="A388" s="2">
+        <v>46006.02083333334</v>
+      </c>
+      <c r="B388">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2">
+      <c r="A389" s="2">
+        <v>46006.03125</v>
+      </c>
+      <c r="B389">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2">
+      <c r="A390" s="2">
+        <v>46006.04166666666</v>
+      </c>
+      <c r="B390">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2">
+      <c r="A391" s="2">
+        <v>46006.05208333334</v>
+      </c>
+      <c r="B391">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2">
+      <c r="A392" s="2">
+        <v>46006.0625</v>
+      </c>
+      <c r="B392">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2">
+      <c r="A393" s="2">
+        <v>46006.07291666666</v>
+      </c>
+      <c r="B393">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2">
+      <c r="A394" s="2">
+        <v>46006.08333333334</v>
+      </c>
+      <c r="B394">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2">
+      <c r="A395" s="2">
+        <v>46006.09375</v>
+      </c>
+      <c r="B395">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2">
+      <c r="A396" s="2">
+        <v>46006.10416666666</v>
+      </c>
+      <c r="B396">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2">
+      <c r="A397" s="2">
+        <v>46006.11458333334</v>
+      </c>
+      <c r="B397">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2">
+      <c r="A398" s="2">
+        <v>46006.125</v>
+      </c>
+      <c r="B398">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2">
+      <c r="A399" s="2">
+        <v>46006.13541666666</v>
+      </c>
+      <c r="B399">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2">
+      <c r="A400" s="2">
+        <v>46006.14583333334</v>
+      </c>
+      <c r="B400">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2">
+      <c r="A401" s="2">
+        <v>46006.15625</v>
+      </c>
+      <c r="B401">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2">
+      <c r="A402" s="2">
+        <v>46006.16666666666</v>
+      </c>
+      <c r="B402">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2">
+      <c r="A403" s="2">
+        <v>46006.17708333334</v>
+      </c>
+      <c r="B403">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2">
+      <c r="A404" s="2">
+        <v>46006.1875</v>
+      </c>
+      <c r="B404">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2">
+      <c r="A405" s="2">
+        <v>46006.19791666666</v>
+      </c>
+      <c r="B405">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2">
+      <c r="A406" s="2">
+        <v>46006.20833333334</v>
+      </c>
+      <c r="B406">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2">
+      <c r="A407" s="2">
+        <v>46006.21875</v>
+      </c>
+      <c r="B407">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2">
+      <c r="A408" s="2">
+        <v>46006.22916666666</v>
+      </c>
+      <c r="B408">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2">
+      <c r="A409" s="2">
+        <v>46006.23958333334</v>
+      </c>
+      <c r="B409">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2">
+      <c r="A410" s="2">
+        <v>46006.25</v>
+      </c>
+      <c r="B410">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2">
+      <c r="A411" s="2">
+        <v>46006.26041666666</v>
+      </c>
+      <c r="B411">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2">
+      <c r="A412" s="2">
+        <v>46006.27083333334</v>
+      </c>
+      <c r="B412">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2">
+      <c r="A413" s="2">
+        <v>46006.28125</v>
+      </c>
+      <c r="B413">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2">
+      <c r="A414" s="2">
+        <v>46006.29166666666</v>
+      </c>
+      <c r="B414">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2">
+      <c r="A415" s="2">
+        <v>46006.30208333334</v>
+      </c>
+      <c r="B415">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2">
+      <c r="A416" s="2">
+        <v>46006.3125</v>
+      </c>
+      <c r="B416">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2">
+      <c r="A417" s="2">
+        <v>46006.32291666666</v>
+      </c>
+      <c r="B417">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2">
+      <c r="A418" s="2">
+        <v>46006.33333333334</v>
+      </c>
+      <c r="B418">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2">
+      <c r="A419" s="2">
+        <v>46006.34375</v>
+      </c>
+      <c r="B419">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2">
+      <c r="A420" s="2">
+        <v>46006.35416666666</v>
+      </c>
+      <c r="B420">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2">
+      <c r="A421" s="2">
+        <v>46006.36458333334</v>
+      </c>
+      <c r="B421">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2">
+      <c r="A422" s="2">
+        <v>46006.375</v>
+      </c>
+      <c r="B422">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2">
+      <c r="A423" s="2">
+        <v>46006.38541666666</v>
+      </c>
+      <c r="B423">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2">
+      <c r="A424" s="2">
+        <v>46006.39583333334</v>
+      </c>
+      <c r="B424">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2">
+      <c r="A425" s="2">
+        <v>46006.40625</v>
+      </c>
+      <c r="B425">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2">
+      <c r="A426" s="2">
+        <v>46006.41666666666</v>
+      </c>
+      <c r="B426">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2">
+      <c r="A427" s="2">
+        <v>46006.42708333334</v>
+      </c>
+      <c r="B427">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2">
+      <c r="A428" s="2">
+        <v>46006.4375</v>
+      </c>
+      <c r="B428">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2">
+      <c r="A429" s="2">
+        <v>46006.44791666666</v>
+      </c>
+      <c r="B429">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2">
+      <c r="A430" s="2">
+        <v>46006.45833333334</v>
+      </c>
+      <c r="B430">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2">
+      <c r="A431" s="2">
+        <v>46006.46875</v>
+      </c>
+      <c r="B431">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2">
+      <c r="A432" s="2">
+        <v>46006.47916666666</v>
+      </c>
+      <c r="B432">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2">
+      <c r="A433" s="2">
+        <v>46006.48958333334</v>
+      </c>
+      <c r="B433">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2">
+      <c r="A434" s="2">
+        <v>46006.5</v>
+      </c>
+      <c r="B434">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2">
+      <c r="A435" s="2">
+        <v>46006.51041666666</v>
+      </c>
+      <c r="B435">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2">
+      <c r="A436" s="2">
+        <v>46006.52083333334</v>
+      </c>
+      <c r="B436">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2">
+      <c r="A437" s="2">
+        <v>46006.53125</v>
+      </c>
+      <c r="B437">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2">
+      <c r="A438" s="2">
+        <v>46006.54166666666</v>
+      </c>
+      <c r="B438">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2">
+      <c r="A439" s="2">
+        <v>46006.55208333334</v>
+      </c>
+      <c r="B439">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2">
+      <c r="A440" s="2">
+        <v>46006.5625</v>
+      </c>
+      <c r="B440">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2">
+      <c r="A441" s="2">
+        <v>46006.57291666666</v>
+      </c>
+      <c r="B441">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2">
+      <c r="A442" s="2">
+        <v>46006.58333333334</v>
+      </c>
+      <c r="B442">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2">
+      <c r="A443" s="2">
+        <v>46006.59375</v>
+      </c>
+      <c r="B443">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2">
+      <c r="A444" s="2">
+        <v>46006.60416666666</v>
+      </c>
+      <c r="B444">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2">
+      <c r="A445" s="2">
+        <v>46006.61458333334</v>
+      </c>
+      <c r="B445">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2">
+      <c r="A446" s="2">
+        <v>46006.625</v>
+      </c>
+      <c r="B446">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2">
+      <c r="A447" s="2">
+        <v>46006.63541666666</v>
+      </c>
+      <c r="B447">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2">
+      <c r="A448" s="2">
+        <v>46006.64583333334</v>
+      </c>
+      <c r="B448">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2">
+      <c r="A449" s="2">
+        <v>46006.65625</v>
+      </c>
+      <c r="B449">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2">
+      <c r="A450" s="2">
+        <v>46006.66666666666</v>
+      </c>
+      <c r="B450">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2">
+      <c r="A451" s="2">
+        <v>46006.67708333334</v>
+      </c>
+      <c r="B451">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2">
+      <c r="A452" s="2">
+        <v>46006.6875</v>
+      </c>
+      <c r="B452">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2">
+      <c r="A453" s="2">
+        <v>46006.69791666666</v>
+      </c>
+      <c r="B453">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2">
+      <c r="A454" s="2">
+        <v>46006.70833333334</v>
+      </c>
+      <c r="B454">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2">
+      <c r="A455" s="2">
+        <v>46006.71875</v>
+      </c>
+      <c r="B455">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2">
+      <c r="A456" s="2">
+        <v>46006.72916666666</v>
+      </c>
+      <c r="B456">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2">
+      <c r="A457" s="2">
+        <v>46006.73958333334</v>
+      </c>
+      <c r="B457">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2">
+      <c r="A458" s="2">
+        <v>46006.75</v>
+      </c>
+      <c r="B458">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2">
+      <c r="A459" s="2">
+        <v>46006.76041666666</v>
+      </c>
+      <c r="B459">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2">
+      <c r="A460" s="2">
+        <v>46006.77083333334</v>
+      </c>
+      <c r="B460">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2">
+      <c r="A461" s="2">
+        <v>46006.78125</v>
+      </c>
+      <c r="B461">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2">
+      <c r="A462" s="2">
+        <v>46006.79166666666</v>
+      </c>
+      <c r="B462">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2">
+      <c r="A463" s="2">
+        <v>46006.80208333334</v>
+      </c>
+      <c r="B463">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="464" spans="1:2">
+      <c r="A464" s="2">
+        <v>46006.8125</v>
+      </c>
+      <c r="B464">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="465" spans="1:2">
+      <c r="A465" s="2">
+        <v>46006.82291666666</v>
+      </c>
+      <c r="B465">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="466" spans="1:2">
+      <c r="A466" s="2">
+        <v>46006.83333333334</v>
+      </c>
+      <c r="B466">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="467" spans="1:2">
+      <c r="A467" s="2">
+        <v>46006.84375</v>
+      </c>
+      <c r="B467">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="468" spans="1:2">
+      <c r="A468" s="2">
+        <v>46006.85416666666</v>
+      </c>
+      <c r="B468">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="469" spans="1:2">
+      <c r="A469" s="2">
+        <v>46006.86458333334</v>
+      </c>
+      <c r="B469">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="470" spans="1:2">
+      <c r="A470" s="2">
+        <v>46006.875</v>
+      </c>
+      <c r="B470">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="471" spans="1:2">
+      <c r="A471" s="2">
+        <v>46006.88541666666</v>
+      </c>
+      <c r="B471">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="472" spans="1:2">
+      <c r="A472" s="2">
+        <v>46006.89583333334</v>
+      </c>
+      <c r="B472">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="473" spans="1:2">
+      <c r="A473" s="2">
+        <v>46006.90625</v>
+      </c>
+      <c r="B473">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="474" spans="1:2">
+      <c r="A474" s="2">
+        <v>46006.91666666666</v>
+      </c>
+      <c r="B474">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="475" spans="1:2">
+      <c r="A475" s="2">
+        <v>46006.92708333334</v>
+      </c>
+      <c r="B475">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="476" spans="1:2">
+      <c r="A476" s="2">
+        <v>46006.9375</v>
+      </c>
+      <c r="B476">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="477" spans="1:2">
+      <c r="A477" s="2">
+        <v>46006.94791666666</v>
+      </c>
+      <c r="B477">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="478" spans="1:2">
+      <c r="A478" s="2">
+        <v>46006.95833333334</v>
+      </c>
+      <c r="B478">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="479" spans="1:2">
+      <c r="A479" s="2">
+        <v>46006.96875</v>
+      </c>
+      <c r="B479">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="480" spans="1:2">
+      <c r="A480" s="2">
+        <v>46006.97916666666</v>
+      </c>
+      <c r="B480">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="481" spans="1:2">
+      <c r="A481" s="2">
+        <v>46006.98958333334</v>
+      </c>
+      <c r="B481">
         <v>0</v>
       </c>
     </row>

--- a/data_fetching/Entsoe/Actual_Production_Hydro_Water_Reservoir.xlsx
+++ b/data_fetching/Entsoe/Actual_Production_Hydro_Water_Reservoir.xlsx
@@ -397,119 +397,119 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2">
-        <v>46021</v>
+        <v>46043</v>
       </c>
       <c r="B2">
-        <v>808</v>
+        <v>385</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2">
-        <v>46021.01041666666</v>
+        <v>46043.01041666666</v>
       </c>
       <c r="B3">
-        <v>796</v>
+        <v>379</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2">
-        <v>46021.02083333334</v>
+        <v>46043.02083333334</v>
       </c>
       <c r="B4">
-        <v>731</v>
+        <v>380</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2">
-        <v>46021.03125</v>
+        <v>46043.03125</v>
       </c>
       <c r="B5">
-        <v>712</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2">
-        <v>46021.04166666666</v>
+        <v>46043.04166666666</v>
       </c>
       <c r="B6">
-        <v>714</v>
+        <v>385</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2">
-        <v>46021.05208333334</v>
+        <v>46043.05208333334</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>378</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2">
-        <v>46021.0625</v>
+        <v>46043.0625</v>
       </c>
       <c r="B8">
-        <v>731</v>
+        <v>377</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2">
-        <v>46021.07291666666</v>
+        <v>46043.07291666666</v>
       </c>
       <c r="B9">
-        <v>733</v>
+        <v>374</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2">
-        <v>46021.08333333334</v>
+        <v>46043.08333333334</v>
       </c>
       <c r="B10">
-        <v>753</v>
+        <v>378</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2">
-        <v>46021.09375</v>
+        <v>46043.09375</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>374</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2">
-        <v>46021.10416666666</v>
+        <v>46043.10416666666</v>
       </c>
       <c r="B12">
-        <v>754</v>
+        <v>377</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2">
-        <v>46021.11458333334</v>
+        <v>46043.11458333334</v>
       </c>
       <c r="B13">
-        <v>755</v>
+        <v>376</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2">
-        <v>46021.125</v>
+        <v>46043.125</v>
       </c>
       <c r="B14">
-        <v>753</v>
+        <v>369</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2">
-        <v>46021.13541666666</v>
+        <v>46043.13541666666</v>
       </c>
       <c r="B15">
-        <v>757</v>
+        <v>359</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2">
-        <v>46021.14583333334</v>
+        <v>46043.14583333334</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -517,927 +517,927 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2">
-        <v>46021.15625</v>
+        <v>46043.15625</v>
       </c>
       <c r="B17">
-        <v>764</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2">
-        <v>46021.16666666666</v>
+        <v>46043.16666666666</v>
       </c>
       <c r="B18">
-        <v>771</v>
+        <v>379</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2">
-        <v>46021.17708333334</v>
+        <v>46043.17708333334</v>
       </c>
       <c r="B19">
-        <v>772</v>
+        <v>380</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2">
-        <v>46021.1875</v>
+        <v>46043.1875</v>
       </c>
       <c r="B20">
-        <v>828</v>
+        <v>382</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2">
-        <v>46021.19791666666</v>
+        <v>46043.19791666666</v>
       </c>
       <c r="B21">
-        <v>827</v>
+        <v>396</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2">
-        <v>46021.20833333334</v>
+        <v>46043.20833333334</v>
       </c>
       <c r="B22">
-        <v>821</v>
+        <v>469</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2">
-        <v>46021.21875</v>
+        <v>46043.21875</v>
       </c>
       <c r="B23">
-        <v>817</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2">
-        <v>46021.22916666666</v>
+        <v>46043.22916666666</v>
       </c>
       <c r="B24">
-        <v>809</v>
+        <v>488</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2">
-        <v>46021.23958333334</v>
+        <v>46043.23958333334</v>
       </c>
       <c r="B25">
-        <v>853</v>
+        <v>506</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2">
-        <v>46021.25</v>
+        <v>46043.25</v>
       </c>
       <c r="B26">
-        <v>675</v>
+        <v>839</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2">
-        <v>46021.26041666666</v>
+        <v>46043.26041666666</v>
       </c>
       <c r="B27">
-        <v>674</v>
+        <v>848</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2">
-        <v>46021.27083333334</v>
+        <v>46043.27083333334</v>
       </c>
       <c r="B28">
-        <v>676</v>
+        <v>845</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2">
-        <v>46021.28125</v>
+        <v>46043.28125</v>
       </c>
       <c r="B29">
-        <v>680</v>
+        <v>850</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2">
-        <v>46021.29166666666</v>
+        <v>46043.29166666666</v>
       </c>
       <c r="B30">
-        <v>561</v>
+        <v>927</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2">
-        <v>46021.30208333334</v>
+        <v>46043.30208333334</v>
       </c>
       <c r="B31">
-        <v>564</v>
+        <v>932</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2">
-        <v>46021.3125</v>
+        <v>46043.3125</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>927</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2">
-        <v>46021.32291666666</v>
+        <v>46043.32291666666</v>
       </c>
       <c r="B33">
-        <v>560</v>
+        <v>993</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2">
-        <v>46021.33333333334</v>
+        <v>46043.33333333334</v>
       </c>
       <c r="B34">
-        <v>446</v>
+        <v>994</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="2">
-        <v>46021.34375</v>
+        <v>46043.34375</v>
       </c>
       <c r="B35">
-        <v>382</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="2">
-        <v>46021.35416666666</v>
+        <v>46043.35416666666</v>
       </c>
       <c r="B36">
-        <v>377</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="2">
-        <v>46021.36458333334</v>
+        <v>46043.36458333334</v>
       </c>
       <c r="B37">
-        <v>376</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="2">
-        <v>46021.375</v>
+        <v>46043.375</v>
       </c>
       <c r="B38">
-        <v>304</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="2">
-        <v>46021.38541666666</v>
+        <v>46043.38541666666</v>
       </c>
       <c r="B39">
-        <v>298</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="2">
-        <v>46021.39583333334</v>
+        <v>46043.39583333334</v>
       </c>
       <c r="B40">
-        <v>295</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="2">
-        <v>46021.40625</v>
+        <v>46043.40625</v>
       </c>
       <c r="B41">
-        <v>290</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="2">
-        <v>46021.41666666666</v>
+        <v>46043.41666666666</v>
       </c>
       <c r="B42">
-        <v>323</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="2">
-        <v>46021.42708333334</v>
+        <v>46043.42708333334</v>
       </c>
       <c r="B43">
-        <v>283</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="2">
-        <v>46021.4375</v>
+        <v>46043.4375</v>
       </c>
       <c r="B44">
-        <v>281</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="2">
-        <v>46021.44791666666</v>
+        <v>46043.44791666666</v>
       </c>
       <c r="B45">
-        <v>278</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="2">
-        <v>46021.45833333334</v>
+        <v>46043.45833333334</v>
       </c>
       <c r="B46">
-        <v>280</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="2">
-        <v>46021.46875</v>
+        <v>46043.46875</v>
       </c>
       <c r="B47">
-        <v>278</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="2">
-        <v>46021.47916666666</v>
+        <v>46043.47916666666</v>
       </c>
       <c r="B48">
-        <v>0</v>
+        <v>829</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="2">
-        <v>46021.48958333334</v>
+        <v>46043.48958333334</v>
       </c>
       <c r="B49">
-        <v>293</v>
+        <v>821</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="2">
-        <v>46021.5</v>
+        <v>46043.5</v>
       </c>
       <c r="B50">
-        <v>449</v>
+        <v>905</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="2">
-        <v>46021.51041666666</v>
+        <v>46043.51041666666</v>
       </c>
       <c r="B51">
-        <v>434</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="2">
-        <v>46021.52083333334</v>
+        <v>46043.52083333334</v>
       </c>
       <c r="B52">
-        <v>449</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="2">
-        <v>46021.53125</v>
+        <v>46043.53125</v>
       </c>
       <c r="B53">
-        <v>470</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="2">
-        <v>46021.54166666666</v>
+        <v>46043.54166666666</v>
       </c>
       <c r="B54">
-        <v>481</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="2">
-        <v>46021.55208333334</v>
+        <v>46043.55208333334</v>
       </c>
       <c r="B55">
-        <v>501</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="2">
-        <v>46021.5625</v>
+        <v>46043.5625</v>
       </c>
       <c r="B56">
-        <v>556</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="2">
-        <v>46021.57291666666</v>
+        <v>46043.57291666666</v>
       </c>
       <c r="B57">
-        <v>494</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="2">
-        <v>46021.58333333334</v>
+        <v>46043.58333333334</v>
       </c>
       <c r="B58">
-        <v>616</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="2">
-        <v>46021.59375</v>
+        <v>46043.59375</v>
       </c>
       <c r="B59">
-        <v>633</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="2">
-        <v>46021.60416666666</v>
+        <v>46043.60416666666</v>
       </c>
       <c r="B60">
-        <v>640</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="2">
-        <v>46021.61458333334</v>
+        <v>46043.61458333334</v>
       </c>
       <c r="B61">
-        <v>650</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="2">
-        <v>46021.625</v>
+        <v>46043.625</v>
       </c>
       <c r="B62">
-        <v>824</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="2">
-        <v>46021.63541666666</v>
+        <v>46043.63541666666</v>
       </c>
       <c r="B63">
-        <v>837</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="2">
-        <v>46021.64583333334</v>
+        <v>46043.64583333334</v>
       </c>
       <c r="B64">
-        <v>913</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="2">
-        <v>46021.65625</v>
+        <v>46043.65625</v>
       </c>
       <c r="B65">
-        <v>934</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="2">
-        <v>46021.66666666666</v>
+        <v>46043.66666666666</v>
       </c>
       <c r="B66">
-        <v>1042</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="2">
-        <v>46021.67708333334</v>
+        <v>46043.67708333334</v>
       </c>
       <c r="B67">
-        <v>1036</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="2">
-        <v>46021.6875</v>
+        <v>46043.6875</v>
       </c>
       <c r="B68">
-        <v>1065</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="2">
-        <v>46021.69791666666</v>
+        <v>46043.69791666666</v>
       </c>
       <c r="B69">
-        <v>1179</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="2">
-        <v>46021.70833333334</v>
+        <v>46043.70833333334</v>
       </c>
       <c r="B70">
-        <v>1109</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="2">
-        <v>46021.71875</v>
+        <v>46043.71875</v>
       </c>
       <c r="B71">
-        <v>1107</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="2">
-        <v>46021.72916666666</v>
+        <v>46043.72916666666</v>
       </c>
       <c r="B72">
-        <v>1109</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="2">
-        <v>46021.73958333334</v>
+        <v>46043.73958333334</v>
       </c>
       <c r="B73">
-        <v>1043</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="2">
-        <v>46021.75</v>
+        <v>46043.75</v>
       </c>
       <c r="B74">
-        <v>1044</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="2">
-        <v>46021.76041666666</v>
+        <v>46043.76041666666</v>
       </c>
       <c r="B75">
-        <v>1005</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="2">
-        <v>46021.77083333334</v>
+        <v>46043.77083333334</v>
       </c>
       <c r="B76">
-        <v>1076</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="2">
-        <v>46021.78125</v>
+        <v>46043.78125</v>
       </c>
       <c r="B77">
-        <v>1095</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="2">
-        <v>46021.79166666666</v>
+        <v>46043.79166666666</v>
       </c>
       <c r="B78">
-        <v>1071</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="2">
-        <v>46021.80208333334</v>
+        <v>46043.80208333334</v>
       </c>
       <c r="B79">
-        <v>1065</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="2">
-        <v>46021.8125</v>
+        <v>46043.8125</v>
       </c>
       <c r="B80">
-        <v>1063</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="2">
-        <v>46021.82291666666</v>
+        <v>46043.82291666666</v>
       </c>
       <c r="B81">
-        <v>1046</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="2">
-        <v>46021.83333333334</v>
+        <v>46043.83333333334</v>
       </c>
       <c r="B82">
-        <v>975</v>
+        <v>994</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="2">
-        <v>46021.84375</v>
+        <v>46043.84375</v>
       </c>
       <c r="B83">
-        <v>962</v>
+        <v>905</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="2">
-        <v>46021.85416666666</v>
+        <v>46043.85416666666</v>
       </c>
       <c r="B84">
-        <v>896</v>
+        <v>857</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="2">
-        <v>46021.86458333334</v>
+        <v>46043.86458333334</v>
       </c>
       <c r="B85">
-        <v>828</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="2">
-        <v>46021.875</v>
+        <v>46043.875</v>
       </c>
       <c r="B86">
-        <v>791</v>
+        <v>782</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="2">
-        <v>46021.88541666666</v>
+        <v>46043.88541666666</v>
       </c>
       <c r="B87">
-        <v>803</v>
+        <v>776</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="2">
-        <v>46021.89583333334</v>
+        <v>46043.89583333334</v>
       </c>
       <c r="B88">
-        <v>808</v>
+        <v>779</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="2">
-        <v>46021.90625</v>
+        <v>46043.90625</v>
       </c>
       <c r="B89">
-        <v>807</v>
+        <v>764</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="2">
-        <v>46021.91666666666</v>
+        <v>46043.91666666666</v>
       </c>
       <c r="B90">
-        <v>731</v>
+        <v>701</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="2">
-        <v>46021.92708333334</v>
+        <v>46043.92708333334</v>
       </c>
       <c r="B91">
-        <v>0</v>
+        <v>682</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="2">
-        <v>46021.9375</v>
+        <v>46043.9375</v>
       </c>
       <c r="B92">
-        <v>728</v>
+        <v>674</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="2">
-        <v>46021.94791666666</v>
+        <v>46043.94791666666</v>
       </c>
       <c r="B93">
-        <v>809</v>
+        <v>669</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="2">
-        <v>46021.95833333334</v>
+        <v>46043.95833333334</v>
       </c>
       <c r="B94">
-        <v>823</v>
+        <v>535</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="2">
-        <v>46021.96875</v>
+        <v>46043.96875</v>
       </c>
       <c r="B95">
-        <v>814</v>
+        <v>532</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="2">
-        <v>46021.97916666666</v>
+        <v>46043.97916666666</v>
       </c>
       <c r="B96">
-        <v>810</v>
+        <v>534</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="2">
-        <v>46021.98958333334</v>
+        <v>46043.98958333334</v>
       </c>
       <c r="B97">
-        <v>709</v>
+        <v>530</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" s="2">
-        <v>46022</v>
+        <v>46044</v>
       </c>
       <c r="B98">
-        <v>697</v>
+        <v>522</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" s="2">
-        <v>46022.01041666666</v>
+        <v>46044.01041666666</v>
       </c>
       <c r="B99">
-        <v>695</v>
+        <v>511</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" s="2">
-        <v>46022.02083333334</v>
+        <v>46044.02083333334</v>
       </c>
       <c r="B100">
-        <v>692</v>
+        <v>514</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" s="2">
-        <v>46022.03125</v>
+        <v>46044.03125</v>
       </c>
       <c r="B101">
-        <v>688</v>
+        <v>513</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" s="2">
-        <v>46022.04166666666</v>
+        <v>46044.04166666666</v>
       </c>
       <c r="B102">
-        <v>654</v>
+        <v>422</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" s="2">
-        <v>46022.05208333334</v>
+        <v>46044.05208333334</v>
       </c>
       <c r="B103">
-        <v>620</v>
+        <v>443</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" s="2">
-        <v>46022.0625</v>
+        <v>46044.0625</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>447</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" s="2">
-        <v>46022.07291666666</v>
+        <v>46044.07291666666</v>
       </c>
       <c r="B105">
-        <v>621</v>
+        <v>443</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" s="2">
-        <v>46022.08333333334</v>
+        <v>46044.08333333334</v>
       </c>
       <c r="B106">
-        <v>596</v>
+        <v>448</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" s="2">
-        <v>46022.09375</v>
+        <v>46044.09375</v>
       </c>
       <c r="B107">
-        <v>591</v>
+        <v>446</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" s="2">
-        <v>46022.10416666666</v>
+        <v>46044.10416666666</v>
       </c>
       <c r="B108">
-        <v>596</v>
+        <v>448</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" s="2">
-        <v>46022.11458333334</v>
+        <v>46044.11458333334</v>
       </c>
       <c r="B109">
-        <v>623</v>
+        <v>445</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" s="2">
-        <v>46022.125</v>
+        <v>46044.125</v>
       </c>
       <c r="B110">
-        <v>684</v>
+        <v>452</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" s="2">
-        <v>46022.13541666666</v>
+        <v>46044.13541666666</v>
       </c>
       <c r="B111">
-        <v>676</v>
+        <v>433</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112" s="2">
-        <v>46022.14583333334</v>
+        <v>46044.14583333334</v>
       </c>
       <c r="B112">
-        <v>735</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" s="2">
-        <v>46022.15625</v>
+        <v>46044.15625</v>
       </c>
       <c r="B113">
-        <v>737</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" s="2">
-        <v>46022.16666666666</v>
+        <v>46044.16666666666</v>
       </c>
       <c r="B114">
-        <v>736</v>
+        <v>443</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" s="2">
-        <v>46022.17708333334</v>
+        <v>46044.17708333334</v>
       </c>
       <c r="B115">
-        <v>0</v>
+        <v>428</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" s="2">
-        <v>46022.1875</v>
+        <v>46044.1875</v>
       </c>
       <c r="B116">
-        <v>737</v>
+        <v>365</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117" s="2">
-        <v>46022.19791666666</v>
+        <v>46044.19791666666</v>
       </c>
       <c r="B117">
-        <v>647</v>
+        <v>371</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" s="2">
-        <v>46022.20833333334</v>
+        <v>46044.20833333334</v>
       </c>
       <c r="B118">
-        <v>705</v>
+        <v>452</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" s="2">
-        <v>46022.21875</v>
+        <v>46044.21875</v>
       </c>
       <c r="B119">
-        <v>703</v>
+        <v>457</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" s="2">
-        <v>46022.22916666666</v>
+        <v>46044.22916666666</v>
       </c>
       <c r="B120">
-        <v>678</v>
+        <v>511</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" s="2">
-        <v>46022.23958333334</v>
+        <v>46044.23958333334</v>
       </c>
       <c r="B121">
-        <v>684</v>
+        <v>575</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" s="2">
-        <v>46022.25</v>
+        <v>46044.25</v>
       </c>
       <c r="B122">
-        <v>635</v>
+        <v>831</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123" s="2">
-        <v>46022.26041666666</v>
+        <v>46044.26041666666</v>
       </c>
       <c r="B123">
-        <v>633</v>
+        <v>834</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" s="2">
-        <v>46022.27083333334</v>
+        <v>46044.27083333334</v>
       </c>
       <c r="B124">
-        <v>601</v>
+        <v>840</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" s="2">
-        <v>46022.28125</v>
+        <v>46044.28125</v>
       </c>
       <c r="B125">
-        <v>594</v>
+        <v>838</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" s="2">
-        <v>46022.29166666666</v>
+        <v>46044.29166666666</v>
       </c>
       <c r="B126">
-        <v>572</v>
+        <v>885</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127" s="2">
-        <v>46022.30208333334</v>
+        <v>46044.30208333334</v>
       </c>
       <c r="B127">
-        <v>573</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128" s="2">
-        <v>46022.3125</v>
+        <v>46044.3125</v>
       </c>
       <c r="B128">
-        <v>577</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" s="2">
-        <v>46022.32291666666</v>
+        <v>46044.32291666666</v>
       </c>
       <c r="B129">
-        <v>581</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" s="2">
-        <v>46022.33333333334</v>
+        <v>46044.33333333334</v>
       </c>
       <c r="B130">
-        <v>516</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" s="2">
-        <v>46022.34375</v>
+        <v>46044.34375</v>
       </c>
       <c r="B131">
-        <v>517</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132" s="2">
-        <v>46022.35416666666</v>
+        <v>46044.35416666666</v>
       </c>
       <c r="B132">
         <v>0</v>
@@ -1445,31 +1445,31 @@
     </row>
     <row r="133" spans="1:2">
       <c r="A133" s="2">
-        <v>46022.36458333334</v>
+        <v>46044.36458333334</v>
       </c>
       <c r="B133">
-        <v>512</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134" s="2">
-        <v>46022.375</v>
+        <v>46044.375</v>
       </c>
       <c r="B134">
-        <v>446</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135" s="2">
-        <v>46022.38541666666</v>
+        <v>46044.38541666666</v>
       </c>
       <c r="B135">
-        <v>442</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136" s="2">
-        <v>46022.39583333334</v>
+        <v>46044.39583333334</v>
       </c>
       <c r="B136">
         <v>0</v>
@@ -1477,7 +1477,7 @@
     </row>
     <row r="137" spans="1:2">
       <c r="A137" s="2">
-        <v>46022.40625</v>
+        <v>46044.40625</v>
       </c>
       <c r="B137">
         <v>0</v>
@@ -1485,7 +1485,7 @@
     </row>
     <row r="138" spans="1:2">
       <c r="A138" s="2">
-        <v>46022.41666666666</v>
+        <v>46044.41666666666</v>
       </c>
       <c r="B138">
         <v>0</v>
@@ -1493,7 +1493,7 @@
     </row>
     <row r="139" spans="1:2">
       <c r="A139" s="2">
-        <v>46022.42708333334</v>
+        <v>46044.42708333334</v>
       </c>
       <c r="B139">
         <v>0</v>
@@ -1501,7 +1501,7 @@
     </row>
     <row r="140" spans="1:2">
       <c r="A140" s="2">
-        <v>46022.4375</v>
+        <v>46044.4375</v>
       </c>
       <c r="B140">
         <v>0</v>
@@ -1509,7 +1509,7 @@
     </row>
     <row r="141" spans="1:2">
       <c r="A141" s="2">
-        <v>46022.44791666666</v>
+        <v>46044.44791666666</v>
       </c>
       <c r="B141">
         <v>0</v>
@@ -1517,7 +1517,7 @@
     </row>
     <row r="142" spans="1:2">
       <c r="A142" s="2">
-        <v>46022.45833333334</v>
+        <v>46044.45833333334</v>
       </c>
       <c r="B142">
         <v>0</v>
@@ -1525,7 +1525,7 @@
     </row>
     <row r="143" spans="1:2">
       <c r="A143" s="2">
-        <v>46022.46875</v>
+        <v>46044.46875</v>
       </c>
       <c r="B143">
         <v>0</v>
@@ -1533,7 +1533,7 @@
     </row>
     <row r="144" spans="1:2">
       <c r="A144" s="2">
-        <v>46022.47916666666</v>
+        <v>46044.47916666666</v>
       </c>
       <c r="B144">
         <v>0</v>
@@ -1541,7 +1541,7 @@
     </row>
     <row r="145" spans="1:2">
       <c r="A145" s="2">
-        <v>46022.48958333334</v>
+        <v>46044.48958333334</v>
       </c>
       <c r="B145">
         <v>0</v>
@@ -1549,7 +1549,7 @@
     </row>
     <row r="146" spans="1:2">
       <c r="A146" s="2">
-        <v>46022.5</v>
+        <v>46044.5</v>
       </c>
       <c r="B146">
         <v>0</v>
@@ -1557,7 +1557,7 @@
     </row>
     <row r="147" spans="1:2">
       <c r="A147" s="2">
-        <v>46022.51041666666</v>
+        <v>46044.51041666666</v>
       </c>
       <c r="B147">
         <v>0</v>
@@ -1565,7 +1565,7 @@
     </row>
     <row r="148" spans="1:2">
       <c r="A148" s="2">
-        <v>46022.52083333334</v>
+        <v>46044.52083333334</v>
       </c>
       <c r="B148">
         <v>0</v>
@@ -1573,7 +1573,7 @@
     </row>
     <row r="149" spans="1:2">
       <c r="A149" s="2">
-        <v>46022.53125</v>
+        <v>46044.53125</v>
       </c>
       <c r="B149">
         <v>0</v>
@@ -1581,7 +1581,7 @@
     </row>
     <row r="150" spans="1:2">
       <c r="A150" s="2">
-        <v>46022.54166666666</v>
+        <v>46044.54166666666</v>
       </c>
       <c r="B150">
         <v>0</v>
@@ -1589,7 +1589,7 @@
     </row>
     <row r="151" spans="1:2">
       <c r="A151" s="2">
-        <v>46022.55208333334</v>
+        <v>46044.55208333334</v>
       </c>
       <c r="B151">
         <v>0</v>
@@ -1597,7 +1597,7 @@
     </row>
     <row r="152" spans="1:2">
       <c r="A152" s="2">
-        <v>46022.5625</v>
+        <v>46044.5625</v>
       </c>
       <c r="B152">
         <v>0</v>
@@ -1605,7 +1605,7 @@
     </row>
     <row r="153" spans="1:2">
       <c r="A153" s="2">
-        <v>46022.57291666666</v>
+        <v>46044.57291666666</v>
       </c>
       <c r="B153">
         <v>0</v>
@@ -1613,7 +1613,7 @@
     </row>
     <row r="154" spans="1:2">
       <c r="A154" s="2">
-        <v>46022.58333333334</v>
+        <v>46044.58333333334</v>
       </c>
       <c r="B154">
         <v>0</v>
@@ -1621,7 +1621,7 @@
     </row>
     <row r="155" spans="1:2">
       <c r="A155" s="2">
-        <v>46022.59375</v>
+        <v>46044.59375</v>
       </c>
       <c r="B155">
         <v>0</v>
@@ -1629,7 +1629,7 @@
     </row>
     <row r="156" spans="1:2">
       <c r="A156" s="2">
-        <v>46022.60416666666</v>
+        <v>46044.60416666666</v>
       </c>
       <c r="B156">
         <v>0</v>
@@ -1637,7 +1637,7 @@
     </row>
     <row r="157" spans="1:2">
       <c r="A157" s="2">
-        <v>46022.61458333334</v>
+        <v>46044.61458333334</v>
       </c>
       <c r="B157">
         <v>0</v>
@@ -1645,7 +1645,7 @@
     </row>
     <row r="158" spans="1:2">
       <c r="A158" s="2">
-        <v>46022.625</v>
+        <v>46044.625</v>
       </c>
       <c r="B158">
         <v>0</v>
@@ -1653,7 +1653,7 @@
     </row>
     <row r="159" spans="1:2">
       <c r="A159" s="2">
-        <v>46022.63541666666</v>
+        <v>46044.63541666666</v>
       </c>
       <c r="B159">
         <v>0</v>
@@ -1661,7 +1661,7 @@
     </row>
     <row r="160" spans="1:2">
       <c r="A160" s="2">
-        <v>46022.64583333334</v>
+        <v>46044.64583333334</v>
       </c>
       <c r="B160">
         <v>0</v>
@@ -1669,7 +1669,7 @@
     </row>
     <row r="161" spans="1:2">
       <c r="A161" s="2">
-        <v>46022.65625</v>
+        <v>46044.65625</v>
       </c>
       <c r="B161">
         <v>0</v>
@@ -1677,7 +1677,7 @@
     </row>
     <row r="162" spans="1:2">
       <c r="A162" s="2">
-        <v>46022.66666666666</v>
+        <v>46044.66666666666</v>
       </c>
       <c r="B162">
         <v>0</v>
@@ -1685,7 +1685,7 @@
     </row>
     <row r="163" spans="1:2">
       <c r="A163" s="2">
-        <v>46022.67708333334</v>
+        <v>46044.67708333334</v>
       </c>
       <c r="B163">
         <v>0</v>
@@ -1693,7 +1693,7 @@
     </row>
     <row r="164" spans="1:2">
       <c r="A164" s="2">
-        <v>46022.6875</v>
+        <v>46044.6875</v>
       </c>
       <c r="B164">
         <v>0</v>
@@ -1701,7 +1701,7 @@
     </row>
     <row r="165" spans="1:2">
       <c r="A165" s="2">
-        <v>46022.69791666666</v>
+        <v>46044.69791666666</v>
       </c>
       <c r="B165">
         <v>0</v>
@@ -1709,7 +1709,7 @@
     </row>
     <row r="166" spans="1:2">
       <c r="A166" s="2">
-        <v>46022.70833333334</v>
+        <v>46044.70833333334</v>
       </c>
       <c r="B166">
         <v>0</v>
@@ -1717,7 +1717,7 @@
     </row>
     <row r="167" spans="1:2">
       <c r="A167" s="2">
-        <v>46022.71875</v>
+        <v>46044.71875</v>
       </c>
       <c r="B167">
         <v>0</v>
@@ -1725,7 +1725,7 @@
     </row>
     <row r="168" spans="1:2">
       <c r="A168" s="2">
-        <v>46022.72916666666</v>
+        <v>46044.72916666666</v>
       </c>
       <c r="B168">
         <v>0</v>
@@ -1733,7 +1733,7 @@
     </row>
     <row r="169" spans="1:2">
       <c r="A169" s="2">
-        <v>46022.73958333334</v>
+        <v>46044.73958333334</v>
       </c>
       <c r="B169">
         <v>0</v>
@@ -1741,7 +1741,7 @@
     </row>
     <row r="170" spans="1:2">
       <c r="A170" s="2">
-        <v>46022.75</v>
+        <v>46044.75</v>
       </c>
       <c r="B170">
         <v>0</v>
@@ -1749,7 +1749,7 @@
     </row>
     <row r="171" spans="1:2">
       <c r="A171" s="2">
-        <v>46022.76041666666</v>
+        <v>46044.76041666666</v>
       </c>
       <c r="B171">
         <v>0</v>
@@ -1757,7 +1757,7 @@
     </row>
     <row r="172" spans="1:2">
       <c r="A172" s="2">
-        <v>46022.77083333334</v>
+        <v>46044.77083333334</v>
       </c>
       <c r="B172">
         <v>0</v>
@@ -1765,7 +1765,7 @@
     </row>
     <row r="173" spans="1:2">
       <c r="A173" s="2">
-        <v>46022.78125</v>
+        <v>46044.78125</v>
       </c>
       <c r="B173">
         <v>0</v>
@@ -1773,7 +1773,7 @@
     </row>
     <row r="174" spans="1:2">
       <c r="A174" s="2">
-        <v>46022.79166666666</v>
+        <v>46044.79166666666</v>
       </c>
       <c r="B174">
         <v>0</v>
@@ -1781,7 +1781,7 @@
     </row>
     <row r="175" spans="1:2">
       <c r="A175" s="2">
-        <v>46022.80208333334</v>
+        <v>46044.80208333334</v>
       </c>
       <c r="B175">
         <v>0</v>
@@ -1789,7 +1789,7 @@
     </row>
     <row r="176" spans="1:2">
       <c r="A176" s="2">
-        <v>46022.8125</v>
+        <v>46044.8125</v>
       </c>
       <c r="B176">
         <v>0</v>
@@ -1797,7 +1797,7 @@
     </row>
     <row r="177" spans="1:2">
       <c r="A177" s="2">
-        <v>46022.82291666666</v>
+        <v>46044.82291666666</v>
       </c>
       <c r="B177">
         <v>0</v>
@@ -1805,7 +1805,7 @@
     </row>
     <row r="178" spans="1:2">
       <c r="A178" s="2">
-        <v>46022.83333333334</v>
+        <v>46044.83333333334</v>
       </c>
       <c r="B178">
         <v>0</v>
@@ -1813,7 +1813,7 @@
     </row>
     <row r="179" spans="1:2">
       <c r="A179" s="2">
-        <v>46022.84375</v>
+        <v>46044.84375</v>
       </c>
       <c r="B179">
         <v>0</v>
@@ -1821,7 +1821,7 @@
     </row>
     <row r="180" spans="1:2">
       <c r="A180" s="2">
-        <v>46022.85416666666</v>
+        <v>46044.85416666666</v>
       </c>
       <c r="B180">
         <v>0</v>
@@ -1829,7 +1829,7 @@
     </row>
     <row r="181" spans="1:2">
       <c r="A181" s="2">
-        <v>46022.86458333334</v>
+        <v>46044.86458333334</v>
       </c>
       <c r="B181">
         <v>0</v>
@@ -1837,7 +1837,7 @@
     </row>
     <row r="182" spans="1:2">
       <c r="A182" s="2">
-        <v>46022.875</v>
+        <v>46044.875</v>
       </c>
       <c r="B182">
         <v>0</v>
@@ -1845,7 +1845,7 @@
     </row>
     <row r="183" spans="1:2">
       <c r="A183" s="2">
-        <v>46022.88541666666</v>
+        <v>46044.88541666666</v>
       </c>
       <c r="B183">
         <v>0</v>
@@ -1853,7 +1853,7 @@
     </row>
     <row r="184" spans="1:2">
       <c r="A184" s="2">
-        <v>46022.89583333334</v>
+        <v>46044.89583333334</v>
       </c>
       <c r="B184">
         <v>0</v>
@@ -1861,7 +1861,7 @@
     </row>
     <row r="185" spans="1:2">
       <c r="A185" s="2">
-        <v>46022.90625</v>
+        <v>46044.90625</v>
       </c>
       <c r="B185">
         <v>0</v>
@@ -1869,7 +1869,7 @@
     </row>
     <row r="186" spans="1:2">
       <c r="A186" s="2">
-        <v>46022.91666666666</v>
+        <v>46044.91666666666</v>
       </c>
       <c r="B186">
         <v>0</v>
@@ -1877,7 +1877,7 @@
     </row>
     <row r="187" spans="1:2">
       <c r="A187" s="2">
-        <v>46022.92708333334</v>
+        <v>46044.92708333334</v>
       </c>
       <c r="B187">
         <v>0</v>
@@ -1885,7 +1885,7 @@
     </row>
     <row r="188" spans="1:2">
       <c r="A188" s="2">
-        <v>46022.9375</v>
+        <v>46044.9375</v>
       </c>
       <c r="B188">
         <v>0</v>
@@ -1893,7 +1893,7 @@
     </row>
     <row r="189" spans="1:2">
       <c r="A189" s="2">
-        <v>46022.94791666666</v>
+        <v>46044.94791666666</v>
       </c>
       <c r="B189">
         <v>0</v>
@@ -1901,7 +1901,7 @@
     </row>
     <row r="190" spans="1:2">
       <c r="A190" s="2">
-        <v>46022.95833333334</v>
+        <v>46044.95833333334</v>
       </c>
       <c r="B190">
         <v>0</v>
@@ -1909,7 +1909,7 @@
     </row>
     <row r="191" spans="1:2">
       <c r="A191" s="2">
-        <v>46022.96875</v>
+        <v>46044.96875</v>
       </c>
       <c r="B191">
         <v>0</v>
@@ -1917,7 +1917,7 @@
     </row>
     <row r="192" spans="1:2">
       <c r="A192" s="2">
-        <v>46022.97916666666</v>
+        <v>46044.97916666666</v>
       </c>
       <c r="B192">
         <v>0</v>
@@ -1925,7 +1925,7 @@
     </row>
     <row r="193" spans="1:2">
       <c r="A193" s="2">
-        <v>46022.98958333334</v>
+        <v>46044.98958333334</v>
       </c>
       <c r="B193">
         <v>0</v>

--- a/data_fetching/Entsoe/Actual_Production_Hydro_Water_Reservoir.xlsx
+++ b/data_fetching/Entsoe/Actual_Production_Hydro_Water_Reservoir.xlsx
@@ -397,119 +397,119 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2">
-        <v>46043</v>
+        <v>46045</v>
       </c>
       <c r="B2">
-        <v>385</v>
+        <v>617</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2">
-        <v>46043.01041666666</v>
+        <v>46045.01041666666</v>
       </c>
       <c r="B3">
-        <v>379</v>
+        <v>598</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2">
-        <v>46043.02083333334</v>
+        <v>46045.02083333334</v>
       </c>
       <c r="B4">
-        <v>380</v>
+        <v>597</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2">
-        <v>46043.03125</v>
+        <v>46045.03125</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>594</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2">
-        <v>46043.04166666666</v>
+        <v>46045.04166666666</v>
       </c>
       <c r="B6">
-        <v>385</v>
+        <v>540</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2">
-        <v>46043.05208333334</v>
+        <v>46045.05208333334</v>
       </c>
       <c r="B7">
-        <v>378</v>
+        <v>537</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2">
-        <v>46043.0625</v>
+        <v>46045.0625</v>
       </c>
       <c r="B8">
-        <v>377</v>
+        <v>538</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2">
-        <v>46043.07291666666</v>
+        <v>46045.07291666666</v>
       </c>
       <c r="B9">
-        <v>374</v>
+        <v>531</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2">
-        <v>46043.08333333334</v>
+        <v>46045.08333333334</v>
       </c>
       <c r="B10">
-        <v>378</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2">
-        <v>46043.09375</v>
+        <v>46045.09375</v>
       </c>
       <c r="B11">
-        <v>374</v>
+        <v>524</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2">
-        <v>46043.10416666666</v>
+        <v>46045.10416666666</v>
       </c>
       <c r="B12">
-        <v>377</v>
+        <v>543</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2">
-        <v>46043.11458333334</v>
+        <v>46045.11458333334</v>
       </c>
       <c r="B13">
-        <v>376</v>
+        <v>544</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2">
-        <v>46043.125</v>
+        <v>46045.125</v>
       </c>
       <c r="B14">
-        <v>369</v>
+        <v>545</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2">
-        <v>46043.13541666666</v>
+        <v>46045.13541666666</v>
       </c>
       <c r="B15">
-        <v>359</v>
+        <v>544</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2">
-        <v>46043.14583333334</v>
+        <v>46045.14583333334</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -517,831 +517,831 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2">
-        <v>46043.15625</v>
+        <v>46045.15625</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>548</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2">
-        <v>46043.16666666666</v>
+        <v>46045.16666666666</v>
       </c>
       <c r="B18">
-        <v>379</v>
+        <v>576</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2">
-        <v>46043.17708333334</v>
+        <v>46045.17708333334</v>
       </c>
       <c r="B19">
-        <v>380</v>
+        <v>571</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2">
-        <v>46043.1875</v>
+        <v>46045.1875</v>
       </c>
       <c r="B20">
-        <v>382</v>
+        <v>572</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2">
-        <v>46043.19791666666</v>
+        <v>46045.19791666666</v>
       </c>
       <c r="B21">
-        <v>396</v>
+        <v>576</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2">
-        <v>46043.20833333334</v>
+        <v>46045.20833333334</v>
       </c>
       <c r="B22">
-        <v>469</v>
+        <v>619</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2">
-        <v>46043.21875</v>
+        <v>46045.21875</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>616</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2">
-        <v>46043.22916666666</v>
+        <v>46045.22916666666</v>
       </c>
       <c r="B24">
-        <v>488</v>
+        <v>620</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2">
-        <v>46043.23958333334</v>
+        <v>46045.23958333334</v>
       </c>
       <c r="B25">
-        <v>506</v>
+        <v>633</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2">
-        <v>46043.25</v>
+        <v>46045.25</v>
       </c>
       <c r="B26">
-        <v>839</v>
+        <v>787</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2">
-        <v>46043.26041666666</v>
+        <v>46045.26041666666</v>
       </c>
       <c r="B27">
-        <v>848</v>
+        <v>797</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2">
-        <v>46043.27083333334</v>
+        <v>46045.27083333334</v>
       </c>
       <c r="B28">
-        <v>845</v>
+        <v>801</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2">
-        <v>46043.28125</v>
+        <v>46045.28125</v>
       </c>
       <c r="B29">
-        <v>850</v>
+        <v>799</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2">
-        <v>46043.29166666666</v>
+        <v>46045.29166666666</v>
       </c>
       <c r="B30">
-        <v>927</v>
+        <v>803</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2">
-        <v>46043.30208333334</v>
+        <v>46045.30208333334</v>
       </c>
       <c r="B31">
-        <v>932</v>
+        <v>812</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2">
-        <v>46043.3125</v>
+        <v>46045.3125</v>
       </c>
       <c r="B32">
-        <v>927</v>
+        <v>818</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2">
-        <v>46043.32291666666</v>
+        <v>46045.32291666666</v>
       </c>
       <c r="B33">
-        <v>993</v>
+        <v>817</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2">
-        <v>46043.33333333334</v>
+        <v>46045.33333333334</v>
       </c>
       <c r="B34">
-        <v>994</v>
+        <v>811</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="2">
-        <v>46043.34375</v>
+        <v>46045.34375</v>
       </c>
       <c r="B35">
-        <v>1001</v>
+        <v>814</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="2">
-        <v>46043.35416666666</v>
+        <v>46045.35416666666</v>
       </c>
       <c r="B36">
-        <v>1111</v>
+        <v>812</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="2">
-        <v>46043.36458333334</v>
+        <v>46045.36458333334</v>
       </c>
       <c r="B37">
-        <v>1158</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="2">
-        <v>46043.375</v>
+        <v>46045.375</v>
       </c>
       <c r="B38">
-        <v>1177</v>
+        <v>581</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="2">
-        <v>46043.38541666666</v>
+        <v>46045.38541666666</v>
       </c>
       <c r="B39">
-        <v>1418</v>
+        <v>568</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="2">
-        <v>46043.39583333334</v>
+        <v>46045.39583333334</v>
       </c>
       <c r="B40">
-        <v>1489</v>
+        <v>562</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="2">
-        <v>46043.40625</v>
+        <v>46045.40625</v>
       </c>
       <c r="B41">
-        <v>1206</v>
+        <v>559</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="2">
-        <v>46043.41666666666</v>
+        <v>46045.41666666666</v>
       </c>
       <c r="B42">
-        <v>1587</v>
+        <v>505</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="2">
-        <v>46043.42708333334</v>
+        <v>46045.42708333334</v>
       </c>
       <c r="B43">
-        <v>1323</v>
+        <v>500</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="2">
-        <v>46043.4375</v>
+        <v>46045.4375</v>
       </c>
       <c r="B44">
-        <v>1292</v>
+        <v>461</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="2">
-        <v>46043.44791666666</v>
+        <v>46045.44791666666</v>
       </c>
       <c r="B45">
-        <v>1290</v>
+        <v>451</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="2">
-        <v>46043.45833333334</v>
+        <v>46045.45833333334</v>
       </c>
       <c r="B46">
-        <v>1192</v>
+        <v>454</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="2">
-        <v>46043.46875</v>
+        <v>46045.46875</v>
       </c>
       <c r="B47">
-        <v>1045</v>
+        <v>526</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="2">
-        <v>46043.47916666666</v>
+        <v>46045.47916666666</v>
       </c>
       <c r="B48">
-        <v>829</v>
+        <v>522</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="2">
-        <v>46043.48958333334</v>
+        <v>46045.48958333334</v>
       </c>
       <c r="B49">
-        <v>821</v>
+        <v>520</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="2">
-        <v>46043.5</v>
+        <v>46045.5</v>
       </c>
       <c r="B50">
-        <v>905</v>
+        <v>555</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="2">
-        <v>46043.51041666666</v>
+        <v>46045.51041666666</v>
       </c>
       <c r="B51">
-        <v>1089</v>
+        <v>554</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="2">
-        <v>46043.52083333334</v>
+        <v>46045.52083333334</v>
       </c>
       <c r="B52">
-        <v>1094</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="2">
-        <v>46043.53125</v>
+        <v>46045.53125</v>
       </c>
       <c r="B53">
-        <v>1091</v>
+        <v>555</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="2">
-        <v>46043.54166666666</v>
+        <v>46045.54166666666</v>
       </c>
       <c r="B54">
-        <v>1128</v>
+        <v>711</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="2">
-        <v>46043.55208333334</v>
+        <v>46045.55208333334</v>
       </c>
       <c r="B55">
-        <v>1228</v>
+        <v>704</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="2">
-        <v>46043.5625</v>
+        <v>46045.5625</v>
       </c>
       <c r="B56">
-        <v>1363</v>
+        <v>717</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="2">
-        <v>46043.57291666666</v>
+        <v>46045.57291666666</v>
       </c>
       <c r="B57">
-        <v>1414</v>
+        <v>706</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="2">
-        <v>46043.58333333334</v>
+        <v>46045.58333333334</v>
       </c>
       <c r="B58">
-        <v>1457</v>
+        <v>700</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="2">
-        <v>46043.59375</v>
+        <v>46045.59375</v>
       </c>
       <c r="B59">
-        <v>1446</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="2">
-        <v>46043.60416666666</v>
+        <v>46045.60416666666</v>
       </c>
       <c r="B60">
-        <v>1450</v>
+        <v>699</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="2">
-        <v>46043.61458333334</v>
+        <v>46045.61458333334</v>
       </c>
       <c r="B61">
-        <v>1373</v>
+        <v>724</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="2">
-        <v>46043.625</v>
+        <v>46045.625</v>
       </c>
       <c r="B62">
-        <v>1515</v>
+        <v>911</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="2">
-        <v>46043.63541666666</v>
+        <v>46045.63541666666</v>
       </c>
       <c r="B63">
-        <v>1521</v>
+        <v>847</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="2">
-        <v>46043.64583333334</v>
+        <v>46045.64583333334</v>
       </c>
       <c r="B64">
-        <v>1522</v>
+        <v>846</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="2">
-        <v>46043.65625</v>
+        <v>46045.65625</v>
       </c>
       <c r="B65">
-        <v>1503</v>
+        <v>848</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="2">
-        <v>46043.66666666666</v>
+        <v>46045.66666666666</v>
       </c>
       <c r="B66">
-        <v>1302</v>
+        <v>850</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="2">
-        <v>46043.67708333334</v>
+        <v>46045.67708333334</v>
       </c>
       <c r="B67">
-        <v>1301</v>
+        <v>853</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="2">
-        <v>46043.6875</v>
+        <v>46045.6875</v>
       </c>
       <c r="B68">
-        <v>1162</v>
+        <v>852</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="2">
-        <v>46043.69791666666</v>
+        <v>46045.69791666666</v>
       </c>
       <c r="B69">
-        <v>1067</v>
+        <v>870</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="2">
-        <v>46043.70833333334</v>
+        <v>46045.70833333334</v>
       </c>
       <c r="B70">
-        <v>1053</v>
+        <v>899</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="2">
-        <v>46043.71875</v>
+        <v>46045.71875</v>
       </c>
       <c r="B71">
-        <v>1087</v>
+        <v>961</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="2">
-        <v>46043.72916666666</v>
+        <v>46045.72916666666</v>
       </c>
       <c r="B72">
-        <v>1092</v>
+        <v>945</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="2">
-        <v>46043.73958333334</v>
+        <v>46045.73958333334</v>
       </c>
       <c r="B73">
-        <v>1187</v>
+        <v>962</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="2">
-        <v>46043.75</v>
+        <v>46045.75</v>
       </c>
       <c r="B74">
-        <v>1254</v>
+        <v>937</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="2">
-        <v>46043.76041666666</v>
+        <v>46045.76041666666</v>
       </c>
       <c r="B75">
-        <v>1263</v>
+        <v>932</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="2">
-        <v>46043.77083333334</v>
+        <v>46045.77083333334</v>
       </c>
       <c r="B76">
-        <v>1240</v>
+        <v>931</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="2">
-        <v>46043.78125</v>
+        <v>46045.78125</v>
       </c>
       <c r="B77">
-        <v>1199</v>
+        <v>932</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="2">
-        <v>46043.79166666666</v>
+        <v>46045.79166666666</v>
       </c>
       <c r="B78">
-        <v>1233</v>
+        <v>911</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="2">
-        <v>46043.80208333334</v>
+        <v>46045.80208333334</v>
       </c>
       <c r="B79">
-        <v>1140</v>
+        <v>916</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="2">
-        <v>46043.8125</v>
+        <v>46045.8125</v>
       </c>
       <c r="B80">
-        <v>1067</v>
+        <v>925</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="2">
-        <v>46043.82291666666</v>
+        <v>46045.82291666666</v>
       </c>
       <c r="B81">
-        <v>1068</v>
+        <v>926</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="2">
-        <v>46043.83333333334</v>
+        <v>46045.83333333334</v>
       </c>
       <c r="B82">
-        <v>994</v>
+        <v>869</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="2">
-        <v>46043.84375</v>
+        <v>46045.84375</v>
       </c>
       <c r="B83">
-        <v>905</v>
+        <v>865</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="2">
-        <v>46043.85416666666</v>
+        <v>46045.85416666666</v>
       </c>
       <c r="B84">
-        <v>857</v>
+        <v>861</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="2">
-        <v>46043.86458333334</v>
+        <v>46045.86458333334</v>
       </c>
       <c r="B85">
-        <v>0</v>
+        <v>856</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="2">
-        <v>46043.875</v>
+        <v>46045.875</v>
       </c>
       <c r="B86">
-        <v>782</v>
+        <v>760</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="2">
-        <v>46043.88541666666</v>
+        <v>46045.88541666666</v>
       </c>
       <c r="B87">
-        <v>776</v>
+        <v>759</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="2">
-        <v>46043.89583333334</v>
+        <v>46045.89583333334</v>
       </c>
       <c r="B88">
-        <v>779</v>
+        <v>756</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="2">
-        <v>46043.90625</v>
+        <v>46045.90625</v>
       </c>
       <c r="B89">
-        <v>764</v>
+        <v>752</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="2">
-        <v>46043.91666666666</v>
+        <v>46045.91666666666</v>
       </c>
       <c r="B90">
-        <v>701</v>
+        <v>609</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="2">
-        <v>46043.92708333334</v>
+        <v>46045.92708333334</v>
       </c>
       <c r="B91">
-        <v>682</v>
+        <v>600</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="2">
-        <v>46043.9375</v>
+        <v>46045.9375</v>
       </c>
       <c r="B92">
-        <v>674</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="2">
-        <v>46043.94791666666</v>
+        <v>46045.94791666666</v>
       </c>
       <c r="B93">
-        <v>669</v>
+        <v>599</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="2">
-        <v>46043.95833333334</v>
+        <v>46045.95833333334</v>
       </c>
       <c r="B94">
-        <v>535</v>
+        <v>550</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="2">
-        <v>46043.96875</v>
+        <v>46045.96875</v>
       </c>
       <c r="B95">
-        <v>532</v>
+        <v>547</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="2">
-        <v>46043.97916666666</v>
+        <v>46045.97916666666</v>
       </c>
       <c r="B96">
-        <v>534</v>
+        <v>544</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="2">
-        <v>46043.98958333334</v>
+        <v>46045.98958333334</v>
       </c>
       <c r="B97">
-        <v>530</v>
+        <v>541</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" s="2">
-        <v>46044</v>
+        <v>46046</v>
       </c>
       <c r="B98">
-        <v>522</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" s="2">
-        <v>46044.01041666666</v>
+        <v>46046.01041666666</v>
       </c>
       <c r="B99">
-        <v>511</v>
+        <v>543</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" s="2">
-        <v>46044.02083333334</v>
+        <v>46046.02083333334</v>
       </c>
       <c r="B100">
-        <v>514</v>
+        <v>540</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" s="2">
-        <v>46044.03125</v>
+        <v>46046.03125</v>
       </c>
       <c r="B101">
-        <v>513</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" s="2">
-        <v>46044.04166666666</v>
+        <v>46046.04166666666</v>
       </c>
       <c r="B102">
-        <v>422</v>
+        <v>527</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" s="2">
-        <v>46044.05208333334</v>
+        <v>46046.05208333334</v>
       </c>
       <c r="B103">
-        <v>443</v>
+        <v>520</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" s="2">
-        <v>46044.0625</v>
+        <v>46046.0625</v>
       </c>
       <c r="B104">
-        <v>447</v>
+        <v>562</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" s="2">
-        <v>46044.07291666666</v>
+        <v>46046.07291666666</v>
       </c>
       <c r="B105">
-        <v>443</v>
+        <v>564</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" s="2">
-        <v>46044.08333333334</v>
+        <v>46046.08333333334</v>
       </c>
       <c r="B106">
-        <v>448</v>
+        <v>561</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" s="2">
-        <v>46044.09375</v>
+        <v>46046.09375</v>
       </c>
       <c r="B107">
-        <v>446</v>
+        <v>501</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" s="2">
-        <v>46044.10416666666</v>
+        <v>46046.10416666666</v>
       </c>
       <c r="B108">
-        <v>448</v>
+        <v>510</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" s="2">
-        <v>46044.11458333334</v>
+        <v>46046.11458333334</v>
       </c>
       <c r="B109">
-        <v>445</v>
+        <v>508</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" s="2">
-        <v>46044.125</v>
+        <v>46046.125</v>
       </c>
       <c r="B110">
-        <v>452</v>
+        <v>512</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" s="2">
-        <v>46044.13541666666</v>
+        <v>46046.13541666666</v>
       </c>
       <c r="B111">
-        <v>433</v>
+        <v>510</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112" s="2">
-        <v>46044.14583333334</v>
+        <v>46046.14583333334</v>
       </c>
       <c r="B112">
-        <v>0</v>
+        <v>504</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" s="2">
-        <v>46044.15625</v>
+        <v>46046.15625</v>
       </c>
       <c r="B113">
-        <v>0</v>
+        <v>500</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" s="2">
-        <v>46044.16666666666</v>
+        <v>46046.16666666666</v>
       </c>
       <c r="B114">
-        <v>443</v>
+        <v>534</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" s="2">
-        <v>46044.17708333334</v>
+        <v>46046.17708333334</v>
       </c>
       <c r="B115">
-        <v>428</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" s="2">
-        <v>46044.1875</v>
+        <v>46046.1875</v>
       </c>
       <c r="B116">
-        <v>365</v>
+        <v>533</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117" s="2">
-        <v>46044.19791666666</v>
+        <v>46046.19791666666</v>
       </c>
       <c r="B117">
-        <v>371</v>
+        <v>537</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" s="2">
-        <v>46044.20833333334</v>
+        <v>46046.20833333334</v>
       </c>
       <c r="B118">
-        <v>452</v>
+        <v>519</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" s="2">
-        <v>46044.21875</v>
+        <v>46046.21875</v>
       </c>
       <c r="B119">
-        <v>457</v>
+        <v>509</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" s="2">
-        <v>46044.22916666666</v>
+        <v>46046.22916666666</v>
       </c>
       <c r="B120">
         <v>511</v>
@@ -1349,55 +1349,55 @@
     </row>
     <row r="121" spans="1:2">
       <c r="A121" s="2">
-        <v>46044.23958333334</v>
+        <v>46046.23958333334</v>
       </c>
       <c r="B121">
-        <v>575</v>
+        <v>513</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" s="2">
-        <v>46044.25</v>
+        <v>46046.25</v>
       </c>
       <c r="B122">
-        <v>831</v>
+        <v>525</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123" s="2">
-        <v>46044.26041666666</v>
+        <v>46046.26041666666</v>
       </c>
       <c r="B123">
-        <v>834</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" s="2">
-        <v>46044.27083333334</v>
+        <v>46046.27083333334</v>
       </c>
       <c r="B124">
-        <v>840</v>
+        <v>527</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" s="2">
-        <v>46044.28125</v>
+        <v>46046.28125</v>
       </c>
       <c r="B125">
-        <v>838</v>
+        <v>536</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" s="2">
-        <v>46044.29166666666</v>
+        <v>46046.29166666666</v>
       </c>
       <c r="B126">
-        <v>885</v>
+        <v>693</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127" s="2">
-        <v>46044.30208333334</v>
+        <v>46046.30208333334</v>
       </c>
       <c r="B127">
         <v>0</v>
@@ -1405,7 +1405,7 @@
     </row>
     <row r="128" spans="1:2">
       <c r="A128" s="2">
-        <v>46044.3125</v>
+        <v>46046.3125</v>
       </c>
       <c r="B128">
         <v>0</v>
@@ -1413,7 +1413,7 @@
     </row>
     <row r="129" spans="1:2">
       <c r="A129" s="2">
-        <v>46044.32291666666</v>
+        <v>46046.32291666666</v>
       </c>
       <c r="B129">
         <v>0</v>
@@ -1421,7 +1421,7 @@
     </row>
     <row r="130" spans="1:2">
       <c r="A130" s="2">
-        <v>46044.33333333334</v>
+        <v>46046.33333333334</v>
       </c>
       <c r="B130">
         <v>0</v>
@@ -1429,7 +1429,7 @@
     </row>
     <row r="131" spans="1:2">
       <c r="A131" s="2">
-        <v>46044.34375</v>
+        <v>46046.34375</v>
       </c>
       <c r="B131">
         <v>0</v>
@@ -1437,7 +1437,7 @@
     </row>
     <row r="132" spans="1:2">
       <c r="A132" s="2">
-        <v>46044.35416666666</v>
+        <v>46046.35416666666</v>
       </c>
       <c r="B132">
         <v>0</v>
@@ -1445,7 +1445,7 @@
     </row>
     <row r="133" spans="1:2">
       <c r="A133" s="2">
-        <v>46044.36458333334</v>
+        <v>46046.36458333334</v>
       </c>
       <c r="B133">
         <v>0</v>
@@ -1453,7 +1453,7 @@
     </row>
     <row r="134" spans="1:2">
       <c r="A134" s="2">
-        <v>46044.375</v>
+        <v>46046.375</v>
       </c>
       <c r="B134">
         <v>0</v>
@@ -1461,7 +1461,7 @@
     </row>
     <row r="135" spans="1:2">
       <c r="A135" s="2">
-        <v>46044.38541666666</v>
+        <v>46046.38541666666</v>
       </c>
       <c r="B135">
         <v>0</v>
@@ -1469,7 +1469,7 @@
     </row>
     <row r="136" spans="1:2">
       <c r="A136" s="2">
-        <v>46044.39583333334</v>
+        <v>46046.39583333334</v>
       </c>
       <c r="B136">
         <v>0</v>
@@ -1477,7 +1477,7 @@
     </row>
     <row r="137" spans="1:2">
       <c r="A137" s="2">
-        <v>46044.40625</v>
+        <v>46046.40625</v>
       </c>
       <c r="B137">
         <v>0</v>
@@ -1485,7 +1485,7 @@
     </row>
     <row r="138" spans="1:2">
       <c r="A138" s="2">
-        <v>46044.41666666666</v>
+        <v>46046.41666666666</v>
       </c>
       <c r="B138">
         <v>0</v>
@@ -1493,7 +1493,7 @@
     </row>
     <row r="139" spans="1:2">
       <c r="A139" s="2">
-        <v>46044.42708333334</v>
+        <v>46046.42708333334</v>
       </c>
       <c r="B139">
         <v>0</v>
@@ -1501,7 +1501,7 @@
     </row>
     <row r="140" spans="1:2">
       <c r="A140" s="2">
-        <v>46044.4375</v>
+        <v>46046.4375</v>
       </c>
       <c r="B140">
         <v>0</v>
@@ -1509,7 +1509,7 @@
     </row>
     <row r="141" spans="1:2">
       <c r="A141" s="2">
-        <v>46044.44791666666</v>
+        <v>46046.44791666666</v>
       </c>
       <c r="B141">
         <v>0</v>
@@ -1517,7 +1517,7 @@
     </row>
     <row r="142" spans="1:2">
       <c r="A142" s="2">
-        <v>46044.45833333334</v>
+        <v>46046.45833333334</v>
       </c>
       <c r="B142">
         <v>0</v>
@@ -1525,7 +1525,7 @@
     </row>
     <row r="143" spans="1:2">
       <c r="A143" s="2">
-        <v>46044.46875</v>
+        <v>46046.46875</v>
       </c>
       <c r="B143">
         <v>0</v>
@@ -1533,7 +1533,7 @@
     </row>
     <row r="144" spans="1:2">
       <c r="A144" s="2">
-        <v>46044.47916666666</v>
+        <v>46046.47916666666</v>
       </c>
       <c r="B144">
         <v>0</v>
@@ -1541,7 +1541,7 @@
     </row>
     <row r="145" spans="1:2">
       <c r="A145" s="2">
-        <v>46044.48958333334</v>
+        <v>46046.48958333334</v>
       </c>
       <c r="B145">
         <v>0</v>
@@ -1549,7 +1549,7 @@
     </row>
     <row r="146" spans="1:2">
       <c r="A146" s="2">
-        <v>46044.5</v>
+        <v>46046.5</v>
       </c>
       <c r="B146">
         <v>0</v>
@@ -1557,7 +1557,7 @@
     </row>
     <row r="147" spans="1:2">
       <c r="A147" s="2">
-        <v>46044.51041666666</v>
+        <v>46046.51041666666</v>
       </c>
       <c r="B147">
         <v>0</v>
@@ -1565,7 +1565,7 @@
     </row>
     <row r="148" spans="1:2">
       <c r="A148" s="2">
-        <v>46044.52083333334</v>
+        <v>46046.52083333334</v>
       </c>
       <c r="B148">
         <v>0</v>
@@ -1573,7 +1573,7 @@
     </row>
     <row r="149" spans="1:2">
       <c r="A149" s="2">
-        <v>46044.53125</v>
+        <v>46046.53125</v>
       </c>
       <c r="B149">
         <v>0</v>
@@ -1581,7 +1581,7 @@
     </row>
     <row r="150" spans="1:2">
       <c r="A150" s="2">
-        <v>46044.54166666666</v>
+        <v>46046.54166666666</v>
       </c>
       <c r="B150">
         <v>0</v>
@@ -1589,7 +1589,7 @@
     </row>
     <row r="151" spans="1:2">
       <c r="A151" s="2">
-        <v>46044.55208333334</v>
+        <v>46046.55208333334</v>
       </c>
       <c r="B151">
         <v>0</v>
@@ -1597,7 +1597,7 @@
     </row>
     <row r="152" spans="1:2">
       <c r="A152" s="2">
-        <v>46044.5625</v>
+        <v>46046.5625</v>
       </c>
       <c r="B152">
         <v>0</v>
@@ -1605,7 +1605,7 @@
     </row>
     <row r="153" spans="1:2">
       <c r="A153" s="2">
-        <v>46044.57291666666</v>
+        <v>46046.57291666666</v>
       </c>
       <c r="B153">
         <v>0</v>
@@ -1613,7 +1613,7 @@
     </row>
     <row r="154" spans="1:2">
       <c r="A154" s="2">
-        <v>46044.58333333334</v>
+        <v>46046.58333333334</v>
       </c>
       <c r="B154">
         <v>0</v>
@@ -1621,7 +1621,7 @@
     </row>
     <row r="155" spans="1:2">
       <c r="A155" s="2">
-        <v>46044.59375</v>
+        <v>46046.59375</v>
       </c>
       <c r="B155">
         <v>0</v>
@@ -1629,7 +1629,7 @@
     </row>
     <row r="156" spans="1:2">
       <c r="A156" s="2">
-        <v>46044.60416666666</v>
+        <v>46046.60416666666</v>
       </c>
       <c r="B156">
         <v>0</v>
@@ -1637,7 +1637,7 @@
     </row>
     <row r="157" spans="1:2">
       <c r="A157" s="2">
-        <v>46044.61458333334</v>
+        <v>46046.61458333334</v>
       </c>
       <c r="B157">
         <v>0</v>
@@ -1645,7 +1645,7 @@
     </row>
     <row r="158" spans="1:2">
       <c r="A158" s="2">
-        <v>46044.625</v>
+        <v>46046.625</v>
       </c>
       <c r="B158">
         <v>0</v>
@@ -1653,7 +1653,7 @@
     </row>
     <row r="159" spans="1:2">
       <c r="A159" s="2">
-        <v>46044.63541666666</v>
+        <v>46046.63541666666</v>
       </c>
       <c r="B159">
         <v>0</v>
@@ -1661,7 +1661,7 @@
     </row>
     <row r="160" spans="1:2">
       <c r="A160" s="2">
-        <v>46044.64583333334</v>
+        <v>46046.64583333334</v>
       </c>
       <c r="B160">
         <v>0</v>
@@ -1669,7 +1669,7 @@
     </row>
     <row r="161" spans="1:2">
       <c r="A161" s="2">
-        <v>46044.65625</v>
+        <v>46046.65625</v>
       </c>
       <c r="B161">
         <v>0</v>
@@ -1677,7 +1677,7 @@
     </row>
     <row r="162" spans="1:2">
       <c r="A162" s="2">
-        <v>46044.66666666666</v>
+        <v>46046.66666666666</v>
       </c>
       <c r="B162">
         <v>0</v>
@@ -1685,7 +1685,7 @@
     </row>
     <row r="163" spans="1:2">
       <c r="A163" s="2">
-        <v>46044.67708333334</v>
+        <v>46046.67708333334</v>
       </c>
       <c r="B163">
         <v>0</v>
@@ -1693,7 +1693,7 @@
     </row>
     <row r="164" spans="1:2">
       <c r="A164" s="2">
-        <v>46044.6875</v>
+        <v>46046.6875</v>
       </c>
       <c r="B164">
         <v>0</v>
@@ -1701,7 +1701,7 @@
     </row>
     <row r="165" spans="1:2">
       <c r="A165" s="2">
-        <v>46044.69791666666</v>
+        <v>46046.69791666666</v>
       </c>
       <c r="B165">
         <v>0</v>
@@ -1709,7 +1709,7 @@
     </row>
     <row r="166" spans="1:2">
       <c r="A166" s="2">
-        <v>46044.70833333334</v>
+        <v>46046.70833333334</v>
       </c>
       <c r="B166">
         <v>0</v>
@@ -1717,7 +1717,7 @@
     </row>
     <row r="167" spans="1:2">
       <c r="A167" s="2">
-        <v>46044.71875</v>
+        <v>46046.71875</v>
       </c>
       <c r="B167">
         <v>0</v>
@@ -1725,7 +1725,7 @@
     </row>
     <row r="168" spans="1:2">
       <c r="A168" s="2">
-        <v>46044.72916666666</v>
+        <v>46046.72916666666</v>
       </c>
       <c r="B168">
         <v>0</v>
@@ -1733,7 +1733,7 @@
     </row>
     <row r="169" spans="1:2">
       <c r="A169" s="2">
-        <v>46044.73958333334</v>
+        <v>46046.73958333334</v>
       </c>
       <c r="B169">
         <v>0</v>
@@ -1741,7 +1741,7 @@
     </row>
     <row r="170" spans="1:2">
       <c r="A170" s="2">
-        <v>46044.75</v>
+        <v>46046.75</v>
       </c>
       <c r="B170">
         <v>0</v>
@@ -1749,7 +1749,7 @@
     </row>
     <row r="171" spans="1:2">
       <c r="A171" s="2">
-        <v>46044.76041666666</v>
+        <v>46046.76041666666</v>
       </c>
       <c r="B171">
         <v>0</v>
@@ -1757,7 +1757,7 @@
     </row>
     <row r="172" spans="1:2">
       <c r="A172" s="2">
-        <v>46044.77083333334</v>
+        <v>46046.77083333334</v>
       </c>
       <c r="B172">
         <v>0</v>
@@ -1765,7 +1765,7 @@
     </row>
     <row r="173" spans="1:2">
       <c r="A173" s="2">
-        <v>46044.78125</v>
+        <v>46046.78125</v>
       </c>
       <c r="B173">
         <v>0</v>
@@ -1773,7 +1773,7 @@
     </row>
     <row r="174" spans="1:2">
       <c r="A174" s="2">
-        <v>46044.79166666666</v>
+        <v>46046.79166666666</v>
       </c>
       <c r="B174">
         <v>0</v>
@@ -1781,7 +1781,7 @@
     </row>
     <row r="175" spans="1:2">
       <c r="A175" s="2">
-        <v>46044.80208333334</v>
+        <v>46046.80208333334</v>
       </c>
       <c r="B175">
         <v>0</v>
@@ -1789,7 +1789,7 @@
     </row>
     <row r="176" spans="1:2">
       <c r="A176" s="2">
-        <v>46044.8125</v>
+        <v>46046.8125</v>
       </c>
       <c r="B176">
         <v>0</v>
@@ -1797,7 +1797,7 @@
     </row>
     <row r="177" spans="1:2">
       <c r="A177" s="2">
-        <v>46044.82291666666</v>
+        <v>46046.82291666666</v>
       </c>
       <c r="B177">
         <v>0</v>
@@ -1805,7 +1805,7 @@
     </row>
     <row r="178" spans="1:2">
       <c r="A178" s="2">
-        <v>46044.83333333334</v>
+        <v>46046.83333333334</v>
       </c>
       <c r="B178">
         <v>0</v>
@@ -1813,7 +1813,7 @@
     </row>
     <row r="179" spans="1:2">
       <c r="A179" s="2">
-        <v>46044.84375</v>
+        <v>46046.84375</v>
       </c>
       <c r="B179">
         <v>0</v>
@@ -1821,7 +1821,7 @@
     </row>
     <row r="180" spans="1:2">
       <c r="A180" s="2">
-        <v>46044.85416666666</v>
+        <v>46046.85416666666</v>
       </c>
       <c r="B180">
         <v>0</v>
@@ -1829,7 +1829,7 @@
     </row>
     <row r="181" spans="1:2">
       <c r="A181" s="2">
-        <v>46044.86458333334</v>
+        <v>46046.86458333334</v>
       </c>
       <c r="B181">
         <v>0</v>
@@ -1837,7 +1837,7 @@
     </row>
     <row r="182" spans="1:2">
       <c r="A182" s="2">
-        <v>46044.875</v>
+        <v>46046.875</v>
       </c>
       <c r="B182">
         <v>0</v>
@@ -1845,7 +1845,7 @@
     </row>
     <row r="183" spans="1:2">
       <c r="A183" s="2">
-        <v>46044.88541666666</v>
+        <v>46046.88541666666</v>
       </c>
       <c r="B183">
         <v>0</v>
@@ -1853,7 +1853,7 @@
     </row>
     <row r="184" spans="1:2">
       <c r="A184" s="2">
-        <v>46044.89583333334</v>
+        <v>46046.89583333334</v>
       </c>
       <c r="B184">
         <v>0</v>
@@ -1861,7 +1861,7 @@
     </row>
     <row r="185" spans="1:2">
       <c r="A185" s="2">
-        <v>46044.90625</v>
+        <v>46046.90625</v>
       </c>
       <c r="B185">
         <v>0</v>
@@ -1869,7 +1869,7 @@
     </row>
     <row r="186" spans="1:2">
       <c r="A186" s="2">
-        <v>46044.91666666666</v>
+        <v>46046.91666666666</v>
       </c>
       <c r="B186">
         <v>0</v>
@@ -1877,7 +1877,7 @@
     </row>
     <row r="187" spans="1:2">
       <c r="A187" s="2">
-        <v>46044.92708333334</v>
+        <v>46046.92708333334</v>
       </c>
       <c r="B187">
         <v>0</v>
@@ -1885,7 +1885,7 @@
     </row>
     <row r="188" spans="1:2">
       <c r="A188" s="2">
-        <v>46044.9375</v>
+        <v>46046.9375</v>
       </c>
       <c r="B188">
         <v>0</v>
@@ -1893,7 +1893,7 @@
     </row>
     <row r="189" spans="1:2">
       <c r="A189" s="2">
-        <v>46044.94791666666</v>
+        <v>46046.94791666666</v>
       </c>
       <c r="B189">
         <v>0</v>
@@ -1901,7 +1901,7 @@
     </row>
     <row r="190" spans="1:2">
       <c r="A190" s="2">
-        <v>46044.95833333334</v>
+        <v>46046.95833333334</v>
       </c>
       <c r="B190">
         <v>0</v>
@@ -1909,7 +1909,7 @@
     </row>
     <row r="191" spans="1:2">
       <c r="A191" s="2">
-        <v>46044.96875</v>
+        <v>46046.96875</v>
       </c>
       <c r="B191">
         <v>0</v>
@@ -1917,7 +1917,7 @@
     </row>
     <row r="192" spans="1:2">
       <c r="A192" s="2">
-        <v>46044.97916666666</v>
+        <v>46046.97916666666</v>
       </c>
       <c r="B192">
         <v>0</v>
@@ -1925,7 +1925,7 @@
     </row>
     <row r="193" spans="1:2">
       <c r="A193" s="2">
-        <v>46044.98958333334</v>
+        <v>46046.98958333334</v>
       </c>
       <c r="B193">
         <v>0</v>

--- a/data_fetching/Entsoe/Actual_Production_Hydro_Water_Reservoir.xlsx
+++ b/data_fetching/Entsoe/Actual_Production_Hydro_Water_Reservoir.xlsx
@@ -397,1015 +397,1015 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2">
-        <v>46045</v>
+        <v>46047</v>
       </c>
       <c r="B2">
-        <v>617</v>
+        <v>370</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2">
-        <v>46045.01041666666</v>
+        <v>46047.01041666666</v>
       </c>
       <c r="B3">
-        <v>598</v>
+        <v>367</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2">
-        <v>46045.02083333334</v>
+        <v>46047.02083333334</v>
       </c>
       <c r="B4">
-        <v>597</v>
+        <v>374</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2">
-        <v>46045.03125</v>
+        <v>46047.03125</v>
       </c>
       <c r="B5">
-        <v>594</v>
+        <v>373</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2">
-        <v>46045.04166666666</v>
+        <v>46047.04166666666</v>
       </c>
       <c r="B6">
-        <v>540</v>
+        <v>355</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2">
-        <v>46045.05208333334</v>
+        <v>46047.05208333334</v>
       </c>
       <c r="B7">
-        <v>537</v>
+        <v>350</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2">
-        <v>46045.0625</v>
+        <v>46047.0625</v>
       </c>
       <c r="B8">
-        <v>538</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2">
-        <v>46045.07291666666</v>
+        <v>46047.07291666666</v>
       </c>
       <c r="B9">
-        <v>531</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2">
-        <v>46045.08333333334</v>
+        <v>46047.08333333334</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>340</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2">
-        <v>46045.09375</v>
+        <v>46047.09375</v>
       </c>
       <c r="B11">
-        <v>524</v>
+        <v>337</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2">
-        <v>46045.10416666666</v>
+        <v>46047.10416666666</v>
       </c>
       <c r="B12">
-        <v>543</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2">
-        <v>46045.11458333334</v>
+        <v>46047.11458333334</v>
       </c>
       <c r="B13">
-        <v>544</v>
+        <v>336</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2">
-        <v>46045.125</v>
+        <v>46047.125</v>
       </c>
       <c r="B14">
-        <v>545</v>
+        <v>334</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2">
-        <v>46045.13541666666</v>
+        <v>46047.13541666666</v>
       </c>
       <c r="B15">
-        <v>544</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2">
-        <v>46045.14583333334</v>
+        <v>46047.14583333334</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>336</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2">
-        <v>46045.15625</v>
+        <v>46047.15625</v>
       </c>
       <c r="B17">
-        <v>548</v>
+        <v>334</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2">
-        <v>46045.16666666666</v>
+        <v>46047.16666666666</v>
       </c>
       <c r="B18">
-        <v>576</v>
+        <v>327</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2">
-        <v>46045.17708333334</v>
+        <v>46047.17708333334</v>
       </c>
       <c r="B19">
-        <v>571</v>
+        <v>325</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2">
-        <v>46045.1875</v>
+        <v>46047.1875</v>
       </c>
       <c r="B20">
-        <v>572</v>
+        <v>328</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2">
-        <v>46045.19791666666</v>
+        <v>46047.19791666666</v>
       </c>
       <c r="B21">
-        <v>576</v>
+        <v>326</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2">
-        <v>46045.20833333334</v>
+        <v>46047.20833333334</v>
       </c>
       <c r="B22">
-        <v>619</v>
+        <v>312</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2">
-        <v>46045.21875</v>
+        <v>46047.21875</v>
       </c>
       <c r="B23">
-        <v>616</v>
+        <v>314</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2">
-        <v>46045.22916666666</v>
+        <v>46047.22916666666</v>
       </c>
       <c r="B24">
-        <v>620</v>
+        <v>365</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2">
-        <v>46045.23958333334</v>
+        <v>46047.23958333334</v>
       </c>
       <c r="B25">
-        <v>633</v>
+        <v>381</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2">
-        <v>46045.25</v>
+        <v>46047.25</v>
       </c>
       <c r="B26">
-        <v>787</v>
+        <v>406</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2">
-        <v>46045.26041666666</v>
+        <v>46047.26041666666</v>
       </c>
       <c r="B27">
-        <v>797</v>
+        <v>410</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2">
-        <v>46045.27083333334</v>
+        <v>46047.27083333334</v>
       </c>
       <c r="B28">
-        <v>801</v>
+        <v>412</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2">
-        <v>46045.28125</v>
+        <v>46047.28125</v>
       </c>
       <c r="B29">
-        <v>799</v>
+        <v>424</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2">
-        <v>46045.29166666666</v>
+        <v>46047.29166666666</v>
       </c>
       <c r="B30">
-        <v>803</v>
+        <v>486</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2">
-        <v>46045.30208333334</v>
+        <v>46047.30208333334</v>
       </c>
       <c r="B31">
-        <v>812</v>
+        <v>477</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2">
-        <v>46045.3125</v>
+        <v>46047.3125</v>
       </c>
       <c r="B32">
-        <v>818</v>
+        <v>495</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2">
-        <v>46045.32291666666</v>
+        <v>46047.32291666666</v>
       </c>
       <c r="B33">
-        <v>817</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2">
-        <v>46045.33333333334</v>
+        <v>46047.33333333334</v>
       </c>
       <c r="B34">
-        <v>811</v>
+        <v>482</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="2">
-        <v>46045.34375</v>
+        <v>46047.34375</v>
       </c>
       <c r="B35">
-        <v>814</v>
+        <v>524</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="2">
-        <v>46045.35416666666</v>
+        <v>46047.35416666666</v>
       </c>
       <c r="B36">
-        <v>812</v>
+        <v>527</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="2">
-        <v>46045.36458333334</v>
+        <v>46047.36458333334</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>476</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="2">
-        <v>46045.375</v>
+        <v>46047.375</v>
       </c>
       <c r="B38">
-        <v>581</v>
+        <v>470</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="2">
-        <v>46045.38541666666</v>
+        <v>46047.38541666666</v>
       </c>
       <c r="B39">
-        <v>568</v>
+        <v>467</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="2">
-        <v>46045.39583333334</v>
+        <v>46047.39583333334</v>
       </c>
       <c r="B40">
-        <v>562</v>
+        <v>463</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="2">
-        <v>46045.40625</v>
+        <v>46047.40625</v>
       </c>
       <c r="B41">
-        <v>559</v>
+        <v>468</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="2">
-        <v>46045.41666666666</v>
+        <v>46047.41666666666</v>
       </c>
       <c r="B42">
-        <v>505</v>
+        <v>456</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="2">
-        <v>46045.42708333334</v>
+        <v>46047.42708333334</v>
       </c>
       <c r="B43">
-        <v>500</v>
+        <v>457</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="2">
-        <v>46045.4375</v>
+        <v>46047.4375</v>
       </c>
       <c r="B44">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="2">
-        <v>46045.44791666666</v>
+        <v>46047.44791666666</v>
       </c>
       <c r="B45">
-        <v>451</v>
+        <v>459</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="2">
-        <v>46045.45833333334</v>
+        <v>46047.45833333334</v>
       </c>
       <c r="B46">
-        <v>454</v>
+        <v>525</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="2">
-        <v>46045.46875</v>
+        <v>46047.46875</v>
       </c>
       <c r="B47">
-        <v>526</v>
+        <v>523</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="2">
-        <v>46045.47916666666</v>
+        <v>46047.47916666666</v>
       </c>
       <c r="B48">
-        <v>522</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="2">
-        <v>46045.48958333334</v>
+        <v>46047.48958333334</v>
       </c>
       <c r="B49">
-        <v>520</v>
+        <v>526</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="2">
-        <v>46045.5</v>
+        <v>46047.5</v>
       </c>
       <c r="B50">
-        <v>555</v>
+        <v>347</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="2">
-        <v>46045.51041666666</v>
+        <v>46047.51041666666</v>
       </c>
       <c r="B51">
-        <v>554</v>
+        <v>338</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="2">
-        <v>46045.52083333334</v>
+        <v>46047.52083333334</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>343</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="2">
-        <v>46045.53125</v>
+        <v>46047.53125</v>
       </c>
       <c r="B53">
-        <v>555</v>
+        <v>344</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="2">
-        <v>46045.54166666666</v>
+        <v>46047.54166666666</v>
       </c>
       <c r="B54">
-        <v>711</v>
+        <v>339</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="2">
-        <v>46045.55208333334</v>
+        <v>46047.55208333334</v>
       </c>
       <c r="B55">
-        <v>704</v>
+        <v>341</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="2">
-        <v>46045.5625</v>
+        <v>46047.5625</v>
       </c>
       <c r="B56">
-        <v>717</v>
+        <v>340</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="2">
-        <v>46045.57291666666</v>
+        <v>46047.57291666666</v>
       </c>
       <c r="B57">
-        <v>706</v>
+        <v>338</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="2">
-        <v>46045.58333333334</v>
+        <v>46047.58333333334</v>
       </c>
       <c r="B58">
-        <v>700</v>
+        <v>324</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="2">
-        <v>46045.59375</v>
+        <v>46047.59375</v>
       </c>
       <c r="B59">
-        <v>0</v>
+        <v>321</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="2">
-        <v>46045.60416666666</v>
+        <v>46047.60416666666</v>
       </c>
       <c r="B60">
-        <v>699</v>
+        <v>319</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="2">
-        <v>46045.61458333334</v>
+        <v>46047.61458333334</v>
       </c>
       <c r="B61">
-        <v>724</v>
+        <v>348</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="2">
-        <v>46045.625</v>
+        <v>46047.625</v>
       </c>
       <c r="B62">
-        <v>911</v>
+        <v>632</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="2">
-        <v>46045.63541666666</v>
+        <v>46047.63541666666</v>
       </c>
       <c r="B63">
-        <v>847</v>
+        <v>638</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="2">
-        <v>46045.64583333334</v>
+        <v>46047.64583333334</v>
       </c>
       <c r="B64">
-        <v>846</v>
+        <v>587</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="2">
-        <v>46045.65625</v>
+        <v>46047.65625</v>
       </c>
       <c r="B65">
-        <v>848</v>
+        <v>592</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="2">
-        <v>46045.66666666666</v>
+        <v>46047.66666666666</v>
       </c>
       <c r="B66">
-        <v>850</v>
+        <v>566</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="2">
-        <v>46045.67708333334</v>
+        <v>46047.67708333334</v>
       </c>
       <c r="B67">
-        <v>853</v>
+        <v>567</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="2">
-        <v>46045.6875</v>
+        <v>46047.6875</v>
       </c>
       <c r="B68">
-        <v>852</v>
+        <v>568</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="2">
-        <v>46045.69791666666</v>
+        <v>46047.69791666666</v>
       </c>
       <c r="B69">
-        <v>870</v>
+        <v>576</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="2">
-        <v>46045.70833333334</v>
+        <v>46047.70833333334</v>
       </c>
       <c r="B70">
-        <v>899</v>
+        <v>594</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="2">
-        <v>46045.71875</v>
+        <v>46047.71875</v>
       </c>
       <c r="B71">
-        <v>961</v>
+        <v>597</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="2">
-        <v>46045.72916666666</v>
+        <v>46047.72916666666</v>
       </c>
       <c r="B72">
-        <v>945</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="2">
-        <v>46045.73958333334</v>
+        <v>46047.73958333334</v>
       </c>
       <c r="B73">
-        <v>962</v>
+        <v>599</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="2">
-        <v>46045.75</v>
+        <v>46047.75</v>
       </c>
       <c r="B74">
-        <v>937</v>
+        <v>613</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="2">
-        <v>46045.76041666666</v>
+        <v>46047.76041666666</v>
       </c>
       <c r="B75">
-        <v>932</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="2">
-        <v>46045.77083333334</v>
+        <v>46047.77083333334</v>
       </c>
       <c r="B76">
-        <v>931</v>
+        <v>635</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="2">
-        <v>46045.78125</v>
+        <v>46047.78125</v>
       </c>
       <c r="B77">
-        <v>932</v>
+        <v>637</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="2">
-        <v>46045.79166666666</v>
+        <v>46047.79166666666</v>
       </c>
       <c r="B78">
-        <v>911</v>
+        <v>644</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="2">
-        <v>46045.80208333334</v>
+        <v>46047.80208333334</v>
       </c>
       <c r="B79">
-        <v>916</v>
+        <v>646</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="2">
-        <v>46045.8125</v>
+        <v>46047.8125</v>
       </c>
       <c r="B80">
-        <v>925</v>
+        <v>617</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="2">
-        <v>46045.82291666666</v>
+        <v>46047.82291666666</v>
       </c>
       <c r="B81">
-        <v>926</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="2">
-        <v>46045.83333333334</v>
+        <v>46047.83333333334</v>
       </c>
       <c r="B82">
-        <v>869</v>
+        <v>602</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="2">
-        <v>46045.84375</v>
+        <v>46047.84375</v>
       </c>
       <c r="B83">
-        <v>865</v>
+        <v>598</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="2">
-        <v>46045.85416666666</v>
+        <v>46047.85416666666</v>
       </c>
       <c r="B84">
-        <v>861</v>
+        <v>592</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="2">
-        <v>46045.86458333334</v>
+        <v>46047.86458333334</v>
       </c>
       <c r="B85">
-        <v>856</v>
+        <v>569</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="2">
-        <v>46045.875</v>
+        <v>46047.875</v>
       </c>
       <c r="B86">
-        <v>760</v>
+        <v>348</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="2">
-        <v>46045.88541666666</v>
+        <v>46047.88541666666</v>
       </c>
       <c r="B87">
-        <v>759</v>
+        <v>342</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="2">
-        <v>46045.89583333334</v>
+        <v>46047.89583333334</v>
       </c>
       <c r="B88">
-        <v>756</v>
+        <v>338</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="2">
-        <v>46045.90625</v>
+        <v>46047.90625</v>
       </c>
       <c r="B89">
-        <v>752</v>
+        <v>342</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="2">
-        <v>46045.91666666666</v>
+        <v>46047.91666666666</v>
       </c>
       <c r="B90">
-        <v>609</v>
+        <v>299</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="2">
-        <v>46045.92708333334</v>
+        <v>46047.92708333334</v>
       </c>
       <c r="B91">
-        <v>600</v>
+        <v>297</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="2">
-        <v>46045.9375</v>
+        <v>46047.9375</v>
       </c>
       <c r="B92">
-        <v>0</v>
+        <v>318</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="2">
-        <v>46045.94791666666</v>
+        <v>46047.94791666666</v>
       </c>
       <c r="B93">
-        <v>599</v>
+        <v>350</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="2">
-        <v>46045.95833333334</v>
+        <v>46047.95833333334</v>
       </c>
       <c r="B94">
-        <v>550</v>
+        <v>450</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="2">
-        <v>46045.96875</v>
+        <v>46047.96875</v>
       </c>
       <c r="B95">
-        <v>547</v>
+        <v>444</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="2">
-        <v>46045.97916666666</v>
+        <v>46047.97916666666</v>
       </c>
       <c r="B96">
-        <v>544</v>
+        <v>464</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="2">
-        <v>46045.98958333334</v>
+        <v>46047.98958333334</v>
       </c>
       <c r="B97">
-        <v>541</v>
+        <v>462</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" s="2">
-        <v>46046</v>
+        <v>46048</v>
       </c>
       <c r="B98">
-        <v>0</v>
+        <v>455</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" s="2">
-        <v>46046.01041666666</v>
+        <v>46048.01041666666</v>
       </c>
       <c r="B99">
-        <v>543</v>
+        <v>379</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" s="2">
-        <v>46046.02083333334</v>
+        <v>46048.02083333334</v>
       </c>
       <c r="B100">
-        <v>540</v>
+        <v>381</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" s="2">
-        <v>46046.03125</v>
+        <v>46048.03125</v>
       </c>
       <c r="B101">
-        <v>0</v>
+        <v>379</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" s="2">
-        <v>46046.04166666666</v>
+        <v>46048.04166666666</v>
       </c>
       <c r="B102">
-        <v>527</v>
+        <v>382</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" s="2">
-        <v>46046.05208333334</v>
+        <v>46048.05208333334</v>
       </c>
       <c r="B103">
-        <v>520</v>
+        <v>380</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" s="2">
-        <v>46046.0625</v>
+        <v>46048.0625</v>
       </c>
       <c r="B104">
-        <v>562</v>
+        <v>383</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" s="2">
-        <v>46046.07291666666</v>
+        <v>46048.07291666666</v>
       </c>
       <c r="B105">
-        <v>564</v>
+        <v>380</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" s="2">
-        <v>46046.08333333334</v>
+        <v>46048.08333333334</v>
       </c>
       <c r="B106">
-        <v>561</v>
+        <v>435</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" s="2">
-        <v>46046.09375</v>
+        <v>46048.09375</v>
       </c>
       <c r="B107">
-        <v>501</v>
+        <v>433</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" s="2">
-        <v>46046.10416666666</v>
+        <v>46048.10416666666</v>
       </c>
       <c r="B108">
-        <v>510</v>
+        <v>436</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" s="2">
-        <v>46046.11458333334</v>
+        <v>46048.11458333334</v>
       </c>
       <c r="B109">
-        <v>508</v>
+        <v>434</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" s="2">
-        <v>46046.125</v>
+        <v>46048.125</v>
       </c>
       <c r="B110">
-        <v>512</v>
+        <v>422</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" s="2">
-        <v>46046.13541666666</v>
+        <v>46048.13541666666</v>
       </c>
       <c r="B111">
-        <v>510</v>
+        <v>383</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112" s="2">
-        <v>46046.14583333334</v>
+        <v>46048.14583333334</v>
       </c>
       <c r="B112">
-        <v>504</v>
+        <v>382</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" s="2">
-        <v>46046.15625</v>
+        <v>46048.15625</v>
       </c>
       <c r="B113">
-        <v>500</v>
+        <v>385</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" s="2">
-        <v>46046.16666666666</v>
+        <v>46048.16666666666</v>
       </c>
       <c r="B114">
-        <v>534</v>
+        <v>391</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" s="2">
-        <v>46046.17708333334</v>
+        <v>46048.17708333334</v>
       </c>
       <c r="B115">
-        <v>0</v>
+        <v>393</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" s="2">
-        <v>46046.1875</v>
+        <v>46048.1875</v>
       </c>
       <c r="B116">
-        <v>533</v>
+        <v>391</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117" s="2">
-        <v>46046.19791666666</v>
+        <v>46048.19791666666</v>
       </c>
       <c r="B117">
-        <v>537</v>
+        <v>394</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" s="2">
-        <v>46046.20833333334</v>
+        <v>46048.20833333334</v>
       </c>
       <c r="B118">
-        <v>519</v>
+        <v>393</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" s="2">
-        <v>46046.21875</v>
+        <v>46048.21875</v>
       </c>
       <c r="B119">
-        <v>509</v>
+        <v>396</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" s="2">
-        <v>46046.22916666666</v>
+        <v>46048.22916666666</v>
       </c>
       <c r="B120">
-        <v>511</v>
+        <v>397</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" s="2">
-        <v>46046.23958333334</v>
+        <v>46048.23958333334</v>
       </c>
       <c r="B121">
-        <v>513</v>
+        <v>423</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" s="2">
-        <v>46046.25</v>
+        <v>46048.25</v>
       </c>
       <c r="B122">
-        <v>525</v>
+        <v>692</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123" s="2">
-        <v>46046.26041666666</v>
+        <v>46048.26041666666</v>
       </c>
       <c r="B123">
-        <v>0</v>
+        <v>755</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" s="2">
-        <v>46046.27083333334</v>
+        <v>46048.27083333334</v>
       </c>
       <c r="B124">
-        <v>527</v>
+        <v>834</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" s="2">
-        <v>46046.28125</v>
+        <v>46048.28125</v>
       </c>
       <c r="B125">
-        <v>536</v>
+        <v>832</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" s="2">
-        <v>46046.29166666666</v>
+        <v>46048.29166666666</v>
       </c>
       <c r="B126">
-        <v>693</v>
+        <v>923</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127" s="2">
-        <v>46046.30208333334</v>
+        <v>46048.30208333334</v>
       </c>
       <c r="B127">
-        <v>0</v>
+        <v>785</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128" s="2">
-        <v>46046.3125</v>
+        <v>46048.3125</v>
       </c>
       <c r="B128">
         <v>0</v>
@@ -1413,15 +1413,15 @@
     </row>
     <row r="129" spans="1:2">
       <c r="A129" s="2">
-        <v>46046.32291666666</v>
+        <v>46048.32291666666</v>
       </c>
       <c r="B129">
-        <v>0</v>
+        <v>786</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" s="2">
-        <v>46046.33333333334</v>
+        <v>46048.33333333334</v>
       </c>
       <c r="B130">
         <v>0</v>
@@ -1429,23 +1429,23 @@
     </row>
     <row r="131" spans="1:2">
       <c r="A131" s="2">
-        <v>46046.34375</v>
+        <v>46048.34375</v>
       </c>
       <c r="B131">
-        <v>0</v>
+        <v>785</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132" s="2">
-        <v>46046.35416666666</v>
+        <v>46048.35416666666</v>
       </c>
       <c r="B132">
-        <v>0</v>
+        <v>788</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" s="2">
-        <v>46046.36458333334</v>
+        <v>46048.36458333334</v>
       </c>
       <c r="B133">
         <v>0</v>
@@ -1453,55 +1453,55 @@
     </row>
     <row r="134" spans="1:2">
       <c r="A134" s="2">
-        <v>46046.375</v>
+        <v>46048.375</v>
       </c>
       <c r="B134">
-        <v>0</v>
+        <v>747</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135" s="2">
-        <v>46046.38541666666</v>
+        <v>46048.38541666666</v>
       </c>
       <c r="B135">
-        <v>0</v>
+        <v>814</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136" s="2">
-        <v>46046.39583333334</v>
+        <v>46048.39583333334</v>
       </c>
       <c r="B136">
-        <v>0</v>
+        <v>824</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137" s="2">
-        <v>46046.40625</v>
+        <v>46048.40625</v>
       </c>
       <c r="B137">
-        <v>0</v>
+        <v>887</v>
       </c>
     </row>
     <row r="138" spans="1:2">
       <c r="A138" s="2">
-        <v>46046.41666666666</v>
+        <v>46048.41666666666</v>
       </c>
       <c r="B138">
-        <v>0</v>
+        <v>871</v>
       </c>
     </row>
     <row r="139" spans="1:2">
       <c r="A139" s="2">
-        <v>46046.42708333334</v>
+        <v>46048.42708333334</v>
       </c>
       <c r="B139">
-        <v>0</v>
+        <v>858</v>
       </c>
     </row>
     <row r="140" spans="1:2">
       <c r="A140" s="2">
-        <v>46046.4375</v>
+        <v>46048.4375</v>
       </c>
       <c r="B140">
         <v>0</v>
@@ -1509,7 +1509,7 @@
     </row>
     <row r="141" spans="1:2">
       <c r="A141" s="2">
-        <v>46046.44791666666</v>
+        <v>46048.44791666666</v>
       </c>
       <c r="B141">
         <v>0</v>
@@ -1517,7 +1517,7 @@
     </row>
     <row r="142" spans="1:2">
       <c r="A142" s="2">
-        <v>46046.45833333334</v>
+        <v>46048.45833333334</v>
       </c>
       <c r="B142">
         <v>0</v>
@@ -1525,7 +1525,7 @@
     </row>
     <row r="143" spans="1:2">
       <c r="A143" s="2">
-        <v>46046.46875</v>
+        <v>46048.46875</v>
       </c>
       <c r="B143">
         <v>0</v>
@@ -1533,7 +1533,7 @@
     </row>
     <row r="144" spans="1:2">
       <c r="A144" s="2">
-        <v>46046.47916666666</v>
+        <v>46048.47916666666</v>
       </c>
       <c r="B144">
         <v>0</v>
@@ -1541,7 +1541,7 @@
     </row>
     <row r="145" spans="1:2">
       <c r="A145" s="2">
-        <v>46046.48958333334</v>
+        <v>46048.48958333334</v>
       </c>
       <c r="B145">
         <v>0</v>
@@ -1549,7 +1549,7 @@
     </row>
     <row r="146" spans="1:2">
       <c r="A146" s="2">
-        <v>46046.5</v>
+        <v>46048.5</v>
       </c>
       <c r="B146">
         <v>0</v>
@@ -1557,7 +1557,7 @@
     </row>
     <row r="147" spans="1:2">
       <c r="A147" s="2">
-        <v>46046.51041666666</v>
+        <v>46048.51041666666</v>
       </c>
       <c r="B147">
         <v>0</v>
@@ -1565,7 +1565,7 @@
     </row>
     <row r="148" spans="1:2">
       <c r="A148" s="2">
-        <v>46046.52083333334</v>
+        <v>46048.52083333334</v>
       </c>
       <c r="B148">
         <v>0</v>
@@ -1573,7 +1573,7 @@
     </row>
     <row r="149" spans="1:2">
       <c r="A149" s="2">
-        <v>46046.53125</v>
+        <v>46048.53125</v>
       </c>
       <c r="B149">
         <v>0</v>
@@ -1581,7 +1581,7 @@
     </row>
     <row r="150" spans="1:2">
       <c r="A150" s="2">
-        <v>46046.54166666666</v>
+        <v>46048.54166666666</v>
       </c>
       <c r="B150">
         <v>0</v>
@@ -1589,7 +1589,7 @@
     </row>
     <row r="151" spans="1:2">
       <c r="A151" s="2">
-        <v>46046.55208333334</v>
+        <v>46048.55208333334</v>
       </c>
       <c r="B151">
         <v>0</v>
@@ -1597,7 +1597,7 @@
     </row>
     <row r="152" spans="1:2">
       <c r="A152" s="2">
-        <v>46046.5625</v>
+        <v>46048.5625</v>
       </c>
       <c r="B152">
         <v>0</v>
@@ -1605,7 +1605,7 @@
     </row>
     <row r="153" spans="1:2">
       <c r="A153" s="2">
-        <v>46046.57291666666</v>
+        <v>46048.57291666666</v>
       </c>
       <c r="B153">
         <v>0</v>
@@ -1613,7 +1613,7 @@
     </row>
     <row r="154" spans="1:2">
       <c r="A154" s="2">
-        <v>46046.58333333334</v>
+        <v>46048.58333333334</v>
       </c>
       <c r="B154">
         <v>0</v>
@@ -1621,7 +1621,7 @@
     </row>
     <row r="155" spans="1:2">
       <c r="A155" s="2">
-        <v>46046.59375</v>
+        <v>46048.59375</v>
       </c>
       <c r="B155">
         <v>0</v>
@@ -1629,7 +1629,7 @@
     </row>
     <row r="156" spans="1:2">
       <c r="A156" s="2">
-        <v>46046.60416666666</v>
+        <v>46048.60416666666</v>
       </c>
       <c r="B156">
         <v>0</v>
@@ -1637,7 +1637,7 @@
     </row>
     <row r="157" spans="1:2">
       <c r="A157" s="2">
-        <v>46046.61458333334</v>
+        <v>46048.61458333334</v>
       </c>
       <c r="B157">
         <v>0</v>
@@ -1645,7 +1645,7 @@
     </row>
     <row r="158" spans="1:2">
       <c r="A158" s="2">
-        <v>46046.625</v>
+        <v>46048.625</v>
       </c>
       <c r="B158">
         <v>0</v>
@@ -1653,7 +1653,7 @@
     </row>
     <row r="159" spans="1:2">
       <c r="A159" s="2">
-        <v>46046.63541666666</v>
+        <v>46048.63541666666</v>
       </c>
       <c r="B159">
         <v>0</v>
@@ -1661,7 +1661,7 @@
     </row>
     <row r="160" spans="1:2">
       <c r="A160" s="2">
-        <v>46046.64583333334</v>
+        <v>46048.64583333334</v>
       </c>
       <c r="B160">
         <v>0</v>
@@ -1669,7 +1669,7 @@
     </row>
     <row r="161" spans="1:2">
       <c r="A161" s="2">
-        <v>46046.65625</v>
+        <v>46048.65625</v>
       </c>
       <c r="B161">
         <v>0</v>
@@ -1677,7 +1677,7 @@
     </row>
     <row r="162" spans="1:2">
       <c r="A162" s="2">
-        <v>46046.66666666666</v>
+        <v>46048.66666666666</v>
       </c>
       <c r="B162">
         <v>0</v>
@@ -1685,7 +1685,7 @@
     </row>
     <row r="163" spans="1:2">
       <c r="A163" s="2">
-        <v>46046.67708333334</v>
+        <v>46048.67708333334</v>
       </c>
       <c r="B163">
         <v>0</v>
@@ -1693,7 +1693,7 @@
     </row>
     <row r="164" spans="1:2">
       <c r="A164" s="2">
-        <v>46046.6875</v>
+        <v>46048.6875</v>
       </c>
       <c r="B164">
         <v>0</v>
@@ -1701,7 +1701,7 @@
     </row>
     <row r="165" spans="1:2">
       <c r="A165" s="2">
-        <v>46046.69791666666</v>
+        <v>46048.69791666666</v>
       </c>
       <c r="B165">
         <v>0</v>
@@ -1709,7 +1709,7 @@
     </row>
     <row r="166" spans="1:2">
       <c r="A166" s="2">
-        <v>46046.70833333334</v>
+        <v>46048.70833333334</v>
       </c>
       <c r="B166">
         <v>0</v>
@@ -1717,7 +1717,7 @@
     </row>
     <row r="167" spans="1:2">
       <c r="A167" s="2">
-        <v>46046.71875</v>
+        <v>46048.71875</v>
       </c>
       <c r="B167">
         <v>0</v>
@@ -1725,7 +1725,7 @@
     </row>
     <row r="168" spans="1:2">
       <c r="A168" s="2">
-        <v>46046.72916666666</v>
+        <v>46048.72916666666</v>
       </c>
       <c r="B168">
         <v>0</v>
@@ -1733,7 +1733,7 @@
     </row>
     <row r="169" spans="1:2">
       <c r="A169" s="2">
-        <v>46046.73958333334</v>
+        <v>46048.73958333334</v>
       </c>
       <c r="B169">
         <v>0</v>
@@ -1741,7 +1741,7 @@
     </row>
     <row r="170" spans="1:2">
       <c r="A170" s="2">
-        <v>46046.75</v>
+        <v>46048.75</v>
       </c>
       <c r="B170">
         <v>0</v>
@@ -1749,7 +1749,7 @@
     </row>
     <row r="171" spans="1:2">
       <c r="A171" s="2">
-        <v>46046.76041666666</v>
+        <v>46048.76041666666</v>
       </c>
       <c r="B171">
         <v>0</v>
@@ -1757,7 +1757,7 @@
     </row>
     <row r="172" spans="1:2">
       <c r="A172" s="2">
-        <v>46046.77083333334</v>
+        <v>46048.77083333334</v>
       </c>
       <c r="B172">
         <v>0</v>
@@ -1765,7 +1765,7 @@
     </row>
     <row r="173" spans="1:2">
       <c r="A173" s="2">
-        <v>46046.78125</v>
+        <v>46048.78125</v>
       </c>
       <c r="B173">
         <v>0</v>
@@ -1773,7 +1773,7 @@
     </row>
     <row r="174" spans="1:2">
       <c r="A174" s="2">
-        <v>46046.79166666666</v>
+        <v>46048.79166666666</v>
       </c>
       <c r="B174">
         <v>0</v>
@@ -1781,7 +1781,7 @@
     </row>
     <row r="175" spans="1:2">
       <c r="A175" s="2">
-        <v>46046.80208333334</v>
+        <v>46048.80208333334</v>
       </c>
       <c r="B175">
         <v>0</v>
@@ -1789,7 +1789,7 @@
     </row>
     <row r="176" spans="1:2">
       <c r="A176" s="2">
-        <v>46046.8125</v>
+        <v>46048.8125</v>
       </c>
       <c r="B176">
         <v>0</v>
@@ -1797,7 +1797,7 @@
     </row>
     <row r="177" spans="1:2">
       <c r="A177" s="2">
-        <v>46046.82291666666</v>
+        <v>46048.82291666666</v>
       </c>
       <c r="B177">
         <v>0</v>
@@ -1805,7 +1805,7 @@
     </row>
     <row r="178" spans="1:2">
       <c r="A178" s="2">
-        <v>46046.83333333334</v>
+        <v>46048.83333333334</v>
       </c>
       <c r="B178">
         <v>0</v>
@@ -1813,7 +1813,7 @@
     </row>
     <row r="179" spans="1:2">
       <c r="A179" s="2">
-        <v>46046.84375</v>
+        <v>46048.84375</v>
       </c>
       <c r="B179">
         <v>0</v>
@@ -1821,7 +1821,7 @@
     </row>
     <row r="180" spans="1:2">
       <c r="A180" s="2">
-        <v>46046.85416666666</v>
+        <v>46048.85416666666</v>
       </c>
       <c r="B180">
         <v>0</v>
@@ -1829,7 +1829,7 @@
     </row>
     <row r="181" spans="1:2">
       <c r="A181" s="2">
-        <v>46046.86458333334</v>
+        <v>46048.86458333334</v>
       </c>
       <c r="B181">
         <v>0</v>
@@ -1837,7 +1837,7 @@
     </row>
     <row r="182" spans="1:2">
       <c r="A182" s="2">
-        <v>46046.875</v>
+        <v>46048.875</v>
       </c>
       <c r="B182">
         <v>0</v>
@@ -1845,7 +1845,7 @@
     </row>
     <row r="183" spans="1:2">
       <c r="A183" s="2">
-        <v>46046.88541666666</v>
+        <v>46048.88541666666</v>
       </c>
       <c r="B183">
         <v>0</v>
@@ -1853,7 +1853,7 @@
     </row>
     <row r="184" spans="1:2">
       <c r="A184" s="2">
-        <v>46046.89583333334</v>
+        <v>46048.89583333334</v>
       </c>
       <c r="B184">
         <v>0</v>
@@ -1861,7 +1861,7 @@
     </row>
     <row r="185" spans="1:2">
       <c r="A185" s="2">
-        <v>46046.90625</v>
+        <v>46048.90625</v>
       </c>
       <c r="B185">
         <v>0</v>
@@ -1869,7 +1869,7 @@
     </row>
     <row r="186" spans="1:2">
       <c r="A186" s="2">
-        <v>46046.91666666666</v>
+        <v>46048.91666666666</v>
       </c>
       <c r="B186">
         <v>0</v>
@@ -1877,7 +1877,7 @@
     </row>
     <row r="187" spans="1:2">
       <c r="A187" s="2">
-        <v>46046.92708333334</v>
+        <v>46048.92708333334</v>
       </c>
       <c r="B187">
         <v>0</v>
@@ -1885,7 +1885,7 @@
     </row>
     <row r="188" spans="1:2">
       <c r="A188" s="2">
-        <v>46046.9375</v>
+        <v>46048.9375</v>
       </c>
       <c r="B188">
         <v>0</v>
@@ -1893,7 +1893,7 @@
     </row>
     <row r="189" spans="1:2">
       <c r="A189" s="2">
-        <v>46046.94791666666</v>
+        <v>46048.94791666666</v>
       </c>
       <c r="B189">
         <v>0</v>
@@ -1901,7 +1901,7 @@
     </row>
     <row r="190" spans="1:2">
       <c r="A190" s="2">
-        <v>46046.95833333334</v>
+        <v>46048.95833333334</v>
       </c>
       <c r="B190">
         <v>0</v>
@@ -1909,7 +1909,7 @@
     </row>
     <row r="191" spans="1:2">
       <c r="A191" s="2">
-        <v>46046.96875</v>
+        <v>46048.96875</v>
       </c>
       <c r="B191">
         <v>0</v>
@@ -1917,7 +1917,7 @@
     </row>
     <row r="192" spans="1:2">
       <c r="A192" s="2">
-        <v>46046.97916666666</v>
+        <v>46048.97916666666</v>
       </c>
       <c r="B192">
         <v>0</v>
@@ -1925,7 +1925,7 @@
     </row>
     <row r="193" spans="1:2">
       <c r="A193" s="2">
-        <v>46046.98958333334</v>
+        <v>46048.98958333334</v>
       </c>
       <c r="B193">
         <v>0</v>

--- a/data_fetching/Entsoe/Actual_Production_Hydro_Water_Reservoir.xlsx
+++ b/data_fetching/Entsoe/Actual_Production_Hydro_Water_Reservoir.xlsx
@@ -397,1111 +397,1111 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2">
-        <v>46047</v>
+        <v>46048</v>
       </c>
       <c r="B2">
-        <v>370</v>
+        <v>455</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2">
-        <v>46047.01041666666</v>
+        <v>46048.01041666666</v>
       </c>
       <c r="B3">
-        <v>367</v>
+        <v>379</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2">
-        <v>46047.02083333334</v>
+        <v>46048.02083333334</v>
       </c>
       <c r="B4">
-        <v>374</v>
+        <v>381</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2">
-        <v>46047.03125</v>
+        <v>46048.03125</v>
       </c>
       <c r="B5">
-        <v>373</v>
+        <v>379</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2">
-        <v>46047.04166666666</v>
+        <v>46048.04166666666</v>
       </c>
       <c r="B6">
-        <v>355</v>
+        <v>382</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2">
-        <v>46047.05208333334</v>
+        <v>46048.05208333334</v>
       </c>
       <c r="B7">
-        <v>350</v>
+        <v>380</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2">
-        <v>46047.0625</v>
+        <v>46048.0625</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>383</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2">
-        <v>46047.07291666666</v>
+        <v>46048.07291666666</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>380</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2">
-        <v>46047.08333333334</v>
+        <v>46048.08333333334</v>
       </c>
       <c r="B10">
-        <v>340</v>
+        <v>435</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2">
-        <v>46047.09375</v>
+        <v>46048.09375</v>
       </c>
       <c r="B11">
-        <v>337</v>
+        <v>433</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2">
-        <v>46047.10416666666</v>
+        <v>46048.10416666666</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>436</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2">
-        <v>46047.11458333334</v>
+        <v>46048.11458333334</v>
       </c>
       <c r="B13">
-        <v>336</v>
+        <v>434</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2">
-        <v>46047.125</v>
+        <v>46048.125</v>
       </c>
       <c r="B14">
-        <v>334</v>
+        <v>422</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2">
-        <v>46047.13541666666</v>
+        <v>46048.13541666666</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>383</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2">
-        <v>46047.14583333334</v>
+        <v>46048.14583333334</v>
       </c>
       <c r="B16">
-        <v>336</v>
+        <v>382</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2">
-        <v>46047.15625</v>
+        <v>46048.15625</v>
       </c>
       <c r="B17">
-        <v>334</v>
+        <v>385</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2">
-        <v>46047.16666666666</v>
+        <v>46048.16666666666</v>
       </c>
       <c r="B18">
-        <v>327</v>
+        <v>391</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2">
-        <v>46047.17708333334</v>
+        <v>46048.17708333334</v>
       </c>
       <c r="B19">
-        <v>325</v>
+        <v>393</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2">
-        <v>46047.1875</v>
+        <v>46048.1875</v>
       </c>
       <c r="B20">
-        <v>328</v>
+        <v>391</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2">
-        <v>46047.19791666666</v>
+        <v>46048.19791666666</v>
       </c>
       <c r="B21">
-        <v>326</v>
+        <v>394</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2">
-        <v>46047.20833333334</v>
+        <v>46048.20833333334</v>
       </c>
       <c r="B22">
-        <v>312</v>
+        <v>393</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2">
-        <v>46047.21875</v>
+        <v>46048.21875</v>
       </c>
       <c r="B23">
-        <v>314</v>
+        <v>396</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2">
-        <v>46047.22916666666</v>
+        <v>46048.22916666666</v>
       </c>
       <c r="B24">
-        <v>365</v>
+        <v>397</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2">
-        <v>46047.23958333334</v>
+        <v>46048.23958333334</v>
       </c>
       <c r="B25">
-        <v>381</v>
+        <v>423</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2">
-        <v>46047.25</v>
+        <v>46048.25</v>
       </c>
       <c r="B26">
-        <v>406</v>
+        <v>692</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2">
-        <v>46047.26041666666</v>
+        <v>46048.26041666666</v>
       </c>
       <c r="B27">
-        <v>410</v>
+        <v>755</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2">
-        <v>46047.27083333334</v>
+        <v>46048.27083333334</v>
       </c>
       <c r="B28">
-        <v>412</v>
+        <v>834</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2">
-        <v>46047.28125</v>
+        <v>46048.28125</v>
       </c>
       <c r="B29">
-        <v>424</v>
+        <v>832</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2">
-        <v>46047.29166666666</v>
+        <v>46048.29166666666</v>
       </c>
       <c r="B30">
-        <v>486</v>
+        <v>923</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2">
-        <v>46047.30208333334</v>
+        <v>46048.30208333334</v>
       </c>
       <c r="B31">
-        <v>477</v>
+        <v>785</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2">
-        <v>46047.3125</v>
+        <v>46048.3125</v>
       </c>
       <c r="B32">
-        <v>495</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2">
-        <v>46047.32291666666</v>
+        <v>46048.32291666666</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>786</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2">
-        <v>46047.33333333334</v>
+        <v>46048.33333333334</v>
       </c>
       <c r="B34">
-        <v>482</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="2">
-        <v>46047.34375</v>
+        <v>46048.34375</v>
       </c>
       <c r="B35">
-        <v>524</v>
+        <v>785</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="2">
-        <v>46047.35416666666</v>
+        <v>46048.35416666666</v>
       </c>
       <c r="B36">
-        <v>527</v>
+        <v>788</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="2">
-        <v>46047.36458333334</v>
+        <v>46048.36458333334</v>
       </c>
       <c r="B37">
-        <v>476</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="2">
-        <v>46047.375</v>
+        <v>46048.375</v>
       </c>
       <c r="B38">
-        <v>470</v>
+        <v>747</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="2">
-        <v>46047.38541666666</v>
+        <v>46048.38541666666</v>
       </c>
       <c r="B39">
-        <v>467</v>
+        <v>814</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="2">
-        <v>46047.39583333334</v>
+        <v>46048.39583333334</v>
       </c>
       <c r="B40">
-        <v>463</v>
+        <v>824</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="2">
-        <v>46047.40625</v>
+        <v>46048.40625</v>
       </c>
       <c r="B41">
-        <v>468</v>
+        <v>887</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="2">
-        <v>46047.41666666666</v>
+        <v>46048.41666666666</v>
       </c>
       <c r="B42">
-        <v>456</v>
+        <v>871</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="2">
-        <v>46047.42708333334</v>
+        <v>46048.42708333334</v>
       </c>
       <c r="B43">
-        <v>457</v>
+        <v>858</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="2">
-        <v>46047.4375</v>
+        <v>46048.4375</v>
       </c>
       <c r="B44">
-        <v>460</v>
+        <v>848</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="2">
-        <v>46047.44791666666</v>
+        <v>46048.44791666666</v>
       </c>
       <c r="B45">
-        <v>459</v>
+        <v>846</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="2">
-        <v>46047.45833333334</v>
+        <v>46048.45833333334</v>
       </c>
       <c r="B46">
-        <v>525</v>
+        <v>882</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="2">
-        <v>46047.46875</v>
+        <v>46048.46875</v>
       </c>
       <c r="B47">
-        <v>523</v>
+        <v>896</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="2">
-        <v>46047.47916666666</v>
+        <v>46048.47916666666</v>
       </c>
       <c r="B48">
-        <v>0</v>
+        <v>894</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="2">
-        <v>46047.48958333334</v>
+        <v>46048.48958333334</v>
       </c>
       <c r="B49">
-        <v>526</v>
+        <v>816</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="2">
-        <v>46047.5</v>
+        <v>46048.5</v>
       </c>
       <c r="B50">
-        <v>347</v>
+        <v>655</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="2">
-        <v>46047.51041666666</v>
+        <v>46048.51041666666</v>
       </c>
       <c r="B51">
-        <v>338</v>
+        <v>647</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="2">
-        <v>46047.52083333334</v>
+        <v>46048.52083333334</v>
       </c>
       <c r="B52">
-        <v>343</v>
+        <v>622</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="2">
-        <v>46047.53125</v>
+        <v>46048.53125</v>
       </c>
       <c r="B53">
-        <v>344</v>
+        <v>638</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="2">
-        <v>46047.54166666666</v>
+        <v>46048.54166666666</v>
       </c>
       <c r="B54">
-        <v>339</v>
+        <v>726</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="2">
-        <v>46047.55208333334</v>
+        <v>46048.55208333334</v>
       </c>
       <c r="B55">
-        <v>341</v>
+        <v>721</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="2">
-        <v>46047.5625</v>
+        <v>46048.5625</v>
       </c>
       <c r="B56">
-        <v>340</v>
+        <v>720</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="2">
-        <v>46047.57291666666</v>
+        <v>46048.57291666666</v>
       </c>
       <c r="B57">
-        <v>338</v>
+        <v>719</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="2">
-        <v>46047.58333333334</v>
+        <v>46048.58333333334</v>
       </c>
       <c r="B58">
-        <v>324</v>
+        <v>794</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="2">
-        <v>46047.59375</v>
+        <v>46048.59375</v>
       </c>
       <c r="B59">
-        <v>321</v>
+        <v>787</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="2">
-        <v>46047.60416666666</v>
+        <v>46048.60416666666</v>
       </c>
       <c r="B60">
-        <v>319</v>
+        <v>790</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="2">
-        <v>46047.61458333334</v>
+        <v>46048.61458333334</v>
       </c>
       <c r="B61">
-        <v>348</v>
+        <v>710</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="2">
-        <v>46047.625</v>
+        <v>46048.625</v>
       </c>
       <c r="B62">
-        <v>632</v>
+        <v>789</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="2">
-        <v>46047.63541666666</v>
+        <v>46048.63541666666</v>
       </c>
       <c r="B63">
-        <v>638</v>
+        <v>785</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="2">
-        <v>46047.64583333334</v>
+        <v>46048.64583333334</v>
       </c>
       <c r="B64">
-        <v>587</v>
+        <v>763</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="2">
-        <v>46047.65625</v>
+        <v>46048.65625</v>
       </c>
       <c r="B65">
-        <v>592</v>
+        <v>773</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="2">
-        <v>46047.66666666666</v>
+        <v>46048.66666666666</v>
       </c>
       <c r="B66">
-        <v>566</v>
+        <v>796</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="2">
-        <v>46047.67708333334</v>
+        <v>46048.67708333334</v>
       </c>
       <c r="B67">
-        <v>567</v>
+        <v>801</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="2">
-        <v>46047.6875</v>
+        <v>46048.6875</v>
       </c>
       <c r="B68">
-        <v>568</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="2">
-        <v>46047.69791666666</v>
+        <v>46048.69791666666</v>
       </c>
       <c r="B69">
-        <v>576</v>
+        <v>998</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="2">
-        <v>46047.70833333334</v>
+        <v>46048.70833333334</v>
       </c>
       <c r="B70">
-        <v>594</v>
+        <v>934</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="2">
-        <v>46047.71875</v>
+        <v>46048.71875</v>
       </c>
       <c r="B71">
-        <v>597</v>
+        <v>924</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="2">
-        <v>46047.72916666666</v>
+        <v>46048.72916666666</v>
       </c>
       <c r="B72">
-        <v>0</v>
+        <v>954</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="2">
-        <v>46047.73958333334</v>
+        <v>46048.73958333334</v>
       </c>
       <c r="B73">
-        <v>599</v>
+        <v>960</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="2">
-        <v>46047.75</v>
+        <v>46048.75</v>
       </c>
       <c r="B74">
-        <v>613</v>
+        <v>865</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="2">
-        <v>46047.76041666666</v>
+        <v>46048.76041666666</v>
       </c>
       <c r="B75">
-        <v>0</v>
+        <v>864</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="2">
-        <v>46047.77083333334</v>
+        <v>46048.77083333334</v>
       </c>
       <c r="B76">
-        <v>635</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="2">
-        <v>46047.78125</v>
+        <v>46048.78125</v>
       </c>
       <c r="B77">
-        <v>637</v>
+        <v>865</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="2">
-        <v>46047.79166666666</v>
+        <v>46048.79166666666</v>
       </c>
       <c r="B78">
-        <v>644</v>
+        <v>842</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="2">
-        <v>46047.80208333334</v>
+        <v>46048.80208333334</v>
       </c>
       <c r="B79">
-        <v>646</v>
+        <v>840</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="2">
-        <v>46047.8125</v>
+        <v>46048.8125</v>
       </c>
       <c r="B80">
-        <v>617</v>
+        <v>844</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="2">
-        <v>46047.82291666666</v>
+        <v>46048.82291666666</v>
       </c>
       <c r="B81">
-        <v>0</v>
+        <v>837</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="2">
-        <v>46047.83333333334</v>
+        <v>46048.83333333334</v>
       </c>
       <c r="B82">
-        <v>602</v>
+        <v>693</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="2">
-        <v>46047.84375</v>
+        <v>46048.84375</v>
       </c>
       <c r="B83">
-        <v>598</v>
+        <v>689</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="2">
-        <v>46047.85416666666</v>
+        <v>46048.85416666666</v>
       </c>
       <c r="B84">
-        <v>592</v>
+        <v>692</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="2">
-        <v>46047.86458333334</v>
+        <v>46048.86458333334</v>
       </c>
       <c r="B85">
-        <v>569</v>
+        <v>685</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="2">
-        <v>46047.875</v>
+        <v>46048.875</v>
       </c>
       <c r="B86">
-        <v>348</v>
+        <v>606</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="2">
-        <v>46047.88541666666</v>
+        <v>46048.88541666666</v>
       </c>
       <c r="B87">
-        <v>342</v>
+        <v>597</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="2">
-        <v>46047.89583333334</v>
+        <v>46048.89583333334</v>
       </c>
       <c r="B88">
-        <v>338</v>
+        <v>595</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="2">
-        <v>46047.90625</v>
+        <v>46048.90625</v>
       </c>
       <c r="B89">
-        <v>342</v>
+        <v>588</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="2">
-        <v>46047.91666666666</v>
+        <v>46048.91666666666</v>
       </c>
       <c r="B90">
-        <v>299</v>
+        <v>418</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="2">
-        <v>46047.92708333334</v>
+        <v>46048.92708333334</v>
       </c>
       <c r="B91">
-        <v>297</v>
+        <v>414</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="2">
-        <v>46047.9375</v>
+        <v>46048.9375</v>
       </c>
       <c r="B92">
-        <v>318</v>
+        <v>416</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="2">
-        <v>46047.94791666666</v>
+        <v>46048.94791666666</v>
       </c>
       <c r="B93">
-        <v>350</v>
+        <v>412</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="2">
-        <v>46047.95833333334</v>
+        <v>46048.95833333334</v>
       </c>
       <c r="B94">
-        <v>450</v>
+        <v>371</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="2">
-        <v>46047.96875</v>
+        <v>46048.96875</v>
       </c>
       <c r="B95">
-        <v>444</v>
+        <v>366</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="2">
-        <v>46047.97916666666</v>
+        <v>46048.97916666666</v>
       </c>
       <c r="B96">
-        <v>464</v>
+        <v>363</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="2">
-        <v>46047.98958333334</v>
+        <v>46048.98958333334</v>
       </c>
       <c r="B97">
-        <v>462</v>
+        <v>361</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" s="2">
-        <v>46048</v>
+        <v>46049</v>
       </c>
       <c r="B98">
-        <v>455</v>
+        <v>369</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" s="2">
-        <v>46048.01041666666</v>
+        <v>46049.01041666666</v>
       </c>
       <c r="B99">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" s="2">
-        <v>46048.02083333334</v>
+        <v>46049.02083333334</v>
       </c>
       <c r="B100">
-        <v>381</v>
+        <v>350</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" s="2">
-        <v>46048.03125</v>
+        <v>46049.03125</v>
       </c>
       <c r="B101">
-        <v>379</v>
+        <v>344</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" s="2">
-        <v>46048.04166666666</v>
+        <v>46049.04166666666</v>
       </c>
       <c r="B102">
-        <v>382</v>
+        <v>368</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" s="2">
-        <v>46048.05208333334</v>
+        <v>46049.05208333334</v>
       </c>
       <c r="B103">
-        <v>380</v>
+        <v>366</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" s="2">
-        <v>46048.0625</v>
+        <v>46049.0625</v>
       </c>
       <c r="B104">
-        <v>383</v>
+        <v>368</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" s="2">
-        <v>46048.07291666666</v>
+        <v>46049.07291666666</v>
       </c>
       <c r="B105">
-        <v>380</v>
+        <v>365</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" s="2">
-        <v>46048.08333333334</v>
+        <v>46049.08333333334</v>
       </c>
       <c r="B106">
-        <v>435</v>
+        <v>370</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" s="2">
-        <v>46048.09375</v>
+        <v>46049.09375</v>
       </c>
       <c r="B107">
-        <v>433</v>
+        <v>368</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" s="2">
-        <v>46048.10416666666</v>
+        <v>46049.10416666666</v>
       </c>
       <c r="B108">
-        <v>436</v>
+        <v>300</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" s="2">
-        <v>46048.11458333334</v>
+        <v>46049.11458333334</v>
       </c>
       <c r="B109">
-        <v>434</v>
+        <v>274</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" s="2">
-        <v>46048.125</v>
+        <v>46049.125</v>
       </c>
       <c r="B110">
-        <v>422</v>
+        <v>252</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" s="2">
-        <v>46048.13541666666</v>
+        <v>46049.13541666666</v>
       </c>
       <c r="B111">
-        <v>383</v>
+        <v>244</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112" s="2">
-        <v>46048.14583333334</v>
+        <v>46049.14583333334</v>
       </c>
       <c r="B112">
-        <v>382</v>
+        <v>248</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" s="2">
-        <v>46048.15625</v>
+        <v>46049.15625</v>
       </c>
       <c r="B113">
-        <v>385</v>
+        <v>251</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" s="2">
-        <v>46048.16666666666</v>
+        <v>46049.16666666666</v>
       </c>
       <c r="B114">
-        <v>391</v>
+        <v>257</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" s="2">
-        <v>46048.17708333334</v>
+        <v>46049.17708333334</v>
       </c>
       <c r="B115">
-        <v>393</v>
+        <v>255</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" s="2">
-        <v>46048.1875</v>
+        <v>46049.1875</v>
       </c>
       <c r="B116">
-        <v>391</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117" s="2">
-        <v>46048.19791666666</v>
+        <v>46049.19791666666</v>
       </c>
       <c r="B117">
-        <v>394</v>
+        <v>263</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" s="2">
-        <v>46048.20833333334</v>
+        <v>46049.20833333334</v>
       </c>
       <c r="B118">
-        <v>393</v>
+        <v>342</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" s="2">
-        <v>46048.21875</v>
+        <v>46049.21875</v>
       </c>
       <c r="B119">
-        <v>396</v>
+        <v>375</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" s="2">
-        <v>46048.22916666666</v>
+        <v>46049.22916666666</v>
       </c>
       <c r="B120">
-        <v>397</v>
+        <v>392</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" s="2">
-        <v>46048.23958333334</v>
+        <v>46049.23958333334</v>
       </c>
       <c r="B121">
-        <v>423</v>
+        <v>399</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" s="2">
-        <v>46048.25</v>
+        <v>46049.25</v>
       </c>
       <c r="B122">
-        <v>692</v>
+        <v>403</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123" s="2">
-        <v>46048.26041666666</v>
+        <v>46049.26041666666</v>
       </c>
       <c r="B123">
-        <v>755</v>
+        <v>396</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" s="2">
-        <v>46048.27083333334</v>
+        <v>46049.27083333334</v>
       </c>
       <c r="B124">
-        <v>834</v>
+        <v>399</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" s="2">
-        <v>46048.28125</v>
+        <v>46049.28125</v>
       </c>
       <c r="B125">
-        <v>832</v>
+        <v>442</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" s="2">
-        <v>46048.29166666666</v>
+        <v>46049.29166666666</v>
       </c>
       <c r="B126">
-        <v>923</v>
+        <v>760</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127" s="2">
-        <v>46048.30208333334</v>
+        <v>46049.30208333334</v>
       </c>
       <c r="B127">
-        <v>785</v>
+        <v>770</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128" s="2">
-        <v>46048.3125</v>
+        <v>46049.3125</v>
       </c>
       <c r="B128">
-        <v>0</v>
+        <v>767</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" s="2">
-        <v>46048.32291666666</v>
+        <v>46049.32291666666</v>
       </c>
       <c r="B129">
-        <v>786</v>
+        <v>755</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" s="2">
-        <v>46048.33333333334</v>
+        <v>46049.33333333334</v>
       </c>
       <c r="B130">
-        <v>0</v>
+        <v>789</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" s="2">
-        <v>46048.34375</v>
+        <v>46049.34375</v>
       </c>
       <c r="B131">
-        <v>785</v>
+        <v>791</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132" s="2">
-        <v>46048.35416666666</v>
+        <v>46049.35416666666</v>
       </c>
       <c r="B132">
-        <v>788</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" s="2">
-        <v>46048.36458333334</v>
+        <v>46049.36458333334</v>
       </c>
       <c r="B133">
-        <v>0</v>
+        <v>785</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134" s="2">
-        <v>46048.375</v>
+        <v>46049.375</v>
       </c>
       <c r="B134">
-        <v>747</v>
+        <v>637</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135" s="2">
-        <v>46048.38541666666</v>
+        <v>46049.38541666666</v>
       </c>
       <c r="B135">
-        <v>814</v>
+        <v>636</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136" s="2">
-        <v>46048.39583333334</v>
+        <v>46049.39583333334</v>
       </c>
       <c r="B136">
-        <v>824</v>
+        <v>635</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137" s="2">
-        <v>46048.40625</v>
+        <v>46049.40625</v>
       </c>
       <c r="B137">
-        <v>887</v>
+        <v>633</v>
       </c>
     </row>
     <row r="138" spans="1:2">
       <c r="A138" s="2">
-        <v>46048.41666666666</v>
+        <v>46049.41666666666</v>
       </c>
       <c r="B138">
-        <v>871</v>
+        <v>600</v>
       </c>
     </row>
     <row r="139" spans="1:2">
       <c r="A139" s="2">
-        <v>46048.42708333334</v>
+        <v>46049.42708333334</v>
       </c>
       <c r="B139">
-        <v>858</v>
+        <v>599</v>
       </c>
     </row>
     <row r="140" spans="1:2">
       <c r="A140" s="2">
-        <v>46048.4375</v>
+        <v>46049.4375</v>
       </c>
       <c r="B140">
         <v>0</v>
@@ -1509,7 +1509,7 @@
     </row>
     <row r="141" spans="1:2">
       <c r="A141" s="2">
-        <v>46048.44791666666</v>
+        <v>46049.44791666666</v>
       </c>
       <c r="B141">
         <v>0</v>
@@ -1517,7 +1517,7 @@
     </row>
     <row r="142" spans="1:2">
       <c r="A142" s="2">
-        <v>46048.45833333334</v>
+        <v>46049.45833333334</v>
       </c>
       <c r="B142">
         <v>0</v>
@@ -1525,7 +1525,7 @@
     </row>
     <row r="143" spans="1:2">
       <c r="A143" s="2">
-        <v>46048.46875</v>
+        <v>46049.46875</v>
       </c>
       <c r="B143">
         <v>0</v>
@@ -1533,7 +1533,7 @@
     </row>
     <row r="144" spans="1:2">
       <c r="A144" s="2">
-        <v>46048.47916666666</v>
+        <v>46049.47916666666</v>
       </c>
       <c r="B144">
         <v>0</v>
@@ -1541,7 +1541,7 @@
     </row>
     <row r="145" spans="1:2">
       <c r="A145" s="2">
-        <v>46048.48958333334</v>
+        <v>46049.48958333334</v>
       </c>
       <c r="B145">
         <v>0</v>
@@ -1549,7 +1549,7 @@
     </row>
     <row r="146" spans="1:2">
       <c r="A146" s="2">
-        <v>46048.5</v>
+        <v>46049.5</v>
       </c>
       <c r="B146">
         <v>0</v>
@@ -1557,7 +1557,7 @@
     </row>
     <row r="147" spans="1:2">
       <c r="A147" s="2">
-        <v>46048.51041666666</v>
+        <v>46049.51041666666</v>
       </c>
       <c r="B147">
         <v>0</v>
@@ -1565,7 +1565,7 @@
     </row>
     <row r="148" spans="1:2">
       <c r="A148" s="2">
-        <v>46048.52083333334</v>
+        <v>46049.52083333334</v>
       </c>
       <c r="B148">
         <v>0</v>
@@ -1573,7 +1573,7 @@
     </row>
     <row r="149" spans="1:2">
       <c r="A149" s="2">
-        <v>46048.53125</v>
+        <v>46049.53125</v>
       </c>
       <c r="B149">
         <v>0</v>
@@ -1581,7 +1581,7 @@
     </row>
     <row r="150" spans="1:2">
       <c r="A150" s="2">
-        <v>46048.54166666666</v>
+        <v>46049.54166666666</v>
       </c>
       <c r="B150">
         <v>0</v>
@@ -1589,7 +1589,7 @@
     </row>
     <row r="151" spans="1:2">
       <c r="A151" s="2">
-        <v>46048.55208333334</v>
+        <v>46049.55208333334</v>
       </c>
       <c r="B151">
         <v>0</v>
@@ -1597,7 +1597,7 @@
     </row>
     <row r="152" spans="1:2">
       <c r="A152" s="2">
-        <v>46048.5625</v>
+        <v>46049.5625</v>
       </c>
       <c r="B152">
         <v>0</v>
@@ -1605,7 +1605,7 @@
     </row>
     <row r="153" spans="1:2">
       <c r="A153" s="2">
-        <v>46048.57291666666</v>
+        <v>46049.57291666666</v>
       </c>
       <c r="B153">
         <v>0</v>
@@ -1613,7 +1613,7 @@
     </row>
     <row r="154" spans="1:2">
       <c r="A154" s="2">
-        <v>46048.58333333334</v>
+        <v>46049.58333333334</v>
       </c>
       <c r="B154">
         <v>0</v>
@@ -1621,7 +1621,7 @@
     </row>
     <row r="155" spans="1:2">
       <c r="A155" s="2">
-        <v>46048.59375</v>
+        <v>46049.59375</v>
       </c>
       <c r="B155">
         <v>0</v>
@@ -1629,7 +1629,7 @@
     </row>
     <row r="156" spans="1:2">
       <c r="A156" s="2">
-        <v>46048.60416666666</v>
+        <v>46049.60416666666</v>
       </c>
       <c r="B156">
         <v>0</v>
@@ -1637,7 +1637,7 @@
     </row>
     <row r="157" spans="1:2">
       <c r="A157" s="2">
-        <v>46048.61458333334</v>
+        <v>46049.61458333334</v>
       </c>
       <c r="B157">
         <v>0</v>
@@ -1645,7 +1645,7 @@
     </row>
     <row r="158" spans="1:2">
       <c r="A158" s="2">
-        <v>46048.625</v>
+        <v>46049.625</v>
       </c>
       <c r="B158">
         <v>0</v>
@@ -1653,7 +1653,7 @@
     </row>
     <row r="159" spans="1:2">
       <c r="A159" s="2">
-        <v>46048.63541666666</v>
+        <v>46049.63541666666</v>
       </c>
       <c r="B159">
         <v>0</v>
@@ -1661,7 +1661,7 @@
     </row>
     <row r="160" spans="1:2">
       <c r="A160" s="2">
-        <v>46048.64583333334</v>
+        <v>46049.64583333334</v>
       </c>
       <c r="B160">
         <v>0</v>
@@ -1669,7 +1669,7 @@
     </row>
     <row r="161" spans="1:2">
       <c r="A161" s="2">
-        <v>46048.65625</v>
+        <v>46049.65625</v>
       </c>
       <c r="B161">
         <v>0</v>
@@ -1677,7 +1677,7 @@
     </row>
     <row r="162" spans="1:2">
       <c r="A162" s="2">
-        <v>46048.66666666666</v>
+        <v>46049.66666666666</v>
       </c>
       <c r="B162">
         <v>0</v>
@@ -1685,7 +1685,7 @@
     </row>
     <row r="163" spans="1:2">
       <c r="A163" s="2">
-        <v>46048.67708333334</v>
+        <v>46049.67708333334</v>
       </c>
       <c r="B163">
         <v>0</v>
@@ -1693,7 +1693,7 @@
     </row>
     <row r="164" spans="1:2">
       <c r="A164" s="2">
-        <v>46048.6875</v>
+        <v>46049.6875</v>
       </c>
       <c r="B164">
         <v>0</v>
@@ -1701,7 +1701,7 @@
     </row>
     <row r="165" spans="1:2">
       <c r="A165" s="2">
-        <v>46048.69791666666</v>
+        <v>46049.69791666666</v>
       </c>
       <c r="B165">
         <v>0</v>
@@ -1709,7 +1709,7 @@
     </row>
     <row r="166" spans="1:2">
       <c r="A166" s="2">
-        <v>46048.70833333334</v>
+        <v>46049.70833333334</v>
       </c>
       <c r="B166">
         <v>0</v>
@@ -1717,7 +1717,7 @@
     </row>
     <row r="167" spans="1:2">
       <c r="A167" s="2">
-        <v>46048.71875</v>
+        <v>46049.71875</v>
       </c>
       <c r="B167">
         <v>0</v>
@@ -1725,7 +1725,7 @@
     </row>
     <row r="168" spans="1:2">
       <c r="A168" s="2">
-        <v>46048.72916666666</v>
+        <v>46049.72916666666</v>
       </c>
       <c r="B168">
         <v>0</v>
@@ -1733,7 +1733,7 @@
     </row>
     <row r="169" spans="1:2">
       <c r="A169" s="2">
-        <v>46048.73958333334</v>
+        <v>46049.73958333334</v>
       </c>
       <c r="B169">
         <v>0</v>
@@ -1741,7 +1741,7 @@
     </row>
     <row r="170" spans="1:2">
       <c r="A170" s="2">
-        <v>46048.75</v>
+        <v>46049.75</v>
       </c>
       <c r="B170">
         <v>0</v>
@@ -1749,7 +1749,7 @@
     </row>
     <row r="171" spans="1:2">
       <c r="A171" s="2">
-        <v>46048.76041666666</v>
+        <v>46049.76041666666</v>
       </c>
       <c r="B171">
         <v>0</v>
@@ -1757,7 +1757,7 @@
     </row>
     <row r="172" spans="1:2">
       <c r="A172" s="2">
-        <v>46048.77083333334</v>
+        <v>46049.77083333334</v>
       </c>
       <c r="B172">
         <v>0</v>
@@ -1765,7 +1765,7 @@
     </row>
     <row r="173" spans="1:2">
       <c r="A173" s="2">
-        <v>46048.78125</v>
+        <v>46049.78125</v>
       </c>
       <c r="B173">
         <v>0</v>
@@ -1773,7 +1773,7 @@
     </row>
     <row r="174" spans="1:2">
       <c r="A174" s="2">
-        <v>46048.79166666666</v>
+        <v>46049.79166666666</v>
       </c>
       <c r="B174">
         <v>0</v>
@@ -1781,7 +1781,7 @@
     </row>
     <row r="175" spans="1:2">
       <c r="A175" s="2">
-        <v>46048.80208333334</v>
+        <v>46049.80208333334</v>
       </c>
       <c r="B175">
         <v>0</v>
@@ -1789,7 +1789,7 @@
     </row>
     <row r="176" spans="1:2">
       <c r="A176" s="2">
-        <v>46048.8125</v>
+        <v>46049.8125</v>
       </c>
       <c r="B176">
         <v>0</v>
@@ -1797,7 +1797,7 @@
     </row>
     <row r="177" spans="1:2">
       <c r="A177" s="2">
-        <v>46048.82291666666</v>
+        <v>46049.82291666666</v>
       </c>
       <c r="B177">
         <v>0</v>
@@ -1805,7 +1805,7 @@
     </row>
     <row r="178" spans="1:2">
       <c r="A178" s="2">
-        <v>46048.83333333334</v>
+        <v>46049.83333333334</v>
       </c>
       <c r="B178">
         <v>0</v>
@@ -1813,7 +1813,7 @@
     </row>
     <row r="179" spans="1:2">
       <c r="A179" s="2">
-        <v>46048.84375</v>
+        <v>46049.84375</v>
       </c>
       <c r="B179">
         <v>0</v>
@@ -1821,7 +1821,7 @@
     </row>
     <row r="180" spans="1:2">
       <c r="A180" s="2">
-        <v>46048.85416666666</v>
+        <v>46049.85416666666</v>
       </c>
       <c r="B180">
         <v>0</v>
@@ -1829,7 +1829,7 @@
     </row>
     <row r="181" spans="1:2">
       <c r="A181" s="2">
-        <v>46048.86458333334</v>
+        <v>46049.86458333334</v>
       </c>
       <c r="B181">
         <v>0</v>
@@ -1837,7 +1837,7 @@
     </row>
     <row r="182" spans="1:2">
       <c r="A182" s="2">
-        <v>46048.875</v>
+        <v>46049.875</v>
       </c>
       <c r="B182">
         <v>0</v>
@@ -1845,7 +1845,7 @@
     </row>
     <row r="183" spans="1:2">
       <c r="A183" s="2">
-        <v>46048.88541666666</v>
+        <v>46049.88541666666</v>
       </c>
       <c r="B183">
         <v>0</v>
@@ -1853,7 +1853,7 @@
     </row>
     <row r="184" spans="1:2">
       <c r="A184" s="2">
-        <v>46048.89583333334</v>
+        <v>46049.89583333334</v>
       </c>
       <c r="B184">
         <v>0</v>
@@ -1861,7 +1861,7 @@
     </row>
     <row r="185" spans="1:2">
       <c r="A185" s="2">
-        <v>46048.90625</v>
+        <v>46049.90625</v>
       </c>
       <c r="B185">
         <v>0</v>
@@ -1869,7 +1869,7 @@
     </row>
     <row r="186" spans="1:2">
       <c r="A186" s="2">
-        <v>46048.91666666666</v>
+        <v>46049.91666666666</v>
       </c>
       <c r="B186">
         <v>0</v>
@@ -1877,7 +1877,7 @@
     </row>
     <row r="187" spans="1:2">
       <c r="A187" s="2">
-        <v>46048.92708333334</v>
+        <v>46049.92708333334</v>
       </c>
       <c r="B187">
         <v>0</v>
@@ -1885,7 +1885,7 @@
     </row>
     <row r="188" spans="1:2">
       <c r="A188" s="2">
-        <v>46048.9375</v>
+        <v>46049.9375</v>
       </c>
       <c r="B188">
         <v>0</v>
@@ -1893,7 +1893,7 @@
     </row>
     <row r="189" spans="1:2">
       <c r="A189" s="2">
-        <v>46048.94791666666</v>
+        <v>46049.94791666666</v>
       </c>
       <c r="B189">
         <v>0</v>
@@ -1901,7 +1901,7 @@
     </row>
     <row r="190" spans="1:2">
       <c r="A190" s="2">
-        <v>46048.95833333334</v>
+        <v>46049.95833333334</v>
       </c>
       <c r="B190">
         <v>0</v>
@@ -1909,7 +1909,7 @@
     </row>
     <row r="191" spans="1:2">
       <c r="A191" s="2">
-        <v>46048.96875</v>
+        <v>46049.96875</v>
       </c>
       <c r="B191">
         <v>0</v>
@@ -1917,7 +1917,7 @@
     </row>
     <row r="192" spans="1:2">
       <c r="A192" s="2">
-        <v>46048.97916666666</v>
+        <v>46049.97916666666</v>
       </c>
       <c r="B192">
         <v>0</v>
@@ -1925,7 +1925,7 @@
     </row>
     <row r="193" spans="1:2">
       <c r="A193" s="2">
-        <v>46048.98958333334</v>
+        <v>46049.98958333334</v>
       </c>
       <c r="B193">
         <v>0</v>

--- a/data_fetching/Entsoe/Actual_Production_Hydro_Water_Reservoir.xlsx
+++ b/data_fetching/Entsoe/Actual_Production_Hydro_Water_Reservoir.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B193"/>
+  <dimension ref="A1:B769"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -397,1537 +397,6145 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2">
-        <v>46048</v>
+        <v>46049</v>
       </c>
       <c r="B2">
-        <v>455</v>
+        <v>369</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2">
-        <v>46048.01041666666</v>
+        <v>46049.01041666666</v>
       </c>
       <c r="B3">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2">
-        <v>46048.02083333334</v>
+        <v>46049.02083333334</v>
       </c>
       <c r="B4">
-        <v>381</v>
+        <v>350</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2">
-        <v>46048.03125</v>
+        <v>46049.03125</v>
       </c>
       <c r="B5">
-        <v>379</v>
+        <v>344</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2">
-        <v>46048.04166666666</v>
+        <v>46049.04166666666</v>
       </c>
       <c r="B6">
-        <v>382</v>
+        <v>368</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2">
-        <v>46048.05208333334</v>
+        <v>46049.05208333334</v>
       </c>
       <c r="B7">
-        <v>380</v>
+        <v>366</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2">
-        <v>46048.0625</v>
+        <v>46049.0625</v>
       </c>
       <c r="B8">
-        <v>383</v>
+        <v>368</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2">
-        <v>46048.07291666666</v>
+        <v>46049.07291666666</v>
       </c>
       <c r="B9">
-        <v>380</v>
+        <v>365</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2">
-        <v>46048.08333333334</v>
+        <v>46049.08333333334</v>
       </c>
       <c r="B10">
-        <v>435</v>
+        <v>370</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2">
-        <v>46048.09375</v>
+        <v>46049.09375</v>
       </c>
       <c r="B11">
-        <v>433</v>
+        <v>368</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2">
-        <v>46048.10416666666</v>
+        <v>46049.10416666666</v>
       </c>
       <c r="B12">
-        <v>436</v>
+        <v>300</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2">
-        <v>46048.11458333334</v>
+        <v>46049.11458333334</v>
       </c>
       <c r="B13">
-        <v>434</v>
+        <v>274</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2">
-        <v>46048.125</v>
+        <v>46049.125</v>
       </c>
       <c r="B14">
-        <v>422</v>
+        <v>252</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2">
-        <v>46048.13541666666</v>
+        <v>46049.13541666666</v>
       </c>
       <c r="B15">
-        <v>383</v>
+        <v>244</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2">
-        <v>46048.14583333334</v>
+        <v>46049.14583333334</v>
       </c>
       <c r="B16">
-        <v>382</v>
+        <v>248</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2">
-        <v>46048.15625</v>
+        <v>46049.15625</v>
       </c>
       <c r="B17">
-        <v>385</v>
+        <v>251</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2">
-        <v>46048.16666666666</v>
+        <v>46049.16666666666</v>
       </c>
       <c r="B18">
-        <v>391</v>
+        <v>257</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2">
-        <v>46048.17708333334</v>
+        <v>46049.17708333334</v>
       </c>
       <c r="B19">
-        <v>393</v>
+        <v>255</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2">
-        <v>46048.1875</v>
+        <v>46049.1875</v>
       </c>
       <c r="B20">
-        <v>391</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2">
-        <v>46048.19791666666</v>
+        <v>46049.19791666666</v>
       </c>
       <c r="B21">
-        <v>394</v>
+        <v>263</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2">
-        <v>46048.20833333334</v>
+        <v>46049.20833333334</v>
       </c>
       <c r="B22">
-        <v>393</v>
+        <v>342</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2">
-        <v>46048.21875</v>
+        <v>46049.21875</v>
       </c>
       <c r="B23">
-        <v>396</v>
+        <v>375</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2">
-        <v>46048.22916666666</v>
+        <v>46049.22916666666</v>
       </c>
       <c r="B24">
-        <v>397</v>
+        <v>392</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2">
-        <v>46048.23958333334</v>
+        <v>46049.23958333334</v>
       </c>
       <c r="B25">
-        <v>423</v>
+        <v>399</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2">
-        <v>46048.25</v>
+        <v>46049.25</v>
       </c>
       <c r="B26">
-        <v>692</v>
+        <v>403</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2">
-        <v>46048.26041666666</v>
+        <v>46049.26041666666</v>
       </c>
       <c r="B27">
-        <v>755</v>
+        <v>396</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2">
-        <v>46048.27083333334</v>
+        <v>46049.27083333334</v>
       </c>
       <c r="B28">
-        <v>834</v>
+        <v>399</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2">
-        <v>46048.28125</v>
+        <v>46049.28125</v>
       </c>
       <c r="B29">
-        <v>832</v>
+        <v>442</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2">
-        <v>46048.29166666666</v>
+        <v>46049.29166666666</v>
       </c>
       <c r="B30">
-        <v>923</v>
+        <v>760</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2">
-        <v>46048.30208333334</v>
+        <v>46049.30208333334</v>
       </c>
       <c r="B31">
-        <v>785</v>
+        <v>770</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2">
-        <v>46048.3125</v>
+        <v>46049.3125</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>767</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2">
-        <v>46048.32291666666</v>
+        <v>46049.32291666666</v>
       </c>
       <c r="B33">
-        <v>786</v>
+        <v>755</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2">
-        <v>46048.33333333334</v>
+        <v>46049.33333333334</v>
       </c>
       <c r="B34">
-        <v>0</v>
+        <v>789</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="2">
-        <v>46048.34375</v>
+        <v>46049.34375</v>
       </c>
       <c r="B35">
-        <v>785</v>
+        <v>791</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="2">
-        <v>46048.35416666666</v>
+        <v>46049.35416666666</v>
       </c>
       <c r="B36">
-        <v>788</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="2">
-        <v>46048.36458333334</v>
+        <v>46049.36458333334</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>785</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="2">
-        <v>46048.375</v>
+        <v>46049.375</v>
       </c>
       <c r="B38">
-        <v>747</v>
+        <v>637</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="2">
-        <v>46048.38541666666</v>
+        <v>46049.38541666666</v>
       </c>
       <c r="B39">
-        <v>814</v>
+        <v>636</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="2">
-        <v>46048.39583333334</v>
+        <v>46049.39583333334</v>
       </c>
       <c r="B40">
-        <v>824</v>
+        <v>635</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="2">
-        <v>46048.40625</v>
+        <v>46049.40625</v>
       </c>
       <c r="B41">
-        <v>887</v>
+        <v>633</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="2">
-        <v>46048.41666666666</v>
+        <v>46049.41666666666</v>
       </c>
       <c r="B42">
-        <v>871</v>
+        <v>600</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="2">
-        <v>46048.42708333334</v>
+        <v>46049.42708333334</v>
       </c>
       <c r="B43">
-        <v>858</v>
+        <v>599</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="2">
-        <v>46048.4375</v>
+        <v>46049.4375</v>
       </c>
       <c r="B44">
-        <v>848</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="2">
-        <v>46048.44791666666</v>
+        <v>46049.44791666666</v>
       </c>
       <c r="B45">
-        <v>846</v>
+        <v>595</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="2">
-        <v>46048.45833333334</v>
+        <v>46049.45833333334</v>
       </c>
       <c r="B46">
-        <v>882</v>
+        <v>521</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="2">
-        <v>46048.46875</v>
+        <v>46049.46875</v>
       </c>
       <c r="B47">
-        <v>896</v>
+        <v>503</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="2">
-        <v>46048.47916666666</v>
+        <v>46049.47916666666</v>
       </c>
       <c r="B48">
-        <v>894</v>
+        <v>500</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="2">
-        <v>46048.48958333334</v>
+        <v>46049.48958333334</v>
       </c>
       <c r="B49">
-        <v>816</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="2">
-        <v>46048.5</v>
+        <v>46049.5</v>
       </c>
       <c r="B50">
-        <v>655</v>
+        <v>552</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="2">
-        <v>46048.51041666666</v>
+        <v>46049.51041666666</v>
       </c>
       <c r="B51">
-        <v>647</v>
+        <v>561</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="2">
-        <v>46048.52083333334</v>
+        <v>46049.52083333334</v>
       </c>
       <c r="B52">
-        <v>622</v>
+        <v>566</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="2">
-        <v>46048.53125</v>
+        <v>46049.53125</v>
       </c>
       <c r="B53">
-        <v>638</v>
+        <v>569</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="2">
-        <v>46048.54166666666</v>
+        <v>46049.54166666666</v>
       </c>
       <c r="B54">
-        <v>726</v>
+        <v>481</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="2">
-        <v>46048.55208333334</v>
+        <v>46049.55208333334</v>
       </c>
       <c r="B55">
-        <v>721</v>
+        <v>473</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="2">
-        <v>46048.5625</v>
+        <v>46049.5625</v>
       </c>
       <c r="B56">
-        <v>720</v>
+        <v>471</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="2">
-        <v>46048.57291666666</v>
+        <v>46049.57291666666</v>
       </c>
       <c r="B57">
-        <v>719</v>
+        <v>470</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="2">
-        <v>46048.58333333334</v>
+        <v>46049.58333333334</v>
       </c>
       <c r="B58">
-        <v>794</v>
+        <v>471</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="2">
-        <v>46048.59375</v>
+        <v>46049.59375</v>
       </c>
       <c r="B59">
-        <v>787</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="2">
-        <v>46048.60416666666</v>
+        <v>46049.60416666666</v>
       </c>
       <c r="B60">
-        <v>790</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="2">
-        <v>46048.61458333334</v>
+        <v>46049.61458333334</v>
       </c>
       <c r="B61">
-        <v>710</v>
+        <v>466</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="2">
-        <v>46048.625</v>
+        <v>46049.625</v>
       </c>
       <c r="B62">
-        <v>789</v>
+        <v>574</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="2">
-        <v>46048.63541666666</v>
+        <v>46049.63541666666</v>
       </c>
       <c r="B63">
-        <v>785</v>
+        <v>589</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="2">
-        <v>46048.64583333334</v>
+        <v>46049.64583333334</v>
       </c>
       <c r="B64">
-        <v>763</v>
+        <v>586</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="2">
-        <v>46048.65625</v>
+        <v>46049.65625</v>
       </c>
       <c r="B65">
-        <v>773</v>
+        <v>583</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="2">
-        <v>46048.66666666666</v>
+        <v>46049.66666666666</v>
       </c>
       <c r="B66">
-        <v>796</v>
+        <v>553</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="2">
-        <v>46048.67708333334</v>
+        <v>46049.67708333334</v>
       </c>
       <c r="B67">
-        <v>801</v>
+        <v>562</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="2">
-        <v>46048.6875</v>
+        <v>46049.6875</v>
       </c>
       <c r="B68">
-        <v>1030</v>
+        <v>561</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="2">
-        <v>46048.69791666666</v>
+        <v>46049.69791666666</v>
       </c>
       <c r="B69">
-        <v>998</v>
+        <v>580</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="2">
-        <v>46048.70833333334</v>
+        <v>46049.70833333334</v>
       </c>
       <c r="B70">
-        <v>934</v>
+        <v>661</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="2">
-        <v>46048.71875</v>
+        <v>46049.71875</v>
       </c>
       <c r="B71">
-        <v>924</v>
+        <v>659</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="2">
-        <v>46048.72916666666</v>
+        <v>46049.72916666666</v>
       </c>
       <c r="B72">
-        <v>954</v>
+        <v>656</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="2">
-        <v>46048.73958333334</v>
+        <v>46049.73958333334</v>
       </c>
       <c r="B73">
-        <v>960</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="2">
-        <v>46048.75</v>
+        <v>46049.75</v>
       </c>
       <c r="B74">
-        <v>865</v>
+        <v>679</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="2">
-        <v>46048.76041666666</v>
+        <v>46049.76041666666</v>
       </c>
       <c r="B75">
-        <v>864</v>
+        <v>677</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="2">
-        <v>46048.77083333334</v>
+        <v>46049.77083333334</v>
       </c>
       <c r="B76">
-        <v>0</v>
+        <v>683</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="2">
-        <v>46048.78125</v>
+        <v>46049.78125</v>
       </c>
       <c r="B77">
-        <v>865</v>
+        <v>679</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="2">
-        <v>46048.79166666666</v>
+        <v>46049.79166666666</v>
       </c>
       <c r="B78">
-        <v>842</v>
+        <v>649</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="2">
-        <v>46048.80208333334</v>
+        <v>46049.80208333334</v>
       </c>
       <c r="B79">
-        <v>840</v>
+        <v>628</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="2">
-        <v>46048.8125</v>
+        <v>46049.8125</v>
       </c>
       <c r="B80">
-        <v>844</v>
+        <v>650</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="2">
-        <v>46048.82291666666</v>
+        <v>46049.82291666666</v>
       </c>
       <c r="B81">
-        <v>837</v>
+        <v>633</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="2">
-        <v>46048.83333333334</v>
+        <v>46049.83333333334</v>
       </c>
       <c r="B82">
-        <v>693</v>
+        <v>608</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="2">
-        <v>46048.84375</v>
+        <v>46049.84375</v>
       </c>
       <c r="B83">
-        <v>689</v>
+        <v>586</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="2">
-        <v>46048.85416666666</v>
+        <v>46049.85416666666</v>
       </c>
       <c r="B84">
-        <v>692</v>
+        <v>582</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="2">
-        <v>46048.86458333334</v>
+        <v>46049.86458333334</v>
       </c>
       <c r="B85">
-        <v>685</v>
+        <v>577</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="2">
-        <v>46048.875</v>
+        <v>46049.875</v>
       </c>
       <c r="B86">
-        <v>606</v>
+        <v>442</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="2">
-        <v>46048.88541666666</v>
+        <v>46049.88541666666</v>
       </c>
       <c r="B87">
-        <v>597</v>
+        <v>436</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="2">
-        <v>46048.89583333334</v>
+        <v>46049.89583333334</v>
       </c>
       <c r="B88">
-        <v>595</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="2">
-        <v>46048.90625</v>
+        <v>46049.90625</v>
       </c>
       <c r="B89">
-        <v>588</v>
+        <v>435</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="2">
-        <v>46048.91666666666</v>
+        <v>46049.91666666666</v>
       </c>
       <c r="B90">
-        <v>418</v>
+        <v>426</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="2">
-        <v>46048.92708333334</v>
+        <v>46049.92708333334</v>
       </c>
       <c r="B91">
-        <v>414</v>
+        <v>410</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="2">
-        <v>46048.9375</v>
+        <v>46049.9375</v>
       </c>
       <c r="B92">
-        <v>416</v>
+        <v>409</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="2">
-        <v>46048.94791666666</v>
+        <v>46049.94791666666</v>
       </c>
       <c r="B93">
-        <v>412</v>
+        <v>407</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="2">
-        <v>46048.95833333334</v>
+        <v>46049.95833333334</v>
       </c>
       <c r="B94">
-        <v>371</v>
+        <v>409</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="2">
-        <v>46048.96875</v>
+        <v>46049.96875</v>
       </c>
       <c r="B95">
-        <v>366</v>
+        <v>407</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="2">
-        <v>46048.97916666666</v>
+        <v>46049.97916666666</v>
       </c>
       <c r="B96">
-        <v>363</v>
+        <v>406</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="2">
-        <v>46048.98958333334</v>
+        <v>46049.98958333334</v>
       </c>
       <c r="B97">
-        <v>361</v>
+        <v>404</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" s="2">
-        <v>46049</v>
+        <v>46050</v>
       </c>
       <c r="B98">
-        <v>369</v>
+        <v>415</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" s="2">
-        <v>46049.01041666666</v>
+        <v>46050.01041666666</v>
       </c>
       <c r="B99">
-        <v>365</v>
+        <v>406</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" s="2">
-        <v>46049.02083333334</v>
+        <v>46050.02083333334</v>
       </c>
       <c r="B100">
-        <v>350</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" s="2">
-        <v>46049.03125</v>
+        <v>46050.03125</v>
       </c>
       <c r="B101">
-        <v>344</v>
+        <v>413</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" s="2">
-        <v>46049.04166666666</v>
+        <v>46050.04166666666</v>
       </c>
       <c r="B102">
-        <v>368</v>
+        <v>408</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" s="2">
-        <v>46049.05208333334</v>
+        <v>46050.05208333334</v>
       </c>
       <c r="B103">
-        <v>366</v>
+        <v>403</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" s="2">
-        <v>46049.0625</v>
+        <v>46050.0625</v>
       </c>
       <c r="B104">
-        <v>368</v>
+        <v>406</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" s="2">
-        <v>46049.07291666666</v>
+        <v>46050.07291666666</v>
       </c>
       <c r="B105">
-        <v>365</v>
+        <v>403</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" s="2">
-        <v>46049.08333333334</v>
+        <v>46050.08333333334</v>
       </c>
       <c r="B106">
-        <v>370</v>
+        <v>407</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" s="2">
-        <v>46049.09375</v>
+        <v>46050.09375</v>
       </c>
       <c r="B107">
-        <v>368</v>
+        <v>403</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" s="2">
-        <v>46049.10416666666</v>
+        <v>46050.10416666666</v>
       </c>
       <c r="B108">
-        <v>300</v>
+        <v>405</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" s="2">
-        <v>46049.11458333334</v>
+        <v>46050.11458333334</v>
       </c>
       <c r="B109">
-        <v>274</v>
+        <v>403</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" s="2">
-        <v>46049.125</v>
+        <v>46050.125</v>
       </c>
       <c r="B110">
-        <v>252</v>
+        <v>395</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" s="2">
-        <v>46049.13541666666</v>
+        <v>46050.13541666666</v>
       </c>
       <c r="B111">
-        <v>244</v>
+        <v>388</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112" s="2">
-        <v>46049.14583333334</v>
+        <v>46050.14583333334</v>
       </c>
       <c r="B112">
-        <v>248</v>
+        <v>390</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" s="2">
-        <v>46049.15625</v>
+        <v>46050.15625</v>
       </c>
       <c r="B113">
-        <v>251</v>
+        <v>389</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" s="2">
-        <v>46049.16666666666</v>
+        <v>46050.16666666666</v>
       </c>
       <c r="B114">
-        <v>257</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" s="2">
-        <v>46049.17708333334</v>
+        <v>46050.17708333334</v>
       </c>
       <c r="B115">
-        <v>255</v>
+        <v>388</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" s="2">
-        <v>46049.1875</v>
+        <v>46050.1875</v>
       </c>
       <c r="B116">
-        <v>0</v>
+        <v>391</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117" s="2">
-        <v>46049.19791666666</v>
+        <v>46050.19791666666</v>
       </c>
       <c r="B117">
-        <v>263</v>
+        <v>394</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" s="2">
-        <v>46049.20833333334</v>
+        <v>46050.20833333334</v>
       </c>
       <c r="B118">
-        <v>342</v>
+        <v>440</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" s="2">
-        <v>46049.21875</v>
+        <v>46050.21875</v>
       </c>
       <c r="B119">
-        <v>375</v>
+        <v>437</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" s="2">
-        <v>46049.22916666666</v>
+        <v>46050.22916666666</v>
       </c>
       <c r="B120">
-        <v>392</v>
+        <v>442</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" s="2">
-        <v>46049.23958333334</v>
+        <v>46050.23958333334</v>
       </c>
       <c r="B121">
-        <v>399</v>
+        <v>450</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" s="2">
-        <v>46049.25</v>
+        <v>46050.25</v>
       </c>
       <c r="B122">
-        <v>403</v>
+        <v>560</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123" s="2">
-        <v>46049.26041666666</v>
+        <v>46050.26041666666</v>
       </c>
       <c r="B123">
-        <v>396</v>
+        <v>564</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" s="2">
-        <v>46049.27083333334</v>
+        <v>46050.27083333334</v>
       </c>
       <c r="B124">
-        <v>399</v>
+        <v>567</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" s="2">
-        <v>46049.28125</v>
+        <v>46050.28125</v>
       </c>
       <c r="B125">
-        <v>442</v>
+        <v>570</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" s="2">
-        <v>46049.29166666666</v>
+        <v>46050.29166666666</v>
       </c>
       <c r="B126">
-        <v>760</v>
+        <v>647</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127" s="2">
-        <v>46049.30208333334</v>
+        <v>46050.30208333334</v>
       </c>
       <c r="B127">
-        <v>770</v>
+        <v>643</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128" s="2">
-        <v>46049.3125</v>
+        <v>46050.3125</v>
       </c>
       <c r="B128">
-        <v>767</v>
+        <v>634</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" s="2">
-        <v>46049.32291666666</v>
+        <v>46050.32291666666</v>
       </c>
       <c r="B129">
-        <v>755</v>
+        <v>632</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" s="2">
-        <v>46049.33333333334</v>
+        <v>46050.33333333334</v>
       </c>
       <c r="B130">
-        <v>789</v>
+        <v>604</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" s="2">
-        <v>46049.34375</v>
+        <v>46050.34375</v>
       </c>
       <c r="B131">
-        <v>791</v>
+        <v>602</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132" s="2">
-        <v>46049.35416666666</v>
+        <v>46050.35416666666</v>
       </c>
       <c r="B132">
-        <v>0</v>
+        <v>603</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" s="2">
-        <v>46049.36458333334</v>
+        <v>46050.36458333334</v>
       </c>
       <c r="B133">
-        <v>785</v>
+        <v>611</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134" s="2">
-        <v>46049.375</v>
+        <v>46050.375</v>
       </c>
       <c r="B134">
-        <v>637</v>
+        <v>604</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135" s="2">
-        <v>46049.38541666666</v>
+        <v>46050.38541666666</v>
       </c>
       <c r="B135">
-        <v>636</v>
+        <v>605</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136" s="2">
-        <v>46049.39583333334</v>
+        <v>46050.39583333334</v>
       </c>
       <c r="B136">
-        <v>635</v>
+        <v>606</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137" s="2">
-        <v>46049.40625</v>
+        <v>46050.40625</v>
       </c>
       <c r="B137">
-        <v>633</v>
+        <v>614</v>
       </c>
     </row>
     <row r="138" spans="1:2">
       <c r="A138" s="2">
-        <v>46049.41666666666</v>
+        <v>46050.41666666666</v>
       </c>
       <c r="B138">
-        <v>600</v>
+        <v>588</v>
       </c>
     </row>
     <row r="139" spans="1:2">
       <c r="A139" s="2">
-        <v>46049.42708333334</v>
+        <v>46050.42708333334</v>
       </c>
       <c r="B139">
-        <v>599</v>
+        <v>583</v>
       </c>
     </row>
     <row r="140" spans="1:2">
       <c r="A140" s="2">
-        <v>46049.4375</v>
+        <v>46050.4375</v>
       </c>
       <c r="B140">
-        <v>0</v>
+        <v>584</v>
       </c>
     </row>
     <row r="141" spans="1:2">
       <c r="A141" s="2">
-        <v>46049.44791666666</v>
+        <v>46050.44791666666</v>
       </c>
       <c r="B141">
-        <v>0</v>
+        <v>583</v>
       </c>
     </row>
     <row r="142" spans="1:2">
       <c r="A142" s="2">
-        <v>46049.45833333334</v>
+        <v>46050.45833333334</v>
       </c>
       <c r="B142">
-        <v>0</v>
+        <v>464</v>
       </c>
     </row>
     <row r="143" spans="1:2">
       <c r="A143" s="2">
-        <v>46049.46875</v>
+        <v>46050.46875</v>
       </c>
       <c r="B143">
-        <v>0</v>
+        <v>458</v>
       </c>
     </row>
     <row r="144" spans="1:2">
       <c r="A144" s="2">
-        <v>46049.47916666666</v>
+        <v>46050.47916666666</v>
       </c>
       <c r="B144">
-        <v>0</v>
+        <v>471</v>
       </c>
     </row>
     <row r="145" spans="1:2">
       <c r="A145" s="2">
-        <v>46049.48958333334</v>
+        <v>46050.48958333334</v>
       </c>
       <c r="B145">
-        <v>0</v>
+        <v>420</v>
       </c>
     </row>
     <row r="146" spans="1:2">
       <c r="A146" s="2">
-        <v>46049.5</v>
+        <v>46050.5</v>
       </c>
       <c r="B146">
-        <v>0</v>
+        <v>397</v>
       </c>
     </row>
     <row r="147" spans="1:2">
       <c r="A147" s="2">
-        <v>46049.51041666666</v>
+        <v>46050.51041666666</v>
       </c>
       <c r="B147">
-        <v>0</v>
+        <v>392</v>
       </c>
     </row>
     <row r="148" spans="1:2">
       <c r="A148" s="2">
-        <v>46049.52083333334</v>
+        <v>46050.52083333334</v>
       </c>
       <c r="B148">
-        <v>0</v>
+        <v>384</v>
       </c>
     </row>
     <row r="149" spans="1:2">
       <c r="A149" s="2">
-        <v>46049.53125</v>
+        <v>46050.53125</v>
       </c>
       <c r="B149">
-        <v>0</v>
+        <v>377</v>
       </c>
     </row>
     <row r="150" spans="1:2">
       <c r="A150" s="2">
-        <v>46049.54166666666</v>
+        <v>46050.54166666666</v>
       </c>
       <c r="B150">
-        <v>0</v>
+        <v>378</v>
       </c>
     </row>
     <row r="151" spans="1:2">
       <c r="A151" s="2">
-        <v>46049.55208333334</v>
+        <v>46050.55208333334</v>
       </c>
       <c r="B151">
-        <v>0</v>
+        <v>375</v>
       </c>
     </row>
     <row r="152" spans="1:2">
       <c r="A152" s="2">
-        <v>46049.5625</v>
+        <v>46050.5625</v>
       </c>
       <c r="B152">
-        <v>0</v>
+        <v>365</v>
       </c>
     </row>
     <row r="153" spans="1:2">
       <c r="A153" s="2">
-        <v>46049.57291666666</v>
+        <v>46050.57291666666</v>
       </c>
       <c r="B153">
-        <v>0</v>
+        <v>367</v>
       </c>
     </row>
     <row r="154" spans="1:2">
       <c r="A154" s="2">
-        <v>46049.58333333334</v>
+        <v>46050.58333333334</v>
       </c>
       <c r="B154">
-        <v>0</v>
+        <v>407</v>
       </c>
     </row>
     <row r="155" spans="1:2">
       <c r="A155" s="2">
-        <v>46049.59375</v>
+        <v>46050.59375</v>
       </c>
       <c r="B155">
-        <v>0</v>
+        <v>440</v>
       </c>
     </row>
     <row r="156" spans="1:2">
       <c r="A156" s="2">
-        <v>46049.60416666666</v>
+        <v>46050.60416666666</v>
       </c>
       <c r="B156">
-        <v>0</v>
+        <v>468</v>
       </c>
     </row>
     <row r="157" spans="1:2">
       <c r="A157" s="2">
-        <v>46049.61458333334</v>
+        <v>46050.61458333334</v>
       </c>
       <c r="B157">
-        <v>0</v>
+        <v>474</v>
       </c>
     </row>
     <row r="158" spans="1:2">
       <c r="A158" s="2">
-        <v>46049.625</v>
+        <v>46050.625</v>
       </c>
       <c r="B158">
-        <v>0</v>
+        <v>530</v>
       </c>
     </row>
     <row r="159" spans="1:2">
       <c r="A159" s="2">
-        <v>46049.63541666666</v>
+        <v>46050.63541666666</v>
       </c>
       <c r="B159">
-        <v>0</v>
+        <v>540</v>
       </c>
     </row>
     <row r="160" spans="1:2">
       <c r="A160" s="2">
-        <v>46049.64583333334</v>
+        <v>46050.64583333334</v>
       </c>
       <c r="B160">
-        <v>0</v>
+        <v>532</v>
       </c>
     </row>
     <row r="161" spans="1:2">
       <c r="A161" s="2">
-        <v>46049.65625</v>
+        <v>46050.65625</v>
       </c>
       <c r="B161">
-        <v>0</v>
+        <v>540</v>
       </c>
     </row>
     <row r="162" spans="1:2">
       <c r="A162" s="2">
-        <v>46049.66666666666</v>
+        <v>46050.66666666666</v>
       </c>
       <c r="B162">
-        <v>0</v>
+        <v>482</v>
       </c>
     </row>
     <row r="163" spans="1:2">
       <c r="A163" s="2">
-        <v>46049.67708333334</v>
+        <v>46050.67708333334</v>
       </c>
       <c r="B163">
-        <v>0</v>
+        <v>490</v>
       </c>
     </row>
     <row r="164" spans="1:2">
       <c r="A164" s="2">
-        <v>46049.6875</v>
+        <v>46050.6875</v>
       </c>
       <c r="B164">
-        <v>0</v>
+        <v>488</v>
       </c>
     </row>
     <row r="165" spans="1:2">
       <c r="A165" s="2">
-        <v>46049.69791666666</v>
+        <v>46050.69791666666</v>
       </c>
       <c r="B165">
-        <v>0</v>
+        <v>486</v>
       </c>
     </row>
     <row r="166" spans="1:2">
       <c r="A166" s="2">
-        <v>46049.70833333334</v>
+        <v>46050.70833333334</v>
       </c>
       <c r="B166">
-        <v>0</v>
+        <v>476</v>
       </c>
     </row>
     <row r="167" spans="1:2">
       <c r="A167" s="2">
-        <v>46049.71875</v>
+        <v>46050.71875</v>
       </c>
       <c r="B167">
-        <v>0</v>
+        <v>531</v>
       </c>
     </row>
     <row r="168" spans="1:2">
       <c r="A168" s="2">
-        <v>46049.72916666666</v>
+        <v>46050.72916666666</v>
       </c>
       <c r="B168">
-        <v>0</v>
+        <v>563</v>
       </c>
     </row>
     <row r="169" spans="1:2">
       <c r="A169" s="2">
-        <v>46049.73958333334</v>
+        <v>46050.73958333334</v>
       </c>
       <c r="B169">
-        <v>0</v>
+        <v>586</v>
       </c>
     </row>
     <row r="170" spans="1:2">
       <c r="A170" s="2">
-        <v>46049.75</v>
+        <v>46050.75</v>
       </c>
       <c r="B170">
-        <v>0</v>
+        <v>591</v>
       </c>
     </row>
   